--- a/lod_analysis/excels/tracks_full_evaluation.xlsx
+++ b/lod_analysis/excels/tracks_full_evaluation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="594">
   <si>
     <t>track_id</t>
   </si>
@@ -55,1582 +55,1747 @@
     <t>geonames_completeness</t>
   </si>
   <si>
-    <t>6sIbv1oWOuma2qV907MUbk</t>
-  </si>
-  <si>
-    <t>4vVzmaBsxXuKrJeMSLRF4y</t>
-  </si>
-  <si>
-    <t>56fiFTRrSiHHH3gBeaTg2P</t>
-  </si>
-  <si>
-    <t>4Q9uL0DWDcpCV1tE14xqnt</t>
-  </si>
-  <si>
-    <t>4GssB27iJeqmfGxS94Tfij</t>
-  </si>
-  <si>
-    <t>2GFwwTIVLjnOrtP7m9luHC</t>
-  </si>
-  <si>
-    <t>5sqQ123nZkPCD1GQPudIVN</t>
-  </si>
-  <si>
-    <t>3sHH7lklbfpcraDDvYnjo7</t>
-  </si>
-  <si>
-    <t>2gscB6kDOmrv1P6qs2KXE3</t>
-  </si>
-  <si>
-    <t>1qhcO9Akt1mP0Y54OSTX9w</t>
-  </si>
-  <si>
-    <t>1CFnHmGq4pZFadNvh9PSir</t>
-  </si>
-  <si>
-    <t>5wQnmLuC1W7ATsArWACrgW</t>
-  </si>
-  <si>
-    <t>779WN5O6INolMxc4RNBlnu</t>
-  </si>
-  <si>
-    <t>6xwak2gJxMwbLBEJVier7X</t>
-  </si>
-  <si>
-    <t>4iWYPj04kHXcZK0st5yzZf</t>
-  </si>
-  <si>
-    <t>7u93rCmIM9mBoT4mvfUBTZ</t>
-  </si>
-  <si>
-    <t>0ia5teQlWFa31i8PBlFIgj</t>
-  </si>
-  <si>
-    <t>6gZVQvQZOFpzIy3HblJ20F</t>
-  </si>
-  <si>
-    <t>5omWAB5iNMHvbAfBSzkdu8</t>
-  </si>
-  <si>
-    <t>3xXKwkmkrpZmGpIof83xbE</t>
-  </si>
-  <si>
-    <t>4LFBVDJV0xpayUvquQVzhS</t>
-  </si>
-  <si>
-    <t>7cPt6AnMcdZCqsNY9Lyhjk</t>
-  </si>
-  <si>
-    <t>0EYOdF5FCkgOJJla8DI2Md</t>
-  </si>
-  <si>
-    <t>5wWkvwX3xbyUJiK4CHDxq9</t>
-  </si>
-  <si>
-    <t>0Xq7FPQaLJgIHSB605YUMy</t>
-  </si>
-  <si>
-    <t>0vDBNWI0uXf7dNkiiX2P5z</t>
-  </si>
-  <si>
-    <t>1X34xjRBPeBVm2UNqL4KXO</t>
-  </si>
-  <si>
-    <t>6yvmELWfw8hQa2wQZZjMdK</t>
-  </si>
-  <si>
-    <t>2UDumaw7osnyjH7RZ2DLpB</t>
-  </si>
-  <si>
-    <t>1Ka4sX789wNftDGgjCO2h7</t>
-  </si>
-  <si>
-    <t>5K7RDuh2JihPUScuOB76Sq</t>
-  </si>
-  <si>
-    <t>2qIOlORAibicgvcVBv992k</t>
-  </si>
-  <si>
-    <t>7nErzYSlYWbf9oetHig5DZ</t>
-  </si>
-  <si>
-    <t>6OMO6WdRhSfjMPAiPT94wH</t>
-  </si>
-  <si>
-    <t>2UX142qmOCyLfen7Dmi5Xt</t>
-  </si>
-  <si>
-    <t>5tz5QsHPkv69T1scq2utZZ</t>
-  </si>
-  <si>
-    <t>47StfXJOnGLhYfMEWgoTiX</t>
-  </si>
-  <si>
-    <t>4wh0E9OwMCxcaIKTg0Mts9</t>
-  </si>
-  <si>
-    <t>1fnULsZuORnAgCFFbM8nTZ</t>
-  </si>
-  <si>
-    <t>3bq8WiQrEXMwPAibYs7tpu</t>
-  </si>
-  <si>
-    <t>0xz8svJMyVvYYJxrsYPi6A</t>
-  </si>
-  <si>
-    <t>1MTELuKDa4b8VOHF97ffuY</t>
-  </si>
-  <si>
-    <t>7yoBjKO6cCnK3zV8gr1k4e</t>
-  </si>
-  <si>
-    <t>0W9Xvd4Qx1aZPxEi94vgRY</t>
-  </si>
-  <si>
-    <t>5MuWGLrqeqYEcpqWMq5M1w</t>
-  </si>
-  <si>
-    <t>7jNf4cQOXGYqpsvm1iGsqP</t>
-  </si>
-  <si>
-    <t>6rUp7v3l8yC4TKxAAR5Bmx</t>
-  </si>
-  <si>
-    <t>0pQUfZl5GTLhqZWyv3okod</t>
-  </si>
-  <si>
-    <t>1Cj2vqUwlJVG27gJrun92y</t>
-  </si>
-  <si>
-    <t>0aYQsp1vZZcX0JBEJvKF7N</t>
-  </si>
-  <si>
-    <t>2Q7nzt6BXtuDdroqKOag3D</t>
-  </si>
-  <si>
-    <t>3H3nKeXkD84Us8t9IDbKua</t>
-  </si>
-  <si>
-    <t>1Q2fYlSdwuutWj3QplhY9q</t>
-  </si>
-  <si>
-    <t>0XNqkN0tn57270qeE5Shcf</t>
-  </si>
-  <si>
-    <t>3asFGFY3uLjMDmML1p0tYm</t>
-  </si>
-  <si>
-    <t>2L6RhTR6qCokZpVIi0Xf4y</t>
-  </si>
-  <si>
-    <t>51EmxIMMOFEY3G6REpX9Ze</t>
-  </si>
-  <si>
-    <t>5hheGdf1cb4rK0FNiedCfK</t>
-  </si>
-  <si>
-    <t>1KCAEG6JcsTzi8ddZzs0nk</t>
-  </si>
-  <si>
-    <t>7q096gH9G0OjuUduheqM4l</t>
-  </si>
-  <si>
-    <t>61mWefnWQOLf90gepjOCb3</t>
-  </si>
-  <si>
-    <t>3iWlbqAaoIR7H7gyO3a6rV</t>
-  </si>
-  <si>
-    <t>5Pm9uuEL0q6aXSRT3161UP</t>
-  </si>
-  <si>
-    <t>0jqblvsI9LBY4irmLVqqEO</t>
-  </si>
-  <si>
-    <t>0XT70Wk9pP8JZkmJhfntuL</t>
-  </si>
-  <si>
-    <t>49aRhw57RBNoj4uK3WbJLm</t>
-  </si>
-  <si>
-    <t>7zAt4tdL44D3VuzsvM0N8n</t>
-  </si>
-  <si>
-    <t>3a9urnht8HvfFzPwd0ipx6</t>
-  </si>
-  <si>
-    <t>0i8JFpqe9cKwnrcvoNgl1L</t>
-  </si>
-  <si>
-    <t>6JrHK494fKTg8X0PfOfA0l</t>
-  </si>
-  <si>
-    <t>7lmf92IBrDqdC5qPyK48YG</t>
-  </si>
-  <si>
-    <t>5PZ2cqh9Yem2g6cTSOLllz</t>
-  </si>
-  <si>
-    <t>3AoSuIey90cH9PI8HUoHOQ</t>
-  </si>
-  <si>
-    <t>0XGV1bem5W9ICY2rgleryV</t>
-  </si>
-  <si>
-    <t>6jg3Om6ZBMKlylforWGPEC</t>
-  </si>
-  <si>
-    <t>5BrxQCdse2b424hlurCvGz</t>
-  </si>
-  <si>
-    <t>3Q8zopc4ABXhysDb1sgLVW</t>
-  </si>
-  <si>
-    <t>0nkzd3yNniB767zSDDdLZ3</t>
-  </si>
-  <si>
-    <t>1FMm3wG5WOhi7js35KR7Ea</t>
-  </si>
-  <si>
-    <t>7piw04hPQZ1OHZ9Fq9JOXR</t>
-  </si>
-  <si>
-    <t>2HjgCn2M3oMHHOIBI8FWmS</t>
-  </si>
-  <si>
-    <t>5pRElcsPZrgZXkoON2o5Go</t>
-  </si>
-  <si>
-    <t>0lP4HYLmvowOKdsQ7CVkuq</t>
-  </si>
-  <si>
-    <t>76aadnUFFANRNDs6L3aqxw</t>
-  </si>
-  <si>
-    <t>0d2YnyIPgmPQqNSzDg8s8Q</t>
-  </si>
-  <si>
-    <t>3tfsh0cpBXkw0WeaJnDzzm</t>
-  </si>
-  <si>
-    <t>0COqiPhxzoWICwFCS4eZcp</t>
-  </si>
-  <si>
-    <t>5sG3G54H21hNfd5etlheoe</t>
-  </si>
-  <si>
-    <t>0UFDKFqW2oGspYeYqo9wjA</t>
-  </si>
-  <si>
-    <t>2D52zjCyqEIQa221lhw6uk</t>
-  </si>
-  <si>
-    <t>6FOpPA0a80RuBqqgDozvja</t>
-  </si>
-  <si>
-    <t>28IEbk5a7twNTbUEvWslUb</t>
-  </si>
-  <si>
-    <t>3WbphvawbMZ8FyqDxYGdSQ</t>
+    <t>2KfC6tJ8uVW1iY0wIHJttE</t>
+  </si>
+  <si>
+    <t>5nkYHBWXu7KCgcdwP6jcB1</t>
+  </si>
+  <si>
+    <t>4ZhPLoMzZwewHLLjV1J15c</t>
   </si>
   <si>
     <t>0gmbgwZ8iqyMPmXefof8Yf</t>
   </si>
   <si>
-    <t>7x8dCjCr0x6x2lXKujYD34</t>
-  </si>
-  <si>
-    <t>39sN48Q2DIbyVK8i8kkqgF</t>
-  </si>
-  <si>
-    <t>4IuKm1ySdaB7XJRXJIfAvY</t>
-  </si>
-  <si>
-    <t>0CwYG1UnRmOx8Q1EzElCIL</t>
-  </si>
-  <si>
-    <t>60a0Rd6pjrkxjPbaKzXjfq</t>
-  </si>
-  <si>
-    <t>4PkJ7c9y1CwpuVOiJODnCZ</t>
-  </si>
-  <si>
-    <t>1x1 (feat. Nova Twins)</t>
-  </si>
-  <si>
-    <t>Drag the Lake</t>
-  </si>
-  <si>
-    <t>Nero Forte</t>
-  </si>
-  <si>
-    <t>The Time Is Now</t>
-  </si>
-  <si>
-    <t>Popular Monster</t>
-  </si>
-  <si>
-    <t>Hurricane</t>
-  </si>
-  <si>
-    <t>They Don't Want What We Want (And They Don't Care)</t>
-  </si>
-  <si>
-    <t>Bat Country</t>
-  </si>
-  <si>
-    <t>Wait and Bleed</t>
-  </si>
-  <si>
-    <t>Jenny</t>
-  </si>
-  <si>
-    <t>Wash It All Away</t>
-  </si>
-  <si>
-    <t>Welcome to the Black Parade</t>
-  </si>
-  <si>
-    <t>Running With Giants</t>
-  </si>
-  <si>
-    <t>White Rabbit</t>
-  </si>
-  <si>
-    <t>Courtesy Call</t>
-  </si>
-  <si>
-    <t>Had Enough</t>
-  </si>
-  <si>
-    <t>Mr. MTV</t>
-  </si>
-  <si>
-    <t>Man in the Box</t>
-  </si>
-  <si>
-    <t>You're Going Down</t>
-  </si>
-  <si>
-    <t>So Cold</t>
-  </si>
-  <si>
-    <t>Cut the Cord</t>
-  </si>
-  <si>
-    <t>Voodoo</t>
-  </si>
-  <si>
-    <t>B.Y.O.B.</t>
-  </si>
-  <si>
-    <t>Stars</t>
-  </si>
-  <si>
-    <t>Sweet Dreams (Are Made Of This)</t>
-  </si>
-  <si>
-    <t>Let Me Live My Life</t>
-  </si>
-  <si>
-    <t>This Is The Time (Ballast)</t>
-  </si>
-  <si>
-    <t>Lightning In The Sky</t>
-  </si>
-  <si>
-    <t>I Am Machine</t>
-  </si>
-  <si>
-    <t>Falling Apart</t>
-  </si>
-  <si>
-    <t>Face Everything And Rise</t>
-  </si>
-  <si>
-    <t>Still Swingin'</t>
-  </si>
-  <si>
-    <t>Wrong Side Of Heaven</t>
-  </si>
-  <si>
-    <t>Painkiller</t>
-  </si>
-  <si>
-    <t>Through It All</t>
-  </si>
-  <si>
-    <t>The Vengeful One</t>
-  </si>
-  <si>
-    <t>Footsteps</t>
-  </si>
-  <si>
-    <t>Failure</t>
-  </si>
-  <si>
-    <t>State of My Head</t>
-  </si>
-  <si>
-    <t>Nobody Praying For Me</t>
-  </si>
-  <si>
-    <t>My Demons</t>
-  </si>
-  <si>
-    <t>The Light</t>
-  </si>
-  <si>
-    <t>Lydia</t>
-  </si>
-  <si>
-    <t>Sound of Madness</t>
-  </si>
-  <si>
-    <t>I Won't Give In</t>
-  </si>
-  <si>
-    <t>Emotionless</t>
-  </si>
-  <si>
-    <t>I Hate Everything About You</t>
-  </si>
-  <si>
-    <t>Blank Space</t>
-  </si>
-  <si>
-    <t>The Sound of Silence</t>
-  </si>
-  <si>
-    <t>Words As Weapons</t>
-  </si>
-  <si>
-    <t>Human</t>
-  </si>
-  <si>
-    <t>Bad Company</t>
-  </si>
-  <si>
-    <t>Riot</t>
-  </si>
-  <si>
-    <t>Take It All</t>
-  </si>
-  <si>
-    <t>Savior</t>
-  </si>
-  <si>
-    <t>The Eagle has Landed</t>
-  </si>
-  <si>
-    <t>House Of The Rising Sun</t>
-  </si>
-  <si>
-    <t>The Devil in I</t>
-  </si>
-  <si>
-    <t>You Want a Battle? (Here's a War)</t>
-  </si>
-  <si>
-    <t>Human Race</t>
-  </si>
-  <si>
-    <t>Duality</t>
-  </si>
-  <si>
-    <t>Tears Don't Fall</t>
-  </si>
-  <si>
-    <t>Psychosocial</t>
-  </si>
-  <si>
-    <t>Welcome to the Family</t>
-  </si>
-  <si>
-    <t>Two Weeks</t>
-  </si>
-  <si>
-    <t>I Stand Alone - From "The Scorpion King" Soundtrack</t>
-  </si>
-  <si>
-    <t>Afterlife</t>
-  </si>
-  <si>
-    <t>Holy Diver</t>
-  </si>
-  <si>
-    <t>Feel Invincible</t>
-  </si>
-  <si>
-    <t>Never Giving Up</t>
-  </si>
-  <si>
-    <t>Halo</t>
-  </si>
-  <si>
-    <t>Pain</t>
-  </si>
-  <si>
-    <t>Life is Beautiful</t>
-  </si>
-  <si>
-    <t>Chalk Outline</t>
-  </si>
-  <si>
-    <t>War of Change</t>
-  </si>
-  <si>
-    <t>Breathe Into Me</t>
-  </si>
-  <si>
-    <t>Porn Star Dancing</t>
-  </si>
-  <si>
-    <t>Awake and Alive</t>
-  </si>
-  <si>
-    <t>You're Gonna Go Far, Kid</t>
-  </si>
-  <si>
-    <t>Time of Dying</t>
-  </si>
-  <si>
-    <t>Always</t>
-  </si>
-  <si>
-    <t>Comatose</t>
-  </si>
-  <si>
-    <t>The Kill</t>
-  </si>
-  <si>
-    <t>Through Glass</t>
-  </si>
-  <si>
-    <t>It's Been Awhile</t>
-  </si>
-  <si>
-    <t>Fix Me</t>
-  </si>
-  <si>
-    <t>Bring Me To Life</t>
-  </si>
-  <si>
-    <t>Satellite</t>
-  </si>
-  <si>
-    <t>Bleed It Out</t>
-  </si>
-  <si>
-    <t>This Is War</t>
-  </si>
-  <si>
-    <t>So Far Away</t>
-  </si>
-  <si>
-    <t>Paralyzer</t>
-  </si>
-  <si>
-    <t>When I'm Gone</t>
+    <t>1Lim1Py7xBgbAkAys3AGAG</t>
+  </si>
+  <si>
+    <t>4JsQkSOE4taeyhH3pv1een</t>
+  </si>
+  <si>
+    <t>7w87IxuO7BDcJ3YUqCyMTT</t>
+  </si>
+  <si>
+    <t>6RQwM7V8963c1WSmvGEoHu</t>
+  </si>
+  <si>
+    <t>5vYA1mW9g2Coh1HUFUSmlb</t>
+  </si>
+  <si>
+    <t>4vh6Rn6FVG4w79JmlZ5p7d</t>
+  </si>
+  <si>
+    <t>6BL4PpswVjH9BAajbIbpmZ</t>
+  </si>
+  <si>
+    <t>19EQUqnUXEeiBrY10JhPEF</t>
+  </si>
+  <si>
+    <t>31MOjWj3CT3dCQsMV2b8Wu</t>
+  </si>
+  <si>
+    <t>1qAuIPMALdFtGv2Ymjy5l0</t>
+  </si>
+  <si>
+    <t>79Mjfhh393dZdAsTvUFDR6</t>
+  </si>
+  <si>
+    <t>7jsYlbbaAzP2VHkLGlfn6r</t>
+  </si>
+  <si>
+    <t>37Tmv4NnfQeb0ZgUC4fOJj</t>
+  </si>
+  <si>
+    <t>0DiWol3AO6WpXZgp0goxAV</t>
+  </si>
+  <si>
+    <t>4kqhpdBNKywstQpWMnEglC</t>
+  </si>
+  <si>
+    <t>2KVwlelhxKUy8LVV6JypH3</t>
+  </si>
+  <si>
+    <t>70wYA8oYHoMzhRRkARoMhU</t>
+  </si>
+  <si>
+    <t>1jlG3KJ3gdYmhfuySFfpO1</t>
+  </si>
+  <si>
+    <t>1gSlQuSbQZi19fxLzNPykE</t>
+  </si>
+  <si>
+    <t>2bz4DTZlejfsUt8bzFCvEp</t>
+  </si>
+  <si>
+    <t>10fG8XZzqbug8Zvotej6uH</t>
+  </si>
+  <si>
+    <t>4ECNtOnqzxutZkXP4TE3n3</t>
+  </si>
+  <si>
+    <t>4T5FghRJeDw5yqNe3N9XwX</t>
+  </si>
+  <si>
+    <t>2avaSeKHI5l4sLruVfLdi2</t>
+  </si>
+  <si>
+    <t>70eDxAyAraNTiD6lx2ZEnH</t>
+  </si>
+  <si>
+    <t>4LrOmj6MoxMdCLf2zJnkq0</t>
+  </si>
+  <si>
+    <t>0ZB666fj4Ws5RY0AMi9s5q</t>
+  </si>
+  <si>
+    <t>4EDazAWt83s5ewg3Sfgi0K</t>
+  </si>
+  <si>
+    <t>24tO365YW6lcZr1hN4Ukzj</t>
+  </si>
+  <si>
+    <t>0GFnQ4BNnUbZEw2KJJREwP</t>
+  </si>
+  <si>
+    <t>5tJjo5JDF9zhzYD7yQfATH</t>
+  </si>
+  <si>
+    <t>38iU2jg98IZZEIJPrP7aWD</t>
+  </si>
+  <si>
+    <t>1XnPVbzLhuBv0sHaCTgyoi</t>
+  </si>
+  <si>
+    <t>39cmB3ZoTOLwOTq7tMNqKa</t>
+  </si>
+  <si>
+    <t>5sFDReWLrZHLFZFjHsjUTS</t>
+  </si>
+  <si>
+    <t>1hlveB9M6ijHZRbzZ2teyh</t>
+  </si>
+  <si>
+    <t>5YBVDvTSSSiqv7KZDeUlXA</t>
+  </si>
+  <si>
+    <t>2OUPrMbmZwyN38ZRHZNJEF</t>
+  </si>
+  <si>
+    <t>5Rizj5FLb2AyNKu9esjYY6</t>
+  </si>
+  <si>
+    <t>3XorCFmcupSm5QS6hA9g4N</t>
+  </si>
+  <si>
+    <t>1H5VQuShs4qfwBXyHF0PeH</t>
+  </si>
+  <si>
+    <t>51NFxnQvaosfDDutk0tams</t>
+  </si>
+  <si>
+    <t>1zyttisKStIB1UMSU7464i</t>
+  </si>
+  <si>
+    <t>5pIqZXPYPgaDvY60zuXPKB</t>
+  </si>
+  <si>
+    <t>0b8eSsBka9epA2J0wnPMax</t>
+  </si>
+  <si>
+    <t>1ns0Yzakb3Q7rGTrEDDyrs</t>
+  </si>
+  <si>
+    <t>5mkGfmJGFZpwK9nA5amOhv</t>
+  </si>
+  <si>
+    <t>1FreAz1lmnDi5aKLB6GdFM</t>
+  </si>
+  <si>
+    <t>2OZyDYkNED6mIDi8RXLnWy</t>
+  </si>
+  <si>
+    <t>3EYOJ48Et32uATr9ZmLnAo</t>
+  </si>
+  <si>
+    <t>1Qdnvn4XlmZANCVy3XjrQo</t>
+  </si>
+  <si>
+    <t>1DSJNBNhGZCigg9ll5VeZv</t>
+  </si>
+  <si>
+    <t>4fPBB44eDH71YohayI4eKV</t>
+  </si>
+  <si>
+    <t>4DK3pOmJuIy5ffgIGv0n2S</t>
+  </si>
+  <si>
+    <t>5owYkKbJ6GCbwxWsCuwxlw</t>
+  </si>
+  <si>
+    <t>1Jwc3ODLQxtbnS8M9TflSP</t>
+  </si>
+  <si>
+    <t>7FRfYOql61DGDp9VPPe2qA</t>
+  </si>
+  <si>
+    <t>3F9ByoUqu31xU0I3G5xfVg</t>
+  </si>
+  <si>
+    <t>4UkFGZRYW2f8fJyfHjDvQ6</t>
+  </si>
+  <si>
+    <t>08EQmyBYYSY4T3fxkT68DD</t>
+  </si>
+  <si>
+    <t>4jLv3tDBu8ww2R07DvL12s</t>
+  </si>
+  <si>
+    <t>1uI848raFaNWwe9HjHpjQ5</t>
+  </si>
+  <si>
+    <t>2SDx0PooHZI1SQKR0y44bs</t>
+  </si>
+  <si>
+    <t>1UMOMWyrEb4sksM4aKvYUD</t>
+  </si>
+  <si>
+    <t>6hLY3Tz1Xt5kBuKNDTs4ib</t>
+  </si>
+  <si>
+    <t>01TnVDiet1DFTsyWKUKovl</t>
+  </si>
+  <si>
+    <t>60CirPlTOEWOUBus7HxV3B</t>
+  </si>
+  <si>
+    <t>5lMRS9GFQYfxhflty2E1ad</t>
+  </si>
+  <si>
+    <t>06DSI8L6IT8SizCw3JLckz</t>
+  </si>
+  <si>
+    <t>1Ufo21GZPczg3urVKqTgbY</t>
+  </si>
+  <si>
+    <t>2nLtzopw4rPReszdYBJU6h</t>
+  </si>
+  <si>
+    <t>0FDzzruyVECATHXKHFs9eJ</t>
+  </si>
+  <si>
+    <t>1mv4lh1rW1K6xhxhJmEezy</t>
+  </si>
+  <si>
+    <t>6aXXRWmvS4ADppYhwBFZtz</t>
+  </si>
+  <si>
+    <t>3zHq9ouUJQFQRf3cm1rRLu</t>
+  </si>
+  <si>
+    <t>3MRQ3CSjoiV1HFil8ykM9M</t>
+  </si>
+  <si>
+    <t>3cbV252akVZInSvJk7jAYX</t>
+  </si>
+  <si>
+    <t>1jJci4qxiYcOHhQR247rEU</t>
+  </si>
+  <si>
+    <t>5619Ojc6t9evEEs3B7Drhe</t>
+  </si>
+  <si>
+    <t>5ugDs4mmPzTRB8UdFjbd6L</t>
+  </si>
+  <si>
+    <t>6TMEL7vpevM8hwGi8okKqp</t>
+  </si>
+  <si>
+    <t>2qT1uLXPVPzGgFOx4jtEuo</t>
+  </si>
+  <si>
+    <t>3wpLkju0bJy89kjgdRys0j</t>
+  </si>
+  <si>
+    <t>77LQUpjQXMSXyePkTOi7qg</t>
+  </si>
+  <si>
+    <t>23OXdR7YuUBVWh5hSnYJau</t>
+  </si>
+  <si>
+    <t>6RF2pjhe1jf67HnvNZhyOb</t>
+  </si>
+  <si>
+    <t>6vKyAKGZRwud0mmLf2KuKi</t>
+  </si>
+  <si>
+    <t>3DamFFqW32WihKkTVlwTYQ</t>
+  </si>
+  <si>
+    <t>0ARK753YaiJbpLUk7z5yIM</t>
+  </si>
+  <si>
+    <t>0DrFTaAX2srXPkuag35djb</t>
+  </si>
+  <si>
+    <t>3Skwc4sh1QHUGcWrFBFWSF</t>
+  </si>
+  <si>
+    <t>2Ms33RTRCT6gArrpcrPxmo</t>
+  </si>
+  <si>
+    <t>6u0x5ad9ewHvs3z6u9Oe3c</t>
+  </si>
+  <si>
+    <t>5ka2ajep9OAvU5Sgduhiex</t>
+  </si>
+  <si>
+    <t>1CkvWZme3pRgbzaxZnTl5X</t>
+  </si>
+  <si>
+    <t>5c5a2Ptu8eyIpljhQHjIqk</t>
+  </si>
+  <si>
+    <t>Dead End in Tokyo</t>
+  </si>
+  <si>
+    <t>What I Got</t>
+  </si>
+  <si>
+    <t>99 Luftballons</t>
   </si>
   <si>
     <t>How You Remind Me</t>
   </si>
   <si>
-    <t>The Pretender</t>
-  </si>
-  <si>
-    <t>Frontline</t>
-  </si>
-  <si>
-    <t>Right Here</t>
-  </si>
-  <si>
-    <t>Second Chance</t>
-  </si>
-  <si>
-    <t>In the End</t>
-  </si>
-  <si>
-    <t>Someday</t>
-  </si>
-  <si>
-    <t>1Ffb6ejR6Fe5IamqA5oRUF</t>
-  </si>
-  <si>
-    <t>6kNKUYGn6VNGsRoXmyoDPK</t>
-  </si>
-  <si>
-    <t>05fG473iIaoy82BF1aGhL8</t>
-  </si>
-  <si>
-    <t>3LkSiHbjqOHCKCqBfEZOTv</t>
-  </si>
-  <si>
-    <t>2CmaKO2zEGJ1NWpS1yfVGz</t>
-  </si>
-  <si>
-    <t>3Uobr6LgQpBbk6k4QGAb3V</t>
-  </si>
-  <si>
-    <t>1caBfBEapzw8z2Qz9q0OaQ</t>
-  </si>
-  <si>
-    <t>0nmQIMXWTXfhgOBdNzhGOs</t>
-  </si>
-  <si>
-    <t>39VNwvlQTqE9SvgPjjnMpc</t>
-  </si>
-  <si>
-    <t>5t28BP42x2axFnqOOMg3CM</t>
-  </si>
-  <si>
-    <t>7FBcuc1gsnv6Y1nwFtNRCb</t>
-  </si>
-  <si>
-    <t>6GfiCQDFYANz5wUkSmb3Dr</t>
-  </si>
-  <si>
-    <t>1d5wNTZ8WZYE5WuXXjug9w</t>
-  </si>
-  <si>
-    <t>5BtHciL0e0zOP7prIHn3pP</t>
+    <t>Lean On</t>
+  </si>
+  <si>
+    <t>Self Control</t>
+  </si>
+  <si>
+    <t>Pumped Up Kicks</t>
+  </si>
+  <si>
+    <t>Tubthumping</t>
+  </si>
+  <si>
+    <t>3AM</t>
+  </si>
+  <si>
+    <t>Got To Keep On</t>
+  </si>
+  <si>
+    <t>Tomorrow Comes Today</t>
+  </si>
+  <si>
+    <t>It's My Life</t>
+  </si>
+  <si>
+    <t>Blue Monday '88</t>
+  </si>
+  <si>
+    <t>MONSTERS</t>
+  </si>
+  <si>
+    <t>Don't Go Breaking My Heart</t>
+  </si>
+  <si>
+    <t>Look at Me</t>
+  </si>
+  <si>
+    <t>Sultans Of Swing</t>
+  </si>
+  <si>
+    <t>One More Time</t>
+  </si>
+  <si>
+    <t>Don't Tell Me</t>
+  </si>
+  <si>
+    <t>Push</t>
+  </si>
+  <si>
+    <t>When You Were Young</t>
+  </si>
+  <si>
+    <t>I'm with You</t>
+  </si>
+  <si>
+    <t>A Thousand Miles</t>
+  </si>
+  <si>
+    <t>Hey Mama</t>
+  </si>
+  <si>
+    <t>Sunday Morning</t>
+  </si>
+  <si>
+    <t>Separate Ways (Worlds Apart)</t>
+  </si>
+  <si>
+    <t>Children - Edit Version</t>
+  </si>
+  <si>
+    <t>Burning Heart - From "Rocky IV" Soundtrack</t>
+  </si>
+  <si>
+    <t>Ex's &amp; Oh's</t>
+  </si>
+  <si>
+    <t>Murder On the Dance Floor</t>
+  </si>
+  <si>
+    <t>Kingston Town</t>
+  </si>
+  <si>
+    <t>Something Good Can Work</t>
+  </si>
+  <si>
+    <t>Tomorrow</t>
+  </si>
+  <si>
+    <t>Smack My Bitch Up (edit)</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
+    <t>Till the World Ends</t>
+  </si>
+  <si>
+    <t>The Man Who Sold The World - Live Version</t>
+  </si>
+  <si>
+    <t>Hear Me Now (feat. Zeeba)</t>
+  </si>
+  <si>
+    <t>Would?</t>
+  </si>
+  <si>
+    <t>We're Not Gonna Take It</t>
+  </si>
+  <si>
+    <t>Renegades Of Funk</t>
+  </si>
+  <si>
+    <t>Woke Up This Morning - Chosen One Mix</t>
+  </si>
+  <si>
+    <t>Rape Me</t>
+  </si>
+  <si>
+    <t>I Want You</t>
+  </si>
+  <si>
+    <t>Narcotic - Radio Edit</t>
+  </si>
+  <si>
+    <t>bellyache</t>
+  </si>
+  <si>
+    <t>Boogie Wonderland (with The Emotions)</t>
+  </si>
+  <si>
+    <t>Fadeaway</t>
+  </si>
+  <si>
+    <t>You Belong To The City</t>
+  </si>
+  <si>
+    <t>Why Can't I Be You?</t>
+  </si>
+  <si>
+    <t>Sex &amp; Candy</t>
+  </si>
+  <si>
+    <t>Where Is The Love?</t>
+  </si>
+  <si>
+    <t>Kokomo</t>
+  </si>
+  <si>
+    <t>Roxanne</t>
+  </si>
+  <si>
+    <t>Show Me How to Live</t>
+  </si>
+  <si>
+    <t>(You Drive Me) Crazy</t>
+  </si>
+  <si>
+    <t>You Only Live Once</t>
+  </si>
+  <si>
+    <t>Paradise</t>
+  </si>
+  <si>
+    <t>Is There Something I Should Know?</t>
+  </si>
+  <si>
+    <t>Walk Like an Egyptian</t>
+  </si>
+  <si>
+    <t>Down In A Hole</t>
+  </si>
+  <si>
+    <t>Meet Me Halfway</t>
+  </si>
+  <si>
+    <t>Everything Counts</t>
+  </si>
+  <si>
+    <t>Baker Street - Edit</t>
+  </si>
+  <si>
+    <t>Man On The Moon</t>
+  </si>
+  <si>
+    <t>Boys - Summertime Love</t>
+  </si>
+  <si>
+    <t>Grace Kelly</t>
+  </si>
+  <si>
+    <t>Fast Car - 2015 Remaster</t>
+  </si>
+  <si>
+    <t>Free As A Bird - Anthology 1 Version</t>
+  </si>
+  <si>
+    <t>NUMB</t>
+  </si>
+  <si>
+    <t>Radioactive</t>
+  </si>
+  <si>
+    <t>Send Me An Angel '89</t>
+  </si>
+  <si>
+    <t>Cantaloop (Flip Fantasia)</t>
+  </si>
+  <si>
+    <t>Real Wild Child (Wild One)</t>
+  </si>
+  <si>
+    <t>Numb</t>
+  </si>
+  <si>
+    <t>A Sky Full of Stars</t>
+  </si>
+  <si>
+    <t>Music Sounds Better With You - Radio Edit</t>
+  </si>
+  <si>
+    <t>Sliver</t>
+  </si>
+  <si>
+    <t>Love Me Like You Do - From "Fifty Shades Of Grey"</t>
+  </si>
+  <si>
+    <t>I Still Haven't Found What I'm Looking For - Remastered 2007</t>
+  </si>
+  <si>
+    <t>Flashdance...What a Feeling - Radio Edit</t>
+  </si>
+  <si>
+    <t>Kids</t>
+  </si>
+  <si>
+    <t>Shake It</t>
+  </si>
+  <si>
+    <t>Drive</t>
+  </si>
+  <si>
+    <t>Tonight Is The Night I Die</t>
+  </si>
+  <si>
+    <t>no tears left to cry</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>Rain Over Me (feat. Marc Anthony)</t>
+  </si>
+  <si>
+    <t>Chlorine</t>
+  </si>
+  <si>
+    <t>Smooth Criminal</t>
+  </si>
+  <si>
+    <t>Monkey Gone To Heaven</t>
+  </si>
+  <si>
+    <t>Fireflies</t>
+  </si>
+  <si>
+    <t>Dilemma</t>
+  </si>
+  <si>
+    <t>Nice To Meet Ya</t>
+  </si>
+  <si>
+    <t>Joyride - Single Version</t>
+  </si>
+  <si>
+    <t>Feel</t>
+  </si>
+  <si>
+    <t>Under Cover of Darkness</t>
+  </si>
+  <si>
+    <t>Applause</t>
+  </si>
+  <si>
+    <t>Rolling in the Deep</t>
+  </si>
+  <si>
+    <t>Ain't No Rest For The Wicked - Original Version</t>
+  </si>
+  <si>
+    <t>3NTbOmzlj2cL86XFuDVFvZ</t>
+  </si>
+  <si>
+    <t>0EdvGhlC1FkGItLOWQzG4J</t>
+  </si>
+  <si>
+    <t>6Tz0QRoe083BcOo2YbG9lV</t>
+  </si>
+  <si>
+    <t>6deZN1bslXzeGvOLaLMOIF</t>
+  </si>
+  <si>
+    <t>738wLrAtLtCtFOLvQBXOXp</t>
+  </si>
+  <si>
+    <t>4463nfFMmK1cwAWBQDwT5e</t>
+  </si>
+  <si>
+    <t>7gP3bB2nilZXLfPHJhMdvc</t>
+  </si>
+  <si>
+    <t>0TcYeHEK9sBtv7xPbKhzHz</t>
+  </si>
+  <si>
+    <t>3Ngh2zDBRPEriyxQDAMKd1</t>
+  </si>
+  <si>
+    <t>1GhPHrq36VKCY3ucVaZCfo</t>
+  </si>
+  <si>
+    <t>3AA28KZvwAUcZuOKwyblJQ</t>
+  </si>
+  <si>
+    <t>0cQbJU1aAzvbEmTuljWLlF</t>
+  </si>
+  <si>
+    <t>0yNLKJebCb8Aueb54LYya3</t>
+  </si>
+  <si>
+    <t>70BYFdaZbEKbeauJ670ysI</t>
+  </si>
+  <si>
+    <t>5rSXSAkZ67PYJSvpUpkOr7</t>
+  </si>
+  <si>
+    <t>5orH1OWgjAYUX8sZ5gihTv</t>
+  </si>
+  <si>
+    <t>0WwSkZ7LtFUFjGjMZBMt6T</t>
+  </si>
+  <si>
+    <t>4tZwfgrHOc3mvqYlEYSvVi</t>
+  </si>
+  <si>
+    <t>2cnMpRsOVqtPMfq7YiFE6K</t>
+  </si>
+  <si>
+    <t>0C0XlULifJtAgn6ZNCW2eu</t>
+  </si>
+  <si>
+    <t>0p4nmQO2msCgU4IF37Wi3j</t>
+  </si>
+  <si>
+    <t>5ILrArfIV0tMURcHJN8Q07</t>
+  </si>
+  <si>
+    <t>1yxSLGMDHlW21z4YXirZDS</t>
+  </si>
+  <si>
+    <t>0rvjqX7ttXeg3mTy8Xscbt</t>
+  </si>
+  <si>
+    <t>39oSLGo3HkaeYXzUEGgAGQ</t>
+  </si>
+  <si>
+    <t>26bcq2nyj5GB7uRr558iQg</t>
+  </si>
+  <si>
+    <t>3bhu7P5PfngueRHiB9hjcx</t>
+  </si>
+  <si>
+    <t>2cBh5lVMg222FFuRU7EfDE</t>
+  </si>
+  <si>
+    <t>69MEO1AADKg1IZrq2XLzo5</t>
+  </si>
+  <si>
+    <t>536BYVgOnRky0xjsPT96zl</t>
+  </si>
+  <si>
+    <t>4iudEcmuPlYNdbP3e1bdn1</t>
+  </si>
+  <si>
+    <t>4k1ELeJKT1ISyDv8JivPpB</t>
+  </si>
+  <si>
+    <t>0PFtn5NtBbbUNbU9EAmIWF</t>
+  </si>
+  <si>
+    <t>26dSoYclwsYLMAKD3tpOr4</t>
+  </si>
+  <si>
+    <t>6olE6TJLqED3rqDCT0FyPh</t>
+  </si>
+  <si>
+    <t>0NGAZxHanS9e0iNHpR8f2W</t>
   </si>
   <si>
     <t>64tNsm6TnZe2zpcMVMOoHL</t>
   </si>
   <si>
-    <t>7qAcXJgt1PWnxwUgxMdyuk</t>
-  </si>
-  <si>
-    <t>70BYFdaZbEKbeauJ670ysI</t>
-  </si>
-  <si>
-    <t>6gZq1Q6bdOxsUPUG1TaFbF</t>
-  </si>
-  <si>
-    <t>5eAWCfyUhZtHHtBdNk56l1</t>
-  </si>
-  <si>
-    <t>3886aFez2HDLkio5tUzmP6</t>
-  </si>
-  <si>
-    <t>2VYQTNDsvvKN9wmU5W7xpj</t>
-  </si>
-  <si>
-    <t>6Fwq3TDWpMhcL1KTKVQiI8</t>
-  </si>
-  <si>
-    <t>4olk2DDoPvzAJlJBonZFHk</t>
-  </si>
-  <si>
-    <t>2xiIXseIJcq3nG7C8fHeBj</t>
-  </si>
-  <si>
-    <t>4RddZ3iHvSpGV4dvATac9X</t>
-  </si>
-  <si>
-    <t>4HrkLxQHZ5mgCtIVpiH5QX</t>
-  </si>
-  <si>
-    <t>3TOqt5oJwL9BE2NG9MEwDa</t>
-  </si>
-  <si>
-    <t>1pRaG81GsVtaTBuVSpldt2</t>
-  </si>
-  <si>
-    <t>6B5c4sch27tWHAGdarpPaW</t>
-  </si>
-  <si>
-    <t>0kD8IT1CzF7js2XKM9lLLa</t>
-  </si>
-  <si>
-    <t>2pqd3HsfsvcBGtHvPOg6eg</t>
-  </si>
-  <si>
-    <t>01ZtptlLUxoAbJDrS9fTqX</t>
-  </si>
-  <si>
-    <t>4hxDvVq5t8ebPYPdBl1F9f</t>
-  </si>
-  <si>
-    <t>6Wr3hh341P84m3EI8qdn9O</t>
-  </si>
-  <si>
-    <t>4jpaXieuls7LVzG1uma5Rs</t>
-  </si>
-  <si>
-    <t>7iWiAD5LLKyiox2grgfmUT</t>
-  </si>
-  <si>
-    <t>2zgG1GPDvjaBgxeQaVXI14</t>
-  </si>
-  <si>
-    <t>37394IP6uhnjIpsawpMu4l</t>
-  </si>
-  <si>
-    <t>49bzE5vRBRIota4qeHtQM8</t>
-  </si>
-  <si>
-    <t>4tususHNaR68xdgLstlGBA</t>
-  </si>
-  <si>
-    <t>01crEa9G3pNpXZ5m7wuHOk</t>
-  </si>
-  <si>
-    <t>64g59lHsc4g2jMFokrKDGW</t>
-  </si>
-  <si>
-    <t>5LfGQac0EIXyAN8aUwmNAQ</t>
-  </si>
-  <si>
-    <t>5S6hjAxgxjsLylsTtMIimO</t>
-  </si>
-  <si>
-    <t>0RqtSIYZmd4fiBKVFqyIqD</t>
-  </si>
-  <si>
-    <t>49qiE8dj4JuNdpYGRPdKbF</t>
-  </si>
-  <si>
-    <t>5KDIH2gF0VpelTqyQS7udb</t>
-  </si>
-  <si>
-    <t>0REMf7H0VP6DwfZ9MbuWph</t>
-  </si>
-  <si>
-    <t>5nGIFgo0shDenQYSE0Sn7c</t>
+    <t>7b85ve82Sh36a3UAx74wut</t>
+  </si>
+  <si>
+    <t>2d0hyoQ5ynDBnkvAbJKORj</t>
+  </si>
+  <si>
+    <t>25zUD40u8M2kJmdcabBzrz</t>
+  </si>
+  <si>
+    <t>3NRFinRTEqUCfaTTZmk8ek</t>
+  </si>
+  <si>
+    <t>0wgLwvDNCHdJ9FblyyD4Dc</t>
+  </si>
+  <si>
+    <t>6qqNVTkY8uBg9cP3Jd7DAH</t>
+  </si>
+  <si>
+    <t>4QQgXkCYTt3BlENzhyNETg</t>
+  </si>
+  <si>
+    <t>2D2qwEatKbBSKhBCfP6lyn</t>
+  </si>
+  <si>
+    <t>3vMWY1bUrmYoSoEWLiQWOZ</t>
+  </si>
+  <si>
+    <t>7bu3H8JO7d0UbMoVzbo70s</t>
+  </si>
+  <si>
+    <t>7AQzXO3NPNQsI7oNu5rC3r</t>
+  </si>
+  <si>
+    <t>3oDbviiivRWhXwIE8hxkVV</t>
+  </si>
+  <si>
+    <t>5NGO30tJxFlKixkPSgXcFE</t>
+  </si>
+  <si>
+    <t>2ziB7fzrXBoh1HUPS6sVFn</t>
+  </si>
+  <si>
+    <t>0epOFNiUfyON9EYx7Tpr6V</t>
+  </si>
+  <si>
+    <t>76ptJV8617638xrpeoUtzl</t>
+  </si>
+  <si>
+    <t>0lZoBs4Pzo7R89JM9lxwoT</t>
+  </si>
+  <si>
+    <t>51l0uqRxGaczYr4271pVIC</t>
+  </si>
+  <si>
+    <t>762310PdDnwsDxAQxzQkfX</t>
+  </si>
+  <si>
+    <t>7tjbDPvrdvDshcpEMXKRVb</t>
+  </si>
+  <si>
+    <t>4KWTAlx2RvbpseOGMEmROg</t>
+  </si>
+  <si>
+    <t>1YB5pnFfL7Y2vjRJLPxaLU</t>
+  </si>
+  <si>
+    <t>5MmVJVhhYKQ86izuGHzJYA</t>
+  </si>
+  <si>
+    <t>7oPgCQqMMXEXrNau5vxYZP</t>
+  </si>
+  <si>
+    <t>3WrFJ7ztbogyGnTHbHJFl2</t>
+  </si>
+  <si>
+    <t>15UsOTVnJzReFVN1VCnxy4</t>
+  </si>
+  <si>
+    <t>2qk9voo8llSGYcZ6xrBzKx</t>
+  </si>
+  <si>
+    <t>1n0pe6Cx9pCNvXYkX9TTLX</t>
+  </si>
+  <si>
+    <t>4LtIfuFeAamus9OOItuWDD</t>
+  </si>
+  <si>
+    <t>33EUXrFKGjpUSGacqEHhU4</t>
   </si>
   <si>
     <t>6XyY86QOPPrYVGvF9ch6wz</t>
   </si>
   <si>
-    <t>0niJkG4tKkne3zwr7I8n9n</t>
-  </si>
-  <si>
-    <t>2RTUTCvo6onsAnheUk3aL9</t>
-  </si>
-  <si>
-    <t>6deZN1bslXzeGvOLaLMOIF</t>
-  </si>
-  <si>
-    <t>7jy3rLJdDQY21OgRLCZ9sD</t>
-  </si>
-  <si>
-    <t>2Tkg8omOIsTL617yXVt26e</t>
-  </si>
-  <si>
-    <t>Bring Me The Horizon</t>
-  </si>
-  <si>
-    <t>The Amity Affliction</t>
-  </si>
-  <si>
-    <t>Slipknot</t>
-  </si>
-  <si>
-    <t>Atreyu</t>
-  </si>
-  <si>
-    <t>Falling In Reverse</t>
-  </si>
-  <si>
-    <t>I Prevail</t>
-  </si>
-  <si>
-    <t>Asking Alexandria</t>
-  </si>
-  <si>
-    <t>Avenged Sevenfold</t>
-  </si>
-  <si>
-    <t>NOTHING MORE</t>
-  </si>
-  <si>
-    <t>Five Finger Death Punch</t>
-  </si>
-  <si>
-    <t>My Chemical Romance</t>
-  </si>
-  <si>
-    <t>Thousand Foot Krutch</t>
-  </si>
-  <si>
-    <t>Egypt Central</t>
-  </si>
-  <si>
-    <t>Breaking Benjamin</t>
+    <t>4gzpq5DPGxSnKTe4SA8HAU</t>
+  </si>
+  <si>
+    <t>2w7IutHv5g4e8LumrwtjWR</t>
+  </si>
+  <si>
+    <t>0X2BH1fck6amBIoJhDVmmJ</t>
+  </si>
+  <si>
+    <t>51Blml2LZPmy7TTiAg47vQ</t>
+  </si>
+  <si>
+    <t>3oZa8Xs6IjlIUGLAhVyK4G</t>
+  </si>
+  <si>
+    <t>0SwO7SWeDHJijQ3XNS7xEE</t>
+  </si>
+  <si>
+    <t>7vXwfZyDp3spzIVNXDaTPN</t>
+  </si>
+  <si>
+    <t>0hAd6zwEgt9ILuMDY1prcI</t>
+  </si>
+  <si>
+    <t>66CXWjxzNUsdJxJ2JdwvnR</t>
+  </si>
+  <si>
+    <t>0TnOYISbd1XYRBk9myaseg</t>
+  </si>
+  <si>
+    <t>3YQKmKGau1PzlVlkL1iodx</t>
+  </si>
+  <si>
+    <t>6TZdvF1kFzwnQLgHQynzsO</t>
+  </si>
+  <si>
+    <t>6zvul52xwTWzilBZl6BUbT</t>
+  </si>
+  <si>
+    <t>07QEuhtrNmmZ0zEcqE9SF6</t>
+  </si>
+  <si>
+    <t>2gBjLmx6zQnFGQJCAQpRgw</t>
+  </si>
+  <si>
+    <t>1Hsdzj7Dlq2I7tHP7501T4</t>
+  </si>
+  <si>
+    <t>2SHhfs4BiDxGQ3oxqf0UHY</t>
+  </si>
+  <si>
+    <t>2HcwFjNelS49kFbfvMxQYw</t>
+  </si>
+  <si>
+    <t>1HY2Jd0NmPuamShAr6KMms</t>
+  </si>
+  <si>
+    <t>4dpARuHxo51G3z768sgnrY</t>
+  </si>
+  <si>
+    <t>26T3LtbuGT1Fu9m0eRq5X3</t>
+  </si>
+  <si>
+    <t>MAN WITH A MISSION</t>
+  </si>
+  <si>
+    <t>Sublime</t>
+  </si>
+  <si>
+    <t>Nena</t>
+  </si>
+  <si>
+    <t>Nickelback</t>
+  </si>
+  <si>
+    <t>Major Lazer</t>
+  </si>
+  <si>
+    <t>Laura Branigan</t>
+  </si>
+  <si>
+    <t>Foster The People</t>
+  </si>
+  <si>
+    <t>Chumbawamba</t>
+  </si>
+  <si>
+    <t>Matchbox Twenty</t>
+  </si>
+  <si>
+    <t>The Chemical Brothers</t>
+  </si>
+  <si>
+    <t>Gorillaz</t>
+  </si>
+  <si>
+    <t>No Doubt</t>
+  </si>
+  <si>
+    <t>New Order</t>
+  </si>
+  <si>
+    <t>Shinedown</t>
+  </si>
+  <si>
+    <t>Backstreet Boys</t>
+  </si>
+  <si>
+    <t>Geri Halliwell</t>
+  </si>
+  <si>
+    <t>Dire Straits</t>
+  </si>
+  <si>
+    <t>Daft Punk</t>
+  </si>
+  <si>
+    <t>Van Halen</t>
+  </si>
+  <si>
+    <t>The Killers</t>
+  </si>
+  <si>
+    <t>Avril Lavigne</t>
+  </si>
+  <si>
+    <t>Vanessa Carlton</t>
+  </si>
+  <si>
+    <t>Black Eyed Peas</t>
+  </si>
+  <si>
+    <t>Journey</t>
+  </si>
+  <si>
+    <t>EMF</t>
+  </si>
+  <si>
+    <t>Survivor</t>
+  </si>
+  <si>
+    <t>Elle King</t>
+  </si>
+  <si>
+    <t>Sophie Ellis-Bextor</t>
+  </si>
+  <si>
+    <t>UB40</t>
+  </si>
+  <si>
+    <t>Two Door Cinema Club</t>
+  </si>
+  <si>
+    <t>Silverchair</t>
+  </si>
+  <si>
+    <t>The Prodigy</t>
+  </si>
+  <si>
+    <t>TOTO</t>
+  </si>
+  <si>
+    <t>Britney Spears</t>
+  </si>
+  <si>
+    <t>Nirvana</t>
+  </si>
+  <si>
+    <t>Alok</t>
   </si>
   <si>
     <t>Alice In Chains</t>
   </si>
   <si>
-    <t>Sick Puppies</t>
-  </si>
-  <si>
-    <t>Shinedown</t>
-  </si>
-  <si>
-    <t>Godsmack</t>
-  </si>
-  <si>
-    <t>System Of A Down</t>
-  </si>
-  <si>
-    <t>Sixx:A.M.</t>
-  </si>
-  <si>
-    <t>Marilyn Manson</t>
-  </si>
-  <si>
-    <t>Saint Asonia</t>
-  </si>
-  <si>
-    <t>Devour the Day</t>
-  </si>
-  <si>
-    <t>Three Days Grace</t>
-  </si>
-  <si>
-    <t>Papa Roach</t>
-  </si>
-  <si>
-    <t>From Ashes to New</t>
-  </si>
-  <si>
-    <t>Disturbed</t>
-  </si>
-  <si>
-    <t>Pop Evil</t>
-  </si>
-  <si>
-    <t>Seether</t>
-  </si>
-  <si>
-    <t>STARSET</t>
-  </si>
-  <si>
-    <t>Highly Suspect</t>
-  </si>
-  <si>
-    <t>Red Sun Rising</t>
-  </si>
-  <si>
-    <t>HELLYEAH</t>
-  </si>
-  <si>
-    <t>Rise Against</t>
-  </si>
-  <si>
-    <t>Avatar</t>
-  </si>
-  <si>
-    <t>Bullet For My Valentine</t>
-  </si>
-  <si>
-    <t>All That Remains</t>
-  </si>
-  <si>
-    <t>Killswitch Engage</t>
-  </si>
-  <si>
-    <t>Skillet</t>
-  </si>
-  <si>
-    <t>Of Mice &amp; Men</t>
-  </si>
-  <si>
-    <t>Red</t>
-  </si>
-  <si>
-    <t>My Darkest Days</t>
-  </si>
-  <si>
-    <t>The Offspring</t>
-  </si>
-  <si>
-    <t>Saliva</t>
-  </si>
-  <si>
-    <t>Thirty Seconds To Mars</t>
-  </si>
-  <si>
-    <t>Stone Sour</t>
-  </si>
-  <si>
-    <t>Staind</t>
-  </si>
-  <si>
-    <t>10 Years</t>
-  </si>
-  <si>
-    <t>Evanescence</t>
+    <t>Twisted Sister</t>
+  </si>
+  <si>
+    <t>Rage Against The Machine</t>
+  </si>
+  <si>
+    <t>Alabama 3</t>
+  </si>
+  <si>
+    <t>Savage Garden</t>
+  </si>
+  <si>
+    <t>Liquido</t>
+  </si>
+  <si>
+    <t>Billie Eilish</t>
+  </si>
+  <si>
+    <t>Earth, Wind &amp; Fire</t>
+  </si>
+  <si>
+    <t>Bodeans</t>
+  </si>
+  <si>
+    <t>Glenn Frey</t>
+  </si>
+  <si>
+    <t>The Cure</t>
+  </si>
+  <si>
+    <t>Marcy Playground</t>
+  </si>
+  <si>
+    <t>The Beach Boys</t>
+  </si>
+  <si>
+    <t>The Police</t>
+  </si>
+  <si>
+    <t>Audioslave</t>
+  </si>
+  <si>
+    <t>The Strokes</t>
+  </si>
+  <si>
+    <t>The Rasmus</t>
+  </si>
+  <si>
+    <t>Duran Duran</t>
+  </si>
+  <si>
+    <t>The Bangles</t>
+  </si>
+  <si>
+    <t>Depeche Mode</t>
+  </si>
+  <si>
+    <t>Gerry Rafferty</t>
+  </si>
+  <si>
+    <t>R.E.M.</t>
+  </si>
+  <si>
+    <t>Sabrina</t>
+  </si>
+  <si>
+    <t>MIKA</t>
+  </si>
+  <si>
+    <t>Tracy Chapman</t>
+  </si>
+  <si>
+    <t>The Beatles</t>
+  </si>
+  <si>
+    <t>XXXTENTACION</t>
+  </si>
+  <si>
+    <t>Kings of Leon</t>
+  </si>
+  <si>
+    <t>Real Life</t>
+  </si>
+  <si>
+    <t>Us3</t>
+  </si>
+  <si>
+    <t>Iggy Pop</t>
   </si>
   <si>
     <t>Linkin Park</t>
   </si>
   <si>
-    <t>Finger Eleven</t>
-  </si>
-  <si>
-    <t>3 Doors Down</t>
-  </si>
-  <si>
-    <t>Nickelback</t>
-  </si>
-  <si>
-    <t>Foo Fighters</t>
-  </si>
-  <si>
-    <t>Pillar</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Bring-me-the-horizon-1x1-lyrics', 'lyrics': "[Intro: Oli Sykes]\nPut me outta my misery\n\n[Verse 1: Oli Sykes]\nDisconnected from the world again\nAnd no, the sun don't shine in the place I've been\nSo why you keep acting like I don't exist?\nYeah, feel like I'm ready to die, but I can't commit\n\n[Pre-Chorus: Oli Sykes]\nSo I ask myself, when will I learn?\nI'd set myself on fire to feel the burn\nI'm scared that I'm never gonna be repaired\n\n[Chorus: Oli Sykes]\nPut me outta my misery, my mind\nFeels like an archenemy, can't look me in the eyes\nI don't know what hurts the most, holding on or letting go\nReliving my memories and they're killing me one by one\n\n[Verse 2: Amy Love]\nSabotaged myself again\nGot a brain like a hurricane\nMe and that bitch, no, we can't be friends\nAnd I don't even care, no\nGot me sinking to a dark place (Outta love)\nEvil twin under the staircase (Oh, my God)\nThink I'm looking at a long night\nI'm alone, I'm alone, I'm alone, I'm alone\n[Pre-Chorus: Amy Love, Oli Sykes &amp; Both]\nTerrified (Terrified), I'm numb (But I'm numb)\nAnnihilation never looked so good, shut up\nHush your mouth, you talk too much\n\n[Chorus: Oli Sykes]\nPut me outta my misery, my mind\nFeels like an archenemy, can't look me in the eyes\nI don't know what hurts the most, holding on or letting go\nReliving my memories and they're killing me one by one\n\n[Bridge: Oli Sykes]\nAnd I'm staring into the void again, no one knows what a mess I'm in\nThe voices in my head say I'm just being paranoid\nBut it's bad for my health, how much I hate myself\nI suffocate, the weight, it pulls me underneath\n\n[Chorus: Oli Sykes]\nPut me outta my misery, my mind\nFeels like an archenemy, can't look me in the eyes\nI don't know what hurts the most, holding on or letting go\nReliving my memories and they're killing me one by one\n\n[Outro: Oli Sykes]\nYeah, it's killing me one by one\nAnd they're killing me one by one", 'annotations': {'description': '&lt;p&gt;“1x1” mainly talks about how humanity feel guilty remembering that they destroyed other species or even other people because of ethinical, religious, gender and sexuality differences.&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;[The song addresses] the guilt that we as a society carry for what we’ve done to other species and ethnicities and other genders.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;—&lt;a href="https://www.nme.com/big-reads/bring-me-the-horizon-cover-interview-2020-post-human-survival-horror-2804768?utm_source=hootsuite&amp;amp;utm_medium=&amp;amp;utm_term=&amp;amp;utm_content=&amp;amp;utm_campaign=" rel="noopener nofollow"&gt;Oli Sykes, &lt;em&gt;NME&lt;/em&gt;&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;Just like &lt;a href="https://genius.com/Bring-me-the-horizon-teardrops-lyrics" rel="noopener" data-api_path="/songs/6058777"&gt;“Teardrops,”&lt;/a&gt; the song can be related with Oli Sykes problems with addiction in the past. Quarantine could have brought back these dark memories and it shows him feeling guilty about it.&lt;/p&gt;', 'producers': [{'name': 'Jordan Fish', 'url': 'https://genius.com/artists/Jordan-fish'}, {'name': 'Oli Sykes', 'url': 'https://genius.com/artists/Oli-sykes'}], 'writers': [{'name': 'Jordan Fish', 'url': 'https://genius.com/artists/Jordan-fish'}, {'name': 'Amy Love', 'url': 'https://genius.com/artists/Amy-love'}, {'name': 'Georgia South', 'url': 'https://genius.com/artists/Georgia-south'}, {'name': 'Oli Sykes', 'url': 'https://genius.com/artists/Oli-sykes'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/The-amity-affliction-drag-the-lake-lyrics', 'lyrics': "[Intro: Joel Birch]\nKick it\n\n[Verse 1: Joel Birch]\nDrag the lake\nYou won't find me\nI've been tempting fate\nWith my heart beside me\n\n[Pre-Chorus: Ahren Stringer &amp; Joel Birch]\nI am the stone below the water\nCold and hard to touch\nJust when you think I can't get lower\nI turn my back and fuck it up\n\n[Chorus: Joel Birch &amp; Ahren Stringer]\nYou can drag the lake\nBut you won't find me\nYou can drag the lake\nBut you won't find me\n\n[Verse 2: Joel Birch]\nSo come and drag the lake\nYou'll see I've done some diving\nI had some extra weight\nWith no one to untie me\n[Pre-Chorus: Ahren Stringer &amp; Joel Birch]\nI am the stone below the water\nCold and hard to touch\nJust when you think I can't get lower\nI turn my back and fuck it up\n\n[Chorus: Joel Birch &amp; Ahren Stringer]\nYou can drag the lake\nBut you won't find me\nYou can drag the lake\nBut you won't find me\n\n[Bridge: Joel Birch &amp; Ahren Stringer]\nI'll stare into the sun\nTo burn out what I've done\nI'll tear myself apart\nTo see what I've become\nNothing wrong with my depression\nMy sick and miserable obsession\nIf I could only get some space\nIf I could only learn my lesson\nIf I could only learn my lesson\nIf I could only learn my lesson\n\n[Chorus: Joel Birch &amp; Ahren Stringer]\nYou can drag the lake\nBut you won't find me\nYou can drag the lake\nBut you won't find me\nYou can drag the lake\nBut you won't find me\nYou can drag the lake\nBut you won't find me", 'annotations': {'description': '&lt;p&gt;One definition of “drag” from the American Heritage Dictionary is “To search or dredge the bottom of a body of water.” People do this when trying to find a corpse, a gun, a sunken boat, or something else that might be lying on the bottom and not visible through murky water. The correlation to the song is that Joel has done a good job of hiding everything beneath “water” or what’s visible to everyone else. Therefore not displaying what he actually feels and emotions that lie beneath the surface.&lt;/p&gt;', 'producers': [{'name': 'Matt Squire', 'url': 'https://genius.com/artists/Matt-squire'}], 'writers': [{'name': 'Joel Birch', 'url': 'https://genius.com/artists/Joel-birch'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Slipknot-nero-forte-lyrics', 'lyrics': "[Intro]\nWatch this\n\n[Verse 1]\nI'm never enough\nYou bleed me dry, using me up\nDissatisfied and used\nAnother key to the empty spot in you\nI'm sick as a fuck\nI'm in my prime, what do you want?\nI guess it's time to see\nIf you're lost in hell, you'll find no peace\nOoh, wade through hate and fear\nI haven't felt like this in years\nNot much left, so uprooted\nFists clenched tight in the pockets of my hoodie\nAnd I know where I need to go\nBut the voice of reason can't say no\nIt's in the eyes and heart\nJust the latest psycho off the charts\n\n[Pre-Chorus]\nThat's what you do best\n\n[Chorus]\nA home like yours is upside down\nToo much animosity\nNobody does it better than the enemy\nA hope like yours won't help me now\nYou can do your worst to me\nAt the end of the day, that's what you do best\nA home like yours is upside down\nToo much animosity\nNobody does it better than the enemy\nA hope like yours won't help me now\nYou can do your worst to me\nAt the end of the day, that's what you do best\n[Verse 2]\nI know, and even if I didn't, I would lie so\nMany would believe it\nStand up and resist the chains\nOf all the people in belligerent sick restraint\nI wasn't enough\nYou bled me dry, which way is up?\nOh, you're a lie and a fake\nI hope the truth is not too late\n\n[Pre-Chorus]\nThat's what you do best\n\n[Chorus]\nA home like yours is upside down\nToo much animosity\nNobody does it better than the enemy\nA hope like yours won't help me now\nYou can do your worst to me\nAt the end of the day, that's what you do best\nA home like yours is upside down\nToo much animosity\nNobody does it better than the enemy\nA hope like yours won't help me now\nYou can do your worst to me\nAt the end of the day, that's what you do best\n[Post-Chorus]\nThat's what you do best\nThat's what you do best\nThat's what you do best (Hahahaha)\n\n[Bridge]\n(Why) Why was it easy for you?\n(Did) Did I deserve the abuse?\n(I) I can't believe I let it\n(Not) Not what I wanted\n(See) See through your bullshit\n(Your) You're so traumatic\n(True) True to your form of\n(Face) Every consequence\n(Un-) Unintimidated\n(-'til) 'Til the very end\n(It) It'll never happen\n(Was) Was it all a lie?\n(Too) Many motherfuckers\n(Late) That's what you do best\n(Lie) That's what you do best\n(Lie) That's what you do best\nThat's what you do best\n\n[Chorus]\nA home like yours is upside down\nToo much animosity\nNobody does it better than the enemy\nA hope like yours won't help me now\nYou can do your worst to me\nAt the end of the day, that's what you do best\nA home like yours is upside down\nToo much animosity\nNobody does it better than the enemy\nA hope like yours won't help me now\nYou can do your worst to me\nAt the end of the day, that's what you do best\nA home like yours is upside down\nYou can do your worst to me\nAt the end of the day, that's what you do best\nA hope like yours won't help me now\nYou can do your worst to me\nAt the end of the day, that's what you do best\n[Outro]\nThat's what you do, that's what you do best, yeah\n(That's what you do best)\n(That's what you do best)\n(That's what you do best)\n(That's what you do best)\n(That's what you do best)\n(That's what you do best)\nThat's what you do best, that's what you do best", 'annotations': {'description': '&lt;p&gt;“Nero Forte,” the fifth song on &lt;a href="https://genius.com/artists/Slipknot" rel="noopener" data-api_path="/artists/20222"&gt;Slipknot&lt;/a&gt;’s sixth studio album &lt;a href="https://genius.com/albums/Slipknot/We-are-not-your-kind" rel="noopener" data-api_path="/albums/529839"&gt;&lt;i&gt;We Are Not Your Kind&lt;/i&gt;&lt;/a&gt; (as well as being the fourth and final single from the album), is more akin to the heavy, fast-paced metal that dominated the band’s previous work. Like some of the other songs on the album, the lyrics concern lead singer &lt;a href="https://genius.com/artists/Corey-taylor" rel="noopener" data-api_path="/artists/44044"&gt;Corey Taylor&lt;/a&gt; and his then-depressive state, casting his depression as an entity that drains him of his being.&lt;/p&gt;\n\n&lt;p&gt;The song’s title could have a couple of meanings. “Nero” and “Forte” are both Italian words that, combined, mean “Strong Black” in English. However, there was also a famous Roman emperor named &lt;a href="https://www.history.com/topics/ancient-history/nero" rel="noopener nofollow"&gt;Nero&lt;/a&gt;, and &lt;a href="https://www.merriam-webster.com/dictionary/forte" rel="noopener nofollow"&gt;“Forte”&lt;/a&gt; can mean something that a person excels at. This meaning is verified further by the pre-chorus, in which Corey sings:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;That’s what you do best&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Thus, the second meaning is more valid, as it implies Corey’s depression takes control of him, and, of course, that is what the depression succeeds in doing the most.&lt;/p&gt;\n\n&lt;p&gt;When talking about the song, guitarist &lt;a href="https://genius.com/artists/Jim-root" rel="noopener" data-api_path="/artists/376537"&gt;Jim Root&lt;/a&gt; &lt;a href="https://www.kerrang.com/features/slipknot-jim-roots-track-by-track-guide-to-we-are-not-your-kind/" rel="noopener nofollow"&gt;stated&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;This is also a &lt;a href="https://genius.com/artists/Shawn-crahan" rel="noopener" data-api_path="/artists/76299"&gt;Clown&lt;/a&gt; song, which is amazing. This one is going to be great live. It’s very percussive, and reminiscent of &lt;a href="https://genius.com/Slipknot-psychosocial-lyrics" rel="noopener" data-api_path="/songs/295819"&gt;“Psychosocial”&lt;/a&gt;—but maybe an evolution of “Psychosocial.” Obviously, Clown is a drummer and percussionist, but he’s also a songwriter—and he always has been. Now we’re able to collaborate as songwriters, and this is what we end up with. When Corey came in and started diving into the vocals, he came up with this extra melody in the chorus line, very late into the process. That really drew me into this song.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;A &lt;a href="https://m.youtube.com/watch?v=JGNqvH9ykfA&amp;amp;list=FLHtJ_xW97_ehghGDqXSO1rQ&amp;amp;index=2" rel="noopener nofollow"&gt;music video&lt;/a&gt; for the song was released in December 2019.&lt;/p&gt;', 'producers': [{'name': 'Slipknot', 'url': 'https://genius.com/artists/Slipknot'}, {'name': 'Greg Fidelman', 'url': 'https://genius.com/artists/Greg-fidelman'}], 'writers': [{'name': 'Sid Wilson', 'url': 'https://genius.com/artists/Sid-wilson'}, {'name': 'Jay Weinberg', 'url': 'https://genius.com/artists/Jay-weinberg'}, {'name': 'Alessandro Venturella', 'url': 'https://genius.com/artists/Alessandro-venturella'}, {'name': 'Jim Root', 'url': 'https://genius.com/artists/Jim-root'}, {'name': 'Craig Jones', 'url': 'https://genius.com/artists/Craig-jones'}, {'name': 'Shawn Crahan', 'url': 'https://genius.com/artists/Shawn-crahan'}, {'name': 'Mick Thomson', 'url': 'https://genius.com/artists/Mick-thomson'}, {'name': 'Corey Taylor', 'url': 'https://genius.com/artists/Corey-taylor'}], 'labels': [{'name': 'Roadrunner Records', 'url': 'https://genius.com/artists/Roadrunner-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Atreyu-the-time-is-now-lyrics', 'lyrics': "[Intro]\nAy-ay, ay, ay-ay-ay-ay\nAy-ay-ay-ay, ay\nAy-ay, ay, ay-ay-ay-ay\nAy-ay-ay-ay, ay\n\n[Verse 1]\nAt the starting line, a never ending race\nWhat I've got inside isn't commonplace\nI've been dreaming 'bout hope for better days\nTime for dreaming's done, time to face the sun\n\n[Pre-Chorus]\n(Flying high above the world)\nIt's a new life, it's a new mind\nAnd I will never fall\n\n[Chorus]\n(The time is now)\nI can't contain myself, I've never felt so alive\n(The time is now)\nI'm past the breaking point, I set my soul on fire\nAy-ay, ay, ay-ay-ay-ay\nAy-ay-ay-ay, ay\n(The time is now)\nAy-ay, ay, ay-ay-ay-ay\nAy-ay-ay-ay, ay\n(The time is now)\n[Verse 2]\nI cannot stop, see another way\nAm I looking for another cheap escape?\nI've been pushing forward, crushing everything\nIt's a push and pull, it's a give and take\n\n[Pre-Chorus]\n(Flying high above)\nAnd it's a new life, it's a new mind\nAnd I will never fall\n\n[Chorus]\n(The time is now)\nI can't contain myself, I've never felt so alive\n(The time is now)\nI'm past the breaking point, I set my soul on fire\nAy-ay, ay, ay-ay-ay-ay\nAy-ay-ay-ay, ay\n(The time is now)\nAy-ay, ay, ay-ay-ay-ay\nAy-ay-ay-ay, ay\n(The time is now)\n\n[Breakdown]\nNow (Hey, hey)\nNow (Hey, hey)\nNow (Hey, hey)\nNow (Hey, hey)\n[Refrain]\nAy-ay, ay, ay-ay-ay-ay\nAy-ay-ay-ay, ay\nAy-ay, ay, ay-ay-ay-ay\nAy-ay-ay-ay, ay\n\n[Chorus]\n(The time is now)\nI can't contain myself, I've never felt so alive\n(The time is now)\nI'm past the breaking point, I set my soul on fire\nAy-ay, ay, ay-ay-ay-ay\nAy-ay-ay-ay, ay\n(The time is now)\nAy-ay, ay, ay-ay-ay-ay\nAy-ay-ay-ay, ay\n(The time is now)", 'annotations': {'description': '', 'producers': [{'name': 'John Feldmann', 'url': 'https://genius.com/artists/John-feldmann'}], 'writers': [{'name': 'Brandon Saller', 'url': 'https://genius.com/artists/Brandon-saller'}, {'name': 'Dan Jacobs', 'url': 'https://genius.com/artists/Dan-jacobs'}, {'name': 'Travis Miguel', 'url': 'https://genius.com/artists/Travis-miguel'}, {'name': 'Alex Varkatzas', 'url': 'https://genius.com/artists/Alex-varkatzas'}, {'name': 'John Feldmann', 'url': 'https://genius.com/artists/John-feldmann'}], 'labels': [{'name': 'Spinefarm Records', 'url': 'https://genius.com/artists/Spinefarm-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Falling-in-reverse-popular-monster-lyrics', 'lyrics': "[Intro]\nYeah\n\n[Verse 1]\nI wake up every morning with my head up in a daze\nI'm not sure if\u2005I\u2005should say this,\u2005fuck, I'll say it anyway\nEverybody tries\u2005to tell me that I'm goin' through a phase\nI don't know if it's a phase, I just wanna feel okay, yeah\nI battle with depression, but the question still remains\nIs this post-traumatic stressin' or am I suppressin' rage?\nAnd my doctor tries to tell me that I'm going through a phase\nYeah, it's not a fuckin' phase, I just wanna feel okay\n\n[Pre-Chorus]\nOkay, yeah, I struggle with this bullshit every day\nAnd it's probably 'cause my demons simultaneously rage\nIt obliterates me, disintegrates me, annihilates me\n\n[Chorus]\n'Cause I'm about to break down\nI'm searchin' for a way out\nI'm a liar, I'm a cheater, I'm a non-believer\nI'm a popular, popular monster\nI break down\nFalling into love now\nWith falling apart\nI'm a popular, popular monster\n[Verse 2]\nI think I'm going nowhere like a rat trapped in a maze\nEvery wall that I knock down is just a wall that I'll replace\nI'm in a race against myself, I try to keep a steady pace\nHow the fuck will I escape if I never close my case?\nOh my God, I keep on stressin', every second that I waste\nIs another second sooner to a blessing I won't take\nBut my therapist will tell me that I'm going through a stage\nYeah, it's not a fucking stage, I just wanna feel okay\n\n[Pre-Chorus]\nOkay, motherfucker, now you got my attention\nI need to change a couple things 'cause somethin' is missing\nAnd what if I were to lie? Tell you everything is fine\nEvery single fucking day I get closer to the grave\nI am terrified, I fell asleep at the wheel again\nCrashed my car just to feel again\nIt obliterates me, disintegrates me, annihilates me\n\n[Chorus]\n'Cause I'm about to break down\nI'm searchin' for a way out\nI'm a liar, I'm a cheater, I'm a non-believer\nI'm a popular, popular monster\nI break down\nFalling into love now\nWith falling apart\nI'm a popular, popular fucking monster, yeah\n[Breakdown]\nYeah, here we go again, motherfucker, oh\nWe're sick and tired of wondering\nPraying to a god that you don't believe\nYou're searching for the truth in the lost and found\nSo the question I ask is, yeah, where the fuck is your god now?\n\n[Chorus]\n'Cause I'm about to break down\nI'm searchin' for a way out\nI'm a liar, I'm a cheater, I'm a non-believer\nI'm a popular, popular monster\nI break down\nFalling into love now\nWith falling apart\nI'm a popular, popular monster\n\n[Outro]\nI'm a liar, I'm a cheater, I'm a non-believer\nI'm a popular, popular monster", 'annotations': {'description': '&lt;p&gt;“Popular Monster” is Falling in Reverse’s fourth standalone single and talks about Ronnie Radke’s depression and accusations in his whole life. &lt;a href="https://loudwire.com/falling-in-reverse-popular-monster/?utm_source=tsmclip&amp;amp;utm_medium=referral" rel="noopener nofollow"&gt;As the vocalist said to &lt;em&gt;Loudwire&lt;/em&gt;:&lt;/a&gt;&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;It’s the story of a hero that’s been falsely accused and torn down by society. It shows what happens when you get pushed too far. You become exactly what they say you are, exactly what they want you to be—a monster.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;The vocalist is someone people &lt;a href="https://www.youtube.com/watch?v=d3qvd6SUOpM" rel="noopener nofollow"&gt;“love to hate”&lt;/a&gt; and he feels pressured by this. In his entire life as a musician, &lt;a href="https://www.reddit.com/r/Metalcore/comments/1t0ecd/why_does_everyone_hate_ronnie_radke/" rel="noopener nofollow"&gt;he’s been accused of:&lt;/a&gt;&lt;/p&gt;\n\n&lt;ol&gt;\n&lt;li&gt;Throwing mic stands into the crowd;&lt;/li&gt;\n&lt;li&gt;Physical abuse to girlfriend;&lt;/li&gt;\n&lt;li&gt;Not getting along with anyone;&lt;/li&gt;\n&lt;li&gt;Kicking &lt;a href="https://genius.com/artists/I-see-stars" rel="noopener" data-api_path="/artists/230189"&gt;I See Stars&lt;/a&gt; off their tour, not paying them for being on tour with them.&lt;/li&gt;\n&lt;/ol&gt;\n\n\n&lt;p&gt;Whether the accusations are fake or not, people tend to see him as a horrible person.&lt;/p&gt;', 'producers': [{'name': 'MYTH', 'url': 'https://genius.com/artists/Myth'}, {'name': 'Ronnie Radke', 'url': 'https://genius.com/artists/Ronnie-radke'}], 'writers': [{'name': 'MYTH', 'url': 'https://genius.com/artists/Myth'}, {'name': 'Cody Quistad', 'url': 'https://genius.com/artists/Cody-quistad'}, {'name': 'Ronnie Radke', 'url': 'https://genius.com/artists/Ronnie-radke'}], 'labels': [{'name': 'Epitaph Records', 'url': 'https://genius.com/artists/Epitaph-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/I-prevail-hurricane-lyrics', 'lyrics': "[Verse 1]\nTell me I was never good enough\nRemind me of the demons that I've been running from\nTell me who the hell you thought I was\nOr just blame it on the person, the person I've become\n\n[Pre-Chorus]\nLately, I don't give a fuck\n'Cause I can't be myself when I'm with anyone\nMaybe I'm already gone\nI'll never be the same\n\n[Chorus]\nIt hit me like a hurricane\nIt hit me like a tidal wave\nAnd I don't know why I drown my mind in everything they say\nIt hit me like a hurricane\nIt hit me like a tidal wave\nAnd I don't know why I drown my mind, it got the best of me\n\n[Verse 2]\nTell me that I'm lost inside my mind\n(I reach out, but it's pulling me under)\nRemind me I've been searching for something I won't find\nTell me I was never worth the time\n(I reach out, but it's pulling me under)\nOr just blame it on the person you think I left behind\n[Pre-Chorus]\nLately, I don't give a fuck\n'Cause I can't be myself when I'm with anyone\nMaybe I'm already gone\nI'll never be the same\n\n[Chorus]\nIt hit me like a hurricane\nIt hit me like a tidal wave\nAnd I don't know why I drown my mind in everything they say\nIt hit me like a hurricane (Hurricane)\nIt hit me like a tidal wave (Tidal wave)\nAnd I don't know why I drown my mind, it got the best of me\n\n[Bridge]\nWith your life on the line\nReady to die for something\nWhen you're at the divide\nAnd you're down to nothing\nLook into my eyes\nBelieve me that the storm is coming\nBelieve me that the storm is coming\nDown, down, down\nIt's coming down\n\n[Chorus]\nIt hit me like a hurricane\nIt hit me like a tidal wave\nAnd I don't know why I drown my mind in everything they say\nIt hit me like a hurricane (Hurricane)\nIt hit me like a tidal wave (Tidal wave)\nAnd I don't know why I drown my mind, it got the best of me\n[Post-Chorus]\nIt's coming down, down\nBelieve me that the storm is coming down\n\n[Outro]\nLately, I don't give a fuck\n'Cause I can't be myself when I'm with anyone\nAnd maybe I'm already gone", 'annotations': {'description': '&lt;p&gt;“Hurricane” is a suitably stormy track, accompanied by a &lt;a href="https://youtu.be/zhMt7kvgzRM" rel="noopener nofollow"&gt;music video&lt;/a&gt;, in which clean vocalist Brian Burkheiser explains the emotional and mental turmoil I Prevail went through  in their music career. “Hurricane” details their struggle, with explosive bass and Eric Vanlerberghe’s unclean vocals.&lt;/p&gt;', 'producers': [{'name': 'MYTH', 'url': 'https://genius.com/artists/Myth'}], 'writers': [{'name': 'MYTH', 'url': 'https://genius.com/artists/Myth'}, {'name': 'Steve Menoian', 'url': 'https://genius.com/artists/Steve-menoian'}, {'name': 'John August Pregler', 'url': 'https://genius.com/artists/John-august-pregler'}, {'name': 'Eric Vanlerberghe', 'url': 'https://genius.com/artists/Eric-vanlerberghe'}, {'name': 'Bernard James Perry', 'url': 'https://genius.com/artists/Bernard-james-perry'}, {'name': 'Brian Burkheiser', 'url': 'https://genius.com/artists/Brian-burkheiser'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Asking-alexandria-they-dont-want-what-we-want-and-they-dont-care-lyrics', 'lyrics': "[Intro]\nCan you feel the hairs stand on the back of your neck?\nCan you feel your\u2005heart\u2005beating right out\u2005of your chest?\n(Panic)\n(Panic)\n\n[Verse 1]\nThere's something strange going\u2005on in this room\nThe walls are melting, I can hear the ceiling screaming to come down\nI can't believe we built this room\nIt was meant to be a sanctuary, not a prison\nThere's something strange going on in this house\nIt's like we're pushing all these buttons, trying to start a war\nAmongst ourselves, but we don't know what we want\nAll we know's that we don't want what they want\n\n[Pre-Chorus]\nWhat we want\nWhat they want\nWhat we want\nWhat we want\n\n[Chorus]\nCan you feel the hairs stand on the back of your neck?\nCan you feel your heart beating right out of your chest?\nCan you feel your bones ache like there's something within?\nCan you feel your blood pumping inside of your skin?\nCan you feel it? (Panic) Panic, (Panic) panic\nCan you feel it? (Panic) Panic, (Panic) panic\n[Verse 2]\nThere's something wrong with the castle they're in\nWatching over every single move that we make\nTry to see past their perfect smiles\nThey were supposed to be protectors, not o-fucking-ppressors\nThere's something wrong with the way that they speak\nLike the more they take from us, the better off that we'll be\nAnything to get power they seek\nAll I know's that they don't want what we want\n\n[Pre-Chorus]\nWhat we want\nWhat they want\nWhat we want\nWhat we want\n\n[Chorus]\nCan you feel the hairs stand on the back of your neck?\nCan you feel your heart beating right out of your chest?\nCan you feel your bones ache like there's something within?\nCan you feel your blood pumping inside of your skin?\nCan you feel it? (Panic) Panic, (Panic) panic\nCan you feel it? (Panic) Panic, (Panic) panic\n\n[Outro]\nWe don't want what they want\nThey don't want what we want\nWe don't want what they want\nAnd they don't care! (Panic!)\nPanic, panic", 'annotations': {'description': '&lt;p&gt;“They Don’t Want What We Want (And They Don’t Care)” is 2020’s &lt;em&gt;Like a House on Fire&lt;/em&gt; second single and it talks about childhood and dreams, sometimes what one’s want isn’t what their family wants. &lt;a href="https://www.kerrang.com/features/asking-alexandria-the-story-behind-like-a-house-on-fire/" rel="noopener nofollow"&gt;As Ben Bruce said to &lt;em&gt;Kerrang!&lt;/em&gt;:&lt;/a&gt;&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;This song starts with a sound like a ticking clock, which represents our learning over time: these things building up to the point where they’re ready to explode. But music should be open to interpretation. Right now, the song reminds me of starting sixth form college and the head of the school sitting us down and saying that she hoped we’d outgrown the ‘childish dreams’ of being a rock star or a sports star. I remember feeling so defeated, so angry and upset. But there was a realisation that she just wanted us to leave with great grades to become doctors and lawyers because that looked good for the school. She didn’t have my best interests at heart. There were other teachers who did! The lesson is that people will always set barriers up, segregate you from like-minds and pit people against each other. It’s a reminder not to let people dictate who you are, where you should be or what you should be doing. Only you can decide that for yourself!&lt;/p&gt;&lt;/blockquote&gt;', 'producers': [{'name': 'Matt Good', 'url': 'https://genius.com/artists/Matt-good'}], 'writers': [{'name': 'Sam Bettley', 'url': 'https://genius.com/artists/Sam-bettley'}, {'name': 'James Cassells', 'url': 'https://genius.com/artists/James-cassells'}, {'name': 'Cameron Liddell', 'url': 'https://genius.com/artists/Cameron-liddell'}, {'name': 'Ben Bruce', 'url': 'https://genius.com/artists/Ben-bruce'}, {'name': 'Danny Worsnop', 'url': 'https://genius.com/artists/Danny-worsnop'}], 'labels': [{'name': 'Sumerian Records', 'url': 'https://genius.com/artists/Sumerian-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Avenged-sevenfold-bat-country-lyrics', 'lyrics': "[Intro]\nHe who makes a beast out of himself\nGets rid of the pain of being a man\n\n[Verse 1]\nCaught here in a fiery blaze, won't lose my will to stay\nI tried, to drive all through the night\nThe heat stroke ridden weather, the barren empty sights\nNo oasis, here to see\nThe sand is singing deathless words to me\n\n[Chorus]\nCan't you help me as I'm startin' to burn? (All alone)\nToo many doses, and I'm starting to get an attraction\nMy confidence is leaving me on my own (All alone)\nNo one can save me, and you know I don't want the attention\n\n[Verse 2]\nAs I, adjust to my new sights\nThe rarely tired lights, will take me to new heights\nMy hand is on the trigger, I'm ready to ignite\nTomorrow might not make it, but everything's all right\nMental fiction, follow me\nShow me what it's like to be set free\n\n[Chorus]\nCan't you help me as I'm startin' to burn? (All alone)\nToo many doses, and I'm starting to get an attraction\nMy confidence is leaving me on my own (All alone)\nNo one can save me, and you know I don't want the attention\n[Post-Chorus]\nSo sorry you're not here, I've\nBeen sane too long, my vision's so unclear\nNow take a trip with me, but\nDon't be surprised when things aren't what they seem\n\n[Bridge]\nCaught here in a fiery blaze, won't lose my will to stay\nThese eyes won't see the same, after I flip today\n\n[Verse 3]\nSometimes I don't know why, we'd rather live than die\nWe look up towards the sky, for answers to our lives\nWe may get some solutions, but most just pass us by\nDon't want your absolution, 'cause I can't make it right\n\n[Hook]\nI'll make a beast out of myself\nGets rid of all the pain of being a man\n\n[Chorus]\nCan't you help me as I'm startin' to burn? (All alone)\nToo many doses and I'm starting to get an attraction\nMy confidence is leaving me on my own (All alone)\nNo one can save me and you know I don't want the attention\n[Post-Chorus]\nSo sorry you're not here, I've\nBeen sane too long my vision's so unclear\nNow take a trip with me, but\nDon't be surprised when things aren't what they seem\n\n[Outro]\nI've known it from the start, all\nThese good ideas will tear your brain apart\nScared but you can follow me, I'm\nToo weird to live but much too rare to die", 'annotations': {'description': '&lt;p&gt;This is the song that brought Avenged Sevenfold into the mainstream. It is the second single off the album.&lt;/p&gt;\n\n&lt;p&gt;The song’s theme functions as a reference to Hunter S. Thompson’s novel &lt;em&gt;&lt;a href="http://en.wikipedia.org/wiki/Fear_and_Loathing_in_Las_Vegas" rel="noopener nofollow"&gt;Fear and Loathing in Las Vegas&lt;/a&gt;&lt;/em&gt; (1971, 1972), and the &lt;a href="http://www.imdb.com/title/tt0120669/?ref_=nv_sr_1" rel="noopener nofollow"&gt;film adaptation&lt;/a&gt; released in 1998 with Johnny Depp.&lt;/p&gt;\n\n&lt;p&gt;The function is carried out on multiple levels:&lt;br&gt;\nits lyrics make obvious references to the novel (e.g. “He who makes a beast of himself gets rid of the pain of being a man” is a quote from Samuel Johnson that is used as the preface to the book); the music video for this song recreates some scenes from the film; the ups and downs of the verses and post-choruses (i.e. “So sorry you’re not here…”), respectively, are meant to represent the highs and lows of a drug trip.&lt;/p&gt;', 'producers': [{'name': 'Mudrock', 'url': 'https://genius.com/artists/Mudrock'}, {'name': 'Avenged Sevenfold', 'url': 'https://genius.com/artists/Avenged-sevenfold'}], 'writers': [{'name': 'Jimmy “The Rev” Sullivan', 'url': 'https://genius.com/artists/Jimmy-the-rev-sullivan'}, {'name': 'Zacky Vengeance', 'url': 'https://genius.com/artists/Zacky-vengeance'}, {'name': 'Synyster Gates', 'url': 'https://genius.com/artists/Synyster-gates'}, {'name': 'M. Shadows', 'url': 'https://genius.com/artists/M-shadows'}, {'name': 'Jonathan Seward', 'url': 'https://genius.com/artists/Jonathan-seward'}], 'labels': [{'name': 'Warner Records', 'url': 'https://genius.com/artists/Warner-records'}, {'name': 'Warner Music Group', 'url': 'https://genius.com/artists/Warner-music-group'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Slipknot-wait-and-bleed-lyrics', 'lyrics': "[Chorus]\nI've felt the hate rise up in me\nKneel down and clear the stone of leaves\nI wander out where you can't see\nInside my shell, I wait and bleed\nI've felt the hate rise up in me\nKneel down and clear the stone of leaves\nI wander out where you can't see\nInside my shell, I wait and bleed\n\n[Post-Chorus]\nGoodbye\n\n[Verse 1]\nI wipe it off on tile, the light is brighter this time\nEverything is 3D blasphemy\nMy eyes are red and gold, the hair is standing straight up\nThis is not the way I pictured me\nI can't control my shakes, how the hell did I get here?\nSomething about this, so very wrong\nI have to laugh out loud, I wish I didn't like this\nIs it a dream or a memory?\n\n[Chorus]\nI've felt the hate rise up in me\nKneel down and clear the stone of leaves\nI wander out where you can't see\nInside my shell, I wait and bleed\n[Verse 2]\nGet outta my head 'cause I don't need this, why didn't I see this?\nBut I'm a victim, Manchurian candidate\nI have sinned by just\nMaking my mind up and taking your breath away\n\n[Chorus]\nI've felt the hate rise up in me\nKneel down and clear the stone of leaves\nI wander out where you can't see\nInside my shell, I wait and bleed\nI've felt the hate rise up in me\nKneel down and clear the stone of leaves\nI wander out where you can't see\nInside my shell, I wait and bleed\n\n[Post-Chorus]\nGoodbye!\n\n[Bridge]\nYou haven't learned a thing\nI haven't changed a thing\nThe flesh was in my bones\nThe pain was always free\nYou haven't learned a thing\nI haven't changed a thing\nThe flesh was in my bones\nThe pain was always free\n[Chorus]\nI've felt the hate rise up in me\nKneel down and clear the stone of leaves\nI wander out where you can't see\nInside my shell, I wait and bleed\nI've felt the hate rise up in me\nKneel down and clear the stone of leaves\nI wander out where you can't see\nInside my shell, I wait and bleed\n\n[Outro]\nAnd it waits for you", 'annotations': {'description': '&lt;p&gt;“Wait and Bleed” is about a man who has constant dreams of his suicide by slitting his wrists. One day, he wakes to find that his dream is a reality. He tries to fall back to sleep, but he realizes that this is it. This is final. He has finally done it.&lt;/p&gt;\n\n&lt;p&gt;It was nominated for the Grammy for Best Metal Performance in 2001, losing to &lt;a href="https://genius.com/Deftones-elite-lyrics" rel="noopener" data-api_path="/songs/140222"&gt;Deftones\' “Elite.”&lt;/a&gt; Slipknot would have three further nominations (&lt;a href="https://genius.com/Slipknot-left-behind-lyrics" rel="noopener" data-api_path="/songs/423452"&gt;“Left Behind”&lt;/a&gt; in 2002, &lt;a href="https://genius.com/Slipknot-my-plague-lyrics" rel="noopener" data-api_path="/songs/248234"&gt;“My Plague”&lt;/a&gt; in 2003 and &lt;a href="https://genius.com/Slipknot-vermilion-lyrics" rel="noopener" data-api_path="/songs/235028"&gt;“Vermillion”&lt;/a&gt; in 2005) before winning the Grammy in 2006 with &lt;a href="https://genius.com/Slipknot-before-i-forget-lyrics" rel="noopener" data-api_path="/songs/134527"&gt;“Before I Forget.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;There were two music videos released for the song. &lt;a href="https://www.youtube.com/watch?v=B1zCN0YhW1s" rel="noopener nofollow"&gt;The first&lt;/a&gt; was directed by Thomas Mignone and is footage of the band’s appearance at Ozzfest overdubbed with the studio version of the song.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://www.youtube.com/watch?v=YPhvqP-eWWM" rel="noopener nofollow"&gt;The second video&lt;/a&gt; features clay dolls of the band members outwitting and killing a scientist attempting to capture them.&lt;/p&gt;\n\n&lt;p&gt;For the single release, the song was &lt;a href="https://www.youtube.com/watch?v=dhYl0FLgqss" rel="noopener nofollow"&gt;remixed&lt;/a&gt; by Terry Date and featured slight tweaks to the instrumentation and vocals. This version and the &lt;a href="https://www.youtube.com/watch?v=j_Zj1OhfB4I" rel="noopener nofollow"&gt;demo&lt;/a&gt; were both included on the &lt;a href="https://genius.com/albums/Slipknot/Slipknot-10th-anniversary-edition" rel="noopener" data-api_path="/albums/122598"&gt;&lt;em&gt;10th Anniversary Edition&lt;/em&gt;&lt;/a&gt; of the debut album.&lt;/p&gt;', 'producers': [{'name': 'Slipknot', 'url': 'https://genius.com/artists/Slipknot'}, {'name': 'Ross Robinson', 'url': 'https://genius.com/artists/Ross-robinson'}], 'writers': [{'name': 'Mick Thomson', 'url': 'https://genius.com/artists/Mick-thomson'}, {'name': 'Joey Jordison', 'url': 'https://genius.com/artists/Joey-jordison'}, {'name': 'Paul Gray', 'url': 'https://genius.com/artists/Paul-gray'}, {'name': 'Shawn Crahan', 'url': 'https://genius.com/artists/Shawn-crahan'}, {'name': 'Corey Taylor', 'url': 'https://genius.com/artists/Corey-taylor'}], 'labels': [{'name': 'Roadrunner Records', 'url': 'https://genius.com/artists/Roadrunner-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Nothing-more-jenny-lyrics', 'lyrics': "[Verse 1]\nA little sleep, a little slumber\nA little folding of the hands\nLeft you weak, left you hungry\nWhen there's supply you still demand\nYou're beginning to drag the ones you love down\nWill this phase ever end?\nA thousand arms to hold you\nBut you won't reach for any hands\n'Cause\n\u200b\n[Pre-Chorus]\nI don't feel like I'm getting through to you\nLet me paint this clear\nLife is short, my dear\nSee your mother here\nHer last painful year\nI wish you only knew\nShe stuck around for you\nShe stuck around for you\n\u200b\n[Chorus]\nMaybe you should just fall\nAnd Leave the world and lose it all\nAnd if that's what you need\nTo finally see\nI'll be with you through it all\u200b\n[Verse 2]\nBring on the pills, roll the dollar bill\nMedicating will never heal\nRelapse, rehab, repeat\nAlways thinking about the me, me, me\nSelf-destruct, spiral down\nUntil your want becomes your need\nPlease get up like I know you can\nOr forever love the fall\n'Cause\n\n[Pre-Chorus]\nI don't feel like I'm getting through to you\nLet me paint this clear\nLife is short, my dear\nSee your mother here\nHer last painful year\nI wish you only knew\nShe stuck around for you\nShe stuck around for you\n\n[Chorus]\nMaybe you should just fall (Just fall)\nAnd Leave the world and lose it all (Leave the world and lose it all)\nAnd if that's what you need\nTo finally see\nI'll be with you through it all (I'll be with you through it all)\n[Bridge]\nI can't stand to see you down\nStrung out, off the wagon, and unwound\nBut steady, steady, oh God, Jenny, Jenny\n(I can't)\nBear to hear the sound\nOf your body, body hitting the ground\nI can't stand to see you down\nStrung out, off the wagon, and unwound\nBut steady, steady, oh God, Jenny, Jenny\nI can't bear to hear the sound\nOf your body, body hitting the ground\nOh, Jenny, Jenny, Jenny\n(She stuck around for you)\nShe stuck around for you (She stuck around for you)\n\u200b\n[Chorus]\nMaybe you should just fall\nLeave the world and lose it all\nIf that's what you need\nTo finally see, she loved you through it all\u200b\n(She loved you)\nMaybe you should just fall (Leave the world and lose it all)\n(All)\nIf that's what you need\nTo finally see\nShe loved you through it all\u200b\n[Outro]\nI'll be with you through it all", 'annotations': {'description': '&lt;p&gt;Lead singer Jonny Hawkins wrote this song about his sister Jenna, who suffers from bipolar disorder and has schizophrenic tendencies.&lt;/p&gt;\n\n&lt;p&gt;Their mother was diagnosed with cancer, and despite fighting that, she stuck around to take care of Jenny for another year before her death (hence the lines ‘See your mother here, her last painful year/I wish you only knew/She stuck around for you).&lt;/p&gt;\n\n&lt;p&gt;Jonny also explained in an interview how Jenna was named after their aunt, who also suffered from bipolarity and schizophrenia. She was marked to be damaged since birth, and ever since she’s had those mental problems.&lt;/p&gt;', 'producers': [{'name': 'Jonny Hawkins', 'url': 'https://genius.com/artists/Jonny-hawkins'}], 'writers': [{'name': 'Mark Vollelunga', 'url': 'https://genius.com/artists/Mark-vollelunga'}, {'name': 'Daniel Oliver', 'url': 'https://genius.com/artists/Daniel-oliver'}, {'name': 'Will Hoffman', 'url': 'https://genius.com/artists/Will-hoffman'}, {'name': 'Jonny Hawkins', 'url': 'https://genius.com/artists/Jonny-hawkins'}], 'labels': [{'name': 'Eleven Seven Music', 'url': 'https://genius.com/artists/Eleven-seven-music'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Five-finger-death-punch-wash-it-all-away-lyrics', 'lyrics': "[Verse 1]\nI've given up on society\nUp on my family\nUp on your social disease\nI've given up on the industry\nUp on democracy\nDone with all your hypocrisy\n\n[Pre-Chorus]\nAll of the chaos\nAnd all of the lies\nI hate it\n\n[Chorus]\nI'm wasting here, can anyone\nWash it all away?\nI'm waiting here for anyone\nTo wash it all away\n\nWash it all away\n\n[Verse 2]\nI've given up on the media\nFeeds my hysteria\nSick of living down on my knees\nI've given up on morality\nFeeds my brutality\nFuck what you think about me\n[Pre-Chorus]\nAll of the chaos\nAnd all of the lies\nI hate it\n\n[Chorus]\nI'm wasting here, can anyone\nWash it all away?\nI'm waiting here for anyone\nTo wash it all away\n\nWash it all away\n\n[Bridge]\nI won't change for you\nAnd I can't take the pain\nThere's nothing you can do\nAnd there's nothing you can say\n\n[Solo]\n\n[Pre-Chorus]\nI've given up on everything\nUp on everything\nUp on everything\n[Chorus]\nI'm wasting here, can anyone\nWash it all away?\nI'm waiting here for anyone\nTo wash it all away\n\nWash it all away\n\nI'm wasting here with everyone\nJust wash it all away\nI'm waiting here for anyone\nTo wash it all away\n\nWash it all away\n\n[Outro]\nWash it all away", 'annotations': {'description': '&lt;p&gt;The third track and second official single from Five Finger Death Punch’s sixth album, &lt;a href="https://genius.com/albums/Five-finger-death-punch/Got-your-six" rel="noopener" data-api_path="/albums/126215"&gt;&lt;em&gt;Got Your Six&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;', 'producers': [{'name': 'Kevin Churko', 'url': 'https://genius.com/artists/Kevin-churko'}, {'name': 'Five Finger Death Punch', 'url': 'https://genius.com/artists/Five-finger-death-punch'}], 'writers': [{'name': 'Chris Kael', 'url': 'https://genius.com/artists/Chris-kael'}, {'name': 'Jeremy Spencer Heyde', 'url': 'https://genius.com/artists/Jeremy-spencer-heyde'}, {'name': 'Ivan Moody', 'url': 'https://genius.com/artists/Ivan-moody'}, {'name': 'Zoltan Bathory', 'url': 'https://genius.com/artists/Zoltan-bathory'}, {'name': 'Jason Hook', 'url': 'https://genius.com/artists/Jason-hook'}], 'labels': [{'name': 'Prospect Park Records', 'url': 'https://genius.com/artists/Prospect-park-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/My-chemical-romance-welcome-to-the-black-parade-lyrics', 'lyrics': '[Intro]\nWhen I was a young boy, my father\nTook me into the city to see a marching band\nHe said, "Son, when you grow up would you be\nThe savior of the broken, the beaten and the damned?"\nHe said, "Will you defeat them? Your demons\nAnd all the non-believers, the plans that they have made?\nBecause one day, I\'ll leave you a phantom\nTo lead you in the summer to join the black parade"\n\n[Refrain]\nWhen I was a young boy, my father\nTook me into the city to see a marching band\nHe said, "Son, when you grow up would you be\nThe savior of the broken, the beaten and the damned?"\n\n[Verse 1]\nSometimes I get the feeling she\'s watching over me\nAnd other times I feel like I should go\nAnd through it all, the rise and fall, the bodies in the streets\nAnd when you\'re gone, we want you all to know\n\n[Chorus]\nWe\'ll carry on, we\'ll carry on\nAnd though you\'re dead and gone, believe me\nYour memory will carry on, we\'ll carry on\nAnd in my heart, I can\'t contain it\nThe anthem won\'t explain it\n[Verse 2]\nA world that sends you reeling from decimated dreams\nYour misery and hate will kill us all\nSo paint it black and take it back, let\'s shout it loud and clear\nDefiant to the end we hear the call\n\n[Chorus]\nTo carry on, we\'ll carry on\nAnd though you\'re dead and gone, believe me\nYour memory will carry on, we\'ll carry on\nAnd though you\'re broken and defeated\nYour weary widow marches\n\n[Post-Chorus]\nOn and on, we carry through the fears (Oh, oh, oh)\nDisappointed faces of your peers (Oh, oh, oh)\nTake a look at me \'cause I could not care at all\n\n[Bridge]\nDo or die, you\'ll never make me\nBecause the world will never take my heart\nGo and try, you\'ll never break me\nWe want it all, we wanna play this part\nI won\'t explain or say I\'m sorry\nI\'m unashamed, I\'m gonna show my scars\nGive a cheer for all the broken\nListen here, because it\'s who we are\nI\'m just a man, I\'m not a hero\nJust a boy who had to sing this song\nI\'m just a man, I\'m not a hero\nI don\'t care\n[Chorus]\nWe\'ll carry on, we\'ll carry on\nAnd though you\'re dead and gone, believe me\nYour memory will carry on, we\'ll carry on\nAnd though you\'re broken and defeated\nYour weary widow marches on\n\n[Outro]\nDo or die, you\'ll never make me\nBecause the world will never take my heart\nGo and try, you\'ll never break me\nWe want it all, we wanna play this part (We\'ll carry on)\nDo or die, you\'ll never make me (We\'ll carry on)\nBecause the world will never take my heart (We\'ll carry on)\nGo and try, you\'ll never break me (We\'ll carry)\nWe want it all, we wanna play this part (We\'ll carry on)', 'annotations': {'description': '&lt;p&gt;This song is on &lt;a href="https://genius.com/artists/My-chemical-romance" rel="noopener" data-api_path="/artists/18261"&gt;My Chemical Romance’s&lt;/a&gt; third studio album, entitled &lt;a href="https://genius.com/albums/My-chemical-romance/The-black-parade" rel="noopener" data-api_path="/albums/26560"&gt;&lt;em&gt;The Black Parade&lt;/em&gt;&lt;/a&gt;. The song, as well as the rest of the album, follows The Patient, a man who is dying, through death and beyond.&lt;/p&gt;\n\n&lt;p&gt;MCR frontman Gerard Way said in an &lt;a href="https://www.youtube.com/watch?v=vXdwo1znlQw" rel="noopener nofollow"&gt;interview&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;I’d like to think that when you die death comes for you however you want, and I feel that it’s your strongest memory—either from childhood or adulthood. […]&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;For this particular character […] called ‘The Patient,’ his strongest memory is of being a child and his father is taking him to this parade.&lt;/p&gt;\n\n&lt;p&gt;So when death comes to him, it comes in the form of a Black Parade.&lt;/p&gt;', 'producers': [{'name': 'My Chemical Romance', 'url': 'https://genius.com/artists/My-chemical-romance'}, {'name': 'Rob Cavallo', 'url': 'https://genius.com/artists/Rob-cavallo'}], 'writers': [{'name': 'Mikey Way', 'url': 'https://genius.com/artists/Mikey-way'}, {'name': 'Gerard Way', 'url': 'https://genius.com/artists/Gerard-way'}, {'name': 'Ray Toro', 'url': 'https://genius.com/artists/Ray-toro'}, {'name': 'Frank Iero', 'url': 'https://genius.com/artists/Frank-iero'}, {'name': 'Bob Bryar', 'url': 'https://genius.com/artists/Bob-bryar'}], 'labels': [{'name': 'Reprise Records', 'url': 'https://genius.com/artists/Reprise-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Thousand-foot-krutch-running-with-giants-lyrics', 'lyrics': "[Verse 1]\nI can be stupid, but not outrageous\nI can be sickness, but not contagious\nI can be empty, but I'm not nameless\nIt's the way that you love me, the way that you love me\nI can be patient, but I'm not waiting\nI can be shook up, but I'm not shaking\nI can be angry, but I'm not jaded\nIt's the way that you love me, the way that you love me\n\n[Pre-Chorus]\nI am not alone here\nI'm not on my own here\nI am not alone here\nI'm not on my own here\n(Cause I am)\n\n[Chorus]\nRunning with giants everywhere I go\nIt's an unspoken alliance\nSo I can just let go\nI've been running with giants everywhere I go\nIt's an unspoken alliance\nSo I can just let go\n\n[Verse 2]\nI can be outraged, but not a traitor\nI can be distant, but I'm no stranger\nI am a target, but without danger\nIt's the way that you love me, the way that you love me\nI can be strong, but not without weakness\nI can be helpless, but not defeated\nI can be cut deep, but I'm not bleeding\nIt's the way that you love me, the way that you love me\n[Pre-Chorus]\nI am not alone here\nI'm not on my own here\nI am not alone\nI'm not on my own\n(Cause I am)\n\n[Chorus]\nRunning with giants everywhere I go\nIt's an unspoken alliance\nSo I can just let go\nI've been running with giants everywhere I go\nIt's an unspoken alliance\nSo I can just let go\n\n[Bridge] X2\nI feel the pressure of 10 men when the floor cracks and the walls start movin' in\nI feel the strength that's from within\nKickin' down the doors and walls, we're comin' in\n\n[Chorus]\nRunning with giants everywhere I go\nIt's an unspoken alliance\nSo I can just let go\nI've been running with giants everywhere I go\nIt's an unspoken alliance\nSo I can just let go", 'annotations': {'description': '&lt;p&gt;“Running With Giants” first premiered live at &lt;a href="https://www.hardrockhotel.com/" rel="noopener nofollow"&gt;Hard Rock Hotel &amp;amp; Casino Las Vegas&lt;/a&gt; as part of the &lt;a href="http://radiocontraband.com/" rel="noopener nofollow"&gt;&lt;em&gt;4th Annual RadioContraband Rock Radio Convention 2016&lt;/em&gt;&lt;/a&gt;. &lt;a href="https://genius.com/artists/Trevor-mcnevan" rel="noopener" data-api_path="/artists/79362"&gt;Trevor Mcnevan&lt;/a&gt; descibed this song in &lt;a href="http://www.newreleasetoday.com/news_detail.php?newsid=1362" rel="noopener nofollow"&gt;an interview&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;This song charges the gates with no apologies, and comes out swingin\'. It’s the perfect example of what EXHALE was always intended to be, the heavier, more aggressive side to ‘INHALE’ (our last album). The albums were always meant to be a two-part story. If there was a song that best encompasses the ‘release the dogs’ symbolism of the new album’s title, it would be this one. In life, everyone wants to put you in a box, and label you. This song’s saying forget about what others think, they don’t know what’s best for you. Follow your own convictions, dreams and inspirations. Your value or success doesn’t depend on what others think of you. You’re worth more than that.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;&lt;strong&gt;Official Music Video&lt;/strong&gt;&lt;br&gt;\n&lt;a href="https://youtu.be/7RCZJIzNtc0" rel="noopener nofollow"&gt;https://youtu.be/7RCZJIzNtc0&lt;/a&gt;&lt;/p&gt;', 'producers': [{'name': 'Aaron Sprinkle', 'url': 'https://genius.com/artists/Aaron-sprinkle'}, {'name': 'Trevor McNevan', 'url': 'https://genius.com/artists/Trevor-mcnevan'}], 'writers': [{'name': 'Steve Augustine', 'url': 'https://genius.com/artists/Steve-augustine'}, {'name': 'Joel Bruyere', 'url': 'https://genius.com/artists/Joel-bruyere'}, {'name': 'Trevor McNevan', 'url': 'https://genius.com/artists/Trevor-mcnevan'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Egypt-central-white-rabbit-lyrics', 'lyrics': "[Intro]\nYour magic white rabbit\nHas left its writing on the wall\nWe follow like Alice\nAnd just keep diving down the hole\n\n[Verse 1]\nYou can't fix your broken promise\nOur ties have come undone\nI will not be used to be battered and abused\nIt's the reason why I choose to cut my losses\nYour lies fool no one\n\n[Pre-Chorus]\nYour magic white rabbit\nYour white room straight jacket\n\n[Chorus]\nYour magic white rabbit\nHas left its writing on the wall\nWe follow like Alice\nAnd just keep diving down the hole\nWe're falling and we're losing control\nYou're pulling us, dragging us down this dead end road\nWe follow like Alice\nAnd just keep diving down the hole\n[Verse 2]\nYou can't offer your poison to me\nIn your kingdom of filth\n\n[Pre-Chorus]\nWhite Rabbit\nStraight jacket\n\n[Chorus]\nYour magic white rabbit\nHas left its writing on the wall\nWe follow like Alice\nAnd just keep diving down the hole\nWe're falling and we're losing control\nYou're pulling us, dragging us down this dead end road\nWe follow like Alice\nAnd just keep diving down the hole\n\n[Bridge]\nI won't be pushed aside\nI will be heard\nI will get what I want\nWhat I deserve\nI won't be pushed aside\nI will be heard\nI will get what I want\nWhat I deserve\n[Pre-Chorus]\nWe're falling and we're losing control\nYou're pulling us, dragging us down this dead end road\n\n[Chorus]\nYour magic white rabbit\nHas left its writing on the wall\nWe follow like Alice\nAnd just keep diving down the hole\nWe're falling and we're losing control\nYou're pulling us, dragging us down this dead end road\nYour magic white rabbit\nHas left its writing on the wall\nWe follow like Alice\nAnd just keep diving down the hole\n\n[Outro]\nDiving down the hole", 'annotations': {'description': '&lt;p&gt;White Rabbit is the second and final studio album by the rock music group Egypt Central, released on May 31, 2011. The first single, “White Rabbit”, was released to radio stations on February 15, 2011 and made available on iTunes on March 1, 2011.[1] A 30-second preview of the album was posted on the official Egypt Central YouTube channel. The album was certified gold in Canada and platinum in the U.S.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/bd9589167c167fbf5a10933328c4416f.220x220x1.jpg" alt="" width="220" height="220" data-animated="false"&gt;&lt;/p&gt;', 'producers': [{'name': 'Skidd Mills', 'url': 'https://genius.com/artists/Skidd-mills'}], 'writers': [], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Thousand-foot-krutch-courtesy-call-lyrics', 'lyrics': "[Chorus]\nHey-o\nHere comes the danger up in this club\nWhen we get started man, we ain't gonna stop\nWe gonna turn it out 'til it gets too hot\nEverybody sing, hey-o\nTell 'em turn it up 'til they can't no more\nLet's get this thing shakin' like a disco ball\nThis is ya last warning, a courtesy call\nHey-o\nHere comes the danger up in this club\nWhen we get started man, we ain't gonna stop\nWe gonna turn it out 'til it gets too hot\nEverybody sing, hey-o\nTell 'em turn it up 'til they can't no more\nLet's get this thing shakin' like a disco ball\nThis is ya last warning, a courtesy call\n\n[Verse 1]\nI am not afraid of the storm that comes my way\nWhen it hits, it shakes me to the core\nAnd makes me stronger than before\nIt's not a question about trust\nBut will you stand with us?\nCan you feel it?\nMake it real and...\n[Pre-Chorus]\nOh, I think it might wash away tonight\nAwakened from this never-ending fight\nIt takes more than meets the eye\nThis war we're fighting is not just writing\n\n[Chorus]\nHey-o\nHere comes the danger up in this club\nWhen we get started man, we ain't gonna stop\nWe gonna turn it out 'til it gets too hot\nEverybody sing, hey-o\nTell 'em turn it up 'til they can't no more\nLet's get this thing shakin' like a disco ball\nThis is ya last warning, a courtesy call\n\n[Verse 2]\nThere's a rumble in the floor\nSo get prepared for war\nWhen it hits it'll knock you to the ground\nWhen it shakes up everything around\nBut survival is a must\nSo will you stand with us?\nCan you feel it?\nMake it real and make me feel it\n[Pre-Chorus]\nI think it might wash away tonight\nAwakened from this never-ending fight\nIt takes more than meets the eye\nThis war we're fighting is not just writing\n\n[Chorus]\nHey-o\nHere comes the danger up in this club\nWhen we get started man, we ain't gonna stop\nWe gonna turn it out 'til it gets too hot\nEverybody sing, hey-o\nTell 'em turn it up 'til they can't no more\nLet's get this thing shakin' like a disco ball\nThis is ya last warning, a courtesy call\nHey-o\nHere comes the danger up in this club\nWhen we get started man, we ain't gonna stop\nWe gonna turn it out 'til it gets too hot\nEverybody sing, hey-o\nTell 'em turn it up 'til they can't no more\nLet's get this thing shakin' like a disco ball\nThis is ya last warning, a courtesy call", 'annotations': {'description': '&lt;p&gt;The entire song is a forewarning to prepare for Revelation, as known as the Second Coming of Christ (the end of the world). Further analysis, shows the song go into more depth about the states of individuals and how we will treat one another when all this is to come.&lt;/p&gt;', 'producers': [{'name': 'Trevor McNevan', 'url': 'https://genius.com/artists/Trevor-mcnevan'}, {'name': 'Aaron Sprinkle', 'url': 'https://genius.com/artists/Aaron-sprinkle'}], 'writers': [{'name': 'Joel Bruyere', 'url': 'https://genius.com/artists/Joel-bruyere'}, {'name': 'Steve Augustine', 'url': 'https://genius.com/artists/Steve-augustine'}, {'name': 'Trevor McNevan', 'url': 'https://genius.com/artists/Trevor-mcnevan'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Breaking-benjamin-had-enough-lyrics', 'lyrics': "[Verse 1]\nMilk it for all it's worth\nMake sure you get there first\nThe apple of your eye\nThe rotten core inside\nWe are all prisoners\nThings couldn't get much worse\nI've had it up to here\nYou know your end is near\n\n[Chorus]\nYou had to have it all\nWell, have you had enough?\nYou greedy little bastard\nYou will get what you deserve\nWhen all is said and done\nI will be the one\nTo leave you in your misery\nAnd hate what you've become\n\n[Verse 2]\nIntoxicated eyes\nNo longer live that life\nYou should have learned by now\nI'll burn this whole world down\nI need some peace of mind\nNo fear of what's behind\nYou think you've won this fight\nYou've only lost your mind\n[Chorus]\nYou had to have it all\nWell, have you had enough?\nYou greedy little bastard\nYou will get what you deserve\nWhen all is said and done\nI will be the one\nTo leave you in your misery\nAnd hate what you've become\n\n[Bridge]\nHold me down\nI will live again\nPull me out\nI will break it in\nHold me down\nBetter in the end\nHold me down\n\n[Chorus]\nYou had to have it all\nWell, have you had enough?\nYou greedy little bastard\nYou will get what you deserve\nWhen all is said and done\nI will be the one\nTo leave you in your misery\nAnd hate what you've become\n[Outro]\nHeaven help you\nHeaven help you", 'annotations': {'description': '&lt;p&gt;From their album “Phobia”,  “Had Enough” is a song about fighting greed. They talk about greed killing a person and trying to stop it before it kills him/her. If unsuccessful, then the singer sings “heaven help you.”&lt;/p&gt;', 'producers': [{'name': 'David Bendeth', 'url': 'https://genius.com/artists/David-bendeth'}], 'writers': [{'name': 'Benjamin Burnley', 'url': 'https://genius.com/artists/Benjamin-burnley'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Nothing-more-mr-mtv-lyrics', 'lyrics': "[Intro]\nI want my MTV\n\n[Verse 1]\nFree drugs, cheap sex\nFake tans, big breasts\nHigh times, pimped rides\nLost days to blackout nights\nI need this, I need that\nI'm not complete with what I have\nIf I do this, if I buy that\nI'll get mine, I'll get mine\n\n[Pre-Chorus]\nI want, I want, I want\n\n[Chorus]\nEmpty me, empty nation\nEmptied us of inspiration\nBastard sons and broken daughters\nAll bow down to our corporate father\n\n[Verse 2]\nIn my, in my, in my iLife, in my iWorld\nOn my iPhone, with my iGirl\nJust one bite to understand\nEven Eve couldn't live without the iPlan\n[Pre-Chorus]\nI want, I want, I want life\nI want, I want, I want\n\n[Chorus]\nEmpty me, empty nation\nEmptied us of inspiration\nBastard sons and broken daughters\nAll bow down to our corporate father\nEmpty me, empty nation\nEmptied us of inspiration\nBastard sons and broken daughters\nAll bow down to our corporate father\n\n[Interlude]\nI want, I want, I want, I want, I want, I need it\n\n[Bridge]\nDo this, buy that\nGet my drugs and sex\nDo this, buy that\nGet my drugs and sex\nMore sex, want sex, need sex\n\n[Chorus]\nEmpty me, empty nation\nEmptied us of inspiration\nBastard sons and broken daughters\nAll bow down to our corporate father\nEmpty me, empty nation\nEmptied us of inspiration\nBastard sons and broken daughters\nAll bow down to our corporate father\n[Post-Chorus]\nCorporate father\nTo our father\nBastard sons and broken daughters\nAll bow down to our corporate father\n\n[Outro]\nDo this, buy that\nGet my drugs and sex", 'annotations': {'description': '&lt;p&gt;The 4th track off the album Nothing More, debut of the band Nothing More. Song discusses politics and the displeasure the band has for MTV.&lt;/p&gt;', 'producers': [{'name': 'Jonny Hawkins', 'url': 'https://genius.com/artists/Jonny-hawkins'}], 'writers': [{'name': 'Mark Vollelunga', 'url': 'https://genius.com/artists/Mark-vollelunga'}, {'name': 'Sting', 'url': 'https://genius.com/artists/Sting'}, {'name': 'Daniel Oliver', 'url': 'https://genius.com/artists/Daniel-oliver'}, {'name': 'Mark Knopfler', 'url': 'https://genius.com/artists/Mark-knopfler'}, {'name': 'Will Hoffman', 'url': 'https://genius.com/artists/Will-hoffman'}, {'name': 'Jonny Hawkins', 'url': 'https://genius.com/artists/Jonny-hawkins'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Alice-in-chains-man-in-the-box-lyrics', 'lyrics': "[Verse 1: Layne Staley]\nI'm the man in the box\nBuried in my shit\n\n[Pre-Chorus: Layne Staley]\nWon't you come and save me?\nSave me\n\n[Chorus: Layne Staley &amp; Jerry Cantrell]\nFeed my eyes\n(Can you sew them shut?)\nJesus Christ\n(Deny your maker)\nHe who tries\n(Will be wasted)\nFeed my eyes\n(Now you've sewn them) shut\n\n[Verse 2: Layne Staley]\nI'm the dog who gets beat\nShove my nose in shit\n\n[Pre-Chorus: Layne Staley]\nWon't you come and save me?\nSave me\n[Chorus: Layne Staley &amp; Jerry Cantrell]\nFeed my eyes\n(Can you sew them shut?)\nJesus Christ\n(Deny your maker)\nHe who tries\n(Will be wasted)\nFeed my eyes\n(Now you've sewn them) shut\n\n[Guitar Solo: Jerry Cantrell]\n\n[Chorus: Layne Staley &amp; Jerry Cantrell]\nFeed my eyes\n(Can you sew them shut?)\nJesus Christ\n(Deny your maker)\nHe who tries\n(Will be wasted)\nFeed my eyes\n(Now you've sewn them) shut", 'annotations': {'description': '&lt;p&gt;Layne Staley said in a now-inaccessible interview that “Man In the Box” is a song is about censorship in the mass media. He also mentioned that he was stoned when he wrote it.&lt;/p&gt;\n\n&lt;p&gt;It is one of, if not the, most popular and well-known Alice in Chains songs, despite only peaking at &lt;a href="http://www.billboard.com/artist/278597/alice-in-chains/chart?f=1180&amp;amp;sort=date" rel="noopener nofollow"&gt;#18&lt;/a&gt; on the Billboard Album Rock Tracks chart.&lt;/p&gt;\n\n&lt;p&gt;The track was nominated for the Grammy Award for Best Hard Rock Performance in 1992, but &lt;a href="https://genius.com/artists/Van-halen" rel="noopener" data-api_path="/artists/38215"&gt;Van Halen&lt;/a&gt;’s album, &lt;em&gt;&lt;a href="https://genius.com/albums/Van-halen/For-unlawful-carnal-knowledge" rel="noopener" data-api_path="/albums/34246"&gt;For Unlawful Carnal Knowledge,&lt;/a&gt;&lt;/em&gt; ended up winning the award. The music video was nominated for the Best Metal/Hard Rock Video, but lost to &lt;a href="https://genius.com/artists/Aerosmith" rel="noopener" data-api_path="/artists/533"&gt;Aerosmith’s&lt;/a&gt; &lt;a href="https://genius.com/Aerosmith-the-other-side-lyrics" rel="noopener" data-api_path="/songs/111183"&gt;“The Other Side.”&lt;/a&gt;&lt;/p&gt;', 'producers': [{'name': 'Dave Jerden', 'url': 'https://genius.com/artists/Dave-jerden'}], 'writers': [{'name': 'Jerry Cantrell', 'url': 'https://genius.com/artists/Jerry-cantrell'}, {'name': 'Layne Staley', 'url': 'https://genius.com/artists/Layne-staley'}], 'labels': [{'name': 'Columbia Records', 'url': 'https://genius.com/artists/Columbia-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Sick-puppies-youre-going-down-lyrics', 'lyrics': "[Verse 1]\nDefine your meanin' of war\nTo me it's what we do when we're bored\nI feel the heat comin' off of the blacktop\nAnd it makes me want it more\nBecause I'm hyped up, out of control\nIf it's a fight, I'm ready to go\nI wouldn't put my money on the other guy\nIf you know what I know that I know\n\n[Chorus]\nIt's been a long time comin'\nAnd the tables turned around\n'Cause one of us is goin'\nOne of us is goin' down\nI'm not runnin'\nIt's a little different now\n'Cause one of us is goin'\nOne of us is goin' down\n\n[Verse 2]\nDefine your meanin' of fun\nIs it fuckin', druggin' or guns?\nI feel the heat comin' off of the blacktop\nSo get ready for another one\nLet's take a trip down memory lane\nThe words circlin' in my brain\nYou can treat this like another all the same\nBut don't cry like a bitch when you feel the pain\n[Chorus]\nIt's been a long time comin'\nAnd the tables turned around\n'Cause one of us is going\nOne of us is goin' down\nI'm not runnin'\nIt's a little different now\n'Cause one of us is goin'\nOne of us is goin' down\n\n[Bridge]\nThis is hardly worth fightin' for\nBut it's the little petty shit that I can't ignore\nWhen my fist hits your face and your face hits the floor\nIt'll be a long time comin'\nBut you got the message now\n'Cause I was never goin'\nYeah, you're the one that's goin' down\n\n[Outro]\nOne of us is goin' down\nI'm not running\nIt's a little different now\n'Cause one of us is goin'\nOne of us is going dow'\nOne of us is going dow'\nDown", 'annotations': {'description': '&lt;p&gt;4th track and 2nd single on Tri-Polar.&lt;br&gt;\nThe whole song is interpreted by Shim Moore.&lt;/p&gt;\n\n&lt;p&gt;WWE used this song as the theme song for &lt;a href="https://en.wikipedia.org/wiki/Extreme_Rules_%282009" rel="noopener nofollow"&gt;Extreme Rules 2009&lt;/a&gt;&lt;/p&gt;', 'producers': [{'name': 'Rock Mafia', 'url': 'https://genius.com/artists/Rock-mafia'}], 'writers': [{'name': 'Shim', 'url': 'https://genius.com/artists/Shim'}, {'name': 'Antonina Armato', 'url': 'https://genius.com/artists/Antonina-armato'}, {'name': 'Tim James', 'url': 'https://genius.com/artists/Tim-james'}, {'name': 'Emma Enzai', 'url': 'https://genius.com/artists/Emma-enzai'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Breaking-benjamin-so-cold-lyrics', 'lyrics': "[Verse 1]\nCrowded streets all cleared away, one by one\nHollow heroes separate, as they run\nYou're so cold, keep your hand in mine\nWise men wonder while strong men die\n\n[Chorus]\nShow me how it ends, it's all right\nShow me how defenseless you really are\nSatisfied and empty inside\nWell, that's all right\nLet's give this another try\n\n[Verse 2]\nIf you find your family, don't you cry\nIn this land of make-believe, dead and dry\nYou're so cold, but you feel alive\nLay your hands on me, one last time\n\n[Chorus]\nShow me how it ends, it's all right\nShow me how defenseless you really are\nSatisfied and empty inside\nWell, that's all right\nLet's give this another try\n[Guitar Solo]\n\n[Chorus]\nShow me how it ends, it's all right\nShow me how defenseless you really are\nSatisfied and empty inside\nWell, that's all right\nLet's give this another try\n\n[Outro]\nIt’s all right\nIt’s all right\nIt’s all right\nIt’s all right\nIt’s all right\nIt’s all right\nIt’s all right\nIt’s all right\nIt’s all right", 'annotations': {'description': '', 'producers': [{'name': 'Breaking Benjamin', 'url': 'https://genius.com/artists/Breaking-benjamin'}, {'name': 'David Bendeth', 'url': 'https://genius.com/artists/David-bendeth'}], 'writers': [{'name': 'Breaking Benjamin', 'url': 'https://genius.com/artists/Breaking-benjamin'}, {'name': 'Benjamin Burnley', 'url': 'https://genius.com/artists/Benjamin-burnley'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Shinedown-cut-the-cord-lyrics', 'lyrics': "[Intro: Choir &amp; Brent Smith]\nFreedom, la la la la\nFreedom, follow me\nFreedom, la la la la\nFreedom, cut it\nFreedom, la la la la\nFreedom, follow me\nFreedom, la la la la\nFreedom\n\n[Verse 1: Brent Smith]\nLet me tell ya, I'm vicious, not pass-aggressive\nI got my finger on my pulse, starin' straight into a hole and I'ma get it\nAnd I'm a savage, it's automatic\nI got a way of makin' noise, the power to destroy with no static\n\n[Pre-Chorus: Brent Smith]\n'Cause victory is all you need\nSo cultivate and plant the seed\nHold your breath and count to ten, just count to ten\n\n[Chorus: Brent Smith]\nI'm gonna make it rain, so ring the bell\nI know it all too well\nSwitchblade on the edge of your wrist\nCan I get a witness? (Witness!)\n'Cause agony brings no reward\nFor one more hit and one last score\nDon't be a casualty\n[Post-Chorus: Choir &amp; Brent Smith]\nCut the cord\nFreedom, la la la la\nFreedom, follow me\nCut the cord\nFreedom, la la la la\nFreedom\n\n[Verse 2: Brent Smith]\nYou gotta feel courage, embrace possession\nIf it was easier to shatter everything that ever mattered, but it's not, because it's your obsession\nBe a fighter, backbone, desire\nComplicated and it stings, but we both know what it means, and it's time to get real and inspired\n\n[Pre-Chorus: Brent Smith]\n'Cause victory is all you need\nSo cultivate and plant the seed\nHold your breath and count to ten, just count to ten\nJust count to ten\n\n[Chorus: Brent Smith]\nI'm gonna make it rain, so ring the bell\nI know it all too well\nSwitchblade on the edge of your wrist\nCan I get a witness? (Witness!)\n'Cause agony brings no reward\nFor one more hit and one last score\nDon't be a casualty\n[Bridge: Brent Smith]\nCut the cord\nCut it\nCut it\n\n[Instrumental]\n\n[Pre-Chorus: Brent Smith]\n'Cause victory is all you need\nSo cultivate and plant the seed\nHold your breath and count to ten, just count to ten\n\n[Chorus: Brent Smith]\nI'm gonna make it rain, so ring the bell\nI know it all too well\nSwitchblade on the edge of your wrist\nCan I get a witness? (Witness!)\n'Cause agony brings no reward\nFor one more hit and one last score\nDon't be a casualty, cut the cord\nDon't be a casualty, cut the cord\n\n[Post-Chorus: Choir &amp; Brent Smith]\nFreedom, la la la la\nFreedom, follow me\nCut the cord\nFreedom, la la la la\nFreedom, follow me, me, me", 'annotations': {'description': '&lt;p&gt;“Cut The Cord” is a single from &lt;a href="https://genius.com/artists/Shinedown" rel="noopener" data-api_path="/artists/12997"&gt;Shinedown&lt;/a&gt;’s forthcoming fifth album, their first since 2012’s &lt;em&gt;Amaryllis&lt;/em&gt;. The track was released on June 29, 2015, and features production from Shinedown bassist Eric Bass. Lead singer Brent Smith &lt;a href="https://www.billboard.com/articles/columns/rock/6612983/shinedown-cut-cord-video-new-song-brent-smith-exclusive-premiere-2015" rel="noopener nofollow"&gt;explained the song’s meaning&lt;/a&gt; to &lt;em&gt;Billboard&lt;/em&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;‘Cut The Cord’ is a wake up call reminding us all that we can control our own destiny by finding the courage and tenacity to destroy whatever it is that’s holding us back. The process may not be pretty or perfect or even easy, but absolutely necessary. The song is brutally honest and unapologetic, which is what Shinedown has always been.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/c5c00b9ca4db4051e1e1b479d4f85b02.500x500x1.jpg" alt="" width="500" height="500" data-animated="false"&gt;&lt;/p&gt;', 'producers': [{'name': 'Eric Bass', 'url': 'https://genius.com/artists/Eric-bass'}], 'writers': [{'name': 'Eric Bass', 'url': 'https://genius.com/artists/Eric-bass'}, {'name': 'Brent Smith', 'url': 'https://genius.com/artists/Brent-smith'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Godsmack-voodoo-lyrics', 'lyrics': "[Hook]\nI'm not the one who's so far away\nWhen I feel the snake bite enter my veins\nNever did I wanna be here again\nAnd I don't remember why I came\n\n[Verse 1]\nCandles raise my desire\nWhy I'm so far away\nNo more meaning to my life\nNo more reason to stay\nFreezing feeling\nBreathe in, breathe in\nI'm coming back again\n\n[Hook]\nI'm not the one who's so far away\nWhen I feel the snake bite enter my veins\nNever did I wanna be here again\nAnd I don't remember why I came\n\n[Verse 2]\nHazing clouds rain on my head\nEmpty thoughts fill my ears\nFind my shade by the moon light\nWhy my thoughts aren't so clear\nDemons dreaming\nBreathe in, breathe in\nI'm coming back again\n[Hook]\nI'm not the one who's so far away\nWhen I feel the snake bite enter my veins\nNever did I wanna be here again\nAnd I don't remember why I came\nI'm not the one who's so far away\nWhen I feel the snake bite enter my veins\nNever did I wanna be here again\nAnd I don't remember why I came\nI'm not the one who's so far away\nWhen I feel the snake bite enter my veins\nNever did I wanna be here again\nAnd I don't remember why I came\nI'm not the one who's so far away\nWhen I feel the snake bite enter my veins\nNever did I wanna be here again\nAnd I don't remember why I came\nVoodoo, voodoo, voodoo, voodoo\n[Repeat]\n\n[Outro]\nSo far away...\nI'm not the one who's so far away...\nI'm not the one who's so far away...\nI'm not the one who's so far away...", 'annotations': {'description': '&lt;p&gt;Godsmack has stated on &lt;a href="http://www.songfacts.com/detail.php?id=2666" rel="noopener nofollow"&gt;numerous occasions&lt;/a&gt; that “Voodoo” was written by Sully Erna and Robbie Merril about a film called &lt;a href="http://www.imdb.com/title/tt0096071/" rel="noopener nofollow"&gt;&lt;em&gt;The Serpent And The Rainbow&lt;/em&gt;&lt;/a&gt;, which was directed by Wes Craven. Erna is fairly &lt;a href="http://www.houstonpress.com/music/five-four-musicians-who-practice-witchcraft-6493362" rel="noopener nofollow"&gt;outspoken&lt;/a&gt; about his devotion to Wicca, saying in an interview:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;“Wicca helped me a lot, in my personal life, but we recorded a good album and got signed,” said Erna in an interview with NYRock.com. “We didn’t brew a potion with adder tongues or threaten to cast a spell over a record-company exec.&lt;/p&gt;&lt;/blockquote&gt;', 'producers': [{'name': 'Sully Erna', 'url': 'https://genius.com/artists/Sully-erna'}, {'name': 'Mudrock', 'url': 'https://genius.com/artists/Mudrock'}], 'writers': [{'name': 'Robbie Merrill', 'url': 'https://genius.com/artists/Robbie-merrill'}, {'name': 'Sully Erna', 'url': 'https://genius.com/artists/Sully-erna'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/System-of-a-down-byob-lyrics', 'lyrics': '[Intro: Daron Malakian]\nYou!\nWhy do they always send the poor?\n\n[Verse 1: Serj Tankian]\nBarbarisms by Barbaras with pointed heels\nVictorious Victoria’s kneel for brand new spanking deals\nMarching forward, hypocritic and hypnotic computers\nYou depend on our protection, yet you feed us lies from the table cloth\n\n[Chorus: Serj Tankian]\nLa, la, la, la, la, la, la, la, la, la, ooh-ooh\nEverybody\'s going to the party, have a real good time\nDancing in the desert, blowing up the sunshine\n\n[Verse 2: Serj Tankian]\nKneeling roses disappearing into Moses\' dry mouth\nBreaking into Fort Knox, stealing our intentions\nHangars sitting dripped in oil, crying, "Freedom"\nHanded to obsoletion, still, you feed us lies from the table cloth\n\n[Chorus: Serj Tankian with Daron Malakian]\nLa, la, la, la, la, la, la, la, la, la, ooh-ooh\nEverybody\'s going to the party, have a real good time\nDancing in the desert, blowing up the sunshine\nEverybody\'s going to the party, have a real good time\nDancing in the desert, blowing up the sunshine\n[Bridge: Daron Malakian]\nBlast off, it\'s party time\nAnd we don\'t live in a fascist nation\nBlast off, it\'s party time\nAnd where the fuck are you?\n\n[Refrain: Daron Malakian with Serj Tankian]\nWhere the fuck are you?\nWhere the fuck are you?\nWhy don\'t presidents fight the war?\nWhy do they always send the poor?\nWhy don\'t presidents fight the war?\nWhy do they always send the poor?\nWhy do they always send the poor?\nWhy do they always send the poor?\nWhy they always send the poor?\n\n[Verse 2: Serj Tankian]\nKneeling roses disappearing into Moses\' dry mouth\nBreaking into Fort Knox, stealing our intentions\nHangars sitting dripped in oil, crying, "Freedom"\nHanded to obsoletion, still, you feed us lies from the table cloth\n\n[Chorus: Serj Tankian with Daron Malakian]\nLa, la, la, la, la, la, la, la, la, la, ooh-ooh\nEverybody\'s going to the party, have a real good time\nDancing in the desert, blowing up the sunshine\nEverybody\'s going to the party, have a real good time\nDancing in the desert, blowing up the sun\n[Refrain: Serj Tankian &amp; Daron Malakian]\nWhere the fuck are you?\nWhere the fuck are you?\nWhy don\'t presidents fight the war?\nWhy do they always send the poor?\nWhy don\'t presidents fight the war?\nWhy do they always send the poor?\nWhy do they always send the poor?\nWhy do they always send the poor?\n\n[Outro: Serj Tankian &amp; Daron Malakian]\nWhy do they always send the poor?\nWhy do they always send the poor?\nWhy do they always send the poor?\nThey always send the poor, they always send the poor', 'annotations': {'description': '&lt;p&gt;“B.Y.O.B.” (“Bring Your Own Bombs”) is the first single released from American heavy metal band System of a Down’s fourth album &lt;em&gt;&lt;a href="https://genius.com/albums/System-of-a-down/Mezmerize" rel="noopener" data-api_path="/albums/20128"&gt;Mezmerize&lt;/a&gt;&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;Like their earlier song &lt;a href="https://genius.com/System-of-a-down-boom-lyrics" rel="noopener" data-api_path="/songs/151431"&gt;“Boom!,”&lt;/a&gt; it was written in protest against the Iraq War.&lt;/p&gt;\n\n&lt;p&gt;B.Y.O.B. means “Bring Your Own Bombs,” as opposed to the common interpretation “Bring Your Own Booze,” referring to the Iraq War as one big party for the United States, where instead of Jägerbombs they drop real ones.&lt;/p&gt;\n\n&lt;p&gt;It made onto numerous “Top 40” playlists around the globe, including Germany, New Zealand, Australia and the United States, and occasionally made it to #1 on other music shows.&lt;/p&gt;', 'producers': [{'name': 'Daron Malakian', 'url': 'https://genius.com/artists/Daron-malakian'}, {'name': 'Rick Rubin', 'url': 'https://genius.com/artists/Rick-rubin'}], 'writers': [{'name': 'Daron Malakian', 'url': 'https://genius.com/artists/Daron-malakian'}, {'name': 'Serj Tankian', 'url': 'https://genius.com/artists/Serj-tankian'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Sixx-am-stars-lyrics', 'lyrics': '[Verse 1]\nDo you wanna go to heaven tonight?\nLeave the evidence far behind\nSay alright, alright\nDo you wanna be my lover tonight?\nWe can leave everybody else behind\nSay alright, alright\n\n[Chorus]\nDo you wanna see heaven tonight?\nUnderneath those lights you will look so beautiful\nDo you wanna see the stars before they fall\nSee the stars before they fall?\nDo you wanna be my lover tonight?\nAnd for all my life it could be so wonderful\nDo you wanna see the stars before they fall\nSee the stars before they fall?\n\n[Verse 2]\nMaybe we should just run away\nNever look back as the world decays\nSay alright, alright\nNothing matters ever since the day\nYou pulled the pin in my heart like a hand grenade\nSay alright, alright\n[Chorus]\nDo you wanna see heaven tonight?\nUnderneath those lights you will look so beautiful\nDo you wanna see the stars before they fall\nSee the stars before they fall?\nDo you wanna be my lover tonight?\nAnd for all my life it could be so wonderful\nDo you wanna see the stars before they fall\nSee the stars before they fall?\n\n[Bridge]\n(Oh)Fall out of the atmosphere\nLets run, Run until we disappear and\nNever let them come and get you\nNever let them take away our stars\n\n[Chorus]\nDo you wanna see heaven tonight?\nUnderneath those lights you will look so beautiful\nDo you wanna see the stars before they fall\nSee the stars before they fall?\nDo you wanna be my lover tonight?\nAnd for all my life it could be so wonderful\nDo you wanna see the stars before they fall\nSee the stars before they fall?\n[Outro]\nBefore they fall (oh)\nBefore they fall (oh)\nBefore they fall (oh)\nDo you wanna see the stars before they fall? (oh)\nBefore they fall (oh)\nBefore they fall (oh)\nBefore they fall (oh)\nDo you wanna see the stars before they fall?', 'annotations': {'description': '&lt;p&gt;&lt;img src="https://images.rapgenius.com/61f59f1a145e3a29ba8aff28c3c3abda.300x300x1.jpg" alt="" width="300" height="300" data-animated="false"&gt;&lt;/p&gt;', 'producers': [{'name': 'James Michael', 'url': 'https://genius.com/artists/James-michael'}], 'writers': [], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Marilyn-manson-sweet-dreams-are-made-of-this-lyrics', 'lyrics': "[Verse]\nSweet dreams are made of this\nWho am I to disagree?\nTravel the world and the seven seas\nEverybody's looking for something\nSome of them want to use you\nSome of them want to get used by you\nSome of them want to abuse you\nSome of them want to be abused\n\n[Instrumental Interlude]\n\n[Verse]\nSweet dreams are made of this\nWho am I to disagree?\nTravel the world and the seven seas\nEverybody's looking for something\nSome of them want to use you\nSome of them want to get used by you\nSome of them want to abuse you\nSome of them want to be abused\n\n[Chorus]\nI wanna use you and abuse you\nI wanna know what's inside you\n[Bridge]\nMovin' on (Hold your head up)\nMovin' on (Keep your head up)\nMovin' on (Hold your head up)\nMovin' on (Keep your head up)\nMovin' on (Hold your head up)\nMovin' on (Keep your head up)\nMovin' on!\n\n[Guitar Solo]\n\n[Verse]\nSweet dreams are made of this\nWho am I to disagree?\nTravel the world and the seven seas\nEverybody's looking for something\nSome of them want to use you\nSome of them want to get used by you\nSome of them want to abuse you\nSome of them want to be abused\n\n[Outro]\nI'm gonna use you and abuse you\nI'm gonna know what's inside\nGonna use you and abuse you\nI'm gonna know what's inside you", 'annotations': {'description': '&lt;p&gt;A cover of The Eurythmics\' &lt;a href="https://genius.com/Eurythmics-sweet-dreams-lyrics" rel="noopener" data-api_path="/songs/1640"&gt;breakthrough hit song&lt;/a&gt; from the early 1980s.&lt;/p&gt;\n\n&lt;p&gt;Manson has two additions to the song:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;I wanna use you and abuse you&lt;br&gt;\nI wanna know what’s inside you&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;and&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;I’m gonna use you and abuse you&lt;br&gt;\nI gotta know what’s inside you&lt;/p&gt;&lt;/blockquote&gt;', 'producers': [{'name': 'Trent Reznor', 'url': 'https://genius.com/artists/Trent-reznor'}, {'name': 'Marilyn Manson', 'url': 'https://genius.com/artists/Marilyn-manson'}], 'writers': [{'name': 'David A. Stewart', 'url': 'https://genius.com/artists/David-a-stewart'}, {'name': 'Annie Lennox', 'url': 'https://genius.com/artists/Annie-lennox'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Saint-asonia-let-me-live-my-life-lyrics', 'lyrics': "[Verse 1]\nI'm scared of the face in the mirror\nAll the cracks in the glass getting clearer\nI always overthink, make it so hard\nOn no one else but myself\n\n[Chorus]\nLet me live my life\nI can go get my knife\nOr I can pull out\nThe one that you stuck in my back\nFor my suffering, you've got nothing to gain\nMy pain is your entertainment\n\n[Verse 2]\nI feel the fear in my head, it's so heavy\nHolding down both my hands to keep them steady\nWhen I stop shaking, everything's so easy\nOn myself, no one else\n\n[Chorus]\nLet me live my life\nI can go get my knife\nOr I can pull out\nThe one that you stuck in my back\nFor my suffering, you've got nothing to gain\nMy pain is your entertainment\n[Chorus]\nLet me live my life\nI can go get my knife\nOr I can pull out\nThe one that you stuck in my back\nFor my suffering, you've got nothing to gain\nMy pain is your entertainment\n\n[Chorus]\nLet me live my life\nI can go get my knife\nOr I can pull out\nThe one that you stuck in my back\nFor my suffering, you've got nothing to gain\nMy pain is your entertainment\n\n[Outro]\nLet me live my life\nAnd pull out the knife\nYou know, the one that you stuck in my back\nThe one that you stuck in my back", 'annotations': {'description': '&lt;p&gt;“This song’s actually pretty straight forward; it’s a song about being held down again, about being in a situation where somebody doesn’t want you to move forward and they’re doing their best to try and keep you from that. It’s a pretty straightforward song, fairly blunt and to the point, but here it is – one of my favorites on the record.” – Adam Gontier&lt;/p&gt;', 'producers': [{'name': 'John “Jonny K” Karkazis', 'url': 'https://genius.com/artists/John-jonny-k-karkazis'}], 'writers': [{'name': 'Mike Mushok', 'url': 'https://genius.com/artists/Mike-mushok'}, {'name': 'Adam Gontier', 'url': 'https://genius.com/artists/Adam-gontier'}], 'labels': [{'name': 'RCA Records', 'url': 'https://genius.com/artists/Rca-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Nothing-more-this-is-the-time-ballast-lyrics', 'lyrics': "[Verse 1:]\nWhen did we become these sinking stones?\nWhen did we build this broken home?\nHolding each other like ransom notes\nDropping our hearts to grip our brothers' throats\n\n[Pre-Chorus]\nYou can't see because you don't know\nYou're caught below, beneath your own shadow\nStuck inside, half alive\nDo you ever stop to ask yourself why?\nClose your mind, identify\nDo you feel, do you feel?\nDo you call this a life?\nAll you waited for\nDrowning just to keep score\n\nWe always start with good intentions\nBut lose ourselves along the way\n\n[Chorus:]\nThis is the time that we let it go\nThese are the words that'll take us home\nSinging the song that's inside us all\nIf we don't open our eyes we're walking blind\n[Verse 2:]\nAnchored in anger, we exile ourselves\nBitter blood builds our prison cell\nDarker water now fills our lungs\nThe depths of our heart have blacked the sun\n\n[Pre-Chorus]\n\n[Chorus]\n\n[Bridge:]\nNaked we come, naked we leave\nFools we are, to hold tightly\nWe are free, we are free\n(We are the jail, we are the key) x2\n\n[Chorus 2:]\nThis is the time that we let it go\nYeah, these are the words that'll take us home\nSinging the song that's inside us all\nIf we just open our eyes\n\n[Chorus 3:]\nThis is the time that we let it go\nAnd this is the pain we are forced to know\nSinging the song that's inside, inside us all\nInside us all\nWalking blind", 'annotations': {'description': '&lt;p&gt;The 2nd track, and first full song of Nothing More’s 2014 self-titled album. It was also the lead single and the band’s breakout song, reaching #2 on the US Rock Chart in the summer of 2014.&lt;/p&gt;\n\n&lt;p&gt;It was &lt;a href="https://www.songfacts.com/facts/nothing-more/this-is-the-time-ballast" rel="noopener nofollow"&gt;written about&lt;/a&gt; how people hold on to things (like grudges, for example) that drag them down. ‘Ballast’, which is used to makes submarines sink to the bottom, is used as a metaphor to represent what people refuse to let go of from the past.&lt;/p&gt;', 'producers': [{'name': 'Jonny Hawkins', 'url': 'https://genius.com/artists/Jonny-hawkins'}], 'writers': [{'name': 'Mark Vollelunga', 'url': 'https://genius.com/artists/Mark-vollelunga'}, {'name': 'Scott Stevens', 'url': 'https://genius.com/artists/Scott-stevens'}, {'name': 'Daniel Oliver', 'url': 'https://genius.com/artists/Daniel-oliver'}, {'name': 'Will Hoffman', 'url': 'https://genius.com/artists/Will-hoffman'}, {'name': 'Jonny Hawkins', 'url': 'https://genius.com/artists/Jonny-hawkins'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Devour-the-day-lightning-in-the-sky-lyrics', 'lyrics': 'It was a dangerous display\nA beautiful storm\nA flash in the atmosphere\nAnd then you were gone\nA deadly device\nYour electric embrace\nSurrounded and swallowed me alive\nNow I’m not the same\n\n[Chorus]: Strike me down before you burn away\nNothing that can save me\nI’m so strung out on the static in my veins\nEven when it all comes crashing to the ground\nWill you still get me high\nStrike me down before you burn away\nLike lightning in the sky\nLike lightning in the sky\n\nYou are a violent design\nA perfect attack\nA flawless moment in time\nI’ll never get back\nThe friction you make\nThe release you create\nYou are my one and only way\nMy way of escape\n[Chorus]: Strike me down before you burn away\nNothing that can save me\nI’m so strung out on the static in my veins\nEven when it all comes crashing to the ground\nWill you still get me high\nStrike me down before you burn away\nLike lightning in the sky\nLike lightning in the sky\n\nStrike me down before you burn away\nNothing that can save me\nI’m so strung out on the static in my veins\nEven when it all comes crashing to the ground\nWill you still get me high\nStrike me down before you burn away\nLike lightning in the sky (x6)', 'annotations': {'description': '&lt;p&gt;“The song is about the power of a specific moment in your life,” reveals Joey.&lt;/p&gt;', 'producers': [], 'writers': [], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Three-days-grace-i-am-machine-lyrics', 'lyrics': "[Verse 1]\nHere's to bein' human\nAll the pain and sufferin'\nThere's beauty in the bleedin'\nAt least you feel somethin'\nI wish I knew what it was like\nTo care enough to carry on\nI wish I knew what it was like\nTo find a place where I belong\n\n[Chorus]\nBut I am machine, I never sleep\nI keep my eyes wide open\nI am machine, a part of me\nWishes I could just feel somethin'\nI am machine, I never sleep\nUntil I fix what's broken\nI am machine, a part of me\nWishes I could just feel somethin'\n\n[Verse 2]\nHere's to bein' human\nTakin' it for granted\nThe highs and lows of livin'\nTo getting second chances\nI wish I knew what it was like\nTo care about what's right or wrong\nI wish someone could help me find\nFind a place where I belong\n[Chorus]\nBut I am machine, I never sleep\nI keep my eyes wide open\nI am machine, a part of me\nWishes I could just feel somethin'\nI am machine, I never sleep\nUntil I fix what's broken\nI am machine, a part of me\nWishes I could just feel somethin'\n\n[Bridge]\nIt wasn't supposed to be this way\nWe were meant to feel the pain\nI don't like what I am becoming\nWish I could just feel something\n\n[Chorus]\nI am machine, I never sleep\nI keep my eyes wide open\nI am machine, a part of me\nWishes I could just feel somethin'\nI am machine, I never sleep\nUntil I fix what's broken\nI am machine, a part of me\nWishes I could just feel somethin'", 'annotations': {'description': '&lt;p&gt;“I Am Machine” was the second single released in advance of Three Days Grace’s fifth album, &lt;em&gt;Human&lt;/em&gt;. It was also the second single featuring new lead singer Matt Walst, and it continued the more aggressive sound the band introduced with the song &lt;a href="https://genius.com/Three-days-grace-painkiller-lyrics" rel="noopener" data-api_path="/songs/393555"&gt;“Painkiller”&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The track describes a person who feels like a machine, cut off from the ability to feel emotions.&lt;/p&gt;\n\n&lt;p&gt;The song reached #1 on Billboard’s Mainstream Rock Chart in February of 2015, replacing &lt;a href="https://genius.com/artists/Foo-fighters" rel="noopener" data-api_path="/artists/17237"&gt;Foo Fighters&lt;/a&gt;‘ &lt;a href="https://genius.com/Foo-fighters-something-from-nothing-lyrics" rel="noopener" data-api_path="/songs/543112"&gt;“Something From Nothing”&lt;/a&gt;.&lt;/p&gt;', 'producers': [{'name': 'Gavin Brown', 'url': 'https://genius.com/artists/Gavin-brown'}], 'writers': [{'name': 'Matt Walst', 'url': 'https://genius.com/artists/Matt-walst'}, {'name': 'Johnny Andrews', 'url': 'https://genius.com/artists/Johnny-andrews'}, {'name': 'Brad Walst', 'url': 'https://genius.com/artists/Brad-walst'}, {'name': 'Barry Stock', 'url': 'https://genius.com/artists/Barry-stock'}, {'name': 'Neil Sanderson', 'url': 'https://genius.com/artists/Neil-sanderson'}, {'name': 'Gavin Brown', 'url': 'https://genius.com/artists/Gavin-brown'}], 'labels': [{'name': 'RCA Records', 'url': 'https://genius.com/artists/Rca-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Papa-roach-falling-apart-lyrics', 'lyrics': "[Intro]\nI'll follow you out of the dark\nI tried it my way but I keep falling apart\n\n[Verse 1]\nAll that I see, is the wickedness around me\nI refuse to believe, the apocalypse inside of me\nI can't even trust myself\nI'm burning in my skin\nStanding at the gates of hell, but nobody will let me in\n\n[Chorus]\nI'll follow you out of the dark\nI tried it my way but I keep falling apart\nI'll follow you, with all of my heart\nI'm tired of my ways 'cause I keep falling, I'm falling apart\n\n[Verse 2]\nI stand here again\nForsaken in a place\nThat feels like I can never win\nI'm reaching for a saving grace\nI can't even trust no one\nI need to rise above\nI don't think I'm good enough\nTo feel your perfect love\n[Chorus]\nI'll follow you out of the dark\nI tried it my way but I keep falling apart\nI'll follow you, with all of my heart\nI'm tired of my ways 'cause I keep falling, I'm falling apart\n\n[Refrain]\nI'm falling, I'm falling apart\nI'm falling, I'm falling apart\nI'm falling apart\n\n[Bridge]\nYour love's a fire, it's alive and I'm burning in it\nI'm in the ashes of mercy; I'm covered in it\nI fall hard and you carry me\nI fall apart so you can set me free\nYour love's a fire, it's alive and I'm burning in it\nI'm in the ashes of mercy; I'm covered in it\nI fall hard and you carry me\nI fall apart so you can set me free\n\n[Chorus]\nI'll follow you out of the dark\nI tried it my way but I keep falling apart\nI'll follow you, with all of my heart\nI'm tired of my ways 'cause I keep falling, I'm falling apart\n[Outro]\nI'm falling, I'm falling apart\nWithout you, I'm falling, I'm falling apart\nI'm falling apart, I'm falling apart", 'annotations': {'description': '&lt;p&gt;“Falling Apart” is the fourth track on Papa Roach’s newest album entitled F.E.A.R.&lt;/p&gt;\n\n&lt;p&gt;F.E.A.R. is the eighth studio album by Papa Roach, and was released on January 27, 2015.&lt;/p&gt;\n\n&lt;p&gt;This track describes lead singer Jacoby Shaddix’s transformation, from a lonely, self-loathing alcoholic &amp;amp; addict to a confident, transparent, born again Christian.&lt;/p&gt;\n\n&lt;p&gt;Shaddix sings:&lt;/p&gt;\n\n&lt;p&gt;“I’ll follow you, out of the dark, with all of my heart.”&lt;/p&gt;\n\n&lt;p&gt;The song is a hybrid of Papa Roach’s rock-heavy sound, with a newer, more upbeat and slightly electronic sound.&lt;/p&gt;\n\n&lt;p&gt;Overall, F.E.A.R. has done well since its release.&lt;/p&gt;', 'producers': [{'name': 'Kane Churko', 'url': 'https://genius.com/artists/Kane-churko'}, {'name': 'Kevin Churko', 'url': 'https://genius.com/artists/Kevin-churko'}], 'writers': [{'name': 'Papa Roach', 'url': 'https://genius.com/artists/Papa-roach'}], 'labels': [{'name': 'Eleven Seven Music', 'url': 'https://genius.com/artists/Eleven-seven-music'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Papa-roach-face-everything-and-rise-lyrics', 'lyrics': "[Intro]\nFace everything and rise\nFace everything and rise\n\n[Verse 1]\nThe streets crawl with a deadly omen\nOutside I see a world that's broken\nI can't breathe, my heart is choking\nI need a cure for this life I've chosen\n\n[Pre-Chorus]\nMy pain is a blessing in disguise\nI feel it cutting and it's cutting like a knife\nMy pain, my pain is a blessing in disguise\nI feel it cutting and it's cutting like a knife\n\n[Chorus]\nI will face everything and rise\nNever gonna quit until I die\nAngels keep falling from the sky\nI'll take the broken wings and learn to fly\nI will face everything and rise\nFace everything and rise\n\n[Verse 2]\nThe earth shakes and the city's burning\nBut it feels like the tide is turning\nLove hurts and there's no warning\nLightning strikes, my heart is storming\n[Pre-Chorus]\nThe rain is a blessing in disguise\nThe flood's coming and it's drowning all the lies\nThe rain, the rain is a blessing in disguise\nThe flood's coming and it's drowning all the lies\n\n[Chorus]\nI will face everything and rise\nNever gonna quit until I die\nAngels keep falling from the sky\nI'll take your broken wings and learn to fly\nI will face everything and rise\nFace everything and rise\n\n[Bridge]\nThrow me in the fire, I'll never be the same\nI come alive when I am burning in the flames\nI'm under fire when I'm burning wide awake\nI am protected when I'm walking through the flames\nW-w-w-walking through the flames\nW-w-w-walking through the flames\n\n[Chorus]\nI will face everything and rise\nNever gonna quit until I die\nAngels keep falling from the sky\nI'll take your broken wings and learn to fly\nI will face everything and rise\nThe pain, the pain is a blessing in disguise\nFace everything and rise\nThe pain, the pain is a blessing in disguise\nFace everything and rise", 'annotations': {'description': '&lt;p&gt;The song is taken from the band’s eighth full-length album, &lt;em&gt;F.E.A.R.&lt;/em&gt;, released on January 27, 2015 via Eleven Seven Music.&lt;/p&gt;\n\n&lt;p&gt;“Fear is something I face every day,” the singer admits. “It’s about taking a negative and turning it into a positive. When you see the word, it looks like Fear. If you look deeper, it’s Face Everything And Rise.” “It felt like such a great concept to write an album around,” says Jerry. “It’s about facing your fears and knowing that no matter what happens, you’ll be alright.”&lt;/p&gt;', 'producers': [{'name': 'Kevin Churko', 'url': 'https://genius.com/artists/Kevin-churko'}, {'name': 'Kane Churko', 'url': 'https://genius.com/artists/Kane-churko'}], 'writers': [{'name': 'Tobin Esperance', 'url': 'https://genius.com/artists/Tobin-esperance'}, {'name': 'Anthony Esperance', 'url': 'https://genius.com/artists/Anthony-esperance'}, {'name': 'Kane Churko', 'url': 'https://genius.com/artists/Kane-churko'}, {'name': 'Jacoby Shaddix', 'url': 'https://genius.com/artists/Jacoby-shaddix'}], 'labels': [{'name': 'Eleven Seven Music', 'url': 'https://genius.com/artists/Eleven-seven-music'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Papa-roach-still-swingin-lyrics', 'lyrics': "[Intro]\nYeah!\nThat's right!\nYeah, yeah, yeah!\n\n[Verse 1]\nI'm the one stepping up\nSpit the fire, I'll back it up\nCount me in, I'll turn it out\nI'm killin' it, you're burnin' out\nNever change, never break\nI'm the real, you're the fake\nSet it off, go underground\nYou feelin' it, this future sound\n\n[Pre-Chorus]\nNonstop, devastating everything\nOn top, never coming down\nI've got my hands in everything\nNonstop, never coming down\n\n[Chorus]\nWe're just living for today\nKeep our light on in the haze\nYeah, forever we will stay\nWe are the ones still swingin'\nWe are a beacon in the dark\nA lighthouse risen from the heart\nWe've been here from the start\nWe are the ones still swingin'\nYeah!\n\n[Verse 2]\nI'm dangerous, I'm passionate\nWatch your back, they're stabbing it\nHold on and hold tight\nI'll slash their faces every night\nWe don't belong, we never will\nWe never cared, we always kill\nSuit me up and I will attack\n'Cause P. Roach is the new black\n\n[Pre-Chorus]\nNonstop, devastating everything\nOn top, never coming down\nI've got my hands in everything\nNonstop, never coming down\n\n[Chorus]\nWe're just living for today\nKeep our light on in the haze\nYeah, forever we will stay\nWe are the ones still swingin'\nWe are a beacon in the dark\nA lighthouse risen from the heart\nWe've been here from the start\nWe are the ones still swingin'\n[Refrain]\nWe are the ones still swingin', swingin'\nWe are the ones still swingin'\nWe are the ones still swingin', swingin'\nWe are the ones still swingin'\n\n[Pre-Chorus]\nGoing nonstop, I'm devastating everything\nOn top, never coming down\nI've got my hands in everything\nNonstop, never coming down\n\n[Chorus]\nWe're just living for today\nKeep our light on in the haze\nYeah, forever we will stay\nWe are the ones still swingin'\nWe are a beacon in the dark\nA lighthouse risen from the heart\nWe've been here from the start\nWe are the ones still swingin'\n\n[Outro]\nWe are the ones still swingin'\nWe are the ones still swingin'", 'annotations': {'description': '', 'producers': [{'name': 'John Feldmann', 'url': 'https://genius.com/artists/John-feldmann'}], 'writers': [{'name': 'Tylias', 'url': 'https://genius.com/artists/Tylias'}, {'name': 'John Feldmann', 'url': 'https://genius.com/artists/John-feldmann'}, {'name': 'Papa Roach', 'url': 'https://genius.com/artists/Papa-roach'}], 'labels': [{'name': 'Eleven Seven Music', 'url': 'https://genius.com/artists/Eleven-seven-music'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Five-finger-death-punch-wrong-side-of-heaven-lyrics', 'lyrics': "[Verse 1]\nI spoke to God today\nAnd she said that she's ashamed\nWhat have I become?\nWhat have I done?\nI spoke to the devil today\nAnd he swears he's not to blame\nAnd I understood\n'Cause I feel the same\n\n[Chorus]\nArms wide open\nI stand alone\nI'm no hero\nAnd I'm not made of stone\nRight or wrong\nI can hardly tell\nI'm on the wrong side of Heaven\nAnd the righteous side of Hell\nThe wrong side of Heaven\nAnd the righteous side\nThe righteous side of Hell\n\n[Verse 2]\nI heard from God today\nAnd she sounded just like me\nWhat have I done?\nAnd who have I become?\nI saw the devil today\nAnd he looked a lot like me\nI looked away\nI turned away\n[Chorus]\nArms wide open\nI stand alone\nI'm no hero\nAnd I'm not made of stone\nRight or wrong\nI can hardly tell\nI'm on the wrong side of Heaven\nAnd the righteous side of Hell\nThe wrong side of Heaven\nAnd the righteous side\nThe righteous side of Hell\n\n[Bridge]\nI'm not defending\nDownward descending\nFalling further and further away\nGetting closer every day\nI'm getting closer every day\nTo the end\nTo the end, the end, the end\nI'm getting closer every day\n\n[Chorus]\nArms wide open\nI stand alone\nI'm no hero\nAnd I'm not made of stone\nRight or wrong\nI can hardly tell\nI'm on the wrong side of Heaven\nAnd the righteous side of Hell\nThe wrong side of Heaven\nAnd the righteous side of Hell\nThe wrong side of Heaven\nAnd the righteous side\nThe righteous side of Hell", 'annotations': {'description': '&lt;p&gt;“Wrong Side of Heaven” is about the downward spiral that many ex-soldiers suffer after going to war. The official video depicts the mental anguish they suffer at the hands of PTSD, and how this results in many of them being homeless and hopeless.&lt;/p&gt;\n\n&lt;p&gt;The song has a heavy and somber tone which helps convey the negative emotions and mental disarray that these ex-soldiers are confronted with.&lt;/p&gt;\n\n&lt;p&gt;In &lt;a href="https://youtu.be/t3fhp73cqGo?t=225" rel="noopener nofollow"&gt;this track-by-track guide&lt;/a&gt;, Ivan Moody and Jeremy Spencer discussed “Wrong Side of Heaven”:&lt;/p&gt;\n\n&lt;blockquote&gt;\n&lt;p&gt;&lt;strong&gt;Jeremy&lt;/strong&gt;: Alright, man, the next song is the title track.&lt;/p&gt;\n\n&lt;p&gt;&lt;strong&gt;Ivan&lt;/strong&gt;: “Wrong Side of Heaven”/Righteous Side of Hell… I love it, man. We were actually in the studio, all of us were actually sitting there discussing the song title and just how deep it was, and it just came about being that, you know, that ended up being the title of the album, even after the song was already done. So, this song… it’s fantastic, man. It touches base on everything from religions to sour politics.&lt;/p&gt;\n\n&lt;p&gt;&lt;strong&gt;Jeremy&lt;/strong&gt;: Well, it’s not exactly freaking a death metal song, now is it? Actually one of my favorites on the record too, man. It’s got a different vibe, we kind of experimented with some different sounds, certainly some different drum grooves and stuff on this one. It’s just different for us, it’s a refreshing change, it’s a welcome change in our sound.&lt;/p&gt;\n\n&lt;p&gt;&lt;strong&gt;Ivan&lt;/strong&gt;: Yeah, most definitely. Like I said, this is probably one of the most rounded records we’ve ever done, for sure. And this [song] definitely exposes that.&lt;/p&gt;\n&lt;/blockquote&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/4af4e3688d770d73551b3e7bc93f94b0.355x133x1.png" alt="" width="355" height="133" data-animated="false"&gt;&lt;/p&gt;', 'producers': [{'name': 'Five Finger Death Punch', 'url': 'https://genius.com/artists/Five-finger-death-punch'}, {'name': 'Kevin Churko', 'url': 'https://genius.com/artists/Kevin-churko'}], 'writers': [{'name': 'Chris Kael', 'url': 'https://genius.com/artists/Chris-kael'}, {'name': 'Jason Hook', 'url': 'https://genius.com/artists/Jason-hook'}, {'name': 'Ivan Moody', 'url': 'https://genius.com/artists/Ivan-moody'}, {'name': 'Jeremy Spencer Heyde', 'url': 'https://genius.com/artists/Jeremy-spencer-heyde'}, {'name': 'Zoltan Bathory', 'url': 'https://genius.com/artists/Zoltan-bathory'}], 'labels': [{'name': 'Prospect Park Records', 'url': 'https://genius.com/artists/Prospect-park-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Three-days-grace-painkiller-lyrics', 'lyrics': "[Verse 1]\nYou know you need a fix when you fall down\nYou know you need to find a way\nTo get you through another day\nLet me be the one to numb you out\nLet me be the one to hold you\nNever gonna let you get away\n\n[Pre-Chorus]\nThe shoulder you cry on, the dose that you die on\n\n[Chorus]\nI, I can be your painkiller, killer, killer\nYou love me till it's all over, over\n'Cause I'm the shoulder you cry on, the dose that you die on\nI, I can be your painkiller, killer, killer\n\n[Verse 2]\nI know what you want so desperately\nYou know I'll give you one for free\nForever you're coming back to me\nNow I'm gonna give you what you need\nCause I know what you feed on\nAnd what you lean on, and what you lean on\n\n[Pre-Chorus]\nThe shoulder you cry on, the dose that you die on\n[Chorus]\nI, I can be your painkiller, killer, killer\nYou love me till it's all over, over\n'Cause I'm the shoulder you cry on, the dose that you die on\nI, I can be your painkiller, killer, killer\n\n[Bridge]\nDid you find another cure?\nDid you find another cure?\n\n[Chorus]\nI, I can be your painkiller, killer, killer\nYou love me till it's all over, over\n'Cause I'm the shoulder you cry on, the dose that you die on\nI, I can be your painkiller, killer, killer\nPainkiller", 'annotations': {'description': '&lt;p&gt;“Painkiller” is the first song released by Canadian rock band Three Days Grace, following the departure of lead singer &lt;a href="https://genius.com/artists/Adam-gontier" rel="noopener" data-api_path="/artists/72936"&gt;Adam Gontier&lt;/a&gt; January 9, 2013. Roughly 15 months later, on March 28, 2014, Matt Walst, bassist &lt;a href="https://genius.com/artists/Brad-walst" rel="noopener" data-api_path="/artists/73435"&gt;Brad Walst&lt;/a&gt;’s brother, was confirmed as Adam’s official replacement.&lt;/p&gt;\n\n&lt;p&gt;The song serves as the lead single for Three Days Grace’s fifth album, &lt;em&gt;Human&lt;/em&gt;. Featuring a more aggressive sound and whirling guitar instrumentals, “Painkiller” deals with the demonic nature of addiction.&lt;/p&gt;', 'producers': [{'name': 'Gavin Brown', 'url': 'https://genius.com/artists/Gavin-brown'}], 'writers': [{'name': 'Doug Oliver', 'url': 'https://genius.com/artists/Doug-oliver'}, {'name': 'Gavin Brown', 'url': 'https://genius.com/artists/Gavin-brown'}, {'name': 'Johnny Andrews', 'url': 'https://genius.com/artists/Johnny-andrews'}, {'name': 'Matt Walst', 'url': 'https://genius.com/artists/Matt-walst'}, {'name': 'Brad Walst', 'url': 'https://genius.com/artists/Brad-walst'}, {'name': 'Neil Sanderson', 'url': 'https://genius.com/artists/Neil-sanderson'}], 'labels': [{'name': 'RCA Records', 'url': 'https://genius.com/artists/Rca-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/From-ashes-to-new-through-it-all-lyrics', 'lyrics': "[Verse 1: Matt Brandyberry]\nThere's not a day that passes by, the pain has not amassed inside\nIt's breaking me down to the ground, it's like I crashed and died\nIt's hard to leave your past behind, especially when you're last in line\nAnd half the time it acts like vines and wraps inside my fragile mind\nHiding in plain view, it seems the same old shit I choose between\nTaking who I used to be and keeping it subdued beneath\nClose to dead and losing me, you took a chance and you believed\nSo did I, I let you lead and grabbed the line you threw to me\nAnd through it all\n\n[Chorus: Chris Musser]\nYou saved me, you made me\nAnd through it all, you changed me forever\nYou love me, you hate me\nAnd through it all, you changed me forever\n\n[Verse 2: Matt Brandyberry]\nYou've given me a chance to change, helped me in ways I can't explain\nI'll never understand the way you took my hand with no dismay\nNow I'm who I am today, and that's the man I plan to stay\nBut can't escape, I can't evade, you stranded me and ran away\nWhy'd you do it? Why'd you leave? Why'd you help me find my feet?\nWhy'd you guide me blindingly then turn and say goodbye to me?\nAll this time I tried to be the person you applied to me\nThis lie you feed that I'd succeed is why I'm me, a dying breed\n[Chorus: Chris Musser]\nYou saved me, you made me\nAnd through it all you changed me forever\nYou love me, you hate me\nAnd through it all you changed me forever\n\n[Bridge: Matt Brandyberry]\nThrough it all you changed me, I'm not the same me\nFor better or for worse, this person that you made me\nThrough it all you changed me, I'm not the same me\nFor better or for worse, you changed me forever\n\n[Verse 3: Matt Brandyberry]\nIt's killing me down deep within, it makes me strain to breathe again\nAll this pain I keep it in if it's the end where'd we begin\nIt's so hard to comprehend where we are is where we end\nLet's make believe, let's just pretend, you don't hate me and want me dead\nWhat you said stays in my head, an unrelenting discontent\nIt torments me to no extent, entrenches me just like cement\nIt makes no sense what's your intent, bled for me then fled instead\nYou never meant to be content, fuck the words, let's just be friends\n\n[Chorus: Chris Musser]\nYou saved me, you made me\nAnd through it all you changed me forever\nYou love me, you hate me\nAnd through it all you changed me forever\n[Outro: Matt Brandyberry]\nThrough it all you changed me, I'm not the same me\nFor better or for worse, this person that you made me\nThrough it all you changed me, I'm not the same me\nFor better or for worse, you changed me forever\nThrough it all you changed me, I'm not the same me\nFor better or for worse, this person that you made me\nThrough it all you changed me, I'm not the same me\nFor better or for worse, you changed me forever", 'annotations': {'description': '', 'producers': [{'name': 'Grant McFarland', 'url': 'https://genius.com/artists/Grant-mcfarland'}], 'writers': [{'name': 'Matt Brandyberry', 'url': 'https://genius.com/artists/Matt-brandyberry'}, {'name': 'Chris Musser', 'url': 'https://genius.com/artists/Chris-musser'}, {'name': 'Lance Dowdle', 'url': 'https://genius.com/artists/Lance-dowdle'}, {'name': 'Tim D’onofrio', 'url': 'https://genius.com/artists/Tim-donofrio'}, {'name': 'Branden Kreider', 'url': 'https://genius.com/artists/Branden-kreider'}], 'labels': [{'name': 'Eleven Seven Music', 'url': 'https://genius.com/artists/Eleven-seven-music'}, {'name': 'Better Noise Music', 'url': 'https://genius.com/artists/Better-noise-music'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Disturbed-the-vengeful-one-lyrics', 'lyrics': "[Verse 1]\nHe is observing the chaos, taking in the lack of raw humanity\nIt's as if the entire world's fallen in love with their insanity\nHear the innocent voices scream\nAs their tormentors laugh through all of it\nNo forgiveness from all I've seen\nThe degradation, I cannot forget\n[Pre-Chorus]\nSo sleep soundly in your beds tonight\nFor judgement falls upon you at first light\n[Chorus]\nI'm the hand of God, I'm the dark messiah\nI'm the vengeful one\n(Look inside and see what you're becoming)\nIn the blackest moment of a dying world\nWhat have you become?\n(Look inside and see what you're becoming)\n[Verse 2]\nAs the violence surges\nAnd the teeming masses have been terrorized\nThe human predators all gone mad\nAre reaping profits born from their demise\nThe rabid media plays their roles\nStoking the flames of war to no surprise\nOnly too eager to sell their souls\nFor the apocalypse must be televised\n[Pre-Chorus]\nSo sleep soundly in your beds tonight\nFor judgement falls upon you at first light\n[Chorus]\nI'm the hand of God, I'm the dark messiah\nI'm the vengeful one\n(Look inside and see what you're becoming)\nIn the blackest moment of a dying world\nWhat have you become?\n(Look inside and see what you're becoming)\n[Bridge]\nWhen you die, you'll know why\nFor you cannot be saved\nWith all the world enslaved\nWhen you die, you'll know why\nYou'll die, you'll know why\nFor you cannot be saved\nThis world is too depraved\nWhen you die, you'll know why\n[Chorus]\nI'm the hand of God, I'm the dark messiah\nI'm the vengeful one\n(Look inside and see what you're becoming)\nIn the blackest moment of a dying world\nWhat have you become?\n(Look inside and see what you're becoming)\nI'm the hand of God, I'm the dark messiah\nI'm the vengeful one\n(Look inside and see what you're becoming)\nIn the blackest moment of a dying world\nWhat have you become?\n(Look inside and see what you're becoming)", 'annotations': {'description': '&lt;p&gt;In June of 2015, &lt;a href="https://genius.com/artists/Disturbed" rel="noopener" data-api_path="/artists/28631"&gt;Disturbed&lt;/a&gt; ended a four year hiatus with the release of “The Vengeful One,” the first single released in advance of their album, &lt;em&gt;&lt;a href="https://genius.com/albums/Disturbed/Immortalized" rel="noopener" data-api_path="/albums/126740"&gt;Immortalized&lt;/a&gt;&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;The band announced the new song with this tweet:&lt;br&gt;\n&lt;/p&gt;&lt;div class="embedly_preview"&gt;\n&lt;blockquote class="twitter-tweet"&gt;&lt;a href="https://twitter.com/disturbed/status/613321622036975617?ref_src=embedly"&gt;&lt;/a&gt;&lt;/blockquote&gt;\n&lt;script async src="//platform.twitter.com/widgets.js" charset="utf-8"&gt;&lt;/script&gt;\n&lt;/div&gt;\n\n&lt;p&gt;&lt;a href="http://www.blabbermouth.net/news/disturbeds-david-draiman-on-immortalized-i-just-want-people-to-walk-away-feeling-powerful/" rel="noopener nofollow"&gt;The lyrics explained by David&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;In the song, it’s the End of Days. Things are getting worse, and we’re becoming more destructive. The media is playing everyone against one another and baiting the entire world. It’s judgment day. This is that entity’s voice speaking and passing judgment.&lt;/p&gt;&lt;/blockquote&gt;', 'producers': [{'name': 'Kevin Churko', 'url': 'https://genius.com/artists/Kevin-churko'}], 'writers': [{'name': 'Michael Wengren', 'url': 'https://genius.com/artists/Michael-wengren'}, {'name': 'Kevin Churko', 'url': 'https://genius.com/artists/Kevin-churko'}, {'name': 'David Draiman', 'url': 'https://genius.com/artists/David-draiman'}, {'name': 'Dan Donegan', 'url': 'https://genius.com/artists/Dan-donegan'}], 'labels': [{'name': 'Reprise Records', 'url': 'https://genius.com/artists/Reprise-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Pop-evil-footsteps-go-higher-lyrics', 'lyrics': "[Verse 1]\nI've been counting all my steps\nAll my no's just turned to yes\nSilently I must confess\nMy troubled history\nThat's washed away all my sins\nStarting over once again\nThis is where it all begins\nIt's right in front of me\nDown is not where I belong\nThis aching heart won't turn to stone\nThere's a fire inside these bones\nIt was meant to be\nI see your world's still full of light\nHow could I ever been so blind\nI still haven't lost my fight\nThat haunts me in my sleep\n\n[Chorus]\nI feel like waking up\nI've had this dream before\nI'll take these footsteps\nGo higher, go higher\nI've walked an empty mile\nWore down this lonely soul\nI'll take these footsteps\nGo higher, go higher\n(Woohoooo, woohoooo, woohoooo)\nHigher, go higher\n(Woohoooo, woohoooo, woohoooo)\nHigher, higher\n[Verse 2]\nI know only time would tell\nIf all the cards will treat me well\nCause this hand that I been dealt\nKeeps me wondering\nSo now here I turn the page\nI've learned to silence all my rage\nTell me who can really say\nWhat will tomorrow bring?\n\n[Chorus]\nI feel like waking up\nI've had this dream before\nI'll take these footsteps\nGo higher, go higher\nI've walked an empty mile\nWore down this lonely soul\nI'll take these footsteps\nGo higher, go higher\n(Woohoooo, woohoooo, woohoooo)\nHigher, go higher\n(Woohoooo, woohoooo, woohoooo)\nHigher, higher\n\n[Bridge]\nI'll find you, so far away\nI'll find you, after all\nI'll find you, so far away\nI'll find you, after all\n[Outro]\n(I'll find you), I feel like waking up\n(So far away), I've had this dream before\n(I'll find you), I'll take these footsteps\n(After all), Go higher, go higher\n(I'll find you), I've walked an empty mile\n(I'll find you), Wore down this lonely soul\n(So far away), I'll take these footsteps\n(After all), Go higher, go higher\n\n(I'll find you), I feel like waking up\n(So far away), I've had this dream before\n(I'll find you), I'll take these footsteps\n(After all), Go higher, go higher\n(I'll find you), I've walked an empty mile\n(So far away), Wore down this lonely soul\n(I'll find you), I'll take these footsteps\n(After all), Go higher, go higher\n\nI feel like waking up\nI've had this dream before\nI'll take these footsteps\nGo higher, higher", 'annotations': {'description': '&lt;p&gt;“Footsteps (Go Higher)” was discussed in an interview with &lt;a href="https://www.revolvermag.com/news?page=146" rel="noopener nofollow"&gt;Revolver&lt;/a&gt;; front man Leigh Kakaty explains that the song was made from his own moment of clarity after experiencing a very difficult time in his life.&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;’Onyx’ came from such an angry place,” Kakaty explains. “I was dealing with a lot of issues, like my dad passing, and being in an independent band trying to do everything on our own; there was a lot of negativity last time around. We were so pissed off, and we were taking everything out on the music and on the record. Which was cool—but then all the success hit us in the face, and we were like, ‘Wow, we don’t have to be so mad anymore!’ This time around, we looked at ourselves in the mirror and realized, ‘Where’s the fun?’ Damn, I thought that’s why we got into this business in the first place!&lt;/p&gt;&lt;/blockquote&gt;', 'producers': [{'name': 'Adam Kasper', 'url': 'https://genius.com/artists/Adam-kasper'}], 'writers': [{'name': 'Dave Bassett', 'url': 'https://genius.com/artists/Dave-bassett'}, {'name': 'Leigh Kakaty', 'url': 'https://genius.com/artists/Leigh-kakaty'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Breaking-benjamin-failure-lyrics', 'lyrics': '[Instrumental Intro]\n\n[Verse 1]\nLife will come our way\nIt has only just begun\nThe world will die alone\nThe frail will fall below\nTime will take our place\nWe return it back to one\nThe calm before the cold\nThe long and lonely road\n\n[Pre-Chorus]\nLook for the light that leads me home\n\n[Chorus]\nTired of feeling lost\nTired of letting go\nTear the whole world down\nTear the whole world down\nFailure\n\n[Verse 2]\nDrive the cloud away\nWe will fall from last to none\nThe dark before the dawn\nThe war will carry on\n[Pre-Chorus]\nLook for the light that leads me home\n\n[Chorus]\nTired of feeling lost\nTired of letting go\nTear the whole world down\nTear the whole world down\nTired of wasted breath\nTired of nothing left\nTear the whole world down\nTear the whole world down\nFailure\n\n[Instrumental Bridge]\n\n[Chorus]\nTired of feeling lost\nTired of letting go\nTear the whole world down\nTear the whole world down\nTired of wasted breath\nTired of nothing left\nTear the whole world down\nTear the whole world down\n[Outro]\nWe bury the sunlight (So long)\nWe bury the sunlight (So long)\nFailure (So long)\nFailure (So long)\nWe bury the sunlight (So long)\nWe bury the sunlight (So long)\nFailure (So long)\nFailure (So long)\nFailure', 'annotations': {'description': '&lt;p&gt;“Failure” is the first single from Breaking Benjamin in six years, this song is the first one to be released from their album, &lt;em&gt;&lt;a href="https://genius.com/albums/Breaking-benjamin/Dark-before-dawn" rel="noopener" data-api_path="/albums/126578"&gt;Dark Before Dawn&lt;/a&gt;&lt;/em&gt;.&lt;/p&gt;', 'producers': [{'name': 'Benjamin Burnley', 'url': 'https://genius.com/artists/Benjamin-burnley'}], 'writers': [{'name': 'Benjamin Burnley', 'url': 'https://genius.com/artists/Benjamin-burnley'}], 'labels': [{'name': 'Hollywood Records', 'url': 'https://genius.com/artists/Hollywood-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Shinedown-state-of-my-head-lyrics', 'lyrics': '[Intro]\nThat’s the state of my, state of my, state of my head\nThat’s the state of my, state of my, state of my head\n\n[Verse 1]\nIt’s been a long, bumpy ride sittin’ back in the saddle\nIt’s time to get down, dirty up our knees in the battle\nCome on, round up the boys, gonna make the walls rattle\nOh, our flag is tattered\nAnd our bones are shattered\nBut it doesn’t matter\n‘Cause we’re movin’ forward\n\n[Pre-Chorus]\nRound ‘em up, round ‘em up, let’s go\nRound ‘em up, let’s go\n\n[Chorus]\nOh, my eyes are seein’ red\nDouble vision from the blood we’ve shed\nThe only way I’m leavin’ is dead\nThat’s the state of my, state of my, state of my head\nThey don’t know, where we’ve been\nWe got that concrete street skin\nThe only way I’m leavin’ is dead\nThat’s the state of my, state of my, state of my head\n[Post-Chorus]\nThat’s the state of my, state of my, state of my head\n\n[Verse 2]\nWe’ve been shot up, beat up by the fallin’ of the arrows (arrows, arrows, arrows)\nYeah, I’m full of deep cuts right down to the marrow\nBut there’s no doubt we’ll get out from the bottom of the barrel (barrel)\nOh, our flag is tattered\nAnd my bones are shattered\nBut it doesn’t matter\n‘Cause we’re movin’ forward\n\n[Pre-Chorus]\nRound ‘em up, round ‘em up, let’s go\nRound ‘em up, let’s go\n\n[Chorus]\nOh, my eyes are seein’ red\nDouble vision from the blood we’ve shed\nThe only way I’m leavin’ is dead\nThat’s the state of my, state of my, state of my head\nThey don’t know, where we’ve been\nWe got that concrete street skin\nThe only way I’m leavin’ is dead\nThat’s the state of my, state of my, state of my head\n[Post-Chorus]\nThat’s the state of my, state of my, state of my head\nThat’s the state of my, state of my, state of my head\n\n[Bridge]\nCan you hear me now? Can you hear me now?\nI’m comin’ back for more\nDo you feel me now? Do you feel me now?\nI’m breakin’ down your door\nI’m not speakin’ under my breath\n‘Cause the harder you push, the rougher I get\n‘Cause I’m not shakin’, when the earth starts quakin’\nGot my own foundation with no hesitation and the\n\n[Chorus]\nOh, my eyes are seein’ red\nDouble vision from the blood we’ve shed\nThe only way I’m leavin’ is dead\nThat’s the state of my, state of my, state of my head\nThey don’t know, where we’ve been\nWe got that concrete street skin\nThe only way I’m leavin’ is dead\nThat’s the state of my, state of my, state of my head\n\n[Outro]\nThe only way I’m leavin’ is dead\nThat’s the state of my, state of my, state of my head\nThe only way I’m leavin’ is dead\nThat’s the state of my, state of my, state of my head', 'annotations': {'description': '&lt;p&gt;According to the band, “State of My Head” is a celebration of originality and about being proud of who you are and the people you call your family and friends.&lt;/p&gt;', 'producers': [{'name': 'Scott Stevens', 'url': 'https://genius.com/artists/Scott-stevens'}, {'name': 'Eric Bass', 'url': 'https://genius.com/artists/Eric-bass'}, {'name': 'Pete Nappi', 'url': 'https://genius.com/artists/Pete-nappi'}, {'name': 'Dave Bassett', 'url': 'https://genius.com/artists/Dave-bassett'}], 'writers': [{'name': 'Ethan Thompson', 'url': 'https://genius.com/artists/Ethan-thompson'}, {'name': 'Pete Nappi', 'url': 'https://genius.com/artists/Pete-nappi'}, {'name': 'Jayson DeZuzio', 'url': 'https://genius.com/artists/Jayson-dezuzio'}, {'name': 'Carlo Colasacco', 'url': 'https://genius.com/artists/Carlo-colasacco'}, {'name': 'Brent Smith', 'url': 'https://genius.com/artists/Brent-smith'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Seether-nobody-praying-for-me-lyrics', 'lyrics': "[Verse 1]\nI'm a whisper lost upon wind\nI'm the ember that will burn you down\nI'm the water that will drown you\nI'm a star that's just a black hole now\nI'm a terrifying danger\nI'm a fruit decaying on the ground\nI'm a swallower of anger\nI'm the tree that falls that makes no sound\nI make no sound\n\n[Chorus]\nCause if I stand up, I break my bones\nEverybody loves to see a fall unfold\nAin't nobody giving up\nCause nobody gives a fuck\nStand up, break my bones\nEverybody wants what they just can't hold\nThere's nobody praying for me\n\n[Verse 2]\nI am fungus in the forest\nI'm a lizard with a poisoned tongue\nI'm the child in the manger\nI'm the one who sacrificed his son\nRust is showing on my armor\nI am wheezing like an old man done\nI'm a product of my anger\nI'm the bullet in a loaded gun\n[Chorus]\nStand up, I break my bones\nEverybody loves to see a fall unfold\nAin't nobody giving up\nCause nobody gives a fuck\nStand up, break my bones\nEverybody wants what they just can't hold\nThere's nobody praying for me\n\n[Chorus]\nCause if I stand up, I break my bones\nEverybody loves to see a fall unfold\nAin't nobody giving up\nCause nobody gives a fuck\nStand up, break my bones\nEverybody wants what they just can't hold\nThere's nobody praying for me\n(There's nobody praying for me)\nThere's nobody praying for me", 'annotations': {'description': '&lt;p&gt;“Nobody Praying for Me” is a song by South African rock band Seether. It was released on 28 April 2015 as the third single from their sixth studio album Isolate and Medicate.&lt;/p&gt;\n\n&lt;p&gt;On June 30, Seether released an interactive set of music videos for their single, “Nobody Praying for Me”, which centered on perspective when it comes to discrimination and police. Frontman Shaun Morgan said of the video that “our goal in creating this video is for people to educate themselves and make an informed decision on their own, rather than being told by any media outlet saying, this is what you should be thinking, this is what is right. The whole point is to try and shift the way we look at things and to not always leap to our pre-conceived conclusions, which is mostly racially and profile-based, because that’s what we get fed all the time. I’ve been guilty of it too. It’s very unfortunate, and it’s getting worse instead of better”.&lt;/p&gt;\n\n&lt;p&gt;The music video was directed by Sherif Higazy.&lt;/p&gt;\n\n&lt;p&gt;“Nobody Praying for Me” has garnered criticism due to similarities with the song “Daisy” by Brand New in their syllabic patterns and lyrical formulas.Morgan had previously listed Daisy as one of his five favorite albumsand Brand New as one of his favorite bands.When asked in a Reddit AMA about the issue, Morgan responded by stating the band ripped off Brand New “because we are not creative or intelligent enough to write our own music, of course.”&lt;/p&gt;', 'producers': [{'name': 'Brendan O’Brien', 'url': 'https://genius.com/artists/Brendan-obrien'}], 'writers': [{'name': 'John Humphrey', 'url': 'https://genius.com/artists/John-humphrey'}, {'name': 'Dale Stewart', 'url': 'https://genius.com/artists/Dale-stewart'}, {'name': 'Shaun Morgan', 'url': 'https://genius.com/artists/Shaun-morgan'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Starset-my-demons-lyrics', 'lyrics': "[Verse 1]\nMayday! Mayday!\nThis ship is slowly sinking\nThey think I'm crazy but they don't know the feeling\nThey're all around me\nCircling like vultures\nThey wanna break me and wash away my colors\nWash away my colors\n\n[Chorus]\nTake me high and I'll sing\nOh you make everything okay, okay, okay\n('Kay, okay, okay)\nWe are one and the same\nOh you take all of the pain away, away, away\n(Way, away, away)\nSave me if I become\nMy demons\n\n[Verse 2]\nI cannot stop this sickness taking over\nIt takes control and drags me into nowhere\nI need your help, I can't fight this forever\nI know you're watching\nI can feel you out there\n[Chorus]\nTake me high and I'll sing\nOh you make everything okay, okay, okay\n('Kay, okay, okay)\nWe are one and the same\nOh you take all of the pain away, away, away\n(Way, away, away)\nSave me if I become\nMy demons\n\n[Bridge]\nTake me over the walls below\nFly forever\nDon't let me go\nI need a savior to heal my pain\nWhen I become my worst enemy\nThe enemy\n\n[Interlude]\nTake me high and I'll sing\nYou make everything okay\nWe are one and the same\nYou take all of the pain away\n\n[Chorus]\nTake me high and I'll sing\nOh you make everything okay, okay, okay\n('Kay, okay, okay)\nWe are one and the same\nOh you take all of the pain away, away, away\n(Way, away, away)\nSave me if I become\nMy demons\nTake me high and I'll sing\nOh you make everything okay, okay, okay\n('Kay, okay, okay)\nWe are one and the same\nOh you take all of the pain away, away, away\n(Way, away, away)\nSave me if I become\nMy demons", 'annotations': {'description': '&lt;p&gt;Starset vocalist Dustin Bates describes the premise of the lyrics as “Downtrodden superhero protagonist gains power from love interest” which is actually similar to the interaction between Tony Stark and Pepper Potts in the Iron Man films.&lt;/p&gt;', 'producers': [{'name': 'Rob Graves', 'url': 'https://genius.com/artists/Rob-graves'}], 'writers': [{'name': 'Stephen Aiello', 'url': 'https://genius.com/artists/Stephen-aiello'}, {'name': 'Rob Graves', 'url': 'https://genius.com/artists/Rob-graves'}, {'name': 'Dustin Bates', 'url': 'https://genius.com/artists/Dustin-bates'}], 'labels': [{'name': 'Razor &amp; Tie', 'url': 'https://genius.com/artists/Razor-and-tie'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Disturbed-the-light-lyrics', 'lyrics': "[Verse 1]\nLike an unsung melody\nThe truth is waiting there for you to find it\nIt's not a blight, but a remedy\nA clear reminder of how it began\nDeep inside your memory\nYou turned away as you struggled to find it\nYou heard the call as you walked away\nA voice of calm from within the silence\nAnd for what seemed an eternity\nYou waited hoping it would call out again\nYou heard the shadow beckoning\nThen, your fear seemed to keep you blinded\nYou held your guard as you walked away\n\n[Chorus]\nWhen you think all is forsaken\nListen to me now (All's not forsaken)\nYou need never feel broken again\nSometimes, darkness can show you the light\n\n[Verse 2]\nAn unforgivable tragedy\nThe answer isn't where you think you'd find it\nPrepare yourself for the reckoning\nFor when your world seems to crumble again\nDon't be afraid, don't turn away\nYou're the one who can redefine it\nDon't let hope become a memory\nLet the shadow permeate your mind\nAnd reveal the thoughts that were tucked away\nSo that the door can be opened again\nWithin your darkest memories\nLies the answer, if you dare to find it\nDon't let hope become a memory\n[Chorus]\nWhen you think all is forsaken\nListen to me now (All's not forsaken)\nYou need never feel broken again\nSometimes, darkness can show you the light\n\n[Bridge]\nSickening, weakening\nDon't let another somber pariah consume your soul\nYou need strengthening, toughening\nIt takes an inner dark to rekindle the fire burning in you\nIgnite the fire within you\n\n[Chorus]\nWhen you think all is forsaken\nListen to me now (All's not forsaken)\nYou need never feel broken again\nSometimes, darkness can show you the light\n\n[Outro]\nDon't ignore, listen to me now\nYou need never feel broken again\nSometimes, darkness can show you the light", 'annotations': {'description': '&lt;p&gt;The 5th song off of Disturbed’s surprise 2015 album Immortalized, “The Light” has a softer feel to it when  compared to most of the bands catalogue, choosing an empowering theme of finding “The Light” using your darkness, rather than dwelling in it.&lt;/p&gt;', 'producers': [{'name': 'Kevin Churko', 'url': 'https://genius.com/artists/Kevin-churko'}], 'writers': [{'name': 'Mike Wengren', 'url': 'https://genius.com/artists/Mike-wengren'}, {'name': 'Dan Donegan', 'url': 'https://genius.com/artists/Dan-donegan'}, {'name': 'Kevin Churko', 'url': 'https://genius.com/artists/Kevin-churko'}, {'name': 'David Draiman', 'url': 'https://genius.com/artists/David-draiman'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Highly-suspect-lydia-lyrics', 'lyrics': "[Verse 1]\nBlack ocean, cold and dark\nI am the hungry shark, fast and merciless\nBut the only girl that could talk to him just couldn't swim\nTell me what's worse than this\nAnd it echoes in the halls\nThey danced along the walls\nThe memories of your ghost\nYou are the one that I used to love\nAnd I'm still in love, but I've never loved you the most\n\n[Chorus 1]\nI've seen better days\nSo unafraid in my youth\nI can't breathe, much less believe\n\n[Verse 2]\nYou gave me everything you had\nEvery little thing you had\nA pure love unrehearsed\nI've seen your best and worst\nAnd at your worst, you're still the best\nBut at my best, I am the worst\nIt's a curse\nYour eyes are lined in pain\nBlack tears don't hide in rain\nAnd I tied you to the tracks\nWhen I turned around, I heard the sound\nI hit the ground, I know there's no turning back\n[Chorus 2]\nI've seen better days\nSo unafraid in my youth\nI can't breathe, much less believe the truth\nBetter days, so unafraid in my youth\nI can't breathe, much less believe the truth\n\n[Verse 3]\nBlack ocean, cold and dark\nI am the hungry shark, fast and merciless\nBut the only girl that could talk to him, she couldn't swim\nTell me what's worse than this\nWhat's worse is all the coke\nThe ice, it numbs my throat if only for the night\nMy muscles will contract, your bones will crack\nIt's just a fact 'cause I am here to win this fight\n\n[Chorus 3]\nI can't fucking breathe, much less believe the truth\nI pick up a gun, aim for the sun, and shoot\nBetter days, so unafraid in my youth\nI can't breathe or believe the truth\n\n[Outro]\nYour eyes are lined in pain\nBlack tears don't hide in rain\nAnd I tied you to the tracks\nWhen I turned around, I heard that sound", 'annotations': {'description': '&lt;p&gt;“Lydia” is the breakthrough song for the East Coast rock band Highly Suspect. It tells the tale of a man facing the hardships of love and drug abuse; the combination of both has left him tied up and sunk, which is displayed in the song’s music video.&lt;/p&gt;\n\n&lt;p&gt;The song &lt;a href="https://www.billboard.com/music/highly-suspect" rel="noopener nofollow"&gt;reached #4&lt;/a&gt; on the US Rock Chart in summer 2015 and later earned a Grammy nomination.&lt;/p&gt;', 'producers': [{'name': 'Joel Hamilton', 'url': 'https://genius.com/artists/Joel-hamilton'}], 'writers': [{'name': 'Ryan Meyer', 'url': 'https://genius.com/artists/Ryan-meyer'}, {'name': 'Rich Meyer', 'url': 'https://genius.com/artists/Rich-meyer'}, {'name': 'Johnny Stevens', 'url': 'https://genius.com/artists/Johnny-stevens'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Shinedown-sound-of-madness-lyrics', 'lyrics': "[Intro]\nYeah, I get it you're an outcast\nAlways under attack\nAlways comin' in last\nBringin' up the past\nNo one owes you anything\nI think you need a shotgun blast\nA kick in the ass\nSo paranoid, watch your back\nOh my, here we go\n\n[Verse 1]\nAnother loose cannon gone bipolar\nSlipped down, couldn't get much lower\nQuicksand's got no sense of humor\nI'm still laughin' like hell\n\n[Pre-Chorus]\nYou think that by cryin' to me\nLookin' so sorry that I'm gonna believe\nYou've been infected by a social disease\nWell, then take your medicine\n\n[Chorus]\nI created the sound of madness\nWrote the book on pain\nSomehow I'm still here\nTo explain\nThat the darkest hour never comes in the night\nYou can sleep with a gun\nBut when you gonna wake up and fight\nFor yourself\n[Verse 2]\nI'm so sick of this tombstone mentality\nIf there's an afterlife, then it'll set you free\nBut I'm not, gonna part the seas\nYou're a self-fulfilling prophecy\n\n[Pre-Chorus]\nYou think, that by cryin' to me\nLookin' so sorry that I'm gonna believe\nYou've been infected, by a social disease\nWell, then take your medicine\n\n[Chorus]\nI created the sound of madness\nWrote the book on pain\nSomehow I'm still here\nTo explain\nThat the darkest hour never comes in the night\nYou can sleep with a gun\nBut when you gonna wake up and fight\nFor yourself\n\n[Bridge]\nWell I created the sound of madness\nWrote the book on pain\nSomehow I'm still here\nTo explain\nThat the darkest hour never comes in the night\nYou can sleep with a gun\nBut when you gonna wake up... when you gonna wake up\nAnd fight\n[Chorus]\nI created the sound of madness\nWrote the book on pain\nSomehow I'm still here\nTo explain\nThat the darkest hour never comes in the night\nYou can sleep with a gun\nBut when you gonna wake up and fight\nFor yourself\n\n[Outro]\nBut when you gonna wake up and fight\nFor yourself\nBut when you gonna wake up and fight\nFor yourself\nWhen you gonna wake up and fight\nFor yourself", 'annotations': {'description': '&lt;p&gt;“Sound of Madness” is the third single by the rock band Shinedown from their 2008 album “The Sound of Madness”. It was chosen to be the title track after some road testing, (on a short run of dates.) It was released on February 23, 2009 in Europe, and on June 20, 2009, the song peaked at No. 1 on the Hot Mainstream Rock Tracks chart, making it their third straight single to reach the top spot on the chart. This makes Shinedown the only band to have their first ten singles all reach the top five on the Mainstream Rock chart.&lt;/p&gt;', 'producers': [{'name': 'Rob Cavallo', 'url': 'https://genius.com/artists/Rob-cavallo'}], 'writers': [{'name': 'Dave Bassett', 'url': 'https://genius.com/artists/Dave-bassett'}, {'name': 'Brent Smith', 'url': 'https://genius.com/artists/Brent-smith'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Asking-alexandria-i-wont-give-in-lyrics', 'lyrics': "[Chorus]\nEvery breath you take, I watch you slip away\nYou're slowly killing yourself\nEvery breath you take, I watch you slip away\nYou're slowly killing yourself, I won't give in\n\n[Verse 1]\nIf my heart could sing, would you stay?\nWould you stay and listen, would you stay and listen?\nIf my soul was torn, would you help?\nWould you try and fix me, would you help unbreak me?\n\n[Pre-Chorus]\nYour smile, it eats me alive\nAnd I can't turn away any longer\n\n[Chorus]\nEvery breath you take, I watch you slip away\nYou're slowly killing yourself, I won't give in\nEvery breath you take, I watch you slip away\nYou're slowly killing yourself, I won't give in\n\n[Verse 2]\nI'm the ghost of what's left of me\nBegging you to hear me, can you even feel me?\nI can't let you go, save me, please\nWill you stay here with me, will you ever leave me?\n[Pre-Chorus]\nYour smile, it eats me alive\nAnd I can't turn away any longer\n\n[Chorus]\nEvery breath you take, I watch you slip away\nYou're slowly killing yourself, I won't give in\nEvery breath you take, I watch you slip away\nYou're slowly killing yourself, I won't give in\n\n[Bridge]\nI gave you everything, I never thought we would end up like this\nI gave you everything, if I can't let you go, save me, please\nI gave you everything, I won't give in\nI gave you everything, I won't give in\nEvery breath you take, I watch you slip away\nYou're slowly killing yourself (I'll be your light in the darkness)\n\n[Chorus]\nEvery breath you take, I watch you slip away\nYou're slowly killing yourself, I won't give in\nEvery breath you take, I watch you slip away\nYou're slowly killing yourself, I won't give in\n\n[Outro]\nI gave you everything, I never thought we would end up like this", 'annotations': {'description': '&lt;p&gt;“I Won’t Give In” was the first single released in advance of Asking Alexandria’s 2016 studio album.&lt;/p&gt;\n\n&lt;p&gt;It is the first song featuring their new lead vocalist, Denis Shaforostov, ex-member of metalcore band &lt;a href="https://genius.com/artists/Make-me-famous" rel="noopener" data-api_path="/artists/357441"&gt;Make Me Famous&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/4958fb6ef85cdc085440d5e0ff3887d0.600x600x1.jpg" alt="" width="600" height="600" data-animated="false"&gt;&lt;/p&gt;', 'producers': [{'name': 'Joey Sturgis', 'url': 'https://genius.com/artists/Joey-sturgis'}], 'writers': [{'name': 'Denis Stoff', 'url': 'https://genius.com/artists/Denis-stoff'}, {'name': 'Ben Bruce', 'url': 'https://genius.com/artists/Ben-bruce'}], 'labels': [{'name': 'Sumerian Records', 'url': 'https://genius.com/artists/Sumerian-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Red-sun-rising-emotionless-lyrics', 'lyrics': "[Verse 1]\nWith lips closed and eyes sealed\nYou're sculpture with a pulse\nI wanna capture your essence and keep it here forever little one\nAnd I feel good about you not telling anyone\n\n[Chorus]\nYou'll just lie\nMotionless\nEmotionless\nYou're beautiful asleep\nMotionless\nEmotionless\nYou're beautiful asleep\n\n[Verse 2]\nYou'll feel nothing as I send your soul away\nHow long will you last\nAnd how long will you stay\nAs guilty as I feel, I'm making you beautiful forever\nUntil you rot away to nothing\nWe'll be perfect here together\nI feel good about you not telling\nI feel good about you\n\n[Chorus]\nYou'll just lie\nMotionless\nEmotionless\nYou're beautiful asleep\nMotionless\nEmotionless\nYou're beautiful asleep\n[Bridge]\nCause you're falling apart\nCause you're falling apart\nAt your seams\n\n[Instrumental break]\n\nYou are falling apart\nYou are falling apart\n\n[Chorus]\nYou'll just lie\nMotionless\nEmotionless\nYou're beautiful asleep\nYou'll just lie\nMotionless\nEmotionless\nYou're beautiful asleep\nYou'll just lie\nMotionless\nEmotionless\nYou're beautiful asleep\nYou'll just lie\nMotionless\nEmotionless\nDisgusting now I see\n[Outro]\nYou're falling apart at your seams", 'annotations': {'description': '', 'producers': [{'name': 'Bob Marlette', 'url': 'https://genius.com/artists/Bob-marlette'}], 'writers': [{'name': 'Ryan Williams (Producer)', 'url': 'https://genius.com/artists/Ryan-williams-producer'}, {'name': 'Mike Protich', 'url': 'https://genius.com/artists/Mike-protich'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Three-days-grace-i-hate-everything-about-you-lyrics', 'lyrics': "[Verse 1]\nEvery time we lie awake\nAfter every hit we take\nEvery feeling that I get\nBut I haven't missed you yet\nEvery roommate kept awake\nBy every sigh and scream we make\nAll the feelings that I get\nBut I still don't miss you yet\nOnly when I stop to think about it\n\n[Chorus]\nI hate everything about you\nWhy do I love you?\nI hate everything about you\nWhy do I love you?\n\n[Verse 2]\nEvery time we lie awake\nAfter every hit we take\nEvery feeling that I get\nBut I haven't missed you yet\nOnly when I stop to think about it\n\n[Chorus]\nI hate everything about you\nWhy do I love you?\nI hate everything about you\nWhy do I love you?\n[Bridge]\nOnly when I stop to think about you, I know\nOnly when you stop to think about me, do you know?\n\n[Outro]\nI hate everything about you\nWhy do I love you?\nYou hate everything about me\nWhy do you love me?\nI hate, you hate\nI hate, you love me\nI hate everything about you\nWhy do I love you?", 'annotations': {'description': '&lt;p&gt;“I Hate Everything About You” is the Three Days Grace’s debut single from their debut self-titled album. In the track, Adam Gontier sings about being conflicted between loving and hating someone in a toxic relationship.&lt;/p&gt;\n\n&lt;p&gt;The song peaked at number 55 on the Billboard Hot 100 chart, and is one of the band’s most popular songs.&lt;/p&gt;', 'producers': [{'name': 'Gavin Brown', 'url': 'https://genius.com/artists/Gavin-brown'}], 'writers': [{'name': 'Gavin Brown', 'url': 'https://genius.com/artists/Gavin-brown'}, {'name': 'Brad Walst', 'url': 'https://genius.com/artists/Brad-walst'}, {'name': 'Neil Sanderson', 'url': 'https://genius.com/artists/Neil-sanderson'}, {'name': 'Adam Gontier', 'url': 'https://genius.com/artists/Adam-gontier'}], 'labels': [{'name': 'RCA Records', 'url': 'https://genius.com/artists/Rca-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/I-prevail-blank-space-lyrics', 'lyrics': '[Verse 1]\nNice to meet you, where you been?\nI could show you incredible things\nMagic, madness, heaven, sin\nSaw you there and I thought\nOh my God, look at that face\nYou look like my next mistake\nLove\'s a game, wanna play?\nHey, hey\nNew money, suit and tie\nI can read you like a magazine\nAin\'t it funny, rumors fly\nAnd I know you heard about me\nSo hey, let\'s be friends\nI\'m dying to see how this one ends\nGrab your passport and my hand\nI can make the good girls bad for a weekend\n\n[Chorus]\nSo it\'s gonna be forever\nOr it\'s gonna go down in flames\nYou can tell me when it\'s over\nIf the high was worth the pain\nGot a long list of ex-lovers\nThey\'ll tell you I\'m insane\n\'Cause you know I love the players\nAnd you love the game\n\'Cause we\'re young and we\'re reckless\nWe\'ll take this way too far\nIt\'ll leave you breathless\nOr with a nasty scar\nGot a long list of ex-lovers\nThey\'ll tell you I\'m insane\nBut I\'ve got a blank space, baby\nAnd I\'ll write your... name\n[Verse 2]\nCherry lips, crystal skies\nI could show you incredible things\nStolen kisses, pretty lies\nYou\'re the Queen, baby, I\'m your King\nFind out what you want\nBe that guy for a month\nBut, the worst is yet to come, oh no\nScreaming, crying, perfect storms\nI could make all the tables turn\nRose garden filled with thorns\nKeep you second guessing like\n"Oh my God, who is he? Who is he?"\nI get drunk on jealousy\nBut you\'ll come back each time you leave\n\'Cause, darling, I\'m a nightmare dressed like a daydream\n\n[Chorus]\nSo it\'s gonna be forever\nOr it\'s gonna go down in flames\nYou can tell me when it\'s over\nIf the high was worth the pain\nGot a long list of ex-lovers\nThey\'ll tell you I\'m insane\n\'Cause you know I love the players\nAnd you love the game\n\'Cause we\'re young and we\'re reckless\nWe\'ll take this way too far\nIt\'ll leave you breathless\nOr with a nasty scar\nGot a long list of ex-lovers\nThey\'ll tell you I\'m insane\nBut I\'ve got a blank space, baby\nAnd I\'ll write your name...\n[Bridge]\nGirls only want love if it\'s torture\nDon\'t say I didn\'t, don\'t say I didn\'t warn you\nIt\'s torture, it\'s torture\nDon\'t say I didn\'t warn you\nIt\'s torture, it\'s torture\nDon\'t say I didn\'t warn you\n\n[Chorus]\nSo it\'s gonna be forever\nOr it\'s gonna go down in flames\nYou can tell me when it\'s over\nIf the high was worth the pain\nGot a long list of ex-lovers\nThey\'ll tell you I\'m insane\n\'Cause you know I love the players\nAnd you love the game\n\'Cause we\'re young and we\'re reckless\nWe\'ll take this way too far\nIt\'ll leave you breathless\nOr with a nasty scar\nGot a long list of ex-lovers\nThey\'ll tell you I\'m insane\nBut I\'ve got a blank space, baby\nAnd I\'ll write your name', 'annotations': {'description': '&lt;p&gt;“Blank Space” is an explosive metalcore cover of the &lt;a href="https://genius.com/Taylor-swift-blank-space-lyrics" rel="noopener" data-api_path="/songs/542389"&gt;hit song&lt;/a&gt; by Pop artist &lt;a href="https://genius.com/artists/Taylor-swift" rel="noopener" data-api_path="/artists/1177"&gt;Taylor Swift&lt;/a&gt;. On this cover, besides adding hard-hitting bass and extreme scream-vocals, I Prevail takes a new spin on the story. Originally told from the girl’s perspective, “Blank Space” is now from the guy’s perspective, as he introduces himself as the bad boy to wreck her heart.&lt;/p&gt;', 'producers': [{'name': 'BJ Perry', 'url': 'https://genius.com/artists/Bj-perry'}], 'writers': [{'name': 'Max Martin', 'url': 'https://genius.com/artists/Max-martin'}, {'name': 'Shellback', 'url': 'https://genius.com/artists/Shellback'}, {'name': 'Taylor Swift', 'url': 'https://genius.com/artists/Taylor-swift'}, {'name': 'Eric Vanlerberghe', 'url': 'https://genius.com/artists/Eric-vanlerberghe'}, {'name': 'Brian Burkheiser', 'url': 'https://genius.com/artists/Brian-burkheiser'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Disturbed-the-sound-of-silence-lyrics', 'lyrics': '[Verse 1]\nHello darkness, my old friend\nI\'ve come to talk with you again\nBecause a vision softly creeping\nLeft its seeds while I was sleeping\nAnd the vision that was planted in my brain\nStill remains within the sound of silence\n\n[Verse 2]\nIn restless dreams, I walked alone\nNarrow streets of cobblestone\n\'Neath the halo of a street lamp\nI turned my collar to the cold and damp\nWhen my eyes were stabbed by the flash of a neon light\nThat split the night and touched the sound of silence\n\n[Verse 3]\nAnd in the naked light, I saw\nTen thousand people, maybe more\nPeople talking without speaking\nPeople hearing without listening\nPeople writing songs that voices never shared\nAnd no one dared disturb the sound of silence\n\n[Verse 4]\n"Fools", said I, "You do not know\nSilence like a cancer grows\nHear my words that I might teach you\nTake my arms that I might reach you"\nBut my words like silent raindrops, fell\nAnd echoed in the wells of silence\n[Verse 5]\nAnd the people bowed and prayed\nTo the neon God they made\nAnd the sign flashed out its warning\nIn the words that it was forming\nAnd the sign said, "The words of the prophets are written on the subway walls and tenement halls"\nAnd whispered in the sound of silence', 'annotations': {'description': '&lt;p&gt;A cover of &lt;a href="https://genius.com/artists/Simon-and-garfunkel" rel="noopener" data-api_path="/artists/14688"&gt;Simon &amp;amp; Garfunkel&lt;/a&gt;’s 1964 song of the same name. Annotations that are not specific to this version can be found on the &lt;a href="https://genius.com/Simon-and-garfunkel-the-sound-of-silence-lyrics" rel="noopener" data-api_path="/songs/79538"&gt;original&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Style-wise, it differs greatly from both the folk-rock vibe of the original and the typical hard rock/metal style of most &lt;a href="https://genius.com/artists/Disturbed" rel="noopener" data-api_path="/artists/28631"&gt;Disturbed&lt;/a&gt; songs. In their place is an orchestra that booms in crescendo as the song goes on, alongside David Draiman’s own vocals that become more powerful. This has resulted in perhaps the most successful single for Disturbed since &lt;a href="https://genius.com/Disturbed-down-with-the-sickness-lyrics" rel="noopener" data-api_path="/songs/97449"&gt;Down With The Sickness&lt;/a&gt;, topping the US Hard Rock Digital and Mainstream Rock charts as well as reaching #42 on the Hot 100, the highest number charted by a Disturbed song.&lt;/p&gt;', 'producers': [{'name': 'Kevin Churko', 'url': 'https://genius.com/artists/Kevin-churko'}], 'writers': [{'name': 'Paul Simon', 'url': 'https://genius.com/artists/Paul-simon'}], 'labels': [{'name': 'Reprise Records', 'url': 'https://genius.com/artists/Reprise-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Seether-words-as-weapons-lyrics', 'lyrics': "[Intro]\nAll I really want is something beautiful to say\nAll I really want is something beautiful to say\n\n[Verse 1]\nKeep me locked up in your broken mind\nI keep searching, never been able to find\nA light behind your dead eyes\nNot anything at all\n\n[Pre-Chorus 1]\nYou keep living in your own lie\nEver deceitful and ever unfaithful\nKeep me guessing, keep me terrified\nTake everything from my world\n\n[Chorus]\nSay can you help me right before the fall\nTake what you can and leave me to the wolves\n\n[Verse 2]\nKeep me dumb, keep me paralyzed\nWhy try swimming? I'm drowning in fables\nYou're not that saint that you externalize\nYou're not anything at all\n[Pre-Chorus 2]\nIt's oh, so playful when you demonize\nTo spit out the hateful, you're willing and able\nYour words are weapons of the terrified\nYou're nothing in my world\n\n[Chorus]\nSay can you help me right before the fall\nTake what you can and leave me to the wolves\n\n[Bridge]\nAll I really want is something beautiful to say\nKeep me guessing, keep me terrified\nAll I really want is something beautiful to say\nYou keep living in your own lie\nAll I really want is something beautiful to say\nTo never fade away, I wanna live forever\nAll I really want is something beautiful to say\nTo never fade away, I wanna live forever\n\n[Middle 8]\nYou keep living in your own lie\nKeep me guessing, keep me terrified\nAll I really want is something beautiful to say\nAll I really want is something beautiful to say\n[Chorus]\nSay can you help me right before the fall\nTake what you can and leave me to the wolves\n\n[Outro]\nAll I really want is something beautiful to say\nWords are weapons of the terrified\nAll I really want is something beautiful to say\nKeep me guessing, keep me terrified\nAll I really want is something beautiful to say\nTo never fade away, I wanna live forever\nAll I really want is something beautiful to say\nTo never fade away, I wanna live forever", 'annotations': {'description': '&lt;p&gt;Track number 3 and also the lead single from &lt;a href="https://genius.com/artists/Seether" rel="noopener" data-api_path="/artists/20913"&gt;Seether&lt;/a&gt;’s &lt;a href="https://genius.com/albums/Seether/Isolate-and-medicate" rel="noopener" data-api_path="/albums/99504"&gt;sixth studio album&lt;/a&gt;, Words as Weapons is song sound founded in alternative metal and the post-grunge subgenre roots. It was released on 1 May 2014 and &lt;a href="http://www.billboard.com/artist/278593/Seether/chart?f=376" rel="noopener nofollow"&gt;topped the Billboard chart for Mainstream Rock&lt;/a&gt;&lt;/p&gt;', 'producers': [{'name': 'Brendan O’Brien', 'url': 'https://genius.com/artists/Brendan-obrien'}], 'writers': [{'name': 'John Humphrey', 'url': 'https://genius.com/artists/John-humphrey'}, {'name': 'Dale Stewart', 'url': 'https://genius.com/artists/Dale-stewart'}, {'name': 'Shaun Morgan', 'url': 'https://genius.com/artists/Shaun-morgan'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Hellyeah-human-lyrics', 'lyrics': 'I defy your defiance, it’s all lies in alliance\nI’ve been damaged left in ruin\nBecause I’m broken, flawed and human\n\nYou drove the stake in my worst mistake\nNow I’m the one left alone\nBrought out the evil that the devil in me\nAnd now I’m on my own inside the dark unknown\n\nYou told the lie you believed in me\nLights dimming low lost the glow\nYou are the sin and so sinister\nI’m just the soul you owe the who you left unwhole\n\nI defy your defiance, it’s all lies in alliance\nI’ve been damaged left in ruin because I’m broken, flawed and just human\nHeaven’s sake is forsaken, didn’t create all creation\nI’ve designed my undoing because I’m broken, flawed and just human\n\nYou were the anger in all my danger\nOld habits keep me this cold\nYou killed the light that enlightened me\nMy ark of dark afloat now I’ve lost all my hope\n\nThe spoiled child among all the children\nThe troll controlling me you are the ire that fueled my fire\nStab my stability I’m my worst enemy\nI defy your defiance, it’s all lies in alliance\nI’ve been damaged left in ruin because I’m broken, flawed and just human\nHeaven’s sake is forsaken, didn’t create all creation\nI’ve designed my undoing because I’m broken, flawed and just human\n\nI defy your defiance, it’s all lies in alliance\nI’ve been damaged left in ruin because I’m broken, flawed and just human\nHeaven’s sake is forsaken, didn’t create all creation\nI’ve designed my undoing because I’m broken, flawed and just human', 'annotations': {'description': '', 'producers': [{'name': 'Kevin Churko', 'url': 'https://genius.com/artists/Kevin-churko'}], 'writers': [], 'labels': [{'name': 'Eleven Seven Music', 'url': 'https://genius.com/artists/Eleven-seven-music'}, {'name': 'Better Noise Music', 'url': 'https://genius.com/artists/Better-noise-music'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Five-finger-death-punch-bad-company-lyrics', 'lyrics': '[Verse 1]\nA company, always on the run\nOur destiny, oh, it\'s the rising sun\nI was a born, a shotgun in my hand\nBehind the gun, I\'ll make my final stand, yeah\n\n[Pre-Chorus]\nAnd that\'s why they call me...\n\n[Chorus]\nBad company\nI can\'t deny\nBad, bad company\nTill the day I die\nUntil the day I die\nUntil the day I die\n\n[Verse 2]\nRebel souls; "deserters," we\'ve been called\nChose a gun and threw away the sun\nNow these towns, well, they all know our name\nThe Death Punch sound is our claim to fame\n\n[Pre-Chorus]\nAnd that\'s why they call me...\n[Chorus]\nBad company\nI can\'t deny\nBad, bad company\nTill the day I die\nUntil the day I die\nUntil the day I die\n\n[Bridge]\nEye for an eye\nTooth for a tooth\nBlood for blood\nWe\'ve all gotta die\nWe\'ve all gotta die\n\n[Guitar Solo]\n\n[Pre-Chorus]\nAnd that\'s why they call me...\n\n[Chorus]\nBad company\nI won\'t deny\nBad, bad company\nTill the day I die\nBad company\nI won\'t deny\nBad, bad company\nTill the day I die\nUntil the day I die\nUntil the day I die\n[Outro]\nUntil the day I die\nUntil the day I die\nUntil the day I die', 'annotations': {'description': '&lt;p&gt;&lt;img src="https://images.rapgenius.com/661ac9ce4516ff87cd5b44b17b717f2b.350x350x1.jpg" alt="" width="350" height="350" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;On their &lt;a href="https://genius.com/albums/Five-finger-death-punch/War-is-the-answer" rel="noopener" data-api_path="/albums/81423"&gt;Second studio record&lt;/a&gt;, &lt;a href="https://genius.com/artists/Five-finger-death-punch" rel="noopener" data-api_path="/artists/19975"&gt;Five Finger Death Punch&lt;/a&gt; decided to cover a song by the band of the same name, &lt;a href="https://genius.com/artists/Bad-company" rel="noopener" data-api_path="/artists/27412"&gt;Bad Company&lt;/a&gt;. The result was a song that peaked at #2 on the Billboard US Mainstream Rock Songs Chart. Featuring some minor lyrical changes, (a &lt;em&gt;shotgun&lt;/em&gt; in my hand (The &lt;em&gt;Death Punch&lt;/em&gt; Sound)) the song was a huge success.&lt;/p&gt;', 'producers': [{'name': 'Five Finger Death Punch', 'url': 'https://genius.com/artists/Five-finger-death-punch'}, {'name': 'Kevin Churko', 'url': 'https://genius.com/artists/Kevin-churko'}], 'writers': [{'name': 'Jason Hook', 'url': 'https://genius.com/artists/Jason-hook'}, {'name': 'Jeremy Spencer Heyde', 'url': 'https://genius.com/artists/Jeremy-spencer-heyde'}, {'name': 'Matt Snell', 'url': 'https://genius.com/artists/Matt-snell'}, {'name': 'Zoltan Bathory', 'url': 'https://genius.com/artists/Zoltan-bathory'}, {'name': 'Simon Kirke', 'url': 'https://genius.com/artists/Simon-kirke'}, {'name': 'Paul Rodgers', 'url': 'https://genius.com/artists/Paul-rodgers'}], 'labels': [{'name': 'Prospect Park Records', 'url': 'https://genius.com/artists/Prospect-park-records'}, {'name': 'Spinefarm Records', 'url': 'https://genius.com/artists/Spinefarm-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Three-days-grace-riot-lyrics', 'lyrics': "[Verse 1]\nIf you feel so empty, so used up, so let down\nIf you feel so angry, so ripped off, so stepped on\nYou're not the only one refusing to back down\nYou're not the only one, so get up\n\n[Chorus]\nLet's start a riot, a riot\nLet's start a riot\nLet's start a riot, a riot\nLet's start a riot\n\n[Verse 2]\nIf you feel so filthy, so dirty, so fucked up\nIf you feel so walked on, so painful, so pissed off\nYou're not the only one refusing to go down\nYou're not the only one, so get up\n\n[Chorus]\nLet's start a riot, a riot\nLet's start a riot\nLet's start a riot, a riot\nLet's start a riot\n\n[Bridge]\nIf you feel so empty, so used up, so let down\nIf you feel so angry, just get up\nLet's start a riot, a riot\nLet's start a riot\n[Chorus]\nLet's start a riot, a riot\nLet's start a riot\nLet's start a riot, a riot\nLet's start a riot, a riot\nLet's start a riot, a riot\nLet's start a riot\nLet's start a riot, a riot\nLet's start a riot", 'annotations': {'description': '&lt;p&gt;“Riot” is the fourth and final single from Three Days Grace’s second album, &lt;em&gt;One-X&lt;/em&gt;. The song is about protesting against the negative things in life and was written while Adam Gontier was in rehab for a prescription drug addiction.&lt;/p&gt;\n\n&lt;p&gt;As of February 12, 2018, the single reached Platinum in the United States. The song peaked at #12 on the U.S. Mainstream Rock Charts and #21 on the U.S. Alternative Songs Charts on May 10, 2008 and #65 on the Canadian Hot 100 Charts on January 12, 2008.&lt;/p&gt;', 'producers': [{'name': 'Howard Benson', 'url': 'https://genius.com/artists/Howard-benson'}], 'writers': [{'name': 'Brad Walst', 'url': 'https://genius.com/artists/Brad-walst'}, {'name': 'Barry Stock', 'url': 'https://genius.com/artists/Barry-stock'}, {'name': 'Neil Sanderson', 'url': 'https://genius.com/artists/Neil-sanderson'}, {'name': 'Adam Gontier', 'url': 'https://genius.com/artists/Adam-gontier'}], 'labels': [{'name': 'RCA Records', 'url': 'https://genius.com/artists/Rca-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Pop-evil-take-it-all-lyrics', 'lyrics': "[Verse 1:]\nYou got that fire burning your eyes\nLighting up the sky\nI see it coming\nYou got desire run through your brain\nI see your veins\nI see it coming\n\n[Chorus 1:]\nHey, so what do you say\nSo what do you say [x2]\nSo what do you, hey, hey, hey, hey\n\n[Chorus 2:]\nHey, what are you trying to say\nI told you that I'm not gonna back away\nBecause this time there's a price to pay\nSay hey oh hey\nJust take it all\nI'm coming gonna take it all [x2]\nJust take it all\nI'm coming gonna take it all [x2]\nJust take it all\nI'm coming gonna take it all [x2]\nJust take it all\nI'm coming gonna take it all [x2]\n[Verse 2:]\nGot got got that drive way deep inside\nKeeping you alive, it's all or nothing\nThere ain't no shame just playing the game\nNo pain and no gain\nJust rise above it\n\n[Chorus 1:]\nHey, so what do you say\nSo what do you say [x2]\nSo what do you, hey, hey, hey, hey\n\n[Chorus 2:]\nHey, what are you trying to say\nI told you that I'm not gonna back away\nBecause this time there's a price to pay\nSay hey oh hey\nJust take it all\nI'm coming gonna take it all [x2]\nJust take it all\nI'm coming gonna take it all [x2]\nJust take it all\nI'm coming gonna take it all [x2]\nJust take it all\nI'm coming gonna take it all [x2]\n[Bridge:]\nOh oh, hey, hey, hey [x4]\nI'm coming gonna take it all, I'm coming gonna take it all [x4]\n\n[Chorus 2:]\nHey, what are you trying to say\nI told you that I'm not gonna back away\nBecause this time there's a price to pay\nSay hey oh hey\nJust take it all\nI'm coming gonna take it all [x2]\nJust take it all\nI'm coming gonna take it all [x2]\nJust take it all\nI'm coming gonna take it all [x2]\nJust take it all\nI'm coming gonna take it all [x2]", 'annotations': {'description': '', 'producers': [{'name': 'Adam Kasper', 'url': 'https://genius.com/artists/Adam-kasper'}], 'writers': [{'name': 'Leigh Kakaty', 'url': 'https://genius.com/artists/Leigh-kakaty'}, {'name': 'Dave Bassett', 'url': 'https://genius.com/artists/Dave-bassett'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Rise-against-savior-lyrics', 'lyrics': '[Verse 1]\nIt kills me not to know this\nBut I\'ve all but just forgotten\nWhat the color of her eyes were\nAnd her scars or how she got them\nAs the telling signs of age rain down\nA single tear is droppin\'\nThrough the valleys of an aging face\nThat this world has forgotten\n\n[Verse 2]\nThere is no reconciliation\nThat will put me in my place\nAnd there is no time like the present\nTo drink these draining seconds\nBut seldom do these words ring true\nWhen I\'m constantly failing you\nLike walls that we just can\'t break through\nUntil we disappear\n\n[Pre-Chorus]\nSo, tell me now, if this ain\'t love\nThen how do we get out? ’Cause I don\'t know\n\n[Chorus]\nThat\'s when she said, "I don\'t hate you, boy, I just want to save you\nWhile there\'s still something left to save!" (Whoh-oh-oh, Whoh-oh-oh!)\nThat\'s when I told her, "I love you, girl, but I\'m not the answer\nFor the questions that you still have!"\nWhoh-oh-oh, Whoh-oh-oh!\n[Verse 3]\nAnd the day pressed on like crushing weights\nFor no man does it ever wait\nLike memories of dying days\nThat deafen us like hurricanes\nBathed in flames we held the brand\nUncurled the fingers in your hand\nPressed into the flesh like sand\nNow do you understand?\n\n[Pre-Chorus]\nSo, tell me now, if this ain\'t love\nThen how do we get out? ’Cause I don\'t know\n\n[Chorus]\nThat\'s when she said, "I don\'t hate you, boy, I just want to save you\nWhile there\'s still something left to save!" (Whoh-oh-oh, Whoh-oh-oh!)\nThat\'s when I told her, "I love you, girl, but I\'m not the answer\nFor the questions that you still have!"\nWhoh-oh-oh, Whoh-oh-oh!\n\n[Bridge]\nOne thousand miles away, there\'s nothing left to say\nBut so much left that I don\'t know\nWe never had a choice, this world is too much noise\nIt takes me under, it takes me under once again...\n[Interlude]\nI don\'t hate you...\nI don\'t hate you, no...\n\n[Pre-Chorus]\nSo, tell me now, if this ain\'t love\nThen how do we get out? ’Cause I don\'t know\n\n[Chorus]\nThat\'s when she said, "I don\'t hate you, boy, I just want to save you\nWhile there\'s still something left to save!" (Whoh-oh-oh, Whoh-oh-oh!)\nThat\'s when I told her, "I love you, girl, but I\'m not the answer\nFor the questions that you still have!"\nWhoh-oh-oh, Whoh-oh-oh!\n\n[Outro]\nI don\'t hate you\nI don\'t hate you (Whoh-oh-oh, Whoh-oh-oh!)\nI don\'t hate you\nI don\'t hate you, no\nWhoh-oh-oh, Whoh-oh-oh!', 'annotations': {'description': '&lt;p&gt;A fairly straightforward tale of broken romance, “Savior” by Rise Against is an in-your-face, aggressive rock song with punk influences. A song about a relationship between a couple which has split up, but the guy still loves her and has gone off the rails. The story is told from the guy’s point of view looking back over the break up after he has gotten over her. It indicates he no longer thinks about her and can barely even remember her, yet when he does it occurs to him that he still loves her.&lt;/p&gt;\n\n&lt;p&gt;The chorus shows quotes from a conversation between the couple whilst breaking up. She emphasizes to him that “I don’t hate you boy,” which implies she may be trying to comfort him because he has taken the break up very badly and is becoming very depressed. The line “I just want to save you while there’s still something left to save” is telling us that she still cares about him and she is worried about him because she is scared he may do something drastic like taking his own life.&lt;/p&gt;\n\n&lt;p&gt;The song made it to #3 on the &lt;em&gt;Billboard&lt;/em&gt; Rock charts and was certified gold on August 18th, 2010.&lt;/p&gt;', 'producers': [{'name': 'Jason Livermore', 'url': 'https://genius.com/artists/Jason-livermore'}, {'name': 'Bill Stevenson', 'url': 'https://genius.com/artists/Bill-stevenson'}], 'writers': [{'name': 'Brandon Barnes', 'url': 'https://genius.com/artists/Brandon-barnes'}, {'name': 'Zach Blair', 'url': 'https://genius.com/artists/Zach-blair'}, {'name': 'Joseph Principe', 'url': 'https://genius.com/artists/Joseph-principe'}, {'name': 'Tim McIlrath', 'url': 'https://genius.com/artists/Tim-mcilrath'}], 'labels': [{'name': 'Geffen Records', 'url': 'https://genius.com/artists/Geffen-records'}, {'name': 'Interscope Records', 'url': 'https://genius.com/artists/Interscope-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Avatar-the-eagle-has-landed-lyrics', 'lyrics': '[Verse 1]\nCut through the clouds\nWith the speed of a demon\nI am as I was as I will be\nLord of this world can you hear me I’m screaming\nGod above all things beneath me\n\n[Pre-Chorus]\nOh wah-ha-ha-ha\nWhat a sensation (x2)\nCan you feel it\nCan you see what I see\nI’m drowning in light\nThe lights\n\n[Chorus]\nLadies and gentlemen\nYour hero has returned again\nEverything is going to be okay-ay-ay-ay\nLadies and gentlemen\nYour shepherd and your very best friend\nBow your head, the man is here\nTo stay-ay-ay-ay\n\n[Verse 2]\nPitiful one you speak without seeing\nIntruder, you came uninvited\nThe hunt has begun and soon you’ll be bleeding\nStare at the night sky ignited\n[Pre-Chorus]\nOh wah-ha-ha-ha\nWhat a sensation (x2)\nCan you feel it\nCan you see what I see\nI’m drowning in light\nThe lights\n\n[Chorus]\nLadies and gentlemen\nYour hero has returned again\nEverything is going to be okay-ay-ay-ay\nLadies and gentlemen\nYour shepherd and your very best friend\nBow your head, the man is here\nTo stay-ay-ay-ay\n\n[Instrumental]\n\n[Chorus]\nLadies and gentlemen\nYour hero has returned again\nEverything is going to be okay-ay-ay-ay\nLadies and gentlemen\nYour shepherd and your very best friend\nBow your head, the man is here\nTo stay-ay-ay-ay\nLa (x32)\n\n[Instrumental Outro]', 'annotations': {'description': '&lt;p&gt;This song is from Avatar’s new album “Feathers &amp;amp; Flesh”. The album is a concept album.&lt;br&gt;\nFrom Johannes:&lt;br&gt;\n“It’s a fable about an Owl and how she goes to war to stop the sun from rising and this is of course an impossible task because that’s not how astronomy works. No so she fights this battle figuring that what happens is that in her world there has only ever been night as far as she remembers and understands, but this particular night when the story takes place an eagle arrives, enters the stage, and he proclaims that your role is about to come to an end my kingdom will come because I bring the dawn with me and step aside, and so she figures oh if I kill the eagle I will stop the sun and so it’s a story lots about vanity and failed ambitions and lost wisdom and it’s really upper”&lt;br&gt;\n&lt;a href="https://www.youtube.com/watch?v=k2GOGmxjpCY" rel="noopener nofollow"&gt;https://www.youtube.com/watch?v=k2GOGmxjpCY&lt;/a&gt;(starts around 3:39)&lt;/p&gt;\n\n&lt;p&gt;This song is from the perspective of the eagle. He talks about how he is the savior, as he brings the sun with him.&lt;/p&gt;', 'producers': [{'name': 'Sylvia Massy', 'url': 'https://genius.com/artists/Sylvia-massy'}], 'writers': [{'name': 'Jonas “Kungen” Jarlsby', 'url': 'https://genius.com/artists/Jonas-kungen-jarlsby'}, {'name': 'Tim Öhrström', 'url': 'https://genius.com/artists/Tim-ohrstrom'}, {'name': 'Johannes Eckerström', 'url': 'https://genius.com/artists/Johannes-eckerstrom'}], 'labels': [{'name': 'Another Century Records', 'url': 'https://genius.com/artists/Another-century-records'}, {'name': '\u200beOne Music', 'url': 'https://genius.com/artists/Eone-music'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Five-finger-death-punch-house-of-the-rising-sun-lyrics', 'lyrics': "[Intro]\nThere is a house in Sin City\nThey call the Rising Sun\nAnd it's been the ruin of many a poor boy\nAnd, God—I know I'm one\n\n[Verse 1]\nMy mother was a tailor\nShe sewed my new blue jeans\nMy father was a gambling man\nDown in Sin City\n\n[Solo]\n\n[Verse 2]\nNow, the only thing a gambler needs\nIs a suitcase and a trunk\nAnd the only time he's satisfied\nIs when he's on a drunk\n\n[Verse 3]\nWell, I've got one foot on the platform\nThe other is on the train\nI'm going back to Sin City\nTo wear that ball and chain\n[Solo]\n\n[Verse 4]\nWell, others, tell your children\nNever do what I have done\nSpend your lives in sin and misery\nIn the House of the Rising Sun\nIn the House of the Rising Sun\n\n[Outro]\nWell, there's a house in Sin City\nThey call the Rising Sun\nAnd it's been the ruin of many a poor boy\nAnd God knows that I am one", 'annotations': {'description': '&lt;p&gt;The 12th song on their 5th album ‘The Wrong Side of Heaven and the Righteous Side of Hell, Volume 2.’ This is a cover of &lt;a href="https://genius.com/The-animals-house-of-the-rising-sun-lyrics" rel="noopener" data-api_path="/songs/87427"&gt;the song&lt;/a&gt; made famous by &lt;a href="https://genius.com/artists/The-animals" rel="noopener" data-api_path="/artists/24716"&gt;The Animals&lt;/a&gt;. The song is about a gambling house in Las Vegas (New Orleans in the Animals version) that can make you throw your whole life away.&lt;/p&gt;\n\n&lt;p&gt;The change from New Orleans in the Animals version to Sin City in this version might have been done to allude to Five Finger Death Punch’s hometown of Las Vegas, Nevada, which is just as well-known for being a haven of gambling places as New Orleans.&lt;/p&gt;', 'producers': [{'name': 'Kevin Churko', 'url': 'https://genius.com/artists/Kevin-churko'}, {'name': 'Five Finger Death Punch', 'url': 'https://genius.com/artists/Five-finger-death-punch'}], 'writers': [{'name': 'Traditional English Folk', 'url': 'https://genius.com/artists/Traditional-english-folk'}], 'labels': [{'name': 'Prospect Park Records', 'url': 'https://genius.com/artists/Prospect-park-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Slipknot-the-devil-in-i-lyrics', 'lyrics': "[Verse 1]\nUndo these chains, my friend\nI'll show you the rage I've hidden\nPerish the sacrament\nSwallow, but nothing's forgiven\nYou and I can't decide\nWhich of us was taken for granted\nMake amends\nSome of us are destined to be outlived\n\n[Chorus]\nStep inside, see the Devil in I\nToo many times we've let it come to this\nStep inside, see the Devil in I\nYou'll realize I'm not your Devil anymore\n\n[Verse 2]\nUnder the words of men\nSomething is tempting the father\nWhere is your will, my friend?\nInsatiates never even bother\nYou and I, wrong or right\nTraded a lie for the leverage\nIn between the lens in light\nYou're not what you seem\n[Chorus]\nStep inside, see the Devil in I\nToo many times we've let it come to this\nStep inside, see the Devil in I\nYou'll realize I'm not your Devil\nI'm not your Devil anymore\n\n[Bridge]\nYour station is abandoned\nFooled you 'cause I know what you've done\nSensation, depravation\nYou should've burned when you turned on everyone\n\n[Chorus]\nSo, step inside, see the Devil in I\nToo many times we've let it come to this\nStep inside, see the Devil in I\nI know you'll find your answers in the end\nStep inside, see the Devil in I\nYou'll realize I'm not your Devil anymore\n\n[Outro]\nSo, step inside\nStep inside\nSee the Devil in I\nSee the Devil in I", 'annotations': {'description': '&lt;p&gt;&lt;a href="http://rock.genius.com/Slipknot-the-negative-one-lyrics" rel="noopener" data-api_path="/songs/488518"&gt;“The Negative One”&lt;/a&gt; marked the musical return of Slipknot, but “The Devil In I” is the first official single from their fifth studio album called &lt;em&gt;.5: The Gray Chapter&lt;/em&gt;. In the &lt;a href="http://www.youtube.com/watch?v=XEEasR7hVhA" rel="noopener nofollow"&gt;music video&lt;/a&gt; we get to see the two new members of Slipknot along with everyone’s new masks.&lt;/p&gt;', 'producers': [{'name': 'Slipknot', 'url': 'https://genius.com/artists/Slipknot'}, {'name': 'Greg Fidelman', 'url': 'https://genius.com/artists/Greg-fidelman'}], 'writers': [{'name': 'Slipknot', 'url': 'https://genius.com/artists/Slipknot'}, {'name': 'Corey Taylor', 'url': 'https://genius.com/artists/Corey-taylor'}, {'name': 'Jim Root', 'url': 'https://genius.com/artists/Jim-root'}], 'labels': [{'name': 'Roadrunner Records', 'url': 'https://genius.com/artists/Roadrunner-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Bullet-for-my-valentine-you-want-a-battle-heres-a-war-lyrics', 'lyrics': "[Intro]\nWe will not take this anymore\nThese words will never be ignored\nYou want a battle\nHere's a war\n\n[Verse 1]\nDown eyes of shame\nMade to feel dead again\nYour words cut deep\nYour lies are fueled by your need for deceit\nToo scared to speak\nYou're only alive when you torture the weak\nNow hear me roar\n\n[Chorus]\nI will not take this anymore\nThese words will never be ignored\nYou want a battle\nHere's a war!\nI will not take this anymore\nThese words will never be ignored\nYou want a battle\nHere's a war!\n\n[Verse 2]\nDon't be afraid\nNo remorse, no restraint\nThese scars won't heal\nNow you're the victim I'm making you feel\nLike you are me\nI need you to know what you've done can you hear?\nCan you hear me roar?\n[Chorus]\nI will not take this anymore\nThese words will never be ignored\nYou want a battle\nHere's a war\nYou want a battle\nHere's a war\nI will not take this anymore\nThese words will never be ignored\nYou want a battle\nHere's a war\n\n[Bridge]\nYou want a battle, here's a war\nYou want a battle, here's a war!\n\nDon't suffer in your silence\nKnow you are never alone\nDon't suffer in your silence\nKnow you are never alone\n\nWe will not take this anymore\nThese words will never be ignored\nYou want a battle\nHere's a war\n[Chorus]\nWe will not take this anymore\nThese words will never be ignored\nYou want a battle\nHere's a war\nWe will not take this anymore\nThese words will never be ignored\nYou want a battle\nHere's a war!\n\n[Outro]\nHere's a war!", 'annotations': {'description': '&lt;p&gt;“You Want a Battle? (Here’s a War)” is the second new single from Bullet For My Valentine’s fifth album &lt;a href="https://genius.com/albums/Bullet-for-my-valentine/Venom" rel="noopener" data-api_path="/albums/124763"&gt;&lt;em&gt;Venom&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Vocalist Matt Tuck revealed “You Want a Battle (Here’s a War)” is about being bullied — something that he experienced a lot while at school because he “was not a really cool kid. I was into heavy metal music and had long hair.”&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;&lt;a href="http://www.blabbermouth.net/news/bullet-for-my-valentines-matt-tuck-says-fans-wanted-a-more-pissed-off-band-on-new-album/" rel="noopener nofollow"&gt;Bullying happens to everybody, and it’s not a nice place to be when that happens. It took me a long time to actually pluck up the courage mentally and physically to stand up for myself, so it was kind of momentous moment for me. I had lost all these battles in my young life, and all of a sudden I was growing into a young man. I was able to stand up for myself and defend myself, and the band actually became something big and special and just like the biggest ‘fuck you\' to everyone. That’s what that song’s about, really. It’s about going through hard times and coming through the other side."&lt;/a&gt;&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/49f9869d10351ad13ed501ed6284f3fa.500x500x1.jpg" alt="" width="500" height="500" data-animated="false"&gt;&lt;/p&gt;', 'producers': [{'name': 'Carl Bown', 'url': 'https://genius.com/artists/Carl-bown'}, {'name': 'Colin Richardson', 'url': 'https://genius.com/artists/Colin-richardson'}], 'writers': [{'name': 'Bullet for My Valentine', 'url': 'https://genius.com/artists/Bullet-for-my-valentine'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Three-days-grace-human-race-lyrics', 'lyrics': "[Intro]\nI don't belong here, not in this atmosphere\nGoodbye, goodbye, goodbye\nI don't belong here, not in this atmosphere\nGoodbye, goodbye, goodbye\n\n[Verse 1]\nStarted with a kick and a punch, a claw to the face\nAnd I was in the race, I was in the race\nYeah, yeah\nYou know it's hard sometimes being humankind\nKeeping up with the pace, keeping up with the pace\nYeah, yeah\n\n[Chorus 1]\nI'm sick of running, sick of running\nSick of running the human race\nThe human race\n\n[Verse 2]\nIf it's an eye for an eye then we all go blind\nIs it hard to see, is it hard to see\nYeah, yeah\nSo far behind, no finish line\nIt can happen to you, it can happen to me\n[Chorus 2]\nI don't belong here, not in this atmosphere\nGoodbye, goodbye, goodbye\nI don't belong here, not in this atmosphere\nGoodbye, goodbye, goodbye\n\n[Verse 3]\nStarted with a kick and a punch, a claw to the face\nAnd I was in the race, I was in the race\nYeah, the human race\n\n[Chorus 1]\nI'm sick of running, sick of running\nSick of running the human race\nThe human race\n\n[Bridge]\nI don't belong here, not in this atmosphere\nGoodbye, goodbye, goodbye\n\n[Outro]\nI don't belong here, not in this atmosphere\nI don't belong here, not in this atmosphere\nGoodbye, goodbye, goodbye", 'annotations': {'description': '&lt;p&gt;On “Human Race”, Matt makes a contemplative judgement of society, as he stands on its sidelines. Decrying the heartless nature of the world, Matt would rather fade away. “Goodbye,” he says, a point hammered in with driving bass.&lt;/p&gt;', 'producers': [{'name': 'Gavin Brown', 'url': 'https://genius.com/artists/Gavin-brown'}], 'writers': [{'name': 'Gavin Brown', 'url': 'https://genius.com/artists/Gavin-brown'}, {'name': 'Barry Stock', 'url': 'https://genius.com/artists/Barry-stock'}, {'name': 'Neil Sanderson', 'url': 'https://genius.com/artists/Neil-sanderson'}, {'name': 'Brad Walst', 'url': 'https://genius.com/artists/Brad-walst'}, {'name': 'Matt Walst', 'url': 'https://genius.com/artists/Matt-walst'}], 'labels': [{'name': 'RCA Records', 'url': 'https://genius.com/artists/Rca-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Slipknot-duality-lyrics', 'lyrics': "[Chorus]\nI push my fingers into my eyes\nIt's the only thing that slowly stops the ache\nBut it's made of all the things I have to take\nJesus, it never ends, it works its way inside\nIf the pain goes on\n\n[Verse 1]\nI have screamed until my veins collapsed\nI've waited as my time's elapsed\nNow all I do is live with so much fate\nI've wished for this, I've bitched at that\nI've left behind this little fact\nYou cannot kill what you did not create\n\n[Verse 2]\nI've gotta say what I've gotta say\nAnd then I swear I'll go away\nBut I can't promise you'll enjoy the noise\nI guess I'll save the best for last\nMy future seems like one big past\nYou're left with me 'cause you left me no choice\n\n[Chorus]\nI push my fingers into my eyes\nIt's the only thing that slowly stops the ache\nIf the pain goes on, I'm not gonna make it!\n[Verse 3]\nPut me back together or separate the skin from bone\nLeave me all the pieces, then you can leave me alone\nTell me the reality is better than the dream\nBut I found out the hard way, nothing is what it seems!\n\n[Chorus]\nI push my fingers into my eyes\nIt's the only thing that slowly stops the ache\nBut it's made of all the things I have to take\nJesus, it never ends, it works its way inside\nIf the pain goes on, I'm not gonna make it!\n\n[Bridge]\nAll I've got, all I've got is insane\nAll I've got, all I've got is insane\nAll I've got, all I've got is insane!\nAll I've got, all I've got is insane!\nAll I've got, all I've got is insane!\nAll I've got, all I've got is insane!\n\n[Chorus]\nI push my fingers into my eyes\nIt's the only thing that slowly stops the ache\nBut it's made of all the things I have to take\nJesus, it never ends, it works its way inside\nIf the pain goes on, I'm not gonna make it!\n[Outro]\nAll I've got, all I've got is insane\nAll I've got, all I've got is insane\nAll I've got, all I've got is insane!\nAll I've got, all I've got is insane!", 'annotations': {'description': '&lt;p&gt;“Duality” was the 1st single from Slipknot’s 3rd album, &lt;a href="https://genius.com/albums/Slipknot/Vol-3-the-subliminal-verses" rel="noopener" data-api_path="/albums/30814"&gt;&lt;em&gt;Vol 3: The Subliminal Verses&lt;/em&gt;&lt;/a&gt;, and was released on May 25, 2004. It was produced by &lt;a href="https://genius.com/@RickRubin" rel="noopener" data-api_path="/users/1487759"&gt;Rick Rubin&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;It &lt;a href="https://www.billboard.com/music/slipknot/chart-history/hot-mainstream-rock-tracks" rel="noopener nofollow"&gt;peaked at #5&lt;/a&gt; on the US Rock Chart and &lt;a href="https://www.officialcharts.com/artist/7945/slipknot/" rel="noopener nofollow"&gt;reached #15&lt;/a&gt; in the UK, where it remains their highest-charting song. In 2019, Billboard named it the band’s &lt;a href="https://www.billboard.com/articles/columns/rock/8526410/slipknot-best-songs-top-10" rel="noopener nofollow"&gt;best song&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The music video was shot at a fan’s house, resulting in Roadrunner Records paying the fan’s family $50,000 for damages incurred in the shoot.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/803816ed53853b5e9bf2253efb53db50.264x216x25.gif" alt="" width="264" height="216" data-animated="true"&gt;&lt;/p&gt;\n\n&lt;p&gt;According to Corey Taylor:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;“Duality” is about standing at the crossroads of your life, looking down both paths, and going, “Now what am I going to do?” Did you ever get that headache that is just not going to go away, and you end up sticking your thumb and middle finger so far into your eyes, just to stop the pain? It usually has to do with making a choice. You get to that point in everyday life when you have to make a decision that you may not want to, but you’re kind of pushed into that position. "&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Like all of the songs on “Vol. 3…”, Duality contains NO explicit lyrics, and was the first Slipknot single that was released without requiring a clean radio version.&lt;/p&gt;\n\n&lt;p&gt;It is also important for the entire album to remember that this is the album where Corey Taylor went sober and Clown dawned his “healing” mask.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/031e4fcdce7abcf36abaa7d18deaf1dc.500x222x6.gif" alt="" width="500" height="222" data-animated="true"&gt;&lt;/p&gt;', 'producers': [{'name': 'Rick Rubin', 'url': 'https://genius.com/artists/Rick-rubin'}], 'writers': [{'name': 'Corey Taylor', 'url': 'https://genius.com/artists/Corey-taylor'}], 'labels': [{'name': 'Roadrunner Records', 'url': 'https://genius.com/artists/Roadrunner-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Bullet-for-my-valentine-tears-dont-fall-lyrics', 'lyrics': "[Intro]\nLet's go!\n\n[Verse 1]\nWith bloodshot eyes, I watch you sleeping\nThe warmth I feel beside me is slowly fading\nWould she hear me, if I called her name?\nWould she hold me, if she knew my shame?\n\n[Pre-Chorus]\nThere's always something different going wrong\nThe path I walk's in the wrong direction\nThere's always someone fucking hanging on\nCan anybody help me make things better?\n\n[Chorus]\nYour tears don't fall, they crash around me\nHer conscience calls, the guilty to come home\nYour tears don't fall, they crash around me\nHer conscience calls, the guilty to come home\n\n[Verse 2]\nThe moments die, I hear no screaming\nThe visions left inside me are slowly fading\nWould she hear me, if I called her name?\nWould she hold me, if she knew my shame?\n[Pre-Chorus]\nThere's always something different going wrong!\nThe path I walk's in the wrong direction!\nThere's always someone fucking hanging on!\nCan anybody help me make things better?\n\n[Chorus]\nYour tears don't fall, they crash around me\nHer conscience calls, the guilty to come home\nYour tears don't fall, they crash around me\nHer conscience calls, the guilty to come home\n\nOh!\n\nYeah!\n\n[Bridge]\nThis battered room I've seen before\nThe broken bones they heal no more, no more\nWith my last breath I'm choking\nWill this ever end? I'm hoping\nMy world is over, one more time!\n\nLet's go!\n\n[Guitar Solo]\n[Bridge]\nWould she hear me, if I called her name?\nWould she hold me, if she knew my shame?\n\n[Pre-Chorus]\nThere's always something different going wrong!\nThe path I walk's in the wrong direction!\nThere's always someone fucking hanging on!\nCan anybody help me make things better?\n\n[Chorus]\nYour tears don't fall, they crash around me\nHer conscience calls, the guilty to come home (tears don't fall)\nYour tears don't fall, they crash around me (conscience calls)\nHer conscience calls, the guilty to come\nBetter!\nYour tears don't fall, they crash around me (conscience calls)\nHer conscience calls, the guilty to come home!", 'annotations': {'description': '&lt;p&gt;“Tears Don’t Fall” is a song by the Welsh metalcore band Bullet For My Valentine. It is the band’s fourth single from their first full-length studio album, &lt;em&gt;The Poison&lt;/em&gt;. The single was released on June 17, 2006, through Trustkill Records in the US. The song won the &lt;em&gt;Kerrang!&lt;/em&gt; Award for Best Single. The song peaked at #24 on The Hot Mainstream Rock Charts and #32 on the Top Modern Rock Charts.&lt;/p&gt;', 'producers': [{'name': 'Colin Richardson', 'url': 'https://genius.com/artists/Colin-richardson'}], 'writers': [{'name': 'Matt Tuck', 'url': 'https://genius.com/artists/Matt-tuck'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Slipknot-psychosocial-lyrics', 'lyrics': "[Intro: Corey Taylor]\nOoh, yeah\n\n[Verse 1: Corey Taylor]\nI did my time, and I want out\nSo effusive, fade, it doesn't cut, the soul is not so vibrant\nThe reckoning, the sickening\nPackaging subversion, pseudo-sacrosanct perversion\nGo drill your deserts, go dig your graves\nThen fill your mouth with all the money you will save\nSinking in, getting smaller again\nI'm done, it has begun, I'm not the only one\n\n[Chorus: Corey Taylor]\nAnd the rain will kill us all\nThrow ourselves against the wall\nBut no one else can see\nThe preservation of the martyr in me\n\n[Post-Chorus: Clown, Chris Fehn, &amp; Paul Gray]\nPsychosocial, psychosocial, psychosocial\nPsychosocial, psychosocial, psychosocial\n\n[Verse 2: Corey Taylor]\nThere are cracks in the road we laid\nBut where the temple fell, the secrets have gone mad\nThis is nothing new, but when we killed it all\nThe hate was all we had\nWho needs another mess? We could start over\nJust look me in the eyes and say I'm wrong\nNow there's only emptiness, venomous, insipid\nI think we're done, I'm not the only one\n[Chorus: Corey Taylor]\nAnd the rain will kill us all\nThrow ourselves against the wall\nBut no one else can see\nThe preservation of the martyr in me\n\n[Post-Chorus: Clown, Chris Fehn, &amp; Paul Gray]\nPsychosocial, psychosocial, psychosocial\nPsychosocial, psychosocial, psychosocial\n\n[Guitar Solo: Mick Thomson]\n\n[Bridge: Corey Taylor, Clown, Chris Fehn, &amp; Paul Gray]\nThe limits of the dead\nThe limits of the dead\nThe limits of the dead\nThe limits of the dead\n\n[Verse 3: Corey Taylor]\nFake anti-fascist lie (Psychosocial)\nI tried to tell you, but (Psychosocial)\nYour purple hearts are giving out! (Psychosocial)\nCan't stop a killing idea (Psychosocial)\nIf it's hunting season (Psychosocial)\nIs this what you want? (Psychosocial)\nI'm not the only one\n[Chorus: Corey Taylor]\nAnd the rain will kill us all\nThrow ourselves against the wall\nBut no one else can see\nThe preservation of the martyr in me\n\n[Chorus: Corey Taylor]\nAnd the rain will kill us all\nThrow ourselves against the wall\nBut no one else can see\nThe preservation of the martyr in me\n\n[Outro: Corey Taylor]\nThe limits of the dead\nThe limits of the dead", 'annotations': {'description': '&lt;p&gt;“Psychosocial” is a song about hate for life and broken society. It’s the second single from &lt;em&gt;All Hope is Gone&lt;/em&gt; and was nominated for the 2009 Grammy for Best Metal Performance, losing to Metallica’s “My Apocalypse.”&lt;/p&gt;\n\n&lt;p&gt;In the video for “Psychosocial,” Slipknot burned the “purgatory masks” that they had revealed for during the promotion of the &lt;em&gt;All Hope is Gone&lt;/em&gt; album in 2008.&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;That was a Shawn Crahan idea. Those are Mardi Gras heads of our faces from the death masks we wore in the ‘Vermillion’ video. It’s just a teaser, but it’s totally genius. When I first heard about it, I was like, ‘Are you fuckin’ kidding me?’ But then I saw the results, and I was like, ‘I totally get it!’ He’s got a good vision, man; he’s a great artist.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;—Joey Jordison&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;More or less, we have these giant masks that we’re wearing, called ‘purgatory masks.’ They’re like giant death masks, and they represent ego.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;—Shawn Crahan&lt;/p&gt;', 'producers': [{'name': 'Dave Fortman', 'url': 'https://genius.com/artists/Dave-fortman'}, {'name': 'Slipknot', 'url': 'https://genius.com/artists/Slipknot'}], 'writers': [{'name': 'Sid Wilson', 'url': 'https://genius.com/artists/Sid-wilson'}, {'name': 'Joey Jordison', 'url': 'https://genius.com/artists/Joey-jordison'}, {'name': 'Paul Gray', 'url': 'https://genius.com/artists/Paul-gray'}, {'name': 'Chris Fehn', 'url': 'https://genius.com/artists/Chris-fehn'}, {'name': 'Jim Root', 'url': 'https://genius.com/artists/Jim-root'}, {'name': 'Craig Jones', 'url': 'https://genius.com/artists/Craig-jones'}, {'name': 'Shawn Crahan', 'url': 'https://genius.com/artists/Shawn-crahan'}, {'name': 'Mick Thomson', 'url': 'https://genius.com/artists/Mick-thomson'}, {'name': 'Corey Taylor', 'url': 'https://genius.com/artists/Corey-taylor'}], 'labels': [{'name': 'Roadrunner Records', 'url': 'https://genius.com/artists/Roadrunner-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Avenged-sevenfold-welcome-to-the-family-lyrics', 'lyrics': "[Verse 1]\nHey kid (Hey kid)\nDo I have your attention?\nI know the way you've been living\nLife so reckless, tragedy endless\nWelcome to the family\nHey, there's something missing\nOnly time will alter your vision\nNever in question, lethal injection\nWelcome to the family\n\n[Pre-Chorus 1]\nNot long ago you'd find the answers were so crystal clear\nWithin a day you find yourself living in constant fear\nCan you look at yourself now?\nCan you look at yourself?\nYou can't win this fight\n\n[Chorus]\nAnd in a way it seems there's no one to call\nWhen our thoughts are so numb and our feelings unsure\nWe all have emptiness inside\nWe all have answers to find\nBut you can't win this fight\n\n[Verse 2]\nHey (Hey kid)\nI have to question\nWhat's with the violent aggression?\nDetails blurry, lost him too early\nWelcome to the family\nHey, why won't you listen?\nCan't help the people you're missing\nIt's been done, a casualty re-run\nWelcome to the family\n[Pre-Chorus 2]\nI try and help you with the things that can't be justified\nI need to warn you that there is no way to rationalize\nSo have you figured it out now?\nSo have you figured it out?\nYou can't win this fight\n\n[Chorus]\nAnd in a way it seems there's no one to call\nWhen our thoughts are so numb and our feelings unsure\nWe all have emptiness inside\nWe all have answers to find\nBut you can't win this fight\n\n[Bridge]\nGunning for you and all mankind\nI've lost my mind\nPsychotic rabid dementia\nI won't be fine\n\n[Verse 3]\nI see you're a king who's been dethroned\nCast out in a world you've never known\nStand down, place your weapons by your side\nIt's our war, in the end we'll surely lose but that's alright\n[Pre-Chorus 3]\nSo have you figured it out now?\nSo have you figured it out?\n\n[Chorus]\nAnd in a way it seems there's no one to call\nWhen our thoughts are so numb and our feelings unsure\nWe all have emptiness inside\nWe all have answers to find\nBut you can't win this fight\n\n[Outro]\nDeep inside where nothing's fine\nI've lost my mind\nYou're not invited\nSo step aside\nI've lost my\nDeep inside where nothing's fine\nI've lost my mind\nYou're not invited\nSo step aside\nI've lost my", 'annotations': {'description': '&lt;p&gt;This song IS AMAZING, NO MATTER HOW MANY TIMES I LISTEN TO THIS SONG I CAN NEVER GET BORED!!!!&lt;/p&gt;', 'producers': [{'name': 'Mike Elizondo', 'url': 'https://genius.com/artists/Mike-elizondo'}], 'writers': [{'name': 'Jimmy “The Rev” Sullivan', 'url': 'https://genius.com/artists/Jimmy-the-rev-sullivan'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/All-that-remains-two-weeks-lyrics', 'lyrics': '[Verse 1]\nAnd you neglected I called you out\nDon\'t, please\nI said, "We\'re stronger than this now"\nYou resurrected mistakes\nYears past, it seemed\nAnd they exist to still haunt you\n\n[Pre-Chorus]\nAnd still, you feel like the loneliness\nIs better replaced by this\nI don\'t believe it this way\nAnd I can see the fear in your eyes\nI\'ve seen it materialize\nGrowing stronger each day\n\n[Chorus]\nI could see it as you turned to stone\nStill clearly, I can hear you say:\n"Don\'t leave, don\'t give up on me"\nTwo weeks and you ran away\nI remember, don\'t lie to me\nYou couldn\'t see that it was not that way\nSwear I never gave up on you!\n\n[Verse 2]\nI wanted nothing but for that trust again\nAnd, brick by brick, you would take it\nYou feared of phantoms and none exist but you\nYou still saw fit to destroy it\n[Pre-Chorus]\nAnd still, you feel like the loneliness\nIs better replaced by this\nI don\'t believe it this way\nAnd I can see the fear in your eyes\nI\'ve seen it materialize\nGrowing stronger each day\n\n[Chorus]\nI could see it as you turned to stone\nStill clearly, I can hear you say:\n"Don\'t leave, don\'t give up on me"\nTwo weeks and you ran away\nI remember, don\'t lie to me\nYou couldn\'t see that it was not that way\nSwear I never gave up on you!\n\n[Guitar Solo]\n\n[Verse 3]\nAnd you neglected I called you out, don\'t please\nI said, "We\'re stronger than this now"\nYou feared of phantoms and none exist but you\nYou still saw fit to destroy it\n\n[Pre-Chorus]\nAnd I can see the fear in your eyes\nI\'ve seen it materialize\nGrowing stronger each day\n(I could see it as you turned to stone)\n(Still clearly, I can hear you say:)\n("Don\'t leave, don\'t give up on me")\n(Two weeks and you ran away)\n\n[Chorus]\nI could see it as you turned to stone\nStill clearly, I can hear you say:\n"Don\'t leave, don\'t give up on me"\nTwo weeks and you ran away\nI remember, don\'t lie to me\nYou couldn\'t see that it was not that way\nSwear I never gave up on you!\n\nI could see it as you turned to stone\nStill clearly, I can hear you say:\n"Don\'t leave, don\'t give up on me"\nTwo weeks and you ran away\nI remember, don\'t lie to me\nYou couldn\'t see that it was not that way\nSwear I never gave up on you!', 'annotations': {'description': '', 'producers': [{'name': 'Jason Suecof', 'url': 'https://genius.com/artists/Jason-suecof'}], 'writers': [{'name': 'All That Remains', 'url': 'https://genius.com/artists/All-that-remains'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Godsmack-i-stand-alone-lyrics', 'lyrics': "[Verse 1]\nI've told you this once before, you can't control me\nIf you try to take me down, you're gonna break\nI feel your every nothing that you're doing for me\nI'm thinking you ought to make your own way\n\n[Chorus 1]\nI stand alone, inside\nI stand alone\n\n[Verse 2]\nYou're always hiding behind your so-called goddess\nSo, what? You don't think that we can see your face?\nResurrected back before the final falling\nI'll never rest until I can make my own way\nI'm not afraid of fading\n\n[Chorus 2]\nI stand alone\nFeeling your sting down inside me, I'm not dying for it\nI stand alone\nEverything that I believe is fading\nI stand alone, inside\nI stand alone\n\n[Bridge]\nAnd now, it's my time (Now it's my time)\nIt's my time to dream (It's my time to dream)\nDream of the skies (Dream of the skies)\nMake me believe that this place isn't plagued by the poison in me\nHelp me decide if my fire will burn out before you can breathe\nBreathe into me\n[Chorus]\nI stand alone inside\nI stand alone\nI stand alone\nFeeling your sting down inside me, I'm not dying for it\nI stand alone\nEverything that I believe is fading\nI stand alone inside\nI stand alone inside\nI stand alone inside\nI stand alone inside", 'annotations': {'description': '&lt;p&gt;“I Stand Alone” is a song by American metal band &lt;a href="https://genius.com/artists/Godsmack" rel="noopener" data-api_path="/artists/67595"&gt;Godsmack&lt;/a&gt;. It served as a single from the Scorpion King soundtrack on March 5, 2002. It would reappear on Godsmack’s third studio album, &lt;em&gt;Faceless&lt;/em&gt;, the following year. It won a 2002 Metal Edge Readers\' Choice Award for “Song of the Year From a Movie Soundtrack.”&lt;/p&gt;\n\n&lt;p&gt;“I Stand Alone” reached No. 1 on the Mainstream Rock chart and No. 20 on the Modern Rock chart in the US. The single achieved Gold certification for more than half million copies shipped in the United States, spurring sales of over 1.5 million copies for &lt;em&gt;Faceless&lt;/em&gt; and propelling Godsmack to worldwide popularity.&lt;/p&gt;\n\n&lt;p&gt;The song was to represent the character in the movie,“The Scorpion King”. In the words of Sully Erna:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;The song was written about the character, the Scorpion King, in the movie. It’s about him being this big, masculine bad ass, but he has this hidden sensitive side to him. He feels like he’s isolated, and he likes to do things alone because he was hurt in the past or whatever. I don’t really know why he is the way he is. I guess there’s always this mystique about those people who are really tough but maybe feel a little bit lonely inside. So the lyrics are kind of based on his character — being as masculine as he can be but yet isolated and a loner.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;The song was also featured heavily in the 2004 video game &lt;em&gt;Prince of Persia: Warrior Within&lt;/em&gt; in both the original form in the trailers and instrumental form in the in-game chase sequences.&lt;/p&gt;', 'producers': [{'name': 'Sully Erna', 'url': 'https://genius.com/artists/Sully-erna'}, {'name': 'David Bottrill', 'url': 'https://genius.com/artists/David-bottrill'}], 'writers': [{'name': 'Sully Erna', 'url': 'https://genius.com/artists/Sully-erna'}], 'labels': [{'name': 'Republic Records', 'url': 'https://genius.com/artists/Republic-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Avenged-sevenfold-afterlife-lyrics', 'lyrics': "[Verse 1]\nLike walking into a dream, so unlike what you've seen\nSo unsure but it seems, 'cause we've been waiting for you\nFallen into this place, just giving you a small taste\nOf your afterlife here so stay, you'll be back here soon anyway\nI see a distant light, but girl, this can't be right\nSuch a surreal place to see, so how did this come to be?\nArrived too early\n\n[Pre-Chorus 1]\nAnd when I think of all the places I just don't belong\nI've come to grips with life and realize this is going too far\n\n[Chorus 1]\nI don't belong here, we gotta move on, dear\nEscape from this afterlife\n'Cause this time I'm right to move on and on\nFar away from here\n[Verse 2]\nA place of hope and no pain, perfect skies with no rain\nCan leave this place but refrain, 'cause we've been waiting for you\nFallen into this place, just giving you a small taste\nOf your afterlife here so stay, you'll be back here soon anyway\nThis peace on Earth's not right (with my back against the wall)\nNo pain or sign of time (I'm much too young to fall)\nSo out of place, don't wanna stay, I feel wrong and that's my sign\nI've made up my mind\n[Pre-Chorus 2]\nGive me your hand but realize I just wanna say goodbye\nPlease understand I have to leave and carry on my own life\n\n[Chorus 2]\nI don't belong here, we gotta move on, dear\nEscape from this afterlife\n'Cause this time I'm right to move on and on\nFar away from here\nGot nothing against you and surely I'll miss you\nThis place full of peace and light\nAnd I'd hope you might take me back inside\nWhen the time is right\n\n[Bridge: M. Shadows &amp; The Rev]\nLoved ones back home all crying\n'Cause they’re already missing me\nI pray by the grace of God\nThat there’s somebody listening\nGive me a chance to be that person I wanna be\n(I am unbroken, I’m choking on this ecstasy)\nOh, Lord, I’ll try so hard, but you gotta let go of me\n(Unbreak me, unchain me, I need another chance to live!)\n[Guitar Solo]\n[Chorus 2]\nI don't belong here, we gotta move on dear\nEscape from this afterlife\n'Cause this time I'm right to move on and on\nFar away from here\nGot nothing against you and surely I'll miss you\nThis place full of peace and light, and I'd hope you might\nTake me back inside when the time is right", 'annotations': {'description': '&lt;p&gt;The fourth track and third single from Avenged Sevenfold’s 2007 self-titled release.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://www.songfacts.com/facts/avenged-sevenfold/afterlife" rel="noopener nofollow"&gt;The lyrics&lt;/a&gt; tell the story of a person who has died young and realizes that he or she still has more left to do on Earth. It’s meant to tell you to do what you should do before it’s too late, when you find yourself in heaven with no way of putting all your wrongs right.&lt;/p&gt;', 'producers': [{'name': 'Avenged Sevenfold', 'url': 'https://genius.com/artists/Avenged-sevenfold'}], 'writers': [{'name': 'Jimmy “The Rev” Sullivan', 'url': 'https://genius.com/artists/Jimmy-the-rev-sullivan'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Killswitch-engage-holy-diver-lyrics', 'lyrics': "[Verse 1]\nHoly Diver\nYou've been down too long in the midnight sea\nOh, what's becoming of me?\n\n[Verse 2]\nRide the tiger\nYou can see his stripes but you know he's clean\nOh, don't you see what I mean?\n\n[Refrain 1]\nGotta get away\nHoly Diver\nYeah\n\n[Verse 3]\nShiny diamonds\nLike the eyes of a cat in the black and blue\nSomething is coming for you\nLook out\n\n[Verse 4]\nRace for the morning\nYou can hide in the sun 'til you see the light\nOh, we will pray it's all right\n[Refrain 2]\nGotta get away\nGet away\n\n[Bridge]\nBetween the velvet lies\nThere's a truth that's hard as steel\nThe vision never dies\nLife's a never ending wheel, yeah\n\n[Verse 5]\nHoly Diver\nYou're the star of the masquerade\nNo need to look so afraid\n\n[Verse 6]\nJump, jump\nJump on the tiger\nYou can feel his heart but you know he's mean\nSome light can never be seen, yeah\n\n[Verse 1]\nHoly Diver\nYou've been down too long in the midnight sea\nOh, what's becoming of me?\nNo! Yeah!\n[Verse 2]\nRide the tiger\nYou can see his stripes but you know he's clean\nOh, don't you see what I mean?\n\n[Refrain 3]\nGotta get away, get away (Get away)\nGotta get away, get away\n\n[Outro]\nHoly Diver, sole survivor\nYour heart is clean\nYeah, Holy Diver (Holy diver)\nHoly Diver (Holy Diver)\nYou're caught in the middle coming after you, Holy Diver\nOh, Holy Diver (Holy Diver)\nGet away, get away, get away, come on", 'annotations': {'description': '&lt;p&gt;This is a cover of a song by &lt;a href="https://genius.com/artists/Dio" rel="noopener" data-api_path="/artists/407864"&gt;Dio&lt;/a&gt; from the 1983 album &lt;em&gt;Holy Diver&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/a0cd59a38e1dd9bedbea7961776b3950.360x360x1.jpg" alt="" width="360" height="360" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;It reappeared in the 2014 cover compilation album “Ronnie James Dio – This is Your Life.”&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/924ac722664d5e21c84d21e0b70237e6.1000x563x1.jpg" alt="" width="1000" height="563" data-animated="false"&gt;&lt;/p&gt;', 'producers': [{'name': 'Joel Stroetzel', 'url': 'https://genius.com/artists/Joel-stroetzel'}, {'name': 'Adam Dutkiewicz', 'url': 'https://genius.com/artists/Adam-dutkiewicz'}], 'writers': [{'name': 'Dio', 'url': 'https://genius.com/artists/Dio'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Skillet-feel-invincible-lyrics', 'lyrics': "[Verse 1: John Cooper]\nTarget on my back\nLone survivor lasts\nThey got me in their sights\nNo surrender no\nTrigger fingers go\nLiving the dangerous life\n\n[Pre-Chorus 1: John Cooper &amp; Jen Ledger]\nHey, hey, hey\nEveryday when I wake\nI'm trying to get up, they're knocking me down\nChewing me up, spitting me out\nHey, hey, hey\nWhen I need to be saved\nYou're making me strong, you're making me stand\nNever will fall, never will end\nShot like a rocket up into the sky\nNothing can stop me tonight\n\n[Chorus: John Cooper &amp; Jen Ledger]\nYou make me feel invincible\nEarthquake, powerful\nJust like a tidal wave\nYou make me brave\nYou're my titanium\nFight song, raising up\nLike a roar of victory in a stadium\nWho can touch me cause I'm\nI'm made of fire\nWho can stop me tonight\nI'm hard wired\nYou make me feel invincible\n[Post-Chorus: John Cooper]\nI feel, I feel it\nInvincible\nI feel, I feel it\nInvincible\n\n[Verse 2: John Cooper]\nHere we go again\nI will not give in\nI've got a reason to fight\nEvery day we choose\nWe might win or lose\nThis is the dangerous life\n\n[Pre-Chorus 2: John Cooper &amp; Jen Ledger]\nHey, hey, hey\nEveryday when I wake\nThey say that I'm gone; they say that they've won\nThe bell has been rung, it's over and done\nHey, hey, hey\nWhen I need to be saved\nThey counting me out, but this is my round\nYou in my corner, look at me now\nShot like a rocket up into the sky\nNothing can stop me tonight\n[Chorus: John Cooper &amp; Jen Ledger]\nYou make me feel invincible\nEarthquake, powerful\nJust like a tidal wave\nYou make me brave\nYou're my titanium\nFight song, raising up\nLike a roar of victory in a stadium\nWho can touch me cause I'm\nI'm made of fire\nWho can stop me tonight\nI'm hard wired\nYou make me feel invincible\n\n[Post-Chorus: John Cooper]\nI feel, I feel it\nInvincible\nI feel, I feel it\nInvincible\n\n[Bridge: John Cooper]\nYou make me feel invincible\nYou make me feel invincible\nShot like a rocket up into the sky\nNot gonna stop\nInvincible\n[Chorus: John Cooper &amp; Jen Ledger]\nFeel invincible\nEarthquake, powerful\nJust like a tidal wave\nYou make me brave\nYou're my titanium\nFight song, raising up\nLike a roar of victory in a stadium\n\n[Chorus: John Cooper &amp; Jen Ledger]\nSo feel invincible\nEarthquake, powerful\nJust like a tidal wave\nYou make me brave\nYou're my titanium\nFight song, raising up\nLike a roar of victory in a stadium\nWho can touch me cause I'm\nI'm made of fire\nWho can stop me tonight\nI'm hard wired\nYou make me feel invincible\n\n[Post-Chorus: John Cooper]\nI feel, I feel it\nInvincible\nI feel, I feel it\nInvincible", 'annotations': {'description': '&lt;p&gt;This song was most likely originally supposed to be called “Invincible” due to the lyric video and what some of the band says on social media, but the album has it listed as &lt;em&gt;Feel Invincible&lt;/em&gt; since they already have a song called &lt;a href="https://genius.com/Skillet-invincible-lyrics" rel="noopener" data-api_path="/songs/340459"&gt;Invincible&lt;/a&gt;.&lt;br&gt;\nThis song became the official theme for the &lt;strong&gt;WWE Battleground&lt;/strong&gt; &lt;strong&gt;&lt;em&gt;2016&lt;/em&gt;&lt;/strong&gt;.&lt;/p&gt;\n\n&lt;h3&gt;Behind the Scenes: &lt;sub&gt;starts at 7:25&lt;/sub&gt;\n&lt;/h3&gt;\n\n&lt;p&gt;&lt;a href="https://www.youtube.com/watch?v=p532I_8qjnk" rel="noopener nofollow"&gt;https://www.youtube.com/watch?v=p532I_8qjnk&lt;/a&gt;&lt;/p&gt;', 'producers': [{'name': 'Brian Howes', 'url': 'https://genius.com/artists/Brian-howes'}], 'writers': [{'name': 'John Cooper', 'url': 'https://genius.com/artists/John-cooper'}, {'name': 'Seth Mosley', 'url': 'https://genius.com/artists/Seth-mosley'}], 'labels': [{'name': 'BMG', 'url': 'https://genius.com/artists/Bmg'}, {'name': 'Atlantic Records', 'url': 'https://genius.com/artists/Atlantic-records'}, {'name': 'Warner Music Group', 'url': 'https://genius.com/artists/Warner-music-group'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Of-mice-and-men-never-giving-up-lyrics', 'lyrics': "[Verse 1]\nEven though I can see it in your face, I can't barely explain\nJust how broken and empty and disgraced you seem to be\nYou cut me out and dragged me down\nPulled me all the way to the bottom\nI've done for you till black and blue\nWhat no one else would do for the fallen\n\n[Chorus]\nOne day when nothing ever feels the same\nJust like every other time before\nYou hit the wall, lost it all\nAnd I'll find a way to wake you from this bed you've made\nEven though I know you want me to\nI'm never giving up on you! (On you, on you)\nI'm never giving up, never giving up on you! (On you, on you)\nI'm never giving up, I'm never giving up on you!\n\n[Verse 2]\nYou'll never know just how hard it is for me\nTo see you this way\nIt tears me up, and drags me down\nTrying to pull you up from the bottom\nI break for you, like I always do\nAnd I'll see you through\nWhen you're on your knees and crawling. (Crawling!)\n[Chorus]\nOne day when nothing ever feels the same\nJust like every other time before\nYou hit the wall, lost it all\nAnd I'll find a way to wake you from this bed you've made\nEven though I know you want me to\nI'm never giving up on you! (On you, on you)\nI'm never giving up, never giving up on you! (On you, on you)\nI'm never giving up, I'm never giving up on you!\n\n[Bridge]\nSo don't give up on me!\nYeah! Don't you give up on me! (Give up on me)\nYeah! Don't you give up on me!\nYeah! Don't you give up on me!\n\n[Chorus]\nOne day when nothing ever feels the same\nJust like every other time before\nYou hit the wall, lost it all\nAnd I'll find a way to wake you from this bed you've made\nEven though I know you want me to\nI'm never giving up on you! (On you, on you)\nI'm never giving up, never giving up on you! (On you, on you)\nI'm never giving up, I'm never giving up on you!\n[Outro]\nSo don't give up on me!", 'annotations': {'description': '', 'producers': [{'name': 'David Bendeth', 'url': 'https://genius.com/artists/David-bendeth'}], 'writers': [{'name': 'Scott Stevens', 'url': 'https://genius.com/artists/Scott-stevens'}, {'name': 'Aaron Pauley', 'url': 'https://genius.com/artists/Aaron-pauley'}, {'name': 'Austin Carlile', 'url': 'https://genius.com/artists/Austin-carlile'}], 'labels': [{'name': 'Rise Records', 'url': 'https://genius.com/artists/Rise-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Starset-halo-lyrics', 'lyrics': "[Verse 1]\nI can see you running, running\nRunning, running\nEvery night from the same darkness\nIt's coming, coming\nComing, coming\nBut you are not alone\nIf you just say the word\nI'll be there by your side\nYou make me more\nYou make me superhuman\nAnd if you need me to\nI will save you\n\n[Chorus]\nSend out the signal and I'll fly low\nIf it means the death of me, I won't let go\nAnd if I'm lost in the worlds shadows\nI'll use the light that comes to me\nFrom your halo\n\n[Verse 2]\nWhen you're backed against the wall\nI could be the one who's always there to break your fall\nYou are not alone\nYou're the sun, you're the day\nThe light that guides me through\nNever run, run away\nI will save you\n[Chorus]\nSend out the signal and I'll fly low\nIf it means the death of me, I won't let go\nAnd if I'm lost in the worlds shadows\nI'll use the light that comes to me\nFrom your halo\n\nSend out the signal and I'll fly low\nIf it means the death of me, I won't let go\nAnd if I'm lost in the worlds shadows\nI'll use the light that comes to me\nFrom your halo\n\nAnd if I'm lost in the worlds shadows\nI'll use the light that comes to me\nFrom your halo\nFrom your halo\nFrom your halo\nI won't let go\nI won't let go\nI won't let go\nI won't let go\n\nAnd if I'm lost in the worlds shadows\nI'll use the light that comes to me\nFrom your halo\nHalo...\nYour halo", 'annotations': {'description': '', 'producers': [{'name': 'Rob Graves', 'url': 'https://genius.com/artists/Rob-graves'}], 'writers': [{'name': 'Rob Hawkins', 'url': 'https://genius.com/artists/Rob-hawkins'}, {'name': 'Dustin Bates', 'url': 'https://genius.com/artists/Dustin-bates'}], 'labels': [{'name': 'Razor &amp; Tie', 'url': 'https://genius.com/artists/Razor-and-tie'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Three-days-grace-pain-lyrics', 'lyrics': "[Chorus]\nPain, without love\nPain, I can't get enough\nPain, I like it rough\n'Cause I'd rather feel pain than nothing at all\n\n[Verse 1]\nYou're sick of feeling numb\nYou're not the only one\nI'll take you by the hand\nAnd I'll show you a world that you can understand\nThis life is filled with hurt\nWhen happiness doesn't work\nTrust me, and take my hand\nWhen the lights go out you'll understand\n\n[Chorus]\nPain (Pain), without love\nPain (Pain), I can't get enough\nPain (Pain), I like it rough\n'Cause I'd rather feel pain than nothing at all\nPain (Pain), without love\nPain (Pain), I can't get enough\nPain (Pain), I like it rough\n'Cause I'd rather feel pain than nothing at all\n[Verse 2]\nAnger and agony\nAre better than misery\nTrust me I've got a plan\nWhen the lights go up you'll understand\n\n[Chorus]\nPain (Pain), without love\nPain (Pain), I can't get enough\nPain (Pain), I like it rough\n'Cause I'd rather feel pain than nothing at all\nPain (Pain), without love\nPain (Pain), I can't get enough\nPain (Pain), I like it rough\n'Cause I'd rather feel pain than nothing\nRather feel pain\n\n[Bridge]\nI know, I know, I know, I know (I know)\nThat you're wounded\nYou know, you know, you know, you know (you know)\nThat I'm here to save you\nYou know, you know, you know, you know (you know)\nI'm always here for you\nI know, I know, I know, I know (I know)\nThat you'll thank me later\n[Chorus]\nPain, without love\nPain, can't get enough\nPain, I like it rough\n'Cause I'd rather feel pain than nothing at all\nPain (Pain), without love\nPain (Pain), I can't get enough\nPain (Pain), I like it rough\n'Cause I'd rather feel pain than nothing at all\nPain (Pain), without love\nPain (Pain), I can't get enough\nPain (Pain), I like it rough\n'Cause I'd rather feel pain than nothing at all\nRather feel pain than nothing at all\nRather feel pain", 'annotations': {'description': '&lt;p&gt;“Pain” is a tormented song about being numbed by depression, and wishing to feel pain rather than nothing. Written in the depths of Adam Gontier’s struggle against prescription drug addiction, the track is deeply personal.&lt;/p&gt;', 'producers': [{'name': 'Howard Benson', 'url': 'https://genius.com/artists/Howard-benson'}], 'writers': [{'name': 'Brad Walst', 'url': 'https://genius.com/artists/Brad-walst'}, {'name': 'Neil Sanderson', 'url': 'https://genius.com/artists/Neil-sanderson'}, {'name': 'Gavin Brown', 'url': 'https://genius.com/artists/Gavin-brown'}, {'name': 'Barry Stock', 'url': 'https://genius.com/artists/Barry-stock'}, {'name': 'Adam Gontier', 'url': 'https://genius.com/artists/Adam-gontier'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Sixx-am-life-is-beautiful-lyrics', 'lyrics': "[Verse 1]\nYou can't quit until you try\nYou can't live until you die\nYou can't learn to tell the truth\nUntil you learn to lie\nYou can't breathe until you choke\nYou gotta laugh when you're the joke\nThere's nothing like a funeral to make you feel alive\n\n[Chorus]\nJust open your eyes\nJust open your eyes\nAnd see that life is beautiful\nWill you swear on your life\nThat no one will cry at my funeral?\n\n[Verse 2]\nI know some things that you don't\nI’ve done things that you won't\nThere's nothing like a trail of blood to find your way back home\nI was waiting for my hearse\nWhat came next was so much worse\nIt took a funeral to make me feel alive\n[Chorus]\nJust open your eyes\nJust open your eyes\nAnd see that life is beautiful\nWill you swear on your life\nThat no one will cry at my funeral?\nJust open your eyes\nJust open your eyes\nAnd see that life is beautiful\nWill you swear on your life\nThat no one will cry at my funeral?\n\n[Pre-Chorus]\nAlive\nJust open your eyes\nJust open your eyes\nAnd see that life is beautiful\nWill you swear on your life\nThat no one will cry at my funeral?\n\n[Chorus]\nJust open your eyes\nJust open your eyes\nAnd see that life is beautiful\nWill you swear on your life\nThat no one will cry at my funeral?", 'annotations': {'description': '&lt;p&gt;Off of the Sixx:AM debut album the Heroin Diaries Soundtrack, Life is Beautiful tells the true story of how &lt;a href="http://ultimateclassicrock.com/nikki-sixx-dies/" rel="noopener nofollow"&gt;Nikki Sixx was declared dead&lt;/a&gt; after overdosing.&lt;/p&gt;', 'producers': [{'name': 'Sixx:A.M.', 'url': 'https://genius.com/artists/Sixx-am'}], 'writers': [{'name': 'James Michael', 'url': 'https://genius.com/artists/James-michael'}, {'name': 'Nikki Sixx', 'url': 'https://genius.com/artists/Nikki-sixx'}, {'name': 'DJ Ashba', 'url': 'https://genius.com/artists/Dj-ashba'}], 'labels': [{'name': 'Eleven Seven Music', 'url': 'https://genius.com/artists/Eleven-seven-music'}, {'name': 'Better Noise Music', 'url': 'https://genius.com/artists/Better-noise-music'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Three-days-grace-chalk-outline-lyrics', 'lyrics': "[Verse 1]\nI've been cursed, I've been crossed\nI've been beaten by the ones that get me off\nI've been cut, I've been opened up\nI've been shattered by the ones I thought I loved\n\n[Chorus]\nYou left me here like a chalk outline\nOn the sidewalk waiting for the rain to wash away, wash away\nYou keep coming back to the scene of the crime\nBut the dead can't speak and there's nothing left to say anyway (Anyway)\nAll you left behind (Behind)\nIs a chalk outline (Outline)\n\n[Verse 2]\nI've been cold in the crypt\nBut not as cold as the words across your lips (lips)\nYou'll be sorry, baby, someday\nWhen you reach across the bed, where my body used to lay\n\n[Chorus]\nYou left me here like a chalk outline\nOn the sidewalk waiting for the rain to wash away, wash away\nYou keep coming back to the scene of the crime\nBut the dead can't speak and there's nothing left to say anyway (Anyway)\nAll you left behind (Behind)\nIs a chalk outline (Outline)\n[Bridge]\nAll you left behind (Behind)\nIs a chalk outline (Outline)\n(All you left behind)\n\n[Chorus]\nYou left me here like a chalk outline\nOn the sidewalk waiting for the rain to wash away, wash away\nYou keep coming back to the scene of the crime\nBut the dead can't speak and there's nothing left to say anyway (Anyway)\nAll you left behind (Behind)\nIs a chalk outline", 'annotations': {'description': '', 'producers': [{'name': 'Don Gilmore', 'url': 'https://genius.com/artists/Don-gilmore'}], 'writers': [{'name': 'Adam Gontier', 'url': 'https://genius.com/artists/Adam-gontier'}, {'name': 'Neil Sanderson', 'url': 'https://genius.com/artists/Neil-sanderson'}, {'name': 'Brad Walst', 'url': 'https://genius.com/artists/Brad-walst'}, {'name': 'Craig Wiseman', 'url': 'https://genius.com/artists/Craig-wiseman'}, {'name': 'Barry Stock', 'url': 'https://genius.com/artists/Barry-stock'}], 'labels': [{'name': 'RCA Records', 'url': 'https://genius.com/artists/Rca-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Thousand-foot-krutch-war-of-change-lyrics', 'lyrics': "[Verse 1]\nIt's a truth that in love and war\nWorlds collide and hearts get broken\nI want to live like I know I'm dying\nTake up my cross, not be afraid\n\n[Pre-Chorus]\nIs it true what they say, that words are weapons?\nAnd if it is, then everybody best stop steppin'\n'Cause I got ten in my pocket that'll bend your locket\nI'm tired of all these rockers sayin' come with me\n\n[Chorus]\nWait, it's just about to break, it's more than I can take\nEverything's about to change\nI feel it in my veins, it's not going away\nEverything's about to change\n\n[Verse 2]\nIt creeps in like a thief in the night\nWithout a sign, without a warning\nBut we are ready and prepared to fight\nRaise up your swords, don't be afraid\n\n[Pre-Chorus]\nIs it true what they say, that words are weapons?\nAnd if it is, then everybody best stop steppin'\nCause I got ten in my pocket that'll bend ya locket\nI'm tired of all these rockers sayin' come with me\n[Chorus]\nWait, it's just about to break, it's more than I can take\nEverything's about to change\nI feel it in my veins, it's not going away\nEverything's about to change\n\n[Bridge]\nThis is a warning, like it or not\nI break down, like a record spinning\nGotta get up\nSo back off\nThis is a warning, like it or not\nI'm tired of listenin', I'm warning you, don't try to get up\nThere's a war going on inside of me tonight (Don't be afraid)\nThere's a war going on inside of me tonight (Don't be afraid)\n\n[Chorus]\nWait, it's just about to break, it's more than I can take\nEverything's about to change\nI feel it in my veins, it's not going away\nEverything's about to change\nIt's just about to break, it's more than I can take\nEverything's about to change\nI feel it in my veins, it's not going away\nEverything's about to change", 'annotations': {'description': '&lt;p&gt;“&lt;em&gt;War of Change&lt;/em&gt;” was used by WWE as the official theme song to their Over the Limit 2012 pay-per-view event.&lt;/p&gt;', 'producers': [{'name': 'Trevor McNevan', 'url': 'https://genius.com/artists/Trevor-mcnevan'}, {'name': 'Aaron Sprinkle', 'url': 'https://genius.com/artists/Aaron-sprinkle'}], 'writers': [{'name': 'Joel Bruyere', 'url': 'https://genius.com/artists/Joel-bruyere'}, {'name': 'Steve Augustine', 'url': 'https://genius.com/artists/Steve-augustine'}, {'name': 'Trevor McNevan', 'url': 'https://genius.com/artists/Trevor-mcnevan'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Red-breathe-into-me-lyrics', 'lyrics': "[Intro]\n\n[Verse 1]\nAnd this is how it feels when I\nIgnore the words you spoke to me\nAnd this is where I lose myself\nWhen I keep running away from you\nAnd this is who I am when\nWhen I don't know myself anymore\nAnd this is what I choose when\nIt's all left up to me\n\n[Chorus]\nBreathe your life into me\nI can feel you\nI'm falling\nFalling faster\nBreathe your life into me\nI still need you\nI'm falling, falling\n(Falling, falling)\nBreathe into me\nBreathe into me\n\n[Verse 2]\nAnd this is how it looks when\nI am standing on the edge\nAnd this is how I break apart\nWhen I finally hit the ground\nAnd this is how it hurts when I\nPretend I don't feel any pain\nAnd this is how I disappear\nWhen I throw myself away\n[Chorus]\nBreathe your life into me\nI can feel you\nI'm falling\nFalling faster\nBreathe your life into me\nI still need you\nI'm falling, falling\n(Falling, falling)\nBreathe into me\nBreathe into me\nBreathe into me\nBreathe into me\n\n[Instrumental]\n\n[Chorus]\nBreathe your life into me\nI can feel you\nI'm falling\nFalling faster\nBreathe your life into me\nI still need you\nI'm falling, falling\n(Falling, falling)\nBreathe into me\n[Chorus]\nBreathe your life into me\nI'm falling\nFalling faster\nBreathe your life into me\nFalling, falling, falling\n\n[Outro]\nBreathe into me\nBreathe into me\nBreathe into me\nBreathe into me\nBreathe!", 'annotations': {'description': '&lt;p&gt;“Breathe Into Me”, Red’s debut single, &lt;a href="https://www.newreleasetoday.com/article.php?article_id=22" rel="noopener nofollow"&gt;is about&lt;/a&gt; reaching rock bottom and feeling lost after trying control things on your own, then realizing you need God to help.&lt;/p&gt;\n\n&lt;p&gt;The song peaked at #15 on the &lt;a href="https://www.billboard.com/music/red/chart-history/hot-mainstream-rock-tracks/song/505655" rel="noopener nofollow"&gt;Billboard Mainstream Rock Songs&lt;/a&gt; in the spring of 2007, and is their first of more than 20 singles to reach #1 on the Christian Rock Chart.&lt;/p&gt;', 'producers': [{'name': 'Rob Graves', 'url': 'https://genius.com/artists/Rob-graves'}], 'writers': [{'name': 'Jason McArthur', 'url': 'https://genius.com/artists/Jason-mcarthur'}, {'name': 'Rob Graves', 'url': 'https://genius.com/artists/Rob-graves'}, {'name': 'Anthony Armstrong', 'url': 'https://genius.com/artists/Anthony-armstrong'}, {'name': 'Jasen Rauch', 'url': 'https://genius.com/artists/Jasen-rauch'}], 'labels': [{'name': 'Essential Records', 'url': 'https://genius.com/artists/Essential-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/My-darkest-days-porn-star-dancing-lyrics', 'lyrics': "[Intro: Ludacris]\nP-p-porn star dancing\n\n[Verse 1: Matt Walst]\nKelly won't kiss my friend Cassandra\nJessica won't play ball\nMandy won't share her friend Miranda\nDoesn't anybody live at all?\nAmanda won't leave me empty-handed\nGot her number from a bathroom stall\nBrandy just got way too much baggage\nAnd that shit just gets old (Hey)\n\n[Pre-Chorus: Matt Walst]\nBut I got a girl who can put on a show\nThe dollar decides how far you can go\n\n[Chorus: Matt Walst]\nShe wraps those hands around that pole\nAnd she licks those lips and off we go\nAnd she takes it off nice and slow\n'Cause that's porn star dancin'\nShe don't play nice, she makes me beg\nAnd she drops that dress around her legs\nAnd I'm sittin' right by the stage\nFor this porn star dancin' (Hey)\n[Post-Chorus: Matt Walst]\nYour body's lightin' up the room\nI want a naughty girl like you\nThere's nothing hotter than a\n\n[Verse 2: Chad Kroeger]\nStacy's gonna save herself for marriage\nBut that's just not my style\nShe's got a pair that's nice to stare at\nBut I want Girls Gone Wild (Hey)\n\n[Pre-Chorus: Matt Walst]\nBut I know a place where there's always a show\nThe dollar decides how far you can go\n\n[Chorus: Matt Walst]\nShe wraps those hands around that pole\nAnd she licks those lips and off we go\nAnd she takes it off nice and slow\n'Cause that's porn star dancin' (Hey)\nShe don't play nice, she makes me beg\nAnd she drops that dress around her legs\nAnd I'm sittin' right by the stage\nFor this porn star dancin' (Hey)\n\n[Post-Chorus: Matt Walst]\nYour body's lightin' up the room\nI want a naughty girl like you\nLet's throw a party just for two\nYou know those normal girls won't do\n[Verse 3: Ludacris]\nThey won't do, I need a girl that's kinda frisky\nDrinkin' with the fellas, takin' shots and gettin' tipsy\nWe always wanna party 'cause she sexy as hell\nAnd if I ever get in trouble, bailin' me outta jail\n'Cause she a stone cold stunner, hotter than a summer\nWhen she step up in the club, every man and woman want her\nShe make me wanna get a stripper pole up in my home\n'Cause her porn star dancin' has got me in the zone\n\n[Guitar Solo: Zakk Wylde]\n\n[Chorus: Matt Walst]\nShe wraps those hands around that pole\nAnd she licks those lips and off we go\nAnd she takes it off nice and slow\n'Cause that's porn star dancin' (Hey)\nShe don't play nice, she makes me beg\nAnd she drops that dress around her legs\nAnd I'm sittin' right by the stage\nFor this porn star dancin'", 'annotations': {'description': '', 'producers': [{'name': 'Chad Kroeger', 'url': 'https://genius.com/artists/Chad-kroeger'}, {'name': 'Joey Moi', 'url': 'https://genius.com/artists/Joey-moi'}], 'writers': [{'name': 'Ludacris', 'url': 'https://genius.com/artists/Ludacris'}, {'name': 'Matt Walst', 'url': 'https://genius.com/artists/Matt-walst'}, {'name': 'Ted Bruner', 'url': 'https://genius.com/artists/Ted-bruner'}, {'name': 'Joey Moi', 'url': 'https://genius.com/artists/Joey-moi'}, {'name': 'Chad Kroeger', 'url': 'https://genius.com/artists/Chad-kroeger'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Skillet-awake-and-alive-lyrics', 'lyrics': "[Verse 1]\nI'm at war with the world and they\nTry to pull me into the dark\nI struggle to find my faith\nAs I'm slipping from your arms\nIt's getting harder to stay awake\nAnd my strength is fading fast\nYou breathe into me at last\n\n[Chorus]\nI'm awake I'm alive\nNow I know what I believe inside\nNow it's my time\nI'll do what I want 'cause this is my life\nHere (right here), right now (right now)\nI'll stand my ground and never back down\nI know what I believe inside\nI'm awake and I'm alive\n\n[Verse 2]\nI'm at war with the world 'cause I\nAin't never going to sell my soul\nI've already made up my mind\nNo matter what I can't be bought or sold\nWhen my faith is getting weak\nAnd I feel like giving in\nYou breathe into me again\n[Chorus]\nI'm awake I'm alive\nNow I know what I believe inside\nNow it's my time\nI'll do what I want 'cause this is my life\nHere (right here), right now (right now)\nI'll stand my ground and never back down\nI know what I believe inside\nI'm awake and I'm alive\n\n[Refrain]\nWaking up, waking up\nWaking up, waking up\nWaking up, waking up\nWaking up, waking up\n\n[Bridge]\nIn the dark\nI can feel you in my sleep\nIn your arms I feel you breathe into me\nForever hold this heart that I will give to you\nForever I will live for you\n\n[Chorus]\nI'm awake I'm alive\nNow I know what I believe inside\nNow it's my time\nI'll do what I want 'cause this is my life\nHere (right here), right now (right now)\nI'll stand my ground and never back down\nI know what I believe inside\nI'm awake and I'm alive\n[Outro]\nWaking up, waking up\nWaking up, waking up\nWaking up, waking up\nWaking up, waking up", 'annotations': {'description': '&lt;p&gt;The Song “Awake and Alive” Is About How God Is Gonna Give You Life And Build Up Your Faith.When You Feel Like Giving In God Will Help You At The Place Where You Need Help.&lt;/p&gt;', 'producers': [{'name': 'Howard Benson', 'url': 'https://genius.com/artists/Howard-benson'}], 'writers': [{'name': 'Brian Howes', 'url': 'https://genius.com/artists/Brian-howes'}, {'name': 'John Cooper', 'url': 'https://genius.com/artists/John-cooper'}], 'labels': [{'name': 'Atlantic Records', 'url': 'https://genius.com/artists/Atlantic-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/The-offspring-youre-gonna-go-far-kid-lyrics', 'lyrics': "[Verse 1]\nShow me how to lie, you're getting better all the time\nAnd turning all against the one is an art that's hard to teach\nAnother clever word sets off an unsuspecting herd\nAnd as you step back into line, a mob jumps to their feet\n\n[Pre-Chorus]\nNow dance, fucker, dance man, he never had a chance\nAnd no one even knew it was really only you\nAnd now you steal away, take him out today\nNice work you did, you're gonna go far, kid\n\n[Chorus]\nWith a thousand lies and a good disguise\nHit 'em right between the eyes, hit 'em right between the eyes\nWhen you walk away, nothing more to say\nSee the lightning in your eyes, see 'em running for their lives\n[Verse 2]\nSlowly out of line, and drifting closer in your sight\nSo play it out, I'm wide-awake, it's a scene about me\nThere's something in your way and now someone is gonna pay\nAnd if you can't get what you want, well, it's all because of me\n\n[Pre-Chorus]\nNow dance, fucker, dance, man, I never had a chance\nAnd no one even knew, it was really only you\nAnd now you'll lead the way, show the light of day\nNice work you did, you're gonna go far, kid, trust deceived\n[Chorus]\nWith a thousand lies and a good disguise\nHit 'em right between the eyes, hit 'em right between the eyes\nWhen you walk away, nothing more to say\nSee the lightning in your eyes, see 'em running for their lives\n\n[Bridge]\nNow dance, fucker, dance, he never had a chance\nAnd no one even knew, it was really only you\nSo dance, fucker, dance, I never had a chance\nIt was really only you\n\n[Chorus]\nWith a thousand lies and a good disguise\nHit 'em right between the eyes, hit 'em right between the eyes\nWhen you walk away, nothing more to say\nSee the lightning in your eyes, see 'em running for their lives\n\n[Outro]\nClever alibis, Lord of the Flies\nHit 'em right between the eyes, hit 'em right between the eyes\nWhen you walk away, nothing more to say\nSee the lightning in your eyes, see 'em running for their lives", 'annotations': {'description': '&lt;p&gt;“You’re Gonna Go Far, Kid” is the third track on &lt;a href="https://genius.com/artists/The-offspring" rel="noopener" data-api_path="/artists/8353"&gt;The Offspring&lt;/a&gt;’s eighth studio album &lt;a href="http://rock.genius.com/albums/The-offspring/Rise-and-fall-rage-and-grace" rel="noopener" data-api_path="/albums/42403"&gt;&lt;em&gt;Rise and Fall, Rage and Grace&lt;/em&gt;&lt;/a&gt; and was released as the second single from the album on September 4, 2008. It peaked at No. 1 on the Hot Modern Rock Tracks chart. The song stayed at No. 1 for 11 weeks, making it the longest consecutive run for any Offspring single at No. 1. As of 2012, it has sold 1.6 million copies, and is certified Gold by the Recording Industry Association of America, denoting 500,000 sales. It also reached No. 1 on KROQ’s Top 106.7 songs of 2008 countdown list.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/589d003cd911d5ca04631d10ebd4e979.500x427x1.jpg" alt="" width="500" height="427" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;The song was certified Gold in the United States on April 2, 2009, selling over 500,000 copies. It is the first Offspring single to reach Gold in the United States and was the best selling single from the album, which has yet to reach Gold status itself. As of May 2012, “You’re Gonna Go Far, Kid” had sold a total of 1.6 million copies in the United States.&lt;/p&gt;', 'producers': [{'name': 'Bob Rock', 'url': 'https://genius.com/artists/Bob-rock'}], 'writers': [{'name': 'Dexter Holland', 'url': 'https://genius.com/artists/Dexter-holland'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Three-days-grace-time-of-dying-lyrics', 'lyrics': "[Verse 1]\nOn the ground I lay, motionless in pain\nI can see my life flashing before my eyes\nDid I fall asleep?\nIs this all a dream?\nWake me up, I'm living a nightmare\n\n[Pre-Chorus]\nI will not die  (I will not die)\nI will survive\n\n[Chorus]\nI will not die, I'll wait here for you\nI feel alive when you're beside me\nI will not die, I'll wait here for you\nIn my time of dying\n\n[Verse 2]\nOn this bed I lay, losing everything\nI can see my life passing me by\nWas it all too much?\nOr just not enough?\nWake me up, I'm living a nightmare\n\n[Pre-Chorus]\nI will not die (I will not die)\nI will survive\n[Chorus]\nI will not die, I'll wait here for you\nI feel alive when you're beside me\nI will not die, I'll wait here for you\nIn my time of dying\n\n[Instrumental Break]\n\n[Chorus]\nI will not die, I'll wait here for you\nI feel alive when you're beside me\nI will not die, I'll wait here for you\nIn my time of dying\n(Feel alive)\nI will not die, I'll wait here for you (Feel alive)\nI feel alive when you're beside me (Feel alive)\nI will not die, I'll wait here for you\nIn my time of dying", 'annotations': {'description': '&lt;p&gt;I believe this is pullout symptoms from active medicine dependence. “the agony”. and and asking a advanced power to come back into his life because he feels alive when this power is beside or near him. He wants to" wake up" meaning live his life with joy and peace rather than being in pain all the time, he thinks he has the courage to survive and get off medicines but does not know how to ask for help and knows deep down in his heart he does not want to die like this.&lt;/p&gt;', 'producers': [{'name': 'Howard Benson', 'url': 'https://genius.com/artists/Howard-benson'}], 'writers': [{'name': 'Adam Gontier', 'url': 'https://genius.com/artists/Adam-gontier'}, {'name': 'Barry Stock', 'url': 'https://genius.com/artists/Barry-stock'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Saliva-always-lyrics', 'lyrics': '[Verse 1]\nI hear a voice say, "Don\'t be so blind"\nIt\'s telling me all these things\nThat you would probably hide\nAm I your one and only desire?\nAm I the reason you breathe?\nOr am I the reason you cry?\n\n[Pre-Chorus]\nAlways\nAlways\nAlways\nAlways\nAlways\nAlways\nAlways\nI just can\'t live without you\n\n[Chorus]\nI love you\nI hate you\nI can\'t get around you\nI breathe you\nI taste you\nI can\'t live without you\nI just can\'t take any more\nThis life of solitude\nI guess that I\'m out the door\nAnd now I\'m done with you\n[Verse 2]\nI feel like you don\'t want me around\nI guess I\'ll pack all my things\nI guess I\'ll see you around\nIt\'s all been bottled up until now\nAs I walk out your door\nAll I can hear is the sound\n\n[Pre-Chorus]\nAlways\nAlways\nAlways\nAlways\nAlways\nAlways\nAlways\nI just can\'t live without you\n\n[Chorus]\nI love you\nI hate you\nI can\'t get around you\nI breathe you\nI taste you\nI can\'t live without you\nI just can\'t take any more\nThis life of solitude\nI guess that I\'m out the door\nAnd now I\'m done with you\n[Refrain]\nI love you\nI hate you\nI can\'t live without you\n\nI left my head around your heart\nWhy would you tear my world apart?\n\nAlways\nAlways\nAlways\nAlways\n\n[Bridge]\nI see the blood all over your hands\nDoes it make you feel more like a man?\nWas it all just a part of your plan?\nThe pistol\'s shakin\' in my hands\nAnd all I hear is the sound\n\n[Chorus]\nI love you\nI hate you\nI can\'t live without you\nI breathe you\nI taste you\nI can\'t live without you\nI just can\'t take any more\nThis life of solitude\nI guess that I\'m out the door\nAnd now I\'m done with you\n[Outro]\nI love you\nI hate you\nI can\'t live without you\n\nI love you\nI hate you\nI can\'t live without you\nI just can\'t take any more\nThis life of solitude\nI pick myself off the floor\nAnd now I\'m done with you\nAlways\nAlways\nAlways', 'annotations': {'description': '&lt;p&gt;Always is an alternative metal song from Saliva’s 2002 album, ‘Back into Your System’. The song is centered around a narrator and his love/hate relationship with a lover.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/46bc3d61f73fe29c9c7da9cac32f0f3c.300x300x1.jpg" alt="" width="300" height="300" data-animated="false"&gt;&lt;/p&gt;', 'producers': [{'name': 'Bob Marlette', 'url': 'https://genius.com/artists/Bob-marlette'}], 'writers': [{'name': 'Wayne Swinny', 'url': 'https://genius.com/artists/Wayne-swinny'}, {'name': 'David Novotny', 'url': 'https://genius.com/artists/David-novotny'}, {'name': 'Paul Crosby', 'url': 'https://genius.com/artists/Paul-crosby'}, {'name': 'Josey Scott', 'url': 'https://genius.com/artists/Josey-scott'}, {'name': 'Bob Marlette', 'url': 'https://genius.com/artists/Bob-marlette'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Skillet-comatose-lyrics', 'lyrics': "[Verse 1]\nI hate feeling like this\nI'm so tired of trying to fight this\nI'm asleep and all I dream of is waking to you\nTell me that you will listen\nYour touch is what I'm missing\nAnd the more I hide I realize I'm slowly losing you\n\n[Pre-Chorus]\nComatose\nI'll never wake up without an overdose of you\n\n[Chorus]\nI don't want to live\nI don't want to breathe\n'Less I feel you next to me\nYou take the pain I feel\n(Waking up to you never felt so real)\nI don't want to sleep\nI don't want to dream\n'Cause my dreams don't comfort me\nThe way you make me feel\n(Waking up to you never felt so real)\n\n[Verse 2]\nI hate living without you\nDead wrong to ever doubt you\nBut my demons lay in waiting\nTempting me away\nOh, how I adore you\nOh, how I thirst for you\nOh, how I need you\n[Pre-Chorus]\nComatose\nI'll never wake up without an overdose of you\n\n[Chorus]\nI don't want to live\nI don't want to breathe\n'Less I feel you next to me\nYou take the pain I feel\n(Waking up to you never felt so real)\nI don't want to sleep\nI don't want to dream\n'Cause my dreams don't comfort me\nThe way you make me feel\n(Waking up to you never felt so real)\n\n[Bridge]\nBreathing life\nWaking up\nMy eyes open up\n\n[Pre-Chorus]\nComatose\nI'll never wake up without an overdose of you\n\n[Chorus]\nI don't want to live\nI don't want to breathe\n'Less I feel you next to me\nYou take the pain I feel\n(Waking up to you never felt so real)\nI don't want to sleep\nI don't want to dream\n'Cause my dreams don't comfort me\nThe way you make me feel\n(Waking up to you never felt so real)\n[Outro]\nOh, how I adore you\nWaking up to you never felt so real\nOh, how I thirst for you\nWaking up to you never felt so real\nOh, how I adore you, oh\nThe way you make me feel\nWaking up to you never felt so real", 'annotations': {'description': '&lt;p&gt;Comatose is the title track of Skillet’s 7th album. The song itself is about needing someone so much so that without them, you’re essentially comatose.&lt;/p&gt;', 'producers': [{'name': 'Brian Howes', 'url': 'https://genius.com/artists/Brian-howes'}, {'name': 'John Cooper', 'url': 'https://genius.com/artists/John-cooper'}], 'writers': [{'name': 'Brian Howes', 'url': 'https://genius.com/artists/Brian-howes'}, {'name': 'John Cooper', 'url': 'https://genius.com/artists/John-cooper'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Thirty-seconds-to-mars-the-kill-lyrics', 'lyrics': "[Verse 1]\nWhat if I wanted to break?\nLaugh it all off in your face\nWhat would you do? (Woah)\nWhat if I fell to the floor?\nCouldn't take this anymore\nWhat would you do, do, do?\n\n[Chorus]\nCome break me down\nBury me, bury me\nI am finished with you\n\n[Verse 2]\nWhat if I wanted to fight\nBeg for the rest of my life\nWhat would you do, do, do?\nYou say you wanted more\nWhat are you waiting for?\nI'm not running from you, from you\n\n[Chorus]\nCome break me down\nBury me, bury me\nI am finished with you\nLook in my eyes\nYou're killin' me, killin' me\nAll I wanted was you\n[Bridge]\nI tried to be someone else, but nothin' seemed to change\nI know now, this is who I really am inside\nFinally found myself, fighting for a chance\nI know now, this is who I really am\nOh-oh, oh-oh\nOh-oh, oh-oh\nOh-oh, oh-oh\n\n[Chorus]\nCome break me down\nBury me, bury me\nI am finished with you, you, you\nLook in my eyes\nYou're killin' me, killin' me\nAll I wanted was you\n\n[Outro]\nCome, break me down, break me down, break me down\n(You say you wanted more) What if I wanted to break?\n(What are you waiting for?)\n(I'm not running from you) What if I, what if I, what if I, what if I\nBury me, bury me", 'annotations': {'description': '&lt;p&gt;“The Kill” was the second single released from 30 Seconds to Mars\' second album, &lt;em&gt;A Beautiful Lie&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;The Jared Leto directed music video (under his Dr Seuss inspired pseudonym &lt;a href="http://en.wikipedia.org/wiki/Bartholomew_Cubbins" rel="noopener nofollow"&gt;Bartholomew Cubbins&lt;/a&gt;) was inspired by the Stanley Kubrick movie “The Shining”.  It was voted “The Greatest Rock Video” by Kerrang viewers in 2009.&lt;/p&gt;', 'producers': [{'name': 'Josh Abraham', 'url': 'https://genius.com/artists/Josh-abraham'}], 'writers': [{'name': 'Jared Leto', 'url': 'https://genius.com/artists/Jared-leto'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Stone-sour-through-glass-lyrics', 'lyrics': "[Chorus]\nI'm looking at you through the glass\nDon't know how much time has passed\nOh, God, it feels like forever, but no one ever tells you\nThat forever feels like home, sitting all alone inside your head\n'Cause I'm looking at you through the glass\nDon't know how much time has passed\nAll I know is that it feels like forever, but no one ever tells you\nThat forever feels like home, sitting all alone inside your head\n\n[Verse 1]\nHow do you feel? That is the question\nBut I forget you don't expect an easy answer\nWhen something like a soul becomes initialized and folded up\nLike paper dolls and little notes, you can't expect a bit of hope\nSo while you're outside looking in, describing what you see\nRemember what you're staring at is me\n\n[Chorus]\n'Cause I'm looking at you through the glass\nDon't know how much time has passed\nAll I know is that it feels like forever, but no one ever tells you\nThat forever feels like home, sitting all alone inside your head\n\n[Verse 2]\nHow much is real? So much to question\nAn epidemic of the mannequins, contaminating everything\nWe thought came from the heart, but never did right from the start\nJust listen to the noises, null and void instead of voices\nBefore you tell yourself, it's just a different scene\nRemember it's just different from what you've seen\n[Chorus]\nI'm looking at you through the glass\nDon't know how much time has passed\nAnd all I know is that it feels like forever, but no one ever tells you\nThat forever feels like home, sitting all alone inside your head\n'Cause I'm looking at you through the glass\nDon't know how much time has passed\nAnd all I know is that it feels like forever, but no one ever tells you\nThat forever feels like home, sitting all alone inside your head\n\n[Bridge]\nAnd it's the stars, the stars\nThat shine for you\nAnd it's the stars, the stars\nThat lie to you, yeah-ah\nAnd it's the stars, the stars\nThat shine for you\nAnd it's the stars, the stars\nThat lie to you, yeah-ah\n\n[Chorus]\nI'm looking at you through the glass\nDon't know how much time has passed\nOh, God, it feels like forever, but no one ever tells you\nThat forever feels like home, sitting all alone inside your head\n'Cause I'm looking at you through the glass\nDon't know how much time has passed\nAll I know is that it feels like forever, but no one ever tells you\nThat forever feels like home, sitting all alone inside your head\n[Outro]\nAnd it's the stars, the stars\nThat shine for you, yeah-ah\nAnd it's the stars, the stars\nThat lie to you, yeah-ah\nAnd it's the stars, the stars\nThat shine for you, yeah-ah\nAnd it's the stars, the stars\nThat lie to you, yeah, yeah\nOh, and the stars\nOh, and the stars, they lie", 'annotations': {'description': '&lt;p&gt;“Through Glass” is the second single on the album &lt;a href="https://genius.com/albums/Stone-sour/Come-what-ever-may" rel="noopener" data-api_path="/albums/56412"&gt;“Come What(ever) May”&lt;/a&gt; by American rock band &lt;a href="https://genius.com/artists/Stone-sour" rel="noopener" data-api_path="/artists/59680"&gt;Stone Sour&lt;/a&gt;. The track was published online through &lt;em&gt;Yahoo!&lt;/em&gt; on July 22, 2006. The highest peaking of “Through Glass” was in the United States, on the &lt;em&gt;US Billboard Hot Mainstream Rock Tracks&lt;/em&gt;, at number one, followed by number two on the &lt;em&gt;US Billboard Hot Modern Rock Tracks&lt;/em&gt;. “Through Glass” was certified Platinum in the United States by the RIAA.&lt;/p&gt;\n\n&lt;p&gt;The corresponding music video for “Through Glass” was directed by Tony Petrossian.&lt;/p&gt;\n\n&lt;p&gt;“Through Glass” has also integrated itself into pop culture and appeared in the 2012 horror film, &lt;em&gt;Grave Encounters 2&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;The song was inspired by frontman &lt;a href="https://genius.com/artists/Corey-Taylor" rel="noopener" data-api_path="/artists/44044"&gt;Corey Taylor’s&lt;/a&gt; frustrations towards the music industry and how he felt that there had been no musical revolution at all. He had been quoted &lt;a href="http://www.thegauntlet.com/article/342/5154/Stone-Sour.html" rel="noopener nofollow"&gt;saying&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;I remember exactly where I was. It was 2004 and I was on tour with Slipknot. I was sitting in a European hotel room watching a music video channel, seeing act after act after act of this insane, innocuous, plastic music. They were plastic, bubbly, gossamer-thin groups where it was really more about the clothes they wore and the length of their cheekbones than it was about the content of the song they were singing. It really made me mad. I was like, “Is this it? Have we just gone full circle? Did the singer/songwriter revolution never happen? Is it just the same drivel from the same replicate over and over again?” … “Through Glass” is really a very angry song. It’s me basically calling bullshit on pretty much everyone involved with the American Idol-type shows. It has its place, but when you’re basically cornering the market and making it very hard for anyone who actually writes their own music to get ahead, then it’s wrong and that’s really why I wrote this song."&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Many years later, &lt;a href="https://genius.com/artists/Corey-Taylor" rel="noopener" data-api_path="/artists/44044"&gt;Corey Taylor&lt;/a&gt; would eventually\u200b reveal that he got food poisoning from eating at a Swedish McDonald’s restaurant, thus he was unable to change the channel from &lt;em&gt;MTV Europe&lt;/em&gt;.&lt;/p&gt;', 'producers': [{'name': 'Nick Raskulinecz', 'url': 'https://genius.com/artists/Nick-raskulinecz'}], 'writers': [{'name': 'Stone Sour', 'url': 'https://genius.com/artists/Stone-sour'}], 'labels': [{'name': 'Roadrunner Records', 'url': 'https://genius.com/artists/Roadrunner-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Staind-its-been-awhile-lyrics', 'lyrics': "[Verse 1]\nAnd it's been awhile since I could hold my head up high\nAnd it's been awhile since I first saw you\nAnd it's been awhile since I could stand on my own two feet again\nAnd it's been awhile since I could call you\n\n[Chorus]\nAnd everything I can't remember\nAs fucked up as it all may seem\nThe consequences that are rendered\nI've stretched myself beyond my means\n\n[Verse 2]\nAnd it's been awhile since I could say that I wasn't addicted and\nIt's been awhile since I could say I love myself as well and\nIt's been awhile since I've gone and fucked things up, just like I always do\nAnd it's been awhile, but all that shit seems to disappear when I'm with you\n\n[Chorus]\nAnd everything I can't remember\nAs fucked up as it all may seem\nThe consequences that I've rendered\nI've gone and fucked things up again, again\n\n[Bridge]\nWhy must I feel this way?\nJust make this go away\nJust one more peaceful day\n[Verse 3]\nAnd it's been awhile since I could look at myself straight\nAnd it's been awhile since I said I'm sorry\nAnd it's been awhile since I've seen the way the candles light your face\nAnd it's been awhile, but I can still remember just the way you taste\n\n[Chorus]\nAnd everything I can't remember\nAs fucked up as it all may seem to be, and I know it's me\nI cannot blame this on my father\nHe did the best he could for me\n\n[Outro]\nAnd it's been awhile since I could hold my head up high\nAnd it's been awhile since I said I'm sorry", 'annotations': {'description': '&lt;p&gt;In this song, Staind lead Aaron Lewis is speaking of how, in his mind, he messes everything up and is disapointing the person who means the most to him. Lewis also dips into his addiction and going clean.&lt;/p&gt;', 'producers': [{'name': 'Josh Abraham', 'url': 'https://genius.com/artists/Josh-abraham'}], 'writers': [{'name': 'Johnny April', 'url': 'https://genius.com/artists/Johnny-april'}, {'name': 'Mike Mushok', 'url': 'https://genius.com/artists/Mike-mushok'}, {'name': 'Jon Wysocki', 'url': 'https://genius.com/artists/Jon-wysocki'}, {'name': 'Aaron Lewis', 'url': 'https://genius.com/artists/Aaron-lewis'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/10-years-fix-me-lyrics', 'lyrics': "[Verse 1]\nIt's taken a lifetime to lose my way\nA lifetime of yesterdays\nAll the wasted time on my hands\nTurns to sand and fades in the wind\n\n[Pre-Chorus 1]\nCrossing lines, small crimes\nTaking back what is mine\n\n[Chorus]\nI'm fine in the fire\nI feed on the friction\nI'm right where I should be\nDon't try and fix me\nI'm fine in the fire\nI feed on the friction\nI'm right where I should be\nDon't try and fix me\n\n[Verse 2]\nSo lost for so long to find to my way\nI failed to follow, I'm out of place\n\n[Pre-Chorus 1]\nCrossing lines, small crimes\nTaking back what is mine\n[Chorus]\nI'm fine in the fire\nI feed on the friction\nI'm right where I should be\nDon't try and fix me\nI'm fine in the fire\nI feed on the friction\nI'm right where I should be\nDon't try and fix me\n\n[Bridge]\n(Isolation, hesitation)\n(Seperation, revelation)\n\n[Pre-Chorus 2]\nI'm fine in the fire\nI feed on the friction\nI'm right where I should be\nDon't try and fix me\n\n[Chorus]\nI'm fine in the fire\nI feed on the friction\nI'm right where I should be\nDon't try and fix me\nI'm fine in the fire\nI feed on the friction\nI'm right where I should be\nDon't try and fix me\nI'm fine in the fire\nI feed on the friction\nI'm right where I should be\nDon't try and fix me\nI'm fine in the fire\nI feed on the friction\nI'm right where I should be\nDon't try and fix me", 'annotations': {'description': '', 'producers': [{'name': 'Howard Benson', 'url': 'https://genius.com/artists/Howard-benson'}], 'writers': [{'name': '10 Years', 'url': 'https://genius.com/artists/10-years'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Evanescence-bring-me-to-life-lyrics', 'lyrics': "[Verse 1: Amy Lee]\nHow can you see into my eyes like open doors?\nLeading you down into my core, where I've become so numb\nWithout a soul, my spirit's sleeping somewhere cold\nUntil you find it there and lead it back home\n\n[Chorus: Amy Lee &amp; Paul McCoy]\nWake me up, wake me up inside\nI can't wake up, wake me up inside\nSave me, call my name and save me from the dark\nWake me up, bid my blood to run\nI can't wake up, before I come undone\nSave me, save me from the nothing I've become\n\n[Verse 2: Amy Lee]\nNow that I know what I'm without, you can't just leave me\nBreathe into me and make me real, bring me to life\n\n[Chorus: Amy Lee &amp; Paul McCoy]\nWake me up, wake me up inside\nI can't wake up, wake me up inside\nSave me, call my name and save me from the dark\nWake me up, bid my blood to run\nI can't wake up, before I come undone\nSave me, save me from the nothing I've become\n[Bridge: Amy Lee &amp; Paul McCoy]\nBring me to life, I've been livin' a lie, there's nothing inside\nBring me to life\nFrozen inside, without your touch, without your love, darling\nOnly you are the life among the dead\n\n[Verse 3: Amy Lee &amp; Paul McCoy]\nAll this time, I can't believe I couldn't see\nKept in the dark, but you were there in front of me\nI've been sleeping a thousand years, it seems\nGot to open my eyes to everything\nWithout a thought, without a voice, without a soul\nDon't let me die here\nThere must be something more\nBring me to life\n\n[Chorus: Amy Lee &amp; Paul McCoy]\nWake me up, wake me up inside\nI can't wake up, wake me up inside\nSave me, call my name and save me from the dark\nWake me up, bid my blood to run\nI can't wake up, before I come undone\nSave me, save me from the nothing I've become\n\n[Outro: Amy Lee &amp; Paul McCoy]\nBring me to life, I've been living a lie, there's nothing inside\nBring me to life", 'annotations': {'description': '&lt;p&gt;After Wind-Up Records &lt;a href="https://youtu.be/hyVRKffsvws?t=294" rel="noopener nofollow"&gt;insisted the group&lt;/a&gt; bring on a full-time rapper and the band refused, Evanescence went home, assuming they no longer had a record deal. However, the label contacted them again and a compromise was met – one song would feature a guest rapper, and that was “Bring Me To Life”.&lt;/p&gt;\n\n&lt;p&gt;It is the band’s debut single and breakout song, bringing them international fame and success, helped by its inclusion on the soundtrack to the 2003 film &lt;em&gt;Daredevil&lt;/em&gt;. It went to #1 in Italy, Australia and the UK, and reached the top 5 in Germany, Canada and the US in the spring of 2003.&lt;/p&gt;\n\n&lt;p&gt;In the UK, it was the last guitar-driven chart-topper to stay at #1 for four weeks until 2021 when Olivia Rodrigo’s third single &lt;a href="https://genius.com/Olivia-rodrigo-good-4-u-lyrics" rel="noopener" data-api_path="/songs/6702232"&gt;“Good 4 U”&lt;/a&gt; accomplished the same – eighteen years later.&lt;/p&gt;\n\n&lt;p&gt;Lead singer &lt;a href="https://genius.com/artists/Amy-lee" rel="noopener" data-api_path="/artists/30669"&gt;Amy Lee&lt;/a&gt; and guitarist &lt;a href="https://genius.com/artists/Ben-moody" rel="noopener" data-api_path="/artists/229317"&gt;Ben Moody&lt;/a&gt; shared in an interview with AOL Sessions that the song &lt;a href="https://youtu.be/_0arH-PbxeQ?t=84" rel="noopener nofollow"&gt;was inspired by&lt;/a&gt; the desire to make the most out of life. Later, Lee &lt;a href="https://www.songfacts.com/blog/interviews/amy-lee-of-evanescence" rel="noopener nofollow"&gt;told Songfacts&lt;/a&gt; it was inspired by a moment during a rough time in life when her future husband suddenly asked her if she was happy.&lt;/p&gt;', 'producers': [{'name': 'Dave Fortman', 'url': 'https://genius.com/artists/Dave-fortman'}], 'writers': [{'name': 'Amy Lee', 'url': 'https://genius.com/artists/Amy-lee'}, {'name': 'Ben Moody', 'url': 'https://genius.com/artists/Ben-moody'}, {'name': 'David Hodges', 'url': 'https://genius.com/artists/David-hodges'}], 'labels': [{'name': 'Wind-up Records', 'url': 'https://genius.com/artists/Wind-up-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Rise-against-satellite-lyrics', 'lyrics': "[Verse 1]\nYou can't feel the heat until you hold your hand over the flame\nYou have to cross the line just to remember where it lays\nYou won't know your worth now, son, until you take a hit\nAnd you won't find the beat until you lose yourself in it\n\n[Chorus]\nThat's why we won't back down\nWe won't run and hide\nYeah, because these are the things that we can't deny\nI'm passing over you like a satellite\nSo catch me if I fall\nThat's why we stick to your game plans and party lives\nBut at night we're conspiring by candlelight\nWe are the orphans of the American Dream\nSo shine your light on me\n\n[Verse 2]\nYou can't fill your cup until you empty all it has\nYou can't understand what lays ahead if you don't understand the past\nYou'll never learn to fly until you're standing at the cliff\nYou can't truly love until you've given up on it\n\n[Chorus]\nThat's why we won't back down\nWe won't run and hide\nYeah, because these are the things that we can't deny\nI'm passing over you like a satellite\nSo catch me if I fall\nThat's why we stick to your game plans and party lives\nBut at night we're conspiring by candlelight\nWe are the orphans of the American Dream\nSo shine your light on me\n[Verse 3]\nShe told me she that she'd never face the world again\nSo I offered up a plan:\n\n[Bridge]\nWe'll sneak out while they sleep\nAnd sail off in the night\nWe'll come clean and start over\nThe rest of our lives\nWhen we're gone, we'll stay gone\nOut of sight, out of mind\nIt's not too late, we have the rest of our lives\nWe'll sneak out while they sleep\nAnd sail off in the night (we have the rest of our lives)\nWe'll come clean and start over\nThe rest of our lives\nWhen we're gone, we'll stay gone\nOut of sight, out of mind (we have the rest of our lives)\nIt's not too late, we have the rest of our lives\nThe rest of our lives\n\n[Chorus]\nBecause we won't back down\nWe won't run and hide\nYeah, because these are the things that we can't deny\nI'm passing over you like a satellite\nSo catch me if I fall\nThat's why we stick to your game plans and party lives\nBut at night we're conspiring by candlelight\nWe are the orphans of the American Dream\nSo shine your light on me (shine your light on me)\nNo we won't back down\nWe won't run and hide\nYeah, because these are the things that we can't deny (shine your light on me)\nI'm passing over you like a satellite\n'cause these are the things that we can't deny, no\nThis is a life that you can't deny us now", 'annotations': {'description': '&lt;p&gt;Lead singer Tim McIlrath has &lt;a href="http://www.theaquarian.com/2011/05/04/interview-with-tim-mcilrath-from-rise-against-prophesying-a-favorable-%E2%80%98endgame%E2%80%99/" rel="noopener nofollow"&gt;said that the essence of the Endgame record is all about inspiring the next generation to stand up and take action against an oppressive and unjust government&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;Maybe the world we currently designed isn’t sustainable. Everything from our political framework to the toll the environment takes and our appetites towards war and religion. We’re hell-bent on survival, but it’s only when these problems collapse and get dismantled that we can learn from these mistakes. The civilization born out of this worlds’ ashes will hopefully be attainable. Our whole record is trying to paint that picture.&lt;/p&gt;&lt;/blockquote&gt;', 'producers': [{'name': 'Jason Livermore', 'url': 'https://genius.com/artists/Jason-livermore'}, {'name': 'Bill Stevenson', 'url': 'https://genius.com/artists/Bill-stevenson'}], 'writers': [{'name': 'Joe Principe', 'url': 'https://genius.com/artists/Joe-principe'}, {'name': 'Zach Blair', 'url': 'https://genius.com/artists/Zach-blair'}, {'name': 'Brandon Barnes', 'url': 'https://genius.com/artists/Brandon-barnes'}, {'name': 'Tim McIlrath', 'url': 'https://genius.com/artists/Tim-mcilrath'}, {'name': 'Rise Against', 'url': 'https://genius.com/artists/Rise-against'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Linkin-park-bleed-it-out-lyrics', 'lyrics': "[Verse 1: Mike Shinoda]\nYeah, here we go for the hundredth time\nHand grenade pins in every line\nThrow 'em up and let something shine\nGoing out of my fucking mind\nFilthy mouth, no excuse\nFind a new place to hang this noose\nString me up from atop these roofs\nKnot it tight so I won't get loose\nTruth is, you can stop and stare\nBled myself out and no one cares\nDug the trench out, laid down there\nWith a shovel up out of reach, somewhere\nYeah, someone pour it in\nMake it a dirt dance floor, again\nSay your prayers and stomp it out\nWhen they bring that chorus in\n\n[Chorus: Chester Bennington with Mike Shinoda]\nI bleed it out, digging deeper just to throw it away\nI bleed it out, digging deeper just to throw it away\nI bleed it out, digging deeper just to throw it away\nJust to throw it away, just to throw it away\nI bleed it out\n\n[Verse 2: Mike Shinoda]\nGo, stop the show\nChoppy words and a sloppy flow\nShotgun opera, lock and load\nCock it back and then watch it go\nMama, help me, I've been cursed\nDeath is rolling in every verse\nCandy paint on his brand new hearse\nCan't contain him, he knows he works\nFuck, this hurts, I won't lie\nDoesn't matter how hard I try\nHalf the words don't mean a thing\nAnd I know that I won't be satisfied\nSo why try ignoring him?\nMake it a dirt dance floor again\nSay your prayers and stomp it out\nWhen they bring that chorus in\n[Chorus: Chester Bennington]\nI bleed it out, digging deeper just to throw it away\nI bleed it out, digging deeper just to throw it away\nI bleed it out, digging deeper just to throw it away\nJust to throw it away, just to throw it away\nI bleed it out\n\n[Bridge: Chester Bennington]\nI've opened up these scars\nI'll make you face this!\nI've pulled myself so far\nI'll make you face this now!\n\n[Chorus: Chester Bennington]\nI bleed it out, digging deeper just to throw it away\nI bleed it out, digging deeper just to throw it away\nI bleed it out, digging deeper just to throw it away\nJust to throw it away, just to throw it away\nI bleed it out, digging deeper just to throw it away\nI bleed it out, digging deeper just to throw it away\nI bleed it out, digging deeper just to throw it away\nJust to throw it away, just to throw it away\n\n[Outro: Chester Bennington]\nI bleed it out\nI bleed it out\nI bleed it out", 'annotations': {'description': '&lt;p&gt;“Bleed It Out” is the 4th track off of Linkin Park’s 3rd studio album, “Minutes to Midnight”. It is also the second single released on June 30, 2007.&lt;/p&gt;\n\n&lt;p&gt;Booklet Notes: one of the band’s goals on this record was to enjoy it. This track is one of the places where that is most evident.&lt;/p&gt;', 'producers': [{'name': 'Mike Shinoda', 'url': 'https://genius.com/artists/Mike-shinoda'}, {'name': 'Rick Rubin', 'url': 'https://genius.com/artists/Rick-rubin'}], 'writers': [{'name': 'Mr. Hahn', 'url': 'https://genius.com/artists/Mr-hahn'}, {'name': 'Dave Farrell', 'url': 'https://genius.com/artists/Dave-farrell'}, {'name': 'Rob Bourdon', 'url': 'https://genius.com/artists/Rob-bourdon'}, {'name': 'Brad Delson', 'url': 'https://genius.com/artists/Brad-delson'}, {'name': 'Chester Bennington', 'url': 'https://genius.com/artists/Chester-bennington'}, {'name': 'Mike Shinoda', 'url': 'https://genius.com/artists/Mike-shinoda'}], 'labels': [{'name': 'Bros. Music 2', 'url': 'https://genius.com/artists/Bros-music-2'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Thirty-seconds-to-mars-this-is-war-lyrics', 'lyrics': "[Verse 1]\nA warning to the people\nThe good and the evil\nThis is war\nTo the soldier, the civilian\nThe martyr, the victim\nThis is war\n\n[Pre-Chorus]\nIt's the moment of truth and the moment to lie\nThe moment to live and the moment to die\nThe moment to fight, the moment to fight\nTo fight, to fight, to fight\n\n[Chorus]\nTo the right, to the left\nWe will fight to the death\nTo the edge of the Earth\nIt's a brave new world\nFrom the last to the first\n\nTo the right, to the left\nWe will fight to the death\nTo the edge of the Earth\nIt's a brave new world\nIt's a brave new world\n[Verse 2]\nA warning to the prophet\nThe liar, the honest\nThis is war\nTo the leader, the pariah\nThe victor, the messiah\nThis is wa-a-ar yeah\n\n[Pre-Chorus]\nIt's the moment of truth and the moment to lie\nThe moment to live and the moment to die\nThe moment to fight, the moment to fight\nTo fight, to fight, to fight\n\n[Chorus]\nTo the right, to the left\nWe will fight to the death\nTo the edge of the Earth\nIt's a brave new world\nFrom the last to the first\n\nTo the right, to the left\nWe will fight to the death\nTo the edge of the Earth\nIt's a brave new world\nIt's a brave new world\nIt's a brave new world\n[Bridge]\nI do believe in the light\nRaise your hands into the sky\nThe fight is done, the war is won\nLift your hands toward the sun\nToward the sun\nToward the sun (It's the moment of truth and the moment to lie\nThe moment to live and the moment to die)\nToward the sun (It's the moment of truth and the moment to lie\nThe moment to live and the moment to die)\nToward the sun (It's the moment to fight, the moment to fight\nTo fight, to fight, to fight)\nThe war is won\n\n[Chorus]\nTo the right, to the left\nWe will fight to the death\nTo the edge of the Earth\nIt's a brave new world\nFrom the last to the first\n\nTo the right, to the left\nWe will fight to the death\nTo the edge of the Earth\nIt's a brave new world\nIt's a brave new world\nIt's a brave new world\n[Outro]\nA brave new world\nThe war is won\nThe war is won\nA brave new world", 'annotations': {'description': '&lt;p&gt;“This is War” is the fourth track on (and second single from) &lt;a href="https://genius.com/artists/Thirty-Seconds-to-Mars" rel="noopener" data-api_path="/artists/60945"&gt;Thirty Seconds to Mars&lt;/a&gt;‘ third studio album, &lt;a href="https://genius.com/albums/Thirty-Seconds-to-Mars/This-is-War" rel="noopener" data-api_path="/albums/39701"&gt;&lt;em&gt;This is War&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;This song is about the perseverance of the fighting spirit, and no matter how long it takes, or what you have to do, you can keep on fighting in the hopes of peace one day for all the people you left back home.&lt;/p&gt;\n\n&lt;p&gt;In an &lt;a href="http://www.mtv.com/news/1635845/30-seconds-to-mars-battle-it-out-in-this-is-war-video/" rel="noopener nofollow"&gt;interview with MTV News&lt;/a&gt;, band frontman Jared Leto said:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;The song is really about conflict, and the album really is about it too: the inevitability of conflict, the blessing of conflict and what we can all learn from it. We’ve certainly had our fair share of it.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;And haven’t they? In 2009, the band got involved in a &lt;a href="http://www.businessinsider.com/30-seconds-to-mars-emi-settle-30-million-lawsuit-ink-new-deal-2009-4" rel="noopener nofollow"&gt;contractual conflict&lt;/a&gt; with their then label &lt;a href="http://www.virginemirecords.com/" rel="noopener nofollow"&gt;EMI&lt;/a&gt; for failing to deliver the third album on its 5-album contract.&lt;/p&gt;', 'producers': [{'name': 'Thirty Seconds to Mars', 'url': 'https://genius.com/artists/Thirty-seconds-to-mars'}, {'name': 'Flood', 'url': 'https://genius.com/artists/Flood'}], 'writers': [{'name': 'Jared Leto', 'url': 'https://genius.com/artists/Jared-leto'}], 'labels': [{'name': 'Virgin Records', 'url': 'https://genius.com/artists/Virgin-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Staind-so-far-away-lyrics', 'lyrics': "[Verse 1]\nThis is my life\nIt's not what it was before\nAll these feelings I've shared\nAnd these are my dreams\nThat I'd never lived before\nSomebody shake me, 'cause I\nI must be sleeping\n\n[Chorus]\nAnd now that we're here, it's so far away\nAll the struggle we thought was in vain\nAnd all the mistakes one life contained\nThey all finally start to go away\nAnd now that we're here, it's so far away\nAnd I feel like I can face the day\nAnd I can forgive, and I'm not ashamed\nTo be the person that I am today\n\n[Verse 2]\nAnd these are my words\nThat I've never said before\nI think I'm doing okay\nAnd this is the smile\nThat I've never shown before\nSomebody shake me 'cause I\nI must be sleeping\n[Chorus]\nNow that we're here, it's so far away\nAll the struggle we thought was in vain\nAnd all the mistakes one life contained\nThey all finally start to go away\nAnd now that we're here, it's so far away\nAnd I feel like I can face the day\nAnd I can forgive, and I'm not ashamed\nTo be the person that I am today\n\n[Bridge]\nI'm so afraid of waking\nPlease don't shake me\nAfraid of waking\nPlease don't shake me\n\n[Chorus]\nNow that we're here, it's so far away\nAll the struggle we thought was in vain\nAll the mistakes one life contained\nThey all finally start to go away\nAnd now that we're here, it's so far away\nAnd I feel like I can face the day\nI can forgive, and I'm not ashamed\nTo be the person that I am today", 'annotations': {'description': '&lt;p&gt;“So Far Away” is a song of hope and uncertainty with beating addiction. A song that mirrors &lt;a href="https://www.rollingstone.com/music/music-features/staind-dark-stars-48045/" rel="noopener nofollow"&gt;Aaron Lewis’ life&lt;/a&gt;. Who talks of his own struggles with addiction and overcoming them. A song about moving on and not wanting to go back to that former life.&lt;/p&gt;\n\n&lt;p&gt;It Was also the bands second Top 40 hit, reaching #24 on the Billboard 100.&lt;/p&gt;', 'producers': [{'name': 'Josh Abraham', 'url': 'https://genius.com/artists/Josh-abraham'}], 'writers': [{'name': 'Aaron Lewis', 'url': 'https://genius.com/artists/Aaron-lewis'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Finger-eleven-paralyzer-lyrics', 'lyrics': "[Verse 1]\nI hold on so nervously to me and my drink\nI wish it was cooling me\nBut so far has not been good, it's been shitty\nAnd I feel awkward as I should\nThis club has got to be the most pretentious thing\nSince I thought you and me\n\n[Pre-Chorus]\nWell, I am imagining a dark lit place\nOr your place or my place\n\n[Chorus]\nWell, I'm not paralyzed, but I seem to be struck by you\nI wanna make you move because you're standing still\nIf your body matches what your eyes can do\nYou'll probably move right through me on my way to you\n\n[Verse 2]\nI hold out for one more drink, before I think\nI'm looking too desperately\nBut so far has not been fun, I should just stay home\nIf one thing really means one\nThis club will hopefully be closed in three weeks\nThat would be cool with me\n[Pre-Chorus]\nWell, I'm still imagining a dark lit place\nOr your place or my place\n\n[Chorus]\nWell, I'm not paralyzed, but I seem to be struck by you\nI wanna make you move because you're standing still\nIf your body matches what your eyes can do\nYou'll probably move right through me on my way to you\n\n[Instrumental]\n\n[Chorus]\nWell, I'm not paralyzed, but I seem to be struck by you\nI wanna make you move because you're standing still\nIf your body matches what your eyes can do\nYou'll probably move right through me on my way to you\nNot paralyzed, but I seem to be struck by you\nI wanna make you move because you're standing still\nIf your body matches what your eyes can do\nYou'll probably move right through me on my way to you\n\n[Outro]\nYou'll probably move right through me on my way to you\nYou'll probably move right through me on my way to you", 'annotations': {'description': '&lt;p&gt;“&lt;em&gt;Paralyzer&lt;/em&gt;” is the first single of Finger Eleven’s third album, Them vs. You vs. Me.&lt;/p&gt;\n\n&lt;p&gt;This was Finger Eleven’s first #1 on the Billboard Mainstream Rock and Modern Rock charts.&lt;/p&gt;\n\n&lt;p&gt;The song was also named iTunes #1 rock song and #8 overall of 2007.&lt;/p&gt;', 'producers': [{'name': 'Johnny K', 'url': 'https://genius.com/artists/Johnny-k'}], 'writers': [{'name': 'Rick Jackett', 'url': 'https://genius.com/artists/Rick-jackett'}, {'name': 'James Black', 'url': 'https://genius.com/artists/James-black'}, {'name': 'Rich Beddoe', 'url': 'https://genius.com/artists/Rich-beddoe'}, {'name': 'Sean Anderson', 'url': 'https://genius.com/artists/Sean-anderson'}, {'name': 'Scott Anderson', 'url': 'https://genius.com/artists/Scott-anderson'}], 'labels': [{'name': 'Wind-up Records', 'url': 'https://genius.com/artists/Wind-up-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/3-doors-down-when-im-gone-lyrics', 'lyrics': "[Verse 1]\nThere's another world inside of me that you may never see\nThere's secrets in this life that I can't hide\nBut somewhere in this darkness\nThere's a light that I can't find\nWell maybe it's too far away, yeah\nOr maybe I'm just blind\nOr maybe I'm just blind\n\n[Chorus]\nSo hold me when I'm here\nRight me when I'm wrong\nHold me when I'm scared\nAnd love me when I'm gone\nEverything I am and everything in me\nWants to be the one you wanted me to be\nI'd never let you down\nEven if I could\nI'd give up everything\nIf only for your good\nSo hold me when I'm here\nRight me when I'm wrong\nYou can hold me when I'm scared\nYou won't always be there\nSo love me when I'm gone\nLove me when I'm gone\n[Verse 2]\nWhen your education x-ray\nCannot see under my skin\nI won't tell you a damn thing\nThat I could not tell my friends\nRoaming through this darkness\nI'm alive, but I'm alone\nAnd part of me is fighting this\nBut part of me is gone\n\n[Chorus]\nSo hold me when I'm here\nRight me when I'm wrong\nHold me when I'm scared\nAnd love me when I'm gone\nEverything I am and everything in me\nWants to be the one you wanted me to be\nI'd never let you down\nEven if I could\nI'd give up everything\nIf only for your good\nSo hold me when I'm here\nRight me when I'm wrong\nYou can hold me when I'm scared\nYou won't always be there\nSo love me when I'm gone\nLove me when I'm gone\n[Refrain]\nOr maybe I'm just blind\n\n[Chorus]\nSo hold me when I'm here\nRight me when I'm wrong\nHold me when I'm scared\nAnd love me when I'm gone\nEverything I am and everything in me\nWants to be the one you wanted me to be\nI'd never let you down\nEven if I could\nI'd give up everything\nIf only for your good\nSo hold me when I'm here\nRight me when I'm wrong\nYou can hold me when I'm scared\nYou won't always be there\nSo love me when I'm gone\nLove me when I'm gone\nLove me when I'm gone\n\n[Outro]\nLove me when I'm gone\nWhen I'm gone\nWhen I'm gone\nWhen I'm gone", 'annotations': {'description': '&lt;p&gt;3 Doors Down are not one hit wonders. There was a period during the early 2000’s when they ruled the airwaves, and “When I’m Gone” is living proof. It shot to number 4 on the &lt;em&gt;US Billboard 100,&lt;/em&gt; on the back of a &lt;a href="https://www.youtube.com/watch?v=pFq1eT9tMJ4" rel="noopener nofollow"&gt;music video&lt;/a&gt; shot during a live performance on the war ship U.S.S. George Washington in 2002. Maybe the patriotism of the performance helped.&lt;/p&gt;\n\n&lt;p&gt;The song can easily be viewed with the military in mind. As US soldiers spend long months overseas, the chorus of “So hold me when I’m here…. And love me when I’m gone” is significant; a plea for partners left back home to never forget their brave heroes fighting on foreign soil.&lt;/p&gt;', 'producers': [{'name': 'Rick Parashar', 'url': 'https://genius.com/artists/Rick-parashar'}], 'writers': [{'name': 'Todd Harrell', 'url': 'https://genius.com/artists/Todd-harrell'}, {'name': 'Matt Roberts', 'url': 'https://genius.com/artists/Matt-roberts'}, {'name': 'Chris Henderson', 'url': 'https://genius.com/artists/Chris-henderson'}, {'name': 'Brad Arnold', 'url': 'https://genius.com/artists/Brad-arnold'}], 'labels': []}}</t>
+    <t>Coldplay</t>
+  </si>
+  <si>
+    <t>Stardust</t>
+  </si>
+  <si>
+    <t>Ellie Goulding</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>Irene Cara</t>
+  </si>
+  <si>
+    <t>MGMT</t>
+  </si>
+  <si>
+    <t>Metro Station</t>
+  </si>
+  <si>
+    <t>Palaye Royale</t>
+  </si>
+  <si>
+    <t>Ariana Grande</t>
+  </si>
+  <si>
+    <t>Pitbull</t>
+  </si>
+  <si>
+    <t>Twenty One Pilots</t>
+  </si>
+  <si>
+    <t>Alien Ant Farm</t>
+  </si>
+  <si>
+    <t>Pixies</t>
+  </si>
+  <si>
+    <t>Owl City</t>
+  </si>
+  <si>
+    <t>Nelly</t>
+  </si>
+  <si>
+    <t>Niall Horan</t>
+  </si>
+  <si>
+    <t>Roxette</t>
+  </si>
+  <si>
+    <t>Robbie Williams</t>
+  </si>
+  <si>
+    <t>Lady Gaga</t>
+  </si>
+  <si>
+    <t>Adele</t>
+  </si>
+  <si>
+    <t>Cage The Elephant</t>
+  </si>
+  <si>
+    <t>{"url": "https://genius.com/Man-with-a-mission-dead-end-in-tokyo-lyrics", "lyrics": "[Bridge]\nIn a dead end street in Tokyo\nI finished my bottle all alone\nWhere I'll end up well I just don't know\nAnother dead end in Tokyo\n\n[Verse 1]\nThere's a thousand glowing street signs all in a row\nAnd there's a rich man tossing to the people below\nHe's just standing at his window sipping Dom Perignon\nBecause he feels like the king of Kabukicho\nWohohohohohoh\n\n[Pre-Chorus]\nShe's got a suitcase full of big dreams\nShe's in a city full of bigger lies\nHe's Shinjuku's James Dean\nKeep on living but you never leave alive\n\n[Chorus]\nHey mister, I got it\nWhatever it is you want\nDream on, chaotic\nJust another dead end in Tokyo\n(Tururututu)\nJust another dead end in Tokyo\n(Tururututu)\nJust another dead end in Tokyo\n[Verse 2]\nOne thousand tired people all scattered like rats\nAnd there's a drunk man sleeping in a pile of trash\nHe hears the sounds of Karaoke and a Mercedes Benz\nHe wakes up and checks his reflection in a broken glass\nWohohohohohoh\n\n[Pre-Chorus]\nShe's got a suitcase full of big dreams\nShe's in a city full of bigger lies\nHe's Shinjuku's James Dean\nKeep on living but you never leave alive\n\n[Chorus]\nHey mister, I got it\nWhatever it is you want\nDream on, chaotic\nJust another dead end in Tokyo\nSister, you've got it\nI can take you anywhere you want\nDream on, exotic\nJust another dead end in Tokyo\n(Tururututu)\nJust another dead end in Tokyo\n(Tururututu)\nJust another dead end in Tokyo\n[Bridge]\nIn a dead end street in Tokyo\nI finished my bottle all alone\nWhere I'll end up well I just don't know\nAnother dead end in Tokyo\n\n[Instrumental break]\n\n[Pre-Chorus]\nShe's got a suitcase full of big dreams\nShe's in a city full of bigger lies\nHe's Shinjuku's James Dean\nKeep on living but you never leave alive\n\n[Chorus]\nHey mister, I got it\nWhatever it is you want\nDream on, chaotic\nJust another dead end in Tokyo\nSister, you've got it\nI can take you anywhere you want\nDream on, exotic\nJust another dead end in Tokyo\n(Tururututu)\nJust another dead end in Tokyo\n(Tururututu)\nJust another dead end in Tokyo", "annotations": {"description": "&lt;p&gt;Single that prior came out in Japan only.&lt;br&gt;\nIt then was published world-wide on the band official VEVO channel.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src=\"https://images.genius.com/c8150f6b16d4afbd782e2c469cf5f2bc.640x640x1.jpg\" alt=\"\" width=\"640\" height=\"640\" data-animated=\"false\"&gt;&lt;/p&gt;", "producers": [{"name": "Patrick Stump", "url": "https://genius.com/artists/Patrick-stump"}, {"name": "MAN WITH A MISSION", "url": "https://genius.com/artists/Man-with-a-mission"}], "writers": [{"name": "Patrick Stump", "url": "https://genius.com/artists/Patrick-stump"}, {"name": "Jean-Ken Johnny", "url": "https://genius.com/artists/Jean-ken-johnny"}, {"name": "Kamikaze Boy", "url": "https://genius.com/artists/Kamikaze-boy"}], "labels": []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Sublime-what-i-got-lyrics', 'lyrics': "[Intro]\nFuck, you can't even sing\n\n[Verse 1]\nEarly in the mornin', risin' to the street\nLight me up that cigarette and I'll strap shoes on my feet\nGot to find the reason, reason things went wrong\nGot to find a reason why my money's all gone\nI got a dalmatian and I can still get high\nI can play the guitar like a motherfuckin' riot\n\n[Verse 2]\nWell, life is (too short), so love the one you got\n'Cause you might get run over or you might get shot\nNever start no static, I just get it off my chest\nNever had to battle with no bulletproof vest\nTake a small example, take a ti-ti-ti-tip from me\nTake all of your money, give it all to charity-ty-ty-ty\nLove is what I got, it's within my reach\nAnd the Sublime style's still straight from Long Beach\nIt all comes back to you, you're bound to get what you deserve\nTry and test that, you're bound to get served\nLove's what I got, don't start a riot\nYou'll feel it when the dance gets hot\n\n[Chorus]\nLovin' is what I got\nI said, remember that\nLovin' is what I got\nAnd remember that\nLovin' is what I got\nI said, remember that\nLovin' is what I got\n(I got, I got, I got)\n[Verse 3]\nWhy I don't cry when my dog runs away\nI don't get angry at the bills I have to pay\nI don't get angry when my mom smokes pot\nHits the bottle and goes right to the rock\nFuckin' and fightin'; it's all the same\nLiving with Louie Dog's the only way to stay sane\nLet the lovin', let the lovin' come back to me\n\n[Chorus]\nLovin' is what I got\nI said, remember that\nLovin' is what I got\nAnd remember that\nLovin' is what I got\nI said remember that\nLovin' is what I got\n(I got, I got, I got)", 'annotations': {'description': '&lt;p&gt;The quintessential Sublime song, expressing love for Lou Dog and weed and hope for a simple life, while containing multiple samples and covers. RIP Bradley Nowell (verily, &lt;a href="https://genius.com/lyrics/Too-short/Life-is-too-short" rel="noopener" data-api_path="/songs/1626"&gt;life is too short..&lt;/a&gt;)&lt;/p&gt;\n\n&lt;p&gt;The song’s hook is almost a complete cover of reggae artist &lt;a href="http://en.wikipedia.org/wiki/Half_Pint" rel="noopener nofollow"&gt;Half-Pint&lt;/a&gt;’s song “Loving”.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://www.youtube.com/watch?v=PyPtaB_Q4Wk" rel="noopener nofollow"&gt;https://www.youtube.com/watch?v=PyPtaB_Q4Wk&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;The melody is the same as &lt;a href="https://genius.com/artists/The-beatles" rel="noopener" data-api_path="/artists/586"&gt;The Beatles&lt;/a&gt;‘ &lt;a href="http://www.youtube.com/watch?v=VfthrizXKOM" rel="noopener nofollow"&gt;“Lady Madonna”&lt;/a&gt;, although it isn’t officially listed in the samples.&lt;/p&gt;', 'producers': [{'name': 'David Kahne', 'url': 'https://genius.com/artists/David-kahne'}], 'writers': [{'name': 'Floyd Gaugh', 'url': 'https://genius.com/artists/Floyd-gaugh'}, {'name': 'Eric Wilson', 'url': 'https://genius.com/artists/Eric-wilson'}, {'name': 'Half Pint', 'url': 'https://genius.com/artists/Half-pint'}, {'name': 'Bradley Nowell', 'url': 'https://genius.com/artists/Bradley-nowell'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Nena-99-luftballons-lyrics', 'lyrics': "[Songtext zu „99 Luftballons“]\n\n[Strophe 1]\nHast du etwas Zeit für mich?\nDann singe ich ein Lied für dich\nVon 99 Luftballons\nAuf ihrem Weg zum Horizont\nDenkst du vielleicht grad an mich?\nDann singe ich ein Lied für dich\nVon 99 Luftballons\nUnd, dass sowas von sowas kommt\n\n[Strophe 2]\n99 Luftballons\nAuf ihrem Weg zum Horizont\nHielt man für Ufos aus dem All\nDarum schickte ein General\n'ne Fliegerstaffel hinterher\nAlarm zu geben, wenn's so wär\nDabei war'n dort am Horizont\nNur 99 Luftballons\n\n[Strophe 3]\n99 Düsenflieger\nJeder war ein großer Krieger\nHielten sich für Captain Kirk\nEs gab ein großes Feuerwerk\nDie Nachbarn haben nichts gerafft\nUnd fühlten sich gleich angemacht\nDabei schoss man am Horizont\nAuf 99 Luftballons\n[Strophe 4]\n99 Kriegsminister\nStreichholz und Benzinkanister\nHielten sich für schlaue Leute\nWitterten schon fette Beute\nRiefen, „Krieg!“, und wollten Macht\nMann, wer hätte das gedacht?\nDass es einmal so weit kommt\nWegen 99 Luftballons\n\n[Bridge]\nWegen 99 Luftballons\n99 Luftballons\n\n[Outro]\n99 Jahre Krieg\nLießen keinen Platz für Sieger\nKriegsminister gibt's nicht mehr\nUnd auch keine Düsenflieger\nHeute zieh' ich meine Runden\nSeh' die Welt in Trümmern liegen\nHab' 'n Luftballon gefunden\nDenk' an dich und lass' ihn fliegen", 'annotations': {'description': '&lt;p&gt;Nenas Anti-Kriegs-Hymne „99 Luftballons“ wurde 1983 zu Zeiten des &lt;a href="https://www.planet-wissen.de/geschichte/deutsche_geschichte/kalter_krieg/index.html" rel="noopener nofollow"&gt;Kalten Krieges&lt;/a&gt; geschrieben.&lt;/p&gt;\n\n&lt;p&gt;Die in den Himmel fliegenden Luftballons sind die Idee von &lt;a href="https://genius.com/artists/Carlo-karges" rel="noopener" data-api_path="/artists/876821"&gt;Carlo Karges&lt;/a&gt;, Nenas Gitarristen, gewesen. Die Inspiration stammt von der Europa-Tour der &lt;a href="https://genius.com/artists/The-rolling-stones" rel="noopener" data-api_path="/artists/774"&gt;Rolling Stones&lt;/a&gt; für ihr Album &lt;a href="https://genius.com/albums/The-rolling-stones/Tattoo-you" rel="noopener" data-api_path="/albums/26115"&gt;&lt;em&gt;Tattoo You&lt;/em&gt;&lt;/a&gt;. Unter Anderem bei dem Konzert in der Waldbühne in Berlin, wurden bei dem Lied &lt;a href="https://genius.com/The-rolling-stones-i-cant-get-no-satisfaction-lyrics" rel="noopener" data-api_path="/songs/1544"&gt;„(I Can’t Get No) Satisfaction“&lt;/a&gt;, &lt;a href="https://youtu.be/qAzqSYQ9X9U" rel="noopener nofollow"&gt;Luftballons auf die Bühne und in die Menge fallen gelassen&lt;/a&gt;. Karges hat sich &lt;a href="https://www.spiegel.de/spiegel/print/d-13510424.html" rel="noopener nofollow"&gt;vorgestellt&lt;/a&gt;, wie die Ballons über die Berliner Mauer fliegen und dort mit Waffen verwechselt werden, sodass der Dritte Welt Krieg ausbricht.&lt;/p&gt;\n\n&lt;p&gt;Trotz der deutschen Sprache wurde das Lied international verstanden, sodass „99 Luftballons“ zum Beispiel auch im Vereinigten Königreich oder Kanada die &lt;a href="https://en.wikipedia.org/wiki/99_Luftballons#Chart_positions" rel="noopener nofollow"&gt;#1 der Charts&lt;/a&gt; erreichen konnte.&lt;/p&gt;\n\n&lt;p&gt;Auf Grund dessen wurde später eine &lt;a href="https://genius.com/Nena-99-red-balloons-lyrics" rel="noopener" data-api_path="/songs/192360"&gt;englische Version&lt;/a&gt; aufgenommen. Durch leichte Änderungen im Textinhalt für den Erhalt der Melodie, büßt die englische Version in den Augen vieler Hörer an der Atmosphäre ein und kann daher nicht mit dem Erfolg des deutschen Originals mithalten.&lt;/p&gt;\n\n&lt;hr&gt;\n\n&lt;p&gt;English translation:&lt;/p&gt;\n\n&lt;p&gt;The German anti-war anthem by Nena was published in 1983 during &lt;a href="https://www.history.com/topics/cold-war/cold-war-history" rel="noopener nofollow"&gt;The Cold War&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The balloons flying into the sky were the idea of &lt;a href="https://genius.com/artists/Carlo-karges" rel="noopener" data-api_path="/artists/876821"&gt;Carlo Karges&lt;/a&gt;, Nena’s guitarist. The inspiration is taken from the European tour of the &lt;a href="https://genius.com/artists/The-rolling-stones" rel="noopener" data-api_path="/artists/774"&gt;Rolling Stones&lt;/a&gt; for their album &lt;a href="https://genius.com/albums/The-rolling-stones/Tattoo-you" rel="noopener" data-api_path="/albums/26115"&gt;&lt;em&gt;Tattoo You&lt;/em&gt;&lt;/a&gt;. Among other locations, &lt;a href="https://youtu.be/qAzqSYQ9X9U" rel="noopener nofollow"&gt;balloons were released&lt;/a&gt; onto the stage and into the crowd during their song &lt;a href="https://genius.com/The-rolling-stones-i-cant-get-no-satisfaction-lyrics" rel="noopener" data-api_path="/songs/1544"&gt;“(I Can’t Get No) Satisfaction”&lt;/a&gt; in Berlin. Karges &lt;a href="https://www.spiegel.de/spiegel/print/d-13510424.html" rel="noopener nofollow"&gt;has imagined&lt;/a&gt;, how the balloons would fly over the Berlin Wall and be mistaken for enemy missiles, causing World War III.&lt;/p&gt;\n\n&lt;p&gt;Despite being in German, the song was understood internationally. It rose to &lt;a href="https://en.wikipedia.org/wiki/99_Luftballons#Chart_positions" rel="noopener nofollow"&gt;#1 in the charts&lt;/a&gt; of the United Kingdom and Canada for example.&lt;/p&gt;\n\n&lt;p&gt;Because of this, an &lt;a href="https://genius.com/Nena-99-red-balloons-lyrics" rel="noopener" data-api_path="/songs/192360"&gt;English version&lt;/a&gt; was recorded. Due to small lyric changes to keep the rhythm, many listeners find the English version as lacking in the special atmosphere which is why it couldn’t keep up with the success of the German original.&lt;/p&gt;', 'producers': [{'name': 'Manne Praeker', 'url': 'https://genius.com/artists/Manne-praeker'}, {'name': 'Reinhold Heil', 'url': 'https://genius.com/artists/Reinhold-heil'}], 'writers': [{'name': 'Jörn-Uwe Fahrenkrog-Petersen', 'url': 'https://genius.com/artists/Jorn-uwe-fahrenkrog-petersen'}, {'name': 'Carlo Karges', 'url': 'https://genius.com/artists/Carlo-karges'}], 'labels': [{'name': 'Epic Records', 'url': 'https://genius.com/artists/Epic-records'}]}}</t>
   </si>
   <si>
     <t>{'url': 'https://genius.com/Nickelback-how-you-remind-me-lyrics', 'lyrics': '[Verse 1]\nNever made it as a wise man\nI couldn\'t cut it as a poor man stealing\nTired of livin\' like a blind man\nI\'m sick of sight without a sense of feeling\nAnd this is how you remind me\n\n[Pre-Chorus]\nThis is how you remind me of what I really am\nThis is how you remind me of what I really am\n\n[Chorus]\nIt\'s not like you to say sorry\nI was waitin\' on a different story\nThis time I\'m mistaken\nFor handing you a heart worth breakin\'\nAnd I\'ve been wrong, I\'ve been down\nBeen to the bottom of every bottle\nThese five words in my head\nScream, "Are we havin\' fun yet?"\n\n[Post-Chorus]\nYet, yet, yet, no, no\nYet, yet, yet, no, no\n\n[Verse 2]\nIt\'s not like you didn\'t know that\nI said, "I love you," and I swear I still do\nAnd it must have been so bad\n\'Cause livin\' with me must have damn near killed you\n[Pre-Chorus]\nAnd this is how you remind me of what I really am\nThis is how you remind me of what I really am\n\n[Chorus]\nIt\'s not like you to say sorry\nI was waitin\' on a different story\nThis time I\'m mistaken\nFor handing you a heart worth breakin\'\nAnd I\'ve been wrong, I\'ve been down\nBeen to the bottom of every bottle\nThese five words in my head\nScream, "Are we havin\' fun yet?"\n\n[Post-Chorus]\nYet, yet, yet, no, no\nYet, yet, yet, no, no\nYet, yet, yet, no, no\nYet, yet, yet, no, no\n\n[Bridge]\nNever made it as a wise man\nI couldn\'t cut it as a poor man stealin\'\nAnd this is how you remind me\nThis is how you remind me\n[Pre-Chorus]\nThis is how you remind me of what I really am\nThis is how you remind me of what I really am\n\n[Chorus]\nIt\'s not like you to say sorry\nI was waitin\' on a different story\nThis time I\'m mistaken\nFor handing you a heart worth breakin\'\nAnd I\'ve been wrong, I\'ve been down\nBeen to the bottom of every bottle\nThese five words in my head\nScream, "Are we havin\' fun yet?"\n\n[Outro]\nYet, yet, are we havin\' fun yet?\nYet, yet, are we havin\' fun yet?\nYeah, yeah (These five words in my head scream)\nAre we havin\' fun yet?\nYeah, yeah (These five words in my head)\nNo, no', 'annotations': {'description': '&lt;p&gt;Nickelback’s breakout single and probably still their biggest song. It hit #1 at the Hot 100 for four weeks and &lt;a href="https://en.wikipedia.org/wiki/Billboard_Year-End_Hot_100_singles_of_2002" rel="noopener nofollow"&gt;ended as the top song of 2002&lt;/a&gt; after 22 weeks in the Top 10.&lt;/p&gt;\n\n&lt;p&gt;In an interview with MTV, Nickelback’s lead singer Chad Kroeger said that he wrote the song about his old girlfriend Jodi, who he had a rather dysfunctional relationship with. He kept the lyrics very ambiguous, however, which accounts for much of the song’s success, as many people could relate to an ex who started pointing out all of your faults at the same time and caused considerable heartbreak: “This time I’m mistaken, for handing you a heart worth breaking.” Silver Side Up was Nickelback’s third album, and many of the songs were about relationships and personal issues.&lt;/p&gt;', 'producers': [{'name': 'Rick Parashar', 'url': 'https://genius.com/artists/Rick-parashar'}], 'writers': [{'name': 'Ryan Vikedal', 'url': 'https://genius.com/artists/Ryan-vikedal'}, {'name': 'Ryan Peake', 'url': 'https://genius.com/artists/Ryan-peake'}, {'name': 'Mike Kroeger', 'url': 'https://genius.com/artists/Mike-kroeger'}, {'name': 'Chad Kroeger', 'url': 'https://genius.com/artists/Chad-kroeger'}], 'labels': [{'name': 'EMI Group Limited', 'url': 'https://genius.com/artists/Emi-group-limited'}, {'name': 'Roadrunner Records', 'url': 'https://genius.com/artists/Roadrunner-records'}]}}</t>
   </si>
   <si>
-    <t>{'url': 'https://genius.com/Foo-fighters-the-pretender-lyrics', 'lyrics': "[Intro]\nKeep you in the dark, you know they all pretend\nKeep you in the dark and so it all began\n\n[Verse 1]\nSend in your skeletons\nSing as their bones go marching in again\nThey need you buried deep\nThe secrets that you keep are at the ready\nAre you ready?\nI'm finished making sense\nDone pleading ignorance, that whole defense\nSpinning infinity, boy\nThe wheel is spinning me\nIt's never ending, never ending\nSame old story\n\n[Chorus]\nWhat if I say I'm not like the others?\nWhat if I say I'm not just another one of your plays?\nYou're the pretender\nWhat if I say I will never surrender?\nWhat if I say I'm not like the others?\nWhat if I say I'm not just another one of your plays?\nYou're the pretender\nWhat if I say that I'll never surrender?\n[Verse 2]\nIn time or so I'm told\nI'm just another soul for sale, oh well\nThe page is out of print\nWe are not permanent, we're temporary, temporary\nSame old story\n\n[Chorus]\nWhat if I say I'm not like the others?\nWhat if I say I'm not just another one of your plays?\nYou're the pretender\nWhat if I say I will never surrender?\nWhat if I say I'm not like the others?\nWhat if I say I'm not just another one of your plays?\nYou're the pretender\nWhat if I say I will never surrender?\n\n[Bridge]\nI'm the voice inside your head\nYou refuse to hear\nI'm the face that you have to face\nMirroring your stare\nI'm what's left, I'm what's right\nI'm the enemy\nI'm the hand that'll take you down\nBring you to your knees\nSo who are you?\nYeah, who are you?\nYeah, who are you?\nYeah, who are you?\nKeep you in the dark\nYou know they all pretend\n[Chorus]\nWhat if I say I'm not like the others?\nWhat if I say I'm not just another one of your plays?\nYou're the pretender\nWhat if I say I will never surrender?\nWhat if I say I'm not like the others?\nWhat if I say I'm not just another one of your plays?\nYou're the pretender\nWhat if I say I will never surrender?\n[Outro]\nWhat if I say I'm not like the others? (Keep you in the dark)\nWhat if I say I'm not just another one of your plays? (You know they all)\nYou're the pretender (Pretend)\nWhat if I say I will never surrender?\nWhat if I say I'm not like the others? (Keep you in the dark)\nWhat if I say I'm not just another one of your plays? (You know they all)\nYou're the pretender (Pretend)\nWhat if I say I will never surrender?\nSo who are you?\nYeah, who are you?\nYeah, who are you?", 'annotations': {'description': '&lt;p&gt;“The Pretender” was a late addition to the Foo Fighters\' sixth album, but &lt;a href="http://www.mtv.com/news/articles/1581020/foo-fighters-pretender-behind-grammys.jhtml" rel="noopener nofollow"&gt;once recorded soon started growing in importance,&lt;/a&gt; becoming the leading single off &lt;em&gt;Echoes, Silence, Patience &amp;amp; Grace&lt;/em&gt; and a mainstay of the band’s concerts.&lt;/p&gt;', 'producers': [{'name': 'Gil Norton', 'url': 'https://genius.com/artists/Gil-norton'}], 'writers': [{'name': 'Chris Shiflett', 'url': 'https://genius.com/artists/Chris-shiflett'}, {'name': 'Nate Mendel', 'url': 'https://genius.com/artists/Nate-mendel'}, {'name': 'Taylor Hawkins', 'url': 'https://genius.com/artists/Taylor-hawkins'}, {'name': 'Dave Grohl', 'url': 'https://genius.com/artists/Dave-grohl'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Pillar-frontline-lyrics', 'lyrics': "[Verse 1]\nIt's like I'm walkin' alone into the valley of the shadow of death\nStand beside one another, cause it ain't over yet\nI'd be willing to bet that if we don't back down\nYou and I'll be the ones that are holding the crown in the end\nWhen it's over, we can say well done\nBut not yet cause it's only begun\nSo pick up and follow me, we're the only ones\nTo fight this thing until we've won\nWe drive on and don't look back\nIt doesn't mean we can't learn from our past\nAnd all the things that we might've done wrong\nWe could've been doing this all along\n\n[Chorus]\nEverybody with your fist raised high\nLet me hear your battle cry tonight\nStand beside or step aside\nFrom the frontline\nEverybody with your fist raised high\nLet me hear your battle cry tonight\nStand beside or step aside\nFrom the frontline\n\n[Verse 2]\nAnd we'll be carrying on until the day it doesn't matter anymore\nStep aside, if you forgot what this is for\nWe fight to live we live to fight\nAnd tonight you'll hear my battle cry\nWe live our lives on the frontlines\nWe're not afraid of the fast times\nThese days have opened up my eyes\nAnd now I see where the threat lies\n[Chorus]\nEverybody with your fist raised high\nLet me hear your battle cry tonight\nStand beside or step aside\nFrom the frontline\nEverybody with your fist raised high\nLet me hear your battle cry tonight\nStand beside or step aside\nFrom the frontline\n\n[Bridge]\nWe live our lives on the frontlines\nWe're not afraid of the fast times\nWe live our lives on the frontlines\nWe're not afraid\n(Oh)\nWe've got to lead the way\n(Oh)\nWe've got to lead the way\n\n[Chorus]\nEverybody with your fist raised high\nLet me hear your battle cry tonight\nStand beside or step aside\nFrom the frontline\nEverybody with your fist raised high\nLet me hear your battle cry tonight\nStand beside or step aside\nFrom the frontline\nEverybody with your fist raised high\nStand aside\nOn the frontline\nEverybody with your fist raised high\nLet me hear your battle cry\nEverybody with your fist raised high\nLet me hear your battle cry tonight\nStand beside or step aside\nFrom the frontline", 'annotations': {'description': '', 'producers': [{'name': 'Travis Wyrick', 'url': 'https://genius.com/artists/Travis-wyrick'}, {'name': 'Pillar', 'url': 'https://genius.com/artists/Pillar'}], 'writers': [{'name': 'Pillar', 'url': 'https://genius.com/artists/Pillar'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Staind-right-here-lyrics', 'lyrics': "[Verse 1]\nI know I've been mistaken\nBut just give me a break and see the changes that I've made\nI've got some imperfections\nBut how could you collect them all and throw them in my face?\n\n[Chorus]\nBut you always find a way\nTo keep me right here waiting\nYou always find the words to say\nTo keep me right here waiting\nAnd if you chose to walk away\nI'd still be right here waiting\nSearching for the things to say\nTo keep you right here waiting\n\n[Verse 2]\nI hope you're not intending\nTo be so condescending, it's as much as I can take\nBut you're so independent\nYou just refuse to bend so I keep bending 'til I break\n\n[Chorus]\nBut you always find a way\nTo keep me right here waiting\nYou always find the words to say\nTo keep me right here waiting\nIf you chose to walk away\nI'd still be right here waiting\nSearching for the things to say\nTo keep you right here waiting\n[Bridge]\nI've made a commitment\nI'm willing to bleed for you\nI needed fulfillment\nI found what I need in you\nWhy can't you just forgive me?\nI don't want to relive all the mistakes I've made\nAlong the way\nBut I always find a way\nTo keep you right here waiting\nI always find the words to say\nTo keep you right here waiting\n\n[Chorus]\nBut you always find a way\nTo keep me right here waiting\nYou always find the words to say\nTo keep me right here waiting\nAnd if I chose to walk away\nWould you be right here waiting?\nSearching for the things to say\nTo keep me right here waiting", 'annotations': {'description': '&lt;p&gt;The first single off of the 2005 album “Chapter V” and Staind’s third most successful song (“So Far Away” and “It’s Been Awhile”) is a song about loving someone no matter what terrible things that they do to you or put you through.&lt;/p&gt;\n\n&lt;p&gt;It’s a pseudo-ballad with down tempo rhythms and an up tempo chorus. Lewis’ voice is haunting and painful and is backed by whirling licks.&lt;/p&gt;\n\n&lt;p&gt;Billboard accomplishments are #9 on &lt;a href="https://www.billboard.com/music/staind" rel="noopener nofollow"&gt;the Mainstream Top 40&lt;/a&gt;, #55 on &lt;a href="https://www.billboard.com/music/staind" rel="noopener nofollow"&gt;the Hot 100&lt;/a&gt; and #3 on &lt;a href="https://www.billboard.com/music/staind" rel="noopener nofollow"&gt;Alternative Songs&lt;/a&gt;.&lt;/p&gt;', 'producers': [{'name': 'David Bottrill', 'url': 'https://genius.com/artists/David-bottrill'}, {'name': 'Staind', 'url': 'https://genius.com/artists/Staind'}], 'writers': [{'name': 'Aaron Lewis', 'url': 'https://genius.com/artists/Aaron-lewis'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Shinedown-second-chance-lyrics', 'lyrics': '[Verse 1]\nMy eyes are open wide\nBy the way, I made it through the day\nI watched the world outside\nBy the way, I\'m leaving out today\n\n[Pre-Chorus]\nWell, I just saw Halley\'s comet, she waved\nSaid, "Why you always runnin\' in place?"\nEven the man in the moon disappeared\nSomewhere in the stratosphere\n\n[Chorus]\nTell my mother, tell my father\nI\'ve done the best I can\nTo make them realize, this is my life\nI hope they understand\n\n[Post-Chorus]\nI\'m not angry, I\'m just saying\nSometimes "Goodbye" is a second chance\n\n[Verse 2]\nPlease don\'t cry one tear for me\nI\'m not afraid of what I have to say\nThis is my one and only voice\nSo listen close, it\'s only for today\n[Pre-Chorus]\nWell, I just saw Halley\'s comet, she waved\nSaid, "Why you always runnin\' in place?"\nEven the man in the moon disappeared\nSomewhere in the stratosphere\n\n[Chorus]\nTell my mother, tell my father\nI\'ve done the best I can\nTo make them realize, this is my life\nI hope they understand\n\n[Post-Chorus]\nI\'m not angry, I\'m just saying\nSometimes "Goodbye" is a second chance\n\n[Bridge]\nHere\'s my chance\nThis is my chance\n\n[Chorus]\nTell my mother, tell my father\nI\'ve done the best I can\nTo make them realize, this is my life\nI hope they understand\n[Post-Chorus]\nI\'m not angry, I\'m just saying\nSometimes "Goodbye" is a second chance\n\n[Outro]\nSometimes "Goodbye" is a second chance\nSometimes "Goodbye" is a second chance', 'annotations': {'description': '&lt;p&gt;“Second Chance” is the 2nd single from the &lt;a href="https://genius.com/albums/Shinedown/The-sound-of-madness" rel="noopener" data-api_path="/albums/11774"&gt;&lt;strong&gt;Sound of Madness&lt;/strong&gt;&lt;/a&gt; album.&lt;/p&gt;\n\n&lt;p&gt;The song was apparently the most popular on the album, receiving three platinum discs and one gold, as well as extremely high positions on peak charts.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://genius.com/artists/Shinedown" rel="noopener" data-api_path="/artists/12997"&gt;Shinedown&lt;/a&gt;’s lead singer &lt;a href="https://genius.com/artists/Brent-smith" rel="noopener" data-api_path="/artists/351336"&gt;Brent Smith&lt;/a&gt; told the audience at Pointfest 22 about the meaning of “Second Chance,” saying:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;It’s important for you to hear this… When I grew up, everyone was okay with being in a bubble. They were cool in their circle. That’s fine. But no one should discourage someone if they have a dream, if they want something more […] This song was difficult for me to write the lyrics to because it’s about my mother and father, and about the day I said goodbye to them, because I had to go try and I’m still trying every day to become a man. So, this song is about that. &lt;b&gt;It’s about the moment you wake up and you decide you want to go for every single dream you ever want&lt;/b&gt;.&lt;/p&gt;&lt;/blockquote&gt;', 'producers': [{'name': 'Rob Cavallo', 'url': 'https://genius.com/artists/Rob-cavallo'}], 'writers': [{'name': 'Dave Bassett', 'url': 'https://genius.com/artists/Dave-bassett'}, {'name': 'Brent Smith', 'url': 'https://genius.com/artists/Brent-smith'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Linkin-park-in-the-end-lyrics', 'lyrics': "[Verse 1: Mike Shinoda &amp; Chester Bennington]\n(It starts with one) One thing, I don't know why\nIt doesn't even matter how hard you try\nKeep that in mind, I designed this rhyme\nTo explain in due time all I know\nTime is a valuable thing\nWatch it fly by as the pendulum swings\nWatch it count down to the end of the day\nThe clock ticks life away, it's so unreal (It's so unreal)\nDidn't look out below\nWatch the time go right out the window\nTryin' to hold on, didn't even know\nI wasted it all just to watch you go\n\n[Pre-Chorus: Mike Shinoda]\nI kept everything inside\nAnd even though I tried, it all fell apart\nWhat it meant to me will eventually be\nA memory of a time when I tried so hard\n\n[Chorus: Chester Bennington]\nI tried so hard and got so far\nBut in the end it doesn't even matter\nI had to fall to lose it all\nBut in the end it doesn't even matter\n[Verse 2: Mike Shinoda &amp; Chester Bennington]\nOne thing, I don't know why\nIt doesn't even matter how hard you try\nKeep that in mind, I designed this rhyme\nTo remind myself how I tried so hard\nIn spite of the way you were mockin' me\nActin' like I was part of your property\nRememberin' all the times you fought with me\nI'm surprised it got so far\nThings aren't the way they were before\nYou wouldn't even recognize me anymore\nNot that you knew me back then\nBut it all comes back to me in the end\n\n[Pre-Chorus: Mike Shinoda]\nYou kept everything inside\nAnd even though I tried, it all fell apart\nWhat it meant to me will eventually be\nA memory of a time when I tried so hard\n\n[Chorus: Chester Bennington]\nI tried so hard and got so far\nBut in the end it doesn't even matter\nI had to fall to lose it all\nBut in the end it doesn't even matter\n[Bridge: Chester Bennington]\nI've put my trust in you\nPushed as far as I can go\nFor all this\nThere's only one thing you should know\nI've put my trust in you\nPushed as far as I can go\nFor all this\nThere's only one thing you should know\n\n[Chorus: Chester Bennington]\nI tried so hard and got so far\nBut in the end it doesn't even matter\nI had to fall to lose it all\nBut in the end it doesn't even matter", 'annotations': {'description': '&lt;p&gt;“In the End” is mainly based on one person’s failure.&lt;/p&gt;\n\n&lt;p&gt;Its most possible meaning is that it’s about time wasted on trying to build a relationship with a girl who doesn’t want to be with you.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://genius.com/artists/Mike-shinoda" rel="noopener" data-api_path="/artists/4431"&gt;Mike Shinoda&lt;/a&gt; said this about the song:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;I remember putting this together in our rehearsal studio on Hollywood and Vine, working overnight in a room with no windows. I had no idea what time of day it was; I just slept when I was tired, and worked on this song until it took shape. The first guy to hear it was Rob, who told me (I’m paraphrasing) that this was ‘exactly the kind of song he wanted us to write.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;&lt;a href="https://www.vmusic.com.au/linkin-park-qa" rel="noopener nofollow"&gt;During a Q&amp;amp;A&lt;/a&gt;, &lt;a href="https://genius.com/artists/Chester-bennington" rel="noopener" data-api_path="/artists/1015"&gt;Chester Bennington&lt;/a&gt; admitted that he wasn’t enthusiastic about this song:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;I don’t really participate in picking singles. I learnt that after making &lt;em&gt;Hybrid Theory&lt;/em&gt;. I was never a fan of “In the End” and I didn’t even want it to be on the record, honestly. How wrong could I have possibly been?&lt;/p&gt;&lt;/blockquote&gt;', 'producers': [{'name': 'Don Gilmore', 'url': 'https://genius.com/artists/Don-gilmore'}], 'writers': [{'name': 'Mr. Hahn', 'url': 'https://genius.com/artists/Mr-hahn'}, {'name': 'Rob Bourdon', 'url': 'https://genius.com/artists/Rob-bourdon'}, {'name': 'Mike Shinoda', 'url': 'https://genius.com/artists/Mike-shinoda'}, {'name': 'Chester Bennington', 'url': 'https://genius.com/artists/Chester-bennington'}, {'name': 'Brad Delson', 'url': 'https://genius.com/artists/Brad-delson'}], 'labels': [{'name': 'Warner Music Group', 'url': 'https://genius.com/artists/Warner-music-group'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Nickelback-someday-lyrics', 'lyrics': "[Verse 1]\nHow the hell'd we wind up like this?\nWhy weren't we able, to see the signs that we missed\nAnd try to turn the tables\nI wish you'd unclench your fists, and unpack your suitcase\nLately there's been too much of this\nBut don't think it's too late\n\n[Pre-Chorus]\nNothing's wrong\nJust as long\nAs you know that someday I will\n\n[Chorus]\nSomeday, somehow\nI'm gonna make it all right, but not right now\nI know you're wondering when\n(You're the only one who knows that)\nSomeday, somehow\nI'm gonna make it all right, but not right now\nI know you're wondering when\n\n[Verse 2]\nWell I'd hope that since we're here anyway\nThat we could end up saying\nThings we've always needed to say\nSo we could end up staying\nNow the story's played out like this\nJust like a paperback novel\nLet's rewrite an ending that fits\nInstead of a Hollywood horror\n[Pre-Chorus]\nNothing's wrong\nJust as long\nAs you know that someday I will\n\n[Chorus]\nSomeday, somehow\nI'm gonna make it all right, but not right now\nI know you're wondering when\n(You're the only one who knows that)\nSomeday, somehow\nI'm gonna make it all right, but not right now\nI know you're wondering when\nYou're the only one who knows that\n\n[Guitar Solo]\n\n[Verse 3]\nHow the hell'd we wind up like this?\nWhy weren't we able, to see the signs that we missed\nAnd try to turn the tables\nNow the story's played out like this\nJust like a paperback novel\nLet's rewrite an ending that fits\nInstead of a Hollywood horror\n[Pre-Chorus]\nNothing's wrong\nJust as long\nAs you know that someday I will\n\n[Chorus]\nSomeday, somehow\nI'm gonna make it all right, but not right now\nI know you're wondering when\n(You're the only one who knows that)\nSomeday, somehow\nI'm gonna make it all right, but not right now\nI know you're wondering when\n(You're the only one who knows that)\nI know you're wondering when\n(You're the only one who knows that)\nI know you're wondering when", 'annotations': {'description': '&lt;p&gt;The lyrics of “Someday” chronicle a lost promise; the singer talks about how a relationship failed and he wonders “how the hell’d we wind up like this”. He wishes that they could discuss their issues and that the relationship will come back someday, but that someday never comes.&lt;/p&gt;\n\n&lt;p&gt;“Someday” has reached #1 (where it stayed for three weeks) in Canada and #7 in the United States.&lt;/p&gt;', 'producers': [{'name': 'Joey Moi', 'url': 'https://genius.com/artists/Joey-moi'}, {'name': 'Nickelback', 'url': 'https://genius.com/artists/Nickelback'}], 'writers': [{'name': 'Ryan Vikedal', 'url': 'https://genius.com/artists/Ryan-vikedal'}, {'name': 'Mike Kroeger', 'url': 'https://genius.com/artists/Mike-kroeger'}, {'name': 'Chad Kroeger', 'url': 'https://genius.com/artists/Chad-kroeger'}, {'name': 'Ryan Peake', 'url': 'https://genius.com/artists/Ryan-peake'}], 'labels': [{'name': 'Roadrunner Records', 'url': 'https://genius.com/artists/Roadrunner-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Nero_Forte', 'track_name': 'Nero Forte', 'artist': 'http://dbpedia.org/resource/Slipknot_(band)', 'artist_name': 'Slipknot', 'wiki': 'http://en.wikipedia.org/wiki/Nero_Forte', 'hometown': 'http://dbpedia.org/resource/Des_Moines,_Iowa', 'released': '16 December 2019', 'producers': ['http://dbpedia.org/resource/Greg_Fidelman', 'Slipknot'], 'writers': ['http://dbpedia.org/resource/Corey_Taylor', 'http://dbpedia.org/resource/Jim_Root', 'http://dbpedia.org/resource/Shawn_Crahan'], 'labels': ['http://dbpedia.org/resource/Roadrunner_Records'], 'genres': ['http://dbpedia.org/resource/Nu_metal', 'http://dbpedia.org/resource/Rap_metal'], 'related_artists': ['http://dbpedia.org/resource/Alessandro_Venturella', 'http://dbpedia.org/resource/Axis_of_Justice', 'http://dbpedia.org/resource/Brandon_Darner', 'http://dbpedia.org/resource/Chris_Fehn', 'http://dbpedia.org/resource/Craig_Jones_(musician)', 'http://dbpedia.org/resource/Cry_for_Silence', 'http://dbpedia.org/resource/Dave_Fortman', 'http://dbpedia.org/resource/Dirty_Little_Rabbits', 'http://dbpedia.org/resource/Donnie_Steele', 'http://dbpedia.org/resource/Greg_Fidelman', 'http://dbpedia.org/resource/Jay_Weinberg', 'http://dbpedia.org/resource/Jim_Root', 'http://dbpedia.org/resource/Joey_Jordison', 'http://dbpedia.org/resource/Kid_Bookie', 'http://dbpedia.org/resource/Matt_Hyde_(British_producer)', 'http://dbpedia.org/resource/Mick_Thomson', 'http://dbpedia.org/resource/PCN_(band)', 'http://dbpedia.org/resource/Paul_Gray_(American_musician)', 'http://dbpedia.org/resource/Phil_Sgrosso', 'http://dbpedia.org/resource/Reggie_and_the_Full_Effect', 'http://dbpedia.org/resource/Ross_Robinson', 'http://dbpedia.org/resource/Shawn_Crahan', 'http://dbpedia.org/resource/Sid_Wilson', 'http://dbpedia.org/resource/Soulfly', 'http://dbpedia.org/resource/Sound_City_Players', 'http://dbpedia.org/resource/Stone_Sour', 'http://dbpedia.org/resource/Tech_N9ne', 'http://dbpedia.org/resource/Twelvestep', 'http://dbpedia.org/resource/Vimic', 'http://dbpedia.org/resource/Will_Haven'], 'abstract': '"Nero Forte" is a song by American heavy metal band Slipknot. Produced by Greg Fidelman, it was released as the fourth single from the band\'s sixth studio album We Are Not Your Kind on December 16, 2019.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Popular_Monster', 'track_name': 'Popular Monster', 'artist': 'http://dbpedia.org/resource/Falling_in_Reverse', 'artist_name': 'Falling in Reverse', 'wiki': 'http://en.wikipedia.org/wiki/Popular_Monster', 'hometown': 'http://dbpedia.org/resource/Nevada', 'released': '20 November 2019', 'producers': ['Tyler Smyth', 'Ronnie Radke'], 'writers': ['http://dbpedia.org/resource/Ronnie_Radke', 'Cody Quistad', 'Tyler Smyth'], 'awards': ['Platinum'], 'labels': ['http://dbpedia.org/resource/Epitaph_Records'], 'related_artists': ['http://dbpedia.org/resource/Charles_Kallaghan_Massabo', 'http://dbpedia.org/resource/Derek_Jones_(musician)', 'http://dbpedia.org/resource/Escape_the_Fate', 'http://dbpedia.org/resource/I_Am_Ghost', 'http://dbpedia.org/resource/Jacky_Vincent', 'http://dbpedia.org/resource/LoveHateHero', 'http://dbpedia.org/resource/Luke_Holland', 'http://dbpedia.org/resource/Max_Green_(musician)', 'http://dbpedia.org/resource/Mika_Horiuchi', 'http://dbpedia.org/resource/Nason_Schoeffler', 'http://dbpedia.org/resource/Omar_Espinosa', 'http://dbpedia.org/resource/Ryan_Seaman'], 'abstract': '"Popular Monster" is a song by American rock band Falling in Reverse. It was released on November 20, 2019. The song was ranked number four in late 2019 on the US Billboard Hot Rock &amp; Alternative Songs and number one on the US Mainstream Rock chart. As of 2021, the song has over 100 million streams on Spotify.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Bat_Country', 'track_name': 'Bat Country', 'artist': 'http://dbpedia.org/resource/Avenged_Sevenfold', 'artist_name': 'Avenged Sevenfold', 'wiki': 'http://en.wikipedia.org/wiki/Bat_Country', 'hometown': 'http://dbpedia.org/resource/Huntington_Beach,_California', 'released': '09 August 2005', 'producers': ['http://dbpedia.org/resource/Andrew_Murdock', 'Fred Archambault', 'Avenged Sevenfold'], 'writers': ['http://dbpedia.org/resource/Avenged_Sevenfold'], 'awards': ['Platinum'], 'labels': ['http://dbpedia.org/resource/Warner_Records'], 'genres': ['http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Heavy_metal_music', 'Heavy metal'], 'related_artists': ['http://dbpedia.org/resource/Brian_Haner', 'http://dbpedia.org/resource/Brooks_Wackerman', 'http://dbpedia.org/resource/Cowboy_Troy', 'http://dbpedia.org/resource/Fozzy', 'http://dbpedia.org/resource/M._Shadows', 'http://dbpedia.org/resource/Mass_Mental', 'http://dbpedia.org/resource/Mike_Portnoy', 'http://dbpedia.org/resource/Sherry_Drive', 'http://dbpedia.org/resource/Suburban_Legends', 'http://dbpedia.org/resource/Suicidal_Tendencies', 'http://dbpedia.org/resource/Synyster_Gates', 'http://dbpedia.org/resource/The_Confession_(band)__The_Confession__1', 'http://dbpedia.org/resource/The_Rev'], 'abstract': '"Bat Country" is a song by Avenged Sevenfold, released in August 2005 as the second single from their third album, City of Evil. Avenged Sevenfold won \'Best New Artist Video\' at the 2006 MTV Video Music Awards for "Bat Country" and on October 1, 2009, the single was certified gold by the RIAA. For these reasons, "Bat Country" is often believed to be the band\'s most commercially successful song. The song was ranked at number 20 on Loudwire\'s Top 21st Century Hard Rock Songs. It also was rated as number 9 on Ultimate Guitar\'s list of Top 25 Best Songs With Guitar Duels.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Wait_and_Bleed', 'track_name': 'Wait and Bleed', 'artist': 'http://dbpedia.org/resource/Slipknot_(band)', 'artist_name': 'Slipknot', 'wiki': 'http://en.wikipedia.org/wiki/Wait_and_Bleed', 'hometown': 'http://dbpedia.org/resource/Des_Moines,_Iowa', 'producers': ['http://dbpedia.org/resource/Ross_Robinson', 'Slipknot'], 'writers': ['http://dbpedia.org/resource/Corey_Taylor', 'http://dbpedia.org/resource/Joey_Jordison'], 'awards': ['Platinum', 'Silver'], 'labels': ['http://dbpedia.org/resource/Roadrunner_Records'], 'genres': ['http://dbpedia.org/resource/Nu_metal'], 'related_artists': ['http://dbpedia.org/resource/Alessandro_Venturella', 'http://dbpedia.org/resource/Axis_of_Justice', 'http://dbpedia.org/resource/Brandon_Darner', 'http://dbpedia.org/resource/Chris_Fehn', 'http://dbpedia.org/resource/Craig_Jones_(musician)', 'http://dbpedia.org/resource/Cry_for_Silence', 'http://dbpedia.org/resource/Dave_Fortman', 'http://dbpedia.org/resource/Dirty_Little_Rabbits', 'http://dbpedia.org/resource/Donnie_Steele', 'http://dbpedia.org/resource/Greg_Fidelman', 'http://dbpedia.org/resource/Jay_Weinberg', 'http://dbpedia.org/resource/Jim_Root', 'http://dbpedia.org/resource/Joey_Jordison', 'http://dbpedia.org/resource/Kid_Bookie', 'http://dbpedia.org/resource/Matt_Hyde_(British_producer)', 'http://dbpedia.org/resource/Mick_Thomson', 'http://dbpedia.org/resource/PCN_(band)', 'http://dbpedia.org/resource/Paul_Gray_(American_musician)', 'http://dbpedia.org/resource/Phil_Sgrosso', 'http://dbpedia.org/resource/Reggie_and_the_Full_Effect', 'http://dbpedia.org/resource/Ross_Robinson', 'http://dbpedia.org/resource/Shawn_Crahan', 'http://dbpedia.org/resource/Sid_Wilson', 'http://dbpedia.org/resource/Soulfly', 'http://dbpedia.org/resource/Sound_City_Players', 'http://dbpedia.org/resource/Stone_Sour', 'http://dbpedia.org/resource/Tech_N9ne', 'http://dbpedia.org/resource/Twelvestep', 'http://dbpedia.org/resource/Vimic', 'http://dbpedia.org/resource/Will_Haven'], 'abstract': '"Wait and Bleed" is the debut single by American heavy metal band Slipknot off their self-titled debut studio album. Remixed with a good portion of the growled vocals removed, it was released as the lead single from the album in July 1999, and peaked at number 34 on the American Billboard Hot Mainstream Rock Tracks chart in February 2000. It remains one of the band\'s signature songs.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Jenny_(Nothing_More_song)', 'track_name': 'Jenny', 'artist': 'http://dbpedia.org/resource/Nothing_More', 'artist_name': 'Nothing More', 'wiki': 'http://en.wikipedia.org/wiki/Jenny_(Nothing_More_song)', 'hometown': 'http://dbpedia.org/resource/San_Antonio', 'released': '06 April 2015', 'producers': ['http://dbpedia.org/resource/Nothing_More'], 'writers': ['Jonny Hawkins', 'Daniel Oliver', 'Will Hoffman', 'Mark Vollelunga'], 'labels': ['http://dbpedia.org/resource/Eleven_Seven_Label_Group'], 'abstract': '"Jenny" is a song from American rock band Nothing More. As the third single from their self titled album, the song discusses the struggles with mental illness that Jenna, the sister of Nothing More lead vocalist Jonny Hawkins, has. Team Rock has noted that the song has been particularly successful on music streaming services, having more than 32 million streams on Spotify and more than 18 million views on YouTube as of December 2019.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Wash_It_All_Away', 'track_name': 'Wash It All Away', 'artist': 'http://dbpedia.org/resource/Five_Finger_Death_Punch', 'artist_name': 'Five Finger Death Punch', 'wiki': 'http://en.wikipedia.org/wiki/Wash_It_All_Away', 'hometown': 'http://dbpedia.org/resource/Las_Vegas', 'producers': ['http://dbpedia.org/resource/Kevin_Churko'], 'writers': ['http://dbpedia.org/resource/Ivan_Moody', 'http://dbpedia.org/resource/Jason_Hook', 'http://dbpedia.org/resource/Jeremy_Spencer_(drummer)', 'http://dbpedia.org/resource/Kevin_Churko', 'http://dbpedia.org/resource/Zoltan_Bathory'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Heavy_metal_music', 'Heavy metal'], 'related_artists': ['http://dbpedia.org/resource/Bad_Wolves', 'http://dbpedia.org/resource/Darrell_Roberts', 'http://dbpedia.org/resource/Davey_Suicide', 'http://dbpedia.org/resource/Ghost_Machine', 'http://dbpedia.org/resource/Invidia_(band)', 'http://dbpedia.org/resource/Ivan_Moody', 'http://dbpedia.org/resource/Jason_Hook', 'http://dbpedia.org/resource/Jeremy_Spencer_(drummer)', 'http://dbpedia.org/resource/Kevin_Churko', 'http://dbpedia.org/resource/Scale_the_Summit', 'http://dbpedia.org/resource/Sintanic', 'http://dbpedia.org/resource/Zoltan_Bathory'], 'abstract': '"Wash It All Away" is a song by American heavy metal band Five Finger Death Punch, from their sixth studio album Got Your Six. It was released in October 2015 as the second single from the album.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Welcome_to_the_Black_Parade', 'track_name': 'Welcome to the Black Parade', 'artist': 'http://dbpedia.org/resource/My_Chemical_Romance', 'artist_name': 'My Chemical Romance', 'wiki': 'http://en.wikipedia.org/wiki/Welcome_to_the_Black_Parade', 'hometown': 'http://dbpedia.org/resource/Newark,_New_Jersey', 'released': '12 September 2006', 'producers': ['http://dbpedia.org/resource/My_Chemical_Romance', 'http://dbpedia.org/resource/Rob_Cavallo'], 'writers': ['http://dbpedia.org/resource/Bob_Bryar', 'http://dbpedia.org/resource/Frank_Iero', 'http://dbpedia.org/resource/Gerard_Way', 'http://dbpedia.org/resource/Mikey_Way', 'http://dbpedia.org/resource/Ray_Toro'], 'awards': ['Gold', 'Platinum'], 'labels': ['http://dbpedia.org/resource/Reprise_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Emo', 'http://dbpedia.org/resource/Pop-punk', 'pop punk'], 'related_artists': ['http://dbpedia.org/resource/Death_Spells', 'http://dbpedia.org/resource/Leathermouth', 'http://dbpedia.org/resource/Reggie_and_the_Full_Effect'], 'abstract': '"Welcome to the Black Parade" is a song from My Chemical Romance\'s third studio album, The Black Parade. It was released on September 12, 2006, as the album\'s lead single, with the studio version available on the band\'s Myspace on September 2, 2006. The music video for the single was recognized as MTV\'s "Greatest Music Video of the Century" in 2017. The song topped the UK Singles Chart, reached number nine on the US Billboard Hot 100 and was named one of the Rock and Roll Hall of Fame\'s Songs That Shaped Rock and Roll. A demo of the song entitled "The Five of Us Are Dying" was included on their 2016 reissue album The Black Parade/Living with Ghosts.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Mr._MTV', 'track_name': 'Mr. MTV', 'artist': 'http://dbpedia.org/resource/Nothing_More', 'artist_name': 'Nothing More', 'wiki': 'http://en.wikipedia.org/wiki/Mr._MTV', 'hometown': 'http://dbpedia.org/resource/San_Antonio', 'released': '01 December 2014', 'writers': ['http://dbpedia.org/resource/Sting_(musician)'], 'labels': ['http://dbpedia.org/resource/Eleven_Seven_Label_Group'], 'genres': ['http://dbpedia.org/resource/Alternative_metal'], 'abstract': '"Mr. MTV" is a song from American rock band Nothing More. Released on 1 December 2014, it is the second single from Nothing More, the sixth studio album from the band. The song discusses the opposition of the ensemble to consumerism, passive viewing of television programs, and the organizations behind it. The intro uses a reworked sample of the 1985 Dire Straits single "Money for Nothing".'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Man_in_the_Box', 'track_name': 'Man in the Box', 'artist': 'http://dbpedia.org/resource/Alice_in_Chains', 'artist_name': 'Alice in Chains', 'wiki': 'http://en.wikipedia.org/wiki/Man_in_the_Box', 'hometown': 'http://dbpedia.org/resource/Washington_(state)', 'producers': ['http://dbpedia.org/resource/Dave_Jerden'], 'writers': ['http://dbpedia.org/resource/Layne_Staley'], 'labels': ['http://dbpedia.org/resource/Columbia_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Grunge', 'http://dbpedia.org/resource/Hard_rock'], 'related_artists': ["http://dbpedia.org/resource/Alice_N'_Chains", 'http://dbpedia.org/resource/Ann_Wilson', 'http://dbpedia.org/resource/Blast_(American_band)', "http://dbpedia.org/resource/Class_of_'99", 'http://dbpedia.org/resource/Comes_with_the_Fall', 'http://dbpedia.org/resource/Dave_Collins_(audio_engineer)', 'http://dbpedia.org/resource/Days_of_the_New', 'http://dbpedia.org/resource/Giraffe_Tongue_Orchestra', 'http://dbpedia.org/resource/Jerry_Cantrell', 'http://dbpedia.org/resource/Layne_Staley', 'http://dbpedia.org/resource/Mad_Season_(band)', 'http://dbpedia.org/resource/Madfly', 'http://dbpedia.org/resource/Mike_Inez', 'http://dbpedia.org/resource/Mike_Starr_(musician)', 'http://dbpedia.org/resource/Mudhoney', 'http://dbpedia.org/resource/Neon_Christ', 'http://dbpedia.org/resource/No_Walls', 'http://dbpedia.org/resource/Rick_Parashar', 'http://dbpedia.org/resource/Scott_Olson', 'http://dbpedia.org/resource/Screaming_Trees', 'http://dbpedia.org/resource/Sean_Kinney', "http://dbpedia.org/resource/Slash's_Snakepit", 'http://dbpedia.org/resource/Sleze', 'http://dbpedia.org/resource/Spys4Darwin', 'http://dbpedia.org/resource/Sun_Red_Sun', 'http://dbpedia.org/resource/Sweet_Water_(band)', 'http://dbpedia.org/resource/Wes_Scantlin', 'http://dbpedia.org/resource/William_DuVall'], 'abstract': '"Man in the Box" is a song by the American rock band Alice in Chains. It was released as a single in January 1991 after being featured on the group\'s debut studio album Facelift (1990). It peaked at No. 18 on Billboard\'s Mainstream Rock chart and was nominated for a Grammy Award for Best Hard Rock Performance in 1992. The song was included on the compilation albums Nothing Safe: Best of the Box (1999), Music Bank (1999), Greatest Hits (2001), and The Essential Alice in Chains (2006). "Man in the Box" was the second most-played song of the decade on mainstream rock radio between 2010 and 2019.'}</t>
-  </si>
-  <si>
-    <t>{'track': "http://dbpedia.org/resource/You're_Going_Down", 'track_name': "You're Going Down", 'artist': 'http://dbpedia.org/resource/Sick_Puppies', 'artist_name': 'Sick Puppies', 'wiki': "http://en.wikipedia.org/wiki/You're_Going_Down", 'hometown': 'http://dbpedia.org/resource/Sydney', 'producers': ['http://dbpedia.org/resource/Antonina_Armato', 'http://dbpedia.org/resource/Rock_Mafia', 'http://dbpedia.org/resource/Tim_James_(musician)'], 'writers': ['http://dbpedia.org/resource/Antonina_Armato', 'http://dbpedia.org/resource/Tim_James_(musician)', 'Emma Anzai', 'Shimon Moore'], 'awards': ['Gold'], 'labels': ['http://dbpedia.org/resource/Virgin_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Nu_metal'], 'related_artists': ['http://dbpedia.org/resource/Blue_Stahli', 'http://dbpedia.org/resource/Mark_Goodwin_(musician)', 'http://dbpedia.org/resource/Shim_(band)'], 'abstract': '"You\'re Going Down" is the lead single from Sick Puppies\' third album Tri-Polar. "You\'re Going Down" was used by WWE to represent their Extreme Rules pay-per-view event as its official theme song. The wrestling promotion also used the song by making it part of the soundtrack to their video game SmackDown vs. Raw 2010. It was also used in a pre-game video package for the Montreal Alouettes at the 96th Grey Cup and the opening theme for the 2010 live-action film adaptation of Tekken. The official release date was 2 June 2009 but the band had already begun streaming the song through their Myspace page. It is also the part of the trailer for My Soul to Take. When Moore was asked how he wrote the song his answer was, "I asked myself, when you\'re getting pumped up to get into the ring, what would you want to hear? And that\'s what came out."'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/So_Cold_(Breaking_Benjamin_song)', 'track_name': 'So Cold (Breaking Benjamin song)', 'artist': 'http://dbpedia.org/resource/Breaking_Benjamin', 'artist_name': 'Breaking Benjamin', 'wiki': 'http://en.wikipedia.org/wiki/So_Cold_(Breaking_Benjamin_song)', 'hometown': 'http://dbpedia.org/resource/Wilkes-Barre,_Pennsylvania', 'released': '30 March 2004', 'producers': ['http://dbpedia.org/resource/David_Bendeth'], 'writers': ['http://dbpedia.org/resource/Benjamin_Burnley'], 'awards': ['Platinum'], 'labels': ['http://dbpedia.org/resource/Hollywood_Records'], 'genres': ['Alternative metal', 'post-grunge'], 'related_artists': ['http://dbpedia.org/resource/Chad_Szeliga', 'http://dbpedia.org/resource/Cold_(band)', 'http://dbpedia.org/resource/Dale_Stewart', 'http://dbpedia.org/resource/Keith_Wallen', 'http://dbpedia.org/resource/Leo_(band)', 'http://dbpedia.org/resource/Lifer_(band)', 'http://dbpedia.org/resource/Scooter_Ward', 'http://dbpedia.org/resource/Shaun_Morgan', 'http://dbpedia.org/resource/Sherry_Drive', 'http://dbpedia.org/resource/Spencer_Chamberlain', 'http://dbpedia.org/resource/T._J._Harris'], 'abstract': '"So Cold" is a song by American rock band Breaking Benjamin. It was released in March 2004 as the lead single from their second album, We Are Not Alone. Despite never having reached the number one spot on the Mainstream Rock chart, "So Cold" holds the record for the most weeks spent in the chart with 62 weeks. The single was certified Platinum by the RIAA on September 15, 2015, just before the band\'s debut album Saturate was certified Gold. A reimagined version was released on October 31, 2019 in anticipation for their 2020 album, Aurora.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Cut_the_Cord', 'track_name': 'Cut the Cord', 'artist': 'http://dbpedia.org/resource/Shinedown', 'artist_name': 'Shinedown', 'wiki': 'http://en.wikipedia.org/wiki/Cut_the_Cord', 'hometown': 'http://dbpedia.org/resource/Jacksonville,_Florida', 'released': '29 June 2015', 'writers': ['http://dbpedia.org/resource/Brent_Smith', 'Eric Bass'], 'awards': ['Platinum'], 'labels': ['http://dbpedia.org/resource/Atlantic_Records'], 'genres': ['http://dbpedia.org/resource/Hard_rock'], 'related_artists': ['http://dbpedia.org/resource/3_Doors_Down', 'http://dbpedia.org/resource/Brad_Stewart', 'http://dbpedia.org/resource/Call_Me_No_One', 'http://dbpedia.org/resource/Chris_Chaney', 'http://dbpedia.org/resource/Deepfield', 'http://dbpedia.org/resource/Fuel_(band)', 'http://dbpedia.org/resource/Nick_Perri', 'http://dbpedia.org/resource/Zach_Myers'], 'abstract': '"Cut the Cord" is a song by American rock band Shinedown. It was released on June 29, 2015 as the lead single from the band\'s fifth studio album, Threat to Survival. The song reached No. 1 on the Billboard Mainstream Rock chart, their ninth single to do so. It was featured as the official theme song of WWE’s Hell in a Cell (2015).'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Voodoo_(Godsmack_song)', 'track_name': 'Voodoo (Godsmack song)', 'artist': 'http://dbpedia.org/resource/Godsmack', 'artist_name': 'Godsmack', 'wiki': 'http://en.wikipedia.org/wiki/Voodoo_(Godsmack_song)', 'hometown': 'http://dbpedia.org/resource/Lawrence,_Massachusetts', 'writers': ['http://dbpedia.org/resource/Robbie_Merrill', 'http://dbpedia.org/resource/Sully_Erna'], 'awards': ['Platinum'], 'labels': ['http://dbpedia.org/resource/Republic_Records'], 'related_artists': ['http://dbpedia.org/resource/Amen_(American_band)', 'http://dbpedia.org/resource/Another_Animal', 'http://dbpedia.org/resource/Camp_Freddy', 'http://dbpedia.org/resource/Candlebox', 'http://dbpedia.org/resource/Dave_Fortman', 'http://dbpedia.org/resource/Jay_Baumgardner', 'http://dbpedia.org/resource/Kilgore_(band)', 'http://dbpedia.org/resource/Robbie_Merrill', 'http://dbpedia.org/resource/Shannon_Larkin', 'http://dbpedia.org/resource/Snot_(band)', 'http://dbpedia.org/resource/Souls_at_Zero_(band)', 'http://dbpedia.org/resource/Sully_Erna', 'http://dbpedia.org/resource/The_Apocalypse_Blues_Revival', 'http://dbpedia.org/resource/Tommy_Stewart', 'http://dbpedia.org/resource/Tony_Rombola', 'http://dbpedia.org/resource/Ugly_Kid_Joe', 'http://dbpedia.org/resource/Wrathchild_America'], 'abstract': '"Voodoo", written by lead singer Sully Erna, is a single by alternative metal band Godsmack from their self-titled album. The song "Voodoo" was best known for its use in the MTV television program Fear. The video, directed by Dean Karr, shows witches performing a ritual with swords. The band is shown throughout the video playing in a corn field. A naked gorgon is shown dancing, which is also part of the ritual. Zombies come out of a lake and wander through the woods. The video features Laurie Cabot and members of her coven at that time. The idea of zombies came from the original inspiration of the song. At the House of Blues, vocalist Sully Erna stated that this inspiration was the film The Serpent and the Rainbow. The song was also used by WWE wrestler Batista during his time as Leviathan in the former WWE developmental territory Ohio Valley (OVW) from 2000 to 2002. "Voodoo" is the final track listed on the album. After roughly two minutes of silence, a hidden track (entitled "Witch Hunt") closes the album. Although "Voodoo" itself is 4:40 in length, the actual length (including the aforementioned silence and the hidden track "Witch Hunt") is 9:02. "Voodoo" has since spawned a sequel, in the form of "Voodoo Too", from the album IV.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/B.Y.O.B._(song)', 'track_name': 'B.Y.O.B. (τραγούδι)', 'artist': 'http://dbpedia.org/resource/System_of_a_Down', 'artist_name': 'System of a Down', 'wiki': 'http://en.wikipedia.org/wiki/B.Y.O.B._(song)', 'hometown': 'http://dbpedia.org/resource/Glendale,_California', 'released': '28 March 2005', 'producers': ['http://dbpedia.org/resource/Rick_Rubin', 'Daron Malakian'], 'writers': ['http://dbpedia.org/resource/Daron_Malakian', 'http://dbpedia.org/resource/Serj_Tankian'], 'awards': ['Gold', 'Platinum', 'Silver'], 'labels': ['http://dbpedia.org/resource/Columbia_Records'], 'genres': ['http://dbpedia.org/resource/Thrash_metal'], 'related_artists': ['http://dbpedia.org/resource/Achozen', 'http://dbpedia.org/resource/Arto_Tunçboyacıyan', 'http://dbpedia.org/resource/Axis_of_Justice', 'http://dbpedia.org/resource/Bad_Acid_Trip', 'http://dbpedia.org/resource/Ben_Weinman', 'http://dbpedia.org/resource/Dana_Nielsen', 'http://dbpedia.org/resource/Daron_Malakian', 'http://dbpedia.org/resource/Daron_Malakian_and_Scars_on_Broadway', 'http://dbpedia.org/resource/Flying_Cunts_of_Chaos', 'http://dbpedia.org/resource/Greg_Fidelman', 'http://dbpedia.org/resource/John_Dolmayan', 'http://dbpedia.org/resource/Kultur_Shock', 'http://dbpedia.org/resource/Mower_(band)', 'http://dbpedia.org/resource/Mt._Helium', 'http://dbpedia.org/resource/Onesidezero', 'http://dbpedia.org/resource/Ontronik_Khachaturian', 'http://dbpedia.org/resource/Serj_Tankian', 'http://dbpedia.org/resource/Shavo_Odadjian', 'http://dbpedia.org/resource/Viza'], 'abstract': '"B.Y.O.B." ("Bring Your Own Bombs") is a song by Armenian-American alternative metal band System of a Down. It was released in March 2005 as the lead single from their fourth album Mezmerize. Like their earlier song "Boom!", it was written in protest against the Iraq War. The song reached number 27 on the US Billboard Hot 100, the band\'s highest peak to date on the chart.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Sweet_Dreams_(Are_Made_of_This)', 'track_name': 'Sweet Dreams (Are Made of This) (single)', 'artist': 'http://dbpedia.org/resource/Marilyn_Manson_(band)', 'artist_name': 'Marilyn Manson', 'wiki': 'http://en.wikipedia.org/wiki/Sweet_Dreams_(Are_Made_of_This)', 'hometown': 'http://dbpedia.org/resource/Fort_Lauderdale,_Florida', 'released': '21 January 1983', 'producers': ['http://dbpedia.org/resource/Dave_Stewart_(musician_and_producer)', 'David A. Stewart', 'Trent Reznor', 'Manson', '*V. Salazar', '*F. Lokar'], 'writers': ['http://dbpedia.org/resource/Annie_Lennox', 'http://dbpedia.org/resource/Dave_Stewart_(musician_and_producer)'], 'awards': ['Gold', 'Platinum', 'Silver'], 'labels': ['http://dbpedia.org/resource/RCA_Records'], 'genres': ['http://dbpedia.org/resource/New_wave_music', 'http://dbpedia.org/resource/Synth-pop', '*Eurodance', '*heavy metal', '*Industrial rock', '*hard rock'], 'related_artists': ['http://dbpedia.org/resource/Andy_Gerold', 'http://dbpedia.org/resource/Chris_Vrenna', 'http://dbpedia.org/resource/Dave_Ogilvie', 'http://dbpedia.org/resource/Doctor_Midnight_&amp;_The_Mercy_Cult', 'http://dbpedia.org/resource/Fred_Sablan', 'http://dbpedia.org/resource/Gidget_Gein', 'http://dbpedia.org/resource/Gil_Sharone', 'http://dbpedia.org/resource/Ginger_Fish', 'http://dbpedia.org/resource/Godhead_(band)', 'http://dbpedia.org/resource/Goon_Moon', 'http://dbpedia.org/resource/Jack_Off_Jill', 'http://dbpedia.org/resource/John_5_(guitarist)', 'http://dbpedia.org/resource/Juan_Alderete', 'http://dbpedia.org/resource/List_of_Nine_Inch_Nails_band_members', 'http://dbpedia.org/resource/Madonna_Wayne_Gacy', 'http://dbpedia.org/resource/Melora_Creager', 'http://dbpedia.org/resource/Nine_Inch_Nails', 'http://dbpedia.org/resource/Olivia_Newton_Bundy', 'http://dbpedia.org/resource/Rasputina_(band)', 'http://dbpedia.org/resource/Rob_Holliday', 'http://dbpedia.org/resource/Rob_Zombie', 'http://dbpedia.org/resource/Sara_Lee_Lucas', 'http://dbpedia.org/resource/Scott_Putesky', 'http://dbpedia.org/resource/Shooter_Jennings', 'http://dbpedia.org/resource/The_Smashing_Pumpkins', 'http://dbpedia.org/resource/Tim_Skold', 'http://dbpedia.org/resource/Twiggy_Ramirez', 'http://dbpedia.org/resource/Zim_Zum'], 'abstract': '"Sweet Dreams (Are Made of This)" is a song by British new wave music duo Eurythmics. It is the title track of their album of the same name (1983) and was released as the fourth and final single from the album in early 1983. The song became their breakthrough hit, establishing the duo worldwide. Its music video helped to propel the song to number two on the UK Singles Chart and number one on the US Billboard Hot 100. It was the first single released by Eurythmics in the US. Recorded by the Eurythmics in a small project studio, the song\'s success heralded a trend of musicians abandoning larger recording studios for home recording methods. After the song\'s rise, the duo\'s previous single, "Love Is a Stranger", was re-released and also became a worldwide hit. On Rolling Stone\'s The 500 Greatest Songs of All Time issue in 2003, "Sweet Dreams (Are Made of This)" was ranked number 356. In 2020, the song was inducted into the Grammy Hall of Fame. Eurythmics have regularly performed the song in all their live sets since 1982, and it is often performed by Annie Lennox on her solo tours. In 1991, the song was remixed and reissued to promote Eurythmics\' Greatest Hits album. It re-charted in the UK, reaching number 48, and was also a moderate hit in dance clubs. Another remix by Steve Angello was released in France in 2006, along with the track "I\'ve Got a Life" (peaking at number 10).'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/This_Is_the_Time_(Ballast)', 'track_name': 'This Is the Time (Ballast)', 'artist': 'http://dbpedia.org/resource/Nothing_More', 'artist_name': 'Nothing More', 'wiki': 'http://en.wikipedia.org/wiki/This_Is_the_Time_(Ballast)', 'hometown': 'http://dbpedia.org/resource/San_Antonio', 'released': '23 September 2014', 'producers': ['Jonny Hawkins', 'Nothing More'], 'labels': ['http://dbpedia.org/resource/Eleven_Seven_Label_Group'], 'abstract': '"This Is the Time (Ballast)" is a song by American rock band Nothing More. The song was released as the lead single from the band\'s self-titled album. An acoustic version of the song was later released as a stand-alone single. The song was written by the band, Scott Stevens, Paco Estrada, and Will Hoffman.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/I_Am_Machine', 'track_name': 'I Am Machine', 'artist': 'http://dbpedia.org/resource/Three_Days_Grace', 'artist_name': 'Three Days Grace', 'wiki': 'http://en.wikipedia.org/wiki/I_Am_Machine', 'hometown': 'http://dbpedia.org/resource/Asphodel–Norwood', 'released': '30 September 2014', 'producers': ['Gavin Brown'], 'writers': ['http://dbpedia.org/resource/Barry_Stock', 'http://dbpedia.org/resource/Neil_Sanderson', 'Matt Walst', 'Brad Walst', 'Gavin Brown', 'Johnny Andrews'], 'awards': ['Gold'], 'genres': ['http://dbpedia.org/resource/Alternative_metal'], 'related_artists': ['http://dbpedia.org/resource/Barry_Stock', 'http://dbpedia.org/resource/Big_Dirty_Band', 'http://dbpedia.org/resource/My_Darkest_Days', 'http://dbpedia.org/resource/Neil_Sanderson', 'http://dbpedia.org/resource/Saint_Asonia'], 'abstract': '"I Am Machine" is a song by Canadian rock band Three Days Grace. The song was released as a single on September 30, 2014. It is the second single off the band\'s fifth studio album Human.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Face_Everything_and_Rise', 'track_name': 'Face Everything and Rise', 'artist': 'http://dbpedia.org/resource/Papa_Roach', 'artist_name': 'Papa Roach', 'wiki': 'http://en.wikipedia.org/wiki/Face_Everything_and_Rise', 'hometown': 'http://dbpedia.org/resource/Vacaville,_California', 'released': '04 November 2014', 'writers': ['http://dbpedia.org/resource/Jacoby_Shaddix', 'http://dbpedia.org/resource/Kevin_Churko', 'http://dbpedia.org/resource/Papa_Roach'], 'labels': ['http://dbpedia.org/resource/Eleven_Seven_Label_Group'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Electronic_rock'], 'related_artists': ['http://dbpedia.org/resource/Bleeker_(band)', 'http://dbpedia.org/resource/Coldrain', 'http://dbpedia.org/resource/Colin_Brittain', 'http://dbpedia.org/resource/Dear_Superstar', 'http://dbpedia.org/resource/Fight_the_Sky', 'http://dbpedia.org/resource/Ice_Nine_Kills', 'http://dbpedia.org/resource/Jacoby_Shaddix', 'http://dbpedia.org/resource/Jason_Evigan', 'http://dbpedia.org/resource/Jay_Baumgardner', 'http://dbpedia.org/resource/Jerry_Horton', 'http://dbpedia.org/resource/Nicholas_Furlong_(musician)', 'http://dbpedia.org/resource/Skindred', 'http://dbpedia.org/resource/The_Halo_Method', 'http://dbpedia.org/resource/Tony_Palermo'], 'abstract': '"Face Everything and Rise" is a song by the American rock band Papa Roach. It served as the lead single from the band\'s seventh studio album F.E.A.R.. The song was released on November 4, 2014, and reached number one on the Mainstream Rock Tracks chart.'}</t>
-  </si>
-  <si>
-    <t>{'track': "http://dbpedia.org/resource/Still_Swingin'", 'track_name': "Still Swingin'", 'artist': 'http://dbpedia.org/resource/Papa_Roach', 'artist_name': 'Papa Roach', 'wiki': "http://en.wikipedia.org/wiki/Still_Swingin'", 'hometown': 'http://dbpedia.org/resource/Vacaville,_California', 'released': '24 June 2012', 'producers': ['Tylias'], 'writers': ['http://dbpedia.org/resource/Jacoby_Shaddix', 'Tylias', 'Tobin Esperance'], 'labels': ['http://dbpedia.org/resource/Eleven_Seven_Label_Group'], 'genres': ['http://dbpedia.org/resource/Electronic_rock', 'http://dbpedia.org/resource/Nu_metal', 'http://dbpedia.org/resource/Rap_metal'], 'related_artists': ['http://dbpedia.org/resource/Bleeker_(band)', 'http://dbpedia.org/resource/Coldrain', 'http://dbpedia.org/resource/Colin_Brittain', 'http://dbpedia.org/resource/Dear_Superstar', 'http://dbpedia.org/resource/Fight_the_Sky', 'http://dbpedia.org/resource/Ice_Nine_Kills', 'http://dbpedia.org/resource/Jacoby_Shaddix', 'http://dbpedia.org/resource/Jason_Evigan', 'http://dbpedia.org/resource/Jay_Baumgardner', 'http://dbpedia.org/resource/Jerry_Horton', 'http://dbpedia.org/resource/Nicholas_Furlong_(musician)', 'http://dbpedia.org/resource/Skindred', 'http://dbpedia.org/resource/The_Halo_Method', 'http://dbpedia.org/resource/Tony_Palermo'], 'abstract': '"Still Swingin\'" is a song by the American rock band Papa Roach released on June 24, 2012 as the first single from their album The Connection. The single was well received by fans for the return of the rap-style vocals of the band\'s early work. The track was produced by Tylias, an indie dubstep and hip-hop producer from the underground music scene. The embrace of this aggregate had polarized opinions, some calling it new and fresh to the songs and another calling it an aberration of their style and even the band, but mostly it was well received. A music video was released on August 30 as lead singer Jacoby Shaddix recovered from a vocal surgery. The song appears in Saints Row IV and Saints Row IV: Re-Elected.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Wrong_Side_of_Heaven', 'track_name': 'Wrong Side of Heaven', 'artist': 'http://dbpedia.org/resource/Five_Finger_Death_Punch', 'artist_name': 'Five Finger Death Punch', 'wiki': 'http://en.wikipedia.org/wiki/Wrong_Side_of_Heaven', 'hometown': 'http://dbpedia.org/resource/Las_Vegas', 'released': '11 August 2014', 'producers': ['http://dbpedia.org/resource/Kevin_Churko'], 'writers': ['http://dbpedia.org/resource/Ivan_Moody', 'http://dbpedia.org/resource/Jason_Hook', 'http://dbpedia.org/resource/Jeremy_Spencer_(drummer)', 'http://dbpedia.org/resource/Kevin_Churko', 'http://dbpedia.org/resource/Zoltan_Bathory'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Heavy_metal_music'], 'related_artists': ['http://dbpedia.org/resource/Bad_Wolves', 'http://dbpedia.org/resource/Darrell_Roberts', 'http://dbpedia.org/resource/Davey_Suicide', 'http://dbpedia.org/resource/Ghost_Machine', 'http://dbpedia.org/resource/Invidia_(band)', 'http://dbpedia.org/resource/Ivan_Moody', 'http://dbpedia.org/resource/Jason_Hook', 'http://dbpedia.org/resource/Jeremy_Spencer_(drummer)', 'http://dbpedia.org/resource/Kevin_Churko', 'http://dbpedia.org/resource/Scale_the_Summit', 'http://dbpedia.org/resource/Sintanic', 'http://dbpedia.org/resource/Zoltan_Bathory'], 'abstract': '"Wrong Side of Heaven" is a single by American heavy metal band Five Finger Death Punch from their fourth studio album, The Wrong Side of Heaven and the Righteous Side of Hell, Volume 1. It is the third single from the album, and is the nineteenth single overall from the band, which was released on August 11, 2014.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Painkiller_(Three_Days_Grace_song)', 'track_name': 'Painkiller (пісня Three Days Grace)', 'artist': 'http://dbpedia.org/resource/Three_Days_Grace', 'artist_name': 'Three Days Grace', 'wiki': 'http://en.wikipedia.org/wiki/Painkiller_(Three_Days_Grace_song)', 'hometown': 'http://dbpedia.org/resource/Asphodel–Norwood', 'released': '01 April 2014', 'producers': ['Gavin Brown'], 'writers': ['http://dbpedia.org/resource/Barry_Stock', 'http://dbpedia.org/resource/Johnny_Andrews', 'http://dbpedia.org/resource/Neil_Sanderson', 'http://dbpedia.org/resource/Three_Days_Grace', 'Matt Walst', 'Brad Walst', 'Douglas Ryan Oliver', 'Gavin Brown'], 'awards': ['Gold'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Hard_rock'], 'related_artists': ['http://dbpedia.org/resource/Barry_Stock', 'http://dbpedia.org/resource/Big_Dirty_Band', 'http://dbpedia.org/resource/My_Darkest_Days', 'http://dbpedia.org/resource/Neil_Sanderson', 'http://dbpedia.org/resource/Saint_Asonia'], 'abstract': '"Painkiller" is a song by Canadian rock band Three Days Grace. This is the first single released by Three Days Grace with new singer Matt Walst, following the departure of Adam Gontier. It is the lead single off the band\'s fifth studio album Human.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Through_It_All', 'track_name': 'Through It All', 'artist': 'http://dbpedia.org/resource/From_Ashes_to_New', 'artist_name': 'From Ashes to New', 'wiki': 'http://en.wikipedia.org/wiki/Through_It_All', 'hometown': 'http://dbpedia.org/resource/Lancaster,_Pennsylvania', 'released': '21 November 2015', 'producers': ['Grant McFarland'], 'writers': ['http://dbpedia.org/resource/From_Ashes_to_New'], 'labels': ['http://dbpedia.org/resource/Eleven_Seven_Label_Group'], 'related_artists': ['http://dbpedia.org/resource/Mat_Madiro'], 'abstract': '"Through It All" is the first single by American band From Ashes to New\'s Downfall EP and their debut album Day One. The single was first released on November 21, 2015. Since its release, the song has peaked at No. 6 on the Billboard Mainstream rock chart.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/The_Vengeful_One', 'track_name': 'The Vengeful One', 'artist': 'http://dbpedia.org/resource/Disturbed_(band)', 'artist_name': 'Disturbed', 'wiki': 'http://en.wikipedia.org/wiki/The_Vengeful_One', 'hometown': 'http://dbpedia.org/resource/Chicago', 'released': '23 June 2015', 'producers': ['http://dbpedia.org/resource/Kevin_Churko'], 'writers': ['http://dbpedia.org/resource/Dan_Donegan', 'http://dbpedia.org/resource/David_Draiman', 'http://dbpedia.org/resource/Kevin_Churko', 'http://dbpedia.org/resource/Mike_Wengren'], 'labels': ['http://dbpedia.org/resource/Reprise_Records'], 'genres': ['http://dbpedia.org/resource/Heavy_metal_music'], 'related_artists': ['http://dbpedia.org/resource/Dan_Donegan', 'http://dbpedia.org/resource/David_Draiman', 'http://dbpedia.org/resource/Fight_or_Flight_(band)', 'http://dbpedia.org/resource/Heaven_Below', 'http://dbpedia.org/resource/John_Moyer__John_Moyer__1', 'http://dbpedia.org/resource/Kevin_Churko', "http://dbpedia.org/resource/Marty_O'Brien", 'http://dbpedia.org/resource/Mike_Wengren', 'http://dbpedia.org/resource/Neal_Avron', 'http://dbpedia.org/resource/The_Union_Underground'], 'abstract': '"The Vengeful One" is a song by heavy metal band Disturbed, from their sixth album Immortalized. It was released on June 23, 2015, and is the band\'s first released song in 4 years, since the release of The Lost Children. The song is featured as the background music in the opening for Ferrall on the Bench, Scott Ferrall\'s CBS Sports Radio show.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Footsteps_(Pop_Evil_song)', 'track_name': 'Footsteps', 'artist': 'http://dbpedia.org/resource/Pop_Evil', 'artist_name': 'Pop Evil', 'wiki': 'http://en.wikipedia.org/wiki/Footsteps_(Pop_Evil_song)', 'hometown': 'http://dbpedia.org/resource/Muskegon,_Michigan', 'released': '01 June 2015', 'producers': ['http://dbpedia.org/resource/Adam_Kasper'], 'writers': ['http://dbpedia.org/resource/Dave_Bassett'], 'awards': ['Gold'], 'labels': ['http://dbpedia.org/resource/MNRK_Music_Group'], 'genres': ['http://dbpedia.org/resource/Pop_rock', 'http://dbpedia.org/resource/Rock_music'], 'related_artists': ['http://dbpedia.org/resource/Jason_Hartless'], 'abstract': '"Footsteps" is the lead single by American rock band Pop Evil from Up, their fourth studio album.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Failure_(Breaking_Benjamin_song)', 'track_name': 'Failure (Breaking Benjamin)', 'artist': 'http://dbpedia.org/resource/Breaking_Benjamin', 'artist_name': 'Breaking Benjamin', 'wiki': 'http://en.wikipedia.org/wiki/Failure_(Breaking_Benjamin_song)', 'hometown': 'http://dbpedia.org/resource/Wilkes-Barre,_Pennsylvania', 'released': '23 March 2015', 'producers': ['http://dbpedia.org/resource/Benjamin_Burnley'], 'writers': ['http://dbpedia.org/resource/Benjamin_Burnley'], 'awards': ['Gold'], 'labels': ['http://dbpedia.org/resource/Hollywood_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Hard_rock'], 'related_artists': ['http://dbpedia.org/resource/Chad_Szeliga', 'http://dbpedia.org/resource/Cold_(band)', 'http://dbpedia.org/resource/Dale_Stewart', 'http://dbpedia.org/resource/Keith_Wallen', 'http://dbpedia.org/resource/Leo_(band)', 'http://dbpedia.org/resource/Lifer_(band)', 'http://dbpedia.org/resource/Scooter_Ward', 'http://dbpedia.org/resource/Shaun_Morgan', 'http://dbpedia.org/resource/Sherry_Drive', 'http://dbpedia.org/resource/Spencer_Chamberlain', 'http://dbpedia.org/resource/T._J._Harris'], 'abstract': '"Failure" is a song by American rock band Breaking Benjamin. The song was released on March 23, 2015 as the lead single on the band\'s fifth studio album, Dark Before Dawn. The track marks the band\'s first release since the start of an extended hiatus entered upon in mid-2010, and is also the first recording to feature a different lineup alongside singer, writer, and guitarist Benjamin Burnley. The track is their third single to reach No. 1 on the Mainstream Rock Tracks chart, after "Breath" (2006) and "I Will Not Bow" (2009), and spent nine weeks there. On January 9, 2017, the single was certified Gold by the RIAA.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/State_of_My_Head', 'track_name': 'State of My Head', 'artist': 'http://dbpedia.org/resource/Shinedown', 'artist_name': 'Shinedown', 'wiki': 'http://en.wikipedia.org/wiki/State_of_My_Head', 'hometown': 'http://dbpedia.org/resource/Jacksonville,_Florida', 'released': '09 October 2015', 'writers': ['http://dbpedia.org/resource/Brent_Smith', 'Carlo Colasacco', 'Ethan Thompson', 'Jayson DeZuzio', 'Peter Nappi'], 'labels': ['http://dbpedia.org/resource/Atlantic_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Electropop'], 'related_artists': ['http://dbpedia.org/resource/3_Doors_Down', 'http://dbpedia.org/resource/Brad_Stewart', 'http://dbpedia.org/resource/Call_Me_No_One', 'http://dbpedia.org/resource/Chris_Chaney', 'http://dbpedia.org/resource/Deepfield', 'http://dbpedia.org/resource/Fuel_(band)', 'http://dbpedia.org/resource/Nick_Perri', 'http://dbpedia.org/resource/Zach_Myers'], 'abstract': '"State of My Head" is a song by American rock band Shinedown. It was released on October 9, 2015 as the second single from the band\'s fifth studio album, Threat to Survival. The song reached number one on the Billboard Mainstream Rock chart, their tenth single to do so.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Nobody_Praying_for_Me', 'track_name': 'Nobody Praying for Me', 'artist': 'http://dbpedia.org/resource/Seether', 'artist_name': 'Seether', 'wiki': 'http://en.wikipedia.org/wiki/Nobody_Praying_for_Me', 'hometown': 'http://dbpedia.org/resource/Pretoria', 'released': '28 April 2015', 'producers': ["http://dbpedia.org/resource/Brendan_O'Brien_(record_producer)"], 'writers': ['http://dbpedia.org/resource/Dale_Stewart', 'http://dbpedia.org/resource/Shaun_Morgan', 'http://dbpedia.org/resource/The_Nixons', 'John Humphrey'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Post-grunge'], 'related_artists': ['http://dbpedia.org/resource/Brian_Tichy', 'http://dbpedia.org/resource/Clint_Lowery', 'http://dbpedia.org/resource/Corey_Lowery', 'http://dbpedia.org/resource/Dale_Stewart', 'http://dbpedia.org/resource/Dark_New_Day', 'http://dbpedia.org/resource/Diana_Meltzer', 'http://dbpedia.org/resource/Edgewater_(band)', 'http://dbpedia.org/resource/Josh_Freese', 'http://dbpedia.org/resource/Memento_(band)', 'http://dbpedia.org/resource/Patrick_Callahan', 'http://dbpedia.org/resource/Saint_Asonia', 'http://dbpedia.org/resource/Shaun_Morgan', 'http://dbpedia.org/resource/Troy_McLawhorn', 'http://dbpedia.org/resource/Van_Coke_Kartel'], 'abstract': '"Nobody Praying for Me" is a song by South African rock band Seether. It was released on 28 April 2015 as the third single from their sixth studio album Isolate and Medicate. On June 30, Seether released an interactive set of music videos for their single, "Nobody Praying for Me", which centered on perspective when it comes to discrimination and police. Frontman Shaun Morgan said of the video that "our goal in creating this video is for people to educate themselves and make an informed decision on their own, rather than being told by any media outlet saying, this is what you should be thinking, this is what is right. The whole point is to try and shift the way we look at things and to not always leap to our pre-conceived conclusions, which is mostly racially and profile-based, because that\'s what we get fed all the time. I\'ve been guilty of it too. It\'s very unfortunate, and it\'s getting worse instead of better". The music video was directed by Sherif Higazy. "Nobody Praying for Me" has garnered criticism due to similarities with the song "Daisy" by Brand New in their syllabic patterns and lyrical formulas. Morgan had previously listed Daisy as one of his five favorite albums and Brand New as one of his favorite bands. When asked in a Reddit AMA about the issue, Morgan responded by stating the band ripped off Brand New "because we are not creative or intelligent enough to write our own music, of course."'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/My_Demons', 'track_name': 'My Demons', 'artist': 'http://dbpedia.org/resource/Starset', 'artist_name': 'Starset', 'wiki': 'http://en.wikipedia.org/wiki/My_Demons', 'hometown': 'http://dbpedia.org/resource/Columbus,_Ohio', 'released': '24 October 2013', 'producers': ['http://dbpedia.org/resource/Rob_Graves'], 'writers': ['http://dbpedia.org/resource/Rob_Graves', 'http://dbpedia.org/resource/Stevie_Aiello', 'Dustin Bates'], 'awards': ['Gold', 'Platinum'], 'labels': ['http://dbpedia.org/resource/Razor_&amp;_Tie'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Electronic_rock', 'http://dbpedia.org/resource/Hard_rock'], 'related_artists': ['http://dbpedia.org/resource/Downplay', 'http://dbpedia.org/resource/Joe_Rickard', 'http://dbpedia.org/resource/Live_My_Last', 'http://dbpedia.org/resource/Luke_Holland'], 'abstract': '"My Demons" is a single by American rock band Starset, the first off of their debut studio album Transmissions. Initially released in 2013, it peaked at number 5 on the Billboard Mainstream Rock Songs chart in 2014.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/The_Light_(Disturbed_song)', 'track_name': 'The Light (Disturbed song)', 'artist': 'http://dbpedia.org/resource/Disturbed_(band)', 'artist_name': 'Disturbed', 'wiki': 'http://en.wikipedia.org/wiki/The_Light_(Disturbed_song)', 'hometown': 'http://dbpedia.org/resource/Chicago', 'released': '05 October 2015', 'producers': ['http://dbpedia.org/resource/Kevin_Churko'], 'writers': ['http://dbpedia.org/resource/Dan_Donegan', 'http://dbpedia.org/resource/David_Draiman', 'http://dbpedia.org/resource/Kevin_Churko', 'http://dbpedia.org/resource/Mike_Wengren'], 'labels': ['http://dbpedia.org/resource/Reprise_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Heavy_metal_music', 'heavy metal'], 'related_artists': ['http://dbpedia.org/resource/Dan_Donegan', 'http://dbpedia.org/resource/David_Draiman', 'http://dbpedia.org/resource/Fight_or_Flight_(band)', 'http://dbpedia.org/resource/Heaven_Below', 'http://dbpedia.org/resource/John_Moyer__John_Moyer__1', 'http://dbpedia.org/resource/Kevin_Churko', "http://dbpedia.org/resource/Marty_O'Brien", 'http://dbpedia.org/resource/Mike_Wengren', 'http://dbpedia.org/resource/Neal_Avron', 'http://dbpedia.org/resource/The_Union_Underground'], 'abstract': '"The Light" is a song by American heavy metal band Disturbed, from their sixth album Immortalized. It was released as a single on 5 October 2015. Upon its release, the song was noted by many critics for its uplifting lyrics, unusual within the band\'s discography.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Lydia_(Highly_Suspect_song)', 'track_name': 'Lydia (Highly Suspect song)', 'artist': 'http://dbpedia.org/resource/Highly_Suspect', 'artist_name': 'Highly Suspect', 'wiki': 'http://en.wikipedia.org/wiki/Lydia_(Highly_Suspect_song)', 'hometown': 'http://dbpedia.org/resource/Massachusetts', 'released': '04 March 2015', 'producers': ['Joel Hamilton'], 'writers': ['http://dbpedia.org/resource/Highly_Suspect'], 'labels': ['http://dbpedia.org/resource/300_Entertainment'], 'genres': ['http://dbpedia.org/resource/Alternative_rock'], 'related_artists': ['http://dbpedia.org/resource/Fairy_Bones'], 'abstract': '"Lydia" is the debut single by American rock band Highly Suspect, from their debut album Mister Asylum (2015). The song first appeared on the 2013 EP Black Ocean. It hit the top 5 on the Billboard Mainstream Rock chart in August 2015.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Sound_of_Madness', 'track_name': 'Sound of Madness', 'artist': 'http://dbpedia.org/resource/Shinedown', 'artist_name': 'Shinedown', 'wiki': 'http://en.wikipedia.org/wiki/Sound_of_Madness', 'hometown': 'http://dbpedia.org/resource/Jacksonville,_Florida', 'released': '23 February 2009', 'producers': ['http://dbpedia.org/resource/Rob_Cavallo'], 'writers': ['http://dbpedia.org/resource/Brent_Smith', 'http://dbpedia.org/resource/Dave_Bassett_(songwriter)'], 'awards': ['Platinum'], 'labels': ['http://dbpedia.org/resource/Atlantic_Records'], 'related_artists': ['http://dbpedia.org/resource/3_Doors_Down', 'http://dbpedia.org/resource/Brad_Stewart', 'http://dbpedia.org/resource/Call_Me_No_One', 'http://dbpedia.org/resource/Chris_Chaney', 'http://dbpedia.org/resource/Deepfield', 'http://dbpedia.org/resource/Fuel_(band)', 'http://dbpedia.org/resource/Nick_Perri', 'http://dbpedia.org/resource/Zach_Myers'], 'abstract': '"Sound of Madness" is a single by American rock band Shinedown from their 2008 album The Sound of Madness and is also the album\'s title track, despite the exclusion of the word "the" in the song\'s title. The song was chosen to be the title track after some road testing on a short run of dates. It was released on February 23, 2009, in Europe. The song peaked at No. 1 on the Mainstream Rock Tracks chart, making it their third straight single to reach the top spot on the chart. This made Shinedown the only band to have their first 10 singles all reach the top five on the Mainstream Rock chart. It also reached No. 5 on the Modern Rock Tracks chart, making it the band\'s fourth top ten hit and third top five hit.'}</t>
-  </si>
-  <si>
-    <t>{'track': "http://dbpedia.org/resource/I_Won't_Give_In", 'track_name': "I Won't Give In", 'artist': 'http://dbpedia.org/resource/Asking_Alexandria', 'artist_name': 'Asking Alexandria', 'wiki': "http://en.wikipedia.org/wiki/I_Won't_Give_In", 'hometown': 'http://dbpedia.org/resource/York', 'released': '27 May 2015', 'producers': ['http://dbpedia.org/resource/Joey_Sturgis'], 'writers': ['http://dbpedia.org/resource/Ben_Bruce', 'http://dbpedia.org/resource/Denis_Stoff', 'http://dbpedia.org/resource/Joey_Sturgis', 'Denis Shaforstov', 'James Cassells'], 'labels': ['http://dbpedia.org/resource/Sumerian_Records'], 'genres': ['http://dbpedia.org/resource/Post-hardcore'], 'related_artists': ['http://dbpedia.org/resource/Danny_Worsnop', 'http://dbpedia.org/resource/Denis_Stoff', 'http://dbpedia.org/resource/Joe_Lancaster_(musician)', 'http://dbpedia.org/resource/Matt_Good', 'http://dbpedia.org/resource/We_Are_Harlot'], 'abstract': '"I Won\'t Give In" is a song by British rock band Asking Alexandria. It was released on 27 May 2015 as the first single from their fourth studio album The Black. It marks the first song featuring new frontman Denis Stoff after the departure of former vocalist Danny Worsnop in January 2015.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Emotionless_(Red_Sun_Rising_song)', 'track_name': 'Emotionless (Red Sun Rising song)', 'artist': 'http://dbpedia.org/resource/Red_Sun_Rising', 'artist_name': 'Red Sun Rising', 'wiki': 'http://en.wikipedia.org/wiki/Emotionless_(Red_Sun_Rising_song)', 'hometown': 'http://dbpedia.org/resource/Akron,_Ohio', 'released': '04 January 2016', 'producers': ['http://dbpedia.org/resource/Bob_Marlette'], 'writers': ['Mike Protich', 'Robert Marlette', 'Ryan Williams'], 'labels': ['http://dbpedia.org/resource/Razor_&amp;_Tie'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Hard_rock'], 'abstract': '"Emotionless" is a song by the American rock band Red Sun Rising. It was released on January 4, 2016 on their third album Polyester Zeal as the second single. A longer version of the song was previously released on their EP "Into Forever."'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/The_Sound_of_Silence', 'track_name': 'The Sound of Silence', 'artist': 'http://dbpedia.org/resource/Disturbed_(band)', 'artist_name': 'Disturbed', 'wiki': 'http://en.wikipedia.org/wiki/The_Sound_of_Silence', 'hometown': 'http://dbpedia.org/resource/Chicago', 'released': '12 September 1965', 'producers': ['http://dbpedia.org/resource/Kevin_Churko', 'http://dbpedia.org/resource/Tom_Wilson_(record_producer)'], 'writers': ['http://dbpedia.org/resource/Paul_Simon'], 'awards': ['Gold', 'Platinum'], 'labels': ['http://dbpedia.org/resource/Columbia_Records'], 'genres': ['http://dbpedia.org/resource/Folk_rock', 'http://dbpedia.org/resource/Orchestral_pop'], 'related_artists': ['http://dbpedia.org/resource/Dan_Donegan', 'http://dbpedia.org/resource/David_Draiman', 'http://dbpedia.org/resource/Fight_or_Flight_(band)', 'http://dbpedia.org/resource/Heaven_Below', 'http://dbpedia.org/resource/John_Moyer__John_Moyer__1', 'http://dbpedia.org/resource/Kevin_Churko', "http://dbpedia.org/resource/Marty_O'Brien", 'http://dbpedia.org/resource/Mike_Wengren', 'http://dbpedia.org/resource/Neal_Avron', 'http://dbpedia.org/resource/The_Union_Underground'], 'abstract': '"The Sound of Silence", originally "The Sounds of Silence", is a song by the American music duo Simon &amp; Garfunkel. The song was written by Paul Simon over several months in 1963 and 1964. A studio audition led to the duo signing a record deal with Columbia Records, and the original acoustic version of the song was recorded in March 1964 at Columbia Studios in New York City and included on their debut album, Wednesday Morning, 3 A.M.. Released on October 19, 1964, the album was a commercial failure and led to the duo disbanding; Simon returned to England, and Art Garfunkel to his studies at Columbia University. In 1965, the song began to attract airplay at radio stations in Boston and throughout Florida. The growing airplay led Tom Wilson, the song\'s producer, to remix the track, overdubbing electric instruments and drums. This remixed version was released as a single in September 1965. Simon &amp; Garfunkel were not informed of the song\'s remix until after its release. The song hit No. 1 on the Billboard Hot 100 for the week ending January 1, 1966, leading the duo to reunite and hastily record their second album, which Columbia titled Sounds of Silence in an attempt to capitalize on the song\'s success. The remixed single version of the song was included on this follow-up album. It was featured in the 1967 film The Graduate and was included on the film\'s soundtrack album. It was additionally released on the Mrs. Robinson EP in 1968, along with three other songs from the film: "Mrs. Robinson", "April Come She Will" and "Scarborough Fair/Canticle". The song was a top-ten hit in multiple countries worldwide, among them Australia, Austria, West Germany, Japan and the Netherlands. Generally considered a classic folk rock song, the song was added to the National Recording Registry in the Library of Congress for being "culturally, historically, or aesthetically important" in 2012, along with the rest of the Sounds of Silence album. Originally titled "The Sounds of Silence" on the album Wednesday Morning, 3 A.M., the song was included in later compilations, beginning with the 1972 compilation album Simon and Garfunkel\'s Greatest Hits.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Words_as_Weapons_(Seether_song)', 'track_name': 'Words as Weapons', 'artist': 'http://dbpedia.org/resource/Seether', 'artist_name': 'Seether', 'wiki': 'http://en.wikipedia.org/wiki/Words_as_Weapons_(Seether_song)', 'hometown': 'http://dbpedia.org/resource/Pretoria', 'released': '01 May 2014', 'producers': ["http://dbpedia.org/resource/Brendan_O'Brien_(record_producer)"], 'writers': ['http://dbpedia.org/resource/Dale_Stewart', 'http://dbpedia.org/resource/Shaun_Morgan', 'http://dbpedia.org/resource/The_Nixons', 'John Humphrey'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Post-grunge'], 'related_artists': ['http://dbpedia.org/resource/Brian_Tichy', 'http://dbpedia.org/resource/Clint_Lowery', 'http://dbpedia.org/resource/Corey_Lowery', 'http://dbpedia.org/resource/Dale_Stewart', 'http://dbpedia.org/resource/Dark_New_Day', 'http://dbpedia.org/resource/Diana_Meltzer', 'http://dbpedia.org/resource/Edgewater_(band)', 'http://dbpedia.org/resource/Josh_Freese', 'http://dbpedia.org/resource/Memento_(band)', 'http://dbpedia.org/resource/Patrick_Callahan', 'http://dbpedia.org/resource/Saint_Asonia', 'http://dbpedia.org/resource/Shaun_Morgan', 'http://dbpedia.org/resource/Troy_McLawhorn', 'http://dbpedia.org/resource/Van_Coke_Kartel'], 'abstract': '"Words as Weapons" is a song by South African rock band Seether. It was released on 1 May 2014, as the lead single from their sixth studio album Isolate and Medicate.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Bad_Company_(song)', 'track_name': 'Bad Company (canción)', 'artist': 'http://dbpedia.org/resource/Five_Finger_Death_Punch', 'artist_name': 'Five Finger Death Punch', 'wiki': 'http://en.wikipedia.org/wiki/Bad_Company_(song)', 'hometown': 'http://dbpedia.org/resource/Las_Vegas', 'released': '17 May 2010', 'producers': ['http://dbpedia.org/resource/Bad_Company', 'Kevin Churko'], 'writers': ['http://dbpedia.org/resource/Paul_Rodgers', 'http://dbpedia.org/resource/Simon_Kirke'], 'labels': ['http://dbpedia.org/resource/Island_Records', 'http://dbpedia.org/resource/Swan_Song_Records'], 'genres': ['http://dbpedia.org/resource/Hard_rock', '*Alternative metal'], 'related_artists': ['http://dbpedia.org/resource/Bad_Wolves', 'http://dbpedia.org/resource/Darrell_Roberts', 'http://dbpedia.org/resource/Davey_Suicide', 'http://dbpedia.org/resource/Ghost_Machine', 'http://dbpedia.org/resource/Invidia_(band)', 'http://dbpedia.org/resource/Ivan_Moody', 'http://dbpedia.org/resource/Jason_Hook', 'http://dbpedia.org/resource/Jeremy_Spencer_(drummer)', 'http://dbpedia.org/resource/Kevin_Churko', 'http://dbpedia.org/resource/Scale_the_Summit', 'http://dbpedia.org/resource/Sintanic', 'http://dbpedia.org/resource/Zoltan_Bathory'], 'abstract': '"Bad Company" is a song by the hard rock band Bad Company. It was released as the third single from their debut album Bad Company in 1974, although it did not chart (in America). Co-written by the group\'s lead singer Paul Rodgers and drummer Simon Kirke, the song\'s meaning comes from a book on Victorian morals.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Riot_(Three_Days_Grace_song)', 'track_name': 'Riot', 'artist': 'http://dbpedia.org/resource/Three_Days_Grace', 'artist_name': 'Three Days Grace', 'wiki': 'http://en.wikipedia.org/wiki/Riot_(Three_Days_Grace_song)', 'hometown': 'http://dbpedia.org/resource/Asphodel–Norwood', 'released': '06 November 2007', 'writers': ['http://dbpedia.org/resource/Adam_Gontier'], 'awards': ['Platinum'], 'labels': ['http://dbpedia.org/resource/Jive_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_metal'], 'related_artists': ['http://dbpedia.org/resource/Barry_Stock', 'http://dbpedia.org/resource/Big_Dirty_Band', 'http://dbpedia.org/resource/My_Darkest_Days', 'http://dbpedia.org/resource/Neil_Sanderson', 'http://dbpedia.org/resource/Saint_Asonia'], 'abstract': '"Riot" is the fourth and final single from the album One-X by Three Days Grace. The song is about protesting against the negative things in life and was inspired by vocalist Adam Gontier\'s anger when he was in rehab for OxyContin addiction. The song was also featured in the video game WWE SmackDown vs. Raw 2007 as an edited version. It is one of only a few songs by the band to feature profanity. During radio play, the line "If you feel so filthy, so dirty, so fucked up", "fucked" is replaced with "messed", and in the WWE SmackDown vs. Raw 2007 video game, the word "fuck" in that line is backmasked so that it sounds somewhat like "if you feel so filthy, so dirty, so huffed up". It charted at number 65 in Canada, and number 12 and 21 on the US Mainstream Rock and Modern Rock charts respectively. To date, this is the band\'s only single to miss the top ten on the former chart.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Savior_(Rise_Against_song)', 'track_name': 'Savior', 'artist': 'http://dbpedia.org/resource/Rise_Against', 'artist_name': 'Rise Against', 'wiki': 'http://en.wikipedia.org/wiki/Savior_(Rise_Against_song)', 'hometown': 'http://dbpedia.org/resource/Chicago', 'released': '03 June 2009', 'producers': ['http://dbpedia.org/resource/Bill_Stevenson_(musician)', 'Jason Livermore'], 'writers': ['http://dbpedia.org/resource/Rise_Against'], 'awards': ['Gold', 'Platinum', 'Silver'], 'labels': ['http://dbpedia.org/resource/DGC_Records', 'http://dbpedia.org/resource/Interscope_Records'], 'genres': ['http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Punk_rock'], 'related_artists': ['http://dbpedia.org/resource/88_Fingers_Louie', 'http://dbpedia.org/resource/Arma_Angelus', 'http://dbpedia.org/resource/Baxter_(punk_band)', 'http://dbpedia.org/resource/Gwar', 'http://dbpedia.org/resource/Hagfish_(band)', 'http://dbpedia.org/resource/Only_Crime', 'http://dbpedia.org/resource/The_Honor_System_(band)', 'http://dbpedia.org/resource/The_Killing_Tree'], 'abstract': '"Savior" is a song by American rock band Rise Against, featured on their fifth studio album Appeal to Reason (2008). In contrast to the social and political topics normally discussed in Rise Against songs, "Savior" is about forgiveness and broken relationships. It is a punk rock song, with a "frenetic pace" that John Hanson of Sputnikmusic described as reminiscent of tracks from the band\'s 2003 album Revolutions per Minute. It was released as Appeal to Reason\'s third single on June 3, 2009. "Savior" was well received by critics, with praise for its lyrics. It remains one of the band\'s most commercially successful singles to date. It peaked at number three on both the Hot Rock Songs and Alternative Songs music charts, and became the record holder for the most consecutive weeks spent on the latter chart with sixty-five weeks. The accompanying music video depicts actors in animal costumes engaging in a mosh pit.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/The_House_of_the_Rising_Sun', 'track_name': 'The House of the Rising Sun', 'artist': 'http://dbpedia.org/resource/Five_Finger_Death_Punch', 'artist_name': 'Five Finger Death Punch', 'wiki': 'http://en.wikipedia.org/wiki/The_House_of_the_Rising_Sun', 'hometown': 'http://dbpedia.org/resource/Las_Vegas', 'producers': ['http://dbpedia.org/resource/Mickie_Most'], 'writers': ['http://dbpedia.org/resource/Alan_Price', 'http://dbpedia.org/resource/Hugues_Aufray', 'Vline Buggy', 'Traditional'], 'awards': ['Gold', 'Platinum'], 'labels': ['http://dbpedia.org/resource/Columbia_Graphophone_Company', 'http://dbpedia.org/resource/MGM_Records'], 'genres': ['http://dbpedia.org/resource/Acid_rock', 'http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Blues_rock', 'http://dbpedia.org/resource/Country_pop', 'http://dbpedia.org/resource/Folk_rock', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Proto-prog', 'http://dbpedia.org/resource/Psychedelic_rock'], 'related_artists': ['http://dbpedia.org/resource/Bad_Wolves', 'http://dbpedia.org/resource/Darrell_Roberts', 'http://dbpedia.org/resource/Davey_Suicide', 'http://dbpedia.org/resource/Ghost_Machine', 'http://dbpedia.org/resource/Invidia_(band)', 'http://dbpedia.org/resource/Ivan_Moody', 'http://dbpedia.org/resource/Jason_Hook', 'http://dbpedia.org/resource/Jeremy_Spencer_(drummer)', 'http://dbpedia.org/resource/Kevin_Churko', 'http://dbpedia.org/resource/Scale_the_Summit', 'http://dbpedia.org/resource/Sintanic', 'http://dbpedia.org/resource/Zoltan_Bathory'], 'abstract': '"The House of the Rising Sun" is a traditional folk song, sometimes called "Rising Sun Blues". It tells of a person\'s life gone wrong in the city of New Orleans. Many versions also urge a sibling or parents and children to avoid the same fate. The most successful commercial version, recorded in 1964 by the British rock band The Animals, was a number one hit on the UK Singles Chart and in the US and Canada. As a traditional folk song recorded by an electric rock band, it has been described as the "first folk rock hit". The song was first collected in Appalachia in the 1930s, but probably has its roots in traditional English folk song. It is listed as number 6393 in the Roud Folk Song Index.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/The_Devil_in_I', 'track_name': 'The Devil In I', 'artist': 'http://dbpedia.org/resource/Slipknot_(band)', 'artist_name': 'Slipknot', 'wiki': 'http://en.wikipedia.org/wiki/The_Devil_in_I', 'hometown': 'http://dbpedia.org/resource/Des_Moines,_Iowa', 'producers': ['http://dbpedia.org/resource/Greg_Fidelman', '*Slipknot'], 'writers': ['http://dbpedia.org/resource/Corey_Taylor', 'http://dbpedia.org/resource/Jim_Root'], 'awards': ['Gold', 'Platinum', 'Silver'], 'labels': ['http://dbpedia.org/resource/Roadrunner_Records'], 'genres': ['http://dbpedia.org/resource/Groove_metal', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Heavy_metal_music', '*Heavy metal'], 'related_artists': ['http://dbpedia.org/resource/Alessandro_Venturella', 'http://dbpedia.org/resource/Axis_of_Justice', 'http://dbpedia.org/resource/Brandon_Darner', 'http://dbpedia.org/resource/Chris_Fehn', 'http://dbpedia.org/resource/Craig_Jones_(musician)', 'http://dbpedia.org/resource/Cry_for_Silence', 'http://dbpedia.org/resource/Dave_Fortman', 'http://dbpedia.org/resource/Dirty_Little_Rabbits', 'http://dbpedia.org/resource/Donnie_Steele', 'http://dbpedia.org/resource/Greg_Fidelman', 'http://dbpedia.org/resource/Jay_Weinberg', 'http://dbpedia.org/resource/Jim_Root', 'http://dbpedia.org/resource/Joey_Jordison', 'http://dbpedia.org/resource/Kid_Bookie', 'http://dbpedia.org/resource/Matt_Hyde_(British_producer)', 'http://dbpedia.org/resource/Mick_Thomson', 'http://dbpedia.org/resource/PCN_(band)', 'http://dbpedia.org/resource/Paul_Gray_(American_musician)', 'http://dbpedia.org/resource/Phil_Sgrosso', 'http://dbpedia.org/resource/Reggie_and_the_Full_Effect', 'http://dbpedia.org/resource/Ross_Robinson', 'http://dbpedia.org/resource/Shawn_Crahan', 'http://dbpedia.org/resource/Sid_Wilson', 'http://dbpedia.org/resource/Soulfly', 'http://dbpedia.org/resource/Sound_City_Players', 'http://dbpedia.org/resource/Stone_Sour', 'http://dbpedia.org/resource/Tech_N9ne', 'http://dbpedia.org/resource/Twelvestep', 'http://dbpedia.org/resource/Vimic', 'http://dbpedia.org/resource/Will_Haven'], 'abstract': '"The Devil in I" is a single by American heavy metal band Slipknot from their fifth album, .5: The Gray Chapter. It is the second single for the album and the first to be released to radio and music channels, with the previous single "The Negative One" being a digital only single. In an interview with Loudwire, singer Corey Taylor revealed that the then new bass player and drummer would both be on stage (as opposed to former bassist Donnie Steele who played backstage out of sight) and both would wear the same mask, as the band felt it would be disrespectful for them to have individual masks at that time. However he did not reveal their identities as the band kept them in a period of anonymity for some time for unexplained reasons. It was later revealed that these two new members were Alessandro Venturella on bass (previously the guitarist of Cry for Silence) and Jay Weinberg on drums (previously from The Reveling and Against Me!, and son of Max Weinberg of Bruce Springsteen and the E Street Band).'}</t>
-  </si>
-  <si>
-    <t>{'track': "http://dbpedia.org/resource/You_Want_a_Battle%3F_(Here's_a_War)", 'track_name': "You Want a Battle? (Here's a War)", 'artist': 'http://dbpedia.org/resource/Bullet_for_My_Valentine', 'artist_name': 'Bullet for My Valentine', 'wiki': "http://en.wikipedia.org/wiki/You_Want_a_Battle%3F_(Here's_a_War)", 'hometown': 'http://dbpedia.org/resource/Bridgend', 'released': '29 June 2015', 'writers': ['http://dbpedia.org/resource/Bullet_for_My_Valentine', 'http://dbpedia.org/resource/Matthew_Tuck', 'http://dbpedia.org/resource/Michael_Thomas_(drummer)'], 'genres': ['http://dbpedia.org/resource/Melodic_metalcore'], 'related_artists': ['http://dbpedia.org/resource/AxeWound', 'http://dbpedia.org/resource/Dear_Superstar', 'http://dbpedia.org/resource/Jason_Bowld', 'http://dbpedia.org/resource/Matt_Schwartz', 'http://dbpedia.org/resource/Matthew_Tuck', 'http://dbpedia.org/resource/Michael_Thomas_(drummer)'], 'abstract': '"You Want a Battle? (Here\'s a War)" is a song by Welsh heavy metal band Bullet for My Valentine. It was released on 29 June 2015 as the second single from the album Venom.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Human_Race_(Three_Days_Grace_song)', 'track_name': 'Human Race', 'artist': 'http://dbpedia.org/resource/Three_Days_Grace', 'artist_name': 'Three Days Grace', 'wiki': 'http://en.wikipedia.org/wiki/Human_Race_(Three_Days_Grace_song)', 'hometown': 'http://dbpedia.org/resource/Asphodel–Norwood', 'released': '23 March 2015', 'producers': ['http://dbpedia.org/resource/Gavin_Brown_(musician)'], 'writers': ['http://dbpedia.org/resource/Barry_Stock', 'http://dbpedia.org/resource/Gavin_Brown_(musician)', 'http://dbpedia.org/resource/Neil_Sanderson', 'Matt Walst', 'Brad Walst'], 'related_artists': ['http://dbpedia.org/resource/Barry_Stock', 'http://dbpedia.org/resource/Big_Dirty_Band', 'http://dbpedia.org/resource/My_Darkest_Days', 'http://dbpedia.org/resource/Neil_Sanderson', 'http://dbpedia.org/resource/Saint_Asonia'], 'abstract': '"Human Race" is a song by Canadian rock band Three Days Grace. The song was released on March 23, 2015, as the third single from the band\'s fifth studio album Human.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Duality_(song)', 'track_name': 'Duality', 'artist': 'http://dbpedia.org/resource/Slipknot_(band)', 'artist_name': 'Slipknot', 'wiki': 'http://en.wikipedia.org/wiki/Duality_(song)', 'hometown': 'http://dbpedia.org/resource/Des_Moines,_Iowa', 'released': '04 May 2004', 'producers': ['http://dbpedia.org/resource/Rick_Rubin'], 'writers': ['http://dbpedia.org/resource/Chris_Fehn', 'http://dbpedia.org/resource/Corey_Taylor', 'http://dbpedia.org/resource/Craig_Jones_(musician)', 'http://dbpedia.org/resource/Jim_Root', 'http://dbpedia.org/resource/Joey_Jordison', 'http://dbpedia.org/resource/Mick_Thomson', 'http://dbpedia.org/resource/Paul_Gray_(American_musician)', 'http://dbpedia.org/resource/Shawn_Crahan', 'http://dbpedia.org/resource/Sid_Wilson'], 'awards': ['Gold'], 'labels': ['http://dbpedia.org/resource/Roadrunner_Records'], 'genres': ['http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Nu_metal'], 'related_artists': ['http://dbpedia.org/resource/Alessandro_Venturella', 'http://dbpedia.org/resource/Axis_of_Justice', 'http://dbpedia.org/resource/Brandon_Darner', 'http://dbpedia.org/resource/Chris_Fehn', 'http://dbpedia.org/resource/Craig_Jones_(musician)', 'http://dbpedia.org/resource/Cry_for_Silence', 'http://dbpedia.org/resource/Dave_Fortman', 'http://dbpedia.org/resource/Dirty_Little_Rabbits', 'http://dbpedia.org/resource/Donnie_Steele', 'http://dbpedia.org/resource/Greg_Fidelman', 'http://dbpedia.org/resource/Jay_Weinberg', 'http://dbpedia.org/resource/Jim_Root', 'http://dbpedia.org/resource/Joey_Jordison', 'http://dbpedia.org/resource/Kid_Bookie', 'http://dbpedia.org/resource/Matt_Hyde_(British_producer)', 'http://dbpedia.org/resource/Mick_Thomson', 'http://dbpedia.org/resource/PCN_(band)', 'http://dbpedia.org/resource/Paul_Gray_(American_musician)', 'http://dbpedia.org/resource/Phil_Sgrosso', 'http://dbpedia.org/resource/Reggie_and_the_Full_Effect', 'http://dbpedia.org/resource/Ross_Robinson', 'http://dbpedia.org/resource/Shawn_Crahan', 'http://dbpedia.org/resource/Sid_Wilson', 'http://dbpedia.org/resource/Soulfly', 'http://dbpedia.org/resource/Sound_City_Players', 'http://dbpedia.org/resource/Stone_Sour', 'http://dbpedia.org/resource/Tech_N9ne', 'http://dbpedia.org/resource/Twelvestep', 'http://dbpedia.org/resource/Vimic', 'http://dbpedia.org/resource/Will_Haven'], 'abstract': '"Duality" is a song by American heavy metal band Slipknot, the song was released as the first single from their third studio album Vol. 3: (The Subliminal Verses), released in 2004. The music video was listed as Roadrunner Records\' greatest video of all-time.'}</t>
-  </si>
-  <si>
-    <t>{'track': "http://dbpedia.org/resource/Tears_Don't_Fall", 'track_name': "Tears Don't Fall", 'artist': 'http://dbpedia.org/resource/Bullet_for_My_Valentine', 'artist_name': 'Bullet for My Valentine', 'wiki': "http://en.wikipedia.org/wiki/Tears_Don't_Fall", 'hometown': 'http://dbpedia.org/resource/Bridgend', 'released': '17 June 2006', 'writers': ['http://dbpedia.org/resource/Matthew_Tuck'], 'awards': ['Silver'], 'labels': ['http://dbpedia.org/resource/Trustkill_Records', 'http://dbpedia.org/resource/Visible_Noise'], 'genres': ['http://dbpedia.org/resource/Metalcore'], 'related_artists': ['http://dbpedia.org/resource/AxeWound', 'http://dbpedia.org/resource/Dear_Superstar', 'http://dbpedia.org/resource/Jason_Bowld', 'http://dbpedia.org/resource/Matt_Schwartz', 'http://dbpedia.org/resource/Matthew_Tuck', 'http://dbpedia.org/resource/Michael_Thomas_(drummer)'], 'abstract': '"Tears Don\'t Fall" is a song by Welsh heavy metal band Bullet for My Valentine. It is the band\'s fourth single from their first full-length studio album, The Poison. The single was released on 17 June 2006 through Trustkill Records in the US. The song won the Kerrang! Award for Best Single. The song peaked at No. 24 on the Hot Mainstream Rock chart and No. 32 on the Alternative Rock chart. In 2013, the band released a sequel to the song called "Tears Don\'t Fall (Part 2)" on their fourth studio album, Temper Temper.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Psychosocial_(song)', 'track_name': 'Psychosocial (song)', 'artist': 'http://dbpedia.org/resource/Slipknot_(band)', 'artist_name': 'Slipknot', 'wiki': 'http://en.wikipedia.org/wiki/Psychosocial_(song)', 'hometown': 'http://dbpedia.org/resource/Des_Moines,_Iowa', 'released': '07 July 2008', 'producers': ['http://dbpedia.org/resource/Dave_Fortman'], 'writers': ['http://dbpedia.org/resource/Corey_Taylor', 'http://dbpedia.org/resource/Joey_Jordison', 'http://dbpedia.org/resource/Paul_Gray_(American_musician)'], 'awards': ['Gold', 'Platinum'], 'labels': ['http://dbpedia.org/resource/Roadrunner_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Nu_metal'], 'related_artists': ['http://dbpedia.org/resource/Stone_Sour'], 'abstract': '"Psychosocial" is a song by American heavy metal band Slipknot. It was released as the second single and fourth track from their fourth studio album, All Hope Is Gone. The song entered airplay on June 26, 2008 and was originally planned for release as a digital single on July 1 but was delayed and released on July 8. Slipknot performed "Psychosocial" live for the first time on July 9, 2008, at the White River Amphitheatre in Auburn, Washington. In 2008, the song was featured on the soundtrack to Marvel\'s Punisher: War Zone. The song was also nominated for \'Best Metal Performance\' for the 51st Grammy Awards, but lost to Metallica\'s "My Apocalypse", and was nominated for the Kerrang! Award for Best Single. "Psychosocial", along with two other Slipknot songs, "Duality" and "Sulfur," was released as downloadable content for Rock Band and Rock Band 2 on December 8, 2009. It is also featured as a playable track in Guitar Hero: Warriors of Rock.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Two_Weeks_(All_That_Remains_song)', 'track_name': 'Two Weeks (All That Remains song)', 'artist': 'http://dbpedia.org/resource/All_That_Remains_(band)', 'artist_name': 'All That Remains', 'wiki': 'http://en.wikipedia.org/wiki/Two_Weeks_(All_That_Remains_song)', 'hometown': 'http://dbpedia.org/resource/Springfield,_Massachusetts', 'released': '18 September 2008', 'producers': ['http://dbpedia.org/resource/Jason_Suecof'], 'writers': ['http://dbpedia.org/resource/Jason_Costa', 'http://dbpedia.org/resource/Philip_Labonte'], 'awards': ['Gold'], 'labels': ['http://dbpedia.org/resource/Prosthetic_Records'], 'genres': ['http://dbpedia.org/resource/Melodic_metalcore'], 'related_artists': ['http://dbpedia.org/resource/Adam_Dutkiewicz', 'http://dbpedia.org/resource/Bury_Your_Dead', 'http://dbpedia.org/resource/Diecast_(band)', 'http://dbpedia.org/resource/Divine_Heresy', 'http://dbpedia.org/resource/Jason_Costa', 'http://dbpedia.org/resource/Jason_Richardson_(musician)', 'http://dbpedia.org/resource/Jason_Suecof', 'http://dbpedia.org/resource/Jeanne_Sagan', 'http://dbpedia.org/resource/Matt_Deis', 'http://dbpedia.org/resource/Philip_Labonte', 'http://dbpedia.org/resource/Shadows_Fall', 'http://dbpedia.org/resource/Shannon_Lucas', 'http://dbpedia.org/resource/The_Acacia_Strain', 'http://dbpedia.org/resource/The_Black_Dahlia_Murder_(band)', 'http://dbpedia.org/resource/The_Empire_Shall_Fall', 'http://dbpedia.org/resource/Tim_Yeung', 'http://dbpedia.org/resource/Tony_Laureano', 'http://dbpedia.org/resource/Zeuss'], 'abstract': '"Two Weeks" is a song by American metal band All That Remains. It was released as a single from their fourth album, Overcome, on September 18, 2008, and a music video was released to television on October 4, 2008. In the U.S., it peaked at number 9 on the Mainstream Rock Tracks chart and at number 38 on the Modern Rock Tracks chart. It was a free playable download on the iPhone OS game, Tap Tap Revenge 2. It was also a downloadable Rock Band song, along with "This Calling" and "Chiron". The single was certified gold by the Recording Industry Association of America (RIAA) on October 26, 2018 for selling over 500,000 copies in the United States.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/I_Stand_Alone_(Godsmack_song)', 'track_name': 'I Stand Alone (Godsmack song)', 'artist': 'http://dbpedia.org/resource/Godsmack', 'artist_name': 'Godsmack', 'wiki': 'http://en.wikipedia.org/wiki/I_Stand_Alone_(Godsmack_song)', 'hometown': 'http://dbpedia.org/resource/Lawrence,_Massachusetts', 'released': '18 May 2002', 'producers': ['http://dbpedia.org/resource/Andrew_Murdock', 'http://dbpedia.org/resource/Sully_Erna', 'Murdock'], 'writers': ['http://dbpedia.org/resource/Sully_Erna', 'Erna', 'Stewart'], 'awards': ['Gold'], 'labels': ['http://dbpedia.org/resource/Universal_Music_Group'], 'genres': ['http://dbpedia.org/resource/Nu_metal'], 'related_artists': ['http://dbpedia.org/resource/Amen_(American_band)', 'http://dbpedia.org/resource/Another_Animal', 'http://dbpedia.org/resource/Camp_Freddy', 'http://dbpedia.org/resource/Candlebox', 'http://dbpedia.org/resource/Dave_Fortman', 'http://dbpedia.org/resource/Jay_Baumgardner', 'http://dbpedia.org/resource/Kilgore_(band)', 'http://dbpedia.org/resource/Robbie_Merrill', 'http://dbpedia.org/resource/Shannon_Larkin', 'http://dbpedia.org/resource/Snot_(band)', 'http://dbpedia.org/resource/Souls_at_Zero_(band)', 'http://dbpedia.org/resource/Sully_Erna', 'http://dbpedia.org/resource/The_Apocalypse_Blues_Revival', 'http://dbpedia.org/resource/Tommy_Stewart', 'http://dbpedia.org/resource/Tony_Rombola', 'http://dbpedia.org/resource/Ugly_Kid_Joe', 'http://dbpedia.org/resource/Wrathchild_America'], 'abstract': '"I Stand Alone" is a song by the American rock band Godsmack. It served as a single from the Scorpion King soundtrack on March 5, 2002. It would reappear on Godsmack\'s third studio album, Faceless, the following year. It won a 2002 Metal Edge Readers\' Choice Award for "Song of the Year From a Movie Soundtrack." "I Stand Alone" reached No. 1 on the Mainstream Rock chart and No. 20 on the Modern Rock chart in the US. The single achieved Gold certification for more than half a million copies shipped in the United States, spurring sales of over 1.5 million copies for Faceless and propelling Godsmack to worldwide popularity.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Afterlife_(Avenged_Sevenfold_song)', 'track_name': 'Afterlife (Avenged Sevenfold song)', 'artist': 'http://dbpedia.org/resource/Avenged_Sevenfold', 'artist_name': 'Avenged Sevenfold', 'wiki': 'http://en.wikipedia.org/wiki/Afterlife_(Avenged_Sevenfold_song)', 'hometown': 'http://dbpedia.org/resource/Huntington_Beach,_California', 'released': '29 January 2008', 'producers': ['http://dbpedia.org/resource/Avenged_Sevenfold'], 'writers': ['http://dbpedia.org/resource/The_Rev'], 'labels': ['http://dbpedia.org/resource/Warner_Records'], 'genres': ['http://dbpedia.org/resource/Heavy_metal_music', 'http://dbpedia.org/resource/Symphonic_metal', 'Heavy metal'], 'related_artists': ['http://dbpedia.org/resource/Brian_Haner', 'http://dbpedia.org/resource/Brooks_Wackerman', 'http://dbpedia.org/resource/Cowboy_Troy', 'http://dbpedia.org/resource/Fozzy', 'http://dbpedia.org/resource/M._Shadows', 'http://dbpedia.org/resource/Mass_Mental', 'http://dbpedia.org/resource/Mike_Portnoy', 'http://dbpedia.org/resource/Sherry_Drive', 'http://dbpedia.org/resource/Suburban_Legends', 'http://dbpedia.org/resource/Suicidal_Tendencies', 'http://dbpedia.org/resource/Synyster_Gates', 'http://dbpedia.org/resource/The_Confession_(band)__The_Confession__1', 'http://dbpedia.org/resource/The_Rev'], 'abstract': '"Afterlife" is a song by Avenged Sevenfold. The song is released as the third single from their self-titled album. The song itself features a string orchestra and was written by the band\'s drummer, The Rev. It was voted the best song of the new album on the band\'s homepage. The single and a live-action music video were released in early 2008. The music video is directed by Wayne Isham, who has shot videos for bands like Bon Jovi, Judas Priest and Mötley Crüe. In the album version, there is a string section in the intro and later in the song, both of which are cut out of the video, along with the bridge of the song, which features The Rev\'s vocals. The song is available as downloadable content for Rock Band and Guitar Hero 5, and is featured in the video game NHL 09. It was released for Rocksmith on October 30, 2012. The song is also available on the game Rock Band Track Pack: Volume 2.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Holy_Diver_(song)', 'track_name': 'Holy Diver (Lied)', 'artist': 'http://dbpedia.org/resource/Killswitch_Engage', 'artist_name': 'Killswitch Engage', 'wiki': 'http://en.wikipedia.org/wiki/Holy_Diver_(song)', 'hometown': 'http://dbpedia.org/resource/Westfield,_Massachusetts', 'released': '17 August 2007', 'producers': ['http://dbpedia.org/resource/Adam_Dutkiewicz', 'http://dbpedia.org/resource/Joel_Stroetzel', 'http://dbpedia.org/resource/Ronnie_James_Dio'], 'writers': ['http://dbpedia.org/resource/Ronnie_James_Dio'], 'awards': ['Gold'], 'labels': ['http://dbpedia.org/resource/Mercury_Records', 'http://dbpedia.org/resource/Vertigo_Records', 'http://dbpedia.org/resource/Warner_Records'], 'genres': ['http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Heavy_metal_music', 'http://dbpedia.org/resource/Metalcore'], 'related_artists': ['http://dbpedia.org/resource/Adam_Dutkiewicz', 'http://dbpedia.org/resource/Affiance_(band)', 'http://dbpedia.org/resource/Blood_Has_Been_Shed', 'http://dbpedia.org/resource/Death_Ray_Vision', 'http://dbpedia.org/resource/Howard_Jones_(American_musician)', 'http://dbpedia.org/resource/Jesse_Leach', 'http://dbpedia.org/resource/Joel_Stroetzel', 'http://dbpedia.org/resource/Jordan_Mancino', 'http://dbpedia.org/resource/Justin_Foley', "http://dbpedia.org/resource/Mike_D'Antonio", 'http://dbpedia.org/resource/Overcast_(band)', 'http://dbpedia.org/resource/Serpentine_Dominion', 'http://dbpedia.org/resource/Shadows_Fall', 'http://dbpedia.org/resource/The_Empire_Shall_Fall', 'http://dbpedia.org/resource/Times_of_Grace', 'http://dbpedia.org/resource/Unearth'], 'abstract': '"Holy Diver" is a song by American heavy metal band Dio. It was released in August 1983 as the lead single from the band\'s debut album of the same name. Although it only reached number 40 on the Mainstream Rock chart at that time, it is one of Dio\'s most popular songs today.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Feel_Invincible', 'track_name': 'Feel Invincible', 'artist': 'http://dbpedia.org/resource/Skillet_(band)', 'artist_name': 'Skillet', 'wiki': 'http://en.wikipedia.org/wiki/Feel_Invincible', 'hometown': 'http://dbpedia.org/resource/Memphis,_Tennessee', 'released': '20 May 2016', 'producers': ['http://dbpedia.org/resource/Brian_Howes'], 'writers': ['http://dbpedia.org/resource/John_Cooper_(musician)', 'http://dbpedia.org/resource/Seth_Mosley'], 'awards': ['Platinum'], 'labels': ['http://dbpedia.org/resource/Atlantic_Records'], 'related_artists': ['http://dbpedia.org/resource/Brian_Howes', 'http://dbpedia.org/resource/Jen_Ledger', 'http://dbpedia.org/resource/John_Cooper_(musician)', 'http://dbpedia.org/resource/Scarlet_White', 'http://dbpedia.org/resource/T._J._Harris'], 'abstract': '"Feel Invincible" is the lead single from the 2016 album, Unleashed, by the American Christian rock band Skillet, and is the first track on the album. It was released on May 20, 2016. The song became Skillet\'s first Hot Christian Songs No. 1 single.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Halo_(Starset_song)', 'track_name': 'Halo (Starset song)', 'artist': 'http://dbpedia.org/resource/Starset', 'artist_name': 'Starset', 'wiki': 'http://en.wikipedia.org/wiki/Halo_(Starset_song)', 'hometown': 'http://dbpedia.org/resource/Columbus,_Ohio', 'released': '04 May 2015', 'producers': ['http://dbpedia.org/resource/Rob_Graves'], 'writers': ['Dustin Bates'], 'labels': ['http://dbpedia.org/resource/Razor_&amp;_Tie'], 'genres': ['http://dbpedia.org/resource/Hard_rock'], 'related_artists': ['http://dbpedia.org/resource/Downplay', 'http://dbpedia.org/resource/Joe_Rickard', 'http://dbpedia.org/resource/Live_My_Last', 'http://dbpedia.org/resource/Luke_Holland'], 'abstract': '"Halo" is a single by American rock band Starset, off of their studio album Transmissions. It peaked at number 16 on the US Billboard Mainstream Rock Songs chart in 2015.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Pain_(Three_Days_Grace_song)', 'track_name': 'Pain', 'artist': 'http://dbpedia.org/resource/Three_Days_Grace', 'artist_name': 'Three Days Grace', 'wiki': 'http://en.wikipedia.org/wiki/Pain_(Three_Days_Grace_song)', 'hometown': 'http://dbpedia.org/resource/Asphodel–Norwood', 'released': '07 November 2006', 'writers': ['http://dbpedia.org/resource/Adam_Gontier'], 'awards': ['Platinum'], 'labels': ['http://dbpedia.org/resource/Jive_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_metal'], 'related_artists': ['http://dbpedia.org/resource/Barry_Stock', 'http://dbpedia.org/resource/Big_Dirty_Band', 'http://dbpedia.org/resource/My_Darkest_Days', 'http://dbpedia.org/resource/Neil_Sanderson', 'http://dbpedia.org/resource/Saint_Asonia'], 'abstract': '"Pain" is the second single from rock band Three Days Grace\'s 2006 album, One-X.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Life_Is_Beautiful_(Sixx:A.M._song)', 'track_name': 'Life Is Beautiful (Sixx:A.M. song)', 'artist': 'http://dbpedia.org/resource/Sixx:A.M.', 'artist_name': 'Sixx:A.M.', 'wiki': 'http://en.wikipedia.org/wiki/Life_Is_Beautiful_(Sixx:A.M._song)', 'hometown': 'http://dbpedia.org/resource/California', 'producers': ['http://dbpedia.org/resource/Sixx:A.M.'], 'writers': ['http://dbpedia.org/resource/DJ_Ashba', 'http://dbpedia.org/resource/James_Michael', 'http://dbpedia.org/resource/Nikki_Sixx'], 'labels': ['http://dbpedia.org/resource/Eleven_Seven_Label_Group'], 'genres': ['http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Post-grunge'], 'related_artists': ['http://dbpedia.org/resource/Beautiful_Creatures_(band)', 'http://dbpedia.org/resource/Brides_of_Destruction', 'http://dbpedia.org/resource/DJ_Ashba', "http://dbpedia.org/resource/Guns_N'_Roses", 'http://dbpedia.org/resource/Halestorm', 'http://dbpedia.org/resource/James_Michael', 'http://dbpedia.org/resource/Mötley_Crüe', 'http://dbpedia.org/resource/Nikki_Sixx', 'http://dbpedia.org/resource/Pyromantic', 'http://dbpedia.org/resource/Tony_Palermo'], 'abstract': '"Life Is Beautiful" is debut single by Los Angeles-based band Sixx:A.M., and lead single from their debut album, The Heroin Diaries Soundtrack. The song was written by Nikki Sixx, founding member of both Sixx:A.M. and Mötley Crüe. "Life Is Beautiful" quickly gained popularity and reached number two on the U.S. Hot Mainstream Rock Tracks chart and number 25 on the Hot Modern Rock Tracks chart. The song is available for download in the Rock Band video games and was used in the promotion of the 2008 horror film One Missed Call.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Chalk_Outline_(song)', 'track_name': 'Chalk Outline', 'artist': 'http://dbpedia.org/resource/Three_Days_Grace', 'artist_name': 'Three Days Grace', 'wiki': 'http://en.wikipedia.org/wiki/Chalk_Outline_(song)', 'hometown': 'http://dbpedia.org/resource/Asphodel–Norwood', 'released': '14 August 2012', 'producers': ['Don Gilmore'], 'writers': ['http://dbpedia.org/resource/Adam_Gontier', 'http://dbpedia.org/resource/Barry_Stock', 'http://dbpedia.org/resource/Craig_Wiseman'], 'awards': ['Gold'], 'labels': ['http://dbpedia.org/resource/RCA_Records'], 'related_artists': ['http://dbpedia.org/resource/Barry_Stock', 'http://dbpedia.org/resource/Big_Dirty_Band', 'http://dbpedia.org/resource/My_Darkest_Days', 'http://dbpedia.org/resource/Neil_Sanderson', 'http://dbpedia.org/resource/Saint_Asonia'], 'abstract': '"Chalk Outline" is the lead single from Canadian rock band Three Days Grace\'s fourth album, Transit of Venus. The band released many "snippets" of the song before August 14 to tease fans. It reached No. 1 on the U.S. Active Rock chart for a total of 10 weeks and won the "Rock Song of the Year" award given by Loudwire.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Breathe_Into_Me', 'track_name': 'Breathe Into Me', 'artist': 'http://dbpedia.org/resource/Red_(band)', 'artist_name': 'Red', 'wiki': 'http://en.wikipedia.org/wiki/Breathe_Into_Me', 'hometown': 'http://dbpedia.org/resource/Nashville,_Tennessee', 'released': '06 June 2006', 'producers': ['http://dbpedia.org/resource/Rob_Graves'], 'writers': ['http://dbpedia.org/resource/Rob_Graves', 'Jasen Rauch', 'Jason McArthur', 'Anthony Armstrong'], 'awards': ['Gold'], 'labels': ['http://dbpedia.org/resource/Essential_Records_(Christian)', 'http://dbpedia.org/resource/Sony_Music'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Christian_rock'], 'related_artists': ['http://dbpedia.org/resource/Dan_Johnson_(musician)', 'http://dbpedia.org/resource/Joe_Rickard', 'http://dbpedia.org/resource/Scarlet_White', 'http://dbpedia.org/resource/T._J._Harris'], 'abstract': '"Breathe Into Me" is the first single by the American Christian rock band Red on their debut full-length studio album End of Silence. The song was written by Anthony Armstrong, Rob Graves, Jasen Rauch and Jason McArthur. The song was released on June 6, 2006, although it was sent to all the fans who submitted their faces as part of the hype for the new album on June 6, 2006. The song appears on WOW Hits 2008.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Porn_Star_Dancing', 'track_name': 'Porn Star Dancing', 'artist': 'http://dbpedia.org/resource/My_Darkest_Days', 'artist_name': 'My Darkest Days', 'wiki': 'http://en.wikipedia.org/wiki/Porn_Star_Dancing', 'hometown': 'http://dbpedia.org/resource/Peterborough,_Ontario', 'released': '21 June 2010', 'producers': ['Joey Moi', 'Chad Kroeger'], 'writers': ['http://dbpedia.org/resource/Chad_Kroeger', 'http://dbpedia.org/resource/Joey_Moi', 'http://dbpedia.org/resource/Ted_Bruner', 'Matt Walst'], 'awards': ['Gold', 'Platinum'], 'labels': ['http://dbpedia.org/resource/604_Records'], 'genres': ['http://dbpedia.org/resource/Dirty_rap', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Post-grunge', 'http://dbpedia.org/resource/Rap_rock'], 'related_artists': ['http://dbpedia.org/resource/Chad_Kroeger', 'http://dbpedia.org/resource/Cold_Creek_County', 'http://dbpedia.org/resource/Jessie_James_Decker', 'http://dbpedia.org/resource/Ludacris', 'http://dbpedia.org/resource/My_Darkest_Days', 'http://dbpedia.org/resource/Smashing_Satellites', 'http://dbpedia.org/resource/Three_Days_Grace', 'http://dbpedia.org/resource/Zakk_Wylde'], 'abstract': '"Porn Star Dancing" is the debut single by the Canadian rock band My Darkest Days from their self-titled debut album released on September 21, 2010. The single itself was released on June 21, 2010, preceding the release of the album by three months. The song spent 26 weeks on Billboard\'s Rock Songs chart where, on December 11, 2010, it peaked at number seven. It performed better on the Billboard Mainstream Rock Tracks chart, where it spent two weeks at number one. Chad Kroeger of Nickelback sings a verse in the "Porn Star Dancing" video, which was filmed at the Hard Rock Hotel and Casino in Las Vegas, as does American rapper Ludacris, and Black Label Society frontman Zakk Wylde does a guitar solo. The music video was directed by Brendan Cochrane. Ludacris was originally featured only in the Canadian release of the video; however, due to the popularity of the track, it was subsequently adopted as the mainstream video release.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Awake_and_Alive', 'track_name': 'Awake and Alive', 'artist': 'http://dbpedia.org/resource/Skillet_(band)', 'artist_name': 'Skillet', 'wiki': 'http://en.wikipedia.org/wiki/Awake_and_Alive', 'hometown': 'http://dbpedia.org/resource/Memphis,_Tennessee', 'released': '15 February 2010', 'producers': ['http://dbpedia.org/resource/Howard_Benson'], 'writers': ['http://dbpedia.org/resource/Brian_Howes', 'http://dbpedia.org/resource/John_Cooper_(musician)'], 'awards': ['Platinum'], 'labels': ['http://dbpedia.org/resource/Ardent_Records', 'http://dbpedia.org/resource/Atlantic_Records', 'http://dbpedia.org/resource/Lava_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Christian_metal', 'http://dbpedia.org/resource/Symphonic_metal'], 'related_artists': ['http://dbpedia.org/resource/Brian_Howes', 'http://dbpedia.org/resource/Jen_Ledger', 'http://dbpedia.org/resource/John_Cooper_(musician)', 'http://dbpedia.org/resource/Scarlet_White', 'http://dbpedia.org/resource/T._J._Harris'], 'abstract': '"Awake and Alive" is the third single of the 2009 album Awake by the Christian rock band Skillet and is the fourth track on the album. It was released on February 15, 2010, to Christian Hard rock and Rock radio. Before release as a single, the song charted at No. 100 in the Billboard Hot 100 for one week and No. 16 on the Billboard Top Heatseekers after the release of Awake thanks to digital sales, becoming Skillet\'s first song to hit the Hot 100. The song also charted at No. 1 on Christian Rock.net. It has also debuted on Christian Rock charts at No. 12.'}</t>
-  </si>
-  <si>
-    <t>{'track': "http://dbpedia.org/resource/You're_Gonna_Go_Far,_Kid", 'track_name': "You're Gonna Go Far, Kid", 'artist': 'http://dbpedia.org/resource/The_Offspring', 'artist_name': 'The Offspring', 'wiki': "http://en.wikipedia.org/wiki/You're_Gonna_Go_Far,_Kid", 'hometown': 'http://dbpedia.org/resource/Garden_Grove,_California', 'released': '04 September 2008', 'producers': ['http://dbpedia.org/resource/Bob_Rock'], 'writers': ['http://dbpedia.org/resource/Dexter_Holland'], 'awards': ['Gold', 'Platinum', 'Silver'], 'labels': ['http://dbpedia.org/resource/Columbia_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_rock'], 'related_artists': ['http://dbpedia.org/resource/311_(band)', 'http://dbpedia.org/resource/Andrew_Freeman_(musician)', 'http://dbpedia.org/resource/Atom_Willard', 'http://dbpedia.org/resource/Chris_Higgins_(musician)', 'http://dbpedia.org/resource/Dexter_Holland', 'http://dbpedia.org/resource/F.O.D._(band)', 'http://dbpedia.org/resource/Face_to_Face_(punk_band)', 'http://dbpedia.org/resource/Gob_(band)', 'http://dbpedia.org/resource/Greg_K.', 'http://dbpedia.org/resource/H2O_(American_band)', 'http://dbpedia.org/resource/Jackson_United', 'http://dbpedia.org/resource/James_Lilja', 'http://dbpedia.org/resource/Jamie_Miller_(American_musician)', 'http://dbpedia.org/resource/Josh_Freese', 'http://dbpedia.org/resource/Noodles_(musician)', 'http://dbpedia.org/resource/Pete_Parada', 'http://dbpedia.org/resource/Rocket_from_the_Crypt', 'http://dbpedia.org/resource/Ron_Welty', 'http://dbpedia.org/resource/Scott_Shiflett', 'http://dbpedia.org/resource/Steady_Ground', 'http://dbpedia.org/resource/The_Didjits', 'http://dbpedia.org/resource/The_Special_Goodness', 'http://dbpedia.org/resource/Thom_Wilson', 'http://dbpedia.org/resource/Tom_Thacker_(musician)', 'http://dbpedia.org/resource/Tony_Kanal'], 'abstract': '"You\'re Gonna Go Far, Kid" is a song by American punk rock band the Offspring. It is the third track from the band\'s eighth studio album, Rise and Fall, Rage and Grace (2008), and was released as its second single on September 4, 2008.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Always_(Saliva_song)', 'track_name': 'Always (canción de Saliva)', 'artist': 'http://dbpedia.org/resource/Saliva_(band)', 'artist_name': 'Saliva', 'wiki': 'http://en.wikipedia.org/wiki/Always_(Saliva_song)', 'hometown': 'http://dbpedia.org/resource/Bartlett,_Tennessee', 'producers': ['http://dbpedia.org/resource/Bob_Marlette'], 'writers': ['http://dbpedia.org/resource/Bob_Marlette', 'http://dbpedia.org/resource/Josey_Scott', 'David Novotny', 'Wayne Swinny', 'Paul Crosby'], 'labels': ['http://dbpedia.org/resource/Island_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Nu_metal', 'http://dbpedia.org/resource/Post-grunge'], 'related_artists': ['http://dbpedia.org/resource/Brad_Arnold', 'http://dbpedia.org/resource/Brad_Stewart', 'http://dbpedia.org/resource/Burn_Season', 'http://dbpedia.org/resource/Egypt_Central', 'http://dbpedia.org/resource/Fuel_(band)', 'http://dbpedia.org/resource/Full_Devil_Jacket', 'http://dbpedia.org/resource/Josey_Scott', 'http://dbpedia.org/resource/Roxy_Blue', 'http://dbpedia.org/resource/Zach_Myers'], 'abstract': '"Always" is a song by American rock band Saliva. It was released in October 2002 as the first single off their third studio album Back into Your System (2002). The song reached number one on the Billboard Modern Rock Tracks (now called Alternative Songs) chart for one week in February 2003, making this Saliva\'s only number-one hit in their career. "Always" also peaked at number 51 on the Hot 100, the band\'s highest-charted single on that chart. It also reached the top 50 in countries like Ireland and the UK. The accompanying music video for the song, directed by Charles Infante, features a man roaming around the city being haunted by a woman.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Comatose_(Skillet_song)', 'track_name': 'Comatose (Skillet song)', 'artist': 'http://dbpedia.org/resource/Skillet_(band)', 'artist_name': 'Skillet', 'wiki': 'http://en.wikipedia.org/wiki/Comatose_(Skillet_song)', 'hometown': 'http://dbpedia.org/resource/Memphis,_Tennessee', 'writers': ['http://dbpedia.org/resource/Brian_Howes', 'John L Cooper'], 'awards': ['Gold'], 'labels': ['http://dbpedia.org/resource/Ardent_Records', 'http://dbpedia.org/resource/Atlantic_Records', 'http://dbpedia.org/resource/Lava_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Christian_rock', 'http://dbpedia.org/resource/Hard_rock'], 'related_artists': ['http://dbpedia.org/resource/Brian_Howes', 'http://dbpedia.org/resource/Jen_Ledger', 'http://dbpedia.org/resource/John_Cooper_(musician)', 'http://dbpedia.org/resource/Scarlet_White', 'http://dbpedia.org/resource/T._J._Harris'], 'abstract': "Comatose is the fifth single from Christian rock band Skillet's sixth studio album of the same name."}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/The_Kill', 'track_name': 'The Kill', 'artist': 'http://dbpedia.org/resource/Thirty_Seconds_to_Mars', 'artist_name': 'Thirty Seconds to Mars', 'wiki': 'http://en.wikipedia.org/wiki/The_Kill', 'hometown': 'http://dbpedia.org/resource/Los_Angeles', 'released': '24 January 2006', 'producers': ['http://dbpedia.org/resource/Josh_Abraham', 'http://dbpedia.org/resource/Thirty_Seconds_to_Mars'], 'writers': ['http://dbpedia.org/resource/Jared_Leto'], 'awards': ['Gold', 'Platinum'], 'labels': ['http://dbpedia.org/resource/Immortal_Records', 'http://dbpedia.org/resource/Virgin_Records'], 'genres': ['http://dbpedia.org/resource/Hard_rock'], 'related_artists': ['http://dbpedia.org/resource/Brian_Gardner', 'http://dbpedia.org/resource/Contemplate_(pop_duo)', 'http://dbpedia.org/resource/David_Bason', 'http://dbpedia.org/resource/Great_Northern_(indie_band)', 'http://dbpedia.org/resource/Josh_Abraham', 'http://dbpedia.org/resource/Kiwi_Time', 'http://dbpedia.org/resource/Matt_Frey', 'http://dbpedia.org/resource/Matt_McJunkins', 'http://dbpedia.org/resource/Matt_Wachter', 'http://dbpedia.org/resource/Sam_de_Jong', 'http://dbpedia.org/resource/Solon_Bixler', 'http://dbpedia.org/resource/The_Wondergirls', 'http://dbpedia.org/resource/Tim_Kelleher_(musician)'], 'abstract': '"The Kill" (written "The Kill (Bury Me)" on the single and music video) is a song by American band Thirty Seconds to Mars. The song was released on January 24, 2006 as the second single from their second album, A Beautiful Lie. It was certified double platinum by the Recording Industry Association of America (RIAA) and peaked at number 65 on the Billboard Hot 100.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Through_Glass', 'track_name': 'Through Glass', 'artist': 'http://dbpedia.org/resource/Stone_Sour', 'artist_name': 'Stone Sour', 'wiki': 'http://en.wikipedia.org/wiki/Through_Glass', 'hometown': 'http://dbpedia.org/resource/Des_Moines,_Iowa', 'released': '22 July 2006', 'producers': ['http://dbpedia.org/resource/Nick_Raskulinecz'], 'writers': ['http://dbpedia.org/resource/Corey_Taylor', 'http://dbpedia.org/resource/Jim_Root', 'http://dbpedia.org/resource/Josh_Rand', 'Shawn Economaki'], 'awards': ['Platinum', 'Silver'], 'labels': ['http://dbpedia.org/resource/Roadrunner_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Post-grunge'], 'related_artists': ['http://dbpedia.org/resource/Amebix', 'http://dbpedia.org/resource/Amen_(American_band)', 'http://dbpedia.org/resource/Axis_of_Justice', 'http://dbpedia.org/resource/Black_President_(band)', 'http://dbpedia.org/resource/Cavalera_Conspiracy', 'http://dbpedia.org/resource/Christian_Martucci', 'http://dbpedia.org/resource/Fireball_Ministry', 'http://dbpedia.org/resource/Hellyeah', 'http://dbpedia.org/resource/Isaac_James', 'http://dbpedia.org/resource/Jim_Root', 'http://dbpedia.org/resource/Johny_Chow', 'http://dbpedia.org/resource/Josh_Rand', 'http://dbpedia.org/resource/Junk_Beer_Kidnap_Band', 'http://dbpedia.org/resource/Mike_Portnoy', 'http://dbpedia.org/resource/Ministry_(band)', 'http://dbpedia.org/resource/Nausea_(band)', 'http://dbpedia.org/resource/Rachel_Bolan', 'http://dbpedia.org/resource/Roy_Mayorga', 'http://dbpedia.org/resource/Shannon_Larkin', 'http://dbpedia.org/resource/Slipknot_(band)', 'http://dbpedia.org/resource/Souls_of_We', 'http://dbpedia.org/resource/Sound_City_Players'], 'abstract': '"Through Glass" is the second single from the rock band Stone Sour\'s second album Come What(ever) May. The track was published online through Yahoo! along with its music video on June 9, 2006, and was released on July 22, 2006, just over one week before the release of the album. It reached the number one spot on the Billboard Hot Mainstream Rock Tracks chart in the US, where it remained for seven weeks, and number two on the Alternative Songs chart. The song also peaked at number 39 on the Billboard Hot 100 after crossing over to pop radio. It remains their most popular song to date. The single\'s cover features the band\'s hometown of Des Moines, Iowa. On March 3, 2017, "Through Glass" was certified platinum by the RIAA. Following the death of Linkin Park frontman Chester Bennington in July 2017, Corey Taylor would dedicate the song to his very good friend with an emotional performance of "Through Glass" in Mansfield, Massachusetts, where according to Taylor, who would state that "Through Glass" was one of Bennington\'s favourite songs.'}</t>
-  </si>
-  <si>
-    <t>{'track': "http://dbpedia.org/resource/It's_Been_Awhile", 'track_name': "It's Been Awhile", 'artist': 'http://dbpedia.org/resource/Staind', 'artist_name': 'Staind', 'wiki': "http://en.wikipedia.org/wiki/It's_Been_Awhile", 'hometown': 'http://dbpedia.org/resource/Springfield,_Massachusetts', 'released': '27 March 2001', 'producers': ['http://dbpedia.org/resource/Josh_Abraham'], 'writers': ['http://dbpedia.org/resource/Aaron_Lewis', 'http://dbpedia.org/resource/Mike_Mushok', 'Jon Wysocki', 'Johnny April'], 'awards': ['Gold', 'Silver'], 'labels': ['http://dbpedia.org/resource/Elektra_Records', 'http://dbpedia.org/resource/Flip_Records_(1994)'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Nu_metal', 'http://dbpedia.org/resource/Post-grunge'], 'related_artists': ['http://dbpedia.org/resource/Aaron_Lewis', 'http://dbpedia.org/resource/Cold_(band)', 'http://dbpedia.org/resource/David_Bottrill', 'http://dbpedia.org/resource/Kilgore_(band)', 'http://dbpedia.org/resource/Mike_Mushok', 'http://dbpedia.org/resource/Newsted', 'http://dbpedia.org/resource/Saint_Asonia', 'http://dbpedia.org/resource/Soil_(American_band)', 'http://dbpedia.org/resource/Will_Hunt'], 'abstract': '"It\'s Been Awhile" is a song recorded by American rock band Staind. It was released on March 27, 2001, as the lead single from their third studio album, Break the Cycle (2001). The song is Staind\'s most successful and is their best-known song, becoming a number five hit on the Billboard Hot 100 in October 2001—their only song to reach the top 10. It spent a second-best 20 weeks at number one on the Billboard Hot Mainstream Rock Tracks chart (behind "Loser" by 3 Doors Down) and a then-record 16 weeks at number one on the Billboard Hot Modern Rock Tracks chart. Worldwide, the single became a top-20 hit in Ireland, the Netherlands, New Zealand, and the United Kingdom. The song was featured as a playable track on the Nintendo GameCube video game Donkey Konga 2.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Fix_Me_(10_Years_song)', 'track_name': 'Fix Me', 'artist': 'http://dbpedia.org/resource/10_Years_(band)', 'artist_name': '10 Years', 'wiki': 'http://en.wikipedia.org/wiki/Fix_Me_(10_Years_song)', 'hometown': 'http://dbpedia.org/resource/Knoxville,_Tennessee', 'released': '01 February 2011', 'producers': ['http://dbpedia.org/resource/Howard_Benson'], 'writers': ['http://dbpedia.org/resource/Dave_Bassett_(songwriter)'], 'labels': ['http://dbpedia.org/resource/Republic_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_metal'], 'related_artists': ['http://dbpedia.org/resource/The_American_Plague'], 'abstract': '"Fix Me" is the second single from the 2010 album Feeding the Wolves, released by alternative metal band 10 Years.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Bring_Me_to_Life', 'track_name': 'Bring Me to Life', 'artist': 'http://dbpedia.org/resource/Evanescence', 'artist_name': 'Evanescence', 'wiki': 'http://en.wikipedia.org/wiki/Bring_Me_to_Life', 'hometown': 'http://dbpedia.org/resource/Little_Rock,_Arkansas', 'released': '18 August 2017', 'producers': ['http://dbpedia.org/resource/Dave_Fortman', 'http://dbpedia.org/resource/David_Foster'], 'writers': ['http://dbpedia.org/resource/Amy_Lee', 'http://dbpedia.org/resource/Ben_Moody', 'http://dbpedia.org/resource/David_Hodges'], 'awards': ['Gold', 'Platinum'], 'labels': ['http://dbpedia.org/resource/Wind-up_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Electronica', 'http://dbpedia.org/resource/Gothic_metal', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Nu_metal', 'Orchestral'], 'related_artists': ['http://dbpedia.org/resource/Dark_New_Day', 'http://dbpedia.org/resource/Lindsey_Stirling', 'http://dbpedia.org/resource/Within_Temptation'], 'abstract': '"Bring Me to Life" is a song by American rock band Evanescence, recorded for their debut studio album, Fallen (2003). Wind-up released it as the lead single from the album on April 7, 2003. The track was written by group members Amy Lee, Ben Moody, and David Hodges and produced by Dave Fortman. It also features uncredited guest vocals from Paul McCoy of the band 12 Stones. "Bring Me to Life" is a nu metal, gothic metal, hard rock and an alternative rock song. According to Lee, "Bring Me to Life" has several meanings and inspirations; its subjects are an incident in a restaurant, open-mindedness, and waking up to the things which are missing in the protagonist\'s life. Lee later revealed that the song was inspired by her long-time friend and husband Josh Hartzler. The critical response to the song was mostly positive, with critics praising the melody of the song, Lee\'s vocals and their accompaniment by McCoy. The song remains one of the band\'s signature songs. Following the inclusion of "Bring Me to Life" on the Daredevil soundtrack the song became a commercial and critical success, topping the charts in Australia, the United Kingdom and Italy. It charted in the top ten in more than fifteen countries including the United States, Argentina, Germany and New Zealand. "Bring Me to Life" was certified platinum by the Recording Industry Association of America (RIAA) and twice platinum by the Australian Recording Industry Association (ARIA). The lyrics of the song were interpreted by some as a call for new life in Jesus Christ, which helped the song to chart on the Christian rock charts, despite it not being the songwriters\' intention. The band won in the category for Best Hard Rock Performance at the 46th Grammy Awards where the song was also nominated for Best Rock Song. Directed by Philipp Stölzl, the accompanying music video shows Lee singing and climbing on a skyscraper while having nightmares in her bedroom. "Bring Me to Life" was part of the set list during the Fallen and The Open Door Tour. Many artists recorded cover versions of the song, including the classical singer Katherine Jenkins and American pianist, John Tesh. The song was also used on several television shows.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Satellite_(Rise_Against_song)', 'track_name': 'Satellite (Rise Against song)', 'artist': 'http://dbpedia.org/resource/Rise_Against', 'artist_name': 'Rise Against', 'wiki': 'http://en.wikipedia.org/wiki/Satellite_(Rise_Against_song)', 'hometown': 'http://dbpedia.org/resource/Illinois', 'released': '01 November 2011', 'producers': ['http://dbpedia.org/resource/Bill_Stevenson_(musician)'], 'writers': ['http://dbpedia.org/resource/Rise_Against'], 'awards': ['Gold'], 'labels': ['http://dbpedia.org/resource/DGC_Records', 'http://dbpedia.org/resource/Interscope_Records'], 'genres': ['http://dbpedia.org/resource/Melodic_hardcore'], 'related_artists': ['http://dbpedia.org/resource/88_Fingers_Louie', 'http://dbpedia.org/resource/Alexisonfire', 'http://dbpedia.org/resource/Arma_Angelus', 'http://dbpedia.org/resource/Axis_of_Justice', 'http://dbpedia.org/resource/Bad_Waitress', 'http://dbpedia.org/resource/Baxter_(punk_band)', 'http://dbpedia.org/resource/Billy_Talent', 'http://dbpedia.org/resource/Brandon_Barnes', 'http://dbpedia.org/resource/Cancer_Bats', 'http://dbpedia.org/resource/Gwar', 'http://dbpedia.org/resource/Hagfish_(band)', 'http://dbpedia.org/resource/Joe_Principe', 'http://dbpedia.org/resource/Jon_Snodgrass_(musician)', 'http://dbpedia.org/resource/Only_Crime', 'http://dbpedia.org/resource/Squirtgun', 'http://dbpedia.org/resource/The_Honor_System_(band)', 'http://dbpedia.org/resource/The_Killing_Tree', 'http://dbpedia.org/resource/The_Methadones', 'http://dbpedia.org/resource/Tim_McIlrath', 'http://dbpedia.org/resource/Zach_Blair'], 'abstract': '"Satellite" is a song by American rock band Rise Against, featured on their sixth studio album Endgame (2011). Written by lead vocalist Tim McIlrath, "Satellite" expresses the idea that the band stood by their social and political beliefs, and that they would not conform to mainstream media. The song first premiered on March 4, 2011 in a webisode series detailing the recording process of Endgame, but was not released as the album\'s third single until November 1, 2011. The song impacted radio on the same day. The song was positively received by critics and praised for its passionate lyrics.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Bleed_It_Out', 'track_name': 'Bleed It Out', 'artist': 'http://dbpedia.org/resource/Linkin_Park', 'artist_name': 'Linkin Park', 'wiki': 'http://en.wikipedia.org/wiki/Bleed_It_Out', 'released': '17 August 2007', 'producers': ['http://dbpedia.org/resource/Mike_Shinoda', 'http://dbpedia.org/resource/Rick_Rubin'], 'writers': ['http://dbpedia.org/resource/Linkin_Park'], 'awards': ['Gold', 'Platinum', 'Silver'], 'labels': ['http://dbpedia.org/resource/Warner_Records'], 'genres': ['http://dbpedia.org/resource/Rap_rock'], 'related_artists': ['http://dbpedia.org/resource/Aaron_Lewis', 'http://dbpedia.org/resource/Adrian_Young__Adrian_Young__1', 'http://dbpedia.org/resource/Amir_Derakh', 'http://dbpedia.org/resource/Beta_State', 'http://dbpedia.org/resource/Brad_Delson', 'http://dbpedia.org/resource/Camp_Freddy', 'http://dbpedia.org/resource/Contemplate_(pop_duo)', 'http://dbpedia.org/resource/DJ_Lynnwood', 'http://dbpedia.org/resource/Dave_Farrell', 'http://dbpedia.org/resource/David_Brown_(British_musician)', 'http://dbpedia.org/resource/Dead_by_Sunrise', 'http://dbpedia.org/resource/Hoobastank', 'http://dbpedia.org/resource/Ilsey_Juber', 'http://dbpedia.org/resource/J._R._Rotem', 'http://dbpedia.org/resource/Joe_Hahn', 'http://dbpedia.org/resource/Jonathan_Davis', 'http://dbpedia.org/resource/Josh_Abraham', 'http://dbpedia.org/resource/Julien-K', 'http://dbpedia.org/resource/Justin_Lassen', 'http://dbpedia.org/resource/Kings_of_Chaos_(band)', 'http://dbpedia.org/resource/KutMasta_Kurt', 'http://dbpedia.org/resource/Mickey_Petralia', 'http://dbpedia.org/resource/Money_Mark', 'http://dbpedia.org/resource/Neal_Avron', 'http://dbpedia.org/resource/RAC_(musician)', 'http://dbpedia.org/resource/Rob_Bourdon', 'http://dbpedia.org/resource/Ryan_Key', 'http://dbpedia.org/resource/Ryan_Shuck', 'http://dbpedia.org/resource/Shavo_Odadjian', 'http://dbpedia.org/resource/Spike_Stent', 'http://dbpedia.org/resource/Steve_Aoki', 'http://dbpedia.org/resource/Steve_Jablonsky', 'http://dbpedia.org/resource/Steven_McKellar', 'http://dbpedia.org/resource/Stone_Temple_Pilots', 'http://dbpedia.org/resource/Styles_of_Beyond', 'http://dbpedia.org/resource/The_X-Ecutioners', 'http://dbpedia.org/resource/Tom_Dumont', 'http://dbpedia.org/resource/Tony_Kanal', 'http://dbpedia.org/resource/Unkle', 'http://dbpedia.org/resource/Xombie_(band)', 'http://dbpedia.org/resource/Z-Trip'], 'abstract': '"Bleed It Out" is a song by American rock band Linkin Park. The song was released as the second single from their third studio album, Minutes to Midnight. The single was released on August 17, 2007. On July 30, 2007, the music video was shown on MTV Germany and MTV Asia and has premiered in Canada through the Muchmusic Countdown and their MuchAxs video streaming website. This song was #44 on Rolling Stone\'s list of the 100 Best Songs of 2007. This song was also #83 on MTV Asia\'s list of Top 100 Hits of 2007. The song is featured in the closing video package in Game 3 of the 2007 World Series, and in the main setlist for the rhythm video game Guitar Hero: Warriors of Rock.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/This_Is_War_(song)', 'track_name': 'This is War (singel Thirty Seconds to Mars)', 'artist': 'http://dbpedia.org/resource/Thirty_Seconds_to_Mars', 'artist_name': 'Thirty Seconds to Mars', 'wiki': 'http://en.wikipedia.org/wiki/This_Is_War_(song)', 'hometown': 'http://dbpedia.org/resource/Los_Angeles', 'released': '26 March 2010', 'producers': ['http://dbpedia.org/resource/Flood_(producer)', 'http://dbpedia.org/resource/Thirty_Seconds_to_Mars'], 'writers': ['http://dbpedia.org/resource/Jared_Leto'], 'awards': ['Gold', 'Silver'], 'labels': ['http://dbpedia.org/resource/EMI', 'http://dbpedia.org/resource/Virgin_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_rock'], 'related_artists': ['http://dbpedia.org/resource/Brian_Gardner', 'http://dbpedia.org/resource/Contemplate_(pop_duo)', 'http://dbpedia.org/resource/David_Bason', 'http://dbpedia.org/resource/Great_Northern_(indie_band)', 'http://dbpedia.org/resource/Josh_Abraham', 'http://dbpedia.org/resource/Kiwi_Time', 'http://dbpedia.org/resource/Matt_Frey', 'http://dbpedia.org/resource/Matt_McJunkins', 'http://dbpedia.org/resource/Matt_Wachter', 'http://dbpedia.org/resource/Sam_de_Jong', 'http://dbpedia.org/resource/Solon_Bixler', 'http://dbpedia.org/resource/The_Wondergirls', 'http://dbpedia.org/resource/Tim_Kelleher_(musician)'], 'abstract': '"This Is War" is a song by American rock band Thirty Seconds to Mars, featured on their third studio album of the same name. Written by lead vocalist Jared Leto, the song was released as the second single from the album to American radio on March 8, 2010, and the physical single was released on March 26, 2010.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/So_Far_Away_(Staind_song)', 'track_name': 'So Far Away (Staind song)', 'artist': 'http://dbpedia.org/resource/Staind', 'artist_name': 'Staind', 'wiki': 'http://en.wikipedia.org/wiki/So_Far_Away_(Staind_song)', 'hometown': 'http://dbpedia.org/resource/Springfield,_Massachusetts', 'released': '17 June 2003', 'producers': ['http://dbpedia.org/resource/Josh_Abraham'], 'writers': ['http://dbpedia.org/resource/Aaron_Lewis', 'http://dbpedia.org/resource/Mike_Mushok', 'Jon Wysocki', 'Johnny April'], 'labels': ['http://dbpedia.org/resource/Elektra_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Post-grunge'], 'related_artists': ['http://dbpedia.org/resource/Aaron_Lewis', 'http://dbpedia.org/resource/Cold_(band)', 'http://dbpedia.org/resource/David_Bottrill', 'http://dbpedia.org/resource/Kilgore_(band)', 'http://dbpedia.org/resource/Mike_Mushok', 'http://dbpedia.org/resource/Newsted', 'http://dbpedia.org/resource/Saint_Asonia', 'http://dbpedia.org/resource/Soil_(American_band)', 'http://dbpedia.org/resource/Will_Hunt'], 'abstract': '"So Far Away" is a song by American band Staind. It was released in June 2003 as the second single from their fourth album 14 Shades of Grey. The song enjoyed much success on both rock and mainstream radio, reaching number-one on the US Mainstream Rock Tracks for fourteen consecutive weeks, one of the longest runs in the chart\'s history, and number-one on the Modern Rock Tracks for seven non-consecutive weeks. The song also became the band\'s second top 40 hit on the Billboard Hot 100, peaking at number 24.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Paralyzer', 'track_name': 'Paralyzer', 'artist': 'http://dbpedia.org/resource/Finger_Eleven', 'artist_name': 'Finger Eleven', 'wiki': 'http://en.wikipedia.org/wiki/Paralyzer', 'hometown': 'http://dbpedia.org/resource/Burlington,_Ontario', 'released': '30 January 2007', 'producers': ['http://dbpedia.org/resource/Johnny_K'], 'writers': ['http://dbpedia.org/resource/Finger_Eleven', 'http://dbpedia.org/resource/James_Black_(guitarist)', 'Scott Anderson', 'Sean Anderson', 'Rich Beddoe', 'Rick Jackett'], 'awards': ['Platinum'], 'labels': ['http://dbpedia.org/resource/Wind-up_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Dance-rock', 'http://dbpedia.org/resource/Funk_rock'], 'related_artists': ['http://dbpedia.org/resource/Diana_Meltzer', 'http://dbpedia.org/resource/James_Black_(guitarist)', 'http://dbpedia.org/resource/Kev_Gray_&amp;_The_Gravy_Train', 'http://dbpedia.org/resource/Saint_Asonia'], 'abstract': '"Paralyzer" is the first single from the Canadian rock band Finger Eleven\'s fourth album, Them vs. You vs. Me. It was released in 2006. Finger Eleven\'s frontman Scott Anderson has said that the single has a feel distinct from the rest of Finger Eleven\'s music, possessing more of a funk rock or dance-rock sound. However, the song has also been characterized as alternative rock. The song received high airplay in both the United States and Canada, and was performed live on the March 14, 2007 episode of The Tonight Show with Jay Leno and again ten months later on January 9, 2008, in a testament to the longevity of the single\'s success. The song has surpassed "One Thing" to be Finger Eleven\'s most successful single. The single has three versions. One is the original CD version, while the other two are radio edit versions, in which the line containing the word "shitty" is either censored or replaced with "shady". The song alludes to the band\'s prior hit "One Thing" with the lyric "I should just stay home, if one thing really means one"; in addition, the recurring guitar riff quotes The Cars\' "Moving in Stereo." The style of the song has been compared to (though inspired by) "Take Me Out", a 2004 single by indie rock band Franz Ferdinand. Finger Eleven occasionally performed "Take Me Out" during the middle of Paralyzer in live performances as a part of a medley along with "Trampled Under Foot" by Led Zeppelin and "Another Brick in the Wall (Part II)" by Pink Floyd. The song has been featured on the television series Gossip Girl and Greek. It is also a playable song in the rhythm game Rock Revolution by Konami; although the game\'s producers have stated that all songs will be covers, the song is one of two for which the game uses the original master recording (the other being "Given Up" by Linkin Park). The song is also a playable song in the rhythm game Band Hero by Activision. The song is also on the Rock Band Network, and was introduced as DLC into Rocksmith by Ubisoft. The song is also part of the third game in the Guitar Hero On Tour Series for the Nintendo DS, Guitar Hero On Tour: Modern Hits. The song is also well known in certain internet circles due to its frequent usage in early YouTube videos.'}</t>
-  </si>
-  <si>
-    <t>{'track': "http://dbpedia.org/resource/When_I'm_Gone_(3_Doors_Down_song)", 'track_name': "When I'm Gone", 'artist': 'http://dbpedia.org/resource/3_Doors_Down', 'artist_name': '3 Doors Down', 'wiki': "http://en.wikipedia.org/wiki/When_I'm_Gone_(3_Doors_Down_song)", 'hometown': 'http://dbpedia.org/resource/Escatawpa,_Mississippi', 'released': '23 September 2002', 'writers': ['Brad Arnold', 'Todd Harrell', 'Chris Henderson', 'Matt Roberts'], 'awards': ['Gold'], 'labels': ['http://dbpedia.org/resource/Republic_Records', 'http://dbpedia.org/resource/Universal_Music_Group'], 'genres': ['http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Post-grunge'], 'related_artists': ['http://dbpedia.org/resource/Bob_Seger', 'http://dbpedia.org/resource/Brad_Arnold', 'http://dbpedia.org/resource/Daniel_Adair', 'http://dbpedia.org/resource/Josh_Freese', 'http://dbpedia.org/resource/Nickelback', 'http://dbpedia.org/resource/Puddle_of_Mudd', 'http://dbpedia.org/resource/Rick_Parashar', 'http://dbpedia.org/resource/Scott_Logan_(musician)', 'http://dbpedia.org/resource/Shinedown'], 'abstract': '"When I\'m Gone" is a song by American rock band 3 Doors Down. It was released on September 23, 2002, as the lead single from their second album, Away from the Sun. It peaked at number four on the Billboard Hot 100 chart in April 2003. The song also spent seventeen weeks atop the Billboard Hot Mainstream Rock Tracks chart from November 2002 through March 2003, becoming one of the longest-running number-one singles on that chart. The song also peaked at number two on the Hot Modern Rock Tracks chart almost reaching number one by one spot from Queens of the Stone Age\'s "No One Knows" on the issue dated February 15, 2003. It spent one week atop the Top 40 Mainstream chart for one week on May 3, 2003, and also peaked at number three on the Adult Top 40 chart. The song has been featured in the crime drama series Third Watch, in the episode "A Ticket Grows in Brooklyn" (2003).'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/How_You_Remind_Me', 'track_name': 'How You Remind Me', 'artist': 'http://dbpedia.org/resource/Nickelback', 'artist_name': 'Nickelback', 'wiki': 'http://en.wikipedia.org/wiki/How_You_Remind_Me', 'hometown': 'http://dbpedia.org/resource/Hanna,_Alberta', 'released': '17 July 2001', 'producers': ['http://dbpedia.org/resource/Nickelback', 'http://dbpedia.org/resource/Rick_Parashar'], 'writers': ['http://dbpedia.org/resource/Chad_Kroeger', 'Ryan Vikedal', 'Ryan Peake', 'Mike Kroeger'], 'awards': ['Gold', 'Platinum'], 'labels': ['http://dbpedia.org/resource/Roadrunner_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Post-grunge'], 'related_artists': ['http://dbpedia.org/resource/3_Doors_Down', 'http://dbpedia.org/resource/Billy_Gibbons', 'http://dbpedia.org/resource/Chad_Kroeger', 'http://dbpedia.org/resource/Daniel_Adair', 'http://dbpedia.org/resource/Joey_Moi', 'http://dbpedia.org/resource/Jon_Redwine', 'http://dbpedia.org/resource/Josey_Scott', 'http://dbpedia.org/resource/Josh_Ramsay', 'http://dbpedia.org/resource/Mike_Shipley', 'http://dbpedia.org/resource/Nuno_Bettencourt', 'http://dbpedia.org/resource/Rick_Parashar', 'http://dbpedia.org/resource/Robert_John_%22Mutt%22_Lange', 'http://dbpedia.org/resource/Ryan_Peake', 'http://dbpedia.org/resource/Theory_of_a_Deadman'], 'abstract': '"How You Remind Me" is a song by Canadian rock band Nickelback. Written by lead singer Chad Kroger and composed by the band, the track was released on July 17, 2001, as the lead single from their third studio album, Silver Side Up (2001). A "Gold Mix" was made for latter editions of the single with the heavier guitars edited out of the chorus. Kroeger referred to this song as the song that put Nickelback on the map when played at their concert in Sturgis, South Dakota. Considered to be Nickelback\'s signature song, "How You Remind Me" reached the top of the US Billboard Hot 100 and was named the number-one most played song on US radio of the 2000s decade by Nielsen Soundscan, being spun over 1.2 million times on US airwaves since its release in 2001 to the end of 2009. The song was ranked fourth on the Billboard Hot 100 Songs of the Decade and 75th on the UK decade-end chart. It was nominated for the Kerrang! Award for Best Single. "How You Remind Me" was also rated the number-one rock song and number-four alternative song of the decade of the 2000s by Billboard. The song was featured in the music video game Guitar Hero: Warriors of Rock and in a recut, PG-13 version of Deadpool 2 titled Once Upon a Deadpool. The song played a large role in a Saturday Night Live skit on March 10, 2018, with Sterling K. Brown in which the lyrics are a dying woman\'s final words.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/The_Pretender_(Foo_Fighters_song)', 'track_name': 'The Pretender (canção)', 'artist': 'http://dbpedia.org/resource/Foo_Fighters', 'artist_name': 'Foo Fighters', 'wiki': 'http://en.wikipedia.org/wiki/The_Pretender_(Foo_Fighters_song)', 'hometown': 'http://dbpedia.org/resource/Seattle', 'released': '21 August 2007', 'producers': ['http://dbpedia.org/resource/Gil_Norton'], 'writers': ['http://dbpedia.org/resource/Chris_Shiflett', 'http://dbpedia.org/resource/Dave_Grohl', 'http://dbpedia.org/resource/Nate_Mendel', 'http://dbpedia.org/resource/Taylor_Hawkins'], 'awards': ['Gold', 'Platinum'], 'labels': ['http://dbpedia.org/resource/RCA_Records', 'http://dbpedia.org/resource/Roswell_Records'], 'genres': ['http://dbpedia.org/resource/Hard_rock'], 'related_artists': ['http://dbpedia.org/resource/Adrian_Bushby', 'http://dbpedia.org/resource/Bob_Mould', 'http://dbpedia.org/resource/Brandon_Bell_(recording_engineer)', 'http://dbpedia.org/resource/Butch_Vig', 'http://dbpedia.org/resource/Cage_the_Elephant', 'http://dbpedia.org/resource/Chris_Shiflett', 'http://dbpedia.org/resource/DYS_(band)', 'http://dbpedia.org/resource/Drew_Hester', 'http://dbpedia.org/resource/Face_to_Face_(punk_band)', 'http://dbpedia.org/resource/Franz_Stahl', 'http://dbpedia.org/resource/Fred_Schneider', 'http://dbpedia.org/resource/Germs_(band)', 'http://dbpedia.org/resource/Greg_Kurstin', 'http://dbpedia.org/resource/Hovercraft_(band)', 'http://dbpedia.org/resource/Jackson_United', 'http://dbpedia.org/resource/Joe_Walsh', 'http://dbpedia.org/resource/Krist_Novoselic', 'http://dbpedia.org/resource/Me_First_and_the_Gimme_Gimmes', 'http://dbpedia.org/resource/Mike_Watt', 'http://dbpedia.org/resource/Nate_Mendel', 'http://dbpedia.org/resource/Nirvana_(band)', 'http://dbpedia.org/resource/No_Use_for_a_Name', 'http://dbpedia.org/resource/Omar_Hakim', 'http://dbpedia.org/resource/Pat_Smear', 'http://dbpedia.org/resource/Petra_Haden', 'http://dbpedia.org/resource/Rami_Jaffee', 'http://dbpedia.org/resource/Rich_Costey', 'http://dbpedia.org/resource/Rick_Nielsen', 'http://dbpedia.org/resource/Ryan_Hadlock', 'http://dbpedia.org/resource/Scott_Shiflett', 'http://dbpedia.org/resource/Scream_(band)', 'http://dbpedia.org/resource/Skeeter_Thompson', 'http://dbpedia.org/resource/Sound_City_Players', 'http://dbpedia.org/resource/Subwave_(band)', 'http://dbpedia.org/resource/Sunny_Day_Real_Estate', 'http://dbpedia.org/resource/Taylor_Hawkins', 'http://dbpedia.org/resource/Taylor_Hawkins_and_the_Coattail_Riders', 'http://dbpedia.org/resource/Tenacious_D', 'http://dbpedia.org/resource/The_Birds_of_Satan', 'http://dbpedia.org/resource/The_Fire_Theft', 'http://dbpedia.org/resource/The_Jealous_Sound', 'http://dbpedia.org/resource/Them_Crooked_Vultures', 'http://dbpedia.org/resource/Tom_Rothrock', 'http://dbpedia.org/resource/William_Goldsmith'], 'abstract': '"The Pretender" is a song by the American alternative rock band Foo Fighters. It was the first single from the group\'s 2007 album Echoes, Silence, Patience &amp; Grace. It is one of Foo Fighters\' most successful songs; peaking at number 37 on the US Billboard Hot 100 (making it their third top 40 single), only "Learn to Fly" and "Best of You" beat its position on the Billboard Hot 100.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Right_Here_(Staind_song)', 'track_name': 'Right Here (Staind)', 'artist': 'http://dbpedia.org/resource/Staind', 'artist_name': 'Staind', 'wiki': 'http://en.wikipedia.org/wiki/Right_Here_(Staind_song)', 'hometown': 'http://dbpedia.org/resource/Springfield,_Massachusetts', 'released': '07 June 2005', 'producers': ['http://dbpedia.org/resource/David_Bottrill', 'Staind'], 'writers': ['http://dbpedia.org/resource/Aaron_Lewis', 'http://dbpedia.org/resource/Mike_Mushok', 'Jon Wysocki', 'Johnny April'], 'awards': ['Gold'], 'labels': ['http://dbpedia.org/resource/Flip_Records_(1994)'], 'genres': ['http://dbpedia.org/resource/Alternative_rock'], 'related_artists': ['http://dbpedia.org/resource/Aaron_Lewis', 'http://dbpedia.org/resource/Cold_(band)', 'http://dbpedia.org/resource/David_Bottrill', 'http://dbpedia.org/resource/Kilgore_(band)', 'http://dbpedia.org/resource/Mike_Mushok', 'http://dbpedia.org/resource/Newsted', 'http://dbpedia.org/resource/Saint_Asonia', 'http://dbpedia.org/resource/Soil_(American_band)', 'http://dbpedia.org/resource/Will_Hunt'], 'abstract': '"Right Here" is the first single from Staind\'s fifth album Chapter V in 2005. "Right Here" has been Staind\'s third-most successful single chartwise (the first two being 2001\'s "It\'s Been Awhile" and 2003\'s "So Far Away"), peaking at No. 1 on the Billboard Hot Mainstream Rock Tracks chart, as the previous two singles had also done. The two previous singles also hit No. 1 on the Hot Modern Rock Tracks chart but "Right Here" failed to accomplish this feat. but it still was successful peaking at No. 3. It is band\'s second-most successful single on the U.S. pop and adult contemporary charts unexpectedly charting higher than "So Far Away" which charted higher on most charts but only behind "It\'s Been Awhile" leading "Right Here" to peak No. 7 on the Adult Top 40 and No. 9 on the Mainstream Top 40 chart. It is also Staind\'s first entry into the Hot Adult Contemporary Tracks (No. 40) and the Hot Digital Songs charts (No. 39). The song was also used in a video package by World Wrestling Entertainment commemorating wrestler Edge after he won his first WWE Championship.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Second_Chance_(Shinedown_song)', 'track_name': 'Second Chance (Shinedown)', 'artist': 'http://dbpedia.org/resource/Shinedown', 'artist_name': 'Shinedown', 'wiki': 'http://en.wikipedia.org/wiki/Second_Chance_(Shinedown_song)', 'hometown': 'http://dbpedia.org/resource/Jacksonville,_Florida', 'released': '09 September 2008', 'producers': ['http://dbpedia.org/resource/Rob_Cavallo'], 'writers': ['http://dbpedia.org/resource/Brent_Smith', 'http://dbpedia.org/resource/Dave_Bassett_(songwriter)'], 'awards': ['Gold', 'Platinum'], 'labels': ['http://dbpedia.org/resource/Atlantic_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Hard_rock'], 'related_artists': ['http://dbpedia.org/resource/3_Doors_Down', 'http://dbpedia.org/resource/Brad_Stewart', 'http://dbpedia.org/resource/Call_Me_No_One', 'http://dbpedia.org/resource/Chris_Chaney', 'http://dbpedia.org/resource/Deepfield', 'http://dbpedia.org/resource/Fuel_(band)', 'http://dbpedia.org/resource/Nick_Perri', 'http://dbpedia.org/resource/Zach_Myers'], 'abstract': '"Second Chance" is a song by American rock band Shinedown and the second single from their 2008 album, The Sound of Madness. It was released on September 9, 2008, and has become Shinedown\'s highest-charting single.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/In_the_End', 'track_name': 'In the End', 'artist': 'http://dbpedia.org/resource/Linkin_Park', 'artist_name': 'Linkin Park', 'wiki': 'http://en.wikipedia.org/wiki/In_the_End', 'released': '09 October 2001', 'producers': ['Don Gilmore'], 'writers': ['http://dbpedia.org/resource/Brad_Delson', 'http://dbpedia.org/resource/Chester_Bennington', 'http://dbpedia.org/resource/Joe_Hahn', 'http://dbpedia.org/resource/Mike_Shinoda', 'http://dbpedia.org/resource/Rob_Bourdon', 'Mark Wakefield', 'Dave Farrell', 'Farrell', 'Hahn', 'Delson', 'Shinoda', 'Wakefield', 'Linkin Park'], 'awards': ['Gold', 'Platinum'], 'labels': ['http://dbpedia.org/resource/Warner_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Nu_metal', 'http://dbpedia.org/resource/Pop_music', 'http://dbpedia.org/resource/Rap_rock', 'pop'], 'related_artists': ['http://dbpedia.org/resource/Aaron_Lewis', 'http://dbpedia.org/resource/Adrian_Young__Adrian_Young__1', 'http://dbpedia.org/resource/Amir_Derakh', 'http://dbpedia.org/resource/Beta_State', 'http://dbpedia.org/resource/Brad_Delson', 'http://dbpedia.org/resource/Camp_Freddy', 'http://dbpedia.org/resource/Contemplate_(pop_duo)', 'http://dbpedia.org/resource/DJ_Lynnwood', 'http://dbpedia.org/resource/Dave_Farrell', 'http://dbpedia.org/resource/David_Brown_(British_musician)', 'http://dbpedia.org/resource/Dead_by_Sunrise', 'http://dbpedia.org/resource/Hoobastank', 'http://dbpedia.org/resource/Ilsey_Juber', 'http://dbpedia.org/resource/J._R._Rotem', 'http://dbpedia.org/resource/Joe_Hahn', 'http://dbpedia.org/resource/Jonathan_Davis', 'http://dbpedia.org/resource/Josh_Abraham', 'http://dbpedia.org/resource/Julien-K', 'http://dbpedia.org/resource/Justin_Lassen', 'http://dbpedia.org/resource/Kings_of_Chaos_(band)', 'http://dbpedia.org/resource/KutMasta_Kurt', 'http://dbpedia.org/resource/Mickey_Petralia', 'http://dbpedia.org/resource/Money_Mark', 'http://dbpedia.org/resource/Neal_Avron', 'http://dbpedia.org/resource/RAC_(musician)', 'http://dbpedia.org/resource/Rob_Bourdon', 'http://dbpedia.org/resource/Ryan_Key', 'http://dbpedia.org/resource/Ryan_Shuck', 'http://dbpedia.org/resource/Shavo_Odadjian', 'http://dbpedia.org/resource/Spike_Stent', 'http://dbpedia.org/resource/Steve_Aoki', 'http://dbpedia.org/resource/Steve_Jablonsky', 'http://dbpedia.org/resource/Steven_McKellar', 'http://dbpedia.org/resource/Stone_Temple_Pilots', 'http://dbpedia.org/resource/Styles_of_Beyond', 'http://dbpedia.org/resource/The_X-Ecutioners', 'http://dbpedia.org/resource/Tom_Dumont', 'http://dbpedia.org/resource/Tony_Kanal', 'http://dbpedia.org/resource/Unkle', 'http://dbpedia.org/resource/Xombie_(band)', 'http://dbpedia.org/resource/Z-Trip'], 'abstract': '"In the End" is a song by American rock band Linkin Park. It is the eighth track on their debut album, Hybrid Theory (2000), and was released as the album\'s fourth and final single. "In the End" received positive reviews by music critics, with most reviewers complimenting the song\'s signature piano riff, as well as noting rapper Mike Shinoda\'s vocal prominence in the song. "In the End" also achieved mainstream popularity, and was a commercial success upon release. The song reached the top ten on numerous worldwide music charts and reached number two on the US Billboard Hot 100, the band\'s highest peak on the chart, as well as their first song that peaked within the top 40 in early 2002, making it a sleeper hit. It also reached number one on the Z100 top 100 songs of 2002 countdown. It ranked at number 121 in Blender magazine\'s The 500 Greatest Songs Since You Were Born. In June 2021, it became the first nu metal song to surpass one billion streams on Spotify. "In The End" has become one of Linkin Park\'s most recognizable and signature songs. Chester Bennington, the band\'s lead vocalist, initially disliked the song and did not want it to be included on Hybrid Theory. It was remixed on Reanimation as "Enth E ND". The music video of the song, directed by Nathan Cox and the band\'s turntablist Joe Hahn, featured the band in a fantasy setting. Ahead of the release for the 20th anniversary reissue for Hybrid Theory, Linkin Park released a demo version of "In the End" as the second single from the re-release of Hybrid Theory on October 1, 2020.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Someday_(Nickelback_song)', 'track_name': 'Someday (Nickelback)', 'artist': 'http://dbpedia.org/resource/Nickelback', 'artist_name': 'Nickelback', 'wiki': 'http://en.wikipedia.org/wiki/Someday_(Nickelback_song)', 'hometown': 'http://dbpedia.org/resource/Hanna,_Alberta', 'released': '28 July 2003', 'producers': ['http://dbpedia.org/resource/Joey_Moi', 'Nickelback'], 'writers': ['http://dbpedia.org/resource/Chad_Kroeger', 'http://dbpedia.org/resource/Ryan_Peake', 'Ryan Vikedal', 'Mike Kroeger'], 'awards': ['Gold', 'Platinum', 'Silver'], 'labels': ['http://dbpedia.org/resource/Roadrunner_Records'], 'genres': ['http://dbpedia.org/resource/Post-grunge'], 'related_artists': ['http://dbpedia.org/resource/3_Doors_Down', 'http://dbpedia.org/resource/Billy_Gibbons', 'http://dbpedia.org/resource/Chad_Kroeger', 'http://dbpedia.org/resource/Daniel_Adair', 'http://dbpedia.org/resource/Joey_Moi', 'http://dbpedia.org/resource/Jon_Redwine', 'http://dbpedia.org/resource/Josey_Scott', 'http://dbpedia.org/resource/Josh_Ramsay', 'http://dbpedia.org/resource/Mike_Shipley', 'http://dbpedia.org/resource/Nuno_Bettencourt', 'http://dbpedia.org/resource/Rick_Parashar', 'http://dbpedia.org/resource/Robert_John_%22Mutt%22_Lange', 'http://dbpedia.org/resource/Ryan_Peake', 'http://dbpedia.org/resource/Theory_of_a_Deadman'], 'abstract': '"Someday" is a song by Canadian rock band Nickelback. It was released on 28 July 2003 as the lead single from their 2003 album The Long Road. It reached number one in Canada for three weeks and number seven in the United States. In the latter country, it charted for 50 weeks, thus becoming Nickelback\'s longest-charting single. It also charted within the top 10 of the UK Singles Chart, where it peaked at number six.'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Des Moines, Iowa', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Des_Moines%2C_Iowa', 'place': 'http://sws.geonames.org/4853828/', 'postal_code': '50333', 'geo_link': 'http://www.geonames.org/4853828/des-moines.html', 'lat': '41.590833333333336', 'long': '-93.62083333333334', 'population': '203433'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Nevada', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Nevada', 'place': 'http://sws.geonames.org/5509151/', 'geo_link': 'http://www.geonames.org/5509151/nevada.html', 'lat': '39.0', 'long': '-117.0', 'population': '2399532'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Huntington Beach, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Dwyer_Middle_School', 'place': 'http://sws.geonames.org/5358705/', 'postal_code': '92648', 'geo_link': 'http://www.geonames.org/5346952/ethel-dwyer-middle-school.html', 'lat': '33.69277777777778', 'long': '-118.00027777777778', 'population': '189992'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'San Antonio', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/San_Antonio', 'place': 'http://sws.geonames.org/4726206/', 'postal_code': '78233', 'geo_link': 'http://www.geonames.org/4726206/san-antonio.html', 'lat': '29.416666666666668', 'long': '-98.5', 'population': '1327407'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Las Vegas', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Las_Vegas', 'place': 'http://sws.geonames.org/5506956/', 'postal_code': '89106', 'geo_link': 'http://www.geonames.org/5506956/las-vegas.html', 'lat': '36.175', 'long': '-115.13638888888889', 'population': '583756'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Newark, New Jersey', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Newark%2C_New_Jersey', 'place': 'http://sws.geonames.org/5101798/', 'postal_code': '07191', 'geo_link': 'http://www.geonames.org/5101798/newark.html', 'lat': '40.72422', 'long': '-74.172574', 'population': '277140'}</t>
+    <t>{'url': 'https://genius.com/Major-lazer-lean-on-lyrics', 'lyrics': '[Produced by Major Lazer and DJ Snake]\n[Verse 1]\nDo you recall, not long ago\nWe would walk on the sidewalk?\nInnocent, remember?\nAll we did was care for each other\nBut the night was warm\nWe were bold and young\nAll around, the wind blows\nWe would only hold on to let go\n[Chorus]\nBlow a kiss, fire a gun\nWe need someone to lean on\nBlow a kiss, fire a gun\nAll we need is somebody to lean on\nBlow a kiss, fire a gun\nWe need someone to lean on\nBlow a kiss, fire a gun\nAll-All-All we need is somebody to lean on\n\n[Drop]\n(Hey, hey, hey, hey)\n(Hey, hey, hey, hey)\n[Verse 2]\nWhat will we do when we get old?\nWill we walk down the same road?\nWill you be there by my side?\nStanding strong as the waves roll over\nWhen the nights are long\nLonging for you to come home\nAll around, the wind blows\nWe would only hold on to let go\n[Chorus]\nBlow a kiss, fire a gun\nWe need someone to lean on\nBlow a kiss, fire a gun\nAll we need is somebody to lean on\nBlow a kiss, fire a gun\nWe need someone to lean on\nBlow a kiss, fire a gun\nAll-All-All we need is somebody to lean on\n\n[Drop]\nAll we need is somebody to lean on\n(We need someone to lean on, hey)\n(Hey, hey)\nAll-All-All we need is somebody to lean on\n(Major Lazer, hey)\n[Bridge]\nOh, oh-oh\n(Hey, hey, hey, hey)\n(Hey, hey, hey, hey, hey)\n[Chorus]\nBlow a kiss, fire a gun (Hey, hey)\nWe need someone to lean on (Hey, hey)\nBlow a kiss, fire a gun (Hey, hey)\nAll we need is somebody to lean on (Hey, hey)\nBlow a kiss, fire a gun (Hey, hey)\nWe need someone to lean on (Hey, hey)\nBlow a kiss, fire a gun (Hey, hey)\nAll-All-All we need is somebody to lean on (Hey, hey)', 'annotations': {'description': '&lt;p&gt;“Lean On” is the lead single from and fourth song on Major Lazer’s third studio album. &lt;a href="https://genius.com/albums/Major-lazer/Peace-is-the-mission" rel="noopener" data-api_path="/albums/121955"&gt;&lt;em&gt;Peace Is the Mission&lt;/em&gt;.&lt;/a&gt; The track features &lt;a href="https://genius.com/artists/Mo" rel="noopener" data-api_path="/artists/220458"&gt;MØ&lt;/a&gt; on vocals, and &lt;a href="https://genius.com/artists/Dj-snake" rel="noopener" data-api_path="/artists/41287"&gt;DJ Snake&lt;/a&gt; on co-production.&lt;/p&gt;\n\n&lt;p&gt;It’s an Indian-influenced reggae house song about the exhilaration and disappointment of young love.&lt;/p&gt;\n\n&lt;p&gt;When making the video, Diplo had this to say:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;&lt;a href="http://floodmagazine.com/11420/watch-major-lazer-heads-to-india-in-lean-on-video-announces-new-album/" rel="noopener nofollow"&gt;India is special and its beauty absolutely humbled me. When we toured there as Major Lazer, it was mind blowing to see our fan-base and we wanted to incorporate the attitude and positive vibes into our video and just do something that embodies the essence of Major Lazer. Major Lazer has always been a culture mashup and to us, India feels like some kind of special creature with one foot in history and one firmly in the future. The experience is something we’ll never forget.”&lt;/a&gt;&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;As of October 2018, it is the &lt;a href="https://en.wikipedia.org/wiki/List_of_most-viewed_YouTube_videos" rel="noopener nofollow"&gt;sixteenth most viewed video on YouTube&lt;/a&gt; with 2.39 billion views.&lt;/p&gt;', 'producers': [{'name': 'Jr. Blender', 'url': 'https://genius.com/artists/Jr-blender'}, {'name': 'Diplo', 'url': 'https://genius.com/artists/Diplo'}, {'name': 'DJ Snake', 'url': 'https://genius.com/artists/Dj-snake'}], 'writers': [{'name': 'Jr. Blender', 'url': 'https://genius.com/artists/Jr-blender'}, {'name': 'DJ Snake', 'url': 'https://genius.com/artists/Dj-snake'}, {'name': 'MØ', 'url': 'https://genius.com/artists/M'}, {'name': 'Diplo', 'url': 'https://genius.com/artists/Diplo'}], 'labels': [{'name': 'Mad Decent', 'url': 'https://genius.com/artists/Mad-decent'}, {'name': 'Because Music', 'url': 'https://genius.com/artists/Because-music'}, {'name': 'Warner Music Group', 'url': 'https://genius.com/artists/Warner-music-group'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Laura-branigan-self-control-lyrics', 'lyrics': "[Verse]\nOh, the night is my world\nCity light painted girl\nIn the day nothing matters\nIt's the night time that flatters\nIn the night, no control\nThrough the wall something's breaking\nWearing white as you're walkin'\nDown the street of my soul\n\n[Pre-Chorus]\nYou take my self, you take my self control\nYou got me livin' only for the night\nBefore the morning comes, the story's told\nYou take my self, you take my self control\nAnother night, another day goes by\nI never stop myself to wonder why\nYou help me to forget to play my role\nYou take my self, you take my self control\n\n[Chorus]\nI, I live among the creatures of the night\nI haven't got the will to try and fight\nAgainst a new tomorrow, so I guess I'll just believe it\nThat tomorrow never comes\nA safe night, I'm living in the forest of a dream\nI know the night is not as it would seem\nI must believe in something, so I'll make myself believe it\nThat this night will never go\n[Break]\nOh-oh-oh, oh-oh-oh\nOh-oh-oh, oh-oh-oh\nOh-oh-oh, oh-oh-oh\nOh-oh-oh, oh-oh-oh\n\n[Verse]\nOh, the night is my world\nCity light painted girl\nIn the day nothing matters\nIt's the night time that flatters\n\n[Chorus]\nI, I live among the creatures of the night\nI haven't got the will to try and fight\nAgainst a new tomorrow, so I guess I'll just believe it\nThat tomorrow never knows\nA safe night, I'm living in the forest of a dream\nI know the night is not as it would seem\nI must believe in something, so I'll make myself believe it\nThat this night will never go\n\n[Break]\nOh-oh-oh, oh-oh-oh\nOh-oh-oh, oh-oh-oh\nOh-oh-oh\nYou take my self, you take my self control\nYou take my self, you take my self control\nYou take my self, you take my self control\nYou take my self, you take my self control\nYou take my self, you take my self control\nYou take my self, you take my self control\nYou take my self, you take my self control\nYou take my self, you take my self control\n\nI, I live among the creatures of the night\nI haven't got the will to try and fight\nIt's my world\nCity light painted girl", 'annotations': {'description': '&lt;p&gt;“Self Control” is the lead single and title track of Branigan’s third album. The song &lt;a href="https://www.songfacts.com/facts/laura-branigan/self-control" rel="noopener nofollow"&gt;explores&lt;/a&gt; “losing your self-control to the night or to someone”.&lt;/p&gt;\n\n&lt;p&gt;It was an international smash hit, reaching #1 in four countries &lt;a href="https://www.officialcharts.com/artist/19930/laura-branigan/" rel="noopener nofollow"&gt;overseas&lt;/a&gt; and breaking the top 10 in five others including a &lt;a href="https://www.billboard.com/music/laura-branigan" rel="noopener nofollow"&gt;#4 US peak&lt;/a&gt;. This song was also recorded by Italian singer Raf who took it to #1 too (in Italy).&lt;/p&gt;\n\n&lt;p&gt;The music video was directed by French Connection/The Exorcist director William Friedkin and &lt;a href="https://www.songfacts.com/facts/laura-branigan/self-control" rel="noopener nofollow"&gt;was banned&lt;/a&gt; by MTV.&lt;/p&gt;\n\n&lt;p&gt;More recently, “Self Control” was &lt;a href="https://www.youtube.com/watch?v=f_VBXRZuHTc" rel="noopener nofollow"&gt;featured in&lt;/a&gt; the video game Grand Theft Auto Vice City.&lt;/p&gt;', 'producers': [{'name': 'Jack White (Producer)', 'url': 'https://genius.com/artists/Jack-white-producer'}, {'name': 'Robbie Buchanan', 'url': 'https://genius.com/artists/Robbie-buchanan'}], 'writers': [{'name': 'Raf', 'url': 'https://genius.com/artists/Raf'}, {'name': 'Steve Piccolo', 'url': 'https://genius.com/artists/Steve-piccolo'}, {'name': 'Giancarlo Bigazzi', 'url': 'https://genius.com/artists/Giancarlo-bigazzi'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Foster-the-people-pumped-up-kicks-lyrics', 'lyrics': '[Verse 1]\nRobert\'s got a quick hand\nHe\'ll look around the room, he won\'t tell you his plan\nHe\'s got a rolled cigarette\nHanging out his mouth, he\'s a cowboy kid\nYeah, he found a six-shooter gun\nIn his dad\'s closet with a box of fun things\nI don\'t even know what\nBut he\'s coming for you, yeah, he\'s coming for you, wait\n\n[Chorus]\nAll the other kids with the pumped up kicks\nYou better run, better run, outrun my gun\nAll the other kids with the pumped up kicks\nYou better run, better run faster than my bullet\nAll the other kids with the pumped up kicks\nYou better run, better run, outrun my gun\nAll the other kids with the pumped up kicks\nYou better run, better run faster than my bullet\n\n[Verse 2]\nDaddy works a long day\nHe be coming home late, and he\'s coming home late\nAnd he\'s bringing me a surprise\n\'Cause dinner\'s in the kitchen and it\'s packed in ice\nI\'ve waited for a long time\nYeah, the sleight of my hand is now a quick-pull trigger\nI reason with my cigarette\nAnd say, "Your hair\'s on fire, you must\'ve lost your wits," yeah\n[Chorus]\nAll the other kids with the pumped up kicks\nYou better run, better run, outrun my gun\nAll the other kids with the pumped up kicks\nYou better run, better run faster than my bullet\nAll the other kids with the pumped up kicks\nYou better run, better run, outrun my gun\nAll the other kids with the pumped up kicks\nYou better run, better run faster than my bullet\n\n[Bridge]\nRun, run, run, run\nRu-ru-ru-run, run, run\nRu-ru-ru-ru-run, run, run, run\nRu-ru-ru-run\nRun, run, ru-run, run\n\n[Chorus]\nAll the other kids with the pumped up kicks\nYou better run, better run, outrun my gun\nAll the other kids with the pumped up kicks\nYou better run, better run faster than my bullet\nAll the other kids with the pumped up kicks\nYou better run, better run, outrun my gun\nAll the other kids with the pumped up kicks\nYou better run, better run faster than my bullet\nAll the other kids with the pumped up kicks\nYou better run, better run, outrun my gun\nAll the other kids with the pumped up kicks\nYou better run, better run faster than my bullet', 'annotations': {'description': '&lt;p&gt;Robert, the main character and narrator of the song, dreams of violence towards his rich classmates and peers. The song details his plans and ambitions for a school shooting, diving deep into the causes of his emotions.&lt;/p&gt;\n\n&lt;p&gt;During a 2011 &lt;a href="http://www.rollingstone.com/music/news/band-to-watch-foster-the-peoples-pumped-up-psych-pop-20110608" rel="noopener nofollow"&gt;&lt;em&gt;Rolling Stone&lt;/em&gt; interview&lt;/a&gt;, Foster said:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;I was trying to get inside the head of an isolated, psychotic kid.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Although this song is peppy and upbeat, Foster uses this to mask the true meaning of the song, and makes for a beautiful yet haunting composition, a tension which he referenced in the same interview:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;It’s a ‘fuck you’ song to the hipsters in a way – but it’s a song the hipsters are going to want to dance to.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Despite many believing that this song condones and encourages violence, Foster said otherwise in a 2011 &lt;a href="http://usatoday30.usatoday.com/life/music/news/story/2011-11-30/foster-the-people-pumped-up-kicks/51071462/1" rel="noopener nofollow"&gt;&lt;em&gt;USA Today&lt;/em&gt; interview&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;The song is not about condoning violence at all. It’s the complete opposite. The song is an amazing platform to have a conversation with your kids about something that shouldn’t be ignored, to talk about it in a loving way.&lt;/p&gt;&lt;/blockquote&gt;', 'producers': [{'name': 'Mark Foster', 'url': 'https://genius.com/artists/Mark-foster'}], 'writers': [{'name': 'Mark Foster', 'url': 'https://genius.com/artists/Mark-foster'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Chumbawamba-tubthumping-lyrics', 'lyrics': '[Spoken Interlude: Danny from "Brassed Off"]\nTruth is, I thought it mattered\nI thought that music mattered\nBut does it? Bollocks!\nNot compared to how people matter\n\n[Intro: Chumbawamba]\nWe\'ll be singin\'\nWhen we\'re winnin\'\nWe\'ll be singin\'\n\n[Chorus: Chumbawamba]\nI get knocked down, but I get up again\nYou\'re never gonna keep me down\nI get knocked down, but I get up again\nYou\'re never gonna keep me down\nI get knocked down, but I get up again\nYou\'re never gonna keep me down\nI get knocked down, but I get up again\nYou\'re never gonna keep me down\n\n[Verse 1: Danbert Nobacon &amp; Lou Watts]\nPissin\' the night away, pissin\' the night away\nHe drinks a Whiskey drink, he drinks a Vodka drink\nHe drinks a Lager drink, he drinks a Cider drink\nHe sings the songs that remind him of the good times\nHe sings the songs that remind him of the better times\nOh, Danny Boy, Danny Boy, Danny Boy\n[Chorus: Chumbawamba]\nI get knocked down, but I get up again\nYou\'re never gonna keep me down\nI get knocked down, but I get up again\nYou\'re never gonna keep me down\nI get knocked down, but I get up again\nYou\'re never gonna keep me down\nI get knocked down, but I get up again\nYou\'re never gonna keep me down\n\n[Verse 2: Boff Whalley &amp; Lou Watts]\nPissin\' the night away, pissin\' the night away\nHe drinks a Whiskey drink, he drinks a Vodka drink\nHe drinks a Lager drink, he drinks a Cider drink\nHe sings the songs that remind him of the good times\nHe sings the songs that remind him of the better times\nDon\'t cry for me, next-door neighbour\n\n[Chorus: Chumbawamba]\nI get knocked down, but I get up again\nYou\'re never gonna keep me down\nI get knocked down, but I get up again\nYou\'re never gonna keep me down\nI get knocked down, but I get up again\nYou\'re never gonna keep me down\nI get knocked down, but I get up again\nYou\'re never gonna keep me down\n[Horn Solo]\n\n[Chorus: Chumbawamba]\nI get knocked down, (We\'ll be singin\') but I get up again\nYou\'re never gonna keep me down (When we\'re winnin\')\nI get knocked down, (We\'ll be singin\') but I get up again\nYou\'re never gonna keep me down (Ooh)\nI get knocked down, (We\'ll be singin\') but I get up again\nYou\'re never gonna keep me down (When we\'re winnin\')\nI get knocked down, (We\'ll be singin\') but I get up again\nYou\'re never gonna keep me down (Ooh)\n\n[Chorus: Chumbawamba]\nI get knocked down, (We\'ll be singin\') but I get up again (Pissin\' the night away)\nYou\'re never gonna keep me down (When we\'re winnin\')\nI get knocked down, (We\'ll be singin\') but I get up again (Pissin\' the night away)\nYou\'re never gonna keep me down (Ooh)\nI get knocked down, (We\'ll be singin\') but I get up again (Pissin\' the night away)\nYou\'re never gonna keep me down (When we\'re winnin\')\nI get knocked down, (We\'ll be singin\') but I get up again (Pissin\' the night away)\nYou\'re never gonna keep me down (Ooh)\n\n[Chorus: Chumbawamba]\nI get knocked down, (We\'ll be singin\') but I get up again (Pissin\' the night away)\nYou\'re never gonna keep me down (When we\'re winnin\')\nI get knocked down, (We\'ll be singin\') but I get up again (Pissin\' the night away)\nYou\'re never gonna keep me down (Ooh)\nI get knocked down, (We\'ll be singin\') but I get up again (Pissin\' the night away)\nYou\'re never gonna keep me down (When we\'re winnin\')\nI get knocked down, (We\'ll be singin\') but I get up again (Pissin\' the night away)\nYou\'re never gonna keep me down (Ooh)\n[Chorus: Chumbawamba]\nI get knocked down, (We\'ll be singin\') but I get up again (Pissin\' the night away)\nYou\'re never gonna keep me down (When we\'re winnin\')\nI get knocked down, (We\'ll be singin\') but I get up again (Pissin\' the night away)\nYou\'re never gonna keep me down (Ooh)\nI get knocked down, (We\'ll be singin\') but I get up again (Pissin\' the night away)\nYou\'re never gonna keep me down (When we\'re winnin\')\nI get knocked down, (We\'ll be singin\') but I get up again (Pissin\' the night away)\nYou\'re never gonna keep me down (Ooh)\nI get knocked down, (We\'ll be singin\') but I get up again (Pissin\' the night away)\nYou\'re never gonna keep me down\n\n[Instrumental Outro]', 'annotations': {'description': '&lt;p&gt;&lt;img src="https://images.rapgenius.com/0f69bbcf0486e5894e6b12c483abf326.300x300x1.jpg" alt="" width="300" height="300" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;In the UK, a tubthumper is a politician. The US equivalent of tubthumping is "stumping" (campaigning). The liner notes on the album &lt;em&gt;Tubthumper&lt;/em&gt;, from which "Tubthumping" was the first single, put the song in a radical context, quoting a UK anti-road protester, Paris 1968 graffiti, details about the famous McLibel case and the short story "The Loneliness of the Long Distance Runner".&lt;/p&gt;', 'producers': [{'name': 'Neil Ferguson', 'url': 'https://genius.com/artists/Neil-ferguson'}], 'writers': [{'name': 'Danbert Nobacon', 'url': 'https://genius.com/artists/Danbert-nobacon'}, {'name': 'Boff Whalley', 'url': 'https://genius.com/artists/Boff-whalley'}, {'name': 'Lou Watts', 'url': 'https://genius.com/artists/Lou-watts'}, {'name': 'Alice Nutter', 'url': 'https://genius.com/artists/Alice-nutter'}, {'name': 'Harry “Daz” Hamer', 'url': 'https://genius.com/artists/Harry-daz-hamer'}, {'name': 'Paul Greco', 'url': 'https://genius.com/artists/Paul-greco'}, {'name': 'Dunstan Bruce', 'url': 'https://genius.com/artists/Dunstan-bruce'}, {'name': 'Jude Abbott', 'url': 'https://genius.com/artists/Jude-abbott'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/The-chemical-brothers-got-to-keep-on-lyrics', 'lyrics': 'Gotta keep on, gotta keep on\nGotta keep on, gotta keep on\nGotta keep on making me high\nGotta keep on making me high\nGotta keep on making me high\nGotta keep on making me high\nGotta keep on, gotta keep on\nGotta keep on, gotta keep on\nGotta keep on making me high\nGotta keep on making me high\nGotta keep on making me high\nGotta keep on making me high (Ooh-ooh-ooh)\nGotta keep on, gotta keep on\nGotta keep on, gotta keep on\n\n(Ooh-ooh-ooh)\nGotta keep on making me high\nGotta keep on making me high\nGotta keep on making me high\nGotta keep on making me high\nGotta keep on, gotta keep on\nGotta keep on, gotta keep on\n\n(Ooh-ooh-ooh)\nGotta keep on making me high\nGotta keep on making me high\nGotta keep on making me high\nGotta keep on making me high (Ooh-ooh-ooh)\nGotta keep on, gotta keep on\nGotta keep on, gotta keep on\n(Ooh-ooh-ooh)\n(Ooh-ooh-ooh)\nGotta keep on making me high\nGotta keep on making me high\nGotta keep on making me high\nGotta keep on making me high (Ooh-ooh-ooh)\nGotta keep on, gotta keep on\nGotta keep on, gotta keep on\n\nAnd the rain comes down\nLike tears, like tears\nAnd the rain comes down\nLike tears, like tears\nAnd the rain comes down\nLike tears, like tears\nLike tears, like tears\nLike tears, like tears\nLike tears, like tears\nLike tears, like tears\nLike tears, like tears\nLike tears, like tears\n\n(Ooh-ooh-ooh)\n(Ooh-ooh-ooh)\nGotta keep on making me high\nGotta keep on making me high\nGotta keep on making me high\nGotta keep on making me high (Ooh-ooh-ooh)\nGotta keep on, gotta keep on\nGotta keep on, gotta keep on\nGotta keep on making me high\nGotta keep on making me high\nGotta keep on making me high\nGotta keep on making me high (Ooh-ooh-ooh)\nGotta keep on, gotta keep on\nGotta keep on, gotta keep on', 'annotations': {'description': '&lt;p&gt;Keeping the theme of human apocalypse, “Got to Keep On” takes disco approach to the concept of persistence. In the first song “The Eve of Destruction,” there is a reference to the unaffordable price of water. The lyrical intermission to this song is a chorus on the possibility of rain as tears–a potential reference to hope within an apocalyptic drought.&lt;/p&gt;', 'producers': [{'name': 'The Chemical Brothers', 'url': 'https://genius.com/artists/The-chemical-brothers'}], 'writers': [{'name': 'Peter Brown', 'url': 'https://genius.com/artists/Peter-brown'}, {'name': 'Tom Rowlands', 'url': 'https://genius.com/artists/Tom-rowlands'}, {'name': 'Ed Simons', 'url': 'https://genius.com/artists/Ed-simons'}, {'name': 'Rod McKuen', 'url': 'https://genius.com/artists/Rod-mckuen'}, {'name': 'Robert Rans', 'url': 'https://genius.com/artists/Robert-rans'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Gorillaz-tomorrow-comes-today-lyrics', 'lyrics': "[Intro]\n[Unintelligible]\n\n[Verse 1: 2-D]\nEverybody's here with me\nWe've got no camera to see\nDon't think I'm all in this world\nThe camera won't let me roll\nThe verdict doesn't love our soul\nThe digital won't let me go\n\n[Chorus: 2-D]\nYeah, yeah, yeah, I'll pay\nWhen tomorrow\nTomorrow comes today\n[Unintelligible]\n\n[Verse 2: 2-D]\nStereo, I want it on\nIt's taken me far too long\nDon't think I'm all in this world\nDon't think I'll be here too long\nDon't think I'll be here too long\n(Don't think I'll be here too long)\nI don't think I'll be here too long\n(I don't think I'll be here too long)\n[Chorus: 2-D]\nYeah, yeah, yeah, I'll pay\nWhen tomorrow\nTomorrow comes today\n\n[Outro: 2-D]\n(Don't think I'm not all in this world)\n(Don't think I'm not all in this world)\n(Don't think I'm not all in this world)\n(Don't think I'm not all in this world)", 'annotations': {'description': '&lt;p&gt;“Tomorrow Comes Today” was first released on Gorillaz’s 2000 EP of the same name. Later, it was included on their debut self titled album in 2001 and was the album’s fourth and final single.&lt;/p&gt;\n\n&lt;p&gt;The music video was directed by comic book artist Jamie Hewlett, the co-creater and artist behind &lt;em&gt;Gorillaz.&lt;/em&gt; This was the band’s first music video.&lt;/p&gt;\n\n&lt;p&gt;&lt;/p&gt;&lt;div class="embedly_preview embedly_preview--video"&gt;\n&lt;iframe type="text/html" width="640" height="390" frameborder="0" allowfullscreen="1" src="https://www.youtube.com/embed/PiNdcBg3xC8?modestbranding=1&amp;amp;start=0&amp;amp;showinfo=0&amp;amp;enablejsapi=1&amp;amp;origin=genius.com"&gt;&lt;/iframe&gt;\n&lt;/div&gt;', 'producers': [{'name': 'Jason Cox', 'url': 'https://genius.com/artists/Jason-cox'}, {'name': 'Tom Girling', 'url': 'https://genius.com/artists/Tom-girling'}, {'name': 'Dan the Automator', 'url': 'https://genius.com/artists/Dan-the-automator'}, {'name': 'Gorillaz', 'url': 'https://genius.com/artists/Gorillaz'}], 'writers': [{'name': 'Damon Albarn', 'url': 'https://genius.com/artists/Damon-albarn'}], 'labels': [{'name': 'Parlophone Records', 'url': 'https://genius.com/artists/Parlophone-records'}, {'name': 'Virgin Records', 'url': 'https://genius.com/artists/Virgin-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/No-doubt-its-my-life-lyrics', 'lyrics': "[Verse 1]\nIt's funny how I find myself\nIn love with you\nIf I could buy my reasoning\nI'd pay to lose\nOne half won't do\n\n[Pre-Chorus]\nI've asked myself\nHow much do you\nCommit yourself?\n\n[Chorus]\nIt's my life\nDon't you forget\nIt's my life\nIt never ends (it never ends)\n\n[Verse 2]\nFunny how I blind myself\nI never knew\nIf I was sometimes played upon\nAfraid to lose\n\n[Pre-Chorus 2]\nOh, I'd tell myself\nWhat good do you do\nConvince myself\n[Chorus]\nIt's my life\nDon't you forget\nIt's my life\nIt never ends (it never ends)\n\n[Instrumental Bridge]\n\n[Pre-Chorus]\nAnd I've asked myself\nHow much do you\nCommit yourself?\n\n[Chorus]\nOh, it's my life\nDon't you forget\nCaught in the crowd\nIt never ends (it never ends)\n\n[Chorus]\nOh, it's my life\nDon't you forget\nCaught in the crowd\nIt never ends (it never ends)\n\n[Outro/Chorus]\nOh, it's my life (oh it's my life)\nDon't you forget (don't you forget)\nCaught in the crowd (caught in the crowd)\nIt never ends (it never ends)", 'annotations': {'description': '&lt;p&gt;This is &lt;a href="https://genius.com/artists/No-doubt" rel="noopener" data-api_path="/artists/24421"&gt;No Doubt&lt;/a&gt;’s cover of &lt;a href="https://genius.com/artists/Talk-talk" rel="noopener" data-api_path="/artists/223797"&gt;Talk Talk&lt;/a&gt;’s 1984 hit, “It’s My Life.” It appears on their &lt;a href="https://genius.com/albums/No-doubt/The-singles-19922003" rel="noopener" data-api_path="/albums/220684"&gt;Greatest Hits compilation album&lt;/a&gt;.&lt;/p&gt;', 'producers': [{'name': 'Nellee Hooper', 'url': 'https://genius.com/artists/Nellee-hooper'}], 'writers': [{'name': 'Tim Friese-Greene', 'url': 'https://genius.com/artists/Tim-friese-greene'}, {'name': 'Mark Hollis', 'url': 'https://genius.com/artists/Mark-hollis'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Shinedown-monsters-lyrics', 'lyrics': "[Verse 1]\nGood for you, you fooled everybody\nGood for you, you fooled everyone\nGood for you, now you're somebody\nGood for you, you fooled everyone\n\n[Pre-Chorus 1]\nLeave your weapon on the table\nWrapped in burlap, barely able\nDon't get angry, don't discourage\nTake a shot of liquid courage\n\n[Chorus]\n'Cause my monsters are real, and they're trained how to kill\nAnd there's no comin' back and they just laugh at how I feel\nAnd these monsters can fly, and they'll never say die\nAnd there's no goin' back, if I get trapped I'll never heal\nYeah, my monsters are real\n\n[Verse 2]\nGood for you, you hurt everybody\nGood for you, you hurt everyone\nGood for you, you love nobody\nGood for you, you owe no one\n\n[Pre-Chorus 2]\nLeave your weapon on the table\nWrapped in burlap, barely able\nCall a doctor, say a prayer\nChoose a god you think is fair\n[Chorus]\n'Cause my monsters are real, and they're trained how to kill\nAnd there's no comin' back and they just laugh at how I feel\nAnd these monsters can fly, and they'll never say die\nAnd there's no goin' back, if I get trapped I'll never heal\n'Cause my monsters are real\n\n[Bridge]\nLeave your weapon on the table\nWrapped in burlap, barely able\nDon't get angry, don't discourage\nTake a shot of liquid courage\nLeave a light on if you're able\n'Cause we both know you're unstable\nCall a doctor, say a prayer\nChoose a god you think is fair\n\n[Chorus]\n'Cause my monsters are real, and they're trained how to kill\nAnd there's no comin' back and they just laugh at how I feel\nAnd these monsters can fly, and they'll never say die\nAnd there's no goin' back, if I get trapped I'll never heal\nYeah, my monsters are real", 'annotations': {'description': '&lt;p&gt;From Jeff Gorra’s (@ArtistWaves) interview with frontman Brent Smith:&lt;/p&gt;\n\n&lt;p&gt;“There’s a song called “Monsters”. When I make that statement about “My monsters are real, and they’re trained how to kill”, that’s about as blunt and bold as I can be about those voices that I did say were legendary, but can also be my demise if I let them. Personally, it has a lot to do with substance abuse. I will forever be an addict. I’m clean now, but the fact is\u200a—\u200aI have to take it day-by-day. Those pathways are already paved in my brain. I know exactly what’s on those roads. For me to think I can go into a bar today and just have one drink, that would be great, but that’s not reality. If I were to go into a bar and have one drink I would end up drinking every single one in the building and probably wind up in jail. I know the parts of me that I must respect. It doesn’t mean I have to like it, but I do have to respect it. It’s something I can’t think about in the future, I literally have to take one day at a time. I haven’t gone to rehab, I don’t do self-help, nor am I a part of a 12-step program, I only know how to do it this way. I’m also very lucky because the other three guys I’m in a band with are my brothers and they’ve never judged me. They’ve just been there to pick me up when I fell.”&lt;/p&gt;', 'producers': [{'name': 'Eric Bass', 'url': 'https://genius.com/artists/Eric-bass'}], 'writers': [{'name': 'Eric Bass', 'url': 'https://genius.com/artists/Eric-bass'}, {'name': 'Brent Smith', 'url': 'https://genius.com/artists/Brent-smith'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Backstreet-boys-dont-go-breaking-my-heart-lyrics', 'lyrics': "[Verse 1: Nick Carter]\nI got mixed emotions\nDid I finally find me a river\nThat could lead me out to the ocean?\n'Cause I've only ever known the kind of love\nThat leaves you battered and broken\nSo forgive me for my mixed emotions, yeah yeah\n\n[Pre-Chorus: All]\nI'm not that kind of person\nWho can fall in and out of love with you\nThat's not what love's supposed to do\nI'm not that kind of person\nWho can fall in and out of love with you\nThat's not what love's supposed to do\n\n[Chorus: All]\nBaby, don't go breaking my heart, breaking my heart\nBaby, don't go breaking my heart, breaking my heart\n'Cause it's the only one I've got\n'Cause it's the only one I've got\n\n[Verse 2: AJ McLean]\nAm I being too open?\n'Cause I told you everything I have to say\nAnd now we're having a moment\nDoes it make you wanna pack up all your things\nAnd drive away like you stole it?\nJust forgive me if I'm being too open\nNo no no no, yeah yeah yeah\n[Pre-Chorus: All]\nI'm not that kind of person\nWho can fall in and out of love with you\nThat's not what love's supposed to do\n(What love's supposed to do)\nI'm not that kind of person\nWho can fall in and out of love with you\nThat's not what love's supposed to do\n\n[Chorus: All]\nBaby, don't go breaking my heart, breaking my heart\nBaby, don't go breaking my heart, breaking my heart\n'Cause it's the only one I've got\n'Cause it's the only one I've got\nBaby, don't go breaking my heart, breaking my heart\nBaby, don't go breaking my heart, breaking my heart\n'Cause it's the only one I've got\n'Cause it's the only one I've got\n\n[Bridge: Nick Carter]\nI've been broken, I've been bruised\nBut now I'm all in 'cause of you\nSo if you're gonna love me, love me right, yeah\nBut if you're gonna be someone that hurts somebody just for fun\nThen do it to a heart that isn't mine\n[Chorus: All]\nBaby, don't go breaking my heart, breaking my heart (Woo)\nBaby, don't go breaking my heart, breaking my heart (Don't, don't, don't)\n'Cause it's the only one I've got (Yeah)\n'Cause it's the only one I've got (Yeah)\nBaby, don't go breaking my heart, breaking my heart\nBaby, don't go breaking my heart, breaking my heart\n'Cause it's the only one I've got\nIt's the only one, it's the only one I got\n'Cause it's the only one I've got (Got, oh)\nBaby, don't go", 'annotations': {'description': "&lt;p&gt;“Don’t Go Breaking My Heart” is the first new Backstreet Boys single in five years. Unlike previous music, it is an electronic, synth-based song heavily influenced by EDM. It was released with a neon-light soaked video showcasing the boys' continued ability to dance and perform a remarkable 25 years into their career.&lt;/p&gt;", 'producers': [{'name': 'Jamie Hartman', 'url': 'https://genius.com/artists/Jamie-hartman'}, {'name': 'Stuart Crichton', 'url': 'https://genius.com/artists/Stuart-crichton'}], 'writers': [{'name': 'Wrabel', 'url': 'https://genius.com/artists/Wrabel'}, {'name': 'Jamie Hartman', 'url': 'https://genius.com/artists/Jamie-hartman'}, {'name': 'Stuart Crichton', 'url': 'https://genius.com/artists/Stuart-crichton'}], 'labels': [{'name': 'RCA Records', 'url': 'https://genius.com/artists/Rca-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Geri-halliwell-look-at-me-lyrics', 'lyrics': "[Verse 1]\nGood looking, bad tasting\nFull bodied, butt wasting\nLoose living, tight fitting\nWhat you see ain't what you are getting\nBig make up, little break up\nShe wants it, he's got it\nCold blooded, hot gossip\nSuperficial expectations\n\n[Chorus]\nLook at me\nYou can take it all because this face is free\nMaybe, next time use your eyes and look at me\nI'm a drama queen if that's your thing, baby\nI can even do reality\n\n[Post-Chorus]\nAh-ah-ah-ah\n\n[Verse 2]\nFake honey, real plastic\nStupid cupid, fantastic\nQueer thinking, straight talking\nWhat you see ain't what you are getting\nFast loving, slow moving\nNo rhythm, but I'm grooving\nOld feeling, new beginning\nSuperficial expectations\n[Chorus]\nLook at me\nYou can take it all because this face is free\nMaybe, next time use your eyes and look at me\nI'm a drama queen if that's your thing, baby\nI can even do reality\n\n[Post-Chorus]\nThat's me\n\n[Bridge]\nSometimes, I don't recognise my own face\nI look inside my eyes and find disgrace\nMy little white lies tell a story\nI see it all, it has no glory\n\n[Chorus]\nLook at me\nYou can take it all because this face is free\nMaybe, next time use your eyes and look at me\nI'm a drama queen if that's your thing, baby\nI can even do reality\n\n[Outro]\nCome on and look at me\nThis face is free\nI'm your fantasy\nSo who d'you wanna be?\nNot what you see\nI'm a drama queen\nIf that's your thing\nCome on and look at me (Look at me)\nI'm your fantasy\nThis face is free (Face is free)\nCome on and look at me\nSo who d'you wanna be? (Look at me)\nThis face is free\nCome on and look at me (Thing, baby)\nI'm your fantasy\nCome on and look at me (Look at me)\nNot what you see\nI'm a drama queen (Face is free)\nIf that's your thing\nCome on and look at me (Look at me)\nSo who d'you wanna be?\nThis face is free", 'annotations': {'description': '&lt;p&gt;“Look At Me” peaked at #2 on the U.K. Singles chart in 1999 and was certified Gold by the BPI with sales of 32,000 copies.&lt;/p&gt;\n\n&lt;p&gt;In the United States, the song managed to peak at #12 on Billboard’s Hot Dance Music\\Club Play chart.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/230a84c150883cc0c75c286f1ea78f17.309x309x1.jpg" alt="" width="309" height="309" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;strong&gt;Music Video&lt;/strong&gt;&lt;br&gt;\n&lt;/p&gt;&lt;div class="embedly_preview embedly_preview--video"&gt;&lt;iframe class="embedly-embed" src="https://cdn.embedly.com/widgets/media.html?src=https%3A%2F%2Fwww.dailymotion.com%2Fembed%2Fvideo%2Fxlq73&amp;amp;url=https%3A%2F%2Fwww.dailymotion.com%2Fvideo%2Fxlq73&amp;amp;image=https%3A%2F%2Fs1-ssl.dmcdn.net%2FAZYii%2Fx240-i1_.jpg&amp;amp;key=fc778e44915911e088ae4040f9f86dcd&amp;amp;type=text%2Fhtml&amp;amp;schema=dailymotion" width="480" height="360" scrolling="no" frameborder="0" allow="autoplay; fullscreen" allowfullscreen="true"&gt;&lt;/iframe&gt;&lt;/div&gt;', 'producers': [{'name': 'Absolute', 'url': 'https://genius.com/artists/Absolute'}], 'writers': [{'name': 'Andrew Watkins', 'url': 'https://genius.com/artists/Andrew-watkins'}, {'name': 'Paul Wilson', 'url': 'https://genius.com/artists/Paul-wilson'}, {'name': 'Geri Halliwell', 'url': 'https://genius.com/artists/Geri-halliwell'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Dire-straits-sultans-of-swing-lyrics', 'lyrics': '[Verse 1]\nYou get a shiver in the dark\nIt\'s raining in the park, but meantime\nSouth of the river\nYou stop and you hold everything\nA band is blowing Dixie\nDouble four time\nYou feel alright\nWhen you hear the music ring\n\n[Verse 2]\nWell, now you step inside\nBut you don\'t see too many faces\nComing in out of the rain to hear the Jazz go down\nCompetition in other places\nAh, but the horns, they blowin\' that sound\nWay on down south\nWay on down south, London town\n\n[Verse 3]\nCheck out guitar George\nHe knows all the chords\nMind, it\'s strictly rhythm\nHe doesn\'t want to make it cry or sing\nYes and an old guitar is all he can afford\nWhen he gets up under the lights to play his thing\n[Verse 4]\nAnd Harry doesn\'t mind if he doesn\'t make the scene\nHe\'s got a daytime job – he\'s doing alright\nHe can play the Honky Tonk like anything\nSaving it up for Friday night\nWith the Sultans\nWith the Sultans of Swing\n\n[Verse 5]\nAnd a crowd of young boys\nThey\'re fooling around in the corner\nDrunk and dressed in their best brown baggies\nAnd their platform soles\nThey don\'t give a damn\nAbout any trumpet playing band\nIt ain\'t what they call Rock and Roll\nAnd the Sultans\nYeah, the Sultans, they play Creole\nCreole\n\n[Guitar Solo - 3:20-4:13]\n\n[Verse 6]\nAnd then the man\nHe steps right up to the microphone\nAnd says at last\nJust as the time bell rings\n"Goodnight, now it\'s time to go home"\nThen he makes it fast\nWith one more thing\n"We are the Sultans –\nWe are the Sultans of Swing"\n[Guitar Solo - 4:46-5:49]', 'annotations': {'description': '&lt;p&gt;“Sultans of Swing” by Mark Knopfler appears on the self-titled Dire Straits album – 1978. It’s a story song, told as a second person narrative about the London Jazz experience and is based on Knopfler watching a band perform in a pub in Deptford, who called themselves The Sultans of Swing.&lt;/p&gt;', 'producers': [{'name': 'Muff Winwood', 'url': 'https://genius.com/artists/Muff-winwood'}], 'writers': [{'name': 'Mark Knopfler', 'url': 'https://genius.com/artists/Mark-knopfler'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Daft-punk-one-more-time-lyrics', 'lyrics': "[Produced by Daft Punk]\n\n[Intro: Romanthony]\nOne more time\nOne more time\n\n[Chorus 1: Romanthony]\nOne more time\nWe're gonna celebrate\nOh yeah, all right\nDon't stop the dancing\nOne more time\nWe're gonna celebrate\nOh yeah, all right\nDon't stop the dancing\nOne more time\nWe're gonna celebrate\nOh yeah, all right\nDon't stop the dancing\nOne more time\nWe're gonna celebrate\nOh yeah\nOne more time\n\n[Interlude]\n[Chorus 1: Romanthony]\nOne more time\nWe're gonna celebrate\nOh yeah, all right\nDon't stop the dancing\nOne more time\nWe're gonna celebrate\nOh yeah\nDon't stop the dancing\nOne more time\n\n[Bridge: Romanthony]\nMmm, you know I'm just feeling\nCelebration tonight\nCelebrate\nDon't wait too late\nMmm, no\nWe don't stop\nYou can't stop\nWe're gonna celebrate\nOne more time\nOne more time\nOne more time\nCelebration\nYou know we're gonna do it right, tonight\nHey! Just feeling\nMusic's got me feeling the need\nNeed, yeah\nCome on, all right\nWe're gonna celebrate\nOne more time\nCelebrate and dance so free\nMusic's got me feeling so free\nCelebrate and dance so free\nOne more time\nMusic's got me feeling so free\nWe're gonna celebrate\nCelebrate and dance so free\nOne more time\nMusic's got me feeling so free\nWe're gonna celebrate\nCelebrate and dance so free\nOne more time\nMusic's got me feeling so free\nWe're gonna celebrate\nCelebrate and dance so free\nOne more time\nMusic's got me feeling so free\nWe're gonna celebrate\nCelebrate and dance so free\nOne more time\nMusic's got me feeling so free\nWe're gonna celebrate\nCelebrate and dance so free\n[Chorus 2: Romanthony]\nOne more time\nMusic's got me feeling so free\nWe're gonna celebrate\nCelebrate and dance so free\nOne more time\nMusic's got me feeling so free\nWe're gonna celebrate\nCelebrate and dance so free\nOne more time\nMusic's got me feeling so free\nWe're gonna celebrate\nCelebrate and dance so free\nOne more time\nMusic's got me feeling so free\nWe're gonna celebrate\nCelebrate and dance so free\nOne more time\nMusic's got me feeling so free\nWe're gonna celebrate\nOne more time\nMusic's got me feeling so free\nWe're gonna celebrate\nCelebrate and dance so free\nOne more time\nMusic's got me feeling so free\nWe're gonna celebrate\nCelebrate and dance so free\n[Pause]\n\n[Chorus 2: Romanthony]\nOne more time\nMusic's got me feeling so free\nWe're gonna celebrate\nCelebrate and dance so free\nOne more time\nMusic's got me feeling so free\nWe're gonna celebrate\nCelebrate and dance so free\nOne more time\nMusic's got me feeling so free\nWe're gonna celebrate\nCelebrate and dance so free\nOne more time\nMusic's got me feeling so free\nWe're gonna celebrate\nCelebrate and dance so free", 'annotations': {'description': '&lt;p&gt;From Rolling Stone’s &lt;a href="https://www.rollingstone.com/music/music-album-reviews/discovery-251661/" rel="noopener nofollow"&gt;“Discovery” by Ben Ratliff&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;“Daft Punk’s single, ‘One More Time’, is that kind of song: a piece of superreligion with an invincible beat and a nailed-to-the-wall vocal by house singer Romanthony. It is stamina itself, an anthem to &lt;em&gt;keep on dancing&lt;/em&gt; that’s already a huge hit in clubs and on the radio. All those knowing listeners who bought Homework and signed on for the pair’s rascally, nudge-wink grooves now have to figure out what part of ‘One More Time’ is for them. Is there a subversive part of ‘One More Time?’ If so, where does it begin?”&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;The music video serves as the intro to the animated version of the album &lt;a href="https://genius.com/albums/Daft-punk/Discovery" rel="noopener" data-api_path="/albums/27501"&gt;Discovery&lt;/a&gt;, &lt;a href="http://rock.genius.com/Daft-punk-interstella-5555-the-5tory-of-the-5ecret-5tar-5ystem-lyrics/" rel="noopener" data-api_path="/songs/576883"&gt;&lt;em&gt;Interstella 5555: The 5tory of the 5ecret 5tar 5ystem&lt;/em&gt;&lt;/a&gt;. &lt;/p&gt;&lt;div class="embedly_preview embedly_preview--video"&gt;\n&lt;iframe type="text/html" width="640" height="390" frameborder="0" allowfullscreen="1" src="https://www.youtube.com/embed/FGBhQbmPwH8?modestbranding=1&amp;amp;start=0&amp;amp;showinfo=0&amp;amp;enablejsapi=1&amp;amp;origin=genius.com"&gt;&lt;/iframe&gt;\n&lt;/div&gt;', 'producers': [{'name': 'Daft Punk', 'url': 'https://genius.com/artists/Daft-punk'}], 'writers': [{'name': 'Guy-Manuel de Homem-Christo', 'url': 'https://genius.com/artists/Guy-manuel-de-homem-christo'}, {'name': 'Thomas Bangalter', 'url': 'https://genius.com/artists/Thomas-bangalter'}, {'name': 'Romanthony', 'url': 'https://genius.com/artists/Romanthony'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Van-halen-dont-tell-me-what-love-can-do-lyrics', 'lyrics': "It's ok, I'll do what I want\nIf I choose, I can take the fall\nThere's a choice\nIt's my destiny\nIn my hands\nYeah it's up to me\nI can drive\nI can shoot a gun in the streets\nScore me some heroin\nI can jump\nBe the sacrifice\nBear my cross just like Jesus Christ\nAnd I don't wanna hear what love can do\nNo, I ain't gonna tell ya what's right for you\nIs it right to take the easy way\nClose your eyes\nGet on your knees and pray\nNow you're saved by a higher voice\nGiving up, giving up, giving up your choice\nIf I'm wrong then I'll pay for it\nIf I'm right, yeah you're gonna hear about it\nBut I've tried, yeah I've tried for it\nI tried, I tried, 'til I'm satisfied\nAnd I\nI'm tired of hearing what love can do\nAnd I\nAin't gonna tell you what's right for you\nI've seen the damage done\nDown with the shotgun\nDon't stop the setting sun on my kingdom come\nOh\nIs it right to take the easy way\nI don't know\nI get down on my  knees and pray\nNow I'm saved by a higher voice\nGivin' up, givin' up, givin' up my choice\nIf I'm wrong then I'll pay for it\nIf I'm right, yeah you're gonna deal with it\nCause I've tried, yeah I tried for it\nI tried, I tried, even die for it\nNo I\nDon't wanna hear what love can do\nNo I\nI can't tell you what's right for you\nOh I\nTell you what love can do\nNo I\nCan't say but your time is through\nI've seen the damage done\nOh Lord, I've heard the shotgun\nI fought the setting sun on my kingdom come\nOh\nDon't tell me what love can do\nHey, hey, hey\nDon't tell me what love can do\nHey, hey, hey", 'annotations': {'description': '&lt;p&gt;The lyrics of this song were written about the tragic death of Kurt Cobain and how it probably could have been stopped if more people showed him compassion.&lt;br&gt;\nSammy Hagar talks about his inspiration in writing this song in his &lt;a href="https://read.amazon.com/kp/embed?asin=B0042FZVU8&amp;amp;preview=newtab&amp;amp;linkCode=kpe&amp;amp;ref_=cm_sw_r_kb_dp_C8Y2ET4ZBWP5VNM1T823" rel="noopener nofollow"&gt;autobiography&lt;/a&gt;&lt;/p&gt;', 'producers': [{'name': 'Bruce Fairbairn', 'url': 'https://genius.com/artists/Bruce-fairbairn'}], 'writers': [{'name': 'Alex Van Halen', 'url': 'https://genius.com/artists/Alex-van-halen'}, {'name': 'Eddie Van Halen', 'url': 'https://genius.com/artists/Eddie-van-halen'}, {'name': 'Michael Anthony (Bassist)', 'url': 'https://genius.com/artists/Michael-anthony-bassist'}, {'name': 'Sammy Hagar', 'url': 'https://genius.com/artists/Sammy-hagar'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Matchbox-twenty-push-lyrics', 'lyrics': "(She said) I don't know if I've ever been good enough\nI'm a little bit rusty, and I think my head is caving in\nAnd I don't know if I've ever been really loved\nBy a hand that's touched me, well I feel like something's\nGonna give\nAnd i'm a little bit angry, well\n\nThis ain't over, no not here, not while I still need you\nAround\nYou don't owe me, we might change\nYeah we just might feel good\n[Chorus]\nI wanna push you around, I will, I will\nI wanna push you down, I will, I will\nI wanna take you for granted, I wanna take you for granted\nI will\n\n(She said) I don't know why you ever would lie to me\nLike I'm a little untrusting when I think that the truth is\nGonna hurt ya\nAnd I don't know why you couldn't just stay with me\nYou couldn't stand to be near me\nWhen my face don't seem to want to shine\n'Cause it's a little bit dirty, well\nDon't just stand there, say nice things to me\n'Cause I've been cheated I've been wronged, and you\nYou don't know me, well I can't change\nI won't do anything at all\n[Chorus]\nI wanna push you around, I will, I will\nI wanna push you down, I will, I will\nI wanna take you for granted, I wanna take you for granted\nI will\nOh but don't bowl me over\nJust wait a minute well it kinda fell apart, things get so\nCrazy, crazy\nDon't rush this baby, don't rush this baby\n[Chorus]\nI wanna push you around, I will, I will\nI wanna push you down, I will, I will\nI wanna take you for granted, i wanna take you for granted\nI will", 'annotations': {'description': '&lt;p&gt;“Push” is a song by Matchbox Twenty off of their 1996 release &lt;em&gt;Yourself Or Someone Like You&lt;/em&gt;. The song is about an emotionally abusive relationship that Rob Thomas was in with a woman who had been cheated on and betrayed by previous exes. Their relationship is at a breaking point, and at some point Rob has suggested or asked for them to break up because of the emotional distress and pain they are both experiencing. Her difficult past has shattered her mental and emotional state, and she struggles with self esteem, trust, and loving herself and someone else as a result of her previous relationships, which were likely emotionally abusive with her as the victim. She is upset that someone she has likely opened up to about her insecurities, fears, and emotions would dare turn away and run from her. However, she has taken on the role of the abuser in her new relationship with Rob, and he’s now the one suffering the emotional abuse.&lt;/p&gt;', 'producers': [{'name': 'Matt Serletic', 'url': 'https://genius.com/artists/Matt-serletic'}], 'writers': [{'name': 'Matt Serletic', 'url': 'https://genius.com/artists/Matt-serletic'}, {'name': 'Rob Thomas', 'url': 'https://genius.com/artists/Rob-thomas'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/The-killers-when-you-were-young-lyrics', 'lyrics': "[Verse 1]\nYou sit there in your heartache\nWaiting on some beautiful boy to\nTo save you from your old ways\nYou play forgiveness\nWatch it now, here he comes\n\n[Chorus 1]\nHe doesn't look a thing like Jesus\nBut he talks like a gentlemen\nLike you imagined\nWhen you were young\n\n[Verse 2]\nCan we climb this mountain? I don't know\nHigher now than ever before\nI know we can make it if we take it slow\nLet's take it easy\nEasy now, watch it go\n\n[Chorus 2]\nWe're burning down the highway skyline\nOn the back of a hurricane that started turning\nWhen you were young\nWhen you were young\n[Interlude]\nAnd sometimes you close your eyes\nAnd see the place where you used to live\nWhen you were young\n\n[Bridge]\nThey say the devil's water — it ain't so sweet\nYou don't have to drink right now\nBut you can dip your feet\nEvery once in a little while\n\n[Verse 1]\nYou sit there in your heartache\nWaiting on some beautiful boy to\nTo save you from your old ways\nYou play forgiveness\nWatch it now, here he comes\n\n[Chorus 1]\nHe doesn't look a thing like Jesus\nBut he talks like a gentlemen\nLike you imagined\nWhen you were young\n(Talks like a gentleman)\n(Like you imagined when)\nWhen you were young\n[Outro]\nI said he doesn't look a thing like Jesus\nHe doesn't look a thing like Jesus\nBut more than you'll ever know", 'annotations': {'description': '&lt;p&gt;The lead single off of &lt;em&gt;Sam’s Town&lt;/em&gt;. The song contemplates the difference between expectations and reality through a love affair between a girl and a gentleman who ‘doesn’t look a thing like Jesus’.&lt;/p&gt;', 'producers': [{'name': 'The Killers', 'url': 'https://genius.com/artists/The-killers'}, {'name': 'Alan Moulder', 'url': 'https://genius.com/artists/Alan-moulder'}, {'name': 'Flood', 'url': 'https://genius.com/artists/Flood'}], 'writers': [{'name': 'Mark Stoermer', 'url': 'https://genius.com/artists/Mark-stoermer'}, {'name': 'Ronnie Vannucci Jr.', 'url': 'https://genius.com/artists/Ronnie-vannucci-jr'}, {'name': 'Dave Keuning', 'url': 'https://genius.com/artists/Dave-keuning'}, {'name': 'Brandon Flowers', 'url': 'https://genius.com/artists/Brandon-flowers'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Vanessa-carlton-a-thousand-miles-lyrics', 'lyrics': "[Intro]\n\n[Verse 1]\nMakin' my way downtown\nWalkin' fast, faces pass\nAnd I'm homebound\nStarin' blankly ahead\nJust makin' my way\nMakin' a way through the crowd\n\n[Pre-Chorus 1]\nAnd I need you\nAnd I miss you\nAnd now I wonder\n\n[Chorus]\nIf I could fall into the sky\nDo you think time would pass me by?\n'Cause you know I'd walk a thousand miles\nIf I could just see you\nTonight\n\n[Verse 2]\nIt's always times like these when I think of you\nAnd I wonder if you ever think of me\n'Cause everything's so wrong, and I don't belong\nLivin' in your precious memory\n[Pre-Chorus 2]\n'Cause I'll need you\nAnd I'll miss you\nAnd now I wonder\n\n[Chorus]\nIf I could fall into the sky\nDo you think time would pass me by?\nOh, 'cause you know I'd walk a thousand miles\nIf I could just see you\nTonight\n\n[Bridge]\nI, I don't wanna let you know\nI, I drown in your memory\nI, I don't wanna let this go\nI, I don't\n\n[Verse 1 (Reprise)]\nMakin' my way downtown\nWalkin' fast, faces pass\nAnd I'm homebound\nStarin' blankly ahead\nJust makin' my way\nMakin' a way through the crowd\n[Pre-Chorus 3]\nAnd I still need you\nI still miss you\nAnd now I wonder\n\n[Chorus]\nIf I could fall into the sky\nDo you think time would pass us by?\n'Cause you know I'd walk a thousand miles\nIf I could just see you, oh-oh\nIf I could fall into the sky\nDo you think time would pass me by?\n'Cause you know I'd walk a thousand miles\nIf I could just see you\nIf I could just hold you\nTonight", 'annotations': {'description': '&lt;p&gt;The lead single for Carlton’s debut album &lt;em&gt;Be Not Nobody&lt;/em&gt;, “A Thousand Miles” has solidified itself over the years as an Internet sensation that cross through all forms of media. Upon its release in 2002, it saw much success on the &lt;em&gt;Billboard&lt;/em&gt; charts, becoming the #1 song on the Adult Contemporary charts and making all the way to #5 on the &lt;em&gt;Hot 100&lt;/em&gt; chart. Featuring an iconic piano segment in the chorus by Vanessa Carlton herself, the song has been included in a wide array of memes including a beautiful rendition by &lt;a href="https://www.youtube.com/watch?v=9dssjIoPkxQ" rel="noopener nofollow"&gt;Terry Crews in the film “White Chicks”&lt;/a&gt; and a duet by &lt;a href="http://www.people.com/people/package/article/0,,20996464_21021686,00.html" rel="noopener nofollow"&gt;Jimmy Butler and Kyrie Irving on the Team USA flight in 2016&lt;/a&gt;.&lt;/p&gt;', 'producers': [{'name': 'Ron Fair', 'url': 'https://genius.com/artists/Ron-fair'}, {'name': 'Curtis Schweitzer', 'url': 'https://genius.com/artists/Curtis-schweitzer'}], 'writers': [{'name': 'Vanessa Carlton', 'url': 'https://genius.com/artists/Vanessa-carlton'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Black-eyed-peas-hey-mama-lyrics', 'lyrics': "[Intro: Fergie]\nLa la la la la la\n\n[Chorus: will.i.am]\nHey mama, this that shit that make you move, mama\nGet on the floor and move your booty, mama\nWe the blast masters, blastin' up the jamma\n(REEEEEEEWIIIIIIND)\n\n[Post-Chorus: Tippa Irie]\nCutie cutie, make sure you move your booty\nShake that thing like we in the city of sin, and\nHey shorty, I know you wanna party\nThe way your body look really make me feel naughty\nCutie cutie, make sure you move your booty\nShake that thing like we in the city of sin, and\nHey shorty, I know you wanna party\nAnd the way your body lookin', really make me feel naughty\n\n[Verse 1: will.i.am]\nI got a naughty naughty style and a naughty naughty crew\nBut everything I do, I do just for you\nI'm a little bit of old, and a little bit of new\nThe true niggas know that the Peas come through\nWe never cease (No), we never die, no we never deceased (No)\nWe multiply like we mathematise\nAnd then drop bombs like we in the Middle East\n(The bomb bomba's, the base boom dramas)\n[Pre-Chorus: will.i.am]\nNow y'all know, who we are\nY'all know, we the stars\nSteady rockin' on y'alls boulevards\nAnd lookin' hard without bodyguards\n(I do) what I can\n(W)ill-I-am\nAnd still I stand, with still mic in hand\n(So come on mama, dance to the drama)\n\n[Chorus: will.i.am]\nHey mama, this that shit that make you groove, mama\n(Hey) Get on the floor and move your booty mama\n(Yaw) We the blast mastas blastin' up the jamma\n(Hey) So shake your bambama, come on now mama\nThis that shit that make you groove, mama\n(Hey) Get on the floor and move your booty mama\n(Yaw) We the blast mastas blastin' up the jamma (Whoa)\n(La la la la la)\n\n[Verse 2: will.i.am]\nWe the big town stumpas, and big sound pumpas\nThe beat bump bumps in your trunk trunkas\nThe girlies in the club got the plump plump plumpas\nAnd when I'm makin' love, my hip hump humps\nIt never quits (No), we need to carry nine millimeter clips (No)\nDon't wanna squeeze trigger, just wanna squeeze tits\n(Lova, lova) 'cause we the show stoppas\nAnd the chief rockas, number one chief rockas\n[Pre-Chorus: will.i.am &amp; Fergie]\nNow y'all know (Who we are)\nY'all know (We the stars)\n(Steady rockin' on y'alls boulevard)\nHow we rockin' it girl (Without bodyguards)\nShe be (Fergie)\nFrom the crew (BEP)\n(Come and take heed, as we take the lead)\n(So come on bubba, dance to the drummer)\n\n[Chorus: will.i.am]\nHey mama, this that shit that make you groove, mama\n(Hey) Get on the floor and move your booty mama\n(Yaw) We the blast mastas blastin' up the jamma (Naw, nawy)\n\n[Post-Chorus: Tippa Irie]\nCutie cutie, make sure you move your booty\nShake that thing like we in the city of sin, and\nHey shorty, I know you wanna party\nThe way your body look really make me feel naughty\n\n[Bridge: Tippa Irie &amp; will.i.am]\nBut the race is not for the swift\nBut who really can, take control of it\nAnd Tippa Irie and the Black Eyed Peas\nWill be there\n'Til infinity, 'til infinity, 'til infinity, 'til infinity, 'til infinity, 'til infinity\nTippa is out\n[Verse 3: Tippa Irie]\nKcohs a med a ffun, Nuff a dem a shock\nNuff a dem a shock, nuff a dem a sting\nEvery time you see dem appear bling bling\nOh what a ting! Pure modeling\nGrinding, and winding\nAnd the madda dem a move inna perfect timing\nDem a dance and dance to di dancehall riddim\nAnd di way di tune nice, it finga-licking\nLike rice and peas and chicken stuffing\n\n[Chorus: will.i.am]\nHey mama, this that shit that make you groove, mama\n(Hey) get on the floor and move your booty mama\n(Yaw) We the blast mastas blastin' up the jamma\n(Hey) So shake your bambama, come on now mama\nThis that shit that make you groove, mama\n(Hey) Get on the floor and move your booty mama\n(Yaw) We the blast mastas blastin' up the jamma (Whoa)\n(La la la la la)", 'annotations': {'description': '&lt;p&gt;“Hey Mama” is a song by the American band the Black Eyed Peas. It reached #23 on the Billboard Hot 100 chart. The 2003 single is the third one taken from their 2003 album Elephunk.&lt;/p&gt;', 'producers': [{'name': '\u200bwill.i.am', 'url': 'https://genius.com/artists/William'}], 'writers': [{'name': 'Tippa Irie', 'url': 'https://genius.com/artists/Tippa-irie'}, {'name': '\u200bwill.i.am', 'url': 'https://genius.com/artists/William'}], 'labels': [{'name': 'Will.i.am Music Group', 'url': 'https://genius.com/artists/William-music-group'}, {'name': 'Interscope Records', 'url': 'https://genius.com/artists/Interscope-records'}, {'name': 'A&amp;M Records', 'url': 'https://genius.com/artists/A-m-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/No-doubt-sunday-morning-lyrics', 'lyrics': "[Intro]\nOne, two, three, four\n\n[Verse 1]\nSappy pathetic little me\nThat was the girl I used to be\nYou had me on my knees\n\n[Verse 2]\nI'd trade you places any day\nI'd never thought you could be that way\nBut you looked like me on Sunday\n\n[Chorus]\nWell, you came in with the breeze\nOn Sunday Morning\nYou sure have changed since yesterday\nWithout any warning\n\n[Post-Chorus 1]\nI thought I knew you (woh-oh)\nI thought I knew you (woh-oh)\nI thought I knew you well\nSo well\n\n[Verse 3]\nYou're trying my shoes on for a change\nThey look so good but fit so strange\nOut of fashion, so I can complain\n[Chorus]\nWell, you came in with the breeze\nOn Sunday Morning\nYou sure have changed since yesterday\nWithout any warning\n\n[Post-Chorus 1]\nI thought I knew you (woh-oh)\nI thought I knew you (woh-oh)\nI thought I knew you well\nSo well\n\n[Bridge]\nI know who I am, but who are you?\nYou're not looking like you used to\nYou're on the other side of the mirror\nSo nothing's looking quite as clear\nThank you, for turning on the light\nThank you, now you're the parasite\nI didn't think you had it in you\nAnd now, you're looking like I used to\n\n[Chorus]\nYou came in with the breeze\nOn Sunday Morning\nYou sure have changed since yesterday\nWithout any warning\n[Post-Chorus 2]\nAnd you want me badly\nBecause you cannot have me\nI thought I knew you (woh-oh)\nNow I've got a new view (woh-oh)\nI thought I knew you well\nOh well\n\n[Outro]\nOoh, on Sunday morning\nWithout a warning\nOn Sunday morning\nI thought I knew you (Sunday morning)\nOhh, you want me badly\nYou cannot have me\nSunday morning\nSunday morning\nSunday morning", 'annotations': {'description': '&lt;p&gt;On “Sunday Morning,” No Doubt lead singer Gwen Stefani relishes in her exes regression—he is now the “parasite,” begging for her to come back. In a classic example of post break-up behavior, her ex only wants her once he realizes he can’t have her anymore.&lt;/p&gt;\n\n&lt;p&gt;The song is a direct reference to Stefani’s relationship with bandmate Tony Kanal.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/c9851bd1ee3df0d245ee6dd32f453c9e.659x441x1.jpg" alt="" width="659" height="441" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;In a 1997 &lt;a href="http://www.rollingstone.com/music/news/no-doubt-inside-the-tragic-kingdom-19970501?page=4" rel="noopener nofollow"&gt;interview&lt;/a&gt; with &lt;em&gt;Rolling Stone&lt;/em&gt;, Tony admitted that, ironically, “Sunday Morning” was his favorite song off &lt;a href="https://genius.com/albums/No-doubt/Tragic-kingdom" rel="noopener" data-api_path="/albums/43506"&gt;&lt;em&gt;Tragic Kingdom&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;blockquote&gt;\n&lt;p&gt;‘It’s not mean toward him, really,’ says Gwen, when I mention how strange this is.&lt;/p&gt;\n\n&lt;p&gt;Well, I point out, it does call him a parasite.&lt;/p&gt;\n\n&lt;p&gt;‘Oh, yeah,’ she says giggling. ‘I forgot about the bridge.’"&lt;/p&gt;\n&lt;/blockquote&gt;', 'producers': [{'name': 'Matthew Wilder', 'url': 'https://genius.com/artists/Matthew-wilder'}], 'writers': [{'name': 'Eric Stefani', 'url': 'https://genius.com/artists/Eric-stefani'}, {'name': 'Gwen Stefani', 'url': 'https://genius.com/artists/Gwen-stefani'}, {'name': 'Tony Kanal', 'url': 'https://genius.com/artists/Tony-kanal'}], 'labels': [{'name': 'Trauma Records', 'url': 'https://genius.com/artists/Trauma-records'}, {'name': 'Interscope Records', 'url': 'https://genius.com/artists/Interscope-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Journey-separate-ways-worlds-apart-lyrics', 'lyrics': "[Verse 1]\nHere we stand\nWorlds apart, hearts broken in two, two, two\nSleepless nights\nLosing ground, I'm reaching for you, you, you\nFeeling that it's gone\nCan't change your mind\nIf we can't go on\nTo survive the tide\nLove divides\n\n[Chorus]\nSomeday love will find you\nBreak those chains that bind you\nOne night will remind you\nHow we touched and went our separate ways\nIf he ever hurts you\nTrue love won't desert you\nYou know I still love you\nThough we touched and went our separate ways\n\n[Verse 2]\nTroubled times\nCaught between confusion and pain, pain, pain\nDistant eyes\nPromises we made were in vain, in vain, in vain\nIf you must go\nI wish you luck\nYou'll never walk alone\nTake care, my love\nMiss you, love\n[Chorus]\nSomeday love will find you\nBreak those chains that bind you\nOne night will remind you\nHow we touched and went our separate ways\nIf he ever hurts you\nTrue love won't desert you\nYou know I still love you\nThough we touched and went our separate ways\n\n[Chorus]\nOh, someday love will find you\nBreak those chains that bind you\nOne night will remind you\nIf he ever hurts you\nTrue love won't desert you\nYou know I still love you\n\n[Outro]\nI still love you, girl\nI really love you, girl\nAnd if he ever hurts you\nTrue love won't desert you\nNo!\nNo!", 'annotations': {'description': '&lt;p&gt;The first track on the album &lt;em&gt;Frontiers&lt;/em&gt; and the first single released from the album.&lt;/p&gt;\n\n&lt;p&gt;Though it did well in the charts, it is now more known for its infamously bad “concept” music video, to which &lt;a href="https://ultimateclassicrock.com/journey-separate-ways-video-history/" rel="noopener nofollow"&gt;Jonathan Cain told *I Want My MTV&lt;/a&gt;*:&lt;/p&gt;\n\n&lt;blockquote&gt;\n&lt;p&gt;I will never live down those air keyboards. No matter what else I’ve done in my career, sooner or later people find a way to ask me about the ‘Separate Ways’ video.&lt;br&gt;\n&lt;/p&gt;\n&lt;div class="embedly_preview embedly_preview--video"&gt;\n&lt;iframe type="text/html" width="640" height="390" frameborder="0" allowfullscreen="1" src="https://www.youtube.com/embed/LatorN4P9aA?modestbranding=1&amp;amp;start=0&amp;amp;showinfo=0&amp;amp;enablejsapi=1&amp;amp;origin=genius.com"&gt;&lt;/iframe&gt;\n&lt;/div&gt;\n&lt;/blockquote&gt;\n\n&lt;p&gt;“Separate Ways” is also featured in the movie &lt;em&gt;&lt;a href="https://www.imdb.com/title/tt1068680/" rel="noopener nofollow"&gt;Yes Man&lt;/a&gt;&lt;/em&gt;, starring Jim Carrey.&lt;/p&gt;', 'producers': [{'name': 'Mike Stone', 'url': 'https://genius.com/artists/Mike-stone'}, {'name': 'Kevin Elson', 'url': 'https://genius.com/artists/Kevin-elson'}], 'writers': [{'name': 'Steve Perry', 'url': 'https://genius.com/artists/Steve-perry'}, {'name': 'Jonathan Cain', 'url': 'https://genius.com/artists/Jonathan-cain'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Emf-children-lyrics', 'lyrics': "[Intro-Chorus]\nChildren, I know\nYou deserve more than this world could ever give\n\n[Chorus]\nChildren, I know\nYou deserve more than this world could ever give...\n\n[Verse 1]\nHold on take your life\nHold on to each reality\nThey seem so far from you\nBut really they're close to you\nYou've got to break each precious dream\nUntil it breaks your heart in two\nBuild your life until you find\nWhat's right for you\n\n[Chorus]\nChildren, I know\nYou deserve more than this world could ever give\n\n[Verse 2]\nDon't let them take it all\n'Cause you know, they're going to take it all\nThey seem so far from you\nBut really they're close to you\nYou've got to break each precious dream\nUntil it breaks your heart in two\nBuild your life, until you find\nWhat's right for you\n[Chorus]\nChildren, I know\nYou deserve more than this world could ever give...\n\n[Outro]\n(Long live the new flesh!)", 'annotations': {'description': '', 'producers': [], 'writers': [], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Survivor-burning-heart-lyrics', 'lyrics': "[Verse 1]\nTwo worlds collide, rival nations\nIt's a primitive clash venting years of frustrations\nBravely we hope against all hope\nThere is so much at stake\nSeems our freedom's up against the ropes\nDoes the crowd understand?\nIs it East versus West or man against man?\nCan any nation stand alone?\n\n[Chorus]\nIn the burning heart just about to burst\nThere's a quest for answers an unquenchable thirst\nIn the darkest night rising like a spire\nIn the burning heart the unmistakable fire\nIn the burning heart\n\n[Verse 2]\nIn the warriors code there's no surrender\nThough his body says stop his spirit cries - never!\nDeep in our soul a quiet ember knows it's you against you\nIt's the paradox that drives us on\nIt's a battle of wills\nIn the heat of attack it's the passion that kills\nThe victory is yours alone\n[Chorus]\nIn the burning heart just about to burst\nThere's a quest for answers an unquenchable thirst\nIn the darkest night rising like a spire\nIn the burning heart the unmistakable fire\n\n[Instrumental Bridge]\n\n[Chorus]\nIn the burning heart just about to burst\nThere's a quest for answers an unquenchable thirst\nIn the darkest night rising like a spire\nIn the burning heart the unmistakable fire\nIn the burning heart just about to burst\nThere's a quest for answers an unquenchable thirst\nIn the darkest night rising like a spire\nIn the burning heart the unmistakable fire\n\n[Outro]\nIn the burning heart", 'annotations': {'description': '&lt;p&gt;Fresh from “Eye of the Tiger” from the Rocky III soundtrack, Jim Peterik’s Survivor was again called upon to make a hit for the sequel. This one is far more obvious in its inspiration from the storyline of the movie: Rocky, having witnessed his best friend, rival and mentor Apollo Creed killed in the ring by cold Russian boxer Ivan Drago, travels to Russia to train for his grudge match with the steroid-enhanced strongman. In the frigid tundra, Rocky tackles steeps hills, chops wood and just runs, as he always has. This song illustrates clearly what’s going through Rocky’s mind as he trains.&lt;/p&gt;', 'producers': [{'name': 'Jim Peterik', 'url': 'https://genius.com/artists/Jim-peterik'}, {'name': 'Frankie Sullivan', 'url': 'https://genius.com/artists/Frankie-sullivan'}], 'writers': [{'name': 'Jim Peterik', 'url': 'https://genius.com/artists/Jim-peterik'}, {'name': 'Frankie Sullivan', 'url': 'https://genius.com/artists/Frankie-sullivan'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Elle-king-exs-and-ohs-lyrics', 'lyrics': "[Verse 1]\nWell, I had me a boy, turned him into a man\nI showed him all the things that he didn't understand, whoa\nAnd then I let him go\nNow there's one in California who's been cursin' my name\n'Cause I found me a better lover in the UK, hey, hey\nUntil I made my getaway\n\n[Pre-Chorus 1]\nOne, two, three, they gonna run back to me\n'Cause I'm the best baby that they never gotta keep\nOne, two, three, they gonna run back to me\nThey always wanna come, but they never wanna leave\n\n[Chorus 1]\nEx's and the oh, oh, oh's\nThey haunt me like a-ghosts\nThey want me to make 'em oh, oh, oh\nThey won't let go, ex's and oh's\n\n[Verse 2]\nHad a summer lover down in New Orleans\nKept him warm in the winter, left him frozen in the spring, my, my\nHow the seasons go by\nI get high and I love to get low\nSo the hearts keep breaking and the heads just roll, you know\nThat's how the story goes\n[Pre-Chorus 1]\nOne, two, three, they gonna run back to me\n'Cause I'm the best baby that they never gotta keep\nOne, two, three, they gonna run back to me\nThey always wanna come, but they never wanna leave\n\n[Chorus 2]\nEx's and the oh, oh, oh's\nThey haunt me like a-ghosts\nThey want me to make 'em oh, oh, oh\nThey won't let go\nMy ex's and the oh, oh, oh's\nThey haunt me like a-ghosts\nThey want me to make 'em oh, oh, oh\nThey won't let go, ex's and oh's\n\n[Guitar Solo]\n\n[Pre-Chorus 2]\nOne, two, three, they gonna run back to me\nClimbing over mountains and a-sailing over seas\nOne, two, three, they gonna run back to me\nThey always wanna come, but they never wanna leave\n\n[Chorus 2]\nMy ex's and the oh, oh, oh's\nThey haunt me like a-ghosts\nThey want me to make 'em oh, oh, oh\nThey won't let go\nEx's and the oh, oh, oh's\nThey haunt me like a-ghosts\nThey want me to make 'em oh, oh, oh\nThey won't let go, ex's and oh's", 'annotations': {'description': '&lt;p&gt;Elle King sings about her old lovers and how they all come back to her wanting her love.&lt;/p&gt;\n\n&lt;p&gt;In the song, Elle King flips the stereotypical “love ‘em and leave \'em” mentality by ascribing it to a female singer through a series of biting innuendos.&lt;/p&gt;\n\n&lt;p&gt;The title, “Ex’s and Oh’s,” simultaneously evokes Tic-Tac-Toe, signaling that the singer treats relationships as a game, as well as plays off of colloquialisms for past relationships (Ex’s) and climaxes (Oh’s).&lt;/p&gt;\n\n&lt;p&gt;Trisha Yearwood similarly has a song called &lt;a href="https://genius.com/Trisha-yearwood-xxxs-and-ooos-an-american-girl-lyrics" rel="noopener" data-api_path="/songs/584731"&gt;“XXX’s and OOO’s (An American Girl).”&lt;/a&gt;&lt;/p&gt;', 'producers': [{'name': 'Dave Bassett', 'url': 'https://genius.com/artists/Dave-bassett'}], 'writers': [{'name': 'Kristopher Gregory', 'url': 'https://genius.com/artists/Kristopher-gregory'}, {'name': 'Dave Bassett', 'url': 'https://genius.com/artists/Dave-bassett'}, {'name': 'Elle King', 'url': 'https://genius.com/artists/Elle-king'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Sophie-ellis-bextor-murder-on-the-dancefloor-lyrics', 'lyrics': "[Intro]\nMurder\nIt's murder on the dancefloor\nBut you better not kill the groove, DJ\nGonna burn this goddamn house right down\n\n[Verse 1]\nI know, I know, I know, I know, I know\nI know about your kind\nAnd so and so and so and so and so\nI'll have to play\n\n[Pre-Chorus]\nIf you think you're getting away, I will prove you wrong\nI'll take you all the way, boy, just come along\nHear me when I say, hey\n\n[Chorus]\nIt's murder on the dancefloor\nBut you better not kill the groove, hey, hey\nIt's murder on the dancefloor\nBut you better not steal the moves, DJ\nGonna burn this goddamn house right down\n\n[Verse 2]\nI know, I know, I know, I know, I know\nI know there may be others\nAnd so and so and so and so and so and so\nYou'll just have to pray\n[Pre-Chorus]\nIf you think you'll get away, I will prove you wrong\nI'll take you all the way, stay another song\nI'll blow you all away, hey\n\n[Chorus]\nIt's murder on the dancefloor\nBut you better not kill the groove, hey, hey\nIt's murder on the dancefloor\nBut you better not steal the moves, DJ\nGonna turn this house around somehow\nMurder on the dancefloor\nBut you better not kill the groove, hey, hey\nIt's murder on the dancefloor\nBut you better not steal the moves, DJ\nGonna burn this goddamn house right down\n\n[Instrumental breakdown]\n\n[Pre-Chorus]\nDon't think you'll get away, I will prove you wrong\nI'll take you all the way, boy, just come along\nHear me when I say, hey\n\n[Chorus]\nIt's murder on the dancefloor\nBut you better not kill the groove\nIt's murder on the dancefloor\nBut you better not steal the moves, DJ\nGonna burn this goddamn house right down\nIt's murder on the dancefloor\nBut you better not kill the groove, hey, hey\nIt's murder on the dancefloor\nBut you better not steal the moves, DJ\nGonna burn this goddamn house right down\nIt's murder on the dancefloor\nBut you better not kill the groove, hey, hey\nIt's murder on the dancefloor\nBut you better not steal the moves", 'annotations': {'description': '&lt;p&gt;&lt;strong&gt;&lt;em&gt;Murder On the Dance Floor&lt;/em&gt;&lt;/strong&gt; was the second single from &lt;a href="https://genius.com/artists/Sophie-ellis-bextor" rel="noopener" data-api_path="/artists/35398"&gt;Sophie Ellis-Bextor&lt;/a&gt;’s debut album &lt;em&gt;Read My Lips&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;The song peaked at #2 on the U.K. Singles chart and was certified Silver by the BPI. It became the most-played song in Europe in 2002.&lt;/p&gt;\n\n&lt;p&gt;In the United States, it managed to peak at #26 on Billboard’s Hot Dance Music\\Club Play Songs chart.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/2a89174db218ec98410be2b3347a3407.500x487x1.jpg" alt="" width="500" height="487" data-animated="false"&gt;&lt;/p&gt;', 'producers': [{'name': 'Matt Rowe', 'url': 'https://genius.com/artists/Matt-rowe'}, {'name': 'Gregg Alexander', 'url': 'https://genius.com/artists/Gregg-alexander'}], 'writers': [{'name': 'Sophie Ellis-Bextor', 'url': 'https://genius.com/artists/Sophie-ellis-bextor'}, {'name': 'Gregg Alexander', 'url': 'https://genius.com/artists/Gregg-alexander'}], 'labels': [{'name': 'Universal Music Group', 'url': 'https://genius.com/artists/Universal-music-group'}, {'name': 'Polydor Records', 'url': 'https://genius.com/artists/Polydor-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Ub40-kingston-town-lyrics', 'lyrics': "[Verse 1]\nThe night seems to fade\nBut the moonlight lingers on\nThere are wonders for everyone\nThe stars shine so bright\nBut they're fading after dawn\nThere is magic in Kingston Town\n\n[Bridge]\nOh, Kingston Town\nThe place I long to be\nIf I had the whole world\nI would give it away\nJust to see the girls at play\n\n[Verse 2]\nAnd when I am king\nSurely I would need a queen\nAnd a palace and everything, yeah\nAnd now I am king\nAnd my queen will come at dawn\nShe'll be waiting in Kingston Town\n\n[Outro]\nAnd when I am king\nSurely I would need a queen\nAnd a palace and everything, yeah\nAnd now I am king\nAnd my queen will come at dawn\nShe'll be waiting in Kingston Town\nShe'll be waiting in Kingston Town\nShe'll be waiting in Kingston Town\nShe'll be waiting in Kingston Town", 'annotations': {'description': '&lt;p&gt;This song was written in 1970 by Lord Creator and  was recorded by UB40 19 years later.&lt;br&gt;\nIt is the second single from ‘Labour of Love II’ and it peaked at #4 on the UK singles chart.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/30342005bd021609b163f0742cd8a455.1000x1000x1.jpg" alt="" width="1000" height="1000" data-animated="false"&gt;&lt;/p&gt;', 'producers': [{'name': 'UB40', 'url': 'https://genius.com/artists/Ub40'}], 'writers': [{'name': 'Lord Creator', 'url': 'https://genius.com/artists/Lord-creator'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Two-door-cinema-club-something-good-can-work-lyrics', 'lyrics': "[Verse 1]\nThere's a spanner in the works, you know\nYou gotta step up your game to make it to the top\nSo go\nGot a little competition now\nYou're going to find it hard to cope with living on your own now\nUh oh, uh oh\n\n[Chorus]\nLet's make this happen, girl\nWe gotta show the world that something good can work\nAnd it can work for you, and you know that it will\nLet's get this started, girl\nWe're moving up, we're moving up\nIt's been a lot to change but you will always get what you want\n\n[Verse 2]\nIt took a little time to make a little better\nIt's only going up, just one thing then another\nYou know, you know\nIt took a little time to make a little better\nIt's only going up, just one thing then another\nYou know, you know\n\n[Chorus]\nLet's make this happen, girl\nWe gotta show the world that something good can work\nAnd it can work for you, and you know that it will\nLet's get this started, girl\nWe're moving up, we're moving up\nIt's been a lot to change but you will always get what you want\n[Instrumental Break]\n\n[Chorus]\nLet's make this happen, girl\nWe gotta show the world that something good can work\nAnd it can work for you, and you know that it will\nLet's get this started, girl\nWe're moving up, we're moving up\nIt's been a lot to change but you will always get what you want\nLet's make this happen, girl\nWe gotta show the world that something good can work\nAnd it can work for you, and you know that it will\nLet's get this started, girl\nWe're moving up, we're moving up\nIt's been a lot to change but you will always get what you want", 'annotations': {'description': '&lt;p&gt;“Something Good Can Work” is the positive 6th track of &lt;a href="https://genius.com/albums/Two-door-cinema-club/Tourist-history" rel="noopener" data-api_path="/albums/22945"&gt;Tourist History&lt;/a&gt;, made by indie rock band &lt;a href="https://genius.com/artists/Two-door-cinema-club" rel="noopener" data-api_path="/artists/17586"&gt;Two Door Cinema Club&lt;/a&gt;. The track follows the effort that gets put into a relationship, with sarcastic undertones across some lines. These undertones hint that the person is getting tired of working hard in a relationship to seemingly hand it to the other person, on a silver platter.&lt;/p&gt;', 'producers': [{'name': 'Eliot James', 'url': 'https://genius.com/artists/Eliot-james'}], 'writers': [{'name': 'Kevin Baird', 'url': 'https://genius.com/artists/Kevin-baird'}, {'name': 'Sam Halliday', 'url': 'https://genius.com/artists/Sam-halliday'}, {'name': 'Alex Trimble', 'url': 'https://genius.com/artists/Alex-trimble'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Silverchair-tomorrow-lyrics', 'lyrics': "[Verse 1]\nIt's twelve o'clock and it's a wonderful day\nI know you hate me, but I'll ask anyway\nWon't you come with me to a place in a little town?\nThe only way to get there's to go straight down\nThere's no bathroom and there is no sink\nThe water out of the tap is very hard to drink\n\n[Pre-Chorus]\nVery hard to drink\n\n[Chorus]\nYou wait 'til tomorrow\nYou wait 'til tomorrow\n\n[Verse 2]\nYou say that money isn't everything\nBut I'd like to see you live without it\nYou think you can keep on going living like a king\nOoh, babe, but I strongly doubt it\n\n[Pre-Chorus]\nVery hard to drink\nVery hard to drink\n\n[Chorus]\nYou gonna wait 'til, fat boy\nFat boy, wait 'til tomorrow\nYou gonna wait 'til, fat boy\nFat boy, wait 'til tomorrow\n[Chorus]\nYou wait 'til tomorrow\nYou wait 'til tomorrow\nYou gonna wait 'til, fat boy\nFat boy, wait 'til tomorrow\nYou gonna wait 'til, fat boy\nFat boy, wait 'til tomorrow\nOh, yeah", 'annotations': {'description': '&lt;p&gt;“Tomorrow” is Silverchair’s &lt;a href="https://www.billboard.com/music/Silverchair/chart-history/alternative-songs" rel="noopener nofollow"&gt;most popular track&lt;/a&gt;. The international commercial success of the song &lt;a href="https://www.newcastleherald.com.au/story/2521438/silverchair-was-the-sound-of-a-generation-photos-video/interactive/" rel="noopener nofollow"&gt;had a significant impact on Australian music and musicians in the 90s&lt;/a&gt;. Written by singer/guitarist Daniel Johns and drummer Ben Gillies &lt;a href="https://www.rollingstone.com/music/music-news/silverchair-boys-life-48313/" rel="noopener nofollow"&gt;when the pair were only fifteen&lt;/a&gt;, the song operates firmly within 90s grunge-era rock.&lt;/p&gt;\n\n&lt;p&gt;When asked about the inspiration for “Tomorrow,” &lt;a href="https://www.chairpage.com/press_releases/item/128/" rel="noopener nofollow"&gt;Johns said&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;That was on a TV show. There was this poor guy taking a rich guy through a hotel to experience the losses of the less fortunate than him. The rich guy is just complaining because he just wants to get out and the poor guy is saying you have to wait till tomorrow to get out. That’s one of our least serious songs but it still has meaning to it.&lt;/p&gt;&lt;/blockquote&gt;', 'producers': [{'name': 'Phil McKellar', 'url': 'https://genius.com/artists/Phil-mckellar'}, {'name': 'Kevin Shirley', 'url': 'https://genius.com/artists/Kevin-shirley'}], 'writers': [{'name': 'Ben Gillies', 'url': 'https://genius.com/artists/Ben-gillies'}, {'name': 'Daniel Johns', 'url': 'https://genius.com/artists/Daniel-johns'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/The-prodigy-smack-my-bitch-up-edit-lyrics', 'lyrics': 'Change my pitch up\nSmack my bitch up\nChange my pitch up\nSmack my bitch up\nChange my pitch up\nSmack my bitch up\nChange my pitch up\nSmack my bitch up\nSmack my bitch up\nSmack my bitch up\nChange my pitch up\nSmack my bitch up\nChange my pitch up\nSmack my bitch up', 'annotations': {'description': '', 'producers': [], 'writers': [], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Toto-africa-lyrics', 'lyrics': '[Verse 1: David Paich]\nI hear the drums echoing tonight\nBut she hears only whispers of some quiet conversation\nShe\'s coming in, 12:30 flight\nHer moonlit wings reflect the stars that guide me towards salvation\nI stopped an old man along the way\nHoping to find some old forgotten words or ancient melodies\nHe turned to me as if to say\n"Hurry, boy, it\'s waiting there for you"\n\n[Chorus: Bobby Kimball]\nIt\'s gonna take the lot to drag me away from you\nThere\'s nothing that a hundred men or more could ever do\nI bless the rains down in Africa\nGonna take some time to do the things we never had\n\n[Verse 2: David Paich]\nThe wild dogs cry out in the night\nAs they grow restless longing for some solitary company\nI know that I must do what\'s right\nAs sure as Kilimanjaro rises like Olympus above the Serengeti\nI seek to cure what\'s deep inside\nFrightened of this thing that I\'ve become\n[Chorus: Bobby Kimball]\nIt\'s gonna take the lot to drag me away from you\nThere\'s nothing that a hundred men or more could ever do\nI bless the rains down in Africa\nGonna take some time to do the things we never had\n[Bridge]\nHurry, boy, she\'s waiting there for you\n\n[Chorus: Bobby Kimball]\nIt\'s gonna take the lot to drag me away from you\nThere\'s nothing that a hundred men or more could ever do\nI bless the rains down in Africa\nI bless the rains down in Africa\nI bless the rains down in Africa\nI bless the rains down in Africa\nI bless the rains down in Africa\nGonna take some time to do the things we never had', 'annotations': {'description': '&lt;p&gt;“Africa” is the third single from Toto’s 1982 album titled &lt;em&gt;&lt;a href="https://genius.com/albums/Toto/Toto-iv" rel="noopener" data-api_path="/albums/109163"&gt;Toto IV&lt;/a&gt;&lt;/em&gt;.  It is the group’s most popular song and &lt;a href="http://www.billboard.com/charts/hot-100/1983-02-05" rel="noopener nofollow"&gt;reached #1&lt;/a&gt; on &lt;em&gt;Billboard’s Hot 100&lt;/em&gt; in early 1983.&lt;/p&gt;\n\n&lt;p&gt;The lyrics comprise a heartfelt (if somewhat fantastical and stereotyped) vision of the beauty of Africa. There are undercurrents of embodying the continent of Africa in a female figure that is referenced throughout the song.&lt;/p&gt;\n\n&lt;p&gt;Africa is, of course, an enormous continent full of a variety of cultures, but the lyrics touch on what a white kid growing up  in  1970s America would have been exposed to in pop culture, &lt;a href="http://jeffporcaro.blogspot.com/2006/12/story-behind-africa.html" rel="noopener nofollow"&gt;as drummer Jeff Porcaro stated in an interview:&lt;/a&gt;&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;… a white boy is trying to write a song on Africa, but since he’s never been there, he can only tell what he’s seen on TV or remembers in the past.&lt;/p&gt;&lt;/blockquote&gt;', 'producers': [{'name': 'Toto', 'url': 'https://genius.com/artists/Toto'}], 'writers': [{'name': 'Jeff Porcaro', 'url': 'https://genius.com/artists/Jeff-porcaro'}, {'name': 'David Paich', 'url': 'https://genius.com/artists/David-paich'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Britney-spears-till-the-world-ends-lyrics', 'lyrics': "[Verse 1]\nThis kitten got your tongue tied in knots, I see\nSpit it out, 'cause I'm dying for company\nI notice that you got it, you notice that I want it\nYou know that I can take it to the next level, baby\nIf you want this good -ish, sicker than the remix\nBaby, let me blow your mind tonight\n\n[Pre-Chorus]\nI can't take it, take it, take no more\nNever felt like, felt like this before\nCome on, get me, get me on the floor\nDJ, what you, what you waiting for?\n\n[Chorus]\nWoah-oh-oh-oh-oh-oh-oh\nWoah-oh-oh-oh-oh-oh-oh\nWoah-oh-oh-oh-oh-oh-oh\nWoah-oh-oh-oh-oh-oh-oh\nWoah-oh-oh-oh-oh-oh-oh\nWoah-oh-oh-oh-oh-oh-oh\nWoah-oh-oh-oh-oh-oh-oh\nWoah-oh-oh-oh-oh-oh-oh\n\n[Verse 2]\nWatch me move, when I lose, when I lose it hard\nGet you off with the touch, dancin' in the dark\nYou notice what I'm wearin', I'm noticin' you starin'\nYou know that I can take it to the next level, baby\nHotter than the A-list, next one on my hit list\nBaby, let me blow your mind tonight\n[Pre-Chorus]\nI can't take it, take it, take no more\nNever felt like, felt like this before\nCome on, get me, get me on the floor\nDJ, what you, what you waitin' for?\n\n[Chorus]\nWoah-oh-oh-oh-oh-oh-oh\nWoah-oh-oh-oh-oh-oh-oh\nWoah-oh-oh-oh-oh-oh-oh\nWoah-oh-oh-oh-oh-oh-oh\nWoah-oh-oh-oh-oh-oh-oh\nWoah-oh-oh-oh-oh-oh-oh\nWoah-oh-oh-oh-oh-oh-oh\nWoah-oh-oh-oh-oh-oh-oh\n\n[Post-Chorus]\nSee the sunlight, we ain't stoppin'\nKeep on dancin' 'til the world ends\nIf you feel it, let it happen\nKeep on dancin' 'til the world ends\nKeep on dancin' 'til the world ends\nKeep on dancin' 'til the world ends\n\n[Chorus]\nWoah-oh-oh-oh-oh-oh-oh\nWoah-oh-oh-oh-oh-oh-oh\nWoah-oh-oh-oh-oh-oh-oh\nWoah-oh-oh-oh-oh-oh-oh\nWoah-oh-oh-oh-oh-oh-oh\nWoah-oh-oh-oh-oh-oh-oh\nWoah-oh-oh-oh-oh-oh-oh\nWoah-oh-oh-oh-oh-oh-oh\n[Post-Chorus]\nSee the sunlight, we ain't stoppin'\nKeep on dancin' 'til the world ends\nIf you feel it, let it happen\nKeep on dancin' 'til the world ends", 'annotations': {'description': '&lt;p&gt;“Till The World Ends” is the second single from &lt;a href="http://rock.genius.com/albums/Britney-spears/Femme-fatale" rel="noopener" data-api_path="/albums/10815"&gt;Femme Fatale&lt;/a&gt;, released on March 4 2011.&lt;/p&gt;\n\n&lt;p&gt;The song received generally positive acclaim from critics and charted on the top-ten in several major music markets, including Australia, France, Ireland, New Zealand, Sweden, Switzerland, and the US.&lt;/p&gt;', 'producers': [{'name': 'Billboard (Producer)', 'url': 'https://genius.com/artists/Billboard-producer'}, {'name': 'Max Martin', 'url': 'https://genius.com/artists/Max-martin'}, {'name': 'Dr. Luke', 'url': 'https://genius.com/artists/Dr-luke'}], 'writers': [{'name': 'Kesha', 'url': 'https://genius.com/artists/Kesha'}, {'name': 'Alexander Kronlund', 'url': 'https://genius.com/artists/Alexander-kronlund'}, {'name': 'Max Martin', 'url': 'https://genius.com/artists/Max-martin'}, {'name': 'Dr. Luke', 'url': 'https://genius.com/artists/Dr-luke'}], 'labels': [{'name': 'Jive Records', 'url': 'https://genius.com/artists/Jive-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Alok-zeeba-and-bruno-martini-hear-me-now-lyrics', 'lyrics': "[Intro: Zeeba]\nIf you get to hear me now\nIf you get to hear me now\n\n[Verse 1: Zeeba]\nI know you'll get stronger\nWhen you get older\nJust don't shrug your shoulders\nWhen you get older\n\n[Pre-Chorus: Zeeba]\nThe things aren't easy\nSo just believe me now\nIf you don't keep it cool now\nYou'll never make a sound\n\n[Chorus: Zeeba]\nAll the lights will guide the way\nIf you get to hear me now\nAll the fears will fade away\nIf you get to hear me now\nIf you get to hear me now\nIf you get to hear me now\n\n[Verse 2: Zeeba]\nLeave excuses aside\nSpeak out your mind\nAnd don't let it slide\nYou're not always right\n[Pre-Chorus: Zeeba]\nThe things aren't easy\nSo just believe me now\nDon't learn the hard way\nJust let me show you how\n\n[Chorus: Zeeba]\nAll the lights will guide the way\nIf you get to hear me now\nAll the fears will fade away\nIf you get to hear me now\nIf you get to hear me now\nIf you get to hear me now\n\n[Outro: Zeeba]\nIf you get to hear me now\nIf you get to hear me now\nIf you get to hear me now\nIf you get to hear me now", 'annotations': {'description': '&lt;p&gt;“Hear Me Now” is breezy electronic pop song full of whistling, acoustic guitar, and uplifting lyrics. It’s a collaboration between Brazilian DJs Alok and Bruno Martini, plus California-born singer-songwriter Marcos Zeeba, who provides the vocals. Zeeba moved to São Paulo, Brazil, at an early age and lived there until he was 19. He went on to play rhythm guitar in the band Bonavox, and as of early 2017, he was prepping his debut solo EP, &lt;em&gt;Ink&lt;/em&gt;.&lt;/p&gt;', 'producers': [{'name': 'Bruno Martini', 'url': 'https://genius.com/artists/Bruno-martini'}, {'name': 'Alok', 'url': 'https://genius.com/artists/Alok'}], 'writers': [{'name': 'Alok', 'url': 'https://genius.com/artists/Alok'}, {'name': 'Bruno Martini', 'url': 'https://genius.com/artists/Bruno-martini'}, {'name': 'Zeeba', 'url': 'https://genius.com/artists/Zeeba'}], 'labels': [{'name': 'Spinnin’ Records', 'url': 'https://genius.com/artists/Spinnin-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Alice-in-chains-would-lyrics', 'lyrics': '[Verse 1: Jerry Cantrell]\nKnow me, broken by my master\nTeach thee on child, of love hereafter\n\n[Chorus: Layne Staley]\nInto the flood again\nSame old trip it was back then\nSo I made a big mistake\nTry to see it once my way\n\n[Verse 2: Jerry Cantrell]\nDrifting body, its sole desertion\nFlying, not yet quite the notion\n\n[Chorus: Layne Staley]\nInto the flood again\nSame old trip it was back then\nSo I made a big mistake\nTry to see it once my way\n\n[Guitar Solo: Jerry Cantrell]\n\n[Chorus: Layne Staley]\nInto the flood again\nSame old trip it was back then\nSo I made a big mistake\nTry to see it once my way\n[Outro: Layne Staley]\nAm I wrong?\nHave I run too far to get home?\nHave I gone?\nLeft you here alone\nAm I wrong?\nHave I run too far to get home? Yeah\nHave I gone?\nLeft you here alone\nIf I would, could you?', 'annotations': {'description': '&lt;p&gt;The song concerns the late lead singer of Mother Love Bone, Andrew Wood, who died of a heroin overdose in 1990.  Would? and Wood are homophones.&lt;br&gt;\nIt is written by Jerry Cantrell and produced by Rick Parashar.&lt;/p&gt;', 'producers': [{'name': 'Alice in Chains', 'url': 'https://genius.com/artists/Alice-in-chains'}, {'name': 'Rick Parashar', 'url': 'https://genius.com/artists/Rick-parashar'}], 'writers': [{'name': 'Jerry Cantrell', 'url': 'https://genius.com/artists/Jerry-cantrell'}], 'labels': [{'name': 'Columbia Records', 'url': 'https://genius.com/artists/Columbia-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Twisted-sister-were-not-gonna-take-it-lyrics', 'lyrics': "[Chorus]\nOh, we're not gonna take it\nNo, we ain't gonna take it\nOh, we're not gonna take it anymore\n\n[Verse 1]\nWe've got the right to choose, and\nThere ain't no way we'll lose it\nThis is our life, this is our song\nWe'll fight the powers that be, just\nDon't pick our destiny, 'cause\nYou don't know us, you don't belong\n\n[Chorus]\nOh, we're not gonna take it\nNo, we ain't gonna take it\nOh, we're not gonna take it anymore\n\n[Verse 2]\nOh, you're so condescending\nYour gall is never ending\nWe don't want anything, not a thing from you\nYour life is trite and jaded\nBoring and confiscated\nIf that's your best, your best won't do\n[Refrain]\nWoah-oh-oh\nWoah-oh-oh\nWe're right! (Yeah!)\nWe're free! (Yeah!)\nWe'll fight! (Yeah!)\nYou'll see! (Yeah!)\n\n[Chorus]\nOh, we're not gonna take it\nNo, we ain't gonna take it\nOh, we're not gonna take it anymore\nOh, we're not gonna take it\nNo, we ain't gonna take it\nOh, we're not gonna take it anymore\nNo way!\n\n[Guitar Solo]\n\n[Refrain]\nWoah-oh-oh\nWoah-oh-oh\nWe're right! (Yeah!)\nWe're free! (Yeah!)\nWe'll fight! (Yeah!)\nYou'll see! (Yeah!)\n[Chorus]\nWe're not gonna take it\nNo, we ain't gonna take it\nWe're not gonna take it anymore\nWe're not gonna take it (No!)\nNo, we ain't gonna take it\nWe're not gonna take it anymore\n(Just you try and make us!)\nOh, we're not gonna take it (Come on!)\nNo, we ain't gonna take it\n(You're all worthless and weak!)\nWe're not gonna take it anymore\n(Now drop and give me twenty!)\nOh, we're not gonna take it (A pledge pin?!)\nNo, we ain't gonna take it (On your uniform!)\nWe're not gonna take it anymore", 'annotations': {'description': '&lt;p&gt;“We’re Not Gonna Take It” is Twisted Sister’s signature song. Snider wrote the song’s hook &lt;a href="http://www.songfacts.com/blog/interviews/dee_snider_of_twisted_sister/" rel="noopener nofollow"&gt;three years prior to its release&lt;/a&gt; but ‘could never figure out how to write a verse for it’. Studying Mutt Lange’s work with Def Leppard on their 1983 album &lt;em&gt;Pyromania&lt;/em&gt; helped inspire him on how to eventually finish the song.&lt;/p&gt;\n\n&lt;p&gt;It was the band’s most successful song in the US, peaking at #21 in 1984. Its rebellion-meets-cartoon violence video, featuring a storyline similar to (and including an actor from) the film &lt;em&gt;Animal House&lt;/em&gt;, was very popular on MTV that year.&lt;/p&gt;\n\n&lt;p&gt;The song scored its highest peak in New Zealand, &lt;a href="https://charts.nz/showitem.asp?interpret=Twisted+Sister&amp;amp;titel=We%27re+Not+Gonna+Take+It&amp;amp;cat=s" rel="noopener nofollow"&gt;reaching #2&lt;/a&gt; there. In the UK, it was moderately successful, &lt;a href="http://www.officialcharts.com/artist/20262/twisted-sister/" rel="noopener nofollow"&gt;peaking at #58&lt;/a&gt;. The band had four other songs chart higher there in the mid-80s.&lt;/p&gt;\n\n&lt;p&gt;In 1985, the PMRC included “We’re Not Gonna Take It” on their infamous &lt;a href="https://www.rollingstone.com/music/music-lists/pmrcs-filthy-15-where-are-they-now-60601/" rel="noopener nofollow"&gt;‘filthy fifteen’&lt;/a&gt;, citing it for ‘violence’, as part of their campaign to get records they found offensive labeled with a parental advisory sticker. Snider testified in court against them, pointing out, “there is absolutely no violence of any type either sung about or implied anywhere in the song”.&lt;/p&gt;\n\n&lt;p&gt;Due to its similarity to the Christmas song “O Come All Ye Faithful”, with Snider later stating, “turns out I stole the chord progression”, the band released &lt;a href="https://genius.com/Twisted-sister-oh-come-all-ye-faithful-lyrics" rel="noopener" data-api_path="/songs/1467420"&gt;“O Come All Ye Faithful”&lt;/a&gt; on their 2006 holiday album &lt;em&gt;A Twisted Christmas&lt;/em&gt; with the music of “We’re Not Gonna Take It” performed behind the lyrics.&lt;/p&gt;\n\n&lt;p&gt;“We’re Not Gonna Take It” &lt;a href="http://www.songfacts.com/blog/interviews/dee_snider_of_twisted_sister/" rel="noopener nofollow"&gt;continues to be&lt;/a&gt; a popular choice for sporting events, protests and political rallies, including &lt;a href="http://loudwire.com/twisted-sister-dodged-publicly-shaming-donald-trump-were-not-gonna-take-it/" rel="noopener nofollow"&gt;Trump’s 2016 presidential campaign&lt;/a&gt; – which the band privately asked them to stop doing. In 2009, it was &lt;a href="https://www.riaa.com/gold-platinum/?tab_active=default-award&amp;amp;se=twisted+sister#search_section" rel="noopener nofollow"&gt;certified Gold&lt;/a&gt; for selling over half-million digital downloads.&lt;/p&gt;\n\n&lt;p&gt;Despite their next single reaching #68 and the lead single of their next album peaking at #53 &lt;a href="https://www.billboard.com/music/twisted-sister/chart-history" rel="noopener nofollow"&gt;in the US&lt;/a&gt;, the band is still often labeled a one hit wonder there. One example is in 2013 when &lt;a href="http://www.vh1.com/news/1243/100-greatest-one-hit-wonders-of-the-80s/" rel="noopener nofollow"&gt;VH1 named the band&lt;/a&gt; the #20 greatest one hit wonder.&lt;/p&gt;', 'producers': [{'name': 'Tom Werman', 'url': 'https://genius.com/artists/Tom-werman'}], 'writers': [{'name': 'Dee Snider', 'url': 'https://genius.com/artists/Dee-snider'}], 'labels': [{'name': 'Warner Music Group', 'url': 'https://genius.com/artists/Warner-music-group'}, {'name': 'Atlantic Records', 'url': 'https://genius.com/artists/Atlantic-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Rage-against-the-machine-renegades-of-funk-lyrics', 'lyrics': '[Intro]\nNo matter how hard you try, you can\'t stop us now\nNo matter how hard you try, you can\'t stop us now\nWe\'re the renegades of this atomic age\nThis atomic age of renegades\nRenegades of this atomic age\nThis atomic age of renegades\n\n[Verse 1]\nSince the Prehistoric ages and the days of ancient Greece\nRight down through the Middle Ages\nPlanet Earth kept going through changes\nAnd then no renaissance came (Came)\nAnd times continued to change (Change)\nNothing stayed the same, but there were always renegades\nLike Chief Sitting Bull, Tom Paine\nDr. Martin Luther King, Malcolm X\nThey were renegades of their time and age\nSo many renegades!\n\n[Chorus]\nWe\'re the Renegades of funk\nWe\'re the Renegades of funk\nWe\'re the Renegades of funk\nWe\'re the Renegades of funk\n[Verse 2]\nFrom a different solar system\nMany, many galaxies away\nWe are the force of another creation\nA new musical revelation\nAnd we\'re on this musical mission, to help the others listen\nAnd groove from land to land, singin\' electronic chants like\nZulu Nation\n\n[Bridge]\nRevelations\nDestroy all nations\nDestroy all nations\nDestroy all nations\nDestroy all nations\nDestroy all nations\nDestroy all nations\n\n[Verse 3]\nNow renegades are the people with their own philosophies\nThey change the course of history\nEveryday people like you and me\nWe\'re the renegades, we\'re the people with our own philosophies\nWe change the course of history\nEveryday people like you and me\nCome on\n[Chorus]\nWe\'re the renegades of funk\nWe\'re the renegades of funk\nWe\'re the renegades of funk\nWe\'re the renegades of funk\n\n[Bridge]\nWith Poppin\', sockin\', rockin\' puttin\' a side of hip-hop\nBecause where we\'re goin\' there ain\'t no stoppin\'\nPoppin\', sockin\', rockin\', puttin\' a side of hip-hop\nBecause where we\'re goin\' there ain\'t no stoppin\'\nPoppin\' and sockin\' and rockin\' and puttin\' a side of hip-hop\n\'Cause we\'re poppin\', sockin\', rockin\' puttin\' a side of hip-hop\nPoppin\', sockin\', rockin\' puttin\' a side of HIP-HOP!!\n\n[Chorus]\nWe\'re the renegades of funk\nWe\'re the renegades of funk\nWe\'re the renegades of funk\nWe\'re the renegades of funk\n\n[Verse 4]\nWe\'re teachers of the funk and not of empty popping\nWe\'re blessed with the force and the sight of electronics\nWith the bass, and the treble, the horns, and our vocals\n\'Cause every time I pop into the beat, we get fresh\n[*drum break*]\n\nCome on\n\n[Guitar solo]\n\nCome on\n\n[Verse 5]\nThere was a time when our music\nWas something called "The Bay Street" beat\nPeople would gather from all around\nTo get down to the big sound\nYou had to be a renegade in those days\nTo take a man to the dance floor\n\n[Verse 6]\nSay jam sucka (Jam sucka)\nSay jam sucka (Jam sucka)\nSay groove sucka (Move sucka)\nNow groove sucka (Move sucka)\nNow dance sucka (Dance sucka)\nNow dance sucka (Dance sucka)\nSay move sucka (Move sucka)\nNow move sucka (Move sucka)\nSay jam sucka (Jam sucka)\nSay jam sucka (Jam sucka)\nSay groove sucka (Move sucka)\nNow groove sucka (Move sucka)\nSay dance sucka (Dance sucka)\nSay dance sucka (Dance sucka)\nSay move sucka (Move sucka)\nNow move sucka (Move sucka)\n\n[Outro]\nWe\'re the renegades of funk\nWe\'re the renegades of funk\nWe\'re the renegades of funk\nWe\'re the renegades of funk\nWe\'re the renegades of funk\nWe\'re the renegades of funk\nWe\'re the renegades of funk\nWe\'re the renegades of funk', 'annotations': {'description': '&lt;p&gt;Originally a 1983 single by &lt;a href="https://genius.com/Afrika-bambaataa-and-soulsonic-force-renegades-of-funk-lyrics" rel="noopener" data-api_path="/songs/9249"&gt;Afrika Bambaataa &amp;amp; the Soulsonic Force&lt;/a&gt;, “Renegades of Funk” is notable for drawing a connection between revolutionaries and street artists through politically fuelled lyrics. Empowering themes within the song emphasise the fact that everyday people can become great leaders.&lt;/p&gt;\n\n&lt;p&gt;Rage Against the Machine released their version of the single in 2001, which features a percussion interpolation of &lt;a href="https://genius.com/Incredible-bongo-band-apache-lyrics" rel="noopener" data-api_path="/songs/696164"&gt;“Apache” by the Incredible Bongo Band&lt;/a&gt;. The single was included on Rage Against the Machine’s cover album, &lt;a href="https://genius.com/albums/Rage-against-the-machine/Renegades" rel="noopener" data-api_path="/albums/8641"&gt;&lt;em&gt;Renegades&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The &lt;a href="https://www.youtube.com/watch?v=5-9e4l1zz-4" rel="noopener nofollow"&gt;Steven Murashinge directed video&lt;/a&gt; reflects the song’s original message, featuring a montage of hip-hop musicians and events of the Civil Rights movements. Some of the &lt;a href="https://en.wikipedia.org/wiki/Renegades_of_Funk#Rage_Against_the_Machine_cover" rel="noopener nofollow"&gt;notable figures implied by the video to be “renegades of funk”&lt;/a&gt; include &lt;a href="https://genius.com/artists/Martin-luther-king-jr" rel="noopener" data-api_path="/artists/2028"&gt;Martin Luther King Jr.&lt;/a&gt;, &lt;a href="https://genius.com/artists/Malcolm-x" rel="noopener" data-api_path="/artists/12037"&gt;Malcom X&lt;/a&gt;, &lt;a href="https://en.wikipedia.org/wiki/Rosa_Parks" rel="noopener nofollow"&gt;Rosa Parks&lt;/a&gt; and hip-hop group &lt;a href="https://genius.com/artists/Nwa" rel="noopener" data-api_path="/artists/974"&gt;N.W.A.&lt;/a&gt;. This is intertwined with footage of Los Angeles based &lt;a href="http://www.thedirtfloor.com/2010/10/26/disobedience-joey-krebs-the-phantom-street-artist/" rel="noopener nofollow"&gt;Phantom Street Artist Joey Krebs&lt;/a&gt; spray-painting his infamous outline silhouettes. Krebs is also responsible for creating the cover artwork for &lt;a href="https://genius.com/albums/Rage-against-the-machine/The-battle-of-los-angeles" rel="noopener" data-api_path="/albums/8637"&gt;“The Battle of Los Angeles”&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/5d12ed6631151d0cf11e9cd2393bbdbc.600x399x1.jpg" alt="" width="600" height="399" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;Rage Against the Machine’s cover was sampled on “Weird Al” Yankovic’s medley, &lt;a href="https://genius.com/Weird-al-yankovic-the-angry-white-boy-polka-lyrics" rel="noopener" data-api_path="/songs/497763"&gt;“Angry White Boy Polka”&lt;/a&gt; for his 2003 album, &lt;a href="https://genius.com/albums/Weird-al-yankovic/Poodle-hat" rel="noopener" data-api_path="/albums/5944"&gt;&lt;em&gt;Poodle Hat&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;', 'producers': [{'name': 'Rage Against the Machine', 'url': 'https://genius.com/artists/Rage-against-the-machine'}, {'name': 'Rick Rubin', 'url': 'https://genius.com/artists/Rick-rubin'}], 'writers': [{'name': 'John Robie', 'url': 'https://genius.com/artists/John-robie'}, {'name': 'John Miller', 'url': 'https://genius.com/artists/John-miller'}, {'name': 'Arthur Baker', 'url': 'https://genius.com/artists/Arthur-baker'}, {'name': 'Afrika Bambaataa', 'url': 'https://genius.com/artists/Afrika-bambaataa'}], 'labels': [{'name': 'Epic Records', 'url': 'https://genius.com/artists/Epic-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Alabama-3-woke-up-this-morning-lyrics', 'lyrics': '[Spoken Intro]\nAnd after three days of drinkin\' with Larry Love, I just get an inklin\' to go on home\n\nSo, I\'m walkin\' down Coldharbour Lane, head hung low, three or four in the mornin\'. The sun\'s comin\' up and the birds are out singing. I let myself into my pad. Wend myself up that spiral staircase and stretch out nice on the Chesterfield\n\nPithecanthropus Erectus already on the CD player and I just push that remote button to sublimity. And listen to the sweet sculptural rhythms of Charles Mingus. And J.R. Monterose and Jackie McLean duet on those saxophones and, the sound makes its way out the window minglin\' with the traffic noises outside you know, and all of a sudden I\'m overcome by a feelin\' of brief mortality\n\nCause I\'m gettin\' on in the world, comin\' up on forty-one years. Forty-one stony gray steps towards the grave, you know, the box awaits its grisly load. Now I\'m gonna be food for worms\n\nAnd just like Charles Mingus wrote that beautiful piece of music \'Epitaph\' for Eric Dolphy, I say, so long Eric. So long John Coltrane and Charles Mingus. So long Duke Ellington and Lester Young. So long Billie Holiday and Ella Fitzgerald. So long Jimmy Reed. So long Muddy Waters, and so long Howlin\' Wolf\n(Woke up this mornin\')\n\n[Verse 1]\nWoke up this mornin\'\nGot yourself a gun\nYour mama always said you\'d be the Chosen One\nShe said, "You\'re one in a million\nYou got to burn to shine"\nBut you were born under a bad sign\nWith a blue moon in your eyes\n\n[Verse 2]\nAnd you woke up this mornin\'\nAnd all that love had gone\nYour Papa never told you about right and wrong\nHey but you\'re, but you\'re looking good, baby\nI believe that you\'re a-feelin\' fine\nShame about it\nBorn under a bad sign with a blue moon in your eyes\n[Chorus]\nSo sing it now\nWoke up this mornin\'\nWoke up this mornin\'\n\n[Verse 3]\nI see ya, ya woke up this mornin\'\nThe world turned upside down\nLord above, things ain\'t been the same\nSince the blues walked into town\nHey but you\'re, but you\'re, one in a million\nCause you got that shotgun shine\nShame about it\nBorn under a bad sign with a blue moon in your eyes\n\n[Chorus]\nSo sing it now\nWoke up this mornin\'\nYou got a blue moon\nGot a blue moon in your eyes\nSo sad\nGoddamn\nA god-damned shame about it\nWoke up this mornin\'\nYou got a blue moon\nGot a blue moon in your eyes, yeah\nMister D. Wayne Love\n\n[Verse 4]\nWhen you woke up this morning everything was gone\nBy half past ten your head was going ding-dong\nRingin\' like a bell from your head down to your toes\nLike some voice tryin\'a tell ya there\'s somethin\' you should know\n\n[Bridge]\nLast night you was flyin\' but today you\'re so low\nAin\'t it times like these makes you wonder if you\'ll ever know\nThe meaning of things as they appear to the others\nWives, husbands, mothers, fathers, sisters and brothers\n\nDon\'t you wish you didn\'t function, don\'t you wish you didn\'t think\nBeyond the next pay check and the next little drink?\nWell you do so make up your mind to go on\nCause when you woke up this mornin\', everything you had was gone\n\n[Chorus]\nWoke up this mornin\'\nWhen ya woke up this mornin\'\n\nWoke up this mornin\'\nYa woke up this mornin\'\nWoke up this mornin\'\nYou wanna be, you wanna be the Chosen One\nYeah you know it cause, you just can\'t help yourself, yeah\n\nWoke up this mornin\'\nWhen ya, woke up this mornin\'\n\nWoke up this mornin\'\nWoke up this mornin\'\n\n[Outro]\nWoke up this mornin\'\nGot yourself a gun\nGot yourself a gun\nGot yourself a gun', 'annotations': {'description': '&lt;p&gt;An interesting mixture of jazz, hip-hop, with a generous dose of a gospel choir, the driving beat of this song starts early, much into the spoken intro. Alabama 3 never expected this song to become recognized as the infamously known title theme for HBO’s The Sopranos.&lt;/p&gt;\n\n&lt;p&gt;The version that appears during the opening credits of The Sopranos is actually a remixed version and misses the spoken intro.&lt;/p&gt;\n\n&lt;p&gt;The reference from The Sopranos usage occurs again in an episode of the Netflix series Lilyhammer, which stars Steven Van Zandt (who played the role of Silvio Dante on The Sopranos).&lt;/p&gt;', 'producers': [], 'writers': [], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Nirvana-rape-me-lyrics', 'lyrics': "[Verse 1]\nRape me\nRape me, my friend\nRape me\nRape me again\n\n[Refrain]\nI'm not the only one, ah-ah\nI'm not the only one, ah-ah\nI'm not the only one, ah-ah\nI'm not the only one\n\n[Verse 2]\nHate me\nDo it and do it again\nWaste me\nRape me, my friend\n\n[Refrain]\nI'm not the only one, ah-ah\nI'm not the only one, ah-ah\nI'm not the only one, ah-ah\nI'm not the only one\n\n[Bridge]\nMy favorite inside source\nI'll kiss your open sores\nI appreciate your concern\nYou're gonna stink and burn\n[Verse 1]\nRape me\nRape me, my friend\nRape me\nRape me again\n\n[Refrain]\nI'm not the only one, ah-ah\nI'm not the only one, ah-ah\nI'm not the only one, ah-ah\nI'm not the only one\n\n[Outro]\nRape me! (Rape me!)\nRape me! (Rape me!)\nRape me! (Rape me!)\nRape me! (Rape me!)\nRape me! (Rape me!)\nRape me! (Rape me!)\nRape me!", 'annotations': {'description': '&lt;p&gt;Originally written in May 1991 and performed live later that year, “Rape Me” was recorded in a studio setting in February 1993. It was released on the band’s final studio album, September 1993’s &lt;em&gt;In Utero&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;Kurt Cobain wanted to make a strong statement in support of women and against violence. Cobain and Love played a number of charity concerts specifically oriented around &lt;a href="https://ew.com/article/1993/04/23/nirvana-benefit-show/" rel="noopener nofollow"&gt;raising money for rape victims&lt;/a&gt; or to raise awareness about the prevalence of rape. It was an important issue to them. Frustrated by the fact that many people didn’t grasp how September 1991’s &lt;a href="https://genius.com/Nirvana-polly-lyrics" rel="noopener" data-api_path="/songs/62558"&gt;“Polly”&lt;/a&gt; was actually an &lt;em&gt;anti&lt;/em&gt;-rape song, Cobain decided to be more explicit. Cobain was ultimately forced to explicate and clarify his songs\' significance several times to magazine reporters and columnists, culminating in a notable &lt;a href="https://www.spin.com/2013/09/nirvana-cover-story-1993-smashing-their-heads-on-the-punk-rock/" rel="noopener nofollow"&gt;1993 cover story&lt;/a&gt; by &lt;em&gt;SPIN&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;Lyrically, the song concerns poetic justice: a guy rapes a girl; he ends up in jail and is raped there, in turn. The “favorite in-side source” line supports that this song could be about how the media had forcibly penetrated Cobain’s private life and further distorted his messages. Unlike the rest of the song, the bridge was written post-&lt;em&gt;Nevermind&lt;/em&gt;, and could reflect recently-emerged sentiments Cobain had developed toward media attention. Cobain initially denied the premise that this song has a dual meaning during interviews and other public appearances. In a discussion with Nirvana biographer Michael Azerrad, Cobain conceded a bit:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;It was actually about rape… but now I could definitely use it as an example of my life for the past six months or year, easily.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;The double A-side single featuring “Rape Me” and &lt;a href="https://genius.com/Nirvana-all-apologies-lyrics" rel="noopener" data-api_path="/songs/61597"&gt;“All Apologies”&lt;/a&gt; was retitled “Waif Me” for sale in Wal-Mart and Kmart stores, but without any lyrical modifications. Cobain defended this censoring by stating:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;One of the main reasons I signed to a major label was so people would be able to buy our records at Kmart. In some towns, that’s the only place kids can buy records.&lt;/p&gt;&lt;/blockquote&gt;', 'producers': [{'name': 'Steve Albini', 'url': 'https://genius.com/artists/Steve-albini'}], 'writers': [{'name': 'Kurt Cobain', 'url': 'https://genius.com/artists/Kurt-cobain'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Savage-garden-i-want-you-lyrics', 'lyrics': "[Verse 1]\nAnytime I need to see your face, I just close my eyes\nAnd I am taken to a place where your crystal mind\nAnd magenta feelings take up shelter in the base of my spine\nSweet like a chic-a-cherry cola\nI don't need to try to explain; I just hold on tight\nAnd if it happens again, I might move so slightly\nTo the arms and the lips and the face of the human cannonball\nThat I need to, I want to\n\n[Bridge]\nCome stand a little bit closer\nBreathe in and get a bit higher\nYou'll never know what hit you\nWhen I get to you\n\n[Chorus]\nOoh, I want you, I don't know if I need you, but\nOoh, I'd die to find out\nOoh, I want you, I don't know if I need you, but\nOoh, I'd die to find out\n\n[Verse 2]\nI'm the kind of person who endorses a deep commitment\nGetting comfy, getting perfect is what I live for\nBut a look, then a smell of perfume\nIt's like I'm down on the floor and I don't know what I'm in for\nConversation has a time and place\nIn the interaction of a lover and a mate\nBut the time of talking, using symbols, using words\nCan be likened to a deep sea diver\nWho is swimming with a raincoat\n[Bridge]\nCome stand a little bit closer\nBreathe in and get a bit higher\nYou'll never know what hit you\nWhen I get to you\n\n[Chorus]\nOoh, I want you, I don't know if I need you, but\nOoh, I'd die to find out\nOoh, I want you, I don't know if I need you, but\nOoh, I'd die to find out\n\n[Post-Chorus]\nYeah yeah\nYeah yeah\n\n[Verse 1]\nAnytime I need to see your face, I just close my eyes\nAnd I am taken to a place where your crystal mind\nAnd magenta feelings take up shelter in the base of my spine\nSweet like a chic-a-cherry cola\nI don't need to try to explain\nI just hold on tight\nAnd if it happens again, I might move so slightly\nTo the arms and the lips and the face of the human cannonball\nThat I need to, I want to\n[Chorus]\nOoh, I want you, I don't know if I need you, but\nOoh, I'd die to find out\nOoh, I want you, I don't know if I need you, but\nOoh, I'd die to find out (So can we find out?)\n\n[Instrumental Break]\n\n[Chorus]\nOoh, I want you, I don't know if I need you, but\nOoh, I'd die to find out\nOoh, I want you, I don't know if I need you, but\nOoh, I'd die to find out\nOoh, I want you, I don't know if I need you but\nOoh, I'd die to find out (I'd die to find out)\nOoh, I want you, I don't know if I need you, but\n(Oh, can we find out?)\nOoh, I'd die to find out", 'annotations': {'description': '&lt;p&gt;This was Savage Garden’s breakout hit. “I Want You” was released in North America in February of 1997, where it peaked at No. 4 on the United States Billboard Hot 100 and by April had achieved gold status according to the Recording Industry Association of America (RIAA). It would also become a #1 single in Canada in June 1997, the first of three Savage Garden songs to top the Canadian charts.&lt;/p&gt;\n\n&lt;p&gt;It’s about a guy who is so taken with someone, he has to take a chance by approaching them, even though they seem to have a reputation. In the worlds of vocalist &lt;a href="https://www.billboard.com/articles/news/pride/7834056/savage-garden-darren-hayes-coming-out-reactions-interview" rel="noopener nofollow"&gt;Darren Hayes&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;“‘I Want You’ is a song about a dream about being in love with a male energy, and waking up and feeling sad that I knew there was a part of me that was missing.”&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;&lt;/p&gt;&lt;div class="embedly_preview embedly_preview--video"&gt;\n&lt;iframe type="text/html" width="640" height="390" frameborder="0" allowfullscreen="1" src="https://www.youtube.com/embed/HQt6jIKNwgU?modestbranding=1&amp;amp;start=0&amp;amp;showinfo=0&amp;amp;enablejsapi=1&amp;amp;origin=genius.com"&gt;&lt;/iframe&gt;\n&lt;/div&gt;\n\n&lt;p&gt;The song also features as the ending theme of the fourth part of the &lt;a href="https://en.wikipedia.org/wiki/List_of_JoJo%27s_Bizarre_Adventure_episodes" rel="noopener nofollow"&gt;&lt;em&gt;JoJo’s Bizarre Adventure&lt;/em&gt; &lt;/a&gt; anime, &lt;a href="https://en.wikipedia.org/wiki/Diamond_Is_Unbreakable" rel="noopener nofollow"&gt;&lt;em&gt;Diamond is Unbreakable&lt;/em&gt;&lt;/a&gt;. On the choice for this song as the ending theme, &lt;a href="http://www.araki-jojo.com/1040/" rel="noopener nofollow"&gt;Hirohiko Araki stated&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;\n&lt;p&gt;“This is a song where the rhythmic pattern represents the 90’s era in which Part 4 is set. There’s a certain touch of the progressive songwriting in the way it dramatically crescendos through the song, and I thought it was perfect for the anime.”&lt;br&gt;\n&lt;/p&gt;\n&lt;div class="embedly_preview embedly_preview--video"&gt;\n&lt;iframe type="text/html" width="640" height="390" frameborder="0" allowfullscreen="1" src="https://www.youtube.com/embed/34McNneyJkk?modestbranding=1&amp;amp;start=0&amp;amp;showinfo=0&amp;amp;enablejsapi=1&amp;amp;origin=genius.com"&gt;&lt;/iframe&gt;\n&lt;/div&gt;\n&lt;/blockquote&gt;', 'producers': [{'name': 'Savage Garden', 'url': 'https://genius.com/artists/Savage-garden'}, {'name': 'Charles Fisher', 'url': 'https://genius.com/artists/Charles-fisher'}], 'writers': [{'name': 'Daniel Jones', 'url': 'https://genius.com/artists/Daniel-jones'}, {'name': 'Darren Hayes', 'url': 'https://genius.com/artists/Darren-hayes'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Liquido-narcotic-lyrics', 'lyrics': "[Verse 1]\nSo you face it with a smile\nThere is no need to cry\nFor a trifle's more than this\nWill you still recall my name?\nAnd the month it all began?\nWill you release me with a kiss?\nHave I tried to draw the veil?\nIf I have, how could I fail?\nDid I fear the consequence?\n\n[Pre-Chorus]\nDazed by careless words\nCozy in my mind\n\n[Chorus]\nI don't mind, I think so\nI will let you go\nI don't mind, I think so\nI will let you go\n\n[Verse 2]\nNow you shaped that liquid wax\nFit it out with crater cracks\nSweet devotion, my delight\nOh, you're such a pretty one\nAnd the naked thrills of flesh and skin\nWould tease me through the night\nNow, I hate to leave you bare\nIf you need me, I'll be there\nDon't you ever let me down\n[Pre-Chorus]\nDazed by careless words\nCozy in my mind\n\n[Chorus]\nI don't mind, I think so\nI will let you go\nI don't mind, I think so\nI will let you go\n\n[Bridge]\nAnd I touched your face\nNarcotic mind from lazed, Mary-Jane\nAnd I called your name\nLike an addicted to cocaine\nCalls for the stuff he'd rather blame\nAnd I touched your face\nNarcotic mind from lazed, Mary-Jane\nAnd I called your name\nMy cocaine\n\n[Chorus]\nI don't mind, I think so\nI will let you go\nI don't mind, I think so\nI will let you go\nI don't mind, I think so\nI will let you go\nI don't mind, I think so\nI will let you go\nI don't mind, I think so\nI will let you go\nI don't mind, I think so\nI will let you go\nI don't mind, I think so\nI will let you go", 'annotations': {'description': '', 'producers': [{'name': 'Olaf Opal', 'url': 'https://genius.com/artists/Olaf-opal'}, {'name': 'Liquido', 'url': 'https://genius.com/artists/Liquido'}], 'writers': [{'name': 'Wolfgang Schrödl', 'url': 'https://genius.com/artists/Wolfgang-schrodl'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Billie-eilish-bellyache-lyrics', 'lyrics': "[Intro]\nMind\nMind\n\n[Verse 1]\nSittin' all alone\nMouth full of gum\nIn the driveway\nMy friends aren't far\nIn the back of my car\nLay their bodies\n\n[Pre-Chorus]\nWhere's my mind?\nWhere's my mind?\n\n[Verse 2]\nThey'll be here pretty soon\nLookin' through my room\nFor the money\nI'm bitin' my nails\nI'm too young to go to jail\nIt's kinda funny\n\n[Pre-Chorus]\nWhere's my mind?\nWhere's my mind?\nWhere's my mind?\nWhere's my mind?\n[Chorus]\nMaybe it's in the gutter\nWhere I left my lover\nWhat an expensive fake\nMy V is for Vendetta\nThought that I'd feel better\nBut now I got a bellyache\n(Mind)\n\n[Verse 3]\nEverything I do\nThe way I wear my noose\nLike a necklace\nI wanna make 'em scared\nLike I could be anywhere\nLike I'm reckless\n\n[Pre-Chorus]\nI lost my mind\nI don't mind\nWhere's my mind?\nWhere's my mind?\n\n[Chorus]\nMaybe it's in the gutter\nWhere I left my lover\nWhat an expensive fake\nMy V is for Vendetta\nThought that I'd feel better\nBut now I got a bellyache\n(Bellyache, bellyache, bellyache, bellyache\nBellyache, bellyache)\nMaybe it's in the gutter\nWhere I left my lover\nWhat an expensive fake\nMy V is for Vendetta\nThought that I'd feel better\nBut now I got a bellyache", 'annotations': {'description': '&lt;p&gt;In “bellyache,” Billie tells a fictional story about murder &lt;a href="https://www.vice.com/en_us/article/9a8xja/billie-eilishs-bellyache-is-totally-psycho-and-perfectly-pop" rel="noopener nofollow"&gt;from the perspective of a psychopath&lt;/a&gt;. The song focuses on themes of guilt, as revealed by Billie in an &lt;a href="https://www.vice.com/en_us/article/9a8xja/billie-eilishs-bellyache-is-totally-psycho-and-perfectly-pop" rel="noopener nofollow"&gt;interview with &lt;em&gt;Vice:&lt;/em&gt;&lt;/a&gt;&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;‘Bellyache’ is about the concept of guilt, when you do things in the moment because you feel so strongly about them. In the end you’re left with the decision you made. That line—"I thought that I’d feel better, but now I gotta bellyache"—is about how you kinda know that you’re the worst but you don’t care. It’s about a psychopath who regrets being a psychopath but doesn’t really care.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Billie later &lt;a href="https://www.youtube.com/watch?v=aOrv50LDDNY" rel="noopener nofollow"&gt;revealed that the main inspiration for the song&lt;/a&gt; was &lt;a href="https://genius.com/artists/Tyler-the-creator" rel="noopener" data-api_path="/artists/685"&gt;Tyler the Creator’s&lt;/a&gt; &lt;a href="https://genius.com/Tyler-the-creator-garbage-lyrics" rel="noopener" data-api_path="/songs/209547"&gt;“Garbage:”&lt;/a&gt;&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;Garbage was one of the biggest inspirations for writing my song, “bellyache.” It’s more graphic than my song, it’s more literal and “I’m killing people and putting them in my basement” kind of song.…I’m a huge fan of Tyler, he’s been my biggest inspiration ever.&lt;/p&gt;&lt;/blockquote&gt;', 'producers': [{'name': 'FINNEAS', 'url': 'https://genius.com/artists/Finneas'}], 'writers': [{'name': 'Billie Eilish', 'url': 'https://genius.com/artists/Billie-eilish'}, {'name': 'FINNEAS', 'url': 'https://genius.com/artists/Finneas'}], 'labels': [{'name': 'Interscope Records', 'url': 'https://genius.com/artists/Interscope-records'}, {'name': 'Darkroom Records', 'url': 'https://genius.com/artists/Darkroom-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Earth-wind-and-fire-boogie-wonderland-lyrics', 'lyrics': '[Chorus]\nDance, boogie wonderland, hah, hah\nDance, boogie wonderland\n\n[Verse 1]\nMidnight creeps so slowly into hearts of men\nWho need more than they get\nDaylight deals a bad hand to a woman\nWho has laid too many bets\n\nThe mirror stares you in the face\nAnd says "Baby, uh, uh, it don\'t work"\nYou say your prayers though you don\'t care\nYou dance and shake the hurt\n\n[Chorus]\nDance, boogie wonderland, hah, hah\nDance, boogie wonderland (Ooh, ooh, ooh dance, yeah)\n\n[Verse 2]\nSound fly through the night\nI chase my vinyl dreams to boogie wonderland\nI find romance when I start to dance in boogie wonderland\n(Ooh, ooh, ooh, ooh, dance, ooh, ooh, ooh, ooh)\n(Dance, ooh, ooh, ooh, dance)\nI find romance when I start to dance in boogie wonderland\n(Dance, ooh, ooh, ooh, dance, ooh, ooh, ooh, ooh)\n(Dance, ooh, ooh, ooh, dance)\n[Bridge]\nAll the love in the world can\'t be gone\nAll the need to be loved can\'t be wrong\nAll the records are playing and my heart keeps saying (Oh)\n"Boogie wonderland, wonderland" (Haaah, aaah-aaaaaah)\n\n[Chorus]\nDance, boogie wonderland, hah, hah\n(Dance, ooh, ooh, ooh, dance, ooh, ooh, ooh, ooh)\n(Dance, ooh, ooh, ooh, dance)\nDance, boogie wonderland, hah, hah\n(Dance, ooh, ooh, ooh, dance, ooh, ooh, ooh, ooh)\n(Dance, ooh, ooh, ooh, dance)\n\n[Post-Chorus]\nI find romance when I start to dance in boogie wonderland\nI find romance when I start to dance in boogie wonderland\n\n[Chorus]\nDance, boogie wonderland, hah, hah\n(Dance, ooh, ooh, ooh, dance, ooh, ooh, ooh, ooh)\n(Dance, ooh, ooh, ooh, dance)\nDance, boogie wonderland\n(Dance, ooh, ooh, ooh, dance, ooh, ooh, ooh, ooh)\n(Dance, ooh, ooh, ooh, dance)\n[Hook]\nHmm hmm hmm hmm, hmm hmm hmm hmm\nHmm hmm hmm hmm, wonderland\nHmm hmm hmm hmm, hmm hmm hmm hmm\nHmm hmm hmm hmm, wonderland\nHmm hmm hmm hmm, hmm hmm hmm hmm\nHmm hmm hmm hmm\n\n[Bridge]\nAll the love in the world can\'t be gone\n(All the love in the world can\'t be gone)\nAll the need to be loved can\'t be wrong\n(All the need to be loved can\'t be wrong)\nAll the records are playing and my heart keeps saying\n(Oooh, haa-woah, haa-woah)\n"Boogie wonderland, wonderland" (Wonderland, aaah)\n\n[Chorus]\nDance, boogie wonderland, hah, hah\nDance, boogie wonderland, hah, hah\n\n[Outro]\nI find romance when I start to dance in boogie wonderland\n(Dance, dance, dance, dance)\n(Dance, dance, dance, aah)\nI find romance when I start to dance in boogie wonderland\n(Dance, dance, dance, dance)\n(Dance, dance, dance)\nDance, boogie wonderland, hah, hah\n(Dance, dance, dance, dance)\n(Dance, dance, haa, aah)\n(Dance, ooh, ooh, ooh, dance, ooh, ooh, ooh, ooh)\n(Dance, ooh, ooh, ooh, dance)\nDance, boogie wonderland\n(Dance, dance, dance, dance)\n(Dance, dance, dance, aah)\n(Dance, ooh, ooh, ooh, dance, ooh, ooh, ooh, ooh)\n(Dance, ooh, ooh, ooh, dance)', 'annotations': {'description': '&lt;p&gt;“Boogie Wonderland” is a hit disco single released March 20, 1979 from Earth, Wind, &amp;amp; Fire’s ninth album &lt;em&gt;I Am&lt;/em&gt;. The Top 10 international chart-busting single featuring their protege group &lt;a href="https://genius.com/artists/The-emotions" rel="noopener" data-api_path="/artists/149605"&gt;The Emotions&lt;/a&gt;, helped the &lt;em&gt;I Am&lt;/em&gt; album top the R&amp;amp;B charts that year.&lt;/p&gt;\n\n&lt;p&gt;The Emotions had already garnered a number one hit with the Maurice White-produced &lt;a href="https://genius.com/The-emotions-best-of-my-love-lyrics" rel="noopener" data-api_path="/songs/1954932"&gt;“Best of My Love.”&lt;/a&gt; This second collaboration with them kicked their career into  an even higher gear.&lt;/p&gt;\n\n&lt;p&gt;Late actress/singer Brittany Murphy &lt;a href="https://www.youtube.com/watch?v=V7vjxhqMPng" rel="noopener nofollow"&gt;covered the song&lt;/a&gt; for the soundtrack of the 2014 film &lt;a href="http://www.imdb.com/title/tt0366548/?ref_=fn_al_tt_1" rel="noopener nofollow"&gt;&lt;em&gt;Happy Feet&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;', 'producers': [{'name': 'Al McKay', 'url': 'https://genius.com/artists/Al-mckay'}, {'name': 'Maurice White', 'url': 'https://genius.com/artists/Maurice-white'}], 'writers': [{'name': 'Allee Willis', 'url': 'https://genius.com/artists/Allee-willis'}, {'name': 'Jon Lind', 'url': 'https://genius.com/artists/Jon-lind'}], 'labels': [{'name': 'American Record Corporation', 'url': 'https://genius.com/artists/American-record-corporation'}, {'name': 'Columbia Records', 'url': 'https://genius.com/artists/Columbia-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Bodeans-fadeaway-lyrics', 'lyrics': "Don't runaway, midnight hideaway\nDon't you fade away 'til the morning light\n\nDon't runaway, midnight hideaway\nDon't you fade away 'til the morning light\n\nI see you from my window\nIn the shadows of the night\nYou're standing on Love Street\nOn the beat of better things\n\nI'll see you standin' there\nYou don't care anymore\nAnd love in your life\nStabbin' knife in my heart\n\nDon't runaway, midnight hideaway\nDon't you fade away 'til the morning light\n\nI'll see you standin' there\nYou don't care anymore\nAnd love in your life\nStabbin' knife in my heart\n\nDon't runaway, midnight hideaway\nDon't you fade away 'til the morning light\nShe might fadeaway\n(REPEAT TILL FADE)", 'annotations': {'description': '', 'producers': [{'name': 'T Bone Burnett', 'url': 'https://genius.com/artists/T-bone-burnett'}], 'writers': [{'name': 'Kurt Neumann', 'url': 'https://genius.com/artists/Kurt-neumann'}, {'name': 'Sam Llanas', 'url': 'https://genius.com/artists/Sam-llanas'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Glenn-frey-you-belong-to-the-city-lyrics', 'lyrics': "[Verse 1]\nThe sun goes down\nThe night rolls in\nYou can feel it\nStarting all over again\nThe moon comes up\nAnd the music calls\nYou're getting tired of\nStaring at the same four walls\nYou're out of your room\nAnd down on the street\nMoving through the crowd\nIn the midnight heat\nThe traffic roars\nThe sirens scream\nYou look at the faces\nIt's just like a dream\nNobody knows where you're going\nNobody cares where you've been\n\n[Chorus]\nCause you belong to the city\nYou belong to the night\nLiving in a river of darkness\nBeneath the neon light\nYou were born in the city\nConcrete under your feet\nIt's in your moves\nIt's in your blood\nYou're a man of the street\n[Verse 2]\nWhen you said goodbye\nYou were on the run\nTrying to get away\nFrom the things you've done\nNow you're back again\nAnd you're feeling strange\nSo much has happened\nBut nothing has changed\nYou still don't know\nWhere you're going\nYou're still just a face in the crowd\n\n[Chorus]\nCause you belong to the city\nYou belong to the night\nLiving in a river of darkness\nBeneath the neon light\nYou were born in the city\nConcrete under your feet\nIt's in your moves\nIt's in your blood\nYou're a man of the street\n\n[Bridge:]\nYou can feel it\nYou can taste it\nYou can see it\nYou can face it\nYou can hear it\nYou're getting near it\nYou wanna make it\nCause you can take it\n(Alternate Chorus)\nYou belong to the city\nYou belong to the night\nYou belong to the city\nYou belong to the night\nYou belong\nYou belong", 'annotations': {'description': '&lt;p&gt;&lt;strong&gt;&lt;em&gt;You Belong to the City&lt;/em&gt;&lt;/strong&gt; peaked at #2 on the Billboard Hot 100 and topped Billboard’s rock music chart for 3 weeks in 1985.&lt;/p&gt;\n\n&lt;p&gt;The song is well-known for being featured on the soundtrack to “&lt;em&gt;Miami Vice&lt;/em&gt;” and was even featured in an episode of the show.&lt;/p&gt;', 'producers': [{'name': 'Glenn Frey', 'url': 'https://genius.com/artists/Glenn-frey'}], 'writers': [{'name': 'Glenn Frey', 'url': 'https://genius.com/artists/Glenn-frey'}, {'name': 'Jack Tempchin', 'url': 'https://genius.com/artists/Jack-tempchin'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/The-cure-why-cant-i-be-you-lyrics', 'lyrics': "[Verse 1]\nYou're so gorgeous I'll do anything\nI'll kiss you from your feet to where your head begins\nYou're so perfect, you're so right as rain\nYou make me, make me, make me, make me hungry again\n\n[Chorus]\nEverything you do is irresistible\nEverything you do is simply kissable\nWhy can't I be you?\n\n[Verse 2]\nI'll run around in circles until I run out of breath\nI'll eat you all up or I'll just hug you to death\nYou're so wonderful, too good to be true\nYou make me, make me, make me, make me hungry for you\n\n[Chorus]\nEverything you do is simply delicate\nEverything you do is quite angelicate\nWhy can't I be you?\nWhy can't I be you?\n\n[Verse 3]\nYou turn my head when you turn around\nYou turn the whole world upside down\nI'm smitten, I'm bitten, I'm hooked, I'm cooked, I'm stuck like glue\nYou make me, make me, make me, make me hungry for you\n[Chorus]\nEverything you do is simply dreamy\nEverything you do is quite delicious\nSo why can't I be you?\nWhy can't I be you?\nWhy can't I be you?\nWhy can't I be you?\nWhy can't I be you?\nYou're simply elegant", 'annotations': {'description': '', 'producers': [{'name': 'Dave Allen', 'url': 'https://genius.com/artists/Dave-allen'}, {'name': 'Robert Smith', 'url': 'https://genius.com/artists/Robert-smith'}], 'writers': [{'name': 'Simon Gallup', 'url': 'https://genius.com/artists/Simon-gallup'}, {'name': 'Pearl Thompson', 'url': 'https://genius.com/artists/Pearl-thompson'}, {'name': 'Boris Williams', 'url': 'https://genius.com/artists/Boris-williams'}, {'name': 'Robert Smith', 'url': 'https://genius.com/artists/Robert-smith'}, {'name': 'Lol Tolhurst', 'url': 'https://genius.com/artists/Lol-tolhurst'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Marcy-playground-sex-and-candy-lyrics', 'lyrics': "[Verse 1]\nHanging around, downtown by myself\nAnd I had so much time to sit and think about myself\nAnd then there she was, like double cherry pie\nYeah, there she was, like disco super-fly\n\n[Chorus]\nI smell sex and candy here, mmm\nWho's that lounging in my chair? Mmm\nWho's that casting devious stares in my direction?\nMomma this surely is a dream, yeah\nYeah, momma this surely is a dream, dig it\n\n[Verse 2]\nHanging around, downtown by myself\nAnd I've had too much caffeine, and I was thinking about myself\nAnd then there she was, in platform double suede\nYeah, there she was, like disco lemonade\n\n[Chorus]\nI smell sex and candy here, mmhmmm\nWho's that lounging in my chair? Mmhmmm\nWho's that casting devious stares in my direction?\nMomma this surely is a dream, yeah\nYeah, momma this surely is a dream, dig it\nYeah, momma this surely is a dream, yeah\n[Chorus]\nI smell sex and candy here, mmhmmm\nWho's that lounging in my chair? Mmhmmm\nWho's that casting devious stares in my direction?\nMomma this surely is a dream, dig it\nYeah, momma this surely is a dream, mmhmmm\nYeah, momma this surely is a dream, yeah\nYeah, momma this must be my dream", 'annotations': {'description': '&lt;p&gt;“Sex and Candy” is Marcy Playground’s “breakthrough” hit from their 1997 &lt;a href="https://genius.com/albums/Marcy-playground/Marcy-playground" rel="noopener" data-api_path="/albums/16930"&gt;self-titled&lt;/a&gt; debut studio album. The song &lt;a href="https://www.billboard.com/articles/columns/rock/7640665/1997-alternative-rock-songs-turning-20-2017" rel="noopener nofollow"&gt;was written&lt;/a&gt; in just one hour.&lt;/p&gt;\n\n&lt;p&gt;The song spent &lt;a href="https://www.billboard.com/articles/columns/rock/7640665/1997-alternative-rock-songs-turning-20-2017" rel="noopener nofollow"&gt;15 weeks&lt;/a&gt; atop the US Modern Rock songs chart and hit &lt;a href="https://www.billboard.com/music/Marcy-Playground/chart-history/hot-100" rel="noopener nofollow"&gt;number eight&lt;/a&gt; on the US Billboard Hot 100 chart, giving Marcy Playground their first and only major hit in the US.&lt;/p&gt;', 'producers': [{'name': 'John Wozniak', 'url': 'https://genius.com/artists/John-wozniak'}], 'writers': [{'name': 'John Wozniak', 'url': 'https://genius.com/artists/John-wozniak'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Black-eyed-peas-where-is-the-love-lyrics', 'lyrics': "[Verse 1: will.i.am]\nWhat's wrong with the world, Mama?\nPeople livin' like they ain't got no mamas\nI think the whole world's addicted to the drama\nOnly attracted to things that'll bring you trauma\nOverseas, yeah, we tryna stop terrorism\nBut we still got terrorists here livin'\nIn the USA, the big CIA\nThe Bloods and the Crips and the KKK\nBut if you only have love for your own race\nThen you only leave space to discriminate\nAnd to discriminate only generates hate\nAnd when you hate, then you're bound to get irate, yeah\nMadness is what you demonstrate\nAnd that's exactly how anger works and operates\nMan, you gotta have love just to set it straight\nTake control of your mind and meditate\nLet your soul gravitate to the love, y'all, y'all\n\n[Chorus: Justin Timberlake]\nPeople killin', people dyin'\nChildren hurtin', hear them cryin'\nCan you practice what you preach?\nAnd would you turn the other cheek?\nFather, father, father, help us\nSend some guidance from above\n'Cause people got me, got me questioning\nWhere is the love?\n[Post-Chorus: will.i.am &amp; Fergie]\n(Love) Where is the love? (The love)\nWhere is the love? (The love)\nWhere is the love, the love, the love?\n\n[Verse 2: Taboo]\nIt just ain't the same, old ways have changed\nNew days are strange, is the world insane?\nIf love and peace is so strong\nWhy are there pieces of love that don't belong?\nNations droppin' bombs\nChemical gases filling lungs of little ones\nWith ongoing sufferin' as the youth die young\nSo ask yourself, is the lovin' really gone?\nSo I can ask myself, really, what is going wrong\nWith this world that we livin' in? People keep on givin' in\nMakin' wrong decisions, only visions of them dividends\nNot respectin' each other, deny thy brother\nA war is goin' on, but the reason's undercover\nThe truth is kept secret, and swept under the rug\nIf you never know truth, then you never know love\nWhere's the love, y'all? Come on (I don't know)\nAnd where's the truth, y'all? Come on (I don't know)\nAnd where's the love y'all?\n\n[Chorus: Justin Timberlake]\nPeople killin', people dyin'\nChildren hurtin', hear them cryin'\nCan you practice what you preach?\nAnd would you turn the other cheek?\nFather, father, father, help us\nSend some guidance from above\n'Cause people got me, got me questioning\nWhere is the love?\n[Post-Chorus: will.i.am &amp; Fergie]\n(Love) Where is the love? (The love)\nWhere is the love? (The love)\nWhere is the love? (The love)\nWhere is the love?\n(Love) Where is the love? (The love)\nWhere is the love? (The love)\nWhere is the love, the love, the love?\n\n[Verse 3: apl.de.ap]\nI feel the weight of the world on my shoulder\nAs I'm gettin' older, y'all people gets colder\nMost of us only care about money-makin'\nSelfishness got us followin' the wrong direction\nWrong information always shown by the media\nNegative images is the main criteria\nInfecting the young minds faster than bacteria\nKids wanna act like what they see in the cinema\nYo, whatever happened to the values of humanity? (Yeah)\nWhatever happened to the fairness and equality? (Yeah)\nInstead of spreading love, we spreading animosity (Yeah)\nLack of understanding leading us away from unity\nThat's the reason why sometimes I'm feelin' under\nThat's the reason why sometimes I'm feelin' down\nIt's no wonder why sometimes I'm feelin' under\nGotta keep my faith alive 'til love is found\nNow ask yourself\n[Post-Chorus: will.i.am]\nWhere is the love?\nWhere is the love?\nWhere is the love?\nWhere is the love?\n\n[Chorus: Justin Timberlake]\nFather, father, father, help us\nSend some guidance from above\n'Cause people got me, got me questioning\nWhere is the love?\n\n[Outro: will.i.am &amp; Justin Timberlake]\nNow sing with me, y'all (One world, one world)\nWe only got (One world, one world)\nThat's all we got (One world, one world)\nAnd something's wrong with it (Yeah)\nSomething's wrong with it (Yeah)\nSomething's wrong with the w-world, world, yeah\nWe only got (One world, one world)\nThat's all we got (One world, one world)", 'annotations': {'description': '&lt;p&gt;“Where Is the Love?” is a song by The Black Eyed Peas about police brutality, racism and terrorism. The song was released as the lead single from their third album, &lt;a href="https://genius.com/albums/The-black-eyed-peas/Elephunk" rel="noopener" data-api_path="/albums/919"&gt;&lt;em&gt;Elephunk&lt;/em&gt;&lt;/a&gt;. It was the band’s first song to feature Fergie as an official member of the group.&lt;/p&gt;\n\n&lt;p&gt;The single features uncredited -at the time of release- vocals from singer &lt;a href="https://genius.com/artists/Justin-timberlake" rel="noopener" data-api_path="/artists/334"&gt;Justin Timberlake&lt;/a&gt;, who sang the iconic chorus of the song.&lt;/p&gt;\n\n&lt;p&gt;A new version titled &lt;a href="https://genius.com/The-black-eyed-peas-wheresthelove-lyrics" rel="noopener" data-api_path="/songs/2847967"&gt;“#WHERESTHELOVE”&lt;/a&gt; released by The Black Eyed Peas was on August 31, 2016, in collaboration with a great number of artists within the music industry. The proceeds of the charity single went to  fund educational programs.&lt;br&gt;\n&lt;/p&gt;&lt;div class="embedly_preview embedly_preview--video"&gt;\n&lt;iframe type="text/html" width="640" height="390" frameborder="0" allowfullscreen="1" src="https://www.youtube.com/embed/YsRMoWYGLNA?modestbranding=1&amp;amp;start=0&amp;amp;showinfo=0&amp;amp;enablejsapi=1&amp;amp;origin=genius.com"&gt;&lt;/iframe&gt;\n&lt;/div&gt;', 'producers': [{'name': '\u200bwill.i.am', 'url': 'https://genius.com/artists/William'}, {'name': 'Ron Fair', 'url': 'https://genius.com/artists/Ron-fair'}], 'writers': [{'name': 'J. Curtis', 'url': 'https://genius.com/artists/J-curtis'}, {'name': 'Printz Board', 'url': 'https://genius.com/artists/Printz-board'}, {'name': 'Michael Fratantuno', 'url': 'https://genius.com/artists/Michael-fratantuno'}, {'name': 'George Pajon Jr.', 'url': 'https://genius.com/artists/George-pajon-jr'}, {'name': 'Justin Timberlake', 'url': 'https://genius.com/artists/Justin-timberlake'}, {'name': 'Taboo', 'url': 'https://genius.com/artists/Taboo'}, {'name': '\u200bapl.de.ap', 'url': 'https://genius.com/artists/Apldeap'}, {'name': '\u200bwill.i.am', 'url': 'https://genius.com/artists/William'}], 'labels': [{'name': 'Will.i.am Music Group', 'url': 'https://genius.com/artists/William-music-group'}, {'name': 'A&amp;M Records', 'url': 'https://genius.com/artists/A-m-records'}, {'name': 'Will.i.am Music Publishing', 'url': 'https://genius.com/artists/William-music-publishing'}, {'name': 'Interscope Records', 'url': 'https://genius.com/artists/Interscope-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/The-beach-boys-kokomo-lyrics', 'lyrics': "[Intro]\nAruba, Jamaica, ooh I wanna take ya\nBermuda, Bahama, come on pretty mama\nKey Largo, Montego\nBaby why don't we go\nJamaica\n\n[Verse 1]\nOff the Florida Keys\nThere's a place called Kokomo\nThat's where you wanna go\nTo get away from it all\nBodies in the sand\nTropical drink melting in your hand\nWe'll be falling in love\nTo the rhythm of a steel drum band\nDown in Kokomo\n\n[Chorus]\nAruba, Jamaica, ooh I wanna take you to\nBermuda, Bahama, come on pretty mama\nKey Largo, Montego\nBaby why don't we go\nOoh I wanna take you down to Kokomo\nWe'll get there fast\nAnd then we'll take it slow\nThat's where we wanna go\nWay down in Kokomo\nMartinique, that Montserrat mystique\n[Verse 2]\nWe'll put out to sea\nWe'll perfect our chemistry\nBy and by we'll defy\nA little bit of gravity\nAfternoon delight\nCocktails and moonlit nights\nThat dreamy look in your eye\nGive me a tropical contact high\nWay down in Kokomo\n\n[Chorus]\nAruba, Jamaica, ooh I wanna take you to\nBermuda, Bahama, come on pretty mama\nKey Largo, Montego\nBaby why don't we go\nOoh I wanna take you down to Kokomo\nWe'll get there fast\nAnd then we'll take it slow\nThat's where we wanna go\nWay down in Kokomo\nPort au Prince, I want to catch a glimpse\nEverybody knows a little place like Kokomo\nNow if you wanna go to get away from it all\nGo down to Kokomo\n\n[Chorus]\n[Aruba, Jamaica, ooh I wanna take you to\nBermuda, Bahama, come on pretty mama\nKey Largo, Montego\nBaby why don't we go]\nOoh I wanna take you down to Kokomo\nWe'll get there fast\nAnd then we'll take it slow\nThat's where we wanna go\nWay down in Kokomo\nAruba, Jamaica, ooh I wanna take you to\nBermuda, Bahama, come on pretty mama\nKey Largo, Montego\nBaby why don't we go\nOoh I wanna take you down to...", 'annotations': {'description': '&lt;p&gt;“Kokomo” is a song written by John Phillips, Scott McKenzie, Mike Love and Terry Melcher and recorded by The Beach Boys in spring 1988. Its lyrics describe two lovers taking a trip to a relaxing Caribbean island called Kokomo.&lt;/p&gt;\n\n&lt;p&gt;It was released as a single on July 18, 1988 by Elektra Records and became a No. 1 Hit in the United States, Japan and Australia (where it topped for about two months).&lt;/p&gt;', 'producers': [{'name': 'Terry Melcher', 'url': 'https://genius.com/artists/Terry-melcher'}], 'writers': [{'name': 'John Phillips', 'url': 'https://genius.com/artists/John-phillips'}, {'name': 'Terry Melcher', 'url': 'https://genius.com/artists/Terry-melcher'}, {'name': 'Scott McKenzie', 'url': 'https://genius.com/artists/Scott-mckenzie'}, {'name': 'Mike Love', 'url': 'https://genius.com/artists/Mike-love'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/The-police-roxanne-lyrics', 'lyrics': "[Intro]\n\n[Verse 1]\nRoxanne\nYou don't have to put on the red light\nThose days are over\nYou don't have to sell your body to the night\nRoxanne\nYou don't have to wear that dress tonight\nWalk the streets for money\nYou don't care if it's wrong or if it's right\n\n[Pre-Chorus]\nRoxanne\nYou don't have to put on the red light\nRoxanne\nYou don't have to put on the red light\n\n[Chorus]\n(Roxanne) Put on the red light\n(Roxanne) Put on the red light\n(Roxanne) Put on the red light\n(Roxanne) Put on the red light\n(Roxanne) Put on the red light, oh\n\n[Verse 2]\nI loved you since I knew you\nI wouldn't talk down to ya\nI have to tell you just how I feel\nI won't share you with another boy\nI know my mind is made up\nSo put away your make up\nTold you once\nI won't tell you again it's a bad way\n[Pre-Chorus]\nRoxanne\nYou don't have to put on the red light\nRoxanne\nYou don't have to put on the red light\n\n[Outro]\n(Roxanne) You don't have\nTo put on the red light\n(Roxanne) Put on the red light\n(Roxanne) Put on the red light\n(Roxanne) Put on the red light\n(Roxanne) Put on the red light\n(Roxanne) Put on the red light\n(Roxanne) Put on the red light\n(Roxanne) Put on the red light\n(Roxanne) Put on the red light\n(Roxanne) Put on the red light\n(Roxanne) You don't have\nTo put on the red light\n(Roxanne) Put on the red light\n(Roxanne) Put on the red light\n(Roxanne) Put on the red light\n(Roxanne) Put on the red light", 'annotations': {'description': '&lt;p&gt;Roxanne is a hooker that Sting is trying to convince to change her d-d-dirty ways.&lt;/p&gt;\n\n&lt;p&gt;This song has been inducted &lt;a href="https://www.grammy.org/recording-academy/awards/hall-of-fame#r" rel="noopener nofollow"&gt;into the Grammy Hall of Fame&lt;/a&gt; and has been dubbed a classic for its melody, its vocal performance, its orchestration and the instrumental timbres, but it’s also unique for a different reason.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="http://www.gibson.com/News-Lifestyle/Features/en-us/bloopers-1012.aspx" rel="noopener nofollow"&gt;According to&lt;/a&gt; Peter Hodgson, as The Police began to record the song, Sting accidentally sat on a piano in the recording studio resulting in the piano chord and laughter you hear in the opening moments of the song.&lt;/p&gt;', 'producers': [{'name': 'The Police', 'url': 'https://genius.com/artists/The-police'}], 'writers': [{'name': 'Sting', 'url': 'https://genius.com/artists/Sting'}], 'labels': [{'name': 'A&amp;M Records', 'url': 'https://genius.com/artists/A-m-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Audioslave-show-me-how-to-live-lyrics', 'lyrics': "[Verse 1]\nAnd with the early dawn moving right along\nI couldn't buy an eyeful of sleep\nAnd in the aching night under satellites\nI was not received\nBuilt with stolen parts, a telephone in my heart\nSomeone get me a priest\nTo put my mind to bed, this ringing in my head\nIs this a cure or is this a disease?\n\n[Chorus]\nNail in my head from my creator\nYou gave me life, now show me how to live\nNail in my head from my creator\nYou gave me life, now show me how to live\n\n[Verse 2]\nAnd in the after birth on the quiet earth\nLet the stains remind you\nYou thought you made a man, you better think again\nBefore my role defines you\n\n[Chorus]\nNail in my head from my creator\nYou gave me life, now show me how to live\nNail in my head from my creator\nYou gave me life, now show me how to live\n[Instrumental Interlude]\n\n[Bridge]\nAnd in your waiting hands, I will land\nAnd roll out of my skin\nAnd in your final hours, I will stand\nReady to begin\nReady to begin\nReady to begin\nReady to begin\n\n[Chorus]\nNail in my head from my creator\nYou gave me life, now show me how to live\nNail in my head from my creator\nYou gave me life, now show me how to live\n\n[Outro]\nShow me how to live\nShow me how to live\nShow me how to live\nShow me how to live", 'annotations': {'description': '&lt;p&gt;This song is telling the classic story of &lt;a href="https://en.wikipedia.org/wiki/Frankenstein%27s_monster" rel="noopener nofollow"&gt;Frankenstein’s Monster&lt;/a&gt;, in which Dr. Victor Frankenstein steals pieces from fresh corpses to create a man. When the being comes to life, Victor flees, leaving the monster all alone with no understanding of human existence.&lt;/p&gt;\n\n&lt;p&gt;It has been a point of controversy whether or not it’s about Jesus Christ, the argument based on the misheard line “nail in my hand, from my creator.”&lt;/p&gt;\n\n&lt;p&gt;This can be debunked by an old tweet from frontman &lt;a href="https://genius.com/artists/Chris-cornell" rel="noopener" data-api_path="/artists/18435"&gt;Chris Cornell&lt;/a&gt;’s official Twitter account correcting someone on the lyrics.&lt;br&gt;\n&lt;a href="https://twitter.com/chriscornell/status/1461308098" rel="noopener nofollow"&gt;https://twitter.com/chriscornell/status/1461308098&lt;/a&gt;&lt;/p&gt;', 'producers': [{'name': 'Rick Rubin', 'url': 'https://genius.com/artists/Rick-rubin'}], 'writers': [{'name': 'Chris Cornell', 'url': 'https://genius.com/artists/Chris-cornell'}, {'name': 'Tom Morello', 'url': 'https://genius.com/artists/Tom-morello'}, {'name': 'Tim Commerford', 'url': 'https://genius.com/artists/Tim-commerford'}, {'name': 'Brad Wilk', 'url': 'https://genius.com/artists/Brad-wilk'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Britney-spears-you-drive-me-crazy-lyrics', 'lyrics': "[Verse 1]\nBaby, I'm so into you\nYou got that something, what can I do?\nBaby, you spin me around, oh\nThe earth is moving, but I can't feel the ground\nEvery time you look at me\nMy heart is jumping, it's easy to see\nLoving you means so much more\nMore than anything I ever felt before\n\n[Chorus]\nYou drive me crazy, I just can't sleep\nI'm so excited, I'm in too deep\nOh, crazy, but it feels alright\nBaby, thinking of you keeps me up all night\nOh\n\n[Verse 2]\nTell me you're so into me\nThat I'm the only one you will see\nTell me I'm not in the blue, oh\nThat I'm not wasting my feelings on you\nLoving you means so much more\nMore than anything I ever felt before\n\n[Chorus]\nYou drive me crazy, I just can't sleep\nI'm so excited, I'm in too deep\nOh, crazy, but it feels alright\nBaby, thinking of you keeps me up all night\n[Bridge]\nCrazy, I just can't sleep\nI'm so excited, I'm in too deep\nCrazy, but it feels alright\nEvery day and every night\n\n[Chorus]\nYou drive me crazy (You drive me crazy, baby)\nI'm so excited, I'm in too deep\nOh, crazy (You make me feel alright)\nBaby, thinking of you keeps me up (Oh) all night\n\n[Outro]\nYou drive me crazy (You drive me crazy, baby)\nYeah\nOh, crazy, but it feels alright\nBaby, thinking of you keeps me up all night\nBaby, thinking of you keeps me up all night", 'annotations': {'description': '&lt;p&gt;“(You Drive Me) Crazy” is a song recorded by American singer &lt;a href="https://genius.com/artists/Britney-spears" rel="noopener" data-api_path="/artists/1052"&gt;Britney Spears&lt;/a&gt; for her debut studio album, &lt;em&gt;&lt;a href="https://genius.com/albums/Britney-spears/Baby-one-more-time" rel="noopener" data-api_path="/albums/40205"&gt;…Baby One More Time&lt;/a&gt;&lt;/em&gt; (1999).&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://genius.com/Britney-spears-you-drive-me-crazy-the-stop-remix-lyrics" rel="noopener" data-api_path="/songs/459924"&gt;“The Stop”&lt;/a&gt; remix of this song was released as the album’s third single.&lt;/p&gt;', 'producers': [{'name': 'Per Magnusson', 'url': 'https://genius.com/artists/Per-magnusson'}, {'name': 'Rami', 'url': 'https://genius.com/artists/Rami'}, {'name': 'Max Martin', 'url': 'https://genius.com/artists/Max-martin'}], 'writers': [{'name': 'Max Martin', 'url': 'https://genius.com/artists/Max-martin'}, {'name': 'David Kreuger', 'url': 'https://genius.com/artists/David-kreuger'}, {'name': 'Per Magnusson', 'url': 'https://genius.com/artists/Per-magnusson'}, {'name': 'Jörgen Elofsson', 'url': 'https://genius.com/artists/Jorgen-elofsson'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/The-strokes-you-only-live-once-lyrics', 'lyrics': "[Verse 1]\nSome people think they're always right\nOthers are quiet and uptight\nOthers, they seem so very nice-nice-nice-nice, oh\nInside they might feel sad and wrong, oh no\nTwenty-nine different attributes\nOnly seven that you like, oh\nTwenty ways to see the world, oh\nTwenty ways to start a fight, oh\n\n[Chorus]\nOh, don't, don't, don't get up\nI can't see the sunshine\nI'll be waiting for you, baby\n'Cause I'm through\nSit me down\nShut me up\nI'll calm down\nAnd I'll get along with you\n\n[Verse 2]\nOh, men don't notice what they got\nOh, women think of that a lot\nOne thousand ways to please your man, oh\nNot even one requires a plan, I know\nAnd countless odd religions too\nIt doesn't matter which you choose, oh no\nOne stubborn way to turn your back, oh\nThis I've tried and now refuse, oh\n[Chorus]\nOh, don't, don't, don't get up\nI can't see the sunshine\nOh, I'll be waiting for you, baby\n'Cause I'm through\nSit me down\nShut me up\nI'll calm down\nAnd I'll get along with you, alright\n\n[Outro]\nShut me up\nShut me up\nAnd I'll get along with you", 'annotations': {'description': "&lt;p&gt;&lt;em&gt;You Only Live Once&lt;/em&gt; is the opening track and third single from &lt;em&gt;First Impressions of Earth&lt;/em&gt;, the third album from American rock band The Strokes. They have performed this song on several programs, including The Tonight Show with Jay Leno and Late Night with Conan O' Brien.&lt;/p&gt;\n\n&lt;p&gt;When the song was released as a single, The Strokes launched Operation &lt;strong&gt;YOLO&lt;/strong&gt; (&lt;strong&gt;Y&lt;/strong&gt;ou &lt;strong&gt;O&lt;/strong&gt;nly &lt;strong&gt;L&lt;/strong&gt;ive &lt;strong&gt;O&lt;/strong&gt;nce), prompting all of their fans to call and request the single on radio stations. Their goal was to try to get out the word of the new single as fast as possible, by spreading the song by word of mouth. The Strokes Myspace page asked all users to put the song in their profile in an attempt to spread the single among the online community.&lt;/p&gt;", 'producers': [{'name': 'David Kahne', 'url': 'https://genius.com/artists/David-kahne'}], 'writers': [{'name': 'Julian Casablancas', 'url': 'https://genius.com/artists/Julian-casablancas'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/The-rasmus-paradise-lyrics', 'lyrics': "I'm dead, but I'm living\nI played a part I've been given\nI'm still kicked out of heaven\nI'm into nothing new\nEveryday is a battle\nI made a deal with the devil\nAnd I'm deep into trouble\nSo tired\n\nI was trying to find a better way but every day's the same\nI'm trying to break the numbness and it's driving me insane\nYou could be my saviour, you could be just what I need\nSo I lay down and pray for something better\n\nGo ahead and leave me paralyzed\nThere's nothing left to sacrifice\nIn hell I'm shooting paradise\nI'm ready so I'll close my eyes\n\nThis is my paradise\nThis is my paradise\n\nIt's gonna hurt but I'm ready\nIt's clear where I'm heading\nDon't call paramedics\nI'm into nothing new\nI'll be gone in a minute\nI'm not afraid to admit it\nSo wrong but I love it\nSo tired\nI was trying to find a better way but every day's the same\nI'm trying to break the numbness and it's driving me insane\nYou could be my saviour, you could be just what I need\nSo I lay down and pray for something better\n\nGo ahead and leave me paralyzed\nThere's nothing left to sacrifice\nIn hell I'm shooting paradise\nI'm ready so I'll close my eyes\n\nThis is my paradise\nThis is my paradise\n\nI made a deal with the devil\nEveryday is a battle\nEveryday is a battle\nThis is my paradise\nI made a deal with the devil\nEveryday is a battle\nEveryday is a battle\nThis is my paradise\nThis is my paradise\nThis is my paradise\nThis is my paradise", 'annotations': {'description': '', 'producers': [{'name': 'The Family (Producers)', 'url': 'https://genius.com/artists/The-family-producers'}], 'writers': [{'name': 'Lauri', 'url': 'https://genius.com/artists/Lauri'}, {'name': 'Anton Hård af Segerstad', 'url': 'https://genius.com/artists/Anton-hard-af-segerstad'}, {'name': 'Linnéa Deb', 'url': 'https://genius.com/artists/Linnea-deb'}, {'name': 'Joy Deb', 'url': 'https://genius.com/artists/Joy-deb'}, {'name': 'Pauli Rantasalmi', 'url': 'https://genius.com/artists/Pauli-rantasalmi'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Duran-duran-is-there-something-i-should-know-lyrics', 'lyrics': "[Intro]\nPlease, please tell me now\nPlease, please tell me now\nPlease, please tell me now\nPlease, please tell me now\n\n[Verse 1]\nI made a break, I run out yesterday\nTried to find my mountain hideaway\nMaybe next year, maybe no go\n\nI know you're watching me\nEvery minute of the day, yeah\nI've seen the signs\nAnd the looks and the pictures\nThat give your game away, yeah\n\nThere's a dream that strings the road\nWith broken glass for us to hold\nAnd I cut so far before I had to say\n\n[Chorus 1]\nPlease, please tell me now\nIs there something I should know?\nIs there something I should say\nThat would make you come my way?\nDo you feel the same?\n'Cause you don't let it show\n[Verse 2]\nPeople stare and cross the road from me\nAnd jungle drums\nThey all clear the way for me\nCan you read my mind?\nCan you see in the snow?\n\nAnd fiery demons all dance\nWhen you walk through that door\nDon't say you're easy on me\nYou're about as easy as a nuclear war\n\nThere's a dream that strings the road\nWith broken glass for us to hold\nAnd I cut so far before I had to say\n\n[Chorus 1]\nPlease, please tell me now\nIs there something I should know?\nIs there something I should say\nThat would make you come my way?\nDo you feel the same?\n'Cause you don't let it show\n\nPlease, please tell me now\nIs there something I should know?\nIs there something I should say\nThat would make you come my way?\nPlease, please tell me now\nCan you see what makes me blow?\nCan you see how much I'd die\nEvery time it passes by?\nPlease, please tell me now\nWhat it takes to make it show\nIs there something I should know?\nIs there something I should know?", 'annotations': {'description': '&lt;p&gt;This song is about someone trying to find out what it takes to impress someone they’re in love with.&lt;/p&gt;', 'producers': [{'name': 'Ian Little', 'url': 'https://genius.com/artists/Ian-little'}, {'name': 'Duran Duran', 'url': 'https://genius.com/artists/Duran-duran'}], 'writers': [{'name': 'Andy Taylor', 'url': 'https://genius.com/artists/Andy-taylor'}, {'name': 'John Taylor', 'url': 'https://genius.com/artists/John-taylor'}, {'name': 'Nick Rhodes', 'url': 'https://genius.com/artists/Nick-rhodes'}, {'name': 'Roger Taylor (Duran Duran)', 'url': 'https://genius.com/artists/Roger-taylor-duran-duran'}, {'name': 'Simon Le Bon', 'url': 'https://genius.com/artists/Simon-le-bon'}], 'labels': [{'name': 'EMI (Label)', 'url': 'https://genius.com/artists/Emi-label'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/The-bangles-walk-like-an-egyptian-lyrics', 'lyrics': "[Verse 1: Vicki Peterson; (All)]\nAll the old paintings on the tomb\nThey do the sand dance, don't you know?\nIf they move too quick (Oh-way-oh)\nThey're falling down like a domino\nAll the bazaar men by the Nile\nThey got the money on a bet\nGold crocodiles (Oh-way-oh)\nThey snap their teeth on your cigarette\n\n[Pre-Chorus: Vicki Peterson; (All)]\nForeign types with the hookah pipes say\n(Way-oh-way-oh, ooh-way-oh-way-oh)\n\n[Chorus: Vicki Peterson]\nWalk like an Egyptian\n\n[Verse 2: Michael Steele; (All)]\nThe blonde waitresses take their trays\nThey spin around and they cross the floor\nThey've got the moves (Oh-way-oh)\nYou drop your drink, then they bring you more\nAll the school kids so sick of books\nThey like the punk and the metal band\nWhen the buzzer rings (Oh-way-oh)\nThey're walking like an Egyptian\n[Pre-Chorus: Michael Steele; (All)]\nAll the kids in the marketplace say\n(Way-oh-way-oh, ooh-way-oh-way-oh)\n\n[Chorus: Michael Steele]\nWalk like an Egyptian\n\n[Verse 3: Susanna Hoffs; (All)]\nSlide your feet up the street, bend your back\nShift your arm, then you pull it back\nLife is hard you know (Oh-way-oh)\nSo strike a pose on a Cadillac\nIf you want to find all the cops\nThey're hanging out in the donut shop\nThey sing and dance (Oh-way-oh)\nThey spin the clubs, cruise down the block\nAll the Japanese with their yen\nThe party boys call the Kremlin\nAnd the Chinese know (Oh-way-oh)\nThey walk the line like Egyptian\n\n[Pre-Chorus: Susanna Hoffs; (All)]\nAll the cops in the donut shop say\n(Way-oh-way-oh, ooh-way-oh-way-oh)\n\n[Chorus: Susanna Hoffs]\nWalk like an Egyptian\nWalk like an Egyptian", 'annotations': {'description': '&lt;p&gt;Walk Like an Egyptian was a million-selling single and became Billboard’s number-one song of 1987.  Nevertheless, the song ended up accelerating the tensions within the group. The original plan for this song called for Debbi Peterson to sing the whole thing, but their producer, David Kahne, decided to have one person sing one verse. There are only three verses, though, so one person would have to get left out. That person ended up being Debbi Peterson, when David Kahne decided to have Micki Steele sing the second verse instead of Debbi (Vicki Peterson sang the first verse and Susanna Hoffs sang the third). Debbi didn’t play drums on the song either, when the producer decided that drum machines were the hip sound of 1987 (which they kinda were – ‘87 was a weird time).&lt;/p&gt;\n\n&lt;p&gt;Like most Bangles hits, the Bangles didn’t write this one.  This one’s written by &lt;a href="https://en.wikipedia.org/wiki/Liam_Sternberg" rel="noopener nofollow"&gt;Liam Sternberg&lt;/a&gt;.   Over the years, the song has shown up in &lt;a href="http://www.imdb.com/name/nm0827912/" rel="noopener nofollow"&gt;dozens of movies and TV shows&lt;/a&gt;.&lt;/p&gt;', 'producers': [{'name': 'David Kahne', 'url': 'https://genius.com/artists/David-kahne'}], 'writers': [{'name': 'Liam Sternberg', 'url': 'https://genius.com/artists/Liam-sternberg'}], 'labels': [{'name': 'Columbia Records', 'url': 'https://genius.com/artists/Columbia-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Alice-in-chains-down-in-a-hole-lyrics', 'lyrics': "[Intro: Jerry Cantrell]\nBury me softly in this womb\nI give this part of me for you\nSand rains down and here I sit\nHolding rare flowers in a tomb, in bloom\n\n[Verse 1: Layne Staley]\nDown in a hole and I don't know if I can be saved\nSee my heart, I decorate it like a grave\nYou don't understand who they thought I was supposed to be\nLook at me now, a man who won't let himself be\n\n[Chorus: Layne Staley and Jerry Cantrell]\nDown in a hole, feelin' so small\nDown in a hole, losin' my soul\nI'd like to fly but my wings have been so denied\n\n[Verse 2: Layne]\nDown in a hole and they've put all the stones in their place\nI've eaten the sun so my tongue has been burned of the taste\nI have been guilty of kicking myself in the teeth\nI will speak no more of my feelings beneath\n\n[Chorus: Layne and Jerry]\nDown in a hole, feeling so small\nDown in a hole, losin' my soul\nI'd like to fly but my wings have been so denied\n[Bridge: Jerry and Layne]\nBury me softly in this womb\nOh, I wanna be inside of you\nI give this part of me for you\nOh, I wanna be inside of you\nSand rains down and here I sit\nOh, I wanna be inside of you\nHolding rare flowers in a tomb, in bloom\nOh, I wanna be inside\n\n[Chorus: Layne and Jerry]\nDown in a hole, feeling so small\nDown in a hole, losin' my soul\nDown in a hole, feeling so small\nDown in a hole, out of control\nI'd like to fly but my wings have been so denied", 'annotations': {'description': '&lt;p&gt;This song is a love song from guitarist Jerry Cantrell  to the love of his life Courtney Clarke.&lt;/p&gt;\n\n&lt;p&gt;Early pressings listed this as the 12th track in the album. Later pressings listed this as the 4th track supposedly to fit better with the band’s desire to have the album loosely tell a story from song to song.&lt;/p&gt;', 'producers': [{'name': 'Alice in Chains', 'url': 'https://genius.com/artists/Alice-in-chains'}, {'name': 'Dave Jerden', 'url': 'https://genius.com/artists/Dave-jerden'}], 'writers': [{'name': 'Jerry Cantrell', 'url': 'https://genius.com/artists/Jerry-cantrell'}], 'labels': [{'name': 'Columbia Records', 'url': 'https://genius.com/artists/Columbia-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Black-eyed-peas-meet-me-halfway-lyrics', 'lyrics': "[Intro: Fergie]\nOoh, I can't go any further than this\nOoh, I want you so badly, it's my biggest wish\n\n[Verse 1: apl.de.ap]\nCool, I spend my time just thinking\nThinking, thinking 'bout you\nEvery single day, yes, I'm really missing, missing you\nAnd all those things we used to\nUsed to, used to, used to do\nHey girl, what's up, it used to, used to be just me and you\nI spend my time just thinking, thinking, thinking 'bout you\nEvery single day, yes, I'm really missing, missing you\nAnd all those things we used to\nUsed to, used to, used to do\nHey girl, what's up yo, what's up, what's up\n\n[Chorus: Fergie]\nCan you meet me halfway? Right at the borderline\nThat's where I'm gonna wait for you\nI'll be looking out, night and day\nTook my heart to the limit, and this is where I'll stay\nI can't go any further than this\nI want you so bad, it's my only wish\n\n[Verse 2: will.i.am]\nGirl, I travel 'round the world and even sail the seven seas\nAcross the universe and all the other galaxies\nJust tell me where to go, just tell me where you wanna meet\nI navigate myself, myself to take me where you be\nCause girl I want, I, I, I want you right now\nI travel uptown, town I travel downtown\nWanna have you around, 'round like every single day\nI love you always, ways I'll meet you halfway\n[Chorus: Fergie]\nCan you meet me halfway? Right at the borderline\nThat's where I'm gonna wait for you\nI'll be looking out, night and day\nTook my heart to the limit, and this is where I'll stay\nI can't go any further than this\nI want you so bad, it's my only wish\nI can't go any further than this\nI want you so bad, it's my only wish\n\n[Bridge: Taboo]\nLet's cross the bridge to the other side\nJust you and I (Just you and I)\nI will fly, fly the skies\nFor you and I (For you and I)\nI will try until I die\nFor you and I (For you and I)\nFor, for, for you and I\nFor, for, for, for you and I\nFor, for you and I (For you and I)\n\n[Breakdown: Fergie]\nCan you meet me halfway?\nCan you meet me halfway?\nCan you meet me halfway?\nCan you meet me halfway?\n[Chorus: Fergie]\nMeet me halfway\nRight at the borderline\nThat's where I'm gonna wait for you\nI'll be looking out, night and day\nTook my heart to the limit, and this is where I'll stay\nI can't go any further than this\nI want you so bad, it's my only wish\nI can't go any further than this\nI want you so bad, it's my only wish", 'annotations': {'description': '&lt;p&gt;Meet Me Halfway is the third track of the album The E.N.D.. It was the 3rd single from the album, after &lt;em&gt;Boom Boom Pow&lt;/em&gt; and &lt;em&gt;I Gotta Feeling&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://www.youtube.com/watch?v=I7HahVwYpwo" rel="noopener nofollow"&gt;https://www.youtube.com/watch?v=I7HahVwYpwo&lt;/a&gt;&lt;/p&gt;', 'producers': [{'name': '\u200bwill.i.am', 'url': 'https://genius.com/artists/William'}, {'name': 'Keith Harris', 'url': 'https://genius.com/artists/Keith-harris'}], 'writers': [{'name': 'Sylvia Gordon', 'url': 'https://genius.com/artists/Sylvia-gordon'}, {'name': 'Jean Baptiste', 'url': 'https://genius.com/artists/Jean-baptiste'}, {'name': 'Fergie', 'url': 'https://genius.com/artists/Fergie'}, {'name': 'Taboo', 'url': 'https://genius.com/artists/Taboo'}, {'name': '\u200bapl.de.ap', 'url': 'https://genius.com/artists/Apldeap'}, {'name': '\u200bwill.i.am', 'url': 'https://genius.com/artists/William'}, {'name': 'Keith Harris', 'url': 'https://genius.com/artists/Keith-harris'}], 'labels': [{'name': 'Interscope Records', 'url': 'https://genius.com/artists/Interscope-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Depeche-mode-everything-counts-lyrics', 'lyrics': "[Verse 1: Dave Gahan]\nThe handshake seals the contract\nFrom the contract, there's no turning back\nThe turning point of a career\nIn Korea being insincere\nThe holiday was fun-packed\nThe contract still intact\n\n[Chorus: Martin L. Gore &amp; Dave Gahan]\nThe grabbing hands grab all they can\nAll for themselves, after all\nThe grabbing hands grab all they can\nAll for themselves, after all\nIt's a competitive world\nEverything counts in large amounts\n\n[Verse 2: Dave Gahan]\nThe graph on the wall\nTells the story of it all\nPicture it now, see just how\nThe lies and deceit gained a little more power\nConfidence taken in\nBy a suntan and a grin\n\n[Chorus: Martin L. Gore &amp; Dave Gahan]\nThe grabbing hands grab all they can\nAll for themselves, after all\nThe grabbing hands grab all they can\nAll for themselves, after all\nIt's a competitive world\nEverything counts in large amounts\nEverything counts in large amounts\nEverything counts in large amounts\n[Chorus: Martin L. Gore]\nThe grabbing hands grab all they can\nEverything counts in large amounts\nThe grabbing hands grab all they can\nEverything counts in large amounts\n\n[Bridge: Martin L. Gore]\n(Everything, everything)\n(Everything, everything)\n\n[Chorus: Martin L. Gore]\nThe grabbing hands grab all they can\nEverything counts in large amounts\nThe grabbing hands grab all they can\nEverything counts in large amounts\n\n[Outro: Martin L. Gore]\nEverything counts in large amounts", 'annotations': {'description': '&lt;p&gt;“Everything Counts” is Depeche Mode’s eighth single, and the fourth track on &lt;em&gt;Construction Time Again&lt;/em&gt;. It peaked at #6 in the UK, tying “See You” as their highest charting single at the time.&lt;/p&gt;\n\n&lt;p&gt;In 1985, Martin Gore &lt;a href="http://www.mmj.pl/~beyond/interview/inter_003.html" rel="noopener nofollow"&gt;called the song&lt;/a&gt; one of the band’s favorite singles.&lt;/p&gt;', 'producers': [{'name': 'Gareth Jones', 'url': 'https://genius.com/artists/Gareth-jones'}, {'name': 'Depeche Mode', 'url': 'https://genius.com/artists/Depeche-mode'}, {'name': 'Daniel Miller', 'url': 'https://genius.com/artists/Daniel-miller'}], 'writers': [{'name': 'Martin L. Gore', 'url': 'https://genius.com/artists/Martin-l-gore'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Gerry-rafferty-baker-street-lyrics', 'lyrics': "[Instrumental Intro]\n\n[Verse 1]\nWindin' your way down on Baker Street\nLight in your head and dead on your feet\nWell another crazy day, you'll drink the night away\nAnd forget about everything\nThis city desert makes you feel so cold\nIt's got so many people but it's got no soul\nAnd it's taking you so long to find out you were wrong\nWhen you thought it held everything\n\n[Pre-Chorus]\nYou used to think that it was so easy\nYou used to say that it was so easy\nBut you're tryin', you're tryin' now\nAnother year and then you'll be happy\nJust one more year and then you'll be happy\nBut you're cryin', you're cryin' now\n\n[Instrumental Chorus]\n\n[Verse 2]\nWay down the street there's a light in his place\nHe opens the door he's got that look on his face\nAnd he asks you where you've been\nYou tell him who you've seen and you talk about anything\nHe's got this dream about buyin' some land\nHe's gonna give up the booze and the one night stands\nAnd then he'll settle down, in some quiet little town\nAnd forget about everything\n[Pre-Chorus]\nBut you know he'll always keep movin'\nYou know he's never gonna stop movin'\n'Cause he's rollin', he's the rollin' stone\nAnd when you wake up, it's a new mornin'\nThe sun is shinin', it's a new mornin'\nYou're goin', you're goin' home\n\n[Instrumental Chorus]", 'annotations': {'description': '', 'producers': [{'name': 'Gerry Rafferty', 'url': 'https://genius.com/artists/Gerry-rafferty'}, {'name': 'Hugh Murphy', 'url': 'https://genius.com/artists/Hugh-murphy'}], 'writers': [{'name': 'Gerry Rafferty', 'url': 'https://genius.com/artists/Gerry-rafferty'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Rem-man-on-the-moon-lyrics', 'lyrics': "[Verse 1]\nMott the Hoople and the Game of Life\nYeah, yeah, yeah, yeah\nAndy Kaufman in the wrestling match\nYeah, yeah, yeah, yeah\nMonopoly, Twenty-One, checkers and chess\nYeah, yeah, yeah, yeah\nMister Fred Blassie in a breakfast mess\nYeah, yeah, yeah, yeah\nLet's play Twister, let's play Risk\nYeah, yeah, yeah, yeah\nSee you in heaven if you make the list\nYeah, yeah, yeah, yeah\n\n[Pre-Chorus]\nNow, Andy, did you hear about this one?\nTell me, are you locked in the punch?\nAndy, are you goofing on Elvis? Hey, baby\nAre we losing touch?\n\n[Chorus]\nIf you believed they put a man on the moon\nMan on the moon\nIf you believed there's nothing up his sleeve\nThen nothing is cool\n[Verse 2]\nMoses went walking with the staff of wood\nYeah, yeah, yeah, yeah\nNewton got beaned by the apple good\nYeah, yeah, yeah, yeah\nEgypt was troubled by the horrible asp\nYeah, yeah, yeah, yeah\nMister Charles Darwin had the gall to ask\nYeah, yeah, yeah, yeah\n\n[Pre-Chorus]\nNow, Andy, did you hear about this one?\nTell me, are you locked in the punch?\nHey, Andy, are you goofing on Elvis? Hey, baby\nAre you having fun?\n\n[Chorus]\nIf you believed they put a man on the moon\nMan on the moon\nIf you believed there's nothing up his sleeve\nThen nothing is cool\n\n[Bridge]\nHere's a little agit for the never-believer\nYeah, yeah, yeah, yeah\nHere's a little ghost for the offering\nYeah, yeah, yeah, yeah\nHere's a truck stop instead of Saint Peter's\nYeah, yeah, yeah, yeah\nMister Andy Kaufman's gone wrestling (wrestling bears)\nYeah, yeah, yeah, yeah\n[Pre-Chorus]\nNow, Andy, did you hear about this one?\nTell me, are you locked in the punch?\nHey, Andy, are you goofing on Elvis? Hey, baby\nAre we losing touch?\n\n[Chorus]\nIf you believed they put a man on the moon\nMan on the moon\nIf you believed there's nothing up his sleeve\nThen nothing is cool\n\n[Outro]\nIf you believed they put a man on the moon\nMan on the moon\nIf you believed there's nothing up his sleeve\nThen nothing is cool\nIf you believed they put a man on the moon\nMan on the moon\nIf you believed there's nothing up his sleeve\nThen nothing is cool\nIf you believed they put a man on the moon\nMan on the moon\nIf you believed there's nothing up his sleeve\nThen nothing is cool", 'annotations': {'description': '&lt;p&gt;“Man on the Moon” is Michael’s Stipe’s tribute to the late Andy Kaufman, an entertainer who was made famous by his appearances on late-night television (namely Saturday Night Live and Late Night with David Letterman) and his role as Latka Gravas on the sitcom Taxi. Kaufman was known for his comedy, though he referred to himself not as a comedian, but as a “song-and-dance man”.&lt;/p&gt;\n\n&lt;p&gt;Thematically linked (by the idea of heaven and Andy Kaufman) is &lt;a href="https://genius.com/Rem-the-great-beyond-lyrics" rel="noopener" data-api_path="/songs/394899"&gt;“The Great Beyond”&lt;/a&gt;, a 1999 song that was written for the soundtrack of &lt;em&gt;Man on the Moon&lt;/em&gt; – a film about Kaufman’s life starring Jim Carrey.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/6fa6ec232ec9db93437563e94dd9de50.300x400x1.jpg" alt="" width="300" height="400" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/22cb184779b955d915f7ccb35826b31a.214x317x1.jpg" alt="" width="214" height="317" data-animated="false"&gt;&lt;/p&gt;', 'producers': [{'name': 'R.E.M.', 'url': 'https://genius.com/artists/Rem'}, {'name': 'Scott Litt', 'url': 'https://genius.com/artists/Scott-litt'}], 'writers': [{'name': 'Michael Stipe', 'url': 'https://genius.com/artists/Michael-stipe'}, {'name': 'Peter Buck', 'url': 'https://genius.com/artists/Peter-buck'}, {'name': 'Mike Mills (R.E.M.)', 'url': 'https://genius.com/artists/Mike-mills-rem'}, {'name': 'Bill Berry', 'url': 'https://genius.com/artists/Bill-berry'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Mika-grace-kelly-lyrics', 'lyrics': '[Intro]\n"I wanna talk to you."\n"The last time we talked, Mr. Smith, you reduced me to tears. I promise you it won\'t happen again."\n\n[Verse 1]\nDo I attract you?\nDo I repulse you with my queasy smile?\nAm I too dirty? Am I too flirty?\nDo I like what you like?\n\nI could be wholesome, I could be loathsome\nI guess I\'m a little bit shy\nWhy don\'t you like me, why don\'t you like me\nWithout making me try?\n\n[Pre-Chorus]\nI tried to be like Grace Kelly, mm\nBut all her looks were too sad, ah\nSo I tried a little Freddie, mm\nI\'ve gone identity mad!\n\n[Chorus 1]\nI could be brown, I could be blue\nI could be violet sky\nI could be hurtful, I could be purple\nI could be anything you like\nGotta be green, gotta be mean\nGotta be everything more\nWhy don\'t you like me? Why don\'t you like me?\nWhy don\'t you walk out the door!\n\n[Hook]\n"Getting angry doesn\'t solve anything."\n\n[Verse 2]\nHow can I help it, how can I help it\nHow can I help what you think?\nHello my baby, hello my baby\nPutting my life on the brink\n\nWhy don\'t you like me, why don\'t you like me\nWhy don\'t you like yourself?\nShould I bend over? Should I look older\nJust to be put on your shelf?\n\n[Pre-Chorus]\nI tried to be like Grace Kelly, mm\nBut all her looks were too sad, ah\nSo I tried a little Freddie, mm\nI\'ve gone identity mad!\n\n[Chorus 2]\nI could be brown, I could be blue\nI could be violet sky\nI could be hurtful, I could be purple\nI could be anything you like\nGotta be green, gotta be mean\nGotta be everything more\nWhy don\'t you like me? Why don\'t you like me?\nWalk out the door!\n\n[Bridge]\nSay what you want to satisfy yourself\nBut you only want what everybody else says you should want...\nYou want\n\n[Chorus 2]\nI could be brown, I could be blue\nI could be violet sky\nI could be hurtful, I could be purple\nI could be anything you like\n\nGotta be green, gotta be mean\nGotta be everything more\nWhy don\'t you like me? Why don\'t you like me?\nWalk out the door!\n\n[Chorus 2]\nI could be brown, I could be blue\nI could be violet sky\nI could be hurtful, I could be purple\nI could be anything you like\nGotta be green, gotta be mean\nGotta be everything more\nWhy don\'t you like me? Why don\'t you like me?\nWalk out the door!\n\n"Humphrey! We\'re leaving."\n"Ka-ching!"', 'annotations': {'description': '&lt;p&gt;“Grace Kelly” is a genre-defying pop song about being yourself. It’s named for Hollywood legend Grace Kelly—this opening dialogue is based off her 1954 film &lt;em&gt;The Country Girl&lt;/em&gt;. The song was a breakthrough hit for Mika, a genre-defying singer born in Beirut and raised in Paris and London.&lt;/p&gt;\n\n&lt;p&gt;Despite the tune’s perky vibe, Mika wasn’t a happy camper when he wrote this song. He had been trying for years to land a record deal, but labels kept turning him down. He told BBC: “The indie scene thought I was too melody-based and I was rejected by the commercial scene because I was too strange.”&lt;/p&gt;\n\n&lt;p&gt;The final straw came when one label executive told him he’d never sell any records. Mika: “I went home and I was so angry. I thought I was going to get signed.“&lt;/p&gt;\n\n&lt;p&gt;“I wrote out the song saying, ‘I can be any color you want, what the hell do you want me to be?’”&lt;/p&gt;', 'producers': [{'name': 'MIKA', 'url': 'https://genius.com/artists/Mika'}, {'name': 'Greg Wells', 'url': 'https://genius.com/artists/Greg-wells'}], 'writers': [{'name': 'Dan Warner', 'url': 'https://genius.com/artists/Dan-warner'}, {'name': 'John Merchant', 'url': 'https://genius.com/artists/John-merchant'}, {'name': 'Jodi Marr', 'url': 'https://genius.com/artists/Jodi-marr'}, {'name': 'MIKA', 'url': 'https://genius.com/artists/Mika'}], 'labels': [{'name': 'Universal Music Group', 'url': 'https://genius.com/artists/Universal-music-group'}, {'name': 'Casablanca Records', 'url': 'https://genius.com/artists/Casablanca-records'}, {'name': 'Island Records', 'url': 'https://genius.com/artists/Island-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Tracy-chapman-fast-car-lyrics', 'lyrics': '[Verse 1]\nYou got a fast car\nI want a ticket to anywhere\nMaybe we make a deal\nMaybe together, we can get somewhere\nAny place is better\nStarting from zero, got nothing to lose\nMaybe we\'ll make something\nMe, myself, I got nothing to prove\n\n[Verse 2]\nYou got a fast car\nI got a plan to get us outta here\nI been working at the convenience store\nManaged to save just a little bit of money\nWon\'t have to drive too far\nJust \'cross the border and into the city\nYou and I can both get jobs\nFinally see what it means to be living\n\n[Verse 3]\nSee, my old man\'s got a problem\nHe lives with a bottle, that\'s the way it is\nHe says his body\'s too old for working\nHis body\'s too young to look like his\nWhen mama went off and left him\nShe wanted more from life than he could give\nI said, "Somebody\'s gotta take care of him"\nSo I quit school, and that\'s what I did\n[Refrain]\nYou got a fast car\nIs it fast enough so we can fly away?\nWe gotta make a decision\nLeave tonight, or live and die this way\n\n[Chorus]\nSo I remember when we were driving\nDriving in your car\nSpeed so fast, it felt like I was drunk\nCity lights lay out before us\nAnd your arm felt nice wrapped \'round my shoulder\nAnd I-I had a feeling that I belonged\nI-I had a feeling I could be someone, be someone, be someone\n\n[Verse 4]\nYou got a fast car\nWe go cruising, entertain ourselves\nYou still ain\'t got a job\nAnd I work in a market as a checkout girl\nI know things will get better\nYou\'ll find work and I\'ll get promoted\nWe\'ll move out of the shelter\nBuy a bigger house and live in the suburbs\n\n[Chorus]\nSo I remember when we were driving\nDriving in your car\nSpeed so fast, it felt like I was drunk\nCity lights lay out before us\nAnd your arm felt nice wrapped \'round my shoulder\nAnd I-I had a feeling that I belonged\nI-I had a feeling I could be someone, be someone, be someone\n[Verse 5]\nYou got a fast car\nI got a job that pays all our bills\nYou stay out drinkin\' late at the bar\nSee more of your friends than you do of your kids\nI\'d always hoped for better\nThought maybe together, you and me\'d find it\nI got no plans, I ain\'t going nowhere\nSo take your fast car and keep on driving\n\n[Chorus]\nSo I remember when we were driving\nDriving in your car\nSpeed so fast, it felt like I was drunk\nCity lights lay out before us\nAnd your arm felt nice wrapped around my shoulder\nAnd I-I had a feeling that I belonged\nI-I had a feeling I could be someone, be someone, be someone\n\n[Refrain]\nYou got a fast car\nIs it fast enough so you can fly away?\nYou gotta make a decision\nLeave tonight or live and die this way', 'annotations': {'description': '&lt;p&gt;“Fast Car” is a song by American singer-songwriter Tracy Chapman. It was released in April 1988 as the lead single from her self-titled debut album. Her appearance on the Nelson Mandela 70th Birthday Tribute was the catalyst for the song’s becoming a top 10 hit in the United States, peaking at number 6 on the Hot 100, and a top 10 hit in the United Kingdom, peaking at number 4 on the charts.&lt;/p&gt;', 'producers': [{'name': 'David Kershenbaum', 'url': 'https://genius.com/artists/David-kershenbaum'}], 'writers': [{'name': 'Tracy Chapman', 'url': 'https://genius.com/artists/Tracy-chapman'}], 'labels': [{'name': 'Elektra Records', 'url': 'https://genius.com/artists/Elektra-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/The-beatles-free-as-a-bird-lyrics', 'lyrics': "[Chorus: John Lennon]\nFree as a bird\nIt's the next best thing to be\nFree as a bird\nHome, home and dry\nLike a homing bird I'll fly\nAs a bird on wings\n\n[Bridge: Paul McCartney]\nWhatever happened to\nThe life that we once knew?\nCan we really live without each other?\nWhere did we lose the touch\nThat seemed to mean so much?\nIt always made me feel so\n\n[Chorus: John Lennon]\nFree as a bird\nIt's the next best thing to be\nFree as a bird\nHome, home and dry\nLike a homing bird I'll fly\nAs a bird on wings\n\n[Bridge: George Harrison]\nWhatever happened to\nThe life that we once knew?\nAlways made me feel so free\nAh\nAh\nAh\n\n[Verse 2]\nFree as a bird\nIt's the next best thing to be\nFree as a bird\nFree as a bird\nFree as a bird\nOooooo\n\n[Outro]\nFree\n\nMade for John Lennon", 'annotations': {'description': '&lt;p&gt;The first of the final two Beatles singles&lt;/p&gt;\n\n&lt;p&gt;This is one of the rare recordings credited to The Beatles that did not include their late producer George Martin. Later, Martin said he wished that the demo had never been produced, though if he had been involved, he would have taken a different approach to the technical challenges.&lt;/p&gt;\n\n&lt;p&gt;Lennon’s demo was extremely lo-fi. He had recorded the song on a boombox on top of his piano. Producer Jeff Lynne compressed that original recording until “what you ended up with was quite a thick homogeneous sound that hardly stops. There’s not much dynamic in it."&lt;/p&gt;', 'producers': [{'name': 'Jeff Lynne', 'url': 'https://genius.com/artists/Jeff-lynne'}], 'writers': [{'name': 'Ringo Starr', 'url': 'https://genius.com/artists/Ringo-starr'}, {'name': 'George Harrison', 'url': 'https://genius.com/artists/George-harrison'}, {'name': 'Paul McCartney', 'url': 'https://genius.com/artists/Paul-mccartney'}, {'name': 'John Lennon', 'url': 'https://genius.com/artists/John-lennon'}], 'labels': [{'name': 'Apple Corps', 'url': 'https://genius.com/artists/Apple-corps'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Xxxtentacion-numb-lyrics', 'lyrics': "[Chorus]\nAnd every single year\nI'm drowning in my tears, I'm drowning in my tears again\nI can't seem to forget the pain you seem to give\nThe pain you seem to give, my friend\nAnd every single year\nI'm drowning in my tears, I'm drowning in my tears again\nI can't seem to forget the pain you seem to give\nThe pain you seem to give, my friend\n\n[Bridge]\nWoah, oh, woah, oh\nWoah, oh, woah, oh\nWoah, oh, woah, oh\nWoah, oh, woah, oh\nWoah, oh, woah, oh\n\n[Chorus]\nAnd every single year\nI'm drowning in my tears, I'm drowning in my tears again\nI can't seem to forget the pain you seem to give\nThe pain you seem to give, my friend\nWoah, oh\nAnd every single year\nI'm drowning in my tears, I'm drowning in my tears again\nWoah, oh\nI can't seem to forget the pain you seem to give\nThe pain you seem to give, my friend\nWoah, oh, woah, oh, woah, oh\n[Break]\n\n[Chorus]\nAnd every single year\nI'm drowning in my tears, I'm drowning in my tears again\nI can't seem to forget the pain you seem to give\nThe pain you seem to give, my friend\nWoah, oh", 'annotations': {'description': '&lt;p&gt;Being numb to the pain of life is a common theme in XXXTENTACION’s music, with songs like &lt;a href="https://genius.com/Xxxtentacion-lets-pretend-were-numb-lyrics" rel="noopener" data-api_path="/songs/2465721"&gt;“Let’s Pretend We’re Numb”&lt;/a&gt; and &lt;a href="https://genius.com/Xxxtentacion-snow-lyrics" rel="noopener" data-api_path="/songs/2465662"&gt;“snow”&lt;/a&gt; where he raps:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;Body falls so I don’t know who to call at all&lt;br&gt;\nAlone, and my heart, got tat of it broke&lt;br&gt;\nI’m so fucking numb, my life has succumb&lt;br&gt;\nTo hatred and death, alone in the snow&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;XXXTENTACION also has the word “Numb” tattooed in red ink under his right eye. He said it represents the period of his life where he couldn’t really feel any emotion.&lt;/p&gt;\n\n&lt;p&gt;&lt;/p&gt;&lt;div class="embedly_preview embedly_preview--video"&gt;\n&lt;iframe type="text/html" width="640" height="390" frameborder="0" allowfullscreen="1" src="https://www.youtube.com/embed/XVW-ZL-H8P0?modestbranding=1&amp;amp;start=353&amp;amp;showinfo=0&amp;amp;enablejsapi=1&amp;amp;origin=genius.com"&gt;&lt;/iframe&gt;\n&lt;/div&gt;', 'producers': [{'name': 'Robert Soukiasyan', 'url': 'https://genius.com/artists/Robert-soukiasyan'}, {'name': 'John Cunningham', 'url': 'https://genius.com/artists/John-cunningham'}], 'writers': [{'name': 'Oren Yoel', 'url': 'https://genius.com/artists/Oren-yoel'}, {'name': 'Robert Soukiasyan', 'url': 'https://genius.com/artists/Robert-soukiasyan'}, {'name': 'John Cunningham', 'url': 'https://genius.com/artists/John-cunningham'}, {'name': 'XXXTENTACION', 'url': 'https://genius.com/artists/Xxxtentacion'}], 'labels': [{'name': 'Bad Vibes Forever', 'url': 'https://genius.com/artists/Bad-vibes-forever'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Kings-of-leon-radioactive-lyrics', 'lyrics': "[Verse:]\nWhen the roll is called up yonder\nI hope you see me there\nIt's in the water, it's where you came from\nIt's in the water, it's where you came from\nWhen the crowd begins to wonder\nAnd they cry to see your face\n\n[Chorus:]\nIt's in the water, it's in the story, of where you came from\nYour sons and daughters, in all their glory, it's going to shape her\nAnd when they clash and come together, and start rising\nJust drink the water where you came from, where you came from\n\n[Bridge:]\nSo the roll it was called from yonder\nNever sold yourself away\n\n[Chorus:]\nIt's in the water, it's in the story, of where you came from\nYour sons and daughters, in all their glory, it's going to shape her\nAnd when they clash and come together, and start rising\nJust drink the water where you came from, where you came from\n\n[Outro:]\nIt's in the water, it's where you came from\nIt's in the water, it's where you came from\nAnd when they clash and come together, and start rising\nJust drink the water, where you came from, where you came from", 'annotations': {'description': '&lt;p&gt;As the band mentions in this video, “Radioactive” arose from an old gospel song they used to sing, when they were adolescents.&lt;br&gt;\nAlso, the song was written right after their release of &lt;a href="https://genius.com/albums/Kings-of-leon/Aha-shake-heartbreak" rel="noopener" data-api_path="/albums/26694"&gt;“aha shake heartbreak”&lt;/a&gt;, long before the release of &lt;a href="https://genius.com/albums/Kings-of-leon/Come-around-sundown" rel="noopener" data-api_path="/albums/21099"&gt;“Come Around Sundown”&lt;/a&gt;, which features “Radioactive”.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://www.youtube.com/watch?v=EncWEAzYzVM" rel="noopener nofollow"&gt;https://www.youtube.com/watch?v=EncWEAzYzVM&lt;/a&gt;&lt;/p&gt;', 'producers': [{'name': 'Angelo Petraglia', 'url': 'https://genius.com/artists/Angelo-petraglia'}, {'name': 'Jacquire King', 'url': 'https://genius.com/artists/Jacquire-king'}], 'writers': [{'name': 'Matthew Followill', 'url': 'https://genius.com/artists/Matthew-followill'}, {'name': 'Jared Followill', 'url': 'https://genius.com/artists/Jared-followill'}, {'name': 'Nathan Followill', 'url': 'https://genius.com/artists/Nathan-followill'}, {'name': 'Caleb Followill', 'url': 'https://genius.com/artists/Caleb-followill'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Real-life-send-me-an-angel-89-lyrics', 'lyrics': "Do you believe in heaven above?\nDo you believe in love?\nDon't tell a lie, don't be false or untrue\nIt all comes back to you\n\nOpen fire!\nOn my burning heart\nI've never been lucky in love\nMy defenses are down\nA kiss or a frown\nI can't survive on my own\n\nIf a girl walks in and draws her name in my heart\nI'll turn and run away\nEveryday we've all been led astray\nIt's hard to be lucky in love\n\nIt gets in your eyes\nIt's making you cry\nDon't know what to do\nDon't know what to do\nYou're looking for love\nCalling heaven above\n\nSend me an angel\nSend me an angel\nRight now, right now\nSend me an angel\nSend me an angel\nRight now, right now\n\nEmpty dreams can only disappoint\nIn a room behind your smile\nBut don't give up, don't give up\n(give up, give up, give up)\nYou can be lucky in love\n\nIt gets in your eyes\nIt's making you cry\nDon't know what to do\nDon't know what to do\nYou're looking for love\nCalling heaven above\n\nSend me an angel\nSend me an angel\nRight now, right now\n\nSend me an angel\nSend me an angel\nRight now, right now\n\n...Right now", 'annotations': {'description': '', 'producers': [], 'writers': [], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Us3-cantaloop-flip-fantasia-lyrics', 'lyrics': "[Intro]\nLadies and gentlemen, as you know we have something special down here at Birdland this evening\nA recording for Blue Note Records\n\nWhat's that? Yeah...yeah...yeah\nFunky, funky\nHow 'bout a big hand now\nWait, wait a minute\n\n[Verse 1]\nGroovy groovy jazzy funky pounce bounce dance as we\nDip in the melodic sea, the rhythm keeps flowin', and drips to MC\nSweet sugar pop sugar pop rocks it pop\nYa dont stop 'til the sweet beat drops\nI show and prove as I stick and move\nVivid poems recited on top of the groove\nSmooth, my, floating like a butterfly\nNotes set afloat, sung like a lullaby\nBrace yourself as the beat hits ya\nDip trip, flip fantasia\n\n(Yeah...yeah...yeah...What's that?)\nItty bitty bop (Yeah)\nItty bitty bop (Funky, funky)\n\n[Verse 2]\nFeel the beat drop, jazz and hip hop\nDrippin' in your dome, makes you zone and bop\nFunk and fusion, a fly illusion\nKeeps ya coastin' on the rhythm you're cruisin'\nUp down, round and round, rhymes profound\nBut nevertheless ya gots to get down\nFantasy freak thru the beat so unique\nYa move your feet, the sweat from the heat\nBack to the fact I'm the mack and I know that\nThe way I kick the rhymes, some would call me a poet\nPoems steady flowin', growin', showin' sights and sound\nCaught in the groove in Fantasia I'm found\nMany trip the tour upon the rhymes they soar\nTo an infinite height to the realm of the hardcore\nHere we go off I take ya\nDip trip, flip fantasia\n(Yeah...yeah...yeah...What's that?)\nItty bitty bop (Yeah)\nItty bitty bop (Funky, funky)\n\n(Yeah...yeah...yeah...What's that?)\n(Yeah...yeah...yeah...Funky, funky)\n\n[Verse 3]\nJump to the jam, boogie woogie jam slam\nBust the dialect, I'm the man in command\nCome flow with the sounds of the mighty mic master\nRhyming on the mic, I'm bringing suckas their disaster\nBeaucoup ducs but I still rock Nike\nWith the razzle dazzle, star I might be\nScribble drabble scrabble on the microphone I babble\nAs I flip the funky words, into a puzzle\nYes yes yes, on and on as I flex\nGet with the flow, words manifest\nFeel the vibe from here to Asia\nDip trip, flip fantasia\nOut\n\n[Outro]\nYa don't stop\nC'mon, c'mon, c'mon, c'mon\nC'mon, c'mon, c'mon\nGimme more\nOf that funky horn", 'annotations': {'description': '&lt;p&gt;Us3’s extensive use of samples from the Blue Note Records catalog got the attention of Blue Note who surprised them with an offer for a record deal. (Richard Cook, Blue Note Records: The Biography, p226)&lt;/p&gt;\n\n&lt;p&gt;Main sample is from &lt;a href="https://genius.com/artists/Herbie-hancock" rel="noopener" data-api_path="/artists/6238"&gt;Herbie Hancock&lt;/a&gt;’s &lt;a href="http://www.whosampled.com/sample/172/Us3-Cantaloop-%28Flip-Fantasia%29-Herbie-Hancock-Cantaloupe-Island/" rel="noopener nofollow"&gt;“Cantaloupe Island”&lt;/a&gt; (Blue Note, 1964)&lt;/p&gt;\n\n&lt;p&gt;A great version of Canteloupe Island by Herbie Hancock is the opening spot on the famous “A Night with Blue Note” concert in 1985.&lt;/p&gt;\n\n&lt;p&gt;&lt;/p&gt;&lt;div class="embedly_preview embedly_preview--video"&gt;\n&lt;iframe type="text/html" width="640" height="390" frameborder="0" allowfullscreen="1" src="https://www.youtube.com/embed/SgBs5IFP1v8?modestbranding=1&amp;amp;start=0&amp;amp;showinfo=0&amp;amp;enablejsapi=1&amp;amp;origin=genius.com"&gt;&lt;/iframe&gt;\n&lt;/div&gt;', 'producers': [{'name': 'Geoff Wilkinson', 'url': 'https://genius.com/artists/Geoff-wilkinson'}, {'name': 'Mel Simpson', 'url': 'https://genius.com/artists/Mel-simpson'}], 'writers': [{'name': 'Geoff Wilkinson', 'url': 'https://genius.com/artists/Geoff-wilkinson'}, {'name': 'Mel Simpson', 'url': 'https://genius.com/artists/Mel-simpson'}, {'name': 'Rahsaan Kelly', 'url': 'https://genius.com/artists/Rahsaan-kelly'}, {'name': 'Herbie Hancock', 'url': 'https://genius.com/artists/Herbie-hancock'}], 'labels': [{'name': 'Capitol Records', 'url': 'https://genius.com/artists/Capitol-records'}, {'name': 'Blue Note Records', 'url': 'https://genius.com/artists/Blue-note-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Iggy-pop-real-wild-child-wild-one-lyrics', 'lyrics': "[Verse 1]\nWell I'm just out of school\nLike I'm real, real cool\nGot to dance like a fool\nGot the message that I got to be\nA wild one\nOoh yeah, I'm a wild one\n\n[Chorus]\nGot to break it loose\nGoing to keep them moving wild\nGoing to keep a swinging baby\nI'm a real wild child\n\n[Verse 2]\nGoing to meet all my friends\nGoing to have ourself a ball\nGoing to tell my friends\nGoing to tell them all\nThat I'm a wild one\nOoh yeah, I'm a wild one\n\n[Chorus]\nGot to break it loose\nGoing to keep them moving wild\nGoing to keep a swinging baby\nI'm a real wild child\n[Verse 3]\nI'm a real wild one\nAnd I like a wild fun\nIn a world gone crazy\nEverything seems hazy\nI'm a wild one\nOoh yeah, I'm a wild one\n\n[Chorus]\nGot to break it loose\nGoing to keep them moving wild\nGoing to keep a swinging baby\nI'm a real wild child\n\n[Bridge]\nI'm a wild one\nI'm a wild one\nI'm a wild one\nOh baby\nI'm a wild one\n\n[Chorus]\nGot to break it loose\nGoing to keep them moving wild\nGoing to keep a swinging baby\nI'm a real wild child", 'annotations': {'description': '', 'producers': [{'name': 'David Bowie', 'url': 'https://genius.com/artists/David-bowie'}, {'name': 'David Richards', 'url': 'https://genius.com/artists/David-richards'}], 'writers': [{'name': 'Dave Owens', 'url': 'https://genius.com/artists/Dave-owens'}, {'name': 'Johnny Greenan', 'url': 'https://genius.com/artists/Johnny-greenan'}, {'name': 'Johnny O’Keefe', 'url': 'https://genius.com/artists/Johnny-okeefe'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Linkin-park-numb-lyrics', 'lyrics': "[Verse 1: Chester Bennington]\nI'm tired of being what you want me to be\nFeeling so faithless, lost under the surface\nI don't know what you're expecting of me\nPut under the pressure of walking in your shoes\n\n[Pre-Chorus: Chester Bennington &amp; Mike Shinoda]\nCaught in the undertow, just caught in the undertow\nEvery step that I take is another mistake to you\nCaught in the undertow, just caught in the undertow\n\n[Chorus: Chester Bennington]\nI've become so numb, I can't feel you there\nBecome so tired, so much more aware\nI'm becoming this, all I want to do\nIs be more like me and be less like you\n\n[Verse 2: Chester Bennington]\nCan't you see that you're smothering me?\nHolding too tightly, afraid to lose control\n'Cause everything that you thought I would be\nHas fallen apart, right in front of you\n\n[Pre-Chorus: Chester Bennington &amp; Mike Shinoda]\nCaught in the undertow, just caught in the undertow\nEvery step that I take is another mistake to you\nCaught in the undertow, just caught in the undertow\nAnd every second I waste is more than I can take\n[Chorus: Chester Bennington]\nI've become so numb, I can't feel you there\nBecome so tired, so much more aware\nI'm becoming this, all I want to do\nIs be more like me and be less like you\n\n[Bridge: Chester Bennington]\nAnd I know I may end up failing, too\nBut I know you were just like me\nWith someone disappointed in you\n\n[Chorus: Chester Bennington]\nI've become so numb, I can't feel you there\nBecome so tired, so much more aware\nI'm becoming this, all I want to do\nIs be more like me and be less like you\n\n[Outro: Chester Bennington]\nI've become so numb, I can't feel you there\nI'm tired of being what you want me to be\nI've become so numb, I can't feel you there\nI'm tired of being what you want me to be", 'annotations': {'description': '&lt;p&gt;“Numb” is the third single and the final track of &lt;a href="https://genius.com/artists/Linkin-park" rel="noopener" data-api_path="/artists/1581"&gt;Linkin Park&lt;/a&gt;’s second studio album, &lt;em&gt;&lt;a href="https://genius.com/albums/Linkin-park/Meteora" rel="noopener" data-api_path="/albums/5986"&gt;Meteora&lt;/a&gt;&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;One of Linkin Park’s most well known and critically acclaimed songs, “Numb” topped the Billboard Hot Modern Rock Tracks chart for 12 weeks. The song spent six weeks at the top of the chart in 2003 and six weeks in 2004, making it the only song in history to be the most successful song of the year on the Hot Modern Rock Tracks chart for two years. The song also spent three weeks atop the Billboard Hot Mainstream Rock Tracks chart and peaked at #11 on the Billboard Hot 100.&lt;/p&gt;\n\n&lt;p&gt;The song was later combined with Jay-Z’s song &lt;a href="https://genius.com/Jay-z-encore-lyrics" rel="noopener" data-api_path="/songs/816"&gt;“Encore”&lt;/a&gt; to create “Numb/Encore”, a massive hit for both artists which was featured on the album Collision Course and earned them the Grammy Award for Best Rap/Sung Collaboration. “Numb” was ranked #95 on Rhapsody’s list of the Top 100 Tracks of the Decade.&lt;/p&gt;\n\n&lt;p&gt;On November 8, 2018, the music video on YouTube reached 1B views and is the first Linkin Park music video to reach 1B views.&lt;/p&gt;\n\n&lt;p&gt;&lt;small&gt;(&lt;em&gt;&lt;a href="http://en.wikipedia.org/wiki/Numb_%28Linkin_Park_song%29" rel="noopener nofollow"&gt;Source&lt;/a&gt;&lt;/em&gt;)&lt;/small&gt;&lt;/p&gt;', 'producers': [{'name': 'Linkin Park', 'url': 'https://genius.com/artists/Linkin-park'}, {'name': 'Don Gilmore', 'url': 'https://genius.com/artists/Don-gilmore'}], 'writers': [{'name': 'Linkin Park', 'url': 'https://genius.com/artists/Linkin-park'}, {'name': 'Mr. Hahn', 'url': 'https://genius.com/artists/Mr-hahn'}, {'name': 'Dave Farrell', 'url': 'https://genius.com/artists/Dave-farrell'}, {'name': 'Rob Bourdon', 'url': 'https://genius.com/artists/Rob-bourdon'}, {'name': 'Brad Delson', 'url': 'https://genius.com/artists/Brad-delson'}, {'name': 'Mike Shinoda', 'url': 'https://genius.com/artists/Mike-shinoda'}, {'name': 'Chester Bennington', 'url': 'https://genius.com/artists/Chester-bennington'}], 'labels': [{'name': 'Warner Records', 'url': 'https://genius.com/artists/Warner-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Coldplay-a-sky-full-of-stars-lyrics', 'lyrics': "[Verse 1]\n'Cause you're a sky, 'cause you're a sky full of stars\nI'm gonna give you my heart\n'Cause you're a sky, 'cause you're a sky full of stars\n'Cause you light up the path\n\n[Chorus]\nI don't care, go on and tear me apart\nI don't care if you do, ooh-ooh, ooh\n'Cause in a sky, 'cause in a sky full of stars\nI think I saw you ooh-ooh-ooh, ooh-ooh-ooh\n\n[Verse 2]\n'Cause you're a sky, 'cause you're a sky full of stars\nI wanna die in your arms, oh-oh-oh, oh-oh\n'Cause you get lighter the more it gets dark\nI'm gonna give you my heart, oh\n\n[Chorus]\nI don't care, go on and tear me apart\nI don't care if you do, ooh-ooh, ooh\n'Cause in a sky, 'cause in a sky full of stars\nI think I see you ooh-ooh-ooh, ooh-ooh-ooh\nI think I see you ooh-ooh-ooh, ooh-ooh-ooh\n\n[Outro]\n'Cause you're a sky, you're a sky full of stars\nSuch a heavenly view\nYou're such a heavenly view\n(Yeah, yeah, yeah, ooh)", 'annotations': {'description': '&lt;p&gt;&lt;img src="https://images.rapgenius.com/a6004d1e25c807f9c72f102e218ebad0.680x588x1.jpg" alt="" width="680" height="588" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;One of Coldplay’s most hyped tracks ever, described by attendees of Coldplay’s secret &lt;em&gt;Ghost Stories&lt;/em&gt; shows as “&lt;a href="http://www.coldplaying.com/forum/threads/99256-A-Sky-Full-Of-Stars!!-%28Out-now-See-first-post%29?p=5630418&amp;amp;viewfull=1#post5630418" rel="noopener nofollow"&gt;wonderfully produced&lt;/a&gt;” and “&lt;a href="http://www.coldplaying.com/forum/threads/99256-A-Sky-Full-Of-Stars!!-%28Out-now-See-first-post%29?p=5630437&amp;amp;viewfull=1#post5630437" rel="noopener nofollow"&gt;upbeat, happy, makes you want to stand up and dance&lt;/a&gt;,” “A Sky Full of Stars” is the centerpiece of &lt;em&gt;Ghost Stories&lt;/em&gt;, bringing the emotional treadmill to an explosive climax.&lt;/p&gt;\n\n&lt;p&gt;The track was released as Coldplay’s second single from Ghost Stories, after &lt;a href="http://rock.genius.com/Coldplay-magic-lyrics" rel="noopener" data-api_path="/songs/373966"&gt;“Magic,”&lt;/a&gt; with the track premiering on 29 April 2014.&lt;/p&gt;\n\n&lt;p&gt;EDM artist &lt;a href="https://genius.com/artists/Avicii" rel="noopener" data-api_path="/artists/17491"&gt;Avicii&lt;/a&gt; was a primary producer on the track and Chris Martin later revealed in an &lt;a href="http://www.nme.com/news/music/coldplay-149-1247301" rel="noopener nofollow"&gt;interview&lt;/a&gt; that he asked the producer to play the piano parts.&lt;/p&gt;', 'producers': [{'name': 'Avicii', 'url': 'https://genius.com/artists/Avicii'}, {'name': 'Rik Simpson', 'url': 'https://genius.com/artists/Rik-simpson'}, {'name': 'Daniel Green', 'url': 'https://genius.com/artists/Daniel-green'}, {'name': 'Paul Epworth', 'url': 'https://genius.com/artists/Paul-epworth'}, {'name': 'Coldplay', 'url': 'https://genius.com/artists/Coldplay'}], 'writers': [{'name': 'Will Champion', 'url': 'https://genius.com/artists/Will-champion'}, {'name': 'Jonny Buckland', 'url': 'https://genius.com/artists/Jonny-buckland'}, {'name': 'Guy Berryman', 'url': 'https://genius.com/artists/Guy-berryman'}, {'name': 'Avicii', 'url': 'https://genius.com/artists/Avicii'}, {'name': 'Chris Martin', 'url': 'https://genius.com/artists/Chris-martin'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Stardust-music-sounds-better-with-you-lyrics', 'lyrics': '[repeated ad infinitum]\nOoh, baby\nI feel right, the music sounds better with you\nLove might bring us back together\nI feel so good\nI feel right, the music sounds better with you\nLove might bring us back together', 'annotations': {'description': '&lt;p&gt;“Music Sounds Better with You” was the only song released by Stardust, a French House-music collaboration between Thomas Bangalter &lt;a href="https://genius.com/artists/Daft-punk" rel="noopener" data-api_path="/artists/13585"&gt;(of Daft Punk)&lt;/a&gt;, Benjamin Cohen, and Alain Quême; the piece samples the song &lt;a href="http://www.youtube.com/watch?v=eFQdCRQd3yg" rel="noopener nofollow"&gt;“Fate”&lt;/a&gt; by Chaka Khan&lt;/p&gt;\n\n&lt;p&gt;Daft Punk would later use the Stardust work in &lt;a href="http://www.youtube.com/watch?v=dSiP835j2es" rel="noopener nofollow"&gt;the encore mashup&lt;/a&gt; they played during the Alive 2007 tour.&lt;/p&gt;', 'producers': [{'name': 'Thomas Bangalter', 'url': 'https://genius.com/artists/Thomas-bangalter'}], 'writers': [{'name': 'Dominic Bugatti', 'url': 'https://genius.com/artists/Dominic-bugatti'}, {'name': 'Frank Musker', 'url': 'https://genius.com/artists/Frank-musker'}, {'name': 'Benjamin Diamond', 'url': 'https://genius.com/artists/Benjamin-diamond'}, {'name': 'Alan Braxe', 'url': 'https://genius.com/artists/Alan-braxe'}, {'name': 'Thomas Bangalter', 'url': 'https://genius.com/artists/Thomas-bangalter'}], 'labels': [{'name': 'Roulé', 'url': 'https://genius.com/artists/Roule'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Nirvana-sliver-lyrics', 'lyrics': '[Verse 1]\nWhen Mom and Dad went to a show\nThey dropped me off at grandpa Joe\'s\nI kicked and screamed\nSaid, "Please, don\'t go!"\n\n[Chorus]\nGrandma, take me home!\nGrandma, take me home!\nGrandma, take me home!\nGrandma, take me home!\nGrandma, take me home!\nGrandma, take me home!\nGrandma, take me home!\nGrandma, take me home!\n\n[Verse 2]\nHad to eat my dinner there\nMashed potatoes and stuff like that\nI couldn\'t chew my meat too good\n\n[Chorus]\nGrandma, take me home!\nGrandma, take me home!\nGrandma, take me home!\nGrandma, take me home!\nGrandma, take me home!\nGrandma, take me home!\nGrandma, take me home!\nGrandma, take me home!\n[Verse 3]\nShe said, "Why don\'t you stop your crying?\nGo outside and ride your bike"\nThat\'s what I did\nI killed my toe!\n\n[Chorus]\nGrandma, take me home!\nGrandma, take me home!\nGrandma, take me home!\nGrandma, take me home!\nGrandma, take me home!\nGrandma, take me home!\nGrandma, take me home!\nGrandma, take me home!\n\n[Verse 4]\nWell, after dinner I had ice cream\nI fell asleep and watched TV\nI woke up in my mother\'s arms\n\n[Chorus]\nGrandma, take me home!\nGrandma, take me home!\nGrandma, take me home!\nGrandma, take me home!\nGrandma, take me home!\nGrandma, take me home!\nGrandma, take me home!\nGrandma, take me home!\nGrandma, take me home!\nGrandma, take me home!\nGrandma, take me home!\nGrandma, take me home!\nGrandma, take me home!\nGrandma, take me home!\nGrandma, take me home!\nGrandma, take me home!\nGrandma, take me home!\nGrandma, take me home!\nI wanna be alone!', 'annotations': {'description': '&lt;p&gt;“Sliver” is about a child whose parents are going to a show, so they drop him off at his grandparents\' house. It features drummer Dan Peters of &lt;a href="https://genius.com/artists/Mudhoney" rel="noopener" data-api_path="/artists/10400"&gt;Mudhoney&lt;/a&gt;, while the music video, filmed years later, has &lt;a href="https://genius.com/artists/Dave-grohl" rel="noopener" data-api_path="/artists/110465"&gt;Dave Grohl&lt;/a&gt; behind the drums.&lt;/p&gt;\n\n&lt;p&gt;“Sliver” was recorded on July 11, 1990, and Grohl joined Nirvana two months later.&lt;/p&gt;', 'producers': [{'name': 'Jack Endino', 'url': 'https://genius.com/artists/Jack-endino'}], 'writers': [{'name': 'Kurt Cobain', 'url': 'https://genius.com/artists/Kurt-cobain'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Ellie-goulding-love-me-like-you-do-lyrics', 'lyrics': "[Produced by Max Martin]\n\n[Verse 1]\nYou're the light, you're the night\nYou're the colour of my blood\nYou're the cure, you're the pain\nYou're the only thing I wanna touch\nNever knew that it could mean so much, so much\n\n[Verse 2]\nYou're the fear, I don't care\nCause I've never been so high\nFollow me through the dark\nLet me take you past the satellites\nYou can see the world you brought to life, to life\n\n[Chorus]\nSo love me like you do, la-la-love me like you do\nLove me like you do, la-la-love me like you do\nTouch me like you do, ta-ta-touch me like you do\nWhat are you waiting for?\n\n[Verse 3]\nFading in, fading out\nOn the edge of paradise\nEvery inch of your skin is a Holy Grail I've got to find\nOnly you can set my heart on fire, on fire\nYeah\n[Bridge]\nI'll let you set the pace\nCause I'm not thinking straight\nMy head's spinning around, I can't see clear no more\nWhat are you waiting for?\n\n[Chorus]\nLove me like you do, la-la-love me like you do\nLove me like you do, la-la-love me like you do\nTouch me like you do, ta-ta-touch me like you do\nWhat are you waiting for?\nLove me like you do, la-la-love me like you do\nLove me like you do, la-la-love me like you do\nTouch me like you do, ta-ta-touch me like you do\nWhat are you waiting for?\n\n[Bridge]\nI'll let you set the pace\nCause I'm not thinking straight\nMy head's spinning around, I can't see clear no more\nWhat are you waiting for?\n\n[Chorus]\nLove me like you do, la-la-love me like you do\nLove me like you do, la-la-love me like you do\nTouch me like you do, ta-ta-touch me like you do\nWhat are you waiting for?\nLove me like you do, la-la-love me like you do\nLove me like you do, la-la-love me like you do\nTouch me like you do, ta-ta-touch me like you do\nWhat are you waiting for?", 'annotations': {'description': '&lt;p&gt;In this second single from the &lt;em&gt;Fifty Shades of Grey&lt;/em&gt; film soundtrack, Ellie Goulding channels the character Anastasia Steele’s passion and desire.&lt;/p&gt;\n\n&lt;p&gt;Writing about this track in &lt;em&gt;the Daily News,&lt;/em&gt; &lt;a href="http://www.nydailynews.com/entertainment/music/review-ellie-goulding-releases-love-article-1.2069107" rel="noopener nofollow"&gt;Jim Farber wrote&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;With her little-girl-lost voice, Goulding sounds sweet even when she’s courting danger. The music, likewise, goes for a high gloss take on romance, recalling the heavily echoed beats and dense synthesizers of a Phil Collins ballad from the ‘80s.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;The song spent four weeks at #1 on the UK singles chart and hit number three of the Billboard Top 100 in the US. &lt;a href="https://genius.com/artists/Vaults" rel="noopener" data-api_path="/artists/73650"&gt;Vaults&lt;/a&gt; made a remix that &lt;a href="https://soundcloud.com/vaults/ellie-goulding-love-me-like-you-do-vaults-remix" rel="noopener nofollow"&gt;Ellie reposted on her SoundCloud&lt;/a&gt;. Later, it was included on her third album &lt;em&gt;Delirium&lt;/em&gt;.&lt;/p&gt;', 'producers': [{'name': 'Ali Payami', 'url': 'https://genius.com/artists/Ali-payami'}, {'name': 'Max Martin', 'url': 'https://genius.com/artists/Max-martin'}], 'writers': [{'name': 'ILYA', 'url': 'https://genius.com/artists/Ilya'}, {'name': 'Tove Lo', 'url': 'https://genius.com/artists/Tove-lo'}, {'name': 'Ali Payami', 'url': 'https://genius.com/artists/Ali-payami'}, {'name': 'Savan Kotecha', 'url': 'https://genius.com/artists/Savan-kotecha'}, {'name': 'Max Martin', 'url': 'https://genius.com/artists/Max-martin'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/U2-i-still-havent-found-what-im-looking-for-lyrics', 'lyrics': "[Verse 1]\nI have climbed the highest mountains\nI have run through the fields\nOnly to be with you\nOnly to be with you\nI have run, I have crawled\nI have scaled these city walls\nThese city walls\nOnly to be with you\n\n[Chorus]\nBut I still haven't found\nWhat I'm looking for\nBut I still haven't found\nWhat I'm looking for\n\n[Verse 2]\nI have kissed honey lips\nFelt the healing in her fingertips\nIt burned like fire\nThis burning desire\nI have spoke with the tongue of angels\nI have held the hand of a devil\nIt was warm in the night\nI was cold as a stone\n[Chorus]\nBut I still haven't found\nWhat I'm looking for\nBut I still haven't found\nWhat I'm looking for\n\n[Instrumental Bridge]\n\n[Verse 3]\nI believe in the Kingdom Come\nThen all the colours will bleed into one\nBleed into one\nBut yes, I'm still running\nYou broke the bonds and you loosed the chains\nCarried the cross of my shame\nOf my shame\nYou know I believe it\n\n[Chorus]\nBut I still haven't found\nWhat I'm looking for\nBut I still haven't found\nWhat I'm looking for\nBut I still haven't found\nWhat I'm looking for\nBut I still haven't found\nWhat I'm looking for\n[Instrumental Outro]", 'annotations': {'description': '&lt;p&gt;“I Still Haven’t Found What I’m Looking For” is the second single taken from U2’s 1987 album &lt;em&gt;The Joshua Tree&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;It’s written in the writing style of King David, specifically from the poems recorded in the Book of Psalms in the Old Testament. The lyricism also emulates Charles Bukowski’s poetry, who Bono was reading at the time.&lt;/p&gt;\n\n&lt;p&gt;The subject Bono is searching for is left without description – he doesn’t tell us what he’s pursuing, just that he is searching with a single-minded focus and great longing. This section is written in a nearly identical style to the writings of David.&lt;/p&gt;\n\n&lt;p&gt;There are many allusions in the later stanzas Christian and romantic, sensual and in the last stanza a declaration of the narrator’s worldview and personal beliefs, but he also tells his audience that he has not reached his destination and is still looking to be with ‘the you’ he mentions in the beginning of the song.&lt;/p&gt;', 'producers': [{'name': 'Daniel Lanois', 'url': 'https://genius.com/artists/Daniel-lanois'}, {'name': 'Brian Eno', 'url': 'https://genius.com/artists/Brian-eno'}], 'writers': [{'name': 'Larry Mullen Jr.', 'url': 'https://genius.com/artists/Larry-mullen-jr'}, {'name': 'Adam Clayton', 'url': 'https://genius.com/artists/Adam-clayton'}, {'name': 'The Edge (Guitarist)', 'url': 'https://genius.com/artists/The-edge-guitarist'}, {'name': 'Bono', 'url': 'https://genius.com/artists/Bono'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Irene-cara-flashdance-what-a-feeling-lyrics', 'lyrics': "[Intro]\nFirst, when there's nothing, but a slow glowing dream\nThat your fear seems to hide deep inside your mind\nAll alone, I have cried, silent tears full of pride\nIn a world made of steel, made of stone\n\n[Verse 1]\nWell, I hear the music, close my eyes, feel the rhythm\nWrap around, take a hold of my heart\n\n[Chorus]\nWhat a feelin', being's believin'\nI can have it all, now I'm dancing for my life\nTake your passion, and make it happen\nPictures come alive, you can dance right through your life\n\n[Verse 2]\nNow I hear the music, close my eyes, I am rhythm\nIn a flash, it takes hold of my heart\n\n[Chorus]\nWhat a feelin', being's believin'\nI can have it all, now I'm dancing for my life\nTake your passion, and make it happen\nPictures come alive, now I'm dancing through my life\n[Interlude]\nWhat a feelin'\n\n[Instrumental Break]\n\n[Chorus / Outro]\nWhat a feelin', being's believin' (I am music now, I am rhythm now)\nPictures come alive, you can dance right through your life\n\nWhat a feelin', what a feelin'\n(I can really have it all, pictures come alive when I call)\nI can have it all, have it all\n(I can really have it all, pictures come alive when I call)\n\n(Call, call, call, call, what a feelin')\nI can have it all\nBeing's believin' (Being's believin', take your passion)\nMake it happen, what a feelin' (Make it happen, what a feelin')", 'annotations': {'description': '&lt;p&gt;“Flashdance… What a Feeling” is the title song to the 1983 film &lt;em&gt;Flashdance&lt;/em&gt;. It is Irene Cara’s only number-one hit on the Billboard Hot 100, reaching the top that spring. It also won the Academy and Golden Globe Award for &lt;em&gt;Best Original Song&lt;/em&gt; and was certified gold.&lt;/p&gt;\n\n&lt;p&gt;The song also hit #1 in nine more countries around the world. In the UK, it reached #2, held from the top spot by Rod Stewart’s “Baby Jane”.&lt;/p&gt;\n\n&lt;p&gt;Cara and co-writer Keith Forsey wrote the lyrics while driving to a recording session.&lt;/p&gt;', 'producers': [{'name': 'Giorgio Moroder', 'url': 'https://genius.com/artists/Giorgio-moroder'}], 'writers': [{'name': 'Giorgio Moroder', 'url': 'https://genius.com/artists/Giorgio-moroder'}, {'name': 'Keith Forsey', 'url': 'https://genius.com/artists/Keith-forsey'}, {'name': 'Irene Cara', 'url': 'https://genius.com/artists/Irene-cara'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Mgmt-kids-lyrics', 'lyrics': "[Intro]\nFive, four, three, two, one, ah!\n\n[Verse 1]\nYou were a child crawling on your knees toward it\nMaking mama so proud, but your voice is too loud\nWe like to watch you laughing\nYou pick the insects off plants, no time to think of consequences\n\n[Chorus]\nControl yourself, take only what you need from it\nA family of trees wanted to be haunted\nControl yourself, take only what you need from it\nA family of trees wanted to be haunted\n\n[Verse 2]\nThe water is warm, but it's sending me shivers\nA baby is born crying out for attention\nThe memories fade like looking through a fogged mirror\nDecision to decisions are made and not bought\nBut I thought this wouldn't hurt a lot, I guess not\n\n[Chorus]\nControl yourself, take only what you need from it\nA family of trees wanted to be haunted\nControl yourself, take only what you need from it\nA family of trees wanted to be haunted\n[Instrumental Break]\n\n[Chorus]\nControl yourself, take only what you need from it\nA family of trees wanted to be haunted\nControl yourself, take only what you need from it\nA family of trees wanted to be haunted\nControl yourself, take only what you need from it\nA family of trees wanted to be haunted\nControl yourself, take only what you need from it\nA family of trees", 'annotations': {'description': '&lt;p&gt;“Kids” is a song that teaches empathy and moderation. As the track begins, it is meant to induce feelings of nostalgia, to bring the listener back to much simpler times… as a kid… innocent. As the melody progresses, so does the next stage of life. As you grow older, you begin to lose your innocence and fall into society’s ways. The artists warn of the impending struggle between good and bad and remind the listener to take in the world around them in moderation. As one grows older, they must try to maintain the happy-go-lucky attitude and love for the life they had as a kid.&lt;/p&gt;\n\n&lt;p&gt;The song is perfect for recognizing that the entirety of your youth is the glory days (especially your collegiate years), remembering to live in the moment and creating fond memories you will reminisce about in the future whenever you hear the familiar melody.&lt;/p&gt;\n\n&lt;p&gt;In an interview with Time Out London, Wyngarden describes the band’s mentality when writing the song: “We were just happy-go-lucky, going crazy on campus. But at the same time, we were nostalgic for childhood and there was the threat of post-college life coming.”&lt;/p&gt;\n\n&lt;p&gt;The “threat” of “post-college life” is surely a reference to impending adulthood. With that in mind, it makes a lot of sense that almost all of the adults in the official music video are portrayed as threatening monsters. In the end, it seems like MGMT is constantly inspired by this fear of growing up. Like Nietzsche and Twain (also referenced in the official music video) they express a cynicism for the adult world. Many of their songs are drenched with a nostalgia for the lost innocence of childhood that the adult world tends to steal away. “Kids” is a great example of all this. Sure, the song is upbeat, a bit random, and super catchy, but its meaning seems to be grounded in these universal emotions of fear and longing.&lt;/p&gt;\n\n&lt;p&gt;The song was the center of a &lt;a href="http://www.nme.com/news/mgmt/43064" rel="noopener nofollow"&gt;legal dispute with the former President of France&lt;/a&gt;, Nicolas Sarkozy, over the “insulting” compensation he offered for his illegal use of the song during a party conference (meanwhile, MGMT donated their entire legal settlement from the French government to Haiti earthquake relief)&lt;/p&gt;', 'producers': [{'name': 'MGMT', 'url': 'https://genius.com/artists/Mgmt'}, {'name': 'Dave Fridmann', 'url': 'https://genius.com/artists/Dave-fridmann'}], 'writers': [{'name': 'Ben Goldwasser', 'url': 'https://genius.com/artists/Ben-goldwasser'}, {'name': 'Andrew VanWyngarden', 'url': 'https://genius.com/artists/Andrew-vanwyngarden'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Metro-station-shake-it-lyrics', 'lyrics': "[Intro]\nThe Shot\nYeah, come on\n(Shake, shake)\n\n[Verse 1]\nI'll take you home if you don't leave me at the front door (Leave me at the front door)\nYour body's cold, but girl, we're getting so warm\nAnd I was thinking of ways that I could get inside (Get inside)\n\n[Pre-Chorus]\nTonight, you're falling in love (Let me go now)\nThis feeling's tearing me up (Here we go now)\n\n[Chorus]\nNow if she does it like this, will you do it like that?\nNow if she touches like this, will you touch her right back?\nNow if she moves like this, will you move her like that?\nC'mon, shake shake, shake shake, a-shake it\nShake shake, shake shake, a-shake that\nShake shake, shake shake, a-shake it\nShake shake, shake shake, a-shake that\nShake shake, shake shake, a-shake it\n\n[Verse 2]\nYour lips tremble, but your eyes are in a straight stare (Eyes are in a straight stare)\nWe're on the bed, but your clothes are laying right there\nAnd I was thinking of places that I could hide (I could hide)\n[Pre-Chorus]\nTonight you're falling in love (Let me go now)\nThis feeling's tearing me up (Here we go now)\n\n[Chorus]\nNow if she does it like this, will you do it like that?\nNow if she touches like this, will you touch her right back?\nNow if she moves like this, will you move her like that?\nC'mon, shake shake, shake shake, a-shake it\nShake shake, shake shake, a-shake that\nShake shake, shake shake, a-shake it\nShake shake, shake shake, a-shake that\nShake shake, shake shake, a-shake it\n\n[Bridge]\nI saw you dancing and I couldn't get you off my mind\nAnd I could tell that you could tell that I was taking my time\nBut I was thinking of ways to get you staying the night\nYour body's shaking, tell me off so I can turn off the lights\n\n[Chorus]\nNow if she does it like this, will you do it like that?\nNow if she touches like this, will you touch her right back?\nNow if she moves like this, will you move her like that?\nC'mon, shake shake, shake shake, a-shake it\nShake shake, shake shake, a-shake that\nShake shake, shake shake, a-shake it\nShake shake, shake shake, a-shake that\nShake shake, shake shake, a-shake it\n[Outro]\nShake shake, shake shake, a-shake it\nShake shake, shake shake, a-shake it\nShake shake, shake shake, a-shake it\nShake shake, shake shake, a-shake it", 'annotations': {'description': '&lt;p&gt;“Shake It” is the fourth track off Metro Station’s debut self titled album. The song was a huge commercial success, with the single reaching a 2x platinum certification in the US.&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;&lt;em&gt;Let me paint a picture for you. You’re in 8th grade at the school dance. You and your homeboys are posted up on the wall. Directly across the room on the other wall is all the girls. Now everyone wants to dance but you’re all too afraid to make the first move. You’re eying that girl you have a huge crush on, thinking of what you could possibly say to her. Then it happens. The DJ drops that one perfect song. Girls are screaming “omg this is literally my song” and running to the dance floor. You and your homies are off the wall; it’s go time. Sure, this song is clearly written by someone who has no idea how sex works. “If she does it like this will you do it like that, seriously guys how do you do it someone tell me I’m very confused” But no matter. This is your song, your moment. This is Metro Station.&lt;/em&gt;&lt;/p&gt;&lt;/blockquote&gt;', 'producers': [{'name': 'S*A*M and Sluggo', 'url': 'https://genius.com/artists/Sam-and-sluggo'}, {'name': 'Dave Katz', 'url': 'https://genius.com/artists/Dave-katz'}, {'name': 'Sam Hollander', 'url': 'https://genius.com/artists/Sam-hollander'}], 'writers': [{'name': 'Anthony Improgo', 'url': 'https://genius.com/artists/Anthony-improgo'}, {'name': 'Blake Healy', 'url': 'https://genius.com/artists/Blake-healy'}, {'name': 'Mason Musso', 'url': 'https://genius.com/artists/Mason-musso'}, {'name': 'Trace Cyrus', 'url': 'https://genius.com/artists/Trace-cyrus'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Palaye-royale-tonight-is-the-night-i-die-lyrics', 'lyrics': "[Intro]\nTonight is the night I die\n\n[Verse 1]\nLonely, another day\nDrowning, please save me\nI am struggling in my\u2005own\u2005daydream\n\n[Pre-Chorus]\nI know I\u2005can't live much longer\nHear the angels\u2005sing\n\n[Chorus]\nTonight is the night I die\nTonight is the night I die\nTonight is the night I\n\n[Verse 2]\nSurrender to my pain, locked inside my cage\nCould I be a prisoner for the voices in my brain?\nMy mind is gone to waste, can't stand to look at my face\nAll these thoughts inside my head, be silenced by the bang\n\n[Pre-Chorus]\nI know I can't live much longer\nHear the angels sing\n[Chorus]\nTonight is the night I die\n(Believe me, believe me when I say)\nTonight is the night I die\n(Believe me, believe me when I say)\nTonight is the night I die\n\n[Post-Chorus]\nDie another day\nWhat they want me to say\nWhat they want me to say\nDie another day\nDie another day\nDie another day\nTonight is the night I die\n\n[Bridge]\nAs I walk through the valley of the shadow of death\nI look at you as I take my last breath\nAs I die and fall to the floor\nMy pain and suffering is no more\n\n[Chorus]\nTonight is the night I die\n(Believe me, believe me when I say)\nTonight is the night I die\n(Believe me, believe me when I say)\nTonight is the night I die\n[Post-Chorus]\nDie another day\nWhat they want me to say\nWhat they want me to say\nDie another day\nDie another day\nDie another day\nTonight is the night I die\nTonight is the night I die", 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Tonight Is The Night I Die&lt;/em&gt; is the fourth track off of Palaye Royale’s album entitled &lt;em&gt;The Bastards.&lt;/em&gt; A preview of the song was shown on May 1, 2020 as part of the trailer for upcoming TV show &lt;em&gt;Paradise City.&lt;/em&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;/p&gt;&lt;div class="embedly_preview"&gt;\n&lt;blockquote class="twitter-tweet"&gt;&lt;a href="https://twitter.com/palayeroyale/status/1256324512078954497?ref_src=embedly"&gt;&lt;/a&gt;&lt;/blockquote&gt;\n&lt;script async src="//platform.twitter.com/widgets.js" charset="utf-8"&gt;&lt;/script&gt;\n&lt;/div&gt;', 'producers': [{'name': 'Matthew Pauling', 'url': 'https://genius.com/artists/Matthew-pauling'}], 'writers': [{'name': 'Palaye Royale', 'url': 'https://genius.com/artists/Palaye-royale'}], 'labels': [{'name': 'Sumerian Records', 'url': 'https://genius.com/artists/Sumerian-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Ariana-grande-no-tears-left-to-cry-lyrics', 'lyrics': "[Intro]\nRight now, I'm in a state of mind\nI wanna be in like all the time\nAin't got no tears left to cry\nSo I'm pickin' it up, pickin' it up\nI'm lovin', I'm livin' (Oh hey), I'm pickin' it up\nI'm pickin' it up, pickin' it up (Yeah)\nI'm lovin', I'm livin', I'm pickin' it up (Oh, yeah)\n\n[Refrain]\nI'm pickin' it up (Yeah), pickin' it up (Yeah)\nLovin', I'm livin', so we turnin' up (We turnin' it up)\nYeah, we turnin' it up\n\n[Verse 1]\nAin't got no tears in my body\nI ran out, but boy, I like it, I like it, I like it\nDon't matter how, what, where, who tries it\nWe out here vibin', we vibin', we vibin'\n\n[Pre-Chorus]\nComin' out, even when it's rainin' down\nCan't stop now, can't stop so shut your mouth\nShut your mouth, and if you don't know\nThen now you know it, babe\nKnow it, babe, yeah\n[Chorus]\nRight now, I'm in a state of mind\nI wanna be in like all the time\nAin't got no tears left to cry\nSo I'm pickin' it up, pickin' it up (Oh yeah)\nI'm lovin', I'm livin', I'm pickin' it up\nOh, I just want you to come with me (Ooh)\nWe're on another mentality\nAin't got no tears left to cry (To cry)\nSo I'm pickin' it up, pickin' it up (Oh yeah)\nI'm lovin', I'm livin', I'm pickin' it up (Oh)\n\n[Refrain]\nPickin' it up (Yeah), pickin' it up (Yeah)\nLovin', I'm livin', so we turnin' up (We turnin' it up)\nYeah, we turnin' it up\n\n[Verse 2]\nThey point out the colors in you, I see 'em too\nAnd, boy, I like 'em, I like 'em, I like 'em\nWe're way too fly to partake in all this hate\nWe out here vibin', we vibin', we vibin'\n\n[Pre-Chorus]\nComin' out, even when it's rainin' down\nCan't stop now, can't stop, so shut your mouth\nShut your mouth, and if you don't know\nThen now you know it, babe\nKnow it, babe, yeah\n[Chorus]\nRight now, I'm in a state of mind\nI wanna be in like all the time\nAin't got no tears left to cry\nSo I'm pickin' it up, pickin' it up (Oh yeah)\nI'm lovin', I'm livin', I'm pickin' it up\nOh, I just want you to come with me (Ooh)\nWe're on another mentality\nAin't got no tears left to cry (To cry)\nSo I'm pickin' it up, pickin' it up (Oh yeah)\nI'm lovin', I'm livin', I'm pickin' it up\n\n[Bridge]\nComin' out, even when it's rainin' down\nCan't stop now (Hmm, oh)\nShut your mouth\nAin't got no tears left to cry\nOh-yeah, oh, yeah\n\n[Chorus]\nOh, I just want you to come with me (Me)\nWe're on another mentality\nAin't got no tears left to cry (Cry)\nSo I'm pickin' it up (Yeah), pickin' it up (Oh, yeah)\nI'm lovin', I'm livin', I'm pickin' it up (Pickin' it up)\n[Refrain]\nPickin' it up (Hmm), pickin' it up (Hmm)\nLovin', I'm livin', so we turnin' up (Hmm)\nYeah, we turnin' it up", 'annotations': {'description': '&lt;p&gt;“no tears left to cry” is a self-lifting anthem by pop songstress Ariana Grande. This is the lead single to her fourth studio album, &lt;em&gt;&lt;a href="https://genius.com/albums/Ariana-grande/Sweetener" rel="noopener" data-api_path="/albums/393916"&gt;Sweetener&lt;/a&gt;&lt;/em&gt;. It also marks Ariana’s return to music after a hiatus from performing in the wake of the &lt;a href="https://www.theguardian.com/uk-news/2017/jun/04/grande-return-ariana-takes-manchester-stage-at-benefit-concert" rel="noopener nofollow"&gt;2017 Manchester bombing attack&lt;/a&gt; that occurred during her &lt;em&gt;Dangerous Woman Tour&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;After teasing the single through a series of photos taken of her wearing a sweatshirt with the lead single’s title and through her &lt;a href="https://pbs.twimg.com/media/Da24em7UwAA0Tog.jpg:large" rel="noopener nofollow"&gt;Instagram story&lt;/a&gt;, Ariana broke her social media silence to confirm the single &lt;a href="https://twitter.com/ArianaGrande/status/986383824127799296" rel="noopener nofollow"&gt;via her twitter&lt;/a&gt; alongside with teardrop emoji, and stating: &lt;a href="https://twitter.com/ArianaGrande/status/986371301370609665" rel="noopener nofollow"&gt;“missed you”&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;For the single cover, Ariana looks on as a rainbow rests across her eyes. Rainbows are a natural phenomenon that appear after rain, as the sun refracts through the water droplets. Symbolically, a rainbow tends to &lt;a href="https://www.universeofsymbolism.com/rainbow-symbolism.html" rel="noopener nofollow"&gt;represent the idea of hope and optimism&lt;/a&gt;. The image illustrates the idea that Ariana’s teardrops have faded, resulting in the rainbow, and she is ready to move on.&lt;/p&gt;\n\n&lt;p&gt;Her accompanying music video was &lt;a href="https://instagram.com/p/BhxI7IBHzju/" rel="noopener nofollow"&gt;teased on Instagram&lt;/a&gt; on April 19, 2018, and was officially published on Youtube the next day.&lt;/p&gt;', 'producers': [{'name': 'ILYA', 'url': 'https://genius.com/artists/Ilya'}, {'name': 'Max Martin', 'url': 'https://genius.com/artists/Max-martin'}], 'writers': [{'name': 'ILYA', 'url': 'https://genius.com/artists/Ilya'}, {'name': 'Savan Kotecha', 'url': 'https://genius.com/artists/Savan-kotecha'}, {'name': 'Max Martin', 'url': 'https://genius.com/artists/Max-martin'}, {'name': 'Ariana Grande', 'url': 'https://genius.com/artists/Ariana-grande'}], 'labels': [{'name': 'Universal Music Group', 'url': 'https://genius.com/artists/Universal-music-group'}, {'name': 'Republic Records', 'url': 'https://genius.com/artists/Republic-records'}]}}</t>
+  </si>
+  <si>
+    <t>{"url": "https://genius.com/Earth-wind-and-fire-september-lyrics", "lyrics": "[Verse 1]\nDo you remember\nThe 21st night of September?\nLove was changin' the minds of pretenders\nWhile chasin' the clouds away\nOur hearts were ringin'\nIn the key that our souls were singin'\nAs we danced in the night, remember\nHow the stars stole the night away, oh, yeah\n\n[Chorus]\nHey, hey, hey\nBa-dee-ya, say, do you remember?\nBa-dee-ya, dancin' in September\nBa-dee-ya, never was a cloudy day\n\n[Post-Chorus]\nBa-du-da, ba-du-da, ba-du-da, ba-du\nBa-du-da, ba-du, ba-du-da, ba-du\nBa-du-da, ba-du, ba-du-da\n\n[Verse 2]\nMy thoughts are with you\nHoldin' hands with your heart to see you\nOnly blue talk and love, remember\nHow we knew love was here to stay\nNow December\nFound the love that we shared in September\nOnly blue talk and love, remember\nThe true love we share today\n[Chorus]\nHey, hey, hey\nBa-dee-ya, say, do you remember?\nBa-dee-ya, dancin' in September\nBa-dee-ya, never was a cloudy day\nThere was a\u2014\nBa-dee-ya (Dee-ya, dee-ya), say, do you remember?\nBa-dee-ya (Dee-ya, dee-ya), dancin' in September\nBa-dee-ya (Dee-ya, dee-ya), golden dreams were shiny days\n\n[Bridge]\nThe bell was ringin', oh, oh\nOur souls were singin'\nDo you remember never a cloudy day? Yow\n\n[Chorus]\nThere was a\nBa-dee-ya (Dee-ya, dee-ya), say, do you remember?\nBa-dee-ya (Dee-ya, dee-ya), dancin' in September\nBa-dee-ya (Dee-ya, dee-ya), never was a cloudy day\nAnd we'll say\nBa-dee-ya (Dee-ya, dee-ya), say, do you remember?\nBa-dee-ya (Dee-ya, dee-ya), dancin' in September\nBa-dee-ya (Dee ya, dee-ya),  golden dreams were shiny days\n\n[Outro]\nBa-dee-ya, dee-ya, dee-ya\nBa-dee-ya, dee-ya, dee-ya\nBa-dee-ya, dee-ya, dee-ya, dee-ya!\nBa-dee-ya, dee-ya, dee-ya\nBa-dee-ya, dee-ya, dee-ya\nBa-dee-ya, dee-ya, dee-ya, dee-ya!", "annotations": {"description": "&lt;p&gt;In \u201cSeptember,\u201d &lt;a href=\"https://genius.com/artists/Maurice-white\" rel=\"noopener\" data-api_path=\"/artists/69897\"&gt;Maurice White&lt;/a&gt; reminisces over a nostalgic period that took place in the month of September. &lt;/p&gt;\n\n &lt;p&gt;As a joyful classic, the song has appeared in a variety of commercials and &lt;a href=\"https://www.imdb.com/name/nm0247451/\" rel=\"noopener nofollow\"&gt;movies&lt;/a&gt;, and has even served as &lt;a href=\"https://www.imdb.com/title/tt0219636/\" rel=\"noopener nofollow\"&gt;the inspiration for a movie title.&lt;/a&gt; Interest in the song &lt;a href=\"https://www.thenational.ae/arts-culture/music/earth-wind-fire-s-hit-september-survives-the-test-of-time-1.912759\" rel=\"noopener nofollow\"&gt;spikes yearly every September 21&lt;/a&gt;, and more recently &lt;a href=\"https://www.vox.com/2018/9/21/17887990/earth-wind-fire-september-21-meme-demi-adejuyigbe\" rel=\"noopener nofollow\"&gt;the subject of celebration on Twitter.&lt;/a&gt; The song also inspired &lt;a href=\"https://edition.cnn.com/2019/09/21/entertainment/earth-wind-and-fire-day-september-21-trnd/index.html\" rel=\"noopener nofollow\"&gt;the City of Los Angeles to declare that the 21 &lt;sup&gt;st&lt;/sup&gt; of September would be Earth, Wind &amp;amp; Fire Day, &lt;/a&gt; in honor of the band\u2019s connections to the city.&lt;/p&gt;\n\n&lt;p&gt;This 1978 hit became number one on the U.S. R&amp;amp;B chart and reached the eighth position on the &lt;a href=\"https://www.billboard.com/charts/hot-100\" rel=\"noopener nofollow\"&gt;Billboard Hot 100&lt;/a&gt;. It was written by Maurice White, Al McKay, and Allee Willis.&lt;/p&gt;", "producers": [{"name": "Maurice White", "url": "https://genius.com/artists/Maurice-white"}], "writers": [{"name": "Allee Willis", "url": "https://genius.com/artists/Allee-willis"}, {"name": "Al McKay", "url": "https://genius.com/artists/Al-mckay"}, {"name": "Maurice White", "url": "https://genius.com/artists/Maurice-white"}], "labels": [{"name": "American Record Corporation", "url": "https://genius.com/artists/American-record-corporation"}, {"name": "Columbia Records", "url": "https://genius.com/artists/Columbia-records"}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Pitbull-rain-over-me-lyrics', 'lyrics': '[Letra de "Rain Over Me" ft. Marc Anthony]\n\n[Pre-Chorus: Marc Anthony, Pitbull]\nGirl, my body don\'t lie (RedOne)\nI\'m out of my mind\nLet it rain over me (Mr. Worldwide)\nI\'m rising so high\nOut of my mind (Marc Anthony)\nSo let it rain over me (Woo!)\n\n[Chorus: Marc Anthony]\nAy-ay-ay, ay-ay-ay\nLet it rain over me\nAy-ay-ay, ay-ay-ay\nLet it rain over me\n\n[Verse 1: Pitbull]\n(Woo!)\nA billion is a new million\nVoli\'s a new vodka\nForty\'s the new 30 (Ah)\nBaby, you\'re a rockstar (Ha, ha)\nDale, veterana, que tú sabe\'\nMás de la cuenta, no te hagas\nTeach me, baby, or better yet\nFreak me, baby, yes, yes\nI\'m freaky, baby\nI\'ma make sure that your peach feels peachy, baby (Ha, ha, ha)\nNo bullshit broads, I like my women sexy, classy, sassy\nPowerful yes (Yes), they love to get a little bit nasty, ow\nThis ain\'t a game you\'ll see (You\'ll see)\nYou can put the blame on me (On me)\nDale, muñequita, abre ahí and let it rain over me (Woo!)\n[Pre-Chorus: Marc Anthony]\nGirl, my body don\'t lie\nI\'m out of my mind\nLet it rain over me\nI\'m rising so high\nOut of my mind\nSo let it rain over me\n\n[Chorus: Marc Anthony]\nAy-ay-ay, ay-ay-ay\nLet it rain over me\nAy-ay-ay, ay-ay-ay\nLet it rain over me\n\n[Verse 2: Pitbull]\n(Woo!)\nA billion is a new million\nVoli\'s a new vodka\nLatin is the new majority, ya tú sabe\'\nNext step, la Casa Blanca\nNo hay carro, no vamo\' en balsa (Ha, ha, ha)\nMami, you know the drill (Uh)\nThey won\'t know what I got \'til they read the will (Ha, ha)\nI ain\'t tryin\', I ain\'t trying to keep it real (Ha, ha)\nI\'m trying to keep wealthy and that\'s for real (Woo!)\nPero mira que tú \'tás buena (Buena), y mira que tú \'tás dura (Mira, dura)\nBaby, no me hables más (No me hables más), y tíramelo, mami chula (Chula)\nNo games you\'ll see (You\'ll see)\nYou can put the blame on me (On me)\nDale, muñequita, abre ahí and let it rain over me (Woo!)\n[Pre-Chorus: Marc Anthony]\nGirl, my body don\'t lie\nI\'m out of my mind\nLet it rain over me\nI\'m rising so high\nOut of my mind\nSo let it rain over me\n\n[Chorus: Marc Anthony]\nAy-ay-ay, ay-ay-ay\nLet it rain over me\nAy-ay-ay, ay-ay-ay\nLet it rain over me\n\n[Bridge: Pitbull]\nMr. Worldwide, Marc Anthony, tú sabe\nI was playing with her (With her), she was playing with me (With me)\nNext thing you know (Yeah), we were playing with three (With three)\nOh-oh-oh-oh-oh-oh, oh-oh-oh-oh-oh-oh\nI was playing with her (With her), she was playing with me (With me)\nNext thing you know (Yeah), we were playing with three (With three)\nOh-oh-oh-oh-oh-oh, oh-oh-oh-oh-oh-oh\nRain over me\n\n[Pre-Chorus: Marc Anthony]\nGirl, my body don\'t lie\nI\'m out of my mind\nLet it rain over me\nI\'m rising so high\nOut of my mind\nSo let it rain over me (Over me)\n[Chorus: Marc Anthony &amp; Pitbull]\nAy-ay-ay, ay-ay-ay\nLet it rain over me (Over me)\nAy-ay-ay, ay-ay-ay\nLet it rain over me\nAy-ay-ay, ay-ay-ay\nLet it rain over me\nAy-ay-ay, ay-ay-ay\nLet it rain over me (Woo)', 'annotations': {'description': '&lt;p&gt;“Rain Over Me” is one of Pitbull’s classic songs, which is about reaching past the limits with women. From his sixth studio album, &lt;a href="https://genius.com/albums/Pitbull/Planet-pit" rel="noopener" data-api_path="/albums/7578"&gt;&lt;em&gt;Planet Pit&lt;/em&gt;&lt;/a&gt;, it peaked on #30 on the Billboard Hot 100 in the US.&lt;/p&gt;', 'producers': [{'name': 'Rush (Producer)', 'url': 'https://genius.com/artists/Rush-producer'}, {'name': 'Jimmy Joker', 'url': 'https://genius.com/artists/Jimmy-joker'}, {'name': 'RedOne', 'url': 'https://genius.com/artists/Redone'}], 'writers': [{'name': 'Rachid Aziz', 'url': 'https://genius.com/artists/Rachid-aziz'}, {'name': 'A.J. Jannusi', 'url': 'https://genius.com/artists/Aj-jannusi'}, {'name': 'Bilal “The Chef” Hajji', 'url': 'https://genius.com/artists/Bilal-the-chef-hajji'}, {'name': 'Marc Anthony', 'url': 'https://genius.com/artists/Marc-anthony'}, {'name': 'RedOne', 'url': 'https://genius.com/artists/Redone'}, {'name': 'Pitbull', 'url': 'https://genius.com/artists/Pitbull'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Twenty-one-pilots-chlorine-lyrics', 'lyrics': "[Intro: Paul Meany]\nSo, where are ya? It's been a little while\n\n[Chorus]\nSippin' on straight chlorine\nLet the vibe slide over me\nThis beat is a chemical, beat is a chemical\nWhen I leave, don't save my seat\nI'll be back when it's all complete\nThe moment is medical, moment is medical\nSippin' on straight chlorine\n\n[Verse 1]\nLovin' what I'm tastin', woah\nVenom on my tongue, dependent at times\nPoisonous vibrations, woah\nHelp my body run\n\n[Refrain]\nI'm runnin' for my life\nRunnin' for my life\n\n[Chorus]\nSippin' on straight chlorine\nLet the vibe slide over me\nThis beat is a chemical, beat is a chemical\nWhen I leave, don't save my seat\nI'll be back when it's all complete\nThe moment is medical, moment is medical\nSippin' on straight chlorine\n[Verse 2]\nFall out of formation, woah\nI plan my escape from walls they confined\nRebel red carnation, woa-a-oh\nGrows while I decay\n\n[Refrain]\nI'm runnin' for my life\nRunnin' for my life\nYeah, I'm runnin' for my life\nRunnin' for my life\n\n[Verse 3]\nHide you in my coat pocket, where I kept my rebel red\nI felt I was invincible, you wrapped around my head\nNow different lives I lead, my body lives on lead\nThe last two lines may read incorrect until said\nThe lead is terrible in flavor\nBut now you double as a paper maker\nI despise you sometimes, I love to hate the fight\nAnd you in my life is like\n\n[Chorus]\nSippin' on straight chlorine\nLet the vibe slide over me\nThis beat is a chemical, beat is a chemical\nWhen I leave, don't save my seat\nI'll be back when it's all complete\nThe moment is medical, moment is medical\nSippin' on straight chlorine\n[Interlude]\nLet the vibe, let the vibe\nLet the vibe, let the vibe\nBeat is a chemical, yeah\nLet the vibe, let the vibe\nLet the vibe, let the vibe\nMoment is medical, yeah\nSippin' on straight chlorine\nLet the vibe, let the vibe\nLet the vibe, let the vibe\nBeat is a chemical, yeah\nLet the vibe, let the vibe\nLet the vibe, let the vibe\nMoment is medical, yeah\n\n[Outro]\nI'm so sorry I forgot you\nLet me catch you up to speed\nI've been tested like the ends of\nA weathered flag that's by the sea\nCan you build my house with pieces?\nI'm just a chemical\nCan you build my house with pieces?\nI'm just a chemical\nCan you build my house with pieces?\nI'm just a chemical\nCan you build my house with pieces?\nI'm just a chemical", 'annotations': {'description': '&lt;p&gt;“Chlorine” is a track about the cleansing power that music has on the narrator. Chlorine, while being a deadly chemical, is used to eliminate unwanted substances. As stated in the lyrics, the chemical is compared to a “vibe” or “beat.” While the chlorine has poisonous properties and could potentially cause harm, the narrator just can’t get enough.&lt;/p&gt;\n\n&lt;p&gt;A similar idea is found in an &lt;a href="https://genius.com/Twenty-one-pilots-tear-in-my-heart-lyrics" rel="noopener" data-api_path="/songs/725794"&gt;earlier song&lt;/a&gt; when Tyler says,&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;&lt;a href="https://genius.com/Twenty-one-pilots-tear-in-my-heart-lyrics" rel="noopener" data-api_path="/songs/725794"&gt;You gotta bleed to know&lt;br&gt;\nThat you’re alive and have a soul&lt;/a&gt;&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;In both cases, the concept of pain, or something which would generally be unwanted is flipped on its side and used as a metaphor for that which is beneficial.&lt;/p&gt;\n\n&lt;p&gt;On January 22, 2019, Twenty One Pilots released an &lt;a href="https://www.youtube.com/watch?v=eJnQBXmZ7Ek" rel="noopener nofollow"&gt;official music video&lt;/a&gt; for Chlorine, featuring a tiny, horned, anthropomorphic bipedal monster they call &lt;a href="https://www.instagram.com/p/Bs-s6KkhmEp/" rel="noopener nofollow"&gt;“Ned”&lt;/a&gt;.&lt;/p&gt;', 'producers': [{'name': 'Paul Meany', 'url': 'https://genius.com/artists/Paul-meany'}, {'name': 'Tyler Joseph', 'url': 'https://genius.com/artists/Tyler-joseph'}], 'writers': [{'name': 'Tyler Joseph', 'url': 'https://genius.com/artists/Tyler-joseph'}], 'labels': [{'name': 'Warner Music Group', 'url': 'https://genius.com/artists/Warner-music-group'}, {'name': 'Atlantic Records', 'url': 'https://genius.com/artists/Atlantic-records'}, {'name': 'Fueled By Ramen', 'url': 'https://genius.com/artists/Fueled-by-ramen'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Alien-ant-farm-smooth-criminal-lyrics', 'lyrics': "[Intro]\n(Oh no)\n\n[Verse 1]\nAs he came into the window\nWas a sound of a crescendo\nHe came into her apartment\nHe left the bloodstains on the carpet\nShe was sitting at the table\nHe could see she was unable\nSo she ran into the bedroom\nShe was struck down\nIt was her doom\n[Break]\nAnnie, are you okay, you okay, you okay, Annie?\nAnnie, are you okay, you okay, you okay, Annie?\nAnnie, are you okay, you okay, you okay, Annie?\nAnnie, are you okay, you okay, you okay, Annie?\n[Chorus]\nAnnie, are you OK\nWill you tell us that you're OK\nThere's a sign at the window\nThat he struck you\nA crescendo, Annie\nHe came into your apartment\nHe left the bloodstains on the carpet\nThen you ran into the bedroom\nYou were struck down\nIt was your doom\n[Break]\nAnnie, are you okay, you okay, you okay, Annie?\nAnnie, are you okay, you okay, you okay, Annie?\nAnnie, are you okay, you okay, you okay, Annie?\nAnnie, are you okay, you okay, you okay, Annie?\nYou've been hit by, you've been struck by a smooth criminal\n[Verse 2]\nSo they came into the outway\nIt was Sunday, but a black day\nI could make a salutation\nSounding heartbeats, intimidation\n[Break]\nAnnie, are you okay, you okay, you okay, Annie?\nAnnie, are you okay, you okay, you okay, Annie?\nAnnie, are you okay, you okay, you okay, Annie?\nAnnie, are you okay, you okay, you okay, Annie?\n[Chorus]\nAnnie, are you OK\nWill you tell us that you're OK\nThere's a sign at the window\nThat he struck you\nA crescendo, Annie\nHe came into your apartment\nHe left the bloodstains on the carpet\nThen you ran into the bedroom\nYou were struck down\nIt was your doom\nAnnie, are you okay, you okay, you okay, Annie?\nYou've been hit by, you've been struck by a smooth criminal\n\n[Short Instrumental]\n\n[Chorus]\nAnnie, are you OK (oh no)\nWill you tell us that you're OK (oh no)\nThere's a sign at the window (oh no)\nThat he struck you (oh no)\nA crescendo, Annie (oh no)\nHe came into your apartment (oh no)\nHe left the bloodstains on the carpet (oh no)\nThen you ran into the bedroom (oh no)\nYou were struck down\nIt was your doom\n[Break]\nAnnie, are you okay, you okay, you okay, Annie?\nAnnie, are you okay, you okay, you okay, Annie?\nAnnie, are you okay, you okay, you okay, Annie?\nAnnie, are you okay, you okay, you okay, Annie?", 'annotations': {'description': '&lt;p&gt;Alien Ant Farm covered &lt;a href="https://genius.com/Michael-jackson-smooth-criminal-lyrics" rel="noopener" data-api_path="/songs/69620"&gt;“Smooth Criminal”&lt;/a&gt; originally by &lt;a href="https://genius.com/artists/Michael-jackson" rel="noopener" data-api_path="/artists/835"&gt;Michael Jackson&lt;/a&gt; for their 2001 album &lt;a href="https://genius.com/albums/Alien-ant-farm/Anthology" rel="noopener" data-api_path="/albums/114944"&gt;&lt;em&gt;Anthology&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;According to the band members, they would play a few riffs of the Jackson song while warming up before gigs and audience members would request them to play the entire song. This positive feedback encouraged them to record their own rendition of “Smooth Criminal” and include it on &lt;em&gt;Anthology&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;An early version of this cover is featured on the band’s first album titled &lt;em&gt;Greatest Hits&lt;/em&gt;. The song is there titled &lt;a href="https://www.youtube.com/watch?v=0EBJwc6H9-Y" rel="noopener nofollow"&gt;“Slick Thief”&lt;/a&gt; (a slight rewording of “Smooth Criminal”).&lt;/p&gt;\n\n&lt;p&gt;Alien Ant Farm’s cover of “Smooth Criminal” has become their only substantial hit, and featured in &lt;a href="http://en.wikipedia.org/wiki/American_Pie_2" rel="noopener nofollow"&gt;&lt;em&gt;American Pie 2&lt;/em&gt;&lt;/a&gt;, &lt;em&gt;Horrible Bosses 2&lt;/em&gt;, &lt;em&gt;Guitar Hero On Tour: Decades&lt;/em&gt;, and &lt;em&gt;Karaoke Revolution&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;The music video has just about any Michael Jackson reference possible, in a period where MJ was considered a freak who possibly molested children instead of the hitmaker from the preceding decades.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://www.youtube.com/watch?v=CDl9ZMfj6aE" rel="noopener nofollow"&gt;https://www.youtube.com/watch?v=CDl9ZMfj6aE&lt;/a&gt;&lt;/p&gt;', 'producers': [{'name': 'Jay Baumgardner', 'url': 'https://genius.com/artists/Jay-baumgardner'}], 'writers': [{'name': 'Michael Jackson', 'url': 'https://genius.com/artists/Michael-jackson'}], 'labels': [{'name': 'DreamWorks Records', 'url': 'https://genius.com/artists/Dreamworks-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Pixies-monkey-gone-to-heaven-lyrics', 'lyrics': "[Verse 1: Black Francis]\nThere was a god\nAn under water god who controlled the sea\nGot killed by ten million pounds of sludge\nFrom New York and New Jersey\n\n[Chorus: Kim Deal, Kim Deal and Black Francis]\nThis monkey's gone to Heaven\nThis monkey's gone to Heaven\nThis monkey's gone to Heaven\nThis monkey's gone to Heaven\n\n[Verse 2: Black Francis]\nThe creature in the sky\nGot sucked in a hole\nNow there's a hole in the sky\nAnd the ground's not cold\nAnd if the ground's not cold, everything is gonna burn\nWe'll all take turns, I'll get mine too\n\n[Chorus: Kim Deal, Kim Deal and Black Francis]\nThis monkey's gone to Heaven\nThis monkey's gone to Heaven\nThis monkey's gone to Heaven\nThis monkey's gone to Heaven\n[Bridge: Black Francis]\nRock me, Joe\n\n[Verse 3: Black Francis]\nIf Man is five, if Man is five\nIf Man is five, then the Devil is six\nThen the Devil is six, then the Devil is six\nThe Devil is six, and if the Devil is six\nThen God is seven, then God is seven\nThen God is seven\n\n[Chorus: Kim Deal, Kim Deal and Black Francis]\nThis monkey's gone to Heaven\nThis monkey's gone to Heaven\nThis monkey's gone to Heaven\nThis monkey's gone to Heaven\nThis monkey's gone to Heaven\nThis monkey's gone to Heaven\nThis monkey's gone to Heaven\nThis monkey's gone to Heaven\nThis monkey's gone to Heaven", 'annotations': {'description': '&lt;p&gt;A rare environmental song by the Pixies, “Monkey Gone to Heaven” deals with man’s confused place in the universe.&lt;/p&gt;\n\n&lt;p&gt;Black Francis &lt;a href="http://www.esquire.com/entertainment/music/reviews/a31417/pixies-doolittle-track-by-track/" rel="noopener nofollow"&gt;told &lt;em&gt;Esquire&lt;/em&gt;&lt;/a&gt;&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;This belongs in the mythological category. I’m less concerned with making sense than making the lyrics pop out of the speaker when people are listening to the music. Some of it is obvious enough to understand, but then ‘If man is five, the devil is six, then God is seven,’ and guess what? That rhymes with ‘Monkey gone to heaven,’ and it’s all a little bit of a mixture of saying things that are real and relevant with a lot of &lt;a href="https://genius.com/albums/Lewis-carroll/Alice-s-adventures-in-wonderland" rel="noopener" data-api_path="/albums/33112"&gt;&lt;em&gt;Alice in Wonderland&lt;/em&gt;&lt;/a&gt; jibber-jabber and gobbledygook. This is a surreal work. I’m a surrealist. Songs can’t just be 1 + 1 = 2, you know? 1 + 1 = bran muffin.&lt;/p&gt;&lt;/blockquote&gt;', 'producers': [{'name': 'Gil Norton', 'url': 'https://genius.com/artists/Gil-norton'}], 'writers': [{'name': 'Frank Black', 'url': 'https://genius.com/artists/Frank-black'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Owl-city-fireflies-lyrics', 'lyrics': "[Verse 1]\nYou would not believe your eyes if ten million fireflies\nLit up the world as I fell asleep\n'Cause they'd fill the open air and leave teardrops everywhere\nYou'd think me rude but I would just stand and stare\n\n[Chorus]\nI'd like to make myself believe\nThat planet Earth turns slowly\nIt's hard to say that I'd rather stay awake when I'm asleep\n'Cause everything is never as it seems\n\n[Verse 2]\n'Cause I'd get a thousand hugs from ten thousand lightning bugs\nAs they tried to teach me how to dance\nA foxtrot above my head, a sock hop beneath my bed\nA disco ball is just hanging by a thread\n\n[Chorus]\nI'd like to make myself believe\nThat planet Earth turns slowly\nIt's hard to say that I'd rather stay awake when I'm asleep\n'Cause everything is never as it seems (When I fall asleep)\n\n[Bridge]\nLeave my door open just a crack\n(Please take me away from here)\n'Cause I feel like such an insomniac\n(Please take me away from here)\nWhy do I tire of counting sheep\n(Please take me away from here)\nWhen I'm far too tired to fall asleep?\n[Verse 3]\nTo ten million fireflies, I'm weird 'cause I hate goodbyes\nI got misty eyes as they said farewell (They said farewell)\nBut I'll know where several are if my dreams get real bizarre\n'Cause I saved a few and I keep them in a jar (Jar, jar, jar)\n\n[Chorus]\nI'd like to make myself believe\nThat planet Earth turns slowly\nIt's hard to say that I'd rather stay awake when I'm asleep\n'Cause everything is never as it seems (When I fall asleep)\n\n[Chorus]\nI'd like to make myself believe\nThat planet Earth turns slowly\nIt's hard to say that I'd rather stay awake when I'm asleep\n'Cause everything is never as it seems (When I fall asleep)\n\n[Outro]\nI'd like to make myself believe\nThat planet Earth turns slowly\nIt's hard to say that I'd rather stay awake when I'm asleep\nBecause my dreams are bursting at the seams...", 'annotations': {'description': '&lt;p&gt;“Fireflies”, Owl City’s debut single, was an &lt;a href="https://dutchcharts.nl/showitem.asp?interpret=Owl+City&amp;amp;titel=Fireflies&amp;amp;cat=s" rel="noopener nofollow"&gt;international smash hit&lt;/a&gt;, effectively &lt;a href="https://www.independent.co.uk/arts-entertainment/music/owl-city-gives-flight-to-shy-myspace-generation-5542361.html" rel="noopener nofollow"&gt;launching the genre Twee&lt;/a&gt; into the mainstream. The song was &lt;a href="http://ew.com/article/2009/10/30/owl-city-fireflies-interview/" rel="noopener nofollow"&gt;inspired by&lt;/a&gt; watching shooting stars during a camping trip with lyrics also influenced by insomnia.&lt;/p&gt;\n\n&lt;p&gt;Adam Young a.k.a. &lt;a href="https://genius.com/artists/Owl-city" rel="noopener" data-api_path="/artists/13286"&gt;Owl City&lt;/a&gt; said of “Fireflies” in an &lt;a href="http://www.femalefirst.co.uk/music/news/Adam+Young-10811.html" rel="noopener nofollow"&gt;interview&lt;/a&gt; with Female First:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;I have a bit of a problem falling asleep. Strangely enough it is when I can’t sleep that I tend to find most inspiration. I was up late and in the basement one night when I wrote ‘Fireflies’. I was sitting at the keyboard just fooling around, not really trying to write anything. Over the next couple of hours that song came together in the most natural way. I can’t explain it but it almost wrote itself. I didn’t have any idea that moment that I had written a hit.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;The song also features uncredited vocals from the lead vocalist from &lt;a href="https://genius.com/artists/relient-k" rel="noopener" data-api_path="/artists/18124"&gt;Relient K&lt;/a&gt;, Matthew Thiessen.&lt;/p&gt;', 'producers': [{'name': 'Matthew Thiessen', 'url': 'https://genius.com/artists/Matthew-thiessen'}, {'name': 'Adam Young', 'url': 'https://genius.com/artists/Adam-young'}], 'writers': [{'name': 'Adam Young', 'url': 'https://genius.com/artists/Adam-young'}], 'labels': [{'name': 'Republic Records', 'url': 'https://genius.com/artists/Republic-records'}, {'name': 'Island Music', 'url': 'https://genius.com/artists/Island-music'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Nelly-dilemma-lyrics', 'lyrics': '[Intro: Kelly Rowland]\nI love you\nAnd I need you\nNelly, I love you\nI do need you\n\n[Chorus: Kelly Rowland &amp; Nelly]\nNo matter what I do (Woo!)\nAll I think about is you\nEven when I\'m with my boo\nBoy, you know I\'m crazy over you\nNo matter what I do\nAll I think about is you\nEven when I\'m with my boo\nYou know I\'m crazy over you\n\n[Verse 1: Nelly &amp; Kelly Rowland]\nI met this chick and she just moved right up the block from me\nAnd uh, she got the hots for me\nThe finest thing my hood done seen\nBut oh no, oh no\nShe got a man and a son though\nBut that\'s okay \'cause I\nWait for my cue and just listen, play my position\nLike a shortstop, pick up e\'rything mami hittin\'\nAnd in no time, I plan to make this one here mine\nAnd that\'s for sure \'cause I\nI never been the type to break up a happy home, but uh\nThere\'s somethin\' \'bout baby girl I just can\'t leave alone\nSo tell me, Ma, what\'s it gonna be?\nShe said: "You don\'t know what you mean to me"\n[Chorus: Kelly Rowland &amp; Nelly]\nNo matter what I do (Woo!)\nAll I think about is you (Uh-huh)\nEven when I\'m with my boo\nBoy, you know I\'m crazy over you\nNo matter what I do\nAll I think about is you\nEven when I\'m with my boo\nYou know I\'m crazy over you\n\n[Verse 2: Nelly &amp; Kelly Rowland]\nI see a lot, and you look, and I never say a word\nI know how niggas start actin\' trippin\' out here about they girls\nAnd there\'s no way\nNelly gon\' fight over no dame\nAs you can see, but I\nI like your steez, your style, your whole demeanor\nThe way you come through and holla\nAnd swoop me in his two-seater\nNow that\'s gangsta\nAnd I got special ways to thank ya\nDon\'t you forget it\nBut uh, it ain\'t that easy for you to pack up and leave him\nBut uh, you and dirty got ties for different reasons\nI respect that, and right before I turn to leave\nShe said: "You don\'t know what you mean to me"\n[Chorus: Kelly Rowland &amp; Nelly]\nNo matter what I do (Woo!)\nAll I think about is you (Uh-huh)\nEven when I\'m with my boo\nBoy, you know I\'m crazy over you\nNo matter what I do\nAll I think about is you\nEven when I\'m with my boo\nYou know I\'m crazy over you\n\n[Interlude: Nelly]\nSing it for me, K!\n\n[Bridge: Kelly Rowland &amp; Nelly]\nI love you (Word?) and I need you\nNelly I love you, I do (Come on, girl)\nAnd it\'s more than you\'ll ever know\nBoy, it\'s for sure\nYou can always count on my love\nForevermore, yeah, yeah\n\n[Break: Nelly &amp; Kelly Rowland]\nEast Coast, I know you shakin\' right\nDown South, I know you bouncin\' right\nWest Coast, I know you walkin\' right \'cause\nYou don\'t know what you mean to me\nMidwest, I see you swingin\' right\n[Chorus: Kelly Rowland]\nNo matter what I do\nAll I think about is you\nEven when I\'m with my boo\nBoy, you know I\'m crazy over you\nNo matter what I do\nAll I think about is you\nEven when I\'m with my boo\nYou know I\'m crazy over you\n\n[Break: Nelly &amp; Kelly Rowland]\nEast Coast, I know you shakin\' right\nDown South, I know you bouncin\' right\nWest Coast, I know you walkin\' right, \'cause\nYou don\'t know what you mean to me\nMidwest, I see you swingin\' right\nEast Coast, you still shakin\' right\nDown South, I see you bouncin\' right\nWest Coast, I know you walkin\' right, \'cause\nYou don\'t know what you mean to me\nMidwest, I see you swingin\' right\n\n[Chorus: Kelly Rowland &amp; Nelly]\nNo matter what I do (Woo!)\nAll I think about is you (Uh-huh)\nEven when I\'m with my boo\nBoy, you know I\'m crazy over you\nNo matter what I do\nAll I think about is you\nEven when I\'m with my boo\nBoy, you know I\'m crazy over you\nNo matter what I do\nAll I think about is you\nEven when I\'m with my boo\nBoy, you know I\'m crazy over you\n\n[Outro: Nelly &amp; Kelly Rowland]\nEast Coast, I know you shakin\' right\nDown South, I know you bouncin\' right\nWest Coast, I know you walkin\' right, \'cause\nYou don\'t know what you mean to me\nMidwest, I see you swingin\' right\nEast Coast, you still shakin\' right\nDown South, I see you bouncin\' right\nWest Coast, I know you walkin\' right, \'cause\nYou don\'t know what you mean to me\nMidwest, I see you swingin\' right', 'annotations': {'description': '&lt;p&gt;A hugely popular song from 2002 which appeared on both &lt;a href="https://genius.com/artists/Nelly" rel="noopener" data-api_path="/artists/148"&gt;Nelly&lt;/a&gt;’s &lt;em&gt;&lt;a href="https://genius.com/albums/Nelly/Nellyville" rel="noopener" data-api_path="/albums/7138"&gt;Nellyville&lt;/a&gt;&lt;/em&gt; and &lt;a href="https://genius.com/artists/Kelly-rowland" rel="noopener" data-api_path="/artists/1302"&gt;Kelly Rowland&lt;/a&gt;’s &lt;em&gt;&lt;a href="https://genius.com/albums/Kelly-rowland/Simply-deep" rel="noopener" data-api_path="/albums/19852"&gt;Simply Deep&lt;/a&gt;&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;This song is arguably the most successful, ‘biggest’ song of both Nelly’s career and Rowland’s solo career (aside from her featured vocals in &lt;a href="https://genius.com/artists/David-guetta" rel="noopener" data-api_path="/artists/2578"&gt;David Guetta&lt;/a&gt;’s &lt;a href="https://genius.com/David-guetta-when-love-takes-over-lyrics" rel="noopener" data-api_path="/songs/776113"&gt;“When Love Takes Over”&lt;/a&gt;).&lt;/p&gt;\n\n&lt;p&gt;It was Nelly’s first #1 single in countries such as the UK, Ireland, Australia, Belgium, Germany and the Netherlands. It followed on from the success of his previous single &lt;a href="https://genius.com/Nelly-hot-in-herre-lyrics" rel="noopener" data-api_path="/songs/35301"&gt;“Hot in Herre”&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;It was – and remains to be – Rowland’s highest selling single in the US and the UK, as it has sold over 935,000 copies as of November 2017.&lt;/p&gt;', 'producers': [{'name': 'Antoine “Bam” Macon', 'url': 'https://genius.com/artists/Antoine-bam-macon'}, {'name': 'Ryan Bowser', 'url': 'https://genius.com/artists/Ryan-bowser'}], 'writers': [{'name': 'Antoine “Bam” Macon', 'url': 'https://genius.com/artists/Antoine-bam-macon'}, {'name': 'Ryan Bowser', 'url': 'https://genius.com/artists/Ryan-bowser'}, {'name': 'Bunny Sigler', 'url': 'https://genius.com/artists/Bunny-sigler'}, {'name': 'Kenneth Gamble', 'url': 'https://genius.com/artists/Kenneth-gamble'}, {'name': 'Kelly Rowland', 'url': 'https://genius.com/artists/Kelly-rowland'}, {'name': 'Nelly', 'url': 'https://genius.com/artists/Nelly'}], 'labels': [{'name': 'Universal Music Group', 'url': 'https://genius.com/artists/Universal-music-group'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Niall-horan-nice-to-meet-ya-lyrics', 'lyrics': "[Verse 1]\nI like the way you talk, I like the things you wear\nI want your number tattooed on my arm in ink, I swear\n'Cause when the morning comes, I know you won't be there\nEvery time I turn around, you disappear\n\n[Verse 2]\nI wanna blow your mind, just come with me, I swear\nI'm gonna take you somewhere warm, you know j'adore la mer\n'Cause when the morning comes, I know you won't be there\nEvery time I turn around, you disappear\n\n[Chorus]\n(I got love for you)\n(I got love for you)\nNice to meet ya\n(I got love for you)\n(I got love for you)\n\n[Refrain]\nNice to meet ya, what's your name?\nLet me treat ya to a drink\n\n[Verse 3]\nI like the way you talk, I like the things you wear\nI want your number tattooed on my arm in ink, I swear\n'Cause when the morning comes, I know you won't be there\nAnd every time I turn around, you disappear\n[Chorus]\n(I got love for you)\n(I got love for you)\nNice to meet ya\n(I got love for you)\n(I got love for you)\n\n[Bridge]\nOne minute, you're there, the next one, you're gone\nBeen waiting for you all night, so come on\nYou know what I need, you know what I want\nYou know what I need now\nYou know what I need now\n\n[Refrain]\nNice to meet ya, what's your name?\nLet me treat ya to a drink\n\n[Outro]\nNice to meet ya\n(I got love for you)\nWhere ya been?\n(I got love for you)\nLet me treat ya\n(I got love for you)\nTo a drink\n(I got love for you)\nNice to meet ya", 'annotations': {'description': '&lt;p&gt;“&lt;a href="https://genius.com/Niall-horan-nice-to-meet-ya-lyrics" rel="noopener" data-api_path="/songs/4764371"&gt;Nice to Meet Ya&lt;/a&gt;” is the first single from &lt;a href="https://genius.com/artists/Niall-horan" rel="noopener" data-api_path="/artists/651111"&gt;Niall&lt;/a&gt;’s second &lt;a href="https://genius.com/albums/Niall-horan/Nh2" rel="noopener" data-api_path="/albums/567515"&gt;studio album&lt;/a&gt;, which released on March 13th, 2020.&lt;br&gt;\nNiall started teasing the song in August 2019 and presented it at Capitol Congress in Los Angeles, along with the new song “&lt;a href="https://genius.com/Niall-horan-put-a-little-love-on-me-lyrics" rel="noopener" data-api_path="/songs/4764373"&gt;Put A Little Love On Me&lt;/a&gt;.”&lt;br&gt;\nThe song is described as uptempo and with vintage vibes.&lt;/p&gt;\n\n&lt;p&gt;The lyrics were &lt;a href="https://twitter.com/niallofficial/status/1178735440804728834" rel="noopener nofollow"&gt;released on September 30th&lt;/a&gt;, along with a challenge created by Niall: “Trying to find the beat of the song without any clue of its melody.”&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/ccbebfe2ee883a7fef23b8b2aa935f0b.708x1000x1.jpg" alt="" width="708" height="1000" data-animated="false"&gt;&lt;/p&gt;', 'producers': [{'name': 'Julian Bunetta', 'url': 'https://genius.com/artists/Julian-bunetta'}], 'writers': [{'name': 'Julian Bunetta', 'url': 'https://genius.com/artists/Julian-bunetta'}, {'name': 'Tobias Jesso Jr.', 'url': 'https://genius.com/artists/Tobias-jesso-jr'}, {'name': 'Niall Horan', 'url': 'https://genius.com/artists/Niall-horan'}, {'name': 'RuthAnne', 'url': 'https://genius.com/artists/Ruthanne'}], 'labels': [{'name': 'Universal Music Group', 'url': 'https://genius.com/artists/Universal-music-group'}, {'name': 'Capitol Records', 'url': 'https://genius.com/artists/Capitol-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Roxette-joyride-lyrics', 'lyrics': '[Spoken Intro]\nC\'mon, join the joyride, everybody\nGet your tickets here\nStep right this way\n\n[Chorus]\nHello, you fool, I love you\nC\'mon join the joyride\n\n[Verse 1]\nI hit the road out of nowhere\nI had to jump in my car\nAnd be a rider in a love game\nFollowing the stars\n\nDon\'t need a book of wisdom\nI get no money talk at all\n\n[Verse 2]\nShe has a train going downtown\nShe\'s got a club on the moon\nAnd she\'s telling all her secrets\nIn a wonderful balloon\n\nShe\'s the heart of the funfair\nShe\'s got me whistling a private tune\n[Pre-Chorus 1]\nAnd it all begins where it ends\nAnd she\'s all mine, my magic friend\n\n[Chorus]\nShe says, "Hello, you fool, I love you\nC\'mon join the joyride."\nJoin the joyride\n\n[Verse 3]\nShe\'s a flower, I could paint her\nShe\'s a child of the sun\nWe\'re a part of this together\nCould never turn around and run\n\nDon\'t need no fortune teller\nTo know where my lucky love belongs, whoa no\n\n[Pre-Chorus 2]\nCause it all begins again when it ends, yeah\nAnd we\'re all magic friends (magic friends, magic friends)\n\n[Chorus]\nShe says, "Hello, you fool, I love you\nC\'mon join the joyride."\nJoin the joyride\nShe says, "Hello, you fool, I love you\nC\'mon join the joyride."\nBe a joyrider, ow\n\n[Instrumental Interlude]\n\n[Bridge]\nI\'ll take you on a sky ride\nI\'m feeling like I\'m spellbound\nThe sunshine is a lady\nWho rocks you like a baby\n\n[Outro]\nShe says, "Hello (hello) you fool (you fool) I love you (I love you)\nC\'mon join the joyride."\nJoin the joyride\n\nHello, you fool, I love you\nC\'mon join the joyride\nJoin the joyride\n\nHello, hello, you fool, I love you\nC\'mon, c\'mon join the joyride\nBe a joyrider\nRoxette', 'annotations': {'description': '', 'producers': [{'name': 'Clarence Öfwerman', 'url': 'https://genius.com/artists/Clarence-ofwerman'}], 'writers': [{'name': 'Per Gessle', 'url': 'https://genius.com/artists/Per-gessle'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Robbie-williams-feel-lyrics', 'lyrics': "[Verse 1]\nCome and hold my hand\nI wanna contact the living\nNot sure I understand\nThis role I've been given\nI sit and talk to God\nAnd he just laughs at my plans\nMy head speaks a language\nI don't understand\n\n[Chorus]\nI just wanna feel real love\nFeel the home that I live in\n'Cause I got too much life\nRunning through my veins\nGoing to waste\n\n[Verse 2]\nI don't wanna die\nBut I ain't keen on living either\nBefore I fall in love\nI'm preparing to leave her\nScare myself to death\nThat's why I keep on running\nBefore I've arrived\nI can see myself coming\n[Chorus]\nI just wanna feel real love\nFeel the home that I live in\n'Cause I got too much life\nRunning through my veins\nGoing to waste\nAnd I need to feel real love\nAnd a life ever after\nI can not get enough\n\n[Instrumental Bridge]\n\n[Chorus]\nI just wanna feel real love\nFeel the home that I live in\nI got too much love\nRunning through my veins\nTo go to waste\n\n[Bridge]\nI just wanna feel real love\nAnd a life ever after\nThere's a hole in my soul\nYou can see it in my face\nIt's a real big place\n[Outro]\n(Figure it out, Feel)\nCome and hold my hand\nI wanna contact the living\nNot sure I understand\nThis role I've been given\nNot sure I understand\nNot sure I understand\nNot sure I understand\nNot sure I understand", 'annotations': {'description': '&lt;p&gt;“Feel” is a track that embodies the theme of &lt;em&gt;Escapology,&lt;/em&gt; Williams appears to want to escape his own skin at times, trying to understand his place in the world and the manner in which he can fully realise the beauty he’s been gifted.&lt;/p&gt;\n\n&lt;p&gt;It was the lead single from the record, making it to number 1 in Austria, Poland, Germany, Hungary, Italy, and The Netherlands. It was certified Gold in 7 countries.&lt;/p&gt;\n\n&lt;p&gt;The &lt;a href="https://www.youtube.com/watch?v=iy4mXZN1Zzk" rel="noopener nofollow"&gt;video&lt;/a&gt; features Robbie riding a horse through a black and white forest, and discovering &lt;a href="https://en.wikipedia.org/wiki/Daryl_Hannah" rel="noopener nofollow"&gt;Daryl Hannah,&lt;/a&gt; who he then embarks on a love affair with.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/f026aa02a6131694615fe2f1d4408445.480x360x1.jpg" alt="" width="480" height="360" data-animated="false"&gt;&lt;/p&gt;', 'producers': [{'name': 'Steve Power', 'url': 'https://genius.com/artists/Steve-power'}, {'name': 'Guy Chambers', 'url': 'https://genius.com/artists/Guy-chambers'}], 'writers': [{'name': 'Robbie Williams', 'url': 'https://genius.com/artists/Robbie-williams'}, {'name': 'Guy Chambers', 'url': 'https://genius.com/artists/Guy-chambers'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/The-strokes-under-cover-of-darkness-lyrics', 'lyrics': '[Verse 1]\nSlip back out of whack at your best\nIt\'s a nightmare\nSo I\'m joining the army\nNo house phones, but can I still call?\nWill you wait for me now?\nWe\'ve got the right to live, fight to use it\nGot everything but you can just choose it\nI won\'t just be a puppet on a string\n\n[Pre-Chorus]\nDon\'t go that way\nI\'ll wait for you\n\n[Chorus 1]\nAnd I\'m tired of all your friends\nListening at your door\nI want what\'s better for you\nSo long, my friend and adversary\nBut I\'ll wait for you\n\n[Verse 2]\nGet dressed, jump out of bed into a vest\nAre you okay?\nI\'ve been all around this town\nEverybody\'s been singing the same song for ten years\n[Pre-Chorus]\nI\'ll wait for you\nWill you wait for me too?\n\n[Chorus 2]\nAnd they sacrifice their lives\nAnd they lied about those odds\nThey\'ll say it a million times, and they\'ll say it again\nSo long, my adversary and friend\n\n[Pre-Chorus]\nDon\'t go that way\nI\'ll wait for you\n\n[Chorus 3]\nI\'m tired of all your friends\nBanging down your door\nGet up in the morning yelling, "No more!"\nSo long, my friend and adversary\nBut I\'ll be waiting for you', 'annotations': {'description': '&lt;p&gt;Under Cover of Darkness is the first single from the band’s fourth full-length album, &lt;i&gt;Angles&lt;/i&gt;.&lt;/p&gt;\n\n&lt;p&gt;Released first online on February 9, 2011 as a free download for 48 hours exclusively, the single was then released on vinyl on February 11, 2011. It was their first single release in almost five years.&lt;/p&gt;\n\n&lt;p&gt;The beginning of the music video for this song shows a clip from the You Only Live Once music video, possibly hinting that this song is a continuation from that song.&lt;/p&gt;\n\n&lt;p&gt;The music video also contains a reference to their song &lt;a href="https://www.youtube.com/watch?v=TOypSnKFHrE" rel="noopener nofollow"&gt;“Last Nite,”&lt;/a&gt; in which Julian throws his microphone stand (which is what he does while singing the line “everybody’s been singing the same song for ten years,” which becomes significant once you consider that &lt;em&gt;Angles&lt;/em&gt; came out ten years after &lt;em&gt;Is This It.&lt;/em&gt;)&lt;/p&gt;', 'producers': [{'name': 'Gus Oberg', 'url': 'https://genius.com/artists/Gus-oberg'}, {'name': 'The Strokes', 'url': 'https://genius.com/artists/The-strokes'}, {'name': 'Joe Chiccarelli', 'url': 'https://genius.com/artists/Joe-chiccarelli'}], 'writers': [{'name': 'Julian Casablancas', 'url': 'https://genius.com/artists/Julian-casablancas'}, {'name': 'Nick Valensi', 'url': 'https://genius.com/artists/Nick-valensi'}, {'name': 'Albert Hammond Jr.', 'url': 'https://genius.com/artists/Albert-hammond-jr'}, {'name': 'Nikolai Fraiture', 'url': 'https://genius.com/artists/Nikolai-fraiture'}, {'name': 'Fabrizio Moretti', 'url': 'https://genius.com/artists/Fabrizio-moretti'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Lady-gaga-applause-lyrics', 'lyrics': '[Verse 1]\nI stand here waiting for you to bang the gong\nTo crash the critic saying, "Is it right or is it wrong?"\nIf only fame had an IV, baby, could I bear\nBeing away from you? I found the vein, put it in here\n\n[Pre-Chorus]\nI live for the applause, applause, applause\nI live for the applause-plause, live for the applause-plause\nLive for the way that you cheer and scream for me\nThe applause, applause, applause\n\n[Chorus]\nGive me that thing that I love (I\'ll turn the lights out)\nPut your hands up, make \'em touch, touch (Make it real loud)\nGive me that thing that I love (I\'ll turn the lights out)\nPut your hands up, make \'em touch, touch (Make it real loud)\n\n[Post-Chorus]\nA-P-P-L-A-U-S-E (Make it real loud)\nA-P-P-L-A-U-S-E\nPut your hands up, make \'em touch, touch\nA-P-P-L-A-U-S-E (Make it real loud)\nA-P-P-L-A-U-S-E\nPut your hands up, make \'em touch, touch\n[Verse 2]\nI\'ve overheard your theory, "Nostalgia\'s for geeks"\nI guess sir, if you say so, some of us just like to read\nOne second I\'m a Koons, then suddenly the Koons is me\nPop culture was in art, now art\'s in pop culture, in me\n\n[Pre-Chorus]\nI live for the applause, applause, applause\nI live for the applause-plause, live for the applause-plause\nLive for the way that you cheer and scream for me\nThe applause, applause, applause\n\n[Chorus]\nGive me that thing that I love (I\'ll turn the lights out)\nPut your hands up, make \'em touch, touch (Make it real loud)\nGive me that thing that I love (I\'ll turn the lights out)\nPut your hands up, make \'em touch, touch (Make it real loud)\n\n[Post-Chorus]\nA-P-P-L-A-U-S-E (Make it real loud)\nA-P-P-L-A-U-S-E\nPut your hands up, make \'em touch, touch\nA-P-P-L-A-U-S-E (Make it real loud)\nA-P-P-L-A-U-S-E\nPut your hands up, make \'em touch, touch\n[Bridge]\nWoo... touch, touch\nWoo... touch, touch\nNow... woo-oh-oh-oh...\nWoo-oh-oh-oh...\n\n[Pre-Chorus]\nI live for the applause, applause, applause\nI live for the applause-plause, live for the applause-plause\nLive for the way that you cheer and scream for me\nThe applause, applause, applause\n\n[Chorus]\nGive me that thing that I love (I\'ll turn the lights out)\nPut your hands up, make \'em touch, touch (Make it real loud)\nGive me that thing that I love (I\'ll turn the lights out)\nPut your hands up, make \'em touch, touch (Make it real loud)\n\n[Post-Chorus]\nA-P-P-L-A-U-S-E (Make it real loud)\nA-P-P-L-A-U-S-E\nPut your hands up, make \'em touch, touch\nA-P-P-L-A-U-S-E (Make it real loud)\nA-P-P-L-A-U-S-E\nPut your hands up, make \'em touch, touch\n[Outro]\nA-R-T-P-O-P', 'annotations': {'description': '&lt;p&gt;“Applause” is an EDM/electro-pop celebration of sticking it to the haters, doing what one loves, and embracing the thrill of the crowd. Bed-ridden and forced to cancel tour dates due to a 2013 hip injury, Gaga yearned for the love – * the applause* – of her fans, inspiring her to write this song.&lt;/p&gt;\n\n&lt;p&gt;The song is the lead single off of Lady Gaga’s &lt;em&gt;ARTPOP&lt;/em&gt;. It’s less robust than her previous lead singles, like &lt;a href="https://genius.com/Lady-gaga-bad-romance-lyrics" rel="noopener" data-api_path="/songs/1313"&gt;“Bad Romance”&lt;/a&gt; and &lt;a href="https://genius.com/Lady-gaga-born-this-way-lyrics" rel="noopener" data-api_path="/songs/4320"&gt;“Born This Way”&lt;/a&gt;, but what it lacks in length it displays in nightclub-ready energy and unapologetic campiness.&lt;/p&gt;\n\n&lt;p&gt;The song’s cover art is possibly &lt;a href="http://flavorwire.com/407489/the-cover-of-lady-gagas-new-single-applause-looks-a-whole-lot-like-david-bowies-scary-monsters" rel="noopener nofollow"&gt;Bowie-influenced.&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/ec0c9d97237b28c537dc33b5edb3e8f6.607x469x1.png" alt="" width="607" height="469" data-animated="false"&gt;&lt;/p&gt;', 'producers': [{'name': 'Dino Zisis', 'url': 'https://genius.com/artists/Dino-zisis'}, {'name': 'Nick Monson', 'url': 'https://genius.com/artists/Nick-monson'}, {'name': 'Lady Gaga', 'url': 'https://genius.com/artists/Lady-gaga'}, {'name': 'DJ White Shadow', 'url': 'https://genius.com/artists/Dj-white-shadow'}], 'writers': [{'name': 'Steve Guess', 'url': 'https://genius.com/artists/Steve-guess'}, {'name': 'DJ White Shadow', 'url': 'https://genius.com/artists/Dj-white-shadow'}, {'name': 'DJ Snake', 'url': 'https://genius.com/artists/Dj-snake'}, {'name': 'Tchami', 'url': 'https://genius.com/artists/Tchami'}, {'name': 'Julien Arias', 'url': 'https://genius.com/artists/Julien-arias'}, {'name': 'Nicolas Mercier', 'url': 'https://genius.com/artists/Nicolas-mercier'}, {'name': 'Nick Monson', 'url': 'https://genius.com/artists/Nick-monson'}, {'name': 'Dino Zisis', 'url': 'https://genius.com/artists/Dino-zisis'}, {'name': 'Lady Gaga', 'url': 'https://genius.com/artists/Lady-gaga'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Adele-rolling-in-the-deep-lyrics', 'lyrics': "[Verse 1]\nThere's a fire starting in my heart\nReaching a fever pitch and it's bringing me out the dark\nFinally, I can see you crystal clear\nGo ahead and sell me out and I'll lay your shit bare\nSee how I'll leave with every piece of you\nDon't underestimate the things that I will do\nThere's a fire starting in my heart\nReaching a fever pitch, and it's bringing me out the dark\n\n[Pre-Chorus]\nThe scars of your love remind me of us\nThey keep me thinkin' that we almost had it all\nThe scars of your love, they leave me breathless\nI can't help feeling\n\n[Chorus]\nWe could've had it all (You're gonna wish you never had met me)\nRolling in the deep (Tears are gonna fall, rolling in the deep)\nYou had my heart inside of your hand (You're gonna wish you never had met me)\nAnd you played it to the beat (Tears are gonna fall, rolling in the deep)\n\n[Verse 2]\nBaby, I have no story to be told\nBut I've heard one on you, now I'm gonna make your head burn\nThink of me in the depths of your despair\nMake a home down there, as mine sure won't be shared\n[Pre-Chorus]\n(You're gonna wish you never had met me) The scars of your love remind me of us\n(Tears are gonna fall, rolling in the deep) They keep me thinkin' that we almost had it all\n(You're gonna wish you never had met me) The scars of your love, they leave me breathless\n(Tears are gonna fall, rolling in the deep) I can't help feeling\n\n[Chorus]\nWe could've had it all (You're gonna wish you never had met me)\nRolling in the deep (Tears are gonna fall, rolling in the deep)\nYou had my heart inside of your hand (You're gonna wish you never had met me)\nAnd you played it to the beat (Tears are gonna fall, rolling in the deep)\nCould've had it all\nRolling in the deep\nYou had my heart inside of your hand\nBut you played it with a beating\n\n[Bridge]\nThrow your soul through every open door (Ooh woah, oh)\nCount your blessings to find what you look for (Woah)\nTurn my sorrow into treasured gold (Ooh woah, oh)\nYou'll pay me back in kind and reap just what you sow\n\n[Breakdown]\n(You're gonna wish you never had met me)\nWe could've had it all (Tears are gonna fall, rolling in the deep)\nWe could've had it all, yeah (You're gonna wish you never had met me)\nIt all, it all, it all (Tears are gonna fall, rolling in the deep)\n[Chorus]\nWe could've had it all (You're gonna wish you never had met me)\nRolling in the deep (Tears are gonna fall, rolling in the deep)\nYou had my heart inside of your hand (You're gonna wish you never had met me)\nAnd you played it to the beat (Tears are gonna fall, rolling in the deep)\nCould've had it all (You're gonna wish you never had met me)\nRolling in the deep (Tears are gonna fall, rolling in the deep)\nYou had my heart inside of your hand (You're gonna wish you never had met me)\nBut you played it, you played it, you played it\nYou played it to the beat", 'annotations': {'description': '&lt;p&gt;The 2012 song and record of the Year at the Grammy’s, “Rolling In The Deep” was described &lt;a href="http://www.spin.com/2010/11/adele-new-record-quite-different/" rel="noopener nofollow"&gt;in an interview with Spin Magazine&lt;/a&gt; as a ‘gospel disco’ kiss-off to an unfaithful dude:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;It’s me saying, ‘Get the fuck out of my house\' instead of me begging him to come back.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;The song hit number one in the US, where it became the &lt;a href="http://www.billboard.com/biz/articles/news/1177102/adeles-rolling-in-the-deep-is-the-biggest-crossover-song-of-past-25-years" rel="noopener nofollow"&gt;biggest crossover hit in 25 years.&lt;/a&gt;&lt;/p&gt;', 'producers': [{'name': 'Paul Epworth', 'url': 'https://genius.com/artists/Paul-epworth'}], 'writers': [{'name': 'Paul Epworth', 'url': 'https://genius.com/artists/Paul-epworth'}, {'name': 'Adele', 'url': 'https://genius.com/artists/Adele'}], 'labels': [{'name': 'Columbia Records', 'url': 'https://genius.com/artists/Columbia-records'}, {'name': 'XL Recordings', 'url': 'https://genius.com/artists/Xl-recordings'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Cage-the-elephant-aint-no-rest-for-the-wicked-lyrics', 'lyrics': '[Verse 1]\nI was walking down the street when out the corner of my eye\nI saw a pretty little thing approaching me\nShe said, "I never seen a man, who looks so all alone\nOh, could you use a little company?\nIf you pay the right price, your evening will be nice\nAnd you can go and send me on my way."\nI said, "You\'re such a sweet young thing, why you do this to yourself?"\nShe looked at me and this is what she said:\n\n[Chorus]\n"Oh there ain\'t no rest for the wicked\nMoney don\'t grow on trees\nI got bills to pay, I got mouths to feed\nThere ain\'t nothing in this world for free\nOh no, I can\'t slow down, I can\'t hold back\nThough you know, I wish I could\nOh no there ain\'t no rest for the wicked\nUntil we close our eyes for good"\n\n[Verse 2]\nNot even fifteen minutes later I\'m still walking down the street\nWhen I saw the shadow of a man creep out out of sight\nAnd then he swept up from behind, he put a gun up to my head\nHe made it clear he wasn\'t looking for a fight\nHe said, "Give me all you\'ve got, I want your money, not your life\nBut if you try to make a move, I won\'t think twice"\nI told him, "You can have my cash, but first you know I gotta ask\nWhat made you want to live this kind of life?"\n[Chorus]\nHe said, "There ain\'t no rest for the wicked\nMoney don\'t grow on trees\nI got bills to pay, I got mouths to feed\nThere ain\'t nothing in this world for free\nOh no, I can\'t slow down, I can\'t hold back\nThough you know, I wish I could\nOh no there ain\'t no rest for the wicked\nUntil we close our eyes for good"\n\n[Verse 3]\nWell now a couple hours passed and I was sitting in my house\nThe day was winding down and coming to an end\nAnd so I turned on the TV and flipped it over to the news\nAnd what I saw I almost couldn\'t comprehend\nI saw a preacher man in cuffs, he\'d taken money from the church\nHe\'d stuffed his bank account with righteous dollar bills\nBut even still I can\'t say much because I know we\'re all the same\nOh yes, we all seek out to satisfy those thrills\n[Chorus]\nYou know there ain\'t no rest for the wicked\nMoney don\'t grow on trees\nWe got bills to pay, we got mouths to feed\nThere ain\'t nothing in this world for free\nOh no we can\'t slow down, we can\'t hold back\nThough you know we wish we could\nOh no there ain\'t no rest for the wicked\nUntil we close our eyes for good', 'annotations': {'description': '&lt;p&gt;This single off of Cage The Elephant’s debut album features three verses, each dealing with an encounter with an immoral character that is trying to make money by any means necessary.&lt;/p&gt;\n\n&lt;p&gt;Lead singer Matt Schultz says that he got the idea for this song when he asked one of his drug-dealing friends why he dealt drugs, to which he responded: “there’s no rest for the wicked”.&lt;/p&gt;\n\n&lt;p&gt;The song is also used in the pilot for the Netflix show “Lucifer”.&lt;/p&gt;', 'producers': [{'name': 'Ben Baptie', 'url': 'https://genius.com/artists/Ben-baptie'}, {'name': 'Jay Joyce', 'url': 'https://genius.com/artists/Jay-joyce'}], 'writers': [{'name': 'Daniel Tichenor', 'url': 'https://genius.com/artists/Daniel-tichenor'}, {'name': 'Matt Shultz', 'url': 'https://genius.com/artists/Matt-shultz'}, {'name': 'Brad Shultz', 'url': 'https://genius.com/artists/Brad-shultz'}, {'name': 'Lincoln Parish', 'url': 'https://genius.com/artists/Lincoln-parish'}, {'name': 'Jared Champion', 'url': 'https://genius.com/artists/Jared-champion'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/What_I_Got', 'track_name': 'What I Got', 'artist': 'http://dbpedia.org/resource/Sublime_(band)', 'artist_name': 'Sublime', 'wiki': 'http://en.wikipedia.org/wiki/What_I_Got', 'hometown': 'http://dbpedia.org/resource/Long_Beach,_California', 'released': '23 July 1996', 'producers': ['http://dbpedia.org/resource/David_Kahne'], 'writers': ['http://dbpedia.org/resource/Bradley_Nowell'], 'labels': ['http://dbpedia.org/resource/MCA_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_rock'], 'related_artists': ['http://dbpedia.org/resource/3rd_Alley', 'http://dbpedia.org/resource/Bad_Brains', 'http://dbpedia.org/resource/Bradley_Nowell', 'http://dbpedia.org/resource/Bud_Gaugh', 'http://dbpedia.org/resource/Eric_Wilson_(bassist)', 'http://dbpedia.org/resource/Eyes_Adrift', 'http://dbpedia.org/resource/Gwen_Stefani', 'http://dbpedia.org/resource/Long_Beach_Dub_Allstars', 'http://dbpedia.org/resource/Long_Beach_Shortbus', 'http://dbpedia.org/resource/Mad_Lion', 'http://dbpedia.org/resource/Marshall_Goodman', 'http://dbpedia.org/resource/No_Doubt', 'http://dbpedia.org/resource/Notch_(musician)', 'http://dbpedia.org/resource/Slightly_Stoopid', 'http://dbpedia.org/resource/Steve_Chadie', 'http://dbpedia.org/resource/Sublime_with_Rome', 'http://dbpedia.org/resource/The_Specials', 'http://dbpedia.org/resource/The_Toyes__The_Toyes__1', 'http://dbpedia.org/resource/The_Ziggens', 'http://dbpedia.org/resource/Tribo_de_Jah', 'http://dbpedia.org/resource/Volcano_(supergroup)'], 'abstract': '"What I Got" is a song from American band Sublime\'s self-titled third album (1996). It was the band\'s biggest radio hit, posthumously after singer Bradley Nowell\'s death in 1996 from a heroin overdose. It was the second single to be released by the band, following "Date Rape" (1991). The song\'s chorus is a lift from "Loving" by Half Pint. The song\'s melody is similar to the Beatles\' "Lady Madonna". "What I Got" reached the number-one spot on the US Billboard Modern Rock Tracks chart and was also a radio hit, peaking at number 29 on the Billboard Hot 100 Airplay chart. In New Zealand, "What I Got" peaked at number 34 on the RIANZ Singles Chart; What I Got: The Seven Song EP was slightly more successful, reaching number 33 on the same chart. Elsewhere, the single reached number two on the Canadian RPM Alternative 30 chart and number 19 in Iceland. It is ranked on the 100 Greatest Guitar Songs of All Time by Rolling Stone magazine at number 83.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/99_Luftballons', 'track_name': '99 Luftballons', 'artist': 'http://dbpedia.org/resource/Nena_(band)', 'artist_name': 'Nena', 'wiki': 'http://en.wikipedia.org/wiki/99_Luftballons', 'hometown': 'http://dbpedia.org/resource/West_Berlin', 'producers': ['http://dbpedia.org/resource/Reinhold_Heil', 'Manfred Praeker'], 'writers': ['http://dbpedia.org/resource/Carlo_Karges', 'http://dbpedia.org/resource/Kevin_McAlea'], 'awards': ['Gold', 'Platinum'], 'labels': ['http://dbpedia.org/resource/Epic_Records'], 'genres': ['http://dbpedia.org/resource/New_wave_music'], 'related_artists': ['http://dbpedia.org/resource/Peter_Heppner', 'http://dbpedia.org/resource/The_Stripes__The_Stripes__1', 'http://dbpedia.org/resource/Uwe_Fahrenkrog-Petersen'], 'abstract': '"99 Luftballons" (German: Neunundneunzig Luftballons, "99 balloons") is a song by the German band Nena from their 1983 self-titled album. An English-language version titled "99 Red Balloons", with lyrics by Kevin McAlea, was also released on the album 99 Luftballons in 1984 after widespread success of the original in Europe and Japan. The English version is not a direct translation of the German original and contains lyrics with a somewhat different meaning. In the US, the English-language version did not chart, while the German-language recording became Nena\'s only US hit.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/How_You_Remind_Me', 'track_name': 'How You Remind Me', 'artist': 'http://dbpedia.org/resource/Nickelback', 'artist_name': 'Nickelback', 'wiki': 'http://en.wikipedia.org/wiki/How_You_Remind_Me', 'hometown': 'http://dbpedia.org/resource/Hanna,_Alberta', 'released': '12 December 2012', 'producers': ['http://dbpedia.org/resource/Nickelback', 'http://dbpedia.org/resource/Rick_Parashar'], 'writers': ['http://dbpedia.org/resource/Chad_Kroeger'], 'awards': ['Gold', 'Platinum'], 'labels': ['http://dbpedia.org/resource/Roadrunner_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Post-grunge'], 'related_artists': ['http://dbpedia.org/resource/3_Doors_Down', 'http://dbpedia.org/resource/Billy_Gibbons', 'http://dbpedia.org/resource/Chad_Kroeger', 'http://dbpedia.org/resource/Daniel_Adair', 'http://dbpedia.org/resource/Joey_Moi', 'http://dbpedia.org/resource/Jon_Redwine', 'http://dbpedia.org/resource/Josey_Scott', 'http://dbpedia.org/resource/Josh_Ramsay', 'http://dbpedia.org/resource/Mike_Shipley', 'http://dbpedia.org/resource/Nuno_Bettencourt', 'http://dbpedia.org/resource/Rick_Parashar', 'http://dbpedia.org/resource/Robert_John_%22Mutt%22_Lange', 'http://dbpedia.org/resource/Ryan_Peake', 'http://dbpedia.org/resource/Theory_of_a_Deadman'], 'abstract': '"How You Remind Me" is a song by Canadian rock band Nickelback. Written by lead singer Chad Kroger and composed by the band, the track was released on July 17, 2001, as the lead single from their third studio album, Silver Side Up (2001). A "Gold Mix" was made for latter editions of the single with the heavier guitars edited out of the chorus. Kroeger referred to this song as the song that put Nickelback on the map when played at their concert in Sturgis, South Dakota. Considered to be Nickelback\'s signature song, "How You Remind Me" reached the top of the US Billboard Hot 100 and was named the number-one most played song on US radio of the 2000s decade by Nielsen Soundscan, being spun over 1.2 million times on US airwaves since its release in 2001 to the end of 2009. The song was ranked fourth on the Billboard Hot 100 Songs of the Decade and 75th on the UK decade-end chart. It was nominated for the Kerrang! Award for Best Single. "How You Remind Me" was also rated the number-one rock song and number-four alternative song of the decade of the 2000s by Billboard. The song was featured in the music video game Guitar Hero: Warriors of Rock and in a recut, PG-13 version of Deadpool 2 titled Once Upon a Deadpool. The song played a large role in a Saturday Night Live skit on March 10, 2018, with Sterling K. Brown in which the lyrics are a dying woman\'s final words.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Lean_On', 'track_name': 'Lean On', 'artist': 'http://dbpedia.org/resource/Major_Lazer', 'artist_name': 'Major Lazer', 'wiki': 'http://en.wikipedia.org/wiki/Lean_On', 'hometown': 'http://dbpedia.org/resource/Miami', 'released': '02 March 2015', 'producers': ['http://dbpedia.org/resource/DJ_Snake', 'http://dbpedia.org/resource/Major_Lazer'], 'writers': ['http://dbpedia.org/resource/DJ_Snake', 'http://dbpedia.org/resource/Diplo', 'http://dbpedia.org/resource/Jr_Blender', 'http://dbpedia.org/resource/MØ', 'http://dbpedia.org/resource/Tchami', 'William Grigahcine', 'Philip Meckseper', 'Thomas Pentz', 'Martin Bresso', 'Karen Marie Ørsted'], 'awards': ['Diamond', 'Gold', 'Platinum'], 'labels': ['http://dbpedia.org/resource/Mad_Decent'], 'genres': ['http://dbpedia.org/resource/Electronic_music', 'http://dbpedia.org/resource/Moombahton'], 'related_artists': ['http://dbpedia.org/resource/Afrojack', 'http://dbpedia.org/resource/Anitta_(singer)', 'http://dbpedia.org/resource/Badshah_(rapper)', 'http://dbpedia.org/resource/Boaz_van_de_Beatz', 'http://dbpedia.org/resource/Busy_Signal', 'http://dbpedia.org/resource/DJ_Snake', 'http://dbpedia.org/resource/MØ', 'http://dbpedia.org/resource/Nebat_Drums', 'http://dbpedia.org/resource/Snoop_Dogg', 'http://dbpedia.org/resource/The_Flexican'], 'abstract': '"Lean On" is a song recorded by American electronic dance music group Major Lazer and French DJ and record producer DJ Snake featuring vocals from Danish singer MØ. It was released on March 2, 2015, as the lead single from Major Lazer\'s third studio album, Peace Is the Mission (2015). It was written by MØ, Diplo, William Grigahcine, Martin Bresso and Jr Blender, and produced by Major Lazer and DJ Snake. It is an EDM, electronic and moombahton song. "Lean On" was a critical and commercial success, peaking at number four on the US Billboard Hot 100 and number two on the UK Singles Chart. It reached number one in several other countries including Argentina, Australia, Denmark, Finland, Ireland, the Netherlands, New Zealand, Mexico and Switzerland; as well as the top 10 in Austria, Belgium, Canada, Colombia, France, Israel, Italy, Norway, Poland, Spain and Sweden. In November 2015, "Lean On" was named by Spotify as the most streamed song of all time, and has over 1 billion streams globally as of June 2017; however, it was later overtaken by Drake\'s "One Dance" (2016). The accompanying music video for "Lean On" was filmed in ND Studios, Karjat, Kaul Heritage City, in Vasai in Maharashtra, India and in the Golden Hall at Stockholm City Hall. The video premiered on March 23, 2015, and has over 3 billion views on YouTube as of May 2021. According to IFPI, "Lean On" was the fifth best selling song of 2015 worldwide, and one of the best-selling singles of all time, with global sales of 13.1 million.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Self_Control_(Raf_song)', 'track_name': 'Self Control', 'artist': 'http://dbpedia.org/resource/Laura_Branigan', 'artist_name': 'Laura Branigan', 'wiki': 'http://en.wikipedia.org/wiki/Self_Control_(Raf_song)', 'producers': ['http://dbpedia.org/resource/Giancarlo_Bigazzi', 'http://dbpedia.org/resource/Jack_White_(music_producer)', 'http://dbpedia.org/resource/Juan_Carlos_Calderón', 'http://dbpedia.org/resource/Mikel_Herzog', 'http://dbpedia.org/resource/Robbie_Buchanan'], 'writers': ['http://dbpedia.org/resource/Giancarlo_Bigazzi', 'http://dbpedia.org/resource/Juan_Carlos_Calderón', 'http://dbpedia.org/resource/Mikel_Herzog', 'http://dbpedia.org/resource/Raf_(singer)', 'Steve Piccolo'], 'awards': ['Gold', 'Silver'], 'labels': ['http://dbpedia.org/resource/Carrere_Records'], 'genres': ['http://dbpedia.org/resource/Italo_disco'], 'related_artists': ['http://dbpedia.org/resource/Bob_Conti', 'http://dbpedia.org/resource/Candy_DeRouge', 'http://dbpedia.org/resource/Device_(pop-rock_band)', 'http://dbpedia.org/resource/Mary_Susan_Applegate', 'http://dbpedia.org/resource/Umberto_Tozzi'], 'abstract': '"Self Control" is a song by Italian singer Raf, released in 1984. It was written by Giancarlo Bigazzi, Steve Piccolo and Raf. The song was covered the same year by American singer Laura Branigan. Her version first hit no. 1 in Germany on June 15, 1984. Raf\'s version first hit no. 1 in Italy on June 23, 1984. Both versions of the song were popular across Europe during much of the summer of 1984 and were the most successful single of the year in Germany and Switzerland. Branigan\'s version peaked at no. 4 on the US Billboard Hot 100 chart and also went to no. 2 on the dance chart. The song has become one of the defining songs of the 1980s, with a number of remakes recorded each year. Notable covers include Puerto Rican singer Ricky Martin in 1993, a hit dance remake by Branigan in 2004 and two 2006 versions that hit the Top 5 in various European enclaves, by Danish dance group Infernal and Spanish singer Soraya Arnelas.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Pumped_Up_Kicks', 'track_name': 'Pumped Up Kicks', 'artist': 'http://dbpedia.org/resource/Foster_the_People', 'artist_name': 'Foster the People', 'wiki': 'http://en.wikipedia.org/wiki/Pumped_Up_Kicks', 'hometown': 'http://dbpedia.org/resource/Los_Angeles', 'released': '14 September 2010', 'producers': ['http://dbpedia.org/resource/Mark_Foster_(singer)'], 'writers': ['http://dbpedia.org/resource/Mark_Foster_(singer)'], 'awards': ['Diamond', 'Platinum', 'Platinum+Gold'], 'labels': ['http://dbpedia.org/resource/Columbia_Records', 'http://dbpedia.org/resource/Startime_International'], 'genres': ['http://dbpedia.org/resource/Indie_pop', 'http://dbpedia.org/resource/Psychedelic_pop'], 'related_artists': ['http://dbpedia.org/resource/Danyew', 'http://dbpedia.org/resource/Gemma_Hayes', 'http://dbpedia.org/resource/Malbec_(band)', 'http://dbpedia.org/resource/Mark_Foster_(singer)__Mark_Foster__1', 'http://dbpedia.org/resource/Mark_Pontius', 'http://dbpedia.org/resource/Rich_Costey', 'http://dbpedia.org/resource/Swiss_Lips', 'http://dbpedia.org/resource/The_Velvet_Teen', 'http://dbpedia.org/resource/Young_&amp;_Sick'], 'abstract': '"Pumped Up Kicks" is a song by American indie pop band Foster the People. It was released as the band\'s debut single in September 2010, and the following year was included on their EP Foster the People and their debut album, Torches. "Pumped Up Kicks" became the group\'s breakthrough hit and was one of the most popular songs of 2011. The song was written and recorded by frontman Mark Foster while he was working as a commercial jingle writer. Contrasting with the upbeat musical composition, the lyrics describe the homicidal thoughts of a troubled youth named Robert. The track received considerable attention after it was posted online in 2010 as a free download, and it helped the group garner a multi-album record deal with Columbia Records imprint Startime International. "Pumped Up Kicks" proved to be a sleeper hit; in 2011, after receiving significant airplay on modern rock stations, the song crossed-over onto contemporary hit radio stations. The song spent eight consecutive weeks at number three on the Billboard Hot 100 chart in the United States, making it the first Billboard Alternative Songs number-one single to crack the U.S. top 5 since Kings of Leon\'s "Use Somebody" in 2009. The song was widely praised by critics, and it has been licensed for use in a wide range of popular media since its release. "Pumped Up Kicks" also received a Grammy Award nomination for Best Pop Duo/Group Performance. The song remains the band\'s most successful hit single to date.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Tubthumping', 'track_name': 'Tubthumping', 'artist': 'http://dbpedia.org/resource/Chumbawamba', 'artist_name': 'Chumbawamba', 'wiki': 'http://en.wikipedia.org/wiki/Tubthumping', 'hometown': 'http://dbpedia.org/resource/Burnley', 'released': '11 August 1997', 'producers': ['*Chumbawamba'], 'writers': ['*Chumbawamba'], 'awards': ['Gold', 'Platinum'], 'labels': ['http://dbpedia.org/resource/EMI', 'http://dbpedia.org/resource/Republic_Records', 'http://dbpedia.org/resource/Universal_Records_(1995−2005)'], 'genres': ['http://dbpedia.org/resource/Dance-rock'], 'related_artists': ["http://dbpedia.org/resource/Belinda_O'Hooley", 'http://dbpedia.org/resource/Boff_Whalley', 'http://dbpedia.org/resource/Credit_to_the_Nation', 'http://dbpedia.org/resource/Danbert_Nobacon', 'http://dbpedia.org/resource/Dunstan_Bruce', 'http://dbpedia.org/resource/Jude_Abbott', 'http://dbpedia.org/resource/Lou_Watts', "http://dbpedia.org/resource/O'Hooley_&amp;_Tidow", 'http://dbpedia.org/resource/Phil_Moody', 'http://dbpedia.org/resource/The_Donkeys_(British_band)', 'http://dbpedia.org/resource/The_Ex_(band)'], 'abstract': '"Tubthumping" (also known colloquially as "I Get Knocked Down") is a song released by British rock band Chumbawamba from their eighth studio album, Tubthumper (1997). It is the band\'s most successful single, peaking at number two on the UK Singles Chart. It topped the charts in Australia, Canada, Ireland, Italy, New Zealand and hit number six on the US Billboard Hot 100 (although it topped the US Modern Rock and Mainstream Top 40 charts). At the 1998 Brit Awards, "Tubthumping" was nominated for the Brit Award for Best British Single. It sold 880,000 copies in the UK.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/3AM_(Matchbox_Twenty_song)', 'track_name': '3AM (Matchbox Twenty song)', 'artist': 'http://dbpedia.org/resource/Matchbox_Twenty', 'artist_name': 'Matchbox Twenty', 'wiki': 'http://en.wikipedia.org/wiki/3AM_(Matchbox_Twenty_song)', 'hometown': 'http://dbpedia.org/resource/Orlando,_Florida', 'released': '23 November 1997', 'producers': ['http://dbpedia.org/resource/Matt_Serletic'], 'writers': ['http://dbpedia.org/resource/Brian_Yale', 'http://dbpedia.org/resource/Rob_Thomas_(musician)', 'John Leslie Goff', 'John Joseph Stanley'], 'labels': ['http://dbpedia.org/resource/Atlantic_Records', 'http://dbpedia.org/resource/Lava_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_rock'], 'related_artists': ['http://dbpedia.org/resource/Brian_Yale', "http://dbpedia.org/resource/Class_of_'99", 'http://dbpedia.org/resource/Joey_Huffman', 'http://dbpedia.org/resource/Kyle_Cook', 'http://dbpedia.org/resource/Paul_Doucette__Paul_Doucette__1', 'http://dbpedia.org/resource/Rob_Thomas_(musician)', 'http://dbpedia.org/resource/Ryan_Shore', 'http://dbpedia.org/resource/Stacy_Jones', "http://dbpedia.org/resource/Tabitha's_Secret", 'http://dbpedia.org/resource/The_Break_and_Repair_Method'], 'abstract': '"3AM" (stylized as "3 am" on the album and "3 AM" on the single) is the third single and the third track from Matchbox 20\'s debut album, Yourself or Someone Like You. The song topped the Canadian RPM Top Singles chart for two weeks and the US Billboard Adult Pop Songs chart for ten weeks; it was not eligible to chart on the Billboard Hot 100 at the time due to not receiving a physical release in the United States. Outside North America, "3AM" reached number 31 in Australia and became a minor hit in Europe.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Tomorrow_Comes_Today', 'track_name': 'Tomorrow Comes Today', 'artist': 'http://dbpedia.org/resource/Gorillaz', 'artist_name': 'Gorillaz', 'wiki': 'http://en.wikipedia.org/wiki/Tomorrow_Comes_Today', 'hometown': 'http://dbpedia.org/resource/London', 'released': '27 November 2000', 'producers': ['http://dbpedia.org/resource/Dan_the_Automator', 'http://dbpedia.org/resource/Gorillaz', 'Tom Girling', 'Jason Cox'], 'writers': ['http://dbpedia.org/resource/Damon_Albarn', 'http://dbpedia.org/resource/Jamie_Hewlett'], 'labels': ['http://dbpedia.org/resource/EMI_Records'], 'genres': ['http://dbpedia.org/resource/Dub_music', 'http://dbpedia.org/resource/Lo-fi_music', 'http://dbpedia.org/resource/Trip_hop'], 'related_artists': ['http://dbpedia.org/resource/Azekel', 'http://dbpedia.org/resource/Banx_&amp;_Ranx', 'http://dbpedia.org/resource/Bashy', 'http://dbpedia.org/resource/Blur_(band)', 'http://dbpedia.org/resource/Bobby_Womack', 'http://dbpedia.org/resource/Cass_Browne', 'http://dbpedia.org/resource/Cheick_Tidiane_Seck', 'http://dbpedia.org/resource/DRC_Music__DRC_Music__1', 'http://dbpedia.org/resource/Dan_the_Automator', 'http://dbpedia.org/resource/Danger_Mouse_(musician)', 'http://dbpedia.org/resource/Dave_Rowntree', 'http://dbpedia.org/resource/David_Jude_Jolicoeur', 'http://dbpedia.org/resource/De_La_Soul', 'http://dbpedia.org/resource/Deadcuts', 'http://dbpedia.org/resource/Del_the_Funky_Homosapien', 'http://dbpedia.org/resource/Deltron_3030', 'http://dbpedia.org/resource/Demon_Strings', 'http://dbpedia.org/resource/Dennis_Rollins', 'http://dbpedia.org/resource/Earl_Sixteen', 'http://dbpedia.org/resource/Ed_Case_(musician)', 'http://dbpedia.org/resource/Fraser_T._Smith', 'http://dbpedia.org/resource/Graham_Coxon', 'http://dbpedia.org/resource/James_Ford_(musician)', 'http://dbpedia.org/resource/James_Murphy_(electronic_musician)', 'http://dbpedia.org/resource/Jean-Michel_Jarre', 'http://dbpedia.org/resource/Jeff_Wootton', 'http://dbpedia.org/resource/Kali_Uchis', 'http://dbpedia.org/resource/Kano_(British_musician)', 'http://dbpedia.org/resource/Kelela', 'http://dbpedia.org/resource/Kid_Koala', 'http://dbpedia.org/resource/Little_Dragon', 'http://dbpedia.org/resource/Mick_Jones_(The_Clash_guitarist)__Mick_Jones__1', 'http://dbpedia.org/resource/Miho_Hatori', 'http://dbpedia.org/resource/Morgan_Nicholls', 'http://dbpedia.org/resource/Paul_Simonon__Paul_Simonon__1', 'http://dbpedia.org/resource/Pauli_Lovejoy', 'http://dbpedia.org/resource/Phi_Life_Cypher', 'http://dbpedia.org/resource/Robert_Del_Naja', 'http://dbpedia.org/resource/Robert_Smith_(musician)', 'http://dbpedia.org/resource/Senseless_Things', 'http://dbpedia.org/resource/Seye_Adelekan', 'http://dbpedia.org/resource/Shaun_Ryder', 'http://dbpedia.org/resource/Shelley_FKA_DRAM', 'http://dbpedia.org/resource/Simon_Katz', 'http://dbpedia.org/resource/Simon_Tong', 'http://dbpedia.org/resource/Snoop_Dogg', 'http://dbpedia.org/resource/Spacemonkeyz', 'http://dbpedia.org/resource/Terry_Hall_(singer)', 'http://dbpedia.org/resource/The_Horrors', 'http://dbpedia.org/resource/The_Internet_(band)', 'http://dbpedia.org/resource/The_Pharcyde', 'http://dbpedia.org/resource/The_Twilite_Tone', 'http://dbpedia.org/resource/U_Brown', 'http://dbpedia.org/resource/Yukimi_Nagano', 'http://dbpedia.org/resource/Zebra_Katz'], 'abstract': '"Tomorrow Comes Today" is a song from British alternative rock virtual band Gorillaz\'s self-titled debut album Gorillaz and was their first release when issued as an EP in November 2000. The first three songs from the EP ended up on their debut album, however, "Latin Simone" was heavily edited, and dubbed into Spanish, for the album release. The new version was sung by Ibrahim Ferrer, and renamed "Latin Simone (¿Que Pasa Contigo?)". The original version is sung by 2-D (voiced by Damon Albarn) and appears along with "12D3" on the later-released compilation album G-Sides. The song itself was also the fourth and final single from that album, released on 25 February 2002. It peaked at number 33 on the UK Singles Chart. A demo version of the song, "I Got Law" was included as a bonus track of the Japanese edition of 13 by Blur, Damon Albarn\'s other musical project.'}</t>
+  </si>
+  <si>
+    <t>{'track': "http://dbpedia.org/resource/It's_My_Life_(Talk_Talk_song)", 'track_name': "It's My Life (cançó)", 'artist': 'http://dbpedia.org/resource/No_Doubt', 'artist_name': 'No Doubt', 'wiki': "http://en.wikipedia.org/wiki/It's_My_Life_(Talk_Talk_song)", 'hometown': 'http://dbpedia.org/resource/Anaheim,_California', 'released': '20 October 2003', 'producers': ['http://dbpedia.org/resource/Tim_Friese-Greene'], 'writers': ['http://dbpedia.org/resource/Mark_Hollis', 'http://dbpedia.org/resource/Tim_Friese-Greene'], 'awards': ['Platinum', 'Silver'], 'labels': ['http://dbpedia.org/resource/EMI_Records', 'http://dbpedia.org/resource/Parlophone'], 'genres': ['http://dbpedia.org/resource/Eurodance', 'http://dbpedia.org/resource/New_wave_music', 'http://dbpedia.org/resource/Synth-pop', '*new wave'], 'related_artists': ['http://dbpedia.org/resource/311_(band)', 'http://dbpedia.org/resource/Bow_Wow_Wow', 'http://dbpedia.org/resource/Dreamcar', 'http://dbpedia.org/resource/Invincible_Overlord', 'http://dbpedia.org/resource/Major_Lazer', 'http://dbpedia.org/resource/Pink_(singer)', 'http://dbpedia.org/resource/Starpool', 'http://dbpedia.org/resource/Sublime_(band)'], 'abstract': '"It\'s My Life" is a song by the English new wave band Talk Talk. Written by Mark Hollis and Tim Friese-Greene, it was the title track on the band\'s second album and released as its first single in January 1984. It reached number 46 on the UK Singles Chart, but did better in several other countries, reaching number 33 in Germany, number 32 in New Zealand, and number 25 in France. In North America, it entered the Top 40 in both the United States (at number 31) and Canada (at number 30). It peaked at number 1 on the US Dance Club Songs chart. The single was re-released in the UK in 1985, but reached only number 93. In 1990, however, "It\'s My Life" was reissued again to promote the compilation album Natural History: The Very Best of Talk Talk. This time, the song was a hit in the UK, reaching number 13, the band\'s highest chart-placing single in its native country.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Monsters_(Shinedown_song)', 'track_name': 'Monsters (Shinedown song)', 'artist': 'http://dbpedia.org/resource/Shinedown', 'artist_name': 'Shinedown', 'wiki': 'http://en.wikipedia.org/wiki/Monsters_(Shinedown_song)', 'hometown': 'http://dbpedia.org/resource/Jacksonville,_Florida', 'released': '01 March 2019', 'producers': ['http://dbpedia.org/resource/Shinedown', 'Eric Bass'], 'writers': ['http://dbpedia.org/resource/Brent_Smith', 'http://dbpedia.org/resource/Shinedown', 'Eric Bass'], 'awards': ['Gold'], 'labels': ['http://dbpedia.org/resource/Atlantic_Records'], 'genres': ['http://dbpedia.org/resource/Rock_music'], 'related_artists': ['http://dbpedia.org/resource/3_Doors_Down', 'http://dbpedia.org/resource/Brad_Stewart', 'http://dbpedia.org/resource/Call_Me_No_One', 'http://dbpedia.org/resource/Chris_Chaney', 'http://dbpedia.org/resource/Deepfield', 'http://dbpedia.org/resource/Fuel_(band)', 'http://dbpedia.org/resource/Nick_Perri', 'http://dbpedia.org/resource/Zach_Myers'], 'abstract': '"Monsters" is a song by American rock band Shinedown. It was their third single off of their sixth studio album Attention Attention. It reached the top of the Billboard Mainstream Rock Songs chart in June 2019. Upon reaching number one on the Mainstream Rock, Shinedown moved into second place for the most Mainstream Rock number ones with fourteen songs. "Monsters" was nominated for iHeartRadio\'s rock song of the year award.'}</t>
+  </si>
+  <si>
+    <t>{'track': "http://dbpedia.org/resource/Don't_Go_Breaking_My_Heart_(Backstreet_Boys_song)", 'track_name': "Don't Go Breaking My Heart (Backstreet Boys song)", 'artist': 'http://dbpedia.org/resource/Backstreet_Boys', 'artist_name': 'Backstreet Boys', 'wiki': "http://en.wikipedia.org/wiki/Don't_Go_Breaking_My_Heart_(Backstreet_Boys_song)", 'hometown': 'http://dbpedia.org/resource/Orlando,_Florida', 'released': '17 May 2018', 'producers': ['Stuart Crichton', 'Jamie Hartman'], 'writers': ['http://dbpedia.org/resource/Stuart_Crichton', 'http://dbpedia.org/resource/Wrabel', 'Jamie Hartman'], 'awards': ['Gold'], 'labels': ['http://dbpedia.org/resource/RCA_Records'], 'genres': ['http://dbpedia.org/resource/Electropop'], 'related_artists': ['http://dbpedia.org/resource/98_Degrees', 'http://dbpedia.org/resource/Aaron_Carter', 'http://dbpedia.org/resource/Adam_Anders', 'http://dbpedia.org/resource/Aimee_Mayo', 'http://dbpedia.org/resource/Andreas_Carlsson', 'http://dbpedia.org/resource/Andrew_Lane_(record_producer)', 'http://dbpedia.org/resource/Billy_Mann', 'http://dbpedia.org/resource/Bravo_All_Stars', 'http://dbpedia.org/resource/Brian_Kennedy_(record_producer)', 'http://dbpedia.org/resource/Don_Mescall', 'http://dbpedia.org/resource/Glen_Scott', 'http://dbpedia.org/resource/Herbie_Crichlow', 'http://dbpedia.org/resource/JC_Chasez', 'http://dbpedia.org/resource/Johnny_Wright_(music_manager)', 'http://dbpedia.org/resource/Kate_Alexa', 'http://dbpedia.org/resource/Kristian_Lundin', 'http://dbpedia.org/resource/Lindy_Robbins', 'http://dbpedia.org/resource/Lowell_(musician)', 'http://dbpedia.org/resource/Melvin_E._Brown', 'http://dbpedia.org/resource/Mindi_Abair', 'http://dbpedia.org/resource/Morgan_Taylor_Reid', 'http://dbpedia.org/resource/NKOTBSB', 'http://dbpedia.org/resource/New_Kids_on_the_Block', 'http://dbpedia.org/resource/Rami_Yacoub', 'http://dbpedia.org/resource/Rob_Lewis_(producer)', 'http://dbpedia.org/resource/Souleye_(hip_hop_artist)', 'http://dbpedia.org/resource/Stuart_Crichton', 'http://dbpedia.org/resource/The_Exchange_(band)', 'http://dbpedia.org/resource/Tom_Coyne_(music_engineer)', 'http://dbpedia.org/resource/Trey_D.', 'http://dbpedia.org/resource/Von_Pimpenstein', 'http://dbpedia.org/resource/Westlife', 'http://dbpedia.org/resource/Willa_Ford'], 'abstract': '"Don\'t Go Breaking My Heart" is a song by American vocal group Backstreet Boys. The song was released on May 17, 2018 as the lead single to their ninth studio album DNA (their eighth in the US). The single peaked at number 63 on the Billboard Hot 100, which is their first song as lead artist on the chart since "Inconsolable" in 2007, and their highest-charted single since "Incomplete" in 2005. The song received a Grammy Nomination for “Best Pop Duo/Group” for the 2019 ceremony, their first nomination since "Shape of My Heart" at the 2002 ceremony.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Sultans_of_Swing', 'track_name': 'Sultans of Swing', 'artist': 'http://dbpedia.org/resource/Dire_Straits', 'artist_name': 'Dire Straits', 'wiki': 'http://en.wikipedia.org/wiki/Sultans_of_Swing', 'hometown': 'http://dbpedia.org/resource/Deptford', 'producers': ['http://dbpedia.org/resource/Muff_Winwood'], 'writers': ['http://dbpedia.org/resource/Mark_Knopfler'], 'awards': ['Gold', 'Platinum'], 'labels': ['http://dbpedia.org/resource/Vertigo_Records', 'http://dbpedia.org/resource/Warner_Records'], 'genres': ['http://dbpedia.org/resource/Pub_rock_(United_Kingdom)'], 'related_artists': ['http://dbpedia.org/resource/Alan_Clark_(keyboardist)', 'http://dbpedia.org/resource/Bill_Schnee', 'http://dbpedia.org/resource/Bob_Dylan', 'http://dbpedia.org/resource/Chris_White_(saxophonist)', 'http://dbpedia.org/resource/Chris_Whitten', 'http://dbpedia.org/resource/David_Knopfler', 'http://dbpedia.org/resource/Eric_Clapton', 'http://dbpedia.org/resource/Guy_Fletcher', 'http://dbpedia.org/resource/Hal_Lindes', 'http://dbpedia.org/resource/Jack_Sonni', 'http://dbpedia.org/resource/John_Illsley', 'http://dbpedia.org/resource/Mark_Knopfler', 'http://dbpedia.org/resource/Maya_Lavelle', 'http://dbpedia.org/resource/Michael_Brecker__Michael_Brecker__1', 'http://dbpedia.org/resource/Molly_Duncan', 'http://dbpedia.org/resource/Muff_Winwood', 'http://dbpedia.org/resource/Neil_Dorfsman', 'http://dbpedia.org/resource/Nils_Lofgren', 'http://dbpedia.org/resource/Omar_Hakim', 'http://dbpedia.org/resource/Phil_Palmer', 'http://dbpedia.org/resource/Pick_Withers', 'http://dbpedia.org/resource/Sting_(musician)', 'http://dbpedia.org/resource/Terry_Williams_(drummer)', 'http://dbpedia.org/resource/The_Notting_Hillbillies', 'http://dbpedia.org/resource/Tommy_Mandel'], 'abstract': '"Sultans of Swing" is a song by British rock band Dire Straits, written by frontman Mark Knopfler. The demo of the song was recorded at Pathway Studios, North London, in July 1977 and quickly acquired a following after it was put in rotation on BBC Radio London. Its popularity soon reached record executives, and Dire Straits were offered a contract with Phonogram Records. The song was then re-recorded in February 1978 at Basing Street Studios for the band\'s eponymous debut album. The B-side, "Eastbound Train", is a live track that otherwise only appears on the Live at the Hope &amp; Anchor Front Row Festival album. The single would go on to reach the top 5 in Canada, South Africa, and the United States as well as the top 10 in Australia, Ireland, and the United Kingdom.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/One_More_Time_(Daft_Punk_song)', 'track_name': 'One More Time (다프트 펑크의 노래)', 'artist': 'http://dbpedia.org/resource/Daft_Punk', 'artist_name': 'Daft Punk', 'wiki': 'http://en.wikipedia.org/wiki/One_More_Time_(Daft_Punk_song)', 'hometown': 'http://dbpedia.org/resource/Paris', 'released': '13 November 2000', 'producers': ['http://dbpedia.org/resource/Daft_Punk'], 'writers': ['http://dbpedia.org/resource/Guy-Manuel_de_Homem-Christo', 'http://dbpedia.org/resource/Romanthony', 'http://dbpedia.org/resource/Thomas_Bangalter', 'Anthony Moore'], 'awards': ['Gold', 'Platinum'], 'labels': ['http://dbpedia.org/resource/Virgin_Records'], 'genres': ['http://dbpedia.org/resource/French_house'], 'related_artists': ['http://dbpedia.org/resource/Chilly_Gonzales', 'http://dbpedia.org/resource/Crydamoure', "http://dbpedia.org/resource/Darlin'_(French_band)", 'http://dbpedia.org/resource/Giorgio_Moroder', 'http://dbpedia.org/resource/Grand_Popo_Football_Club', 'http://dbpedia.org/resource/Greg_Leisz', 'http://dbpedia.org/resource/Guy-Manuel_de_Homem-Christo', 'http://dbpedia.org/resource/Joseph_Trapanese', 'http://dbpedia.org/resource/Kanye_West', 'http://dbpedia.org/resource/Kiwi_Time', 'http://dbpedia.org/resource/Kygo', 'http://dbpedia.org/resource/Music_Sounds_Better_with_You', 'http://dbpedia.org/resource/Nathan_East', 'http://dbpedia.org/resource/Nile_Rodgers', 'http://dbpedia.org/resource/Omar_Hakim', 'http://dbpedia.org/resource/Parcels_(band)', 'http://dbpedia.org/resource/Paul_Jackson_Jr.', 'http://dbpedia.org/resource/Paul_Williams_(songwriter)', 'http://dbpedia.org/resource/Pedro_Winter', 'http://dbpedia.org/resource/Peter_Franco', 'http://dbpedia.org/resource/Pharrell_Williams', 'http://dbpedia.org/resource/Phoenix_(band)', 'http://dbpedia.org/resource/Photek', 'http://dbpedia.org/resource/Romanthony', 'http://dbpedia.org/resource/Rudy_Nicoletti', 'http://dbpedia.org/resource/Sander_Kleinenberg', 'http://dbpedia.org/resource/Teriyaki_Boyz', 'http://dbpedia.org/resource/The_Weeknd', 'http://dbpedia.org/resource/Thomas_Bangalter', 'http://dbpedia.org/resource/Todd_Edwards', 'http://dbpedia.org/resource/Together_(French_duo)'], 'abstract': '"One More Time" is a song by French electronic music duo Daft Punk, released as a single from their second album, Discovery (2001), on 13 November 2000. It is a French house song featuring a stylistically autotuned vocal performance by Romanthony. The music video of the song forms part of the 2003 anime film, Interstella 5555: The 5tory of the 5ecret 5tar 5ystem. "One More Time" was a commercial success, charting at number one on the French Singles Chart, number two on the UK Singles Chart, and number 61 on the US Billboard Hot 100. "One More Time" was listed at number five on Pitchfork\'s top 500 songs of the 2000s, with the magazine writing that it "distill[s] 25 years of pop and house into five and a half minutes of first-time joy." Rolling Stone listed it at number 33 of their top 100 songs of the decade (2000–2009) as well as number 307 on its amended "The 500 Greatest Songs of All Time" list in May 2010. It was voted by Mixmag readers as the greatest dance record of all time. Also, "One More Time" was ranked at number 11 on The Village Voice\'s Pazz &amp; Jop annual year-end critics\' poll. The song was uploaded on YouTube by Daft Punk on 24 February 2009.'}</t>
+  </si>
+  <si>
+    <t>{'track': "http://dbpedia.org/resource/Don't_Tell_Me_(What_Love_Can_Do)", 'track_name': "Don't Tell Me (What Love Can Do)", 'artist': 'http://dbpedia.org/resource/Van_Halen', 'artist_name': 'Van Halen', 'wiki': "http://en.wikipedia.org/wiki/Don't_Tell_Me_(What_Love_Can_Do)", 'hometown': 'http://dbpedia.org/resource/Pasadena,_California', 'released': '28 December 1994', 'producers': ['http://dbpedia.org/resource/Bruce_Fairbairn'], 'writers': ['http://dbpedia.org/resource/Alex_Van_Halen', 'http://dbpedia.org/resource/Eddie_Van_Halen', 'http://dbpedia.org/resource/Michael_Anthony_(musician)', 'http://dbpedia.org/resource/Sammy_Hagar'], 'labels': ['http://dbpedia.org/resource/Warner_Records'], 'related_artists': ['http://dbpedia.org/resource/Alan_Fitzgerald', 'http://dbpedia.org/resource/Alex_Van_Halen', 'http://dbpedia.org/resource/Bruce_Fairbairn', 'http://dbpedia.org/resource/Chickenfoot', 'http://dbpedia.org/resource/David_Lee_Roth', 'http://dbpedia.org/resource/Free_Spirit_(band)', 'http://dbpedia.org/resource/Gary_Cherone', 'http://dbpedia.org/resource/Hagar_Schon_Aaronson_Shrieve', 'http://dbpedia.org/resource/Hurtsmile', 'http://dbpedia.org/resource/Mammoth_WVH', 'http://dbpedia.org/resource/Michael_Anthony_(musician)', 'http://dbpedia.org/resource/Mick_Jones_(Foreigner_guitarist)__Mick_Jones__1', 'http://dbpedia.org/resource/Mike_Post', 'http://dbpedia.org/resource/Mitch_Malloy', 'http://dbpedia.org/resource/Montrose_(band)', 'http://dbpedia.org/resource/Planet_Us', 'http://dbpedia.org/resource/Sammy_Hagar', 'http://dbpedia.org/resource/Sammy_Hagar_and_the_Circle', 'http://dbpedia.org/resource/Ted_Templeman__Ted_Templeman__1', 'http://dbpedia.org/resource/The_David_Lee_Roth_Band', 'http://dbpedia.org/resource/Tribe_of_Judah_(band)', 'http://dbpedia.org/resource/Wolfgang_Van_Halen'], 'abstract': '"Don\'t Tell Me (What Love Can Do)" is a song by American hard rock band Van Halen from their 1995 album Balance. It is one of five singles issued for the album, and was the only one to reach #1 on the Billboard Album Rock Tracks chart, where it stayed for three weeks. Chuck Klosterman of Vulture.com ranked it the 67th-best Van Halen song, calling it "the best song off the worst Van Halen album that isn’t Van Halen III."'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Push_(Matchbox_Twenty_song)', 'track_name': 'Push (canción de Matchbox Twenty)', 'artist': 'http://dbpedia.org/resource/Matchbox_Twenty', 'artist_name': 'Matchbox Twenty', 'wiki': 'http://en.wikipedia.org/wiki/Push_(Matchbox_Twenty_song)', 'hometown': 'http://dbpedia.org/resource/Orlando,_Florida', 'producers': ['http://dbpedia.org/resource/Matt_Serletic'], 'writers': ['http://dbpedia.org/resource/Matt_Serletic', 'http://dbpedia.org/resource/Rob_Thomas_(musician)'], 'awards': ['Platinum'], 'labels': ['http://dbpedia.org/resource/Atlantic_Records', 'http://dbpedia.org/resource/Lava_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_rock'], 'related_artists': ['http://dbpedia.org/resource/Brian_Yale', "http://dbpedia.org/resource/Class_of_'99", 'http://dbpedia.org/resource/Joey_Huffman', 'http://dbpedia.org/resource/Kyle_Cook', 'http://dbpedia.org/resource/Paul_Doucette__Paul_Doucette__1', 'http://dbpedia.org/resource/Rob_Thomas_(musician)', 'http://dbpedia.org/resource/Ryan_Shore', 'http://dbpedia.org/resource/Stacy_Jones', "http://dbpedia.org/resource/Tabitha's_Secret", 'http://dbpedia.org/resource/The_Break_and_Repair_Method'], 'abstract': '"Push" is a song by American rock band Matchbox Twenty. It was released in 1997 as the second single from their debut album, Yourself or Someone Like You (1996). After landing "Long Day" on several rock radio stations paving the way, "Push" topped the US Modern Rock Tracks chart and became one of the band\'s most successful singles. At the time of its release, "Push" was controversial for its lyrics, with many critics accusing the band of glorifying domestic violence.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/When_You_Were_Young', 'track_name': 'When You Were Young', 'artist': 'http://dbpedia.org/resource/The_Killers', 'artist_name': 'The Killers', 'wiki': 'http://en.wikipedia.org/wiki/When_You_Were_Young', 'released': '18 September 2006', 'producers': ['http://dbpedia.org/resource/Alan_Moulder', 'http://dbpedia.org/resource/Flood_(producer)', 'http://dbpedia.org/resource/The_Killers'], 'writers': ['http://dbpedia.org/resource/Brandon_Flowers', 'http://dbpedia.org/resource/Dave_Keuning', 'http://dbpedia.org/resource/Mark_Stoermer', 'http://dbpedia.org/resource/Ronnie_Vannucci_Jr.'], 'awards': ['Diamond', 'Gold', 'Platinum'], 'labels': ['http://dbpedia.org/resource/Island_Records', 'http://dbpedia.org/resource/Mercury_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Heartland_rock', 'http://dbpedia.org/resource/New_wave_music', 'http://dbpedia.org/resource/Post-punk_revival'], 'related_artists': ['http://dbpedia.org/resource/Alex_Cameron_(musician)', 'http://dbpedia.org/resource/Amanda_Brown_(singer)', 'http://dbpedia.org/resource/Big_Talk', 'http://dbpedia.org/resource/Brandon_Flowers', 'http://dbpedia.org/resource/Curve_(band)', 'http://dbpedia.org/resource/Dave_Keuning', 'http://dbpedia.org/resource/Faulkner_(band)', 'http://dbpedia.org/resource/Fictionist', 'http://dbpedia.org/resource/Greg_Fidelman', 'http://dbpedia.org/resource/Inviolet_Row', 'http://dbpedia.org/resource/Johnny_Marr', 'http://dbpedia.org/resource/Juanita_Stein', 'http://dbpedia.org/resource/Mark_Needham', 'http://dbpedia.org/resource/Mark_Stoermer', 'http://dbpedia.org/resource/Mt._Desolation__Mt._Desolation__1', 'http://dbpedia.org/resource/Pet_Shop_Boys', 'http://dbpedia.org/resource/Ray_Suen', 'http://dbpedia.org/resource/Ronnie_Vannucci_Jr.', 'http://dbpedia.org/resource/Ryan_Pardey', 'http://dbpedia.org/resource/Sander_van_Doorn', 'http://dbpedia.org/resource/Sara_Watkins', 'http://dbpedia.org/resource/Shawn_Everett', 'http://dbpedia.org/resource/Stuart_Price__Stuart_Price__1', 'http://dbpedia.org/resource/Ted_Sablay', 'http://dbpedia.org/resource/The_Red_Romance', 'http://dbpedia.org/resource/The_Rentals', 'http://dbpedia.org/resource/The_Sweet_Inspirations', 'http://dbpedia.org/resource/Tommy_Marth', 'http://dbpedia.org/resource/Toni_Halliday'], 'abstract': '"When You Were Young" is a song by American rock band The Killers. It was released on September 18, 2006 as the lead single from their second studio album, Sam\'s Town (2006). The song was written and produced by The Killers and co-produced by Flood and Alan Moulder. The song has proven to be one of The Killers\' most successful singles, peaking at number 14 on the Billboard Hot 100, as well as their first number one on the U.S. Modern Rock Tracks chart. Only "Mr. Brightside" and "Somebody Told Me" would stay longer on the chart and have more pop airplay. It is also their highest-charting single to date in the United Kingdom and Australia, peaking at number two and number 10 respectively.'}</t>
+  </si>
+  <si>
+    <t>{'track': "http://dbpedia.org/resource/I'm_with_You_(Avril_Lavigne_song)", 'track_name': "I'm with You (пісня Авріл Лавінь)", 'artist': 'http://dbpedia.org/resource/Avril_Lavigne', 'artist_name': 'Avril Lavigne', 'wiki': "http://en.wikipedia.org/wiki/I'm_with_You_(Avril_Lavigne_song)", 'released': '18 November 2002', 'producers': ['http://dbpedia.org/resource/The_Matrix_(team)'], 'writers': ['http://dbpedia.org/resource/Lauren_Christy', 'http://dbpedia.org/resource/Scott_Spock', 'http://dbpedia.org/resource/The_Matrix_(team)', 'Avril Lavigne', 'Graham Edwards'], 'awards': ['Gold', 'Platinum', 'Silver'], 'labels': ['http://dbpedia.org/resource/Arista_Records'], 'genres': ['http://dbpedia.org/resource/Rock_music'], 'related_artists': ['http://dbpedia.org/resource/Adam_Leber', 'http://dbpedia.org/resource/Bon_Harris', 'http://dbpedia.org/resource/Butch_Walker', 'http://dbpedia.org/resource/Chantal_Kreviazuk', 'http://dbpedia.org/resource/Chris_Rene', 'http://dbpedia.org/resource/Clif_Magness', 'http://dbpedia.org/resource/Closet_Monster_(band)', 'http://dbpedia.org/resource/Corky_James', 'http://dbpedia.org/resource/Craig_Wood_(guitarist)', 'http://dbpedia.org/resource/Curtis_Frasca', 'http://dbpedia.org/resource/Devin_Bronson', 'http://dbpedia.org/resource/Evan_Taubenfeld', 'http://dbpedia.org/resource/Jesse_Colburn', 'http://dbpedia.org/resource/Lauren_Christy', 'http://dbpedia.org/resource/Lil_Mama', 'http://dbpedia.org/resource/Mark_Howard_(producer)', 'http://dbpedia.org/resource/Mark_Spicoluk', 'http://dbpedia.org/resource/Matt_Brann', 'http://dbpedia.org/resource/Nick_Brophy', 'http://dbpedia.org/resource/Peter_Zizzo', 'http://dbpedia.org/resource/The_Matrix_(team)'], 'abstract': '"I\'m with You" is a song by Canadian singer Avril Lavigne from her debut studio album, Let Go (2002). It was written by Lavigne and The Matrix, a production team consisting of Lauren Christy, Scott Spock and Graham Edwards. The song was released as the third single from the album on November 18, 2002, by Arista Records. "I\'m with You" was Lavigne\'s first ballad released as a single. It was the second Lavigne song to be nominated for a Grammy in the categories Song of the Year and Best Female Pop Vocal Performance at the 46th Annual Grammy Awards. The song reached number four on the US Billboard Hot 100 and reached the top 10 in nine other countries, including Ireland, Italy, and New Zealand, peaking within the top five in these regions. In the US, the song topped two Billboard listings: the Adult Top 40 and the Mainstream Top 40. "I\'m with You" received radio and television airplay in Australia, but it was not officially released there. The track was nominated for several awards following its release, winning two ASCAP Awards, a BMI Pop Music Award, and a SOCAN Award.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/A_Thousand_Miles', 'track_name': 'A Thousand Miles', 'artist': 'http://dbpedia.org/resource/Vanessa_Carlton', 'artist_name': 'Vanessa Carlton', 'wiki': 'http://en.wikipedia.org/wiki/A_Thousand_Miles', 'released': '12 February 2002', 'producers': ['http://dbpedia.org/resource/Ron_Fair', 'Curtis Schweitzer'], 'writers': ['http://dbpedia.org/resource/Vanessa_Carlton'], 'awards': ['Gold', 'Platinum'], 'labels': ['http://dbpedia.org/resource/A&amp;M_Records'], 'genres': ['http://dbpedia.org/resource/Pop_music'], 'related_artists': ['http://dbpedia.org/resource/Irv_Gotti', 'http://dbpedia.org/resource/Michael_Farrell_(musician)', 'http://dbpedia.org/resource/Peter_Zizzo', 'http://dbpedia.org/resource/Ron_Fair', 'http://dbpedia.org/resource/Tristen_Gaspadarek'], 'abstract': '"A Thousand Miles" (originally titled "Interlude") is the debut single of American pop singer Vanessa Carlton. Produced by Curtis Schweitzer and Ron Fair, the song was released as the lead single for Carlton\'s album Be Not Nobody (2002). Her signature song, it became Carlton\'s breakthrough hit and one of the most popular songs of the year. To date, it remains Carlton\'s biggest hit in the United States, and her only single to reach the top ten of the Billboard Hot 100, peaking at number five. The song had widespread success worldwide, reaching number one in Australia, where it was most successful, the top five in Ireland, and the top ten in the United Kingdom, France, Italy, and the Netherlands. The song has been covered by numerous artists, including Christian Lee Hutson, Icarus the Owl, Victoria Justice, David Archuleta, Ronan Parke, the Glee cast, and Terry Crews. It has also been sampled by T.I., Cheryl and Cam’ron.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Hey_Mama_(Black_Eyed_Peas_song)', 'track_name': 'Hey Mama', 'artist': 'http://dbpedia.org/resource/Black_Eyed_Peas', 'artist_name': 'Black Eyed Peas', 'wiki': 'http://en.wikipedia.org/wiki/Hey_Mama_(Black_Eyed_Peas_song)', 'released': '12 January 2004', 'producers': ['http://dbpedia.org/resource/Will.i.am'], 'writers': ['http://dbpedia.org/resource/Apl.de.ap', 'http://dbpedia.org/resource/Taboo_(rapper)', 'http://dbpedia.org/resource/Tippa_Irie', 'http://dbpedia.org/resource/Will.i.am'], 'awards': ['Gold'], 'labels': ['http://dbpedia.org/resource/A&amp;M_Records', 'http://dbpedia.org/resource/Interscope_Records', 'http://dbpedia.org/resource/Will.i.am_Music_Group'], 'genres': ['http://dbpedia.org/resource/Dancehall', 'http://dbpedia.org/resource/Hip_hop_music'], 'related_artists': ['http://dbpedia.org/resource/A_Million_Pieces', 'http://dbpedia.org/resource/Anders_Grahn', 'http://dbpedia.org/resource/Atban_Klann', 'http://dbpedia.org/resource/Bedtime_for_Toys', 'http://dbpedia.org/resource/Bucky_Jonson', 'http://dbpedia.org/resource/DJ_Rectangle', 'http://dbpedia.org/resource/Darryl_Swann', 'http://dbpedia.org/resource/George_Pajon', 'http://dbpedia.org/resource/Jean-Baptiste_(songwriter)', 'http://dbpedia.org/resource/Jean_Luc_Ponpon', 'http://dbpedia.org/resource/Joey_Boy', 'http://dbpedia.org/resource/Johnny_Goldstein', 'http://dbpedia.org/resource/Julie_Frost', 'http://dbpedia.org/resource/Kim_Hill_(soul_musician)', 'http://dbpedia.org/resource/Kryoman', 'http://dbpedia.org/resource/Macy_Gray', 'http://dbpedia.org/resource/Noelle_Scaggs', 'http://dbpedia.org/resource/Printz_Board', 'http://dbpedia.org/resource/Rhett_Lawrence', 'http://dbpedia.org/resource/Taboo_(rapper)', 'http://dbpedia.org/resource/The_Click_Five', 'http://dbpedia.org/resource/Urban_Punk__Harrell_Harris_Jr.__1', 'http://dbpedia.org/resource/Wild_Orchid_(group)', 'http://dbpedia.org/resource/Will.i.am'], 'abstract': '"Hey Mama" is a song by the American group the Black Eyed Peas with additional vocals provided by British reggae singer Tippa Irie. It was released in 2004 as the third single from their 2003 album, Elephunk, and became a top-ten hit in 14 countries, including Australia, Canada, Germany, New Zealand, Switzerland, and the United Kingdom.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Sunday_Morning_(No_Doubt_song)', 'track_name': 'Sunday Morning (No Doubt song)', 'artist': 'http://dbpedia.org/resource/No_Doubt', 'artist_name': 'No Doubt', 'wiki': 'http://en.wikipedia.org/wiki/Sunday_Morning_(No_Doubt_song)', 'hometown': 'http://dbpedia.org/resource/Anaheim,_California', 'released': '27 May 1997', 'producers': ['http://dbpedia.org/resource/Matthew_Wilder'], 'writers': ['http://dbpedia.org/resource/Eric_Stefani', 'http://dbpedia.org/resource/Gwen_Stefani', 'http://dbpedia.org/resource/Tony_Kanal'], 'awards': ['Gold'], 'labels': ['http://dbpedia.org/resource/Interscope_Records', 'http://dbpedia.org/resource/Trauma_Records'], 'genres': ['http://dbpedia.org/resource/Pop_music', 'http://dbpedia.org/resource/Ska'], 'related_artists': ['http://dbpedia.org/resource/311_(band)', 'http://dbpedia.org/resource/Adrian_Young__Adrian_Young__1', 'http://dbpedia.org/resource/Albhy_Galuten', 'http://dbpedia.org/resource/Baauer', 'http://dbpedia.org/resource/Bedtime_for_Toys', 'http://dbpedia.org/resource/Bow_Wow_Wow', 'http://dbpedia.org/resource/Corporate_Avenger', 'http://dbpedia.org/resource/Dreamcar', 'http://dbpedia.org/resource/Elan_Atias', 'http://dbpedia.org/resource/Eric_Stefani', 'http://dbpedia.org/resource/Gabrial_McNair', 'http://dbpedia.org/resource/Invincible_Overlord', 'http://dbpedia.org/resource/Jonas_Quant', 'http://dbpedia.org/resource/Major_Lazer', 'http://dbpedia.org/resource/Matt_Costa', 'http://dbpedia.org/resource/Pink_(singer)', 'http://dbpedia.org/resource/Simon_Gogerly', 'http://dbpedia.org/resource/Spike_Stent', 'http://dbpedia.org/resource/Starpool', 'http://dbpedia.org/resource/Sublime_(band)', 'http://dbpedia.org/resource/Teedra_Moses', 'http://dbpedia.org/resource/The_Stick_People', 'http://dbpedia.org/resource/Tom_Dumont', 'http://dbpedia.org/resource/Tony_Kanal'], 'abstract': '"Sunday Morning" is a song by American band No Doubt for their third studio album, Tragic Kingdom (1995). It was written by Gwen Stefani, Eric Stefani, and Tony Kanal, produced by Matthew Wilder, and released as the record\'s fifth single on May 27, 1997. The song has also been included on their 2003 greatest hits album, The Singles 1992–2003. Its lyrics describe a romantic relationship that ended in a breakup and was inspired by a discussion that Gwen Stefani had with Kanal. The song has been described as pop and ska recording with elements of reggae and Motown (music style). "Sunday Morning" received largely positive reviews from music critics who frequently deemed it a standout track on Tragic Kingdom. It has since been included on critics\' lists of best No Doubt and Stefani-penned songs. The song was not released as a commercial single in the United States, making it ineligible to enter the Billboard Hot 100 chart. However, it managed to peak at number 35 on the Mainstream Top 40 component chart. It also reached number two in Iceland and the top 40 in Australia and Canada. Elsewhere, the song obtained lower positions. The song\'s music video, directed by Sophie Muller, was the fifth and final video made for Tragic Kingdom. It features the band playing "Sunday Morning" in a garage to a lonesome man who strolled past their house. No Doubt later prepares a large dinner for themselves and once they settle in their backyard to eat, they engage in a food fight. The band has performed the single during many of their live appearances, including at their 1995–97 Tragic Kingdom World Tour and while serving as the guest musical act on The Tonight Show with Jay Leno in April 1997. Stefani, individually, performed the track at her 2018–2020 concert residency in Las Vegas.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Separate_Ways_(Worlds_Apart)', 'track_name': 'Separate Ways (Worlds Apart)', 'artist': 'http://dbpedia.org/resource/Journey_(band)', 'artist_name': 'Journey', 'wiki': 'http://en.wikipedia.org/wiki/Separate_Ways_(Worlds_Apart)', 'hometown': 'http://dbpedia.org/resource/California', 'released': '05 January 1983', 'producers': ['http://dbpedia.org/resource/Mike_Stone_(record_producer)', '*Kevin Elson'], 'writers': ['http://dbpedia.org/resource/Jonathan_Cain', 'http://dbpedia.org/resource/Steve_Perry'], 'labels': ['http://dbpedia.org/resource/Columbia_Records'], 'genres': ['http://dbpedia.org/resource/Hard_rock'], 'related_artists': ['http://dbpedia.org/resource/Abraxas_Pool', 'http://dbpedia.org/resource/Arnel_Pineda', 'http://dbpedia.org/resource/Aynsley_Dunbar__Aynsley_Dunbar__1', 'http://dbpedia.org/resource/Bad_English', 'http://dbpedia.org/resource/Bob_Glaub', 'http://dbpedia.org/resource/Deen_Castronovo', 'http://dbpedia.org/resource/Foreigner_(band)', 'http://dbpedia.org/resource/Frumious_Bandersnatch', 'http://dbpedia.org/resource/GZR', 'http://dbpedia.org/resource/Gary_Miller_(music_producer)', 'http://dbpedia.org/resource/George_Tickner', 'http://dbpedia.org/resource/Hagar_Schon_Aaronson_Shrieve', 'http://dbpedia.org/resource/Hardline_(band)', 'http://dbpedia.org/resource/Human_Clay_(band)', 'http://dbpedia.org/resource/Jeff_Scott_Soto', 'http://dbpedia.org/resource/John_Waite', 'http://dbpedia.org/resource/Jonathan_Cain', 'http://dbpedia.org/resource/Kevin_Chalfant', 'http://dbpedia.org/resource/Larrie_Londin', 'http://dbpedia.org/resource/Mahavishnu_Orchestra', 'http://dbpedia.org/resource/Marco_Mendoza__Marco_Mendoza__1', 'http://dbpedia.org/resource/Narada_Michael_Walden', 'http://dbpedia.org/resource/Neal_Schon', 'http://dbpedia.org/resource/New_England_(band)', 'http://dbpedia.org/resource/Omar_Hakim', 'http://dbpedia.org/resource/Planet_Us', 'http://dbpedia.org/resource/Prairie_Prince', 'http://dbpedia.org/resource/Randy_Jackson', 'http://dbpedia.org/resource/Rodney_Mills', 'http://dbpedia.org/resource/Ross_Valory', 'http://dbpedia.org/resource/Roy_Thomas_Baker', 'http://dbpedia.org/resource/Santana_(band)', 'http://dbpedia.org/resource/Schon_&amp;_Hammer', 'http://dbpedia.org/resource/Soul_SirkUS', 'http://dbpedia.org/resource/Steve_Augeri', 'http://dbpedia.org/resource/Steve_Perry', 'http://dbpedia.org/resource/Steve_Smith_(American_musician)', 'http://dbpedia.org/resource/Stevie_%22Keys%22_Roseman', 'http://dbpedia.org/resource/Talisman_(band)', 'http://dbpedia.org/resource/Tall_Stories_(band)', 'http://dbpedia.org/resource/Taylor_Rhodes', 'http://dbpedia.org/resource/The_Babys', 'http://dbpedia.org/resource/The_Dead_Daisies', 'http://dbpedia.org/resource/The_New_Cars', 'http://dbpedia.org/resource/The_Storm_(American_band)', 'http://dbpedia.org/resource/Vital_Information', 'http://dbpedia.org/resource/World_Classic_Rockers'], 'abstract': '"Separate Ways (Worlds Apart)" is a song performed by Journey, recorded for their album Frontiers and released as a single on January 5, 1983. It peaked at #8 for six consecutive weeks on the Billboard Hot 100 chart, and spent four weeks at No. 1 on the Top Tracks chart. To accompany the song on MTV, the band shot its first concept video. It was a difficult experience for a variety of reasons, and received mixed reviews from critics.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Burning_Heart_(song)', 'track_name': 'Burning Heart (Survivor)', 'artist': 'http://dbpedia.org/resource/Survivor_(band)', 'artist_name': 'Survivor', 'wiki': 'http://en.wikipedia.org/wiki/Burning_Heart_(song)', 'hometown': 'http://dbpedia.org/resource/Illinois', 'producers': ['http://dbpedia.org/resource/Frankie_Sullivan', 'http://dbpedia.org/resource/Jim_Peterik'], 'writers': ['http://dbpedia.org/resource/Frankie_Sullivan', 'http://dbpedia.org/resource/Jim_Peterik'], 'awards': ['Gold', 'Silver'], 'labels': ['http://dbpedia.org/resource/Scotti_Brothers_Records'], 'genres': ['http://dbpedia.org/resource/Hard_rock'], 'related_artists': ['http://dbpedia.org/resource/Cobra_(American_band)', 'http://dbpedia.org/resource/Dave_Bickler', 'http://dbpedia.org/resource/Frankie_Sullivan', 'http://dbpedia.org/resource/Gary_Smith_(drummer)', 'http://dbpedia.org/resource/Jim_Peterik', 'http://dbpedia.org/resource/Jimi_Jamison', 'http://dbpedia.org/resource/Kyle_Woodring', 'http://dbpedia.org/resource/McAuley_Schenker_Group', 'http://dbpedia.org/resource/Robin_McAuley', 'http://dbpedia.org/resource/Target_(American_band)', 'http://dbpedia.org/resource/The_Ides_of_March_(band)'], 'abstract': '"Burning Heart" is a song by Survivor. It appeared in the 1985 film Rocky IV and on its soundtrack album. The single peaked at number 2 on the Billboard Hot 100 for two weeks in February 1986, behind "That\'s What Friends Are For" by Dionne and Friends. It was the biggest hit the band had with Jamison on lead vocals. It was also a Top 5 hit in the UK, Germany and several other European countries, and reached the Top 15 in Canada. "Burning Heart", which is about an "all or nothing" battle, was inspired by the Cold War, as shown by lyrics such as "Is it East versus West?" and "Can any nation stand alone?" The Communist East versus Capitalist West conflict is reflected in the film by the fight in the boxing ring between Rocky and Ivan Drago. The final solo and tremolo bar solos in the middle of the song were played with a Fender Stratocaster. The song was used on the final episode of HBO\'s 24/7 documentary on the 2011 NHL Winter Classic. The song was used to describe the hype and East vs. West feel surrounding the Washington Capitals\' Russian superstar Alexander Ovechkin, and the Pittsburgh Penguins\' Canadian superstar Sidney Crosby, who were the focus of attention heading into the Winter Classic. The song was also used in the sixth episode of the third season of Netflix original series, Santa Clarita Diet, "The Chicken and the Pear". The song is featured in the enhanced versions of the 2013 game Grand Theft Auto V on the in-game radio station, Los Santos Rock Radio.'}</t>
+  </si>
+  <si>
+    <t>{'track': "http://dbpedia.org/resource/Ex's_&amp;_Oh's", 'track_name': "Ex's &amp; Oh's", 'artist': 'http://dbpedia.org/resource/Elle_King', 'artist_name': 'Elle King', 'wiki': "http://en.wikipedia.org/wiki/Ex's_&amp;_Oh's", 'released': '23 September 2014', 'producers': ['Dave Bassett'], 'writers': ['http://dbpedia.org/resource/Dave_Bassett_(songwriter)', 'http://dbpedia.org/resource/Elle_King'], 'awards': ['Gold', 'Platinum'], 'labels': ['http://dbpedia.org/resource/RCA_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Blues_rock', 'http://dbpedia.org/resource/Pop_rock'], 'related_artists': ['http://dbpedia.org/resource/Miranda_Lambert', 'http://dbpedia.org/resource/Sterling_Fox'], 'abstract': '"Ex\'s &amp; Oh\'s" is a song recorded by American singer and songwriter Elle King for her debut studio album, Love Stuff (2015). It was released on September 23, 2014, as King\'s debut solo single and the album\'s lead single via RCA Records. The song achieved success in the rock genre, peaking at number 1 on the Billboard Hot Rock Songs chart, and later crossed over to adult pop radio. In June 2015, "Ex\'s &amp; Oh\'s" was certified Gold by Music Canada; it has since been certified double Platinum. "Ex\'s &amp; Oh\'s" reached the top of the Alternative Songs chart in September 2015, becoming only the second song by a solo female to reach the top since 1996 after Lorde achieved the feat in 2013 with "Royals". The song also became King\'s first and only top-10 hit on the Billboard Hot 100 to date. It also charted moderately well internationally, attaining top-10 peaks in Australia, Austria, and New Zealand, amongst others. At the 58th Grammy Awards, "Ex\'s &amp; Oh\'s" was nominated for Best Rock Performance and Best Rock Song.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Something_Good_Can_Work', 'track_name': 'Something Good Can Work', 'artist': 'http://dbpedia.org/resource/Two_Door_Cinema_Club', 'artist_name': 'Two Door Cinema Club', 'wiki': 'http://en.wikipedia.org/wiki/Something_Good_Can_Work', 'hometown': 'http://dbpedia.org/resource/Northern_Ireland', 'released': '19 February 2009', 'producers': ['http://dbpedia.org/resource/Eliot_James', 'http://dbpedia.org/resource/Two_Door_Cinema_Club', 'Lexx ', 'Alex Trimble '], 'writers': ['http://dbpedia.org/resource/Two_Door_Cinema_Club', 'Kevin Baird', 'Sam Halliday', 'Alex Trimble'], 'labels': ['http://dbpedia.org/resource/Kitsuné'], 'genres': ['http://dbpedia.org/resource/Dance-punk', 'http://dbpedia.org/resource/Indie_pop', 'http://dbpedia.org/resource/Indie_rock'], 'related_artists': ['http://dbpedia.org/resource/December_streets', 'http://dbpedia.org/resource/Delorentos', 'http://dbpedia.org/resource/Madeon', 'http://dbpedia.org/resource/Mike_Crossey'], 'abstract': '"Something Good Can Work" is the first single by the Northern Irish rock band Two Door Cinema Club. The single was first released for promotion, but was released again on 7 April 2009 after signing with Kitsuné Music. The music video, which was filmed in Gran Canaria (Canary Islands), has amassed over fourteen million views on YouTube. "Something Good Can Work" appeared as the first track on Kitsuné\'s compilation Kitsuné Maison Compilation 7. The version on this compilation is different from the final album version, featuring slightly different vocals and a more guitar-oriented sound. There is also a different music video for this version. Both "Something Good Can Work" and "Do You Want It All?" appear on Two Door Cinema Club\'s album Tourist History.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Tomorrow_(Silverchair_song)', 'track_name': 'Tomorrow (cançó de Silverchair)', 'artist': 'http://dbpedia.org/resource/Silverchair', 'artist_name': 'Silverchair', 'wiki': 'http://en.wikipedia.org/wiki/Tomorrow_(Silverchair_song)', 'hometown': 'http://dbpedia.org/resource/Newcastle,_New_South_Wales', 'released': '16 September 1994', 'producers': ['http://dbpedia.org/resource/Kevin_Shirley', 'http://dbpedia.org/resource/Phil_McKellar'], 'writers': ['http://dbpedia.org/resource/Ben_Gillies', 'http://dbpedia.org/resource/Daniel_Johns'], 'awards': ['Gold', 'Platinum'], 'labels': ['http://dbpedia.org/resource/Columbia_Records', 'http://dbpedia.org/resource/Murmur_(record_label)'], 'genres': ['http://dbpedia.org/resource/Grunge'], 'related_artists': ['http://dbpedia.org/resource/Powderfinger', 'http://dbpedia.org/resource/Tambalane', 'http://dbpedia.org/resource/The_Dissociatives', 'http://dbpedia.org/resource/The_Mess_Hall', 'http://dbpedia.org/resource/Van_Dyke_Parks'], 'abstract': '"Tomorrow" is a song by Australian rock band Silverchair, which was released on 16 September 1994 on their debut extended play album, also titled Tomorrow. The song was later released on Frogstomp, the band\'s debut studio album, in 1995. The track was written by Daniel Johns, the band\'s lead singer and guitarist, as well as drummer Ben Gillies. It was produced and engineered by Phil McKellar at the national radio station Triple J\'s studios for SBS-TV\'s show, Nomad, which aired on 16 June 1994. After the broadcast the band were signed to the Murmur label – a Sony Music subsidiary – which subsequently issued the Tomorrow EP. "Tomorrow" became a breakthrough hit for Silverchair when it reached number one on the ARIA Singles Chart in October and remained at the top position for six weeks. A re-recorded version was issued in 1995 in the United States and also peaked at number one on both the Billboard Modern Rock Tracks and the Album Rock Tracks charts; it made No. 28 on the Billboard Hot 100 Airplay chart. In the United Kingdom, the song made No. 59 on the UK Singles Chart in September 1995. At the ARIA Music Awards of 1995, the song "Tomorrow" won three awards in the categories \'Single of the Year\', \'Highest Selling Single\', and \'Breakthrough Artist – Single\'; they won two further awards for Frogstomp. In January 2018, as part of Triple M\'s "Ozzest 100", the \'most Australian\' songs of all time, "Tomorrow" was ranked number 36.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Africa_(Toto_song)', 'track_name': 'Africa (chanson de Toto)', 'artist': 'http://dbpedia.org/resource/Toto_(band)', 'artist_name': 'Toto', 'wiki': 'http://en.wikipedia.org/wiki/Africa_(Toto_song)', 'hometown': 'http://dbpedia.org/resource/Los_Angeles', 'released': '29 May 2018', 'producers': ['http://dbpedia.org/resource/Patrick_Wilson_(musician)', 'http://dbpedia.org/resource/Toto_(band)'], 'writers': ['http://dbpedia.org/resource/David_Paich', 'http://dbpedia.org/resource/Jeff_Porcaro'], 'awards': ['Gold', 'Platinum', 'Silver'], 'labels': ['http://dbpedia.org/resource/Columbia_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Pop_rock', 'http://dbpedia.org/resource/Power_pop', 'http://dbpedia.org/resource/Soft_rock'], 'related_artists': ['http://dbpedia.org/resource/Boz_Scaggs', 'http://dbpedia.org/resource/LeRoux_(band)', 'http://dbpedia.org/resource/Michael_Jackson', 'http://dbpedia.org/resource/Michael_McDonald_(musician)', 'http://dbpedia.org/resource/Seals_and_Crofts', 'http://dbpedia.org/resource/Steely_Dan', 'http://dbpedia.org/resource/Yoso'], 'abstract': '"Africa" is a song by American rock band Toto, the tenth and final track on their fourth studio album Toto IV (1982). It was released as a single in the US through Columbia Records in October 1982, the album\'s third single overall and second in Europe. The song was written by band members David Paich and Jeff Porcaro, produced by the band, and mixed by Grammy-winning engineer Elliot Scheiner. Critics praised its composition and Toto\'s performances. The song reached number one on the United States\' Billboard Hot 100 chart, the band\'s only Billboard number one, and number one on the Canadian charts. It also peaked in the top ten in the United Kingdom, Ireland, Netherlands, New Zealand, and Switzerland. The song was accompanied by a music video, which premiered in 1983, and was directed by Steve Barron, who collaborated previously with the group for "Rosanna". The video features Toto in a library, as they perform and showcase various aspects of African culture. While popular in the 1980s and 1990s, with the song being certified gold by the RIAA in 1991, "Africa" saw a resurgence in popularity via social media during the mid- to late 2010s, including a fan-requested cover by American rock band Weezer which peaked at number 51 on the Billboard Hot 100. It has since been certified six times platinum.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Till_the_World_Ends', 'track_name': 'Till the World Ends', 'artist': 'http://dbpedia.org/resource/Britney_Spears', 'artist_name': 'Britney Spears', 'wiki': 'http://en.wikipedia.org/wiki/Till_the_World_Ends', 'released': '04 March 2011', 'producers': ['http://dbpedia.org/resource/Dr._Luke', 'http://dbpedia.org/resource/Emily_Wright', '*Max Martin', '*Billboard'], 'writers': ['http://dbpedia.org/resource/Alexander_Kronlund', 'http://dbpedia.org/resource/Dr._Luke', 'http://dbpedia.org/resource/Kesha', 'http://dbpedia.org/resource/Max_Martin', '*Lukasz Gottwald'], 'awards': ['Gold', 'Platinum', 'Silver'], 'labels': ['http://dbpedia.org/resource/Jive_Records'], 'related_artists': ['http://dbpedia.org/resource/Alex_Feather_Akimov', 'http://dbpedia.org/resource/Andre_Lindal', 'http://dbpedia.org/resource/Andreas_Carlsson', 'http://dbpedia.org/resource/Anthony_Preston_(record_producer)', 'http://dbpedia.org/resource/Basto', 'http://dbpedia.org/resource/Benny_Blanco', 'http://dbpedia.org/resource/Bloodshy_&amp;_Avant', 'http://dbpedia.org/resource/Boyz_N_Girlz_United', 'http://dbpedia.org/resource/Brayton_Bowman', 'http://dbpedia.org/resource/Breyan_Isaac', 'http://dbpedia.org/resource/Cherine_Anderson', 'http://dbpedia.org/resource/Chris_Braide', 'http://dbpedia.org/resource/Christian_Karlsson_(DJ)__Christian_Karlsson__1', 'http://dbpedia.org/resource/Cirkut', 'http://dbpedia.org/resource/Daniel_Savio', 'http://dbpedia.org/resource/Danja_(record_producer)', 'http://dbpedia.org/resource/Debi_Nova', 'http://dbpedia.org/resource/Dreamlab_(production_team)', 'http://dbpedia.org/resource/E._Kidd_Bogart', 'http://dbpedia.org/resource/Fredwreck', 'http://dbpedia.org/resource/Giorgio_Moroder', 'http://dbpedia.org/resource/Go_Home_Productions', 'http://dbpedia.org/resource/Guy_Sigsworth', 'http://dbpedia.org/resource/Henrik_Janson', 'http://dbpedia.org/resource/Jack_Knight_(songwriter)', 'http://dbpedia.org/resource/Jason_Evigan', 'http://dbpedia.org/resource/Jesse_Saint_John', 'http://dbpedia.org/resource/Johnny_Wright_(music_manager)', 'http://dbpedia.org/resource/Kasia_Livingston', 'http://dbpedia.org/resource/Kiley_Dean', 'http://dbpedia.org/resource/Kristian_Lundin', 'http://dbpedia.org/resource/Magnus_Lidehäll', 'http://dbpedia.org/resource/Marcella_Araica', 'http://dbpedia.org/resource/Melvin_E._Brown', 'http://dbpedia.org/resource/Michaela_Shiloh', 'http://dbpedia.org/resource/Michelle_Bell', 'http://dbpedia.org/resource/Nana_Hedin', 'http://dbpedia.org/resource/Nick_Fiorucci', 'http://dbpedia.org/resource/Otto_Knows', 'http://dbpedia.org/resource/Rami_Yacoub', 'http://dbpedia.org/resource/Raney_Shockne', 'http://dbpedia.org/resource/Robert_John_%22Mutt%22_Lange', 'http://dbpedia.org/resource/Romeo_Johnson', 'http://dbpedia.org/resource/Roy_%22Royalty%22_Hamilton', 'http://dbpedia.org/resource/Sabi_(singer)', 'http://dbpedia.org/resource/Savan_Kotecha', 'http://dbpedia.org/resource/Simon_Ellis_(record_producer)', 'http://dbpedia.org/resource/Sterling_Fox', 'http://dbpedia.org/resource/The_Outsyders', 'http://dbpedia.org/resource/The_Trak_Starz', 'http://dbpedia.org/resource/Tom_Coyne_(music_engineer)', 'http://dbpedia.org/resource/Wade_Martin_Handley', 'http://dbpedia.org/resource/Wicked_Wisdom', 'http://dbpedia.org/resource/Will.i.am', 'http://dbpedia.org/resource/Young_Fyre'], 'abstract': '"Till the World Ends" is a song by American singer Britney Spears from her seventh studio album, Femme Fatale (2011). It was written by Kesha, Dr. Luke, Alexander Kronlund, and Max Martin, while the production was handled by Luke, Martin and Billboard. It was released as the second single from the album on March 4, 2011. "Till the World Ends" is an uptempo dance-pop and electropop song with an electro beat. It opens with sirens, and has elements of trance and Eurodance. The song features a chant-like chorus, and lyrics in which Spears sings about dancing until the end of the world. "Till the World Ends" received universal acclaim from critics, who deemed it a catchy dance track and complimented its anthemic nature. "Till the World Ends" was treated with different remixes, most notably the Femme Fatale Remix, featuring rapper Nicki Minaj and Kesha, which was released on April 25, 2011. The remix adds a rap verse by Minaj at the beginning, new vocals by Kesha, and a dubstep breakdown. The Femme Fatale Remix received positive reviews from critics, with most complimenting the diversity of the group and Minaj\'s rap. "Till the World Ends" attained international success, charted on the top-ten in several major music markets, including Australia, France, Ireland, New Zealand, Sweden and Switzerland. Spears\'s solo version reached number eight on the Billboard Hot 100. The Femme Fatale Remix propelled the single to the top five on the Canadian Hot 100 and the US Billboard Hot 100. An accompanying music video for the "Till the World Ends" was released on April 6, 2011. It portrays Spears in an underground dance party set on December 21, 2012. Critics noted the similarities with the music video for "I\'m a Slave 4 U" (2001), and predominantly gave positive reviews for it. A choreography cut was released on April 15, 2011. The video was also nominated for two categories at the 2011 MTV Video Music Awards, and went on to win Best Pop Video. Spears has performed "Till the World Ends" on television shows Good Morning America and Jimmy Kimmel Live!, and performed it with Minaj at the 2011 Billboard Music Awards. She has also performed the song as the encore of the Femme Fatale Tour (2011), Britney: Piece of Me (2013–2017), Britney: Live in Concert (2017) and Piece of Me Tour (2018).'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Would%3F', 'track_name': 'Would?', 'artist': 'http://dbpedia.org/resource/Alice_in_Chains', 'artist_name': 'Alice in Chains', 'wiki': 'http://en.wikipedia.org/wiki/Would%3F', 'hometown': 'http://dbpedia.org/resource/Washington_(state)', 'released': '30 June 1992', 'producers': ['http://dbpedia.org/resource/Rick_Parashar', '*Alice in Chains'], 'writers': ['http://dbpedia.org/resource/Jerry_Cantrell'], 'labels': ['http://dbpedia.org/resource/Columbia_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Grunge', 'http://dbpedia.org/resource/Hard_rock', '*'], 'related_artists': ["http://dbpedia.org/resource/Alice_N'_Chains", 'http://dbpedia.org/resource/Ann_Wilson', 'http://dbpedia.org/resource/Blast_(American_band)', "http://dbpedia.org/resource/Class_of_'99", 'http://dbpedia.org/resource/Comes_with_the_Fall', 'http://dbpedia.org/resource/Dave_Collins_(audio_engineer)', 'http://dbpedia.org/resource/Days_of_the_New', 'http://dbpedia.org/resource/Giraffe_Tongue_Orchestra', 'http://dbpedia.org/resource/Jerry_Cantrell', 'http://dbpedia.org/resource/Layne_Staley', 'http://dbpedia.org/resource/Mad_Season_(band)', 'http://dbpedia.org/resource/Madfly', 'http://dbpedia.org/resource/Mike_Inez', 'http://dbpedia.org/resource/Mike_Starr_(musician)', 'http://dbpedia.org/resource/Mudhoney', 'http://dbpedia.org/resource/Neon_Christ', 'http://dbpedia.org/resource/No_Walls', 'http://dbpedia.org/resource/Rick_Parashar', 'http://dbpedia.org/resource/Scott_Olson', 'http://dbpedia.org/resource/Screaming_Trees', 'http://dbpedia.org/resource/Sean_Kinney', "http://dbpedia.org/resource/Slash's_Snakepit", 'http://dbpedia.org/resource/Sleze', 'http://dbpedia.org/resource/Spys4Darwin', 'http://dbpedia.org/resource/Sun_Red_Sun', 'http://dbpedia.org/resource/Sweet_Water_(band)', 'http://dbpedia.org/resource/Wes_Scantlin', 'http://dbpedia.org/resource/William_DuVall'], 'abstract': '"Would?" is a song by Alice in Chains, written by guitarist and vocalist Jerry Cantrell as a tribute to his friend Andrew Wood, lead vocalist of Mother Love Bone, who died in 1990. Cantrell sings the verses of the song, while Layne Staley sings the chorus. The song first appeared on the soundtrack to the 1992 film Singles—where the members of Alice in Chains make a cameo appearance—and later appeared on the band\'s second studio album Dirt, also released in 1992. "Would?" was released as a single and peaked at No. 31 on Billboard\'s Mainstream Rock Tracks chart in 1992, at No. 19 in 1996, and in 2019 the song peaked at No. 15 on the Hot Rock Songs chart after it was featured in the trailer for the season 2 of the Netflix show The Punisher. The song was included on the compilation albums Nothing Safe: Best of the Box (1999), Music Bank (1999), Greatest Hits (2001), and The Essential Alice in Chains (2006). An acoustic version performed on Alice in Chains\' MTV Unplugged in 1996 was released in a live album and DVD. In 2009, "Would?" was named the 88th Best Hard Rock Song of All Time by VH1.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Renegades_of_Funk', 'track_name': 'Renegades of Funk', 'artist': 'http://dbpedia.org/resource/Rage_Against_the_Machine', 'artist_name': 'Rage Against the Machine', 'wiki': 'http://en.wikipedia.org/wiki/Renegades_of_Funk', 'released': '20 February 2001', 'producers': ['http://dbpedia.org/resource/Arthur_Baker_(musician)', 'Rick Rubin, Rage Against the Machine'], 'writers': ['http://dbpedia.org/resource/Afrika_Bambaataa', 'http://dbpedia.org/resource/Arthur_Baker_(musician)'], 'labels': ['http://dbpedia.org/resource/Tommy_Boy_Records', 'http://dbpedia.org/resource/Warner_Records'], 'genres': ['http://dbpedia.org/resource/Electro_(music)', 'http://dbpedia.org/resource/Funk_metal', 'http://dbpedia.org/resource/Hip_hop_music', 'http://dbpedia.org/resource/Rap_metal'], 'related_artists': ['http://dbpedia.org/resource/Audioslave', 'http://dbpedia.org/resource/Axis_of_Justice', 'http://dbpedia.org/resource/Brad_Wilk', 'http://dbpedia.org/resource/Chuck_D', "http://dbpedia.org/resource/Class_of_'99", 'http://dbpedia.org/resource/Greta_(band)', 'http://dbpedia.org/resource/Inside_Out_(band)', 'http://dbpedia.org/resource/Jimmy_Boyle_(record_producer)', 'http://dbpedia.org/resource/Justin_Goldberg', 'http://dbpedia.org/resource/Las_Manos_de_Filippi', 'http://dbpedia.org/resource/Lock_Up_(American_band)', 'http://dbpedia.org/resource/No_For_An_Answer', 'http://dbpedia.org/resource/One_Day_as_a_Lion__One_Day_As_A_Lion__1', 'http://dbpedia.org/resource/Prophets_of_Rage', 'http://dbpedia.org/resource/Rodney_Mills', 'http://dbpedia.org/resource/Sound_City_Players', 'http://dbpedia.org/resource/Street_Sweeper_Social_Club', 'http://dbpedia.org/resource/The_Coup', 'http://dbpedia.org/resource/The_Last_Internationale', 'http://dbpedia.org/resource/The_Nightwatchman', 'http://dbpedia.org/resource/Tim_Commerford', 'http://dbpedia.org/resource/Tom_Morello', 'http://dbpedia.org/resource/Wakrat', 'http://dbpedia.org/resource/Xombie_(band)', 'http://dbpedia.org/resource/Zack_de_la_Rocha'], 'abstract': '"Renegades of Funk" is a song written by Afrika Bambaataa, Arthur Baker, John Miller &amp; John Robie and recorded by Afrika Bambaataa &amp; Soulsonic Force. Released in 1983 as a single on the Tommy Boy label, it was also included on the 1986 album Planet Rock: The Album. The song is an eclectic fusion of electronic music and heavy percussion, with politically fused hip hop lyrics that draw a connection between past revolutionaries and bohemians to present-day street artists. It was produced and mixed by Arthur Baker and John Robie. Mastering was by Herb Powers Jr.. The song was used by the Toronto Raptors as its entrance song during home games in 2006. It is also featured as a track on the radio in the video game Grand Theft Auto: Vice City Stories. In 1985, the song was used in "The Maze", an episode in the first season of the television police drama Miami Vice. It was remade by Rage Against the Machine and released as a single in 2001. "Weird Al" Yankovic included Rage Against the Machine\'s version in his polka medley "Angry White Boy Polka" (although Tom Morello is half Kenyan and Zack de la Rocha is half Mexican) from his 2003 album Poodle Hat.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Woke_Up_This_Morning', 'track_name': 'Woke Up This Morning', 'artist': 'http://dbpedia.org/resource/Alabama_3', 'artist_name': 'Alabama 3', 'wiki': 'http://en.wikipedia.org/wiki/Woke_Up_This_Morning', 'producers': ['http://dbpedia.org/resource/Alabama_3'], 'writers': ['Jake Black', 'Rob Spragg'], 'labels': ['http://dbpedia.org/resource/One_Little_Independent_Records'], 'genres': ['http://dbpedia.org/resource/Acid_jazz', 'http://dbpedia.org/resource/Electronica', 'http://dbpedia.org/resource/Trip_hop'], 'related_artists': ['http://dbpedia.org/resource/Cam_Blackwood', 'http://dbpedia.org/resource/Eileen_Rose', 'http://dbpedia.org/resource/Morton_Valence', 'http://dbpedia.org/resource/Neck_(band)'], 'abstract': '"Woke Up This Morning" is a song by British band Alabama 3 from their 1997 album Exile on Coldharbour Lane. The song is best known as the opening theme music for The Sopranos, which used a shortened version of the "Chosen One Mix" of the song.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Rape_Me', 'track_name': 'Rape Me', 'artist': 'http://dbpedia.org/resource/Nirvana_(band)', 'artist_name': 'Nirvana', 'wiki': 'http://en.wikipedia.org/wiki/Rape_Me', 'hometown': 'http://dbpedia.org/resource/Aberdeen,_Washington', 'released': '06 December 1993', 'producers': ['http://dbpedia.org/resource/Steve_Albini'], 'writers': ['http://dbpedia.org/resource/Kurt_Cobain'], 'labels': ['http://dbpedia.org/resource/DGC_Records'], 'genres': ['http://dbpedia.org/resource/Grunge'], 'related_artists': ['http://dbpedia.org/resource/Aaron_Burckhard', 'http://dbpedia.org/resource/Antony_Hodgkinson', 'http://dbpedia.org/resource/Anywhere_(band)', 'http://dbpedia.org/resource/Big_John_Duncan', 'http://dbpedia.org/resource/Butch_Vig', 'http://dbpedia.org/resource/Chad_Channing', 'http://dbpedia.org/resource/Curt_Kirkwood', 'http://dbpedia.org/resource/Dale_Crover', 'http://dbpedia.org/resource/Dan_Peters', 'http://dbpedia.org/resource/Dinosaur_Jr.', 'http://dbpedia.org/resource/Earth_(American_band)', 'http://dbpedia.org/resource/Eyes_Adrift', 'http://dbpedia.org/resource/Fecal_Matter_(band)', 'http://dbpedia.org/resource/Flea_(musician)', 'http://dbpedia.org/resource/Flipper_(band)', 'http://dbpedia.org/resource/Foo_Fighters', 'http://dbpedia.org/resource/Germs_(band)', 'http://dbpedia.org/resource/Giants_in_the_Trees', 'http://dbpedia.org/resource/Go_Home_Productions', 'http://dbpedia.org/resource/Green_River_(band)', 'http://dbpedia.org/resource/Half_Japanese', 'http://dbpedia.org/resource/Icky_Boyfriends', 'http://dbpedia.org/resource/Jason_Everman', 'http://dbpedia.org/resource/Kiwi_Time', 'http://dbpedia.org/resource/Krist_Novoselic', 'http://dbpedia.org/resource/Kultur_Shock', 'http://dbpedia.org/resource/L7_(band)__L7__1', 'http://dbpedia.org/resource/Lori_Goldston', 'http://dbpedia.org/resource/Meat_Puppets', 'http://dbpedia.org/resource/Melora_Creager', 'http://dbpedia.org/resource/Melvins', 'http://dbpedia.org/resource/Mudhoney', 'http://dbpedia.org/resource/Pat_Smear', 'http://dbpedia.org/resource/Scream_(band)', 'http://dbpedia.org/resource/Screaming_Trees', 'http://dbpedia.org/resource/Sound_City_Players', 'http://dbpedia.org/resource/Sweet_75', 'http://dbpedia.org/resource/The_Fluid', 'http://dbpedia.org/resource/The_No_WTO_Combo', 'http://dbpedia.org/resource/The_Vaselines', 'http://dbpedia.org/resource/Van_Tard'], 'abstract': '"Rape Me" is a song by the American rock band Nirvana, written by vocalist and guitarist Kurt Cobain. It is the fourth song on the band\'s third and final studio album, In Utero, released in September 1993. It is also Nirvana\'s last single release before Cobain committed suicide in 1994. "Rape Me" was released as the album\'s second single in December 1993, packaged as a double A-side with "All Apologies". The single reached number 32 on the UK Singles Chart.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/I_Want_You_(Savage_Garden_song)', 'track_name': 'I Want You (Savage Garden)', 'artist': 'http://dbpedia.org/resource/Savage_Garden', 'artist_name': 'Savage Garden', 'wiki': 'http://en.wikipedia.org/wiki/I_Want_You_(Savage_Garden_song)', 'hometown': 'http://dbpedia.org/resource/Brisbane', 'released': '27 May 1996', 'producers': ['http://dbpedia.org/resource/Charles_Fisher_(producer)', 'http://dbpedia.org/resource/Savage_Garden'], 'writers': ['http://dbpedia.org/resource/Daniel_Jones_(musician)', 'http://dbpedia.org/resource/Darren_Hayes'], 'awards': ['Gold', 'Platinum'], 'labels': ['http://dbpedia.org/resource/Columbia_Records', 'http://dbpedia.org/resource/Village_Roadshow'], 'genres': ['http://dbpedia.org/resource/Synth-pop'], 'related_artists': ['http://dbpedia.org/resource/Aneiki', 'http://dbpedia.org/resource/Ben_Carey', 'http://dbpedia.org/resource/Christian_Argenti', 'http://dbpedia.org/resource/Darren_Hayes', 'http://dbpedia.org/resource/Ivo_Moring', 'http://dbpedia.org/resource/Jennifer_Blakeman', 'http://dbpedia.org/resource/Steve_Smith_(American_musician)', 'http://dbpedia.org/resource/Terepai_Richmond'], 'abstract': '"I Want You" is a song by Australian pop duo Savage Garden. It was originally released in Australia on 27 May 1996 as the lead single from their eponymous debut album, Savage Garden. The single reached number one in Canada for two weeks and peaked at number four in Australia and on the US Billboard Hot 100. Much of the song\'s chart success in the US was the result of Rosie O\'Donnell playing the song on several episodes of The Rosie O\'Donnell Show. The single also peaked at number nine in Iceland and at 11 on the UK Singles Chart. In November 1998, the single was re-released in the United Kingdom following the success of "Truly Madly Deeply" and "To the Moon and Back". This release peaked at number 12. At the APRA Music Awards of 1998 it won Most Performed Australian Work Overseas. In January 2018, as part of Triple M\'s "Ozzest 100", the \'most Australian\' songs of all time, the album version of the song was ranked number 87.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Boogie_Wonderland', 'track_name': 'Boogie Wonderland', 'artist': 'http://dbpedia.org/resource/Earth,_Wind_&amp;_Fire', 'artist_name': 'Earth, Wind &amp; Fire', 'wiki': 'http://en.wikipedia.org/wiki/Boogie_Wonderland', 'released': '06 May 1979', 'producers': ['http://dbpedia.org/resource/Al_McKay', 'http://dbpedia.org/resource/Maurice_White'], 'writers': ['http://dbpedia.org/resource/Allee_Willis', 'http://dbpedia.org/resource/Jon_Lind'], 'awards': ['Gold'], 'labels': ['http://dbpedia.org/resource/American_Record_Corporation', 'http://dbpedia.org/resource/Columbia_Records'], 'genres': ['http://dbpedia.org/resource/Disco', 'http://dbpedia.org/resource/Funk'], 'related_artists': ['http://dbpedia.org/resource/Al_McKay', 'http://dbpedia.org/resource/Allee_Willis', 'http://dbpedia.org/resource/Andrew_Woolfolk', 'http://dbpedia.org/resource/Bedtime_for_Toys', 'http://dbpedia.org/resource/Bill_Champlin', 'http://dbpedia.org/resource/Bob_Conti', 'http://dbpedia.org/resource/Bobby_Nunn_(R&amp;B_musician)', 'http://dbpedia.org/resource/Charles_Stepney', 'http://dbpedia.org/resource/Daniel_de_los_Reyes', 'http://dbpedia.org/resource/David_Foster', 'http://dbpedia.org/resource/Don_Blackman', 'http://dbpedia.org/resource/Don_Myrick', 'http://dbpedia.org/resource/Donny_Hathaway', 'http://dbpedia.org/resource/Earth,_Wind_&amp;_Fire_Horns', 'http://dbpedia.org/resource/Freddie_Ravel', 'http://dbpedia.org/resource/Garnett_Brown', 'http://dbpedia.org/resource/Garry_Glenn', 'http://dbpedia.org/resource/George_Duke', 'http://dbpedia.org/resource/Greg_Moore_(guitarist)', 'http://dbpedia.org/resource/JR_Hutson', 'http://dbpedia.org/resource/James_Pankow', 'http://dbpedia.org/resource/Joe_Wissert', 'http://dbpedia.org/resource/John_Paris', 'http://dbpedia.org/resource/Larry_Dunn', 'http://dbpedia.org/resource/Louis_Satterfield', 'http://dbpedia.org/resource/Martin_Page', 'http://dbpedia.org/resource/Maurice_White', 'http://dbpedia.org/resource/Mike_McKnight', 'http://dbpedia.org/resource/Morris_Pleasure', 'http://dbpedia.org/resource/New_Birth_(band)', 'http://dbpedia.org/resource/Philip_Bailey', 'http://dbpedia.org/resource/Ralph_Johnson_(musician)', 'http://dbpedia.org/resource/Ramsey_Lewis', 'http://dbpedia.org/resource/Ricky_Lawson', 'http://dbpedia.org/resource/Robert_Brookins', 'http://dbpedia.org/resource/Robert_Greenidge', 'http://dbpedia.org/resource/Roland_Bautista', 'http://dbpedia.org/resource/Ronnie_Laws', 'http://dbpedia.org/resource/Roxanne_Seeman', 'http://dbpedia.org/resource/Seawind_(band)', 'http://dbpedia.org/resource/Sheldon_Reynolds_(guitarist)', 'http://dbpedia.org/resource/Skip_Scarborough', 'http://dbpedia.org/resource/Sonny_Emory', 'http://dbpedia.org/resource/Suns_of_Light', 'http://dbpedia.org/resource/The_Chi-Lites', 'http://dbpedia.org/resource/The_Emotions', 'http://dbpedia.org/resource/The_Pharaohs', 'http://dbpedia.org/resource/The_Phenix_Horns', 'http://dbpedia.org/resource/Tony_Haynes_(American_musician)', 'http://dbpedia.org/resource/Verdine_White', 'http://dbpedia.org/resource/Wayne_Vaughn', 'http://dbpedia.org/resource/Will_Wheaton'], 'abstract': '"Boogie Wonderland" is a single by Earth, Wind &amp; Fire with the Emotions, released in April 1979 on Columbia Records. The song peaked at number 14 on the dance chart, number 6 on the Billboard Hot 100, and number 2 on the Hot Soul Singles chart. Boogie Wonderland was certified Gold in the US by the RIAA and Gold in the UK by the BPI.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/You_Belong_to_the_City', 'track_name': 'You Belong to the City', 'artist': 'http://dbpedia.org/resource/Glenn_Frey', 'artist_name': 'Glenn Frey', 'wiki': 'http://en.wikipedia.org/wiki/You_Belong_to_the_City', 'producers': ['http://dbpedia.org/resource/Glenn_Frey'], 'writers': ['http://dbpedia.org/resource/Glenn_Frey', 'http://dbpedia.org/resource/Jack_Tempchin'], 'labels': ['http://dbpedia.org/resource/MCA_Records'], 'genres': ['http://dbpedia.org/resource/New_wave_music', 'http://dbpedia.org/resource/Pop_music'], 'related_artists': ['http://dbpedia.org/resource/Bob_Seger', 'http://dbpedia.org/resource/Greg_Smith_(American_musician)__Greg_Smith__1', 'http://dbpedia.org/resource/Jay_Oliver', 'http://dbpedia.org/resource/Jim_Ed_Norman', 'http://dbpedia.org/resource/Jimmy_Buffett', 'http://dbpedia.org/resource/Max_Carl', 'http://dbpedia.org/resource/Michael_Huey', 'http://dbpedia.org/resource/Richard_F._W._Davis'], 'abstract': '"You Belong to the City" is a song written by Glenn Frey and Jack Tempchin, and recorded by Frey during his solo career. It was written specifically for the television show Miami Vice in 1985. The song peaked at number two on the US Billboard Hot 100 chart, although it did reach the top of the Billboard Top Rock Tracks chart. The song, along with Jan Hammer\'s "Miami Vice Theme", helped the Miami Vice soundtrack album reach the top spot of the Billboard 200 chart. Frey performed this song live when touring with the Eagles until 2005. A version of the Eagles performing the song can be found on their DVD Farewell Tour I: Live from Melbourne released that year.'}</t>
+  </si>
+  <si>
+    <t>{'track': "http://dbpedia.org/resource/Why_Can't_I_Be_You%3F", 'track_name': "Why Can't I Be You?", 'artist': 'http://dbpedia.org/resource/The_Cure', 'artist_name': 'The Cure', 'wiki': "http://en.wikipedia.org/wiki/Why_Can't_I_Be_You%3F", 'hometown': 'http://dbpedia.org/resource/Crawley', 'released': '14 April 1987', 'producers': ['http://dbpedia.org/resource/David_M._Allen', 'http://dbpedia.org/resource/Robert_Smith_(musician)'], 'writers': ['http://dbpedia.org/resource/Boris_Williams', 'http://dbpedia.org/resource/Lol_Tolhurst', 'http://dbpedia.org/resource/Pearl_Thompson', 'http://dbpedia.org/resource/Robert_Smith_(musician)', 'http://dbpedia.org/resource/Simon_Gallup'], 'labels': ['http://dbpedia.org/resource/Fiction_Records'], 'genres': ['http://dbpedia.org/resource/New_wave_music', 'http://dbpedia.org/resource/Pop_music', 'http://dbpedia.org/resource/Rhythm_and_blues'], 'related_artists': ['http://dbpedia.org/resource/Babacar_(band)', 'http://dbpedia.org/resource/Fools_Dance', 'http://dbpedia.org/resource/Levinhurst', 'http://dbpedia.org/resource/Presence_(band)', 'http://dbpedia.org/resource/Shelleyan_Orphan', 'http://dbpedia.org/resource/Siouxsie_and_the_Banshees', 'http://dbpedia.org/resource/The_Glove', 'http://dbpedia.org/resource/The_Magazine_Spies'], 'abstract': '"Why Can\'t I Be You?" is a song by the English rock band The Cure, released as the lead single from their 1987 album Kiss Me, Kiss Me, Kiss Me.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Where_Is_the_Love%3F', 'track_name': 'Where Is the Love?', 'artist': 'http://dbpedia.org/resource/Black_Eyed_Peas', 'artist_name': 'Black Eyed Peas', 'wiki': 'http://en.wikipedia.org/wiki/Where_Is_the_Love%3F', 'released': '12 May 2003', 'producers': ['http://dbpedia.org/resource/Ron_Fair', 'http://dbpedia.org/resource/Will.i.am'], 'writers': ['http://dbpedia.org/resource/ASAP_Rocky', 'http://dbpedia.org/resource/Apl.de.ap', 'http://dbpedia.org/resource/DJ_Khaled', 'http://dbpedia.org/resource/George_Pajon', 'http://dbpedia.org/resource/Giorgio_Tuinfort', 'http://dbpedia.org/resource/Justin_Timberlake', 'http://dbpedia.org/resource/Printz_Board', 'http://dbpedia.org/resource/Taboo_(rapper)', 'http://dbpedia.org/resource/The_Game_(rapper)', 'http://dbpedia.org/resource/Will.i.am', 'Michael Fratantuno'], 'awards': ['Gold', 'Platinum'], 'labels': ['http://dbpedia.org/resource/A&amp;M_Records', 'http://dbpedia.org/resource/Interscope_Records', 'http://dbpedia.org/resource/Will.i.am_Music_Group'], 'genres': ['http://dbpedia.org/resource/Hip_hop_music', 'http://dbpedia.org/resource/Political_hip_hop', 'http://dbpedia.org/resource/Pop_music', 'http://dbpedia.org/resource/Pop_rap', 'http://dbpedia.org/resource/Rhythm_and_blues'], 'related_artists': ['http://dbpedia.org/resource/A_Million_Pieces', 'http://dbpedia.org/resource/Anders_Grahn', 'http://dbpedia.org/resource/Atban_Klann', 'http://dbpedia.org/resource/Bedtime_for_Toys', 'http://dbpedia.org/resource/Bucky_Jonson', 'http://dbpedia.org/resource/DJ_Rectangle', 'http://dbpedia.org/resource/Darryl_Swann', 'http://dbpedia.org/resource/George_Pajon', 'http://dbpedia.org/resource/Jean-Baptiste_(songwriter)', 'http://dbpedia.org/resource/Jean_Luc_Ponpon', 'http://dbpedia.org/resource/Joey_Boy', 'http://dbpedia.org/resource/Johnny_Goldstein', 'http://dbpedia.org/resource/Julie_Frost', 'http://dbpedia.org/resource/Kim_Hill_(soul_musician)', 'http://dbpedia.org/resource/Kryoman', 'http://dbpedia.org/resource/Macy_Gray', 'http://dbpedia.org/resource/Noelle_Scaggs', 'http://dbpedia.org/resource/Printz_Board', 'http://dbpedia.org/resource/Rhett_Lawrence', 'http://dbpedia.org/resource/Taboo_(rapper)', 'http://dbpedia.org/resource/The_Click_Five', 'http://dbpedia.org/resource/Urban_Punk__Harrell_Harris_Jr.__1', 'http://dbpedia.org/resource/Wild_Orchid_(group)', 'http://dbpedia.org/resource/Will.i.am'], 'abstract': '"Where Is the Love?" is a song by American hip hop group the Black Eyed Peas. It was released on May 12, 2003, as the lead single from their third album, Elephunk. The song was written by will.i.am, apl.de.ap, Taboo, Justin Timberlake, Printz Board, Michael Fratantuno and George Pajon. The track features vocals from Timberlake, although he is not officially credited on the single release. It was the group\'s first song to feature singer Fergie as an official member. "Where Is the Love?" saw success on radio airplay charts, peaked at number eight on the US Billboard Hot 100, and topped the charts in Australia, Ireland, and the United Kingdom, where it became the biggest-selling single of 2003. The band and Timberlake received two nominations, Record of the Year and Best Rap/Sung Collaboration, for "Where Is the Love?" at the 46th Annual Grammy Awards.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Roxanne_(The_Police_song)', 'track_name': 'Roxanne (lagu)', 'artist': 'http://dbpedia.org/resource/The_Police', 'artist_name': 'The Police', 'wiki': 'http://en.wikipedia.org/wiki/Roxanne_(The_Police_song)', 'hometown': 'http://dbpedia.org/resource/London', 'released': '07 April 1978', 'producers': ['http://dbpedia.org/resource/The_Police'], 'writers': ['http://dbpedia.org/resource/Sting_(musician)'], 'awards': ['Gold', 'Platinum'], 'labels': ['http://dbpedia.org/resource/A&amp;M_Records'], 'genres': ['http://dbpedia.org/resource/New_wave_music', 'http://dbpedia.org/resource/Reggae_rock'], 'related_artists': ['http://dbpedia.org/resource/Andy_Summers', 'http://dbpedia.org/resource/Animal_Logic_(band)', 'http://dbpedia.org/resource/Arthur_Fogel', 'http://dbpedia.org/resource/Atle_Bakken', 'http://dbpedia.org/resource/Curved_Air', 'http://dbpedia.org/resource/Dave_Collins_(audio_engineer)', 'http://dbpedia.org/resource/Eberhard_Schoener', 'http://dbpedia.org/resource/Fiction_Plane', 'http://dbpedia.org/resource/Gizmodrome', 'http://dbpedia.org/resource/Godley_&amp;_Creme', 'http://dbpedia.org/resource/Gogmagog_(band)__Gogmagog__1', 'http://dbpedia.org/resource/Henry_Padovani', 'http://dbpedia.org/resource/Hugh_Padgham', 'http://dbpedia.org/resource/Joe_Sumner', 'http://dbpedia.org/resource/Mike_Gormley', 'http://dbpedia.org/resource/Oysterhead', 'http://dbpedia.org/resource/Re-Flex', 'http://dbpedia.org/resource/Stewart_Copeland', 'http://dbpedia.org/resource/Strontium_90_(band)', 'http://dbpedia.org/resource/Wayne_County_&amp;_the_Electric_Chairs'], 'abstract': '"Roxanne" is a song by English rock band The Police. The song was written by lead singer and bassist Sting and was released 7 April 1978 as a single in advance of the November 2 release of their debut album Outlandos d\'Amour. It was written from the point of view of a man who falls in love with a prostitute. On re-release on 12 April 1979, the song peaked at No.\u200912 on the UK Singles Chart. The song ranked No. 388 on the Rolling Stone\'s "500 Greatest Songs of All Time" and was voted No. 85 by VH1 on its list of the "100 Greatest Rock Songs". In 2008, "Roxanne" was inducted into the Grammy Hall of Fame.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Show_Me_How_to_Live_(song)', 'track_name': 'Show Me How to Live (canción)', 'artist': 'http://dbpedia.org/resource/Audioslave', 'artist_name': 'Audioslave', 'wiki': 'http://en.wikipedia.org/wiki/Show_Me_How_to_Live_(song)', 'hometown': 'http://dbpedia.org/resource/Glendale,_California', 'producers': ['http://dbpedia.org/resource/Rick_Rubin'], 'writers': ['http://dbpedia.org/resource/Brad_Wilk', 'http://dbpedia.org/resource/Chris_Cornell', 'http://dbpedia.org/resource/Tim_Commerford', 'http://dbpedia.org/resource/Tom_Morello'], 'labels': ['http://dbpedia.org/resource/Epic_Records'], 'genres': ['http://dbpedia.org/resource/Hard_rock'], 'related_artists': ['http://dbpedia.org/resource/Axis_of_Justice', 'http://dbpedia.org/resource/Brad_Wilk', 'http://dbpedia.org/resource/Greg_Fidelman', 'http://dbpedia.org/resource/Lock_Up_(American_band)', 'http://dbpedia.org/resource/Prophets_of_Rage', 'http://dbpedia.org/resource/Rage_Against_the_Machine', 'http://dbpedia.org/resource/Rage_Against_the_Machine__Rage_Against_the_Machine__1', 'http://dbpedia.org/resource/Soundgarden', 'http://dbpedia.org/resource/Street_Sweeper_Social_Club', 'http://dbpedia.org/resource/The_Last_Internationale', 'http://dbpedia.org/resource/The_Nightwatchman', 'http://dbpedia.org/resource/Tim_Commerford', 'http://dbpedia.org/resource/Tom_Morello', 'http://dbpedia.org/resource/Wakrat'], 'abstract': '"Show Me How to Live" is a song by American rock band Audioslave. It was released in June 2003 as the third single from their first album, Audioslave released in 2003. It peaked at number 67 on the Billboard Hot 100 singles chart, number 2 on the Mainstream Rock Tracks and number 4 in the Modern Rock Tracks. Produced by Rick Rubin, the song contains heavy guitar and drum riffs and a solo broken up with a phasing, fluttering effect by Tom Morello. Chris Cornell achieves an unusual effect by repeatedly striking his throat with the side of his hand while changing pitch.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/(You_Drive_Me)_Crazy', 'track_name': '(You Drive Me) Crazy', 'artist': 'http://dbpedia.org/resource/Britney_Spears', 'artist_name': 'Britney Spears', 'wiki': 'http://en.wikipedia.org/wiki/(You_Drive_Me)_Crazy', 'released': '24 August 1999', 'producers': ['http://dbpedia.org/resource/David_Kreuger', 'http://dbpedia.org/resource/Max_Martin', 'http://dbpedia.org/resource/Per_Magnusson', 'http://dbpedia.org/resource/Rami_Yacoub'], 'writers': ['http://dbpedia.org/resource/David_Kreuger', 'http://dbpedia.org/resource/Jörgen_Elofsson', 'http://dbpedia.org/resource/Max_Martin', 'http://dbpedia.org/resource/Per_Magnusson'], 'awards': ['Gold', 'Platinum'], 'labels': ['http://dbpedia.org/resource/Jive_Records'], 'genres': ['http://dbpedia.org/resource/Bubblegum_music', 'http://dbpedia.org/resource/Dance-pop', 'http://dbpedia.org/resource/Teen_pop'], 'related_artists': ['http://dbpedia.org/resource/Alex_Feather_Akimov', 'http://dbpedia.org/resource/Andre_Lindal', 'http://dbpedia.org/resource/Andreas_Carlsson', 'http://dbpedia.org/resource/Anthony_Preston_(record_producer)', 'http://dbpedia.org/resource/Basto', 'http://dbpedia.org/resource/Benny_Blanco', 'http://dbpedia.org/resource/Bloodshy_&amp;_Avant', 'http://dbpedia.org/resource/Boyz_N_Girlz_United', 'http://dbpedia.org/resource/Brayton_Bowman', 'http://dbpedia.org/resource/Breyan_Isaac', 'http://dbpedia.org/resource/Cherine_Anderson', 'http://dbpedia.org/resource/Chris_Braide', 'http://dbpedia.org/resource/Christian_Karlsson_(DJ)__Christian_Karlsson__1', 'http://dbpedia.org/resource/Cirkut', 'http://dbpedia.org/resource/Daniel_Savio', 'http://dbpedia.org/resource/Danja_(record_producer)', 'http://dbpedia.org/resource/Debi_Nova', 'http://dbpedia.org/resource/Dreamlab_(production_team)', 'http://dbpedia.org/resource/E._Kidd_Bogart', 'http://dbpedia.org/resource/Fredwreck', 'http://dbpedia.org/resource/Giorgio_Moroder', 'http://dbpedia.org/resource/Go_Home_Productions', 'http://dbpedia.org/resource/Guy_Sigsworth', 'http://dbpedia.org/resource/Henrik_Janson', 'http://dbpedia.org/resource/Jack_Knight_(songwriter)', 'http://dbpedia.org/resource/Jason_Evigan', 'http://dbpedia.org/resource/Jesse_Saint_John', 'http://dbpedia.org/resource/Johnny_Wright_(music_manager)', 'http://dbpedia.org/resource/Kasia_Livingston', 'http://dbpedia.org/resource/Kiley_Dean', 'http://dbpedia.org/resource/Kristian_Lundin', 'http://dbpedia.org/resource/Magnus_Lidehäll', 'http://dbpedia.org/resource/Marcella_Araica', 'http://dbpedia.org/resource/Melvin_E._Brown', 'http://dbpedia.org/resource/Michaela_Shiloh', 'http://dbpedia.org/resource/Michelle_Bell', 'http://dbpedia.org/resource/Nana_Hedin', 'http://dbpedia.org/resource/Nick_Fiorucci', 'http://dbpedia.org/resource/Otto_Knows', 'http://dbpedia.org/resource/Rami_Yacoub', 'http://dbpedia.org/resource/Raney_Shockne', 'http://dbpedia.org/resource/Robert_John_%22Mutt%22_Lange', 'http://dbpedia.org/resource/Romeo_Johnson', 'http://dbpedia.org/resource/Roy_%22Royalty%22_Hamilton', 'http://dbpedia.org/resource/Sabi_(singer)', 'http://dbpedia.org/resource/Savan_Kotecha', 'http://dbpedia.org/resource/Simon_Ellis_(record_producer)', 'http://dbpedia.org/resource/Sterling_Fox', 'http://dbpedia.org/resource/The_Outsyders', 'http://dbpedia.org/resource/The_Trak_Starz', 'http://dbpedia.org/resource/Tom_Coyne_(music_engineer)', 'http://dbpedia.org/resource/Wade_Martin_Handley', 'http://dbpedia.org/resource/Wicked_Wisdom', 'http://dbpedia.org/resource/Will.i.am', 'http://dbpedia.org/resource/Young_Fyre'], 'abstract': '"(You Drive Me) Crazy" is a song by American singer Britney Spears from her debut studio album, ...Baby One More Time (1999). Written and produced by Max Martin, Per Magnusson and David Kreuger with additional writing by Jörgen Elofsson and remix by Martin and Rami Yacoub, it was released as the album\'s third single on August 24, 1999, by Jive Records. It was featured on the soundtrack of the 1999 teen romantic comedy film Drive Me Crazy. The song garnered positive reviews from music critics, some of whom praised its simple formula and noted similarities to Spears\' debut single, "...Baby One More Time". "(You Drive Me) Crazy" was a commercial success and peaked inside the top ten on the singles charts of seventeen countries. In the United Kingdom, it became Spears\' third consecutive single to peak inside the top five, while it reached number 10 in the United States\' Billboard Hot 100 and peaked at number one in Belgium (Wallonia) and Iceland. An accompanying music video, directed by Nigel Dick, portrays Spears as a waitress of a dance club and she performs a highly choreographed dance routine with the other waitresses. The video premiered on MTV\'s Making the Video special. It features cameo appearances of actors Melissa Joan Hart and Adrian Grenier, who star in the movie Drive Me Crazy, which is named for the song. As part of promotion for the song, Spears performed the song at the 1999 MTV Europe Music Awards and 1999 Billboard Music Awards. It has also been included on five of her concert tours.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/You_Only_Live_Once_(The_Strokes_song)', 'track_name': 'You Only Live Once (canción de The Strokes)', 'artist': 'http://dbpedia.org/resource/The_Strokes', 'artist_name': 'The Strokes', 'wiki': 'http://en.wikipedia.org/wiki/You_Only_Live_Once_(The_Strokes_song)', 'hometown': 'http://dbpedia.org/resource/New_York_City', 'released': '06 September 2006', 'producers': ['http://dbpedia.org/resource/David_Kahne', 'http://dbpedia.org/resource/Gordon_Raphael'], 'writers': ['http://dbpedia.org/resource/Julian_Casablancas'], 'awards': ['Gold'], 'labels': ['http://dbpedia.org/resource/RCA_Records', 'http://dbpedia.org/resource/Rough_Trade_Records'], 'genres': ['http://dbpedia.org/resource/Garage_rock', 'http://dbpedia.org/resource/Post-punk_revival'], 'related_artists': ['http://dbpedia.org/resource/CRX_(band)', 'http://dbpedia.org/resource/Chris_Tabron', 'http://dbpedia.org/resource/David_Bason', 'http://dbpedia.org/resource/Devendra_Banhart', 'http://dbpedia.org/resource/Elvis_Costello', 'http://dbpedia.org/resource/Faulkner_(band)', 'http://dbpedia.org/resource/Gordon_Raphael', 'http://dbpedia.org/resource/Greg_Calbi', 'http://dbpedia.org/resource/Gus_Oberg', 'http://dbpedia.org/resource/Little_Joy', 'http://dbpedia.org/resource/Nikolai_Fraiture', 'http://dbpedia.org/resource/Noah_Georgeson', 'http://dbpedia.org/resource/Richie_Follin', 'http://dbpedia.org/resource/Ryan_Gentles', 'http://dbpedia.org/resource/The_Postelles', 'http://dbpedia.org/resource/The_Voidz', 'http://dbpedia.org/resource/Zerobridge'], 'abstract': '"You Only Live Once" is song by American rock band the Strokes. It is the opening track on their third studio album, First Impressions of Earth (2006). The song was written by Julian Casablancas with production from David Kahne and Gordon Raphael. It was released as the third and final single from the album on September 6, 2006 by RCA and Rough Trade Records. They have performed this song on several programs, including The Tonight Show with Jay Leno and Late Night with Conan O\'Brien. A cover of Marvin Gaye\'s "Mercy Mercy Me" was recorded as a B-side and features Eddie Vedder of Pearl Jam sharing vocals with Casablancas, while Josh Homme (of Queens of the Stone Age, Them Crooked Vultures and Eagles of Death Metal) plays drums alongside Fabrizio Moretti. When the song was released as a single, the Strokes launched Operation You Only Live Once prompting all of their fans to call and request the single on radio stations. Their goal was to try to get out the word of the new single as fast as possible, by spreading the song by word of mouth. The Strokes\' Myspace page asked all users to put the song in their profile in an attempt to spread the single among the online community.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Is_There_Something_I_Should_Know%3F', 'track_name': 'Is There Something I Should Know?', 'artist': 'http://dbpedia.org/resource/Duran_Duran', 'artist_name': 'Duran Duran', 'wiki': 'http://en.wikipedia.org/wiki/Is_There_Something_I_Should_Know%3F', 'hometown': 'http://dbpedia.org/resource/Birmingham', 'released': '14 March 1983', 'producers': ['http://dbpedia.org/resource/Duran_Duran', 'http://dbpedia.org/resource/Ian_Little_(producer)'], 'writers': ['http://dbpedia.org/resource/Andy_Taylor_(guitarist)', 'http://dbpedia.org/resource/John_Taylor_(bass_guitarist)', 'http://dbpedia.org/resource/Nick_Rhodes', 'http://dbpedia.org/resource/Roger_Taylor_(Duran_Duran_drummer)', 'http://dbpedia.org/resource/Simon_Le_Bon'], 'labels': ['http://dbpedia.org/resource/Capitol_Records', 'http://dbpedia.org/resource/EMI_Records'], 'related_artists': ['http://dbpedia.org/resource/Andy_Taylor_(guitarist)', 'http://dbpedia.org/resource/Arcadia_(band)', 'http://dbpedia.org/resource/Bloom_Twins', 'http://dbpedia.org/resource/Chic_(band)', 'http://dbpedia.org/resource/Chicanery', 'http://dbpedia.org/resource/Clear_Static', 'http://dbpedia.org/resource/Colin_Thurston', 'http://dbpedia.org/resource/Coyle_Girelli', 'http://dbpedia.org/resource/Dominic_Brown', 'http://dbpedia.org/resource/Gerardo_Velez', 'http://dbpedia.org/resource/Giorgio_Moroder', 'http://dbpedia.org/resource/Graham_Coxon', 'http://dbpedia.org/resource/John_Frusciante', 'http://dbpedia.org/resource/John_Taylor_(bass_guitarist)', 'http://dbpedia.org/resource/Lamya', 'http://dbpedia.org/resource/Mac_Gollehon', 'http://dbpedia.org/resource/Marcella_Araica', 'http://dbpedia.org/resource/Mark_Ronson', 'http://dbpedia.org/resource/Mark_Tinley', 'http://dbpedia.org/resource/Me_Me_Me_(band)', 'http://dbpedia.org/resource/Mike_Garson', 'http://dbpedia.org/resource/Mindi_Abair', 'http://dbpedia.org/resource/Missing_Persons_(band)', 'http://dbpedia.org/resource/Neurotic_Outsiders', 'http://dbpedia.org/resource/Nick_Rhodes', 'http://dbpedia.org/resource/Nile_Rodgers', 'http://dbpedia.org/resource/Robert_Palmer_(singer)', 'http://dbpedia.org/resource/Roger_Taylor_(Duran_Duran_drummer)', 'http://dbpedia.org/resource/Spike_Edney', 'http://dbpedia.org/resource/Stephen_Duffy', 'http://dbpedia.org/resource/Sterling_Campbell', 'http://dbpedia.org/resource/Steve_Alexander_(drummer)', 'http://dbpedia.org/resource/Steve_Ferrone', 'http://dbpedia.org/resource/Steve_Jones_(musician)', 'http://dbpedia.org/resource/Swahili_Blonde', 'http://dbpedia.org/resource/TV_Mania', 'http://dbpedia.org/resource/Tetsuya_Komuro', 'http://dbpedia.org/resource/The_Devils_(band)', 'http://dbpedia.org/resource/The_Power_Station_(band)', 'http://dbpedia.org/resource/Thunder_(band)', 'http://dbpedia.org/resource/Warren_Cuccurullo'], 'abstract': '"Is There Something I Should Know?" is the eighth single by British pop band Duran Duran, released on 19 March 1983. The song was released as a stand-alone single and became the band\'s first UK number one record. It debuted in the number one position on the UK Singles Chart on 26 March 1983. The single also had great success in America, where it was released in late May: The song debuted on the charts on 4 June at #57, and it reached number four on the US Billboard Hot 100 on 6 August 1983 and sold more than a million copies.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Walk_Like_an_Egyptian', 'track_name': 'Walk Like an Egyptian', 'artist': 'http://dbpedia.org/resource/The_Bangles', 'artist_name': 'The Bangles', 'wiki': 'http://en.wikipedia.org/wiki/Walk_Like_an_Egyptian', 'hometown': 'http://dbpedia.org/resource/Los_Angeles', 'producers': ['http://dbpedia.org/resource/David_Kahne'], 'writers': ['http://dbpedia.org/resource/Liam_Sternberg'], 'awards': ['Gold', 'Platinum', 'Silver'], 'labels': ['http://dbpedia.org/resource/Columbia_Records', 'http://dbpedia.org/resource/The_Bangles'], 'genres': ['http://dbpedia.org/resource/Pop_rock'], 'related_artists': ['http://dbpedia.org/resource/Abby_Travis', 'http://dbpedia.org/resource/Annette_Zilinskas', 'http://dbpedia.org/resource/Davitt_Sigerson', 'http://dbpedia.org/resource/Debbi_Peterson', 'http://dbpedia.org/resource/Kathy_Valentine', 'http://dbpedia.org/resource/Michael_Steele_(musician)', 'http://dbpedia.org/resource/Mike_Gormley', 'http://dbpedia.org/resource/Richard_Dodd', 'http://dbpedia.org/resource/The_Runaways', 'http://dbpedia.org/resource/Vicki_Peterson'], 'abstract': '"Walk Like an Egyptian" is a song recorded by the American band the Bangles. It was released in 1986 as the third single from the album Different Light. It was the band\'s first number one single, being certified gold by the RIAA, and became Billboard\'s number-one song of 1987.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Meet_Me_Halfway', 'track_name': 'Meet Me Halfway', 'artist': 'http://dbpedia.org/resource/Black_Eyed_Peas', 'artist_name': 'Black Eyed Peas', 'wiki': 'http://en.wikipedia.org/wiki/Meet_Me_Halfway', 'released': '22 September 2009', 'producers': ['http://dbpedia.org/resource/Will.i.am', 'Keith Harris'], 'writers': ['http://dbpedia.org/resource/Apl.de.ap', 'http://dbpedia.org/resource/Fergie_(singer)', 'http://dbpedia.org/resource/Jean-Baptiste_(songwriter)', 'http://dbpedia.org/resource/Keith_Harris_(record_producer)', 'http://dbpedia.org/resource/Taboo_(rapper)', 'http://dbpedia.org/resource/Will.i.am', 'Stacy Ferguson', 'Jaime Gomez', 'William Adams', 'Jean Baptiste', 'Allan Lindo', 'Sylvia Gordon'], 'awards': ['Gold', 'Platinum'], 'labels': ['http://dbpedia.org/resource/Interscope_Records'], 'genres': ['http://dbpedia.org/resource/Dance-pop', 'http://dbpedia.org/resource/Pop_rap'], 'related_artists': ['http://dbpedia.org/resource/A_Million_Pieces', 'http://dbpedia.org/resource/Anders_Grahn', 'http://dbpedia.org/resource/Atban_Klann', 'http://dbpedia.org/resource/Bedtime_for_Toys', 'http://dbpedia.org/resource/Bucky_Jonson', 'http://dbpedia.org/resource/DJ_Rectangle', 'http://dbpedia.org/resource/Darryl_Swann', 'http://dbpedia.org/resource/George_Pajon', 'http://dbpedia.org/resource/Jean-Baptiste_(songwriter)', 'http://dbpedia.org/resource/Jean_Luc_Ponpon', 'http://dbpedia.org/resource/Joey_Boy', 'http://dbpedia.org/resource/Johnny_Goldstein', 'http://dbpedia.org/resource/Julie_Frost', 'http://dbpedia.org/resource/Kim_Hill_(soul_musician)', 'http://dbpedia.org/resource/Kryoman', 'http://dbpedia.org/resource/Macy_Gray', 'http://dbpedia.org/resource/Noelle_Scaggs', 'http://dbpedia.org/resource/Printz_Board', 'http://dbpedia.org/resource/Rhett_Lawrence', 'http://dbpedia.org/resource/Taboo_(rapper)', 'http://dbpedia.org/resource/The_Click_Five', 'http://dbpedia.org/resource/Urban_Punk__Harrell_Harris_Jr.__1', 'http://dbpedia.org/resource/Wild_Orchid_(group)', 'http://dbpedia.org/resource/Will.i.am'], 'abstract': '"Meet Me Halfway" is the third single from the Black Eyed Peas\' fifth studio album The E.N.D. The song peaked at number seven on the Billboard Hot 100. Outside of the United States, "Meet Me Halfway" topped the charts in Australia, Germany, Romania, Mexico and the United Kingdom. In the latter country, "Meet Me Halfway" became the tenth biggest-selling single of 2009. It is a dance-pop song that combines futuristic electro hop beats with vintage \'80s pop stylings in the key of B Minor and sampled intro of "Maps" by Yeah Yeah Yeahs.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Everything_Counts', 'track_name': 'Everything Counts', 'artist': 'http://dbpedia.org/resource/Depeche_Mode', 'artist_name': 'Depeche Mode', 'wiki': 'http://en.wikipedia.org/wiki/Everything_Counts', 'hometown': 'http://dbpedia.org/resource/Basildon', 'released': '13 February 1989', 'producers': ['http://dbpedia.org/resource/Daniel_Miller_(music_producer)', 'http://dbpedia.org/resource/Depeche_Mode', 'http://dbpedia.org/resource/Gareth_Jones_(music_producer)'], 'writers': ['http://dbpedia.org/resource/Martin_Gore'], 'labels': ['http://dbpedia.org/resource/Mute_Records'], 'genres': ['http://dbpedia.org/resource/Industrial_music', 'http://dbpedia.org/resource/New_wave_music', 'http://dbpedia.org/resource/Synth-pop'], 'related_artists': ['http://dbpedia.org/resource/Alan_Wilder', 'http://dbpedia.org/resource/Andy_Fletcher_(musician)', 'http://dbpedia.org/resource/Anne_Clark_(poet)', 'http://dbpedia.org/resource/Big_Deal_(band)', 'http://dbpedia.org/resource/Bomb_the_Bass', 'http://dbpedia.org/resource/Bon_Harris', 'http://dbpedia.org/resource/DJ_Lynnwood', 'http://dbpedia.org/resource/Daniel_Miller_(music_producer)', 'http://dbpedia.org/resource/Das_Shadow', 'http://dbpedia.org/resource/Dave_Gahan', 'http://dbpedia.org/resource/Doug_Wimbish', 'http://dbpedia.org/resource/Douglas_McCarthy', 'http://dbpedia.org/resource/Eric_Radcliffe', 'http://dbpedia.org/resource/Gareth_Jones_(music_producer)', 'http://dbpedia.org/resource/Jaki_Liebezeit', 'http://dbpedia.org/resource/James_Ford_(musician)', 'http://dbpedia.org/resource/Mark_Bell_(British_musician)', 'http://dbpedia.org/resource/Martin_Gore', 'http://dbpedia.org/resource/Maya_Lavelle', 'http://dbpedia.org/resource/Nitzer_Ebb', 'http://dbpedia.org/resource/Peter_Gordeno_(musician)', 'http://dbpedia.org/resource/Sander_van_Doorn', 'http://dbpedia.org/resource/Spike_Stent', 'http://dbpedia.org/resource/Stuart_Crichton', 'http://dbpedia.org/resource/VCMG', 'http://dbpedia.org/resource/Vince_Clarke', 'http://dbpedia.org/resource/Yazoo_(band)'], 'abstract': '"Everything Counts" is a 1983 song by the English electronic band Depeche Mode from the album Construction Time Again. A live version of the song was released in 1989 to support the band\'s live album 101.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Baker_Street_(song)', 'track_name': 'Baker Street (canción)', 'artist': 'http://dbpedia.org/resource/Gerry_Rafferty', 'artist_name': 'Gerry Rafferty', 'wiki': 'http://en.wikipedia.org/wiki/Baker_Street_(song)', 'released': '19 January 1998', 'producers': ['http://dbpedia.org/resource/Gerry_Rafferty', 'Simon Askew', 'Steve Mac'], 'writers': ['http://dbpedia.org/resource/Gerry_Rafferty'], 'awards': ['Gold'], 'labels': ['http://dbpedia.org/resource/United_Artists_Records'], 'genres': ['http://dbpedia.org/resource/Jazz_fusion', 'http://dbpedia.org/resource/Pop_rock', 'http://dbpedia.org/resource/Rave', 'http://dbpedia.org/resource/Soft_rock'], 'related_artists': ['http://dbpedia.org/resource/Betsy_Cook', 'http://dbpedia.org/resource/Jennifer_Maidman', 'http://dbpedia.org/resource/Joe_Egan_(musician)', 'http://dbpedia.org/resource/Liam_Genockey', 'http://dbpedia.org/resource/Melanie_Harrold', 'http://dbpedia.org/resource/Raphael_Ravenscroft', 'http://dbpedia.org/resource/Stealers_Wheel', 'http://dbpedia.org/resource/The_Humblebums', 'http://dbpedia.org/resource/Vivienne_McAuliffe'], 'abstract': '"Baker Street" is a song written and recorded by Scottish singer-songwriter Gerry Rafferty. Released as a single in 1978, it reached No. 1 in Cash Box and No. 2 on the Billboard Hot 100, where it held its Billboard position for six weeks, blocked from the top spot by Andy Gibb\'s "Shadow Dancing". It spent four weeks at No. 1 in Canada, No. 1 in Australia and South Africa, hit No. 3 in the United Kingdom, and the top 10 in the Netherlands. Rafferty received the 1978 Ivor Novello Award for Best Song Musically and Lyrically. The arrangement is known for its saxophone riff. In October 2010, the song was recognised by BMI for surpassing five million performances worldwide. It was awarded Gold Certification on two occasions, on 1 April 1978 and 22 July 2013 by the BPI in the UK.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Man_on_the_Moon_(song)', 'track_name': 'Man on the Moon (singolo R.E.M.)', 'artist': 'http://dbpedia.org/resource/R.E.M.', 'artist_name': 'R.E.M.', 'wiki': 'http://en.wikipedia.org/wiki/Man_on_the_Moon_(song)', 'hometown': 'http://dbpedia.org/resource/Athens,_Georgia', 'released': '09 November 1992', 'producers': ['http://dbpedia.org/resource/R.E.M.', 'http://dbpedia.org/resource/Scott_Litt'], 'writers': ['http://dbpedia.org/resource/Bill_Berry', 'http://dbpedia.org/resource/Michael_Stipe', 'http://dbpedia.org/resource/Mike_Mills', 'http://dbpedia.org/resource/Peter_Buck'], 'awards': ['Silver'], 'labels': ['http://dbpedia.org/resource/Warner_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Country_rock', '*'], 'related_artists': ['http://dbpedia.org/resource/10,000_Maniacs', 'http://dbpedia.org/resource/Filthy_Friends', 'http://dbpedia.org/resource/Hindu_Love_Gods_(band)', 'http://dbpedia.org/resource/Magnapop', 'http://dbpedia.org/resource/One_(U2_song)', 'http://dbpedia.org/resource/Robyn_Hitchcock', "http://dbpedia.org/resource/The_B-52's", 'http://dbpedia.org/resource/The_Baseball_Project', 'http://dbpedia.org/resource/The_Minus_5', 'http://dbpedia.org/resource/The_Troggs', 'http://dbpedia.org/resource/Tired_Pony', 'http://dbpedia.org/resource/Tuatara_(band)', 'http://dbpedia.org/resource/U2', 'http://dbpedia.org/resource/Warren_Zevon'], 'abstract': '"Man on the Moon" is a song by the American alternative rock band R.E.M., released as the second single from their 1992 album, Automatic for the People. The lyrics were written by lead singer Michael Stipe, and the music by drummer Bill Berry and guitarist Peter Buck, and credited to the whole band as usual. The song was well received by critics and peaked at number 30 on the US Billboard Hot 100, number 18 on the UK Singles Chart and number one in Iceland. It remains one of R.E.M.\'s most popular songs and was included on the compilations In Time: The Best of R.E.M. 1988–2003 and Part Lies, Part Heart, Part Truth, Part Garbage 1982–2011. Lyrically, the song is a tribute to the comedian and performer Andy Kaufman, with numerous references to his career, including his Elvis impersonation, wrestling, and the film My Breakfast with Blassie. The song\'s title and chorus refer to the Moon landing conspiracy theories, as an oblique allusion to rumors that Kaufman\'s death in 1984 was faked. The song gave its name to Miloš Forman\'s comedy-drama film Man on the Moon (1999), starring Jim Carrey, based on Kaufman\'s life and was featured prominently in the film\'s soundtrack.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Grace_Kelly_(song)', 'track_name': 'Grace Kelly (canção)', 'artist': 'http://dbpedia.org/resource/Mika_(singer)', 'artist_name': 'Mika', 'wiki': 'http://en.wikipedia.org/wiki/Grace_Kelly_(song)', 'released': '08 January 2007', 'producers': ['http://dbpedia.org/resource/Greg_Wells'], 'writers': ['http://dbpedia.org/resource/Mika_(singer)', 'Dan Warner', 'Jodi Marr', 'John Merchant'], 'awards': ['Gold', 'Platinum'], 'labels': ['http://dbpedia.org/resource/Casablanca_Records', 'http://dbpedia.org/resource/Island_Records'], 'genres': ['http://dbpedia.org/resource/Glam_rock', 'http://dbpedia.org/resource/Pop_rock'], 'related_artists': ['http://dbpedia.org/resource/Cherisse_Osei', 'http://dbpedia.org/resource/Dan_Wilson_(musician)', 'http://dbpedia.org/resource/Max_Taylor_(musician)'], 'abstract': '"Grace Kelly" is the second single by the British singer Mika. It is the opening track on Mika\'s debut studio album Life in Cartoon Motion (2007). Produced and mixed by Greg Wells, the song entered the UK Singles Chart at number three and the UK Official Download Chart at number one. One week later, it jumped to the top of the UK Singles Chart. The track was number one on the UK Singles Chart for five weeks, and ended 2007 as the year\'s third biggest-selling single in that country. In the US, "Grace Kelly" was made available for digital download on 16 January 2007. This song was also No. 89 on MTV Asia\'s list of Top 100 Hits of 2007. It was designed to be a mocking satire of musicians who try to reinvent themselves to be popular. The song is titled after Academy Award-winning American film and stage actress, and Princess of Monaco, Grace Kelly. The bit of dialogue used in the song is from the film The Country Girl. Mika claims the song was inspired after a bad experience with a record company executive, in which he was told to be more like Craig David. The lyric "So I try a little Freddie" is a reference to Queen\'s Freddie Mercury, to whose singing voice Mika\'s has been compared. On at least one occasion, Mika confirmed that he used the main melody from Figaro\'s famous aria "Largo al factotum", from the opera The Barber of Seville by Gioachino Rossini. Mika performed the song at the MTV Europe Music Awards 2007 in Munich and at the 2008 BRIT Awards at the Earls Court Exhibition Centre, London, where it was nominated for Best British Single, but lost to "Shine" by Take That. The song has sold over 630,000 copies in the UK, as stated by the Official Charts Company.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Fast_Car', 'track_name': 'Fast Car', 'artist': 'http://dbpedia.org/resource/Tracy_Chapman', 'artist_name': 'Tracy Chapman', 'wiki': 'http://en.wikipedia.org/wiki/Fast_Car', 'released': '04 December 2015', 'producers': ['http://dbpedia.org/resource/David_Kershenbaum', 'Jonas Blue', 'Tobtok'], 'writers': ['http://dbpedia.org/resource/Tracy_Chapman'], 'awards': ['Gold', 'Platinum', 'Platinum+Gold'], 'labels': ['http://dbpedia.org/resource/Elektra_Records'], 'genres': ['http://dbpedia.org/resource/Tropical_house'], 'related_artists': ['http://dbpedia.org/resource/Adam_Levy', 'http://dbpedia.org/resource/Doug_Pettibone', 'http://dbpedia.org/resource/G._E._Smith', 'http://dbpedia.org/resource/John_Philip_Shenale', 'http://dbpedia.org/resource/Jonathan_Norton', 'http://dbpedia.org/resource/Steve_Hunter'], 'abstract': '"Fast Car" is a song by American singer-songwriter Tracy Chapman. It was released on April 6, 1988, as the lead single from her 1988 self-titled debut studio album. Chapman\'s appearance on the Nelson Mandela 70th Birthday Tribute helped the song become a top-ten hit in the United States, reaching number six on the Billboard Hot 100. In the United Kingdom, it reached number four on the UK Singles Chart. "Fast Car" received two Grammy nominations for Record of the Year and Song of the Year, as well as an MTV Video Music Award nomination for Best Female Video in 1989.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Christmas_Time_(Is_Here_Again)', 'track_name': 'Free as a Bird', 'artist': 'http://dbpedia.org/resource/The_Beatles', 'artist_name': 'The Beatles', 'wiki': 'http://en.wikipedia.org/wiki/Christmas_Time_(Is_Here_Again)', 'hometown': 'http://dbpedia.org/resource/Liverpool', 'released': '15 December 1967', 'producers': ['http://dbpedia.org/resource/George_Martin'], 'writers': ['http://dbpedia.org/resource/George_Harrison', 'http://dbpedia.org/resource/John_Lennon', 'http://dbpedia.org/resource/Paul_McCartney', 'http://dbpedia.org/resource/Ringo_Starr', '*Richard Starkey'], 'genres': ['http://dbpedia.org/resource/Christmas_music'], 'related_artists': ['http://dbpedia.org/resource/Al_Coury', 'http://dbpedia.org/resource/Allan_Williams', 'http://dbpedia.org/resource/Andy_White_(drummer)', 'http://dbpedia.org/resource/Billy_Fury', 'http://dbpedia.org/resource/Billy_J._Kramer', 'http://dbpedia.org/resource/Billy_Preston', 'http://dbpedia.org/resource/Bonzo_Dog_Doo-Dah_Band', 'http://dbpedia.org/resource/C._P._Spencer', 'http://dbpedia.org/resource/Chas_Newby', 'http://dbpedia.org/resource/Chris_Thomas_(record_producer)', 'http://dbpedia.org/resource/Freddie_Gorman', 'http://dbpedia.org/resource/Glyn_Johns__Glyn_Johns__1', 'http://dbpedia.org/resource/Go_Home_Productions', 'http://dbpedia.org/resource/Grapefruit_(band)', 'http://dbpedia.org/resource/Greg_Bowen', 'http://dbpedia.org/resource/Jackie_Lee_(Irish_singer)', 'http://dbpedia.org/resource/James_Apollo', 'http://dbpedia.org/resource/Jimmie_Nicol', 'http://dbpedia.org/resource/John_Kosh', 'http://dbpedia.org/resource/Johnny_Gentle', 'http://dbpedia.org/resource/Kathy_McCord', 'http://dbpedia.org/resource/Kiwi_Time', 'http://dbpedia.org/resource/Klaus_Voormann', 'http://dbpedia.org/resource/Nicky_Hopkins', 'http://dbpedia.org/resource/Norman_Chapman', 'http://dbpedia.org/resource/Pete_Best', 'http://dbpedia.org/resource/Plastic_Ono_Band', 'http://dbpedia.org/resource/Ronnie_Schneider__Ronald_Schneider__1', 'http://dbpedia.org/resource/Roy_Young_(musician)', 'http://dbpedia.org/resource/Shampoo_(parody_band)__Shampoo__1', 'http://dbpedia.org/resource/Sound_City_Players', 'http://dbpedia.org/resource/The_Beatnix', 'http://dbpedia.org/resource/The_Big_Three_(English_band)', 'http://dbpedia.org/resource/The_Monkees', 'http://dbpedia.org/resource/The_Quarrymen', 'http://dbpedia.org/resource/The_Rolling_Stones', 'http://dbpedia.org/resource/The_Ronettes', 'http://dbpedia.org/resource/The_Rutles', 'http://dbpedia.org/resource/Tommy_Moore_(musician)', 'http://dbpedia.org/resource/Tommy_Quickly', 'http://dbpedia.org/resource/Tony_Sheridan', 'http://dbpedia.org/resource/Vic_Flick'], 'abstract': '"Christmas Time (Is Here Again)" is a Christmas song by the English rock band the Beatles, originally recorded for their fifth fan club Christmas record, Christmas Time Is Here Again! (1967). One of the few Beatles songs credited to all four members of the band, it consists of a blues based backing track as well as double-tracked vocals sung by them, George Martin and Victor Spinetti. The lyrics are mostly made up of the song\'s title refrain, repeated across nine verses. Following its December 1967 release, "Christmas Time (Is Here Again)" remained officially unavailable for decades. A planned release in 1984 faltered after the abandonment of the Beatles\' then-upcoming album Sessions. Apple released a shortened version of the song in December 1995 as the B-side to the song "Free as a Bird". The 1967 version was re-issued on The Christmas Records, a 2017 limited-edition box set of the band\'s original Christmas records.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Radioactive_(Kings_of_Leon_song)', 'track_name': 'Radioactive (песня Kings of Leon)', 'artist': 'http://dbpedia.org/resource/Kings_of_Leon', 'artist_name': 'Kings of Leon', 'wiki': 'http://en.wikipedia.org/wiki/Radioactive_(Kings_of_Leon_song)', 'hometown': 'http://dbpedia.org/resource/Nashville,_Tennessee', 'released': '14 September 2010', 'producers': ['http://dbpedia.org/resource/Angelo_Petraglia', 'http://dbpedia.org/resource/Jacquire_King'], 'writers': ['Caleb Followill', 'Jared Followill', 'Matthew Followill', 'Nathan Followill'], 'awards': ['Platinum'], 'labels': ['http://dbpedia.org/resource/RCA_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Southern_rock'], 'related_artists': ['http://dbpedia.org/resource/A_Rocket_to_the_Moon', 'http://dbpedia.org/resource/Chris_James_(audio_engineer)', 'http://dbpedia.org/resource/Ethan_Luck', 'http://dbpedia.org/resource/Jacquire_King', 'http://dbpedia.org/resource/Johanna_Bennett', 'http://dbpedia.org/resource/Levi_Lowrey', "http://dbpedia.org/resource/Liam_O'Neil_(musician)", 'http://dbpedia.org/resource/Smoke_&amp;_Jackal', 'http://dbpedia.org/resource/The_Features', 'http://dbpedia.org/resource/The_Stills', 'http://dbpedia.org/resource/Timothy_Deaux'], 'abstract': '"Radioactive" is a song by American rock band Kings of Leon, and was the first single released from their 2010 album Come Around Sundown. The song, along with its accompanying music video, premiered on September 8 on the Kings\' website. The following day, it received its official radio premiere on Australian radio, and debuted on US Alternative Radio on September 13. The song was released on US iTunes on September 14, and released at a later date in remaining countries. The song was nominated for the 53rd Grammy Awards in two categories: Best Rock Performance by a Duo or Group with Vocals and Best Rock Song.The song is used in the films I Am Number Four and Boyhood.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Cantaloop_(Flip_Fantasia)', 'track_name': 'Cantaloop (Flip Fantasia)', 'artist': 'http://dbpedia.org/resource/Us3', 'artist_name': 'Us3', 'wiki': 'http://en.wikipedia.org/wiki/Cantaloop_(Flip_Fantasia)', 'released': '02 January 1993', 'producers': ['Geoff Wilkinson', 'Mel Simpson'], 'writers': ['http://dbpedia.org/resource/Herbie_Hancock'], 'labels': ['http://dbpedia.org/resource/Blue_Note_Records'], 'genres': ['http://dbpedia.org/resource/Acid_jazz', 'http://dbpedia.org/resource/Jazz_rap'], 'related_artists': ['http://dbpedia.org/resource/Mpho', 'http://dbpedia.org/resource/Shabaam_Sahdeeq'], 'abstract': '"Cantaloop (Flip Fantasia)" is a song by British jazz-rap group Us3. It was originally released in October 1992 as the lead single from their debut album, Hand On the Torch. The song was recorded as a demo a year before the group\'s first release and features a sample of Herbie Hancock\'s song "Cantaloupe Island". It did not chart in their native UK, but in the US, "Cantaloop (Flip Fantasia)" reached No. 9 on the Billboard Hot 100, becoming the group\'s only top 40 single. It was subsequently re-released in UK where it peaked at No. 23. "Cantaloop" was certified gold by the Recording Industry Association of America (RIAA) on March 25, 1994 for selling over 500,000 copies.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Numb_(Linkin_Park_song)', 'track_name': 'Numb', 'artist': 'http://dbpedia.org/resource/Linkin_Park', 'artist_name': 'Linkin Park', 'wiki': 'http://en.wikipedia.org/wiki/Numb_(Linkin_Park_song)', 'released': '08 September 2003', 'producers': ['http://dbpedia.org/resource/Linkin_Park', 'Don Gilmore'], 'writers': ['http://dbpedia.org/resource/Linkin_Park'], 'awards': ['Gold', 'Platinum'], 'labels': ['http://dbpedia.org/resource/Warner_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Emo', 'http://dbpedia.org/resource/Nu_metal', 'http://dbpedia.org/resource/Pop_rock'], 'related_artists': ['http://dbpedia.org/resource/Aaron_Lewis', 'http://dbpedia.org/resource/Adrian_Young__Adrian_Young__1', 'http://dbpedia.org/resource/Amir_Derakh', 'http://dbpedia.org/resource/Beta_State', 'http://dbpedia.org/resource/Brad_Delson', 'http://dbpedia.org/resource/Camp_Freddy', 'http://dbpedia.org/resource/Contemplate_(pop_duo)', 'http://dbpedia.org/resource/DJ_Lynnwood', 'http://dbpedia.org/resource/Dave_Farrell', 'http://dbpedia.org/resource/David_Brown_(British_musician)', 'http://dbpedia.org/resource/Dead_by_Sunrise', 'http://dbpedia.org/resource/Hoobastank', 'http://dbpedia.org/resource/Ilsey_Juber', 'http://dbpedia.org/resource/J._R._Rotem', 'http://dbpedia.org/resource/Joe_Hahn', 'http://dbpedia.org/resource/Jonathan_Davis', 'http://dbpedia.org/resource/Josh_Abraham', 'http://dbpedia.org/resource/Julien-K', 'http://dbpedia.org/resource/Justin_Lassen', 'http://dbpedia.org/resource/Kings_of_Chaos_(band)', 'http://dbpedia.org/resource/KutMasta_Kurt', 'http://dbpedia.org/resource/Mickey_Petralia', 'http://dbpedia.org/resource/Money_Mark', 'http://dbpedia.org/resource/Neal_Avron', 'http://dbpedia.org/resource/RAC_(musician)', 'http://dbpedia.org/resource/Rob_Bourdon', 'http://dbpedia.org/resource/Ryan_Key', 'http://dbpedia.org/resource/Ryan_Shuck', 'http://dbpedia.org/resource/Shavo_Odadjian', 'http://dbpedia.org/resource/Spike_Stent', 'http://dbpedia.org/resource/Steve_Aoki', 'http://dbpedia.org/resource/Steve_Jablonsky', 'http://dbpedia.org/resource/Steven_McKellar', 'http://dbpedia.org/resource/Stone_Temple_Pilots', 'http://dbpedia.org/resource/Styles_of_Beyond', 'http://dbpedia.org/resource/The_X-Ecutioners', 'http://dbpedia.org/resource/Tom_Dumont', 'http://dbpedia.org/resource/Tony_Kanal', 'http://dbpedia.org/resource/Unkle', 'http://dbpedia.org/resource/Xombie_(band)', 'http://dbpedia.org/resource/Z-Trip'], 'abstract': '"Numb" is a song by American rock band Linkin Park. It was released as the third single from their second studio album, Meteora (2003), and is the closing track on the album. One of Linkin Park\'s most well-known and critically acclaimed songs, "Numb" topped the Billboard Alternative Songs chart for 12 weeks. The song spent six weeks at the top of the chart in 2003 and six weeks in 2004. The song also spent three weeks atop the Billboard Hot Mainstream Rock Tracks chart and peaked at number 11 on the Billboard Hot 100. The song was remixed as "Numb/Encore", a collaboration between the band and American rapper Jay-Z. It was a massive hit for both artists that was featured on the album Collision Course and earned them the Grammy Award for Best Rap/Sung Collaboration. "Numb" was ranked number 95 on Rhapsody\'s list of the "Top 100 Tracks of the Decade". In January 2011, "Numb" was released in a Linkin Park DLC pack for Rock Band 3. In August 2020, it, together with several other Linkin Park songs, was added in an update to Beat Saber.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/A_Sky_Full_of_Stars', 'track_name': 'A Sky Full of Stars', 'artist': 'http://dbpedia.org/resource/Coldplay', 'artist_name': 'Coldplay', 'wiki': 'http://en.wikipedia.org/wiki/A_Sky_Full_of_Stars', 'hometown': 'http://dbpedia.org/resource/London', 'released': '02 May 2014', 'producers': ['http://dbpedia.org/resource/Avicii', 'http://dbpedia.org/resource/Coldplay', 'http://dbpedia.org/resource/Paul_Epworth', 'http://dbpedia.org/resource/Rik_Simpson', 'Daniel Green'], 'writers': ['http://dbpedia.org/resource/Avicii', 'http://dbpedia.org/resource/Chris_Martin', 'http://dbpedia.org/resource/Guy_Berryman', 'http://dbpedia.org/resource/Jonny_Buckland', 'http://dbpedia.org/resource/Will_Champion', 'Tim Bergling'], 'awards': ['Gold', 'Platinum'], 'labels': ['http://dbpedia.org/resource/Atlantic_Records', 'http://dbpedia.org/resource/Parlophone'], 'genres': ['http://dbpedia.org/resource/Progressive_house'], 'related_artists': ['http://dbpedia.org/resource/Apparatjik', 'http://dbpedia.org/resource/Black_Submarine', 'http://dbpedia.org/resource/Brian_Eno', 'http://dbpedia.org/resource/Danny_Ocean_(singer)', 'http://dbpedia.org/resource/Danton_Supple', 'http://dbpedia.org/resource/Davide_Rossi', 'http://dbpedia.org/resource/Faultline_(musician)', 'http://dbpedia.org/resource/Federico_Vindver', 'http://dbpedia.org/resource/Jon_Hopkins', 'http://dbpedia.org/resource/Juanita_Stein', 'http://dbpedia.org/resource/Kygo', 'http://dbpedia.org/resource/Madeon', 'http://dbpedia.org/resource/Markus_Dravs', 'http://dbpedia.org/resource/Maya_Lavelle', 'http://dbpedia.org/resource/Richard_Ashcroft', 'http://dbpedia.org/resource/Rik_Simpson', 'http://dbpedia.org/resource/Spike_Stent', 'http://dbpedia.org/resource/Stargate_(record_producers)', 'http://dbpedia.org/resource/Stuart_Price__Stuart_Price__1', 'http://dbpedia.org/resource/The_Undeserving', 'http://dbpedia.org/resource/We_Are_King'], 'abstract': '"A Sky Full of Stars" is a song by the British rock band Coldplay. It was released in 2014 as the second single from their sixth album, Ghost Stories (2014). An exclusive digital EP version of it, with the B-sides "All Your Friends", "Ghost Story" and "O (Reprise)", came out in the following weeks, being considered the band\'s eleventh extended play. The band co-wrote and co-produced the song with Avicii and received production assistance from Paul Epworth, Daniel Green and Rik Simpson. It was recorded at The Bakery and The Beehive in North London, England. Upon its release, "A Sky Full of Stars" garnered mostly positive reviews from music critics and charted inside the top 10 in over 16 countries such as Australia, Canada, Ireland, Japan, Mexico, New Zealand, the United Kingdom and United States. A music video for the song was directed by Mat Whitecross and was released on 19 June 2014. The single peaked at number one in Italy, Israel, Luxembourg, Portugal, Lebanon, and the Walloon region of Belgium. It also topped the Billboard Hot Dance Club Songs chart. It was nominated for Best Pop Duo/Group Performance at the 57th Grammy Awards.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Sliver_(song)', 'track_name': 'Sliver', 'artist': 'http://dbpedia.org/resource/Nirvana_(band)', 'artist_name': 'Nirvana', 'wiki': 'http://en.wikipedia.org/wiki/Sliver_(song)', 'hometown': 'http://dbpedia.org/resource/Aberdeen,_Washington', 'released': '01 September 1990', 'producers': ['http://dbpedia.org/resource/Jack_Endino'], 'writers': ['http://dbpedia.org/resource/Kurt_Cobain'], 'labels': ['http://dbpedia.org/resource/Sub_Pop'], 'genres': ['http://dbpedia.org/resource/Grunge', 'http://dbpedia.org/resource/Pop-punk'], 'related_artists': ['http://dbpedia.org/resource/Aaron_Burckhard', 'http://dbpedia.org/resource/Antony_Hodgkinson', 'http://dbpedia.org/resource/Anywhere_(band)', 'http://dbpedia.org/resource/Big_John_Duncan', 'http://dbpedia.org/resource/Butch_Vig', 'http://dbpedia.org/resource/Chad_Channing', 'http://dbpedia.org/resource/Curt_Kirkwood', 'http://dbpedia.org/resource/Dale_Crover', 'http://dbpedia.org/resource/Dan_Peters', 'http://dbpedia.org/resource/Dinosaur_Jr.', 'http://dbpedia.org/resource/Earth_(American_band)', 'http://dbpedia.org/resource/Eyes_Adrift', 'http://dbpedia.org/resource/Fecal_Matter_(band)', 'http://dbpedia.org/resource/Flea_(musician)', 'http://dbpedia.org/resource/Flipper_(band)', 'http://dbpedia.org/resource/Foo_Fighters', 'http://dbpedia.org/resource/Germs_(band)', 'http://dbpedia.org/resource/Giants_in_the_Trees', 'http://dbpedia.org/resource/Go_Home_Productions', 'http://dbpedia.org/resource/Green_River_(band)', 'http://dbpedia.org/resource/Half_Japanese', 'http://dbpedia.org/resource/Icky_Boyfriends', 'http://dbpedia.org/resource/Jason_Everman', 'http://dbpedia.org/resource/Kiwi_Time', 'http://dbpedia.org/resource/Krist_Novoselic', 'http://dbpedia.org/resource/Kultur_Shock', 'http://dbpedia.org/resource/L7_(band)__L7__1', 'http://dbpedia.org/resource/Lori_Goldston', 'http://dbpedia.org/resource/Meat_Puppets', 'http://dbpedia.org/resource/Melora_Creager', 'http://dbpedia.org/resource/Melvins', 'http://dbpedia.org/resource/Mudhoney', 'http://dbpedia.org/resource/Pat_Smear', 'http://dbpedia.org/resource/Scream_(band)', 'http://dbpedia.org/resource/Screaming_Trees', 'http://dbpedia.org/resource/Sound_City_Players', 'http://dbpedia.org/resource/Sweet_75', 'http://dbpedia.org/resource/The_Fluid', 'http://dbpedia.org/resource/The_No_WTO_Combo', 'http://dbpedia.org/resource/The_Vaselines', 'http://dbpedia.org/resource/Van_Tard'], 'abstract': '"Sliver" is a song by the American rock band Nirvana, written by vocalist and guitarist Kurt Cobain. The song was released as a non-album single by the band\'s then record label, Sub Pop, in September 1990. The same recording was re-released on the compilation album Incesticide by DGC in December 1992, and a new music video was released to promote the album.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Love_Me_like_You_Do', 'track_name': 'Love Me like You Do', 'artist': 'http://dbpedia.org/resource/Ellie_Goulding', 'artist_name': 'Ellie Goulding', 'wiki': 'http://en.wikipedia.org/wiki/Love_Me_like_You_Do', 'released': '07 January 2015', 'producers': ['http://dbpedia.org/resource/Ali_Payami', 'http://dbpedia.org/resource/Max_Martin'], 'writers': ['http://dbpedia.org/resource/Ali_Payami', 'http://dbpedia.org/resource/Ilya_Salmanzadeh', 'http://dbpedia.org/resource/Max_Martin', 'http://dbpedia.org/resource/Savan_Kotecha', 'http://dbpedia.org/resource/Tove_Lo'], 'awards': ['Diamond', 'Gold', 'Platinum'], 'labels': ['http://dbpedia.org/resource/Interscope_Records', 'http://dbpedia.org/resource/Martin_Kierszenbaum', 'http://dbpedia.org/resource/Republic_Records'], 'genres': ['http://dbpedia.org/resource/Electropop'], 'related_artists': ['http://dbpedia.org/resource/Active_Child', 'http://dbpedia.org/resource/Ali_Payami', 'http://dbpedia.org/resource/Arcades_(band)', 'http://dbpedia.org/resource/Carl_Falk', 'http://dbpedia.org/resource/Chris_Ketley', 'http://dbpedia.org/resource/Clean_Bandit', 'http://dbpedia.org/resource/Erik_Hassle', 'http://dbpedia.org/resource/Gemini_(musician)', 'http://dbpedia.org/resource/Hitimpulse', 'http://dbpedia.org/resource/Jakwob', 'http://dbpedia.org/resource/Joel_Little', 'http://dbpedia.org/resource/Julian_Perretta', 'http://dbpedia.org/resource/Justin_Parker', 'http://dbpedia.org/resource/Kygo', 'http://dbpedia.org/resource/Lauv', 'http://dbpedia.org/resource/Lissie', 'http://dbpedia.org/resource/Madeon', 'http://dbpedia.org/resource/Mike_Spencer', 'http://dbpedia.org/resource/Openside', 'http://dbpedia.org/resource/Seye_Adelekan', 'http://dbpedia.org/resource/Shy_Martin', 'http://dbpedia.org/resource/Skrillex', 'http://dbpedia.org/resource/Starsmith', 'http://dbpedia.org/resource/Steven_Malcolmson', 'http://dbpedia.org/resource/Stevie_Blacke', 'http://dbpedia.org/resource/Tarrus_Riley', 'http://dbpedia.org/resource/Tinie_Tempah'], 'abstract': '"Love Me like You Do" is a song recorded by English singer Ellie Goulding for the soundtrack to the film Fifty Shades of Grey (2015). The song was written by Savan Kotecha, Ilya Salmanzadeh, Tove Lo, Max Martin and Ali Payami; the latter two also produced it. Goulding was selected to provide vocals to the track. It was released on 7 January 2015 as the second single from the soundtrack. The song was also included on Goulding\'s third studio album, Delirium (2015). "Love Me like You Do" is a mid-tempo electropop power ballad, with instrumentation consisting of massive synths and crushing drums. Lyrically, similar to the film\'s theme, the song talks about the uncontrollable feeling of falling in love and being seduced by someone whose touch leaves her begging for more, even when it hurts. It received acclaim from music critics, who praised Goulding\'s soft vocals and the song for being sultry and grandiose. The song earned Goulding her first Grammy Award nomination for Best Pop Solo Performance, while the songwriters were nominated for the Grammy Award for Best Song Written for Visual Media, the Golden Globe Award for Best Original Song, and the Broadcast Film Critics Association Award for Best Song. "Love Me like You Do" topped the UK Singles Chart, a position it maintained for four weeks and held the record for the most-streamed track in a single week in the United Kingdom at the time. Outside the United Kingdom, "Love Me like You Do" became Goulding\'s most successful single as well as becoming her first chart-topper in various countries, topping the charts of over 25 territories, including Australia, Austria, Bulgaria, the Czech Republic, Denmark, Finland, Germany, Greece, Hungary, Italy, Luxembourg, New Zealand, Norway, Poland, Portugal, the Republic of Ireland, Slovakia, Slovenia, Spain, Sweden and Switzerland and peaking within the top ten of the charts in various countries, including Belgium, Colombia and the United States. Its accompanying music video, which features scenes of the film and Goulding dancing with her partner in a ballroom, became the 21st video to receive one billion views on YouTube and received a nomination at the 2015 MTV Video Music Awards for Best Female Video.'}</t>
+  </si>
+  <si>
+    <t>{'track': "http://dbpedia.org/resource/I_Still_Haven't_Found_What_I'm_Looking_For", 'track_name': "I Still Haven't Found What I'm Looking For", 'artist': 'http://dbpedia.org/resource/U2', 'artist_name': 'U2', 'wiki': "http://en.wikipedia.org/wiki/I_Still_Haven't_Found_What_I'm_Looking_For", 'hometown': 'http://dbpedia.org/resource/Dublin', 'producers': ['http://dbpedia.org/resource/Brian_Eno', 'http://dbpedia.org/resource/Daniel_Lanois'], 'writers': ['http://dbpedia.org/resource/Bono'], 'awards': ['Gold', 'Platinum'], 'labels': ['http://dbpedia.org/resource/Island_Records'], 'genres': ['http://dbpedia.org/resource/Electronic_dance_music', 'http://dbpedia.org/resource/Gospel_music', 'http://dbpedia.org/resource/Rock_music'], 'related_artists': ['http://dbpedia.org/resource/Adam_Clayton', 'http://dbpedia.org/resource/Adrian_Bushby', 'http://dbpedia.org/resource/Andrew_Scheps', 'http://dbpedia.org/resource/Ariel_Rechtshaid', 'http://dbpedia.org/resource/Arthur_Fogel', 'http://dbpedia.org/resource/Bagatelle_(band)', 'http://dbpedia.org/resource/Brian_Eno', 'http://dbpedia.org/resource/Cenzo_Townshend', 'http://dbpedia.org/resource/Daniel_Lanois', 'http://dbpedia.org/resource/Dik_Evans', 'http://dbpedia.org/resource/Florence_and_the_Machine', 'http://dbpedia.org/resource/Greg_Fidelman', 'http://dbpedia.org/resource/In_Tua_Nua', 'http://dbpedia.org/resource/Jason_Iley', 'http://dbpedia.org/resource/Josh_Garza', 'http://dbpedia.org/resource/Kygo', 'http://dbpedia.org/resource/Larry_Mullen_Jr.', 'http://dbpedia.org/resource/Lost_Stories_(DJs)', 'http://dbpedia.org/resource/Mark_Howard_(producer)', 'http://dbpedia.org/resource/Mike_McKnight', 'http://dbpedia.org/resource/Nate_Walcott', 'http://dbpedia.org/resource/Nellee_Hooper', 'http://dbpedia.org/resource/Paul_McGuinness', 'http://dbpedia.org/resource/R.E.M.', 'http://dbpedia.org/resource/Reeve_Carney', 'http://dbpedia.org/resource/Sikter', 'http://dbpedia.org/resource/Simon_Gogerly', 'http://dbpedia.org/resource/Skids_(band)', 'http://dbpedia.org/resource/Spike_Stent', 'http://dbpedia.org/resource/Steve_Lillywhite', 'http://dbpedia.org/resource/The_Edge', 'http://dbpedia.org/resource/The_Memphis_Horns', 'http://dbpedia.org/resource/The_Mighty_Manatees', 'http://dbpedia.org/resource/Vinnie_Kilduff', 'http://dbpedia.org/resource/Virgin_Prunes'], 'abstract': '"I Still Haven\'t Found What I\'m Looking For" is a song by Irish rock band U2. It is the second track from their 1987 album The Joshua Tree and was released as the album\'s second single in May 1987. The song was a hit, becoming the band\'s second consecutive number-one single on the US Billboard Hot 100 while peaking at number six on the UK Singles Chart. The song originated from a demo the band recorded on which drummer Larry Mullen Jr. played a unique rhythm pattern. Like much of The Joshua Tree, the song was inspired by the group\'s interest in American music. "I Still Haven\'t Found What I\'m Looking For" exhibits influences from gospel music and its lyrics describe spiritual yearning. Lead singer Bono\'s vocals are in high register and lead guitarist the Edge plays a chiming arpeggio. Adding to the gospel qualities of the song are choir-like backing vocals provided by the Edge and producers Brian Eno and Daniel Lanois. "I Still Haven\'t Found What I\'m Looking For" was critically acclaimed and received two nominations at the 30th Annual Grammy Awards in 1988, for Record of the Year and Song of the Year. It has subsequently become one of the group\'s most well-known songs and has been performed on many of their concert tours. The track has appeared on several of their compilations and concert films. Many critics and publications have ranked "I Still Haven\'t Found What I\'m Looking For" among the greatest tracks in music history, including Rolling Stone which ranked the song at number 93 of its 2010 list of "The 500 Greatest Songs of All Time".'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Flashdance..._What_a_Feeling', 'track_name': 'Flashdance … What a Feeling', 'artist': 'http://dbpedia.org/resource/Irene_Cara', 'artist_name': 'Irene Cara', 'wiki': 'http://en.wikipedia.org/wiki/Flashdance..._What_a_Feeling', 'producers': ['http://dbpedia.org/resource/Giorgio_Moroder', 'Florian Schreyvogl', 'Nick Coler', 'Ian Richardson', 'Konrad Schreyvogl'], 'writers': ['http://dbpedia.org/resource/Giorgio_Moroder', 'http://dbpedia.org/resource/Irene_Cara', 'http://dbpedia.org/resource/Keith_Forsey', 'Moroder', 'Forsey', 'Cara', 'Frank Floyd'], 'awards': ['Gold', 'Platinum', 'Silver'], 'labels': ['http://dbpedia.org/resource/Al_Coury', 'http://dbpedia.org/resource/Casablanca_Records'], 'genres': ['http://dbpedia.org/resource/Dance-pop', 'http://dbpedia.org/resource/Pop_music'], 'related_artists': ['http://dbpedia.org/resource/Andrew_Lane_(record_producer)', 'http://dbpedia.org/resource/Danny_Sembello', 'http://dbpedia.org/resource/Giorgio_Moroder', 'http://dbpedia.org/resource/Vicki_Sue_Robinson'], 'abstract': '"Flashdance... What a Feeling" is a song from the 1983 film Flashdance with music by Giorgio Moroder and lyrics by Keith Forsey and the song\'s performer, Irene Cara. Moroder had been asked to score the film, and Cara and Forsey wrote most of the lyrics after they were shown the last scene from it in which the main character dances at an audition for a group of judges. They felt that the dancer\'s ambition to succeed could act as a metaphor for achieving any dream a person has and wrote lyrics that described what it feels like when music inspires someone to dance. The song wound up being used for the scene they watched as well as during the opening credits as the main character is shown working as a welder. Their collaboration was the first single to be released from the soundtrack album and received positive reviews. Because Flashdance was going to be released in mid-April of that year, Casablanca Records made the single available in March as a way of marketing the film to the target audience. The unexpected success at the box office resulted in stores across the US selling out of both the single and its parent album just days after Flashdance was in theaters. The song spent six weeks at number one on the Billboard Hot 100 and topped the charts around the world. It was awarded Gold certification by the Recording Industry Association of America for sales of one million copies and won the Academy Award and Golden Globe for Best Original Song and earned Cara the Grammy Award for Best Female Pop Vocal Performance. The success of the song made it clear to Cara that she was not receiving royalties that were stipulated in her recording contract, and she took legal action against her label in order to be compensated. The backlash that she claims she suffered in retaliation for filing a lawsuit left her feeling shut out of the entertainment industry as she struggled to find work. Although she began receiving royalties for the recordings she made for them, the label and its owner declared bankruptcy and claimed that they were unable to pay her the $1.5 million settlement she was awarded by a Los Angeles Superior Court.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Kids_(MGMT_song)', 'track_name': 'Kids (MGMT의 노래)', 'artist': 'http://dbpedia.org/resource/MGMT', 'artist_name': 'MGMT', 'wiki': 'http://en.wikipedia.org/wiki/Kids_(MGMT_song)', 'hometown': 'http://dbpedia.org/resource/Middletown,_Connecticut', 'released': '13 October 2008', 'producers': ['http://dbpedia.org/resource/Dave_Fridmann', 'http://dbpedia.org/resource/MGMT'], 'writers': ['http://dbpedia.org/resource/Andrew_VanWyngarden', 'http://dbpedia.org/resource/Benjamin_Goldwasser'], 'awards': ['Gold', 'Platinum'], 'labels': ['http://dbpedia.org/resource/Columbia_Records'], 'genres': ['http://dbpedia.org/resource/Electronic_rock', 'http://dbpedia.org/resource/Indie_rock', 'http://dbpedia.org/resource/Synth-pop'], 'related_artists': ['http://dbpedia.org/resource/Andrew_VanWyngarden', 'http://dbpedia.org/resource/Benjamin_Goldwasser', 'http://dbpedia.org/resource/Bradford_Cox', 'http://dbpedia.org/resource/Chiddy_Bang', 'http://dbpedia.org/resource/Dave_Fridmann', 'http://dbpedia.org/resource/Devendra_Banhart', 'http://dbpedia.org/resource/Francis_and_the_Lights', 'http://dbpedia.org/resource/Peter_Kember', 'http://dbpedia.org/resource/Snowblink'], 'abstract': '"Kids" is a song by American rock band MGMT. It was released as the third and final single from their debut studio album Oracular Spectacular (2007) on October 13, 2008. The version of the song that appears on Oracular Spectacular is updated from earlier versions that appear on the band\'s EPs Time to Pretend (2005) and We (Don\'t) Care (2004). A track entitled "Kids (Afterschool Dance Megamix)" appears on the album Climbing to New Lows (2005). On December 1, 2009, the track was announced as a nominee at the 52nd Grammy Awards in the category Best Pop Performance by a Duo or Group with Vocals. The song was the center of a legal dispute with the former President of France, Nicolas Sarkozy, over the "insulting" compensation he offered for his illegal use of the song during a party conference.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Shake_It', 'track_name': 'Shake It', 'artist': 'http://dbpedia.org/resource/Metro_Station_(band)', 'artist_name': 'Metro Station', 'wiki': 'http://en.wikipedia.org/wiki/Shake_It', 'released': '01 April 2008', 'producers': ['http://dbpedia.org/resource/S*A*M_and_Sluggo'], 'writers': ['http://dbpedia.org/resource/Mason_Musso', 'http://dbpedia.org/resource/Metro_Station_(band)', 'http://dbpedia.org/resource/Trace_Cyrus', 'Anthony Improgo'], 'awards': ['Gold', 'Platinum'], 'labels': ['http://dbpedia.org/resource/Columbia_Records'], 'genres': ['http://dbpedia.org/resource/Emo', 'http://dbpedia.org/resource/Pop-punk'], 'related_artists': ['http://dbpedia.org/resource/Blood_on_the_Dance_Floor_(band)', 'http://dbpedia.org/resource/Boys_Like_Girls', 'http://dbpedia.org/resource/Forever_the_Sickest_Kids', 'http://dbpedia.org/resource/Luis_Dubuc', 'http://dbpedia.org/resource/Mason_Musso', 'http://dbpedia.org/resource/PJ_Bianco', 'http://dbpedia.org/resource/Powerspace', 'http://dbpedia.org/resource/Ronnie_Radke', 'http://dbpedia.org/resource/The_Ready_Set', 'http://dbpedia.org/resource/William_Beckett_(singer)'], 'abstract': '"Shake It" is a song by American pop band Metro Station, released as the third single (and debut British single) from the group\'s 2007 self-titled debut studio album. The song debuted on the radio on April 1, 2008. "Shake It" was the band\'s first charting single, peaking at number 10 on the US Billboard Hot 100. Internationally, the song peaked within the top 10 of the charts in Australia, Austria, Canada, Germany, Ireland, Japan, New Zealand, and the United Kingdom. The single was certified Gold by the RIAA on June 13, 2008, and later Platinum that year, until finally reaching 2× Platinum status at the end of January 2009.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Drive_(R.E.M._song)', 'track_name': 'Drive', 'artist': 'http://dbpedia.org/resource/R.E.M.', 'artist_name': 'R.E.M.', 'wiki': 'http://en.wikipedia.org/wiki/Drive_(R.E.M._song)', 'hometown': 'http://dbpedia.org/resource/Athens,_Georgia', 'producers': ['http://dbpedia.org/resource/Scott_Litt', 'R.E.M.'], 'writers': ['http://dbpedia.org/resource/Bill_Berry', 'http://dbpedia.org/resource/Michael_Stipe', 'http://dbpedia.org/resource/Mike_Mills', 'http://dbpedia.org/resource/Peter_Buck'], 'labels': ['http://dbpedia.org/resource/Warner_Records'], 'related_artists': ['http://dbpedia.org/resource/10,000_Maniacs', 'http://dbpedia.org/resource/Amanda_Brown_(musician)', 'http://dbpedia.org/resource/Barrett_Martin', 'http://dbpedia.org/resource/Big_High', 'http://dbpedia.org/resource/Bill_Berry', 'http://dbpedia.org/resource/Bill_Rieflin', 'http://dbpedia.org/resource/Buren_Fowler', 'http://dbpedia.org/resource/Don_Dixon_(musician)', 'http://dbpedia.org/resource/Dumptruck_(band)', 'http://dbpedia.org/resource/Dušan_Vranić', 'http://dbpedia.org/resource/Filthy_Friends', 'http://dbpedia.org/resource/Grant-Lee_Phillips', 'http://dbpedia.org/resource/Hindu_Love_Gods_(band)', 'http://dbpedia.org/resource/Indigo_Girls', 'http://dbpedia.org/resource/Joey_Waronker', 'http://dbpedia.org/resource/John_Paul_Jones_(musician)', 'http://dbpedia.org/resource/Kate_Pierson', 'http://dbpedia.org/resource/Ken_Stringfellow', 'http://dbpedia.org/resource/Lenny_Kaye', 'http://dbpedia.org/resource/Magnapop', 'http://dbpedia.org/resource/Mark_Howard_(producer)', 'http://dbpedia.org/resource/Michael_Stipe', 'http://dbpedia.org/resource/Mike_Mills', 'http://dbpedia.org/resource/Montanablue', 'http://dbpedia.org/resource/Nikki_Sudden', 'http://dbpedia.org/resource/One_(U2_song)', 'http://dbpedia.org/resource/Pete_Yorn', 'http://dbpedia.org/resource/Peter_Buck', 'http://dbpedia.org/resource/Robyn_Hitchcock', 'http://dbpedia.org/resource/Scott_McCaughey', 'http://dbpedia.org/resource/Tanzplagen', "http://dbpedia.org/resource/The_B-52's", 'http://dbpedia.org/resource/The_Baseball_Project', 'http://dbpedia.org/resource/The_Humans_(UK_band)', 'http://dbpedia.org/resource/The_Minus_5', 'http://dbpedia.org/resource/The_Orange_Humble_Band', 'http://dbpedia.org/resource/The_Troggs', "http://dbpedia.org/resource/The_dB's", 'http://dbpedia.org/resource/Tired_Pony', 'http://dbpedia.org/resource/Tuatara_(band)', 'http://dbpedia.org/resource/U2', 'http://dbpedia.org/resource/Warren_Zevon', 'http://dbpedia.org/resource/William_Lee_Self', 'http://dbpedia.org/resource/Đani_Pervan'], 'abstract': '"Drive" is a song by American alternative rock band R.E.M. It is the first track on and the lead single from their eighth studio album, Automatic for the People (1992), and was the first song lead singer Michael Stipe wrote on a computer. "Drive" peaked at number 28 on the US Billboard Hot 100, number one on the Billboard Modern Rock Tracks chart, and number two on the Billboard Album Rock Tracks chart. Internationally, "Drive" became R.E.M.\'s then second-biggest hit on the UK Singles Charts, peaking at number 11, and their biggest hit in Norway until "Supernatural Superserious" in 2008, reaching number three. Elsewhere, the song reached the top 10 in Canada, Ireland, New Zealand, and Switzerland. Despite the success and popularity of the song, it was left out of the band\'s Warner Bros. Records "best of" compilations In Time: The Best of R.E.M. 1988–2003 and Part Lies, Part Heart, Part Truth, Part Garbage 1982–2011. However, a live version of the song was included in the special edition two-disc set of In Time that included rarities, live versions, and B-sides. The version featured was the "funk" version, which has never been studio-recorded. The song is also included on the 2003 live DVD Perfect Square, the 2007 live CD/DVD R.E.M. Live, and the 2009 live CD Live at the Olympia (and its accompanying DVD This Is Not a Show). This song was also sampled in the song "Space Bound" by Eminem on his 2010 album Recovery. B-side "Winged Mammal Theme" is a re-working of the "Batman Theme" originally intended to appear in Batman Returns; the song went unused in the film\'s final version.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/September_(Earth,_Wind_&amp;_Fire_song)', 'track_name': 'September (sång)', 'artist': 'http://dbpedia.org/resource/Earth,_Wind_&amp;_Fire', 'artist_name': 'Earth, Wind &amp; Fire', 'wiki': 'http://en.wikipedia.org/wiki/September_(Earth,_Wind_&amp;_Fire_song)', 'producers': ['http://dbpedia.org/resource/Maurice_White'], 'writers': ['http://dbpedia.org/resource/Al_McKay', 'http://dbpedia.org/resource/Allee_Willis', 'http://dbpedia.org/resource/Maurice_White'], 'awards': ['Gold', 'Platinum', 'Platinum+Gold'], 'labels': ['http://dbpedia.org/resource/American_Record_Corporation', 'http://dbpedia.org/resource/Columbia_Records'], 'genres': ['http://dbpedia.org/resource/Contemporary_R&amp;B', 'http://dbpedia.org/resource/Dance-pop', 'http://dbpedia.org/resource/Disco', 'http://dbpedia.org/resource/Funk', 'http://dbpedia.org/resource/Gospel_music', 'http://dbpedia.org/resource/House_music', 'http://dbpedia.org/resource/Rhythm_and_blues'], 'related_artists': ['http://dbpedia.org/resource/Al_McKay', 'http://dbpedia.org/resource/Allee_Willis', 'http://dbpedia.org/resource/Andrew_Woolfolk', 'http://dbpedia.org/resource/Bedtime_for_Toys', 'http://dbpedia.org/resource/Bill_Champlin', 'http://dbpedia.org/resource/Bob_Conti', 'http://dbpedia.org/resource/Bobby_Nunn_(R&amp;B_musician)', 'http://dbpedia.org/resource/Charles_Stepney', 'http://dbpedia.org/resource/Daniel_de_los_Reyes', 'http://dbpedia.org/resource/David_Foster', 'http://dbpedia.org/resource/Don_Blackman', 'http://dbpedia.org/resource/Don_Myrick', 'http://dbpedia.org/resource/Donny_Hathaway', 'http://dbpedia.org/resource/Earth,_Wind_&amp;_Fire_Horns', 'http://dbpedia.org/resource/Freddie_Ravel', 'http://dbpedia.org/resource/Garnett_Brown', 'http://dbpedia.org/resource/Garry_Glenn', 'http://dbpedia.org/resource/George_Duke', 'http://dbpedia.org/resource/Greg_Moore_(guitarist)', 'http://dbpedia.org/resource/JR_Hutson', 'http://dbpedia.org/resource/James_Pankow', 'http://dbpedia.org/resource/Joe_Wissert', 'http://dbpedia.org/resource/John_Paris', 'http://dbpedia.org/resource/Larry_Dunn', 'http://dbpedia.org/resource/Louis_Satterfield', 'http://dbpedia.org/resource/Martin_Page', 'http://dbpedia.org/resource/Maurice_White', 'http://dbpedia.org/resource/Mike_McKnight', 'http://dbpedia.org/resource/Morris_Pleasure', 'http://dbpedia.org/resource/New_Birth_(band)', 'http://dbpedia.org/resource/Philip_Bailey', 'http://dbpedia.org/resource/Ralph_Johnson_(musician)', 'http://dbpedia.org/resource/Ramsey_Lewis', 'http://dbpedia.org/resource/Ricky_Lawson', 'http://dbpedia.org/resource/Robert_Brookins', 'http://dbpedia.org/resource/Robert_Greenidge', 'http://dbpedia.org/resource/Roland_Bautista', 'http://dbpedia.org/resource/Ronnie_Laws', 'http://dbpedia.org/resource/Roxanne_Seeman', 'http://dbpedia.org/resource/Seawind_(band)', 'http://dbpedia.org/resource/Sheldon_Reynolds_(guitarist)', 'http://dbpedia.org/resource/Skip_Scarborough', 'http://dbpedia.org/resource/Sonny_Emory', 'http://dbpedia.org/resource/Suns_of_Light', 'http://dbpedia.org/resource/The_Chi-Lites', 'http://dbpedia.org/resource/The_Emotions', 'http://dbpedia.org/resource/The_Pharaohs', 'http://dbpedia.org/resource/The_Phenix_Horns', 'http://dbpedia.org/resource/Tony_Haynes_(American_musician)', 'http://dbpedia.org/resource/Verdine_White', 'http://dbpedia.org/resource/Wayne_Vaughn', 'http://dbpedia.org/resource/Will_Wheaton'], 'abstract': '"September" is a song by the American band Earth, Wind &amp; Fire released as a single in 1978 on ARC/Columbia Records. Initially included as a track for The Best of Earth, Wind &amp; Fire, Vol. 1, "September" was very successful commercially and reached No. 1 on the US Billboard Hot R&amp;B Songs chart, No. 8 on the US Billboard Hot 100, and No. 3 on the UK Singles Chart. The song remains a staple of the band\'s body of work and has been sampled, covered, remixed, and re-recorded numerous times. It was added to the Library of Congress\' National Recording Registry list of sound recordings that "are culturally, historically, or aesthetically important" in 2018.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Chlorine_(song)', 'track_name': 'Chlorine (singolo)', 'artist': 'http://dbpedia.org/resource/Twenty_One_Pilots', 'artist_name': 'Twenty One Pilots', 'wiki': 'http://en.wikipedia.org/wiki/Chlorine_(song)', 'hometown': 'http://dbpedia.org/resource/Columbus,_Ohio', 'released': '21 June 2019', 'producers': ['Tyler Joseph', 'Paul Meany'], 'writers': ['http://dbpedia.org/resource/Paul_Meany', 'http://dbpedia.org/resource/Tyler_Joseph'], 'awards': ['Gold', 'Platinum', 'Silver'], 'labels': ['http://dbpedia.org/resource/Fueled_by_Ramen'], 'genres': ['http://dbpedia.org/resource/Electropop', 'http://dbpedia.org/resource/Pop_music', 'http://dbpedia.org/resource/Rap_rock', 'http://dbpedia.org/resource/Trip_hop', 'Pop', '*'], 'related_artists': ['http://dbpedia.org/resource/Brandon_Rike', 'http://dbpedia.org/resource/Bry_(singer)', 'http://dbpedia.org/resource/Chris_Gehringer', 'http://dbpedia.org/resource/Darren_King', 'http://dbpedia.org/resource/Finish_Ticket', 'http://dbpedia.org/resource/Greg_Kurstin', 'http://dbpedia.org/resource/Half_Alive_(band)', 'http://dbpedia.org/resource/Isaac_Carpenter_(drummer)', 'http://dbpedia.org/resource/LunchMoney_Lewis', 'http://dbpedia.org/resource/Max_Frost', 'http://dbpedia.org/resource/Mike_Crossey', 'http://dbpedia.org/resource/Mike_Elizondo', 'http://dbpedia.org/resource/Neal_Avron', 'http://dbpedia.org/resource/Openside', 'http://dbpedia.org/resource/Paul_Meany', 'http://dbpedia.org/resource/Ricky_Reed', 'http://dbpedia.org/resource/Roy_Mitchell-Cárdenas', 'http://dbpedia.org/resource/Steve_Jablonsky', 'http://dbpedia.org/resource/The_Royal_Foundry', 'http://dbpedia.org/resource/The_Tide_(band)'], 'abstract': '"Chlorine" is a song written and recorded by the American musical duo Twenty One Pilots. The song was released on October 5, 2018 as part of their fifth studio album, Trench, by Fueled by Ramen and on January 22, 2019 as the fifth single from the album plus a music video. It became the band\'s fifth number one single on the Billboard Alternative Songs chart and the first track from Trench to be certified platinum. The song was sent to Alternative radio on January 29, 2019 then sent to Top 40 radio on March 19, 2019. The track was written and produced by lead singer Tyler Joseph and Paul Meany of rock band Mutemath. It is a pop, electropop, trip hop and rap rock song which discusses "how creativity can cleanse dark impulses but cause its own pain". "Chlorine" was well received by music critics, who highlighted its catchiness and musical restraint compared to the band\'s previous work. Upon the song\'s release as a single, a music video directed by Mark Eshleman of Reel Bear Media was uploaded. The track is the duo\'s most popular from Trench.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Smooth_Criminal', 'track_name': 'Smooth Criminal', 'artist': 'http://dbpedia.org/resource/Alien_Ant_Farm', 'artist_name': 'Alien Ant Farm', 'wiki': 'http://en.wikipedia.org/wiki/Smooth_Criminal', 'hometown': 'http://dbpedia.org/resource/Riverside,_California', 'released': '22 May 2001', 'producers': ['http://dbpedia.org/resource/Quincy_Jones', 'Jay Baumgardner', '*Michael Jackson'], 'writers': ['http://dbpedia.org/resource/Michael_Jackson'], 'awards': ['Gold', 'Platinum', 'Silver'], 'labels': ['http://dbpedia.org/resource/Epic_Records'], 'genres': ['http://dbpedia.org/resource/Contemporary_R&amp;B', 'http://dbpedia.org/resource/Nu_metal', 'http://dbpedia.org/resource/Pop_music', 'Pop', 'R&amp;B'], 'related_artists': ['http://dbpedia.org/resource/Chain_of_Strength', 'http://dbpedia.org/resource/Excel_(band)', 'http://dbpedia.org/resource/Inside_Out_(band)', 'http://dbpedia.org/resource/Jay_Baumgardner'], 'abstract': '"Smooth Criminal" is a song by American singer Michael Jackson, released on November 14, 1988, as the seventh single from from his seventh album, Bad (1987). It was written by Jackson and produced by Jackson and Quincy Jones. The lyrics address a woman who has been attacked in her apartment by a "smooth criminal". The refrain "Annie, are you OK?" was inspired by Resusci Anne, a dummy used in cardiopulmonary resuscitation training. The music video for "Smooth Criminal", which premiered on MTV on October 13, 1988, is the centerpiece of the 1988 film Moonwalker. The 1930s setting and Jackson\'s white suit and fedora pay tribute to the Fred Astaire musical comedy film The Band Wagon. In the video, Jackson and the dancers perform an apparently physically impossible "anti-gravity lean". "Smooth Criminal" reached number seven on the Billboard Hot 100, becoming the sixth top-10 single from Bad. It reached number two on the Billboard Hot Black Singles chart. It was certified double platinum by the Recording Industry Association of America (RIAA). The song reached number one in Belgium, Iceland, the Netherlands, and Spain. Retrospective reviews have described it as one of Jackson\'s best songs. Rolling Stone wrote that it was "his best blend of R&amp;B groove and rock edginess, and a turning point in his shift toward darker, harder-edged material". It has appeared on numerous greatest hits albums and was performed on all of Jackson\'s solo tours. "Smooth Criminal" was re-released in 2006 as a single as a part of Jackson\'s Visionary: The Video Singles boxset.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Monkey_Gone_to_Heaven', 'track_name': 'Monkey Gone to Heaven', 'artist': 'http://dbpedia.org/resource/Pixies_(band)', 'artist_name': 'Pixies', 'wiki': 'http://en.wikipedia.org/wiki/Monkey_Gone_to_Heaven', 'hometown': 'http://dbpedia.org/resource/Massachusetts', 'producers': ['http://dbpedia.org/resource/Gil_Norton'], 'writers': ['http://dbpedia.org/resource/Black_Francis'], 'labels': ['http://dbpedia.org/resource/Elektra_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_rock'], 'related_artists': ['http://dbpedia.org/resource/A_Perfect_Circle', 'http://dbpedia.org/resource/Black_Francis', 'http://dbpedia.org/resource/David_Lovering', 'http://dbpedia.org/resource/Entrance_(musician)', 'http://dbpedia.org/resource/Grand_Duchy_(band)', 'http://dbpedia.org/resource/Joey_Santiago__Joey_Santiago__1', 'http://dbpedia.org/resource/Jonathan_Morali', 'http://dbpedia.org/resource/Paz_Lenchantin', 'http://dbpedia.org/resource/Simon_%22Ding%22_Archer', 'http://dbpedia.org/resource/The_Amps', 'http://dbpedia.org/resource/The_Breeders', 'http://dbpedia.org/resource/The_Martinis', 'http://dbpedia.org/resource/The_Muffs', 'http://dbpedia.org/resource/The_Pandoras'], 'abstract': '"Monkey Gone to Heaven" is a song by the American alternative rock band Pixies. Recorded in November 1988 during the sessions for the band\'s 1989 album Doolittle, it was released as a single in March, and included as the seventh track on the album when it was released a month later in April. The song was written and sung by frontman Black Francis and was produced by Gil Norton. Referencing environmentalism and biblical numerology, the song\'s lyrics mirrored themes that were explored in Doolittle. "Monkey Gone to Heaven" was the first Pixies song to feature guest musicians: two cellists, Arthur Fiacco and Ann Rorich, and two violinists, Karen Karlsrud and Corine Metter. The band had signed to Elektra Records at the end of 1988, so the "Monkey Gone to Heaven" single was their first American and major label release. It was critically well-received; Rolling Stone\'s David Fricke said "Monkey Gone to Heaven" was "a corrosive, compelling meditation on God and garbage". In the years since its release, the song has received several accolades from music publications.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Fireflies_(Owl_City_song)', 'track_name': 'Fireflies', 'artist': 'http://dbpedia.org/resource/Owl_City', 'artist_name': 'Owl City', 'wiki': 'http://en.wikipedia.org/wiki/Fireflies_(Owl_City_song)', 'hometown': 'http://dbpedia.org/resource/Owatonna,_Minnesota', 'released': '14 July 2009', 'producers': ['http://dbpedia.org/resource/Matt_Thiessen', 'Adam Young'], 'writers': ['Adam Young'], 'awards': ['Gold', 'Platinum'], 'labels': ['http://dbpedia.org/resource/Republic_Records'], 'genres': ['http://dbpedia.org/resource/Synth-pop'], 'related_artists': ['http://dbpedia.org/resource/Breanne_Düren', 'http://dbpedia.org/resource/Keith_Kenniff', 'http://dbpedia.org/resource/Lights_(musician)', 'http://dbpedia.org/resource/Matt_Thiessen', 'http://dbpedia.org/resource/Sekai_no_Owari', 'http://dbpedia.org/resource/Swimming_With_Dolphins_(band)', 'http://dbpedia.org/resource/Windsor_Airlift'], 'abstract': '"Fireflies" is the debut single from American electronica project Owl City\'s album Ocean Eyes. Frontman Adam Young wrote and produced the track, with Matt Thiessen also producing and providing guest vocals. Young described the song as "a little song about bugs and not being able to fall asleep at night." The song is built around a "bleepy" synthline and includes lyrics about insomnia, fireflies and summer. The song topped the Billboard Hot 100 for two non-consecutive weeks. Outside of the United States, the song also topped the charts in Australia, Belgium, Denmark, Finland, the Netherlands, Norway, the Republic of Ireland, Sweden, and the United Kingdom. "Fireflies" was Owl City\'s only top 40 hit on Billboard Hot 100 until three years later when "Good Time", a duet with Canadian singer Carly Rae Jepsen, peaked at No. 8 on the chart. It has been covered by Christina Grimmie, Cheryl Cole and others. "Fireflies" is featured in the video game Disney Sing It: Party Hits, and was used in the promotional video for EyePet. It is available as downloadable content for Guitar Hero 5, Guitar Hero: Warriors of Rock and Rock Band 3.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Dilemma_(song)', 'track_name': 'Dilemma', 'artist': 'http://dbpedia.org/resource/Nelly', 'artist_name': 'Nelly', 'wiki': 'http://en.wikipedia.org/wiki/Dilemma_(song)', 'released': '12 July 2019', 'producers': ['http://dbpedia.org/resource/Ryan_Bowser'], 'writers': ['http://dbpedia.org/resource/Bunny_Sigler', 'http://dbpedia.org/resource/Gamble_and_Huff', 'http://dbpedia.org/resource/Nelly', 'Cornell Haynes Jr.', 'Antoine Macon', 'Kenneth Gamble'], 'awards': ['Gold', 'Million', 'Platinum'], 'labels': ['http://dbpedia.org/resource/Columbia_Records', 'http://dbpedia.org/resource/Universal_Records_(1995−2005)'], 'genres': ['http://dbpedia.org/resource/Contemporary_R&amp;B', 'http://dbpedia.org/resource/Pop_music', 'Pop', 'R&amp;B'], 'related_artists': ['http://dbpedia.org/resource/Ali_(American_rapper)', 'http://dbpedia.org/resource/Alsou', 'http://dbpedia.org/resource/Bazzi_(singer)', 'http://dbpedia.org/resource/Big_Gipp', 'http://dbpedia.org/resource/Brian_Kelley_(musician)', 'http://dbpedia.org/resource/Chingy', 'http://dbpedia.org/resource/City_Spud', 'http://dbpedia.org/resource/DJ_Speedy', 'http://dbpedia.org/resource/Dani_Stevenson', 'http://dbpedia.org/resource/Don_Vito_(producer)', 'http://dbpedia.org/resource/Infamous_(producer)', 'http://dbpedia.org/resource/J._Brown_(American_singer)', 'http://dbpedia.org/resource/Jay_E', 'http://dbpedia.org/resource/Kyjuan', 'http://dbpedia.org/resource/Manuel_Seal', 'http://dbpedia.org/resource/Mohombi', 'http://dbpedia.org/resource/Steve_Wills', 'http://dbpedia.org/resource/The_Co-Captains', 'http://dbpedia.org/resource/Tyler_Hubbard'], 'abstract': '"Dilemma" is a song by American rapper Nelly, featuring singer Kelly Rowland. It was released on June 25, 2002, as the second single from Nelly\'s second studio album, Nellyville (2002), and as the first single from Rowland\'s debut solo studio album, Simply Deep (2002). A pop and R&amp;B ballad, the song consists of a high-pitched intonation and call and response, and contains a sample of Patti LaBelle\'s 1983 song "Love, Need and Want You". The lyrics describe a man infatuated with a woman committed in an existing relationship. The song was written by Nelly, Antoine Macon, Kenneth Gamble and Bunny Sigler, with production by Ryan Bowser. "Dilemma" received generally favorable reviews from music critics, who praised the duet\'s emotional balance. It peaked at number one on the US Billboard Hot 100 for 10 non-consecutive weeks, after it replaced Nelly\'s previous single "Hot in Herre" on the chart. The song also topped the charts in the United Kingdom, Australia, Ireland, and Germany. "Dilemma" won an award for Best Rap/Sung Performance and was nominated for Record of the Year at the 45th Annual Grammy Awards. An accompanying music video was directed by Benny Boom and released in September 2002. It was filmed on Colonial Street with appearances by Larry Hughes and Patti LaBelle, and depicts Nelly attracted towards his new neighbor Rowland despite the latter being in a relationship.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Nice_to_Meet_Ya_(Niall_Horan_song)', 'track_name': 'Nice to Meet Ya', 'artist': 'http://dbpedia.org/resource/Niall_Horan', 'artist_name': 'Niall Horan', 'wiki': 'http://en.wikipedia.org/wiki/Nice_to_Meet_Ya_(Niall_Horan_song)', 'released': '04 October 2019', 'producers': ['Julian Bunetta'], 'writers': ['http://dbpedia.org/resource/Niall_Horan', 'http://dbpedia.org/resource/RuthAnne', 'http://dbpedia.org/resource/Tobias_Jesso_Jr.', 'Julian Bunetta'], 'awards': ['Gold', 'Platinum'], 'labels': ['http://dbpedia.org/resource/Capitol_Records'], 'genres': ['http://dbpedia.org/resource/Britpop', 'http://dbpedia.org/resource/Pop_rock', 'http://dbpedia.org/resource/Rock_music', 'http://dbpedia.org/resource/Soft_rock', 'rock'], 'related_artists': ['http://dbpedia.org/resource/Ashe_(singer)', 'http://dbpedia.org/resource/Dan_Bryer', 'http://dbpedia.org/resource/Eskeerdo', 'http://dbpedia.org/resource/Jacquire_King', 'http://dbpedia.org/resource/Mike_Needle', 'http://dbpedia.org/resource/TMS_(production_team)', 'http://dbpedia.org/resource/Teddy_Geiger'], 'abstract': '"Nice to Meet Ya" is a song by Irish singer Niall Horan, released through Capitol Records as the lead single from his second studio album Heartbreak Weather on 4 October 2019. Horan co-wrote the track with Ruth-Anne Cunningham in one day.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Joyride_(Roxette_song)', 'track_name': 'Joyride (песня Roxette)', 'artist': 'http://dbpedia.org/resource/Roxette', 'artist_name': 'Roxette', 'wiki': 'http://en.wikipedia.org/wiki/Joyride_(Roxette_song)', 'hometown': 'http://dbpedia.org/resource/Sweden', 'released': '27 February 1991', 'producers': ['http://dbpedia.org/resource/Clarence_Öfwerman'], 'writers': ['http://dbpedia.org/resource/Per_Gessle'], 'awards': ['Gold', 'Platinum'], 'labels': ['http://dbpedia.org/resource/EMI'], 'genres': ['http://dbpedia.org/resource/Dance-rock', 'http://dbpedia.org/resource/Pop_rock'], 'related_artists': ['http://dbpedia.org/resource/Christoffer_Lundquist', 'http://dbpedia.org/resource/Clarence_Öfwerman', 'http://dbpedia.org/resource/Gyllene_Tider', 'http://dbpedia.org/resource/Marianne_Flynner', 'http://dbpedia.org/resource/The_Lonely_Boys'], 'abstract': '"Joyride" is a song by the Swedish pop duo Roxette. Written by Per Gessle, it was released as the lead single from their third studio album, Joyride (1991), the follow-up to the duo\'s highly successful second studio album, Look Sharp! (1988). It became one of Roxette\'s biggest hits, and was one of the most successful singles of 1991, topping multiple record charts across Europe, as well as in Australia, Canada, and the United States.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Feel_(Robbie_Williams_song)', 'track_name': 'Feel (Robbie Williams song)', 'artist': 'http://dbpedia.org/resource/Robbie_Williams', 'artist_name': 'Robbie Williams', 'wiki': 'http://en.wikipedia.org/wiki/Feel_(Robbie_Williams_song)', 'released': '10 October 2002', 'awards': ['Gold'], 'labels': ['http://dbpedia.org/resource/Chrysalis_Records'], 'genres': ['http://dbpedia.org/resource/Pop_rock'], 'related_artists': ['http://dbpedia.org/resource/Bill_Rieflin', 'http://dbpedia.org/resource/Chris_Sharrock', 'http://dbpedia.org/resource/Chris_White_(saxophonist)', 'http://dbpedia.org/resource/Dizzee_Rascal', 'http://dbpedia.org/resource/Gary_Barlow', 'http://dbpedia.org/resource/Gary_Nuttall', 'http://dbpedia.org/resource/Geoff_Dugmore', 'http://dbpedia.org/resource/Guy_Chambers', 'http://dbpedia.org/resource/Jason_Iley', 'http://dbpedia.org/resource/Jeremy_Stacey', 'http://dbpedia.org/resource/Karl_Wallinger', 'http://dbpedia.org/resource/Lissie', 'http://dbpedia.org/resource/Mac_and_Katie_Kissoon', 'http://dbpedia.org/resource/Matt_Schwartz', 'http://dbpedia.org/resource/Neil_Taylor_(guitarist)', 'http://dbpedia.org/resource/Pet_Shop_Boys', 'http://dbpedia.org/resource/Phil_Palmer', 'http://dbpedia.org/resource/Phil_Spalding', 'http://dbpedia.org/resource/Piers_Baron', 'http://dbpedia.org/resource/Raymond_Angry', 'http://dbpedia.org/resource/Sander_van_Doorn', 'http://dbpedia.org/resource/Stephen_Duffy', 'http://dbpedia.org/resource/Steve_Robson', 'http://dbpedia.org/resource/Stuart_Epps', 'http://dbpedia.org/resource/World_Party'], 'abstract': '"Feel" is a song by British singer-songwriter Robbie Williams. It was released on 2 December 2002 as the lead single from his fifth studio album, Escapology (2002). The song became an international hit, peaking at number one in the Czech Republic, Italy, the Netherlands, Portugal, and Romania and reaching the top five in several other countries, including Denmark, Germany, Ireland, Norway, Sweden, and the United Kingdom.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Under_Cover_of_Darkness', 'track_name': 'Under Cover of Darkness', 'artist': 'http://dbpedia.org/resource/The_Strokes', 'artist_name': 'The Strokes', 'wiki': 'http://en.wikipedia.org/wiki/Under_Cover_of_Darkness', 'hometown': 'http://dbpedia.org/resource/New_York_City', 'released': '09 February 2011', 'producers': ['http://dbpedia.org/resource/Gus_Oberg', 'http://dbpedia.org/resource/Joe_Chiccarelli', 'http://dbpedia.org/resource/The_Strokes'], 'writers': ['http://dbpedia.org/resource/Albert_Hammond_Jr.', 'http://dbpedia.org/resource/Fabrizio_Moretti', 'http://dbpedia.org/resource/Julian_Casablancas', 'http://dbpedia.org/resource/Nick_Valensi'], 'awards': ['Gold'], 'labels': ['http://dbpedia.org/resource/RCA_Records', 'http://dbpedia.org/resource/Rough_Trade_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Garage_rock', 'http://dbpedia.org/resource/Post-punk_revival'], 'related_artists': ['http://dbpedia.org/resource/CRX_(band)', 'http://dbpedia.org/resource/Chris_Tabron', 'http://dbpedia.org/resource/David_Bason', 'http://dbpedia.org/resource/Devendra_Banhart', 'http://dbpedia.org/resource/Elvis_Costello', 'http://dbpedia.org/resource/Faulkner_(band)', 'http://dbpedia.org/resource/Gordon_Raphael', 'http://dbpedia.org/resource/Greg_Calbi', 'http://dbpedia.org/resource/Gus_Oberg', 'http://dbpedia.org/resource/Little_Joy', 'http://dbpedia.org/resource/Nikolai_Fraiture', 'http://dbpedia.org/resource/Noah_Georgeson', 'http://dbpedia.org/resource/Richie_Follin', 'http://dbpedia.org/resource/Ryan_Gentles', 'http://dbpedia.org/resource/The_Postelles', 'http://dbpedia.org/resource/The_Voidz', 'http://dbpedia.org/resource/Zerobridge'], 'abstract': '"Under Cover of Darkness" is a song by American rock band The Strokes. The single served as the lead single for their fourth studio album, Angles, and was released online on February 9, 2011 as a free download for 48 hours exclusively. It was the first single release from the band in five years, following the release of "You Only Live Once" in 2006. "Under Cover of Darkness" received positive reviews, managing to reach BBC Radio 1\'s A Playlist; before going on to debut at number 47 on the respective chart. In October 2011, NME placed it at number 133 on its list "150 Best Tracks of the Past 15 Years".'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Applause_(Lady_Gaga_song)', 'track_name': 'Applause', 'artist': 'http://dbpedia.org/resource/Lady_Gaga', 'artist_name': 'Lady Gaga', 'wiki': 'http://en.wikipedia.org/wiki/Applause_(Lady_Gaga_song)', 'released': '12 August 2013', 'producers': ['DJ White Shadow', 'Lady Gaga', 'Dino Zisis', 'Nick Monson'], 'writers': ['http://dbpedia.org/resource/DJ_Snake', 'http://dbpedia.org/resource/DJ_White_Shadow', 'http://dbpedia.org/resource/Lady_Gaga', 'http://dbpedia.org/resource/Nick_Monson', 'http://dbpedia.org/resource/Tchami', 'Dino Zisis', 'Stefani Germanotta', 'Martin Bresso', 'Nicolas Mercier', 'Julien Arias', 'William Grigahcine'], 'awards': ['Gold', 'Platinum'], 'labels': ['http://dbpedia.org/resource/Interscope_Records'], 'genres': ['http://dbpedia.org/resource/Dance-pop', 'http://dbpedia.org/resource/Electropop', 'http://dbpedia.org/resource/Eurodance'], 'related_artists': ['http://dbpedia.org/resource/Andrew_Wyatt__Andrew_Wyatt__1', 'http://dbpedia.org/resource/Arthur_Fogel', 'http://dbpedia.org/resource/BloodPop', 'http://dbpedia.org/resource/Bree_Runway', 'http://dbpedia.org/resource/Cazwell', 'http://dbpedia.org/resource/Chew_Fu', 'http://dbpedia.org/resource/Chris_Gehringer', 'http://dbpedia.org/resource/Clinton_Sparks', "http://dbpedia.org/resource/Colby_O'Donis", 'http://dbpedia.org/resource/DJ_Snake', 'http://dbpedia.org/resource/Dan_Balan', 'http://dbpedia.org/resource/David_Jost', 'http://dbpedia.org/resource/Frédéric_Yonnet', 'http://dbpedia.org/resource/Gary_Go', 'http://dbpedia.org/resource/Hillary_Lindsey', 'http://dbpedia.org/resource/Hyper_Crush', 'http://dbpedia.org/resource/Infected_Mushroom', 'http://dbpedia.org/resource/Jae_Deal', 'http://dbpedia.org/resource/Jake_Gosling', 'http://dbpedia.org/resource/Jeppe_Laursen', 'http://dbpedia.org/resource/Kalenna_Harper', 'http://dbpedia.org/resource/Kyle_Townsend', 'http://dbpedia.org/resource/LaShawn_Daniels', 'http://dbpedia.org/resource/Larry_Tee', 'http://dbpedia.org/resource/Madeon', 'http://dbpedia.org/resource/Martin_Kierszenbaum', 'http://dbpedia.org/resource/Melle_Mel', 'http://dbpedia.org/resource/Melvin_E._Brown', 'http://dbpedia.org/resource/Michael_Woods_(DJ)', 'http://dbpedia.org/resource/New_Kids_on_the_Block', 'http://dbpedia.org/resource/Nico_Constantine', 'http://dbpedia.org/resource/Nile_Rodgers', 'http://dbpedia.org/resource/Orville_Peck', 'http://dbpedia.org/resource/Rafa_Sardina', 'http://dbpedia.org/resource/Rami_Yacoub', 'http://dbpedia.org/resource/Randy_Merrill', 'http://dbpedia.org/resource/RedOne', 'http://dbpedia.org/resource/Robert_John_%22Mutt%22_Lange', 'http://dbpedia.org/resource/Rodney_Jerkins', 'http://dbpedia.org/resource/Rudy_Nicoletti', 'http://dbpedia.org/resource/Ryan_Shore', 'http://dbpedia.org/resource/Salem_Al_Fakir', 'http://dbpedia.org/resource/Samantha_Ronson', 'http://dbpedia.org/resource/Sander_van_Doorn', 'http://dbpedia.org/resource/Space_Cowboy_(musician)', 'http://dbpedia.org/resource/Spike_Stent', 'http://dbpedia.org/resource/Starsmith', 'http://dbpedia.org/resource/Teddy_Riley', 'http://dbpedia.org/resource/Vincent_Herbert', 'http://dbpedia.org/resource/Water_(producer)'], 'abstract': '"Applause" is a song by American singer Lady Gaga from her third studio album, Artpop (2013). It was released as the album\'s lead single through Interscope Records on August 12, 2013. Written and produced by Gaga, DJ White Shadow, Dino Zisis and Nick Monson, additional songwriters included Martin Bresso, Nicolas Mercier, Julien Arias and William Grigahcine. "Applause" was inspired by the cheering of her fans, which kept her motivated during the months she toured with the Born This Way Ball in pain, before cancelling it due to a hip injury, and pays respect to the art of performance. It is an electropop, dance-pop and Eurodance song built around synthesizers and hi-NRG beats, with lyrics addressing how Gaga is dependent upon her fans\' adoration and how she lives to perform. The song received generally positive reviews from music critics, who felt its chorus was catchy and favorably compared it to the material featured on Gaga\'s debut album, The Fame (2008). "Applause" achieved commercial success in a number of nations, topping the charts in Hungary, Lebanon, South Korea, and Spain while peaking within the top 10 in Belgium, Bulgaria, Canada, Finland, France, Germany, Ireland, Israel, Italy, Japan, New Zealand, Norway, Poland, Scotland, the United Kingdom, and the United States as well as the top 20 in Australia, the Czech Republic, the Netherlands, Slovakia, and Sweden. It was also certified multi-platinum in Canada, Sweden and the United States. An accompanying music video directed by fashion photography duo Inez and Vinoodh was released on August 19, 2013, and broadcast on jumbotrons across Times Square. The video received positive reviews from critics, who saw it as a profile of Gaga herself and noted references to German Expressionist cinema and Andy Warhol. To promote the record, Gaga opened the 2013 MTV Video Music Awards with a performance of the song in which she represented her career through several on-stage wardrobe changes. She also performed it live on Good Morning America, Saturday Night Live, her tours ArtRave: The Artpop Ball and the Joanne World Tour, and residency shows Lady Gaga Live at Roseland Ballroom and Enigma.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Rolling_in_the_Deep', 'track_name': 'Rolling in the Deep', 'artist': 'http://dbpedia.org/resource/Adele', 'artist_name': 'Adele', 'wiki': 'http://en.wikipedia.org/wiki/Rolling_in_the_Deep', 'released': '08 July 2011', 'producers': ['http://dbpedia.org/resource/Paul_Epworth', 'Kenny "Babyface" Edmons, Antonio Dixon, Clive Davis, Aretha Franklin', 'Rick Rubin', 'Mike Shinoda'], 'writers': ['http://dbpedia.org/resource/Adele', 'http://dbpedia.org/resource/Paul_Epworth'], 'awards': ['Diamond', 'Gold', 'Platinum', 'Platinum+Gold'], 'labels': ['http://dbpedia.org/resource/Columbia_Records', 'http://dbpedia.org/resource/XL_Recordings'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Soul_music'], 'related_artists': ['http://dbpedia.org/resource/Amanda_Brown_(singer)', 'http://dbpedia.org/resource/Andrew_Scheps', 'http://dbpedia.org/resource/Ariel_Rechtshaid', 'http://dbpedia.org/resource/Cameron_Craig', 'http://dbpedia.org/resource/Chris_Dave', 'http://dbpedia.org/resource/Connie_Constance', 'http://dbpedia.org/resource/Daniel_Merriweather', 'http://dbpedia.org/resource/Darius_Rucker', 'http://dbpedia.org/resource/Greg_Kurstin', 'http://dbpedia.org/resource/High_Contrast', 'http://dbpedia.org/resource/Inflo', 'http://dbpedia.org/resource/Jack_Peñate', 'http://dbpedia.org/resource/Jim_Abbiss', 'http://dbpedia.org/resource/Lil_Silva', 'http://dbpedia.org/resource/Ludwig_Göransson', 'http://dbpedia.org/resource/Neil_Cowley', "http://dbpedia.org/resource/Rag'n'Bone_Man__Rag'n'Bone_Man__1", 'http://dbpedia.org/resource/Randy_Merrill', 'http://dbpedia.org/resource/Rick_Nowels', 'http://dbpedia.org/resource/Rodaidh_McDonald', 'http://dbpedia.org/resource/SEARLS', 'http://dbpedia.org/resource/Sacha_Skarbek', 'http://dbpedia.org/resource/Samuel_Dixon', 'http://dbpedia.org/resource/Selan', 'http://dbpedia.org/resource/Tobias_Jesso_Jr.', 'http://dbpedia.org/resource/Tom_Coyne_(music_engineer)'], 'abstract': '"Rolling in the Deep" is a song recorded by English singer-songwriter Adele for her second studio album, 21 (2011). It is the lead single and opening track on the album. The song was written by Adele and Paul Epworth. The singer herself describes it as a "dark blues-y gospel disco tune". In 2011 it was reportedly the biggest crossover hit in the United States since 1985; "Rolling in the Deep" gained radio airplay from many different radio formats. It was first released on 29 November 2010 as the lead single from 21 in digital download format. The lyrics describe the emotions of a scorned lover. "Rolling in the Deep" received widespread critical acclaim with praise drawn towards the song\'s production, its lyrics, and Adele\'s vocal performance. It represented a commercial breakthrough for Adele, propelling her to global superstardom. The song topped the charts in twelve countries and reached the top 10 in over twenty territories. It was Adele\'s first number-one song in the United States, reaching the top spot on many Billboard charts, including the Billboard Hot 100 where it was number one for seven weeks. By February 2012, "Rolling in the Deep" had sold over 8.7 million copies in the United States, making it the best-selling digital song by a female artist in the US, the second-best-selling digital song in the US and Adele\'s best-selling single outside her native country, topping her previous best-selling "Chasing Pavements". Worldwide, it was the fifth-best-selling digital single of 2011 with sales of 8.2 million copies. As of 2019, with sales of over 20.6 million copies worldwide, "Rolling in the Deep" is one of the best-selling digital single of all-time. The song spent 65 weeks on the chart, making the song at that time the fourth-most weeks spent on the chart, tying the place with Jewel with her double single "Foolish Games"/"You Were Meant for Me". Its music video received a leading seven nominations at the 2011 MTV Video Music Awards, including for Video of the Year, and won three other awards: Best Editing, Best Cinematography and Best Art Direction. "Rolling in the Deep" was also the Billboard Year End Hot 100 Number One Single of 2011. At the 54th Annual Grammy Awards, it won awards for Record of the Year, Song of the Year, and Best Short Form Music Video. Various critics and music publications ranked it as the best song of the year on their end-of-year lists with Rolling Stone ranking it at #8 spot on its list of "The 100 Greatest Songs of the 21st Century".'}</t>
+  </si>
+  <si>
+    <t>{'track': "http://dbpedia.org/resource/Ain't_No_Rest_for_the_Wicked", 'track_name': "Ain't No Rest for the Wicked", 'artist': 'http://dbpedia.org/resource/Cage_the_Elephant', 'artist_name': 'Cage the Elephant', 'wiki': "http://en.wikipedia.org/wiki/Ain't_No_Rest_for_the_Wicked", 'hometown': 'http://dbpedia.org/resource/Bowling_Green,_Kentucky', 'released': '16 June 2008', 'producers': ['http://dbpedia.org/resource/Jay_Joyce'], 'writers': ['http://dbpedia.org/resource/Jared_Champion', 'http://dbpedia.org/resource/Matt_Shultz'], 'awards': ['Gold', 'Platinum'], 'labels': ['http://dbpedia.org/resource/Relentless_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Blues_rock', 'http://dbpedia.org/resource/Rap_rock', 'http://dbpedia.org/resource/Southern_rock'], 'related_artists': ['http://dbpedia.org/resource/Alison_Mosshart', 'http://dbpedia.org/resource/Beck', 'http://dbpedia.org/resource/Brad_Shultz', 'http://dbpedia.org/resource/Dan_Auerbach', 'http://dbpedia.org/resource/Dave_Grohl', 'http://dbpedia.org/resource/Foo_Fighters', 'http://dbpedia.org/resource/Grouplove', 'http://dbpedia.org/resource/Iggy_Pop', 'http://dbpedia.org/resource/Jared_Champion', 'http://dbpedia.org/resource/Jay_Joyce', 'http://dbpedia.org/resource/Juliette_Lewis', 'http://dbpedia.org/resource/Matt_Shultz', 'http://dbpedia.org/resource/Morning_Teleportation', 'http://dbpedia.org/resource/Portugal._The_Man', 'http://dbpedia.org/resource/Queens_of_the_Stone_Age', 'http://dbpedia.org/resource/Randy_Merrill', 'http://dbpedia.org/resource/Rob_Cohen_(record_producer)', 'http://dbpedia.org/resource/Sleeper_Agent_(band)', 'http://dbpedia.org/resource/The_Black_Keys', 'http://dbpedia.org/resource/The_Stone_Foxes', "http://dbpedia.org/resource/Whiskey_N'_Rye"], 'abstract': '"Ain\'t No Rest for the Wicked" is the third single by the American rock band Cage the Elephant. It was released as a CD single on June 16, 2008 by Relentless Records and became the first Top 40 hit for the band in the UK. A music video was filmed for this song which was directed by D.A.R.Y.L of Pulse Films. A later re-release in North America the following year reached number 92 on the Billboard Hot 100, reached number 3 on the Alternative Songs chart and number 8 on the Mainstream Rock Tracks chart.'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Long Beach, California', 'country_code': 'US', 'wiki': 'http://ru.wikipedia.org/wiki/%D0%9B%D0%BE%D0%BD%D0%B3-%D0%91%D0%B8%D1%87_%28%D0%9A%D0%B0%D0%BB%D0%B8%D1%84%D0%BE%D1%80%D0%BD%D0%B8%D1%8F%29', 'place': 'http://sws.geonames.org/5367929/', 'postal_code': '90853', 'geo_link': 'http://www.geonames.org/5367929/long-beach.html', 'lat': '33.76833333333333', 'long': '-118.19555555555556', 'population': '462257'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Hanna, Alberta', 'country_code': 'CA', 'wiki': 'http://en.wikipedia.org/wiki/Hanna%2C_Alberta', 'place': 'http://sws.geonames.org/5970234/', 'geo_link': 'http://www.geonames.org/5970234/hanna.html', 'lat': '51.638333333333335', 'long': '-111.94194444444445', 'population': '3140'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Miami', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Miami', 'place': 'http://sws.geonames.org/4164138/', 'postal_code': '33176', 'geo_link': 'http://www.geonames.org/4164138/miami.html', 'lat': '25.775277777777777', 'long': '-80.2088888888889', 'population': '399457'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Los Angeles', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Los_Angeles', 'place': 'http://sws.geonames.org/5368361/', 'postal_code': '90001', 'geo_link': 'http://www.geonames.org/5368361/los-angeles.html', 'lat': '34.05', 'long': '-118.25', 'population': '3792621'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Burnley', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Burnley', 'place': 'http://sws.geonames.org/2654264/', 'geo_link': 'http://www.geonames.org/2654264/burnley.html', 'lat': '53.789', 'long': '-2.248', 'population': '73480'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Orlando, Florida', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Orlando%2C_Florida', 'place': 'http://sws.geonames.org/4167147/', 'postal_code': '32832', 'geo_link': 'http://www.geonames.org/4167147/orlando.html', 'lat': '28.41583333333333', 'long': '-81.29888888888888', 'population': '238300'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'London', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/London', 'place': 'http://sws.geonames.org/2643743/', 'geo_link': 'http://www.geonames.org/2643743/london.html', 'lat': '51.507222222222225', 'long': '-0.1275', 'population': '7556900'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Anaheim, California', 'country_code': 'US', 'wiki': 'http://ru.wikipedia.org/wiki/%D0%90%D0%BD%D0%B0%D1%85%D0%B0%D0%B9%D0%BC_%28%D0%9A%D0%B0%D0%BB%D0%B8%D1%84%D0%BE%D1%80%D0%BD%D0%B8%D1%8F%29', 'place': 'http://sws.geonames.org/5323810/', 'postal_code': '92899', 'geo_link': 'http://www.geonames.org/5323810/anaheim.html', 'lat': '33.83611111111111', 'long': '-117.88972222222222', 'population': '336265'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Jacksonville, Florida', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Jacksonville%2C_Florida', 'place': 'http://sws.geonames.org/4160021/', 'postal_code': '32232', 'geo_link': 'http://www.geonames.org/4160021/jacksonville.html', 'lat': '30.336944444444445', 'long': '-81.6613888888889', 'population': '821784'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Deptford', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Deptford', 'place': 'http://sws.geonames.org/2651349/', 'geo_link': 'http://www.geonames.org/2651349/deptford.html', 'lat': '51.478', 'long': '-0.0265'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Paris', 'country_code': 'FR', 'wiki': 'http://en.wikipedia.org/wiki/Paris', 'place': 'http://sws.geonames.org/2988507/', 'postal_code': '75000', 'geo_link': 'http://www.geonames.org/2968815/paris.html', 'lat': '48.8567', 'long': '2.3508', 'population': '2257981'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Pasadena, California', 'country_code': 'US', 'wiki': 'http://ru.wikipedia.org/wiki/%D0%9F%D0%B0%D1%81%D0%B0%D0%B4%D0%B8%D0%BD%D0%B0_%28%D0%9A%D0%B0%D0%BB%D0%B8%D1%84%D0%BE%D1%80%D0%BD%D0%B8%D1%8F%29', 'place': 'http://sws.geonames.org/5381396/', 'postal_code': '91117', 'geo_link': 'http://www.geonames.org/5381396/pasadena.html', 'lat': '34.15611111111111', 'long': '-118.13194444444444', 'population': '137122'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/California', 'place': 'http://sws.geonames.org/5332921/', 'geo_link': 'http://www.geonames.org/5332921/california.html', 'lat': '35.458606', 'long': '-119.355165', 'population': '37691912'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Illinois', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Illinois', 'place': 'http://sws.geonames.org/4896861/', 'geo_link': 'http://www.geonames.org/4896861/illinois.html', 'lat': '41.278216', 'long': '-88.380238', 'population': '12772888'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Northern Ireland', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Northern_Ireland', 'place': 'http://sws.geonames.org/2641364/', 'geo_link': 'http://www.geonames.org/2641364/northern-ireland.html', 'lat': '54.5', 'long': '-5.916666666666667', 'population': '1829700'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Newcastle, New South Wales', 'country_code': 'AU', 'wiki': 'http://en.wikipedia.org/wiki/Newcastle%2C_New_South_Wales', 'place': 'http://sws.geonames.org/2155472/', 'geo_link': 'http://www.geonames.org/2155472/newcastle.html', 'lat': '32.916666666666664', 'long': '151.75', 'population': '308308'}</t>
   </si>
   <si>
     <t>{'place_name': 'Washington (state)', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Washington_%28state%29', 'place': 'http://sws.geonames.org/5815135/', 'geo_link': 'http://www.geonames.org/5815135/washington.html', 'lat': '47.50012', 'long': '-120.50147', 'population': '6271775'}</t>
   </si>
   <si>
-    <t>{'place_name': 'Sydney', 'country_code': 'AU', 'wiki': 'http://en.wikipedia.org/wiki/Sydney', 'place': 'http://sws.geonames.org/2147714/', 'geo_link': 'http://www.geonames.org/2147714/sydney.html', 'lat': '33.865', 'long': '151.20944444444444', 'population': '4627345'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Wilkes-Barre, Pennsylvania', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Wilkes-Barre%2C_Pennsylvania', 'place': 'http://sws.geonames.org/5219488/', 'geo_link': 'http://www.geonames.org/5219488/wilkes-barre.html', 'lat': '41.24444444444445', 'long': '-75.87805555555556', 'population': '41498'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Jacksonville, Florida', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Jacksonville%2C_Florida', 'place': 'http://sws.geonames.org/4160021/', 'postal_code': '32232', 'geo_link': 'http://www.geonames.org/4160021/jacksonville.html', 'lat': '30.336944444444445', 'long': '-81.6613888888889', 'population': '821784'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Lawrence, Massachusetts', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Lawrence%2C_Massachusetts', 'place': 'http://sws.geonames.org/4941720/', 'postal_code': '01841', 'geo_link': 'http://www.geonames.org/4941720/lawrence.html', 'lat': '42.706944444444446', 'long': '-71.16361111111111', 'population': '76377'}</t>
+    <t>{'place_name': 'Aberdeen, Washington', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Aberdeen%2C_Washington', 'place': 'http://sws.geonames.org/5785243/', 'postal_code': '98520', 'geo_link': 'http://www.geonames.org/5785243/aberdeen.html', 'lat': '46.975833333333334', 'long': '-123.81861111111111', 'population': '16896'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Brisbane', 'country_code': 'AU', 'wiki': 'http://en.wikipedia.org/wiki/Brisbane', 'place': 'http://sws.geonames.org/2174003/', 'geo_link': 'http://www.geonames.org/2174003/brisbane.html', 'lat': '27.466666666666665', 'long': '153.03333333333333', 'population': '2189878'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Crawley', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Crawley', 'place': 'http://sws.geonames.org/7298686/', 'geo_link': 'http://www.geonames.org/7298686/crawley.html', 'lat': '51.10916666666667', 'long': '-0.1872222222222222'}</t>
   </si>
   <si>
     <t>{'place_name': 'Glendale, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Glendale%2C_California', 'place': 'http://sws.geonames.org/5352423/', 'postal_code': '91208', 'geo_link': 'http://www.geonames.org/5352423/glendale.html', 'lat': '34.14611111111111', 'long': '-118.255', 'population': '191719'}</t>
   </si>
   <si>
-    <t>{'place_name': 'Fort Lauderdale, Florida', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Fort_Lauderdale%2C_Florida', 'place': 'http://sws.geonames.org/4155966/', 'postal_code': '33320', 'geo_link': 'http://www.geonames.org/4155966/fort-lauderdale.html', 'lat': '26.133333333333333', 'long': '-80.15', 'population': '165521'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Vacaville, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Vacaville%2C_California', 'place': 'http://sws.geonames.org/5405228/', 'postal_code': '95688', 'geo_link': 'http://www.geonames.org/5405228/vacaville.html', 'lat': '38.35388888888889', 'long': '-121.97277777777778', 'population': '92428'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Lancaster, Pennsylvania', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Lancaster%2C_Pennsylvania', 'place': 'http://sws.geonames.org/5197079/', 'postal_code': '17622', 'geo_link': 'http://www.geonames.org/5197079/lancaster.html', 'lat': '40.039722222222224', 'long': '-76.30444444444444', 'population': '59322'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Chicago', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Chicago', 'place': 'http://sws.geonames.org/4887398/', 'postal_code': '60633', 'geo_link': 'http://www.geonames.org/4887398/chicago.html', 'lat': '41.83694444444444', 'long': '-87.68472222222222', 'population': '2695598'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Muskegon, Michigan', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Muskegon%2C_Michigan', 'place': 'http://sws.geonames.org/5003132/', 'postal_code': '49440', 'geo_link': 'http://www.geonames.org/5003132/muskegon.html', 'lat': '43.23416666666667', 'long': '-86.24833333333333', 'population': '38401'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Pretoria', 'country_code': 'ZA', 'wiki': 'http://en.wikipedia.org/wiki/Pretoria', 'place': 'http://sws.geonames.org/964137/', 'geo_link': 'http://www.geonames.org/964137/pretoria.html', 'lat': '-25.746111111111112', 'long': '28.188055555555554', 'population': '1619438'}</t>
+    <t>{'place_name': 'New York City', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/New_York_City', 'place': 'http://sws.geonames.org/5128581/', 'postal_code': '10041', 'geo_link': 'http://www.geonames.org/5128581/new-york-city.html', 'lat': '40.7127', 'long': '-74.0059', 'population': '8175133'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Birmingham', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Birmingham', 'place': 'http://sws.geonames.org/3333125/', 'geo_link': 'http://www.geonames.org/2655603/birmingham.html', 'lat': '52.48305555555555', 'long': '-1.8936111111111111', 'population': '984333'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Basildon', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Basildon', 'place': 'http://sws.geonames.org/2656194/', 'geo_link': 'http://www.geonames.org/2656194/basildon.html', 'lat': '51.5761', 'long': '0.4886', 'population': '101362'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Athens, Georgia', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Athens%2C_Georgia', 'place': 'http://sws.geonames.org/4180386/', 'postal_code': '30601', 'geo_link': 'http://www.geonames.org/4180386/athens.html', 'lat': '33.95', 'long': '-83.38333333333334', 'population': '116714'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Liverpool', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Liverpool', 'place': 'http://sws.geonames.org/3333167/', 'geo_link': 'http://www.geonames.org/2644210/liverpool.html', 'lat': '53.4', 'long': '-2.9833333333333334', 'population': '468945'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Nashville, Tennessee', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Nashville%2C_Tennessee', 'place': 'http://sws.geonames.org/4644585/', 'postal_code': '37224', 'geo_link': 'http://www.geonames.org/4644585/nashville.html', 'lat': '36.166666666666664', 'long': '-86.78333333333333', 'population': '530852'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Dublin', 'country_code': 'IE', 'wiki': 'http://en.wikipedia.org/wiki/Dublin', 'place': 'http://sws.geonames.org/7778677/', 'geo_link': 'http://www.geonames.org/2964574/dublin.html', 'lat': '53.34777777777778', 'long': '-6.259722222222222', 'population': '1024027'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Middletown, Connecticut', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Middletown%2C_Connecticut', 'place': 'http://sws.geonames.org/4838633/', 'postal_code': '06457', 'geo_link': 'http://www.geonames.org/4838633/middletown.html', 'lat': '41.562222222222225', 'long': '-72.65083333333334', 'population': '47648'}</t>
   </si>
   <si>
     <t>{'place_name': 'Columbus, Ohio', 'country_code': 'US', 'wiki': 'http://ru.wikipedia.org/wiki/%D0%9A%D0%BE%D0%BB%D1%83%D0%BC%D0%B1%D1%83%D1%81_%28%D0%9E%D0%B3%D0%B0%D0%B9%D0%BE%29', 'place': 'http://sws.geonames.org/4509177/', 'postal_code': '43232', 'geo_link': 'http://www.geonames.org/4509177/columbus.html', 'lat': '39.983333333333334', 'long': '-82.98333333333333', 'population': '787033'}</t>
   </si>
   <si>
+    <t>{'place_name': 'Riverside, California', 'country_code': 'US', 'wiki': 'http://ru.wikipedia.org/wiki/%D0%A0%D0%B8%D0%B2%D0%B5%D1%80%D1%81%D0%B0%D0%B9%D0%B4_%28%D0%9A%D0%B0%D0%BB%D0%B8%D1%84%D0%BE%D1%80%D0%BD%D0%B8%D1%8F%29', 'place': 'http://sws.geonames.org/5387877/', 'postal_code': '92501', 'geo_link': 'http://www.geonames.org/5387877/riverside.html', 'lat': '33.948055555555555', 'long': '-117.39611111111111', 'population': '303871'}</t>
+  </si>
+  <si>
     <t>{'place_name': 'Massachusetts', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Massachusetts', 'place': 'http://sws.geonames.org/6254926/', 'geo_link': 'http://www.geonames.org/6254926/massachusetts.html', 'lat': '42.36565', 'long': '-71.10832', 'population': '6433422'}</t>
   </si>
   <si>
-    <t>{'place_name': 'York', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/York', 'place': 'http://sws.geonames.org/2633351/', 'geo_link': 'http://www.geonames.org/2633351/city-of-york.html', 'lat': '53.958333333333336', 'long': '-1.0802777777777777', 'population': '197800'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Akron, Ohio', 'country_code': 'US', 'wiki': 'http://ru.wikipedia.org/wiki/%D0%90%D0%BA%D1%80%D0%BE%D0%BD_%28%D0%9E%D0%B3%D0%B0%D0%B9%D0%BE%29', 'place': 'http://sws.geonames.org/5145476/', 'postal_code': '44302', 'geo_link': 'http://www.geonames.org/5145476/akron.html', 'lat': '41.073055555555555', 'long': '-81.51777777777778', 'population': '199110'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Bridgend', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Bridgend', 'place': 'http://sws.geonames.org/2654755/', 'geo_link': 'http://www.geonames.org/2654755/bridgend.html', 'lat': '51.5072', 'long': '-3.5784', 'population': '39429'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Springfield, Massachusetts', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Springfield%2C_Massachusetts', 'place': 'http://sws.geonames.org/4951788/', 'postal_code': '01111', 'geo_link': 'http://www.geonames.org/4951788/springfield.html', 'lat': '42.10138888888889', 'long': '-72.59027777777777', 'population': '153060'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Westfield, Massachusetts', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Westfield%2C_Massachusetts', 'place': 'http://sws.geonames.org/4955190/', 'postal_code': '01085', 'geo_link': 'http://www.geonames.org/4955190/westfield.html', 'lat': '42.125', 'long': '-72.75', 'population': '41094'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Memphis, Tennessee', 'country_code': 'US', 'wiki': 'http://ru.wikipedia.org/wiki/%D0%9C%D0%B5%D0%BC%D1%84%D0%B8%D1%81_%28%D0%A2%D0%B5%D0%BD%D0%BD%D0%B5%D1%81%D1%81%D0%B8%29', 'place': 'http://sws.geonames.org/4641239/', 'postal_code': '38173', 'geo_link': 'http://www.geonames.org/4641239/memphis.html', 'lat': '35.1175', 'long': '-89.97111111111111', 'population': '646889'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/California', 'place': 'http://sws.geonames.org/5332921/', 'geo_link': 'http://www.geonames.org/5332921/california.html', 'lat': '35.458606', 'long': '-119.355165', 'population': '37691912'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Nashville, Tennessee', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Nashville%2C_Tennessee', 'place': 'http://sws.geonames.org/4644585/', 'postal_code': '37224', 'geo_link': 'http://www.geonames.org/4644585/nashville.html', 'lat': '36.166666666666664', 'long': '-86.78333333333333', 'population': '530852'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Peterborough, Ontario', 'country_code': 'CA', 'wiki': 'http://en.wikipedia.org/wiki/Peterborough%2C_Ontario', 'place': 'http://sws.geonames.org/6101645/', 'geo_link': 'http://www.geonames.org/6101645/peterborough.html', 'lat': '44.3', 'long': '-78.31666666666666', 'population': '75877'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Garden Grove, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Garden_Grove%2C_California', 'place': 'http://sws.geonames.org/5351515/', 'postal_code': '92844', 'geo_link': 'http://www.geonames.org/5351515/garden-grove.html', 'lat': '33.778888888888886', 'long': '-117.96027777777778', 'population': '170883'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Bartlett, Tennessee', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Bartlett%2C_Tennessee', 'place': 'http://sws.geonames.org/4604183/', 'geo_link': 'http://www.geonames.org/4604183/bartlett.html', 'lat': '35.223055555555554', 'long': '-89.8411111111111', 'population': '54613'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Los Angeles', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Los_Angeles', 'place': 'http://sws.geonames.org/5368361/', 'postal_code': '90001', 'geo_link': 'http://www.geonames.org/5368361/los-angeles.html', 'lat': '34.05', 'long': '-118.25', 'population': '3792621'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Knoxville, Tennessee', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Knoxville%2C_Tennessee', 'place': 'http://sws.geonames.org/4634946/', 'postal_code': '37920', 'geo_link': 'http://www.geonames.org/4634946/knoxville.html', 'lat': '35.97277777777778', 'long': '-83.94222222222223', 'population': '178874'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Little Rock, Arkansas', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Little_Rock%2C_Arkansas', 'place': 'http://sws.geonames.org/4119403/', 'postal_code': '72223', 'geo_link': 'http://www.geonames.org/4119403/little-rock.html', 'lat': '34.736111111111114', 'long': '-92.33111111111111', 'population': '193524'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Illinois', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Illinois', 'place': 'http://sws.geonames.org/4896861/', 'geo_link': 'http://www.geonames.org/4896861/illinois.html', 'lat': '41.278216', 'long': '-88.380238', 'population': '12772888'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Burlington, Ontario', 'country_code': 'CA', 'wiki': 'http://en.wikipedia.org/wiki/Burlington%2C_Ontario', 'place': 'http://sws.geonames.org/5911592/', 'geo_link': 'http://www.geonames.org/5911592/burlington.html', 'lat': '43.31666666666667', 'long': '-79.8', 'population': '164415'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Escatawpa, Mississippi', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Escatawpa%2C_Mississippi', 'place': 'http://sws.geonames.org/4425816/', 'postal_code': '39552', 'geo_link': 'http://www.geonames.org/4425816/escatawpa.html', 'lat': '30.489166666666666', 'long': '-88.55111111111111', 'population': '3722'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Hanna, Alberta', 'country_code': 'CA', 'wiki': 'http://en.wikipedia.org/wiki/Hanna%2C_Alberta', 'place': 'http://sws.geonames.org/5970234/', 'geo_link': 'http://www.geonames.org/5970234/hanna.html', 'lat': '51.638333333333335', 'long': '-111.94194444444445', 'population': '3140'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Seattle', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Seattle', 'place': 'http://sws.geonames.org/5809844/', 'postal_code': '98166', 'geo_link': 'http://www.geonames.org/5809844/seattle.html', 'lat': '47.609722222222224', 'long': '-122.33305555555556', 'population': '608660'}</t>
+    <t>{'place_name': 'Owatonna, Minnesota', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Owatonna%2C_Minnesota', 'place': 'http://sws.geonames.org/5040647/', 'postal_code': '55060', 'geo_link': 'http://www.geonames.org/5040647/owatonna.html', 'lat': '44.08722222222222', 'long': '-93.22444444444444', 'population': '25599'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Sweden', 'country_code': 'SE', 'wiki': 'http://en.wikipedia.org/wiki/Sweden', 'place': 'http://sws.geonames.org/2661886/', 'geo_link': 'http://www.geonames.org/2661886/kingdom-of-sweden.html', 'lat': '62', 'long': '15', 'population': '9828655'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Bowling Green, Kentucky', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Bowling_Green%2C_Kentucky', 'place': 'http://sws.geonames.org/4285268/', 'postal_code': '42101', 'geo_link': 'http://www.geonames.org/4285268/bowling-green.html', 'lat': '36.98166666666667', 'long': '-86.44444444444444', 'population': '58067'}</t>
   </si>
 </sst>
 </file>
@@ -2064,16 +2229,16 @@
         <v>213</v>
       </c>
       <c r="E2" t="s">
-        <v>268</v>
+        <v>302</v>
       </c>
       <c r="F2" t="s">
-        <v>323</v>
+        <v>391</v>
       </c>
       <c r="I2">
-        <v>3.389589071273804</v>
+        <v>7.254631258</v>
       </c>
       <c r="J2">
-        <v>8.735013246536255</v>
+        <v>8.451360702514648</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -2102,28 +2267,34 @@
         <v>214</v>
       </c>
       <c r="E3" t="s">
-        <v>269</v>
+        <v>303</v>
       </c>
       <c r="F3" t="s">
-        <v>324</v>
+        <v>392</v>
+      </c>
+      <c r="G3" t="s">
+        <v>485</v>
+      </c>
+      <c r="H3" t="s">
+        <v>559</v>
       </c>
       <c r="I3">
-        <v>3.217757225036621</v>
+        <v>6.326412439346313</v>
       </c>
       <c r="J3">
-        <v>8.107686519622803</v>
+        <v>8.450895309448242</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.09395861625671387</v>
       </c>
       <c r="L3">
         <v>0.8333333333333334</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -2140,25 +2311,22 @@
         <v>215</v>
       </c>
       <c r="E4" t="s">
-        <v>270</v>
+        <v>304</v>
       </c>
       <c r="F4" t="s">
-        <v>325</v>
+        <v>393</v>
       </c>
       <c r="G4" t="s">
-        <v>423</v>
-      </c>
-      <c r="H4" t="s">
-        <v>500</v>
+        <v>486</v>
       </c>
       <c r="I4">
-        <v>3.38958215713501</v>
+        <v>6.466957807540894</v>
       </c>
       <c r="J4">
-        <v>31.19664978981018</v>
+        <v>8.857314109802246</v>
       </c>
       <c r="K4">
-        <v>0.2187042236328125</v>
+        <v>0.09394264221191406</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -2167,7 +2335,7 @@
         <v>0.9285714285714286</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -2184,28 +2352,34 @@
         <v>216</v>
       </c>
       <c r="E5" t="s">
-        <v>271</v>
+        <v>305</v>
       </c>
       <c r="F5" t="s">
-        <v>326</v>
+        <v>394</v>
+      </c>
+      <c r="G5" t="s">
+        <v>487</v>
+      </c>
+      <c r="H5" t="s">
+        <v>560</v>
       </c>
       <c r="I5">
-        <v>3.077165365219116</v>
+        <v>9.778712034225464</v>
       </c>
       <c r="J5">
-        <v>8.295148372650146</v>
+        <v>30.21272850036621</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.1249475479125977</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -2222,34 +2396,34 @@
         <v>217</v>
       </c>
       <c r="E6" t="s">
-        <v>272</v>
+        <v>306</v>
       </c>
       <c r="F6" t="s">
-        <v>327</v>
+        <v>395</v>
       </c>
       <c r="G6" t="s">
-        <v>424</v>
+        <v>488</v>
       </c>
       <c r="H6" t="s">
-        <v>501</v>
+        <v>561</v>
       </c>
       <c r="I6">
-        <v>3.515561103820801</v>
+        <v>10.12256026268005</v>
       </c>
       <c r="J6">
-        <v>9.013724565505981</v>
+        <v>31.15040731430054</v>
       </c>
       <c r="K6">
-        <v>0.203075647354126</v>
+        <v>0.1247396469116211</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.9285714285714286</v>
+        <v>1</v>
       </c>
       <c r="N6">
-        <v>0.8888888888888888</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -2266,16 +2440,19 @@
         <v>218</v>
       </c>
       <c r="E7" t="s">
-        <v>273</v>
+        <v>307</v>
       </c>
       <c r="F7" t="s">
-        <v>328</v>
+        <v>396</v>
+      </c>
+      <c r="G7" t="s">
+        <v>489</v>
       </c>
       <c r="I7">
-        <v>3.375163793563843</v>
+        <v>4.483416795730591</v>
       </c>
       <c r="J7">
-        <v>29.94850897789001</v>
+        <v>52.7577793598175</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -2284,7 +2461,7 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -2304,28 +2481,34 @@
         <v>219</v>
       </c>
       <c r="E8" t="s">
-        <v>274</v>
+        <v>308</v>
       </c>
       <c r="F8" t="s">
-        <v>329</v>
+        <v>397</v>
+      </c>
+      <c r="G8" t="s">
+        <v>490</v>
+      </c>
+      <c r="H8" t="s">
+        <v>562</v>
       </c>
       <c r="I8">
-        <v>3.108367443084717</v>
+        <v>9.622459650039673</v>
       </c>
       <c r="J8">
-        <v>9.812313795089722</v>
+        <v>30.60457730293274</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.09369421005249023</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -2342,34 +2525,34 @@
         <v>220</v>
       </c>
       <c r="E9" t="s">
-        <v>275</v>
+        <v>309</v>
       </c>
       <c r="F9" t="s">
-        <v>330</v>
+        <v>398</v>
       </c>
       <c r="G9" t="s">
-        <v>425</v>
+        <v>491</v>
       </c>
       <c r="H9" t="s">
-        <v>502</v>
+        <v>563</v>
       </c>
       <c r="I9">
-        <v>4.779889822006226</v>
+        <v>5.467188119888306</v>
       </c>
       <c r="J9">
-        <v>14.52804756164551</v>
+        <v>17.09048986434937</v>
       </c>
       <c r="K9">
-        <v>0.1249740123748779</v>
+        <v>0.1093521118164062</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M9">
         <v>1</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -2383,31 +2566,28 @@
         <v>121</v>
       </c>
       <c r="D10" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="E10" t="s">
-        <v>270</v>
-      </c>
-      <c r="F10" t="s">
-        <v>331</v>
+        <v>310</v>
       </c>
       <c r="G10" t="s">
-        <v>426</v>
+        <v>492</v>
       </c>
       <c r="H10" t="s">
-        <v>500</v>
+        <v>564</v>
       </c>
       <c r="I10">
-        <v>3.967575788497925</v>
+        <v>0.8123073577880859</v>
       </c>
       <c r="J10">
-        <v>32.6850848197937</v>
+        <v>13.67169237136841</v>
       </c>
       <c r="K10">
-        <v>0.1093513965606689</v>
+        <v>0.1249697208404541</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0.9285714285714286</v>
@@ -2427,37 +2607,31 @@
         <v>122</v>
       </c>
       <c r="D11" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E11" t="s">
-        <v>276</v>
+        <v>311</v>
       </c>
       <c r="F11" t="s">
-        <v>332</v>
-      </c>
-      <c r="G11" t="s">
-        <v>427</v>
-      </c>
-      <c r="H11" t="s">
-        <v>503</v>
+        <v>399</v>
       </c>
       <c r="I11">
-        <v>4.061306953430176</v>
+        <v>2.952293395996094</v>
       </c>
       <c r="J11">
-        <v>7.826517581939697</v>
+        <v>8.669695854187012</v>
       </c>
       <c r="K11">
-        <v>0.0937192440032959</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M11">
-        <v>0.7857142857142857</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -2471,37 +2645,37 @@
         <v>123</v>
       </c>
       <c r="D12" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E12" t="s">
-        <v>277</v>
+        <v>312</v>
       </c>
       <c r="F12" t="s">
-        <v>333</v>
+        <v>400</v>
       </c>
       <c r="G12" t="s">
-        <v>428</v>
+        <v>493</v>
       </c>
       <c r="H12" t="s">
-        <v>504</v>
+        <v>565</v>
       </c>
       <c r="I12">
-        <v>3.967577695846558</v>
+        <v>4.842578649520874</v>
       </c>
       <c r="J12">
-        <v>14.93420028686523</v>
+        <v>31.64912891387939</v>
       </c>
       <c r="K12">
-        <v>0.109349250793457</v>
+        <v>0.1092591285705566</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.7857142857142857</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="N12">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2515,31 +2689,31 @@
         <v>124</v>
       </c>
       <c r="D13" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E13" t="s">
-        <v>278</v>
+        <v>313</v>
       </c>
       <c r="F13" t="s">
-        <v>334</v>
+        <v>401</v>
       </c>
       <c r="G13" t="s">
-        <v>429</v>
+        <v>494</v>
       </c>
       <c r="H13" t="s">
-        <v>505</v>
+        <v>566</v>
       </c>
       <c r="I13">
-        <v>6.826456785202026</v>
+        <v>4.593442678451538</v>
       </c>
       <c r="J13">
-        <v>30.49380493164062</v>
+        <v>32.19856023788452</v>
       </c>
       <c r="K13">
-        <v>0.1093511581420898</v>
+        <v>0.1093165874481201</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M13">
         <v>1</v>
@@ -2559,25 +2733,22 @@
         <v>125</v>
       </c>
       <c r="D14" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E14" t="s">
-        <v>279</v>
-      </c>
-      <c r="F14" t="s">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="I14">
-        <v>4.030057668685913</v>
+        <v>0.4217405319213867</v>
       </c>
       <c r="J14">
-        <v>8.781611204147339</v>
+        <v>7.201691865921021</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.8333333333333334</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -2597,31 +2768,37 @@
         <v>126</v>
       </c>
       <c r="D15" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E15" t="s">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="F15" t="s">
-        <v>336</v>
+        <v>402</v>
+      </c>
+      <c r="G15" t="s">
+        <v>495</v>
+      </c>
+      <c r="H15" t="s">
+        <v>567</v>
       </c>
       <c r="I15">
-        <v>3.483314990997314</v>
+        <v>2.952392101287842</v>
       </c>
       <c r="J15">
-        <v>6.171308994293213</v>
+        <v>7.82603931427002</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.09372735023498535</v>
       </c>
       <c r="L15">
-        <v>0.6666666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -2635,31 +2812,37 @@
         <v>127</v>
       </c>
       <c r="D16" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="E16" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="F16" t="s">
-        <v>337</v>
+        <v>403</v>
+      </c>
+      <c r="G16" t="s">
+        <v>496</v>
+      </c>
+      <c r="H16" t="s">
+        <v>564</v>
       </c>
       <c r="I16">
-        <v>2.999056100845337</v>
+        <v>3.780122756958008</v>
       </c>
       <c r="J16">
-        <v>6.561183214187622</v>
+        <v>37.47817206382751</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.1095001697540283</v>
       </c>
       <c r="L16">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -2673,19 +2856,19 @@
         <v>128</v>
       </c>
       <c r="D17" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E17" t="s">
-        <v>281</v>
+        <v>317</v>
       </c>
       <c r="F17" t="s">
-        <v>338</v>
+        <v>404</v>
       </c>
       <c r="I17">
-        <v>3.561394691467285</v>
+        <v>3.889440059661865</v>
       </c>
       <c r="J17">
-        <v>8.796062469482422</v>
+        <v>8.029583692550659</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2711,37 +2894,37 @@
         <v>129</v>
       </c>
       <c r="D18" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="E18" t="s">
-        <v>276</v>
+        <v>318</v>
       </c>
       <c r="F18" t="s">
-        <v>339</v>
+        <v>405</v>
       </c>
       <c r="G18" t="s">
-        <v>430</v>
+        <v>497</v>
       </c>
       <c r="H18" t="s">
-        <v>503</v>
+        <v>568</v>
       </c>
       <c r="I18">
-        <v>3.639533758163452</v>
+        <v>3.811365365982056</v>
       </c>
       <c r="J18">
-        <v>6.828870058059692</v>
+        <v>31.15178275108337</v>
       </c>
       <c r="K18">
-        <v>0.09372377395629883</v>
+        <v>0.124969482421875</v>
       </c>
       <c r="L18">
         <v>0.8333333333333334</v>
       </c>
       <c r="M18">
-        <v>0.7857142857142857</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="N18">
-        <v>1</v>
+        <v>0.7777777777777778</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -2755,37 +2938,37 @@
         <v>130</v>
       </c>
       <c r="D19" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E19" t="s">
-        <v>282</v>
+        <v>319</v>
       </c>
       <c r="F19" t="s">
-        <v>340</v>
+        <v>406</v>
       </c>
       <c r="G19" t="s">
-        <v>431</v>
+        <v>498</v>
       </c>
       <c r="H19" t="s">
-        <v>506</v>
+        <v>569</v>
       </c>
       <c r="I19">
-        <v>3.202133655548096</v>
+        <v>3.952182054519653</v>
       </c>
       <c r="J19">
-        <v>30.97980737686157</v>
+        <v>31.16616439819336</v>
       </c>
       <c r="K19">
-        <v>0.1093442440032959</v>
+        <v>0.1090772151947021</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M19">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="N19">
-        <v>0.8888888888888888</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -2799,37 +2982,37 @@
         <v>131</v>
       </c>
       <c r="D20" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="E20" t="s">
-        <v>283</v>
+        <v>320</v>
       </c>
       <c r="F20" t="s">
-        <v>341</v>
+        <v>407</v>
       </c>
       <c r="G20" t="s">
-        <v>432</v>
+        <v>499</v>
       </c>
       <c r="H20" t="s">
-        <v>507</v>
+        <v>570</v>
       </c>
       <c r="I20">
-        <v>3.842612743377686</v>
+        <v>2.217992305755615</v>
       </c>
       <c r="J20">
-        <v>38.15094947814941</v>
+        <v>13.84280252456665</v>
       </c>
       <c r="K20">
-        <v>0.2033028602600098</v>
+        <v>0.124971866607666</v>
       </c>
       <c r="L20">
         <v>0.8333333333333334</v>
       </c>
       <c r="M20">
-        <v>0.9285714285714286</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="N20">
-        <v>0.8888888888888888</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -2843,37 +3026,37 @@
         <v>132</v>
       </c>
       <c r="D21" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="E21" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="F21" t="s">
-        <v>342</v>
+        <v>408</v>
       </c>
       <c r="G21" t="s">
-        <v>433</v>
+        <v>500</v>
       </c>
       <c r="H21" t="s">
-        <v>508</v>
+        <v>564</v>
       </c>
       <c r="I21">
-        <v>2.405408620834351</v>
+        <v>4.170655965805054</v>
       </c>
       <c r="J21">
-        <v>11.21698021888733</v>
+        <v>15.77749443054199</v>
       </c>
       <c r="K21">
-        <v>0.09376358985900879</v>
+        <v>0.1252262592315674</v>
       </c>
       <c r="L21">
         <v>0.8333333333333334</v>
       </c>
       <c r="M21">
-        <v>1</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="N21">
-        <v>0.8888888888888888</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -2887,28 +3070,25 @@
         <v>133</v>
       </c>
       <c r="D22" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E22" t="s">
-        <v>284</v>
+        <v>321</v>
       </c>
       <c r="F22" t="s">
-        <v>343</v>
+        <v>409</v>
       </c>
       <c r="G22" t="s">
-        <v>434</v>
-      </c>
-      <c r="H22" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="I22">
-        <v>3.718628406524658</v>
+        <v>5.797109603881836</v>
       </c>
       <c r="J22">
-        <v>7.123552560806274</v>
+        <v>31.3843457698822</v>
       </c>
       <c r="K22">
-        <v>0.1249773502349854</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0.8333333333333334</v>
@@ -2917,7 +3097,7 @@
         <v>0.9285714285714286</v>
       </c>
       <c r="N22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -2931,37 +3111,31 @@
         <v>134</v>
       </c>
       <c r="D23" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E23" t="s">
-        <v>285</v>
-      </c>
-      <c r="F23" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
       <c r="G23" t="s">
-        <v>435</v>
-      </c>
-      <c r="H23" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="I23">
-        <v>3.642147302627563</v>
+        <v>0.7813279628753662</v>
       </c>
       <c r="J23">
-        <v>31.66778779029846</v>
+        <v>31.3060450553894</v>
       </c>
       <c r="K23">
-        <v>0.09372806549072266</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0.8333333333333334</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0.7857142857142857</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="N23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -2975,37 +3149,34 @@
         <v>135</v>
       </c>
       <c r="D24" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="E24" t="s">
-        <v>286</v>
+        <v>323</v>
       </c>
       <c r="F24" t="s">
-        <v>345</v>
+        <v>410</v>
       </c>
       <c r="G24" t="s">
-        <v>436</v>
-      </c>
-      <c r="H24" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="I24">
-        <v>5.482806921005249</v>
+        <v>9.731837272644043</v>
       </c>
       <c r="J24">
-        <v>32.2450578212738</v>
+        <v>10.49751853942871</v>
       </c>
       <c r="K24">
-        <v>0.09372472763061523</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0.8333333333333334</v>
       </c>
       <c r="M24">
-        <v>1</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="N24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -3019,28 +3190,31 @@
         <v>136</v>
       </c>
       <c r="D25" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="E25" t="s">
-        <v>287</v>
+        <v>324</v>
       </c>
       <c r="F25" t="s">
-        <v>346</v>
+        <v>411</v>
+      </c>
+      <c r="G25" t="s">
+        <v>504</v>
       </c>
       <c r="I25">
-        <v>3.592667102813721</v>
+        <v>3.764698505401611</v>
       </c>
       <c r="J25">
-        <v>28.41633820533752</v>
+        <v>32.05591249465942</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -3057,31 +3231,31 @@
         <v>137</v>
       </c>
       <c r="D26" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="E26" t="s">
-        <v>288</v>
+        <v>313</v>
       </c>
       <c r="F26" t="s">
-        <v>347</v>
+        <v>412</v>
       </c>
       <c r="G26" t="s">
-        <v>437</v>
+        <v>505</v>
       </c>
       <c r="H26" t="s">
-        <v>512</v>
+        <v>566</v>
       </c>
       <c r="I26">
-        <v>4.014424324035645</v>
+        <v>3.545767307281494</v>
       </c>
       <c r="J26">
-        <v>32.77477097511292</v>
+        <v>31.29405450820923</v>
       </c>
       <c r="K26">
-        <v>0.1093490123748779</v>
+        <v>0.1095514297485352</v>
       </c>
       <c r="L26">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="M26">
         <v>1</v>
@@ -3101,31 +3275,37 @@
         <v>138</v>
       </c>
       <c r="D27" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E27" t="s">
-        <v>289</v>
+        <v>325</v>
       </c>
       <c r="F27" t="s">
-        <v>348</v>
+        <v>413</v>
+      </c>
+      <c r="G27" t="s">
+        <v>506</v>
+      </c>
+      <c r="H27" t="s">
+        <v>571</v>
       </c>
       <c r="I27">
-        <v>3.686396360397339</v>
+        <v>4.670484304428101</v>
       </c>
       <c r="J27">
-        <v>30.54207992553711</v>
+        <v>51.47363805770874</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>0.1249735355377197</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="N27">
-        <v>0</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -3139,37 +3319,31 @@
         <v>139</v>
       </c>
       <c r="D28" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="E28" t="s">
-        <v>276</v>
+        <v>326</v>
       </c>
       <c r="F28" t="s">
-        <v>349</v>
-      </c>
-      <c r="G28" t="s">
-        <v>438</v>
-      </c>
-      <c r="H28" t="s">
-        <v>503</v>
+        <v>414</v>
       </c>
       <c r="I28">
-        <v>3.655136823654175</v>
+        <v>3.217755556106567</v>
       </c>
       <c r="J28">
-        <v>10.92053389549255</v>
+        <v>30.5585777759552</v>
       </c>
       <c r="K28">
-        <v>0.1093459129333496</v>
+        <v>0</v>
       </c>
       <c r="L28">
-        <v>0.8333333333333334</v>
+        <v>0.5</v>
       </c>
       <c r="M28">
-        <v>0.7142857142857143</v>
+        <v>0</v>
       </c>
       <c r="N28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -3183,31 +3357,37 @@
         <v>140</v>
       </c>
       <c r="D29" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="E29" t="s">
-        <v>290</v>
+        <v>327</v>
       </c>
       <c r="F29" t="s">
-        <v>350</v>
+        <v>415</v>
+      </c>
+      <c r="G29" t="s">
+        <v>507</v>
+      </c>
+      <c r="H29" t="s">
+        <v>572</v>
       </c>
       <c r="I29">
-        <v>3.858211040496826</v>
+        <v>3.624109029769897</v>
       </c>
       <c r="J29">
-        <v>10.76596403121948</v>
+        <v>30.30646586418152</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>0.1093816757202148</v>
       </c>
       <c r="L29">
-        <v>0.5</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -3221,28 +3401,28 @@
         <v>141</v>
       </c>
       <c r="D30" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E30" t="s">
-        <v>291</v>
+        <v>328</v>
       </c>
       <c r="F30" t="s">
-        <v>351</v>
+        <v>416</v>
       </c>
       <c r="G30" t="s">
-        <v>439</v>
+        <v>508</v>
       </c>
       <c r="I30">
-        <v>4.639522075653076</v>
+        <v>12.41971683502197</v>
       </c>
       <c r="J30">
-        <v>9.748465776443481</v>
+        <v>9.419912338256836</v>
       </c>
       <c r="K30">
-        <v>0.1247382164001465</v>
+        <v>0</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M30">
         <v>0.9285714285714286</v>
@@ -3262,19 +3442,19 @@
         <v>142</v>
       </c>
       <c r="D31" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E31" t="s">
-        <v>292</v>
+        <v>329</v>
       </c>
       <c r="F31" t="s">
-        <v>352</v>
+        <v>417</v>
       </c>
       <c r="I31">
-        <v>3.623894453048706</v>
+        <v>5.654647350311279</v>
       </c>
       <c r="J31">
-        <v>7.076701402664185</v>
+        <v>8.406981945037842</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3300,37 +3480,31 @@
         <v>143</v>
       </c>
       <c r="D32" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="E32" t="s">
-        <v>292</v>
+        <v>330</v>
       </c>
       <c r="F32" t="s">
-        <v>353</v>
-      </c>
-      <c r="G32" t="s">
-        <v>440</v>
-      </c>
-      <c r="H32" t="s">
-        <v>513</v>
+        <v>418</v>
       </c>
       <c r="I32">
-        <v>4.937064409255981</v>
+        <v>3.686344623565674</v>
       </c>
       <c r="J32">
-        <v>15.93397569656372</v>
+        <v>17.96533393859863</v>
       </c>
       <c r="K32">
-        <v>0.1249740123748779</v>
+        <v>0</v>
       </c>
       <c r="L32">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M32">
-        <v>0.8571428571428571</v>
+        <v>0</v>
       </c>
       <c r="N32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -3344,37 +3518,37 @@
         <v>144</v>
       </c>
       <c r="D33" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="E33" t="s">
-        <v>292</v>
+        <v>331</v>
       </c>
       <c r="F33" t="s">
-        <v>354</v>
+        <v>419</v>
       </c>
       <c r="G33" t="s">
-        <v>441</v>
+        <v>509</v>
       </c>
       <c r="H33" t="s">
-        <v>513</v>
+        <v>573</v>
       </c>
       <c r="I33">
-        <v>3.858448028564453</v>
+        <v>3.140418291091919</v>
       </c>
       <c r="J33">
-        <v>18.43670773506165</v>
+        <v>52.57168388366699</v>
       </c>
       <c r="K33">
-        <v>0.1091089248657227</v>
+        <v>0.171567440032959</v>
       </c>
       <c r="L33">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M33">
         <v>0.9285714285714286</v>
       </c>
       <c r="N33">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -3388,37 +3562,37 @@
         <v>145</v>
       </c>
       <c r="D34" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="E34" t="s">
-        <v>277</v>
+        <v>332</v>
       </c>
       <c r="F34" t="s">
-        <v>355</v>
+        <v>420</v>
       </c>
       <c r="G34" t="s">
-        <v>442</v>
+        <v>510</v>
       </c>
       <c r="H34" t="s">
-        <v>504</v>
+        <v>574</v>
       </c>
       <c r="I34">
-        <v>3.983421564102173</v>
+        <v>4.467660427093506</v>
       </c>
       <c r="J34">
-        <v>50.63053297996521</v>
+        <v>51.36365270614624</v>
       </c>
       <c r="K34">
-        <v>0.1093168258666992</v>
+        <v>0.109203577041626</v>
       </c>
       <c r="L34">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M34">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="N34">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -3432,31 +3606,28 @@
         <v>146</v>
       </c>
       <c r="D35" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="E35" t="s">
-        <v>291</v>
+        <v>333</v>
       </c>
       <c r="F35" t="s">
-        <v>356</v>
-      </c>
-      <c r="G35" t="s">
-        <v>443</v>
+        <v>421</v>
       </c>
       <c r="I35">
-        <v>4.171666383743286</v>
+        <v>3.217993259429932</v>
       </c>
       <c r="J35">
-        <v>13.05965137481689</v>
+        <v>12.6397557258606</v>
       </c>
       <c r="K35">
-        <v>0.1093523502349854</v>
+        <v>0</v>
       </c>
       <c r="L35">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M35">
-        <v>0.9285714285714286</v>
+        <v>0</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -3473,34 +3644,34 @@
         <v>147</v>
       </c>
       <c r="D36" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="E36" t="s">
-        <v>293</v>
+        <v>334</v>
       </c>
       <c r="F36" t="s">
-        <v>357</v>
+        <v>422</v>
       </c>
       <c r="G36" t="s">
-        <v>444</v>
+        <v>511</v>
       </c>
       <c r="H36" t="s">
-        <v>514</v>
+        <v>562</v>
       </c>
       <c r="I36">
-        <v>3.405212640762329</v>
+        <v>13.5915699005127</v>
       </c>
       <c r="J36">
-        <v>9.264613389968872</v>
+        <v>52.4438169002533</v>
       </c>
       <c r="K36">
-        <v>0.1093456745147705</v>
+        <v>0.1093482971191406</v>
       </c>
       <c r="L36">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M36">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -3517,37 +3688,34 @@
         <v>148</v>
       </c>
       <c r="D37" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="E37" t="s">
-        <v>294</v>
+        <v>335</v>
       </c>
       <c r="F37" t="s">
-        <v>358</v>
+        <v>423</v>
       </c>
       <c r="G37" t="s">
-        <v>445</v>
-      </c>
-      <c r="H37" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="I37">
-        <v>3.234484672546387</v>
+        <v>3.170876026153564</v>
       </c>
       <c r="J37">
-        <v>14.60619401931763</v>
+        <v>30.2614643573761</v>
       </c>
       <c r="K37">
-        <v>0.1090774536132812</v>
+        <v>0</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.9285714285714286</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="N37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -3561,37 +3729,28 @@
         <v>149</v>
       </c>
       <c r="D38" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="E38" t="s">
-        <v>295</v>
-      </c>
-      <c r="F38" t="s">
-        <v>359</v>
-      </c>
-      <c r="G38" t="s">
-        <v>446</v>
-      </c>
-      <c r="H38" t="s">
-        <v>516</v>
+        <v>336</v>
       </c>
       <c r="I38">
-        <v>4.094919919967651</v>
+        <v>0.8277606964111328</v>
       </c>
       <c r="J38">
-        <v>29.80902099609375</v>
+        <v>10.82842922210693</v>
       </c>
       <c r="K38">
-        <v>0.09372353553771973</v>
+        <v>0</v>
       </c>
       <c r="L38">
-        <v>0.8333333333333334</v>
+        <v>0</v>
       </c>
       <c r="M38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -3605,37 +3764,31 @@
         <v>150</v>
       </c>
       <c r="D39" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="E39" t="s">
-        <v>281</v>
+        <v>337</v>
       </c>
       <c r="F39" t="s">
-        <v>360</v>
-      </c>
-      <c r="G39" t="s">
-        <v>447</v>
-      </c>
-      <c r="H39" t="s">
-        <v>508</v>
+        <v>424</v>
       </c>
       <c r="I39">
-        <v>3.998816013336182</v>
+        <v>3.235506057739258</v>
       </c>
       <c r="J39">
-        <v>9.076210021972656</v>
+        <v>28.55676436424255</v>
       </c>
       <c r="K39">
-        <v>0.1093525886535645</v>
+        <v>0</v>
       </c>
       <c r="L39">
         <v>1</v>
       </c>
       <c r="M39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N39">
-        <v>0.8888888888888888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -3649,37 +3802,37 @@
         <v>151</v>
       </c>
       <c r="D40" t="s">
-        <v>229</v>
+        <v>249</v>
       </c>
       <c r="E40" t="s">
-        <v>284</v>
+        <v>338</v>
       </c>
       <c r="F40" t="s">
-        <v>361</v>
+        <v>425</v>
       </c>
       <c r="G40" t="s">
-        <v>448</v>
+        <v>513</v>
       </c>
       <c r="H40" t="s">
-        <v>509</v>
+        <v>575</v>
       </c>
       <c r="I40">
-        <v>3.874868869781494</v>
+        <v>3.656210899353027</v>
       </c>
       <c r="J40">
-        <v>13.48142695426941</v>
+        <v>31.22769856452942</v>
       </c>
       <c r="K40">
-        <v>0.09372282028198242</v>
+        <v>0.1250166893005371</v>
       </c>
       <c r="L40">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="M40">
-        <v>0.8571428571428571</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="N40">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -3693,37 +3846,31 @@
         <v>152</v>
       </c>
       <c r="D41" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="E41" t="s">
-        <v>296</v>
+        <v>339</v>
       </c>
       <c r="F41" t="s">
-        <v>362</v>
-      </c>
-      <c r="G41" t="s">
-        <v>449</v>
-      </c>
-      <c r="H41" t="s">
-        <v>517</v>
+        <v>426</v>
       </c>
       <c r="I41">
-        <v>3.139650821685791</v>
+        <v>5.217192649841309</v>
       </c>
       <c r="J41">
-        <v>9.997869729995728</v>
+        <v>28.15048837661743</v>
       </c>
       <c r="K41">
-        <v>0.09373211860656738</v>
+        <v>0</v>
       </c>
       <c r="L41">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="M41">
-        <v>0.8571428571428571</v>
+        <v>0</v>
       </c>
       <c r="N41">
-        <v>0.8888888888888888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -3737,37 +3884,34 @@
         <v>153</v>
       </c>
       <c r="D42" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="E42" t="s">
-        <v>297</v>
+        <v>340</v>
       </c>
       <c r="F42" t="s">
-        <v>363</v>
+        <v>427</v>
       </c>
       <c r="G42" t="s">
-        <v>450</v>
-      </c>
-      <c r="H42" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="I42">
-        <v>3.202353000640869</v>
+        <v>4.811083078384399</v>
       </c>
       <c r="J42">
-        <v>28.88402199745178</v>
+        <v>30.90325140953064</v>
       </c>
       <c r="K42">
-        <v>0.09350895881652832</v>
+        <v>0</v>
       </c>
       <c r="L42">
         <v>1</v>
       </c>
       <c r="M42">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="N42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -3781,37 +3925,34 @@
         <v>154</v>
       </c>
       <c r="D43" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="E43" t="s">
-        <v>294</v>
+        <v>341</v>
       </c>
       <c r="F43" t="s">
-        <v>364</v>
+        <v>428</v>
       </c>
       <c r="G43" t="s">
-        <v>451</v>
-      </c>
-      <c r="H43" t="s">
         <v>515</v>
       </c>
       <c r="I43">
-        <v>3.436456203460693</v>
+        <v>4.217485666275024</v>
       </c>
       <c r="J43">
-        <v>10.82579612731934</v>
+        <v>29.41593885421753</v>
       </c>
       <c r="K43">
-        <v>0.2030777931213379</v>
+        <v>0</v>
       </c>
       <c r="L43">
-        <v>0.8333333333333334</v>
+        <v>0.5</v>
       </c>
       <c r="M43">
-        <v>0.9285714285714286</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="N43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -3825,28 +3966,28 @@
         <v>155</v>
       </c>
       <c r="D44" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="E44" t="s">
-        <v>298</v>
+        <v>336</v>
       </c>
       <c r="F44" t="s">
-        <v>365</v>
+        <v>429</v>
       </c>
       <c r="G44" t="s">
-        <v>452</v>
+        <v>516</v>
       </c>
       <c r="H44" t="s">
-        <v>519</v>
+        <v>576</v>
       </c>
       <c r="I44">
-        <v>4.811255216598511</v>
+        <v>5.217214822769165</v>
       </c>
       <c r="J44">
-        <v>7.888997554779053</v>
+        <v>51.91294312477112</v>
       </c>
       <c r="K44">
-        <v>0.1248345375061035</v>
+        <v>0.0939946174621582</v>
       </c>
       <c r="L44">
         <v>0.8333333333333334</v>
@@ -3855,7 +3996,7 @@
         <v>0.9285714285714286</v>
       </c>
       <c r="N44">
-        <v>0.8888888888888888</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -3869,37 +4010,37 @@
         <v>156</v>
       </c>
       <c r="D45" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="E45" t="s">
-        <v>284</v>
+        <v>342</v>
       </c>
       <c r="F45" t="s">
-        <v>366</v>
+        <v>430</v>
       </c>
       <c r="G45" t="s">
-        <v>453</v>
+        <v>517</v>
       </c>
       <c r="H45" t="s">
-        <v>509</v>
+        <v>577</v>
       </c>
       <c r="I45">
-        <v>4.545795440673828</v>
+        <v>3.469875812530518</v>
       </c>
       <c r="J45">
-        <v>10.77894043922424</v>
+        <v>32.04189705848694</v>
       </c>
       <c r="K45">
-        <v>0.1091172695159912</v>
+        <v>0.1093907356262207</v>
       </c>
       <c r="L45">
         <v>0.8333333333333334</v>
       </c>
       <c r="M45">
-        <v>0.9285714285714286</v>
+        <v>1</v>
       </c>
       <c r="N45">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -3913,37 +4054,31 @@
         <v>157</v>
       </c>
       <c r="D46" t="s">
-        <v>219</v>
+        <v>254</v>
       </c>
       <c r="E46" t="s">
-        <v>274</v>
+        <v>343</v>
       </c>
       <c r="F46" t="s">
-        <v>367</v>
-      </c>
-      <c r="G46" t="s">
-        <v>454</v>
-      </c>
-      <c r="H46" t="s">
-        <v>520</v>
+        <v>431</v>
       </c>
       <c r="I46">
-        <v>4.170607089996338</v>
+        <v>3.467663764953613</v>
       </c>
       <c r="J46">
-        <v>31.86842632293701</v>
+        <v>9.982284784317017</v>
       </c>
       <c r="K46">
-        <v>0.1252501010894775</v>
+        <v>0</v>
       </c>
       <c r="L46">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M46">
-        <v>0.9285714285714286</v>
+        <v>0</v>
       </c>
       <c r="N46">
-        <v>0.8888888888888888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -3957,37 +4092,31 @@
         <v>158</v>
       </c>
       <c r="D47" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="E47" t="s">
-        <v>299</v>
+        <v>344</v>
       </c>
       <c r="F47" t="s">
-        <v>368</v>
-      </c>
-      <c r="G47" t="s">
-        <v>455</v>
-      </c>
-      <c r="H47" t="s">
-        <v>521</v>
+        <v>432</v>
       </c>
       <c r="I47">
-        <v>3.702888965606689</v>
+        <v>3.499207496643066</v>
       </c>
       <c r="J47">
-        <v>7.857788801193237</v>
+        <v>7.811397314071655</v>
       </c>
       <c r="K47">
-        <v>0.1093847751617432</v>
+        <v>0</v>
       </c>
       <c r="L47">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="M47">
-        <v>0.8571428571428571</v>
+        <v>0</v>
       </c>
       <c r="N47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -4001,19 +4130,22 @@
         <v>159</v>
       </c>
       <c r="D48" t="s">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="E48" t="s">
-        <v>291</v>
+        <v>345</v>
       </c>
       <c r="F48" t="s">
-        <v>369</v>
+        <v>433</v>
+      </c>
+      <c r="G48" t="s">
+        <v>518</v>
       </c>
       <c r="I48">
-        <v>4.81109619140625</v>
+        <v>3.421062231063843</v>
       </c>
       <c r="J48">
-        <v>6.843959808349609</v>
+        <v>51.35105228424072</v>
       </c>
       <c r="K48">
         <v>0</v>
@@ -4022,7 +4154,7 @@
         <v>1</v>
       </c>
       <c r="M48">
-        <v>0</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="N48">
         <v>0</v>
@@ -4039,19 +4171,19 @@
         <v>160</v>
       </c>
       <c r="D49" t="s">
-        <v>218</v>
+        <v>257</v>
       </c>
       <c r="E49" t="s">
-        <v>273</v>
+        <v>346</v>
       </c>
       <c r="F49" t="s">
-        <v>370</v>
+        <v>434</v>
       </c>
       <c r="I49">
-        <v>2.749182939529419</v>
+        <v>3.077134370803833</v>
       </c>
       <c r="J49">
-        <v>29.30679821968079</v>
+        <v>7.125856876373291</v>
       </c>
       <c r="K49">
         <v>0</v>
@@ -4077,37 +4209,34 @@
         <v>161</v>
       </c>
       <c r="D50" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="E50" t="s">
-        <v>294</v>
+        <v>347</v>
       </c>
       <c r="F50" t="s">
-        <v>371</v>
+        <v>435</v>
       </c>
       <c r="G50" t="s">
-        <v>456</v>
-      </c>
-      <c r="H50" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="I50">
-        <v>4.79559326171875</v>
+        <v>3.561393022537231</v>
       </c>
       <c r="J50">
-        <v>31.73111343383789</v>
+        <v>12.15360569953918</v>
       </c>
       <c r="K50">
-        <v>0.1092472076416016</v>
+        <v>0</v>
       </c>
       <c r="L50">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M50">
-        <v>1</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="N50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -4121,37 +4250,37 @@
         <v>162</v>
       </c>
       <c r="D51" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="E51" t="s">
-        <v>296</v>
+        <v>348</v>
       </c>
       <c r="F51" t="s">
-        <v>372</v>
+        <v>436</v>
       </c>
       <c r="G51" t="s">
-        <v>457</v>
+        <v>520</v>
       </c>
       <c r="H51" t="s">
-        <v>517</v>
+        <v>578</v>
       </c>
       <c r="I51">
-        <v>3.609539031982422</v>
+        <v>3.077431917190552</v>
       </c>
       <c r="J51">
-        <v>10.85683584213257</v>
+        <v>31.27431678771973</v>
       </c>
       <c r="K51">
-        <v>0.09370088577270508</v>
+        <v>0.1093471050262451</v>
       </c>
       <c r="L51">
         <v>0.8333333333333334</v>
       </c>
       <c r="M51">
-        <v>0.8571428571428571</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="N51">
-        <v>0.8888888888888888</v>
+        <v>0.7777777777777778</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -4165,19 +4294,19 @@
         <v>163</v>
       </c>
       <c r="D52" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="E52" t="s">
-        <v>300</v>
+        <v>349</v>
       </c>
       <c r="F52" t="s">
-        <v>373</v>
+        <v>437</v>
       </c>
       <c r="I52">
-        <v>2.858447313308716</v>
+        <v>7.264134407043457</v>
       </c>
       <c r="J52">
-        <v>29.69735217094421</v>
+        <v>7.560676097869873</v>
       </c>
       <c r="K52">
         <v>0</v>
@@ -4203,28 +4332,25 @@
         <v>164</v>
       </c>
       <c r="D53" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="E53" t="s">
-        <v>277</v>
+        <v>324</v>
       </c>
       <c r="F53" t="s">
-        <v>374</v>
+        <v>438</v>
       </c>
       <c r="G53" t="s">
-        <v>458</v>
-      </c>
-      <c r="H53" t="s">
-        <v>504</v>
+        <v>521</v>
       </c>
       <c r="I53">
-        <v>3.748876571655273</v>
+        <v>5.123509645462036</v>
       </c>
       <c r="J53">
-        <v>16.96832728385925</v>
+        <v>32.05803251266479</v>
       </c>
       <c r="K53">
-        <v>0.1093342304229736</v>
+        <v>0</v>
       </c>
       <c r="L53">
         <v>1</v>
@@ -4233,7 +4359,7 @@
         <v>0.9285714285714286</v>
       </c>
       <c r="N53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -4247,31 +4373,28 @@
         <v>165</v>
       </c>
       <c r="D54" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="E54" t="s">
-        <v>291</v>
+        <v>350</v>
       </c>
       <c r="F54" t="s">
-        <v>375</v>
-      </c>
-      <c r="G54" t="s">
-        <v>459</v>
+        <v>439</v>
       </c>
       <c r="I54">
-        <v>2.390045642852783</v>
+        <v>4.358079195022583</v>
       </c>
       <c r="J54">
-        <v>6.672110080718994</v>
+        <v>9.312957048416138</v>
       </c>
       <c r="K54">
-        <v>0.09350752830505371</v>
+        <v>0</v>
       </c>
       <c r="L54">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M54">
-        <v>0.9285714285714286</v>
+        <v>0</v>
       </c>
       <c r="N54">
         <v>0</v>
@@ -4288,31 +4411,37 @@
         <v>166</v>
       </c>
       <c r="D55" t="s">
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="E55" t="s">
-        <v>295</v>
+        <v>351</v>
       </c>
       <c r="F55" t="s">
-        <v>376</v>
+        <v>440</v>
+      </c>
+      <c r="G55" t="s">
+        <v>522</v>
+      </c>
+      <c r="H55" t="s">
+        <v>565</v>
       </c>
       <c r="I55">
-        <v>3.265514135360718</v>
+        <v>6.076647996902466</v>
       </c>
       <c r="J55">
-        <v>7.279766082763672</v>
+        <v>30.76198697090149</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>0.09380507469177246</v>
       </c>
       <c r="L55">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="M55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N55">
-        <v>0</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -4326,34 +4455,34 @@
         <v>167</v>
       </c>
       <c r="D56" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="E56" t="s">
-        <v>301</v>
+        <v>352</v>
       </c>
       <c r="F56" t="s">
-        <v>377</v>
+        <v>441</v>
       </c>
       <c r="G56" t="s">
-        <v>460</v>
+        <v>523</v>
       </c>
       <c r="H56" t="s">
-        <v>515</v>
+        <v>579</v>
       </c>
       <c r="I56">
-        <v>4.389362573623657</v>
+        <v>3.561418294906616</v>
       </c>
       <c r="J56">
-        <v>31.63881731033325</v>
+        <v>22.541748046875</v>
       </c>
       <c r="K56">
-        <v>0.109297513961792</v>
+        <v>0.1096127033233643</v>
       </c>
       <c r="L56">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M56">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -4370,28 +4499,31 @@
         <v>168</v>
       </c>
       <c r="D57" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E57" t="s">
-        <v>302</v>
+        <v>335</v>
       </c>
       <c r="F57" t="s">
-        <v>378</v>
+        <v>442</v>
+      </c>
+      <c r="G57" t="s">
+        <v>524</v>
       </c>
       <c r="I57">
-        <v>3.873853206634521</v>
+        <v>3.561657905578613</v>
       </c>
       <c r="J57">
-        <v>7.218409061431885</v>
+        <v>52.45956063270569</v>
       </c>
       <c r="K57">
         <v>0</v>
       </c>
       <c r="L57">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M57">
-        <v>0</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="N57">
         <v>0</v>
@@ -4408,34 +4540,34 @@
         <v>169</v>
       </c>
       <c r="D58" t="s">
-        <v>222</v>
+        <v>264</v>
       </c>
       <c r="E58" t="s">
-        <v>277</v>
+        <v>353</v>
       </c>
       <c r="F58" t="s">
-        <v>379</v>
+        <v>443</v>
       </c>
       <c r="G58" t="s">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="H58" t="s">
-        <v>504</v>
+        <v>580</v>
       </c>
       <c r="I58">
-        <v>4.984873056411743</v>
+        <v>5.123522758483887</v>
       </c>
       <c r="J58">
-        <v>30.35343766212463</v>
+        <v>31.23085713386536</v>
       </c>
       <c r="K58">
-        <v>0.09372687339782715</v>
+        <v>0.109346866607666</v>
       </c>
       <c r="L58">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M58">
-        <v>0.9285714285714286</v>
+        <v>1</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -4452,37 +4584,31 @@
         <v>170</v>
       </c>
       <c r="D59" t="s">
-        <v>215</v>
+        <v>265</v>
       </c>
       <c r="E59" t="s">
-        <v>270</v>
+        <v>354</v>
       </c>
       <c r="F59" t="s">
-        <v>380</v>
-      </c>
-      <c r="G59" t="s">
-        <v>462</v>
-      </c>
-      <c r="H59" t="s">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="I59">
-        <v>4.390362501144409</v>
+        <v>2.577283382415771</v>
       </c>
       <c r="J59">
-        <v>33.66517567634583</v>
+        <v>8.045867443084717</v>
       </c>
       <c r="K59">
-        <v>0.1249690055847168</v>
+        <v>0</v>
       </c>
       <c r="L59">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M59">
-        <v>0.9285714285714286</v>
+        <v>0</v>
       </c>
       <c r="N59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -4496,34 +4622,34 @@
         <v>171</v>
       </c>
       <c r="D60" t="s">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c r="E60" t="s">
-        <v>303</v>
+        <v>355</v>
       </c>
       <c r="F60" t="s">
-        <v>381</v>
+        <v>445</v>
       </c>
       <c r="G60" t="s">
-        <v>463</v>
+        <v>526</v>
       </c>
       <c r="H60" t="s">
-        <v>522</v>
+        <v>581</v>
       </c>
       <c r="I60">
-        <v>3.498919248580933</v>
+        <v>4.421730995178223</v>
       </c>
       <c r="J60">
-        <v>13.87285256385803</v>
+        <v>30.40028595924377</v>
       </c>
       <c r="K60">
-        <v>0.1093142032623291</v>
+        <v>0.1093988418579102</v>
       </c>
       <c r="L60">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="M60">
-        <v>0.7857142857142857</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="N60">
         <v>0.8888888888888888</v>
@@ -4540,34 +4666,37 @@
         <v>172</v>
       </c>
       <c r="D61" t="s">
-        <v>236</v>
+        <v>267</v>
       </c>
       <c r="E61" t="s">
-        <v>291</v>
+        <v>356</v>
       </c>
       <c r="F61" t="s">
-        <v>382</v>
+        <v>446</v>
       </c>
       <c r="G61" t="s">
-        <v>464</v>
+        <v>527</v>
+      </c>
+      <c r="H61" t="s">
+        <v>562</v>
       </c>
       <c r="I61">
-        <v>2.780319213867188</v>
+        <v>4.76515007019043</v>
       </c>
       <c r="J61">
-        <v>31.33827519416809</v>
+        <v>30.98146557807922</v>
       </c>
       <c r="K61">
-        <v>0.1093859672546387</v>
+        <v>0.1249713897705078</v>
       </c>
       <c r="L61">
         <v>1</v>
       </c>
       <c r="M61">
-        <v>0.7857142857142857</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="N61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -4581,37 +4710,31 @@
         <v>173</v>
       </c>
       <c r="D62" t="s">
-        <v>215</v>
+        <v>249</v>
       </c>
       <c r="E62" t="s">
-        <v>270</v>
+        <v>338</v>
       </c>
       <c r="F62" t="s">
-        <v>383</v>
-      </c>
-      <c r="G62" t="s">
-        <v>465</v>
-      </c>
-      <c r="H62" t="s">
-        <v>500</v>
+        <v>447</v>
       </c>
       <c r="I62">
-        <v>3.920711278915405</v>
+        <v>2.795948505401611</v>
       </c>
       <c r="J62">
-        <v>31.27660489082336</v>
+        <v>29.1679356098175</v>
       </c>
       <c r="K62">
-        <v>0.1095678806304932</v>
+        <v>0</v>
       </c>
       <c r="L62">
         <v>1</v>
       </c>
       <c r="M62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -4625,37 +4748,34 @@
         <v>174</v>
       </c>
       <c r="D63" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="E63" t="s">
-        <v>303</v>
+        <v>324</v>
       </c>
       <c r="F63" t="s">
-        <v>384</v>
+        <v>448</v>
       </c>
       <c r="G63" t="s">
-        <v>466</v>
-      </c>
-      <c r="H63" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="I63">
-        <v>5.935847282409668</v>
+        <v>2.764881372451782</v>
       </c>
       <c r="J63">
-        <v>12.56077861785889</v>
+        <v>31.041348695755</v>
       </c>
       <c r="K63">
-        <v>0.09374213218688965</v>
+        <v>0</v>
       </c>
       <c r="L63">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="M63">
         <v>0.9285714285714286</v>
       </c>
       <c r="N63">
-        <v>0.8888888888888888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -4669,37 +4789,37 @@
         <v>175</v>
       </c>
       <c r="D64" t="s">
-        <v>215</v>
+        <v>268</v>
       </c>
       <c r="E64" t="s">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c r="F64" t="s">
-        <v>385</v>
+        <v>449</v>
       </c>
       <c r="G64" t="s">
-        <v>467</v>
+        <v>529</v>
       </c>
       <c r="H64" t="s">
-        <v>500</v>
+        <v>582</v>
       </c>
       <c r="I64">
-        <v>4.014442443847656</v>
+        <v>5.390334606170654</v>
       </c>
       <c r="J64">
-        <v>31.21626329421997</v>
+        <v>30.30722641944885</v>
       </c>
       <c r="K64">
-        <v>0.1093473434448242</v>
+        <v>0.09376025199890137</v>
       </c>
       <c r="L64">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M64">
-        <v>1</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="N64">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -4713,19 +4833,22 @@
         <v>176</v>
       </c>
       <c r="D65" t="s">
-        <v>220</v>
+        <v>269</v>
       </c>
       <c r="E65" t="s">
-        <v>275</v>
+        <v>358</v>
       </c>
       <c r="F65" t="s">
-        <v>386</v>
+        <v>450</v>
+      </c>
+      <c r="G65" t="s">
+        <v>530</v>
       </c>
       <c r="I65">
-        <v>3.34294605255127</v>
+        <v>2.686897993087769</v>
       </c>
       <c r="J65">
-        <v>44.6475567817688</v>
+        <v>52.32046508789062</v>
       </c>
       <c r="K65">
         <v>0</v>
@@ -4734,7 +4857,7 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="M65">
-        <v>0</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="N65">
         <v>0</v>
@@ -4751,28 +4874,28 @@
         <v>177</v>
       </c>
       <c r="D66" t="s">
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="E66" t="s">
-        <v>304</v>
+        <v>359</v>
       </c>
       <c r="F66" t="s">
-        <v>387</v>
+        <v>451</v>
       </c>
       <c r="G66" t="s">
-        <v>468</v>
+        <v>531</v>
       </c>
       <c r="H66" t="s">
-        <v>523</v>
+        <v>583</v>
       </c>
       <c r="I66">
-        <v>2.967812776565552</v>
+        <v>11.48141431808472</v>
       </c>
       <c r="J66">
-        <v>10.28131294250488</v>
+        <v>30.77441906929016</v>
       </c>
       <c r="K66">
-        <v>0.09372830390930176</v>
+        <v>0.09372639656066895</v>
       </c>
       <c r="L66">
         <v>0.8333333333333334</v>
@@ -4795,37 +4918,28 @@
         <v>178</v>
       </c>
       <c r="D67" t="s">
-        <v>230</v>
+        <v>271</v>
       </c>
       <c r="E67" t="s">
-        <v>285</v>
-      </c>
-      <c r="F67" t="s">
-        <v>388</v>
-      </c>
-      <c r="G67" t="s">
-        <v>469</v>
-      </c>
-      <c r="H67" t="s">
-        <v>510</v>
+        <v>360</v>
       </c>
       <c r="I67">
-        <v>4.170641422271729</v>
+        <v>0.4844787120819092</v>
       </c>
       <c r="J67">
-        <v>29.75983023643494</v>
+        <v>9.624947309494019</v>
       </c>
       <c r="K67">
-        <v>0.124983549118042</v>
+        <v>0</v>
       </c>
       <c r="L67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -4839,37 +4953,34 @@
         <v>179</v>
       </c>
       <c r="D68" t="s">
-        <v>220</v>
+        <v>272</v>
       </c>
       <c r="E68" t="s">
-        <v>275</v>
+        <v>361</v>
       </c>
       <c r="F68" t="s">
-        <v>389</v>
+        <v>452</v>
       </c>
       <c r="G68" t="s">
-        <v>470</v>
-      </c>
-      <c r="H68" t="s">
-        <v>502</v>
+        <v>532</v>
       </c>
       <c r="I68">
-        <v>3.405482053756714</v>
+        <v>3.483545303344727</v>
       </c>
       <c r="J68">
-        <v>34.166179895401</v>
+        <v>12.99670577049255</v>
       </c>
       <c r="K68">
-        <v>0.1093471050262451</v>
+        <v>0</v>
       </c>
       <c r="L68">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="M68">
         <v>0.9285714285714286</v>
       </c>
       <c r="N68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -4883,37 +4994,34 @@
         <v>180</v>
       </c>
       <c r="D69" t="s">
-        <v>250</v>
+        <v>273</v>
       </c>
       <c r="E69" t="s">
-        <v>305</v>
+        <v>362</v>
       </c>
       <c r="F69" t="s">
-        <v>390</v>
+        <v>453</v>
       </c>
       <c r="G69" t="s">
-        <v>471</v>
-      </c>
-      <c r="H69" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="I69">
-        <v>3.795706272125244</v>
+        <v>6.701308250427246</v>
       </c>
       <c r="J69">
-        <v>53.05333375930786</v>
+        <v>30.82106733322144</v>
       </c>
       <c r="K69">
-        <v>0.1249709129333496</v>
+        <v>0</v>
       </c>
       <c r="L69">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="M69">
-        <v>1</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="N69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -4927,37 +5035,37 @@
         <v>181</v>
       </c>
       <c r="D70" t="s">
-        <v>251</v>
+        <v>274</v>
       </c>
       <c r="E70" t="s">
-        <v>306</v>
+        <v>363</v>
       </c>
       <c r="F70" t="s">
-        <v>391</v>
+        <v>454</v>
       </c>
       <c r="G70" t="s">
-        <v>472</v>
+        <v>534</v>
       </c>
       <c r="H70" t="s">
-        <v>525</v>
+        <v>584</v>
       </c>
       <c r="I70">
-        <v>4.951720237731934</v>
+        <v>4.795700788497925</v>
       </c>
       <c r="J70">
-        <v>10.95060276985168</v>
+        <v>63.050936460495</v>
       </c>
       <c r="K70">
-        <v>0.09393119812011719</v>
+        <v>0.09373331069946289</v>
       </c>
       <c r="L70">
         <v>1</v>
       </c>
       <c r="M70">
-        <v>0.9285714285714286</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="N70">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -4971,19 +5079,19 @@
         <v>182</v>
       </c>
       <c r="D71" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="E71" t="s">
-        <v>307</v>
+        <v>364</v>
       </c>
       <c r="F71" t="s">
-        <v>392</v>
+        <v>455</v>
       </c>
       <c r="I71">
-        <v>3.718618154525757</v>
+        <v>5.248493671417236</v>
       </c>
       <c r="J71">
-        <v>8.092069387435913</v>
+        <v>8.68571138381958</v>
       </c>
       <c r="K71">
         <v>0</v>
@@ -5009,34 +5117,34 @@
         <v>183</v>
       </c>
       <c r="D72" t="s">
-        <v>242</v>
+        <v>276</v>
       </c>
       <c r="E72" t="s">
-        <v>297</v>
+        <v>365</v>
       </c>
       <c r="F72" t="s">
-        <v>393</v>
+        <v>456</v>
       </c>
       <c r="G72" t="s">
-        <v>473</v>
+        <v>535</v>
       </c>
       <c r="H72" t="s">
-        <v>518</v>
+        <v>585</v>
       </c>
       <c r="I72">
-        <v>3.389585018157959</v>
+        <v>4.296405553817749</v>
       </c>
       <c r="J72">
-        <v>7.203875303268433</v>
+        <v>32.03930687904358</v>
       </c>
       <c r="K72">
-        <v>0.09395766258239746</v>
+        <v>0.1094586849212646</v>
       </c>
       <c r="L72">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M72">
-        <v>0.9285714285714286</v>
+        <v>1</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -5053,31 +5161,28 @@
         <v>184</v>
       </c>
       <c r="D73" t="s">
-        <v>236</v>
+        <v>277</v>
       </c>
       <c r="E73" t="s">
-        <v>291</v>
+        <v>366</v>
       </c>
       <c r="F73" t="s">
-        <v>394</v>
-      </c>
-      <c r="G73" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="I73">
-        <v>9.185099124908447</v>
+        <v>2.624346017837524</v>
       </c>
       <c r="J73">
-        <v>44.49171423912048</v>
+        <v>28.41617631912231</v>
       </c>
       <c r="K73">
-        <v>0.109321117401123</v>
+        <v>0</v>
       </c>
       <c r="L73">
-        <v>0.8333333333333334</v>
+        <v>0.5</v>
       </c>
       <c r="M73">
-        <v>0.9285714285714286</v>
+        <v>0</v>
       </c>
       <c r="N73">
         <v>0</v>
@@ -5094,28 +5199,25 @@
         <v>185</v>
       </c>
       <c r="D74" t="s">
-        <v>232</v>
+        <v>278</v>
       </c>
       <c r="E74" t="s">
-        <v>287</v>
+        <v>367</v>
       </c>
       <c r="F74" t="s">
-        <v>395</v>
+        <v>458</v>
       </c>
       <c r="G74" t="s">
-        <v>475</v>
-      </c>
-      <c r="H74" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="I74">
-        <v>3.967804908752441</v>
+        <v>3.092973709106445</v>
       </c>
       <c r="J74">
-        <v>11.54644823074341</v>
+        <v>7.749515295028687</v>
       </c>
       <c r="K74">
-        <v>0.1403648853302002</v>
+        <v>0</v>
       </c>
       <c r="L74">
         <v>1</v>
@@ -5124,7 +5226,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="N74">
-        <v>0.8888888888888888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -5138,31 +5240,28 @@
         <v>186</v>
       </c>
       <c r="D75" t="s">
-        <v>236</v>
+        <v>279</v>
       </c>
       <c r="E75" t="s">
-        <v>291</v>
+        <v>368</v>
       </c>
       <c r="F75" t="s">
-        <v>396</v>
-      </c>
-      <c r="G75" t="s">
-        <v>476</v>
+        <v>459</v>
       </c>
       <c r="I75">
-        <v>3.295859098434448</v>
+        <v>4.139523506164551</v>
       </c>
       <c r="J75">
-        <v>7.967098236083984</v>
+        <v>6.811011791229248</v>
       </c>
       <c r="K75">
-        <v>0.09373116493225098</v>
+        <v>0</v>
       </c>
       <c r="L75">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M75">
-        <v>0.9285714285714286</v>
+        <v>0</v>
       </c>
       <c r="N75">
         <v>0</v>
@@ -5179,28 +5278,31 @@
         <v>187</v>
       </c>
       <c r="D76" t="s">
-        <v>224</v>
+        <v>280</v>
       </c>
       <c r="E76" t="s">
-        <v>279</v>
+        <v>369</v>
       </c>
       <c r="F76" t="s">
-        <v>397</v>
+        <v>460</v>
+      </c>
+      <c r="G76" t="s">
+        <v>537</v>
       </c>
       <c r="I76">
-        <v>3.905028104782104</v>
+        <v>5.123779058456421</v>
       </c>
       <c r="J76">
-        <v>7.88901948928833</v>
+        <v>62.05399465560913</v>
       </c>
       <c r="K76">
         <v>0</v>
       </c>
       <c r="L76">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="M76">
-        <v>0</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="N76">
         <v>0</v>
@@ -5217,37 +5319,37 @@
         <v>188</v>
       </c>
       <c r="D77" t="s">
-        <v>253</v>
+        <v>281</v>
       </c>
       <c r="E77" t="s">
-        <v>308</v>
+        <v>370</v>
       </c>
       <c r="F77" t="s">
-        <v>398</v>
+        <v>461</v>
       </c>
       <c r="G77" t="s">
-        <v>477</v>
+        <v>538</v>
       </c>
       <c r="H77" t="s">
-        <v>527</v>
+        <v>565</v>
       </c>
       <c r="I77">
-        <v>3.733489751815796</v>
+        <v>4.076972723007202</v>
       </c>
       <c r="J77">
-        <v>8.060864925384521</v>
+        <v>32.14992237091064</v>
       </c>
       <c r="K77">
-        <v>0.1091163158416748</v>
+        <v>0.1561529636383057</v>
       </c>
       <c r="L77">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M77">
         <v>1</v>
       </c>
       <c r="N77">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="78" spans="1:14">
@@ -5261,37 +5363,31 @@
         <v>189</v>
       </c>
       <c r="D78" t="s">
-        <v>254</v>
+        <v>282</v>
       </c>
       <c r="E78" t="s">
-        <v>309</v>
+        <v>371</v>
       </c>
       <c r="F78" t="s">
-        <v>399</v>
-      </c>
-      <c r="G78" t="s">
-        <v>478</v>
-      </c>
-      <c r="H78" t="s">
-        <v>528</v>
+        <v>462</v>
       </c>
       <c r="I78">
-        <v>4.623674154281616</v>
+        <v>4.701975584030151</v>
       </c>
       <c r="J78">
-        <v>10.73207139968872</v>
+        <v>7.718926429748535</v>
       </c>
       <c r="K78">
-        <v>0.09372782707214355</v>
+        <v>0</v>
       </c>
       <c r="L78">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="M78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N78">
-        <v>0.8888888888888888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:14">
@@ -5305,34 +5401,34 @@
         <v>190</v>
       </c>
       <c r="D79" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E79" t="s">
-        <v>306</v>
+        <v>336</v>
       </c>
       <c r="F79" t="s">
-        <v>400</v>
+        <v>463</v>
       </c>
       <c r="G79" t="s">
-        <v>479</v>
+        <v>539</v>
       </c>
       <c r="H79" t="s">
-        <v>525</v>
+        <v>576</v>
       </c>
       <c r="I79">
-        <v>4.65489935874939</v>
+        <v>4.141867637634277</v>
       </c>
       <c r="J79">
-        <v>30.51033115386963</v>
+        <v>32.05584788322449</v>
       </c>
       <c r="K79">
-        <v>0.09372758865356445</v>
+        <v>0.218721866607666</v>
       </c>
       <c r="L79">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M79">
-        <v>1</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -5349,37 +5445,34 @@
         <v>191</v>
       </c>
       <c r="D80" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="E80" t="s">
-        <v>310</v>
+        <v>372</v>
       </c>
       <c r="F80" t="s">
-        <v>401</v>
+        <v>464</v>
       </c>
       <c r="G80" t="s">
-        <v>480</v>
-      </c>
-      <c r="H80" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="I80">
-        <v>4.373710632324219</v>
+        <v>7.670060634613037</v>
       </c>
       <c r="J80">
-        <v>30.52664589881897</v>
+        <v>30.30605292320251</v>
       </c>
       <c r="K80">
-        <v>0.1093513965606689</v>
+        <v>0</v>
       </c>
       <c r="L80">
         <v>0.8333333333333334</v>
       </c>
       <c r="M80">
-        <v>1</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="N80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:14">
@@ -5393,31 +5486,37 @@
         <v>192</v>
       </c>
       <c r="D81" t="s">
-        <v>236</v>
+        <v>284</v>
       </c>
       <c r="E81" t="s">
-        <v>291</v>
+        <v>373</v>
       </c>
       <c r="F81" t="s">
-        <v>402</v>
+        <v>465</v>
+      </c>
+      <c r="G81" t="s">
+        <v>541</v>
+      </c>
+      <c r="H81" t="s">
+        <v>586</v>
       </c>
       <c r="I81">
-        <v>3.905093193054199</v>
+        <v>4.078928709030151</v>
       </c>
       <c r="J81">
-        <v>7.438069820404053</v>
+        <v>31.15002012252808</v>
       </c>
       <c r="K81">
-        <v>0</v>
+        <v>0.109443187713623</v>
       </c>
       <c r="L81">
         <v>0.8333333333333334</v>
       </c>
       <c r="M81">
-        <v>0</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="N81">
-        <v>0</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="82" spans="1:14">
@@ -5431,28 +5530,25 @@
         <v>193</v>
       </c>
       <c r="D82" t="s">
-        <v>256</v>
+        <v>285</v>
       </c>
       <c r="E82" t="s">
-        <v>311</v>
+        <v>374</v>
       </c>
       <c r="F82" t="s">
-        <v>403</v>
+        <v>466</v>
       </c>
       <c r="G82" t="s">
-        <v>481</v>
-      </c>
-      <c r="H82" t="s">
-        <v>530</v>
+        <v>542</v>
       </c>
       <c r="I82">
-        <v>3.217714071273804</v>
+        <v>5.514317035675049</v>
       </c>
       <c r="J82">
-        <v>13.48142123222351</v>
+        <v>30.33992981910706</v>
       </c>
       <c r="K82">
-        <v>0.09373378753662109</v>
+        <v>0</v>
       </c>
       <c r="L82">
         <v>0.8333333333333334</v>
@@ -5461,7 +5557,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="N82">
-        <v>0.8888888888888888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:14">
@@ -5475,34 +5571,34 @@
         <v>194</v>
       </c>
       <c r="D83" t="s">
-        <v>251</v>
+        <v>286</v>
       </c>
       <c r="E83" t="s">
-        <v>306</v>
+        <v>375</v>
       </c>
       <c r="F83" t="s">
-        <v>404</v>
+        <v>467</v>
       </c>
       <c r="G83" t="s">
-        <v>482</v>
+        <v>543</v>
       </c>
       <c r="H83" t="s">
-        <v>525</v>
+        <v>587</v>
       </c>
       <c r="I83">
-        <v>4.108167171478271</v>
+        <v>3.889505624771118</v>
       </c>
       <c r="J83">
-        <v>9.794825553894043</v>
+        <v>31.10293030738831</v>
       </c>
       <c r="K83">
-        <v>0.1093525886535645</v>
+        <v>0.1249339580535889</v>
       </c>
       <c r="L83">
         <v>0.8333333333333334</v>
       </c>
       <c r="M83">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="N83">
         <v>1</v>
@@ -5519,37 +5615,34 @@
         <v>195</v>
       </c>
       <c r="D84" t="s">
-        <v>257</v>
+        <v>287</v>
       </c>
       <c r="E84" t="s">
-        <v>312</v>
+        <v>376</v>
       </c>
       <c r="F84" t="s">
-        <v>405</v>
+        <v>468</v>
       </c>
       <c r="G84" t="s">
-        <v>483</v>
-      </c>
-      <c r="H84" t="s">
-        <v>531</v>
+        <v>544</v>
       </c>
       <c r="I84">
-        <v>4.608314990997314</v>
+        <v>3.983396530151367</v>
       </c>
       <c r="J84">
-        <v>31.55706167221069</v>
+        <v>30.93043851852417</v>
       </c>
       <c r="K84">
-        <v>0.1093013286590576</v>
+        <v>0</v>
       </c>
       <c r="L84">
         <v>0.8333333333333334</v>
       </c>
       <c r="M84">
-        <v>1</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="N84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:14">
@@ -5563,34 +5656,31 @@
         <v>196</v>
       </c>
       <c r="D85" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="E85" t="s">
-        <v>313</v>
-      </c>
-      <c r="F85" t="s">
-        <v>406</v>
+        <v>359</v>
       </c>
       <c r="G85" t="s">
-        <v>484</v>
+        <v>545</v>
       </c>
       <c r="H85" t="s">
-        <v>500</v>
+        <v>583</v>
       </c>
       <c r="I85">
-        <v>3.936321258544922</v>
+        <v>0.5010786056518555</v>
       </c>
       <c r="J85">
-        <v>30.33987998962402</v>
+        <v>31.10520029067993</v>
       </c>
       <c r="K85">
-        <v>0.1093485355377197</v>
+        <v>0.2028286457061768</v>
       </c>
       <c r="L85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M85">
-        <v>1</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="N85">
         <v>1</v>
@@ -5607,37 +5697,31 @@
         <v>197</v>
       </c>
       <c r="D86" t="s">
-        <v>259</v>
+        <v>288</v>
       </c>
       <c r="E86" t="s">
-        <v>314</v>
+        <v>377</v>
       </c>
       <c r="F86" t="s">
-        <v>407</v>
-      </c>
-      <c r="G86" t="s">
-        <v>485</v>
-      </c>
-      <c r="H86" t="s">
-        <v>523</v>
+        <v>469</v>
       </c>
       <c r="I86">
-        <v>4.654898405075073</v>
+        <v>3.342691421508789</v>
       </c>
       <c r="J86">
-        <v>28.94977903366089</v>
+        <v>7.96709942817688</v>
       </c>
       <c r="K86">
-        <v>0.1249690055847168</v>
+        <v>0</v>
       </c>
       <c r="L86">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="M86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:14">
@@ -5651,37 +5735,31 @@
         <v>198</v>
       </c>
       <c r="D87" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="E87" t="s">
-        <v>315</v>
+        <v>378</v>
       </c>
       <c r="F87" t="s">
-        <v>408</v>
-      </c>
-      <c r="G87" t="s">
-        <v>486</v>
-      </c>
-      <c r="H87" t="s">
-        <v>532</v>
+        <v>470</v>
       </c>
       <c r="I87">
-        <v>3.717835187911987</v>
+        <v>7.76479697227478</v>
       </c>
       <c r="J87">
-        <v>7.156712770462036</v>
+        <v>32.44810724258423</v>
       </c>
       <c r="K87">
-        <v>0.1091077327728271</v>
+        <v>0</v>
       </c>
       <c r="L87">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="M87">
-        <v>0.9285714285714286</v>
+        <v>0</v>
       </c>
       <c r="N87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:14">
@@ -5695,37 +5773,34 @@
         <v>199</v>
       </c>
       <c r="D88" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E88" t="s">
-        <v>316</v>
+        <v>345</v>
       </c>
       <c r="F88" t="s">
-        <v>409</v>
+        <v>471</v>
       </c>
       <c r="G88" t="s">
-        <v>487</v>
-      </c>
-      <c r="H88" t="s">
-        <v>533</v>
+        <v>546</v>
       </c>
       <c r="I88">
-        <v>6.9678635597229</v>
+        <v>4.1256935</v>
       </c>
       <c r="J88">
-        <v>30.49357008934021</v>
+        <v>51.4266369342804</v>
       </c>
       <c r="K88">
-        <v>0.09396505355834961</v>
+        <v>0</v>
       </c>
       <c r="L88">
         <v>1</v>
       </c>
       <c r="M88">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="N88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:14">
@@ -5739,37 +5814,31 @@
         <v>200</v>
       </c>
       <c r="D89" t="s">
-        <v>246</v>
+        <v>290</v>
       </c>
       <c r="E89" t="s">
-        <v>301</v>
+        <v>379</v>
       </c>
       <c r="F89" t="s">
-        <v>410</v>
-      </c>
-      <c r="G89" t="s">
-        <v>488</v>
-      </c>
-      <c r="H89" t="s">
-        <v>534</v>
+        <v>472</v>
       </c>
       <c r="I89">
-        <v>4.671514272689819</v>
+        <v>4.220028400421143</v>
       </c>
       <c r="J89">
-        <v>21.10708332061768</v>
+        <v>29.15262722969055</v>
       </c>
       <c r="K89">
-        <v>0.1093482971191406</v>
+        <v>0</v>
       </c>
       <c r="L89">
         <v>0.8333333333333334</v>
       </c>
       <c r="M89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N89">
-        <v>0.8888888888888888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:14">
@@ -5783,34 +5852,37 @@
         <v>201</v>
       </c>
       <c r="D90" t="s">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="E90" t="s">
-        <v>317</v>
+        <v>380</v>
       </c>
       <c r="F90" t="s">
-        <v>411</v>
+        <v>473</v>
       </c>
       <c r="G90" t="s">
-        <v>489</v>
+        <v>547</v>
+      </c>
+      <c r="H90" t="s">
+        <v>588</v>
       </c>
       <c r="I90">
-        <v>3.998784780502319</v>
+        <v>6.15530252456665</v>
       </c>
       <c r="J90">
-        <v>30.67006349563599</v>
+        <v>31.4146773815155</v>
       </c>
       <c r="K90">
-        <v>0</v>
+        <v>0.2184665203094482</v>
       </c>
       <c r="L90">
         <v>1</v>
       </c>
       <c r="M90">
-        <v>0.9285714285714286</v>
+        <v>1</v>
       </c>
       <c r="N90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:14">
@@ -5824,28 +5896,28 @@
         <v>202</v>
       </c>
       <c r="D91" t="s">
-        <v>257</v>
+        <v>292</v>
       </c>
       <c r="E91" t="s">
-        <v>312</v>
+        <v>381</v>
       </c>
       <c r="F91" t="s">
-        <v>412</v>
+        <v>474</v>
       </c>
       <c r="G91" t="s">
-        <v>490</v>
+        <v>548</v>
       </c>
       <c r="H91" t="s">
-        <v>531</v>
+        <v>589</v>
       </c>
       <c r="I91">
-        <v>4.873861074447632</v>
+        <v>5.701664447784424</v>
       </c>
       <c r="J91">
-        <v>31.24317812919617</v>
+        <v>32.10321640968323</v>
       </c>
       <c r="K91">
-        <v>0.1093752384185791</v>
+        <v>0.1250503063201904</v>
       </c>
       <c r="L91">
         <v>1</v>
@@ -5868,37 +5940,37 @@
         <v>203</v>
       </c>
       <c r="D92" t="s">
-        <v>259</v>
+        <v>293</v>
       </c>
       <c r="E92" t="s">
-        <v>314</v>
+        <v>382</v>
       </c>
       <c r="F92" t="s">
-        <v>413</v>
+        <v>475</v>
       </c>
       <c r="G92" t="s">
-        <v>491</v>
+        <v>549</v>
       </c>
       <c r="H92" t="s">
-        <v>523</v>
+        <v>590</v>
       </c>
       <c r="I92">
-        <v>2.7647385597229</v>
+        <v>4.170662641525269</v>
       </c>
       <c r="J92">
-        <v>13.46579527854919</v>
+        <v>31.60621809959412</v>
       </c>
       <c r="K92">
-        <v>0.1093509197235107</v>
+        <v>0.2032356262207031</v>
       </c>
       <c r="L92">
         <v>0.8333333333333334</v>
       </c>
       <c r="M92">
-        <v>0.9285714285714286</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="N92">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="93" spans="1:14">
@@ -5912,28 +5984,28 @@
         <v>204</v>
       </c>
       <c r="D93" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="E93" t="s">
-        <v>318</v>
+        <v>383</v>
       </c>
       <c r="F93" t="s">
-        <v>414</v>
+        <v>476</v>
       </c>
       <c r="G93" t="s">
-        <v>492</v>
+        <v>550</v>
       </c>
       <c r="H93" t="s">
-        <v>535</v>
+        <v>591</v>
       </c>
       <c r="I93">
-        <v>3.467906951904297</v>
+        <v>6.014939785003662</v>
       </c>
       <c r="J93">
-        <v>10.45088624954224</v>
+        <v>14.29371953010559</v>
       </c>
       <c r="K93">
-        <v>0.1091358661651611</v>
+        <v>0.1093490123748779</v>
       </c>
       <c r="L93">
         <v>1</v>
@@ -5942,7 +6014,7 @@
         <v>1</v>
       </c>
       <c r="N93">
-        <v>0.8888888888888888</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:14">
@@ -5956,37 +6028,34 @@
         <v>205</v>
       </c>
       <c r="D94" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="E94" t="s">
-        <v>319</v>
+        <v>384</v>
       </c>
       <c r="F94" t="s">
-        <v>415</v>
+        <v>477</v>
       </c>
       <c r="G94" t="s">
-        <v>493</v>
-      </c>
-      <c r="H94" t="s">
-        <v>536</v>
+        <v>551</v>
       </c>
       <c r="I94">
-        <v>6.748154878616333</v>
+        <v>5.201601505279541</v>
       </c>
       <c r="J94">
-        <v>31.24385952949524</v>
+        <v>52.3508665561676</v>
       </c>
       <c r="K94">
-        <v>0.1249704360961914</v>
+        <v>0</v>
       </c>
       <c r="L94">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="M94">
         <v>0.9285714285714286</v>
       </c>
       <c r="N94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:14">
@@ -6000,37 +6069,34 @@
         <v>206</v>
       </c>
       <c r="D95" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="E95" t="s">
-        <v>320</v>
+        <v>385</v>
       </c>
       <c r="F95" t="s">
-        <v>416</v>
+        <v>478</v>
       </c>
       <c r="G95" t="s">
-        <v>494</v>
-      </c>
-      <c r="H95" t="s">
-        <v>537</v>
+        <v>552</v>
       </c>
       <c r="I95">
-        <v>7.155392408370972</v>
+        <v>4.06154203414917</v>
       </c>
       <c r="J95">
-        <v>31.51282429695129</v>
+        <v>39.44776248931885</v>
       </c>
       <c r="K95">
-        <v>0.09394311904907227</v>
+        <v>0</v>
       </c>
       <c r="L95">
         <v>1</v>
       </c>
       <c r="M95">
-        <v>1</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="N95">
-        <v>0.8888888888888888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:14">
@@ -6044,28 +6110,28 @@
         <v>207</v>
       </c>
       <c r="D96" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="E96" t="s">
-        <v>321</v>
+        <v>386</v>
       </c>
       <c r="F96" t="s">
-        <v>417</v>
+        <v>479</v>
       </c>
       <c r="G96" t="s">
-        <v>495</v>
+        <v>553</v>
       </c>
       <c r="H96" t="s">
-        <v>538</v>
+        <v>592</v>
       </c>
       <c r="I96">
-        <v>11.49806046485901</v>
+        <v>3.624061822891235</v>
       </c>
       <c r="J96">
-        <v>30.24588298797607</v>
+        <v>30.352703332901</v>
       </c>
       <c r="K96">
-        <v>0.1249654293060303</v>
+        <v>0.1094310283660889</v>
       </c>
       <c r="L96">
         <v>0.8333333333333334</v>
@@ -6074,7 +6140,7 @@
         <v>1</v>
       </c>
       <c r="N96">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="97" spans="1:14">
@@ -6088,19 +6154,22 @@
         <v>208</v>
       </c>
       <c r="D97" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
       <c r="E97" t="s">
-        <v>322</v>
+        <v>387</v>
       </c>
       <c r="F97" t="s">
-        <v>418</v>
+        <v>480</v>
+      </c>
+      <c r="G97" t="s">
+        <v>554</v>
       </c>
       <c r="I97">
-        <v>3.717872142791748</v>
+        <v>3.874001741409302</v>
       </c>
       <c r="J97">
-        <v>8.265499114990234</v>
+        <v>10.65754699707031</v>
       </c>
       <c r="K97">
         <v>0</v>
@@ -6109,7 +6178,7 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="M97">
-        <v>0</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="N97">
         <v>0</v>
@@ -6126,28 +6195,28 @@
         <v>209</v>
       </c>
       <c r="D98" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="E98" t="s">
-        <v>314</v>
+        <v>353</v>
       </c>
       <c r="F98" t="s">
-        <v>419</v>
+        <v>481</v>
       </c>
       <c r="G98" t="s">
-        <v>496</v>
+        <v>555</v>
       </c>
       <c r="H98" t="s">
-        <v>523</v>
+        <v>580</v>
       </c>
       <c r="I98">
-        <v>4.420595407485962</v>
+        <v>4.670513153076172</v>
       </c>
       <c r="J98">
-        <v>9.779171228408813</v>
+        <v>51.39444613456726</v>
       </c>
       <c r="K98">
-        <v>0.109346866607666</v>
+        <v>0.1095273494720459</v>
       </c>
       <c r="L98">
         <v>0.8333333333333334</v>
@@ -6170,37 +6239,34 @@
         <v>210</v>
       </c>
       <c r="D99" t="s">
-        <v>229</v>
+        <v>299</v>
       </c>
       <c r="E99" t="s">
-        <v>284</v>
+        <v>388</v>
       </c>
       <c r="F99" t="s">
-        <v>420</v>
+        <v>482</v>
       </c>
       <c r="G99" t="s">
-        <v>497</v>
-      </c>
-      <c r="H99" t="s">
-        <v>509</v>
+        <v>556</v>
       </c>
       <c r="I99">
-        <v>2.233556985855103</v>
+        <v>3.233361482620239</v>
       </c>
       <c r="J99">
-        <v>25.40150260925293</v>
+        <v>52.05290961265564</v>
       </c>
       <c r="K99">
-        <v>0.1093530654907227</v>
+        <v>0</v>
       </c>
       <c r="L99">
         <v>0.8333333333333334</v>
       </c>
       <c r="M99">
-        <v>1</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="N99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:14">
@@ -6214,22 +6280,22 @@
         <v>211</v>
       </c>
       <c r="D100" t="s">
-        <v>262</v>
+        <v>300</v>
       </c>
       <c r="E100" t="s">
-        <v>317</v>
+        <v>389</v>
       </c>
       <c r="F100" t="s">
-        <v>421</v>
+        <v>483</v>
       </c>
       <c r="G100" t="s">
-        <v>498</v>
+        <v>557</v>
       </c>
       <c r="I100">
-        <v>8.169708967208862</v>
+        <v>6.170129537582397</v>
       </c>
       <c r="J100">
-        <v>52.71230125427246</v>
+        <v>32.04178476333618</v>
       </c>
       <c r="K100">
         <v>0</v>
@@ -6255,37 +6321,37 @@
         <v>212</v>
       </c>
       <c r="D101" t="s">
-        <v>265</v>
+        <v>301</v>
       </c>
       <c r="E101" t="s">
-        <v>320</v>
+        <v>390</v>
       </c>
       <c r="F101" t="s">
-        <v>422</v>
+        <v>484</v>
       </c>
       <c r="G101" t="s">
-        <v>499</v>
+        <v>558</v>
       </c>
       <c r="H101" t="s">
-        <v>537</v>
+        <v>593</v>
       </c>
       <c r="I101">
-        <v>4.170654773712158</v>
+        <v>4.248955488204956</v>
       </c>
       <c r="J101">
-        <v>51.97445845603943</v>
+        <v>30.55994200706482</v>
       </c>
       <c r="K101">
-        <v>0.09372758865356445</v>
+        <v>0.1090900897979736</v>
       </c>
       <c r="L101">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M101">
         <v>1</v>
       </c>
       <c r="N101">
-        <v>0.8888888888888888</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/lod_analysis/excels/tracks_full_evaluation.xlsx
+++ b/lod_analysis/excels/tracks_full_evaluation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="624">
   <si>
     <t>track_id</t>
   </si>
@@ -55,1747 +55,1837 @@
     <t>geonames_completeness</t>
   </si>
   <si>
-    <t>2KfC6tJ8uVW1iY0wIHJttE</t>
-  </si>
-  <si>
-    <t>5nkYHBWXu7KCgcdwP6jcB1</t>
-  </si>
-  <si>
-    <t>4ZhPLoMzZwewHLLjV1J15c</t>
-  </si>
-  <si>
-    <t>0gmbgwZ8iqyMPmXefof8Yf</t>
+    <t>386RUes7n1uM1yfzgeUuwp</t>
+  </si>
+  <si>
+    <t>6kwAbEjseqBob48jCus7Sz</t>
+  </si>
+  <si>
+    <t>2U8g9wVcUu9wsg6i7sFSv8</t>
+  </si>
+  <si>
+    <t>6oO7WMjD6kEvCITLbVj0mu</t>
+  </si>
+  <si>
+    <t>0qgiFuYhYuwtFXEwYakddE</t>
+  </si>
+  <si>
+    <t>4fxF8ljwryMZX5c9EKrLFE</t>
+  </si>
+  <si>
+    <t>69aXQyUnUC0BWgATlSWNB2</t>
+  </si>
+  <si>
+    <t>5LlsD7LdSMkGV4Iu0a2Zq0</t>
+  </si>
+  <si>
+    <t>5YBVDvTSSSiqv7KZDeUlXA</t>
+  </si>
+  <si>
+    <t>5ka2ajep9OAvU5Sgduhiex</t>
+  </si>
+  <si>
+    <t>3q2gRjU2UdOYRDY1p4cNHr</t>
+  </si>
+  <si>
+    <t>2uUqUZtmUHMymhrW9c4gl9</t>
+  </si>
+  <si>
+    <t>1UBQ5GK8JaQjm5VbkBZY66</t>
+  </si>
+  <si>
+    <t>79WrmdVsLbwRTUCiH7cPsa</t>
+  </si>
+  <si>
+    <t>62LJFaYihsdVrrkgUOJC05</t>
+  </si>
+  <si>
+    <t>1pHPpLVH2XEN0xYRoQs4wq</t>
+  </si>
+  <si>
+    <t>7INi4pMPG4IE0Smx5y4KVf</t>
+  </si>
+  <si>
+    <t>51tUT1gHE30GQPhn1agudM</t>
+  </si>
+  <si>
+    <t>70eDxAyAraNTiD6lx2ZEnH</t>
+  </si>
+  <si>
+    <t>600s08VdbjiyAjDGDjYSFI</t>
+  </si>
+  <si>
+    <t>1NCuYqMc8hKMb4cpNTcJbD</t>
+  </si>
+  <si>
+    <t>7o9uu2GDtVDr9nsR7ZRN73</t>
+  </si>
+  <si>
+    <t>6Fba9RZtC6vTY814JToDtP</t>
+  </si>
+  <si>
+    <t>42T2QQv3xgBlpQxaSP7lnK</t>
+  </si>
+  <si>
+    <t>4fixebDZAVToLbUCuEloa2</t>
+  </si>
+  <si>
+    <t>5c5a2Ptu8eyIpljhQHjIqk</t>
+  </si>
+  <si>
+    <t>1zyttisKStIB1UMSU7464i</t>
+  </si>
+  <si>
+    <t>4QNpBfC0zvjKqPJcyqBy9W</t>
+  </si>
+  <si>
+    <t>4I7DV3MIgxJGlObiy9s6nx</t>
+  </si>
+  <si>
+    <t>3ee8Jmje8o58CHK66QrVC2</t>
+  </si>
+  <si>
+    <t>06L9q9IekdCljtRbGJRiDT</t>
+  </si>
+  <si>
+    <t>37CBHPCzV1rizPrxRUyR72</t>
+  </si>
+  <si>
+    <t>7fBv7CLKzipRk6EC6TWHOB</t>
+  </si>
+  <si>
+    <t>0avch3EmDK0tdgtP3Nbz0W</t>
+  </si>
+  <si>
+    <t>5awDvzxWfd53SSrsRZ8pXO</t>
+  </si>
+  <si>
+    <t>3Wu6MhnZuLuzfH5wFC2g9i</t>
+  </si>
+  <si>
+    <t>0DiDStADDVh3SvAsoJAFMk</t>
+  </si>
+  <si>
+    <t>42Lq6GBO5KUSNeSgJsOoke</t>
+  </si>
+  <si>
+    <t>2KVwlelhxKUy8LVV6JypH3</t>
+  </si>
+  <si>
+    <t>60CirPlTOEWOUBus7HxV3B</t>
+  </si>
+  <si>
+    <t>6bVB2MGR7LcotAIB1vfpw6</t>
+  </si>
+  <si>
+    <t>02dRkCEc8Q5ch4TTcnLxOn</t>
+  </si>
+  <si>
+    <t>5r7V1rHEdjJhaAJK0fzuj6</t>
+  </si>
+  <si>
+    <t>1L94M3KIu7QluZe63g64rv</t>
+  </si>
+  <si>
+    <t>7eT3MwJyoIu8Z5dzoiafTY</t>
   </si>
   <si>
     <t>1Lim1Py7xBgbAkAys3AGAG</t>
   </si>
   <si>
-    <t>4JsQkSOE4taeyhH3pv1een</t>
-  </si>
-  <si>
-    <t>7w87IxuO7BDcJ3YUqCyMTT</t>
-  </si>
-  <si>
-    <t>6RQwM7V8963c1WSmvGEoHu</t>
-  </si>
-  <si>
-    <t>5vYA1mW9g2Coh1HUFUSmlb</t>
-  </si>
-  <si>
-    <t>4vh6Rn6FVG4w79JmlZ5p7d</t>
-  </si>
-  <si>
-    <t>6BL4PpswVjH9BAajbIbpmZ</t>
-  </si>
-  <si>
-    <t>19EQUqnUXEeiBrY10JhPEF</t>
-  </si>
-  <si>
-    <t>31MOjWj3CT3dCQsMV2b8Wu</t>
-  </si>
-  <si>
-    <t>1qAuIPMALdFtGv2Ymjy5l0</t>
-  </si>
-  <si>
-    <t>79Mjfhh393dZdAsTvUFDR6</t>
-  </si>
-  <si>
-    <t>7jsYlbbaAzP2VHkLGlfn6r</t>
-  </si>
-  <si>
-    <t>37Tmv4NnfQeb0ZgUC4fOJj</t>
-  </si>
-  <si>
-    <t>0DiWol3AO6WpXZgp0goxAV</t>
-  </si>
-  <si>
-    <t>4kqhpdBNKywstQpWMnEglC</t>
-  </si>
-  <si>
-    <t>2KVwlelhxKUy8LVV6JypH3</t>
-  </si>
-  <si>
-    <t>70wYA8oYHoMzhRRkARoMhU</t>
-  </si>
-  <si>
-    <t>1jlG3KJ3gdYmhfuySFfpO1</t>
-  </si>
-  <si>
-    <t>1gSlQuSbQZi19fxLzNPykE</t>
-  </si>
-  <si>
-    <t>2bz4DTZlejfsUt8bzFCvEp</t>
-  </si>
-  <si>
-    <t>10fG8XZzqbug8Zvotej6uH</t>
-  </si>
-  <si>
-    <t>4ECNtOnqzxutZkXP4TE3n3</t>
-  </si>
-  <si>
-    <t>4T5FghRJeDw5yqNe3N9XwX</t>
-  </si>
-  <si>
-    <t>2avaSeKHI5l4sLruVfLdi2</t>
-  </si>
-  <si>
-    <t>70eDxAyAraNTiD6lx2ZEnH</t>
-  </si>
-  <si>
-    <t>4LrOmj6MoxMdCLf2zJnkq0</t>
-  </si>
-  <si>
-    <t>0ZB666fj4Ws5RY0AMi9s5q</t>
-  </si>
-  <si>
-    <t>4EDazAWt83s5ewg3Sfgi0K</t>
-  </si>
-  <si>
-    <t>24tO365YW6lcZr1hN4Ukzj</t>
-  </si>
-  <si>
-    <t>0GFnQ4BNnUbZEw2KJJREwP</t>
-  </si>
-  <si>
-    <t>5tJjo5JDF9zhzYD7yQfATH</t>
-  </si>
-  <si>
-    <t>38iU2jg98IZZEIJPrP7aWD</t>
-  </si>
-  <si>
-    <t>1XnPVbzLhuBv0sHaCTgyoi</t>
-  </si>
-  <si>
-    <t>39cmB3ZoTOLwOTq7tMNqKa</t>
-  </si>
-  <si>
-    <t>5sFDReWLrZHLFZFjHsjUTS</t>
-  </si>
-  <si>
-    <t>1hlveB9M6ijHZRbzZ2teyh</t>
-  </si>
-  <si>
-    <t>5YBVDvTSSSiqv7KZDeUlXA</t>
-  </si>
-  <si>
-    <t>2OUPrMbmZwyN38ZRHZNJEF</t>
-  </si>
-  <si>
-    <t>5Rizj5FLb2AyNKu9esjYY6</t>
-  </si>
-  <si>
-    <t>3XorCFmcupSm5QS6hA9g4N</t>
-  </si>
-  <si>
-    <t>1H5VQuShs4qfwBXyHF0PeH</t>
-  </si>
-  <si>
-    <t>51NFxnQvaosfDDutk0tams</t>
-  </si>
-  <si>
-    <t>1zyttisKStIB1UMSU7464i</t>
-  </si>
-  <si>
-    <t>5pIqZXPYPgaDvY60zuXPKB</t>
-  </si>
-  <si>
-    <t>0b8eSsBka9epA2J0wnPMax</t>
+    <t>2U8NXPTXZWG2O0ye2sYRiH</t>
+  </si>
+  <si>
+    <t>711CvIwVnn92duhbWuclnz</t>
+  </si>
+  <si>
+    <t>2avKuMN2QXkaG9vvHa2JLt</t>
+  </si>
+  <si>
+    <t>7hTUp0OUiXFr4VOzfbBZ2k</t>
+  </si>
+  <si>
+    <t>0JP9xo3adEtGSdUEISiszL</t>
+  </si>
+  <si>
+    <t>5F9Pe2Tg20NRi8N4cHHXUD</t>
+  </si>
+  <si>
+    <t>4hEl2wrneFEJbJ6SDYWd2f</t>
+  </si>
+  <si>
+    <t>1ff8lsrJ2kuZuofMw81EQo</t>
+  </si>
+  <si>
+    <t>01z3wyn02forxUQHEDAa0R</t>
+  </si>
+  <si>
+    <t>7Mw1svSngAwEaKFDjgxdiT</t>
+  </si>
+  <si>
+    <t>1MvJno497VkQR3RsiJcRVm</t>
+  </si>
+  <si>
+    <t>47BBI51FKFwOMlIiX6m8ya</t>
+  </si>
+  <si>
+    <t>0nQLxiNGbbUoSGrxksETLm</t>
+  </si>
+  <si>
+    <t>0ZUo4YjG4saFnEJhdWp9Bt</t>
+  </si>
+  <si>
+    <t>4cUSgvW6wlxqzzxE3P4voV</t>
+  </si>
+  <si>
+    <t>4jMEymCdvlhqCYZdzLO0JM</t>
+  </si>
+  <si>
+    <t>2olVm1lHicpveMAo4AUDRB</t>
+  </si>
+  <si>
+    <t>6qn9YLKt13AGvpq9jfO8py</t>
+  </si>
+  <si>
+    <t>0KM2y796j63t5RHhvRUxld</t>
   </si>
   <si>
     <t>1ns0Yzakb3Q7rGTrEDDyrs</t>
   </si>
   <si>
-    <t>5mkGfmJGFZpwK9nA5amOhv</t>
-  </si>
-  <si>
-    <t>1FreAz1lmnDi5aKLB6GdFM</t>
-  </si>
-  <si>
-    <t>2OZyDYkNED6mIDi8RXLnWy</t>
-  </si>
-  <si>
-    <t>3EYOJ48Et32uATr9ZmLnAo</t>
-  </si>
-  <si>
-    <t>1Qdnvn4XlmZANCVy3XjrQo</t>
+    <t>1sUTfgduT0WIQO8kXKXxLC</t>
+  </si>
+  <si>
+    <t>12uZzPLGpbjC64huvqynp3</t>
+  </si>
+  <si>
+    <t>7j31rVgGX9Q2blT92VBEA0</t>
+  </si>
+  <si>
+    <t>75IN3CtuZwTHTnZvYM4qnJ</t>
+  </si>
+  <si>
+    <t>4W4wYHtsrgDiivRASVOINL</t>
+  </si>
+  <si>
+    <t>1I8tHoNBFTuoJAlh4hfVVE</t>
+  </si>
+  <si>
+    <t>6IVlHRrjTKep5SS9kbcpTa</t>
+  </si>
+  <si>
+    <t>6nTiIhLmQ3FWhvrGafw2zj</t>
+  </si>
+  <si>
+    <t>4KcH1ZRV2W1q7Flq0QqC76</t>
+  </si>
+  <si>
+    <t>1PhLYngBKbeDtdmDzCg3Pb</t>
+  </si>
+  <si>
+    <t>5JKQMoGmXwDHCodn5pFVHB</t>
+  </si>
+  <si>
+    <t>0ByMNEPAPpOR5H69DVrTNy</t>
+  </si>
+  <si>
+    <t>3LMpZcOhaz2CUX5rfoCNRs</t>
+  </si>
+  <si>
+    <t>06DSI8L6IT8SizCw3JLckz</t>
+  </si>
+  <si>
+    <t>209NkbzmsUa9pAobU7xGyf</t>
+  </si>
+  <si>
+    <t>4wsQGsdf8D0Bj26cGdvreB</t>
+  </si>
+  <si>
+    <t>6YUTL4dYpB9xZO5qExPf05</t>
+  </si>
+  <si>
+    <t>44aTAUBF0g6sMkMNE8I5kd</t>
+  </si>
+  <si>
+    <t>6lV2MSQmRIkycDScNtrBXO</t>
+  </si>
+  <si>
+    <t>2kWowW0k4oFymhkr7LmvzO</t>
   </si>
   <si>
     <t>1DSJNBNhGZCigg9ll5VeZv</t>
   </si>
   <si>
-    <t>4fPBB44eDH71YohayI4eKV</t>
-  </si>
-  <si>
-    <t>4DK3pOmJuIy5ffgIGv0n2S</t>
-  </si>
-  <si>
-    <t>5owYkKbJ6GCbwxWsCuwxlw</t>
-  </si>
-  <si>
-    <t>1Jwc3ODLQxtbnS8M9TflSP</t>
-  </si>
-  <si>
-    <t>7FRfYOql61DGDp9VPPe2qA</t>
-  </si>
-  <si>
-    <t>3F9ByoUqu31xU0I3G5xfVg</t>
-  </si>
-  <si>
-    <t>4UkFGZRYW2f8fJyfHjDvQ6</t>
-  </si>
-  <si>
-    <t>08EQmyBYYSY4T3fxkT68DD</t>
-  </si>
-  <si>
-    <t>4jLv3tDBu8ww2R07DvL12s</t>
-  </si>
-  <si>
-    <t>1uI848raFaNWwe9HjHpjQ5</t>
-  </si>
-  <si>
-    <t>2SDx0PooHZI1SQKR0y44bs</t>
-  </si>
-  <si>
-    <t>1UMOMWyrEb4sksM4aKvYUD</t>
-  </si>
-  <si>
-    <t>6hLY3Tz1Xt5kBuKNDTs4ib</t>
-  </si>
-  <si>
-    <t>01TnVDiet1DFTsyWKUKovl</t>
-  </si>
-  <si>
-    <t>60CirPlTOEWOUBus7HxV3B</t>
-  </si>
-  <si>
-    <t>5lMRS9GFQYfxhflty2E1ad</t>
-  </si>
-  <si>
-    <t>06DSI8L6IT8SizCw3JLckz</t>
-  </si>
-  <si>
-    <t>1Ufo21GZPczg3urVKqTgbY</t>
-  </si>
-  <si>
-    <t>2nLtzopw4rPReszdYBJU6h</t>
-  </si>
-  <si>
-    <t>0FDzzruyVECATHXKHFs9eJ</t>
-  </si>
-  <si>
-    <t>1mv4lh1rW1K6xhxhJmEezy</t>
-  </si>
-  <si>
-    <t>6aXXRWmvS4ADppYhwBFZtz</t>
-  </si>
-  <si>
-    <t>3zHq9ouUJQFQRf3cm1rRLu</t>
-  </si>
-  <si>
-    <t>3MRQ3CSjoiV1HFil8ykM9M</t>
-  </si>
-  <si>
-    <t>3cbV252akVZInSvJk7jAYX</t>
-  </si>
-  <si>
-    <t>1jJci4qxiYcOHhQR247rEU</t>
-  </si>
-  <si>
-    <t>5619Ojc6t9evEEs3B7Drhe</t>
-  </si>
-  <si>
-    <t>5ugDs4mmPzTRB8UdFjbd6L</t>
-  </si>
-  <si>
-    <t>6TMEL7vpevM8hwGi8okKqp</t>
-  </si>
-  <si>
-    <t>2qT1uLXPVPzGgFOx4jtEuo</t>
-  </si>
-  <si>
-    <t>3wpLkju0bJy89kjgdRys0j</t>
-  </si>
-  <si>
-    <t>77LQUpjQXMSXyePkTOi7qg</t>
-  </si>
-  <si>
-    <t>23OXdR7YuUBVWh5hSnYJau</t>
-  </si>
-  <si>
-    <t>6RF2pjhe1jf67HnvNZhyOb</t>
-  </si>
-  <si>
-    <t>6vKyAKGZRwud0mmLf2KuKi</t>
-  </si>
-  <si>
-    <t>3DamFFqW32WihKkTVlwTYQ</t>
-  </si>
-  <si>
-    <t>0ARK753YaiJbpLUk7z5yIM</t>
-  </si>
-  <si>
-    <t>0DrFTaAX2srXPkuag35djb</t>
-  </si>
-  <si>
-    <t>3Skwc4sh1QHUGcWrFBFWSF</t>
+    <t>4Dm32oO01YpIubCHaAtKkN</t>
+  </si>
+  <si>
+    <t>2lhkUpzW04NeYEicwePekH</t>
+  </si>
+  <si>
+    <t>3CMVjlbvNJMHDfYPX7xCpi</t>
+  </si>
+  <si>
+    <t>4EiCpgEN2FawFphGii0SQI</t>
+  </si>
+  <si>
+    <t>1H5tvpoApNDxvxDexoaAUo</t>
+  </si>
+  <si>
+    <t>78TTtXnFQPzwqlbtbwqN0y</t>
   </si>
   <si>
     <t>2Ms33RTRCT6gArrpcrPxmo</t>
   </si>
   <si>
-    <t>6u0x5ad9ewHvs3z6u9Oe3c</t>
-  </si>
-  <si>
-    <t>5ka2ajep9OAvU5Sgduhiex</t>
-  </si>
-  <si>
-    <t>1CkvWZme3pRgbzaxZnTl5X</t>
-  </si>
-  <si>
-    <t>5c5a2Ptu8eyIpljhQHjIqk</t>
-  </si>
-  <si>
-    <t>Dead End in Tokyo</t>
-  </si>
-  <si>
-    <t>What I Got</t>
-  </si>
-  <si>
-    <t>99 Luftballons</t>
-  </si>
-  <si>
-    <t>How You Remind Me</t>
+    <t>22UDw8rSfLbUsaAGTXQ4Z8</t>
+  </si>
+  <si>
+    <t>4VqPOruhp5EdPBeR92t6lQ</t>
+  </si>
+  <si>
+    <t>1HOMkjp0nHMaTnfAkslCQj</t>
+  </si>
+  <si>
+    <t>0Qv7xi6uPSqH2k82tOkGSt</t>
+  </si>
+  <si>
+    <t>086myS9r57YsLbJpU0TgK9</t>
+  </si>
+  <si>
+    <t>0SLtqCrXBRrnkxSOMA3X4W</t>
+  </si>
+  <si>
+    <t>The Lazy Song</t>
+  </si>
+  <si>
+    <t>Elastic Heart</t>
+  </si>
+  <si>
+    <t>Every Teardrop Is a Waterfall</t>
+  </si>
+  <si>
+    <t>Hypnotize</t>
+  </si>
+  <si>
+    <t>I Will Survive</t>
+  </si>
+  <si>
+    <t>Boombastic</t>
+  </si>
+  <si>
+    <t>Transmission</t>
+  </si>
+  <si>
+    <t>Waste A Moment</t>
+  </si>
+  <si>
+    <t>Renegades Of Funk</t>
+  </si>
+  <si>
+    <t>Applause</t>
+  </si>
+  <si>
+    <t>It Must Be Love</t>
+  </si>
+  <si>
+    <t>She's Got Issues</t>
+  </si>
+  <si>
+    <t>Sharp Dressed Man - 2008 Remaster</t>
+  </si>
+  <si>
+    <t>Missing - 2013 Remaster</t>
+  </si>
+  <si>
+    <t>Kiss</t>
+  </si>
+  <si>
+    <t>Word Up!</t>
+  </si>
+  <si>
+    <t>Easy Lover</t>
+  </si>
+  <si>
+    <t>Hideaway</t>
+  </si>
+  <si>
+    <t>Ex's &amp; Oh's</t>
+  </si>
+  <si>
+    <t>Interstate Love Song</t>
+  </si>
+  <si>
+    <t>Another Day in Paradise - 2016 Remaster</t>
+  </si>
+  <si>
+    <t>Time After Time</t>
+  </si>
+  <si>
+    <t>Jump</t>
+  </si>
+  <si>
+    <t>One Last Breath</t>
+  </si>
+  <si>
+    <t>Womanizer</t>
+  </si>
+  <si>
+    <t>Ain't No Rest For The Wicked - Original Version</t>
+  </si>
+  <si>
+    <t>Boogie Wonderland (with The Emotions)</t>
+  </si>
+  <si>
+    <t>Give Me Everything (feat. Ne-Yo, Afrojack &amp; Nayer)</t>
+  </si>
+  <si>
+    <t>That Don't Impress Me Much</t>
+  </si>
+  <si>
+    <t>SAD!</t>
+  </si>
+  <si>
+    <t>Shout</t>
+  </si>
+  <si>
+    <t>No You Girls</t>
+  </si>
+  <si>
+    <t>The Hills</t>
+  </si>
+  <si>
+    <t>Justify</t>
+  </si>
+  <si>
+    <t>Du hast</t>
+  </si>
+  <si>
+    <t>Breezeblocks</t>
+  </si>
+  <si>
+    <t>Only Human</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Push</t>
+  </si>
+  <si>
+    <t>Radioactive</t>
+  </si>
+  <si>
+    <t>Ava Adore</t>
+  </si>
+  <si>
+    <t>Nothing Breaks Like a Heart (feat. Miley Cyrus)</t>
+  </si>
+  <si>
+    <t>Video Killed The Radio Star</t>
+  </si>
+  <si>
+    <t>Alive</t>
+  </si>
+  <si>
+    <t>Hey Baby</t>
   </si>
   <si>
     <t>Lean On</t>
   </si>
   <si>
-    <t>Self Control</t>
-  </si>
-  <si>
-    <t>Pumped Up Kicks</t>
-  </si>
-  <si>
-    <t>Tubthumping</t>
-  </si>
-  <si>
-    <t>3AM</t>
-  </si>
-  <si>
-    <t>Got To Keep On</t>
-  </si>
-  <si>
-    <t>Tomorrow Comes Today</t>
-  </si>
-  <si>
-    <t>It's My Life</t>
-  </si>
-  <si>
-    <t>Blue Monday '88</t>
-  </si>
-  <si>
-    <t>MONSTERS</t>
-  </si>
-  <si>
-    <t>Don't Go Breaking My Heart</t>
-  </si>
-  <si>
-    <t>Look at Me</t>
-  </si>
-  <si>
-    <t>Sultans Of Swing</t>
-  </si>
-  <si>
-    <t>One More Time</t>
-  </si>
-  <si>
-    <t>Don't Tell Me</t>
-  </si>
-  <si>
-    <t>Push</t>
-  </si>
-  <si>
-    <t>When You Were Young</t>
-  </si>
-  <si>
-    <t>I'm with You</t>
-  </si>
-  <si>
-    <t>A Thousand Miles</t>
-  </si>
-  <si>
-    <t>Hey Mama</t>
-  </si>
-  <si>
-    <t>Sunday Morning</t>
-  </si>
-  <si>
-    <t>Separate Ways (Worlds Apart)</t>
-  </si>
-  <si>
-    <t>Children - Edit Version</t>
-  </si>
-  <si>
-    <t>Burning Heart - From "Rocky IV" Soundtrack</t>
-  </si>
-  <si>
-    <t>Ex's &amp; Oh's</t>
-  </si>
-  <si>
-    <t>Murder On the Dance Floor</t>
-  </si>
-  <si>
-    <t>Kingston Town</t>
-  </si>
-  <si>
-    <t>Something Good Can Work</t>
-  </si>
-  <si>
-    <t>Tomorrow</t>
-  </si>
-  <si>
-    <t>Smack My Bitch Up (edit)</t>
-  </si>
-  <si>
-    <t>Africa</t>
-  </si>
-  <si>
-    <t>Till the World Ends</t>
-  </si>
-  <si>
-    <t>The Man Who Sold The World - Live Version</t>
-  </si>
-  <si>
-    <t>Hear Me Now (feat. Zeeba)</t>
-  </si>
-  <si>
-    <t>Would?</t>
-  </si>
-  <si>
-    <t>We're Not Gonna Take It</t>
-  </si>
-  <si>
-    <t>Renegades Of Funk</t>
-  </si>
-  <si>
-    <t>Woke Up This Morning - Chosen One Mix</t>
-  </si>
-  <si>
-    <t>Rape Me</t>
-  </si>
-  <si>
-    <t>I Want You</t>
-  </si>
-  <si>
-    <t>Narcotic - Radio Edit</t>
-  </si>
-  <si>
-    <t>bellyache</t>
-  </si>
-  <si>
-    <t>Boogie Wonderland (with The Emotions)</t>
-  </si>
-  <si>
-    <t>Fadeaway</t>
-  </si>
-  <si>
-    <t>You Belong To The City</t>
+    <t>I Love It (feat. Charli XCX)</t>
+  </si>
+  <si>
+    <t>Tick Tick Boom</t>
+  </si>
+  <si>
+    <t>Take A Look Around</t>
+  </si>
+  <si>
+    <t>Ninja Rap</t>
+  </si>
+  <si>
+    <t>Moonlight</t>
+  </si>
+  <si>
+    <t>Cash Machine</t>
+  </si>
+  <si>
+    <t>Not Afraid</t>
+  </si>
+  <si>
+    <t>Save a Prayer - 2009 Remaster</t>
+  </si>
+  <si>
+    <t>What's This Life For</t>
+  </si>
+  <si>
+    <t>One Click Headshot - Original Mix</t>
+  </si>
+  <si>
+    <t>Are You In?</t>
+  </si>
+  <si>
+    <t>I Want It That Way</t>
+  </si>
+  <si>
+    <t>The Power</t>
+  </si>
+  <si>
+    <t>Before He Cheats</t>
+  </si>
+  <si>
+    <t>Holiday</t>
+  </si>
+  <si>
+    <t>Analyse</t>
+  </si>
+  <si>
+    <t>The Power Of Love</t>
+  </si>
+  <si>
+    <t>We Found Love</t>
+  </si>
+  <si>
+    <t>Relax, Take It Easy</t>
   </si>
   <si>
     <t>Why Can't I Be You?</t>
   </si>
   <si>
-    <t>Sex &amp; Candy</t>
-  </si>
-  <si>
-    <t>Where Is The Love?</t>
-  </si>
-  <si>
-    <t>Kokomo</t>
-  </si>
-  <si>
-    <t>Roxanne</t>
-  </si>
-  <si>
-    <t>Show Me How to Live</t>
+    <t>Blaze Of Glory - From "Young Guns II" Soundtrack</t>
+  </si>
+  <si>
+    <t>Nobody's Diary - 2008 Remaster</t>
+  </si>
+  <si>
+    <t>Teenagers</t>
+  </si>
+  <si>
+    <t>My Name Is</t>
+  </si>
+  <si>
+    <t>Love Shack</t>
+  </si>
+  <si>
+    <t>Firestone</t>
+  </si>
+  <si>
+    <t>This Is The Last Time</t>
+  </si>
+  <si>
+    <t>American Idiot</t>
+  </si>
+  <si>
+    <t>Blitzkrieg Bop - 2016 Remaster</t>
+  </si>
+  <si>
+    <t>Sad But True</t>
+  </si>
+  <si>
+    <t>Pink Houses</t>
+  </si>
+  <si>
+    <t>Don't Stop The Music</t>
+  </si>
+  <si>
+    <t>Anthem for the Year 2000</t>
+  </si>
+  <si>
+    <t>Cantaloop (Flip Fantasia)</t>
+  </si>
+  <si>
+    <t>Born This Way</t>
+  </si>
+  <si>
+    <t>She</t>
+  </si>
+  <si>
+    <t>Summer</t>
+  </si>
+  <si>
+    <t>Every Little Thing She Does Is Magic</t>
+  </si>
+  <si>
+    <t>Airplanes (feat. Hayley Williams of Paramore)</t>
+  </si>
+  <si>
+    <t>Come with Me Now</t>
   </si>
   <si>
     <t>(You Drive Me) Crazy</t>
   </si>
   <si>
-    <t>You Only Live Once</t>
-  </si>
-  <si>
-    <t>Paradise</t>
-  </si>
-  <si>
-    <t>Is There Something I Should Know?</t>
-  </si>
-  <si>
-    <t>Walk Like an Egyptian</t>
-  </si>
-  <si>
-    <t>Down In A Hole</t>
-  </si>
-  <si>
-    <t>Meet Me Halfway</t>
-  </si>
-  <si>
-    <t>Everything Counts</t>
-  </si>
-  <si>
-    <t>Baker Street - Edit</t>
-  </si>
-  <si>
-    <t>Man On The Moon</t>
-  </si>
-  <si>
-    <t>Boys - Summertime Love</t>
-  </si>
-  <si>
-    <t>Grace Kelly</t>
-  </si>
-  <si>
-    <t>Fast Car - 2015 Remaster</t>
-  </si>
-  <si>
-    <t>Free As A Bird - Anthology 1 Version</t>
-  </si>
-  <si>
-    <t>NUMB</t>
-  </si>
-  <si>
-    <t>Radioactive</t>
-  </si>
-  <si>
-    <t>Send Me An Angel '89</t>
-  </si>
-  <si>
-    <t>Cantaloop (Flip Fantasia)</t>
-  </si>
-  <si>
-    <t>Real Wild Child (Wild One)</t>
-  </si>
-  <si>
-    <t>Numb</t>
-  </si>
-  <si>
-    <t>A Sky Full of Stars</t>
-  </si>
-  <si>
-    <t>Music Sounds Better With You - Radio Edit</t>
-  </si>
-  <si>
-    <t>Sliver</t>
-  </si>
-  <si>
-    <t>Love Me Like You Do - From "Fifty Shades Of Grey"</t>
-  </si>
-  <si>
-    <t>I Still Haven't Found What I'm Looking For - Remastered 2007</t>
-  </si>
-  <si>
-    <t>Flashdance...What a Feeling - Radio Edit</t>
-  </si>
-  <si>
-    <t>Kids</t>
-  </si>
-  <si>
-    <t>Shake It</t>
-  </si>
-  <si>
-    <t>Drive</t>
-  </si>
-  <si>
-    <t>Tonight Is The Night I Die</t>
-  </si>
-  <si>
-    <t>no tears left to cry</t>
-  </si>
-  <si>
-    <t>September</t>
-  </si>
-  <si>
-    <t>Rain Over Me (feat. Marc Anthony)</t>
-  </si>
-  <si>
-    <t>Chlorine</t>
-  </si>
-  <si>
-    <t>Smooth Criminal</t>
-  </si>
-  <si>
-    <t>Monkey Gone To Heaven</t>
-  </si>
-  <si>
-    <t>Fireflies</t>
-  </si>
-  <si>
-    <t>Dilemma</t>
-  </si>
-  <si>
-    <t>Nice To Meet Ya</t>
-  </si>
-  <si>
-    <t>Joyride - Single Version</t>
+    <t>My Life Would Suck Without You</t>
+  </si>
+  <si>
+    <t>Everybody Get Up - Radio Mix</t>
+  </si>
+  <si>
+    <t>It's Oh So Quiet</t>
+  </si>
+  <si>
+    <t>A Small Victory</t>
+  </si>
+  <si>
+    <t>Who Let The Dogs Out</t>
+  </si>
+  <si>
+    <t>FourFiveSeconds</t>
   </si>
   <si>
     <t>Feel</t>
   </si>
   <si>
-    <t>Under Cover of Darkness</t>
-  </si>
-  <si>
-    <t>Applause</t>
-  </si>
-  <si>
-    <t>Rolling in the Deep</t>
-  </si>
-  <si>
-    <t>Ain't No Rest For The Wicked - Original Version</t>
-  </si>
-  <si>
-    <t>3NTbOmzlj2cL86XFuDVFvZ</t>
-  </si>
-  <si>
-    <t>0EdvGhlC1FkGItLOWQzG4J</t>
-  </si>
-  <si>
-    <t>6Tz0QRoe083BcOo2YbG9lV</t>
-  </si>
-  <si>
-    <t>6deZN1bslXzeGvOLaLMOIF</t>
+    <t>American Boy</t>
+  </si>
+  <si>
+    <t>Uprising</t>
+  </si>
+  <si>
+    <t>My Sharona</t>
+  </si>
+  <si>
+    <t>Mad World</t>
+  </si>
+  <si>
+    <t>Why'd You Only Call Me When You're High?</t>
+  </si>
+  <si>
+    <t>Let Me Entertain You</t>
+  </si>
+  <si>
+    <t>0du5cEVh5yTK9QJze8zA0C</t>
+  </si>
+  <si>
+    <t>5WUlDfRSoLAfcVSX1WnrxN</t>
+  </si>
+  <si>
+    <t>4gzpq5DPGxSnKTe4SA8HAU</t>
+  </si>
+  <si>
+    <t>5eAWCfyUhZtHHtBdNk56l1</t>
+  </si>
+  <si>
+    <t>6A43Djmhbe9100UwnI7epV</t>
+  </si>
+  <si>
+    <t>5EvFsr3kj42KNv97ZEnqij</t>
+  </si>
+  <si>
+    <t>432R46LaYsJZV2Gmc4jUV5</t>
+  </si>
+  <si>
+    <t>2qk9voo8llSGYcZ6xrBzKx</t>
+  </si>
+  <si>
+    <t>2d0hyoQ5ynDBnkvAbJKORj</t>
+  </si>
+  <si>
+    <t>1HY2Jd0NmPuamShAr6KMms</t>
+  </si>
+  <si>
+    <t>4AYkFtEBnNnGuoo8HaHErd</t>
+  </si>
+  <si>
+    <t>5LfGQac0EIXyAN8aUwmNAQ</t>
+  </si>
+  <si>
+    <t>2AM4ilv6UzW0uMRuqKtDgN</t>
+  </si>
+  <si>
+    <t>13ccXrK7AmXb4TddMkE7jy</t>
+  </si>
+  <si>
+    <t>5a2EaR3hamoenG9rDuVn8j</t>
+  </si>
+  <si>
+    <t>3RNrq3jvMZxD9ZyoOZbQOD</t>
+  </si>
+  <si>
+    <t>6ZNeppgfBLPUyugks9Yn1u</t>
+  </si>
+  <si>
+    <t>4zxvC7CRGvggq9EWXOpwAo</t>
+  </si>
+  <si>
+    <t>3bhu7P5PfngueRHiB9hjcx</t>
+  </si>
+  <si>
+    <t>2UazAtjfzqBF0Nho2awK4z</t>
+  </si>
+  <si>
+    <t>4lxfqrEsLX6N1N4OCSkILp</t>
+  </si>
+  <si>
+    <t>2BTZIqw0ntH9MvilQ3ewNY</t>
+  </si>
+  <si>
+    <t>2cnMpRsOVqtPMfq7YiFE6K</t>
+  </si>
+  <si>
+    <t>43sZBwHjahUvgbx1WNIkIz</t>
+  </si>
+  <si>
+    <t>26dSoYclwsYLMAKD3tpOr4</t>
+  </si>
+  <si>
+    <t>26T3LtbuGT1Fu9m0eRq5X3</t>
+  </si>
+  <si>
+    <t>4QQgXkCYTt3BlENzhyNETg</t>
+  </si>
+  <si>
+    <t>0TnOYISbd1XYRBk9myaseg</t>
+  </si>
+  <si>
+    <t>5e4Dhzv426EvQe3aDb64jL</t>
+  </si>
+  <si>
+    <t>15UsOTVnJzReFVN1VCnxy4</t>
+  </si>
+  <si>
+    <t>4bthk9UfsYUYdcFyqxmSUU</t>
+  </si>
+  <si>
+    <t>0XNa1vTidXlvJ2gHSsRi4A</t>
+  </si>
+  <si>
+    <t>1Xyo4u8uXC1ZmMpatF05PJ</t>
+  </si>
+  <si>
+    <t>76ptJV8617638xrpeoUtzl</t>
+  </si>
+  <si>
+    <t>6wWVKhxIU2cEi0K81v7HvP</t>
+  </si>
+  <si>
+    <t>3XHO7cRUPCLOr6jwp8vsx5</t>
+  </si>
+  <si>
+    <t>7gOdHgIoIKoe4i9Tta6qdD</t>
+  </si>
+  <si>
+    <t>3Ngh2zDBRPEriyxQDAMKd1</t>
+  </si>
+  <si>
+    <t>40Yq4vzPs9VNUrIBG5Jr2i</t>
+  </si>
+  <si>
+    <t>3hv9jJF3adDNsBSIQDqcjp</t>
+  </si>
+  <si>
+    <t>057gc1fxmJ2vkctjQJ7Tal</t>
+  </si>
+  <si>
+    <t>1w5Kfo2jwwIPruYS2UWh56</t>
+  </si>
+  <si>
+    <t>0cQbJU1aAzvbEmTuljWLlF</t>
   </si>
   <si>
     <t>738wLrAtLtCtFOLvQBXOXp</t>
   </si>
   <si>
-    <t>4463nfFMmK1cwAWBQDwT5e</t>
-  </si>
-  <si>
-    <t>7gP3bB2nilZXLfPHJhMdvc</t>
-  </si>
-  <si>
-    <t>0TcYeHEK9sBtv7xPbKhzHz</t>
-  </si>
-  <si>
-    <t>3Ngh2zDBRPEriyxQDAMKd1</t>
-  </si>
-  <si>
-    <t>1GhPHrq36VKCY3ucVaZCfo</t>
-  </si>
-  <si>
-    <t>3AA28KZvwAUcZuOKwyblJQ</t>
-  </si>
-  <si>
-    <t>0cQbJU1aAzvbEmTuljWLlF</t>
-  </si>
-  <si>
-    <t>0yNLKJebCb8Aueb54LYya3</t>
-  </si>
-  <si>
-    <t>70BYFdaZbEKbeauJ670ysI</t>
+    <t>1VBflYyxBhnDc9uVib98rw</t>
+  </si>
+  <si>
+    <t>4DToQR3aKrHQSSRzSz8Nzt</t>
+  </si>
+  <si>
+    <t>165ZgPlLkK7bf5bDoFc6Sb</t>
+  </si>
+  <si>
+    <t>7GXXMm3DB1VswVcuGyInUd</t>
+  </si>
+  <si>
+    <t>14Gi3Uph96lpNB3utkoVAD</t>
+  </si>
+  <si>
+    <t>7dGJo4pcD2V6oG8kP0tJRR</t>
+  </si>
+  <si>
+    <t>0lZoBs4Pzo7R89JM9lxwoT</t>
+  </si>
+  <si>
+    <t>5FWi1mowu6uiU2ZHwr1rby</t>
+  </si>
+  <si>
+    <t>3YcBF2ttyueytpXtEzn1Za</t>
   </si>
   <si>
     <t>5rSXSAkZ67PYJSvpUpkOr7</t>
   </si>
   <si>
-    <t>5orH1OWgjAYUX8sZ5gihTv</t>
-  </si>
-  <si>
-    <t>0WwSkZ7LtFUFjGjMZBMt6T</t>
-  </si>
-  <si>
-    <t>4tZwfgrHOc3mvqYlEYSvVi</t>
-  </si>
-  <si>
-    <t>2cnMpRsOVqtPMfq7YiFE6K</t>
-  </si>
-  <si>
-    <t>0C0XlULifJtAgn6ZNCW2eu</t>
-  </si>
-  <si>
-    <t>0p4nmQO2msCgU4IF37Wi3j</t>
-  </si>
-  <si>
-    <t>5ILrArfIV0tMURcHJN8Q07</t>
-  </si>
-  <si>
-    <t>1yxSLGMDHlW21z4YXirZDS</t>
-  </si>
-  <si>
-    <t>0rvjqX7ttXeg3mTy8Xscbt</t>
-  </si>
-  <si>
-    <t>39oSLGo3HkaeYXzUEGgAGQ</t>
-  </si>
-  <si>
-    <t>26bcq2nyj5GB7uRr558iQg</t>
-  </si>
-  <si>
-    <t>3bhu7P5PfngueRHiB9hjcx</t>
-  </si>
-  <si>
-    <t>2cBh5lVMg222FFuRU7EfDE</t>
-  </si>
-  <si>
-    <t>69MEO1AADKg1IZrq2XLzo5</t>
-  </si>
-  <si>
-    <t>536BYVgOnRky0xjsPT96zl</t>
+    <t>2FrKQPjJe4pVMZOgm0ESOx</t>
+  </si>
+  <si>
+    <t>4xFUf1FHVy696Q1JQZMTRj</t>
+  </si>
+  <si>
+    <t>6tbjWDEIzxoDsBA1FuhfPW</t>
+  </si>
+  <si>
+    <t>7t0rwkOPGlDPEhaOcVtOt9</t>
+  </si>
+  <si>
+    <t>7A9yZMTrFZcgEWAX2kBfK6</t>
+  </si>
+  <si>
+    <t>5pKCCKE2ajJHZ9KAiaK11H</t>
+  </si>
+  <si>
+    <t>5MmVJVhhYKQ86izuGHzJYA</t>
+  </si>
+  <si>
+    <t>7bu3H8JO7d0UbMoVzbo70s</t>
+  </si>
+  <si>
+    <t>6h2bWHWTJL38N8dqocVaif</t>
+  </si>
+  <si>
+    <t>1G1mX30GpUJqOr1QU2eBSs</t>
+  </si>
+  <si>
+    <t>7FBcuc1gsnv6Y1nwFtNRCb</t>
+  </si>
+  <si>
+    <t>3gdbcIdNypBsYNu3iiCjtN</t>
+  </si>
+  <si>
+    <t>23fqKkggKUBHNkbKtXEls4</t>
+  </si>
+  <si>
+    <t>53A0W3U0s8diEn9RhXQhVz</t>
+  </si>
+  <si>
+    <t>7oPftvlwr6VrsViSDV7fJY</t>
+  </si>
+  <si>
+    <t>1co4F2pPNH8JjTutZkmgSm</t>
+  </si>
+  <si>
+    <t>2ye2Wgw4gimLv2eAKyk1NB</t>
+  </si>
+  <si>
+    <t>3lPQ2Fk5JOwGWAF3ORFCqH</t>
   </si>
   <si>
     <t>4iudEcmuPlYNdbP3e1bdn1</t>
   </si>
   <si>
-    <t>4k1ELeJKT1ISyDv8JivPpB</t>
-  </si>
-  <si>
-    <t>0PFtn5NtBbbUNbU9EAmIWF</t>
-  </si>
-  <si>
-    <t>26dSoYclwsYLMAKD3tpOr4</t>
-  </si>
-  <si>
-    <t>6olE6TJLqED3rqDCT0FyPh</t>
-  </si>
-  <si>
-    <t>0NGAZxHanS9e0iNHpR8f2W</t>
-  </si>
-  <si>
-    <t>64tNsm6TnZe2zpcMVMOoHL</t>
-  </si>
-  <si>
-    <t>7b85ve82Sh36a3UAx74wut</t>
-  </si>
-  <si>
-    <t>2d0hyoQ5ynDBnkvAbJKORj</t>
-  </si>
-  <si>
-    <t>25zUD40u8M2kJmdcabBzrz</t>
-  </si>
-  <si>
-    <t>3NRFinRTEqUCfaTTZmk8ek</t>
-  </si>
-  <si>
-    <t>0wgLwvDNCHdJ9FblyyD4Dc</t>
-  </si>
-  <si>
-    <t>6qqNVTkY8uBg9cP3Jd7DAH</t>
-  </si>
-  <si>
-    <t>4QQgXkCYTt3BlENzhyNETg</t>
-  </si>
-  <si>
-    <t>2D2qwEatKbBSKhBCfP6lyn</t>
-  </si>
-  <si>
-    <t>3vMWY1bUrmYoSoEWLiQWOZ</t>
-  </si>
-  <si>
-    <t>7bu3H8JO7d0UbMoVzbo70s</t>
-  </si>
-  <si>
-    <t>7AQzXO3NPNQsI7oNu5rC3r</t>
-  </si>
-  <si>
-    <t>3oDbviiivRWhXwIE8hxkVV</t>
+    <t>4LtIfuFeAamus9OOItuWDD</t>
+  </si>
+  <si>
+    <t>7CajNmpbOovFoOoasH2HaY</t>
   </si>
   <si>
     <t>5NGO30tJxFlKixkPSgXcFE</t>
   </si>
   <si>
-    <t>2ziB7fzrXBoh1HUPS6sVFn</t>
-  </si>
-  <si>
-    <t>0epOFNiUfyON9EYx7Tpr6V</t>
-  </si>
-  <si>
-    <t>76ptJV8617638xrpeoUtzl</t>
-  </si>
-  <si>
-    <t>0lZoBs4Pzo7R89JM9lxwoT</t>
-  </si>
-  <si>
-    <t>51l0uqRxGaczYr4271pVIC</t>
-  </si>
-  <si>
-    <t>762310PdDnwsDxAQxzQkfX</t>
-  </si>
-  <si>
-    <t>7tjbDPvrdvDshcpEMXKRVb</t>
-  </si>
-  <si>
-    <t>4KWTAlx2RvbpseOGMEmROg</t>
-  </si>
-  <si>
-    <t>1YB5pnFfL7Y2vjRJLPxaLU</t>
-  </si>
-  <si>
-    <t>5MmVJVhhYKQ86izuGHzJYA</t>
-  </si>
-  <si>
-    <t>7oPgCQqMMXEXrNau5vxYZP</t>
-  </si>
-  <si>
-    <t>3WrFJ7ztbogyGnTHbHJFl2</t>
-  </si>
-  <si>
-    <t>15UsOTVnJzReFVN1VCnxy4</t>
-  </si>
-  <si>
-    <t>2qk9voo8llSGYcZ6xrBzKx</t>
-  </si>
-  <si>
-    <t>1n0pe6Cx9pCNvXYkX9TTLX</t>
-  </si>
-  <si>
-    <t>4LtIfuFeAamus9OOItuWDD</t>
-  </si>
-  <si>
-    <t>33EUXrFKGjpUSGacqEHhU4</t>
-  </si>
-  <si>
-    <t>6XyY86QOPPrYVGvF9ch6wz</t>
-  </si>
-  <si>
-    <t>4gzpq5DPGxSnKTe4SA8HAU</t>
-  </si>
-  <si>
-    <t>2w7IutHv5g4e8LumrwtjWR</t>
-  </si>
-  <si>
-    <t>0X2BH1fck6amBIoJhDVmmJ</t>
-  </si>
-  <si>
-    <t>51Blml2LZPmy7TTiAg47vQ</t>
-  </si>
-  <si>
-    <t>3oZa8Xs6IjlIUGLAhVyK4G</t>
-  </si>
-  <si>
-    <t>0SwO7SWeDHJijQ3XNS7xEE</t>
-  </si>
-  <si>
-    <t>7vXwfZyDp3spzIVNXDaTPN</t>
-  </si>
-  <si>
-    <t>0hAd6zwEgt9ILuMDY1prcI</t>
-  </si>
-  <si>
-    <t>66CXWjxzNUsdJxJ2JdwvnR</t>
-  </si>
-  <si>
-    <t>0TnOYISbd1XYRBk9myaseg</t>
-  </si>
-  <si>
-    <t>3YQKmKGau1PzlVlkL1iodx</t>
-  </si>
-  <si>
-    <t>6TZdvF1kFzwnQLgHQynzsO</t>
-  </si>
-  <si>
-    <t>6zvul52xwTWzilBZl6BUbT</t>
-  </si>
-  <si>
-    <t>07QEuhtrNmmZ0zEcqE9SF6</t>
-  </si>
-  <si>
-    <t>2gBjLmx6zQnFGQJCAQpRgw</t>
-  </si>
-  <si>
-    <t>1Hsdzj7Dlq2I7tHP7501T4</t>
-  </si>
-  <si>
-    <t>2SHhfs4BiDxGQ3oxqf0UHY</t>
+    <t>5ndkK3dpZLKtBklKjxNQwT</t>
+  </si>
+  <si>
+    <t>58R5LHkK3vkmEyGUPOR5kS</t>
+  </si>
+  <si>
+    <t>3BmGtnKgCSGYIUhmivXKWX</t>
+  </si>
+  <si>
+    <t>6rEzedK7cKWjeQWdAYvWVG</t>
+  </si>
+  <si>
+    <t>7w29UYBi0qsHi5RTcv3lmA</t>
+  </si>
+  <si>
+    <t>6GbCJZrI318Ybm8mY36Of5</t>
+  </si>
+  <si>
+    <t>67FFKYikvTlvsPNk4NPOYJ</t>
   </si>
   <si>
     <t>2HcwFjNelS49kFbfvMxQYw</t>
   </si>
   <si>
-    <t>1HY2Jd0NmPuamShAr6KMms</t>
-  </si>
-  <si>
-    <t>4dpARuHxo51G3z768sgnrY</t>
-  </si>
-  <si>
-    <t>26T3LtbuGT1Fu9m0eRq5X3</t>
-  </si>
-  <si>
-    <t>MAN WITH A MISSION</t>
-  </si>
-  <si>
-    <t>Sublime</t>
-  </si>
-  <si>
-    <t>Nena</t>
-  </si>
-  <si>
-    <t>Nickelback</t>
+    <t>5T0MSzX9RC5NA6gAI6irSn</t>
+  </si>
+  <si>
+    <t>12Chz98pHFMPJEknJQMWvI</t>
+  </si>
+  <si>
+    <t>0Nn9YwJzcaeuU1jJL06e3r</t>
+  </si>
+  <si>
+    <t>7Ln80lUS6He07XvHI8qqHH</t>
+  </si>
+  <si>
+    <t>Bruno Mars</t>
+  </si>
+  <si>
+    <t>Sia</t>
+  </si>
+  <si>
+    <t>Coldplay</t>
+  </si>
+  <si>
+    <t>System Of A Down</t>
+  </si>
+  <si>
+    <t>CAKE</t>
+  </si>
+  <si>
+    <t>Shaggy</t>
+  </si>
+  <si>
+    <t>Joy Division</t>
+  </si>
+  <si>
+    <t>Kings of Leon</t>
+  </si>
+  <si>
+    <t>Rage Against The Machine</t>
+  </si>
+  <si>
+    <t>Lady Gaga</t>
+  </si>
+  <si>
+    <t>Madness</t>
+  </si>
+  <si>
+    <t>The Offspring</t>
+  </si>
+  <si>
+    <t>ZZ Top</t>
+  </si>
+  <si>
+    <t>Everything But The Girl</t>
+  </si>
+  <si>
+    <t>Prince</t>
+  </si>
+  <si>
+    <t>Korn</t>
+  </si>
+  <si>
+    <t>Philip Bailey</t>
+  </si>
+  <si>
+    <t>Kiesza</t>
+  </si>
+  <si>
+    <t>Elle King</t>
+  </si>
+  <si>
+    <t>Stone Temple Pilots</t>
+  </si>
+  <si>
+    <t>Phil Collins</t>
+  </si>
+  <si>
+    <t>Cyndi Lauper</t>
+  </si>
+  <si>
+    <t>Van Halen</t>
+  </si>
+  <si>
+    <t>Creed</t>
+  </si>
+  <si>
+    <t>Britney Spears</t>
+  </si>
+  <si>
+    <t>Cage The Elephant</t>
+  </si>
+  <si>
+    <t>Earth, Wind &amp; Fire</t>
+  </si>
+  <si>
+    <t>Pitbull</t>
+  </si>
+  <si>
+    <t>Shania Twain</t>
+  </si>
+  <si>
+    <t>XXXTENTACION</t>
+  </si>
+  <si>
+    <t>Tears For Fears</t>
+  </si>
+  <si>
+    <t>Franz Ferdinand</t>
+  </si>
+  <si>
+    <t>The Weeknd</t>
+  </si>
+  <si>
+    <t>The Rasmus</t>
+  </si>
+  <si>
+    <t>Rammstein</t>
+  </si>
+  <si>
+    <t>alt-J</t>
+  </si>
+  <si>
+    <t>Jonas Brothers</t>
+  </si>
+  <si>
+    <t>Matchbox Twenty</t>
+  </si>
+  <si>
+    <t>The Smashing Pumpkins</t>
+  </si>
+  <si>
+    <t>Mark Ronson</t>
+  </si>
+  <si>
+    <t>The Buggles</t>
+  </si>
+  <si>
+    <t>Pearl Jam</t>
+  </si>
+  <si>
+    <t>No Doubt</t>
   </si>
   <si>
     <t>Major Lazer</t>
   </si>
   <si>
-    <t>Laura Branigan</t>
-  </si>
-  <si>
-    <t>Foster The People</t>
-  </si>
-  <si>
-    <t>Chumbawamba</t>
-  </si>
-  <si>
-    <t>Matchbox Twenty</t>
-  </si>
-  <si>
-    <t>The Chemical Brothers</t>
-  </si>
-  <si>
-    <t>Gorillaz</t>
-  </si>
-  <si>
-    <t>No Doubt</t>
-  </si>
-  <si>
-    <t>New Order</t>
-  </si>
-  <si>
-    <t>Shinedown</t>
+    <t>Icona Pop</t>
+  </si>
+  <si>
+    <t>The Hives</t>
+  </si>
+  <si>
+    <t>Limp Bizkit</t>
+  </si>
+  <si>
+    <t>Vanilla Ice</t>
+  </si>
+  <si>
+    <t>Hard-FI</t>
+  </si>
+  <si>
+    <t>Eminem</t>
+  </si>
+  <si>
+    <t>Duran Duran</t>
+  </si>
+  <si>
+    <t>Feed Me</t>
+  </si>
+  <si>
+    <t>Incubus</t>
   </si>
   <si>
     <t>Backstreet Boys</t>
   </si>
   <si>
-    <t>Geri Halliwell</t>
-  </si>
-  <si>
-    <t>Dire Straits</t>
-  </si>
-  <si>
-    <t>Daft Punk</t>
-  </si>
-  <si>
-    <t>Van Halen</t>
-  </si>
-  <si>
-    <t>The Killers</t>
-  </si>
-  <si>
-    <t>Avril Lavigne</t>
-  </si>
-  <si>
-    <t>Vanessa Carlton</t>
-  </si>
-  <si>
-    <t>Black Eyed Peas</t>
-  </si>
-  <si>
-    <t>Journey</t>
-  </si>
-  <si>
-    <t>EMF</t>
-  </si>
-  <si>
-    <t>Survivor</t>
-  </si>
-  <si>
-    <t>Elle King</t>
-  </si>
-  <si>
-    <t>Sophie Ellis-Bextor</t>
-  </si>
-  <si>
-    <t>UB40</t>
-  </si>
-  <si>
-    <t>Two Door Cinema Club</t>
+    <t>SNAP!</t>
+  </si>
+  <si>
+    <t>Carrie Underwood</t>
+  </si>
+  <si>
+    <t>Madonna</t>
+  </si>
+  <si>
+    <t>The Cranberries</t>
+  </si>
+  <si>
+    <t>Huey Lewis &amp; The News</t>
+  </si>
+  <si>
+    <t>Rihanna</t>
+  </si>
+  <si>
+    <t>MIKA</t>
+  </si>
+  <si>
+    <t>The Cure</t>
+  </si>
+  <si>
+    <t>Jon Bon Jovi</t>
+  </si>
+  <si>
+    <t>Yazoo</t>
+  </si>
+  <si>
+    <t>My Chemical Romance</t>
+  </si>
+  <si>
+    <t>The B-52's</t>
+  </si>
+  <si>
+    <t>Kygo</t>
+  </si>
+  <si>
+    <t>Keane</t>
+  </si>
+  <si>
+    <t>Green Day</t>
+  </si>
+  <si>
+    <t>Ramones</t>
+  </si>
+  <si>
+    <t>Metallica</t>
+  </si>
+  <si>
+    <t>John Mellencamp</t>
   </si>
   <si>
     <t>Silverchair</t>
   </si>
   <si>
-    <t>The Prodigy</t>
-  </si>
-  <si>
-    <t>TOTO</t>
-  </si>
-  <si>
-    <t>Britney Spears</t>
-  </si>
-  <si>
-    <t>Nirvana</t>
-  </si>
-  <si>
-    <t>Alok</t>
-  </si>
-  <si>
-    <t>Alice In Chains</t>
-  </si>
-  <si>
-    <t>Twisted Sister</t>
-  </si>
-  <si>
-    <t>Rage Against The Machine</t>
-  </si>
-  <si>
-    <t>Alabama 3</t>
-  </si>
-  <si>
-    <t>Savage Garden</t>
-  </si>
-  <si>
-    <t>Liquido</t>
-  </si>
-  <si>
-    <t>Billie Eilish</t>
-  </si>
-  <si>
-    <t>Earth, Wind &amp; Fire</t>
-  </si>
-  <si>
-    <t>Bodeans</t>
-  </si>
-  <si>
-    <t>Glenn Frey</t>
-  </si>
-  <si>
-    <t>The Cure</t>
-  </si>
-  <si>
-    <t>Marcy Playground</t>
-  </si>
-  <si>
-    <t>The Beach Boys</t>
+    <t>Us3</t>
+  </si>
+  <si>
+    <t>Calvin Harris</t>
   </si>
   <si>
     <t>The Police</t>
   </si>
   <si>
-    <t>Audioslave</t>
-  </si>
-  <si>
-    <t>The Strokes</t>
-  </si>
-  <si>
-    <t>The Rasmus</t>
-  </si>
-  <si>
-    <t>Duran Duran</t>
-  </si>
-  <si>
-    <t>The Bangles</t>
-  </si>
-  <si>
-    <t>Depeche Mode</t>
-  </si>
-  <si>
-    <t>Gerry Rafferty</t>
-  </si>
-  <si>
-    <t>R.E.M.</t>
-  </si>
-  <si>
-    <t>Sabrina</t>
-  </si>
-  <si>
-    <t>MIKA</t>
-  </si>
-  <si>
-    <t>Tracy Chapman</t>
-  </si>
-  <si>
-    <t>The Beatles</t>
-  </si>
-  <si>
-    <t>XXXTENTACION</t>
-  </si>
-  <si>
-    <t>Kings of Leon</t>
-  </si>
-  <si>
-    <t>Real Life</t>
-  </si>
-  <si>
-    <t>Us3</t>
-  </si>
-  <si>
-    <t>Iggy Pop</t>
-  </si>
-  <si>
-    <t>Linkin Park</t>
-  </si>
-  <si>
-    <t>Coldplay</t>
-  </si>
-  <si>
-    <t>Stardust</t>
-  </si>
-  <si>
-    <t>Ellie Goulding</t>
-  </si>
-  <si>
-    <t>U2</t>
-  </si>
-  <si>
-    <t>Irene Cara</t>
-  </si>
-  <si>
-    <t>MGMT</t>
-  </si>
-  <si>
-    <t>Metro Station</t>
-  </si>
-  <si>
-    <t>Palaye Royale</t>
-  </si>
-  <si>
-    <t>Ariana Grande</t>
-  </si>
-  <si>
-    <t>Pitbull</t>
-  </si>
-  <si>
-    <t>Twenty One Pilots</t>
-  </si>
-  <si>
-    <t>Alien Ant Farm</t>
-  </si>
-  <si>
-    <t>Pixies</t>
-  </si>
-  <si>
-    <t>Owl City</t>
-  </si>
-  <si>
-    <t>Nelly</t>
-  </si>
-  <si>
-    <t>Niall Horan</t>
-  </si>
-  <si>
-    <t>Roxette</t>
+    <t>B.o.B</t>
+  </si>
+  <si>
+    <t>KONGOS</t>
+  </si>
+  <si>
+    <t>Kelly Clarkson</t>
+  </si>
+  <si>
+    <t>Five</t>
+  </si>
+  <si>
+    <t>Björk</t>
+  </si>
+  <si>
+    <t>Faith No More</t>
+  </si>
+  <si>
+    <t>Baha Men</t>
   </si>
   <si>
     <t>Robbie Williams</t>
   </si>
   <si>
-    <t>Lady Gaga</t>
-  </si>
-  <si>
-    <t>Adele</t>
-  </si>
-  <si>
-    <t>Cage The Elephant</t>
-  </si>
-  <si>
-    <t>{"url": "https://genius.com/Man-with-a-mission-dead-end-in-tokyo-lyrics", "lyrics": "[Bridge]\nIn a dead end street in Tokyo\nI finished my bottle all alone\nWhere I'll end up well I just don't know\nAnother dead end in Tokyo\n\n[Verse 1]\nThere's a thousand glowing street signs all in a row\nAnd there's a rich man tossing to the people below\nHe's just standing at his window sipping Dom Perignon\nBecause he feels like the king of Kabukicho\nWohohohohohoh\n\n[Pre-Chorus]\nShe's got a suitcase full of big dreams\nShe's in a city full of bigger lies\nHe's Shinjuku's James Dean\nKeep on living but you never leave alive\n\n[Chorus]\nHey mister, I got it\nWhatever it is you want\nDream on, chaotic\nJust another dead end in Tokyo\n(Tururututu)\nJust another dead end in Tokyo\n(Tururututu)\nJust another dead end in Tokyo\n[Verse 2]\nOne thousand tired people all scattered like rats\nAnd there's a drunk man sleeping in a pile of trash\nHe hears the sounds of Karaoke and a Mercedes Benz\nHe wakes up and checks his reflection in a broken glass\nWohohohohohoh\n\n[Pre-Chorus]\nShe's got a suitcase full of big dreams\nShe's in a city full of bigger lies\nHe's Shinjuku's James Dean\nKeep on living but you never leave alive\n\n[Chorus]\nHey mister, I got it\nWhatever it is you want\nDream on, chaotic\nJust another dead end in Tokyo\nSister, you've got it\nI can take you anywhere you want\nDream on, exotic\nJust another dead end in Tokyo\n(Tururututu)\nJust another dead end in Tokyo\n(Tururututu)\nJust another dead end in Tokyo\n[Bridge]\nIn a dead end street in Tokyo\nI finished my bottle all alone\nWhere I'll end up well I just don't know\nAnother dead end in Tokyo\n\n[Instrumental break]\n\n[Pre-Chorus]\nShe's got a suitcase full of big dreams\nShe's in a city full of bigger lies\nHe's Shinjuku's James Dean\nKeep on living but you never leave alive\n\n[Chorus]\nHey mister, I got it\nWhatever it is you want\nDream on, chaotic\nJust another dead end in Tokyo\nSister, you've got it\nI can take you anywhere you want\nDream on, exotic\nJust another dead end in Tokyo\n(Tururututu)\nJust another dead end in Tokyo\n(Tururututu)\nJust another dead end in Tokyo", "annotations": {"description": "&lt;p&gt;Single that prior came out in Japan only.&lt;br&gt;\nIt then was published world-wide on the band official VEVO channel.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src=\"https://images.genius.com/c8150f6b16d4afbd782e2c469cf5f2bc.640x640x1.jpg\" alt=\"\" width=\"640\" height=\"640\" data-animated=\"false\"&gt;&lt;/p&gt;", "producers": [{"name": "Patrick Stump", "url": "https://genius.com/artists/Patrick-stump"}, {"name": "MAN WITH A MISSION", "url": "https://genius.com/artists/Man-with-a-mission"}], "writers": [{"name": "Patrick Stump", "url": "https://genius.com/artists/Patrick-stump"}, {"name": "Jean-Ken Johnny", "url": "https://genius.com/artists/Jean-ken-johnny"}, {"name": "Kamikaze Boy", "url": "https://genius.com/artists/Kamikaze-boy"}], "labels": []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Sublime-what-i-got-lyrics', 'lyrics': "[Intro]\nFuck, you can't even sing\n\n[Verse 1]\nEarly in the mornin', risin' to the street\nLight me up that cigarette and I'll strap shoes on my feet\nGot to find the reason, reason things went wrong\nGot to find a reason why my money's all gone\nI got a dalmatian and I can still get high\nI can play the guitar like a motherfuckin' riot\n\n[Verse 2]\nWell, life is (too short), so love the one you got\n'Cause you might get run over or you might get shot\nNever start no static, I just get it off my chest\nNever had to battle with no bulletproof vest\nTake a small example, take a ti-ti-ti-tip from me\nTake all of your money, give it all to charity-ty-ty-ty\nLove is what I got, it's within my reach\nAnd the Sublime style's still straight from Long Beach\nIt all comes back to you, you're bound to get what you deserve\nTry and test that, you're bound to get served\nLove's what I got, don't start a riot\nYou'll feel it when the dance gets hot\n\n[Chorus]\nLovin' is what I got\nI said, remember that\nLovin' is what I got\nAnd remember that\nLovin' is what I got\nI said, remember that\nLovin' is what I got\n(I got, I got, I got)\n[Verse 3]\nWhy I don't cry when my dog runs away\nI don't get angry at the bills I have to pay\nI don't get angry when my mom smokes pot\nHits the bottle and goes right to the rock\nFuckin' and fightin'; it's all the same\nLiving with Louie Dog's the only way to stay sane\nLet the lovin', let the lovin' come back to me\n\n[Chorus]\nLovin' is what I got\nI said, remember that\nLovin' is what I got\nAnd remember that\nLovin' is what I got\nI said remember that\nLovin' is what I got\n(I got, I got, I got)", 'annotations': {'description': '&lt;p&gt;The quintessential Sublime song, expressing love for Lou Dog and weed and hope for a simple life, while containing multiple samples and covers. RIP Bradley Nowell (verily, &lt;a href="https://genius.com/lyrics/Too-short/Life-is-too-short" rel="noopener" data-api_path="/songs/1626"&gt;life is too short..&lt;/a&gt;)&lt;/p&gt;\n\n&lt;p&gt;The song’s hook is almost a complete cover of reggae artist &lt;a href="http://en.wikipedia.org/wiki/Half_Pint" rel="noopener nofollow"&gt;Half-Pint&lt;/a&gt;’s song “Loving”.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://www.youtube.com/watch?v=PyPtaB_Q4Wk" rel="noopener nofollow"&gt;https://www.youtube.com/watch?v=PyPtaB_Q4Wk&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;The melody is the same as &lt;a href="https://genius.com/artists/The-beatles" rel="noopener" data-api_path="/artists/586"&gt;The Beatles&lt;/a&gt;‘ &lt;a href="http://www.youtube.com/watch?v=VfthrizXKOM" rel="noopener nofollow"&gt;“Lady Madonna”&lt;/a&gt;, although it isn’t officially listed in the samples.&lt;/p&gt;', 'producers': [{'name': 'David Kahne', 'url': 'https://genius.com/artists/David-kahne'}], 'writers': [{'name': 'Floyd Gaugh', 'url': 'https://genius.com/artists/Floyd-gaugh'}, {'name': 'Eric Wilson', 'url': 'https://genius.com/artists/Eric-wilson'}, {'name': 'Half Pint', 'url': 'https://genius.com/artists/Half-pint'}, {'name': 'Bradley Nowell', 'url': 'https://genius.com/artists/Bradley-nowell'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Nena-99-luftballons-lyrics', 'lyrics': "[Songtext zu „99 Luftballons“]\n\n[Strophe 1]\nHast du etwas Zeit für mich?\nDann singe ich ein Lied für dich\nVon 99 Luftballons\nAuf ihrem Weg zum Horizont\nDenkst du vielleicht grad an mich?\nDann singe ich ein Lied für dich\nVon 99 Luftballons\nUnd, dass sowas von sowas kommt\n\n[Strophe 2]\n99 Luftballons\nAuf ihrem Weg zum Horizont\nHielt man für Ufos aus dem All\nDarum schickte ein General\n'ne Fliegerstaffel hinterher\nAlarm zu geben, wenn's so wär\nDabei war'n dort am Horizont\nNur 99 Luftballons\n\n[Strophe 3]\n99 Düsenflieger\nJeder war ein großer Krieger\nHielten sich für Captain Kirk\nEs gab ein großes Feuerwerk\nDie Nachbarn haben nichts gerafft\nUnd fühlten sich gleich angemacht\nDabei schoss man am Horizont\nAuf 99 Luftballons\n[Strophe 4]\n99 Kriegsminister\nStreichholz und Benzinkanister\nHielten sich für schlaue Leute\nWitterten schon fette Beute\nRiefen, „Krieg!“, und wollten Macht\nMann, wer hätte das gedacht?\nDass es einmal so weit kommt\nWegen 99 Luftballons\n\n[Bridge]\nWegen 99 Luftballons\n99 Luftballons\n\n[Outro]\n99 Jahre Krieg\nLießen keinen Platz für Sieger\nKriegsminister gibt's nicht mehr\nUnd auch keine Düsenflieger\nHeute zieh' ich meine Runden\nSeh' die Welt in Trümmern liegen\nHab' 'n Luftballon gefunden\nDenk' an dich und lass' ihn fliegen", 'annotations': {'description': '&lt;p&gt;Nenas Anti-Kriegs-Hymne „99 Luftballons“ wurde 1983 zu Zeiten des &lt;a href="https://www.planet-wissen.de/geschichte/deutsche_geschichte/kalter_krieg/index.html" rel="noopener nofollow"&gt;Kalten Krieges&lt;/a&gt; geschrieben.&lt;/p&gt;\n\n&lt;p&gt;Die in den Himmel fliegenden Luftballons sind die Idee von &lt;a href="https://genius.com/artists/Carlo-karges" rel="noopener" data-api_path="/artists/876821"&gt;Carlo Karges&lt;/a&gt;, Nenas Gitarristen, gewesen. Die Inspiration stammt von der Europa-Tour der &lt;a href="https://genius.com/artists/The-rolling-stones" rel="noopener" data-api_path="/artists/774"&gt;Rolling Stones&lt;/a&gt; für ihr Album &lt;a href="https://genius.com/albums/The-rolling-stones/Tattoo-you" rel="noopener" data-api_path="/albums/26115"&gt;&lt;em&gt;Tattoo You&lt;/em&gt;&lt;/a&gt;. Unter Anderem bei dem Konzert in der Waldbühne in Berlin, wurden bei dem Lied &lt;a href="https://genius.com/The-rolling-stones-i-cant-get-no-satisfaction-lyrics" rel="noopener" data-api_path="/songs/1544"&gt;„(I Can’t Get No) Satisfaction“&lt;/a&gt;, &lt;a href="https://youtu.be/qAzqSYQ9X9U" rel="noopener nofollow"&gt;Luftballons auf die Bühne und in die Menge fallen gelassen&lt;/a&gt;. Karges hat sich &lt;a href="https://www.spiegel.de/spiegel/print/d-13510424.html" rel="noopener nofollow"&gt;vorgestellt&lt;/a&gt;, wie die Ballons über die Berliner Mauer fliegen und dort mit Waffen verwechselt werden, sodass der Dritte Welt Krieg ausbricht.&lt;/p&gt;\n\n&lt;p&gt;Trotz der deutschen Sprache wurde das Lied international verstanden, sodass „99 Luftballons“ zum Beispiel auch im Vereinigten Königreich oder Kanada die &lt;a href="https://en.wikipedia.org/wiki/99_Luftballons#Chart_positions" rel="noopener nofollow"&gt;#1 der Charts&lt;/a&gt; erreichen konnte.&lt;/p&gt;\n\n&lt;p&gt;Auf Grund dessen wurde später eine &lt;a href="https://genius.com/Nena-99-red-balloons-lyrics" rel="noopener" data-api_path="/songs/192360"&gt;englische Version&lt;/a&gt; aufgenommen. Durch leichte Änderungen im Textinhalt für den Erhalt der Melodie, büßt die englische Version in den Augen vieler Hörer an der Atmosphäre ein und kann daher nicht mit dem Erfolg des deutschen Originals mithalten.&lt;/p&gt;\n\n&lt;hr&gt;\n\n&lt;p&gt;English translation:&lt;/p&gt;\n\n&lt;p&gt;The German anti-war anthem by Nena was published in 1983 during &lt;a href="https://www.history.com/topics/cold-war/cold-war-history" rel="noopener nofollow"&gt;The Cold War&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The balloons flying into the sky were the idea of &lt;a href="https://genius.com/artists/Carlo-karges" rel="noopener" data-api_path="/artists/876821"&gt;Carlo Karges&lt;/a&gt;, Nena’s guitarist. The inspiration is taken from the European tour of the &lt;a href="https://genius.com/artists/The-rolling-stones" rel="noopener" data-api_path="/artists/774"&gt;Rolling Stones&lt;/a&gt; for their album &lt;a href="https://genius.com/albums/The-rolling-stones/Tattoo-you" rel="noopener" data-api_path="/albums/26115"&gt;&lt;em&gt;Tattoo You&lt;/em&gt;&lt;/a&gt;. Among other locations, &lt;a href="https://youtu.be/qAzqSYQ9X9U" rel="noopener nofollow"&gt;balloons were released&lt;/a&gt; onto the stage and into the crowd during their song &lt;a href="https://genius.com/The-rolling-stones-i-cant-get-no-satisfaction-lyrics" rel="noopener" data-api_path="/songs/1544"&gt;“(I Can’t Get No) Satisfaction”&lt;/a&gt; in Berlin. Karges &lt;a href="https://www.spiegel.de/spiegel/print/d-13510424.html" rel="noopener nofollow"&gt;has imagined&lt;/a&gt;, how the balloons would fly over the Berlin Wall and be mistaken for enemy missiles, causing World War III.&lt;/p&gt;\n\n&lt;p&gt;Despite being in German, the song was understood internationally. It rose to &lt;a href="https://en.wikipedia.org/wiki/99_Luftballons#Chart_positions" rel="noopener nofollow"&gt;#1 in the charts&lt;/a&gt; of the United Kingdom and Canada for example.&lt;/p&gt;\n\n&lt;p&gt;Because of this, an &lt;a href="https://genius.com/Nena-99-red-balloons-lyrics" rel="noopener" data-api_path="/songs/192360"&gt;English version&lt;/a&gt; was recorded. Due to small lyric changes to keep the rhythm, many listeners find the English version as lacking in the special atmosphere which is why it couldn’t keep up with the success of the German original.&lt;/p&gt;', 'producers': [{'name': 'Manne Praeker', 'url': 'https://genius.com/artists/Manne-praeker'}, {'name': 'Reinhold Heil', 'url': 'https://genius.com/artists/Reinhold-heil'}], 'writers': [{'name': 'Jörn-Uwe Fahrenkrog-Petersen', 'url': 'https://genius.com/artists/Jorn-uwe-fahrenkrog-petersen'}, {'name': 'Carlo Karges', 'url': 'https://genius.com/artists/Carlo-karges'}], 'labels': [{'name': 'Epic Records', 'url': 'https://genius.com/artists/Epic-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Nickelback-how-you-remind-me-lyrics', 'lyrics': '[Verse 1]\nNever made it as a wise man\nI couldn\'t cut it as a poor man stealing\nTired of livin\' like a blind man\nI\'m sick of sight without a sense of feeling\nAnd this is how you remind me\n\n[Pre-Chorus]\nThis is how you remind me of what I really am\nThis is how you remind me of what I really am\n\n[Chorus]\nIt\'s not like you to say sorry\nI was waitin\' on a different story\nThis time I\'m mistaken\nFor handing you a heart worth breakin\'\nAnd I\'ve been wrong, I\'ve been down\nBeen to the bottom of every bottle\nThese five words in my head\nScream, "Are we havin\' fun yet?"\n\n[Post-Chorus]\nYet, yet, yet, no, no\nYet, yet, yet, no, no\n\n[Verse 2]\nIt\'s not like you didn\'t know that\nI said, "I love you," and I swear I still do\nAnd it must have been so bad\n\'Cause livin\' with me must have damn near killed you\n[Pre-Chorus]\nAnd this is how you remind me of what I really am\nThis is how you remind me of what I really am\n\n[Chorus]\nIt\'s not like you to say sorry\nI was waitin\' on a different story\nThis time I\'m mistaken\nFor handing you a heart worth breakin\'\nAnd I\'ve been wrong, I\'ve been down\nBeen to the bottom of every bottle\nThese five words in my head\nScream, "Are we havin\' fun yet?"\n\n[Post-Chorus]\nYet, yet, yet, no, no\nYet, yet, yet, no, no\nYet, yet, yet, no, no\nYet, yet, yet, no, no\n\n[Bridge]\nNever made it as a wise man\nI couldn\'t cut it as a poor man stealin\'\nAnd this is how you remind me\nThis is how you remind me\n[Pre-Chorus]\nThis is how you remind me of what I really am\nThis is how you remind me of what I really am\n\n[Chorus]\nIt\'s not like you to say sorry\nI was waitin\' on a different story\nThis time I\'m mistaken\nFor handing you a heart worth breakin\'\nAnd I\'ve been wrong, I\'ve been down\nBeen to the bottom of every bottle\nThese five words in my head\nScream, "Are we havin\' fun yet?"\n\n[Outro]\nYet, yet, are we havin\' fun yet?\nYet, yet, are we havin\' fun yet?\nYeah, yeah (These five words in my head scream)\nAre we havin\' fun yet?\nYeah, yeah (These five words in my head)\nNo, no', 'annotations': {'description': '&lt;p&gt;Nickelback’s breakout single and probably still their biggest song. It hit #1 at the Hot 100 for four weeks and &lt;a href="https://en.wikipedia.org/wiki/Billboard_Year-End_Hot_100_singles_of_2002" rel="noopener nofollow"&gt;ended as the top song of 2002&lt;/a&gt; after 22 weeks in the Top 10.&lt;/p&gt;\n\n&lt;p&gt;In an interview with MTV, Nickelback’s lead singer Chad Kroeger said that he wrote the song about his old girlfriend Jodi, who he had a rather dysfunctional relationship with. He kept the lyrics very ambiguous, however, which accounts for much of the song’s success, as many people could relate to an ex who started pointing out all of your faults at the same time and caused considerable heartbreak: “This time I’m mistaken, for handing you a heart worth breaking.” Silver Side Up was Nickelback’s third album, and many of the songs were about relationships and personal issues.&lt;/p&gt;', 'producers': [{'name': 'Rick Parashar', 'url': 'https://genius.com/artists/Rick-parashar'}], 'writers': [{'name': 'Ryan Vikedal', 'url': 'https://genius.com/artists/Ryan-vikedal'}, {'name': 'Ryan Peake', 'url': 'https://genius.com/artists/Ryan-peake'}, {'name': 'Mike Kroeger', 'url': 'https://genius.com/artists/Mike-kroeger'}, {'name': 'Chad Kroeger', 'url': 'https://genius.com/artists/Chad-kroeger'}], 'labels': [{'name': 'EMI Group Limited', 'url': 'https://genius.com/artists/Emi-group-limited'}, {'name': 'Roadrunner Records', 'url': 'https://genius.com/artists/Roadrunner-records'}]}}</t>
+    <t>Estelle</t>
+  </si>
+  <si>
+    <t>Muse</t>
+  </si>
+  <si>
+    <t>The Knack</t>
+  </si>
+  <si>
+    <t>Arctic Monkeys</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Bruno-mars-the-lazy-song-lyrics', 'lyrics': '[Chorus]\nToday, I don\'t feel like doing anything\nI just wanna lay in my bed\nDon\'t feel like picking up my phone\nSo leave a message at the tone\n\'Cause today, I swear, I\'m not doing anything\n\n[Verse 1]\nI\'m gonna kick my feet up, then stare at the fan\nTurn the TV on, throw my hand in my pants\nNobody\'s gon\' tell me I can\'t, nah\nI\'ll be lounging on the couch, just chillin\' in my Snuggie\nClick to MTV, so they can teach me how to dougie\n\'Cause in my castle, I\'m the freaking man\n\n[Pre-Chorus]\nOh-oh, yes, I said it\nI said it, I said it, \'cause I can\n\n[Chorus]\nToday, I don\'t feel like doing anything\nI just wanna lay in my bed\nDon\'t feel like picking up my phone\nSo leave a message at the tone\n\'Cause today, I swear, I\'m not doing anything\nNothing at all (Woo-hoo, woo-hoo, ooh)\nNothing at all (Woo-hoo, woo-hoo, ooh)\n[Verse 2]\nTomorrow, I\'ll wake up, do some P90X\nMeet a really nice girl, have some really nice sex\nAnd she\'s gonna scream out, "This is great!" (Oh my God, this is great)\nYeah, I might mess around and get my college degree\nI bet my old man will be so proud of me\nBut sorry, pops, you\'ll just have to wait\n\n[Pre-Chorus]\nOh-oh, yes I said it\nI said it, I said it, \'cause I can\n\n[Chorus]\nToday, I don\'t feel like doing anything\nI just wanna lay in my bed\nDon\'t feel like picking up my phone\nSo leave a message at the tone\n\'Cause today, I swear, I\'m not doing anything\n\n[Bridge]\nNo, I ain\'t gonna comb my hair\n\'Cause I ain\'t going anywhere\nNo, no, no, no, no, no, no, no, no\nI\'ll just strut in my birthday suit\nAnd let everything hang loose\nYeah, yeah, yeah, yeah, yeah, yeah, yeah, yeah, yeah, yeah\n[Chorus]\nOh, today, I don\'t feel like doing anything\nI just wanna lay in my bed\nDon\'t feel like picking up my phone\nSo leave a message at the tone\n\'Cause today, I swear, I\'m not doing anything\nNothing at all (Woo-hoo, woo-hoo, ooh)\nNothing at all (Woo-hoo, woo-hoo, ooh)\nNothing at all', 'annotations': {'description': '&lt;p&gt;Have you ever had one of those days you simply felt like you didn’t want to do anything?&lt;/p&gt;\n\n&lt;p&gt;That’s pretty much what Bruno Mars is trying to say.&lt;/p&gt;', 'producers': [{'name': 'The Smeezingtons', 'url': 'https://genius.com/artists/The-smeezingtons'}], 'writers': [{'name': 'Ari Levine', 'url': 'https://genius.com/artists/Ari-levine'}, {'name': 'Philip Lawrence', 'url': 'https://genius.com/artists/Philip-lawrence'}, {'name': 'K’naan', 'url': 'https://genius.com/artists/Knaan'}, {'name': 'Bruno Mars', 'url': 'https://genius.com/artists/Bruno-mars'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Sia-elastic-heart-lyrics', 'lyrics': "[Intro]\nI won't give up, I won't give up\nI won't give up, I won't give up\n\n[Verse 1]\nAnd another one bites the dust\nOh, why can I not conquer love?\nAnd I might have thought that we were one\nWanted to fight this war without weapons\nAnd I wanted it, I wanted it bad\nBut there were so many red flags\nNow another one bites the dust\nYeah, let's be clear, I'll trust no one\n\n[Pre-Chorus]\nYou did not break me\nI'm still fighting for peace\n\n[Chorus]\nWell, I've got thick skin and an elastic heart\nBut your blade, it might be too sharp\nI'm like a rubber band until you pull too hard\nYeah, I may snap and I move fast\nBut you won't see me fall apart\n'Cause I've got an elastic heart\n[Post-Chorus]\nI've got an elastic heart\nYeah, I've got an elastic heart\n\n[Verse 2]\nAnd I will stay up through the night\nYeah, let's be clear, won't close my eyes\nAnd I know that I can survive\nI'll walk through fire to save my life\nAnd I want it, I want my life so bad\nI'm doin' everythin' I can\nAnd another one bites the dust\nIt's hard to lose a chosen one\n\n[Pre-Chorus]\nYou did not break me\nI'm still fighting for peace\n\n[Chorus]\nWell, I've got thick skin and an elastic heart\nBut your blade, it might be too sharp\nI'm like a rubber band until you pull too hard\nYeah, I may snap and I move fast\nBut you won't see me fall apart\n'Cause I've got an elastic heart\n[Bridge]\nOh, oh-oh-oh-oh-oh, oh-oh-oh-oh\nOh-oh-oh-oh\nOh, oh-oh-oh-oh-oh, oh-oh-oh-oh\nOh-oh-oh-oh\n\n[Chorus]\nWell, I've got thick skin and an elastic heart\nBut your blade, it might be too sharp\nI'm like a rubber band until you pull too hard\nYeah, I may snap and I move fast\nBut you won't see me fall apart\n'Cause I've got an elastic heart\nWell, I've got thick skin and an elastic heart (Woah, woah)\nBut your blade, it might be too sharp\nI'm like a rubber band until you pull too hard (Woah, woah)\nYeah, I may snap and I move fast\nBut you won't see me fall apart (Woah, woah)\n'Cause I've got an elastic heart (Woah, woah)\n\n[Outro]\nI've got an elastic heart", 'annotations': {'description': '&lt;p&gt;“Elastic Heart” is a song by Sia for her sixth studio album, 1000 Forms of Fear. It was released on 9 January 2015 by RCA as the third single from the album.&lt;/p&gt;\n\n&lt;p&gt;The music video features actor Shia LaBeouf and “Dance Moms” star Maddie Ziegler dancing an animalistic duet in a big cage.&lt;/p&gt;\n\n&lt;p&gt;Her father dealt with mental illness when Sia was a child. Sia tried to help him get past his illness. In the music video, Maddie represents Sia and Shia represents her father. In the end, Maddie tries to get Shia out of the cage (the cage represents his illness), but ultimately, he cannot get out. Therefore, the lyric, “another one bites the dust” might be referring to mental illness causing the death of another one of her loved ones.&lt;/p&gt;', 'producers': [{'name': 'Greg Kurstin', 'url': 'https://genius.com/artists/Greg-kurstin'}, {'name': 'Diplo', 'url': 'https://genius.com/artists/Diplo'}], 'writers': [{'name': 'Djemba Djemba', 'url': 'https://genius.com/artists/Djemba-djemba'}, {'name': 'Diplo', 'url': 'https://genius.com/artists/Diplo'}, {'name': 'Sia', 'url': 'https://genius.com/artists/Sia'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Coldplay-every-teardrop-is-a-waterfall-lyrics', 'lyrics': "[Verse 1]\nI turn the music up, I got my records on\nI shut the world outside until the lights come on\nMaybe the streets alight, maybe the trees are gone\nI feel my heart start beating to my favorite song\nAnd all the kids they dance, all the kids all night\nUntil Monday morning feels another life\nI turn the music up, I'm on a roll this time\nAnd Heaven is in sight\n\n[Verse 2]\nI turn the music up, I got my records on\nFrom underneath the rubble, sing a rebel song\nDon't want to see another generation drop\nI'd rather be a comma than a full stop\nMaybe I'm in the black, maybe I'm on my knees\nMaybe I'm in the gap between the two trapezes\nBut my heart is beating and my pulses start\nCathedrals in my heart\n\n[Pre-Chorus]\nAs we saw, oh, this light\nI swear you, emerge blinking in to\nTo tell me it's alright\nAs we soar walls\nEvery siren is a symphony\n[Chorus]\nAnd every tear's a waterfall\nIs a waterfall, oh\nIs a waterfall, oh-oh-oh\nIs a, is a waterfall\nEvery tear\nIs a waterfall, oh-oh-oh\n\n[Bridge]\nSo you can hurt, hurt me bad\nBut still, I'll raise the flag\n\n[Outro]\nOh, it was a wa-wa-wa-wa-waterfall\nA wa-wa-wa-wa-waterfall\nEvery tear, every tear\nEvery teardrop is a waterfall\nEvery tear, every tear\nEvery teardrop is a waterfall\nEvery tear, every tear\nEvery teardrop is a waterfall\nEvery tear, every tear\nEvery teardrop is a waterfall\nEvery tear, every tear\nEvery teardrop is a waterfall", 'annotations': {'description': '&lt;p&gt;With electronic rock mixing with progressive rock, “Every Teardrop is a Waterfall” is the first single and seventh track from Coldplay’s fifth studio album and rock opera &lt;em&gt;Mylo Xyloto&lt;/em&gt;. Stinging synths and hard rock guitars drive this jam, with drumming taking the wheel.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/26dd5eb9db04a745ea094842689f6bb8.200x200x1.jpg" alt="" width="200" height="200" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;Mylo knows that he might be a prophesied one, to lead the rebels, but later on, it doesn’t add up to the fact that he is still active as a Silencer.&lt;/p&gt;', 'producers': [{'name': 'Rik Simpson', 'url': 'https://genius.com/artists/Rik-simpson'}, {'name': 'Daniel Green', 'url': 'https://genius.com/artists/Daniel-green'}, {'name': 'Markus Dravs', 'url': 'https://genius.com/artists/Markus-dravs'}], 'writers': [{'name': 'Chris Martin', 'url': 'https://genius.com/artists/Chris-martin'}, {'name': 'Will Champion', 'url': 'https://genius.com/artists/Will-champion'}, {'name': 'Jonny Buckland', 'url': 'https://genius.com/artists/Jonny-buckland'}, {'name': 'Guy Berryman', 'url': 'https://genius.com/artists/Guy-berryman'}, {'name': 'Peter Allen', 'url': 'https://genius.com/artists/Peter-allen'}, {'name': 'Adrienne Anderson', 'url': 'https://genius.com/artists/Adrienne-anderson'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/System-of-a-down-hypnotize-lyrics', 'lyrics': "[Verse 1: Serj Tankian &amp; Daron Malakian]\nWhy don't you ask the kids at Tiananmen Square?\nWas fashion the reason why they were there?\nThey disguise it, hypnotize it\nTelevision made you buy it\n\n[Chorus: Serj Tankian with Daron Malakian]\nI'm just sitting in my car and waiting for my\n\n[Verse 2: Serj Tankian &amp; Daron Malakian]\nShe's scared that I will take her away from there\nDreams and her country left with no one there\nMesmerized the simple-minded\nPropaganda leaves us blinded\n\n[Chorus: Serj Tankian with Daron Malakian]\nI'm just sitting in my car and waiting for my girl\nI'm just sitting in my car and waiting for my girl\n\n[Guitar Solo]\n\n[Chorus: Serj Tankian &amp; Daron Malakian]\nI'm just sitting in my car and waiting for my girl\nI'm just sitting in my car and waiting for my girl", 'annotations': {'description': '&lt;p&gt;“Hypnotize” is the eponymous debut single of &lt;a href="https://genius.com/artists/System-of-a-down" rel="noopener" data-api_path="/artists/16259"&gt;System of a Down’s&lt;/a&gt; fifth album. The song was written after the &lt;a href="https://en.wikipedia.org/wiki/1989_Tiananmen_Square_protests" rel="noopener nofollow"&gt;Tienanmen Square protest,&lt;/a&gt; but, in general, it talks about how governments and TV manipulate people, essentially placating them and keeping them focused on propaganda so they can maintain control over the people over whom they rule.&lt;/p&gt;', 'producers': [{'name': 'Daron Malakian', 'url': 'https://genius.com/artists/Daron-malakian'}, {'name': 'Rick Rubin', 'url': 'https://genius.com/artists/Rick-rubin'}], 'writers': [{'name': 'Serj Tankian', 'url': 'https://genius.com/artists/Serj-tankian'}, {'name': 'Daron Malakian', 'url': 'https://genius.com/artists/Daron-malakian'}], 'labels': [{'name': 'Columbia Records', 'url': 'https://genius.com/artists/Columbia-records'}, {'name': 'American Recordings', 'url': 'https://genius.com/artists/American-recordings'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Cake-i-will-survive-lyrics', 'lyrics': "[Verse 1]\nAt first I was afraid\nI was petrified\nI kept thinking I could never live\nWithout you by my side\nBut then I spent so many nights\nJust thinking how you've done me wrong\nI grew strong\nI learned how to get along\nAnd so you're back\nFrom outer space\nI just walked in to find you\nHere without that look upon your face\nI should have changed my fucking lock\nI would have made you leave your key\nIf I'd have known for just one second\nYou'd be back to bother me\n\n[Pre-Chorus]\nOh now go\nWalk out the door\nJust turn around now\nYou're not welcome anymore\nWeren't you the one\nWho tried to break me with desire?\nDid you think I'd crumble?\nDid you think I'd lay down and die?\n[Chorus]\nOh not I\nI will survive\nYeah\nAs long as I know how to love\nI know I'll be alive\nI've got all my life to live\nI've got all my love to give\nI will survive\nI will survive\nYeah, yeah\n\n[Verse 2]\nIt took all the strength I had\nJust not to fall apart\nI'm trying hard to mend the pieces\nOf my broken heart\nAnd I spent oh so many nights\nJust feeling sorry for myself\nI used to cry\nBut now I hold my head up high\nAnd you see me\nWith somebody new\nI'm not that stupid little person\nStill in love with you\nAnd so you thought you'd just drop by\nAnd you expect me to be free\nBut now I'm saving all my lovin'\nFor someone who's lovin' me\n[Pre-Chorus]\nOh now go\nWalk out the door\nJust turn around now\nYou're not welcome anymore\nWeren't you the one\nWho tried to break me with desire?\nDid you think I'd crumble?\nDid you think I'd lay down and die?\n\n[Chorus]\nOh not I\nI will survive\nYeah\nAs long as I know how to love\nI know I'll be alive\nI've got all my life to live\nI've got all my love to give\nI will survive\nI will survive\nYeah, yeah\nDa da, da da, da da dada...\nDa, da, da, da, dada dada dada dada\n...\nOh no", 'annotations': {'description': '&lt;p&gt;A cover of Gloria Gaynor’s 1978 platinum disco hit.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/5a2e4b36159fec75ad2456301a7b824d.400x400x1.jpg" alt="" width="400" height="400" data-animated="false"&gt;&lt;/p&gt;', 'producers': [{'name': 'CAKE', 'url': 'https://genius.com/artists/Cake'}], 'writers': [{'name': 'Dino Fekaris', 'url': 'https://genius.com/artists/Dino-fekaris'}, {'name': 'Freddie Perren', 'url': 'https://genius.com/artists/Freddie-perren'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Shaggy-boombastic-lyrics', 'lyrics': '[Intro]\nMr. Boombastic!\nWhat you want is a boombastic, romantic, fantastic lova\'\nShaggy\nMr. Lover Lover, ummm\nI\'m Mr. Lover Lover, haha girl\nMr. Lover Lover\nMmmm, I\'m Mr. Lover Lover\n\n[Chorus]\nShe call me Mr. Boombastic\nTell me fantastic\nTouch me on my back\nShe says I\'m Mr. Ro.. Ro.. Mantic\nCall me fantastic\nTouch me on my back\nShe says I\'m Mr. Ro...\n\n[Verse 1]\nSmooth\nJust like a silk-a\nSoft and cuddly, hug me up like a quilt\nI\'m a lyrical lover\nNo take me for no filth\nWith my sexual physique\nJah know me well-built\n[Verse 2]\nOh me, oh my\nWell, well, can\'t you tell\nI\'m just like a turtle\nCrawling out of my shell?\nGal you captivate my body\nPut me under a spell\nWith your Khus Khus perfume\nI love your sweet smell\nYou\'re the only young girl\nWho can ring my bell\nAnd I can take rejection\nSo you tell me "Go to Hell"\n\n[Chorus]\nI\'m Boombastic\nTell me fantastic\nTouch me on my back\nShe says I\'m Mr. Ro... Ro... Mantic\nCall me fantastic\nShe touch me on my back\nShe says I\'m Mr. Boom-boom-boom-boom-Boombastic\nTell me fantastic\nTouch me on my back\nShe call me Mr. Ro... Ro... Romantic\nTell me fantastic\nShe touch me on my back\nShe says I\'m Mr. boom-boom-boom\n[Verse 3]\nGee wheeze, baby, please\nLet me take you to an island\nOf the sweet cool breeze\nYou don\'t feel like drive\nWell, baby, hand me the keys\nAnd I will take you to a place\nAnd set your mind at ease\n\n[Verse 4]\nDon\'t you tickle my foot bottom\n(Ha ha), baby, please\nDon\'t you play with my nose\n\'Cause I might ha chum sneeze\nWell a you are the bun and a me are the cheese\nAnd if me are the rice\nAh, baby, love you\'re the peas\n\n[Chorus]\nI\'m Boombastic\nTell me fantastic\nTouch me on my back\nShe says I\'m Mr. Ro... o... omantic\nTell me fantastic\nTouch me on my back\nShe says I\'m Mr. boom-boom-boom-mmbastic\nTell me fantastic\nTouch me in my back\nShe says I\'m Mr. Ro.. o... Mantic\nTell me fantastic\nTouch me on my back\nShe says I\'m Mr. boom-Boom\n[Verse 5]\nAt least you give me your loving\nGal, your loving well good\nI want your lovin\'\nGal, give it like you should\nOh, give me your lovin\', girl\nYour lovin\' well good\nI want your loving, gal\nYou remember the woo?\n\n[Verse 6]\nWould you like to kiss and caress\nRub down every strand of hair on my chest?\nI\'m Boombastic\nRated as the best\nThe best you should get\nNothing more, nothing less\nGive me your digits\nJot down your address\nI\'ll bet you confess\nWhen you put me to the test\n\n[Chorus]\nThat I\'m Boombastic\nTell me fantastic\nTouch me on my back\nShe says I\'m Mr. Ro... o... omantic\nTell me fantastic\nTouch me on my back\nShe says I\'m Mr. Boom... mmm... Bastic\nTell me fantastic\nTouch me on my back\nShe says I\'m Mr. Ro... o.. o.. o.. Mantic\nTell me fantastic\nTouch me on my back\nShe says I\'m Mr. Boombastic, why?\n\n[Verse 7]\nGal your admiration if a tick me from the start\nWith your physical attraction, gal\nYou know to feel the spark\nA man of few words\nNaw go tell you no sweet talk\nNaw go laba laba laba and a chat pure phart\n\n[Verse 8]\nI\'ll get straight to the point\nLike a arrow or a dart\nCome lay down in my jacuzzi\nAnd get some bubble bath\nOnly sound you will hear\nIs the beating of my heart\nAnd we will mmm-mmm\nAnd have some sweet pillow talk\n\n[Chorus]\nI\'m Boombastic\nTell me fantastic\nTouch me on my back\nShe says I\'m Mr. Ro... a... Mantic\nCall me fantastic\nShe tickle on my back\nShe says I\'m Mr. Boom-boom... Bastic\nTell me fantastic\nTouch me on my back\nShe says I\'m Mr. Ro... Mantic\nTell me fantastic\nTouch me on my back\nShe says I\'m Mr. Boom\n\n[Outro]\nWhat ya say, girl?\nSmooth', 'annotations': {'description': '&lt;p&gt;“Boombastic” is a song released by Jamaican-American musical artist Shaggy from his third studio album, Boombastic. Released in June 1995, the single achieved commercial success in many countries, including Ireland, UK, Sweden, New Zealand, and Australia, where it topped the singles charts. It spent a week at number one on the U.S. Billboard R&amp;amp;B chart, and a similar stint atop the UK Singles Chart. It also reached number three on the Billboard Hot 100. A remix featuring Sting International features a sample of Marvin Gaye’s “Let’s Get It On” was released in January 1996. The latter is featured on some versions of the Boombastic album as a bonus track.&lt;/p&gt;', 'producers': [{'name': 'Robert Livingston', 'url': 'https://genius.com/artists/Robert-livingston'}, {'name': 'Sting International', 'url': 'https://genius.com/artists/Sting-international'}], 'writers': [{'name': 'King Floyd', 'url': 'https://genius.com/artists/King-floyd'}, {'name': 'Robert Livingston', 'url': 'https://genius.com/artists/Robert-livingston'}, {'name': 'Shaggy', 'url': 'https://genius.com/artists/Shaggy'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Joy-division-transmission-lyrics', 'lyrics': "[Intro]\nRadio, live transmission\nRadio, live transmission\n\n[Verse 1]\nListen to the silence, let it ring on\nEyes, dark grey lenses frightened of the sun\nWe would have a fine time living in the night\nLeft to blind destruction, waiting for our sight\n\n[Verse 2]\nAnd we would go on as though nothing was wrong\nAnd hide from these days we remained all alone\nStaying in the same place, just staying out the time\nTouching from a distance, further all the time\n\n[Chorus]\nDance, dance, dance, dance, dance, to the radio\nDance, dance, dance, dance, dance, to the radio\nDance, dance, dance, dance, dance, to the radio\nDance, dance, dance, dance, dance, to the radio\n\n[Verse 3]\nWell I could call out when the going gets tough\nThe things that we've learnt are no longer enough\nNo language, just sound, that's all we need know\nTo synchronise love to the beat of the show\nAnd we could dance\n[Chorus]\nDance, dance, dance, dance, dance, to the radio\nDance, dance, dance, dance, dance, to the radio\nDance, dance, dance, dance, dance, to the radio\nDance, dance, dance, dance, dance, to the radio", 'annotations': {'description': '', 'producers': [{'name': 'Martin Hannett', 'url': 'https://genius.com/artists/Martin-hannett'}], 'writers': [{'name': 'Stephen Morris', 'url': 'https://genius.com/artists/Stephen-morris'}, {'name': 'Bernard Sumner', 'url': 'https://genius.com/artists/Bernard-sumner'}, {'name': 'Peter Hook', 'url': 'https://genius.com/artists/Peter-hook'}, {'name': 'Ian Curtis', 'url': 'https://genius.com/artists/Ian-curtis'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Kings-of-leon-waste-a-moment-lyrics', 'lyrics': "[Verse 1]\nAll the way from Waco to WeHo with a rabbit on her chain\nDrove a little slick car to tend bar with the static on her brain\nShe's a little burner, burner, gonna throw you to the flame\nLittle ticking time bomb, time bomb, gonna blow us all away\n\n[Chorus]\nOh, take the time to waste a moment\nOh, never ask to be forgiven\n\n[Verse 2]\nTex, he was her boyfriend with no kin always running from the law\nEvery other weekend, the week ends with his back in her claw\nHe's a livewire, wired, shooting sparks in the night\nHe’s a gun for a hire, hired with a bead in his sights\n\n[Chorus]\nOh, take the time to waste a moment\nOh, facing where the lines are broken\nOh, name your price to all this living\nOh, never ask to be forgiven\n\n[Instrumental break]\n\n[Chorus]\nOh, take the time to waste a moment\nOh, face it where the lines are broken\nOh, name a price to all that's living\nOh, never ask to be forgiven", 'annotations': {'description': '&lt;p&gt;Another story-telling song, Caleb and co follow a waitress from “Waco to WeHo,” and through her difficult relationship with a hardened man. It’s a small town tale given a huge sonic backdrop.&lt;/p&gt;\n\n&lt;p&gt;The first single from the record, it earned a &lt;a href="https://www.youtube.com/watch?v=AmAaWCFlxEE" rel="noopener nofollow"&gt;video&lt;/a&gt; and a rollout which saw &lt;a href="http://www.nme.com/blogs/nme-blogs/kings-of-leons-waste-a-moment-a-tantalising-reminder-of-why-we-love-them-3394" rel="noopener nofollow"&gt;&lt;em&gt;NME&lt;/em&gt; reviewing the track.&lt;/a&gt; Despite the band covering that issue, the publication called the song out for it’s huge chorus “that takes itself slightly too serious.”&lt;/p&gt;', 'producers': [{'name': 'Markus Dravs', 'url': 'https://genius.com/artists/Markus-dravs'}], 'writers': [{'name': 'Caleb Followill', 'url': 'https://genius.com/artists/Caleb-followill'}, {'name': 'Jared Followill', 'url': 'https://genius.com/artists/Jared-followill'}, {'name': 'Matthew Followill', 'url': 'https://genius.com/artists/Matthew-followill'}, {'name': 'Nathan Followill', 'url': 'https://genius.com/artists/Nathan-followill'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Rage-against-the-machine-renegades-of-funk-lyrics', 'lyrics': '[Intro]\nNo matter how hard you try, you can\'t stop us now\nNo matter how hard you try, you can\'t stop us now\nWe\'re the renegades of this atomic age\nThis atomic age of renegades\nRenegades of this atomic age\nThis atomic age of renegades\n\n[Verse 1]\nSince the Prehistoric ages and the days of ancient Greece\nRight down through the Middle Ages\nPlanet Earth kept going through changes\nAnd then no renaissance came (Came)\nAnd times continued to change (Change)\nNothing stayed the same, but there were always renegades\nLike Chief Sitting Bull, Tom Paine\nDr. Martin Luther King, Malcolm X\nThey were renegades of their time and age\nSo many renegades!\n\n[Chorus]\nWe\'re the Renegades of funk\nWe\'re the Renegades of funk\nWe\'re the Renegades of funk\nWe\'re the Renegades of funk\n[Verse 2]\nFrom a different solar system\nMany, many galaxies away\nWe are the force of another creation\nA new musical revelation\nAnd we\'re on this musical mission, to help the others listen\nAnd groove from land to land, singin\' electronic chants like\nZulu Nation\n\n[Bridge]\nRevelations\nDestroy all nations\nDestroy all nations\nDestroy all nations\nDestroy all nations\nDestroy all nations\nDestroy all nations\n\n[Verse 3]\nNow renegades are the people with their own philosophies\nThey change the course of history\nEveryday people like you and me\nWe\'re the renegades, we\'re the people with our own philosophies\nWe change the course of history\nEveryday people like you and me\nCome on\n[Chorus]\nWe\'re the renegades of funk\nWe\'re the renegades of funk\nWe\'re the renegades of funk\nWe\'re the renegades of funk\n\n[Bridge]\nWith Poppin\', sockin\', rockin\' puttin\' a side of hip-hop\nBecause where we\'re goin\' there ain\'t no stoppin\'\nPoppin\', sockin\', rockin\', puttin\' a side of hip-hop\nBecause where we\'re goin\' there ain\'t no stoppin\'\nPoppin\' and sockin\' and rockin\' and puttin\' a side of hip-hop\n\'Cause we\'re poppin\', sockin\', rockin\' puttin\' a side of hip-hop\nPoppin\', sockin\', rockin\' puttin\' a side of HIP-HOP!!\n\n[Chorus]\nWe\'re the renegades of funk\nWe\'re the renegades of funk\nWe\'re the renegades of funk\nWe\'re the renegades of funk\n\n[Verse 4]\nWe\'re teachers of the funk and not of empty popping\nWe\'re blessed with the force and the sight of electronics\nWith the bass, and the treble, the horns, and our vocals\n\'Cause every time I pop into the beat, we get fresh\n[*drum break*]\n\nCome on\n\n[Guitar solo]\n\nCome on\n\n[Verse 5]\nThere was a time when our music\nWas something called "The Bay Street" beat\nPeople would gather from all around\nTo get down to the big sound\nYou had to be a renegade in those days\nTo take a man to the dance floor\n\n[Verse 6]\nSay jam sucka (Jam sucka)\nSay jam sucka (Jam sucka)\nSay groove sucka (Move sucka)\nNow groove sucka (Move sucka)\nNow dance sucka (Dance sucka)\nNow dance sucka (Dance sucka)\nSay move sucka (Move sucka)\nNow move sucka (Move sucka)\nSay jam sucka (Jam sucka)\nSay jam sucka (Jam sucka)\nSay groove sucka (Move sucka)\nNow groove sucka (Move sucka)\nSay dance sucka (Dance sucka)\nSay dance sucka (Dance sucka)\nSay move sucka (Move sucka)\nNow move sucka (Move sucka)\n\n[Outro]\nWe\'re the renegades of funk\nWe\'re the renegades of funk\nWe\'re the renegades of funk\nWe\'re the renegades of funk\nWe\'re the renegades of funk\nWe\'re the renegades of funk\nWe\'re the renegades of funk\nWe\'re the renegades of funk', 'annotations': {'description': '&lt;p&gt;Originally a 1983 single by &lt;a href="https://genius.com/Afrika-bambaataa-and-soulsonic-force-renegades-of-funk-lyrics" rel="noopener" data-api_path="/songs/9249"&gt;Afrika Bambaataa &amp;amp; the Soulsonic Force&lt;/a&gt;, “Renegades of Funk” is notable for drawing a connection between revolutionaries and street artists through politically fuelled lyrics. Empowering themes within the song emphasise the fact that everyday people can become great leaders.&lt;/p&gt;\n\n&lt;p&gt;Rage Against the Machine released their version of the single in 2001, which features a percussion interpolation of &lt;a href="https://genius.com/Incredible-bongo-band-apache-lyrics" rel="noopener" data-api_path="/songs/696164"&gt;“Apache” by the Incredible Bongo Band&lt;/a&gt;. The single was included on Rage Against the Machine’s cover album, &lt;a href="https://genius.com/albums/Rage-against-the-machine/Renegades" rel="noopener" data-api_path="/albums/8641"&gt;&lt;em&gt;Renegades&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The &lt;a href="https://www.youtube.com/watch?v=5-9e4l1zz-4" rel="noopener nofollow"&gt;Steven Murashinge directed video&lt;/a&gt; reflects the song’s original message, featuring a montage of hip-hop musicians and events of the Civil Rights movements. Some of the &lt;a href="https://en.wikipedia.org/wiki/Renegades_of_Funk#Rage_Against_the_Machine_cover" rel="noopener nofollow"&gt;notable figures implied by the video to be “renegades of funk”&lt;/a&gt; include &lt;a href="https://genius.com/artists/Martin-luther-king-jr" rel="noopener" data-api_path="/artists/2028"&gt;Martin Luther King Jr.&lt;/a&gt;, &lt;a href="https://genius.com/artists/Malcolm-x" rel="noopener" data-api_path="/artists/12037"&gt;Malcom X&lt;/a&gt;, &lt;a href="https://en.wikipedia.org/wiki/Rosa_Parks" rel="noopener nofollow"&gt;Rosa Parks&lt;/a&gt; and hip-hop group &lt;a href="https://genius.com/artists/Nwa" rel="noopener" data-api_path="/artists/974"&gt;N.W.A.&lt;/a&gt;. This is intertwined with footage of Los Angeles based &lt;a href="http://www.thedirtfloor.com/2010/10/26/disobedience-joey-krebs-the-phantom-street-artist/" rel="noopener nofollow"&gt;Phantom Street Artist Joey Krebs&lt;/a&gt; spray-painting his infamous outline silhouettes. Krebs is also responsible for creating the cover artwork for &lt;a href="https://genius.com/albums/Rage-against-the-machine/The-battle-of-los-angeles" rel="noopener" data-api_path="/albums/8637"&gt;“The Battle of Los Angeles”&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/5d12ed6631151d0cf11e9cd2393bbdbc.600x399x1.jpg" alt="" width="600" height="399" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;Rage Against the Machine’s cover was sampled on “Weird Al” Yankovic’s medley, &lt;a href="https://genius.com/Weird-al-yankovic-the-angry-white-boy-polka-lyrics" rel="noopener" data-api_path="/songs/497763"&gt;“Angry White Boy Polka”&lt;/a&gt; for his 2003 album, &lt;a href="https://genius.com/albums/Weird-al-yankovic/Poodle-hat" rel="noopener" data-api_path="/albums/5944"&gt;&lt;em&gt;Poodle Hat&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;', 'producers': [{'name': 'Rage Against the Machine', 'url': 'https://genius.com/artists/Rage-against-the-machine'}, {'name': 'Rick Rubin', 'url': 'https://genius.com/artists/Rick-rubin'}], 'writers': [{'name': 'John Robie', 'url': 'https://genius.com/artists/John-robie'}, {'name': 'John Miller', 'url': 'https://genius.com/artists/John-miller'}, {'name': 'Arthur Baker', 'url': 'https://genius.com/artists/Arthur-baker'}, {'name': 'Afrika Bambaataa', 'url': 'https://genius.com/artists/Afrika-bambaataa'}], 'labels': [{'name': 'Epic Records', 'url': 'https://genius.com/artists/Epic-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Lady-gaga-applause-lyrics', 'lyrics': '[Verse 1]\nI stand here waiting for you to bang the gong\nTo crash the critic saying, "Is it right or is it wrong?"\nIf only fame had an IV, baby, could I bear\nBeing away from you? I found the vein, put it in here\n\n[Pre-Chorus]\nI live for the applause, applause, applause\nI live for the applause-plause, live for the applause-plause\nLive for the way that you cheer and scream for me\nThe applause, applause, applause\n\n[Chorus]\nGive me that thing that I love (I\'ll turn the lights out)\nPut your hands up, make \'em touch, touch (Make it real loud)\nGive me that thing that I love (I\'ll turn the lights out)\nPut your hands up, make \'em touch, touch (Make it real loud)\n\n[Post-Chorus]\nA-P-P-L-A-U-S-E (Make it real loud)\nA-P-P-L-A-U-S-E\nPut your hands up, make \'em touch, touch\nA-P-P-L-A-U-S-E (Make it real loud)\nA-P-P-L-A-U-S-E\nPut your hands up, make \'em touch, touch\n[Verse 2]\nI\'ve overheard your theory, "Nostalgia\'s for geeks"\nI guess sir, if you say so, some of us just like to read\nOne second I\'m a Koons, then suddenly the Koons is me\nPop culture was in art, now art\'s in pop culture, in me\n\n[Pre-Chorus]\nI live for the applause, applause, applause\nI live for the applause-plause, live for the applause-plause\nLive for the way that you cheer and scream for me\nThe applause, applause, applause\n\n[Chorus]\nGive me that thing that I love (I\'ll turn the lights out)\nPut your hands up, make \'em touch, touch (Make it real loud)\nGive me that thing that I love (I\'ll turn the lights out)\nPut your hands up, make \'em touch, touch (Make it real loud)\n\n[Post-Chorus]\nA-P-P-L-A-U-S-E (Make it real loud)\nA-P-P-L-A-U-S-E\nPut your hands up, make \'em touch, touch\nA-P-P-L-A-U-S-E (Make it real loud)\nA-P-P-L-A-U-S-E\nPut your hands up, make \'em touch, touch\n[Bridge]\nWoo... touch, touch\nWoo... touch, touch\nNow... woo-oh-oh-oh...\nWoo-oh-oh-oh...\n\n[Pre-Chorus]\nI live for the applause, applause, applause\nI live for the applause-plause, live for the applause-plause\nLive for the way that you cheer and scream for me\nThe applause, applause, applause\n\n[Chorus]\nGive me that thing that I love (I\'ll turn the lights out)\nPut your hands up, make \'em touch, touch (Make it real loud)\nGive me that thing that I love (I\'ll turn the lights out)\nPut your hands up, make \'em touch, touch (Make it real loud)\n\n[Post-Chorus]\nA-P-P-L-A-U-S-E (Make it real loud)\nA-P-P-L-A-U-S-E\nPut your hands up, make \'em touch, touch\nA-P-P-L-A-U-S-E (Make it real loud)\nA-P-P-L-A-U-S-E\nPut your hands up, make \'em touch, touch\n[Outro]\nA-R-T-P-O-P', 'annotations': {'description': '&lt;p&gt;“Applause” is an EDM/electro-pop celebration of sticking it to the haters, doing what one loves, and embracing the thrill of the crowd. Bed-ridden and forced to cancel tour dates due to a 2013 hip injury, Gaga yearned for the love – * the applause* – of her fans, inspiring her to write this song.&lt;/p&gt;\n\n&lt;p&gt;The song is the lead single off of Lady Gaga’s &lt;em&gt;ARTPOP&lt;/em&gt;. It’s less robust than her previous lead singles, like &lt;a href="https://genius.com/Lady-gaga-bad-romance-lyrics" rel="noopener" data-api_path="/songs/1313"&gt;“Bad Romance”&lt;/a&gt; and &lt;a href="https://genius.com/Lady-gaga-born-this-way-lyrics" rel="noopener" data-api_path="/songs/4320"&gt;“Born This Way”&lt;/a&gt;, but what it lacks in length it displays in nightclub-ready energy and unapologetic campiness.&lt;/p&gt;\n\n&lt;p&gt;The song’s cover art is possibly &lt;a href="http://flavorwire.com/407489/the-cover-of-lady-gagas-new-single-applause-looks-a-whole-lot-like-david-bowies-scary-monsters" rel="noopener nofollow"&gt;Bowie-influenced.&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/ec0c9d97237b28c537dc33b5edb3e8f6.607x469x1.png" alt="" width="607" height="469" data-animated="false"&gt;&lt;/p&gt;', 'producers': [{'name': 'Dino Zisis', 'url': 'https://genius.com/artists/Dino-zisis'}, {'name': 'Nick Monson', 'url': 'https://genius.com/artists/Nick-monson'}, {'name': 'Lady Gaga', 'url': 'https://genius.com/artists/Lady-gaga'}, {'name': 'DJ White Shadow', 'url': 'https://genius.com/artists/Dj-white-shadow'}], 'writers': [{'name': 'Steve Guess', 'url': 'https://genius.com/artists/Steve-guess'}, {'name': 'DJ White Shadow', 'url': 'https://genius.com/artists/Dj-white-shadow'}, {'name': 'DJ Snake', 'url': 'https://genius.com/artists/Dj-snake'}, {'name': 'Tchami', 'url': 'https://genius.com/artists/Tchami'}, {'name': 'Julien Arias', 'url': 'https://genius.com/artists/Julien-arias'}, {'name': 'Nicolas Mercier', 'url': 'https://genius.com/artists/Nicolas-mercier'}, {'name': 'Nick Monson', 'url': 'https://genius.com/artists/Nick-monson'}, {'name': 'Dino Zisis', 'url': 'https://genius.com/artists/Dino-zisis'}, {'name': 'Lady Gaga', 'url': 'https://genius.com/artists/Lady-gaga'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Madness-it-must-be-love-lyrics', 'lyrics': "[Verse 1]\nI never thought I'd miss you\nHalf as much as I do\nAnd I never thought I'd feel this way\nThe way I feel about you\n\n[Bridge]\nAs soon as I wake up every night every day\nI know that it's you I need\nTo take the blues away\n\n[Chorus]\nIt must be love, love, love\nIt must be love, love, love\nNothing more, nothing less\nLove is the best\n\n[Pre-Chorus]\nHow can it be that we can\nSay so much without words\nBless you and bless me\nBless the bees and the birds\n\n[Pre-Chorus]\nI've got to be near you every night, every day\nI couldn't be happy any other way\n[Chorus]\nIt must be love, love, love\nIt must be love, love, love\nNothing more, nothing less\nLove is the best\n\n[Pre-Chorus]\nAs soon as I wake up every night every day\nI know that it's you I need\nTo take the blues away\n\n[Outro]\nIt must be love, love, love\nIt must be love, love, love\nIt must be love, love, love\nIt must be love, love, love\nIt must be love, love, love\nIt must be love...", 'annotations': {'description': '&lt;p&gt;It Must Be Love was originally written and recorded by Labi Siffre in 1971, but re-recorded by Madness in 1981. The Madness track reached #4 in the UK singles charts, staying in the charts for twelve weeks. It performed well in the US too, reaching #33 on the Billboard chart.&lt;/p&gt;\n\n&lt;p&gt;The track would go on to feature on the band’s #1 album, Complete Madness the following year&lt;/p&gt;', 'producers': [{'name': 'Alan Winstanley', 'url': 'https://genius.com/artists/Alan-winstanley'}, {'name': 'Clive Langer', 'url': 'https://genius.com/artists/Clive-langer'}], 'writers': [{'name': 'Labi Siffre', 'url': 'https://genius.com/artists/Labi-siffre'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/The-offspring-shes-got-issues-lyrics', 'lyrics': "[Verse 1]\nI'm seeing this girl and she just might be out of her mind\nWell, she's got baggage and it's of the emotional kind\nShe talks about closure and that validation bit\nI don't mean to be insensitive, but I really hate that shit\n\n[Chorus 1]\nAnd I say yeah, yeah\nOh man, she's got issues and I'm going to pay\nYeah, yeah\nShe thinks she's the victim, yeah\n\n[Verse 2]\nNow I know she'll feel abandoned\nIf I don't stay over late\nAnd I know she's afraid to commit\nBut it's only our second date\n\n[Chorus 1]\nAnd I say yeah, yeah\nOh man, she's got issues and I'm going to pay\nYeah, yeah\nShe thinks she's the victim but she takes it all out on me\n\n[Bridge]\nI don't know why you're messed up\nI don't know why your whole life is a chore\nJust do me a favor\nAnd check your baggage at the door\n[Verse 3]\nNow she talks about her ex nonstop, but I don't mind\nBut when she calls out his name in bed, that's where I draw the line\nYou told me a hundred times how your father left and he's gone\nBut I wish you wouldn't call me 'daddy' when we're gettin' it on\n\n[Chorus 1]\nAnd I say yeah, yeah\nOh man, she's got issues and I'm going to pay\nYeah, yeah\nShe thinks she's the victim and she takes it all out on me\n\nYeah, yeah\nMy God, she's got issues and I'm going to pay\nGoing to pay [x5]\n\n[Verse 4]\nIf you think I'm controlling\nThen why do you follow me around\nIf you're not co-dependent\nThen why do you let others drag you down\n\n[Bridge]\nI don't know why you're messed up\nI don't know why your whole life is a chore\nJust do me a favor\nAnd check your baggage at the door", 'annotations': {'description': '&lt;p&gt;A man complains about his girl who is angsty to the point of annoyance. Dexter Holland said about the background of this song:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;&lt;a href="http://books.google.com/books?id=3R7GZ8ghL8wC&amp;amp;pg=PA90&amp;amp;redir_esc=y#v=onepage&amp;amp;q&amp;amp;f=false" rel="noopener nofollow"&gt;“A song like ‘She’s Got Issues’ is saying ‘Hey, come on, let’s take on some responsibility for who we are instead of blaming our actions or behavior on things that aren’t relevant”&lt;/a&gt;&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/54dab7f70918bd588a5473f3fa8b5298.220x222x1.jpg" alt="" width="220" height="222" data-animated="false"&gt;&lt;/p&gt;', 'producers': [{'name': 'Dave Jerden', 'url': 'https://genius.com/artists/Dave-jerden'}], 'writers': [{'name': 'Dexter Holland', 'url': 'https://genius.com/artists/Dexter-holland'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Zz-top-sharp-dressed-man-lyrics', 'lyrics': "[Intro]\nYeah\n\n[Verse 1]\nClean shirt, new shoes\nAnd I don't know where I am goin' to\nSilk suit, black tie (Black tie)\nI don't need a reason why\n\n[Chorus]\nThey come runnin' just as fast as they can\n'Cause every girl crazy 'bout a sharp-dressed man\n\n[Verse 2]\nGold watch, diamond ring\nI ain't missin' not a single thing\nCufflinks, stick pin\nWhen I step out, I'm gonna do you in\n\n[Chorus]\nThey come runnin' just as fast as they can\n'Cause every girl crazy 'bout a sharp-dressed man\n\n[Guitar Solo]\nUh-huh\n[Verse 3]\nTop coat, top hat\nAnd I don't worry 'cause my wallet's fat\nBlack shades, white glove\nLookin' sharp, lookin' for love\n\n[Chorus]\nThey come runnin' just as fast as they can\n'Cause every girl crazy 'bout a sharp-dressed man\n\n[Outro]\nOh, you can't lose with the dress I use\nThat's right, real fine", 'annotations': {'description': '&lt;p&gt;“Sharp Dressed Man” is one of ZZ Top’s best known songs, performed by ZZ Top from their signature album &lt;em&gt;Eliminator&lt;/em&gt; released in 1983. The song is famous for its guitar riff, recognizable chorus, and music video which received a large amount of airplay during the early years of MTV. When released as a single late in the year, it became their most successful song so far, reaching #2 on the Mainstream Rock charts and #56 on Pop Singles. The lyrics deal with how women  have a fondness for men wearing elegant clothes.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/ed83733b4682dc789147858bb04ea39b.534x763x1.jpg" alt="" width="534" height="763" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;The song is featured in the 2005 video game Guitar Hero, as well as a brief appearance on an episode of Beavis and Butt-Head entitled “Radio Sweethearts,” in which it can be heard on a radio. It also appeared on an S&amp;amp;K men’s suits commercial. Debbie Harry covered the song on her “Domination” tour of the UK in July 1991. At 2007’s VH1 Rock Honors. Nickelback covered the song as a tribute (Billy Gibbons had earlier made a guest appearance on Nickelback’s own song “Rockstar”). This song has also been in an episode of Mountie O’reely titled ‘Mountie O’reely and the Fountain of Youth’ and most recently it was featured during a scene in the 2007 movie Evan Almighty. ZZ Top played this song at halftime of the 2008 FedEx Orange Bowl. The guitar solo was ranked number 43 on Guitar World’s “100 Best Guitar Solos”.&lt;/p&gt;\n\n&lt;p&gt;Nowadays the song can be briefly heard in A&amp;amp;E’s American reality TV series; Duck Dynasty.&lt;/p&gt;\n\n&lt;p&gt;Graphic adventure computer game Space Quest: the Sarien Encounter features an alien bar showcasing ZZ Top performing Sharp Dressed Man. Sierra, who developed the game, got sued for using their image without permission. Regardless they are featured in the remake.&lt;/p&gt;', 'producers': [{'name': 'Bill Ham', 'url': 'https://genius.com/artists/Bill-ham'}], 'writers': [{'name': 'Frank Beard', 'url': 'https://genius.com/artists/Frank-beard'}, {'name': 'Dusty Hill', 'url': 'https://genius.com/artists/Dusty-hill'}, {'name': 'Billy F. Gibbons', 'url': 'https://genius.com/artists/Billy-f-gibbons'}], 'labels': [{'name': 'Warner Records', 'url': 'https://genius.com/artists/Warner-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Everything-but-the-girl-missing-lyrics', 'lyrics': "[Verse 1]\nI step off the train\nI'm walking down your street again\nAnd past your door\nBut you don't live there anymore\nIt's years since you've been there\nNow you've disappeared somewhere\nLike outer space\nYou've found some better place\n\n[Chorus]\nAnd I miss you\nLike the deserts miss the rain\nAnd I miss you\nLike the deserts miss the rain\n\n[Verse 2]\nCould you be dead?\nYou always were two steps ahead\nOf everyone\nWe'd walk behind while you would run\nI look up at your house\nAnd I can almost hear you shout\nDown to me\nWhere I always used to be\n[Chorus]\nAnd I miss you\nLike the deserts miss the rain\nAnd I miss you\nLike the deserts miss the rain\n\n[Verse 3]\nBack on the train\nI ask why did I come again\nCan I confess\nI've been hanging around your old address?\nAnd the years have proved\nTo offer nothing since you moved\nYou're long gone\nBut I can't move on\n\n[Chorus]\nAnd I miss you\nLike the deserts miss the rain\nAnd I miss you\nLike the deserts miss the rain\n\n[Verse 4]\nI step off the train\nI'm walking down your street again\nAnd past your door\nI guess you don't live there anymore\nIt's years since you've been there\nNow you've disappeared somewhere\nLike outer space\nYou've found some better place\nAnd I miss you\nAnd I miss you\nYou've found some better place\n[Outro]\nAnd I miss you\nLike the deserts miss the rain\nAnd I miss you, yeah\nLike the deserts miss the rain\nAnd I miss you\nLike the deserts miss the rain\nAnd I miss you, yeah\nLike the deserts miss the rain\nLike the deserts miss the rain\nLike the deserts miss the rain", 'annotations': {'description': '&lt;p&gt;“Missing” is an international hit song by British duo Everything But The Girl. Though the initial release of the quiet, acoustic original version didn’t make much noise, a remix treatment by &lt;a href="https://genius.com/artists/Todd-terry" rel="noopener" data-api_path="/artists/408753"&gt;Todd Terry&lt;/a&gt; the following year became a #1 hit in multiple countries worldwide.&lt;/p&gt;\n\n&lt;p&gt;Following its success, Todd Terry was called on to deliver a soundalike remix of EBTG’s single &lt;a href="https://genius.com/Everything-but-the-girl-wrong-lyrics" rel="noopener" data-api_path="/songs/903391"&gt;“Wrong”&lt;/a&gt; from their next album &lt;a href="https://genius.com/albums/Everything-but-the-girl/Walking-wounded" rel="noopener" data-api_path="/albums/177561"&gt;&lt;em&gt;Walking Wounded&lt;/em&gt;&lt;/a&gt;. Overall, the success of “Missing” pushed the group in a more dance oriented direction, despite them recording eight albums of mellow jazz/folk fare for the preceding 10 years.&lt;/p&gt;', 'producers': [{'name': 'Tracey Thorn', 'url': 'https://genius.com/artists/Tracey-thorn'}, {'name': 'Ben Watt', 'url': 'https://genius.com/artists/Ben-watt'}, {'name': 'John Coxon', 'url': 'https://genius.com/artists/John-coxon'}], 'writers': [{'name': 'Ben Watt', 'url': 'https://genius.com/artists/Ben-watt'}, {'name': 'Tracey Thorn', 'url': 'https://genius.com/artists/Tracey-thorn'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Prince-and-the-revolution-kiss-lyrics', 'lyrics': '[Verse 1]\nYou don\'t have to be beautiful to turn me on\nI just need your body, baby, from dusk \'til dawn\nYou don\'t need experience to turn me out\nYou just leave it all up to me, I\'m gonna show you what it\'s all about\n\n[Chorus]\nYou don\'t have to be rich to be my girl\nYou don\'t have to be cool to rule my world\nAin\'t no particular sign I\'m more compatible with\nI just want your extra time and your kiss\n\n[Verse 2]\nYou got to not talk dirty, baby, if you wanna impress me\nYou can\'t be too flirty, mama, I know how to undress me\nI want to be your fantasy, maybe you could be mine\nYou just leave it all up to me, we could have a good time\n\n[Chorus]\nYou don\'t have to be rich to be my girl\nYou don\'t have to be cool to rule my world\nAin\'t no particular sign I\'m more compatible with\nI just want your extra time and your kiss\n\n[Bridge]\nYes, oh, I think I wanna dance, uh\nGotta, gotta, oh\nLittle Girl Wendy\'s Parade\nGotta, gotta, gotta\n[Verse 3]\nWomen, not girls, rule my world, I said they rule my world\nAct your age, mama, not your shoe size, maybe we could do the twirl\nYou don\'t have to watch "Dynasty" to have an attitude\nYou just leave it all up to me, my love will be your food\n\n[Chorus]\nYou don\'t have to be rich to be my girl\nYou don\'t have to be cool to rule my world\nAin\'t no particular sign I\'m compatible with!\nI just want your extra time and your kiss', 'annotations': {'description': '&lt;p&gt;“Kiss” is the lead single from Prince’s eighth album &lt;em&gt;Parade&lt;/em&gt; (which served as the soundtrack to Prince’s second film, &lt;em&gt;Under the Cherry Moon&lt;/em&gt;).&lt;/p&gt;\n\n&lt;p&gt;The song was not prominently featured in &lt;em&gt;Under The Cherry Moon&lt;/em&gt;, but quickly became not only a huge hit for Prince, but also one of his most iconic songs. It’s success ensured &lt;em&gt;Parade&lt;/em&gt; would succeed as an album commercially and critically, even though &lt;em&gt;Under The Cherry Moon&lt;/em&gt; quickly flopped and none of the subsequent singles managed to make much of an impact, in the wake of the film’s failure.&lt;/p&gt;\n\n&lt;p&gt;In spite of being one of Prince’s signature songs, “Kiss” almost didn’t see release as a single, let along as a Prince single. The song was originally conceived as blues song for the funk-rock band &lt;a href="https://genius.com/artists/Mazarati" rel="noopener" data-api_path="/artists/659212"&gt;Mazarati&lt;/a&gt;, with whom Prince was working at the time. They transformed the song into the stuttering, slinky funk number you hear now; Prince reclaimed the track, removing a bassline, singing it an octave higher, and adding the song’s signature guitar riff/solo.&lt;/p&gt;', 'producers': [{'name': 'Prince', 'url': 'https://genius.com/artists/Prince'}], 'writers': [{'name': 'Prince', 'url': 'https://genius.com/artists/Prince'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Korn-word-up-lyrics', 'lyrics': "[Verse 1]\nYo, pretty ladies around the world\nGot a weird thing to show ya, so tell all the boys and girls\nTell your brother, your sister and your mama too\nWe're about to go down, and you know just what to do\nWave your hands in the air like you don't care\nGlide by the people as they start to look and stare\nDo your dance, do your dance, do your dance quick, mama\nCome on, baby, tell me what's the word\n\n[Chorus]\nOh, word up, everybody say\nWhen you hear the call, you've got to get it on the way\nWord up, it's the code word\nNo matter where you say it, you know that you'll be heard\n\n[Verse 2]\nNow all you sucker DJs who think you're fly\nThere's got to be a reason, and we know the reason why\nYou try to put on those airs and act real cool\nBut you got to realize that you're acting like fools\nIf there's music, we can use it, be free to dance\nWe don't have the time for psychological romance\nNo romance, no romance, no romance for me, mama\nCome on, baby, tell me what's the word\n[Chorus]\nOh, word up, everybody say\nWhen you hear the call, you've got to get it on the way\nWord up, it's the code word\nNo matter where you say it, you know that you'll be heard\n\n[Chorus]\nWord up, everybody say\nWhen you hear the call, you've got to get it on the way\nWord up, it's the code word\nNo matter where you say it, you know that you'll be heard\nWord up, everybody say\nWhen you hear the call, you've got to get it on the way\nWord up, it's the code word\nNo matter where you say it, you know that you'll be heard", 'annotations': {'description': '&lt;p&gt;A cover of Cameo’s hit dance track, “Word Up!” somehow worked perfectly for a band more known for death and darkness. Every dog has his day!&lt;/p&gt;', 'producers': [{'name': 'Korn', 'url': 'https://genius.com/artists/Korn'}, {'name': 'Toby Wright', 'url': 'https://genius.com/artists/Toby-wright'}, {'name': 'Jonathan Davis', 'url': 'https://genius.com/artists/Jonathan-davis'}], 'writers': [{'name': 'Larry Blackmon', 'url': 'https://genius.com/artists/Larry-blackmon'}, {'name': 'Thomas Jenkins', 'url': 'https://genius.com/artists/Thomas-jenkins'}], 'labels': [{'name': 'Legacy Recordings', 'url': 'https://genius.com/artists/Legacy-recordings'}, {'name': 'Epic Records', 'url': 'https://genius.com/artists/Epic-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Philip-bailey-easy-lover-lyrics', 'lyrics': "[Chorus: Bailey &amp; Collins]\nEasy lover\nShe'll get a hold on you believe it\nLike no other\nBefore you know it you'll be on your knees\nShe's an easy lover\nShe'll take your heart but you won't feel it\nShe's like no other\nAnd I'm just trying to make you see\n\n[Verse 1: Bailey]\nShe's the kind of girl you dream of\nDream of keeping hold of\nYou'd better forget it\nYou'll never get it\nShe will play around and leave you\nLeave you and deceive you\nBetter forget it\nOh, you'll regret it\n\n[Bridge: Collins]\nNo you'll never change her, so leave it, leave it\nGet out quick cause seeing is believing\nIt's the only way\nYou'll ever know, oh\n[Chorus]\nShe's an easy lover\nShe'll get a hold on you believe it\nLike no other\nBefore you know it you'll be on your knees\nShe's an easy lover\nShe'll take your heart but you won't feel it\nShe's like no other\nAnd I'm just trying to make you see\n\n[Verse 2: Bailey]\nYou're the one that wants to hold her\nHold her and control her\nYou'd better forget it\nYou'll never get it\nFor she'll say that there's no other\n'Til she finds another\nBetter forget it\nOh, you'll regret it\n\n[Bridge: Collins]\nAnd don't try to change her, just leave it, leave it\nYou're not the only one, ooh seeing is believing\nIt's the only way\nYou'll ever know, oh\n[Instrumental]\n\n[Bridge: Bailey &amp; Collins]\nNow don't try to change her, just leave it, leave it\nYou're not the only one, cause seeing is believing\nIt's the only way\nYou'll ever know, oh\n\n[Chorus]\nShe's an easy lover\nShe'll get a hold on you believe it\nShe's like no other\nBefore you know it you'll be on your knees\n(You'll be down on your knees)\nShe's an easy lover\nShe'll take your heart but you won't feel it\nShe's like no other\nAnd I'm just trying to make you see\n(Trying to make you see, yeah)\n\nShe's an easy lover\nShe'll get a hold on you believe it\n(Get a hold on you)\nLike no other\nBefore you know it you'll be on your knees\n(You'll be on your knees)\nShe's an easy lover\nShe'll take your heart but you won't feel it\n(You won't feel it)\nShe's like no other\nAnd I'm just trying to make you see\n(Trying to make you see)\nShe's an easy lover\nShe'll get a hold on you believe it...", 'annotations': {'description': '&lt;p&gt;Released in 1984 on Bailey’s album &lt;em&gt;Chinese Wall&lt;/em&gt;, “Easy Lover” is a collaboration between Phil Collins and Bailey. The song was a massive hit on both sides of the Atlantic (#2 in the US, behind &lt;a href="https://genius.com/artists/Foreigner" rel="noopener" data-api_path="/artists/24055"&gt;Foreigner&lt;/a&gt;’s “I Want To Know What Love Is”), #1 in the UK and top ten in &lt;a href="https://dutchcharts.nl/showitem.asp?interpret=Philip+Bailey+with+Phil+Collins&amp;amp;titel=Easy+Lover&amp;amp;cat=s" rel="noopener nofollow"&gt;six other countries&lt;/a&gt;) in early 1985.&lt;/p&gt;\n\n&lt;p&gt;Bailey originally &lt;a href="https://www.latimes.com/archives/la-xpm-1985-01-13-ca-8675-story.html" rel="noopener nofollow"&gt;approached&lt;/a&gt; Collins and asked him if he would like to write some ballads for the album. Collins ended up also producing the album and singing on this track.&lt;/p&gt;\n\n&lt;p&gt;The song itself is a straightforward warning from one bro to another: steer clear of that dame you have your eye on.  For while she may be “easy” to get along with–and smash–she’ll play you just like she plays all the other guys she sees and &lt;a href="https://www.songfacts.com/facts/philip-bailey/easy-lover" rel="noopener nofollow"&gt;can’t be tamed&lt;/a&gt;.&lt;/p&gt;', 'producers': [{'name': 'Phil Collins', 'url': 'https://genius.com/artists/Phil-collins'}], 'writers': [{'name': 'Nathan East', 'url': 'https://genius.com/artists/Nathan-east'}, {'name': 'Phil Collins', 'url': 'https://genius.com/artists/Phil-collins'}, {'name': 'Philip Bailey', 'url': 'https://genius.com/artists/Philip-bailey'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Kiesza-hideaway-lyrics', 'lyrics': "[Produced by Kiesza and Rami Samir Afuni]\n[Directed by Kiesza, Ljuba Castot and Rami Samir Afuni]\n\n[Verse 1]\nTaking me higher than I've ever been before\nI'm holding it back, just want to shout out, give me more\nYou're just a hideaway, you're just a feeling\nYou let my heart escape beyond the meaning\nNot even I can find a way to stop the storm\nOh, baby, it's out of my control, what's going on?\nBut you're just a chance I take to keep on dreaming\nYou're just another day that keeps me breathing\n\n[Pre-Chorus]\nBaby, I love the way that there's nothing sure\nBaby, don't stop me, hideaway with me some more\n\n[Drop]\nMash it\n\n[Chorus]\nOoh, aah, aah, ooh\nOoh, aah, aah, ooh\nOoh, aah, aah, ooh\nOoh, aah, aah, ooh\n[Verse 2]\nYou send me the shiver and the spine, might overflow\nYou're bringing me closer to the edge, I'm letting go\nOh-oh, you're just a hideaway, you're just a feeling\nYou let my heart escape beyond the meaning\nPulling my head into the clouds, I'm floating off\nWhen you can be going, I can't find a way to stop\nOh-oh, you're just a chance I take to keep on dreaming\nYou're just another day that keeps me breathing\n\n[Chorus]\nOoh, aah, aah, ooh\nOoh, aah, aah, ooh\nBaby, I love the way that there's nothing sure (Ooh, aah)\nBaby, don't stop me, hideaway with me some more (Aah, ooh)\nAah, aah, aah (Ooh, aah)\nAah, aah, hideaway with me some more (Aah, ooh)\n\n[Bridge]\nBringing me higher than I've ever been before\nI'm holding it back, just want to shout out, give me more\nBut you're just a hideaway, you're just a feeling\nYou let my heart escape beyond the meaning\nNot even I can find a way to stop the storm\nOh, baby, it's out of my control, what's going on?\nYou're just a chance I take to keep on dreaming\nYou're just another day that keeps me breathing\nAah, aah\nAah, yeah, you're a day that keeps me dreaming\n[Drop]\nMash it\n\n[Chorus]\nOoh, aah, aah, ooh\nOoh, aah, aah, ooh\nBaby, I love the way that there's nothing sure (Ooh, aah)\nBaby, don't stop me, hideaway with me some more (Aah, ooh)\nAah, aah, aah (Ooh, aah)\nAah, aah, hideaway with me some more (Aah, ooh)", 'annotations': {'description': '&lt;p&gt;“Hideaway” is the first single of Canadian artist Kiesza. It has charted at #1 in the UK.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="http://www.youtube.com/watch?v=ESXgJ9-H-2U" rel="noopener nofollow"&gt;http://www.youtube.com/watch?v=ESXgJ9-H-2U&lt;/a&gt;&lt;/p&gt;', 'producers': [{'name': 'Rami Samir Afuni', 'url': 'https://genius.com/artists/Rami-samir-afuni'}], 'writers': [{'name': 'Kiesza', 'url': 'https://genius.com/artists/Kiesza'}, {'name': 'Rami Samir Afuni', 'url': 'https://genius.com/artists/Rami-samir-afuni'}], 'labels': [{'name': 'Island Records', 'url': 'https://genius.com/artists/Island-records'}, {'name': 'Lokal Legend', 'url': 'https://genius.com/artists/Lokal-legend'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Elle-king-exs-and-ohs-lyrics', 'lyrics': "[Verse 1]\nWell, I had me a boy, turned him into a man\nI showed him all the things that he didn't understand, whoa\nAnd then I let him go\nNow there's one in California who's been cursin' my name\n'Cause I found me a better lover in the UK, hey, hey\nUntil I made my getaway\n\n[Pre-Chorus 1]\nOne, two, three, they gonna run back to me\n'Cause I'm the best baby that they never gotta keep\nOne, two, three, they gonna run back to me\nThey always wanna come, but they never wanna leave\n\n[Chorus 1]\nEx's and the oh, oh, oh's\nThey haunt me like a-ghosts\nThey want me to make 'em oh, oh, oh\nThey won't let go, ex's and oh's\n\n[Verse 2]\nHad a summer lover down in New Orleans\nKept him warm in the winter, left him frozen in the spring, my, my\nHow the seasons go by\nI get high and I love to get low\nSo the hearts keep breaking and the heads just roll, you know\nThat's how the story goes\n[Pre-Chorus 1]\nOne, two, three, they gonna run back to me\n'Cause I'm the best baby that they never gotta keep\nOne, two, three, they gonna run back to me\nThey always wanna come, but they never wanna leave\n\n[Chorus 2]\nEx's and the oh, oh, oh's\nThey haunt me like a-ghosts\nThey want me to make 'em oh, oh, oh\nThey won't let go\nMy ex's and the oh, oh, oh's\nThey haunt me like a-ghosts\nThey want me to make 'em oh, oh, oh\nThey won't let go, ex's and oh's\n\n[Guitar Solo]\n\n[Pre-Chorus 2]\nOne, two, three, they gonna run back to me\nClimbing over mountains and a-sailing over seas\nOne, two, three, they gonna run back to me\nThey always wanna come, but they never wanna leave\n\n[Chorus 2]\nMy ex's and the oh, oh, oh's\nThey haunt me like a-ghosts\nThey want me to make 'em oh, oh, oh\nThey won't let go\nEx's and the oh, oh, oh's\nThey haunt me like a-ghosts\nThey want me to make 'em oh, oh, oh\nThey won't let go, ex's and oh's", 'annotations': {'description': '&lt;p&gt;Elle King sings about her old lovers and how they all come back to her wanting her love.&lt;/p&gt;\n\n&lt;p&gt;In the song, Elle King flips the stereotypical “love ‘em and leave \'em” mentality by ascribing it to a female singer through a series of biting innuendos.&lt;/p&gt;\n\n&lt;p&gt;The title, “Ex’s and Oh’s,” simultaneously evokes Tic-Tac-Toe, signaling that the singer treats relationships as a game, as well as plays off of colloquialisms for past relationships (Ex’s) and climaxes (Oh’s).&lt;/p&gt;\n\n&lt;p&gt;Trisha Yearwood similarly has a song called &lt;a href="https://genius.com/Trisha-yearwood-xxxs-and-ooos-an-american-girl-lyrics" rel="noopener" data-api_path="/songs/584731"&gt;“XXX’s and OOO’s (An American Girl).”&lt;/a&gt;&lt;/p&gt;', 'producers': [{'name': 'Dave Bassett', 'url': 'https://genius.com/artists/Dave-bassett'}], 'writers': [{'name': 'Kristopher Gregory', 'url': 'https://genius.com/artists/Kristopher-gregory'}, {'name': 'Dave Bassett', 'url': 'https://genius.com/artists/Dave-bassett'}, {'name': 'Elle King', 'url': 'https://genius.com/artists/Elle-king'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Stone-temple-pilots-interstate-love-song-lyrics', 'lyrics': "[Verse 1]\nWaiting on a Sunday afternoon\nFor what I've read between the lines\nYour lies\nFeeling like a hand in rusted shame\nSo do you laugh or does it cry\nReply?\n\n[Chorus]\nLeaving on a Southern train\nOnly yesterday you lied\nPromises of what I seemed to be\nOnly watched the time go by\nAll of these things you said to me\n\n[Verse 2]\nBreathing is the hardest thing to do\nWith all I've said and all that's dead for\nYou\nYou lied\nGoodbye\n\n[Chorus]\nLeaving on a Southern train\nOnly yesterday you lied\nPromises of what I seemed to be\nOnly watched the time go by\nAll of these things I said to you", 'annotations': {'description': '&lt;p&gt;Weiland, and the DeLeo Brothers were so good at what now seems MOR– acoustic intros, power chords, high-tailing choruses– that &lt;strong&gt;&lt;em&gt;Interstate Love Song&lt;/em&gt;&lt;/strong&gt; dominated rock radio at a time when that actually meant something, and forced those who dismissed their chunky, ill-fitting Core to reconsider, begrudgingly.&lt;/p&gt;\n\n&lt;p&gt;The lyrics are about Scott Weiland relationship with his wife, Janina Castaeda. Before recording STP’s second album &lt;em&gt;Purple&lt;/em&gt; in Atlanta, Weiland promised his wife that he would stay off drugs (at the time he had a heroin addiction). He didn’t keep that promise and in phone calls informed Janina that everything was fine. The song is written in Janina’s point of view and how she saw through Scott’s lies.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/7a5469525679f1a27540121ae9cacbce.500x500x1.jpg" alt="" width="500" height="500" data-animated="false"&gt;&lt;/p&gt;', 'producers': [{'name': 'Brendan O’Brien', 'url': 'https://genius.com/artists/Brendan-obrien'}], 'writers': [{'name': 'Robert DeLeo', 'url': 'https://genius.com/artists/Robert-deleo'}, {'name': 'Scott Weiland', 'url': 'https://genius.com/artists/Scott-weiland'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Phil-collins-another-day-in-paradise-lyrics', 'lyrics': '[Verse 1]\nShe calls out to the man on the street\n"Sir, can you help me?\nIt\'s cold and I\'ve nowhere to sleep\nIs there somewhere you can tell me?"\nHe walks on, doesn\'t look back\nHe pretends he can\'t hear her\nStarts to whistle as he crosses the street\nSeems embarrassed to be there\n\n[Chorus]\nOh, think twice, \'cause it\'s another day for\nYou and me in paradise\nOh, think twice, \'cause it\'s just another day for you\nYou and me in paradise\n\n[Interlude]\nThink about it\n\n[Verse 2]\nShe calls out to the man on the street\nHe can see she\'s been crying\nShe\'s got blisters on the soles of her feet\nShe can\'t walk, but she\'s trying\n\n[Chorus]\nOh, think twice, \'cause it\'s another day for\nYou and me in paradise\nOh, think twice, it\'s just another day for you\nYou and me in paradise\n[Interlude]\nJust think about it\n\n[Bridge]\nOh lord, is there nothing more anybody can do?\nOh lord, there must be something you can say\n\n[Verse 3]\nYou can tell from the lines on her face\nYou can see that she\'s been there\nProbably been moved on from every place\n\'Cause she didn\'t fit in there\n\n[Chorus]\nOh, think twice, \'cause it\'s another day for\nYou and me in paradise\nOh, think twice, it\'s just another day for you\nYou and me in paradise\n\n[Outro]\nJust think about it\nMhm\nThink about it\nIt\'s just another day\nFor you and me in paradise\nIt\'s just another day\nFor you and me in paradise\n(Para-, paradise)\nParadise\nUh, just think about it\nParadise\nJust think about it\n(Para-, paradise)\nUh, in Paradise\nMhm, paradise\nParadise', 'annotations': {'description': '&lt;p&gt;A protest song released as the 7th track of 4th album &lt;a href="https://genius.com/albums/Phil-collins/But-seriously" rel="noopener" data-api_path="/albums/91026"&gt;&lt;em&gt;But Seriously&lt;/em&gt;&lt;/a&gt; in October 1989.&lt;/p&gt;\n\n&lt;p&gt;Interestingly, the song was the last #1 of the 1980’s and the first of the 1990’s.&lt;/p&gt;\n\n&lt;p&gt;Collins explained this song was about &lt;a href="http://www.nytimes.com/1991/02/21/arts/grammys-turn-into-quincy-jones-show.html" rel="noopener nofollow"&gt;despairing the homeless&lt;/a&gt; in multiple interviews:&lt;/p&gt;\n\n&lt;p&gt;To &lt;em&gt;The Mail On Sunday&lt;/em&gt;: “I wrote this after being in Washington DC where I was amazed by how &lt;strong&gt;many people I saw living in boxes&lt;/strong&gt;.”&lt;/p&gt;\n\n&lt;p&gt;In a &lt;em&gt;Musician&lt;/em&gt; interview: “I remember when we played Washington… Washington was almost at a standstill and these &lt;strong&gt;people were trying to sleep on the grills where all the hot air was coming up&lt;/strong&gt;, and you could see that it was in the shadow of Capitol Hill. I thought &lt;strong&gt;it was an extraordinary contradiction&lt;/strong&gt;.”&lt;/p&gt;\n\n&lt;p&gt;However, Collins was criticized by the English news for writing a song about the poor despite being wealthy. He &lt;a href="http://www.nytimes.com/1989/12/06/arts/the-pop-life-365789.html" rel="noopener nofollow"&gt;responded in a &lt;em&gt;New York Times&lt;/em&gt; interview&lt;/a&gt;: “When I drive down the street, &lt;strong&gt;I see the same things everyone else sees. It’s a misconception that if you have a lot of money you’re somehow out of touch with reality.&lt;/strong&gt;”&lt;/p&gt;', 'producers': [{'name': 'Phil Collins', 'url': 'https://genius.com/artists/Phil-collins'}, {'name': 'Hugh Padgham', 'url': 'https://genius.com/artists/Hugh-padgham'}], 'writers': [{'name': 'Phil Collins', 'url': 'https://genius.com/artists/Phil-collins'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Cyndi-lauper-time-after-time-lyrics', 'lyrics': '[Verse 1]\nLying in my bed\nI hear the clock tick, and think of you\nCaught up in circles\nConfusion is nothing new\nFlashback, warm nights\nAlmost left behind\nSuitcase of memories\nTime after—\n\n[Verse 2]\nSometimes, you picture me\nI\'m walking too far ahead\nYou\'re calling to me\nI can\'t hear what you\'ve said\nThen you say, "Go slow"\nI fall behind\nThe second hand unwinds\n\n[Chorus]\nIf you\'re lost, you can look and you will find me\nTime after time\nIf you fall, I will catch you, I\'ll be waiting\nTime after time\nIf you\'re lost, you can look and you will find me\nTime after time\nIf you fall, I will catch you, I\'ll be waiting (I will be waiting)\nTime after time\n[Verse 3]\nAfter my picture fades\nAnd darkness has turned to gray\nWatching through windows\nYou\'re wondering if I\'m okay\nSecrets stolen from deep inside\nThe drum beats out of time\n\n[Chorus]\nIf you\'re lost, you can look and you will find me\nTime after time\nIf you fall, I will catch you, I\'ll be waiting\nTime after time\n\n[Instrumental Break]\n\n[Bridge]\nYou said, "Go slow"\nI fall behind\nThe second hand unwinds\n\n[Chorus]\nIf you\'re lost, you can look and you will find me\nTime after time\nIf you fall, I will catch you, I\'ll be waiting\nTime after time\nIf you\'re lost, you can look and you will find me\nTime after time\nIf you fall, I will catch you, I\'ll be waiting (I will be waiting)\nTime after time\n[Outro]\nTime after time\nTime after time\nTime after time\nTime after time\nTime after time\nTime after time\nTime after time\nTime after time\nTime after time\nTime after time', 'annotations': {'description': '&lt;p&gt;Written by Lauper, with assistance from Rob Hyman, “Time After Time” is one of the all-time great love ballads. It was Lauper’s first #1 hit and arguably her signature song.&lt;/p&gt;\n\n&lt;p&gt;After Lauper had already recorded the large majority of her debut album—&lt;em&gt;She’s So Unusual&lt;/em&gt;—her producer Rick Chertoff insisted she needed “one more song.” Chertoff introduced her to Hyman and they began working on the song.&lt;/p&gt;\n\n&lt;p&gt;Lauper came up with the title while reading &lt;a href="https://en.wikipedia.org/wiki/TV_Guide" rel="noopener nofollow"&gt;&lt;em&gt;TV Guide&lt;/em&gt;&lt;/a&gt;—&lt;a href="https://en.wikipedia.org/wiki/Time_After_Time_%281979_film%29" rel="noopener nofollow"&gt;&lt;em&gt;Time After Time&lt;/em&gt;&lt;/a&gt; was a 1979 science fiction movie starring &lt;a href="https://en.wikipedia.org/wiki/Malcolm_McDowell" rel="noopener nofollow"&gt;Malcolm McDowell&lt;/a&gt; as H. G. Wells, portraying him inventing a time traveling machine.&lt;/p&gt;\n\n&lt;p&gt;Lauper’s label initially wanted this song to be her first single before she convinced them to go with “Girls Just Want To Have Fun.” In &lt;a href="https://books.google.com/books?id=rkU8DhNi86YC&amp;amp;printsec=frontcover&amp;amp;dq=cyndi+lauper+book&amp;amp;hl=pt-BR&amp;amp;sa=X&amp;amp;ei=Ad29U8eWA-q78gHYk4GwDw&amp;amp;ved=0CCQQ6AEwAQ#v=onepage&amp;amp;q=time%20after%20time&amp;amp;f=false" rel="noopener nofollow"&gt;her memoir&lt;/a&gt;, Lauper recounts:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;When the album was completed, the label wanted the first single to be “Time After Time.” But I kept saying to them, “Listen to me—releasing a ballad first defines you in a certain way. You become known as a balladeer, and it can kill your career.”&lt;/p&gt;&lt;/blockquote&gt;', 'producers': [{'name': 'William Wittman', 'url': 'https://genius.com/artists/William-wittman'}, {'name': 'Rick Chertoff', 'url': 'https://genius.com/artists/Rick-chertoff'}], 'writers': [{'name': 'Cyndi Lauper', 'url': 'https://genius.com/artists/Cyndi-lauper'}, {'name': 'Rob Hyman', 'url': 'https://genius.com/artists/Rob-hyman'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Van-halen-jump-lyrics', 'lyrics': "[Verse 1]\nI get up and nothing gets me down\nYou got it tough, I've seen the toughest around\nAnd I know, baby, just how you feel\nYou gotta roll with the punches to get to what's real\n\n[Pre-Chorus]\nOh, can't you see me standing here?\nI got my back against the record machine\nI ain't the worst that you've seen\nOh, can't you see what I mean?\n\n[Chorus]\nAh, might as well jump (Jump!)\nMight as well jump\nGo ahead and jump (Jump!)\nGo ahead and jump\n\n[Verse 2]\nOh! Hey you! Who said that?\nBaby, how you been?\nYou say you don't know\nYou won't know until you begin\n\n[Pre-Chorus]\nSo can't you see me standing here?\nI've got my back against the record machine\nI ain't the worst that you've seen\nOh, can't you see what I mean?\n[Chorus]\nAh, might as well jump (Jump!)\nGo ahead and jump\nMight as well jump (Jump!)\nGo ahead and jump\nJump!\n[Guitar Solo]\n\n[Keyboard Solo]\n\n[Chorus]\nMight as well jump (Jump!)\nGo ahead and jump\nGet it and jump (Jump!)\nGo ahead and jump\n\n[Outro]\nJump\nJump\nJump\nJump", 'annotations': {'description': '&lt;p&gt;“Jump” is the lead single from Van Halen’s 10x platinum selling album &lt;em&gt;1984&lt;/em&gt;. The song was internationally successful, becoming Van Halen’s only #1 hit in both the US &amp;amp; Canada and reaching #2 in Ireland &amp;amp; Australia, #4 in &lt;a href="https://dutchcharts.nl/showitem.asp?interpret=Van+Halen&amp;amp;titel=Jump&amp;amp;cat=s" rel="noopener nofollow"&gt;Germany, Austria &amp;amp; Switzerland&lt;/a&gt;, and &lt;a href="https://www.officialcharts.com/artist/16339/van-halen/" rel="noopener nofollow"&gt;#7 in the UK&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://ultimateclassicrock.com/van-halen-original-lineup-breakup/" rel="noopener nofollow"&gt;At first&lt;/a&gt;, the rest of the band was reluctant to include the song because of its heavy use of synths and lack of prominent guitar. But after Eddie got producer Ted Templeton on board, the rest of the band softened up. The &lt;a href="https://www.rollingstone.com/music/music-features/david-lee-roth-armin-van-buuren-jump-interview-812813/" rel="noopener nofollow"&gt;original inspiration&lt;/a&gt; for the lyrics came from David Lee Roth watching a person on TV who was threatening to commit suicide by jumping off of a building and Roth figured someone in the crowd must be thinking, “Go ahead and jump”. It was, however, not written about suicide – the song is about ‘jumping’ on the opportunity to hook up with someone.&lt;/p&gt;\n\n&lt;p&gt;Also, it has been said that the 82nd Airborne Division (US Army) uses this tune periodically for paratrooper training and operations. “Might as well jump” … before I kick your ass out of the Goddamn door! Intentionally or involuntarily, you’re goin\' out!&lt;/p&gt;', 'producers': [{'name': 'Ted Templeman', 'url': 'https://genius.com/artists/Ted-templeman'}], 'writers': [{'name': 'Michael Anthony (Bassist)', 'url': 'https://genius.com/artists/Michael-anthony-bassist'}, {'name': 'David Lee Roth', 'url': 'https://genius.com/artists/David-lee-roth'}, {'name': 'Alex Van Halen', 'url': 'https://genius.com/artists/Alex-van-halen'}, {'name': 'Eddie Van Halen', 'url': 'https://genius.com/artists/Eddie-van-halen'}], 'labels': [{'name': 'Warner Music Group', 'url': 'https://genius.com/artists/Warner-music-group'}, {'name': 'Warner Records', 'url': 'https://genius.com/artists/Warner-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Creed-one-last-breath-lyrics', 'lyrics': '[Verse 1]\nPlease come now I think I\'m falling\nI\'m holding on to all I think is safe\nIt seems I found the road to nowhere\nAnd I\'m trying to escape\nI yelled back when I heard thunder\nBut I\'m down to one last breath\nAnd with it let me say\nLet me say\n\n[Chorus]\nHold me now\nI\'m six feet from the edge\nAnd I\'m thinking maybe six feet\nAin\'t so far down\n\n[Verse 2]\nI\'m looking down now that it\'s over\nReflecting on all of my mistakes\nI thought I found the road to somewhere\nSomewhere in His grace\nI cried out, "Heaven save me"\nBut I\'m down to one last breath\nAnd with it let me say\nLet me say\n[Chorus]\nHold me now\nI\'m six feet from the edge\nAnd I\'m thinking maybe six feet\nAin\'t so far down\nHold me now\nI\'m six feet from the edge\nAnd I\'m thinking maybe six feet\nAin\'t so far down\nI\'m so far down\n\n[Verse 3]\nSad eyes follow me\nBut I still believe there\'s\nSomething left for me\nSo please come stay with me\n\'Cause I still believe there\'s\nSomething left for you and me\nFor you and me\nFor you and me\n\n[Bridge]\nHold me now\nI\'m six feet from the edge\nAnd I\'m thinking\n[Chorus]\nHold me now\nI\'m six feet from the edge\nAnd I\'m thinking maybe six feet\nAin\'t so far down\nHold me now\nI\'m six feet from the edge\nAnd I\'m thinking maybe six feet\nAin\'t so far down\n\n[Outro]\nPlease come now I think I\'m falling\nI\'m holding on to all I think is safe', 'annotations': {'description': '&lt;p&gt;“One Last Breath” is a song by American rock band Creed. It was released on April 15, 2002, and servesd as the third single from the band’s third studio album, &lt;a href="https://genius.com/albums/Creed/Weathered" rel="noopener" data-api_path="/albums/91917"&gt;&lt;em&gt;Weathered&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The song was a chart success both in the United States and internationally. “One Last Breath” gave Creed their fourth and final top-10 hit on the US Billboard Hot 100, spending a total of 34 weeks on the chart and peaking at number six on the week of September 28, 2002.&lt;/p&gt;', 'producers': [{'name': 'Creed', 'url': 'https://genius.com/artists/Creed'}, {'name': 'Kirk Kelsey', 'url': 'https://genius.com/artists/Kirk-kelsey'}, {'name': 'John Kurzweg', 'url': 'https://genius.com/artists/John-kurzweg'}], 'writers': [{'name': 'Mark Tremonti', 'url': 'https://genius.com/artists/Mark-tremonti'}, {'name': 'Scott Stapp', 'url': 'https://genius.com/artists/Scott-stapp'}], 'labels': [{'name': 'Wind-up Records', 'url': 'https://genius.com/artists/Wind-up-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Britney-spears-womanizer-lyrics', 'lyrics': "[Verse 1]\nSuperstar, where you from? How's it goin'?\nI know you got a clue what you're doin'\nYou can play brand new to all the other chicks out here\nBut I know what you are, what you are, baby\nLook at you, gettin' more than just a re-up\nBaby, you got all the puppets with their strings up\nFakin' like a good one, but I call 'em like I see 'em\nI know what you are, what you are, baby\n\n[Pre-Chorus]\nWomanizer, woman-womanizer, you're a womanizer\nOh, womanizer, oh, you're a womanizer, baby\nYou-you-you are, you-you-you are\nWomanizer, womanizer, womanizer (Womanizer)\n\n[Chorus]\nBoy, don't try to front, I-I know just, just what you a-a-are\nBoy, don't try to front, I-I know just, just what you a-a-are\n(You) You got me goin', (You) you're oh-so charmin'\n(You) But I can't do it, (You) you womanizer\nBoy, don't try to front, I-I know just, just what you a-a-are\nBoy, don't try to front, I-I know just, just what you a-a-are\n(You) You say I'm crazy, (You) I got you crazy\n(You) You're nothing but a (You) womanizer\n[Verse 2]\nDaddy-o, you got the swagger of a champion\nToo bad for you, you just can't find the right companion\nI guess when you have one too many\nMakes it hard, it could be easy\nWho you are, that's just who you are, baby\nLollipop, must mistake me, you're the sucker\nTo think that I would be a victim, not another\nSay it, play it how you wanna, but no way\nI'm never gonna fall for you, never you, baby\n\n[Pre-Chorus]\nWomanizer, woman-womanizer, you're a womanizer\nOh, womanizer, oh, you're a womanizer, baby\nYou-you-you are, you-you-you are\nWomanizer, womanizer, womanizer (Womanizer)\n\n[Chorus]\nBoy, don't try to front, I-I know just, just what you a-a-are\nBoy, don't try to front, I-I know just, just what you a-a-are\n(You) You got me goin', (You) you're oh-so charmin'\n(You) But I can't do it, (You) you womanizer\nBoy, don't try to front, I-I know just, just what you a-a-are\nBoy, don't try to front, I-I know just, just what you a-a-are\n(You) You say I'm crazy, (You) I got you crazy\n(You) You're nothing but a (You) womanizer\n[Bridge]\nMaybe if we both lived in a different world\n(Womanizer, womanizer, womanizer, womanizer)\nIt would be all good, and maybe I could be your girl\nBut I can't 'cause we don't, you\n\n[Pre-Chorus]\nWomanizer, woman-womanizer, you're a womanizer\nOh, womanizer, oh, you're a womanizer, baby\nYou-you-you are, you-you-you are\nWomanizer, womanizer, womanizer (Womanizer)\n\n[Chorus]\nBoy, don't try to front, I-I know just, just what you a-a-are\nBoy, don't try to front, I-I know just, just what you a-a-are\n(You) You got me goin', (You) you're oh-so charmin'\n(You) But I can't do it, (You) you womanizer\nBoy, don't try to front, I-I know just, just what you a-a-are\nBoy, don't try to front, I-I know just, just what you a-a-are\n(You) You say I'm crazy, (You) I got you crazy\n(You) You're nothing but a (You) womanizer\n\n[Outro]\nBoy, don't try to front, I-I know just, just what you a-a-are\nBoy, don't try to front, I-I know just, just what you a-a-are\nWomanizer, woman-womanizer, you're a womanizer\nOh, womanizer, oh, you're a womanizer, baby", 'annotations': {'description': '&lt;p&gt;“Womanizer” was released as the lead single and first track from &lt;a href="https://genius.com/artists/Britney-spears" rel="noopener" data-api_path="/artists/1052"&gt;Britney Spears&lt;/a&gt;‘ sixth studio album, &lt;a href="http://rock.genius.com/albums/Britney-spears/Circus" rel="noopener" data-api_path="/albums/40264"&gt;&lt;em&gt;Circus&lt;/em&gt;&lt;/a&gt; (2008).&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;It’s basically saying, ‘We know what you’re up to.’ It’s about guys cheating on girls. It’s a girl anthem. That’s why I like it.&lt;br&gt;\n&lt;small&gt;—&lt;a href="https://www.youtube.com/watch?v=d8L9ufcf2Ms&amp;amp;t=1m10s" rel="noopener nofollow"&gt;Britney Spears on Z100&lt;/a&gt;&lt;/small&gt;&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;It was well received by contemporary critics, with reviewers praising its hook, melody, and empowering lyrics. Critics also observed it was a stand-out track from its album and also deemed it as a comeback single for her.&lt;/p&gt;\n\n&lt;p&gt;The song was a commercial success, peaking at the top of the charts in Belgium, Canada, Denmark, Finland, France, Norway, Sweden, and the United States. It also reached the top ten in every country it charted in.&lt;/p&gt;', 'producers': [{'name': 'The Outsyders', 'url': 'https://genius.com/artists/The-outsyders'}], 'writers': [{'name': 'Nikesha Briscoe', 'url': 'https://genius.com/artists/Nikesha-briscoe'}, {'name': 'Rafael Akinyemi', 'url': 'https://genius.com/artists/Rafael-akinyemi'}], 'labels': [{'name': 'Zomba Recording Corporation', 'url': 'https://genius.com/artists/Zomba-recording-corporation'}, {'name': 'Jive Records', 'url': 'https://genius.com/artists/Jive-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Cage-the-elephant-aint-no-rest-for-the-wicked-lyrics', 'lyrics': '[Verse 1]\nI was walking down the street when out the corner of my eye\nI saw a pretty little thing approaching me\nShe said, "I never seen a man, who looks so all alone\nOh, could you use a little company?\nIf you pay the right price, your evening will be nice\nAnd you can go and send me on my way."\nI said, "You\'re such a sweet young thing, why you do this to yourself?"\nShe looked at me and this is what she said:\n\n[Chorus]\n"Oh there ain\'t no rest for the wicked\nMoney don\'t grow on trees\nI got bills to pay, I got mouths to feed\nThere ain\'t nothing in this world for free\nOh no, I can\'t slow down, I can\'t hold back\nThough you know, I wish I could\nOh no there ain\'t no rest for the wicked\nUntil we close our eyes for good"\n\n[Verse 2]\nNot even fifteen minutes later I\'m still walking down the street\nWhen I saw the shadow of a man creep out out of sight\nAnd then he swept up from behind, he put a gun up to my head\nHe made it clear he wasn\'t looking for a fight\nHe said, "Give me all you\'ve got, I want your money, not your life\nBut if you try to make a move, I won\'t think twice"\nI told him, "You can have my cash, but first you know I gotta ask\nWhat made you want to live this kind of life?"\n[Chorus]\nHe said, "There ain\'t no rest for the wicked\nMoney don\'t grow on trees\nI got bills to pay, I got mouths to feed\nThere ain\'t nothing in this world for free\nOh no, I can\'t slow down, I can\'t hold back\nThough you know, I wish I could\nOh no there ain\'t no rest for the wicked\nUntil we close our eyes for good"\n\n[Verse 3]\nWell now a couple hours passed and I was sitting in my house\nThe day was winding down and coming to an end\nAnd so I turned on the TV and flipped it over to the news\nAnd what I saw I almost couldn\'t comprehend\nI saw a preacher man in cuffs, he\'d taken money from the church\nHe\'d stuffed his bank account with righteous dollar bills\nBut even still I can\'t say much because I know we\'re all the same\nOh yes, we all seek out to satisfy those thrills\n[Chorus]\nYou know there ain\'t no rest for the wicked\nMoney don\'t grow on trees\nWe got bills to pay, we got mouths to feed\nThere ain\'t nothing in this world for free\nOh no we can\'t slow down, we can\'t hold back\nThough you know we wish we could\nOh no there ain\'t no rest for the wicked\nUntil we close our eyes for good', 'annotations': {'description': '&lt;p&gt;This single off of Cage The Elephant’s debut album features three verses, each dealing with an encounter with an immoral character that is trying to make money by any means necessary.&lt;/p&gt;\n\n&lt;p&gt;Lead singer Matt Schultz says that he got the idea for this song when he asked one of his drug-dealing friends why he dealt drugs, to which he responded: “there’s no rest for the wicked”.&lt;/p&gt;\n\n&lt;p&gt;The song is also used in the pilot for the Netflix show “Lucifer”.&lt;/p&gt;', 'producers': [{'name': 'Ben Baptie', 'url': 'https://genius.com/artists/Ben-baptie'}, {'name': 'Jay Joyce', 'url': 'https://genius.com/artists/Jay-joyce'}], 'writers': [{'name': 'Daniel Tichenor', 'url': 'https://genius.com/artists/Daniel-tichenor'}, {'name': 'Matt Shultz', 'url': 'https://genius.com/artists/Matt-shultz'}, {'name': 'Brad Shultz', 'url': 'https://genius.com/artists/Brad-shultz'}, {'name': 'Lincoln Parish', 'url': 'https://genius.com/artists/Lincoln-parish'}, {'name': 'Jared Champion', 'url': 'https://genius.com/artists/Jared-champion'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Earth-wind-and-fire-boogie-wonderland-lyrics', 'lyrics': '[Chorus]\nDance, boogie wonderland, hah, hah\nDance, boogie wonderland\n\n[Verse 1]\nMidnight creeps so slowly into hearts of men\nWho need more than they get\nDaylight deals a bad hand to a woman\nWho has laid too many bets\n\nThe mirror stares you in the face\nAnd says "Baby, uh, uh, it don\'t work"\nYou say your prayers though you don\'t care\nYou dance and shake the hurt\n\n[Chorus]\nDance, boogie wonderland, hah, hah\nDance, boogie wonderland (Ooh, ooh, ooh dance, yeah)\n\n[Verse 2]\nSound fly through the night\nI chase my vinyl dreams to boogie wonderland\nI find romance when I start to dance in boogie wonderland\n(Ooh, ooh, ooh, ooh, dance, ooh, ooh, ooh, ooh)\n(Dance, ooh, ooh, ooh, dance)\nI find romance when I start to dance in boogie wonderland\n(Dance, ooh, ooh, ooh, dance, ooh, ooh, ooh, ooh)\n(Dance, ooh, ooh, ooh, dance)\n[Bridge]\nAll the love in the world can\'t be gone\nAll the need to be loved can\'t be wrong\nAll the records are playing and my heart keeps saying (Oh)\n"Boogie wonderland, wonderland" (Haaah, aaah-aaaaaah)\n\n[Chorus]\nDance, boogie wonderland, hah, hah\n(Dance, ooh, ooh, ooh, dance, ooh, ooh, ooh, ooh)\n(Dance, ooh, ooh, ooh, dance)\nDance, boogie wonderland, hah, hah\n(Dance, ooh, ooh, ooh, dance, ooh, ooh, ooh, ooh)\n(Dance, ooh, ooh, ooh, dance)\n\n[Post-Chorus]\nI find romance when I start to dance in boogie wonderland\nI find romance when I start to dance in boogie wonderland\n\n[Chorus]\nDance, boogie wonderland, hah, hah\n(Dance, ooh, ooh, ooh, dance, ooh, ooh, ooh, ooh)\n(Dance, ooh, ooh, ooh, dance)\nDance, boogie wonderland\n(Dance, ooh, ooh, ooh, dance, ooh, ooh, ooh, ooh)\n(Dance, ooh, ooh, ooh, dance)\n[Hook]\nHmm hmm hmm hmm, hmm hmm hmm hmm\nHmm hmm hmm hmm, wonderland\nHmm hmm hmm hmm, hmm hmm hmm hmm\nHmm hmm hmm hmm, wonderland\nHmm hmm hmm hmm, hmm hmm hmm hmm\nHmm hmm hmm hmm\n\n[Bridge]\nAll the love in the world can\'t be gone\n(All the love in the world can\'t be gone)\nAll the need to be loved can\'t be wrong\n(All the need to be loved can\'t be wrong)\nAll the records are playing and my heart keeps saying\n(Oooh, haa-woah, haa-woah)\n"Boogie wonderland, wonderland" (Wonderland, aaah)\n\n[Chorus]\nDance, boogie wonderland, hah, hah\nDance, boogie wonderland, hah, hah\n\n[Outro]\nI find romance when I start to dance in boogie wonderland\n(Dance, dance, dance, dance)\n(Dance, dance, dance, aah)\nI find romance when I start to dance in boogie wonderland\n(Dance, dance, dance, dance)\n(Dance, dance, dance)\nDance, boogie wonderland, hah, hah\n(Dance, dance, dance, dance)\n(Dance, dance, haa, aah)\n(Dance, ooh, ooh, ooh, dance, ooh, ooh, ooh, ooh)\n(Dance, ooh, ooh, ooh, dance)\nDance, boogie wonderland\n(Dance, dance, dance, dance)\n(Dance, dance, dance, aah)\n(Dance, ooh, ooh, ooh, dance, ooh, ooh, ooh, ooh)\n(Dance, ooh, ooh, ooh, dance)', 'annotations': {'description': '&lt;p&gt;“Boogie Wonderland” is a hit disco single released March 20, 1979 from Earth, Wind, &amp;amp; Fire’s ninth album &lt;em&gt;I Am&lt;/em&gt;. The Top 10 international chart-busting single featuring their protege group &lt;a href="https://genius.com/artists/The-emotions" rel="noopener" data-api_path="/artists/149605"&gt;The Emotions&lt;/a&gt;, helped the &lt;em&gt;I Am&lt;/em&gt; album top the R&amp;amp;B charts that year.&lt;/p&gt;\n\n&lt;p&gt;The Emotions had already garnered a number one hit with the Maurice White-produced &lt;a href="https://genius.com/The-emotions-best-of-my-love-lyrics" rel="noopener" data-api_path="/songs/1954932"&gt;“Best of My Love.”&lt;/a&gt; This second collaboration with them kicked their career into  an even higher gear.&lt;/p&gt;\n\n&lt;p&gt;Late actress/singer Brittany Murphy &lt;a href="https://www.youtube.com/watch?v=V7vjxhqMPng" rel="noopener nofollow"&gt;covered the song&lt;/a&gt; for the soundtrack of the 2014 film &lt;a href="http://www.imdb.com/title/tt0366548/?ref_=fn_al_tt_1" rel="noopener nofollow"&gt;&lt;em&gt;Happy Feet&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;', 'producers': [{'name': 'Al McKay', 'url': 'https://genius.com/artists/Al-mckay'}, {'name': 'Maurice White', 'url': 'https://genius.com/artists/Maurice-white'}], 'writers': [{'name': 'Allee Willis', 'url': 'https://genius.com/artists/Allee-willis'}, {'name': 'Jon Lind', 'url': 'https://genius.com/artists/Jon-lind'}], 'labels': [{'name': 'American Record Corporation', 'url': 'https://genius.com/artists/American-record-corporation'}, {'name': 'Columbia Records', 'url': 'https://genius.com/artists/Columbia-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Pitbull-give-me-everything-lyrics', 'lyrics': "[Intro: Pitbull]\nMe not workin' hard? Yeah right\nPicture that with a Kodak\nOr, better yet, go to Times Square\nTake a picture of me with a Kodak\nTook my life from negative to positive\nI just want y'all to know that\nAnd tonight, let's enjoy life\nPitbull, Nayer, Ne-Yo, tell us right\n\n[Chorus: Ne-Yo &amp; Nayer]\nTonight, I want all of you tonight\nGive me everything tonight\nFor all we know\nWe might not get tomorrow, let's do it tonight\nDon't care what they say, or what games they play\nNothing is enough, 'til they handle love (Let's do it tonight)\nI want you tonight, I want you to stay, I want you tonight\nGrab somebody sexy, tell 'em hey (Hey)\nGive me everything tonight (Hey)\nGive me everything tonight (Hey)\nGive me everything tonight (Hey)\nGive me everything tonight\n\n[Verse 1: Pitbull]\nTake advantage of tonight (Yeah)\n'Cause tomorrow I'm off to Dubai to perform for a princess\nBut tonight, I can make you my queen\nAnd make love to you endless (Yeah)\nThis is insane: the way the name growin'\nMoney keep flowin', hustlers move in silence\nSo, I'm tiptoein', to keep flowin'\nI got it locked up like Lindsay Lohan (Woo)\nPut it on my life, baby, I'll make you feel right, baby\nCan't promise tomorrow, but I promise tonight (Dale)\n[Pre-Chorus: Pitbull]\nExcuse me (Excuse me)\nAnd I might drink a little more than I should tonight (Tonight)\nAnd I might take you home with me if I could tonight (Tonight)\nAnd baby, I'ma make you feel so good tonight\n'Cause we might not get tomorrow\n\n[Chorus: Ne-Yo &amp; Nayer]\nTonight, I want all of you tonight\nGive me everything tonight\nFor all we know\nWe might not get tomorrow, let's do it tonight\nDon't care what they say, or what games they play\nNothing is enough, 'til they handle love (Let's do it tonight)\nI want you tonight, I want you to stay, I want you tonight\nGrab somebody sexy, tell 'em hey (Hey)\nGive me everything tonight (Hey)\nGive me everything tonight (Hey)\nGive me everything tonight (Hey)\nGive me everything tonight\n\n[Verse 2: Pitbull]\nReach for the stars, and if you don't grab them\nAt least you'll fall on top of the world\nThink about it, 'cause if you slip\nI'm gon' fall on top of your girl, haha\nWhat I'm involved with is deeper than the Masons, baby baby\nAnd it ain't no secret\nMy granny's from Cuba, but I'm an American idol\nGettin' money like Seacrest\nPut it on my life, baby (Baby) I'll make you feel right, baby (Baby)\nCan't promise tomorrow, but I promise tonight , dale\n[Pre-Chorus: Pitbull]\nExcuse me (Excuse me)\nAnd I might drink a little more than I should tonight (Tonight)\nAnd I might take you home with me if I could tonight (Tonight)\nAnd, baby, I'ma make you feel so good, tonight\n'Cause we might not get tomorrow\n\n[Chorus: Ne-Yo &amp; Nayer]\nTonight, I want all of you tonight\nGive me everything tonight\nFor all we know\nWe might not get tomorrow, let's do it tonight\nDon't care what they say, all the games they play\nNothing is enough, 'til they handle love (Let's do it tonight)\nI want you tonight, I want you to stay, I want you tonight\nGrab somebody sexy, tell 'em hey (Hey)\nGive me everything tonight (Hey)\nGive me everything tonight (Hey)\nGive me everything tonight (Hey)\nGive me everything tonight\n\n[Outro: Pitbull]\nExcuse me (Excuse me)\nBut I might drink a little bit more than I should tonight\nAnd I might take you home with me if I could tonight\nAnd, baby, I'ma make you feel so good, tonight\n'Cause we might not get tomorrow\n(Tomorrow, tomorrow, tomorrow)", 'annotations': {'description': '&lt;p&gt;“Give Me Everything” is &lt;a href="https://genius.com/artists/Pitbull" rel="noopener" data-api_path="/artists/628"&gt;Pitbull&lt;/a&gt;’s first single to hit #1 on the Billboard Hot 100, and is arguably his most successful one.&lt;/p&gt;\n\n&lt;p&gt;In this song, Pitbull, along with &lt;a href="https://genius.com/artists/Ne-yo" rel="noopener" data-api_path="/artists/375"&gt;Ne-Yo&lt;/a&gt;, &lt;a href="https://genius.com/artists/Nayer" rel="noopener" data-api_path="/artists/11440"&gt;Nayer&lt;/a&gt;, and &lt;a href="https://genius.com/artists/Afrojack" rel="noopener" data-api_path="/artists/11439"&gt;Afrojack&lt;/a&gt;, ask their lover to not hold back and “give” them “everything tonight”.&lt;/p&gt;', 'producers': [{'name': 'Afrojack', 'url': 'https://genius.com/artists/Afrojack'}], 'writers': [{'name': 'Afrojack', 'url': 'https://genius.com/artists/Afrojack'}, {'name': 'Ne-Yo', 'url': 'https://genius.com/artists/Ne-yo'}, {'name': 'Pitbull', 'url': 'https://genius.com/artists/Pitbull'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Shania-twain-that-dont-impress-me-much-lyrics', 'lyrics': "[Intro]\nOw\nUh-huh, yeah, yeah\n\n[Verse 1]\nI've known a few guys who thought they were pretty smart\nBut you've got being right down to an art\nYou think you're a genius, you drive me up the wall\nYou're a regular original, a know-it-all\n\n[Pre-Chorus]\nOh-oh, you think you're special\nOh-oh, you think you're something else\nOkay, so you're a rocket scientist\n\n[Chorus]\nThat don't impress me much\nSo you got the brains, but have you got the touch?\nNow, don't get me wrong—yeah, I think you're alright\nBut that won't keep me warm in the middle of the night\nThat don't impress me much\nUh-huh, yeah, yeah\n\n[Verse 2]\nI never knew a guy who carried a mirror in his pocket\nAnd a comb up his sleeve—just in case\nAnd all that extra hold gel in your hair oughta lock it\n’Cause heaven forbid it should fall outta place\n[Pre-Chorus]\nOh-oh, you think you're special\nOh-oh, you think you're something else\nOkay, so you're Brad Pitt\n\n[Chorus]\nThat don't impress me much (Oh, oh, uuh)\nSo you got the looks, but have you got the touch?\nNow, don't get me wrong—yeah, I think you're alright\nBut that won't keep me warm in the middle of the night\nThat don't impress me much\nYeah\n\n[Verse 3]\nYou're one of those guys who likes to shine his machine\nYou make me take off my shoes before you let me get in\nI can't believe you kiss your car good night\nCome on, baby, tell me, you must be joking, right?\n\n[Pre-Chorus]\nOh-oh, you think you're something special\nOh-oh, you think you're something else\nOkay, so you've got a car\n\n[Chorus]\nThat don't impress me much (Oh, oh, uuh)\nSo you got the moves, but have you got the touch?\nNow, don't get me wrong—yeah, I think you're alright\nBut that won't keep me warm in the middle of the night\nThat don't impress me much (Don't impress me)\nOh, oh no, you think you're cool, but have you got the touch?\nNow, now, don't get me wrong—yeah, I think you're alright\nBut that won't keep me warm on the long, cold, lonely night\nThat don't impress me much\nUh-huh, yeah, yeah\n[Outro]\nOkay, so what do you think, you're Elvis or something?\n(Whatever)\nThat don't impress me", 'annotations': {'description': '&lt;p&gt;“That Don’t Impress Me Much” is the sixth single from &lt;a href="https://genius.com/albums/Shania-twain/Come-on-over" rel="noopener" data-api_path="/albums/80964"&gt;&lt;em&gt;Come on Over&lt;/em&gt;&lt;/a&gt; and the 12th track on the original, 1997 version of the album. It spent a week at number eight, its peak position, on the &lt;em&gt;Billboard&lt;/em&gt; Hot Country Singles &amp;amp; Tracks chart back in 1999.&lt;/p&gt;\n\n&lt;p&gt;It can be concluded from the lyrics that you most likely won’t really impress &lt;a href="https://genius.com/artists/Shania-twain" rel="noopener" data-api_path="/artists/139398"&gt;Shania&lt;/a&gt; unless you’ve got the touch and can keep her warm at night. Let’s just hope it’s a bit easier to impress her in real life and she’s only making fun of shallow men who consider themselves superstars (a category &lt;a href="https://genius.com/artists/robert-john-mutt-lange" rel="noopener" data-api_path="/artists/28042"&gt;her then-husband&lt;/a&gt; who produced and co-wrote the song doesn’t fit).&lt;/p&gt;\n\n&lt;p&gt;Also, in the music video, Shania is walking in fur in the middle of a desert while rejecting every possible ride.  As MTV pointed out: “Shania’s chances of survival don’t impress us much.”&lt;/p&gt;\n\n&lt;p&gt;&lt;/p&gt;&lt;div class="embedly_preview embedly_preview--video"&gt;\n&lt;iframe type="text/html" width="640" height="390" frameborder="0" allowfullscreen="1" src="https://www.youtube.com/embed/mqFLXayD6e8?modestbranding=1&amp;amp;start=0&amp;amp;showinfo=0&amp;amp;enablejsapi=1&amp;amp;origin=genius.com"&gt;&lt;/iframe&gt;\n&lt;/div&gt;', 'producers': [{'name': 'Robert John Lange', 'url': 'https://genius.com/artists/Robert-john-lange'}], 'writers': [{'name': 'Shania Twain', 'url': 'https://genius.com/artists/Shania-twain'}, {'name': 'Robert John Lange', 'url': 'https://genius.com/artists/Robert-john-lange'}], 'labels': [{'name': 'Mercury Nashville Records', 'url': 'https://genius.com/artists/Mercury-nashville-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Xxxtentacion-sad-lyrics', 'lyrics': "[Intro]\nYeah\n\n[Chorus]\nWho am I? Someone that's afraid to let go, uh\nYou decide if you're ever gonna let me know (Yeah)\nSuicide if you ever try to let go, uh\nI'm sad, I know, yeah, I'm sad, I know, yeah\nWho am I? Someone that's afraid to let go, uh\nYou decide if you're ever gonna let me know (Yeah)\nSuicide if you ever try to let go, uh\nI'm sad, I know, yeah, I'm sad, I know, yeah\n\n[Verse]\nI gave her everything\nShe took my heart and left me lonely\nI think broken heart's contagious\nI won't fix, I'd rather weep\nI'm lost then I'm found\nBut it's torture bein' in love\nI love when you're around\nBut I fuckin' hate when you leave\n\n[Chorus]\nWho am I? Someone that's afraid to let go, uh\nYou decide if you're ever gonna let me know (Yeah)\nSuicide if you ever try to let go, uh\nI'm sad, I know, yeah, I'm sad, I know, yeah\nWho am I? Someone that's afraid to let go, uh\nYou decide if you're ever gonna let me know (Yeah)\nSuicide if you ever try to let go, uh\nI'm sad, I know, yeah, I'm sad, I know, yeah\n[Instrumental Bridge]\n\n[Chorus]\nWho am I? Someone that's afraid to let go, uh\nYou decide if you're ever gonna let me know (Yeah)\nSuicide if you ever try to let go, uh\nI'm sad, I know, yeah, I'm sad, I know, yeah\nWho am I? Someone that's afraid to let go, uh\nYou decide if you're ever gonna let me know (Yeah)\nSuicide if you ever try to let go, uh\nI'm sad, I know, yeah, I'm sad, I know, yeah1.4K", 'annotations': {'description': '&lt;p&gt;On “SAD!” X laments about the struggle of letting go of a loved one and the feeling of depression that follows.&lt;/p&gt;\n\n&lt;p&gt;He details emotions of uncertainty surrounding a specific relationship. He is insecure and heartbroken due to the fact that his girlfriend had left him, bringing about a melancholy vibe.&lt;/p&gt;\n\n&lt;p&gt;He also brings up suicide, a subject often discussed throughout his discography. For example, in the song &lt;a href="https://genius.com/Xxxtentacion-jocelyn-flores-lyrics" rel="noopener" data-api_path="/songs/3185661"&gt;“Jocelyn Flores”&lt;/a&gt; from his 2017 album, &lt;a href="https://genius.com/albums/Xxxtentacion/17" rel="noopener" data-api_path="/albums/342174"&gt;&lt;em&gt;17&lt;/em&gt;&lt;/a&gt;, he raps about a friend who suffered from depression and eventually killed herself.&lt;/p&gt;\n\n&lt;p&gt;This song was frequently teased as an intro of X’s gaming videos on his &lt;a href="https://www.youtube.com/channel/UCM9r1xn6s30OnlJWb-jc3Sw" rel="noopener nofollow"&gt;YouTube channel&lt;/a&gt; prior to its release.&lt;/p&gt;', 'producers': [{'name': 'John Cunningham', 'url': 'https://genius.com/artists/John-cunningham'}], 'writers': [{'name': 'John Cunningham', 'url': 'https://genius.com/artists/John-cunningham'}, {'name': 'XXXTENTACION', 'url': 'https://genius.com/artists/Xxxtentacion'}], 'labels': [{'name': 'Bad Vibes Forever', 'url': 'https://genius.com/artists/Bad-vibes-forever'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Tears-for-fears-shout-lyrics', 'lyrics': "[Chorus: Roland Orzabal &amp; Curt Smith]\nShout, shout, let it all out\nThese are the things I can do without\nCome on\nI'm talking to you, come on\nShout, shout, let it all out\nThese are the things I can do without\nCome on\nI'm talking to you, come on\n\n[Verse 1: Roland Orzabal]\nIn violent times, you shouldn't have to sell your soul\nIn black and white, they really, really ought to know\nThose one-track minds that took you for a working boy\nKiss them goodbye, you shouldn't have to jump for joy\nYou shouldn't have to jump for joy\n\n[Chorus: Roland Orzabal &amp; Curt Smith]\nShout, shout, let it all out\nThese are the things I can do without\nCome on\nI'm talking to you, come on\n\n[Verse 2: Roland Orzabal]\nThey gave you life and in return, you gave them hell\nAs cold as ice, I hope we live to tell the tale\nI hope we live to tell the tale\n[Chorus: Roland Orzabal &amp; Curt Smith]\nShout, shout, let it all out\nThese are the things I can do without\nCome on\nI'm talking to you, come on\nShout, shout, let it all out\nThese are the things I can do without\nCome on\nI'm talking to you, come on\n\n[Interlude]\n\n[Chorus: Roland Orzabal &amp; Curt Smith]\nShout, shout, let it all out (Let it all out)\nThese are the things I can do without\nCome on\nI'm talking to you, come on\n\n[Verse 3: Roland Orzabal]\nAnd when you've taken down your guard\nIf I could change your mind, I'd really love to break your heart\nI'd really love to break your heart\n\n[Chorus: Roland Orzabal &amp; Curt Smith]\nShout, shout, let it all out\nThese are the things I can do without\n(Break your heart)\nCome on\n(Really love to break your heart)\nI'm talking to you, come on\nShout, shout, let it all out\nThese are the things I can do without\nCome on\nI'm talking to you so come on\n[Interlude - Guitar Solo]\n\n[Chorus: Roland Orzabal &amp; Curt Smith]\nShout, shout, let it all out\nThese are the things I can do without\nCome on\nI'm talking to you, come on\n(They really, really ought to know)\nShout, shout, let it all out\n(They really, really ought to know)\nThese are the things I can do without\n(They really, really)\nCome on\n(They really, really ought to know)\nI'm talking to you, come on\nShout, shout, let it all out\n(I'd really love to break your heart)\nThese are the things I can do without\n(I'd really love to break your heart)\nCome on\nI'm talking to you so come on\nShout, shout, let it all out\nThese are the things I can do without\nCome on\nI'm talking to you...", 'annotations': {'description': '&lt;p&gt;“Shout” was released as a single in 1984 and is the first song on Tears for Fears\' second album, Songs from the Big Chair. It was no. 1 on the Billboard Hot 100 for 3 weeks in August 1985 and remains one of their most recognizable &lt;a href="http://www.whosampled.com/Tears-for-Fears/Shout/sampled/" rel="noopener nofollow"&gt;(and excessively sampled)&lt;/a&gt; songs.&lt;/p&gt;\n\n&lt;p&gt;This song was also covered by &lt;a href="https://genius.com/artists/Disturbed" rel="noopener" data-api_path="/artists/28631"&gt;Disturbed&lt;/a&gt; for their album “&lt;a href="https://genius.com/albums/Disturbed/The-sickness" rel="noopener" data-api_path="/albums/23942"&gt;The Sickness&lt;/a&gt;”, titled as “&lt;a href="https://genius.com/Disturbed-shout-2000-lyrics" rel="noopener" data-api_path="/songs/425801"&gt;Shout 2000&lt;/a&gt;”.&lt;/p&gt;\n\n&lt;p&gt;The song is often mislabeled as an emo song when the message is more a call to action than an expression of pain.&lt;/p&gt;', 'producers': [{'name': 'Chris Hughes', 'url': 'https://genius.com/artists/Chris-hughes'}], 'writers': [{'name': 'Ian Stanley', 'url': 'https://genius.com/artists/Ian-stanley'}, {'name': 'Roland Orzabal', 'url': 'https://genius.com/artists/Roland-orzabal'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Franz-ferdinand-no-you-girls-lyrics', 'lyrics': "[Verse 1]\nOh, kiss me\nFlick your cigarette, then kiss me\nKiss me where your eye won't meet me\nMeet me where your mind won't kiss me\nFlick your eyes and mine and then hit me\nHit me with your eyes so sweetly\nOh, you know, you know, you know that yes, I love\nI mean I'd love to get to know you\n\n[Pre-Chorus]\nDo you never wonder?\nNo, no, no\n\n[Chorus 1]\nNo, you girls never know\nOh no, you girls'll never know\nNo, you girls never know\nHow you make a boy feel\nYou girls never know\nOh no, you girls'll never know\nNo, you girls never know\nHow you make a boy feel\nHow you make a boy\n\n[Verse 2]\nOh, kiss me\nFlick your cigarette, then kiss me\nKiss me where your eye won't meet me\nMeet me where your eye won't flick me\nFlick your mind and mine so briefly\nOh you know, you know you're so sweetly\nOh you know, you know, I know that I love you\nI mean I, I mean I need to love\n[Pre-Chorus]\nDo you never wonder?\nNo, no, no\n\n[Chorus 1]\nNo, you girls never know\nOh no, you girls'll never know\nNo you girls never know\nHow you make a boy feel\nYou girls never know\nOh no, you girls'll never know\nNo, you girls never know\nHow you make a boy feel\nHow you make a boy feel\nHow you make a boy\n\n[Bridge]\nSometimes I say stupid things\nThat I think, well, I mean I\nSometimes I think the stupidest things\nBecause I never wonder\nOh, how the girl feels\nOh, how the girl feels\n\n[Chorus 2]\nNo, you boys never care\nOh no, you boys'll never care\nNo, you boys never care\nHow the girl feels\nYou boys never care\nYou dirty boys'll never care\nNo, you boys never care\nHow the girl feels\nOh, how the girl feels\nOh, how the girl feels", 'annotations': {'description': '&lt;p&gt;&lt;em&gt;No You Girls&lt;/em&gt; was released on April 6, 2009. The song is inspired by Alex Kapranos\' first time he ever kissed a girl (whose name was Katherine) and “how awkward it was and how we misunderstood each other”. The song was originally named “Katherine Kiss Me”, which wound up being &lt;a href="https://genius.com/Franz-ferdinand-katherine-kiss-me-lyrics" rel="noopener" data-api_path="/songs/462169"&gt;the name of the album closer&lt;/a&gt; which is a blatant acoustic reprise of “No You Girls”.&lt;/p&gt;', 'producers': [{'name': 'Dan Carey', 'url': 'https://genius.com/artists/Dan-carey'}, {'name': 'Franz Ferdinand', 'url': 'https://genius.com/artists/Franz-ferdinand'}], 'writers': [{'name': 'Franz Ferdinand', 'url': 'https://genius.com/artists/Franz-ferdinand'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/The-weeknd-the-hills-lyrics', 'lyrics': '[Intro]\nYeah\nYeah\nYeah\n\n[Verse 1]\nYour man on the road, he doin\' promo\nYou said, "Keep our business on the low-low"\nI\'m just tryna get you out the friend zone\n\'Cause you look even better than the photos\nI can\'t find your house, send me the info\nDrivin\' through the gated residential\nFound out I was comin\', sent your friends home\nKeep on tryna hide it, but your friends know\n\n[Chorus]\nI only call you when it\'s half-past five\nThe only time that I\'ll be by your side\nI only love it when you touch me, not feel me\nWhen I\'m fucked up, that\'s the real me\nWhen I\'m fucked up, that\'s the real me, yeah\nI only call you when it\'s half-past five\nThe only time I\'d ever call you mine\nI only love it when you touch me, not feel me\nWhen I\'m fucked up, that\'s the real me\nWhen I\'m fucked up, that\'s the real me, babe\n[Verse 2]\nI\'ma let you know and keep it simple\nTryna keep it up don\'t seem so simple\nI just fucked two bitches \'fore I saw you\nAnd you gon\' have to do it at my tempo\nAlways tryna send me off to rehab\nDrugs started feelin\' like it\'s decaf\nI\'m just tryna live life for the moment\nAnd all these motherfuckers want a relapse\n\n[Chorus]\nI only call you when it\'s half-past five\nThe only time that I\'ll be by your side\nI only love it when you touch me, not feel me\nWhen I\'m fucked up, that\'s the real me\nWhen I\'m fucked up, that\'s the real me, yeah\nI only call you when it\'s half-past five\nThe only time I\'d ever call you mine\nI only love it when you touch me, not feel me\nWhen I\'m fucked up, that\'s the real me\nWhen I\'m fucked up, that\'s the real me, babe\n\n[Bridge]\nHills have eyes, the hills have eyes\nWho are you to judge? Who are you to judge?\nHide your lies, girl, hide your lies (Hide your lies, oh, baby)\nOnly you to trust, only you\n[Chorus]\nI only call you when it\'s half-past five\nThe only time that I\'ll be by your side\nI only love it when you touch me, not feel me\nWhen I\'m fucked up, that\'s the real me\nWhen I\'m fucked up, that\'s the real me, yeah\nI only call you when it\'s half-past five\nThe only time I\'d ever call you mine\nI only love it when you touch me, not feel me\nWhen I\'m fucked up, that\'s the real me\nWhen I\'m fucked up, that\'s the real me, babe\n\n[Outro]\nEwedihalehu\nYene konjo, ewedihalehu\nYene fikir, fikir, fikir, fikir\nYene fikir, fikir, fikir, fikir\nEwedihalehu\nYene konjo, ewedihalehu...1.8K', 'annotations': {'description': '&lt;p&gt;&lt;a href="https://twitter.com/theweeknd/status/601871323376316417" rel="noopener nofollow"&gt;Originally nicknamed “Mood Music”&lt;/a&gt; and first teased in a live performance at SXSW, the narrative of “The Hills” is a sinking sexual affair. Abel sets the record straight about what this woman means to him, and reminds her that she plays an equally guilty part in this affair.&lt;/p&gt;\n\n&lt;p&gt;On the Hot 100 dated October 3, 2015, “The Hills” reached number one on the chart, dethroning his own &lt;a href="https://genius.com/The-weeknd-cant-feel-my-face-lyrics" rel="noopener" data-api_path="/songs/729458"&gt;“Can’t Feel My Face.”&lt;/a&gt; With the feat, Abel became only the 11th artist to replace himself at #1, and the 2nd artist to top the chart with a lead single &lt;em&gt;after&lt;/em&gt; the second single was released. (&lt;a href="https://genius.com/artists/Rihanna" rel="noopener" data-api_path="/artists/89"&gt;Rihanna&lt;/a&gt; did it in 2010 with lead single &lt;a href="https://genius.com/Rihanna-only-girl-in-the-world-lyrics" rel="noopener" data-api_path="/songs/89440"&gt;“Only Girl (In The World)”&lt;/a&gt; and second single &lt;a href="https://genius.com/Rihanna-whats-my-name-lyrics" rel="noopener" data-api_path="/songs/1812"&gt;“What’s My Name,”&lt;/a&gt; which featured frequent Weeknd collaborator &lt;a href="https://genius.com/artists/Drake" rel="noopener" data-api_path="/artists/130"&gt;Drake.&lt;/a&gt;) It topped the chart for six weeks, becoming his longest-running #1.&lt;/p&gt;\n\n&lt;p&gt;On October 11th, two remixes were released featuring both &lt;a href="https://genius.com/The-weeknd-the-hills-eminem-remix-lyrics" rel="noopener" data-api_path="/songs/2327062"&gt;Eminem&lt;/a&gt; and &lt;a href="https://genius.com/The-weeknd-the-hills-nicki-minaj-remix-lyrics" rel="noopener" data-api_path="/songs/2327067"&gt;Nicki Minaj&lt;/a&gt; respectively.&lt;/p&gt;', 'producers': [{'name': 'Illangelo', 'url': 'https://genius.com/artists/Illangelo'}, {'name': 'Mano', 'url': 'https://genius.com/artists/Mano'}], 'writers': [{'name': 'Thomas Raybould', 'url': 'https://genius.com/artists/Thomas-raybould'}, {'name': 'Belly', 'url': 'https://genius.com/artists/Belly'}, {'name': 'The Weeknd', 'url': 'https://genius.com/artists/The-weeknd'}, {'name': 'Mano', 'url': 'https://genius.com/artists/Mano'}, {'name': 'Illangelo', 'url': 'https://genius.com/artists/Illangelo'}], 'labels': [{'name': 'XO Records', 'url': 'https://genius.com/artists/Xo-records'}, {'name': 'Universal Music Group', 'url': 'https://genius.com/artists/Universal-music-group'}, {'name': 'Republic Records', 'url': 'https://genius.com/artists/Republic-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/The-rasmus-justify-lyrics', 'lyrics': "So close, so far\nI'm lost in time\nReady to follow a sign\nIf there was only a sign\nThe last goodbye burns in my mind\nWhy did I leave you behind?\nGuess it was too high to climb\n\nGive me a reason\nWhy would you want me to live and die\nLiving a lie?\nYou were the answer\nAll that I needed to justify\nJustify my life\n\nSomeone as beautiful as you\nCould do much better it's true\nThat didn't matter to you\nI tried so hard to be the one\nIt's something I couldn't do\nGuess I was under the gun\n\nGive me a reason\nWhy would you want me to live and die\nLiving a lie?\nYou were the answer\nAll that I needed to justify\nJustify my life\nIt's only right\nThat I should go\nI find myself\nBefore I go and ruin someone else\n\nSo close so far\nI'm lost in time\nReady to follow a sign\nIf there was only a sign\n\nGive me a reason\nWhy would you want me to live and die\nLiving a lie?\nYou were the answer\nAll that I needed to justify\nJustify my life\n\nIt's only right\nThat I should go\nI find myself\nBefore I go and ruin someone else", 'annotations': {'description': '', 'producers': [{'name': 'Harry Sommerdahl', 'url': 'https://genius.com/artists/Harry-sommerdahl'}, {'name': 'Desmond Child', 'url': 'https://genius.com/artists/Desmond-child'}], 'writers': [{'name': 'Pauli Rantasalmi', 'url': 'https://genius.com/artists/Pauli-rantasalmi'}, {'name': 'Lauri', 'url': 'https://genius.com/artists/Lauri'}, {'name': 'Desmond Child', 'url': 'https://genius.com/artists/Desmond-child'}, {'name': 'James Michael', 'url': 'https://genius.com/artists/James-michael'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Rammstein-du-hast-lyrics', 'lyrics': "[Songtext zu „Du hast“]\n\n[Strophe]\nDu, du hast, du hast mich\nDu, du hast, du hast mich\nDu, du hast, du hast mich\nDu, du hast, du hast mich\n\n[Pre-Refrain]\nDu, du hast, du hast mich, du hast mich\nDu hast mich gefragt, du hast mich gefragt\nDu hast mich gefragt und ich hab' nichts gesagt\n\n[Refrain]\nWillst du bis der Tod euch scheidet\nTreu ihr sein für alle Tage?\n(Ja) Nein\n(Ja) Nein\nWillst du bis der Tod euch scheidet\nTreu ihr sein für alle Tage?\n(Ja) Nein\n(Ja) Nein\n\n[Strophe]\nDu, du hast, du hast mich\nDu, du hast, du hast mich\n[Pre-Refrain]\nDu, du hast, du hast mich, du hast mich\nDu hast mich gefragt, du hast mich gefragt\nDu hast mich gefragt und ich hab' nichts gesagt\n\n[Refrain]\nWillst du bis der Tod euch scheidet\nTreu ihr sein für alle Tage?\n(Ja) Nein\n(Ja) Nein\nWillst du bis zum Tod der Scheide\nSie lieben auch in schlechten Tagen?\n(Ja) Nein\n(Ja) Nein\nWillst du bis der Tod euch scheidet\nTreu ihr sein\n(Ja) Nein\n(Ja) Nein", 'annotations': {'description': '&lt;p&gt;This song is a play on German wedding vows:&lt;/p&gt;\n\n&lt;blockquote&gt;\n&lt;p&gt;&lt;a href="http://www.seiyaku.com/seiyaku/vows/german.html" rel="noopener nofollow"&gt;Wollen Sie einander lieben und achten und die Treue halten bis dass der Tod euch scheidet?&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;em&gt;Do you want to love and respect each other and to remain faithful until death separates you?&lt;/em&gt;&lt;/p&gt;\n&lt;/blockquote&gt;\n\n&lt;p&gt;The music video bears resemblance to the movie &lt;em&gt;Reservoir Dogs&lt;/em&gt; directed by Quentin Tarantino. Lindemann &lt;a href="http://herzeleid.com/en/press/1998-06_mtv" rel="noopener nofollow"&gt;acknowledged this&lt;/a&gt; and stated that the six members of Rammstein are big fans:&lt;/p&gt;\n\n&lt;blockquote&gt;\n&lt;p&gt;KURT: The “Du hast” video seems very similar to &lt;em&gt;Reservoir Dogs&lt;/em&gt;, the film by Quentin Tarantino. Was that an influence on the video, or just coincidental?&lt;/p&gt;\n\n&lt;p&gt;TILL: All six of us are great fans of Tarantino, so we wanted to follow-up on that with our second video. Now we are really big Tarantino fans.&lt;/p&gt;\n&lt;/blockquote&gt;', 'producers': [{'name': 'Rammstein', 'url': 'https://genius.com/artists/Rammstein'}, {'name': 'Jacob Hellner', 'url': 'https://genius.com/artists/Jacob-hellner'}], 'writers': [{'name': 'Oliver Riedel', 'url': 'https://genius.com/artists/Oliver-riedel'}, {'name': 'Paul Landers', 'url': 'https://genius.com/artists/Paul-landers'}, {'name': 'Christian Lorenz', 'url': 'https://genius.com/artists/Christian-lorenz'}, {'name': 'Christoph Schneider', 'url': 'https://genius.com/artists/Christoph-schneider'}, {'name': 'Richard Z. Kruspe', 'url': 'https://genius.com/artists/Richard-z-kruspe'}, {'name': 'Till Lindemann', 'url': 'https://genius.com/artists/Till-lindemann'}], 'labels': [{'name': 'London Records', 'url': 'https://genius.com/artists/London-records'}, {'name': 'Motor Music', 'url': 'https://genius.com/artists/Motor-music'}, {'name': 'Slash Records', 'url': 'https://genius.com/artists/Slash-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Alt-j-breezeblocks-lyrics', 'lyrics': "[Verse 1]\nShe may contain the urge to run away\nBut hold her down with soggy clothes and breezeblocks\nCetirizine, your fever’s gripped me again\nNever kisses, all you ever send are fullstops (La la la la)\nDo you know where the wild things go?\nThey go along to take your honey (La la la la)\nBreak down, now weep, build up breakfast\nNow let’s eat, my love, my love, love, love (La la la la)\n\n[Chorus]\nMuscle to muscle and toe to toe\nThe fear has gripped me, but here I go\nMy heart sinks as I jump up\nYour hand grips hand as my eyes shut\nAnd I, ah-ah-ah-ah\n\n[Verse 2]\nDo you know where the wild things go?\nThey go along to take your honey (La la la la)\nBreak down, now sleep, build up breakfast\nNow let’s eat, my love, my love, love, love (La la la la)\nShe bruises, coughs, she splutters pistol shots\nHold her down with soggy clothes and breezeblocks\nShe’s morphine, queen of my vaccine\nMy love, my love, love, love (La la la la)\n[Chorus]\nMuscle to muscle and toe to toe\nThe fear has gripped me, but here I go\nMy heart sinks as I jump up\nYour hand grips hand as my eyes shut\nAnd I, ah-ah-ah-aha\nAah-ah-ah-ah, Aah-ah-ah-ah-aha-I (Shhhh)\n\n[Verse 3]\nShe may contain the urge to run away\nBut hold her down with soggy clothes and breezeblocks\nGermolene, disinfect the scene, my love, my love, love, love\nBut please don't go, I love you so, my lovely\n\n[Refrain]\nPlease don't go, please don't go\nI love you so, I love you so\nPlease don't go, please don't go\nI love you so, I love you so\nPlease break my heart (Hey!)\nPlease don't go, please don't go\nI love you so, I love you so\nPlease don't go, please don't go\nI love you so, I love you so\nPlease break my heart\n[Outro]\nPlease don’t go, I’ll eat you whole\nI love you so, I love you so, I love you so\nPlease don’t go, I’ll eat you whole\nI love you so, I love you so\nPlease don’t go, I’ll eat you whole\nI love you so, I love you so, I love you so\nPlease don’t go, I’ll eat you whole\nI love you so, I love you so\nPlease don’t go, I’ll eat you whole\nI love you so, I love you so, I love you so\nPlease don’t go, I’ll eat you whole\nI love you so, I love you so\nPlease don’t go, I’ll eat you whole\nI love you so, I love you so, I love you so\nPlease don’t go, I’ll eat you whole\nI love you so, I love you so", 'annotations': {'description': '&lt;p&gt;This is song from ∆’s (pronounced: Alt-J) debut album, &lt;em&gt;&lt;a href="https://genius.com/albums/Alt-j/An-awesome-wave" rel="noopener" data-api_path="/albums/22259"&gt;An Awesome Wave&lt;/a&gt;&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;“Breezeblocks” tells the story of a desperate man’s attempts to win over his love’s affections again as she has grown disillusioned, and the desperate yearning and longing that comes with love lost.&lt;/p&gt;\n\n&lt;p&gt;The song is inspired by the band’s love of &lt;em&gt;Where The Wild Things Are&lt;/em&gt; by Maurice Sendak.&lt;/p&gt;\n\n&lt;p&gt;Newman explained to &lt;a href="http://www.interviewmagazine.com/music/discovery-alt-j#_" rel="noopener nofollow"&gt;Interview Magazine:&lt;/a&gt;&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;The song is about liking someone who you want so much that you want to hurt yourself and them, as well. We related that idea to &lt;em&gt;Where The Wild Things Are,&lt;/em&gt; which we all grew up reading, where in the end the beasts say ‘Oh, please don’t go! We’ll eat you whole! We love you so!,’ that they would threaten cannibalism to have that person – it’s a powerful image."&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;&lt;/p&gt;&lt;div class="embedly_preview embedly_preview--video"&gt;\n&lt;iframe type="text/html" width="640" height="390" frameborder="0" allowfullscreen="1" src="https://www.youtube.com/embed/rVeMiVU77wo?modestbranding=1&amp;amp;start=0&amp;amp;showinfo=0&amp;amp;enablejsapi=1&amp;amp;origin=genius.com"&gt;&lt;/iframe&gt;\n&lt;/div&gt;', 'producers': [{'name': 'Charlie Andrew', 'url': 'https://genius.com/artists/Charlie-andrew'}], 'writers': [{'name': 'Thom Sonny Green', 'url': 'https://genius.com/artists/Thom-sonny-green'}, {'name': 'Gwilym Sainsbury', 'url': 'https://genius.com/artists/Gwilym-sainsbury'}, {'name': 'Gus Unger-Hamilton', 'url': 'https://genius.com/artists/Gus-unger-hamilton'}, {'name': 'Joe Newman', 'url': 'https://genius.com/artists/Joe-newman'}], 'labels': [{'name': 'Infectious Music', 'url': 'https://genius.com/artists/Infectious-music'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Jonas-brothers-only-human-lyrics', 'lyrics': "[Intro: Nick Jonas]\nYeah, ayy\n\n[Verse 1: Joe Jonas]\nI don't want this night to end\nIt’s closing time, so leave with me again (Yeah)\nYou got all my love to spend, oh\nLet's find a place where happiness begins\n\n[Pre-Chorus: Joe Jonas]\nWe gon' dance in my living room, slave to the way you move\nHurts when I’m leaving you (Ayy)\nJust dance in the living room, love with an attitude\nDrunk to an '80s groove (Ayy)\nWe gon' dance in my living room, slave to the way you move\nHurts when I'm leaving you (Ayy)\nDance in the living room, love with an attitude\nDrunk\n\n[Chorus: Nick Jonas]\nIt's only human, you know that it's real\nSo why would you fight or try to deny the way that you feel?\nOh, babe, you can't fool me, your body's got other plans\nSo stop pretending you’re shy, just come on and\nDance, dance, dance, dance, oh\n[Verse 2: Nick Jonas]\nEarly morning la-la-light\nOnly getting up to close the blinds, oh\nI’m praying you don't change your mind\n’Cause leaving now just don't feel right\nLet's do it one more time, oh babe\n\n[Pre-Chorus: Joe Jonas]\nWe gon' dance in my living room, slave to the way you move\nHurts when I’m leaving you (Hurts when I'm leaving you)\nJust dance in the living room, love with an attitude\nDrunk to an '80s groove (Ayy)\nWe gon' dance in my living room, slave to the way you move\nHurts when I'm leaving you (Ayy)\nDance in the living room, love with an attitude\nDrunk\n\n[Chorus: Nick Jonas &amp; Joe Jonas]\nIt's only human, you know that it's real (Know that it's real)\nSo why would you fight or try to deny the way that you feel?\n(The way that you feel)\nOh, babe, you can't fool me, your body's got other plans\nSo stop pretending you're shy, just come on and\nDance, dance, dance, dance, oh\n\n[Outro: Joe Jonas &amp; Nick Jonas]\nDance, oh (Woo, ayy)\nOnly human\nIt's only (-man), it's only (-man)\nOnly human\nOh yeah, yeah, yeah\nOnly human\nIt's only (-man), it's only (-man)\nOnly human", 'annotations': {'description': '', 'producers': [{'name': 'Shellback', 'url': 'https://genius.com/artists/Shellback'}], 'writers': [{'name': 'Shellback', 'url': 'https://genius.com/artists/Shellback'}, {'name': 'Joe Jonas', 'url': 'https://genius.com/artists/Joe-jonas'}, {'name': 'Nick Jonas', 'url': 'https://genius.com/artists/Nick-jonas'}, {'name': 'Kevin Jonas', 'url': 'https://genius.com/artists/Kevin-jonas'}], 'labels': [{'name': 'Republic Records', 'url': 'https://genius.com/artists/Republic-records'}, {'name': 'Universal Music Group', 'url': 'https://genius.com/artists/Universal-music-group'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Van-halen-panama-lyrics', 'lyrics': "[Intro]\nOoh\nOh yeah\nUh-huh, ah!\n\n[Verse 1]\nJump back, what's that sound?\nHere she comes, full blast and top down\nHot shoe, burning down the avenue\nModel citizen, zero discipline\n\n[Pre-Chorus]\nDon't you know she's coming home to me?\nYou'll lose her in the turn\nI'll get her, ah!\n\n[Chorus]\nPanama\nPanama\nPanama\nPanama\n\n[Verse 2]\nAin't nothin' like it, her shiny machine\nGot the feel for the wheel, keep the moving parts clean\nHot shoe, burning down the avenue\nOut an on-ramp coming through my bedroom\n[Pre-Chorus]\nDon't you know she's coming home to me?\nYou'll lose her in the turn\nI'll get her, ah!\nUh-oh\n\n[Chorus]\nPanama\nPanama, ow\nPanama, ah\nPanama, oh-oh-oh-oh\nWoo!\n\n[Guitar Solo]\n\n[Spoken Interlude]\nAh\nYeah, we're running a little bit hot tonight\nI can barely see the road from the heat coming off it, I say\nI reach down between my legs and\nEase the seat back\n\n[Bridge]\nShe's blinding, I'm flying\nRight behind in rearview mirror now\nGot the fearing, power steering\nPistons popping, ain't no stopping now\n[Chorus]\nPanama\nPanama\nPanama\nPanama, oh-oh-oh-oh\nPanama\nPanama, oh-oh-oh-oh\nPanama", 'annotations': {'description': '&lt;p&gt;“Panama” reportedly was inspired by a time Van Halen was criticized by a reporter for writing songs solely about hard partying, hot women, and fast cars, to which David Lee Roth responded that they’d never written a song about a fast car.&lt;/p&gt;\n\n&lt;p&gt;The car they wrote “Panama” about &lt;a href="http://autoweek.com/article/car-life/van-halens-1984-automotive-anthem-panama-far-more-complex-and-meaningful-you-ever" rel="noopener nofollow"&gt;is either a&lt;/a&gt; drag racer named Panama Express or &lt;a href="https://yperano.com/product/van-halen-panama-7-girl-gone-bad-uk-83-check-video-video-analysis-of-panama/" rel="noopener nofollow"&gt;Diamond Dave’s Opel Kadet&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;The nickname for that blue 1969 Kadett Caravan was “Panama” cuz that was the farthest south that you could possibly go and still have a really corrupt good time.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Of course, the car described in the song only serves as a metaphor for…. a hot woman – who is into some hard partying! (see also: &lt;a href="https://genius.com/Prince-little-red-corvette-lyrics" rel="noopener" data-api_path="/songs/3176"&gt;“Little Red Corvette”&lt;/a&gt;).&lt;/p&gt;\n\n&lt;p&gt;Released as the third single from &lt;em&gt;1984&lt;/em&gt;, “Panama” reached #13 in the US, becoming the album’s third top 20 in a row. The song also charted in Australia, Canada, Ireland and the UK.&lt;/p&gt;\n\n&lt;p&gt;Its music video features the band on stage, often being swung back and forth from a cable. It is notable for featuring a custom-made bass guitar designed to look like a bottle of Jack Daniels whiskey. Reportedly, MTV had a rule banning product placement, but the bass guitar was so prominent in the video – and VH was so popular at the time, having just scored a #1 hit with “Jump” that year – that the network was forced to air it as is.&lt;/p&gt;', 'producers': [{'name': 'Ted Templeman', 'url': 'https://genius.com/artists/Ted-templeman'}], 'writers': [{'name': 'Michael Anthony (Bassist)', 'url': 'https://genius.com/artists/Michael-anthony-bassist'}, {'name': 'Eddie Van Halen', 'url': 'https://genius.com/artists/Eddie-van-halen'}, {'name': 'Alex Van Halen', 'url': 'https://genius.com/artists/Alex-van-halen'}, {'name': 'David Lee Roth', 'url': 'https://genius.com/artists/David-lee-roth'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Matchbox-twenty-push-lyrics', 'lyrics': "(She said) I don't know if I've ever been good enough\nI'm a little bit rusty, and I think my head is caving in\nAnd I don't know if I've ever been really loved\nBy a hand that's touched me, well I feel like something's\nGonna give\nAnd i'm a little bit angry, well\n\nThis ain't over, no not here, not while I still need you\nAround\nYou don't owe me, we might change\nYeah we just might feel good\n[Chorus]\nI wanna push you around, I will, I will\nI wanna push you down, I will, I will\nI wanna take you for granted, I wanna take you for granted\nI will\n\n(She said) I don't know why you ever would lie to me\nLike I'm a little untrusting when I think that the truth is\nGonna hurt ya\nAnd I don't know why you couldn't just stay with me\nYou couldn't stand to be near me\nWhen my face don't seem to want to shine\n'Cause it's a little bit dirty, well\nDon't just stand there, say nice things to me\n'Cause I've been cheated I've been wronged, and you\nYou don't know me, well I can't change\nI won't do anything at all\n[Chorus]\nI wanna push you around, I will, I will\nI wanna push you down, I will, I will\nI wanna take you for granted, I wanna take you for granted\nI will\nOh but don't bowl me over\nJust wait a minute well it kinda fell apart, things get so\nCrazy, crazy\nDon't rush this baby, don't rush this baby\n[Chorus]\nI wanna push you around, I will, I will\nI wanna push you down, I will, I will\nI wanna take you for granted, i wanna take you for granted\nI will", 'annotations': {'description': '&lt;p&gt;“Push” is a song by Matchbox Twenty off of their 1996 release &lt;em&gt;Yourself Or Someone Like You&lt;/em&gt;. The song is about an emotionally abusive relationship that Rob Thomas was in with a woman who had been cheated on and betrayed by previous exes. Their relationship is at a breaking point, and at some point Rob has suggested or asked for them to break up because of the emotional distress and pain they are both experiencing. Her difficult past has shattered her mental and emotional state, and she struggles with self esteem, trust, and loving herself and someone else as a result of her previous relationships, which were likely emotionally abusive with her as the victim. She is upset that someone she has likely opened up to about her insecurities, fears, and emotions would dare turn away and run from her. However, she has taken on the role of the abuser in her new relationship with Rob, and he’s now the one suffering the emotional abuse.&lt;/p&gt;', 'producers': [{'name': 'Matt Serletic', 'url': 'https://genius.com/artists/Matt-serletic'}], 'writers': [{'name': 'Matt Serletic', 'url': 'https://genius.com/artists/Matt-serletic'}, {'name': 'Rob Thomas', 'url': 'https://genius.com/artists/Rob-thomas'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Kings-of-leon-radioactive-lyrics', 'lyrics': "[Verse:]\nWhen the roll is called up yonder\nI hope you see me there\nIt's in the water, it's where you came from\nIt's in the water, it's where you came from\nWhen the crowd begins to wonder\nAnd they cry to see your face\n\n[Chorus:]\nIt's in the water, it's in the story, of where you came from\nYour sons and daughters, in all their glory, it's going to shape her\nAnd when they clash and come together, and start rising\nJust drink the water where you came from, where you came from\n\n[Bridge:]\nSo the roll it was called from yonder\nNever sold yourself away\n\n[Chorus:]\nIt's in the water, it's in the story, of where you came from\nYour sons and daughters, in all their glory, it's going to shape her\nAnd when they clash and come together, and start rising\nJust drink the water where you came from, where you came from\n\n[Outro:]\nIt's in the water, it's where you came from\nIt's in the water, it's where you came from\nAnd when they clash and come together, and start rising\nJust drink the water, where you came from, where you came from", 'annotations': {'description': '&lt;p&gt;As the band mentions in this video, “Radioactive” arose from an old gospel song they used to sing, when they were adolescents.&lt;br&gt;\nAlso, the song was written right after their release of &lt;a href="https://genius.com/albums/Kings-of-leon/Aha-shake-heartbreak" rel="noopener" data-api_path="/albums/26694"&gt;“aha shake heartbreak”&lt;/a&gt;, long before the release of &lt;a href="https://genius.com/albums/Kings-of-leon/Come-around-sundown" rel="noopener" data-api_path="/albums/21099"&gt;“Come Around Sundown”&lt;/a&gt;, which features “Radioactive”.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://www.youtube.com/watch?v=EncWEAzYzVM" rel="noopener nofollow"&gt;https://www.youtube.com/watch?v=EncWEAzYzVM&lt;/a&gt;&lt;/p&gt;', 'producers': [{'name': 'Angelo Petraglia', 'url': 'https://genius.com/artists/Angelo-petraglia'}, {'name': 'Jacquire King', 'url': 'https://genius.com/artists/Jacquire-king'}], 'writers': [{'name': 'Matthew Followill', 'url': 'https://genius.com/artists/Matthew-followill'}, {'name': 'Jared Followill', 'url': 'https://genius.com/artists/Jared-followill'}, {'name': 'Nathan Followill', 'url': 'https://genius.com/artists/Nathan-followill'}, {'name': 'Caleb Followill', 'url': 'https://genius.com/artists/Caleb-followill'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/The-smashing-pumpkins-ava-adore-lyrics', 'lyrics': "[Verse 1]\nIt’s you that I adore\nYou’ll always be my whore\nYou’ll be the mother to my child\nAnd a child to my heart\n\n[Refrain]\nWe must never be apart\nWe must never be apart\n\n[Chorus]\nLovely girl, you’re the beauty in my world\nWithout you, there aren’t reasons left to find\n\n[Verse 2]\nAnd I’ll pull your crooked teeth\nYou’ll be perfect, just like me\nYou’ll be a lover in my bed\nAnd a gun to my head\n\n[Refrain]\nWe must never be apart\nWe must never be apart\n\n[Chorus]\nLovely girl, you're the murder in my world\nDressing coffins for the souls I've left to die\nDrinking mercury to the mystery\nOf all that you should ever leave behind\nIn time\n[Bridge]\nIn you, I see dirty\nIn you, I count stars\nIn you, I feel so pretty\nIn you, I taste god\nIn you, I feel so hungry\nIn you, I crash cars\n\n[Refrain]\nWe must never be apart\n\n[Chorus]\nDrinking mercury\nTo the mystery of all that you should ever seek to find\nLovely girl, you’re the murder in my world\nDressing coffins for the souls I’ve left behind\nIn time\n\n[Refrain]\nWe must never be apart\n\n[Verse 3]\nAnd you’ll always be my whore\n'Cause you’re the one that I adore\nAnd I’ll pull your crooked teeth\nYou’ll be perfect, just like me\nIn you, I feel so dirty\nIn you, I crash cars\nIn you, I feel so pretty\nIn you, I taste god\n\n[Refrain]\nWe must never be apart", 'annotations': {'description': '&lt;p&gt;“Ava Adore” is the first single and the second song on The Smashing Pumpkins\' fourth studio album &lt;a href="https://genius.com/albums/Smashing-pumpkins/Adore" rel="noopener" data-api_path="/albums/31857"&gt;&lt;em&gt;Adore&lt;/em&gt;&lt;/a&gt;. Released May 18th, 1998, the track reached number 3 on the &lt;a href="http://www.billboard.com/artist/279618/smashing-pumpkins/chart?f=377" rel="noopener nofollow"&gt;Billboard Top Alternative Songs&lt;/a&gt; and number 47 on the &lt;a href="http://www.billboard.com/artist/279618/smashing-pumpkins/chart" rel="noopener nofollow"&gt;Billboard Hot 100&lt;/a&gt; in 1998.&lt;/p&gt;\n\n&lt;p&gt;Released on June 1, 1998, the music video featured the band members clad in gothic ware, moving down a hallway as the camera steadily pans right to follow them. Although the focus remains on the band members, a revolving cast of strange characters and a sequence of contrasting sets continuously populate the background as well as the foreground.&lt;/p&gt;\n\n&lt;p&gt;When the camera reaches the endpoint of this hallway, it turns back to the left, revealing that the mesmerizing visuals the viewer had witnessed were illusions, as we can now see a film crew as well as all the equipment required to create such illusions.&lt;/p&gt;\n\n&lt;p&gt;The music video was awarded “Most Stylish Video” of the year at the 1998 &lt;a href="http://www.steveprutz.com/sp/awards.html" rel="noopener nofollow"&gt;&lt;em&gt;VH! Fashion Awards&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;', 'producers': [{'name': 'Brad Wood', 'url': 'https://genius.com/artists/Brad-wood'}, {'name': 'Billy Corgan', 'url': 'https://genius.com/artists/Billy-corgan'}], 'writers': [{'name': 'Billy Corgan', 'url': 'https://genius.com/artists/Billy-corgan'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Mark-ronson-nothing-breaks-like-a-heart-lyrics', 'lyrics': "[Chorus: Miley Cyrus]\nThis world can hurt you\nIt cuts you deep and leaves a scar\nThings fall apart, but nothing breaks like a heart\nAnd nothing breaks like a heart\n\n[Verse 1: Miley Cyrus]\nI heard you on the phone last night\nWe live and die by pretty lies\nYou know it, oh, we both know it\nThese silver bullet cigarettes\nThis burning house, there's nothing left\nIt's smoking, we both know it\nWe got all night to fall in love\nBut just like that, we fall apart\nWe're broken, we're broken\n\n[Pre-Chorus: Miley Cyrus]\nMmm, well, nothing, nothing, nothing gonna save us now\n\n[Chorus: Miley Cyrus]\nWell, there's broken silence\nBy thunder crashing in the dark (Crash in the dark)\nAnd this broken record\nSpin endless circles in the bar (Spin 'round in the bar)\nThis world can hurt you\nIt cuts you deep and leaves a scar\nThings fall apart, but nothing breaks like a heart\nMhmm, and nothing breaks like a heart\n[Verse 2: Miley Cyrus]\nWe'll leave each other cold as ice\nAnd high and dry, the desert wind\nIs blowin', is blowin'\nRemember what you said to me?\nWe were drunk in love in Tennessee\nAnd I hold it, we both know it\n\n[Pre-Chorus: Miley Cyrus]\nMmm, that nothing, nothing, nothing gonna save us now\nNothing, nothing, nothing gonna save us now\n\n[Chorus: Miley Cyrus]\nWell, there's broken silence\nBy thunder crashing in the dark (Crash in the dark)\nAnd this broken record\nSpin endless circles in the bar (Spin 'round in the bar)\nThis world can hurt you\nIt cuts you deep and leaves a scar\nThings fall apart, but nothing breaks like a heart\nMmm, and nothing breaks like a heart\nNothing breaks like a heart\nMmm, and nothing breaks like a heart\n\n[Bridge: Miley Cyrus]\nMy heart, my heart\nWell, nothing, nothing, nothing gonna save us now\nMy heart, my heart\nNothing, nothing, nothing gonna save us now\n[Chorus: Miley Cyrus]\nWell, there's broken silence\nBy thunder crashing in the dark (Crash in the dark)\nAnd this broken record\nSpin endless circles in the bar (Spin 'round in the bar)\nThis world can hurt you\nIt cuts you deep and leaves a scar\nThings fall apart, but nothing breaks like a heart\nMmm, but nothing breaks like a heart\nBut nothing breaks like a heart\nMmm, but nothing breaks like a heart", 'annotations': {'description': '&lt;p&gt;“Nothing Breaks Like a Heart” marks the first collaboration between producer Mark Ronson and country-pop star Miley Cyrus. The song speaks of a desperate scene between two lovers and underscores the dour persona surrounding heartbreak against other disasters in life. The track was initially &lt;a href="https://twitter.com/MarkRonson/status/1066776594902106117" rel="noopener nofollow"&gt;teased by Mark Ronson on Twitter&lt;/a&gt; with an unknown artist, which was later &lt;a href="https://twitter.com/MileyCyrus/status/1067072959678828545" rel="noopener nofollow"&gt;revealed to be Miley&lt;/a&gt; the following day.&lt;/p&gt;\n\n&lt;p&gt;The duo &lt;a href="https://www.youtube.com/watch?v=KH9SyY3l9Qo" rel="noopener nofollow"&gt;performed&lt;/a&gt; their song for the first time on the &lt;a href="https://www.imdb.com/title/tt0924651/" rel="noopener nofollow"&gt;Graham Norton Show&lt;/a&gt; on 7 December 2018.&lt;/p&gt;', 'producers': [{'name': 'Picard Brothers', 'url': 'https://genius.com/artists/Picard-brothers'}, {'name': 'Mark Ronson', 'url': 'https://genius.com/artists/Mark-ronson'}, {'name': 'Jamie xx', 'url': 'https://genius.com/artists/Jamie-xx'}], 'writers': [{'name': 'Miley Cyrus', 'url': 'https://genius.com/artists/Miley-cyrus'}, {'name': 'Mark Ronson', 'url': 'https://genius.com/artists/Mark-ronson'}, {'name': 'Thomas Brenneck', 'url': 'https://genius.com/artists/Thomas-brenneck'}, {'name': 'Conor Szymanski', 'url': 'https://genius.com/artists/Conor-szymanski'}, {'name': 'Ilsey', 'url': 'https://genius.com/artists/Ilsey'}, {'name': 'Maxime Picard', 'url': 'https://genius.com/artists/Maxime-picard'}, {'name': 'Clément Picard', 'url': 'https://genius.com/artists/Clement-picard'}], 'labels': [{'name': 'Columbia Records', 'url': 'https://genius.com/artists/Columbia-records'}, {'name': 'Sony Music UK', 'url': 'https://genius.com/artists/Sony-music-uk'}, {'name': 'Sony Music Entertainment', 'url': 'https://genius.com/artists/Sony-music-entertainment'}]}}</t>
+  </si>
+  <si>
+    <t>{"url": "https://genius.com/Buggles-video-killed-the-radio-star-lyrics", "lyrics": "[Verse 1: Trevor Horn, Debi Doss &amp; Linda Jardim]\nI heard you on the wireless back in '52\nLying awake, intently tuning in on you\nIf I was young, it didn't stop you coming through\nOh-a oh-a\nThey took the credit for your second symphony\nRewritten by machine on new technology\nAnd now I understand the problems you could see\n\n[Pre-Chorus 1: Trevor Horn, Debi Doss &amp; Linda Jardim]\nOh-a oh-a\nI met your children\nOh-a oh-a\nWhat did you tell 'em?\n\n[Chorus 1: Trevor Horn, Debi Doss &amp; Linda Jardim]\nVideo killed the radio star\nVideo killed the radio star\nPictures came and broke your heart\nOh-a-a-a-oh\n\n[Verse 2: Trevor Horn, Debi Doss &amp; Linda Jardim]\nAnd now we meet in an abandoned studio (Oh-a)\nWe hear the playback and it seems so long ago (Oh-oh-oh-oh-a)\nAnd you remember the jingles used to go\n[Pre-Chorus 2: Trevor Horn, Debi Doss &amp; Linda Jardim]\nOh-a oh-a\nYou were the first one\nOh-a oh-a\nYou were the last one\n\n[Chorus 2: Trevor Horn, Debi Doss &amp; Linda Jardim]\nVideo killed the radio star\nVideo killed the radio star\nIn my mind and in my car\nWe can't rewind, we've gone too far\nOh-a-a-a-oh\nOh-a-a-a-oh\n\n[Chorus 3: Trevor Horn, Debi Doss &amp; Linda Jardim]\nVideo killed the radio star\nVideo killed the radio star\nIn my mind and in my car\nWe can't rewind, we've gone too far\nPictures came and broke your heart\nPut the blame on VCR\n\n[Outro: Trevor Horn, Debi Doss &amp; Linda Jardim]\nYou are a radio star\nYou are a radio star\n(You are) Video killed the radio star (A, a radio star)\n(A radio star) Video killed the radio star\n(You are) Video killed the radio star (A, a radio star)\n(A radio star) Video killed the radio star\n(You are) Video killed the radio star (A, a radio star)\n(A radio star) Video killed the radio star\n(You are) Video killed the radio star (A, a radio star)\n(A radio star) Video killed the radio star\n(You are) Video killed the radio star (A, a radio star)\n(A radio star) Video killed the radio star\n(You are) Video killed the radio star (A, a radio star)\n(A radio star) Video killed the radio star\n(You are) Video killed the radio star", "annotations": {"description": "&lt;p&gt;\u201cVideo Killed the Radio Star\u201d was inspired from the J.G. Ballard short \u201cThe Sound-Sweep.\u201d It was written by Trevor Horn, Geoff Downes and Bruce Woolley, and was the first track recorded for &lt;em&gt;The Age of Plastic&lt;/em&gt;. The song went on to be a huge worldwide hit, peaking at the number one spot in several territories.&lt;/p&gt;\n\n&lt;p&gt;A little-known fact is that the song was originally recorded by Woolley\u2019s band &lt;a href=\"https://genius.com/artists/Bruce-woolley-and-the-camera-club\" rel=\"noopener\" data-api_path=\"/artists/1015541\"&gt;Bruce Woolley and the Camera Club&lt;/a&gt;. This &lt;a href=\"https://genius.com/Bruce-woolley-and-the-camera-club-video-killed-the-radio-star-lyrics\" rel=\"noopener\" data-api_path=\"/songs/2880450\"&gt;version&lt;/a&gt; had slightly different lyrics, and lacked the characteristic \u201coh-a oh-a\u201d hook.&lt;/p&gt;\n\n&lt;p&gt;A spiritual successor to the movie &lt;em&gt;&lt;a href=\"https://en.wikipedia.org/wiki/Singin%27_in_the_Rain\" rel=\"noopener nofollow\"&gt;Singin' in the Rain&lt;/a&gt;&lt;/em&gt;, which was about how the rise of what were known as \u201ctalking pictures\u201d wrecked the careers of those talented silent film actors whose voices wouldn\u2019t translate to film.  The song is about those musicians whose careers were destroyed because they would not translate visually to television. Adequate to this theme, the music video for the song was famously the first aired on MTV, at 12:01AM on August 1st, 1981.&lt;/p&gt;", "producers": [{"name": "Trevor Horn", "url": "https://genius.com/artists/Trevor-horn"}], "writers": [{"name": "Bruce Woolley", "url": "https://genius.com/artists/Bruce-woolley"}, {"name": "Geoff Downes", "url": "https://genius.com/artists/Geoff-downes"}, {"name": "Trevor Horn", "url": "https://genius.com/artists/Trevor-horn"}], "labels": []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Pearl-jam-alive-lyrics', 'lyrics': '[Verse 1]\n"Son," she said, "have I got a little story for you\nWhat you thought was your daddy was nothing but a...\nWhile you were sittin\' home alone at age thirteen\nYour real daddy was dyin\'\nSorry you didn\'t see him, but I\'m glad we talked"\n[Chorus]\nOh, I, oh I\'m still alive\nHey, I, oh I\'m still alive\nHey, I, oh I\'m still alive\nHey, oh\n\n[Verse 2]\nWhile she walks slowly across a young man\'s room\nShe said, "I\'m ready for you"\nWhy, I can\'t remember anything to this very day\n\'Cept the look, the look\nOh, you know where, now I can\'t see, I just stare\n[Chorus]\nI, I\'m still alive\nHey, I, oh, I\'m still alive\nHey, I, oh, I\'m still alive\nHey, I, oh, I\'m still alive, yeah\n[Break]\nOoh yeah, yeah, yeah, yeah, oh, ooh\n\n[Bridge]\n"There\'s something wrong", she said, well of course there is\n"You\'re still alive," she said, oh, and do I deserve to be?\nIs that the question?\nAnd if so, if so who answers? Who answers?\n[Chorus]\nI, oh I\'m still alive\nHey, I, oh I\'m still alive\nYeah, I, oh I\'m still alive\nYeah, I, ooh, I\'m still alive!\nYeah yeah yeah yeah yeah yeah yeah!\n[Guitar Solo]\nOoh yeah, ooh ooh\nOoh yeah, yeah yeah yeah', 'annotations': {'description': '&lt;p&gt;“Alive” is Pearl Jam’s first single and the &lt;a href="http://www.rollingstone.com/music/news/pearl-jam-five-against-the-world-19931028?page=4" rel="noopener nofollow"&gt;first song they ever played together&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;It appears on the band’s debut album, &lt;em&gt;&lt;a href="https://genius.com/albums/Pearl-jam/Ten" rel="noopener" data-api_path="/albums/19251"&gt;Ten&lt;/a&gt;&lt;/em&gt; (1991). Written by guitarist Stone Gossard, “Alive” originated as an instrumental titled “Dollar Short” and was included on a demo tape circulated in hopes of finding a singer for the group.  Vocalist Eddie Vedder obtained a copy of the tape and wrote lyrics that describe a fictionalized account (though somewhat based on Vedder’s personal experience) of the time when he was told that the man he thought was his father was not actually his biological parent.&lt;/p&gt;\n\n&lt;p&gt;The song is the first piece to a trilogy of songs in what Vedder later described as a “mini-opera” entitled &lt;em&gt;Mamasan&lt;/em&gt;.  It comprises the songs “Alive”, &lt;a href="https://genius.com/Pearl-jam-once-lyrics#" rel="noopener" data-api_path="/songs/99569"&gt;“Once,”&lt;/a&gt; and &lt;a href="https://genius.com/Pearl-jam-footsteps-lyrics" rel="noopener" data-api_path="/songs/99574"&gt;“Footsteps.”&lt;/a&gt; “Alive” tells the story of a young man discovering that his father is actually his stepfather, while his mother’s grief leads to an incestuous relationship with the son, who strongly resembles the biological father.&lt;/p&gt;', 'producers': [{'name': 'Pearl Jam', 'url': 'https://genius.com/artists/Pearl-jam'}, {'name': 'Rick Parashar', 'url': 'https://genius.com/artists/Rick-parashar'}], 'writers': [{'name': 'Stone Gossard', 'url': 'https://genius.com/artists/Stone-gossard'}, {'name': 'Eddie Vedder', 'url': 'https://genius.com/artists/Eddie-vedder'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/No-doubt-hey-baby-lyrics', 'lyrics': '[Intro Chorus: Gwen Stefani]\nHey baby, hey baby, hey!\nGirls say, boys say:\n"Hey baby, hey baby, hey!"\nHey baby, baby...\n[Verse 1: Gwen Stefani]\nI\'m the kinda girl that hangs with the guys\nLike a fly on the wall with my secret eyes\nTakin\' it in, try to be feminine\nWith my makeup bag, watchin\' all the sin\nMisfit, I sit\nLit up, wicked\nEverybody else surrounded by the girls\nWith the tank tops and the flirty words (Hey baby)\n\n[Pre-Chorus 1: Gwen Stefani]\nI\'m just sippin\' on chamomile\nWatchin\' boys and girls and their sex appeal\nWith a stranger in my face who says he knows my mom\nAnd went to my high school\n\n[Chorus 1: Gwen Stefani]\nAll the boys say:\n"Hey baby, hey baby, hey!"\nGirls say, girls say:\n"Hey baby, hey baby, hey!"\nHey baby, baby... (Hey baby)\nHey baby, hey baby, hey!\nBoys say, boys say:\n"Hey baby, hey baby, hey!"\nAll the boys get the girls in the back (Back, back, back, back)\n[Verse 2: Gwen Stefani]\nI\'m the one they feed upon\nGive a bit, a star is born\nAnd if you\'re hot enough you\'ll get the pass\nSo you can tell your friends how you made it back\n\n[Pre-Chorus 2: Gwen Stefani]\nNo matter what they say, I\'m still the same\nSomehow everybody knows my name\nAnd all the girls wanna get with the boys\nAnd the boys really like it\n\n[Chorus 2: Gwen Stefani]\nAll the boys say:\n"Hey baby, hey baby, hey!"\nGirls say, girls say:\n"Hey baby, hey baby, hey!"\nHey baby, baby... (Hey baby)\nHey baby, hey baby, hey!\nBoys say, boys say:\n"Hey baby, hey baby, hey!"\nAll the boys get the girls in the back (Back)\n\n[Verse 3: Bounty Killer]\nCheck it out, it’s Bounty Killer and No Doubt!\nJump on the stage makes me going crazy\nAfterwards myself and one of them gorgeous ladies (That\'s right!)\nThere is no need to be acting shady\nCome on, baby, hey, hey baby\nJump on the stage, makes me going crazy\nAfterwards myself and one of them gorgeous ladies\nThere is no need to be acting shady\nCome on, baby, hey, hey baby\nWhen you rock your hips you know that, it amaze me\nGot me off the hook and nothing else don\'t phase me\nCan you be my one and only sunshine lady?\nNo \'if\', no \'maybe?\'\nHey baby!\n[Pre-Chorus 3: Gwen Stefani &amp; Bounty Killer]\nI\'m just sippin\' on chamomile\nWatchin\' boys and girls and their sex appeal\nWith a stranger in my face who says he knows my mom\nAnd went to my high school\nThat\'s right!\n\n[Chorus 3: Gwen Stefani and Bounty Killer]\nAll the boys say:\n"Hey baby, hey baby, hey!"\nGirls say, girls say:\n"Hey baby, hey baby, hey!"\nHey baby, baby... (Hey baby)\nHey baby, hey baby, hey!\nBoys say, boys say:\n"Hey baby, hey baby, hey!"\nCan you be my one and only sunshine lady?\nBay-\nHey baby, hey baby, hey!\nGirls say (Hey baby), girls say:\n"Hey baby, hey baby, hey!"\nWhen you rock your hips you know that\nIt (Hey baby) amaze me\nHey baby, hey baby, hey! (Hey baby)\nBoys say (Hey baby), boys say:\n"Hey baby, hey baby, hey!"\nAll the boys get the girls in the back', 'annotations': {'description': '&lt;p&gt;“Hey Baby” is the third track off of No Doubt’s 2002 album &lt;em&gt;Rock Steady&lt;/em&gt;. It was released as a single and includes reggae artist Bounty Killer.&lt;/p&gt;\n\n&lt;p&gt;PROPOSED SUGGESTION: This song is based on “groupies” Gwen says these ladies are much worse than the male fans who like her. As the only girl in the group, she sees what happens backstage as her band-mates entertain their female fans.&lt;/p&gt;', 'producers': [{'name': 'Sly &amp; Robbie', 'url': 'https://genius.com/artists/Sly-and-robbie'}, {'name': 'No Doubt', 'url': 'https://genius.com/artists/No-doubt'}], 'writers': [{'name': 'Bounty Killer', 'url': 'https://genius.com/artists/Bounty-killer'}, {'name': 'Tom Dumont', 'url': 'https://genius.com/artists/Tom-dumont'}, {'name': 'Tony Kanal', 'url': 'https://genius.com/artists/Tony-kanal'}, {'name': 'Gwen Stefani', 'url': 'https://genius.com/artists/Gwen-stefani'}], 'labels': [{'name': 'Interscope Records', 'url': 'https://genius.com/artists/Interscope-records'}]}}</t>
   </si>
   <si>
     <t>{'url': 'https://genius.com/Major-lazer-lean-on-lyrics', 'lyrics': '[Produced by Major Lazer and DJ Snake]\n[Verse 1]\nDo you recall, not long ago\nWe would walk on the sidewalk?\nInnocent, remember?\nAll we did was care for each other\nBut the night was warm\nWe were bold and young\nAll around, the wind blows\nWe would only hold on to let go\n[Chorus]\nBlow a kiss, fire a gun\nWe need someone to lean on\nBlow a kiss, fire a gun\nAll we need is somebody to lean on\nBlow a kiss, fire a gun\nWe need someone to lean on\nBlow a kiss, fire a gun\nAll-All-All we need is somebody to lean on\n\n[Drop]\n(Hey, hey, hey, hey)\n(Hey, hey, hey, hey)\n[Verse 2]\nWhat will we do when we get old?\nWill we walk down the same road?\nWill you be there by my side?\nStanding strong as the waves roll over\nWhen the nights are long\nLonging for you to come home\nAll around, the wind blows\nWe would only hold on to let go\n[Chorus]\nBlow a kiss, fire a gun\nWe need someone to lean on\nBlow a kiss, fire a gun\nAll we need is somebody to lean on\nBlow a kiss, fire a gun\nWe need someone to lean on\nBlow a kiss, fire a gun\nAll-All-All we need is somebody to lean on\n\n[Drop]\nAll we need is somebody to lean on\n(We need someone to lean on, hey)\n(Hey, hey)\nAll-All-All we need is somebody to lean on\n(Major Lazer, hey)\n[Bridge]\nOh, oh-oh\n(Hey, hey, hey, hey)\n(Hey, hey, hey, hey, hey)\n[Chorus]\nBlow a kiss, fire a gun (Hey, hey)\nWe need someone to lean on (Hey, hey)\nBlow a kiss, fire a gun (Hey, hey)\nAll we need is somebody to lean on (Hey, hey)\nBlow a kiss, fire a gun (Hey, hey)\nWe need someone to lean on (Hey, hey)\nBlow a kiss, fire a gun (Hey, hey)\nAll-All-All we need is somebody to lean on (Hey, hey)', 'annotations': {'description': '&lt;p&gt;“Lean On” is the lead single from and fourth song on Major Lazer’s third studio album. &lt;a href="https://genius.com/albums/Major-lazer/Peace-is-the-mission" rel="noopener" data-api_path="/albums/121955"&gt;&lt;em&gt;Peace Is the Mission&lt;/em&gt;.&lt;/a&gt; The track features &lt;a href="https://genius.com/artists/Mo" rel="noopener" data-api_path="/artists/220458"&gt;MØ&lt;/a&gt; on vocals, and &lt;a href="https://genius.com/artists/Dj-snake" rel="noopener" data-api_path="/artists/41287"&gt;DJ Snake&lt;/a&gt; on co-production.&lt;/p&gt;\n\n&lt;p&gt;It’s an Indian-influenced reggae house song about the exhilaration and disappointment of young love.&lt;/p&gt;\n\n&lt;p&gt;When making the video, Diplo had this to say:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;&lt;a href="http://floodmagazine.com/11420/watch-major-lazer-heads-to-india-in-lean-on-video-announces-new-album/" rel="noopener nofollow"&gt;India is special and its beauty absolutely humbled me. When we toured there as Major Lazer, it was mind blowing to see our fan-base and we wanted to incorporate the attitude and positive vibes into our video and just do something that embodies the essence of Major Lazer. Major Lazer has always been a culture mashup and to us, India feels like some kind of special creature with one foot in history and one firmly in the future. The experience is something we’ll never forget.”&lt;/a&gt;&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;As of October 2018, it is the &lt;a href="https://en.wikipedia.org/wiki/List_of_most-viewed_YouTube_videos" rel="noopener nofollow"&gt;sixteenth most viewed video on YouTube&lt;/a&gt; with 2.39 billion views.&lt;/p&gt;', 'producers': [{'name': 'Jr. Blender', 'url': 'https://genius.com/artists/Jr-blender'}, {'name': 'Diplo', 'url': 'https://genius.com/artists/Diplo'}, {'name': 'DJ Snake', 'url': 'https://genius.com/artists/Dj-snake'}], 'writers': [{'name': 'Jr. Blender', 'url': 'https://genius.com/artists/Jr-blender'}, {'name': 'DJ Snake', 'url': 'https://genius.com/artists/Dj-snake'}, {'name': 'MØ', 'url': 'https://genius.com/artists/M'}, {'name': 'Diplo', 'url': 'https://genius.com/artists/Diplo'}], 'labels': [{'name': 'Mad Decent', 'url': 'https://genius.com/artists/Mad-decent'}, {'name': 'Because Music', 'url': 'https://genius.com/artists/Because-music'}, {'name': 'Warner Music Group', 'url': 'https://genius.com/artists/Warner-music-group'}]}}</t>
   </si>
   <si>
-    <t>{'url': 'https://genius.com/Laura-branigan-self-control-lyrics', 'lyrics': "[Verse]\nOh, the night is my world\nCity light painted girl\nIn the day nothing matters\nIt's the night time that flatters\nIn the night, no control\nThrough the wall something's breaking\nWearing white as you're walkin'\nDown the street of my soul\n\n[Pre-Chorus]\nYou take my self, you take my self control\nYou got me livin' only for the night\nBefore the morning comes, the story's told\nYou take my self, you take my self control\nAnother night, another day goes by\nI never stop myself to wonder why\nYou help me to forget to play my role\nYou take my self, you take my self control\n\n[Chorus]\nI, I live among the creatures of the night\nI haven't got the will to try and fight\nAgainst a new tomorrow, so I guess I'll just believe it\nThat tomorrow never comes\nA safe night, I'm living in the forest of a dream\nI know the night is not as it would seem\nI must believe in something, so I'll make myself believe it\nThat this night will never go\n[Break]\nOh-oh-oh, oh-oh-oh\nOh-oh-oh, oh-oh-oh\nOh-oh-oh, oh-oh-oh\nOh-oh-oh, oh-oh-oh\n\n[Verse]\nOh, the night is my world\nCity light painted girl\nIn the day nothing matters\nIt's the night time that flatters\n\n[Chorus]\nI, I live among the creatures of the night\nI haven't got the will to try and fight\nAgainst a new tomorrow, so I guess I'll just believe it\nThat tomorrow never knows\nA safe night, I'm living in the forest of a dream\nI know the night is not as it would seem\nI must believe in something, so I'll make myself believe it\nThat this night will never go\n\n[Break]\nOh-oh-oh, oh-oh-oh\nOh-oh-oh, oh-oh-oh\nOh-oh-oh\nYou take my self, you take my self control\nYou take my self, you take my self control\nYou take my self, you take my self control\nYou take my self, you take my self control\nYou take my self, you take my self control\nYou take my self, you take my self control\nYou take my self, you take my self control\nYou take my self, you take my self control\n\nI, I live among the creatures of the night\nI haven't got the will to try and fight\nIt's my world\nCity light painted girl", 'annotations': {'description': '&lt;p&gt;“Self Control” is the lead single and title track of Branigan’s third album. The song &lt;a href="https://www.songfacts.com/facts/laura-branigan/self-control" rel="noopener nofollow"&gt;explores&lt;/a&gt; “losing your self-control to the night or to someone”.&lt;/p&gt;\n\n&lt;p&gt;It was an international smash hit, reaching #1 in four countries &lt;a href="https://www.officialcharts.com/artist/19930/laura-branigan/" rel="noopener nofollow"&gt;overseas&lt;/a&gt; and breaking the top 10 in five others including a &lt;a href="https://www.billboard.com/music/laura-branigan" rel="noopener nofollow"&gt;#4 US peak&lt;/a&gt;. This song was also recorded by Italian singer Raf who took it to #1 too (in Italy).&lt;/p&gt;\n\n&lt;p&gt;The music video was directed by French Connection/The Exorcist director William Friedkin and &lt;a href="https://www.songfacts.com/facts/laura-branigan/self-control" rel="noopener nofollow"&gt;was banned&lt;/a&gt; by MTV.&lt;/p&gt;\n\n&lt;p&gt;More recently, “Self Control” was &lt;a href="https://www.youtube.com/watch?v=f_VBXRZuHTc" rel="noopener nofollow"&gt;featured in&lt;/a&gt; the video game Grand Theft Auto Vice City.&lt;/p&gt;', 'producers': [{'name': 'Jack White (Producer)', 'url': 'https://genius.com/artists/Jack-white-producer'}, {'name': 'Robbie Buchanan', 'url': 'https://genius.com/artists/Robbie-buchanan'}], 'writers': [{'name': 'Raf', 'url': 'https://genius.com/artists/Raf'}, {'name': 'Steve Piccolo', 'url': 'https://genius.com/artists/Steve-piccolo'}, {'name': 'Giancarlo Bigazzi', 'url': 'https://genius.com/artists/Giancarlo-bigazzi'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Foster-the-people-pumped-up-kicks-lyrics', 'lyrics': '[Verse 1]\nRobert\'s got a quick hand\nHe\'ll look around the room, he won\'t tell you his plan\nHe\'s got a rolled cigarette\nHanging out his mouth, he\'s a cowboy kid\nYeah, he found a six-shooter gun\nIn his dad\'s closet with a box of fun things\nI don\'t even know what\nBut he\'s coming for you, yeah, he\'s coming for you, wait\n\n[Chorus]\nAll the other kids with the pumped up kicks\nYou better run, better run, outrun my gun\nAll the other kids with the pumped up kicks\nYou better run, better run faster than my bullet\nAll the other kids with the pumped up kicks\nYou better run, better run, outrun my gun\nAll the other kids with the pumped up kicks\nYou better run, better run faster than my bullet\n\n[Verse 2]\nDaddy works a long day\nHe be coming home late, and he\'s coming home late\nAnd he\'s bringing me a surprise\n\'Cause dinner\'s in the kitchen and it\'s packed in ice\nI\'ve waited for a long time\nYeah, the sleight of my hand is now a quick-pull trigger\nI reason with my cigarette\nAnd say, "Your hair\'s on fire, you must\'ve lost your wits," yeah\n[Chorus]\nAll the other kids with the pumped up kicks\nYou better run, better run, outrun my gun\nAll the other kids with the pumped up kicks\nYou better run, better run faster than my bullet\nAll the other kids with the pumped up kicks\nYou better run, better run, outrun my gun\nAll the other kids with the pumped up kicks\nYou better run, better run faster than my bullet\n\n[Bridge]\nRun, run, run, run\nRu-ru-ru-run, run, run\nRu-ru-ru-ru-run, run, run, run\nRu-ru-ru-run\nRun, run, ru-run, run\n\n[Chorus]\nAll the other kids with the pumped up kicks\nYou better run, better run, outrun my gun\nAll the other kids with the pumped up kicks\nYou better run, better run faster than my bullet\nAll the other kids with the pumped up kicks\nYou better run, better run, outrun my gun\nAll the other kids with the pumped up kicks\nYou better run, better run faster than my bullet\nAll the other kids with the pumped up kicks\nYou better run, better run, outrun my gun\nAll the other kids with the pumped up kicks\nYou better run, better run faster than my bullet', 'annotations': {'description': '&lt;p&gt;Robert, the main character and narrator of the song, dreams of violence towards his rich classmates and peers. The song details his plans and ambitions for a school shooting, diving deep into the causes of his emotions.&lt;/p&gt;\n\n&lt;p&gt;During a 2011 &lt;a href="http://www.rollingstone.com/music/news/band-to-watch-foster-the-peoples-pumped-up-psych-pop-20110608" rel="noopener nofollow"&gt;&lt;em&gt;Rolling Stone&lt;/em&gt; interview&lt;/a&gt;, Foster said:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;I was trying to get inside the head of an isolated, psychotic kid.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Although this song is peppy and upbeat, Foster uses this to mask the true meaning of the song, and makes for a beautiful yet haunting composition, a tension which he referenced in the same interview:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;It’s a ‘fuck you’ song to the hipsters in a way – but it’s a song the hipsters are going to want to dance to.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Despite many believing that this song condones and encourages violence, Foster said otherwise in a 2011 &lt;a href="http://usatoday30.usatoday.com/life/music/news/story/2011-11-30/foster-the-people-pumped-up-kicks/51071462/1" rel="noopener nofollow"&gt;&lt;em&gt;USA Today&lt;/em&gt; interview&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;The song is not about condoning violence at all. It’s the complete opposite. The song is an amazing platform to have a conversation with your kids about something that shouldn’t be ignored, to talk about it in a loving way.&lt;/p&gt;&lt;/blockquote&gt;', 'producers': [{'name': 'Mark Foster', 'url': 'https://genius.com/artists/Mark-foster'}], 'writers': [{'name': 'Mark Foster', 'url': 'https://genius.com/artists/Mark-foster'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Chumbawamba-tubthumping-lyrics', 'lyrics': '[Spoken Interlude: Danny from "Brassed Off"]\nTruth is, I thought it mattered\nI thought that music mattered\nBut does it? Bollocks!\nNot compared to how people matter\n\n[Intro: Chumbawamba]\nWe\'ll be singin\'\nWhen we\'re winnin\'\nWe\'ll be singin\'\n\n[Chorus: Chumbawamba]\nI get knocked down, but I get up again\nYou\'re never gonna keep me down\nI get knocked down, but I get up again\nYou\'re never gonna keep me down\nI get knocked down, but I get up again\nYou\'re never gonna keep me down\nI get knocked down, but I get up again\nYou\'re never gonna keep me down\n\n[Verse 1: Danbert Nobacon &amp; Lou Watts]\nPissin\' the night away, pissin\' the night away\nHe drinks a Whiskey drink, he drinks a Vodka drink\nHe drinks a Lager drink, he drinks a Cider drink\nHe sings the songs that remind him of the good times\nHe sings the songs that remind him of the better times\nOh, Danny Boy, Danny Boy, Danny Boy\n[Chorus: Chumbawamba]\nI get knocked down, but I get up again\nYou\'re never gonna keep me down\nI get knocked down, but I get up again\nYou\'re never gonna keep me down\nI get knocked down, but I get up again\nYou\'re never gonna keep me down\nI get knocked down, but I get up again\nYou\'re never gonna keep me down\n\n[Verse 2: Boff Whalley &amp; Lou Watts]\nPissin\' the night away, pissin\' the night away\nHe drinks a Whiskey drink, he drinks a Vodka drink\nHe drinks a Lager drink, he drinks a Cider drink\nHe sings the songs that remind him of the good times\nHe sings the songs that remind him of the better times\nDon\'t cry for me, next-door neighbour\n\n[Chorus: Chumbawamba]\nI get knocked down, but I get up again\nYou\'re never gonna keep me down\nI get knocked down, but I get up again\nYou\'re never gonna keep me down\nI get knocked down, but I get up again\nYou\'re never gonna keep me down\nI get knocked down, but I get up again\nYou\'re never gonna keep me down\n[Horn Solo]\n\n[Chorus: Chumbawamba]\nI get knocked down, (We\'ll be singin\') but I get up again\nYou\'re never gonna keep me down (When we\'re winnin\')\nI get knocked down, (We\'ll be singin\') but I get up again\nYou\'re never gonna keep me down (Ooh)\nI get knocked down, (We\'ll be singin\') but I get up again\nYou\'re never gonna keep me down (When we\'re winnin\')\nI get knocked down, (We\'ll be singin\') but I get up again\nYou\'re never gonna keep me down (Ooh)\n\n[Chorus: Chumbawamba]\nI get knocked down, (We\'ll be singin\') but I get up again (Pissin\' the night away)\nYou\'re never gonna keep me down (When we\'re winnin\')\nI get knocked down, (We\'ll be singin\') but I get up again (Pissin\' the night away)\nYou\'re never gonna keep me down (Ooh)\nI get knocked down, (We\'ll be singin\') but I get up again (Pissin\' the night away)\nYou\'re never gonna keep me down (When we\'re winnin\')\nI get knocked down, (We\'ll be singin\') but I get up again (Pissin\' the night away)\nYou\'re never gonna keep me down (Ooh)\n\n[Chorus: Chumbawamba]\nI get knocked down, (We\'ll be singin\') but I get up again (Pissin\' the night away)\nYou\'re never gonna keep me down (When we\'re winnin\')\nI get knocked down, (We\'ll be singin\') but I get up again (Pissin\' the night away)\nYou\'re never gonna keep me down (Ooh)\nI get knocked down, (We\'ll be singin\') but I get up again (Pissin\' the night away)\nYou\'re never gonna keep me down (When we\'re winnin\')\nI get knocked down, (We\'ll be singin\') but I get up again (Pissin\' the night away)\nYou\'re never gonna keep me down (Ooh)\n[Chorus: Chumbawamba]\nI get knocked down, (We\'ll be singin\') but I get up again (Pissin\' the night away)\nYou\'re never gonna keep me down (When we\'re winnin\')\nI get knocked down, (We\'ll be singin\') but I get up again (Pissin\' the night away)\nYou\'re never gonna keep me down (Ooh)\nI get knocked down, (We\'ll be singin\') but I get up again (Pissin\' the night away)\nYou\'re never gonna keep me down (When we\'re winnin\')\nI get knocked down, (We\'ll be singin\') but I get up again (Pissin\' the night away)\nYou\'re never gonna keep me down (Ooh)\nI get knocked down, (We\'ll be singin\') but I get up again (Pissin\' the night away)\nYou\'re never gonna keep me down\n\n[Instrumental Outro]', 'annotations': {'description': '&lt;p&gt;&lt;img src="https://images.rapgenius.com/0f69bbcf0486e5894e6b12c483abf326.300x300x1.jpg" alt="" width="300" height="300" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;In the UK, a tubthumper is a politician. The US equivalent of tubthumping is "stumping" (campaigning). The liner notes on the album &lt;em&gt;Tubthumper&lt;/em&gt;, from which "Tubthumping" was the first single, put the song in a radical context, quoting a UK anti-road protester, Paris 1968 graffiti, details about the famous McLibel case and the short story "The Loneliness of the Long Distance Runner".&lt;/p&gt;', 'producers': [{'name': 'Neil Ferguson', 'url': 'https://genius.com/artists/Neil-ferguson'}], 'writers': [{'name': 'Danbert Nobacon', 'url': 'https://genius.com/artists/Danbert-nobacon'}, {'name': 'Boff Whalley', 'url': 'https://genius.com/artists/Boff-whalley'}, {'name': 'Lou Watts', 'url': 'https://genius.com/artists/Lou-watts'}, {'name': 'Alice Nutter', 'url': 'https://genius.com/artists/Alice-nutter'}, {'name': 'Harry “Daz” Hamer', 'url': 'https://genius.com/artists/Harry-daz-hamer'}, {'name': 'Paul Greco', 'url': 'https://genius.com/artists/Paul-greco'}, {'name': 'Dunstan Bruce', 'url': 'https://genius.com/artists/Dunstan-bruce'}, {'name': 'Jude Abbott', 'url': 'https://genius.com/artists/Jude-abbott'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/The-chemical-brothers-got-to-keep-on-lyrics', 'lyrics': 'Gotta keep on, gotta keep on\nGotta keep on, gotta keep on\nGotta keep on making me high\nGotta keep on making me high\nGotta keep on making me high\nGotta keep on making me high\nGotta keep on, gotta keep on\nGotta keep on, gotta keep on\nGotta keep on making me high\nGotta keep on making me high\nGotta keep on making me high\nGotta keep on making me high (Ooh-ooh-ooh)\nGotta keep on, gotta keep on\nGotta keep on, gotta keep on\n\n(Ooh-ooh-ooh)\nGotta keep on making me high\nGotta keep on making me high\nGotta keep on making me high\nGotta keep on making me high\nGotta keep on, gotta keep on\nGotta keep on, gotta keep on\n\n(Ooh-ooh-ooh)\nGotta keep on making me high\nGotta keep on making me high\nGotta keep on making me high\nGotta keep on making me high (Ooh-ooh-ooh)\nGotta keep on, gotta keep on\nGotta keep on, gotta keep on\n(Ooh-ooh-ooh)\n(Ooh-ooh-ooh)\nGotta keep on making me high\nGotta keep on making me high\nGotta keep on making me high\nGotta keep on making me high (Ooh-ooh-ooh)\nGotta keep on, gotta keep on\nGotta keep on, gotta keep on\n\nAnd the rain comes down\nLike tears, like tears\nAnd the rain comes down\nLike tears, like tears\nAnd the rain comes down\nLike tears, like tears\nLike tears, like tears\nLike tears, like tears\nLike tears, like tears\nLike tears, like tears\nLike tears, like tears\nLike tears, like tears\n\n(Ooh-ooh-ooh)\n(Ooh-ooh-ooh)\nGotta keep on making me high\nGotta keep on making me high\nGotta keep on making me high\nGotta keep on making me high (Ooh-ooh-ooh)\nGotta keep on, gotta keep on\nGotta keep on, gotta keep on\nGotta keep on making me high\nGotta keep on making me high\nGotta keep on making me high\nGotta keep on making me high (Ooh-ooh-ooh)\nGotta keep on, gotta keep on\nGotta keep on, gotta keep on', 'annotations': {'description': '&lt;p&gt;Keeping the theme of human apocalypse, “Got to Keep On” takes disco approach to the concept of persistence. In the first song “The Eve of Destruction,” there is a reference to the unaffordable price of water. The lyrical intermission to this song is a chorus on the possibility of rain as tears–a potential reference to hope within an apocalyptic drought.&lt;/p&gt;', 'producers': [{'name': 'The Chemical Brothers', 'url': 'https://genius.com/artists/The-chemical-brothers'}], 'writers': [{'name': 'Peter Brown', 'url': 'https://genius.com/artists/Peter-brown'}, {'name': 'Tom Rowlands', 'url': 'https://genius.com/artists/Tom-rowlands'}, {'name': 'Ed Simons', 'url': 'https://genius.com/artists/Ed-simons'}, {'name': 'Rod McKuen', 'url': 'https://genius.com/artists/Rod-mckuen'}, {'name': 'Robert Rans', 'url': 'https://genius.com/artists/Robert-rans'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Gorillaz-tomorrow-comes-today-lyrics', 'lyrics': "[Intro]\n[Unintelligible]\n\n[Verse 1: 2-D]\nEverybody's here with me\nWe've got no camera to see\nDon't think I'm all in this world\nThe camera won't let me roll\nThe verdict doesn't love our soul\nThe digital won't let me go\n\n[Chorus: 2-D]\nYeah, yeah, yeah, I'll pay\nWhen tomorrow\nTomorrow comes today\n[Unintelligible]\n\n[Verse 2: 2-D]\nStereo, I want it on\nIt's taken me far too long\nDon't think I'm all in this world\nDon't think I'll be here too long\nDon't think I'll be here too long\n(Don't think I'll be here too long)\nI don't think I'll be here too long\n(I don't think I'll be here too long)\n[Chorus: 2-D]\nYeah, yeah, yeah, I'll pay\nWhen tomorrow\nTomorrow comes today\n\n[Outro: 2-D]\n(Don't think I'm not all in this world)\n(Don't think I'm not all in this world)\n(Don't think I'm not all in this world)\n(Don't think I'm not all in this world)", 'annotations': {'description': '&lt;p&gt;“Tomorrow Comes Today” was first released on Gorillaz’s 2000 EP of the same name. Later, it was included on their debut self titled album in 2001 and was the album’s fourth and final single.&lt;/p&gt;\n\n&lt;p&gt;The music video was directed by comic book artist Jamie Hewlett, the co-creater and artist behind &lt;em&gt;Gorillaz.&lt;/em&gt; This was the band’s first music video.&lt;/p&gt;\n\n&lt;p&gt;&lt;/p&gt;&lt;div class="embedly_preview embedly_preview--video"&gt;\n&lt;iframe type="text/html" width="640" height="390" frameborder="0" allowfullscreen="1" src="https://www.youtube.com/embed/PiNdcBg3xC8?modestbranding=1&amp;amp;start=0&amp;amp;showinfo=0&amp;amp;enablejsapi=1&amp;amp;origin=genius.com"&gt;&lt;/iframe&gt;\n&lt;/div&gt;', 'producers': [{'name': 'Jason Cox', 'url': 'https://genius.com/artists/Jason-cox'}, {'name': 'Tom Girling', 'url': 'https://genius.com/artists/Tom-girling'}, {'name': 'Dan the Automator', 'url': 'https://genius.com/artists/Dan-the-automator'}, {'name': 'Gorillaz', 'url': 'https://genius.com/artists/Gorillaz'}], 'writers': [{'name': 'Damon Albarn', 'url': 'https://genius.com/artists/Damon-albarn'}], 'labels': [{'name': 'Parlophone Records', 'url': 'https://genius.com/artists/Parlophone-records'}, {'name': 'Virgin Records', 'url': 'https://genius.com/artists/Virgin-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/No-doubt-its-my-life-lyrics', 'lyrics': "[Verse 1]\nIt's funny how I find myself\nIn love with you\nIf I could buy my reasoning\nI'd pay to lose\nOne half won't do\n\n[Pre-Chorus]\nI've asked myself\nHow much do you\nCommit yourself?\n\n[Chorus]\nIt's my life\nDon't you forget\nIt's my life\nIt never ends (it never ends)\n\n[Verse 2]\nFunny how I blind myself\nI never knew\nIf I was sometimes played upon\nAfraid to lose\n\n[Pre-Chorus 2]\nOh, I'd tell myself\nWhat good do you do\nConvince myself\n[Chorus]\nIt's my life\nDon't you forget\nIt's my life\nIt never ends (it never ends)\n\n[Instrumental Bridge]\n\n[Pre-Chorus]\nAnd I've asked myself\nHow much do you\nCommit yourself?\n\n[Chorus]\nOh, it's my life\nDon't you forget\nCaught in the crowd\nIt never ends (it never ends)\n\n[Chorus]\nOh, it's my life\nDon't you forget\nCaught in the crowd\nIt never ends (it never ends)\n\n[Outro/Chorus]\nOh, it's my life (oh it's my life)\nDon't you forget (don't you forget)\nCaught in the crowd (caught in the crowd)\nIt never ends (it never ends)", 'annotations': {'description': '&lt;p&gt;This is &lt;a href="https://genius.com/artists/No-doubt" rel="noopener" data-api_path="/artists/24421"&gt;No Doubt&lt;/a&gt;’s cover of &lt;a href="https://genius.com/artists/Talk-talk" rel="noopener" data-api_path="/artists/223797"&gt;Talk Talk&lt;/a&gt;’s 1984 hit, “It’s My Life.” It appears on their &lt;a href="https://genius.com/albums/No-doubt/The-singles-19922003" rel="noopener" data-api_path="/albums/220684"&gt;Greatest Hits compilation album&lt;/a&gt;.&lt;/p&gt;', 'producers': [{'name': 'Nellee Hooper', 'url': 'https://genius.com/artists/Nellee-hooper'}], 'writers': [{'name': 'Tim Friese-Greene', 'url': 'https://genius.com/artists/Tim-friese-greene'}, {'name': 'Mark Hollis', 'url': 'https://genius.com/artists/Mark-hollis'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Shinedown-monsters-lyrics', 'lyrics': "[Verse 1]\nGood for you, you fooled everybody\nGood for you, you fooled everyone\nGood for you, now you're somebody\nGood for you, you fooled everyone\n\n[Pre-Chorus 1]\nLeave your weapon on the table\nWrapped in burlap, barely able\nDon't get angry, don't discourage\nTake a shot of liquid courage\n\n[Chorus]\n'Cause my monsters are real, and they're trained how to kill\nAnd there's no comin' back and they just laugh at how I feel\nAnd these monsters can fly, and they'll never say die\nAnd there's no goin' back, if I get trapped I'll never heal\nYeah, my monsters are real\n\n[Verse 2]\nGood for you, you hurt everybody\nGood for you, you hurt everyone\nGood for you, you love nobody\nGood for you, you owe no one\n\n[Pre-Chorus 2]\nLeave your weapon on the table\nWrapped in burlap, barely able\nCall a doctor, say a prayer\nChoose a god you think is fair\n[Chorus]\n'Cause my monsters are real, and they're trained how to kill\nAnd there's no comin' back and they just laugh at how I feel\nAnd these monsters can fly, and they'll never say die\nAnd there's no goin' back, if I get trapped I'll never heal\n'Cause my monsters are real\n\n[Bridge]\nLeave your weapon on the table\nWrapped in burlap, barely able\nDon't get angry, don't discourage\nTake a shot of liquid courage\nLeave a light on if you're able\n'Cause we both know you're unstable\nCall a doctor, say a prayer\nChoose a god you think is fair\n\n[Chorus]\n'Cause my monsters are real, and they're trained how to kill\nAnd there's no comin' back and they just laugh at how I feel\nAnd these monsters can fly, and they'll never say die\nAnd there's no goin' back, if I get trapped I'll never heal\nYeah, my monsters are real", 'annotations': {'description': '&lt;p&gt;From Jeff Gorra’s (@ArtistWaves) interview with frontman Brent Smith:&lt;/p&gt;\n\n&lt;p&gt;“There’s a song called “Monsters”. When I make that statement about “My monsters are real, and they’re trained how to kill”, that’s about as blunt and bold as I can be about those voices that I did say were legendary, but can also be my demise if I let them. Personally, it has a lot to do with substance abuse. I will forever be an addict. I’m clean now, but the fact is\u200a—\u200aI have to take it day-by-day. Those pathways are already paved in my brain. I know exactly what’s on those roads. For me to think I can go into a bar today and just have one drink, that would be great, but that’s not reality. If I were to go into a bar and have one drink I would end up drinking every single one in the building and probably wind up in jail. I know the parts of me that I must respect. It doesn’t mean I have to like it, but I do have to respect it. It’s something I can’t think about in the future, I literally have to take one day at a time. I haven’t gone to rehab, I don’t do self-help, nor am I a part of a 12-step program, I only know how to do it this way. I’m also very lucky because the other three guys I’m in a band with are my brothers and they’ve never judged me. They’ve just been there to pick me up when I fell.”&lt;/p&gt;', 'producers': [{'name': 'Eric Bass', 'url': 'https://genius.com/artists/Eric-bass'}], 'writers': [{'name': 'Eric Bass', 'url': 'https://genius.com/artists/Eric-bass'}, {'name': 'Brent Smith', 'url': 'https://genius.com/artists/Brent-smith'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Backstreet-boys-dont-go-breaking-my-heart-lyrics', 'lyrics': "[Verse 1: Nick Carter]\nI got mixed emotions\nDid I finally find me a river\nThat could lead me out to the ocean?\n'Cause I've only ever known the kind of love\nThat leaves you battered and broken\nSo forgive me for my mixed emotions, yeah yeah\n\n[Pre-Chorus: All]\nI'm not that kind of person\nWho can fall in and out of love with you\nThat's not what love's supposed to do\nI'm not that kind of person\nWho can fall in and out of love with you\nThat's not what love's supposed to do\n\n[Chorus: All]\nBaby, don't go breaking my heart, breaking my heart\nBaby, don't go breaking my heart, breaking my heart\n'Cause it's the only one I've got\n'Cause it's the only one I've got\n\n[Verse 2: AJ McLean]\nAm I being too open?\n'Cause I told you everything I have to say\nAnd now we're having a moment\nDoes it make you wanna pack up all your things\nAnd drive away like you stole it?\nJust forgive me if I'm being too open\nNo no no no, yeah yeah yeah\n[Pre-Chorus: All]\nI'm not that kind of person\nWho can fall in and out of love with you\nThat's not what love's supposed to do\n(What love's supposed to do)\nI'm not that kind of person\nWho can fall in and out of love with you\nThat's not what love's supposed to do\n\n[Chorus: All]\nBaby, don't go breaking my heart, breaking my heart\nBaby, don't go breaking my heart, breaking my heart\n'Cause it's the only one I've got\n'Cause it's the only one I've got\nBaby, don't go breaking my heart, breaking my heart\nBaby, don't go breaking my heart, breaking my heart\n'Cause it's the only one I've got\n'Cause it's the only one I've got\n\n[Bridge: Nick Carter]\nI've been broken, I've been bruised\nBut now I'm all in 'cause of you\nSo if you're gonna love me, love me right, yeah\nBut if you're gonna be someone that hurts somebody just for fun\nThen do it to a heart that isn't mine\n[Chorus: All]\nBaby, don't go breaking my heart, breaking my heart (Woo)\nBaby, don't go breaking my heart, breaking my heart (Don't, don't, don't)\n'Cause it's the only one I've got (Yeah)\n'Cause it's the only one I've got (Yeah)\nBaby, don't go breaking my heart, breaking my heart\nBaby, don't go breaking my heart, breaking my heart\n'Cause it's the only one I've got\nIt's the only one, it's the only one I got\n'Cause it's the only one I've got (Got, oh)\nBaby, don't go", 'annotations': {'description': "&lt;p&gt;“Don’t Go Breaking My Heart” is the first new Backstreet Boys single in five years. Unlike previous music, it is an electronic, synth-based song heavily influenced by EDM. It was released with a neon-light soaked video showcasing the boys' continued ability to dance and perform a remarkable 25 years into their career.&lt;/p&gt;", 'producers': [{'name': 'Jamie Hartman', 'url': 'https://genius.com/artists/Jamie-hartman'}, {'name': 'Stuart Crichton', 'url': 'https://genius.com/artists/Stuart-crichton'}], 'writers': [{'name': 'Wrabel', 'url': 'https://genius.com/artists/Wrabel'}, {'name': 'Jamie Hartman', 'url': 'https://genius.com/artists/Jamie-hartman'}, {'name': 'Stuart Crichton', 'url': 'https://genius.com/artists/Stuart-crichton'}], 'labels': [{'name': 'RCA Records', 'url': 'https://genius.com/artists/Rca-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Geri-halliwell-look-at-me-lyrics', 'lyrics': "[Verse 1]\nGood looking, bad tasting\nFull bodied, butt wasting\nLoose living, tight fitting\nWhat you see ain't what you are getting\nBig make up, little break up\nShe wants it, he's got it\nCold blooded, hot gossip\nSuperficial expectations\n\n[Chorus]\nLook at me\nYou can take it all because this face is free\nMaybe, next time use your eyes and look at me\nI'm a drama queen if that's your thing, baby\nI can even do reality\n\n[Post-Chorus]\nAh-ah-ah-ah\n\n[Verse 2]\nFake honey, real plastic\nStupid cupid, fantastic\nQueer thinking, straight talking\nWhat you see ain't what you are getting\nFast loving, slow moving\nNo rhythm, but I'm grooving\nOld feeling, new beginning\nSuperficial expectations\n[Chorus]\nLook at me\nYou can take it all because this face is free\nMaybe, next time use your eyes and look at me\nI'm a drama queen if that's your thing, baby\nI can even do reality\n\n[Post-Chorus]\nThat's me\n\n[Bridge]\nSometimes, I don't recognise my own face\nI look inside my eyes and find disgrace\nMy little white lies tell a story\nI see it all, it has no glory\n\n[Chorus]\nLook at me\nYou can take it all because this face is free\nMaybe, next time use your eyes and look at me\nI'm a drama queen if that's your thing, baby\nI can even do reality\n\n[Outro]\nCome on and look at me\nThis face is free\nI'm your fantasy\nSo who d'you wanna be?\nNot what you see\nI'm a drama queen\nIf that's your thing\nCome on and look at me (Look at me)\nI'm your fantasy\nThis face is free (Face is free)\nCome on and look at me\nSo who d'you wanna be? (Look at me)\nThis face is free\nCome on and look at me (Thing, baby)\nI'm your fantasy\nCome on and look at me (Look at me)\nNot what you see\nI'm a drama queen (Face is free)\nIf that's your thing\nCome on and look at me (Look at me)\nSo who d'you wanna be?\nThis face is free", 'annotations': {'description': '&lt;p&gt;“Look At Me” peaked at #2 on the U.K. Singles chart in 1999 and was certified Gold by the BPI with sales of 32,000 copies.&lt;/p&gt;\n\n&lt;p&gt;In the United States, the song managed to peak at #12 on Billboard’s Hot Dance Music\\Club Play chart.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/230a84c150883cc0c75c286f1ea78f17.309x309x1.jpg" alt="" width="309" height="309" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;strong&gt;Music Video&lt;/strong&gt;&lt;br&gt;\n&lt;/p&gt;&lt;div class="embedly_preview embedly_preview--video"&gt;&lt;iframe class="embedly-embed" src="https://cdn.embedly.com/widgets/media.html?src=https%3A%2F%2Fwww.dailymotion.com%2Fembed%2Fvideo%2Fxlq73&amp;amp;url=https%3A%2F%2Fwww.dailymotion.com%2Fvideo%2Fxlq73&amp;amp;image=https%3A%2F%2Fs1-ssl.dmcdn.net%2FAZYii%2Fx240-i1_.jpg&amp;amp;key=fc778e44915911e088ae4040f9f86dcd&amp;amp;type=text%2Fhtml&amp;amp;schema=dailymotion" width="480" height="360" scrolling="no" frameborder="0" allow="autoplay; fullscreen" allowfullscreen="true"&gt;&lt;/iframe&gt;&lt;/div&gt;', 'producers': [{'name': 'Absolute', 'url': 'https://genius.com/artists/Absolute'}], 'writers': [{'name': 'Andrew Watkins', 'url': 'https://genius.com/artists/Andrew-watkins'}, {'name': 'Paul Wilson', 'url': 'https://genius.com/artists/Paul-wilson'}, {'name': 'Geri Halliwell', 'url': 'https://genius.com/artists/Geri-halliwell'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Dire-straits-sultans-of-swing-lyrics', 'lyrics': '[Verse 1]\nYou get a shiver in the dark\nIt\'s raining in the park, but meantime\nSouth of the river\nYou stop and you hold everything\nA band is blowing Dixie\nDouble four time\nYou feel alright\nWhen you hear the music ring\n\n[Verse 2]\nWell, now you step inside\nBut you don\'t see too many faces\nComing in out of the rain to hear the Jazz go down\nCompetition in other places\nAh, but the horns, they blowin\' that sound\nWay on down south\nWay on down south, London town\n\n[Verse 3]\nCheck out guitar George\nHe knows all the chords\nMind, it\'s strictly rhythm\nHe doesn\'t want to make it cry or sing\nYes and an old guitar is all he can afford\nWhen he gets up under the lights to play his thing\n[Verse 4]\nAnd Harry doesn\'t mind if he doesn\'t make the scene\nHe\'s got a daytime job – he\'s doing alright\nHe can play the Honky Tonk like anything\nSaving it up for Friday night\nWith the Sultans\nWith the Sultans of Swing\n\n[Verse 5]\nAnd a crowd of young boys\nThey\'re fooling around in the corner\nDrunk and dressed in their best brown baggies\nAnd their platform soles\nThey don\'t give a damn\nAbout any trumpet playing band\nIt ain\'t what they call Rock and Roll\nAnd the Sultans\nYeah, the Sultans, they play Creole\nCreole\n\n[Guitar Solo - 3:20-4:13]\n\n[Verse 6]\nAnd then the man\nHe steps right up to the microphone\nAnd says at last\nJust as the time bell rings\n"Goodnight, now it\'s time to go home"\nThen he makes it fast\nWith one more thing\n"We are the Sultans –\nWe are the Sultans of Swing"\n[Guitar Solo - 4:46-5:49]', 'annotations': {'description': '&lt;p&gt;“Sultans of Swing” by Mark Knopfler appears on the self-titled Dire Straits album – 1978. It’s a story song, told as a second person narrative about the London Jazz experience and is based on Knopfler watching a band perform in a pub in Deptford, who called themselves The Sultans of Swing.&lt;/p&gt;', 'producers': [{'name': 'Muff Winwood', 'url': 'https://genius.com/artists/Muff-winwood'}], 'writers': [{'name': 'Mark Knopfler', 'url': 'https://genius.com/artists/Mark-knopfler'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Daft-punk-one-more-time-lyrics', 'lyrics': "[Produced by Daft Punk]\n\n[Intro: Romanthony]\nOne more time\nOne more time\n\n[Chorus 1: Romanthony]\nOne more time\nWe're gonna celebrate\nOh yeah, all right\nDon't stop the dancing\nOne more time\nWe're gonna celebrate\nOh yeah, all right\nDon't stop the dancing\nOne more time\nWe're gonna celebrate\nOh yeah, all right\nDon't stop the dancing\nOne more time\nWe're gonna celebrate\nOh yeah\nOne more time\n\n[Interlude]\n[Chorus 1: Romanthony]\nOne more time\nWe're gonna celebrate\nOh yeah, all right\nDon't stop the dancing\nOne more time\nWe're gonna celebrate\nOh yeah\nDon't stop the dancing\nOne more time\n\n[Bridge: Romanthony]\nMmm, you know I'm just feeling\nCelebration tonight\nCelebrate\nDon't wait too late\nMmm, no\nWe don't stop\nYou can't stop\nWe're gonna celebrate\nOne more time\nOne more time\nOne more time\nCelebration\nYou know we're gonna do it right, tonight\nHey! Just feeling\nMusic's got me feeling the need\nNeed, yeah\nCome on, all right\nWe're gonna celebrate\nOne more time\nCelebrate and dance so free\nMusic's got me feeling so free\nCelebrate and dance so free\nOne more time\nMusic's got me feeling so free\nWe're gonna celebrate\nCelebrate and dance so free\nOne more time\nMusic's got me feeling so free\nWe're gonna celebrate\nCelebrate and dance so free\nOne more time\nMusic's got me feeling so free\nWe're gonna celebrate\nCelebrate and dance so free\nOne more time\nMusic's got me feeling so free\nWe're gonna celebrate\nCelebrate and dance so free\nOne more time\nMusic's got me feeling so free\nWe're gonna celebrate\nCelebrate and dance so free\n[Chorus 2: Romanthony]\nOne more time\nMusic's got me feeling so free\nWe're gonna celebrate\nCelebrate and dance so free\nOne more time\nMusic's got me feeling so free\nWe're gonna celebrate\nCelebrate and dance so free\nOne more time\nMusic's got me feeling so free\nWe're gonna celebrate\nCelebrate and dance so free\nOne more time\nMusic's got me feeling so free\nWe're gonna celebrate\nCelebrate and dance so free\nOne more time\nMusic's got me feeling so free\nWe're gonna celebrate\nOne more time\nMusic's got me feeling so free\nWe're gonna celebrate\nCelebrate and dance so free\nOne more time\nMusic's got me feeling so free\nWe're gonna celebrate\nCelebrate and dance so free\n[Pause]\n\n[Chorus 2: Romanthony]\nOne more time\nMusic's got me feeling so free\nWe're gonna celebrate\nCelebrate and dance so free\nOne more time\nMusic's got me feeling so free\nWe're gonna celebrate\nCelebrate and dance so free\nOne more time\nMusic's got me feeling so free\nWe're gonna celebrate\nCelebrate and dance so free\nOne more time\nMusic's got me feeling so free\nWe're gonna celebrate\nCelebrate and dance so free", 'annotations': {'description': '&lt;p&gt;From Rolling Stone’s &lt;a href="https://www.rollingstone.com/music/music-album-reviews/discovery-251661/" rel="noopener nofollow"&gt;“Discovery” by Ben Ratliff&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;“Daft Punk’s single, ‘One More Time’, is that kind of song: a piece of superreligion with an invincible beat and a nailed-to-the-wall vocal by house singer Romanthony. It is stamina itself, an anthem to &lt;em&gt;keep on dancing&lt;/em&gt; that’s already a huge hit in clubs and on the radio. All those knowing listeners who bought Homework and signed on for the pair’s rascally, nudge-wink grooves now have to figure out what part of ‘One More Time’ is for them. Is there a subversive part of ‘One More Time?’ If so, where does it begin?”&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;The music video serves as the intro to the animated version of the album &lt;a href="https://genius.com/albums/Daft-punk/Discovery" rel="noopener" data-api_path="/albums/27501"&gt;Discovery&lt;/a&gt;, &lt;a href="http://rock.genius.com/Daft-punk-interstella-5555-the-5tory-of-the-5ecret-5tar-5ystem-lyrics/" rel="noopener" data-api_path="/songs/576883"&gt;&lt;em&gt;Interstella 5555: The 5tory of the 5ecret 5tar 5ystem&lt;/em&gt;&lt;/a&gt;. &lt;/p&gt;&lt;div class="embedly_preview embedly_preview--video"&gt;\n&lt;iframe type="text/html" width="640" height="390" frameborder="0" allowfullscreen="1" src="https://www.youtube.com/embed/FGBhQbmPwH8?modestbranding=1&amp;amp;start=0&amp;amp;showinfo=0&amp;amp;enablejsapi=1&amp;amp;origin=genius.com"&gt;&lt;/iframe&gt;\n&lt;/div&gt;', 'producers': [{'name': 'Daft Punk', 'url': 'https://genius.com/artists/Daft-punk'}], 'writers': [{'name': 'Guy-Manuel de Homem-Christo', 'url': 'https://genius.com/artists/Guy-manuel-de-homem-christo'}, {'name': 'Thomas Bangalter', 'url': 'https://genius.com/artists/Thomas-bangalter'}, {'name': 'Romanthony', 'url': 'https://genius.com/artists/Romanthony'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Van-halen-dont-tell-me-what-love-can-do-lyrics', 'lyrics': "It's ok, I'll do what I want\nIf I choose, I can take the fall\nThere's a choice\nIt's my destiny\nIn my hands\nYeah it's up to me\nI can drive\nI can shoot a gun in the streets\nScore me some heroin\nI can jump\nBe the sacrifice\nBear my cross just like Jesus Christ\nAnd I don't wanna hear what love can do\nNo, I ain't gonna tell ya what's right for you\nIs it right to take the easy way\nClose your eyes\nGet on your knees and pray\nNow you're saved by a higher voice\nGiving up, giving up, giving up your choice\nIf I'm wrong then I'll pay for it\nIf I'm right, yeah you're gonna hear about it\nBut I've tried, yeah I've tried for it\nI tried, I tried, 'til I'm satisfied\nAnd I\nI'm tired of hearing what love can do\nAnd I\nAin't gonna tell you what's right for you\nI've seen the damage done\nDown with the shotgun\nDon't stop the setting sun on my kingdom come\nOh\nIs it right to take the easy way\nI don't know\nI get down on my  knees and pray\nNow I'm saved by a higher voice\nGivin' up, givin' up, givin' up my choice\nIf I'm wrong then I'll pay for it\nIf I'm right, yeah you're gonna deal with it\nCause I've tried, yeah I tried for it\nI tried, I tried, even die for it\nNo I\nDon't wanna hear what love can do\nNo I\nI can't tell you what's right for you\nOh I\nTell you what love can do\nNo I\nCan't say but your time is through\nI've seen the damage done\nOh Lord, I've heard the shotgun\nI fought the setting sun on my kingdom come\nOh\nDon't tell me what love can do\nHey, hey, hey\nDon't tell me what love can do\nHey, hey, hey", 'annotations': {'description': '&lt;p&gt;The lyrics of this song were written about the tragic death of Kurt Cobain and how it probably could have been stopped if more people showed him compassion.&lt;br&gt;\nSammy Hagar talks about his inspiration in writing this song in his &lt;a href="https://read.amazon.com/kp/embed?asin=B0042FZVU8&amp;amp;preview=newtab&amp;amp;linkCode=kpe&amp;amp;ref_=cm_sw_r_kb_dp_C8Y2ET4ZBWP5VNM1T823" rel="noopener nofollow"&gt;autobiography&lt;/a&gt;&lt;/p&gt;', 'producers': [{'name': 'Bruce Fairbairn', 'url': 'https://genius.com/artists/Bruce-fairbairn'}], 'writers': [{'name': 'Alex Van Halen', 'url': 'https://genius.com/artists/Alex-van-halen'}, {'name': 'Eddie Van Halen', 'url': 'https://genius.com/artists/Eddie-van-halen'}, {'name': 'Michael Anthony (Bassist)', 'url': 'https://genius.com/artists/Michael-anthony-bassist'}, {'name': 'Sammy Hagar', 'url': 'https://genius.com/artists/Sammy-hagar'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Matchbox-twenty-push-lyrics', 'lyrics': "(She said) I don't know if I've ever been good enough\nI'm a little bit rusty, and I think my head is caving in\nAnd I don't know if I've ever been really loved\nBy a hand that's touched me, well I feel like something's\nGonna give\nAnd i'm a little bit angry, well\n\nThis ain't over, no not here, not while I still need you\nAround\nYou don't owe me, we might change\nYeah we just might feel good\n[Chorus]\nI wanna push you around, I will, I will\nI wanna push you down, I will, I will\nI wanna take you for granted, I wanna take you for granted\nI will\n\n(She said) I don't know why you ever would lie to me\nLike I'm a little untrusting when I think that the truth is\nGonna hurt ya\nAnd I don't know why you couldn't just stay with me\nYou couldn't stand to be near me\nWhen my face don't seem to want to shine\n'Cause it's a little bit dirty, well\nDon't just stand there, say nice things to me\n'Cause I've been cheated I've been wronged, and you\nYou don't know me, well I can't change\nI won't do anything at all\n[Chorus]\nI wanna push you around, I will, I will\nI wanna push you down, I will, I will\nI wanna take you for granted, I wanna take you for granted\nI will\nOh but don't bowl me over\nJust wait a minute well it kinda fell apart, things get so\nCrazy, crazy\nDon't rush this baby, don't rush this baby\n[Chorus]\nI wanna push you around, I will, I will\nI wanna push you down, I will, I will\nI wanna take you for granted, i wanna take you for granted\nI will", 'annotations': {'description': '&lt;p&gt;“Push” is a song by Matchbox Twenty off of their 1996 release &lt;em&gt;Yourself Or Someone Like You&lt;/em&gt;. The song is about an emotionally abusive relationship that Rob Thomas was in with a woman who had been cheated on and betrayed by previous exes. Their relationship is at a breaking point, and at some point Rob has suggested or asked for them to break up because of the emotional distress and pain they are both experiencing. Her difficult past has shattered her mental and emotional state, and she struggles with self esteem, trust, and loving herself and someone else as a result of her previous relationships, which were likely emotionally abusive with her as the victim. She is upset that someone she has likely opened up to about her insecurities, fears, and emotions would dare turn away and run from her. However, she has taken on the role of the abuser in her new relationship with Rob, and he’s now the one suffering the emotional abuse.&lt;/p&gt;', 'producers': [{'name': 'Matt Serletic', 'url': 'https://genius.com/artists/Matt-serletic'}], 'writers': [{'name': 'Matt Serletic', 'url': 'https://genius.com/artists/Matt-serletic'}, {'name': 'Rob Thomas', 'url': 'https://genius.com/artists/Rob-thomas'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/The-killers-when-you-were-young-lyrics', 'lyrics': "[Verse 1]\nYou sit there in your heartache\nWaiting on some beautiful boy to\nTo save you from your old ways\nYou play forgiveness\nWatch it now, here he comes\n\n[Chorus 1]\nHe doesn't look a thing like Jesus\nBut he talks like a gentlemen\nLike you imagined\nWhen you were young\n\n[Verse 2]\nCan we climb this mountain? I don't know\nHigher now than ever before\nI know we can make it if we take it slow\nLet's take it easy\nEasy now, watch it go\n\n[Chorus 2]\nWe're burning down the highway skyline\nOn the back of a hurricane that started turning\nWhen you were young\nWhen you were young\n[Interlude]\nAnd sometimes you close your eyes\nAnd see the place where you used to live\nWhen you were young\n\n[Bridge]\nThey say the devil's water — it ain't so sweet\nYou don't have to drink right now\nBut you can dip your feet\nEvery once in a little while\n\n[Verse 1]\nYou sit there in your heartache\nWaiting on some beautiful boy to\nTo save you from your old ways\nYou play forgiveness\nWatch it now, here he comes\n\n[Chorus 1]\nHe doesn't look a thing like Jesus\nBut he talks like a gentlemen\nLike you imagined\nWhen you were young\n(Talks like a gentleman)\n(Like you imagined when)\nWhen you were young\n[Outro]\nI said he doesn't look a thing like Jesus\nHe doesn't look a thing like Jesus\nBut more than you'll ever know", 'annotations': {'description': '&lt;p&gt;The lead single off of &lt;em&gt;Sam’s Town&lt;/em&gt;. The song contemplates the difference between expectations and reality through a love affair between a girl and a gentleman who ‘doesn’t look a thing like Jesus’.&lt;/p&gt;', 'producers': [{'name': 'The Killers', 'url': 'https://genius.com/artists/The-killers'}, {'name': 'Alan Moulder', 'url': 'https://genius.com/artists/Alan-moulder'}, {'name': 'Flood', 'url': 'https://genius.com/artists/Flood'}], 'writers': [{'name': 'Mark Stoermer', 'url': 'https://genius.com/artists/Mark-stoermer'}, {'name': 'Ronnie Vannucci Jr.', 'url': 'https://genius.com/artists/Ronnie-vannucci-jr'}, {'name': 'Dave Keuning', 'url': 'https://genius.com/artists/Dave-keuning'}, {'name': 'Brandon Flowers', 'url': 'https://genius.com/artists/Brandon-flowers'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Vanessa-carlton-a-thousand-miles-lyrics', 'lyrics': "[Intro]\n\n[Verse 1]\nMakin' my way downtown\nWalkin' fast, faces pass\nAnd I'm homebound\nStarin' blankly ahead\nJust makin' my way\nMakin' a way through the crowd\n\n[Pre-Chorus 1]\nAnd I need you\nAnd I miss you\nAnd now I wonder\n\n[Chorus]\nIf I could fall into the sky\nDo you think time would pass me by?\n'Cause you know I'd walk a thousand miles\nIf I could just see you\nTonight\n\n[Verse 2]\nIt's always times like these when I think of you\nAnd I wonder if you ever think of me\n'Cause everything's so wrong, and I don't belong\nLivin' in your precious memory\n[Pre-Chorus 2]\n'Cause I'll need you\nAnd I'll miss you\nAnd now I wonder\n\n[Chorus]\nIf I could fall into the sky\nDo you think time would pass me by?\nOh, 'cause you know I'd walk a thousand miles\nIf I could just see you\nTonight\n\n[Bridge]\nI, I don't wanna let you know\nI, I drown in your memory\nI, I don't wanna let this go\nI, I don't\n\n[Verse 1 (Reprise)]\nMakin' my way downtown\nWalkin' fast, faces pass\nAnd I'm homebound\nStarin' blankly ahead\nJust makin' my way\nMakin' a way through the crowd\n[Pre-Chorus 3]\nAnd I still need you\nI still miss you\nAnd now I wonder\n\n[Chorus]\nIf I could fall into the sky\nDo you think time would pass us by?\n'Cause you know I'd walk a thousand miles\nIf I could just see you, oh-oh\nIf I could fall into the sky\nDo you think time would pass me by?\n'Cause you know I'd walk a thousand miles\nIf I could just see you\nIf I could just hold you\nTonight", 'annotations': {'description': '&lt;p&gt;The lead single for Carlton’s debut album &lt;em&gt;Be Not Nobody&lt;/em&gt;, “A Thousand Miles” has solidified itself over the years as an Internet sensation that cross through all forms of media. Upon its release in 2002, it saw much success on the &lt;em&gt;Billboard&lt;/em&gt; charts, becoming the #1 song on the Adult Contemporary charts and making all the way to #5 on the &lt;em&gt;Hot 100&lt;/em&gt; chart. Featuring an iconic piano segment in the chorus by Vanessa Carlton herself, the song has been included in a wide array of memes including a beautiful rendition by &lt;a href="https://www.youtube.com/watch?v=9dssjIoPkxQ" rel="noopener nofollow"&gt;Terry Crews in the film “White Chicks”&lt;/a&gt; and a duet by &lt;a href="http://www.people.com/people/package/article/0,,20996464_21021686,00.html" rel="noopener nofollow"&gt;Jimmy Butler and Kyrie Irving on the Team USA flight in 2016&lt;/a&gt;.&lt;/p&gt;', 'producers': [{'name': 'Ron Fair', 'url': 'https://genius.com/artists/Ron-fair'}, {'name': 'Curtis Schweitzer', 'url': 'https://genius.com/artists/Curtis-schweitzer'}], 'writers': [{'name': 'Vanessa Carlton', 'url': 'https://genius.com/artists/Vanessa-carlton'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Black-eyed-peas-hey-mama-lyrics', 'lyrics': "[Intro: Fergie]\nLa la la la la la\n\n[Chorus: will.i.am]\nHey mama, this that shit that make you move, mama\nGet on the floor and move your booty, mama\nWe the blast masters, blastin' up the jamma\n(REEEEEEEWIIIIIIND)\n\n[Post-Chorus: Tippa Irie]\nCutie cutie, make sure you move your booty\nShake that thing like we in the city of sin, and\nHey shorty, I know you wanna party\nThe way your body look really make me feel naughty\nCutie cutie, make sure you move your booty\nShake that thing like we in the city of sin, and\nHey shorty, I know you wanna party\nAnd the way your body lookin', really make me feel naughty\n\n[Verse 1: will.i.am]\nI got a naughty naughty style and a naughty naughty crew\nBut everything I do, I do just for you\nI'm a little bit of old, and a little bit of new\nThe true niggas know that the Peas come through\nWe never cease (No), we never die, no we never deceased (No)\nWe multiply like we mathematise\nAnd then drop bombs like we in the Middle East\n(The bomb bomba's, the base boom dramas)\n[Pre-Chorus: will.i.am]\nNow y'all know, who we are\nY'all know, we the stars\nSteady rockin' on y'alls boulevards\nAnd lookin' hard without bodyguards\n(I do) what I can\n(W)ill-I-am\nAnd still I stand, with still mic in hand\n(So come on mama, dance to the drama)\n\n[Chorus: will.i.am]\nHey mama, this that shit that make you groove, mama\n(Hey) Get on the floor and move your booty mama\n(Yaw) We the blast mastas blastin' up the jamma\n(Hey) So shake your bambama, come on now mama\nThis that shit that make you groove, mama\n(Hey) Get on the floor and move your booty mama\n(Yaw) We the blast mastas blastin' up the jamma (Whoa)\n(La la la la la)\n\n[Verse 2: will.i.am]\nWe the big town stumpas, and big sound pumpas\nThe beat bump bumps in your trunk trunkas\nThe girlies in the club got the plump plump plumpas\nAnd when I'm makin' love, my hip hump humps\nIt never quits (No), we need to carry nine millimeter clips (No)\nDon't wanna squeeze trigger, just wanna squeeze tits\n(Lova, lova) 'cause we the show stoppas\nAnd the chief rockas, number one chief rockas\n[Pre-Chorus: will.i.am &amp; Fergie]\nNow y'all know (Who we are)\nY'all know (We the stars)\n(Steady rockin' on y'alls boulevard)\nHow we rockin' it girl (Without bodyguards)\nShe be (Fergie)\nFrom the crew (BEP)\n(Come and take heed, as we take the lead)\n(So come on bubba, dance to the drummer)\n\n[Chorus: will.i.am]\nHey mama, this that shit that make you groove, mama\n(Hey) Get on the floor and move your booty mama\n(Yaw) We the blast mastas blastin' up the jamma (Naw, nawy)\n\n[Post-Chorus: Tippa Irie]\nCutie cutie, make sure you move your booty\nShake that thing like we in the city of sin, and\nHey shorty, I know you wanna party\nThe way your body look really make me feel naughty\n\n[Bridge: Tippa Irie &amp; will.i.am]\nBut the race is not for the swift\nBut who really can, take control of it\nAnd Tippa Irie and the Black Eyed Peas\nWill be there\n'Til infinity, 'til infinity, 'til infinity, 'til infinity, 'til infinity, 'til infinity\nTippa is out\n[Verse 3: Tippa Irie]\nKcohs a med a ffun, Nuff a dem a shock\nNuff a dem a shock, nuff a dem a sting\nEvery time you see dem appear bling bling\nOh what a ting! Pure modeling\nGrinding, and winding\nAnd the madda dem a move inna perfect timing\nDem a dance and dance to di dancehall riddim\nAnd di way di tune nice, it finga-licking\nLike rice and peas and chicken stuffing\n\n[Chorus: will.i.am]\nHey mama, this that shit that make you groove, mama\n(Hey) get on the floor and move your booty mama\n(Yaw) We the blast mastas blastin' up the jamma\n(Hey) So shake your bambama, come on now mama\nThis that shit that make you groove, mama\n(Hey) Get on the floor and move your booty mama\n(Yaw) We the blast mastas blastin' up the jamma (Whoa)\n(La la la la la)", 'annotations': {'description': '&lt;p&gt;“Hey Mama” is a song by the American band the Black Eyed Peas. It reached #23 on the Billboard Hot 100 chart. The 2003 single is the third one taken from their 2003 album Elephunk.&lt;/p&gt;', 'producers': [{'name': '\u200bwill.i.am', 'url': 'https://genius.com/artists/William'}], 'writers': [{'name': 'Tippa Irie', 'url': 'https://genius.com/artists/Tippa-irie'}, {'name': '\u200bwill.i.am', 'url': 'https://genius.com/artists/William'}], 'labels': [{'name': 'Will.i.am Music Group', 'url': 'https://genius.com/artists/William-music-group'}, {'name': 'Interscope Records', 'url': 'https://genius.com/artists/Interscope-records'}, {'name': 'A&amp;M Records', 'url': 'https://genius.com/artists/A-m-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/No-doubt-sunday-morning-lyrics', 'lyrics': "[Intro]\nOne, two, three, four\n\n[Verse 1]\nSappy pathetic little me\nThat was the girl I used to be\nYou had me on my knees\n\n[Verse 2]\nI'd trade you places any day\nI'd never thought you could be that way\nBut you looked like me on Sunday\n\n[Chorus]\nWell, you came in with the breeze\nOn Sunday Morning\nYou sure have changed since yesterday\nWithout any warning\n\n[Post-Chorus 1]\nI thought I knew you (woh-oh)\nI thought I knew you (woh-oh)\nI thought I knew you well\nSo well\n\n[Verse 3]\nYou're trying my shoes on for a change\nThey look so good but fit so strange\nOut of fashion, so I can complain\n[Chorus]\nWell, you came in with the breeze\nOn Sunday Morning\nYou sure have changed since yesterday\nWithout any warning\n\n[Post-Chorus 1]\nI thought I knew you (woh-oh)\nI thought I knew you (woh-oh)\nI thought I knew you well\nSo well\n\n[Bridge]\nI know who I am, but who are you?\nYou're not looking like you used to\nYou're on the other side of the mirror\nSo nothing's looking quite as clear\nThank you, for turning on the light\nThank you, now you're the parasite\nI didn't think you had it in you\nAnd now, you're looking like I used to\n\n[Chorus]\nYou came in with the breeze\nOn Sunday Morning\nYou sure have changed since yesterday\nWithout any warning\n[Post-Chorus 2]\nAnd you want me badly\nBecause you cannot have me\nI thought I knew you (woh-oh)\nNow I've got a new view (woh-oh)\nI thought I knew you well\nOh well\n\n[Outro]\nOoh, on Sunday morning\nWithout a warning\nOn Sunday morning\nI thought I knew you (Sunday morning)\nOhh, you want me badly\nYou cannot have me\nSunday morning\nSunday morning\nSunday morning", 'annotations': {'description': '&lt;p&gt;On “Sunday Morning,” No Doubt lead singer Gwen Stefani relishes in her exes regression—he is now the “parasite,” begging for her to come back. In a classic example of post break-up behavior, her ex only wants her once he realizes he can’t have her anymore.&lt;/p&gt;\n\n&lt;p&gt;The song is a direct reference to Stefani’s relationship with bandmate Tony Kanal.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/c9851bd1ee3df0d245ee6dd32f453c9e.659x441x1.jpg" alt="" width="659" height="441" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;In a 1997 &lt;a href="http://www.rollingstone.com/music/news/no-doubt-inside-the-tragic-kingdom-19970501?page=4" rel="noopener nofollow"&gt;interview&lt;/a&gt; with &lt;em&gt;Rolling Stone&lt;/em&gt;, Tony admitted that, ironically, “Sunday Morning” was his favorite song off &lt;a href="https://genius.com/albums/No-doubt/Tragic-kingdom" rel="noopener" data-api_path="/albums/43506"&gt;&lt;em&gt;Tragic Kingdom&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;blockquote&gt;\n&lt;p&gt;‘It’s not mean toward him, really,’ says Gwen, when I mention how strange this is.&lt;/p&gt;\n\n&lt;p&gt;Well, I point out, it does call him a parasite.&lt;/p&gt;\n\n&lt;p&gt;‘Oh, yeah,’ she says giggling. ‘I forgot about the bridge.’"&lt;/p&gt;\n&lt;/blockquote&gt;', 'producers': [{'name': 'Matthew Wilder', 'url': 'https://genius.com/artists/Matthew-wilder'}], 'writers': [{'name': 'Eric Stefani', 'url': 'https://genius.com/artists/Eric-stefani'}, {'name': 'Gwen Stefani', 'url': 'https://genius.com/artists/Gwen-stefani'}, {'name': 'Tony Kanal', 'url': 'https://genius.com/artists/Tony-kanal'}], 'labels': [{'name': 'Trauma Records', 'url': 'https://genius.com/artists/Trauma-records'}, {'name': 'Interscope Records', 'url': 'https://genius.com/artists/Interscope-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Journey-separate-ways-worlds-apart-lyrics', 'lyrics': "[Verse 1]\nHere we stand\nWorlds apart, hearts broken in two, two, two\nSleepless nights\nLosing ground, I'm reaching for you, you, you\nFeeling that it's gone\nCan't change your mind\nIf we can't go on\nTo survive the tide\nLove divides\n\n[Chorus]\nSomeday love will find you\nBreak those chains that bind you\nOne night will remind you\nHow we touched and went our separate ways\nIf he ever hurts you\nTrue love won't desert you\nYou know I still love you\nThough we touched and went our separate ways\n\n[Verse 2]\nTroubled times\nCaught between confusion and pain, pain, pain\nDistant eyes\nPromises we made were in vain, in vain, in vain\nIf you must go\nI wish you luck\nYou'll never walk alone\nTake care, my love\nMiss you, love\n[Chorus]\nSomeday love will find you\nBreak those chains that bind you\nOne night will remind you\nHow we touched and went our separate ways\nIf he ever hurts you\nTrue love won't desert you\nYou know I still love you\nThough we touched and went our separate ways\n\n[Chorus]\nOh, someday love will find you\nBreak those chains that bind you\nOne night will remind you\nIf he ever hurts you\nTrue love won't desert you\nYou know I still love you\n\n[Outro]\nI still love you, girl\nI really love you, girl\nAnd if he ever hurts you\nTrue love won't desert you\nNo!\nNo!", 'annotations': {'description': '&lt;p&gt;The first track on the album &lt;em&gt;Frontiers&lt;/em&gt; and the first single released from the album.&lt;/p&gt;\n\n&lt;p&gt;Though it did well in the charts, it is now more known for its infamously bad “concept” music video, to which &lt;a href="https://ultimateclassicrock.com/journey-separate-ways-video-history/" rel="noopener nofollow"&gt;Jonathan Cain told *I Want My MTV&lt;/a&gt;*:&lt;/p&gt;\n\n&lt;blockquote&gt;\n&lt;p&gt;I will never live down those air keyboards. No matter what else I’ve done in my career, sooner or later people find a way to ask me about the ‘Separate Ways’ video.&lt;br&gt;\n&lt;/p&gt;\n&lt;div class="embedly_preview embedly_preview--video"&gt;\n&lt;iframe type="text/html" width="640" height="390" frameborder="0" allowfullscreen="1" src="https://www.youtube.com/embed/LatorN4P9aA?modestbranding=1&amp;amp;start=0&amp;amp;showinfo=0&amp;amp;enablejsapi=1&amp;amp;origin=genius.com"&gt;&lt;/iframe&gt;\n&lt;/div&gt;\n&lt;/blockquote&gt;\n\n&lt;p&gt;“Separate Ways” is also featured in the movie &lt;em&gt;&lt;a href="https://www.imdb.com/title/tt1068680/" rel="noopener nofollow"&gt;Yes Man&lt;/a&gt;&lt;/em&gt;, starring Jim Carrey.&lt;/p&gt;', 'producers': [{'name': 'Mike Stone', 'url': 'https://genius.com/artists/Mike-stone'}, {'name': 'Kevin Elson', 'url': 'https://genius.com/artists/Kevin-elson'}], 'writers': [{'name': 'Steve Perry', 'url': 'https://genius.com/artists/Steve-perry'}, {'name': 'Jonathan Cain', 'url': 'https://genius.com/artists/Jonathan-cain'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Emf-children-lyrics', 'lyrics': "[Intro-Chorus]\nChildren, I know\nYou deserve more than this world could ever give\n\n[Chorus]\nChildren, I know\nYou deserve more than this world could ever give...\n\n[Verse 1]\nHold on take your life\nHold on to each reality\nThey seem so far from you\nBut really they're close to you\nYou've got to break each precious dream\nUntil it breaks your heart in two\nBuild your life until you find\nWhat's right for you\n\n[Chorus]\nChildren, I know\nYou deserve more than this world could ever give\n\n[Verse 2]\nDon't let them take it all\n'Cause you know, they're going to take it all\nThey seem so far from you\nBut really they're close to you\nYou've got to break each precious dream\nUntil it breaks your heart in two\nBuild your life, until you find\nWhat's right for you\n[Chorus]\nChildren, I know\nYou deserve more than this world could ever give...\n\n[Outro]\n(Long live the new flesh!)", 'annotations': {'description': '', 'producers': [], 'writers': [], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Survivor-burning-heart-lyrics', 'lyrics': "[Verse 1]\nTwo worlds collide, rival nations\nIt's a primitive clash venting years of frustrations\nBravely we hope against all hope\nThere is so much at stake\nSeems our freedom's up against the ropes\nDoes the crowd understand?\nIs it East versus West or man against man?\nCan any nation stand alone?\n\n[Chorus]\nIn the burning heart just about to burst\nThere's a quest for answers an unquenchable thirst\nIn the darkest night rising like a spire\nIn the burning heart the unmistakable fire\nIn the burning heart\n\n[Verse 2]\nIn the warriors code there's no surrender\nThough his body says stop his spirit cries - never!\nDeep in our soul a quiet ember knows it's you against you\nIt's the paradox that drives us on\nIt's a battle of wills\nIn the heat of attack it's the passion that kills\nThe victory is yours alone\n[Chorus]\nIn the burning heart just about to burst\nThere's a quest for answers an unquenchable thirst\nIn the darkest night rising like a spire\nIn the burning heart the unmistakable fire\n\n[Instrumental Bridge]\n\n[Chorus]\nIn the burning heart just about to burst\nThere's a quest for answers an unquenchable thirst\nIn the darkest night rising like a spire\nIn the burning heart the unmistakable fire\nIn the burning heart just about to burst\nThere's a quest for answers an unquenchable thirst\nIn the darkest night rising like a spire\nIn the burning heart the unmistakable fire\n\n[Outro]\nIn the burning heart", 'annotations': {'description': '&lt;p&gt;Fresh from “Eye of the Tiger” from the Rocky III soundtrack, Jim Peterik’s Survivor was again called upon to make a hit for the sequel. This one is far more obvious in its inspiration from the storyline of the movie: Rocky, having witnessed his best friend, rival and mentor Apollo Creed killed in the ring by cold Russian boxer Ivan Drago, travels to Russia to train for his grudge match with the steroid-enhanced strongman. In the frigid tundra, Rocky tackles steeps hills, chops wood and just runs, as he always has. This song illustrates clearly what’s going through Rocky’s mind as he trains.&lt;/p&gt;', 'producers': [{'name': 'Jim Peterik', 'url': 'https://genius.com/artists/Jim-peterik'}, {'name': 'Frankie Sullivan', 'url': 'https://genius.com/artists/Frankie-sullivan'}], 'writers': [{'name': 'Jim Peterik', 'url': 'https://genius.com/artists/Jim-peterik'}, {'name': 'Frankie Sullivan', 'url': 'https://genius.com/artists/Frankie-sullivan'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Elle-king-exs-and-ohs-lyrics', 'lyrics': "[Verse 1]\nWell, I had me a boy, turned him into a man\nI showed him all the things that he didn't understand, whoa\nAnd then I let him go\nNow there's one in California who's been cursin' my name\n'Cause I found me a better lover in the UK, hey, hey\nUntil I made my getaway\n\n[Pre-Chorus 1]\nOne, two, three, they gonna run back to me\n'Cause I'm the best baby that they never gotta keep\nOne, two, three, they gonna run back to me\nThey always wanna come, but they never wanna leave\n\n[Chorus 1]\nEx's and the oh, oh, oh's\nThey haunt me like a-ghosts\nThey want me to make 'em oh, oh, oh\nThey won't let go, ex's and oh's\n\n[Verse 2]\nHad a summer lover down in New Orleans\nKept him warm in the winter, left him frozen in the spring, my, my\nHow the seasons go by\nI get high and I love to get low\nSo the hearts keep breaking and the heads just roll, you know\nThat's how the story goes\n[Pre-Chorus 1]\nOne, two, three, they gonna run back to me\n'Cause I'm the best baby that they never gotta keep\nOne, two, three, they gonna run back to me\nThey always wanna come, but they never wanna leave\n\n[Chorus 2]\nEx's and the oh, oh, oh's\nThey haunt me like a-ghosts\nThey want me to make 'em oh, oh, oh\nThey won't let go\nMy ex's and the oh, oh, oh's\nThey haunt me like a-ghosts\nThey want me to make 'em oh, oh, oh\nThey won't let go, ex's and oh's\n\n[Guitar Solo]\n\n[Pre-Chorus 2]\nOne, two, three, they gonna run back to me\nClimbing over mountains and a-sailing over seas\nOne, two, three, they gonna run back to me\nThey always wanna come, but they never wanna leave\n\n[Chorus 2]\nMy ex's and the oh, oh, oh's\nThey haunt me like a-ghosts\nThey want me to make 'em oh, oh, oh\nThey won't let go\nEx's and the oh, oh, oh's\nThey haunt me like a-ghosts\nThey want me to make 'em oh, oh, oh\nThey won't let go, ex's and oh's", 'annotations': {'description': '&lt;p&gt;Elle King sings about her old lovers and how they all come back to her wanting her love.&lt;/p&gt;\n\n&lt;p&gt;In the song, Elle King flips the stereotypical “love ‘em and leave \'em” mentality by ascribing it to a female singer through a series of biting innuendos.&lt;/p&gt;\n\n&lt;p&gt;The title, “Ex’s and Oh’s,” simultaneously evokes Tic-Tac-Toe, signaling that the singer treats relationships as a game, as well as plays off of colloquialisms for past relationships (Ex’s) and climaxes (Oh’s).&lt;/p&gt;\n\n&lt;p&gt;Trisha Yearwood similarly has a song called &lt;a href="https://genius.com/Trisha-yearwood-xxxs-and-ooos-an-american-girl-lyrics" rel="noopener" data-api_path="/songs/584731"&gt;“XXX’s and OOO’s (An American Girl).”&lt;/a&gt;&lt;/p&gt;', 'producers': [{'name': 'Dave Bassett', 'url': 'https://genius.com/artists/Dave-bassett'}], 'writers': [{'name': 'Kristopher Gregory', 'url': 'https://genius.com/artists/Kristopher-gregory'}, {'name': 'Dave Bassett', 'url': 'https://genius.com/artists/Dave-bassett'}, {'name': 'Elle King', 'url': 'https://genius.com/artists/Elle-king'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Sophie-ellis-bextor-murder-on-the-dancefloor-lyrics', 'lyrics': "[Intro]\nMurder\nIt's murder on the dancefloor\nBut you better not kill the groove, DJ\nGonna burn this goddamn house right down\n\n[Verse 1]\nI know, I know, I know, I know, I know\nI know about your kind\nAnd so and so and so and so and so\nI'll have to play\n\n[Pre-Chorus]\nIf you think you're getting away, I will prove you wrong\nI'll take you all the way, boy, just come along\nHear me when I say, hey\n\n[Chorus]\nIt's murder on the dancefloor\nBut you better not kill the groove, hey, hey\nIt's murder on the dancefloor\nBut you better not steal the moves, DJ\nGonna burn this goddamn house right down\n\n[Verse 2]\nI know, I know, I know, I know, I know\nI know there may be others\nAnd so and so and so and so and so and so\nYou'll just have to pray\n[Pre-Chorus]\nIf you think you'll get away, I will prove you wrong\nI'll take you all the way, stay another song\nI'll blow you all away, hey\n\n[Chorus]\nIt's murder on the dancefloor\nBut you better not kill the groove, hey, hey\nIt's murder on the dancefloor\nBut you better not steal the moves, DJ\nGonna turn this house around somehow\nMurder on the dancefloor\nBut you better not kill the groove, hey, hey\nIt's murder on the dancefloor\nBut you better not steal the moves, DJ\nGonna burn this goddamn house right down\n\n[Instrumental breakdown]\n\n[Pre-Chorus]\nDon't think you'll get away, I will prove you wrong\nI'll take you all the way, boy, just come along\nHear me when I say, hey\n\n[Chorus]\nIt's murder on the dancefloor\nBut you better not kill the groove\nIt's murder on the dancefloor\nBut you better not steal the moves, DJ\nGonna burn this goddamn house right down\nIt's murder on the dancefloor\nBut you better not kill the groove, hey, hey\nIt's murder on the dancefloor\nBut you better not steal the moves, DJ\nGonna burn this goddamn house right down\nIt's murder on the dancefloor\nBut you better not kill the groove, hey, hey\nIt's murder on the dancefloor\nBut you better not steal the moves", 'annotations': {'description': '&lt;p&gt;&lt;strong&gt;&lt;em&gt;Murder On the Dance Floor&lt;/em&gt;&lt;/strong&gt; was the second single from &lt;a href="https://genius.com/artists/Sophie-ellis-bextor" rel="noopener" data-api_path="/artists/35398"&gt;Sophie Ellis-Bextor&lt;/a&gt;’s debut album &lt;em&gt;Read My Lips&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;The song peaked at #2 on the U.K. Singles chart and was certified Silver by the BPI. It became the most-played song in Europe in 2002.&lt;/p&gt;\n\n&lt;p&gt;In the United States, it managed to peak at #26 on Billboard’s Hot Dance Music\\Club Play Songs chart.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/2a89174db218ec98410be2b3347a3407.500x487x1.jpg" alt="" width="500" height="487" data-animated="false"&gt;&lt;/p&gt;', 'producers': [{'name': 'Matt Rowe', 'url': 'https://genius.com/artists/Matt-rowe'}, {'name': 'Gregg Alexander', 'url': 'https://genius.com/artists/Gregg-alexander'}], 'writers': [{'name': 'Sophie Ellis-Bextor', 'url': 'https://genius.com/artists/Sophie-ellis-bextor'}, {'name': 'Gregg Alexander', 'url': 'https://genius.com/artists/Gregg-alexander'}], 'labels': [{'name': 'Universal Music Group', 'url': 'https://genius.com/artists/Universal-music-group'}, {'name': 'Polydor Records', 'url': 'https://genius.com/artists/Polydor-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Ub40-kingston-town-lyrics', 'lyrics': "[Verse 1]\nThe night seems to fade\nBut the moonlight lingers on\nThere are wonders for everyone\nThe stars shine so bright\nBut they're fading after dawn\nThere is magic in Kingston Town\n\n[Bridge]\nOh, Kingston Town\nThe place I long to be\nIf I had the whole world\nI would give it away\nJust to see the girls at play\n\n[Verse 2]\nAnd when I am king\nSurely I would need a queen\nAnd a palace and everything, yeah\nAnd now I am king\nAnd my queen will come at dawn\nShe'll be waiting in Kingston Town\n\n[Outro]\nAnd when I am king\nSurely I would need a queen\nAnd a palace and everything, yeah\nAnd now I am king\nAnd my queen will come at dawn\nShe'll be waiting in Kingston Town\nShe'll be waiting in Kingston Town\nShe'll be waiting in Kingston Town\nShe'll be waiting in Kingston Town", 'annotations': {'description': '&lt;p&gt;This song was written in 1970 by Lord Creator and  was recorded by UB40 19 years later.&lt;br&gt;\nIt is the second single from ‘Labour of Love II’ and it peaked at #4 on the UK singles chart.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/30342005bd021609b163f0742cd8a455.1000x1000x1.jpg" alt="" width="1000" height="1000" data-animated="false"&gt;&lt;/p&gt;', 'producers': [{'name': 'UB40', 'url': 'https://genius.com/artists/Ub40'}], 'writers': [{'name': 'Lord Creator', 'url': 'https://genius.com/artists/Lord-creator'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Two-door-cinema-club-something-good-can-work-lyrics', 'lyrics': "[Verse 1]\nThere's a spanner in the works, you know\nYou gotta step up your game to make it to the top\nSo go\nGot a little competition now\nYou're going to find it hard to cope with living on your own now\nUh oh, uh oh\n\n[Chorus]\nLet's make this happen, girl\nWe gotta show the world that something good can work\nAnd it can work for you, and you know that it will\nLet's get this started, girl\nWe're moving up, we're moving up\nIt's been a lot to change but you will always get what you want\n\n[Verse 2]\nIt took a little time to make a little better\nIt's only going up, just one thing then another\nYou know, you know\nIt took a little time to make a little better\nIt's only going up, just one thing then another\nYou know, you know\n\n[Chorus]\nLet's make this happen, girl\nWe gotta show the world that something good can work\nAnd it can work for you, and you know that it will\nLet's get this started, girl\nWe're moving up, we're moving up\nIt's been a lot to change but you will always get what you want\n[Instrumental Break]\n\n[Chorus]\nLet's make this happen, girl\nWe gotta show the world that something good can work\nAnd it can work for you, and you know that it will\nLet's get this started, girl\nWe're moving up, we're moving up\nIt's been a lot to change but you will always get what you want\nLet's make this happen, girl\nWe gotta show the world that something good can work\nAnd it can work for you, and you know that it will\nLet's get this started, girl\nWe're moving up, we're moving up\nIt's been a lot to change but you will always get what you want", 'annotations': {'description': '&lt;p&gt;“Something Good Can Work” is the positive 6th track of &lt;a href="https://genius.com/albums/Two-door-cinema-club/Tourist-history" rel="noopener" data-api_path="/albums/22945"&gt;Tourist History&lt;/a&gt;, made by indie rock band &lt;a href="https://genius.com/artists/Two-door-cinema-club" rel="noopener" data-api_path="/artists/17586"&gt;Two Door Cinema Club&lt;/a&gt;. The track follows the effort that gets put into a relationship, with sarcastic undertones across some lines. These undertones hint that the person is getting tired of working hard in a relationship to seemingly hand it to the other person, on a silver platter.&lt;/p&gt;', 'producers': [{'name': 'Eliot James', 'url': 'https://genius.com/artists/Eliot-james'}], 'writers': [{'name': 'Kevin Baird', 'url': 'https://genius.com/artists/Kevin-baird'}, {'name': 'Sam Halliday', 'url': 'https://genius.com/artists/Sam-halliday'}, {'name': 'Alex Trimble', 'url': 'https://genius.com/artists/Alex-trimble'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Silverchair-tomorrow-lyrics', 'lyrics': "[Verse 1]\nIt's twelve o'clock and it's a wonderful day\nI know you hate me, but I'll ask anyway\nWon't you come with me to a place in a little town?\nThe only way to get there's to go straight down\nThere's no bathroom and there is no sink\nThe water out of the tap is very hard to drink\n\n[Pre-Chorus]\nVery hard to drink\n\n[Chorus]\nYou wait 'til tomorrow\nYou wait 'til tomorrow\n\n[Verse 2]\nYou say that money isn't everything\nBut I'd like to see you live without it\nYou think you can keep on going living like a king\nOoh, babe, but I strongly doubt it\n\n[Pre-Chorus]\nVery hard to drink\nVery hard to drink\n\n[Chorus]\nYou gonna wait 'til, fat boy\nFat boy, wait 'til tomorrow\nYou gonna wait 'til, fat boy\nFat boy, wait 'til tomorrow\n[Chorus]\nYou wait 'til tomorrow\nYou wait 'til tomorrow\nYou gonna wait 'til, fat boy\nFat boy, wait 'til tomorrow\nYou gonna wait 'til, fat boy\nFat boy, wait 'til tomorrow\nOh, yeah", 'annotations': {'description': '&lt;p&gt;“Tomorrow” is Silverchair’s &lt;a href="https://www.billboard.com/music/Silverchair/chart-history/alternative-songs" rel="noopener nofollow"&gt;most popular track&lt;/a&gt;. The international commercial success of the song &lt;a href="https://www.newcastleherald.com.au/story/2521438/silverchair-was-the-sound-of-a-generation-photos-video/interactive/" rel="noopener nofollow"&gt;had a significant impact on Australian music and musicians in the 90s&lt;/a&gt;. Written by singer/guitarist Daniel Johns and drummer Ben Gillies &lt;a href="https://www.rollingstone.com/music/music-news/silverchair-boys-life-48313/" rel="noopener nofollow"&gt;when the pair were only fifteen&lt;/a&gt;, the song operates firmly within 90s grunge-era rock.&lt;/p&gt;\n\n&lt;p&gt;When asked about the inspiration for “Tomorrow,” &lt;a href="https://www.chairpage.com/press_releases/item/128/" rel="noopener nofollow"&gt;Johns said&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;That was on a TV show. There was this poor guy taking a rich guy through a hotel to experience the losses of the less fortunate than him. The rich guy is just complaining because he just wants to get out and the poor guy is saying you have to wait till tomorrow to get out. That’s one of our least serious songs but it still has meaning to it.&lt;/p&gt;&lt;/blockquote&gt;', 'producers': [{'name': 'Phil McKellar', 'url': 'https://genius.com/artists/Phil-mckellar'}, {'name': 'Kevin Shirley', 'url': 'https://genius.com/artists/Kevin-shirley'}], 'writers': [{'name': 'Ben Gillies', 'url': 'https://genius.com/artists/Ben-gillies'}, {'name': 'Daniel Johns', 'url': 'https://genius.com/artists/Daniel-johns'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/The-prodigy-smack-my-bitch-up-edit-lyrics', 'lyrics': 'Change my pitch up\nSmack my bitch up\nChange my pitch up\nSmack my bitch up\nChange my pitch up\nSmack my bitch up\nChange my pitch up\nSmack my bitch up\nSmack my bitch up\nSmack my bitch up\nChange my pitch up\nSmack my bitch up\nChange my pitch up\nSmack my bitch up', 'annotations': {'description': '', 'producers': [], 'writers': [], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Toto-africa-lyrics', 'lyrics': '[Verse 1: David Paich]\nI hear the drums echoing tonight\nBut she hears only whispers of some quiet conversation\nShe\'s coming in, 12:30 flight\nHer moonlit wings reflect the stars that guide me towards salvation\nI stopped an old man along the way\nHoping to find some old forgotten words or ancient melodies\nHe turned to me as if to say\n"Hurry, boy, it\'s waiting there for you"\n\n[Chorus: Bobby Kimball]\nIt\'s gonna take the lot to drag me away from you\nThere\'s nothing that a hundred men or more could ever do\nI bless the rains down in Africa\nGonna take some time to do the things we never had\n\n[Verse 2: David Paich]\nThe wild dogs cry out in the night\nAs they grow restless longing for some solitary company\nI know that I must do what\'s right\nAs sure as Kilimanjaro rises like Olympus above the Serengeti\nI seek to cure what\'s deep inside\nFrightened of this thing that I\'ve become\n[Chorus: Bobby Kimball]\nIt\'s gonna take the lot to drag me away from you\nThere\'s nothing that a hundred men or more could ever do\nI bless the rains down in Africa\nGonna take some time to do the things we never had\n[Bridge]\nHurry, boy, she\'s waiting there for you\n\n[Chorus: Bobby Kimball]\nIt\'s gonna take the lot to drag me away from you\nThere\'s nothing that a hundred men or more could ever do\nI bless the rains down in Africa\nI bless the rains down in Africa\nI bless the rains down in Africa\nI bless the rains down in Africa\nI bless the rains down in Africa\nGonna take some time to do the things we never had', 'annotations': {'description': '&lt;p&gt;“Africa” is the third single from Toto’s 1982 album titled &lt;em&gt;&lt;a href="https://genius.com/albums/Toto/Toto-iv" rel="noopener" data-api_path="/albums/109163"&gt;Toto IV&lt;/a&gt;&lt;/em&gt;.  It is the group’s most popular song and &lt;a href="http://www.billboard.com/charts/hot-100/1983-02-05" rel="noopener nofollow"&gt;reached #1&lt;/a&gt; on &lt;em&gt;Billboard’s Hot 100&lt;/em&gt; in early 1983.&lt;/p&gt;\n\n&lt;p&gt;The lyrics comprise a heartfelt (if somewhat fantastical and stereotyped) vision of the beauty of Africa. There are undercurrents of embodying the continent of Africa in a female figure that is referenced throughout the song.&lt;/p&gt;\n\n&lt;p&gt;Africa is, of course, an enormous continent full of a variety of cultures, but the lyrics touch on what a white kid growing up  in  1970s America would have been exposed to in pop culture, &lt;a href="http://jeffporcaro.blogspot.com/2006/12/story-behind-africa.html" rel="noopener nofollow"&gt;as drummer Jeff Porcaro stated in an interview:&lt;/a&gt;&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;… a white boy is trying to write a song on Africa, but since he’s never been there, he can only tell what he’s seen on TV or remembers in the past.&lt;/p&gt;&lt;/blockquote&gt;', 'producers': [{'name': 'Toto', 'url': 'https://genius.com/artists/Toto'}], 'writers': [{'name': 'Jeff Porcaro', 'url': 'https://genius.com/artists/Jeff-porcaro'}, {'name': 'David Paich', 'url': 'https://genius.com/artists/David-paich'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Britney-spears-till-the-world-ends-lyrics', 'lyrics': "[Verse 1]\nThis kitten got your tongue tied in knots, I see\nSpit it out, 'cause I'm dying for company\nI notice that you got it, you notice that I want it\nYou know that I can take it to the next level, baby\nIf you want this good -ish, sicker than the remix\nBaby, let me blow your mind tonight\n\n[Pre-Chorus]\nI can't take it, take it, take no more\nNever felt like, felt like this before\nCome on, get me, get me on the floor\nDJ, what you, what you waiting for?\n\n[Chorus]\nWoah-oh-oh-oh-oh-oh-oh\nWoah-oh-oh-oh-oh-oh-oh\nWoah-oh-oh-oh-oh-oh-oh\nWoah-oh-oh-oh-oh-oh-oh\nWoah-oh-oh-oh-oh-oh-oh\nWoah-oh-oh-oh-oh-oh-oh\nWoah-oh-oh-oh-oh-oh-oh\nWoah-oh-oh-oh-oh-oh-oh\n\n[Verse 2]\nWatch me move, when I lose, when I lose it hard\nGet you off with the touch, dancin' in the dark\nYou notice what I'm wearin', I'm noticin' you starin'\nYou know that I can take it to the next level, baby\nHotter than the A-list, next one on my hit list\nBaby, let me blow your mind tonight\n[Pre-Chorus]\nI can't take it, take it, take no more\nNever felt like, felt like this before\nCome on, get me, get me on the floor\nDJ, what you, what you waitin' for?\n\n[Chorus]\nWoah-oh-oh-oh-oh-oh-oh\nWoah-oh-oh-oh-oh-oh-oh\nWoah-oh-oh-oh-oh-oh-oh\nWoah-oh-oh-oh-oh-oh-oh\nWoah-oh-oh-oh-oh-oh-oh\nWoah-oh-oh-oh-oh-oh-oh\nWoah-oh-oh-oh-oh-oh-oh\nWoah-oh-oh-oh-oh-oh-oh\n\n[Post-Chorus]\nSee the sunlight, we ain't stoppin'\nKeep on dancin' 'til the world ends\nIf you feel it, let it happen\nKeep on dancin' 'til the world ends\nKeep on dancin' 'til the world ends\nKeep on dancin' 'til the world ends\n\n[Chorus]\nWoah-oh-oh-oh-oh-oh-oh\nWoah-oh-oh-oh-oh-oh-oh\nWoah-oh-oh-oh-oh-oh-oh\nWoah-oh-oh-oh-oh-oh-oh\nWoah-oh-oh-oh-oh-oh-oh\nWoah-oh-oh-oh-oh-oh-oh\nWoah-oh-oh-oh-oh-oh-oh\nWoah-oh-oh-oh-oh-oh-oh\n[Post-Chorus]\nSee the sunlight, we ain't stoppin'\nKeep on dancin' 'til the world ends\nIf you feel it, let it happen\nKeep on dancin' 'til the world ends", 'annotations': {'description': '&lt;p&gt;“Till The World Ends” is the second single from &lt;a href="http://rock.genius.com/albums/Britney-spears/Femme-fatale" rel="noopener" data-api_path="/albums/10815"&gt;Femme Fatale&lt;/a&gt;, released on March 4 2011.&lt;/p&gt;\n\n&lt;p&gt;The song received generally positive acclaim from critics and charted on the top-ten in several major music markets, including Australia, France, Ireland, New Zealand, Sweden, Switzerland, and the US.&lt;/p&gt;', 'producers': [{'name': 'Billboard (Producer)', 'url': 'https://genius.com/artists/Billboard-producer'}, {'name': 'Max Martin', 'url': 'https://genius.com/artists/Max-martin'}, {'name': 'Dr. Luke', 'url': 'https://genius.com/artists/Dr-luke'}], 'writers': [{'name': 'Kesha', 'url': 'https://genius.com/artists/Kesha'}, {'name': 'Alexander Kronlund', 'url': 'https://genius.com/artists/Alexander-kronlund'}, {'name': 'Max Martin', 'url': 'https://genius.com/artists/Max-martin'}, {'name': 'Dr. Luke', 'url': 'https://genius.com/artists/Dr-luke'}], 'labels': [{'name': 'Jive Records', 'url': 'https://genius.com/artists/Jive-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Alok-zeeba-and-bruno-martini-hear-me-now-lyrics', 'lyrics': "[Intro: Zeeba]\nIf you get to hear me now\nIf you get to hear me now\n\n[Verse 1: Zeeba]\nI know you'll get stronger\nWhen you get older\nJust don't shrug your shoulders\nWhen you get older\n\n[Pre-Chorus: Zeeba]\nThe things aren't easy\nSo just believe me now\nIf you don't keep it cool now\nYou'll never make a sound\n\n[Chorus: Zeeba]\nAll the lights will guide the way\nIf you get to hear me now\nAll the fears will fade away\nIf you get to hear me now\nIf you get to hear me now\nIf you get to hear me now\n\n[Verse 2: Zeeba]\nLeave excuses aside\nSpeak out your mind\nAnd don't let it slide\nYou're not always right\n[Pre-Chorus: Zeeba]\nThe things aren't easy\nSo just believe me now\nDon't learn the hard way\nJust let me show you how\n\n[Chorus: Zeeba]\nAll the lights will guide the way\nIf you get to hear me now\nAll the fears will fade away\nIf you get to hear me now\nIf you get to hear me now\nIf you get to hear me now\n\n[Outro: Zeeba]\nIf you get to hear me now\nIf you get to hear me now\nIf you get to hear me now\nIf you get to hear me now", 'annotations': {'description': '&lt;p&gt;“Hear Me Now” is breezy electronic pop song full of whistling, acoustic guitar, and uplifting lyrics. It’s a collaboration between Brazilian DJs Alok and Bruno Martini, plus California-born singer-songwriter Marcos Zeeba, who provides the vocals. Zeeba moved to São Paulo, Brazil, at an early age and lived there until he was 19. He went on to play rhythm guitar in the band Bonavox, and as of early 2017, he was prepping his debut solo EP, &lt;em&gt;Ink&lt;/em&gt;.&lt;/p&gt;', 'producers': [{'name': 'Bruno Martini', 'url': 'https://genius.com/artists/Bruno-martini'}, {'name': 'Alok', 'url': 'https://genius.com/artists/Alok'}], 'writers': [{'name': 'Alok', 'url': 'https://genius.com/artists/Alok'}, {'name': 'Bruno Martini', 'url': 'https://genius.com/artists/Bruno-martini'}, {'name': 'Zeeba', 'url': 'https://genius.com/artists/Zeeba'}], 'labels': [{'name': 'Spinnin’ Records', 'url': 'https://genius.com/artists/Spinnin-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Alice-in-chains-would-lyrics', 'lyrics': '[Verse 1: Jerry Cantrell]\nKnow me, broken by my master\nTeach thee on child, of love hereafter\n\n[Chorus: Layne Staley]\nInto the flood again\nSame old trip it was back then\nSo I made a big mistake\nTry to see it once my way\n\n[Verse 2: Jerry Cantrell]\nDrifting body, its sole desertion\nFlying, not yet quite the notion\n\n[Chorus: Layne Staley]\nInto the flood again\nSame old trip it was back then\nSo I made a big mistake\nTry to see it once my way\n\n[Guitar Solo: Jerry Cantrell]\n\n[Chorus: Layne Staley]\nInto the flood again\nSame old trip it was back then\nSo I made a big mistake\nTry to see it once my way\n[Outro: Layne Staley]\nAm I wrong?\nHave I run too far to get home?\nHave I gone?\nLeft you here alone\nAm I wrong?\nHave I run too far to get home? Yeah\nHave I gone?\nLeft you here alone\nIf I would, could you?', 'annotations': {'description': '&lt;p&gt;The song concerns the late lead singer of Mother Love Bone, Andrew Wood, who died of a heroin overdose in 1990.  Would? and Wood are homophones.&lt;br&gt;\nIt is written by Jerry Cantrell and produced by Rick Parashar.&lt;/p&gt;', 'producers': [{'name': 'Alice in Chains', 'url': 'https://genius.com/artists/Alice-in-chains'}, {'name': 'Rick Parashar', 'url': 'https://genius.com/artists/Rick-parashar'}], 'writers': [{'name': 'Jerry Cantrell', 'url': 'https://genius.com/artists/Jerry-cantrell'}], 'labels': [{'name': 'Columbia Records', 'url': 'https://genius.com/artists/Columbia-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Twisted-sister-were-not-gonna-take-it-lyrics', 'lyrics': "[Chorus]\nOh, we're not gonna take it\nNo, we ain't gonna take it\nOh, we're not gonna take it anymore\n\n[Verse 1]\nWe've got the right to choose, and\nThere ain't no way we'll lose it\nThis is our life, this is our song\nWe'll fight the powers that be, just\nDon't pick our destiny, 'cause\nYou don't know us, you don't belong\n\n[Chorus]\nOh, we're not gonna take it\nNo, we ain't gonna take it\nOh, we're not gonna take it anymore\n\n[Verse 2]\nOh, you're so condescending\nYour gall is never ending\nWe don't want anything, not a thing from you\nYour life is trite and jaded\nBoring and confiscated\nIf that's your best, your best won't do\n[Refrain]\nWoah-oh-oh\nWoah-oh-oh\nWe're right! (Yeah!)\nWe're free! (Yeah!)\nWe'll fight! (Yeah!)\nYou'll see! (Yeah!)\n\n[Chorus]\nOh, we're not gonna take it\nNo, we ain't gonna take it\nOh, we're not gonna take it anymore\nOh, we're not gonna take it\nNo, we ain't gonna take it\nOh, we're not gonna take it anymore\nNo way!\n\n[Guitar Solo]\n\n[Refrain]\nWoah-oh-oh\nWoah-oh-oh\nWe're right! (Yeah!)\nWe're free! (Yeah!)\nWe'll fight! (Yeah!)\nYou'll see! (Yeah!)\n[Chorus]\nWe're not gonna take it\nNo, we ain't gonna take it\nWe're not gonna take it anymore\nWe're not gonna take it (No!)\nNo, we ain't gonna take it\nWe're not gonna take it anymore\n(Just you try and make us!)\nOh, we're not gonna take it (Come on!)\nNo, we ain't gonna take it\n(You're all worthless and weak!)\nWe're not gonna take it anymore\n(Now drop and give me twenty!)\nOh, we're not gonna take it (A pledge pin?!)\nNo, we ain't gonna take it (On your uniform!)\nWe're not gonna take it anymore", 'annotations': {'description': '&lt;p&gt;“We’re Not Gonna Take It” is Twisted Sister’s signature song. Snider wrote the song’s hook &lt;a href="http://www.songfacts.com/blog/interviews/dee_snider_of_twisted_sister/" rel="noopener nofollow"&gt;three years prior to its release&lt;/a&gt; but ‘could never figure out how to write a verse for it’. Studying Mutt Lange’s work with Def Leppard on their 1983 album &lt;em&gt;Pyromania&lt;/em&gt; helped inspire him on how to eventually finish the song.&lt;/p&gt;\n\n&lt;p&gt;It was the band’s most successful song in the US, peaking at #21 in 1984. Its rebellion-meets-cartoon violence video, featuring a storyline similar to (and including an actor from) the film &lt;em&gt;Animal House&lt;/em&gt;, was very popular on MTV that year.&lt;/p&gt;\n\n&lt;p&gt;The song scored its highest peak in New Zealand, &lt;a href="https://charts.nz/showitem.asp?interpret=Twisted+Sister&amp;amp;titel=We%27re+Not+Gonna+Take+It&amp;amp;cat=s" rel="noopener nofollow"&gt;reaching #2&lt;/a&gt; there. In the UK, it was moderately successful, &lt;a href="http://www.officialcharts.com/artist/20262/twisted-sister/" rel="noopener nofollow"&gt;peaking at #58&lt;/a&gt;. The band had four other songs chart higher there in the mid-80s.&lt;/p&gt;\n\n&lt;p&gt;In 1985, the PMRC included “We’re Not Gonna Take It” on their infamous &lt;a href="https://www.rollingstone.com/music/music-lists/pmrcs-filthy-15-where-are-they-now-60601/" rel="noopener nofollow"&gt;‘filthy fifteen’&lt;/a&gt;, citing it for ‘violence’, as part of their campaign to get records they found offensive labeled with a parental advisory sticker. Snider testified in court against them, pointing out, “there is absolutely no violence of any type either sung about or implied anywhere in the song”.&lt;/p&gt;\n\n&lt;p&gt;Due to its similarity to the Christmas song “O Come All Ye Faithful”, with Snider later stating, “turns out I stole the chord progression”, the band released &lt;a href="https://genius.com/Twisted-sister-oh-come-all-ye-faithful-lyrics" rel="noopener" data-api_path="/songs/1467420"&gt;“O Come All Ye Faithful”&lt;/a&gt; on their 2006 holiday album &lt;em&gt;A Twisted Christmas&lt;/em&gt; with the music of “We’re Not Gonna Take It” performed behind the lyrics.&lt;/p&gt;\n\n&lt;p&gt;“We’re Not Gonna Take It” &lt;a href="http://www.songfacts.com/blog/interviews/dee_snider_of_twisted_sister/" rel="noopener nofollow"&gt;continues to be&lt;/a&gt; a popular choice for sporting events, protests and political rallies, including &lt;a href="http://loudwire.com/twisted-sister-dodged-publicly-shaming-donald-trump-were-not-gonna-take-it/" rel="noopener nofollow"&gt;Trump’s 2016 presidential campaign&lt;/a&gt; – which the band privately asked them to stop doing. In 2009, it was &lt;a href="https://www.riaa.com/gold-platinum/?tab_active=default-award&amp;amp;se=twisted+sister#search_section" rel="noopener nofollow"&gt;certified Gold&lt;/a&gt; for selling over half-million digital downloads.&lt;/p&gt;\n\n&lt;p&gt;Despite their next single reaching #68 and the lead single of their next album peaking at #53 &lt;a href="https://www.billboard.com/music/twisted-sister/chart-history" rel="noopener nofollow"&gt;in the US&lt;/a&gt;, the band is still often labeled a one hit wonder there. One example is in 2013 when &lt;a href="http://www.vh1.com/news/1243/100-greatest-one-hit-wonders-of-the-80s/" rel="noopener nofollow"&gt;VH1 named the band&lt;/a&gt; the #20 greatest one hit wonder.&lt;/p&gt;', 'producers': [{'name': 'Tom Werman', 'url': 'https://genius.com/artists/Tom-werman'}], 'writers': [{'name': 'Dee Snider', 'url': 'https://genius.com/artists/Dee-snider'}], 'labels': [{'name': 'Warner Music Group', 'url': 'https://genius.com/artists/Warner-music-group'}, {'name': 'Atlantic Records', 'url': 'https://genius.com/artists/Atlantic-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Rage-against-the-machine-renegades-of-funk-lyrics', 'lyrics': '[Intro]\nNo matter how hard you try, you can\'t stop us now\nNo matter how hard you try, you can\'t stop us now\nWe\'re the renegades of this atomic age\nThis atomic age of renegades\nRenegades of this atomic age\nThis atomic age of renegades\n\n[Verse 1]\nSince the Prehistoric ages and the days of ancient Greece\nRight down through the Middle Ages\nPlanet Earth kept going through changes\nAnd then no renaissance came (Came)\nAnd times continued to change (Change)\nNothing stayed the same, but there were always renegades\nLike Chief Sitting Bull, Tom Paine\nDr. Martin Luther King, Malcolm X\nThey were renegades of their time and age\nSo many renegades!\n\n[Chorus]\nWe\'re the Renegades of funk\nWe\'re the Renegades of funk\nWe\'re the Renegades of funk\nWe\'re the Renegades of funk\n[Verse 2]\nFrom a different solar system\nMany, many galaxies away\nWe are the force of another creation\nA new musical revelation\nAnd we\'re on this musical mission, to help the others listen\nAnd groove from land to land, singin\' electronic chants like\nZulu Nation\n\n[Bridge]\nRevelations\nDestroy all nations\nDestroy all nations\nDestroy all nations\nDestroy all nations\nDestroy all nations\nDestroy all nations\n\n[Verse 3]\nNow renegades are the people with their own philosophies\nThey change the course of history\nEveryday people like you and me\nWe\'re the renegades, we\'re the people with our own philosophies\nWe change the course of history\nEveryday people like you and me\nCome on\n[Chorus]\nWe\'re the renegades of funk\nWe\'re the renegades of funk\nWe\'re the renegades of funk\nWe\'re the renegades of funk\n\n[Bridge]\nWith Poppin\', sockin\', rockin\' puttin\' a side of hip-hop\nBecause where we\'re goin\' there ain\'t no stoppin\'\nPoppin\', sockin\', rockin\', puttin\' a side of hip-hop\nBecause where we\'re goin\' there ain\'t no stoppin\'\nPoppin\' and sockin\' and rockin\' and puttin\' a side of hip-hop\n\'Cause we\'re poppin\', sockin\', rockin\' puttin\' a side of hip-hop\nPoppin\', sockin\', rockin\' puttin\' a side of HIP-HOP!!\n\n[Chorus]\nWe\'re the renegades of funk\nWe\'re the renegades of funk\nWe\'re the renegades of funk\nWe\'re the renegades of funk\n\n[Verse 4]\nWe\'re teachers of the funk and not of empty popping\nWe\'re blessed with the force and the sight of electronics\nWith the bass, and the treble, the horns, and our vocals\n\'Cause every time I pop into the beat, we get fresh\n[*drum break*]\n\nCome on\n\n[Guitar solo]\n\nCome on\n\n[Verse 5]\nThere was a time when our music\nWas something called "The Bay Street" beat\nPeople would gather from all around\nTo get down to the big sound\nYou had to be a renegade in those days\nTo take a man to the dance floor\n\n[Verse 6]\nSay jam sucka (Jam sucka)\nSay jam sucka (Jam sucka)\nSay groove sucka (Move sucka)\nNow groove sucka (Move sucka)\nNow dance sucka (Dance sucka)\nNow dance sucka (Dance sucka)\nSay move sucka (Move sucka)\nNow move sucka (Move sucka)\nSay jam sucka (Jam sucka)\nSay jam sucka (Jam sucka)\nSay groove sucka (Move sucka)\nNow groove sucka (Move sucka)\nSay dance sucka (Dance sucka)\nSay dance sucka (Dance sucka)\nSay move sucka (Move sucka)\nNow move sucka (Move sucka)\n\n[Outro]\nWe\'re the renegades of funk\nWe\'re the renegades of funk\nWe\'re the renegades of funk\nWe\'re the renegades of funk\nWe\'re the renegades of funk\nWe\'re the renegades of funk\nWe\'re the renegades of funk\nWe\'re the renegades of funk', 'annotations': {'description': '&lt;p&gt;Originally a 1983 single by &lt;a href="https://genius.com/Afrika-bambaataa-and-soulsonic-force-renegades-of-funk-lyrics" rel="noopener" data-api_path="/songs/9249"&gt;Afrika Bambaataa &amp;amp; the Soulsonic Force&lt;/a&gt;, “Renegades of Funk” is notable for drawing a connection between revolutionaries and street artists through politically fuelled lyrics. Empowering themes within the song emphasise the fact that everyday people can become great leaders.&lt;/p&gt;\n\n&lt;p&gt;Rage Against the Machine released their version of the single in 2001, which features a percussion interpolation of &lt;a href="https://genius.com/Incredible-bongo-band-apache-lyrics" rel="noopener" data-api_path="/songs/696164"&gt;“Apache” by the Incredible Bongo Band&lt;/a&gt;. The single was included on Rage Against the Machine’s cover album, &lt;a href="https://genius.com/albums/Rage-against-the-machine/Renegades" rel="noopener" data-api_path="/albums/8641"&gt;&lt;em&gt;Renegades&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The &lt;a href="https://www.youtube.com/watch?v=5-9e4l1zz-4" rel="noopener nofollow"&gt;Steven Murashinge directed video&lt;/a&gt; reflects the song’s original message, featuring a montage of hip-hop musicians and events of the Civil Rights movements. Some of the &lt;a href="https://en.wikipedia.org/wiki/Renegades_of_Funk#Rage_Against_the_Machine_cover" rel="noopener nofollow"&gt;notable figures implied by the video to be “renegades of funk”&lt;/a&gt; include &lt;a href="https://genius.com/artists/Martin-luther-king-jr" rel="noopener" data-api_path="/artists/2028"&gt;Martin Luther King Jr.&lt;/a&gt;, &lt;a href="https://genius.com/artists/Malcolm-x" rel="noopener" data-api_path="/artists/12037"&gt;Malcom X&lt;/a&gt;, &lt;a href="https://en.wikipedia.org/wiki/Rosa_Parks" rel="noopener nofollow"&gt;Rosa Parks&lt;/a&gt; and hip-hop group &lt;a href="https://genius.com/artists/Nwa" rel="noopener" data-api_path="/artists/974"&gt;N.W.A.&lt;/a&gt;. This is intertwined with footage of Los Angeles based &lt;a href="http://www.thedirtfloor.com/2010/10/26/disobedience-joey-krebs-the-phantom-street-artist/" rel="noopener nofollow"&gt;Phantom Street Artist Joey Krebs&lt;/a&gt; spray-painting his infamous outline silhouettes. Krebs is also responsible for creating the cover artwork for &lt;a href="https://genius.com/albums/Rage-against-the-machine/The-battle-of-los-angeles" rel="noopener" data-api_path="/albums/8637"&gt;“The Battle of Los Angeles”&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/5d12ed6631151d0cf11e9cd2393bbdbc.600x399x1.jpg" alt="" width="600" height="399" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;Rage Against the Machine’s cover was sampled on “Weird Al” Yankovic’s medley, &lt;a href="https://genius.com/Weird-al-yankovic-the-angry-white-boy-polka-lyrics" rel="noopener" data-api_path="/songs/497763"&gt;“Angry White Boy Polka”&lt;/a&gt; for his 2003 album, &lt;a href="https://genius.com/albums/Weird-al-yankovic/Poodle-hat" rel="noopener" data-api_path="/albums/5944"&gt;&lt;em&gt;Poodle Hat&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;', 'producers': [{'name': 'Rage Against the Machine', 'url': 'https://genius.com/artists/Rage-against-the-machine'}, {'name': 'Rick Rubin', 'url': 'https://genius.com/artists/Rick-rubin'}], 'writers': [{'name': 'John Robie', 'url': 'https://genius.com/artists/John-robie'}, {'name': 'John Miller', 'url': 'https://genius.com/artists/John-miller'}, {'name': 'Arthur Baker', 'url': 'https://genius.com/artists/Arthur-baker'}, {'name': 'Afrika Bambaataa', 'url': 'https://genius.com/artists/Afrika-bambaataa'}], 'labels': [{'name': 'Epic Records', 'url': 'https://genius.com/artists/Epic-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Alabama-3-woke-up-this-morning-lyrics', 'lyrics': '[Spoken Intro]\nAnd after three days of drinkin\' with Larry Love, I just get an inklin\' to go on home\n\nSo, I\'m walkin\' down Coldharbour Lane, head hung low, three or four in the mornin\'. The sun\'s comin\' up and the birds are out singing. I let myself into my pad. Wend myself up that spiral staircase and stretch out nice on the Chesterfield\n\nPithecanthropus Erectus already on the CD player and I just push that remote button to sublimity. And listen to the sweet sculptural rhythms of Charles Mingus. And J.R. Monterose and Jackie McLean duet on those saxophones and, the sound makes its way out the window minglin\' with the traffic noises outside you know, and all of a sudden I\'m overcome by a feelin\' of brief mortality\n\nCause I\'m gettin\' on in the world, comin\' up on forty-one years. Forty-one stony gray steps towards the grave, you know, the box awaits its grisly load. Now I\'m gonna be food for worms\n\nAnd just like Charles Mingus wrote that beautiful piece of music \'Epitaph\' for Eric Dolphy, I say, so long Eric. So long John Coltrane and Charles Mingus. So long Duke Ellington and Lester Young. So long Billie Holiday and Ella Fitzgerald. So long Jimmy Reed. So long Muddy Waters, and so long Howlin\' Wolf\n(Woke up this mornin\')\n\n[Verse 1]\nWoke up this mornin\'\nGot yourself a gun\nYour mama always said you\'d be the Chosen One\nShe said, "You\'re one in a million\nYou got to burn to shine"\nBut you were born under a bad sign\nWith a blue moon in your eyes\n\n[Verse 2]\nAnd you woke up this mornin\'\nAnd all that love had gone\nYour Papa never told you about right and wrong\nHey but you\'re, but you\'re looking good, baby\nI believe that you\'re a-feelin\' fine\nShame about it\nBorn under a bad sign with a blue moon in your eyes\n[Chorus]\nSo sing it now\nWoke up this mornin\'\nWoke up this mornin\'\n\n[Verse 3]\nI see ya, ya woke up this mornin\'\nThe world turned upside down\nLord above, things ain\'t been the same\nSince the blues walked into town\nHey but you\'re, but you\'re, one in a million\nCause you got that shotgun shine\nShame about it\nBorn under a bad sign with a blue moon in your eyes\n\n[Chorus]\nSo sing it now\nWoke up this mornin\'\nYou got a blue moon\nGot a blue moon in your eyes\nSo sad\nGoddamn\nA god-damned shame about it\nWoke up this mornin\'\nYou got a blue moon\nGot a blue moon in your eyes, yeah\nMister D. Wayne Love\n\n[Verse 4]\nWhen you woke up this morning everything was gone\nBy half past ten your head was going ding-dong\nRingin\' like a bell from your head down to your toes\nLike some voice tryin\'a tell ya there\'s somethin\' you should know\n\n[Bridge]\nLast night you was flyin\' but today you\'re so low\nAin\'t it times like these makes you wonder if you\'ll ever know\nThe meaning of things as they appear to the others\nWives, husbands, mothers, fathers, sisters and brothers\n\nDon\'t you wish you didn\'t function, don\'t you wish you didn\'t think\nBeyond the next pay check and the next little drink?\nWell you do so make up your mind to go on\nCause when you woke up this mornin\', everything you had was gone\n\n[Chorus]\nWoke up this mornin\'\nWhen ya woke up this mornin\'\n\nWoke up this mornin\'\nYa woke up this mornin\'\nWoke up this mornin\'\nYou wanna be, you wanna be the Chosen One\nYeah you know it cause, you just can\'t help yourself, yeah\n\nWoke up this mornin\'\nWhen ya, woke up this mornin\'\n\nWoke up this mornin\'\nWoke up this mornin\'\n\n[Outro]\nWoke up this mornin\'\nGot yourself a gun\nGot yourself a gun\nGot yourself a gun', 'annotations': {'description': '&lt;p&gt;An interesting mixture of jazz, hip-hop, with a generous dose of a gospel choir, the driving beat of this song starts early, much into the spoken intro. Alabama 3 never expected this song to become recognized as the infamously known title theme for HBO’s The Sopranos.&lt;/p&gt;\n\n&lt;p&gt;The version that appears during the opening credits of The Sopranos is actually a remixed version and misses the spoken intro.&lt;/p&gt;\n\n&lt;p&gt;The reference from The Sopranos usage occurs again in an episode of the Netflix series Lilyhammer, which stars Steven Van Zandt (who played the role of Silvio Dante on The Sopranos).&lt;/p&gt;', 'producers': [], 'writers': [], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Nirvana-rape-me-lyrics', 'lyrics': "[Verse 1]\nRape me\nRape me, my friend\nRape me\nRape me again\n\n[Refrain]\nI'm not the only one, ah-ah\nI'm not the only one, ah-ah\nI'm not the only one, ah-ah\nI'm not the only one\n\n[Verse 2]\nHate me\nDo it and do it again\nWaste me\nRape me, my friend\n\n[Refrain]\nI'm not the only one, ah-ah\nI'm not the only one, ah-ah\nI'm not the only one, ah-ah\nI'm not the only one\n\n[Bridge]\nMy favorite inside source\nI'll kiss your open sores\nI appreciate your concern\nYou're gonna stink and burn\n[Verse 1]\nRape me\nRape me, my friend\nRape me\nRape me again\n\n[Refrain]\nI'm not the only one, ah-ah\nI'm not the only one, ah-ah\nI'm not the only one, ah-ah\nI'm not the only one\n\n[Outro]\nRape me! (Rape me!)\nRape me! (Rape me!)\nRape me! (Rape me!)\nRape me! (Rape me!)\nRape me! (Rape me!)\nRape me! (Rape me!)\nRape me!", 'annotations': {'description': '&lt;p&gt;Originally written in May 1991 and performed live later that year, “Rape Me” was recorded in a studio setting in February 1993. It was released on the band’s final studio album, September 1993’s &lt;em&gt;In Utero&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;Kurt Cobain wanted to make a strong statement in support of women and against violence. Cobain and Love played a number of charity concerts specifically oriented around &lt;a href="https://ew.com/article/1993/04/23/nirvana-benefit-show/" rel="noopener nofollow"&gt;raising money for rape victims&lt;/a&gt; or to raise awareness about the prevalence of rape. It was an important issue to them. Frustrated by the fact that many people didn’t grasp how September 1991’s &lt;a href="https://genius.com/Nirvana-polly-lyrics" rel="noopener" data-api_path="/songs/62558"&gt;“Polly”&lt;/a&gt; was actually an &lt;em&gt;anti&lt;/em&gt;-rape song, Cobain decided to be more explicit. Cobain was ultimately forced to explicate and clarify his songs\' significance several times to magazine reporters and columnists, culminating in a notable &lt;a href="https://www.spin.com/2013/09/nirvana-cover-story-1993-smashing-their-heads-on-the-punk-rock/" rel="noopener nofollow"&gt;1993 cover story&lt;/a&gt; by &lt;em&gt;SPIN&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;Lyrically, the song concerns poetic justice: a guy rapes a girl; he ends up in jail and is raped there, in turn. The “favorite in-side source” line supports that this song could be about how the media had forcibly penetrated Cobain’s private life and further distorted his messages. Unlike the rest of the song, the bridge was written post-&lt;em&gt;Nevermind&lt;/em&gt;, and could reflect recently-emerged sentiments Cobain had developed toward media attention. Cobain initially denied the premise that this song has a dual meaning during interviews and other public appearances. In a discussion with Nirvana biographer Michael Azerrad, Cobain conceded a bit:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;It was actually about rape… but now I could definitely use it as an example of my life for the past six months or year, easily.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;The double A-side single featuring “Rape Me” and &lt;a href="https://genius.com/Nirvana-all-apologies-lyrics" rel="noopener" data-api_path="/songs/61597"&gt;“All Apologies”&lt;/a&gt; was retitled “Waif Me” for sale in Wal-Mart and Kmart stores, but without any lyrical modifications. Cobain defended this censoring by stating:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;One of the main reasons I signed to a major label was so people would be able to buy our records at Kmart. In some towns, that’s the only place kids can buy records.&lt;/p&gt;&lt;/blockquote&gt;', 'producers': [{'name': 'Steve Albini', 'url': 'https://genius.com/artists/Steve-albini'}], 'writers': [{'name': 'Kurt Cobain', 'url': 'https://genius.com/artists/Kurt-cobain'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Savage-garden-i-want-you-lyrics', 'lyrics': "[Verse 1]\nAnytime I need to see your face, I just close my eyes\nAnd I am taken to a place where your crystal mind\nAnd magenta feelings take up shelter in the base of my spine\nSweet like a chic-a-cherry cola\nI don't need to try to explain; I just hold on tight\nAnd if it happens again, I might move so slightly\nTo the arms and the lips and the face of the human cannonball\nThat I need to, I want to\n\n[Bridge]\nCome stand a little bit closer\nBreathe in and get a bit higher\nYou'll never know what hit you\nWhen I get to you\n\n[Chorus]\nOoh, I want you, I don't know if I need you, but\nOoh, I'd die to find out\nOoh, I want you, I don't know if I need you, but\nOoh, I'd die to find out\n\n[Verse 2]\nI'm the kind of person who endorses a deep commitment\nGetting comfy, getting perfect is what I live for\nBut a look, then a smell of perfume\nIt's like I'm down on the floor and I don't know what I'm in for\nConversation has a time and place\nIn the interaction of a lover and a mate\nBut the time of talking, using symbols, using words\nCan be likened to a deep sea diver\nWho is swimming with a raincoat\n[Bridge]\nCome stand a little bit closer\nBreathe in and get a bit higher\nYou'll never know what hit you\nWhen I get to you\n\n[Chorus]\nOoh, I want you, I don't know if I need you, but\nOoh, I'd die to find out\nOoh, I want you, I don't know if I need you, but\nOoh, I'd die to find out\n\n[Post-Chorus]\nYeah yeah\nYeah yeah\n\n[Verse 1]\nAnytime I need to see your face, I just close my eyes\nAnd I am taken to a place where your crystal mind\nAnd magenta feelings take up shelter in the base of my spine\nSweet like a chic-a-cherry cola\nI don't need to try to explain\nI just hold on tight\nAnd if it happens again, I might move so slightly\nTo the arms and the lips and the face of the human cannonball\nThat I need to, I want to\n[Chorus]\nOoh, I want you, I don't know if I need you, but\nOoh, I'd die to find out\nOoh, I want you, I don't know if I need you, but\nOoh, I'd die to find out (So can we find out?)\n\n[Instrumental Break]\n\n[Chorus]\nOoh, I want you, I don't know if I need you, but\nOoh, I'd die to find out\nOoh, I want you, I don't know if I need you, but\nOoh, I'd die to find out\nOoh, I want you, I don't know if I need you but\nOoh, I'd die to find out (I'd die to find out)\nOoh, I want you, I don't know if I need you, but\n(Oh, can we find out?)\nOoh, I'd die to find out", 'annotations': {'description': '&lt;p&gt;This was Savage Garden’s breakout hit. “I Want You” was released in North America in February of 1997, where it peaked at No. 4 on the United States Billboard Hot 100 and by April had achieved gold status according to the Recording Industry Association of America (RIAA). It would also become a #1 single in Canada in June 1997, the first of three Savage Garden songs to top the Canadian charts.&lt;/p&gt;\n\n&lt;p&gt;It’s about a guy who is so taken with someone, he has to take a chance by approaching them, even though they seem to have a reputation. In the worlds of vocalist &lt;a href="https://www.billboard.com/articles/news/pride/7834056/savage-garden-darren-hayes-coming-out-reactions-interview" rel="noopener nofollow"&gt;Darren Hayes&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;“‘I Want You’ is a song about a dream about being in love with a male energy, and waking up and feeling sad that I knew there was a part of me that was missing.”&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;&lt;/p&gt;&lt;div class="embedly_preview embedly_preview--video"&gt;\n&lt;iframe type="text/html" width="640" height="390" frameborder="0" allowfullscreen="1" src="https://www.youtube.com/embed/HQt6jIKNwgU?modestbranding=1&amp;amp;start=0&amp;amp;showinfo=0&amp;amp;enablejsapi=1&amp;amp;origin=genius.com"&gt;&lt;/iframe&gt;\n&lt;/div&gt;\n\n&lt;p&gt;The song also features as the ending theme of the fourth part of the &lt;a href="https://en.wikipedia.org/wiki/List_of_JoJo%27s_Bizarre_Adventure_episodes" rel="noopener nofollow"&gt;&lt;em&gt;JoJo’s Bizarre Adventure&lt;/em&gt; &lt;/a&gt; anime, &lt;a href="https://en.wikipedia.org/wiki/Diamond_Is_Unbreakable" rel="noopener nofollow"&gt;&lt;em&gt;Diamond is Unbreakable&lt;/em&gt;&lt;/a&gt;. On the choice for this song as the ending theme, &lt;a href="http://www.araki-jojo.com/1040/" rel="noopener nofollow"&gt;Hirohiko Araki stated&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;\n&lt;p&gt;“This is a song where the rhythmic pattern represents the 90’s era in which Part 4 is set. There’s a certain touch of the progressive songwriting in the way it dramatically crescendos through the song, and I thought it was perfect for the anime.”&lt;br&gt;\n&lt;/p&gt;\n&lt;div class="embedly_preview embedly_preview--video"&gt;\n&lt;iframe type="text/html" width="640" height="390" frameborder="0" allowfullscreen="1" src="https://www.youtube.com/embed/34McNneyJkk?modestbranding=1&amp;amp;start=0&amp;amp;showinfo=0&amp;amp;enablejsapi=1&amp;amp;origin=genius.com"&gt;&lt;/iframe&gt;\n&lt;/div&gt;\n&lt;/blockquote&gt;', 'producers': [{'name': 'Savage Garden', 'url': 'https://genius.com/artists/Savage-garden'}, {'name': 'Charles Fisher', 'url': 'https://genius.com/artists/Charles-fisher'}], 'writers': [{'name': 'Daniel Jones', 'url': 'https://genius.com/artists/Daniel-jones'}, {'name': 'Darren Hayes', 'url': 'https://genius.com/artists/Darren-hayes'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Liquido-narcotic-lyrics', 'lyrics': "[Verse 1]\nSo you face it with a smile\nThere is no need to cry\nFor a trifle's more than this\nWill you still recall my name?\nAnd the month it all began?\nWill you release me with a kiss?\nHave I tried to draw the veil?\nIf I have, how could I fail?\nDid I fear the consequence?\n\n[Pre-Chorus]\nDazed by careless words\nCozy in my mind\n\n[Chorus]\nI don't mind, I think so\nI will let you go\nI don't mind, I think so\nI will let you go\n\n[Verse 2]\nNow you shaped that liquid wax\nFit it out with crater cracks\nSweet devotion, my delight\nOh, you're such a pretty one\nAnd the naked thrills of flesh and skin\nWould tease me through the night\nNow, I hate to leave you bare\nIf you need me, I'll be there\nDon't you ever let me down\n[Pre-Chorus]\nDazed by careless words\nCozy in my mind\n\n[Chorus]\nI don't mind, I think so\nI will let you go\nI don't mind, I think so\nI will let you go\n\n[Bridge]\nAnd I touched your face\nNarcotic mind from lazed, Mary-Jane\nAnd I called your name\nLike an addicted to cocaine\nCalls for the stuff he'd rather blame\nAnd I touched your face\nNarcotic mind from lazed, Mary-Jane\nAnd I called your name\nMy cocaine\n\n[Chorus]\nI don't mind, I think so\nI will let you go\nI don't mind, I think so\nI will let you go\nI don't mind, I think so\nI will let you go\nI don't mind, I think so\nI will let you go\nI don't mind, I think so\nI will let you go\nI don't mind, I think so\nI will let you go\nI don't mind, I think so\nI will let you go", 'annotations': {'description': '', 'producers': [{'name': 'Olaf Opal', 'url': 'https://genius.com/artists/Olaf-opal'}, {'name': 'Liquido', 'url': 'https://genius.com/artists/Liquido'}], 'writers': [{'name': 'Wolfgang Schrödl', 'url': 'https://genius.com/artists/Wolfgang-schrodl'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Billie-eilish-bellyache-lyrics', 'lyrics': "[Intro]\nMind\nMind\n\n[Verse 1]\nSittin' all alone\nMouth full of gum\nIn the driveway\nMy friends aren't far\nIn the back of my car\nLay their bodies\n\n[Pre-Chorus]\nWhere's my mind?\nWhere's my mind?\n\n[Verse 2]\nThey'll be here pretty soon\nLookin' through my room\nFor the money\nI'm bitin' my nails\nI'm too young to go to jail\nIt's kinda funny\n\n[Pre-Chorus]\nWhere's my mind?\nWhere's my mind?\nWhere's my mind?\nWhere's my mind?\n[Chorus]\nMaybe it's in the gutter\nWhere I left my lover\nWhat an expensive fake\nMy V is for Vendetta\nThought that I'd feel better\nBut now I got a bellyache\n(Mind)\n\n[Verse 3]\nEverything I do\nThe way I wear my noose\nLike a necklace\nI wanna make 'em scared\nLike I could be anywhere\nLike I'm reckless\n\n[Pre-Chorus]\nI lost my mind\nI don't mind\nWhere's my mind?\nWhere's my mind?\n\n[Chorus]\nMaybe it's in the gutter\nWhere I left my lover\nWhat an expensive fake\nMy V is for Vendetta\nThought that I'd feel better\nBut now I got a bellyache\n(Bellyache, bellyache, bellyache, bellyache\nBellyache, bellyache)\nMaybe it's in the gutter\nWhere I left my lover\nWhat an expensive fake\nMy V is for Vendetta\nThought that I'd feel better\nBut now I got a bellyache", 'annotations': {'description': '&lt;p&gt;In “bellyache,” Billie tells a fictional story about murder &lt;a href="https://www.vice.com/en_us/article/9a8xja/billie-eilishs-bellyache-is-totally-psycho-and-perfectly-pop" rel="noopener nofollow"&gt;from the perspective of a psychopath&lt;/a&gt;. The song focuses on themes of guilt, as revealed by Billie in an &lt;a href="https://www.vice.com/en_us/article/9a8xja/billie-eilishs-bellyache-is-totally-psycho-and-perfectly-pop" rel="noopener nofollow"&gt;interview with &lt;em&gt;Vice:&lt;/em&gt;&lt;/a&gt;&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;‘Bellyache’ is about the concept of guilt, when you do things in the moment because you feel so strongly about them. In the end you’re left with the decision you made. That line—"I thought that I’d feel better, but now I gotta bellyache"—is about how you kinda know that you’re the worst but you don’t care. It’s about a psychopath who regrets being a psychopath but doesn’t really care.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Billie later &lt;a href="https://www.youtube.com/watch?v=aOrv50LDDNY" rel="noopener nofollow"&gt;revealed that the main inspiration for the song&lt;/a&gt; was &lt;a href="https://genius.com/artists/Tyler-the-creator" rel="noopener" data-api_path="/artists/685"&gt;Tyler the Creator’s&lt;/a&gt; &lt;a href="https://genius.com/Tyler-the-creator-garbage-lyrics" rel="noopener" data-api_path="/songs/209547"&gt;“Garbage:”&lt;/a&gt;&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;Garbage was one of the biggest inspirations for writing my song, “bellyache.” It’s more graphic than my song, it’s more literal and “I’m killing people and putting them in my basement” kind of song.…I’m a huge fan of Tyler, he’s been my biggest inspiration ever.&lt;/p&gt;&lt;/blockquote&gt;', 'producers': [{'name': 'FINNEAS', 'url': 'https://genius.com/artists/Finneas'}], 'writers': [{'name': 'Billie Eilish', 'url': 'https://genius.com/artists/Billie-eilish'}, {'name': 'FINNEAS', 'url': 'https://genius.com/artists/Finneas'}], 'labels': [{'name': 'Interscope Records', 'url': 'https://genius.com/artists/Interscope-records'}, {'name': 'Darkroom Records', 'url': 'https://genius.com/artists/Darkroom-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Earth-wind-and-fire-boogie-wonderland-lyrics', 'lyrics': '[Chorus]\nDance, boogie wonderland, hah, hah\nDance, boogie wonderland\n\n[Verse 1]\nMidnight creeps so slowly into hearts of men\nWho need more than they get\nDaylight deals a bad hand to a woman\nWho has laid too many bets\n\nThe mirror stares you in the face\nAnd says "Baby, uh, uh, it don\'t work"\nYou say your prayers though you don\'t care\nYou dance and shake the hurt\n\n[Chorus]\nDance, boogie wonderland, hah, hah\nDance, boogie wonderland (Ooh, ooh, ooh dance, yeah)\n\n[Verse 2]\nSound fly through the night\nI chase my vinyl dreams to boogie wonderland\nI find romance when I start to dance in boogie wonderland\n(Ooh, ooh, ooh, ooh, dance, ooh, ooh, ooh, ooh)\n(Dance, ooh, ooh, ooh, dance)\nI find romance when I start to dance in boogie wonderland\n(Dance, ooh, ooh, ooh, dance, ooh, ooh, ooh, ooh)\n(Dance, ooh, ooh, ooh, dance)\n[Bridge]\nAll the love in the world can\'t be gone\nAll the need to be loved can\'t be wrong\nAll the records are playing and my heart keeps saying (Oh)\n"Boogie wonderland, wonderland" (Haaah, aaah-aaaaaah)\n\n[Chorus]\nDance, boogie wonderland, hah, hah\n(Dance, ooh, ooh, ooh, dance, ooh, ooh, ooh, ooh)\n(Dance, ooh, ooh, ooh, dance)\nDance, boogie wonderland, hah, hah\n(Dance, ooh, ooh, ooh, dance, ooh, ooh, ooh, ooh)\n(Dance, ooh, ooh, ooh, dance)\n\n[Post-Chorus]\nI find romance when I start to dance in boogie wonderland\nI find romance when I start to dance in boogie wonderland\n\n[Chorus]\nDance, boogie wonderland, hah, hah\n(Dance, ooh, ooh, ooh, dance, ooh, ooh, ooh, ooh)\n(Dance, ooh, ooh, ooh, dance)\nDance, boogie wonderland\n(Dance, ooh, ooh, ooh, dance, ooh, ooh, ooh, ooh)\n(Dance, ooh, ooh, ooh, dance)\n[Hook]\nHmm hmm hmm hmm, hmm hmm hmm hmm\nHmm hmm hmm hmm, wonderland\nHmm hmm hmm hmm, hmm hmm hmm hmm\nHmm hmm hmm hmm, wonderland\nHmm hmm hmm hmm, hmm hmm hmm hmm\nHmm hmm hmm hmm\n\n[Bridge]\nAll the love in the world can\'t be gone\n(All the love in the world can\'t be gone)\nAll the need to be loved can\'t be wrong\n(All the need to be loved can\'t be wrong)\nAll the records are playing and my heart keeps saying\n(Oooh, haa-woah, haa-woah)\n"Boogie wonderland, wonderland" (Wonderland, aaah)\n\n[Chorus]\nDance, boogie wonderland, hah, hah\nDance, boogie wonderland, hah, hah\n\n[Outro]\nI find romance when I start to dance in boogie wonderland\n(Dance, dance, dance, dance)\n(Dance, dance, dance, aah)\nI find romance when I start to dance in boogie wonderland\n(Dance, dance, dance, dance)\n(Dance, dance, dance)\nDance, boogie wonderland, hah, hah\n(Dance, dance, dance, dance)\n(Dance, dance, haa, aah)\n(Dance, ooh, ooh, ooh, dance, ooh, ooh, ooh, ooh)\n(Dance, ooh, ooh, ooh, dance)\nDance, boogie wonderland\n(Dance, dance, dance, dance)\n(Dance, dance, dance, aah)\n(Dance, ooh, ooh, ooh, dance, ooh, ooh, ooh, ooh)\n(Dance, ooh, ooh, ooh, dance)', 'annotations': {'description': '&lt;p&gt;“Boogie Wonderland” is a hit disco single released March 20, 1979 from Earth, Wind, &amp;amp; Fire’s ninth album &lt;em&gt;I Am&lt;/em&gt;. The Top 10 international chart-busting single featuring their protege group &lt;a href="https://genius.com/artists/The-emotions" rel="noopener" data-api_path="/artists/149605"&gt;The Emotions&lt;/a&gt;, helped the &lt;em&gt;I Am&lt;/em&gt; album top the R&amp;amp;B charts that year.&lt;/p&gt;\n\n&lt;p&gt;The Emotions had already garnered a number one hit with the Maurice White-produced &lt;a href="https://genius.com/The-emotions-best-of-my-love-lyrics" rel="noopener" data-api_path="/songs/1954932"&gt;“Best of My Love.”&lt;/a&gt; This second collaboration with them kicked their career into  an even higher gear.&lt;/p&gt;\n\n&lt;p&gt;Late actress/singer Brittany Murphy &lt;a href="https://www.youtube.com/watch?v=V7vjxhqMPng" rel="noopener nofollow"&gt;covered the song&lt;/a&gt; for the soundtrack of the 2014 film &lt;a href="http://www.imdb.com/title/tt0366548/?ref_=fn_al_tt_1" rel="noopener nofollow"&gt;&lt;em&gt;Happy Feet&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;', 'producers': [{'name': 'Al McKay', 'url': 'https://genius.com/artists/Al-mckay'}, {'name': 'Maurice White', 'url': 'https://genius.com/artists/Maurice-white'}], 'writers': [{'name': 'Allee Willis', 'url': 'https://genius.com/artists/Allee-willis'}, {'name': 'Jon Lind', 'url': 'https://genius.com/artists/Jon-lind'}], 'labels': [{'name': 'American Record Corporation', 'url': 'https://genius.com/artists/American-record-corporation'}, {'name': 'Columbia Records', 'url': 'https://genius.com/artists/Columbia-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Bodeans-fadeaway-lyrics', 'lyrics': "Don't runaway, midnight hideaway\nDon't you fade away 'til the morning light\n\nDon't runaway, midnight hideaway\nDon't you fade away 'til the morning light\n\nI see you from my window\nIn the shadows of the night\nYou're standing on Love Street\nOn the beat of better things\n\nI'll see you standin' there\nYou don't care anymore\nAnd love in your life\nStabbin' knife in my heart\n\nDon't runaway, midnight hideaway\nDon't you fade away 'til the morning light\n\nI'll see you standin' there\nYou don't care anymore\nAnd love in your life\nStabbin' knife in my heart\n\nDon't runaway, midnight hideaway\nDon't you fade away 'til the morning light\nShe might fadeaway\n(REPEAT TILL FADE)", 'annotations': {'description': '', 'producers': [{'name': 'T Bone Burnett', 'url': 'https://genius.com/artists/T-bone-burnett'}], 'writers': [{'name': 'Kurt Neumann', 'url': 'https://genius.com/artists/Kurt-neumann'}, {'name': 'Sam Llanas', 'url': 'https://genius.com/artists/Sam-llanas'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Glenn-frey-you-belong-to-the-city-lyrics', 'lyrics': "[Verse 1]\nThe sun goes down\nThe night rolls in\nYou can feel it\nStarting all over again\nThe moon comes up\nAnd the music calls\nYou're getting tired of\nStaring at the same four walls\nYou're out of your room\nAnd down on the street\nMoving through the crowd\nIn the midnight heat\nThe traffic roars\nThe sirens scream\nYou look at the faces\nIt's just like a dream\nNobody knows where you're going\nNobody cares where you've been\n\n[Chorus]\nCause you belong to the city\nYou belong to the night\nLiving in a river of darkness\nBeneath the neon light\nYou were born in the city\nConcrete under your feet\nIt's in your moves\nIt's in your blood\nYou're a man of the street\n[Verse 2]\nWhen you said goodbye\nYou were on the run\nTrying to get away\nFrom the things you've done\nNow you're back again\nAnd you're feeling strange\nSo much has happened\nBut nothing has changed\nYou still don't know\nWhere you're going\nYou're still just a face in the crowd\n\n[Chorus]\nCause you belong to the city\nYou belong to the night\nLiving in a river of darkness\nBeneath the neon light\nYou were born in the city\nConcrete under your feet\nIt's in your moves\nIt's in your blood\nYou're a man of the street\n\n[Bridge:]\nYou can feel it\nYou can taste it\nYou can see it\nYou can face it\nYou can hear it\nYou're getting near it\nYou wanna make it\nCause you can take it\n(Alternate Chorus)\nYou belong to the city\nYou belong to the night\nYou belong to the city\nYou belong to the night\nYou belong\nYou belong", 'annotations': {'description': '&lt;p&gt;&lt;strong&gt;&lt;em&gt;You Belong to the City&lt;/em&gt;&lt;/strong&gt; peaked at #2 on the Billboard Hot 100 and topped Billboard’s rock music chart for 3 weeks in 1985.&lt;/p&gt;\n\n&lt;p&gt;The song is well-known for being featured on the soundtrack to “&lt;em&gt;Miami Vice&lt;/em&gt;” and was even featured in an episode of the show.&lt;/p&gt;', 'producers': [{'name': 'Glenn Frey', 'url': 'https://genius.com/artists/Glenn-frey'}], 'writers': [{'name': 'Glenn Frey', 'url': 'https://genius.com/artists/Glenn-frey'}, {'name': 'Jack Tempchin', 'url': 'https://genius.com/artists/Jack-tempchin'}], 'labels': []}}</t>
+    <t>{'url': 'https://genius.com/Icona-pop-i-love-it-lyrics', 'lyrics': "[Chorus: Icona Pop &amp; Charli XCX]\nI got this feeling on the summer day when you were gone\nI crashed my car into the bridge, I watched, I let it burn\nI threw your shit into a bag and pushed it down the stairs\nI crashed my car into the bridge, I don't care!\nI love it, I don't care!\nI got this feeling on the summer day when you were gone\nI crashed my car into the bridge, I watched, I let it burn\nI threw your shit into a bag and pushed it down the stairs\nI crashed my car into the bridge, I don't care!\nI love it, I don't care!\n\n[Refrain: Icona Pop]\nYou're on a different road, I'm in the Milky Way\nYou want me down on Earth, but I am up in space\nYou're so damn hard to please, we gotta kill this switch\nYou're from the '70s, but I'm a '90s bitch\n\n[Chorus: Icona Pop &amp; Charli XCX]\nI love it! I love it!\nI got this feeling on the summer day when you were gone\nI crashed my car into the bridge, I watched, I let it burn\nI threw your shit into a bag and pushed it down the stairs\nI crashed my car into the bridge, I don't care!\nI love it, I don't care!\nI love it, I love it!\nI don't care! I love it\nI don't care!\n[Refrain: Icona Pop]\nYou're on a different road, I'm in the Milky Way\nYou want me down on Earth, but I am up in space\nYou're so damn hard to please, we gotta kill this switch\nYou're from the '70s, but I'm a '90s bitch\n\n[Outro: Icona Pop &amp; Charli XCX]\nI don't care! I love it\nI don't care! I love it, I love it\nI don't care! I love it\nI don't care! I love it, I love it\nI don't care! I love it", 'annotations': {'description': '&lt;p&gt;This song was Icona Pop and Charli XCX’s breakout song and first hit in the US. Charli wrote this song and contributed vocals to the track. Icona Pop’s producer Patrik Berger (the Swedish producer behind Robyn’s &lt;a href="https://genius.com/Robyn-dancing-on-my-own-lyrics" rel="noopener" data-api_path="/songs/243125"&gt;“Dancing On My Own”&lt;/a&gt;) was in the studio with them recording their song &lt;a href="https://genius.com/Icona-pop-good-for-you-lyrics" rel="noopener" data-api_path="/songs/1437327"&gt;“Good For You”&lt;/a&gt; when he first played them Charli’s demo. They immediately fell in love. Icona Pop’s Caroline Hjelt remembered in an &lt;a href="https://www.cmj.com/qa-icona-pop/" rel="noopener nofollow"&gt;interview with CMJ:&lt;/a&gt;&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;It was her singing over a cute beat. And we were like, ‘Wait, wait, wait, wait. What’s that?’ We were going through some love drama, and we could really relate to the lyric…We took it to Style Of Eye and told him, ‘This is the feeling that we want on it. We want the punkiness. We want the ‘fuck it’ feeling. We want everything that we felt when we were singing it.’ So it came out totally different.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;The song was a huge success for singer &lt;a href="https://genius.com/artists/Charli-xcx" rel="noopener" data-api_path="/artists/45349"&gt;Charli XCX&lt;/a&gt; who would later go on to feature on another chart topping song, &lt;a href="http://rap.genius.com/Iggy-azalea-fancy-lyrics" rel="noopener" data-api_path="/songs/352612"&gt;“Fancy”&lt;/a&gt; with rapper Iggy Azalea.&lt;/p&gt;\n\n&lt;p&gt;&lt;em&gt;I Love It by&lt;/em&gt; Icona Pop was released May 6th, 2012. It gained prominence when it was featured in the “cocaine dance club” scene on the HBO show &lt;em&gt;Girls&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/245d7d2387ad8625972019938864e3d4.660x398x1.jpg" alt="" width="660" height="398" data-animated="false"&gt;&lt;/p&gt;', 'producers': [{'name': 'Style Of Eye', 'url': 'https://genius.com/artists/Style-of-eye'}, {'name': 'Patrik Berger', 'url': 'https://genius.com/artists/Patrik-berger'}], 'writers': [{'name': 'Style Of Eye', 'url': 'https://genius.com/artists/Style-of-eye'}, {'name': 'Charli XCX', 'url': 'https://genius.com/artists/Charli-xcx'}, {'name': 'Patrik Berger', 'url': 'https://genius.com/artists/Patrik-berger'}], 'labels': [{'name': 'TEN Records (Sweden)', 'url': 'https://genius.com/artists/Ten-records-sweden'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/The-hives-tick-tick-boom-lyrics', 'lyrics': "[Intro]\nAlright\nTvå tre, boom!\n\n[Verse 1]\nYeah, I was right all along\nYeah, you come taggin' along\nExhibit A on a tray, what you say\nAs I throw it in your face?\nExhibit B, what you see? Well, that's me\nI'll put you back in your place\n\n[Pre-Chorus]\nYeah, I done it before\nAnd I can do it some more\nSo what you waiting for?\nYeah, I was right all along\n\n[Chorus]\n'Cause I have done it before\nAnd I can do it some more\nI got my eye on the score\nI'm gonna cut to the core\nIt's too late, it's too soon, or is it?\nTick, tick, tick, tick, tick, tick, tick, boom!\nHa!\n[Verse 2]\nOh yeah (Yeah, yeah), I was right, you were wrong\nYeah (Yeah, yeah), going, going, you're gone\nI saw you hesitating, waiting too much\nUntil it slipped through your hands\nAnd then you stagger to your feet and out the door\n'Cause there's no second chance (That's right)\n\n[Chorus]\n'Cause I have done it before\nAnd I can do it some more\nI got my eye on the score\nI'm gonna cut to the core\nIt's too late, it's too soon, or is it?\nTick, tick, tick, tick, tick, tick, tick, boom!\nCh-check it\n\n[Bridge]\nAnd you come crying to me, but it's too late\nThe man you try hard to be, but it's too late\nGet your head out the sand, but it's too late\nIt's too late, too late, too late, too late, yeah\nOh yeah, but it's too late\nYeah, but it's too late\nYou get your head out the sand, but it's too late\nIt's too late, too late\n[Chorus (variation)/Outro]\nYou know I've done it before\nAnd I can do it some more\nI got my eye on the score\nI'm gonna cut to the core\nYou know I've done it before\nAnd I can do it some more\nI got my eye on the score\nI'm gonna cut to the core\nIt's too late, it's too soon\nIt's too late, it's too soon\nIt's too late, it's too soon, or is it?\nTick, tick, tick, tick, tick, tick, tick, boom!", 'annotations': {'description': '&lt;p&gt;High energy is the best way to describe tick tick boom off the album, the black and white album&lt;/p&gt;', 'producers': [{'name': 'Jacknife Lee', 'url': 'https://genius.com/artists/Jacknife-lee'}], 'writers': [{'name': 'Randy Fitzsimmons', 'url': 'https://genius.com/artists/Randy-fitzsimmons'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Limp-bizkit-take-a-look-around-lyrics', 'lyrics': '[Intro (Video version only)]\n"Mr. Durst?"\n"Yeah?"\n"We need your help. Pulling into the diner about now should be four top-secret agents. One of them is carrying a briefcase. Your mission is to obtain the disc from the briefcase."\n\n[Verse 1]\nAll the tension in the world today\nAll the little girls fillin\' up the world today\nWhen the good comes to bad, the bad comes to good\nBut I\'ma live my life like I should (Like I should)\nNow all the critics wanna hit it\nYa shit can how we did it, just because they don\'t get it\nBut I\'ll stay fitted, new era committed\nNow this red cap gets a rap from these critics\nBut do we always gotta cry?\nDo we always gotta live inside a lie?\nLife\'s just a blast that\'s movin\' really fast\nYou better stay on top or life will kick you in the ass\nFollow me into a solo\nRemember that, kid? So what you wanna do?\nAnd where you gonna run when you\'re starin\' down the cable of a\nMic pointed at your grill like a gun?\nLimp Bizkit is rockin\' the set\nIt\'s like Russian Roulette, when you\'re placin\', you bet\nSo don\'t be upset when you\'re broke and you\'re done\n\'Cause I\'ma be the one till I jet (I\'ma be the one till I jet)\n[Chorus 1]\nI know why you wanna hate me\nI know why you wanna hate me\nI know why you wanna hate me\n\'Cause hate is all the world has even seen lately\nI know why you wanna hate me (Wanna hate me)\nI know why you wanna hate me (Wanna hate me)\nNow I know why you wanna hate me\n\'Cause hate is all the world has even seen lately!\n\n[Refrain]\nAnd now you wanna hate me!\n\'Cause hate is all the world has even seen lately!\nAnd now you wanna hate me!\n\'Cause hate is all the world has even seen lately!\n\n[Verse 2: Fred Durst]\nDoes anybody really know the secret?\nOr the combination for this life and where they keep it?\nIt\'s kinda sad when you don\'t know the meanin\'\nBut everything happens for a reason (Everything happens for a reason)\nI don\'t even know what I should say\n\'Cause I\'m an idiot, a loser, microphone abuser\nI analyze every second I exist\nBeatin\' up my mind every second with my fists\nAnd everybody wanna run (Wanna run)\nEverybody wanna hide from the gun (Hide from the gun)\nYou can take that ride through this life, if you want\nBut you can\'t take the edge off the knife (No, sir!)\nAnd now you want your money back (Your money back)\nBut you\'re denied \'cause your brain\'s fried from the sack\nAnd there ain\'t nothin\' I can do\n\'Cause life is a lesson, you learn it when you\'re through\n[Chorus 1]\nI know why you wanna hate me\nI know why you wanna hate me\nI know why you wanna hate me\n\'Cause hate is all the world has even seen lately\nI know why you wanna hate me (Wanna hate me)\nI know why you wanna hate me (Wanna hate me)\nNow I know why you wanna hate me\n\'Cause hate is all the world has even seen lately!\n\n[Refrain]\nAnd now you wanna hate me!\n\'Cause hate is all the world has even seen lately!\nAnd now you wanna hate me!\n\'Cause hate is all the world has even seen lately!\n\n[Bridge]\n(Shhhhhh...)\nNow I know why\nNow I know why (I know why you wanna hate me)\nNow I know why (I know why you wanna hate me)\nNow I know why (I know why you wanna hate me)\n\n[Chorus 2]\nNow I know why you wanna hate me!\nNow I know why you wanna hate me!\nNow I know why you wanna hate me!\n\'Cause hate is all the world has even seen lately!\n\'Cause hate is all the world has even seen lately!\n\'Cause hate is all the world has even seen lately!\n[Outro (Video version only)]\n"Hello?"\n"Mr. Durst? Abort the mission, the man in the diner had decoys. Thanks anyway."\n"This message will self-destruct in five seconds."', 'annotations': {'description': '&lt;p&gt;Limp Bizkit drops a banging track, slamming on the critics with no remorse. The song also appeared on the &lt;a href="https://en.wikipedia.org/wiki/Mission:_Impossible_2" rel="noopener nofollow"&gt;&lt;em&gt;Mission: Impossible 2&lt;/em&gt;&lt;/a&gt; &lt;a href="https://genius.com/albums/Tori-amos/Music-from-and-inspired-by-mission-impossible-2" rel="noopener"&gt;soundtrack&lt;/a&gt;, while the riff itself is a new spin off of &lt;a href="https://genius.com/artists/Lalo-schifrin" rel="noopener" data-api_path="/artists/360922"&gt;Lalo Schifrin&lt;/a&gt;’s Mission: Impossible theme.&lt;/p&gt;', 'producers': [{'name': 'Scott Weiland', 'url': 'https://genius.com/artists/Scott-weiland'}, {'name': 'Josh Abraham', 'url': 'https://genius.com/artists/Josh-abraham'}, {'name': 'Limp Bizkit', 'url': 'https://genius.com/artists/Limp-bizkit'}], 'writers': [{'name': 'Lalo Schifrin', 'url': 'https://genius.com/artists/Lalo-schifrin'}, {'name': 'Fred Durst', 'url': 'https://genius.com/artists/Fred-durst'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Vanilla-ice-ninja-rap-lyrics', 'lyrics': "[Verse 1]\nYO! It's the green machine\nGonna rock the town without being seen\nHave you ever seen a turtle Get Down?\nSlammin and Jammin to the new swing sound\nYeah, everybody let's move\nVanilla is here with the New Jack Groove\nGonna rock, And roll this place\nWith the power of the ninja turtle bass\nIceman, Ya know I'm not playin\nDevastate the show while the turtles are sayin\n\n[Hook]\nNinja, Ninja, RAP! Ninja, Ninja, RAP! GO GO GO GO!\nGo Ninja, Go Ninja, GO: Go Ninja, Go Ninja, GO!\nGo Ninja, Go Ninja, GO: Go Ninja, Go Ninja, GO!\nGO GO GO GO!\n\n[Verse 2]\nLyrics, fill in the gap\nDrop that bass and get the NINJA RAP\nFeel it, if you know what I mean\nGive it up, For those heroes in green\nJust flowin, Smooth with the power\nGivin it up, Hour after hour\nCause in this life there's only one winner\nYou better aim straight so you can hit the center\nIn it to win it, With a team of four\nNinja Turtles that you gotta adore it's the\nChorus\n\n[Verse 3]\nVillians you better run and hide\nBecause one day you might not slide\nSo choose, Your weapon but don't slip\nVanilla's in control with the flex of the mic grip\nRockin the crowd the way it should be rocked\nWith the Miami drop that you like alot\nYou know it's hittin, Like a ninja turtle\nWhen the bass kicks in, You better check your level\nThe power of the ninja is strong\nFightin all crooks until they're all out cold\n\nChorus 2x", 'annotations': {'description': '&lt;p&gt;This song was created for the “Teenage Mutant Ninja Turtles II: The Secret of the Ooze” movie. It dropped in 1991, at the height of Vanilla Ice’s fame.&lt;/p&gt;\n\n&lt;p&gt;In the movie, Vanilla Ice himself appears on stage performing this song.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/4842a133c58e222b799dfdfd62685f45.328x475x1.jpg" alt="" width="328" height="475" data-animated="false"&gt;&lt;/p&gt;', 'producers': [{'name': 'Vanilla Ice', 'url': 'https://genius.com/artists/Vanilla-ice'}, {'name': 'Earthquake', 'url': 'https://genius.com/artists/Earthquake'}], 'writers': [{'name': 'Vanilla Ice', 'url': 'https://genius.com/artists/Vanilla-ice'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Xxxtentacion-moonlight-lyrics', 'lyrics': "[Intro]\nYeah\n\n[Chorus]\nSpotlight, uh, moonlight, uh\nNigga, why you trippin'? Get your mood right, uh\nShawty look good in the moonlight\nAll these pussy niggas so bad mind\nSpotlight, moonlight\nNigga, why you trippin'? Get your mood right\nShawty look good in the moonlight\nAll these pussy niggas so bad mind\nSpotlight, uh, moonlight\nNigga, why you trippin'? Get your mood right, uh\nShawty look good in the moonlight\nAll these pussy niggas so bad mind\nSpotlight, moonlight\nNigga, why you trippin'? Get your mood right\nShawty look good in the moonlight\nAll these pussy niggas so bad mind\n\n[Verse]\nFeel like I'm destined\nI don't need no Smith &amp; Wesson, no\nBoy, who you testin'?\nFuck a Scantron, here's your lesson, oh\nKnife in intestine\nTakin' shots at all your brethren, no\nFeel like I'm damaged\nGirl I know you fucking planned this\n[Bridge]\nAll alone, call my phone, make me feel right\nGirl you know when you call, make me feel right\nAll alone, call my phone, make me feel right\nGirl you know when you call, make me feel right\n\n[Chorus]\nSpotlight, uh, moonlight, uh\nNigga, why you trippin'? Get your mood right, uh\nShawty look good in the moonlight\nAll these pussy niggas so bad mind\nSpotlight, moonlight\nNigga, why you trippin'? Get your mood right\nShawty look good in the moonlight\nAll these pussy niggas so bad mind\nSpotlight, uh, moonlight\nNigga, why you trippin'? Get your mood right, uh\nShawty look good in the moonlight\nAll these pussy niggas so bad mind\nSpotlight, moonlight\nNigga, why you trippin'? Get your mood right\nShawty look good in the moonlight\nAll these pussy niggas so bad mind", 'annotations': {'description': '&lt;p&gt;A snippet of this song was previewed on XXXTENTACION’s &lt;a href="https://www.instagram.com/xxxtentacion/" rel="noopener nofollow"&gt;Instagram&lt;/a&gt; page and was given temporary titles such as &lt;a href="https://www.youtube.com/watch?v=lx8ea1ANEJA" rel="noopener nofollow"&gt;“Planet Uranus”&lt;/a&gt; and &lt;a href="https://www.youtube.com/watch?v=6ZaGtGJtH_Q" rel="noopener nofollow"&gt;“Spotlight”.&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;/p&gt;&lt;div class="embedly_preview embedly_preview--video"&gt;\n&lt;iframe type="text/html" width="640" height="390" frameborder="0" allowfullscreen="1" src="https://www.youtube.com/embed/1G2ljBEuAu0?modestbranding=1&amp;amp;start=23&amp;amp;showinfo=0&amp;amp;enablejsapi=1&amp;amp;origin=genius.com"&gt;&lt;/iframe&gt;\n&lt;/div&gt;\n\n&lt;p&gt;“Moonlight” is a smooth love song about a girl who X seems to admire and gets jealous over, as well as a track that outlines his success despite dealing with mental health issues and his dark past.&lt;/p&gt;\n\n&lt;p&gt;The official video clip of the song was released after his death on September 30, 2018 on &lt;a href="https://www.youtube.com/channel/UCM9r1xn6s30OnlJWb-jc3Sw" rel="noopener nofollow"&gt;X’s YouTube channel&lt;/a&gt;.&lt;/p&gt;', 'producers': [{'name': 'John Cunningham', 'url': 'https://genius.com/artists/John-cunningham'}], 'writers': [{'name': 'John Cunningham', 'url': 'https://genius.com/artists/John-cunningham'}, {'name': 'XXXTENTACION', 'url': 'https://genius.com/artists/Xxxtentacion'}], 'labels': [{'name': 'Bad Vibes Forever', 'url': 'https://genius.com/artists/Bad-vibes-forever'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Hard-fi-cash-machine-lyrics', 'lyrics': '[Verse 1]\nGo to a cash machine to get a ticket home\nA message on the screen says "don\'t make plans, you\'re broke"\nNo, no, this can\'t be right\nI know that times is tight\nI\'ve only just been paid, three weeks, five days till I\'m seen\nRight...\nNo...\n\n[Chorus]\nI scratch a living, it ain\'t easy\nYou know it\'s a drag\nI\'m always paying, never make it\nBut you can\'t look back\nI wonder if I\'ll ever get to where I want to be\nBetter believe it\nI\'m working for a cash machine\n\n[Verse 2]\nI try to phone a friend\nMy credit\'s in the red\nI try to skip the fare\nTicket inspector\'s there\nNo, no, this can\'t be right\nI live an honest life\nIt seems like sometimes\nYou don\'t cross the line, you don\'t get\nBy...\nNo...\n[Chorus]\nI scratch a living, it ain\'t easy\nYou know it\'s a drag\nI\'m always paying, never make it\nBut you can\'t look back\nI wonder if I\'ll ever get to where I want to be\nBetter believe it\nYeah\n\n[Verse 3]\nWhat am I gonna do?\nMy girlfriend\'s test turned blue\nWe tried to play it safe\nThat night we could not wait\nNo, no, this can\'t be right\nShe said it would be alright\nI can\'t afford to be a daddy, so I leave\nTonight...\nNo...\n\n[Chorus]\nI scratch a living, it ain\'t easy\nYou know it\'s a drag\nI\'m always paying, never make it\nBut you can\'t look back\nI wonder if I\'ll ever get to where I want to be\nBetter believe it\nI\'m working for a cash machine\nCash machine\nCash machine\nCash machine\n[Outro]\nThere\'s a hole in my pocket, my pocket, my pocket\nThere\'s a hole in my pocket, my pocket, my pocket\nThere\'s a hole in my pocket, my pocket, my pocket\nThere\'s a hole in my pocket\nYeah yeah yeah yeah yeah', 'annotations': {'description': '&lt;p&gt;This song is about the struggles of living from paycheck to paycheck.&lt;/p&gt;', 'producers': [{'name': 'Wolsey White', 'url': 'https://genius.com/artists/Wolsey-white'}], 'writers': [{'name': 'Richard Archer', 'url': 'https://genius.com/artists/Richard-archer'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Eminem-not-afraid-lyrics', 'lyrics': '[Chorus/Collision]\nI\'m not afraid (I\'m not afraid)\nYeah\nTo take a stand (To take a stand)\nIt\'s been a ride\nEverybody (Everybody)\nI guess I had to\nCome take my hand (Come take my hand)\nGo to that place to get to this one\nWe\'ll walk this road together, through the storm\nNow some of you\nWhatever weather, cold or warm\nMight still be in that place\nJust lettin\' you know that you\'re not alone\nIf you\'re tryna get out\nHolla if you feel like you\'ve been down the same road\nJust follow me, I\'ll get you there\n\n[Verse 1]\nYou can try and read my lyrics off of this paper before I lay \'em\nBut you won\'t take the sting out these words before I say \'em\n\'Cause ain\'t no way I\'ma let you stop me from causin\' mayhem\nWhen I say I\'ma do somethin\', I do it, I don\'t give a damn what you think\nI\'m doin\' this for me, so fuck the world\nFeed it beans, it\'s gassed up if it thinks it\'s stoppin\' me\nI\'ma be what I set out to be, without a doubt, undoubtably\nAnd all those who look down on me, I\'m tearin\' down your balcony\nNo ifs, ands or buts, don\'t try to ask him why or how can he\nFrom Infinite down to the last Relapse album he\'s\nStill shittin\' whether he\'s on salary, paid hourly\nUntil he bows out or he shits his bowels out of him\nWhichever comes first, for better or worse\nHe\'s married to the game\nLike a "fuck you" for Christmas, his gift is a curse\nForget the Earth, he\'s got the urge to pull his dick from the dirt\nAnd fuck the whole universe\n[Chorus]\nI\'m not afraid (I\'m not afraid)\nTo take a stand (To take a stand)\nEverybody (Everybody)\nCome take my hand (Come take my hand)\nWe\'ll walk this road together, through the storm\nWhatever weather, cold or warm\nJust lettin\' you know that you\'re not alone\nHolla if you feel like you\'ve been down the same road\n\n[Verse 2]\nOkay, quit playin\' with the scissors and shit, and cut the crap\nI shouldn\'t have to rhyme these words in a rhythm for you to know it\'s a wrap\nYou said you was king, you lied through your teeth\nFor that, fuck your feelings\nInstead of gettin\' crowned, you\'re gettin\' capped\nAnd to the fans, I\'ll never let you down again, I\'m back\nI promise to never go back on that promise\nIn fact, let\'s be honest, that last Relapse CD was "ehh"\nPerhaps I ran them accents into the ground\nRelax, I ain\'t goin\' back to that now\nAll I\'m tryna say is get back, click-clack-blaow!\n\'Cause I ain\'t playin\' around\nThere\'s a game called circle and I don\'t know how\nI\'m way too up to back down\nBut I think I\'m still tryna figure this crap out\nThought I had it mapped out\nBut I guess I didn\'t, this fuckin\' black cloud still follows me around\nBut it\'s time to exorcise these demons\nThese ma\'fuckers are doin\' jumpin\' jacks now\n[Chorus]\nI\'m not afraid (I\'m not afraid)\nTo take a stand (To take a stand)\nEverybody (Everybody)\nCome take my hand (Come take my hand)\nWe\'ll walk this road together, through the storm\nWhatever weather, cold or warm\nJust lettin\' you know that you\'re not alone\nHolla if you feel like you\'ve been down the same road\n\n[Bridge]\nAnd I just can\'t keep livin\' this way\nSo startin\' today\nI\'m breakin\' out of this cage\nI\'m standin\' up, I\'ma face my demons\nI\'m mannin\' up, I\'ma hold my ground\nI\'ve had enough, now I\'m so fed up\nTime to put my life back together right now\n\n[Verse 3]\nIt was my decision to get clean, I did it for me\nAdmittedly I probably did it subliminally for you\nSo I could come back a brand-new me\nYou helped see me through\nAnd don\'t even realize what you did, \'cause believe me you\nI\'ve been through the wringer\nBut they can do little to the middle finger\nI think I got a tear in my eye, I feel like the king of\nMy world, haters can make like bees with no stingers\nAnd drop dead: no more beef lingers\nNo more drama from now on, I promise\nTo focus solely on handlin\' my responsibilities as a father\nSo I solemnly swear to always treat this roof like my daughters and raise it\nYou couldn\'t lift a single shingle on it\n\'Cause the way I feel, I\'m strong enough to go to the club\nOr the corner pub and lift the whole liquor counter up\n\'Cause I\'m raisin\' the bar\nI\'d shoot for the moon, but I\'m too busy gazin\' at stars\nI feel amazin\', and I\'m—\n[Chorus]\nI\'m not afraid (I\'m not afraid)\nTo take a stand (To take a stand)\nEverybody (Everybody)\nCome take my hand (Come take my hand)\nWe\'ll walk this road together, through the storm\nWhatever weather, cold or warm\nJust lettin\' you know that you\'re not alone\nHolla if you feel like you\'ve been down the same road', 'annotations': {'description': '&lt;p&gt;An inspirational and brutally honest anthem for Eminem’s fans addressing that of his struggles and triumphs, and encouraging his fans to reach their triumphs as well.&lt;/p&gt;\n\n&lt;p&gt;When interviewed by Rolling Stone: “Not Afraid” has a positive message for people trying to overcome obstacles. Are you more comfortable now with the idea of being a role model?&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;Whatever I can be to people is fine. Some people may look up to me. Some people may consider me a fucking menace. But I’m grateful for every fan letter I get, and for every person who says I helped save them. I don’t know, man. I feel like I took a lot of time off. Not doing shit for those four or five years, how lazy I got – it’s time to get back to doing what I love. I feel like I’ve got a lot of gas in the tank. I just want to make up for letting people down.&lt;/p&gt;&lt;/blockquote&gt;', 'producers': [{'name': 'Eminem', 'url': 'https://genius.com/artists/Eminem'}, {'name': 'Matthew Burnett', 'url': 'https://genius.com/artists/Matthew-burnett'}, {'name': 'Jordan Evans', 'url': 'https://genius.com/artists/Jordan-evans'}, {'name': 'Boi-1da', 'url': 'https://genius.com/artists/Boi-1da'}], 'writers': [{'name': 'Matthew Burnett', 'url': 'https://genius.com/artists/Matthew-burnett'}, {'name': 'Boi-1da', 'url': 'https://genius.com/artists/Boi-1da'}, {'name': 'Jordan Evans', 'url': 'https://genius.com/artists/Jordan-evans'}, {'name': 'Luis Resto', 'url': 'https://genius.com/artists/Luis-resto'}, {'name': 'Eminem', 'url': 'https://genius.com/artists/Eminem'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Duran-duran-save-a-prayer-lyrics', 'lyrics': "[Verse 1]\nYou saw me standing by the wall\nCorner of a main street\nAnd the lights are flashing on your window sill\nAll alone ain't much fun\nSo you're looking for the thrill\nAnd you know just what it takes\nAnd where to go\n\n[Chorus]\nDon't say a prayer for me now\nSave it 'til the morning after\nNo, don't say a prayer for me now\nSave it 'til the morning after\n\n[Verse 2]\nFeel the breeze deep on the inside\nLook you down into your well (Do-do-do-do-do)\nIf you can, you'll see the world in all his fire (Do-do-do-do-do)\nTake a chance like all dreamers\nYou can't find another way (Do-do-do-do-do)\nYou don't have to dream it all\nJust live a day (Do-do-do-do-do)\n\n[Chorus]\nDon't say a prayer for me now\nSave it 'til the morning after\nNo, don't say a prayer for me now\nSave it 'til the morning after\nSave it 'til the morning after\nSave it 'til the morning after\n[Verse 3]\nPretty looking road\nI try to hold the rising floods that fill my skin (Do-do-do-do-do)\nDon't ask me why, I'll keep my promise\nMelt the ice (Do-do-do-do-do)\nAnd you wanted to dance\nSo I asked you to dance\nBut fear is in your soul (Do-do-do-do-do)\nSome people call it a one-night stand\nBut we can call it paradise (Do-do-do-do-do)\n\n[Chorus]\nDon't say a prayer for me now\nSave it 'til the morning after\nNo, don't say a prayer for me now\nSave it 'til the morning after\nSave it 'til the morning after\nSave it 'til the morning after\nSave it 'til the morning after\nSave it 'til the morning after\n\n[Bridge]\nDo-do-do-do-do\nDo-do-do, do-do-do, do-do\n\n[Outro]\nSave a prayer 'til the morning after\nSave a prayer 'til the morning after\nSave a prayer 'til the morning after\nSave a prayer 'til the morning after", 'annotations': {'description': '&lt;p&gt;Arguably one of Duran Duran’s biggest songs. That hauntingly brilliant  synthesizer opener sets the whole mood/tone of the song.&lt;/p&gt;\n\n&lt;p&gt;It was released in August 1982.&lt;/p&gt;\n\n&lt;p&gt;It hit #2 in the UK Singles Chart.&lt;/p&gt;\n\n&lt;p&gt;Vinyl single record:&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/f51b60f040f230b961b975b34f832af2.599x603x1.jpg" alt="" width="599" height="603" data-animated="false"&gt;&lt;/p&gt;', 'producers': [{'name': 'Colin Thurston', 'url': 'https://genius.com/artists/Colin-thurston'}], 'writers': [{'name': 'John Taylor', 'url': 'https://genius.com/artists/John-taylor'}, {'name': 'Roger Taylor (Duran Duran)', 'url': 'https://genius.com/artists/Roger-taylor-duran-duran'}, {'name': 'Simon Le Bon', 'url': 'https://genius.com/artists/Simon-le-bon'}, {'name': 'Nick Rhodes', 'url': 'https://genius.com/artists/Nick-rhodes'}, {'name': 'Andy Taylor', 'url': 'https://genius.com/artists/Andy-taylor'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Creed-whats-this-life-for-lyrics', 'lyrics': "[Verse 1]\nHurray for a child that makes it through\nIf there's any way because the answer lies in you\nThey're laid to rest before they've known just what to do\nTheir souls are lost because\nThey could never find\n\n[Chorus 1]\nWhat's this life for? What's this life for?\nWhat's this life for? What's this life for?\n\n[Chorus 2]\nI see your soul, it's kind of gray\nYou see my heart, you look away\nYou see my wrist, I know your pain\nI know your purpose on your plane\nDon't say a last prayer because\nYou could never find\n\n[Chorus 2]\nI see your soul, it's kind of gray\nYou see my heart, you look away\nYou see my wrist, I know your pain\nI know your purpose on your plane\nDon't say a last prayer because\n[Chorus 3]\nBut they aren't here anymore\nDon't have to settle the score\nBecause we all live under the reign\nOf one king\n\n[Chorus 3]\nBut they aren't here anymore\nDon't have to settle no goddamn score\nBecause we all live under the reign\nOf just as you know of one king, one king, one king\n\n[Chorus 3]\nBut they aren't here anymore\nDon't have to settle no goddamn score\nBecause we all live under the reign\nOf just as you know of one king, one king, one king\n\n[Chorus 3]\nBut they aren't here anymore\nDon't have to settle no goddamn score\nBecause we all live under the reign\nOf one king", 'annotations': {'description': '', 'producers': [{'name': 'John Kurzweg', 'url': 'https://genius.com/artists/John-kurzweg'}], 'writers': [{'name': 'Mark Tremonti', 'url': 'https://genius.com/artists/Mark-tremonti'}, {'name': 'Scott Stapp', 'url': 'https://genius.com/artists/Scott-stapp'}], 'labels': [{'name': 'Wind-up Records', 'url': 'https://genius.com/artists/Wind-up-records'}]}}</t>
+  </si>
+  <si>
+    <t>{"url": "https://genius.com/Feed-me-one-click-headshot-lyrics", "lyrics": "[Intro]\nDo you like his music?\nNo\n\n[Break 1]\nWe are all evil, and it's beautiful\nWe are all evil, and it's so beautiful\nWe are all evil, and it's beautiful\nWe are all evil, and it's so beautiful\n\n[Intermission]\nI can dance all day, I can dance all day\nTry hit me, try hit me, c'mon!\nI mean my heart's beating, my heart's beating\nMy hands are shaking, my hands are shaking\nBut I'm still shooting, and I'm still getting them headshots like\nBoom headshot, boom headshot, boom headshot!\n\n[Drop]\nHeadshot\nHeadshot\n\n[Break 2]\nWe are all evil, and it's beautiful\nWe are all evil, and it's so beautiful\nWe are all evil, and it's beautiful\nWe are all evil, and it's so beautiful\nWe are all evil, and it's beautiful\nWe are all evil, and it's so beautiful\nWe are all evil, and it's beautiful\nWe are all evil, and it's so beautiful\n[Intermission]\nI can dance all day, I can dance all day\nTry hit me, try hit me, c'mon!\nI mean my heart's beating, my heart's beating\nMy hands are shaking, my hands are shaking\nBut I'm still shooting, and I'm still get them headshots like\nBoom headshot, boom headshot, boom headshot!\n\n[Drop]\nHeadshot\nBoom!\n\n[Outro]\nBoom, headshot", "annotations": {"description": "", "producers": [{"name": "Feed Me", "url": "https://genius.com/artists/Feed-me"}], "writers": [{"name": "Feed Me", "url": "https://genius.com/artists/Feed-me"}], "labels": []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Incubus-are-you-in-lyrics', 'lyrics': '[Verse 1]\nIt’s so much better\nWhen everyone is in, are you in?\nIt’s so much better\nWhen everyone is in, are you in?\n\n[Chorus]\nOoh, hoo\nOoh, hoo, are you in?\nOoh, hoo\nOoh, hoo, are you in?\n\n[Verse 2]\nIt’s so much better\nWhen everyone is in, are you in?\nIt’s so much easier\nWhen sea foam green is in fashion\n\n[Chorus]\nOoh, hoo\nOoh, hoo\nAre you in?\nOoh, hoo\nOoh, hoo\nAre you...\n[Bridge]\nAre you, are you, are you, are you\nAre you, are you, are you, are you\nAre you, are you, are you, are you\nAre you, are you, are you, are you\n(Everybody in, every\nEverybody in, every\nEverybody in, every\nEverybody in, every)\nOh, oh, oh\nOh, oh, oh\nOh, oh, oh\nOh no, oh oh no\n\n[Pre-Chorus]\n(A-are, you in\nA-are, are\nYou, you, i-i-in)\n\n[Outro]\nOoh, hoo\nOoh, hoo\nAre you in?\nOoh, hoo\nOoh, hoo, hoo', 'annotations': {'description': '', 'producers': [{'name': 'Scott Litt', 'url': 'https://genius.com/artists/Scott-litt'}, {'name': 'Incubus', 'url': 'https://genius.com/artists/Incubus'}], 'writers': [{'name': 'Chris Kilmore', 'url': 'https://genius.com/artists/Chris-kilmore'}, {'name': 'Alex Katunich', 'url': 'https://genius.com/artists/Alex-katunich'}, {'name': 'José Pasillas', 'url': 'https://genius.com/artists/Jose-pasillas'}, {'name': 'Mike Einziger', 'url': 'https://genius.com/artists/Mike-einziger'}, {'name': 'Brandon Boyd', 'url': 'https://genius.com/artists/Brandon-boyd'}], 'labels': [{'name': 'Epic Records', 'url': 'https://genius.com/artists/Epic-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Backstreet-boys-i-want-it-that-way-lyrics', 'lyrics': "[Intro: AJ]\nYeah-eh-eh\n\n[Verse 1: Brian &amp; Nick]\nYou are my fire\nThe one desire\nBelieve when I say\nI want it that way\nBut we are two worlds apart\nCan't reach to your heart\nWhen you say\nThat I want it that way\n\n[Chorus: Nick &amp; All]\nTell me why\nAin't nothing but a heartache\nTell me why\nAin't nothing but a mistake\nTell me why\nI never wanna hear you say\nI want it that way\n\n[Verse 2: AJ with Brian]\nAm I your fire?\nYour one desire\nYes, I know it's too late\nBut I want it that way\n[Chorus: AJ, All &amp; Brian]\nTell me why\nAin't nothing but a heartache\nTell me why\nAin't nothing but a mistake\nTell me why\nI never wanna hear you say\nI want it that way\n\n[Bridge: Kevin with AJ]\nNow I can see that we're falling apart\nFrom the way that it used to be, yeah\nNo matter the distance\nI want you to know\nThat deep down inside of me\n\n[Reprise: Howie &amp; All]\nYou are my fire\nThe one desire\nYou are (You are, you are, you are)\n\n[Interlude: Nick &amp; All]\nDon't wanna hear you say\nAin't nothin' but a heartache\nAin't nothin' but a mistake\n(Don't wanna hear you say)\nI never wanna hear you say (Oh, yeah)\nI want it that way\n[Chorus: Brian, All, (Nick) &amp; AJ]\nTell me why\nAin't nothing but a heartache\nTell me why\nAin't nothing but a mistake\nTell me why\nI never wanna hear you say (Don't wanna hear you say)\nI want it that way\nTell me why\nAin't nothin' but a heartache\nAin't nothin' but a mistake\nTell me why\nI never wanna hear you say (Never wanna hear you say, yeah)\nI want it that way\n[Outro: AJ]\n'Cause I want it that way", 'annotations': {'description': '&lt;p&gt;“I Want It That Way” is about a strained relationship. The lyrical interpretation of this song, however, is notoriously muddled. They don’t necessarily make sense—and this is the subject of much the &lt;a href="http://www.laweekly.com/music/what-the-hell-is-backstreet-boys-i-want-it-that-way-about-update-mind-blowing-shit-has-come-to-light-2411586#page-2" rel="noopener nofollow"&gt;online discussion&lt;/a&gt; about this song. The lyrics were written by Max Martin and Andreas Carlsson, veteran Swedish hitmakers that began their careers at Cheiron Studios, which was &lt;a href="http://www.newyorker.com/culture/cultural-comment/blank-space-what-kind-of-genius-is-max-martin" rel="noopener nofollow"&gt;largely responsible for the sound of pop&lt;/a&gt; in the ’90s. Carlsson talked to &lt;a href="http://www.hitquarters.com/index.php3?page=intrview/opar/intrview_Andreas_Carlsson_Interview.html" rel="noopener nofollow"&gt;HitQuarters&lt;/a&gt; about writing this song:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;‘I Want It That Way’ was a play with words. When Max came up with the original idea for the song, it already had the line ‘you are my fire, the one desire.’ We tried a million different variations on the second verse, and finally we had to go back to what was sounding so great, ‘you are my fire, the one desire.’ And then we changed it to ‘am I your fire, your one desire,’ which made absolutely no sense in combination with the chorus – but everybody loved it!&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;The song’s guitar riff was inspired by Metallica. There was an alternate version of the song recorded with more coherent lyrics, but the band preferred the original version of the song. Backstreet Boy Kevin Richardson said that Martin’s English language skills were worse then, which is why the song’s lyrics don’t make a ton of sense. He told &lt;a href="http://www.popdust.com/backstreet-boys-i-want-it-that-way-lyrics-analysis-which-way-is-it-exa-1889572029.html" rel="noopener nofollow"&gt;&lt;em&gt;LA Weekly&lt;/em&gt;&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;Ultimately the song really doesn’t really make much sense.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;The video for this song, which was parodied by &lt;a href="https://genius.com/Blink-182-all-the-small-things-lyrics" rel="noopener" data-api_path="/songs/62154"&gt;Blink-182&lt;/a&gt;, won a VMA for “Viewer’s Choice.”&lt;/p&gt;\n\n&lt;p&gt;It was nominated for 3 Grammys in 2000: “Song of the Year,” “Record of the Year,” and “Best Pop Performance by a Duo or Group with Vocals.”&lt;/p&gt;\n\n&lt;p&gt;On August 19, 2011, China’s Ministry of Culture &lt;a href="http://www.theguardian.com/world/2011/aug/24/banned-china-lady-gaga-perry" rel="noopener nofollow"&gt;released a list of 100 songs&lt;/a&gt;, including this song, that were required to be removed from the Internet as they had been released without being subjected to a mandatory screening process conducted by Ministry officials.&lt;/p&gt;', 'producers': [{'name': 'Kristian Lundin', 'url': 'https://genius.com/artists/Kristian-lundin'}, {'name': 'Max Martin', 'url': 'https://genius.com/artists/Max-martin'}], 'writers': [{'name': 'Andreas Carlsson', 'url': 'https://genius.com/artists/Andreas-carlsson'}, {'name': 'Max Martin', 'url': 'https://genius.com/artists/Max-martin'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Snap-the-power-lyrics', 'lyrics': '[Spoken Intro]\n"Американская фирма Transceptor Technology приступила к производству компьютеров «Персональный спутник»."\n\n[Intro: Penny Ford]\nI\'ve got the power (Power, power)\nHey, yeah-eah\n\n[Verse 1: Turbo B]\nLike the crack of the whip, I Snap! attack\nFront to back, in this thing called rap\nDig it like a shovel, rhyme devil on a heavenly level\nBang the bass, turn up the treble\nRadical mind, day and night all the time\n7:14, wise, divine\nManiac brainiac, winnin\' the game\nI\'m the lyrical Jesse James\n\n[Pre-Chorus: Penny Ford]\nOh-oh-oh-oh, oh-oh-oh, yeah, yeah, yeah-eah\nOh-oh-oh-oh, oh-oh-oh, yeah, getting kinda heavy\n\n[Chorus: Turbo B]\nIt\'s getting, it\'s getting, it\'s getting kinda heavy\nIt\'s getting, it\'s getting, it\'s getting kinda heavy\nIt\'s getting, it\'s getting, it\'s getting kinda heavy\nIt\'s getting, it\'s getting, it\'s getting kinda heavy\n[Refrain: Penny Ford]\nI\'ve got the power (Power, power)\n(You could break my heart, you could break my heart apart)\n(You could break my heart, you could break my heart apart)\nI\'ve got the power (Power, power)\n(Oh-oh-oh-oh)\nI\'ve got the power (Power, power)\n(You could break my heart, you could break my heart apart)\n(You could break my heart, you could break my heart apart)\nI\'ve got the power (Power, power)\n(Oh-oh-oh-oh)\n\n[Chorus: Turbo B]\nIt\'s getting, it\'s getting, it\'s getting kinda hectic\nIt\'s getting, it\'s getting, it\'s getting kinda hectic\nIt\'s getting, it\'s getting, it\'s getting kinda hectic\nIt\'s getting, it\'s getting, it\'s getting kinda hectic\n\n[Verse 2: Turbo B]\nQuality I possess, some say I\'m fresh\nWhen my voice goes through the mesh\nOf the microphone that I am holding\nCopy written lyrics so they can\'t be stolen\nIf they are, Snap! Don\'t need the police\nTo try to save them, your voice will cease\nSo please, stay off my back\nOr I will attack, and you don\'t want that\n[Refrain: Penny Ford]\nI\'ve got the power (Power, power)\n(You could break my heart, you could break my heart apart)\n(You could break my heart, you could break my heart apart)\nI\'ve got the power (Power, power)\n(Oh-oh-oh-oh)\nI\'ve got the power (Power, power)\n(You could break my heart, you could break my heart apart)\n(You could break my heart, you could break my heart apart)\nI\'ve got the power (Power, power)\n(Oh-oh-oh-oh)\n\n[Verse 3: Turbo B]\nQuality I possess, some say I\'m fresh\nWhen my voice goes through the mesh\nOf the microphone that I am holding\nCopy written lyrics so they can\'t be stolen\nIf they are, Snap! Don\'t need the police\nTo try to save them, your voice will cease\nSo please, stay off my back\nOr I will attack, and you don\'t want that\n\n[Refrain: Penny Ford]\nI\'ve got the power (Power, power)\n(You could break my heart, you could break my heart apart)\n(You could break my heart, you could break my heart apart)\nI\'ve got the power (Power, power)\n(Oh-oh-oh-oh)\nI\'ve got the power (Power, power)\n(You could break my heart, you could break my heart apart)\n(You could break my heart, you could break my heart apart)\nI\'ve got the power (Power, power)\n(Oh-oh-oh-oh)\n[Outro: Penny Ford]\nI\'ve got the power (Power, power)', 'annotations': {'description': '&lt;p&gt;“The Power” is the third single by German hip-house group Snap! and the lead single for their debut album, titled &lt;em&gt;World Power&lt;/em&gt;, which was later released in May of 1990. The song features vocals from Penny Ford and a verse from rapper Turbo B. According to &lt;a href="https://www.whosampled.com/Snap!/The-Power/samples/" rel="noopener nofollow"&gt;WhoSampled.com&lt;/a&gt;, the track contains snippets of the following: 1978’s &lt;a href="https://genius.com/Chaka-khan-some-love-annotated" rel="noopener" data-api_path="/songs/114615"&gt;“Some Love”&lt;/a&gt; by Chaka Khan, 1988’s &lt;a href="https://genius.com/Mantronix-king-of-the-beats-lyrics" rel="noopener" data-api_path="/songs/2182693"&gt;“King of the Beats”&lt;/a&gt; by Mantronix, 1985’s &lt;a href="https://genius.com/Jocelyn-brown-loves-gonna-get-you-lyrics" rel="noopener" data-api_path="/songs/3023429"&gt;“Love’s Gonna Get You”&lt;/a&gt; by Jocelyn Brown, and May 1989’s &lt;a href="https://genius.com/Chill-rob-g-let-the-words-flow-lyrics" rel="noopener" data-api_path="/songs/13636"&gt;“Let the Words Flow”&lt;/a&gt; by Chill Rob G.&lt;/p&gt;\n\n&lt;p&gt;Upon its release in January 1990, it became a massive hit &lt;a href="https://web.archive.org/web/20060614052317/http://musicseek.info/no1hits/1990.htm" rel="noopener nofollow"&gt;across Europe&lt;/a&gt;, topping out several dance charts. It went to &lt;a href="https://www.bac-lac.gc.ca/eng/discover/films-videos-sound-recordings/rpm/Pages/image.aspx?Image=nlc008388.7978&amp;amp;URLjpg=http%3a%2f%2fwww.collectionscanada.gc.ca%2fobj%2f028020%2ff4%2fnlc008388.7978.gif&amp;amp;Ecopy=nlc008388.7978" rel="noopener nofollow"&gt;#1 in Canada&lt;/a&gt; as well. Eventually, in August of that year, it rose all the way to #2 on the &lt;a href="https://www.billboard.com/charts/hot-100/1990-08-11" rel="noopener nofollow"&gt;&lt;em&gt;Billboard&lt;/em&gt; Hot 100&lt;/a&gt;, but this was just the beginning of the song’s success.&lt;/p&gt;\n\n&lt;p&gt;Its universal message and appeal resulted in countless &lt;a href="https://www.imdb.com/name/nm1677200/" rel="noopener nofollow"&gt;movie and television placements&lt;/a&gt;, perhaps most notably appearing in such films as &lt;a href="https://www.imdb.com/title/tt0200550/?ref_=_36" rel="noopener nofollow"&gt;&lt;em&gt;Coyote Ugly&lt;/em&gt;&lt;/a&gt; (2000), &lt;a href="https://www.imdb.com/title/tt0315327/?ref_=_34" rel="noopener nofollow"&gt;&lt;em&gt;Bruce Almighty&lt;/em&gt;&lt;/a&gt; (2003), and TV shows like &lt;a href="https://www.imdb.com/title/tt0098800/?ref_=_52" rel="noopener nofollow"&gt;&lt;em&gt;The Fresh Prince of Bel-Air&lt;/em&gt;&lt;/a&gt; (1990-1) and &lt;a href="https://www.imdb.com/title/tt0182576/?ref_=_20" rel="noopener nofollow"&gt;&lt;em&gt;Family Guy&lt;/em&gt;&lt;/a&gt; (2012). In March of 2017, BuzzFeed ranked the song at #38 on their list of the &lt;a href="https://www.buzzfeed.com/mjs538/jump-to-the-rhythm-jump-jump-to-the-rhythm-jump" rel="noopener nofollow"&gt;101 Greatest Dance Songs of the ‘90s&lt;/a&gt;.&lt;/p&gt;', 'producers': [{'name': 'Snap!', 'url': 'https://genius.com/artists/Snap'}], 'writers': [{'name': 'John Virgo Garrett III', 'url': 'https://genius.com/artists/John-virgo-garrett-iii'}, {'name': 'Benito Benitez', 'url': 'https://genius.com/artists/Benito-benitez'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Carrie-underwood-before-he-cheats-lyrics', 'lyrics': '[Verse 1]\nRight now, he\'s probably slow dancing\nWith a bleached-blond tramp\nAnd she\'s probably getting frisky\nRight now, he\'s probably buying her some fruity little drink\n\'Cause she can\'t shoot a whiskey\nRight now, he\'s probably up behind her with a pool-stick\nShowing her how to shoot a combo\nAnd he don\'t know\n\n[Chorus]\nI dug my key into the side\nOf his pretty little souped up four-wheel drive\nCarved my name into his leather seats\nI took a Louisville slugger to both headlights\nSlashed a hole in all four tires\nMaybe next time, he\'ll think before he cheats\n\n[Verse 2]\nRight now, she\'s probably up singing some\nWhite-trash version of Shania karaoke\nRight now, she\'s probably saying, "I\'m drunk"\nAnd he\'s a thinking that he\'s gonna get lucky\nRight now, he\'s probably dabbing on\nThree dollars worth of that bathroom Polo\nOh, and he don\'t know\n[Chorus]\nOh, that I dug my key into the side\nOf his pretty little souped up four-wheel drive\nCarved my name into his leather seats\nI took a Louisville slugger to both headlights\nSlashed a hole in all four tires\nMaybe next time, he\'ll think before he cheats\n\n[Bridge]\nI might\'ve saved a little trouble for the next girl\n\'Cause the next time that he cheats\nOh, you know it won\'t be on me\nNo, not on me\n\n[Chorus]\n\'Cause I dug my key into the side\nOf his pretty little souped up four-wheel drive\nCarved my name into his leather seats\nI took a Louisville slugger to both headlights\nSlashed a hole in all four tires\nMaybe next time, he\'ll think before he cheats\n\n[Outro]\nOh, maybe next time, he\'ll think before he cheats\nOh, before he cheats\nOh', 'annotations': {'description': '&lt;p&gt;“Before He Cheats” sees Underwood teaching an unfaithful lover a lesson. As the third single from 2005’s &lt;a href="https://genius.com/albums/Carrie-underwood/Some-hearts" rel="noopener" data-api_path="/albums/19252"&gt;&lt;em&gt;Some Hearts&lt;/em&gt;&lt;/a&gt;, the track became the &lt;a href="https://web.archive.org/web/20140408214408/https://www.rollingstone.com/music/song-stories/before-he-cheats-carrie-underwood" rel="noopener nofollow"&gt;first country song in history&lt;/a&gt; to sell over two million digital copies, and won &lt;a href="https://www.grammy.com/grammys/artists/carrie-underwood" rel="noopener nofollow"&gt;two Grammy awards&lt;/a&gt;, for Best Female Country Vocal Performance and Best Country Song. Since its release, it has been certified &lt;a href="https://web.archive.org/web/20130225031458/http://riaa.com/goldandplatinumdata.php?table=SEARCH_RESULTS" rel="noopener nofollow"&gt;five times platinum&lt;/a&gt; by the RIAA, selling five million copies.&lt;/p&gt;', 'producers': [{'name': 'Mark Bright', 'url': 'https://genius.com/artists/Mark-bright'}], 'writers': [{'name': 'Chris Tompkins', 'url': 'https://genius.com/artists/Chris-tompkins'}, {'name': 'Josh Kear', 'url': 'https://genius.com/artists/Josh-kear'}], 'labels': [{'name': 'Arista Nashville', 'url': 'https://genius.com/artists/Arista-nashville'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Madonna-holiday-lyrics', 'lyrics': "[Intro]\nHoliday\nCelebrate\nHoliday\nCelebrate\n\n[Chorus]\nIf we took a holiday\nTook some time to celebrate\nJust one day out of life\nIt would be\nIt would be so nice\n\n[Verse 1]\nEverybody spread the word\nWe're gonna have a celebration\nAll across the world\nIn every nation\n\n[Pre-Chorus]\nIt's time for the good times\nForget about the bad times, oh yeah\nOne day to come together, to release the pressure\nWe need a holiday\n\n[Chorus]\nIf we took a holiday\nTook some time to celebrate (Come on, let's celebrate)\nJust one day out of life (Holiday)\nIt would be\nIt would be so nice\n[Verse 2]\nYou can turn this world around\nAnd bring back all of those happy days\nPut your troubles down\nIt's time to celebrate\n\n[Pre-Chorus]\nLet love shine\nAnd we will find\nA way to come together and make things better\nWe need a holiday\n\n[Chorus]\nIf we took a holiday (Holiday)\nTook some time to celebrate (Celebrate)\nJust one day out of life (Just one day)\nIt would be\nIt would be so nice\n\n[Refrain]\nHoliday\nCelebrate\nHoliday\nCelebrate\n\n[Chorus]\nIf we took a holiday (Oh yeah, oh yeah)\nTook some time to celebrate (Come on, let's celebrate)\nJust one day out of life (Holiday)\nIt would be, it would be so nice\n[Outro]\nHoliday", 'annotations': {'description': '&lt;p&gt;“Holiday” is &lt;em&gt;&lt;a href="https://genius.com/albums/Madonna/Madonna" rel="noopener" data-api_path="/albums/60348"&gt;Madonna&lt;/a&gt;&lt;/em&gt;’s third single, being the singer’s first mainstream hit; in the United States, it &lt;a href="https://www.billboard.com/music/Madonna/chart-history/hot-100/song/7127" rel="noopener nofollow"&gt;peaked at #16&lt;/a&gt; on the Billboard Hot 100 — it was Madonna’s first single to enter the chart. The song was also &lt;a href="https://www.billboard.com/music/madonna/chart-history/DSI" rel="noopener nofollow"&gt;#1 on the Billboard’s Dance Club Songs&lt;/a&gt; chart and top 10 in several countries such as Australia, United Kingdom, Belgium, Germany and Netherlands.&lt;/p&gt;\n\n&lt;p&gt;Madonna performed “Holiday” at most of her tours. &lt;a href="https://www.setlist.fm/stats/madonna-bd6bdbe.html" rel="noopener nofollow"&gt;According to setlist.fm&lt;/a&gt;, it is her most live performed song.&lt;/p&gt;', 'producers': [{'name': 'Jellybean', 'url': 'https://genius.com/artists/Jellybean'}], 'writers': [{'name': 'Lisa Stevens', 'url': 'https://genius.com/artists/Lisa-stevens'}, {'name': 'Curtis Hudson', 'url': 'https://genius.com/artists/Curtis-hudson'}], 'labels': [{'name': 'Warner Music Group', 'url': 'https://genius.com/artists/Warner-music-group'}, {'name': 'Sire Records', 'url': 'https://genius.com/artists/Sire-records'}, {'name': 'Warner Records', 'url': 'https://genius.com/artists/Warner-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/The-cranberries-analyse-lyrics', 'lyrics': "Close your eyes, close your eyes\nBreathe the air, out there\nWe are free, we can be wide open\n\nFor you opened my eyes to the beauty I see\nWe will pray, we will stay wide open\n\nDon't analyse, don't analyse\nDon't go that way, don't live that way\nThat would paralyse your evolution\n\nDon't analyse, don't analyse\nDon't go that way, don't live that way\nThat would paralyse your evolution\n\nLa ah ah this greatest moment\nLa ah ah this greatest day\nLa ah ah the greatest love of them all\n\nLa ah ah this greatest moment\nLa ah ah this greatest day\nLa ah ah the greatest love of them all\n\nClose your eyes, close your eyes\nBreathe the air, out there\nFantasise, fantasise we are open\nFor you opened my eyes to the beauty I see\nWe will pray, we will stay together\n\nLa ah ah this greatest moment\nLa ah ah this greatest day\nLa ah ah the greatest love of them all\n\nLa ah ah this greatest moment\nLa ah ah this greatest day\nLa ah ah the greatest love of them all\n\nLa ah ah ah ah ah ah ah\nLa ah ah ah ah ah ah\nLa ah ah ah ah ah ah ah ah ah", 'annotations': {'description': '&lt;p&gt;This song was the first single from their studio album, &lt;a href="https://genius.com/albums/The-cranberries/Wake-up-and-smell-the-coffee" rel="noopener" data-api_path="/albums/147830"&gt;Wake Up and Smell the Coffee&lt;/a&gt;, released in 2001.&lt;br&gt;\n The promotional video, directed by Keir McFarlane, had to be edited in consequence of the 9/11 attacks, which was partly responsible for the single’s low chart positions in their native Ireland (number 28, their eleventh and last Top 40 hit there) and the UK (number 89, their first single to miss the top 40 since “Animal Instinct”), but became a Top 5 hit in Portugal, Spain and Italy.&lt;/p&gt;', 'producers': [{'name': 'Stephen Street', 'url': 'https://genius.com/artists/Stephen-street'}], 'writers': [{'name': 'Dolores O’Riordan', 'url': 'https://genius.com/artists/Dolores-oriordan'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Huey-lewis-and-the-news-the-power-of-love-lyrics', 'lyrics': "[Verse 1]\nThe power of love is a curious thing\nMake a one man weep, make another man sing\nChange a hawk to a little white dove\nMore than a feeling that's the power of love\nTougher than diamonds, rich like cream\nStronger and harder than a bad girl's dream\nMake a bad one good make a wrong one right\nPower of love that keeps you home at night\n\n[Chorus]\nYou don't need money, don't take fame\nDon't need no credit card to ride this train\nIt's strong and it's sudden and it's cruel sometimes\nBut it might just save your life\nThat's the power of love\nThat's the power of love\n\n[Verse 2]\nFirst time you feel it, it might make you sad\nNext time you feel it, it might make you mad\nBut you'll be glad baby when you've found\nThat's the power makes the world go'round\n\n[Chorus 2]\nAnd it don't take money, don't take fame\nDon't need no credit card to ride this train\nIt's strong and it's sudden it can be cruel sometimes\nBut it might just save your life\n[Bridge]\nThey say that all in love is fair\nYeah, but you don't care\nBut you know what to do\nWhen it gets hold of you\nAnd with a little help from above\nYou feel the power of love\nYou feel the power of love\nCan you feel it?\nHmmm\n\n[Guitar Solo]\n\n[Outro]\nIt don't take money and it don't take fame\nDon't need no credit card to ride this train\nTougher than diamonds and stronger than steel\nYou won't feel nothin' till you feel\nYou feel the power, just feel the power of love\nThat's the power, that's the power of love\nYou feel the power of love\nYou feel the power of love\nFeel the power of love", 'annotations': {'description': '&lt;p&gt;“&lt;strong&gt;The Power of Love&lt;/strong&gt;”, also called “&lt;strong&gt;Power of Love&lt;/strong&gt;”, is a 1985 single by Huey Lewis and the News, written for and featured in the 1985 blockbuster film Back to the Future (where Huey Lewis himself makes a cameo).&lt;/p&gt;\n\n&lt;p&gt;It gave the band their first number-one hit on the U.S. Billboard Hot 100, their second number-one hit on the U.S. Top Rock Tracks chart, and was a top ten hit on the UK Singles Chart, where it appeared on UK editions of the band’s fourth studio album, &lt;a href="https://genius.com/albums/Huey-lewis-and-the-news/Fore" rel="noopener" data-api_path="/albums/32925"&gt;Fore!&lt;/a&gt;. The song was nominated for an &lt;a href="https://en.wikipedia.org/wiki/Academy_Award_for_Best_Original_Song" rel="noopener nofollow"&gt;Academy Award for Best Original Song&lt;/a&gt;, in 1986 at the 58th Academy Awards.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/536ef7072c767546b8b157fd09a59b74.220x220x1.png" alt="" width="220" height="220" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;French alt. cover:&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/b6b87c6272ea591f819931a37e7f62af.200x200x1.jpg" alt="" width="200" height="200" data-animated="false"&gt;&lt;/p&gt;', 'producers': [{'name': 'Huey Lewis &amp; The News', 'url': 'https://genius.com/artists/Huey-lewis-and-the-news'}], 'writers': [{'name': 'Chris Hayes', 'url': 'https://genius.com/artists/Chris-hayes'}, {'name': 'Johnny Colla', 'url': 'https://genius.com/artists/Johnny-colla'}, {'name': 'Huey Lewis', 'url': 'https://genius.com/artists/Huey-lewis'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Rihanna-we-found-love-lyrics', 'lyrics': "[Video Intro: Agyness Deyn]\nIt's like you're screaming, and no one can hear\nYou almost feel ashamed, that someone could be that important\nThat without them, you feel like nothing\nNo one will ever understand how much it hurts\nYou feel hopeless, like nothing can save you\nAnd when it's over and it's gone\nYou almost wish you could have all that bad stuff back\nSo that you could have the good\n\n[Verse 1: Rihanna]\nYellow diamonds in the light\nAnd we're standing side by side\nAs your shadow crosses mine\nWhat it takes to come alive\n\n[Pre-Chorus: Rihanna]\nIt's the way I'm feeling, I just can't deny\nBut I've gotta let it go\n\n[Chorus: Rihanna]\nWe found love in a hopeless place\nWe found love in a hopeless place\nWe found love in a hopeless place\nWe found love in a hopeless place\n[Verse 2: Rihanna]\nShine a light through an open door\nLove and life, I will divide\nTurn away 'cause I need you more\nFeel the heartbeat in my mind\n\n[Pre-Chorus: Rihanna]\nIt's the way I'm feeling, I just can't deny\nBut I've gotta let it go\n\n[Chorus: Rihanna]\nWe found love in a hopeless place\nWe found love in a hopeless place\nWe found love in a hopeless place\nWe found love in a hopeless place\n\n[Bridge: Rihanna]\nYellow diamonds in the light\nAnd we're standing side by side\nAs your shadow crosses mine\n\n[Chorus: Rihanna]\nWe found love in a hopeless place\nWe found love in a hopeless place\nWe found love in a hopeless place\nWe found love in a hopeless place\n[Chorus: Rihanna]\nWe found love in a hopeless place\nWe found love in a hopeless place\nWe found love in a hopeless place\nWe found love in a hopeless place", 'annotations': {'description': '&lt;p&gt;This is a single off Rihanna’s sixth studio album &lt;em&gt;Talk that Talk.&lt;/em&gt; It was also included on &lt;em&gt;18 Months,&lt;/em&gt; the third album from Scottish electronic artist and this song’s producer Calvin Harris, who penned the lyrics as well.&lt;/p&gt;\n\n&lt;p&gt;This song became one of the bestselling singles of all time, and Rihanna’s longest running single, outlasting her smash hit “Umbrella” on top of the Billboard Hot 100 charts. This was Harris\' first time on the Hot 100, and became a huge boon to his career. He’d been releasing music since 2007. Harris &lt;a href="https://www.thesun.co.uk/archives/news/1010674/calvin-harris-rihanna-is-the-best-thing-that-could-have-happened-to-me/" rel="noopener nofollow"&gt;said:&lt;/a&gt;&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;It changed absolutely everything. Career-wise it was the best thing that could ever have happened. For example, in America my tune ‘Feel So Close’ came out about three months before. But when ‘We Found Love’ came out, the radio started playing ‘Feel So Close’ like it was the single after. Then that did really well, it charted well and sold a lot of copies."&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Harris was able to tap Rihanna for the song after he opening for her on a leg of her Loud tour in 2011. When Rihanna announced the collaboration to Twitter fans, the &lt;a href="http://www.capitalfm.com/artists/rihanna/news/fans-calvin-harris-single/" rel="noopener nofollow"&gt;Rihanna Navy jumped on Harris,&lt;/a&gt; ensuring he would produce a hit. Luckily he didn’t disappoint.&lt;/p&gt;\n\n&lt;p&gt;The original version of the song was recorded by UK singer Leona Lewis. She told &lt;a href="http://www.nme.com/news/calvin-harris/84798" rel="noopener nofollow"&gt;NME&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;It was a bit annoying to see how big a hit it was but if I’d released it maybe it wouldn’t have done as well.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;The music video, directed by Melissa Matsoukas,  depicts two lovers are in an unsustainable relationship based on passion and drugs, more like an addiction than a healthy interest. The video features a lot of drug usage and a Chris Brown lookalike, which was controversial, given their real-life abusive relationship. Matsoukas addressed the rumors about the controversial video in an interview with &lt;a href="http://www.mtv.com/news/1672957/rihanna-we-found-love-melina-matsoukas/" rel="noopener nofollow"&gt;&lt;em&gt;MTV&lt;/em&gt;&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;Again, it goes back to a story that we all can relate to. It’s not Rihanna’s story; it’s her story in the video, and she’s acting. But everybody’s [as well]. Obviously, there’s a lot of comparisons to her real life , and that’s not at all the intention.&lt;/p&gt;&lt;/blockquote&gt;', 'producers': [{'name': 'Calvin Harris', 'url': 'https://genius.com/artists/Calvin-harris'}], 'writers': [{'name': 'Calvin Harris', 'url': 'https://genius.com/artists/Calvin-harris'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Mika-relax-take-it-easy-lyrics', 'lyrics': 'Took a ride\nTo the end of the line\nWhere no one ever goes\nEnded up on a broken train\nWith nobody I know\n\nBut the pain\nAnd the longing’s the same when you’re dying\nNow I’m lost\nAnd I’m screaming for help on my own\n\nRelax, take it easy\nFor there is nothing that we can do\nRelax, take it easy\nBlame it on me or blame it on you\n\nIt’s as if I’m scared\nIt’s as if I’m terrified\nIt’s as if I’m scared\nIt’s as if we’re playing with fire\n\nOh, there is an answer to the darkest times\nIt’s clear, we don’t understand it\nBut the last thing on my mind\nIs to leave you\nI believe that we’re in this together\nDon’t scream\nThere are so many roads left to run\nRelax, take it easy\nFor there is nothing that we can do\nRelax, take it easy\nBlame it on me or blame it on you\n\nIt’s as if I’m scared\nIt’s as if I’m terrified\nIt’s as if I’m scared\nIt’s as if we’re playing with fire', 'annotations': {'description': '&lt;p&gt;Relax, Take It Easy is a psychedelic pop song. It has that calming effect when you stop what you’re doing just to realize there’s nothing to be done about it and that you don’t have control.&lt;/p&gt;', 'producers': [{'name': 'Greg Wells', 'url': 'https://genius.com/artists/Greg-wells'}, {'name': 'MIKA', 'url': 'https://genius.com/artists/Mika'}], 'writers': [{'name': 'Nick Van Eede', 'url': 'https://genius.com/artists/Nick-van-eede'}, {'name': 'MIKA', 'url': 'https://genius.com/artists/Mika'}], 'labels': []}}</t>
   </si>
   <si>
     <t>{'url': 'https://genius.com/The-cure-why-cant-i-be-you-lyrics', 'lyrics': "[Verse 1]\nYou're so gorgeous I'll do anything\nI'll kiss you from your feet to where your head begins\nYou're so perfect, you're so right as rain\nYou make me, make me, make me, make me hungry again\n\n[Chorus]\nEverything you do is irresistible\nEverything you do is simply kissable\nWhy can't I be you?\n\n[Verse 2]\nI'll run around in circles until I run out of breath\nI'll eat you all up or I'll just hug you to death\nYou're so wonderful, too good to be true\nYou make me, make me, make me, make me hungry for you\n\n[Chorus]\nEverything you do is simply delicate\nEverything you do is quite angelicate\nWhy can't I be you?\nWhy can't I be you?\n\n[Verse 3]\nYou turn my head when you turn around\nYou turn the whole world upside down\nI'm smitten, I'm bitten, I'm hooked, I'm cooked, I'm stuck like glue\nYou make me, make me, make me, make me hungry for you\n[Chorus]\nEverything you do is simply dreamy\nEverything you do is quite delicious\nSo why can't I be you?\nWhy can't I be you?\nWhy can't I be you?\nWhy can't I be you?\nWhy can't I be you?\nYou're simply elegant", 'annotations': {'description': '', 'producers': [{'name': 'Dave Allen', 'url': 'https://genius.com/artists/Dave-allen'}, {'name': 'Robert Smith', 'url': 'https://genius.com/artists/Robert-smith'}], 'writers': [{'name': 'Simon Gallup', 'url': 'https://genius.com/artists/Simon-gallup'}, {'name': 'Pearl Thompson', 'url': 'https://genius.com/artists/Pearl-thompson'}, {'name': 'Boris Williams', 'url': 'https://genius.com/artists/Boris-williams'}, {'name': 'Robert Smith', 'url': 'https://genius.com/artists/Robert-smith'}, {'name': 'Lol Tolhurst', 'url': 'https://genius.com/artists/Lol-tolhurst'}], 'labels': []}}</t>
   </si>
   <si>
-    <t>{'url': 'https://genius.com/Marcy-playground-sex-and-candy-lyrics', 'lyrics': "[Verse 1]\nHanging around, downtown by myself\nAnd I had so much time to sit and think about myself\nAnd then there she was, like double cherry pie\nYeah, there she was, like disco super-fly\n\n[Chorus]\nI smell sex and candy here, mmm\nWho's that lounging in my chair? Mmm\nWho's that casting devious stares in my direction?\nMomma this surely is a dream, yeah\nYeah, momma this surely is a dream, dig it\n\n[Verse 2]\nHanging around, downtown by myself\nAnd I've had too much caffeine, and I was thinking about myself\nAnd then there she was, in platform double suede\nYeah, there she was, like disco lemonade\n\n[Chorus]\nI smell sex and candy here, mmhmmm\nWho's that lounging in my chair? Mmhmmm\nWho's that casting devious stares in my direction?\nMomma this surely is a dream, yeah\nYeah, momma this surely is a dream, dig it\nYeah, momma this surely is a dream, yeah\n[Chorus]\nI smell sex and candy here, mmhmmm\nWho's that lounging in my chair? Mmhmmm\nWho's that casting devious stares in my direction?\nMomma this surely is a dream, dig it\nYeah, momma this surely is a dream, mmhmmm\nYeah, momma this surely is a dream, yeah\nYeah, momma this must be my dream", 'annotations': {'description': '&lt;p&gt;“Sex and Candy” is Marcy Playground’s “breakthrough” hit from their 1997 &lt;a href="https://genius.com/albums/Marcy-playground/Marcy-playground" rel="noopener" data-api_path="/albums/16930"&gt;self-titled&lt;/a&gt; debut studio album. The song &lt;a href="https://www.billboard.com/articles/columns/rock/7640665/1997-alternative-rock-songs-turning-20-2017" rel="noopener nofollow"&gt;was written&lt;/a&gt; in just one hour.&lt;/p&gt;\n\n&lt;p&gt;The song spent &lt;a href="https://www.billboard.com/articles/columns/rock/7640665/1997-alternative-rock-songs-turning-20-2017" rel="noopener nofollow"&gt;15 weeks&lt;/a&gt; atop the US Modern Rock songs chart and hit &lt;a href="https://www.billboard.com/music/Marcy-Playground/chart-history/hot-100" rel="noopener nofollow"&gt;number eight&lt;/a&gt; on the US Billboard Hot 100 chart, giving Marcy Playground their first and only major hit in the US.&lt;/p&gt;', 'producers': [{'name': 'John Wozniak', 'url': 'https://genius.com/artists/John-wozniak'}], 'writers': [{'name': 'John Wozniak', 'url': 'https://genius.com/artists/John-wozniak'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Black-eyed-peas-where-is-the-love-lyrics', 'lyrics': "[Verse 1: will.i.am]\nWhat's wrong with the world, Mama?\nPeople livin' like they ain't got no mamas\nI think the whole world's addicted to the drama\nOnly attracted to things that'll bring you trauma\nOverseas, yeah, we tryna stop terrorism\nBut we still got terrorists here livin'\nIn the USA, the big CIA\nThe Bloods and the Crips and the KKK\nBut if you only have love for your own race\nThen you only leave space to discriminate\nAnd to discriminate only generates hate\nAnd when you hate, then you're bound to get irate, yeah\nMadness is what you demonstrate\nAnd that's exactly how anger works and operates\nMan, you gotta have love just to set it straight\nTake control of your mind and meditate\nLet your soul gravitate to the love, y'all, y'all\n\n[Chorus: Justin Timberlake]\nPeople killin', people dyin'\nChildren hurtin', hear them cryin'\nCan you practice what you preach?\nAnd would you turn the other cheek?\nFather, father, father, help us\nSend some guidance from above\n'Cause people got me, got me questioning\nWhere is the love?\n[Post-Chorus: will.i.am &amp; Fergie]\n(Love) Where is the love? (The love)\nWhere is the love? (The love)\nWhere is the love, the love, the love?\n\n[Verse 2: Taboo]\nIt just ain't the same, old ways have changed\nNew days are strange, is the world insane?\nIf love and peace is so strong\nWhy are there pieces of love that don't belong?\nNations droppin' bombs\nChemical gases filling lungs of little ones\nWith ongoing sufferin' as the youth die young\nSo ask yourself, is the lovin' really gone?\nSo I can ask myself, really, what is going wrong\nWith this world that we livin' in? People keep on givin' in\nMakin' wrong decisions, only visions of them dividends\nNot respectin' each other, deny thy brother\nA war is goin' on, but the reason's undercover\nThe truth is kept secret, and swept under the rug\nIf you never know truth, then you never know love\nWhere's the love, y'all? Come on (I don't know)\nAnd where's the truth, y'all? Come on (I don't know)\nAnd where's the love y'all?\n\n[Chorus: Justin Timberlake]\nPeople killin', people dyin'\nChildren hurtin', hear them cryin'\nCan you practice what you preach?\nAnd would you turn the other cheek?\nFather, father, father, help us\nSend some guidance from above\n'Cause people got me, got me questioning\nWhere is the love?\n[Post-Chorus: will.i.am &amp; Fergie]\n(Love) Where is the love? (The love)\nWhere is the love? (The love)\nWhere is the love? (The love)\nWhere is the love?\n(Love) Where is the love? (The love)\nWhere is the love? (The love)\nWhere is the love, the love, the love?\n\n[Verse 3: apl.de.ap]\nI feel the weight of the world on my shoulder\nAs I'm gettin' older, y'all people gets colder\nMost of us only care about money-makin'\nSelfishness got us followin' the wrong direction\nWrong information always shown by the media\nNegative images is the main criteria\nInfecting the young minds faster than bacteria\nKids wanna act like what they see in the cinema\nYo, whatever happened to the values of humanity? (Yeah)\nWhatever happened to the fairness and equality? (Yeah)\nInstead of spreading love, we spreading animosity (Yeah)\nLack of understanding leading us away from unity\nThat's the reason why sometimes I'm feelin' under\nThat's the reason why sometimes I'm feelin' down\nIt's no wonder why sometimes I'm feelin' under\nGotta keep my faith alive 'til love is found\nNow ask yourself\n[Post-Chorus: will.i.am]\nWhere is the love?\nWhere is the love?\nWhere is the love?\nWhere is the love?\n\n[Chorus: Justin Timberlake]\nFather, father, father, help us\nSend some guidance from above\n'Cause people got me, got me questioning\nWhere is the love?\n\n[Outro: will.i.am &amp; Justin Timberlake]\nNow sing with me, y'all (One world, one world)\nWe only got (One world, one world)\nThat's all we got (One world, one world)\nAnd something's wrong with it (Yeah)\nSomething's wrong with it (Yeah)\nSomething's wrong with the w-world, world, yeah\nWe only got (One world, one world)\nThat's all we got (One world, one world)", 'annotations': {'description': '&lt;p&gt;“Where Is the Love?” is a song by The Black Eyed Peas about police brutality, racism and terrorism. The song was released as the lead single from their third album, &lt;a href="https://genius.com/albums/The-black-eyed-peas/Elephunk" rel="noopener" data-api_path="/albums/919"&gt;&lt;em&gt;Elephunk&lt;/em&gt;&lt;/a&gt;. It was the band’s first song to feature Fergie as an official member of the group.&lt;/p&gt;\n\n&lt;p&gt;The single features uncredited -at the time of release- vocals from singer &lt;a href="https://genius.com/artists/Justin-timberlake" rel="noopener" data-api_path="/artists/334"&gt;Justin Timberlake&lt;/a&gt;, who sang the iconic chorus of the song.&lt;/p&gt;\n\n&lt;p&gt;A new version titled &lt;a href="https://genius.com/The-black-eyed-peas-wheresthelove-lyrics" rel="noopener" data-api_path="/songs/2847967"&gt;“#WHERESTHELOVE”&lt;/a&gt; released by The Black Eyed Peas was on August 31, 2016, in collaboration with a great number of artists within the music industry. The proceeds of the charity single went to  fund educational programs.&lt;br&gt;\n&lt;/p&gt;&lt;div class="embedly_preview embedly_preview--video"&gt;\n&lt;iframe type="text/html" width="640" height="390" frameborder="0" allowfullscreen="1" src="https://www.youtube.com/embed/YsRMoWYGLNA?modestbranding=1&amp;amp;start=0&amp;amp;showinfo=0&amp;amp;enablejsapi=1&amp;amp;origin=genius.com"&gt;&lt;/iframe&gt;\n&lt;/div&gt;', 'producers': [{'name': '\u200bwill.i.am', 'url': 'https://genius.com/artists/William'}, {'name': 'Ron Fair', 'url': 'https://genius.com/artists/Ron-fair'}], 'writers': [{'name': 'J. Curtis', 'url': 'https://genius.com/artists/J-curtis'}, {'name': 'Printz Board', 'url': 'https://genius.com/artists/Printz-board'}, {'name': 'Michael Fratantuno', 'url': 'https://genius.com/artists/Michael-fratantuno'}, {'name': 'George Pajon Jr.', 'url': 'https://genius.com/artists/George-pajon-jr'}, {'name': 'Justin Timberlake', 'url': 'https://genius.com/artists/Justin-timberlake'}, {'name': 'Taboo', 'url': 'https://genius.com/artists/Taboo'}, {'name': '\u200bapl.de.ap', 'url': 'https://genius.com/artists/Apldeap'}, {'name': '\u200bwill.i.am', 'url': 'https://genius.com/artists/William'}], 'labels': [{'name': 'Will.i.am Music Group', 'url': 'https://genius.com/artists/William-music-group'}, {'name': 'A&amp;M Records', 'url': 'https://genius.com/artists/A-m-records'}, {'name': 'Will.i.am Music Publishing', 'url': 'https://genius.com/artists/William-music-publishing'}, {'name': 'Interscope Records', 'url': 'https://genius.com/artists/Interscope-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/The-beach-boys-kokomo-lyrics', 'lyrics': "[Intro]\nAruba, Jamaica, ooh I wanna take ya\nBermuda, Bahama, come on pretty mama\nKey Largo, Montego\nBaby why don't we go\nJamaica\n\n[Verse 1]\nOff the Florida Keys\nThere's a place called Kokomo\nThat's where you wanna go\nTo get away from it all\nBodies in the sand\nTropical drink melting in your hand\nWe'll be falling in love\nTo the rhythm of a steel drum band\nDown in Kokomo\n\n[Chorus]\nAruba, Jamaica, ooh I wanna take you to\nBermuda, Bahama, come on pretty mama\nKey Largo, Montego\nBaby why don't we go\nOoh I wanna take you down to Kokomo\nWe'll get there fast\nAnd then we'll take it slow\nThat's where we wanna go\nWay down in Kokomo\nMartinique, that Montserrat mystique\n[Verse 2]\nWe'll put out to sea\nWe'll perfect our chemistry\nBy and by we'll defy\nA little bit of gravity\nAfternoon delight\nCocktails and moonlit nights\nThat dreamy look in your eye\nGive me a tropical contact high\nWay down in Kokomo\n\n[Chorus]\nAruba, Jamaica, ooh I wanna take you to\nBermuda, Bahama, come on pretty mama\nKey Largo, Montego\nBaby why don't we go\nOoh I wanna take you down to Kokomo\nWe'll get there fast\nAnd then we'll take it slow\nThat's where we wanna go\nWay down in Kokomo\nPort au Prince, I want to catch a glimpse\nEverybody knows a little place like Kokomo\nNow if you wanna go to get away from it all\nGo down to Kokomo\n\n[Chorus]\n[Aruba, Jamaica, ooh I wanna take you to\nBermuda, Bahama, come on pretty mama\nKey Largo, Montego\nBaby why don't we go]\nOoh I wanna take you down to Kokomo\nWe'll get there fast\nAnd then we'll take it slow\nThat's where we wanna go\nWay down in Kokomo\nAruba, Jamaica, ooh I wanna take you to\nBermuda, Bahama, come on pretty mama\nKey Largo, Montego\nBaby why don't we go\nOoh I wanna take you down to...", 'annotations': {'description': '&lt;p&gt;“Kokomo” is a song written by John Phillips, Scott McKenzie, Mike Love and Terry Melcher and recorded by The Beach Boys in spring 1988. Its lyrics describe two lovers taking a trip to a relaxing Caribbean island called Kokomo.&lt;/p&gt;\n\n&lt;p&gt;It was released as a single on July 18, 1988 by Elektra Records and became a No. 1 Hit in the United States, Japan and Australia (where it topped for about two months).&lt;/p&gt;', 'producers': [{'name': 'Terry Melcher', 'url': 'https://genius.com/artists/Terry-melcher'}], 'writers': [{'name': 'John Phillips', 'url': 'https://genius.com/artists/John-phillips'}, {'name': 'Terry Melcher', 'url': 'https://genius.com/artists/Terry-melcher'}, {'name': 'Scott McKenzie', 'url': 'https://genius.com/artists/Scott-mckenzie'}, {'name': 'Mike Love', 'url': 'https://genius.com/artists/Mike-love'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/The-police-roxanne-lyrics', 'lyrics': "[Intro]\n\n[Verse 1]\nRoxanne\nYou don't have to put on the red light\nThose days are over\nYou don't have to sell your body to the night\nRoxanne\nYou don't have to wear that dress tonight\nWalk the streets for money\nYou don't care if it's wrong or if it's right\n\n[Pre-Chorus]\nRoxanne\nYou don't have to put on the red light\nRoxanne\nYou don't have to put on the red light\n\n[Chorus]\n(Roxanne) Put on the red light\n(Roxanne) Put on the red light\n(Roxanne) Put on the red light\n(Roxanne) Put on the red light\n(Roxanne) Put on the red light, oh\n\n[Verse 2]\nI loved you since I knew you\nI wouldn't talk down to ya\nI have to tell you just how I feel\nI won't share you with another boy\nI know my mind is made up\nSo put away your make up\nTold you once\nI won't tell you again it's a bad way\n[Pre-Chorus]\nRoxanne\nYou don't have to put on the red light\nRoxanne\nYou don't have to put on the red light\n\n[Outro]\n(Roxanne) You don't have\nTo put on the red light\n(Roxanne) Put on the red light\n(Roxanne) Put on the red light\n(Roxanne) Put on the red light\n(Roxanne) Put on the red light\n(Roxanne) Put on the red light\n(Roxanne) Put on the red light\n(Roxanne) Put on the red light\n(Roxanne) Put on the red light\n(Roxanne) Put on the red light\n(Roxanne) You don't have\nTo put on the red light\n(Roxanne) Put on the red light\n(Roxanne) Put on the red light\n(Roxanne) Put on the red light\n(Roxanne) Put on the red light", 'annotations': {'description': '&lt;p&gt;Roxanne is a hooker that Sting is trying to convince to change her d-d-dirty ways.&lt;/p&gt;\n\n&lt;p&gt;This song has been inducted &lt;a href="https://www.grammy.org/recording-academy/awards/hall-of-fame#r" rel="noopener nofollow"&gt;into the Grammy Hall of Fame&lt;/a&gt; and has been dubbed a classic for its melody, its vocal performance, its orchestration and the instrumental timbres, but it’s also unique for a different reason.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="http://www.gibson.com/News-Lifestyle/Features/en-us/bloopers-1012.aspx" rel="noopener nofollow"&gt;According to&lt;/a&gt; Peter Hodgson, as The Police began to record the song, Sting accidentally sat on a piano in the recording studio resulting in the piano chord and laughter you hear in the opening moments of the song.&lt;/p&gt;', 'producers': [{'name': 'The Police', 'url': 'https://genius.com/artists/The-police'}], 'writers': [{'name': 'Sting', 'url': 'https://genius.com/artists/Sting'}], 'labels': [{'name': 'A&amp;M Records', 'url': 'https://genius.com/artists/A-m-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Audioslave-show-me-how-to-live-lyrics', 'lyrics': "[Verse 1]\nAnd with the early dawn moving right along\nI couldn't buy an eyeful of sleep\nAnd in the aching night under satellites\nI was not received\nBuilt with stolen parts, a telephone in my heart\nSomeone get me a priest\nTo put my mind to bed, this ringing in my head\nIs this a cure or is this a disease?\n\n[Chorus]\nNail in my head from my creator\nYou gave me life, now show me how to live\nNail in my head from my creator\nYou gave me life, now show me how to live\n\n[Verse 2]\nAnd in the after birth on the quiet earth\nLet the stains remind you\nYou thought you made a man, you better think again\nBefore my role defines you\n\n[Chorus]\nNail in my head from my creator\nYou gave me life, now show me how to live\nNail in my head from my creator\nYou gave me life, now show me how to live\n[Instrumental Interlude]\n\n[Bridge]\nAnd in your waiting hands, I will land\nAnd roll out of my skin\nAnd in your final hours, I will stand\nReady to begin\nReady to begin\nReady to begin\nReady to begin\n\n[Chorus]\nNail in my head from my creator\nYou gave me life, now show me how to live\nNail in my head from my creator\nYou gave me life, now show me how to live\n\n[Outro]\nShow me how to live\nShow me how to live\nShow me how to live\nShow me how to live", 'annotations': {'description': '&lt;p&gt;This song is telling the classic story of &lt;a href="https://en.wikipedia.org/wiki/Frankenstein%27s_monster" rel="noopener nofollow"&gt;Frankenstein’s Monster&lt;/a&gt;, in which Dr. Victor Frankenstein steals pieces from fresh corpses to create a man. When the being comes to life, Victor flees, leaving the monster all alone with no understanding of human existence.&lt;/p&gt;\n\n&lt;p&gt;It has been a point of controversy whether or not it’s about Jesus Christ, the argument based on the misheard line “nail in my hand, from my creator.”&lt;/p&gt;\n\n&lt;p&gt;This can be debunked by an old tweet from frontman &lt;a href="https://genius.com/artists/Chris-cornell" rel="noopener" data-api_path="/artists/18435"&gt;Chris Cornell&lt;/a&gt;’s official Twitter account correcting someone on the lyrics.&lt;br&gt;\n&lt;a href="https://twitter.com/chriscornell/status/1461308098" rel="noopener nofollow"&gt;https://twitter.com/chriscornell/status/1461308098&lt;/a&gt;&lt;/p&gt;', 'producers': [{'name': 'Rick Rubin', 'url': 'https://genius.com/artists/Rick-rubin'}], 'writers': [{'name': 'Chris Cornell', 'url': 'https://genius.com/artists/Chris-cornell'}, {'name': 'Tom Morello', 'url': 'https://genius.com/artists/Tom-morello'}, {'name': 'Tim Commerford', 'url': 'https://genius.com/artists/Tim-commerford'}, {'name': 'Brad Wilk', 'url': 'https://genius.com/artists/Brad-wilk'}], 'labels': []}}</t>
+    <t>{'url': 'https://genius.com/Jon-bon-jovi-blaze-of-glory-lyrics', 'lyrics': "[Verse 1]\nI wake up in the morning and I raise my weary head\nI've got an old coat for a pillow, and the earth was last night's bed\nI don't know where I'm goin', only God knows where I've been\nI'm a devil on the run, a six gun lover, a candle in the wind\n\n[Verse 2]\nWhen you're brought into this world, they say you're born in sin\nWell, at least they gave me somethin', I didn't have to steal or have to win\nWell, they tell me that I'm wanted, yeah, I'm a wanted man\nI'm a colt in your stable, I'm what Cain was to Abel, Mr. Catch-Me-If-You-Can\n\n[Chorus]\nI'm goin' down in a blaze of glory\nTake me now but know the truth\nI'm goin' out in a blaze of glory\nAnd, Lord, I never drew first, but I drew first blood\nI'm no one's son, call me young gun\n\n[Verse 3]\nYou ask about my conscience and I offer you my soul\nYou ask If I'll grow to be a wise man, well I ask if I'll grow old\nYou ask me if I've known love and what it's like to sing songs in the rain\nWell, I've seen love come, I've seen it shot down, I've seen it die in vain\n\n[Chorus]\nShot down in a blaze of glory\nTake me now but know the truth\n'Cause I'm goin' out in a blaze of glory\nLord, I never drew first but I drew first blood\nI'm the devil's son, call me young gun\n[Guitar Solo]\n\n[Bridge]\nEach night I go to bed, I pray the Lord my soul to keep\nNo, I ain't lookin' for forgiveness, but before I'm six foot deep\nLord, I gotta ask a favor, and I'll hope you'll understand\n'Cause I've lived life to the fullest, let this boy die like a man\nStarin' down a bullet, let me make my final stand\n\n[Chorus]\nShot down in a blaze of glory\nTake me now but know the truth\nI'm goin' out in a blaze of glory\nLord, I never drew first but I drew first blood\nAnd I'm no one's son, call me young gun\nI'm a young gun\nYoung gun\nYoung gun", 'annotations': {'description': '&lt;p&gt;“Blaze of Glory”,  contrary to popular belief, is not from the band Bon Jovi, but the debut single of frontman Jon Bon Jovi’s solo career. However, it’s commonly included in the Greatest Hits collections of the band as part of the band’s overall work.&lt;/p&gt;\n\n&lt;p&gt;The song was recorded for the sountrack of the movie &lt;a href="https://www.imdb.com/title/tt0100994/" rel="noopener nofollow"&gt;&lt;em&gt;Young Guns II&lt;/em&gt;&lt;/a&gt;, starring Emilio Estevez. According to an article in Entertainment Weekly, Bon Jovi wrote the song after borrowing a script from the movie from his friend Estevez. Jon showed up on the set in New Mexico with an acoustic guitar, and played the song for the film’s screenwriter John Fusco, who had used “&lt;a href="https://www.youtube.com/watch?v=SRvCvsRp5ho&amp;amp;index=1&amp;amp;list=PLoV1CKg8ATh9kyJibH-ez5vFLHiy5jtKu" rel="noopener nofollow"&gt;Wanted Dead or Alive&lt;/a&gt;” as “mood music” while writing the first &lt;em&gt;Young Guns&lt;/em&gt;. Bon Jovi played the song for Fusco, who loved it and put it in the movie.&lt;/p&gt;\n\n&lt;p&gt;A commercial success, “Blaze of Glory” &lt;a href="https://www.billboard.com/music/jon-bon-jovi/chart-history/HSI/song/1365" rel="noopener nofollow"&gt;topped the Billboard Hot 100 chart&lt;/a&gt;. It also topped the ARIA chart in Australia, remaining at #1 for six weeks.&lt;/p&gt;', 'producers': [{'name': 'Danny Kortchmar', 'url': 'https://genius.com/artists/Danny-kortchmar'}, {'name': 'Jon Bon Jovi', 'url': 'https://genius.com/artists/Jon-bon-jovi'}], 'writers': [{'name': 'Jon Bon Jovi', 'url': 'https://genius.com/artists/Jon-bon-jovi'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Yazoo-nobodys-diary-lyrics', 'lyrics': "If I wait for just a second more\nI know, I'll forget what I came here for\nMy head was so full of things to say\nBut as I open my lips all my words slip away\nAnd anyway\n\nI can't believe you want to turn the page\nAnd move your life onto another stage\nYou can change the chapter, you can change the book\nBut the story remains the same if you'd take a look\n\nFor the times we've had I don't want to be\nA page in your diary, babe\nFor the good, the bad I don't want to see\nA page in your diary, babe\nFor the happy, the sad I don't want to be\nAnother page in your diary\n\nPerhaps if I held you I could win again\nI could take your hands we'd talk and maybe then\nThat look in your eyes, I always recognize\nWould tell me everything is gonna be fine\nYou're gonna be mine for a long time\n\nFor the times we've had I don't want to be\nA page in your diary, babe\nFor the good, the bad I don't want to see\nA page in your diary, babe\nFor the happy, the sad I don't want to be\nAnother page in your diary\nFor the times we've had I don't want to be\nA page in your diary, babe\nFor the good, the bad I don't want to see\nA page in your diary, babe\nFor the happy, the sad I don't want to be\nAnother page in your history", 'annotations': {'description': '', 'producers': [{'name': 'Yazoo', 'url': 'https://genius.com/artists/Yazoo'}, {'name': 'Eric Radcliffe', 'url': 'https://genius.com/artists/Eric-radcliffe'}], 'writers': [{'name': 'Alison Moyet', 'url': 'https://genius.com/artists/Alison-moyet'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/My-chemical-romance-teenagers-lyrics', 'lyrics': '[Verse 1]\nThey\'re gonna clean up your looks with all the lies in the books\nTo make a citizen out of you\nBecause they sleep with a gun and keep an eye on you, son\nSo they can watch all the things you do\nBecause the drugs never work, they\'re gonna give you a smirk\n\'Cause they got methods of keeping you clean\nThey\'re gonna rip up your heads, your aspirations to shreds\nAnother cog in the murder machine\n\n[Chorus]\nThey said "All teenagers scare the living shit out of me\nThey could care less as long as someone\'ll bleed"\nSo darken your clothes or strike a violent pose\nMaybe they\'ll leave you alone, but not me\n\n[Verse 2]\nThe boys and girls in the clique, the awful names that they stick\nYou\'re never gonna fit in much, kid\nBut if you\'re troubled and hurt, what you got under your shirt\nWill make them pay for the things that they did\n\n[Chorus]\nThey said "All teenagers scare the living shit out of me\nThey could care less as long as someone\'ll bleed"\nSo darken your clothes or strike a violent pose\nMaybe they\'ll leave you alone, but not me, oh, yeah\n[Bridge]\nThey said "All teenagers scare the living shit out of me\nThey could care less as long as someone\'ll bleed"\nSo darken your clothes or strike a violent pose\nMaybe they\'ll leave you alone, but not me\nAll together now\n\n[Chorus]\n"Teenagers scare the living shit out of me\nThey could care less as long as someone\'ll bleed"\nSo darken your clothes or strike a violent pose\nMaybe they\'ll leave you alone, but not me\n"Teenagers scare the living shit out of me\nThey could care less as long as someone\'ll bleed"\nSo darken your clothes or strike a violent pose\nMaybe they\'ll leave you alone, but not me', 'annotations': {'description': '&lt;p&gt;The singer reminisces about his teenage years and attempts to convey the unfair prejudice against teenagers that he experienced.&lt;/p&gt;\n\n&lt;p&gt;In this song, the singer (Gerard Way) talks about how adults are apprehensive of teenagers for no apparent reason.  He remembers how when he was a teenager, “grown-ups” would be scared of him for no reason, and the idea for this song was born when he found that he himself was old enough to be nervous around teenagers.&lt;/p&gt;\n\n&lt;p&gt;The song was written by Gerard when he was on a subway and had a panic attack because there were so many teenagers riding on it as well. When guitarist Frank Iero heard the song for the first time, he thought it was a joke.&lt;/p&gt;', 'producers': [{'name': 'My Chemical Romance', 'url': 'https://genius.com/artists/My-chemical-romance'}, {'name': 'Rob Cavallo', 'url': 'https://genius.com/artists/Rob-cavallo'}], 'writers': [{'name': 'Gerard Way', 'url': 'https://genius.com/artists/Gerard-way'}, {'name': 'Mikey Way', 'url': 'https://genius.com/artists/Mikey-way'}, {'name': 'Frank Iero', 'url': 'https://genius.com/artists/Frank-iero'}, {'name': 'Ray Toro', 'url': 'https://genius.com/artists/Ray-toro'}, {'name': 'Bob Bryar', 'url': 'https://genius.com/artists/Bob-bryar'}], 'labels': [{'name': 'Reprise Records', 'url': 'https://genius.com/artists/Reprise-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Eminem-my-name-is-lyrics', 'lyrics': '[Produced by Dr. Dre]\n\n[Chorus: Eminem]\nHi, my name is, what? My name is, who?\nMy name is, chka-chka, Slim Shady\nHi, my name is, huh? My name is, what?\nMy name is, chka-chka, Slim Shady\nHi, my name is, what? (Excuse me) My name is, who?\nMy name is, chka-chka, Slim Shady\n(Can I have the attention of the class for one second?)\nHi, my name is, huh? My name is, what?\nMy name is, chka-chka, Slim Shady\n\n[Verse 1: Eminem &amp; Dr. Dre]\nHi, kids, do you like violence? (Yeah, yeah, yeah)\nWanna see me stick nine-inch nails through each one of my eyelids? (Uh-huh)\nWanna copy me and do exactly like I did? (Yeah, yeah)\nTry \'cid and get fucked up worse than my life is? (Huh?)\nMy brain\'s dead weight, I\'m tryna get my head straight\nBut I can\'t figure out which Spice Girl I want to impregnate (Oh)\nAnd Dr. Dre said, "Slim Shady, you a basehead" (Uh-uh)\n"Then why\'s your face red? Man, you wasted"\nWell, since age 12, I felt like I\'m someone else\n\'Cause I hung my original self from the top bunk with a belt\nGot pissed off and ripped Pamela Lee\'s tits off\nAnd smacked her so hard I knocked her clothes backwards like Kris Kross\nI smoke a fat pound of grass, and fall on my ass\nFaster than a fat bitch who sat down too fast\nCome here, slut; "Shady, wait a minute, that\'s my girl, dawg"\nI don\'t give a fuck, God sent me to piss the world off\n[Chorus: Eminem]\nHi, my name is, what? My name is, who?\nMy name is, chka-chka, Slim Shady\nHi, my name is, huh? My name is, what?\nMy name is, chka-chka, Slim Shady\nHi, my name is, what? My name is, who?\nMy name is, chka-chka, Slim Shady\nHi, my name is, huh? My name is, what?\nMy name is, chka-chka, Slim Shady\n\n[Verse 2: Eminem]\nMy English teacher wanted to flunk me in junior high (Shh)\nThanks a lot, next semester I\'ll be 35\nI smacked him in his face with an eraser, chased him with a stapler\nAnd stapled his nuts to a stack of paper (Ow)\nWalked in the strip club, had my jacket zipped up\nFlashed the bartender, then stuck my dick in the tip cup\nExtraterrestrial, running over pedestrians in a spaceship While they\'re screaming at me, "Let\'s just be friends"\n99 percent of my life, I was lied to\nI just found out my mom does more dope than I do (Damn)\nI told her I\'d grow up to be a famous rapper\nMake a record about doin\' drugs and name it after her\n(Oh, thank you)\nYou know you blew up when the women rush your stands\nAnd try to touch your hands like some screamin\' Usher fans\n(Ahh, ahh, ahh)\nThis guy at White Castle asked for my autograph (Dude, can I get your autograph?)\nSo I signed it, "Dear Dave, thanks for the support, asshole"\n[Chorus: Eminem]\nHi, my name is, huh? My name is, who?\nMy name is, chka-chka, Slim Shady\nHi, my name is, what? My name is, who?\nMy name is, chka-chka, Slim Shady\nHi, my name is, huh? My name is, who?\nMy name is, chka-chka, Slim Shady\nHi, my name is, what? My name is, who?\nMy name is, chka-chka, Slim Shady\n\n[Verse 3: Eminem]\nStop the tape, this kid needs to be locked away (Get him)\nDr. Dre, don\'t just stand there, operate\nI\'m not ready to leave, it\'s too scary to die (Fuck that)\nI\'ll have to be carried inside the cemetery and buried alive\n(Huh, yup)\nAm I comin\' or goin\'? I can barely decide\nI just drank a fifth of vodka, dare me to drive? (Go ahead)\nAll my life I was very deprived\nI ain\'t had a woman in years and my palms are too hairy to hide (Whoops)\nClothes ripped like the Incredible Hulk\nI spit when I talk, I\'ll fuck anything that walks (Come here)\nWhen I was little, I used to get so hungry I would throw fits\nHow you gonna breastfeed me, Mom? You ain\'t got no tits\nI lay awake and strap myself in the bed\nWith a bulletproof vest on and shoot myself in the head (Bang)\n\'Cause I\'m steamin\' mad (Grr)\nAnd by the way, when you see my dad (Yeah?)\nTell him that I slit his throat in this dream I had\n[Chorus: Eminem]\nHi, my name is, what? My name is, who?\nMy name is, chka-chka, Slim Shady\nHi, my name is, huh? My name is, what?\nMy name is, chka-chka, Slim Shady\nHi, my name is, who? My name is, huh?\nMy name is, chka-chka, Slim Shady\nHi, my name is, huh? My name is, who?\nMy name is, chka-chka, Slim Shady', 'annotations': {'description': '&lt;p&gt;The song that vaulted Eminem onto the national stage. This was the second single from Eminem’s major label debut &lt;a href="https://genius.com/albums/Eminem/The-slim-shady-lp" rel="noopener" data-api_path="/albums/11166"&gt;&lt;em&gt;The Slim Shady LP&lt;/em&gt;&lt;/a&gt; (the first was &lt;a href="https://genius.com/Eminem-just-dont-give-a-fuck-lyrics" rel="noopener" data-api_path="/songs/866"&gt;“Just Don’t Give a Fuck,”&lt;/a&gt; which appeared on both the LP and on his minor-label release &lt;em&gt;The Slim Shady EP&lt;/em&gt;).&lt;/p&gt;\n\n&lt;p&gt;While Marshall bagged a Grammy for Best Rap Solo Performance at the 42nd Grammy Awards in 2000, the song wasn’t without controversy. Some of the lyrics, specifically: &lt;a href="https://genius.com/6919" rel="noopener"&gt;“99 percent of my life I was lied to / I just found out my mom does more dope than I do&lt;/a&gt; were the reason &lt;a href="http://www.rollingstone.com/music/news/eminem-sued-by-his-mom-19990920" rel="noopener nofollow"&gt;Debbie Mathers (Eminem’s mother) sued him&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;“My Name Is” samples the 1975 song “I Got The…” by British musician Labi Siffre.&lt;/p&gt;\n\n&lt;p&gt;&lt;/p&gt;&lt;div class="embedly_preview embedly_preview--video"&gt;\n&lt;iframe type="text/html" width="640" height="390" frameborder="0" allowfullscreen="1" src="https://www.youtube.com/embed/7Cp58rWCR8Y?modestbranding=1&amp;amp;start=129&amp;amp;showinfo=0&amp;amp;enablejsapi=1&amp;amp;origin=genius.com"&gt;&lt;/iframe&gt;\n&lt;/div&gt;\n\n&lt;p&gt;Siffre–an openly gay man–was reluctant to have his song be sampled in a song as homophobic as “My Name Is.” He let Dr. Dre and Eminem sample the song on the condition that they get rid of lines about raping lesbians and Eminem’s gay junior high teacher. (Both of those lyrics can be found on the extra explicit version of the song.) When Labi Siffre’s album “Remember My Song” was re-released Labi Siffre wrote in his liner notes about Eminem. He wrote,&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;Attacking two of the usual scapegoats, women and gays, is lazy writing. If you want to be radical, if you want to do battle, attack the aggressors not the victims.&lt;/p&gt;&lt;/blockquote&gt;', 'producers': [{'name': 'Dr. Dre', 'url': 'https://genius.com/artists/Dr-dre'}], 'writers': [{'name': 'Dr. Dre', 'url': 'https://genius.com/artists/Dr-dre'}, {'name': 'Labi Siffre', 'url': 'https://genius.com/artists/Labi-siffre'}, {'name': 'Eminem', 'url': 'https://genius.com/artists/Eminem'}], 'labels': [{'name': 'Web Entertainment', 'url': 'https://genius.com/artists/Web-entertainment'}, {'name': 'Interscope Records', 'url': 'https://genius.com/artists/Interscope-records'}, {'name': 'Aftermath Entertainment', 'url': 'https://genius.com/artists/Aftermath-entertainment'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/The-b-52s-love-shack-lyrics', 'lyrics': '[Sung by: Fred, Kate and Cindy]\n\nIf you see a faded sign at the side of the road that says\n"15 miles to the\nLove Shack"\nLove Shack, yeah, yeah\nI\'m headin\' down the Atlanta highway\nLookin\' for the love getaway\nHeaded for the love getaway\nI got me a car that\'s as big as a whale\nAnd we\'re headin\' on down to the Love Shack\nI got me a Chrysler that seats about 20\nSo hurry up and bring your jukebox money\n\nThe Love Shack is a little old place where we can get together\nLove Shack, baby (a-Love Shack, baby)\nLove Shack, baby, Love Shack\nLove Shack, baby, Love Shack\nLove Shack, baby, Love Shack (Love, baby, that\'s where it\'s at)\nLove Shack, baby, Love Shack (Love, baby, that\'s where it\'s at)\n\nSign says (woo!), "Stay away, fools\n\'Cause love rules at the Love Shack"\nWell, it\'s set way back in the middle of a field\nJust a funky old shack and I gotta get back\nGlitter on the mattress\nGlitter on the highway\nGlitter on the front porch\nGlitter on the highway\nThe Love Shack is a little old place where we can get together\nLove Shack, baby (Love Shack, baby)\nLove Shack, that\'s where it\'s at\nLove Shack, that\'s where it\'s at\n\nHuggin\' and a-kissin\'\nDancin\' and a-lovin\'\nWearin\' next to nothin\'\n\'Cause it\'s hot as an oven\nThe whole shack shimmies\nYeah, the whole shack shimmies\nThe whole shack shimmies\nWhen everybody\'s movin\' around\nAnd around and around and around\nEverybody\'s movin\', everybody\'s groovin\', baby\nFolks linin\' up outside just to get down\nEverybody\'s movin\', everybody\'s groovin\', baby\nFunky little shack\nFunky little shack\n\n[Instrumental Break]\n\nHop in my Chrysler, it\'s as big as a whale and it\'s about to set sail\nI got me a car, it seats about 20\nSo come on and bring your jukebox money\nThe Love Shack is a little old place where we can get together\nLove Shack, baby (a-Love Shack, baby)\nLove Shack, baby, Love Shack\nLove Shack, baby, Love Shack\nLove Shack, baby, Love Shack (Love, baby, that\'s where it\'s at)\nLove Shack, baby, Love Shack (Love, baby, that\'s where it\'s at)\n\nBang, bang, bang on the door baby\nKnock a little louder baby\nBang, bang, bang on the door baby\nI can\'t hear you\nBang, bang, bang on the door, baby\nKnock a little louder, sugar\nBang, bang, bang on the door, baby\nI can\'t hear you\nBang, bang, bang on the door baby (Knock a little louder)\nBang, bang, bang on the door baby\nBang, bang (On the door, baby)\nBang, bang (On the door)\nBang, bang (On the door, baby)\nBang, bang\nYour what?\nTin roof, rusted\nLove Shack, baby, Love Shack\nLove Shack, baby, Love Shack (Love, baby, that\'s where it\'s at, yeah)\nLove Shack, baby, Love Shack (Love, baby, that\'s where it\'s at)\nLove Shack, baby, Love Shack\nHuggin\' and a-kissin\'\nDancin\' and a-lovin\'\nAt the Love Shack', 'annotations': {'description': '&lt;p&gt;The B-52s’ 1989 smash “Love Shack” is about a secluded place where lovers can meet to get it on. But that’s merely the most obvious meaning. The title also refers to the venues the B-52s performed at when they were starting out. B-52s singer Kate Pierson told VH1: “It was really just kind of in our imagination, the Love Shack.” And B-52s singer Fred Schneider said: “You open the door and all of a sudden it’s a blast of energy and fun.” The track is also a tribute to original B-52s guitarist Ricky Wilson, who died in 1985. B-52s guitarist Keith Strickland said: “They say when you die, your life passes before your eyes. And I think when you lose somebody very close to you, like we lost Ricky, we were reviewing our lives in a sense.”&lt;/p&gt;\n\n&lt;p&gt;The plot thickened in 2004, when it was reported that the “Love Shack” had burned down. The residence in question was a cabin in Athens, Georgia, where the band is from—Pierson was a previous tenant. At the time the house burned down, Atlanta resident Allisa Huestis was set to be the next occupant. Huestis told the Associated Press: “I just was in touch with the B-52s. They said it was the original Love Shack and was where they created ‘Rock Lobster.’”&lt;/p&gt;\n\n&lt;p&gt;The lyric “Tin roof, rusted” has no specific meaning, but that hasn’t stopped listeners from trying to define it. Pierson told the A.V. Club: “There are all sorts of interpretations, but one of the most popular is that it means you’re pregnant. I have no idea how people got that idea. I’ve never heard that particular expression, and I don’t even know how it came up, but I hear it all the time now!”&lt;/p&gt;\n\n&lt;p&gt;The B-52s had been around for more than a decade when they released “Love Shack” in 1989—the song brought them out of the underground. Schneider told the A.V. Club: “Everything changed after ‘Love Shack.’ We went ‘mainstream.’ ‘Love Shack’ set what people viewed us as, because a lot of people didn’t realize we had a career before that.”&lt;/p&gt;\n\n&lt;p&gt;“Love Shack” rose to #3 on the Billboard Hot 100—it’s remained a classic. Pierson told the A.V. Club: “It’s played at weddings, it’s sung at karaoke—it’s one of the biggest karaoke songs, in fact. And when we play it, everyone just lets their inner freak out.”&lt;/p&gt;\n\n&lt;p&gt;The official video:&lt;br&gt;\n&lt;a href="https://youtu.be/9SOryJvTAGs" rel="noopener nofollow"&gt;https://youtu.be/9SOryJvTAGs&lt;/a&gt;&lt;/p&gt;', 'producers': [{'name': 'Don Was', 'url': 'https://genius.com/artists/Don-was'}], 'writers': [{'name': 'Cindy Wilson', 'url': 'https://genius.com/artists/Cindy-wilson'}, {'name': 'Keith Strickland', 'url': 'https://genius.com/artists/Keith-strickland'}, {'name': 'Fred Schneider', 'url': 'https://genius.com/artists/Fred-schneider'}, {'name': 'Kate Pierson', 'url': 'https://genius.com/artists/Kate-pierson'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Kygo-firestone-lyrics', 'lyrics': "[Verse 1: Conrad Sewell]\nI'm a flame, you're a fire\nI'm the dark in need of light\nWhen we touch, you inspire\nFeel it changin' me tonight\nTake me up, take me higher\nThere's a world not far from here\nWe can dance in desire\nOr we can burn in love tonight\n\n[Chorus: Conrad Sewell]\nOur hearts are like firestones\nAnd when they strike, we feel the love\nSparks will fly, they ignite our bones\nAnd when they strike, we light up the world\n\n[Chorus: Conrad Sewell]\nOur hearts are like firestones\nAnd when they strike, we feel the love\nSparks will fly, they ignite our bones\nAnd when they strike, we light up the world\nWe light up the world\n\n[Drop 1: Conrad Sewell]\nWe light up the world\nWhoa, oh\nWorld\nWhoa, oh\nFirestone\n[Verse 2: Conrad Sewell]\nI'm from X\nYou're from Y\nPerfect strangers in the night\nHere we are, come together\nTo the world we'll testify\n\n[Chorus: Conrad Sewell]\nOur hearts are like firestones\nAnd when they strike, we feel the love\nSparks will fly, they ignite our bones\nAnd when they strike, we light up the world\n\n[Chorus: Conrad Sewell]\nOur hearts are like firestones\nAnd when they strike, we feel the love\nSparks will fly, they ignite our bones\nAnd when they strike, we light up the world\n\n[Drop 2: Conrad Sewell]\nWe light up the world\nWe light up the word\nWhoa, oh\nWorld\nWhoa, oh\nFirestone", 'annotations': {'description': '&lt;p&gt;“Firestone” is Norwegian DJ and producer Kygo’s first internationally charting single, with vocals sung by R&amp;amp;B singer &lt;a href="https://genius.com/artists/Conrad" rel="noopener" data-api_path="/artists/1826699"&gt;Conrad&lt;/a&gt; (a mononym for Conrad Sewell). It peaked on charts in 14 countries between first and twelfth positions. Through many metaphors and juxtapositions, Conrad compares love to the flames resulting from firestone.&lt;/p&gt;\n\n&lt;p&gt;“Firestone” along with many of Kygo’s remixes and singles are of the sub-genre Tropical House. Tropical House is a relatively new sub-genre of House, and Kygo is often credited with popularizing the sub-genre through his various remixes and singles.&lt;/p&gt;\n\n&lt;p&gt;The song is the fifth track on his debut album, &lt;a href="https://genius.com/albums/Kygo/Cloud-nine" rel="noopener" data-api_path="/albums/143924"&gt;Cloud Nine&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/4821755e9ab2d2e2df8d3d97f2a4e106.1000x1000x1.jpg" alt="" width="1000" height="1000" data-animated="false"&gt;&lt;/p&gt;', 'producers': [{'name': 'Kygo', 'url': 'https://genius.com/artists/Kygo'}], 'writers': [{'name': 'Martijn Konijnenburg', 'url': 'https://genius.com/artists/Martijn-konijnenburg'}, {'name': 'Conrad Sewell', 'url': 'https://genius.com/artists/Conrad-sewell'}, {'name': 'Kygo', 'url': 'https://genius.com/artists/Kygo'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Keane-this-is-the-last-time-lyrics', 'lyrics': "[Verse 1]\nThis is the last time\nThat I will say these words\nI remember the first time\nThe first of many lies\nSweep it into the corner\nOr hide it under the bed\nSay these things, they go away\nBut they never do\n\n[Pre-Chorus]\nSomething I wasn't sure of\nBut I was in the middle of\nSomething I forget now\nBut I've seen too little of\n\n[Chorus]\nThe last time\nYou fall on me for anything you like\nYour one last line\nYou fall on me for anything you like\nAnd years make everything alright\nYou fall on me for anything you like\nAnd I, no, I don't mind\n\n[Verse 2]\nThis is the last time\nThat I will show my face\nOne last tender lie and\nThen I'm out of this place\nTread it into the carpet\nOr hide it under the stairs\nYou say that some things never die\nWell, I tried and I tried\n[Pre-Chorus]\nSomething I wasn't sure of\nBut I was in the middle of\nSomething I forget now\nBut I've seen too little of\n\n[Chorus]\nThe last time\nYou fall on me for anything you like\nYour one last line\nYou fall on me for anything you like\nAnd years make everything alright\nYou fall on me for anything you like\nAnd I, no, I don't mind\n\n[Chorus]\nThe last time\nYou fall on me for anything you like\nYour one last line\nYou fall on me for anything you like\nAnd years make everything alright\nYou fall on me for anything you like\nAnd I, no, I don't mind", 'annotations': {'description': '&lt;p&gt;Tim Rice-Oxley describes the song as “mainly about regret. I was thinking about how you can have a huge amount of affection for someone and yet not have that magic spark that makes you feel like you’re in love … you have a bond with someone but you don’t want to stay with them forever. So you decide to go. But you’re not saying, ’I hate you and I’m leaving.’ You’re trying to say, ‘I think you’re great, but I’ve seen that there’s something more perfect and magical out there for me and I need to find it. But I will always be your friend if you need me.’”&lt;/p&gt;', 'producers': [{'name': 'Andy Green', 'url': 'https://genius.com/artists/Andy-green'}, {'name': 'Keane', 'url': 'https://genius.com/artists/Keane'}, {'name': 'James Sanger', 'url': 'https://genius.com/artists/James-sanger'}], 'writers': [{'name': 'Tim Rice-Oxley', 'url': 'https://genius.com/artists/Tim-rice-oxley'}, {'name': 'Tom Chaplin', 'url': 'https://genius.com/artists/Tom-chaplin'}, {'name': 'Richard Hughes', 'url': 'https://genius.com/artists/Richard-hughes'}, {'name': 'James Sanger', 'url': 'https://genius.com/artists/James-sanger'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Green-day-american-idiot-lyrics', 'lyrics': "[Verse 1]\nDon't wanna be an American idiot\nDon't want a nation under the new media\nAnd can you hear the sound of hysteria?\nThe subliminal mind-fuck America\n\n[Chorus]\nWelcome to a new kind of tension\nAll across the alienation\nWhere everything isn't meant to be okay\nIn television dreams of tomorrow\nWe're not the ones who're meant to follow\nFor that's enough to argue\n\n[Verse 2]\nWell, maybe I'm the faggot, America\nI'm not a part of a redneck agenda\nNow everybody do the propaganda\nAnd sing along to the age of paranoia\n\n[Chorus]\nWelcome to a new kind of tension\nAll across the alienation\nWhere everything isn't meant to be okay\nIn television dreams of tomorrow\nWe're not the ones who're meant to follow\nFor that's enough to argue\n[Guitar Solo]\n[Bridge]\nDon't wanna be an American idiot\nOne nation controlled by the media\nInformation age of hysteria\nIt's calling out to idiot America\n\n[Chorus]\nWelcome to a new kind of tension\nAll across the alien nation\nWhere everything isn't meant to be okay\nIn television dreams of tomorrow\nWe're not the ones who're meant to follow\nFor that's enough to argue", 'annotations': {'description': '&lt;p&gt;Starting off &lt;a href="https://genius.com/albums/Green-day/American-idiot" rel="noopener" data-api_path="/albums/14373"&gt;the album&lt;/a&gt; with a bang, “American Idiot” is a scathing takedown of American culture in the years following 9/11. Released as the first single from the album, it has since become one of Green Day’s biggest hits and most recognizable songs. The song heavily criticizes the state of the United States circa 2004 (during the presidential campaign in which George W. Bush was re-elected), with lines referencing the danger of the “new, biased media.” As the first and title track also works as an introduction to the overarching themes and concepts of the album, which was envisioned as a rock opera.&lt;/p&gt;\n\n&lt;p&gt;Billie Joe Armstrong was inspired to write this after hearing &lt;a href="https://genius.com/artists/Lynyrd-Skynyrd" rel="noopener" data-api_path="/artists/641"&gt;Lynyrd Skynyrd&lt;/a&gt;’s song &lt;a href="https://genius.com/Lynyrd-skynyrd-thats-how-i-like-it-lyrics" rel="noopener" data-api_path="/songs/395637"&gt;“That’s How I Like It”&lt;/a&gt; on the way to the studio. He told Q magazine in May 2009:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;It was like, I’m proud to be a redneck and I was like, Oh my God, why would you be proud of something like that? This is exactly what I’m against. I looked at the guys like, Do you mind that I’m saying this? And they were like, No, we agree with you. And it started the ball rolling.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;The song received mostly positive reviews from critics and was nominated for four Grammy Awards; Best Rock Performance by a Duo or Group with Vocal, Best Rock Song, Best Short Form Music Video, and Record of the Year.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/4186d995af31b08cd0d55ff5ae0b0995.500x439x1.jpg" alt="" width="500" height="439" data-animated="false"&gt;&lt;/p&gt;', 'producers': [{'name': 'Green Day', 'url': 'https://genius.com/artists/Green-day'}, {'name': 'Rob Cavallo', 'url': 'https://genius.com/artists/Rob-cavallo'}], 'writers': [{'name': 'Billie Joe Armstrong', 'url': 'https://genius.com/artists/Billie-joe-armstrong'}], 'labels': [{'name': 'Reprise Records', 'url': 'https://genius.com/artists/Reprise-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Ramones-blitzkrieg-bop-lyrics', 'lyrics': "[Intro]\nHey, ho, let's go\nHey, ho, let's go\nHey, ho, let's go\nHey, ho, let's go\n\n[Verse]\nThey're formin' in a straight line\nThey're goin' through a tight one\nThe kids are losin' their minds\nThe Blitzkrieg Bop\nThey're pilin' in the back seat\nThey're generatin' steam heat\nPulsatin' to the back beat\nThe Blitzkrieg Bop\n\n[Chorus]\nHey, ho, let's go\nShoot 'em in the back now\nWhat they want, I don't know\nThey're all revved up and ready to go\n\n[Verse]\nThey're formin' in a straight line\nThey're goin' through a tight wind\nThe kids are losin' their minds\nThe Blitzkrieg Bop\nThey're pilin' in the back seat\nThey're generatin' steam heat\nPulsatin' to the back beat\nThe Blitzkrieg Bop\n[Chorus]\nHey, ho, let's go\nShoot 'em in the back now\nWhat they want, I don't know\nThey're all revved up and ready to go\n\n[Verse]\nThey're formin' in a straight line\nThey're goin' through a tight wind\nThe kids are losin' their minds\nThe Blitzkrieg Bop\nThey're pilin' in the back seat\nThey're generatin' steam heat\nPulsatin' to the back beat\nThe Blitzkrieg Bop\n\n[Outro]\nHey, ho, let's go\nHey, ho, let's go\nHey, ho, let's go\nHey, ho, let's go", 'annotations': {'description': '&lt;p&gt;“Blitzkrieg Bop” was released as the Ramones\' debut single in April 1976, and appeared as the opening track on their debut album, &lt;em&gt;Ramones&lt;/em&gt;, also released that month.&lt;/p&gt;\n\n&lt;p&gt;“Blitzkrieg” was the name of a German World War II tactic, and means “lightning war.” The song was mainly written by drummer &lt;a href="https://genius.com/artists/Tommy-ramone" rel="noopener" data-api_path="/artists/78739"&gt;Tommy Ramone&lt;/a&gt;, while bassist &lt;a href="https://genius.com/artists/Dee-dee-ramone" rel="noopener" data-api_path="/artists/381657"&gt;Dee Dee Ramone&lt;/a&gt; came up with the title (the song was originally called “Animal Hop”).&lt;/p&gt;\n\n&lt;p&gt;Interestingly, Tommy Ramone’s connection with Nazi Germany was deeper than a casual interest.  Born Tamás Erdélyi in 1949 in Budapest, Hungary, he was the son of Jewish photographers who had survived the Holocaust by being hidden by friends, although many of his other relatives were murdered by the Nazis.&lt;/p&gt;\n\n&lt;p&gt;Dee Dee was also connected with Germany.  He lived in Berlin for most of his childhood before moving to NYC at the age of 15 with his German mother to escape his alcoholic, US soldier father.  As he &lt;a href="https://www.vice.com/en_us/article/dee-dee-ramone" rel="noopener nofollow"&gt;told VICE&lt;/a&gt;, his fascination with Nazi relics he would find along the French-German border was an early source of friction in his family:&lt;/p&gt;\n\n&lt;blockquote&gt;\n&lt;p&gt;I’d always been fascinated by Nazi symbols—from finding them in the rubble in Germany. They were so glamorous. They were just so pretty. My parents were very upset by that.&lt;/p&gt;\n\n&lt;p&gt;One time my father said something fucking ridiculous. I had found a Luftwaffe sword that was beautiful, and I knew I could keep it or sell it for a fortune, like 80 marks. When I brought that home, my father got uptight and said something really sick, he said, “Can you imagine all our guys that died because of that?”&lt;/p&gt;\n\n&lt;p&gt;I thought, &lt;em&gt;This guy is a real asshole.&lt;/em&gt; As if he really cared. I didn’t figure my father for any passions like that, about anything. And from that day on, he just became a total joke to me—and I stopped fearing him.&lt;/p&gt;\n&lt;/blockquote&gt;', 'producers': [{'name': 'Tommy Ramone', 'url': 'https://genius.com/artists/Tommy-ramone'}, {'name': 'Craig Leon', 'url': 'https://genius.com/artists/Craig-leon'}], 'writers': [{'name': 'Tommy Ramone', 'url': 'https://genius.com/artists/Tommy-ramone'}, {'name': 'Dee Dee Ramone', 'url': 'https://genius.com/artists/Dee-dee-ramone'}], 'labels': [{'name': 'Sire Records', 'url': 'https://genius.com/artists/Sire-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Metallica-sad-but-true-lyrics', 'lyrics': "[Verse 1]\nHey (Hey), I'm your life, I'm the one who takes you there\nHey (Hey), I'm your life, I'm the one who cares\nThey (They), they betray, I'm your only true friend now\nThey (They), they'll betray, I'm forever there\n\n[Chorus]\nI'm your dream, make you real\nI'm your eyes when you must steal\nI'm your pain when you can't feel\nSad but true\nI'm your dream, mind astray\nI'm your eyes while you're away\nI'm your pain while you repay\nYou know it's sad but true\nSad but true\n\n[Verse 2]\nYou (You), you're my mask, you're my cover, my shelter\nYou (You), you're my mask, you're the one who's blamed\nDo (Do), do my work, do my dirty work, scapegoat\nDo (Do), do my deeds for you're the one who's shamed\n\n[Chorus]\nI'm your dream, make you real\nI'm your eyes when you must steal\nI'm your pain when you can't feel\nSad but true\nI'm your dream, mind astray\nI'm your eyes while you're away\nI'm your pain while you repay\nYou know it's sad but true\nSad but true\n[Guitar Solo]\n\n[Bridge]\nI'm your dream\nI'm your eyes\nI'm your pain\nI'm your dream (I'm your dream)\nI'm your eyes (I'm your eyes)\nI'm your pain (I'm your pain)\nYou know it's sad but true\n\n[Guitar Solo]\n\n[Verse 3]\nHate (Hate), I'm your hate, I'm your hate when you want love\nPay (Pay), pay the price, pay for nothing's fair\nHey (Hey), I'm your life, I'm the one who took you there\nHey (Hey), I'm your life, and I no longer care\n\n[Chorus]\nI'm your dream, make you real\nI'm your eyes when you must steal\nI'm your pain when you can't feel\nSad but true\nI'm your truth, telling lies\nI'm your reasoned alibis\nI'm inside, open your eyes\nI'm you\nSad but true", 'annotations': {'description': '&lt;p&gt;The fifth and final single released from Metallica’s seminal &lt;a href="https://genius.com/albums/Metallica/Metallica" rel="noopener" data-api_path="/albums/10852"&gt;self-titled album&lt;/a&gt;, “Sad But True” is about a person’s darker side taking control.&lt;/p&gt;\n\n&lt;p&gt;Influenced by the &lt;a href="http://en.wikipedia.org/wiki/Magic_%281978_film%29" rel="noopener nofollow"&gt;1978 horror film &lt;em&gt;Magic&lt;/em&gt;&lt;/a&gt;, starring &lt;a href="http://en.wikipedia.org/wiki/Anthony_Hopkins" rel="noopener nofollow"&gt;Anthony Hopkins&lt;/a&gt;, the song is a monologue justifying the existence of this darker side, which in the film is symbolized by a foul-mouthed ventriloquist’s dummy.&lt;/p&gt;\n\n&lt;p&gt;The song has been interpreted as an allusion to addiction, a struggle Hetfield &lt;a href="http://www.rollingstone.com/music/news/metallicas-james-hetfield-playing-music-saves-my-life-20150220" rel="noopener nofollow"&gt;has been open about&lt;/a&gt;, having previously entered rehab for &lt;a href="http://www.nme.com/photos/20-things-you-probably-didn-t-know-about-metallica/122042#/photo/17" rel="noopener nofollow"&gt;“alcohol and other addictions”—another being chocolate.&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;The song was later sampled by &lt;a href="https://genius.com/artists/Kid-rock" rel="noopener" data-api_path="/artists/1566"&gt;Kid Rock&lt;/a&gt; on &lt;a href="https://genius.com/Kid-rock-american-bad-ass-lyrics" rel="noopener" data-api_path="/songs/26092"&gt;“American Badass.”&lt;/a&gt;&lt;/p&gt;', 'producers': [{'name': 'Lars Ulrich', 'url': 'https://genius.com/artists/Lars-ulrich'}, {'name': 'Bob Rock', 'url': 'https://genius.com/artists/Bob-rock'}, {'name': 'James Hetfield', 'url': 'https://genius.com/artists/James-hetfield'}], 'writers': [{'name': 'Lars Ulrich', 'url': 'https://genius.com/artists/Lars-ulrich'}, {'name': 'James Hetfield', 'url': 'https://genius.com/artists/James-hetfield'}], 'labels': [{'name': 'Elektra Records', 'url': 'https://genius.com/artists/Elektra-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/John-mellencamp-pink-houses-lyrics', 'lyrics': '[Verse 1]\nThere\'s a black man with a black cat\nLivin\' in a black neighborhood\nHe\'s got an Interstate runnin\' through his front yard\nYou know he thinks that he\'s got it so good\n\n[Verse 2]\nAnd there\'s a woman in the kitchen\nCleanin\' up the evenin\' slop\nAnd he looks at her and says, "Hey darlin\'\nI can remember when you could stop a clock."\n\n[Chorus]\nOh, but ain\'t that America for you and me?\nAin\'t that America somethin\' to see, baby?\nAin\'t that America home of the free, yeah?\nLittle pink houses for you and me\nOh, yeah, for you and me\nEy!\n\n[Verse 3]\nWell, there\'s a young man in a t-shirt\nListen\' to a rock \'n\' roll station\nHe\'s got greasy hair, greasy smile\nHe says, "Lord, this must be my destination"\n[Verse 4]\nCause they told me when I was younger\nSayin\', "boy, you\'re gonna be president"\nBut just like everything else, those old crazy dreams\nJust kinda came and went\n\n[Chorus]\nOh, but ain\'t that America for you and me?\nAin\'t that America somethin\' to see baby?\nAin\'t that America home of the free, yeah?\nLittle pink houses for you and me\nOh, baby, for you and me\n\n[Verse 5]\nWell, there\'s people and more people\nWhat do they know, know, know\nGo to work in some high rise\nAnd vacation down at the Gulf of Mexico\nOoh, yeah\n\n[Verse 6]\nAnd there\'s winners, and there\'s losers\nBut they ain\'t no big deal\nCause the simple man baby pays the thrills\nThe bills, the pills that kill\n[Chorus]\nOh, but ain\'t that America for you and me?\nAin\'t that America somethin\' to see, baby?\nAin\'t that America, home of the free, yeah?\nLittle pink houses for you and me\nOoh\nOoh yeah\n\n[Chorus]\nAin\'t that America\nFor you and me?\nAin\'t that America\nHey, well somethin\' to see baby?\nAin\'t that America\nOh, well the home of the free\nYeah, yeah, yeah, yeah, yeah, yeah\nLittle pink houses, baby, for you and me\n\n[Outro]\nOoh yeah\nOoh yeah', 'annotations': {'description': '&lt;p&gt;“Pink Houses” was the second single released from the 1983 album &lt;em&gt;Uh-Huh&lt;/em&gt;. It became his fourth of ten career US top 10 hits and Rolling Stone magazine ranked the single #439 on the “The 500 Greatest Songs of All Time” list in 2004.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="http://www.songfacts.com/detail.php?id=647" rel="noopener nofollow"&gt;Mellencamp said his inspiration&lt;/a&gt; for the song came when he saw black man sitting in a lawn chair watching the road, when driving down Interstate 65 in Indianapolis. Despite its use as a pro-America theme, the lyrics are sarcastic with Mellcamp &lt;a href="https://www.songfacts.com/facts/john-mellencamp/pink-houses" rel="noopener nofollow"&gt;calling it&lt;/a&gt; “an anti-American song”. Unlike “Jack &amp;amp; Diane” and “Hurts So Good”, Mellecamp shared that writing “Pink Houses” happened “very quickly”.&lt;/p&gt;\n\n&lt;p&gt;To promote the song, MTV &lt;a href="https://www.songfacts.com/facts/john-mellencamp/pink-houses" rel="noopener nofollow"&gt;ran a contest&lt;/a&gt; where one viewer would win a pink house. When it was discovered that the prize house was located across from a toxic waste dump, Mellencamp refused to let MTV give it away. So the channel had to buy another house and paint it pink. The winner of the contest sold the house two days after moving in. Ain’t that America?!&lt;/p&gt;\n\n&lt;p&gt;Fun fact: Mellencamp &lt;a href="https://ew.com/music/musicians-politicians-music/" rel="noopener nofollow"&gt;refused&lt;/a&gt; to permit President Ronald Reagan to use this song in his 1984 campaign. He did the same with candidate John McCain in 2000.&lt;/p&gt;', 'producers': [{'name': 'Don Gehman', 'url': 'https://genius.com/artists/Don-gehman'}, {'name': 'John Mellencamp', 'url': 'https://genius.com/artists/John-mellencamp'}], 'writers': [{'name': 'John Mellencamp', 'url': 'https://genius.com/artists/John-mellencamp'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Rihanna-dont-stop-the-music-lyrics', 'lyrics': "[Intro: Rihanna]\nPlease don't stop the music (Music, music, music, music)\nPlease don't stop the music (Music, music, music, music)\nPlease don't stop the music (Music, music, music, music)\nPlease don't stop the music (Music, music, music, music)\n\n[Verse 1: Rihanna]\nIt's gettin' late, I'm making my way over to my favorite place\nI gotta get my body moving, shake the stress away\nI wasn't looking for nobody when you looked my way\nPossible candidate, yeah\nWho knew that you'd be up in here lookin' like you do\nYou're making stayin' over here impossible\nBaby, I'ma say your aura is incredible\nIf you don't have to go, don't\n\n[Pre-Chorus: Rihanna]\nDo you know what you started?\nI just came here to party\nBut now we're rockin' on the dance floor, actin' naughty\nYour hands around my waist\nJust let the music play\nWe're hand in hand, chest to chest, and now we're face to face\n\n[Chorus: Rihanna]\nI wanna take you away, let's escape into the music, DJ, let it play\nI just can't refuse it, like the way you do this\nKeep on rockin' to it\nPlease don't stop the, please don't stop the music\nI wanna take you away, let's escape into the music, DJ, let it play\nI just can't refuse it, like the way you do this\nKeep on rockin' to it\nPlease don't stop the, please don't stop the, please don't stop the music\n[Verse 2: Rihanna]\nBaby, are you ready? ’Cause it's getting close\nDon't you feel the passion ready to explode?\nWhat goes on between us, no one has to know\nThis is a private show, oh\n\n[Pre-Chorus: Rihanna]\nDo you know what you started?\nI just came here to party\nBut now we're rockin' on the dance floor, actin' naughty\nYour hands around my waist\nJust let the music play\nWe're hand in hand, chest to chest, and now we're face to face\n\n[Chorus: Rihanna]\nI wanna take you away, let's escape into the music, DJ, let it play\nI just can't refuse it, like the way you do this\nKeep on rockin' to it\nPlease don't stop the, please don't stop the music\nI wanna take you away, let's escape into the music, DJ, let it play\nI just can't refuse it, like the way you do this\nKeep on rockin' to it\nPlease don't stop the, please don't stop the, please don't stop the music\n\n[Bridge: Michael Jackson &amp; Rihanna]\nMama-say, mama-sa, ma-ma-ko-ssa\nMama-say, mama-sa, ma-ma-ko-ssa\nMama-say, mama-sa, ma-ma-ko-ssa\nMama-say, mama-sa, ma-ma-ko-ssa\nPlease don't stop the music\nMama-say, mama-sa, ma-ma-ko-ssa\nMama-say, mama-sa, ma-ma-ko-ssa\nMama-say, mama-sa, ma-ma-ko-ssa\nMama-say, mama-sa, ma-ma-ko-ssa\nPlease don't stop the music (Music, music, music, music)\nPlease don't stop the music (Music, music, music, music)\n[Chorus: Rihanna]\nI wanna take you away, let's escape into the music, DJ, let it play\nI just can't refuse it, like the way you do this\nKeep on rockin' to it\nPlease don't stop the, please don't stop the music\nI wanna take you away, let's escape into the music, DJ, let it play\nI just can't refuse it, like the way you do this\nKeep on rockin' to it\nPlease don't stop the, please don't stop the, please don't stop the music\n\n[Bridge: Michael Jackson &amp; Rihanna]\nMama-say, mama-sa, ma-ma-ko-ssa\nMama-say, mama-sa, ma-ma-ko-ssa\nMama-say, mama-sa, ma-ma-ko-ssa\nMama-say, mama-sa, ma-ma-ko-ssa\nPlease don't stop the music\nMama-say, mama-sa, ma-ma-ko-ssa\nMama-say, mama-sa, ma-ma-ko-ssa\nMama-say, mama-sa, ma-ma-ko-ssa\nMama-say, mama-sa, ma-ma-ko-ssa\nPlease don't stop the music\n\n[Outro: Michael Jackson &amp; Rihanna]\nMama-say, mama-sa, ma-ma-ko-ssa\nMama-say, mama-sa, ma-ma-ko-ssa\nMama-say, mama-sa, ma-ma-ko-ssa\nMama-say, mama-sa, ma-ma-ko-ssa\nPlease don't stop the music (Music, music, music, music)", 'annotations': {'description': '&lt;p&gt;“Don’t Stop the Music” is an energetic dance-pop track about leaving the stress of life and dancing to the music. It was the fourth single off &lt;em&gt;Good Girl Gone Bad&lt;/em&gt; and was promoted by two dance remixes, released on August 7, 2007.&lt;/p&gt;\n\n&lt;p&gt;The single peaked at &lt;a href="https://www.billboard.com/artist/365068/rihanna/chart" rel="noopener nofollow"&gt;number three&lt;/a&gt; on the US &lt;em&gt;Billboard&lt;/em&gt; Hot 100 and &lt;a href="https://www.riaa.com/gold-platinum/?tab_active=default-award&amp;amp;ar=Rihanna&amp;amp;ti=Don%27t+Stop+the+Music#search_section" rel="noopener nofollow"&gt;sold over four million copies&lt;/a&gt; in the US.&lt;/p&gt;', 'producers': [{'name': 'StarGate', 'url': 'https://genius.com/artists/Stargate'}], 'writers': [{'name': 'Mikkel Storleer Eriksen', 'url': 'https://genius.com/artists/Mikkel-storleer-eriksen'}, {'name': 'Frankie Storm', 'url': 'https://genius.com/artists/Frankie-storm'}, {'name': 'Michael Jackson', 'url': 'https://genius.com/artists/Michael-jackson'}, {'name': 'Tor Erik Hermansen', 'url': 'https://genius.com/artists/Tor-erik-hermansen'}], 'labels': [{'name': 'Def Jam Recordings', 'url': 'https://genius.com/artists/Def-jam-recordings'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Silverchair-anthem-for-the-year-2000-lyrics', 'lyrics': "[Intro]\n[*Radio chatter*]\n\n[Verse 1]\nWe are the youth, we'll take your fascism away\nWe are the youth, apologize for another day\nWe are the youth and politicians are so sure\nWe are the youth and we are knocking on deaths door\n\n[Pre-Chorus]\nNever knew we were living in a world with a mind that could be so sure\nNever knew we were living in a world with a mind that could be so small\nNever knew we were living in a world and the world is an open core\nMaybe we don't want to live in a world where our innocence is so short\n\n[Chorus]\nWe'll make it up to you in the year 2000 with\n\n[Pre-Chorus]\nNever knew we were living in a world with a mind that could be so sure\nNever knew we were living in a world with a mind that could be so small\nNever knew we were living in a world and the world is an open core\nMaybe we don't want to live in a world where our innocence is so short\n\n[Chorus]\nWe'll make it up for you in the year 2000\nBuild it up with you in the year 2000\nMake it up to you in the year 2000\nBuild it up for you in the year 2000 with you\n[Pre-Chorus]\nNever knew we were living in a world with a world that could be so sure\nNever knew we were living in a world with a mind that could be so small\nNever knew we were living in a world and the world is an open core\nMaybe we don't want to live in a world where no one even cares at all\n\n[Chorus]\nWe'll make it up to you in the year 2000\nBuild it up for you in the year 2000\nMake it hard for you in the year 2000\nBuild it up for you in the year 2000\nMake it hard for you in the year 2000\nBuilt it up for you in the year 2000 with you", 'annotations': {'description': '&lt;p&gt;Released as the first &lt;a href="https://genius.com/albums/Silverchair/Anthem-for-the-year-2000" rel="noopener" data-api_path="/albums/597410"&gt;single&lt;/a&gt; for &lt;em&gt;Neon Ballroom&lt;/em&gt; in February 1999.&lt;/p&gt;\n\n&lt;p&gt;A song that Daniel Johns wrote as not only an Anthem for the upcoming year, (2000, this was written in 98\') but for youth rebelling against the government; people who are more important than them because they wear suits and think their better than everyone else because they have power over society. Its about youth taking control over society’s rules put against them.&lt;/p&gt;\n\n&lt;p&gt;The song came as inspiration for Johns as wanting to write a rock, stadium, anthem, type song.&lt;/p&gt;\n\n&lt;p&gt;The song charted in a few countries, most notably in Australia at No. 3. on the ARIA charts, as well as going platinum there.&lt;/p&gt;', 'producers': [{'name': 'Nick Launay', 'url': 'https://genius.com/artists/Nick-launay'}], 'writers': [{'name': 'Daniel Johns', 'url': 'https://genius.com/artists/Daniel-johns'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Us3-cantaloop-flip-fantasia-lyrics', 'lyrics': "[Intro]\nLadies and gentlemen, as you know we have something special down here at Birdland this evening\nA recording for Blue Note Records\n\nWhat's that? Yeah...yeah...yeah\nFunky, funky\nHow 'bout a big hand now\nWait, wait a minute\n\n[Verse 1]\nGroovy groovy jazzy funky pounce bounce dance as we\nDip in the melodic sea, the rhythm keeps flowin', and drips to MC\nSweet sugar pop sugar pop rocks it pop\nYa dont stop 'til the sweet beat drops\nI show and prove as I stick and move\nVivid poems recited on top of the groove\nSmooth, my, floating like a butterfly\nNotes set afloat, sung like a lullaby\nBrace yourself as the beat hits ya\nDip trip, flip fantasia\n\n(Yeah...yeah...yeah...What's that?)\nItty bitty bop (Yeah)\nItty bitty bop (Funky, funky)\n\n[Verse 2]\nFeel the beat drop, jazz and hip hop\nDrippin' in your dome, makes you zone and bop\nFunk and fusion, a fly illusion\nKeeps ya coastin' on the rhythm you're cruisin'\nUp down, round and round, rhymes profound\nBut nevertheless ya gots to get down\nFantasy freak thru the beat so unique\nYa move your feet, the sweat from the heat\nBack to the fact I'm the mack and I know that\nThe way I kick the rhymes, some would call me a poet\nPoems steady flowin', growin', showin' sights and sound\nCaught in the groove in Fantasia I'm found\nMany trip the tour upon the rhymes they soar\nTo an infinite height to the realm of the hardcore\nHere we go off I take ya\nDip trip, flip fantasia\n(Yeah...yeah...yeah...What's that?)\nItty bitty bop (Yeah)\nItty bitty bop (Funky, funky)\n\n(Yeah...yeah...yeah...What's that?)\n(Yeah...yeah...yeah...Funky, funky)\n\n[Verse 3]\nJump to the jam, boogie woogie jam slam\nBust the dialect, I'm the man in command\nCome flow with the sounds of the mighty mic master\nRhyming on the mic, I'm bringing suckas their disaster\nBeaucoup ducs but I still rock Nike\nWith the razzle dazzle, star I might be\nScribble drabble scrabble on the microphone I babble\nAs I flip the funky words, into a puzzle\nYes yes yes, on and on as I flex\nGet with the flow, words manifest\nFeel the vibe from here to Asia\nDip trip, flip fantasia\nOut\n\n[Outro]\nYa don't stop\nC'mon, c'mon, c'mon, c'mon\nC'mon, c'mon, c'mon\nGimme more\nOf that funky horn", 'annotations': {'description': '&lt;p&gt;Us3’s extensive use of samples from the Blue Note Records catalog got the attention of Blue Note who surprised them with an offer for a record deal. (Richard Cook, Blue Note Records: The Biography, p226)&lt;/p&gt;\n\n&lt;p&gt;Main sample is from &lt;a href="https://genius.com/artists/Herbie-hancock" rel="noopener" data-api_path="/artists/6238"&gt;Herbie Hancock&lt;/a&gt;’s &lt;a href="http://www.whosampled.com/sample/172/Us3-Cantaloop-%28Flip-Fantasia%29-Herbie-Hancock-Cantaloupe-Island/" rel="noopener nofollow"&gt;“Cantaloupe Island”&lt;/a&gt; (Blue Note, 1964)&lt;/p&gt;\n\n&lt;p&gt;A great version of Canteloupe Island by Herbie Hancock is the opening spot on the famous “A Night with Blue Note” concert in 1985.&lt;/p&gt;\n\n&lt;p&gt;&lt;/p&gt;&lt;div class="embedly_preview embedly_preview--video"&gt;\n&lt;iframe type="text/html" width="640" height="390" frameborder="0" allowfullscreen="1" src="https://www.youtube.com/embed/SgBs5IFP1v8?modestbranding=1&amp;amp;start=0&amp;amp;showinfo=0&amp;amp;enablejsapi=1&amp;amp;origin=genius.com"&gt;&lt;/iframe&gt;\n&lt;/div&gt;', 'producers': [{'name': 'Geoff Wilkinson', 'url': 'https://genius.com/artists/Geoff-wilkinson'}, {'name': 'Mel Simpson', 'url': 'https://genius.com/artists/Mel-simpson'}], 'writers': [{'name': 'Geoff Wilkinson', 'url': 'https://genius.com/artists/Geoff-wilkinson'}, {'name': 'Mel Simpson', 'url': 'https://genius.com/artists/Mel-simpson'}, {'name': 'Rahsaan Kelly', 'url': 'https://genius.com/artists/Rahsaan-kelly'}, {'name': 'Herbie Hancock', 'url': 'https://genius.com/artists/Herbie-hancock'}], 'labels': [{'name': 'Capitol Records', 'url': 'https://genius.com/artists/Capitol-records'}, {'name': 'Blue Note Records', 'url': 'https://genius.com/artists/Blue-note-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Lady-gaga-born-this-way-lyrics', 'lyrics': '[Intro]\nIt doesn\'t matter if you love him, or capital "H-I-M" (M, M, M)\nJust put your paws up\n\'Cause you were born this way, baby\n\n[Verse 1]\nMy mama told me when I was young\n"We are all born superstars"\nShe rolled my hair and put my lipstick on\nIn the glass of her boudoir\n"There\'s nothing wrong with loving who you are"\nShe said, "\'Cause He made you perfect, babe"\n"So hold your head up, girl, and you\'ll go far\nListen to me when I say"\n\n[Chorus]\nI\'m beautiful in my way\n\'Cause God makes no mistakes\nI\'m on the right track, baby\nI was born this way\nDon\'t hide yourself in regret\nJust love yourself, and you\'re set\nI\'m on the right track, baby\nI was born this way (Born this way)\n\n[Post-Chorus]\nOoh, there ain\'t no other way\nBaby, I was born this way\nBaby, I was born this way (Born this way)\nOoh, there ain\'t no other way\nBaby, I was born this way\nRight track, baby\nI was born this way\n[Interlude]\nDon\'t be a drag, just be a queen\nDon\'t be a drag, just be a queen\nDon\'t be a drag, just be a queen\nDon\'t be (Don\'t be, don\'t be)\n\n[Verse 2]\nGive yourself prudence and love your friends\nSubway kid, rejoice your truth\nIn the religion of the insecure\nI must be myself, respect my youth\nA different lover is not a sin\nBelieve capital H-I-M, hey, hey, hey\nI love my life, I love this record and\nMi amore vole fe yah (Same DNA)\n\n[Chorus]\nI\'m beautiful in my way\n\'Cause God makes no mistakes\nI\'m on the right track, baby\nI was born this way\nDon\'t hide yourself in regret\nJust love yourself, and you\'re set\nI\'m on the right track, baby\nI was born this way (Born this way)\n[Post-Chorus]\nOoh, there ain\'t no other way\nBaby, I was born this way\nBaby, I was born this way (Born this way)\nOoh, there ain\'t no other way\nBaby, I was born this way\nRight track, baby\nI was born this way\n\n[Interlude]\n(Way) Don\'t be, don\'t be...\n(Way) Church\n\n[Breakdown]\nDon\'t be a drag, just be a queen\nWhether you\'re broke or evergreen\nYou\'re Black, white, beige, cholo descent\nYou\'re Lebanese, you\'re Orient\nWhether life\'s disabilities\nLeft you outcast, bullied, or teased\nRejoice and love yourself today\n\'Cause baby, you were born this way\n\n[Bridge]\nNo matter gay, straight, or bi\nLesbian, transgender life\nI\'m on the right track, baby\nI was born to survive\nNo matter Black, white, or beige\nChola or Orient made\nI\'m on the right track, baby\nI was born to be brave!\n[Chorus]\nI\'m beautiful in my way\n\'Cause God makes no mistakes\nI\'m on the right track, baby\nI was born this way\nDon\'t hide yourself in regret\nJust love yourself, and you\'re set\nI\'m on the right track, baby\nI was born this way, yeah\n\n[Post-Chorus]\nOoh, there ain\'t no other way\nBaby, I was born this way\nBaby, I was born this way (Born this way)\nOoh, there ain\'t no other way\nBaby, I was born this way\nI\'m on the right track, baby\nI was born this way\n\n[Outro]\nI was born this way, hey\nI was born this way, hey\nI\'m on the right track, baby\nI was born this way, hey\nI was born this way, hey\nI was born this way, hey\nI\'m on the right track, baby\nI was born this way, hey\nSame DNA, but born this way (Hey, hey, hey)\nSame DNA, but born this way (Hey, hey, hey)', 'annotations': {'description': '&lt;p&gt;“Born This Way” is about self-liberation, and loving every part of yourself, no matter your race, gender, or sexuality; the song was released as the lead single from the album &lt;a href="https://genius.com/albums/Lady-gaga/Born-this-way" rel="noopener" data-api_path="/albums/17374"&gt;of the same name&lt;/a&gt; in February 2011.&lt;/p&gt;\n\n&lt;p&gt;In it, &lt;a href="https://genius.com/artists/Lady-gaga" rel="noopener" data-api_path="/artists/447"&gt;Lady Gaga&lt;/a&gt; emphasizes that loving a human or a religious entity can both equally be considered expressions of worship, as many religious people claim the importance of loving humans to be an essential part of their religion. With her lyrics, GaGa addresses the persistent prejudice against many types of love, e.g. non-heterosexual love that is still wide-spread among many religious communities and societies. GaGa criticizes any stance based on religious prejudice: to her, worshipping God equals loving all “His” creatures just the way they are.&lt;/p&gt;\n\n&lt;p&gt;The entire song is about internalizing this accepting point of view, learning who you are and loving that person.&lt;/p&gt;\n\n&lt;p&gt;The song was a huge success upon release, charting atop the Billboard Hot 100 for 6 straight weeks (as the 1000th No. 1 song).&lt;/p&gt;\n\n&lt;p&gt;Gaga’s anthem resembles &lt;a href="https://genius.com/artists/Madonna" rel="noopener" data-api_path="/artists/276"&gt;Madonna&lt;/a&gt;’s 1989 hit &lt;a href="https://genius.com/Madonna-express-yourself-lyrics" rel="noopener" data-api_path="/songs/212695"&gt;“Express Yourself,”&lt;/a&gt; which was an (uncredited) homage to &lt;a href="https://genius.com/artists/The-staple-singers" rel="noopener" data-api_path="/artists/36507"&gt;The Staple Singers&lt;/a&gt;‘ 1971 smash &lt;a href="https://genius.com/The-staple-singers-respect-yourself-lyrics" rel="noopener" data-api_path="/songs/449547"&gt;“Respect Yourself.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;This song, as &lt;a href="http://www.rollingstone.com/music/songreviews/born-this-way-20110211" rel="noopener nofollow"&gt;&lt;em&gt;Rolling Stone&lt;/em&gt; points out&lt;/a&gt;, also bears similarities to &lt;a href="https://genius.com/artists/Patrick-hernandez" rel="noopener" data-api_path="/artists/385019"&gt;Patrick Hernandez&lt;/a&gt;’s 1978 disco tune &lt;a href="https://genius.com/patrick-hernandez-born-to-be-alive-lyrics" rel="noopener" data-api_path="/songs/1305132"&gt;“Born to Be Alive.”&lt;/a&gt;&lt;/p&gt;', 'producers': [{'name': 'Lady Gaga', 'url': 'https://genius.com/artists/Lady-gaga'}, {'name': 'Jeppe Laursen', 'url': 'https://genius.com/artists/Jeppe-laursen'}, {'name': 'DJ White Shadow', 'url': 'https://genius.com/artists/Dj-white-shadow'}, {'name': 'Fernando Garibay', 'url': 'https://genius.com/artists/Fernando-garibay'}], 'writers': [{'name': 'Lady Gaga', 'url': 'https://genius.com/artists/Lady-gaga'}, {'name': 'Jeppe Laursen', 'url': 'https://genius.com/artists/Jeppe-laursen'}], 'labels': [{'name': 'Interscope Records', 'url': 'https://genius.com/artists/Interscope-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Green-day-she-lyrics', 'lyrics': "[Verse 1]\nShe, she screams in silence\nA sullen riot penetrating through her mind\nWaiting for a sign\nTo smash the silence with the brick of self-control\n\n[Chorus]\nAre you locked up in a world that's been planned out for you?\nAre you feeling like a social tool without a use?\nScream at me until my ears bleed\nI'm taking heed just for you\n\n[Verse 2]\nShe, she's figured out\nAll her doubts were someone else's point of view\nWaking up this time\nTo smash the silence with the brick of self-control\n\n[Chorus]\nAre you locked up in a world that's been planned out for you?\nAre you feeling like a social tool without a use?\nScream at me until my ears bleed\nI'm taking heed just for you\n\n[Instrumental Bridge]\n[Chorus]\nAre you locked up in a world that's been planned out for you?\nAre you feeling like a social tool without a use?\nScream at me until my ears bleed\nI'm taking heed just for you", 'annotations': {'description': '&lt;p&gt;The fifth and final single from &lt;em&gt;Dookie&lt;/em&gt;. “She” was written by &lt;a href="https://genius.com/artists/Billie-joe-armstrong" rel="noopener" data-api_path="/artists/55027"&gt;Billie Joe&lt;/a&gt; after one of his then girlfriends showed him a feminist poem of the same title. &lt;a href="https://en.wikipedia.org/wiki/She_%28Green_Day_song%29" rel="noopener nofollow"&gt;He told &lt;em&gt;VH1&lt;/em&gt;&lt;/a&gt; that after showing her the song, she dumped him and moved to Ecuador, prompting him to put “She” on the album.&lt;/p&gt;\n\n&lt;p&gt;This is one of Billie’s favorite songs, and one he makes sure is included in every Green Day show. he told &lt;a href="http://www.songfacts.com/detail.php?id=4438" rel="noopener nofollow"&gt;&lt;em&gt;Rolling Stone&lt;/em&gt; in 2014&lt;/a&gt;.&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;I will play ‘She’ for the rest of my life. It has aged well with me.&lt;/p&gt;&lt;/blockquote&gt;', 'producers': [{'name': 'Rob Cavallo', 'url': 'https://genius.com/artists/Rob-cavallo'}, {'name': 'Billie Joe Armstrong', 'url': 'https://genius.com/artists/Billie-joe-armstrong'}, {'name': 'Mike Dirnt', 'url': 'https://genius.com/artists/Mike-dirnt'}, {'name': 'Tré Cool', 'url': 'https://genius.com/artists/Tre-cool'}], 'writers': [{'name': 'Billie Joe Armstrong', 'url': 'https://genius.com/artists/Billie-joe-armstrong'}, {'name': 'Mike Dirnt', 'url': 'https://genius.com/artists/Mike-dirnt'}, {'name': 'Tré Cool', 'url': 'https://genius.com/artists/Tre-cool'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Calvin-harris-summer-lyrics', 'lyrics': "[Verse]\nWhen I met you in the summer\nTo my heartbeat's sound\nWe fell in love\nAs the leaves turned brown\nAnd we could be together, baby\nAs long as skies are blue\nYou act so innocent now\nBut you lied so soon\nWhen I met you in the summer\n[Instrumental Chorus]\n\n[Verse]\nWhen I met you in the summer (Summer)\nTo my heartbeat's sound (Yeah, yeah)\nWe fell in love (Love)\nAs the leaves turned brown (Yeah, yeah)\nAnd we could be together, baby\nAs long as skies are blue (Yeah, yeah)\nYou act so innocent now\nBut you lied so soon (Yeah, yeah)\nWhen I met you in the summer\nSummer\n\n[Instrumental Chorus]\n[Bridge]\nWhen I met you in the summer (Summer)\n(Yeah, yeah)\n(Love)\n(Yeah, yeah)\nSummer (Summer)\n(Yeah, yeah)\n(Love)\n(Yeah, yeah)\n\n[Instrumental Chorus]", 'annotations': {'description': "&lt;p&gt;“Summer” was the lead single from Calvin Harris' 2014 album &lt;em&gt;Motion&lt;/em&gt;.&lt;/p&gt;", 'producers': [{'name': 'Calvin Harris', 'url': 'https://genius.com/artists/Calvin-harris'}], 'writers': [{'name': 'Calvin Harris', 'url': 'https://genius.com/artists/Calvin-harris'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/The-police-every-little-thing-she-does-is-magic-lyrics', 'lyrics': "[Verse 1]\nThough I've tried before to tell her\nOf the feelings I have for her in my heart\nEvery time that I come near her\nI just lose my nerve as I've done from the start\n\n[Chorus]\nEvery little thing she does is magic\nEverything she does just turns me on\nEven though my life before was tragic\nNow I know my love for her goes on\n\n[Verse 2]\nDo I have to tell the story\nOf a thousand rainy days since we first met\nIt's a big enough umbrella\nBut it's always me that ends up getting wet\n\n[Chorus]\nEvery little thing she does is magic\nEverything she does just turns me on\nEven though my life before was tragic\nNow I know my love for her goes on\n\n[Bridge]\nI resolved to call her up\nA thousand times a day\nAnd ask her if she'll marry me\nIn some old fashioned way\nBut my silent fears have gripped me\nLong before I reach the phone\nLong before my tongue has tripped me\nMust I always be alone?\n[Chorus]\nEvery little thing she does is magic\nEverything she does just turns me on\nEven though my life before was tragic\nNow I know my love for her goes on\n\n[Chorus]\nEvery little thing she does is magic\nEverything she does just turns me on\nEven though my life before was tragic\nNow I know my love for her goes on\n\n[Refrain]\nEvery little thing, every little thing\nEvery, every little thing\nEvery little, every little, every little\nEvery little thing she does\nEvery little thing she does\nEvery little thing she does\nEvery little thing she does\nThat she does is magic\nEee oh oh, eee oh oh\nEee oh oh, eee oh oh\nEee oh oh, eee oh oh\nEee oh oh, eee oh oh\nEee oh oh, eee oh oh\nEee oh oh, eee oh oh\nEee oh oh, eee oh oh\nEee oh oh, eee oh oh\nEvery little thing\nEvery little thing\nEvery little thing\nShe does is magic, magic, magic\nMagic, magic, magic\nEy oh, yo oh\nEee oh oh oh oh oh\n[Verse 2 / Outro]\nDo I have to tell the story\nOf a thousand rainy days since we first met\nIt's a big enough umbrella\nBut it's always me\nThat ends up getting wet", 'annotations': {'description': '&lt;p&gt;Sting was performing “Every Little Thing She Does Is Magic” &lt;a href="https://danielrachel.com/sting/" rel="noopener nofollow"&gt;as early as 1975&lt;/a&gt; and it was &lt;a href="https://www.thepolice.com/strontium-90/" rel="noopener nofollow"&gt;recorded in 1976&lt;/a&gt; when Sting, Summers and Copeland were members of the short-lived band Strontium 90 featuring vocalist Mike Howlett.&lt;/p&gt;\n\n&lt;p&gt;In 1981, Sting re-worked the song with pianist/composer Jean Roussel, much to &lt;a href="https://www.sting.com/news/title/revolver" rel="noopener nofollow"&gt;Summers and Copeland’s dissatisfaction&lt;/a&gt; – who then tried to ‘undo all of Sting’s arrangement’ and give it more of a ‘Police sound’. However, after their several failed attempts, in frustration, Copeland, in an effort to prove the song was ‘crummy’, played over Sting’s original demo. Summers\' guitar was added and this became the officially-released recording.&lt;/p&gt;\n\n&lt;p&gt;The song topped the pop charts in &lt;a href="http://www.officialcharts.com/artist/17182/police/" rel="noopener nofollow"&gt;the UK&lt;/a&gt;, Canada &amp;amp; The Netherlands. It also reached the top 5 in Norway, Australia and &lt;a href="https://www.billboard.com/music/the-police/chart-history/hot-100/song/329762" rel="noopener nofollow"&gt;the US&lt;/a&gt;. It was kept from the top spot in the US by the biggest song of the decade “Physical” and the longest-running #2 song of the decade “Waiting For A Girl Like You”.&lt;/p&gt;\n\n&lt;p&gt;In a music review, &lt;em&gt;Record Mirror&lt;/em&gt; &lt;a href="https://www.thepolice.com/ghost-in-the-machine" rel="noopener nofollow"&gt;expressed that the song&lt;/a&gt; was a ‘welcome break’ between the headiness of the rest of the album, calling it ‘a romantic song deft and tender, which starts quietly enough before breaking into mardi gras.’&lt;/p&gt;\n\n&lt;p&gt;“Every Little Thing She Does Is Magic” has been covered several times by artists including Shawn Colvin, Petula Clark and Ra – and was interpolated into the Black Eyed Peas song &lt;a href="https://genius.com/The-black-eyed-peas-magic-lyrics" rel="noopener" data-api_path="/songs/10729"&gt;“Magic”&lt;/a&gt;.&lt;/p&gt;', 'producers': [{'name': 'The Police', 'url': 'https://genius.com/artists/The-police'}, {'name': 'Hugh Padgham', 'url': 'https://genius.com/artists/Hugh-padgham'}], 'writers': [{'name': 'Sting', 'url': 'https://genius.com/artists/Sting'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Bob-airplanes-lyrics', 'lyrics': "[Intro: Hayley Williams]\nCan we pretend that airplanes\nIn the night sky are like shooting stars?\nI could really use a wish right now\nWish right now, wish right now\nCan we pretend that airplanes\nIn the night sky are like shooting stars?\nI could really use a wish right now\nWish right now, wish right now\n\n[Verse 1: B.o.B]\nYeah, I could use a dream or a genie or a wish\nTo go back to a place much simpler than this\n'Cause after all the partyin' and smashin' and crashin'\nAnd all the glitz and the glam and the fashion\nAnd all the pandemonium and all the madness\nThere comes a time where you fade to the blackness\nAnd when you starin' at that phone in your lap\nAnd you hopin' but them people never call you back\nBut that's just how the story unfolds\nYou get another hand soon after you fold\nAnd when your plans unravel in the sand\nWhat would you wish for if you had one chance?\nSo airplane, airplane, sorry I'm late\nI'm on my way, so don't close that gate\nIf I don't make that, then I'll switch my flight\nAnd I'll be right back at it by the end of the night\n[Chorus: Hayley Williams, B.o.B, Both]\nCan we pretend that airplanes\nIn the night sky are like shooting stars? (shooting stars)\nI could really use a wish right now\nWish right now, wish right now\nCan we pretend that airplanes\nIn the night sky are like shooting stars? (shooting stars)\nI could really use a wish right now\nWish right now, wish right now\n\n[Verse 2: B.o.B]\nYeah, yeah, somebody take me back to the days\nBefore this was a job, before I got paid\nBefore it ever mattered what I had in my bank\nYeah, back when I was tryna get a tip at Subway\nAnd back when I was rappin' for the hell of it\nBut nowadays we rappin' to stay relevant\nI'm guessin' that if we can make some wishes out of airplanes\nThen maybe, oh maybe, I'll go back to the days\nBefore the politics that we call the rap game\nAnd back when ain't nobody listened to my mixtape\nAnd back before I tried to cover up my slang\nBut this is for Decatur—what's up, Bobby Ray?\nSo can I get a wish to end the politics?\nAnd get back to the music that started this shit?\nSo here I stand and then again I say\nI'm hopin' we can make some wishes out of airplanes\n[Chorus: Hayley Williams, B.o.B, Both]\nCan we pretend that airplanes\nIn the night sky are like shooting stars? (shooting stars)\nI could really use a wish right now\nWish right now, wish right now\nCan we pretend that airplanes\nIn the night sky are like shooting stars? (shooting stars)\nI could really use a wish right now\nWish right now, wish right now\n\n[Outro: B.o.B, Hayley Williams]\nI could really use a wish right now (Woah-oh-oh-oh)\nI, I, I could really use a wish right now (Mmm-mm-mm-mm)\nLike, like, like shooting stars (Ahh-ah-ah-ah)\nI, I, I could really use a wish right now (Ah-ah-ah-ah)\nA wish, a wish right now", 'annotations': {'description': '&lt;p&gt;“Airplanes” sees B.o.B. reminiscing about the simple, everyday life he led prior to catching the glitz and glamour of being a new-famed rapper on this catchy single from his debut album, &lt;a href="https://genius.com/albums/Bob/B-o-b-presents-the-adventures-of-bobby-ray" rel="noopener" data-api_path="/albums/1010"&gt;&lt;em&gt;The Adventures of Bobby Ray&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The chorus features &lt;a href="https://genius.com/artists/Hayley-williams" rel="noopener" data-api_path="/artists/298"&gt;Hayley Williams&lt;/a&gt;, lead vocalist of the band &lt;a href="https://genius.com/artists/Paramore" rel="noopener" data-api_path="/artists/22531"&gt;Paramore&lt;/a&gt;.&lt;/p&gt;', 'producers': [{'name': 'Alex da Kid', 'url': 'https://genius.com/artists/Alex-da-kid'}], 'writers': [{'name': 'Alex da Kid', 'url': 'https://genius.com/artists/Alex-da-kid'}, {'name': 'One Love', 'url': 'https://genius.com/artists/One-love'}, {'name': 'Kinetics', 'url': 'https://genius.com/artists/Kinetics'}, {'name': 'DJ Frank E', 'url': 'https://genius.com/artists/Dj-frank-e'}, {'name': 'B.o.B', 'url': 'https://genius.com/artists/Bob'}], 'labels': [{'name': 'Atlantic Records', 'url': 'https://genius.com/artists/Atlantic-records'}, {'name': 'Grand Hustle Records', 'url': 'https://genius.com/artists/Grand-hustle-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Kongos-come-with-me-now-lyrics', 'lyrics': "[Intro]\nCome with me now\nCome with me now\nWhoa, come with me now\nI'm gonna take you down\nWhoa, come with me now\nI'm gonna show you how\nWhoa, come with me now\nI'm gonna take you down\nWhoa, come with me now\nI'm gonna show you how\n\n[Verse 1]\nAfraid to lose control\nAnd caught up in this world\nI've wasted time, I've wasted breath\nI think I've thought myself to death\nI was born without this fear\nNow only this seems clear\nI need to move, I need to fight\nI need to lose myself tonight\n\n[Chorus]\nWhoa, come with me now\nI'm gonna take you down\nWhoa, come with me now\nI'm gonna show you how\n[Verse 2]\nI think with my heart and I move with my head\nI open my mouth and it's something I've read\nI stood at this door before, I'm told\nBut a part of me knows that I'm growing too old\nConfused what I thought with something I felt\nConfuse what I feel with something that's real\nI tried to sell my soul last night\nFunny, he wouldn't even take a bite\n\n[Pre-Chorus]\nFar away\nI heard him say (Come with me now)\nDon't delay\nI heard him say (Come with me now)\nFar away\nI heard him say (Come with me now)\nDon't delay\nI heard him say (Come with me now)\n\n[Chorus]\nWhoa, come with me now\nI'm gonna take you down\nWhoa, come with me now\nI'm gonna show you how\n[Guitar Solo]\n\n[Verse 3]\nAfraid to lose control\nAnd caught up in this world\nI've wasted time, I've wasted breath\nI think I've thought myself to death\nI was born without this fear\nNow only this seems clear\nI need to move, I need to fight\nI need to lose myself tonight\n\n[Outro]\nWhoa, come with me now\nWhoa, come with me now\nI'm gonna take you down\nWhoa, come with me now", 'annotations': {'description': '&lt;p&gt;“Come With Me Now” is the first main single from &lt;em&gt;Lunatic&lt;/em&gt; Its by the four sons of South-African artist &lt;a href="https://genius.com/Lollapalooza-lineup-2014-lyrics" rel="noopener" data-api_path="/songs/387906"&gt;Lineup 2014&lt;/a&gt;. It’s about seizing the day by losing control.&lt;/p&gt;\n\n&lt;p&gt;Even though it was released in 2011, it became popular &lt;a href="http://www.billboard.com/articles/columns/pop-shop/5937501/kongos-scores-fastest-top-10-alternative-debut-single-since-lordes" rel="noopener nofollow"&gt;after finding ad spots with “The Originals” and NBC Sports&lt;/a&gt;. It recieved renewed attention in 2016, when it was featured in &lt;a href="https://youtu.be/kLtpcxtk4HI" rel="noopener nofollow"&gt;Amazon Prime’s advertising campain for their show “The Grand Tour”&lt;/a&gt;.&lt;/p&gt;', 'producers': [{'name': 'KONGOS', 'url': 'https://genius.com/artists/Kongos'}], 'writers': [{'name': 'Johnny Kongos', 'url': 'https://genius.com/artists/Johnny-kongos'}], 'labels': []}}</t>
   </si>
   <si>
     <t>{'url': 'https://genius.com/Britney-spears-you-drive-me-crazy-lyrics', 'lyrics': "[Verse 1]\nBaby, I'm so into you\nYou got that something, what can I do?\nBaby, you spin me around, oh\nThe earth is moving, but I can't feel the ground\nEvery time you look at me\nMy heart is jumping, it's easy to see\nLoving you means so much more\nMore than anything I ever felt before\n\n[Chorus]\nYou drive me crazy, I just can't sleep\nI'm so excited, I'm in too deep\nOh, crazy, but it feels alright\nBaby, thinking of you keeps me up all night\nOh\n\n[Verse 2]\nTell me you're so into me\nThat I'm the only one you will see\nTell me I'm not in the blue, oh\nThat I'm not wasting my feelings on you\nLoving you means so much more\nMore than anything I ever felt before\n\n[Chorus]\nYou drive me crazy, I just can't sleep\nI'm so excited, I'm in too deep\nOh, crazy, but it feels alright\nBaby, thinking of you keeps me up all night\n[Bridge]\nCrazy, I just can't sleep\nI'm so excited, I'm in too deep\nCrazy, but it feels alright\nEvery day and every night\n\n[Chorus]\nYou drive me crazy (You drive me crazy, baby)\nI'm so excited, I'm in too deep\nOh, crazy (You make me feel alright)\nBaby, thinking of you keeps me up (Oh) all night\n\n[Outro]\nYou drive me crazy (You drive me crazy, baby)\nYeah\nOh, crazy, but it feels alright\nBaby, thinking of you keeps me up all night\nBaby, thinking of you keeps me up all night", 'annotations': {'description': '&lt;p&gt;“(You Drive Me) Crazy” is a song recorded by American singer &lt;a href="https://genius.com/artists/Britney-spears" rel="noopener" data-api_path="/artists/1052"&gt;Britney Spears&lt;/a&gt; for her debut studio album, &lt;em&gt;&lt;a href="https://genius.com/albums/Britney-spears/Baby-one-more-time" rel="noopener" data-api_path="/albums/40205"&gt;…Baby One More Time&lt;/a&gt;&lt;/em&gt; (1999).&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://genius.com/Britney-spears-you-drive-me-crazy-the-stop-remix-lyrics" rel="noopener" data-api_path="/songs/459924"&gt;“The Stop”&lt;/a&gt; remix of this song was released as the album’s third single.&lt;/p&gt;', 'producers': [{'name': 'Per Magnusson', 'url': 'https://genius.com/artists/Per-magnusson'}, {'name': 'Rami', 'url': 'https://genius.com/artists/Rami'}, {'name': 'Max Martin', 'url': 'https://genius.com/artists/Max-martin'}], 'writers': [{'name': 'Max Martin', 'url': 'https://genius.com/artists/Max-martin'}, {'name': 'David Kreuger', 'url': 'https://genius.com/artists/David-kreuger'}, {'name': 'Per Magnusson', 'url': 'https://genius.com/artists/Per-magnusson'}, {'name': 'Jörgen Elofsson', 'url': 'https://genius.com/artists/Jorgen-elofsson'}], 'labels': []}}</t>
   </si>
   <si>
-    <t>{'url': 'https://genius.com/The-strokes-you-only-live-once-lyrics', 'lyrics': "[Verse 1]\nSome people think they're always right\nOthers are quiet and uptight\nOthers, they seem so very nice-nice-nice-nice, oh\nInside they might feel sad and wrong, oh no\nTwenty-nine different attributes\nOnly seven that you like, oh\nTwenty ways to see the world, oh\nTwenty ways to start a fight, oh\n\n[Chorus]\nOh, don't, don't, don't get up\nI can't see the sunshine\nI'll be waiting for you, baby\n'Cause I'm through\nSit me down\nShut me up\nI'll calm down\nAnd I'll get along with you\n\n[Verse 2]\nOh, men don't notice what they got\nOh, women think of that a lot\nOne thousand ways to please your man, oh\nNot even one requires a plan, I know\nAnd countless odd religions too\nIt doesn't matter which you choose, oh no\nOne stubborn way to turn your back, oh\nThis I've tried and now refuse, oh\n[Chorus]\nOh, don't, don't, don't get up\nI can't see the sunshine\nOh, I'll be waiting for you, baby\n'Cause I'm through\nSit me down\nShut me up\nI'll calm down\nAnd I'll get along with you, alright\n\n[Outro]\nShut me up\nShut me up\nAnd I'll get along with you", 'annotations': {'description': "&lt;p&gt;&lt;em&gt;You Only Live Once&lt;/em&gt; is the opening track and third single from &lt;em&gt;First Impressions of Earth&lt;/em&gt;, the third album from American rock band The Strokes. They have performed this song on several programs, including The Tonight Show with Jay Leno and Late Night with Conan O' Brien.&lt;/p&gt;\n\n&lt;p&gt;When the song was released as a single, The Strokes launched Operation &lt;strong&gt;YOLO&lt;/strong&gt; (&lt;strong&gt;Y&lt;/strong&gt;ou &lt;strong&gt;O&lt;/strong&gt;nly &lt;strong&gt;L&lt;/strong&gt;ive &lt;strong&gt;O&lt;/strong&gt;nce), prompting all of their fans to call and request the single on radio stations. Their goal was to try to get out the word of the new single as fast as possible, by spreading the song by word of mouth. The Strokes Myspace page asked all users to put the song in their profile in an attempt to spread the single among the online community.&lt;/p&gt;", 'producers': [{'name': 'David Kahne', 'url': 'https://genius.com/artists/David-kahne'}], 'writers': [{'name': 'Julian Casablancas', 'url': 'https://genius.com/artists/Julian-casablancas'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/The-rasmus-paradise-lyrics', 'lyrics': "I'm dead, but I'm living\nI played a part I've been given\nI'm still kicked out of heaven\nI'm into nothing new\nEveryday is a battle\nI made a deal with the devil\nAnd I'm deep into trouble\nSo tired\n\nI was trying to find a better way but every day's the same\nI'm trying to break the numbness and it's driving me insane\nYou could be my saviour, you could be just what I need\nSo I lay down and pray for something better\n\nGo ahead and leave me paralyzed\nThere's nothing left to sacrifice\nIn hell I'm shooting paradise\nI'm ready so I'll close my eyes\n\nThis is my paradise\nThis is my paradise\n\nIt's gonna hurt but I'm ready\nIt's clear where I'm heading\nDon't call paramedics\nI'm into nothing new\nI'll be gone in a minute\nI'm not afraid to admit it\nSo wrong but I love it\nSo tired\nI was trying to find a better way but every day's the same\nI'm trying to break the numbness and it's driving me insane\nYou could be my saviour, you could be just what I need\nSo I lay down and pray for something better\n\nGo ahead and leave me paralyzed\nThere's nothing left to sacrifice\nIn hell I'm shooting paradise\nI'm ready so I'll close my eyes\n\nThis is my paradise\nThis is my paradise\n\nI made a deal with the devil\nEveryday is a battle\nEveryday is a battle\nThis is my paradise\nI made a deal with the devil\nEveryday is a battle\nEveryday is a battle\nThis is my paradise\nThis is my paradise\nThis is my paradise\nThis is my paradise", 'annotations': {'description': '', 'producers': [{'name': 'The Family (Producers)', 'url': 'https://genius.com/artists/The-family-producers'}], 'writers': [{'name': 'Lauri', 'url': 'https://genius.com/artists/Lauri'}, {'name': 'Anton Hård af Segerstad', 'url': 'https://genius.com/artists/Anton-hard-af-segerstad'}, {'name': 'Linnéa Deb', 'url': 'https://genius.com/artists/Linnea-deb'}, {'name': 'Joy Deb', 'url': 'https://genius.com/artists/Joy-deb'}, {'name': 'Pauli Rantasalmi', 'url': 'https://genius.com/artists/Pauli-rantasalmi'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Duran-duran-is-there-something-i-should-know-lyrics', 'lyrics': "[Intro]\nPlease, please tell me now\nPlease, please tell me now\nPlease, please tell me now\nPlease, please tell me now\n\n[Verse 1]\nI made a break, I run out yesterday\nTried to find my mountain hideaway\nMaybe next year, maybe no go\n\nI know you're watching me\nEvery minute of the day, yeah\nI've seen the signs\nAnd the looks and the pictures\nThat give your game away, yeah\n\nThere's a dream that strings the road\nWith broken glass for us to hold\nAnd I cut so far before I had to say\n\n[Chorus 1]\nPlease, please tell me now\nIs there something I should know?\nIs there something I should say\nThat would make you come my way?\nDo you feel the same?\n'Cause you don't let it show\n[Verse 2]\nPeople stare and cross the road from me\nAnd jungle drums\nThey all clear the way for me\nCan you read my mind?\nCan you see in the snow?\n\nAnd fiery demons all dance\nWhen you walk through that door\nDon't say you're easy on me\nYou're about as easy as a nuclear war\n\nThere's a dream that strings the road\nWith broken glass for us to hold\nAnd I cut so far before I had to say\n\n[Chorus 1]\nPlease, please tell me now\nIs there something I should know?\nIs there something I should say\nThat would make you come my way?\nDo you feel the same?\n'Cause you don't let it show\n\nPlease, please tell me now\nIs there something I should know?\nIs there something I should say\nThat would make you come my way?\nPlease, please tell me now\nCan you see what makes me blow?\nCan you see how much I'd die\nEvery time it passes by?\nPlease, please tell me now\nWhat it takes to make it show\nIs there something I should know?\nIs there something I should know?", 'annotations': {'description': '&lt;p&gt;This song is about someone trying to find out what it takes to impress someone they’re in love with.&lt;/p&gt;', 'producers': [{'name': 'Ian Little', 'url': 'https://genius.com/artists/Ian-little'}, {'name': 'Duran Duran', 'url': 'https://genius.com/artists/Duran-duran'}], 'writers': [{'name': 'Andy Taylor', 'url': 'https://genius.com/artists/Andy-taylor'}, {'name': 'John Taylor', 'url': 'https://genius.com/artists/John-taylor'}, {'name': 'Nick Rhodes', 'url': 'https://genius.com/artists/Nick-rhodes'}, {'name': 'Roger Taylor (Duran Duran)', 'url': 'https://genius.com/artists/Roger-taylor-duran-duran'}, {'name': 'Simon Le Bon', 'url': 'https://genius.com/artists/Simon-le-bon'}], 'labels': [{'name': 'EMI (Label)', 'url': 'https://genius.com/artists/Emi-label'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/The-bangles-walk-like-an-egyptian-lyrics', 'lyrics': "[Verse 1: Vicki Peterson; (All)]\nAll the old paintings on the tomb\nThey do the sand dance, don't you know?\nIf they move too quick (Oh-way-oh)\nThey're falling down like a domino\nAll the bazaar men by the Nile\nThey got the money on a bet\nGold crocodiles (Oh-way-oh)\nThey snap their teeth on your cigarette\n\n[Pre-Chorus: Vicki Peterson; (All)]\nForeign types with the hookah pipes say\n(Way-oh-way-oh, ooh-way-oh-way-oh)\n\n[Chorus: Vicki Peterson]\nWalk like an Egyptian\n\n[Verse 2: Michael Steele; (All)]\nThe blonde waitresses take their trays\nThey spin around and they cross the floor\nThey've got the moves (Oh-way-oh)\nYou drop your drink, then they bring you more\nAll the school kids so sick of books\nThey like the punk and the metal band\nWhen the buzzer rings (Oh-way-oh)\nThey're walking like an Egyptian\n[Pre-Chorus: Michael Steele; (All)]\nAll the kids in the marketplace say\n(Way-oh-way-oh, ooh-way-oh-way-oh)\n\n[Chorus: Michael Steele]\nWalk like an Egyptian\n\n[Verse 3: Susanna Hoffs; (All)]\nSlide your feet up the street, bend your back\nShift your arm, then you pull it back\nLife is hard you know (Oh-way-oh)\nSo strike a pose on a Cadillac\nIf you want to find all the cops\nThey're hanging out in the donut shop\nThey sing and dance (Oh-way-oh)\nThey spin the clubs, cruise down the block\nAll the Japanese with their yen\nThe party boys call the Kremlin\nAnd the Chinese know (Oh-way-oh)\nThey walk the line like Egyptian\n\n[Pre-Chorus: Susanna Hoffs; (All)]\nAll the cops in the donut shop say\n(Way-oh-way-oh, ooh-way-oh-way-oh)\n\n[Chorus: Susanna Hoffs]\nWalk like an Egyptian\nWalk like an Egyptian", 'annotations': {'description': '&lt;p&gt;Walk Like an Egyptian was a million-selling single and became Billboard’s number-one song of 1987.  Nevertheless, the song ended up accelerating the tensions within the group. The original plan for this song called for Debbi Peterson to sing the whole thing, but their producer, David Kahne, decided to have one person sing one verse. There are only three verses, though, so one person would have to get left out. That person ended up being Debbi Peterson, when David Kahne decided to have Micki Steele sing the second verse instead of Debbi (Vicki Peterson sang the first verse and Susanna Hoffs sang the third). Debbi didn’t play drums on the song either, when the producer decided that drum machines were the hip sound of 1987 (which they kinda were – ‘87 was a weird time).&lt;/p&gt;\n\n&lt;p&gt;Like most Bangles hits, the Bangles didn’t write this one.  This one’s written by &lt;a href="https://en.wikipedia.org/wiki/Liam_Sternberg" rel="noopener nofollow"&gt;Liam Sternberg&lt;/a&gt;.   Over the years, the song has shown up in &lt;a href="http://www.imdb.com/name/nm0827912/" rel="noopener nofollow"&gt;dozens of movies and TV shows&lt;/a&gt;.&lt;/p&gt;', 'producers': [{'name': 'David Kahne', 'url': 'https://genius.com/artists/David-kahne'}], 'writers': [{'name': 'Liam Sternberg', 'url': 'https://genius.com/artists/Liam-sternberg'}], 'labels': [{'name': 'Columbia Records', 'url': 'https://genius.com/artists/Columbia-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Alice-in-chains-down-in-a-hole-lyrics', 'lyrics': "[Intro: Jerry Cantrell]\nBury me softly in this womb\nI give this part of me for you\nSand rains down and here I sit\nHolding rare flowers in a tomb, in bloom\n\n[Verse 1: Layne Staley]\nDown in a hole and I don't know if I can be saved\nSee my heart, I decorate it like a grave\nYou don't understand who they thought I was supposed to be\nLook at me now, a man who won't let himself be\n\n[Chorus: Layne Staley and Jerry Cantrell]\nDown in a hole, feelin' so small\nDown in a hole, losin' my soul\nI'd like to fly but my wings have been so denied\n\n[Verse 2: Layne]\nDown in a hole and they've put all the stones in their place\nI've eaten the sun so my tongue has been burned of the taste\nI have been guilty of kicking myself in the teeth\nI will speak no more of my feelings beneath\n\n[Chorus: Layne and Jerry]\nDown in a hole, feeling so small\nDown in a hole, losin' my soul\nI'd like to fly but my wings have been so denied\n[Bridge: Jerry and Layne]\nBury me softly in this womb\nOh, I wanna be inside of you\nI give this part of me for you\nOh, I wanna be inside of you\nSand rains down and here I sit\nOh, I wanna be inside of you\nHolding rare flowers in a tomb, in bloom\nOh, I wanna be inside\n\n[Chorus: Layne and Jerry]\nDown in a hole, feeling so small\nDown in a hole, losin' my soul\nDown in a hole, feeling so small\nDown in a hole, out of control\nI'd like to fly but my wings have been so denied", 'annotations': {'description': '&lt;p&gt;This song is a love song from guitarist Jerry Cantrell  to the love of his life Courtney Clarke.&lt;/p&gt;\n\n&lt;p&gt;Early pressings listed this as the 12th track in the album. Later pressings listed this as the 4th track supposedly to fit better with the band’s desire to have the album loosely tell a story from song to song.&lt;/p&gt;', 'producers': [{'name': 'Alice in Chains', 'url': 'https://genius.com/artists/Alice-in-chains'}, {'name': 'Dave Jerden', 'url': 'https://genius.com/artists/Dave-jerden'}], 'writers': [{'name': 'Jerry Cantrell', 'url': 'https://genius.com/artists/Jerry-cantrell'}], 'labels': [{'name': 'Columbia Records', 'url': 'https://genius.com/artists/Columbia-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Black-eyed-peas-meet-me-halfway-lyrics', 'lyrics': "[Intro: Fergie]\nOoh, I can't go any further than this\nOoh, I want you so badly, it's my biggest wish\n\n[Verse 1: apl.de.ap]\nCool, I spend my time just thinking\nThinking, thinking 'bout you\nEvery single day, yes, I'm really missing, missing you\nAnd all those things we used to\nUsed to, used to, used to do\nHey girl, what's up, it used to, used to be just me and you\nI spend my time just thinking, thinking, thinking 'bout you\nEvery single day, yes, I'm really missing, missing you\nAnd all those things we used to\nUsed to, used to, used to do\nHey girl, what's up yo, what's up, what's up\n\n[Chorus: Fergie]\nCan you meet me halfway? Right at the borderline\nThat's where I'm gonna wait for you\nI'll be looking out, night and day\nTook my heart to the limit, and this is where I'll stay\nI can't go any further than this\nI want you so bad, it's my only wish\n\n[Verse 2: will.i.am]\nGirl, I travel 'round the world and even sail the seven seas\nAcross the universe and all the other galaxies\nJust tell me where to go, just tell me where you wanna meet\nI navigate myself, myself to take me where you be\nCause girl I want, I, I, I want you right now\nI travel uptown, town I travel downtown\nWanna have you around, 'round like every single day\nI love you always, ways I'll meet you halfway\n[Chorus: Fergie]\nCan you meet me halfway? Right at the borderline\nThat's where I'm gonna wait for you\nI'll be looking out, night and day\nTook my heart to the limit, and this is where I'll stay\nI can't go any further than this\nI want you so bad, it's my only wish\nI can't go any further than this\nI want you so bad, it's my only wish\n\n[Bridge: Taboo]\nLet's cross the bridge to the other side\nJust you and I (Just you and I)\nI will fly, fly the skies\nFor you and I (For you and I)\nI will try until I die\nFor you and I (For you and I)\nFor, for, for you and I\nFor, for, for, for you and I\nFor, for you and I (For you and I)\n\n[Breakdown: Fergie]\nCan you meet me halfway?\nCan you meet me halfway?\nCan you meet me halfway?\nCan you meet me halfway?\n[Chorus: Fergie]\nMeet me halfway\nRight at the borderline\nThat's where I'm gonna wait for you\nI'll be looking out, night and day\nTook my heart to the limit, and this is where I'll stay\nI can't go any further than this\nI want you so bad, it's my only wish\nI can't go any further than this\nI want you so bad, it's my only wish", 'annotations': {'description': '&lt;p&gt;Meet Me Halfway is the third track of the album The E.N.D.. It was the 3rd single from the album, after &lt;em&gt;Boom Boom Pow&lt;/em&gt; and &lt;em&gt;I Gotta Feeling&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://www.youtube.com/watch?v=I7HahVwYpwo" rel="noopener nofollow"&gt;https://www.youtube.com/watch?v=I7HahVwYpwo&lt;/a&gt;&lt;/p&gt;', 'producers': [{'name': '\u200bwill.i.am', 'url': 'https://genius.com/artists/William'}, {'name': 'Keith Harris', 'url': 'https://genius.com/artists/Keith-harris'}], 'writers': [{'name': 'Sylvia Gordon', 'url': 'https://genius.com/artists/Sylvia-gordon'}, {'name': 'Jean Baptiste', 'url': 'https://genius.com/artists/Jean-baptiste'}, {'name': 'Fergie', 'url': 'https://genius.com/artists/Fergie'}, {'name': 'Taboo', 'url': 'https://genius.com/artists/Taboo'}, {'name': '\u200bapl.de.ap', 'url': 'https://genius.com/artists/Apldeap'}, {'name': '\u200bwill.i.am', 'url': 'https://genius.com/artists/William'}, {'name': 'Keith Harris', 'url': 'https://genius.com/artists/Keith-harris'}], 'labels': [{'name': 'Interscope Records', 'url': 'https://genius.com/artists/Interscope-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Depeche-mode-everything-counts-lyrics', 'lyrics': "[Verse 1: Dave Gahan]\nThe handshake seals the contract\nFrom the contract, there's no turning back\nThe turning point of a career\nIn Korea being insincere\nThe holiday was fun-packed\nThe contract still intact\n\n[Chorus: Martin L. Gore &amp; Dave Gahan]\nThe grabbing hands grab all they can\nAll for themselves, after all\nThe grabbing hands grab all they can\nAll for themselves, after all\nIt's a competitive world\nEverything counts in large amounts\n\n[Verse 2: Dave Gahan]\nThe graph on the wall\nTells the story of it all\nPicture it now, see just how\nThe lies and deceit gained a little more power\nConfidence taken in\nBy a suntan and a grin\n\n[Chorus: Martin L. Gore &amp; Dave Gahan]\nThe grabbing hands grab all they can\nAll for themselves, after all\nThe grabbing hands grab all they can\nAll for themselves, after all\nIt's a competitive world\nEverything counts in large amounts\nEverything counts in large amounts\nEverything counts in large amounts\n[Chorus: Martin L. Gore]\nThe grabbing hands grab all they can\nEverything counts in large amounts\nThe grabbing hands grab all they can\nEverything counts in large amounts\n\n[Bridge: Martin L. Gore]\n(Everything, everything)\n(Everything, everything)\n\n[Chorus: Martin L. Gore]\nThe grabbing hands grab all they can\nEverything counts in large amounts\nThe grabbing hands grab all they can\nEverything counts in large amounts\n\n[Outro: Martin L. Gore]\nEverything counts in large amounts", 'annotations': {'description': '&lt;p&gt;“Everything Counts” is Depeche Mode’s eighth single, and the fourth track on &lt;em&gt;Construction Time Again&lt;/em&gt;. It peaked at #6 in the UK, tying “See You” as their highest charting single at the time.&lt;/p&gt;\n\n&lt;p&gt;In 1985, Martin Gore &lt;a href="http://www.mmj.pl/~beyond/interview/inter_003.html" rel="noopener nofollow"&gt;called the song&lt;/a&gt; one of the band’s favorite singles.&lt;/p&gt;', 'producers': [{'name': 'Gareth Jones', 'url': 'https://genius.com/artists/Gareth-jones'}, {'name': 'Depeche Mode', 'url': 'https://genius.com/artists/Depeche-mode'}, {'name': 'Daniel Miller', 'url': 'https://genius.com/artists/Daniel-miller'}], 'writers': [{'name': 'Martin L. Gore', 'url': 'https://genius.com/artists/Martin-l-gore'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Gerry-rafferty-baker-street-lyrics', 'lyrics': "[Instrumental Intro]\n\n[Verse 1]\nWindin' your way down on Baker Street\nLight in your head and dead on your feet\nWell another crazy day, you'll drink the night away\nAnd forget about everything\nThis city desert makes you feel so cold\nIt's got so many people but it's got no soul\nAnd it's taking you so long to find out you were wrong\nWhen you thought it held everything\n\n[Pre-Chorus]\nYou used to think that it was so easy\nYou used to say that it was so easy\nBut you're tryin', you're tryin' now\nAnother year and then you'll be happy\nJust one more year and then you'll be happy\nBut you're cryin', you're cryin' now\n\n[Instrumental Chorus]\n\n[Verse 2]\nWay down the street there's a light in his place\nHe opens the door he's got that look on his face\nAnd he asks you where you've been\nYou tell him who you've seen and you talk about anything\nHe's got this dream about buyin' some land\nHe's gonna give up the booze and the one night stands\nAnd then he'll settle down, in some quiet little town\nAnd forget about everything\n[Pre-Chorus]\nBut you know he'll always keep movin'\nYou know he's never gonna stop movin'\n'Cause he's rollin', he's the rollin' stone\nAnd when you wake up, it's a new mornin'\nThe sun is shinin', it's a new mornin'\nYou're goin', you're goin' home\n\n[Instrumental Chorus]", 'annotations': {'description': '', 'producers': [{'name': 'Gerry Rafferty', 'url': 'https://genius.com/artists/Gerry-rafferty'}, {'name': 'Hugh Murphy', 'url': 'https://genius.com/artists/Hugh-murphy'}], 'writers': [{'name': 'Gerry Rafferty', 'url': 'https://genius.com/artists/Gerry-rafferty'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Rem-man-on-the-moon-lyrics', 'lyrics': "[Verse 1]\nMott the Hoople and the Game of Life\nYeah, yeah, yeah, yeah\nAndy Kaufman in the wrestling match\nYeah, yeah, yeah, yeah\nMonopoly, Twenty-One, checkers and chess\nYeah, yeah, yeah, yeah\nMister Fred Blassie in a breakfast mess\nYeah, yeah, yeah, yeah\nLet's play Twister, let's play Risk\nYeah, yeah, yeah, yeah\nSee you in heaven if you make the list\nYeah, yeah, yeah, yeah\n\n[Pre-Chorus]\nNow, Andy, did you hear about this one?\nTell me, are you locked in the punch?\nAndy, are you goofing on Elvis? Hey, baby\nAre we losing touch?\n\n[Chorus]\nIf you believed they put a man on the moon\nMan on the moon\nIf you believed there's nothing up his sleeve\nThen nothing is cool\n[Verse 2]\nMoses went walking with the staff of wood\nYeah, yeah, yeah, yeah\nNewton got beaned by the apple good\nYeah, yeah, yeah, yeah\nEgypt was troubled by the horrible asp\nYeah, yeah, yeah, yeah\nMister Charles Darwin had the gall to ask\nYeah, yeah, yeah, yeah\n\n[Pre-Chorus]\nNow, Andy, did you hear about this one?\nTell me, are you locked in the punch?\nHey, Andy, are you goofing on Elvis? Hey, baby\nAre you having fun?\n\n[Chorus]\nIf you believed they put a man on the moon\nMan on the moon\nIf you believed there's nothing up his sleeve\nThen nothing is cool\n\n[Bridge]\nHere's a little agit for the never-believer\nYeah, yeah, yeah, yeah\nHere's a little ghost for the offering\nYeah, yeah, yeah, yeah\nHere's a truck stop instead of Saint Peter's\nYeah, yeah, yeah, yeah\nMister Andy Kaufman's gone wrestling (wrestling bears)\nYeah, yeah, yeah, yeah\n[Pre-Chorus]\nNow, Andy, did you hear about this one?\nTell me, are you locked in the punch?\nHey, Andy, are you goofing on Elvis? Hey, baby\nAre we losing touch?\n\n[Chorus]\nIf you believed they put a man on the moon\nMan on the moon\nIf you believed there's nothing up his sleeve\nThen nothing is cool\n\n[Outro]\nIf you believed they put a man on the moon\nMan on the moon\nIf you believed there's nothing up his sleeve\nThen nothing is cool\nIf you believed they put a man on the moon\nMan on the moon\nIf you believed there's nothing up his sleeve\nThen nothing is cool\nIf you believed they put a man on the moon\nMan on the moon\nIf you believed there's nothing up his sleeve\nThen nothing is cool", 'annotations': {'description': '&lt;p&gt;“Man on the Moon” is Michael’s Stipe’s tribute to the late Andy Kaufman, an entertainer who was made famous by his appearances on late-night television (namely Saturday Night Live and Late Night with David Letterman) and his role as Latka Gravas on the sitcom Taxi. Kaufman was known for his comedy, though he referred to himself not as a comedian, but as a “song-and-dance man”.&lt;/p&gt;\n\n&lt;p&gt;Thematically linked (by the idea of heaven and Andy Kaufman) is &lt;a href="https://genius.com/Rem-the-great-beyond-lyrics" rel="noopener" data-api_path="/songs/394899"&gt;“The Great Beyond”&lt;/a&gt;, a 1999 song that was written for the soundtrack of &lt;em&gt;Man on the Moon&lt;/em&gt; – a film about Kaufman’s life starring Jim Carrey.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/6fa6ec232ec9db93437563e94dd9de50.300x400x1.jpg" alt="" width="300" height="400" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/22cb184779b955d915f7ccb35826b31a.214x317x1.jpg" alt="" width="214" height="317" data-animated="false"&gt;&lt;/p&gt;', 'producers': [{'name': 'R.E.M.', 'url': 'https://genius.com/artists/Rem'}, {'name': 'Scott Litt', 'url': 'https://genius.com/artists/Scott-litt'}], 'writers': [{'name': 'Michael Stipe', 'url': 'https://genius.com/artists/Michael-stipe'}, {'name': 'Peter Buck', 'url': 'https://genius.com/artists/Peter-buck'}, {'name': 'Mike Mills (R.E.M.)', 'url': 'https://genius.com/artists/Mike-mills-rem'}, {'name': 'Bill Berry', 'url': 'https://genius.com/artists/Bill-berry'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Mika-grace-kelly-lyrics', 'lyrics': '[Intro]\n"I wanna talk to you."\n"The last time we talked, Mr. Smith, you reduced me to tears. I promise you it won\'t happen again."\n\n[Verse 1]\nDo I attract you?\nDo I repulse you with my queasy smile?\nAm I too dirty? Am I too flirty?\nDo I like what you like?\n\nI could be wholesome, I could be loathsome\nI guess I\'m a little bit shy\nWhy don\'t you like me, why don\'t you like me\nWithout making me try?\n\n[Pre-Chorus]\nI tried to be like Grace Kelly, mm\nBut all her looks were too sad, ah\nSo I tried a little Freddie, mm\nI\'ve gone identity mad!\n\n[Chorus 1]\nI could be brown, I could be blue\nI could be violet sky\nI could be hurtful, I could be purple\nI could be anything you like\nGotta be green, gotta be mean\nGotta be everything more\nWhy don\'t you like me? Why don\'t you like me?\nWhy don\'t you walk out the door!\n\n[Hook]\n"Getting angry doesn\'t solve anything."\n\n[Verse 2]\nHow can I help it, how can I help it\nHow can I help what you think?\nHello my baby, hello my baby\nPutting my life on the brink\n\nWhy don\'t you like me, why don\'t you like me\nWhy don\'t you like yourself?\nShould I bend over? Should I look older\nJust to be put on your shelf?\n\n[Pre-Chorus]\nI tried to be like Grace Kelly, mm\nBut all her looks were too sad, ah\nSo I tried a little Freddie, mm\nI\'ve gone identity mad!\n\n[Chorus 2]\nI could be brown, I could be blue\nI could be violet sky\nI could be hurtful, I could be purple\nI could be anything you like\nGotta be green, gotta be mean\nGotta be everything more\nWhy don\'t you like me? Why don\'t you like me?\nWalk out the door!\n\n[Bridge]\nSay what you want to satisfy yourself\nBut you only want what everybody else says you should want...\nYou want\n\n[Chorus 2]\nI could be brown, I could be blue\nI could be violet sky\nI could be hurtful, I could be purple\nI could be anything you like\n\nGotta be green, gotta be mean\nGotta be everything more\nWhy don\'t you like me? Why don\'t you like me?\nWalk out the door!\n\n[Chorus 2]\nI could be brown, I could be blue\nI could be violet sky\nI could be hurtful, I could be purple\nI could be anything you like\nGotta be green, gotta be mean\nGotta be everything more\nWhy don\'t you like me? Why don\'t you like me?\nWalk out the door!\n\n"Humphrey! We\'re leaving."\n"Ka-ching!"', 'annotations': {'description': '&lt;p&gt;“Grace Kelly” is a genre-defying pop song about being yourself. It’s named for Hollywood legend Grace Kelly—this opening dialogue is based off her 1954 film &lt;em&gt;The Country Girl&lt;/em&gt;. The song was a breakthrough hit for Mika, a genre-defying singer born in Beirut and raised in Paris and London.&lt;/p&gt;\n\n&lt;p&gt;Despite the tune’s perky vibe, Mika wasn’t a happy camper when he wrote this song. He had been trying for years to land a record deal, but labels kept turning him down. He told BBC: “The indie scene thought I was too melody-based and I was rejected by the commercial scene because I was too strange.”&lt;/p&gt;\n\n&lt;p&gt;The final straw came when one label executive told him he’d never sell any records. Mika: “I went home and I was so angry. I thought I was going to get signed.“&lt;/p&gt;\n\n&lt;p&gt;“I wrote out the song saying, ‘I can be any color you want, what the hell do you want me to be?’”&lt;/p&gt;', 'producers': [{'name': 'MIKA', 'url': 'https://genius.com/artists/Mika'}, {'name': 'Greg Wells', 'url': 'https://genius.com/artists/Greg-wells'}], 'writers': [{'name': 'Dan Warner', 'url': 'https://genius.com/artists/Dan-warner'}, {'name': 'John Merchant', 'url': 'https://genius.com/artists/John-merchant'}, {'name': 'Jodi Marr', 'url': 'https://genius.com/artists/Jodi-marr'}, {'name': 'MIKA', 'url': 'https://genius.com/artists/Mika'}], 'labels': [{'name': 'Universal Music Group', 'url': 'https://genius.com/artists/Universal-music-group'}, {'name': 'Casablanca Records', 'url': 'https://genius.com/artists/Casablanca-records'}, {'name': 'Island Records', 'url': 'https://genius.com/artists/Island-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Tracy-chapman-fast-car-lyrics', 'lyrics': '[Verse 1]\nYou got a fast car\nI want a ticket to anywhere\nMaybe we make a deal\nMaybe together, we can get somewhere\nAny place is better\nStarting from zero, got nothing to lose\nMaybe we\'ll make something\nMe, myself, I got nothing to prove\n\n[Verse 2]\nYou got a fast car\nI got a plan to get us outta here\nI been working at the convenience store\nManaged to save just a little bit of money\nWon\'t have to drive too far\nJust \'cross the border and into the city\nYou and I can both get jobs\nFinally see what it means to be living\n\n[Verse 3]\nSee, my old man\'s got a problem\nHe lives with a bottle, that\'s the way it is\nHe says his body\'s too old for working\nHis body\'s too young to look like his\nWhen mama went off and left him\nShe wanted more from life than he could give\nI said, "Somebody\'s gotta take care of him"\nSo I quit school, and that\'s what I did\n[Refrain]\nYou got a fast car\nIs it fast enough so we can fly away?\nWe gotta make a decision\nLeave tonight, or live and die this way\n\n[Chorus]\nSo I remember when we were driving\nDriving in your car\nSpeed so fast, it felt like I was drunk\nCity lights lay out before us\nAnd your arm felt nice wrapped \'round my shoulder\nAnd I-I had a feeling that I belonged\nI-I had a feeling I could be someone, be someone, be someone\n\n[Verse 4]\nYou got a fast car\nWe go cruising, entertain ourselves\nYou still ain\'t got a job\nAnd I work in a market as a checkout girl\nI know things will get better\nYou\'ll find work and I\'ll get promoted\nWe\'ll move out of the shelter\nBuy a bigger house and live in the suburbs\n\n[Chorus]\nSo I remember when we were driving\nDriving in your car\nSpeed so fast, it felt like I was drunk\nCity lights lay out before us\nAnd your arm felt nice wrapped \'round my shoulder\nAnd I-I had a feeling that I belonged\nI-I had a feeling I could be someone, be someone, be someone\n[Verse 5]\nYou got a fast car\nI got a job that pays all our bills\nYou stay out drinkin\' late at the bar\nSee more of your friends than you do of your kids\nI\'d always hoped for better\nThought maybe together, you and me\'d find it\nI got no plans, I ain\'t going nowhere\nSo take your fast car and keep on driving\n\n[Chorus]\nSo I remember when we were driving\nDriving in your car\nSpeed so fast, it felt like I was drunk\nCity lights lay out before us\nAnd your arm felt nice wrapped around my shoulder\nAnd I-I had a feeling that I belonged\nI-I had a feeling I could be someone, be someone, be someone\n\n[Refrain]\nYou got a fast car\nIs it fast enough so you can fly away?\nYou gotta make a decision\nLeave tonight or live and die this way', 'annotations': {'description': '&lt;p&gt;“Fast Car” is a song by American singer-songwriter Tracy Chapman. It was released in April 1988 as the lead single from her self-titled debut album. Her appearance on the Nelson Mandela 70th Birthday Tribute was the catalyst for the song’s becoming a top 10 hit in the United States, peaking at number 6 on the Hot 100, and a top 10 hit in the United Kingdom, peaking at number 4 on the charts.&lt;/p&gt;', 'producers': [{'name': 'David Kershenbaum', 'url': 'https://genius.com/artists/David-kershenbaum'}], 'writers': [{'name': 'Tracy Chapman', 'url': 'https://genius.com/artists/Tracy-chapman'}], 'labels': [{'name': 'Elektra Records', 'url': 'https://genius.com/artists/Elektra-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/The-beatles-free-as-a-bird-lyrics', 'lyrics': "[Chorus: John Lennon]\nFree as a bird\nIt's the next best thing to be\nFree as a bird\nHome, home and dry\nLike a homing bird I'll fly\nAs a bird on wings\n\n[Bridge: Paul McCartney]\nWhatever happened to\nThe life that we once knew?\nCan we really live without each other?\nWhere did we lose the touch\nThat seemed to mean so much?\nIt always made me feel so\n\n[Chorus: John Lennon]\nFree as a bird\nIt's the next best thing to be\nFree as a bird\nHome, home and dry\nLike a homing bird I'll fly\nAs a bird on wings\n\n[Bridge: George Harrison]\nWhatever happened to\nThe life that we once knew?\nAlways made me feel so free\nAh\nAh\nAh\n\n[Verse 2]\nFree as a bird\nIt's the next best thing to be\nFree as a bird\nFree as a bird\nFree as a bird\nOooooo\n\n[Outro]\nFree\n\nMade for John Lennon", 'annotations': {'description': '&lt;p&gt;The first of the final two Beatles singles&lt;/p&gt;\n\n&lt;p&gt;This is one of the rare recordings credited to The Beatles that did not include their late producer George Martin. Later, Martin said he wished that the demo had never been produced, though if he had been involved, he would have taken a different approach to the technical challenges.&lt;/p&gt;\n\n&lt;p&gt;Lennon’s demo was extremely lo-fi. He had recorded the song on a boombox on top of his piano. Producer Jeff Lynne compressed that original recording until “what you ended up with was quite a thick homogeneous sound that hardly stops. There’s not much dynamic in it."&lt;/p&gt;', 'producers': [{'name': 'Jeff Lynne', 'url': 'https://genius.com/artists/Jeff-lynne'}], 'writers': [{'name': 'Ringo Starr', 'url': 'https://genius.com/artists/Ringo-starr'}, {'name': 'George Harrison', 'url': 'https://genius.com/artists/George-harrison'}, {'name': 'Paul McCartney', 'url': 'https://genius.com/artists/Paul-mccartney'}, {'name': 'John Lennon', 'url': 'https://genius.com/artists/John-lennon'}], 'labels': [{'name': 'Apple Corps', 'url': 'https://genius.com/artists/Apple-corps'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Xxxtentacion-numb-lyrics', 'lyrics': "[Chorus]\nAnd every single year\nI'm drowning in my tears, I'm drowning in my tears again\nI can't seem to forget the pain you seem to give\nThe pain you seem to give, my friend\nAnd every single year\nI'm drowning in my tears, I'm drowning in my tears again\nI can't seem to forget the pain you seem to give\nThe pain you seem to give, my friend\n\n[Bridge]\nWoah, oh, woah, oh\nWoah, oh, woah, oh\nWoah, oh, woah, oh\nWoah, oh, woah, oh\nWoah, oh, woah, oh\n\n[Chorus]\nAnd every single year\nI'm drowning in my tears, I'm drowning in my tears again\nI can't seem to forget the pain you seem to give\nThe pain you seem to give, my friend\nWoah, oh\nAnd every single year\nI'm drowning in my tears, I'm drowning in my tears again\nWoah, oh\nI can't seem to forget the pain you seem to give\nThe pain you seem to give, my friend\nWoah, oh, woah, oh, woah, oh\n[Break]\n\n[Chorus]\nAnd every single year\nI'm drowning in my tears, I'm drowning in my tears again\nI can't seem to forget the pain you seem to give\nThe pain you seem to give, my friend\nWoah, oh", 'annotations': {'description': '&lt;p&gt;Being numb to the pain of life is a common theme in XXXTENTACION’s music, with songs like &lt;a href="https://genius.com/Xxxtentacion-lets-pretend-were-numb-lyrics" rel="noopener" data-api_path="/songs/2465721"&gt;“Let’s Pretend We’re Numb”&lt;/a&gt; and &lt;a href="https://genius.com/Xxxtentacion-snow-lyrics" rel="noopener" data-api_path="/songs/2465662"&gt;“snow”&lt;/a&gt; where he raps:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;Body falls so I don’t know who to call at all&lt;br&gt;\nAlone, and my heart, got tat of it broke&lt;br&gt;\nI’m so fucking numb, my life has succumb&lt;br&gt;\nTo hatred and death, alone in the snow&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;XXXTENTACION also has the word “Numb” tattooed in red ink under his right eye. He said it represents the period of his life where he couldn’t really feel any emotion.&lt;/p&gt;\n\n&lt;p&gt;&lt;/p&gt;&lt;div class="embedly_preview embedly_preview--video"&gt;\n&lt;iframe type="text/html" width="640" height="390" frameborder="0" allowfullscreen="1" src="https://www.youtube.com/embed/XVW-ZL-H8P0?modestbranding=1&amp;amp;start=353&amp;amp;showinfo=0&amp;amp;enablejsapi=1&amp;amp;origin=genius.com"&gt;&lt;/iframe&gt;\n&lt;/div&gt;', 'producers': [{'name': 'Robert Soukiasyan', 'url': 'https://genius.com/artists/Robert-soukiasyan'}, {'name': 'John Cunningham', 'url': 'https://genius.com/artists/John-cunningham'}], 'writers': [{'name': 'Oren Yoel', 'url': 'https://genius.com/artists/Oren-yoel'}, {'name': 'Robert Soukiasyan', 'url': 'https://genius.com/artists/Robert-soukiasyan'}, {'name': 'John Cunningham', 'url': 'https://genius.com/artists/John-cunningham'}, {'name': 'XXXTENTACION', 'url': 'https://genius.com/artists/Xxxtentacion'}], 'labels': [{'name': 'Bad Vibes Forever', 'url': 'https://genius.com/artists/Bad-vibes-forever'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Kings-of-leon-radioactive-lyrics', 'lyrics': "[Verse:]\nWhen the roll is called up yonder\nI hope you see me there\nIt's in the water, it's where you came from\nIt's in the water, it's where you came from\nWhen the crowd begins to wonder\nAnd they cry to see your face\n\n[Chorus:]\nIt's in the water, it's in the story, of where you came from\nYour sons and daughters, in all their glory, it's going to shape her\nAnd when they clash and come together, and start rising\nJust drink the water where you came from, where you came from\n\n[Bridge:]\nSo the roll it was called from yonder\nNever sold yourself away\n\n[Chorus:]\nIt's in the water, it's in the story, of where you came from\nYour sons and daughters, in all their glory, it's going to shape her\nAnd when they clash and come together, and start rising\nJust drink the water where you came from, where you came from\n\n[Outro:]\nIt's in the water, it's where you came from\nIt's in the water, it's where you came from\nAnd when they clash and come together, and start rising\nJust drink the water, where you came from, where you came from", 'annotations': {'description': '&lt;p&gt;As the band mentions in this video, “Radioactive” arose from an old gospel song they used to sing, when they were adolescents.&lt;br&gt;\nAlso, the song was written right after their release of &lt;a href="https://genius.com/albums/Kings-of-leon/Aha-shake-heartbreak" rel="noopener" data-api_path="/albums/26694"&gt;“aha shake heartbreak”&lt;/a&gt;, long before the release of &lt;a href="https://genius.com/albums/Kings-of-leon/Come-around-sundown" rel="noopener" data-api_path="/albums/21099"&gt;“Come Around Sundown”&lt;/a&gt;, which features “Radioactive”.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://www.youtube.com/watch?v=EncWEAzYzVM" rel="noopener nofollow"&gt;https://www.youtube.com/watch?v=EncWEAzYzVM&lt;/a&gt;&lt;/p&gt;', 'producers': [{'name': 'Angelo Petraglia', 'url': 'https://genius.com/artists/Angelo-petraglia'}, {'name': 'Jacquire King', 'url': 'https://genius.com/artists/Jacquire-king'}], 'writers': [{'name': 'Matthew Followill', 'url': 'https://genius.com/artists/Matthew-followill'}, {'name': 'Jared Followill', 'url': 'https://genius.com/artists/Jared-followill'}, {'name': 'Nathan Followill', 'url': 'https://genius.com/artists/Nathan-followill'}, {'name': 'Caleb Followill', 'url': 'https://genius.com/artists/Caleb-followill'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Real-life-send-me-an-angel-89-lyrics', 'lyrics': "Do you believe in heaven above?\nDo you believe in love?\nDon't tell a lie, don't be false or untrue\nIt all comes back to you\n\nOpen fire!\nOn my burning heart\nI've never been lucky in love\nMy defenses are down\nA kiss or a frown\nI can't survive on my own\n\nIf a girl walks in and draws her name in my heart\nI'll turn and run away\nEveryday we've all been led astray\nIt's hard to be lucky in love\n\nIt gets in your eyes\nIt's making you cry\nDon't know what to do\nDon't know what to do\nYou're looking for love\nCalling heaven above\n\nSend me an angel\nSend me an angel\nRight now, right now\nSend me an angel\nSend me an angel\nRight now, right now\n\nEmpty dreams can only disappoint\nIn a room behind your smile\nBut don't give up, don't give up\n(give up, give up, give up)\nYou can be lucky in love\n\nIt gets in your eyes\nIt's making you cry\nDon't know what to do\nDon't know what to do\nYou're looking for love\nCalling heaven above\n\nSend me an angel\nSend me an angel\nRight now, right now\n\nSend me an angel\nSend me an angel\nRight now, right now\n\n...Right now", 'annotations': {'description': '', 'producers': [], 'writers': [], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Us3-cantaloop-flip-fantasia-lyrics', 'lyrics': "[Intro]\nLadies and gentlemen, as you know we have something special down here at Birdland this evening\nA recording for Blue Note Records\n\nWhat's that? Yeah...yeah...yeah\nFunky, funky\nHow 'bout a big hand now\nWait, wait a minute\n\n[Verse 1]\nGroovy groovy jazzy funky pounce bounce dance as we\nDip in the melodic sea, the rhythm keeps flowin', and drips to MC\nSweet sugar pop sugar pop rocks it pop\nYa dont stop 'til the sweet beat drops\nI show and prove as I stick and move\nVivid poems recited on top of the groove\nSmooth, my, floating like a butterfly\nNotes set afloat, sung like a lullaby\nBrace yourself as the beat hits ya\nDip trip, flip fantasia\n\n(Yeah...yeah...yeah...What's that?)\nItty bitty bop (Yeah)\nItty bitty bop (Funky, funky)\n\n[Verse 2]\nFeel the beat drop, jazz and hip hop\nDrippin' in your dome, makes you zone and bop\nFunk and fusion, a fly illusion\nKeeps ya coastin' on the rhythm you're cruisin'\nUp down, round and round, rhymes profound\nBut nevertheless ya gots to get down\nFantasy freak thru the beat so unique\nYa move your feet, the sweat from the heat\nBack to the fact I'm the mack and I know that\nThe way I kick the rhymes, some would call me a poet\nPoems steady flowin', growin', showin' sights and sound\nCaught in the groove in Fantasia I'm found\nMany trip the tour upon the rhymes they soar\nTo an infinite height to the realm of the hardcore\nHere we go off I take ya\nDip trip, flip fantasia\n(Yeah...yeah...yeah...What's that?)\nItty bitty bop (Yeah)\nItty bitty bop (Funky, funky)\n\n(Yeah...yeah...yeah...What's that?)\n(Yeah...yeah...yeah...Funky, funky)\n\n[Verse 3]\nJump to the jam, boogie woogie jam slam\nBust the dialect, I'm the man in command\nCome flow with the sounds of the mighty mic master\nRhyming on the mic, I'm bringing suckas their disaster\nBeaucoup ducs but I still rock Nike\nWith the razzle dazzle, star I might be\nScribble drabble scrabble on the microphone I babble\nAs I flip the funky words, into a puzzle\nYes yes yes, on and on as I flex\nGet with the flow, words manifest\nFeel the vibe from here to Asia\nDip trip, flip fantasia\nOut\n\n[Outro]\nYa don't stop\nC'mon, c'mon, c'mon, c'mon\nC'mon, c'mon, c'mon\nGimme more\nOf that funky horn", 'annotations': {'description': '&lt;p&gt;Us3’s extensive use of samples from the Blue Note Records catalog got the attention of Blue Note who surprised them with an offer for a record deal. (Richard Cook, Blue Note Records: The Biography, p226)&lt;/p&gt;\n\n&lt;p&gt;Main sample is from &lt;a href="https://genius.com/artists/Herbie-hancock" rel="noopener" data-api_path="/artists/6238"&gt;Herbie Hancock&lt;/a&gt;’s &lt;a href="http://www.whosampled.com/sample/172/Us3-Cantaloop-%28Flip-Fantasia%29-Herbie-Hancock-Cantaloupe-Island/" rel="noopener nofollow"&gt;“Cantaloupe Island”&lt;/a&gt; (Blue Note, 1964)&lt;/p&gt;\n\n&lt;p&gt;A great version of Canteloupe Island by Herbie Hancock is the opening spot on the famous “A Night with Blue Note” concert in 1985.&lt;/p&gt;\n\n&lt;p&gt;&lt;/p&gt;&lt;div class="embedly_preview embedly_preview--video"&gt;\n&lt;iframe type="text/html" width="640" height="390" frameborder="0" allowfullscreen="1" src="https://www.youtube.com/embed/SgBs5IFP1v8?modestbranding=1&amp;amp;start=0&amp;amp;showinfo=0&amp;amp;enablejsapi=1&amp;amp;origin=genius.com"&gt;&lt;/iframe&gt;\n&lt;/div&gt;', 'producers': [{'name': 'Geoff Wilkinson', 'url': 'https://genius.com/artists/Geoff-wilkinson'}, {'name': 'Mel Simpson', 'url': 'https://genius.com/artists/Mel-simpson'}], 'writers': [{'name': 'Geoff Wilkinson', 'url': 'https://genius.com/artists/Geoff-wilkinson'}, {'name': 'Mel Simpson', 'url': 'https://genius.com/artists/Mel-simpson'}, {'name': 'Rahsaan Kelly', 'url': 'https://genius.com/artists/Rahsaan-kelly'}, {'name': 'Herbie Hancock', 'url': 'https://genius.com/artists/Herbie-hancock'}], 'labels': [{'name': 'Capitol Records', 'url': 'https://genius.com/artists/Capitol-records'}, {'name': 'Blue Note Records', 'url': 'https://genius.com/artists/Blue-note-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Iggy-pop-real-wild-child-wild-one-lyrics', 'lyrics': "[Verse 1]\nWell I'm just out of school\nLike I'm real, real cool\nGot to dance like a fool\nGot the message that I got to be\nA wild one\nOoh yeah, I'm a wild one\n\n[Chorus]\nGot to break it loose\nGoing to keep them moving wild\nGoing to keep a swinging baby\nI'm a real wild child\n\n[Verse 2]\nGoing to meet all my friends\nGoing to have ourself a ball\nGoing to tell my friends\nGoing to tell them all\nThat I'm a wild one\nOoh yeah, I'm a wild one\n\n[Chorus]\nGot to break it loose\nGoing to keep them moving wild\nGoing to keep a swinging baby\nI'm a real wild child\n[Verse 3]\nI'm a real wild one\nAnd I like a wild fun\nIn a world gone crazy\nEverything seems hazy\nI'm a wild one\nOoh yeah, I'm a wild one\n\n[Chorus]\nGot to break it loose\nGoing to keep them moving wild\nGoing to keep a swinging baby\nI'm a real wild child\n\n[Bridge]\nI'm a wild one\nI'm a wild one\nI'm a wild one\nOh baby\nI'm a wild one\n\n[Chorus]\nGot to break it loose\nGoing to keep them moving wild\nGoing to keep a swinging baby\nI'm a real wild child", 'annotations': {'description': '', 'producers': [{'name': 'David Bowie', 'url': 'https://genius.com/artists/David-bowie'}, {'name': 'David Richards', 'url': 'https://genius.com/artists/David-richards'}], 'writers': [{'name': 'Dave Owens', 'url': 'https://genius.com/artists/Dave-owens'}, {'name': 'Johnny Greenan', 'url': 'https://genius.com/artists/Johnny-greenan'}, {'name': 'Johnny O’Keefe', 'url': 'https://genius.com/artists/Johnny-okeefe'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Linkin-park-numb-lyrics', 'lyrics': "[Verse 1: Chester Bennington]\nI'm tired of being what you want me to be\nFeeling so faithless, lost under the surface\nI don't know what you're expecting of me\nPut under the pressure of walking in your shoes\n\n[Pre-Chorus: Chester Bennington &amp; Mike Shinoda]\nCaught in the undertow, just caught in the undertow\nEvery step that I take is another mistake to you\nCaught in the undertow, just caught in the undertow\n\n[Chorus: Chester Bennington]\nI've become so numb, I can't feel you there\nBecome so tired, so much more aware\nI'm becoming this, all I want to do\nIs be more like me and be less like you\n\n[Verse 2: Chester Bennington]\nCan't you see that you're smothering me?\nHolding too tightly, afraid to lose control\n'Cause everything that you thought I would be\nHas fallen apart, right in front of you\n\n[Pre-Chorus: Chester Bennington &amp; Mike Shinoda]\nCaught in the undertow, just caught in the undertow\nEvery step that I take is another mistake to you\nCaught in the undertow, just caught in the undertow\nAnd every second I waste is more than I can take\n[Chorus: Chester Bennington]\nI've become so numb, I can't feel you there\nBecome so tired, so much more aware\nI'm becoming this, all I want to do\nIs be more like me and be less like you\n\n[Bridge: Chester Bennington]\nAnd I know I may end up failing, too\nBut I know you were just like me\nWith someone disappointed in you\n\n[Chorus: Chester Bennington]\nI've become so numb, I can't feel you there\nBecome so tired, so much more aware\nI'm becoming this, all I want to do\nIs be more like me and be less like you\n\n[Outro: Chester Bennington]\nI've become so numb, I can't feel you there\nI'm tired of being what you want me to be\nI've become so numb, I can't feel you there\nI'm tired of being what you want me to be", 'annotations': {'description': '&lt;p&gt;“Numb” is the third single and the final track of &lt;a href="https://genius.com/artists/Linkin-park" rel="noopener" data-api_path="/artists/1581"&gt;Linkin Park&lt;/a&gt;’s second studio album, &lt;em&gt;&lt;a href="https://genius.com/albums/Linkin-park/Meteora" rel="noopener" data-api_path="/albums/5986"&gt;Meteora&lt;/a&gt;&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;One of Linkin Park’s most well known and critically acclaimed songs, “Numb” topped the Billboard Hot Modern Rock Tracks chart for 12 weeks. The song spent six weeks at the top of the chart in 2003 and six weeks in 2004, making it the only song in history to be the most successful song of the year on the Hot Modern Rock Tracks chart for two years. The song also spent three weeks atop the Billboard Hot Mainstream Rock Tracks chart and peaked at #11 on the Billboard Hot 100.&lt;/p&gt;\n\n&lt;p&gt;The song was later combined with Jay-Z’s song &lt;a href="https://genius.com/Jay-z-encore-lyrics" rel="noopener" data-api_path="/songs/816"&gt;“Encore”&lt;/a&gt; to create “Numb/Encore”, a massive hit for both artists which was featured on the album Collision Course and earned them the Grammy Award for Best Rap/Sung Collaboration. “Numb” was ranked #95 on Rhapsody’s list of the Top 100 Tracks of the Decade.&lt;/p&gt;\n\n&lt;p&gt;On November 8, 2018, the music video on YouTube reached 1B views and is the first Linkin Park music video to reach 1B views.&lt;/p&gt;\n\n&lt;p&gt;&lt;small&gt;(&lt;em&gt;&lt;a href="http://en.wikipedia.org/wiki/Numb_%28Linkin_Park_song%29" rel="noopener nofollow"&gt;Source&lt;/a&gt;&lt;/em&gt;)&lt;/small&gt;&lt;/p&gt;', 'producers': [{'name': 'Linkin Park', 'url': 'https://genius.com/artists/Linkin-park'}, {'name': 'Don Gilmore', 'url': 'https://genius.com/artists/Don-gilmore'}], 'writers': [{'name': 'Linkin Park', 'url': 'https://genius.com/artists/Linkin-park'}, {'name': 'Mr. Hahn', 'url': 'https://genius.com/artists/Mr-hahn'}, {'name': 'Dave Farrell', 'url': 'https://genius.com/artists/Dave-farrell'}, {'name': 'Rob Bourdon', 'url': 'https://genius.com/artists/Rob-bourdon'}, {'name': 'Brad Delson', 'url': 'https://genius.com/artists/Brad-delson'}, {'name': 'Mike Shinoda', 'url': 'https://genius.com/artists/Mike-shinoda'}, {'name': 'Chester Bennington', 'url': 'https://genius.com/artists/Chester-bennington'}], 'labels': [{'name': 'Warner Records', 'url': 'https://genius.com/artists/Warner-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Coldplay-a-sky-full-of-stars-lyrics', 'lyrics': "[Verse 1]\n'Cause you're a sky, 'cause you're a sky full of stars\nI'm gonna give you my heart\n'Cause you're a sky, 'cause you're a sky full of stars\n'Cause you light up the path\n\n[Chorus]\nI don't care, go on and tear me apart\nI don't care if you do, ooh-ooh, ooh\n'Cause in a sky, 'cause in a sky full of stars\nI think I saw you ooh-ooh-ooh, ooh-ooh-ooh\n\n[Verse 2]\n'Cause you're a sky, 'cause you're a sky full of stars\nI wanna die in your arms, oh-oh-oh, oh-oh\n'Cause you get lighter the more it gets dark\nI'm gonna give you my heart, oh\n\n[Chorus]\nI don't care, go on and tear me apart\nI don't care if you do, ooh-ooh, ooh\n'Cause in a sky, 'cause in a sky full of stars\nI think I see you ooh-ooh-ooh, ooh-ooh-ooh\nI think I see you ooh-ooh-ooh, ooh-ooh-ooh\n\n[Outro]\n'Cause you're a sky, you're a sky full of stars\nSuch a heavenly view\nYou're such a heavenly view\n(Yeah, yeah, yeah, ooh)", 'annotations': {'description': '&lt;p&gt;&lt;img src="https://images.rapgenius.com/a6004d1e25c807f9c72f102e218ebad0.680x588x1.jpg" alt="" width="680" height="588" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;One of Coldplay’s most hyped tracks ever, described by attendees of Coldplay’s secret &lt;em&gt;Ghost Stories&lt;/em&gt; shows as “&lt;a href="http://www.coldplaying.com/forum/threads/99256-A-Sky-Full-Of-Stars!!-%28Out-now-See-first-post%29?p=5630418&amp;amp;viewfull=1#post5630418" rel="noopener nofollow"&gt;wonderfully produced&lt;/a&gt;” and “&lt;a href="http://www.coldplaying.com/forum/threads/99256-A-Sky-Full-Of-Stars!!-%28Out-now-See-first-post%29?p=5630437&amp;amp;viewfull=1#post5630437" rel="noopener nofollow"&gt;upbeat, happy, makes you want to stand up and dance&lt;/a&gt;,” “A Sky Full of Stars” is the centerpiece of &lt;em&gt;Ghost Stories&lt;/em&gt;, bringing the emotional treadmill to an explosive climax.&lt;/p&gt;\n\n&lt;p&gt;The track was released as Coldplay’s second single from Ghost Stories, after &lt;a href="http://rock.genius.com/Coldplay-magic-lyrics" rel="noopener" data-api_path="/songs/373966"&gt;“Magic,”&lt;/a&gt; with the track premiering on 29 April 2014.&lt;/p&gt;\n\n&lt;p&gt;EDM artist &lt;a href="https://genius.com/artists/Avicii" rel="noopener" data-api_path="/artists/17491"&gt;Avicii&lt;/a&gt; was a primary producer on the track and Chris Martin later revealed in an &lt;a href="http://www.nme.com/news/music/coldplay-149-1247301" rel="noopener nofollow"&gt;interview&lt;/a&gt; that he asked the producer to play the piano parts.&lt;/p&gt;', 'producers': [{'name': 'Avicii', 'url': 'https://genius.com/artists/Avicii'}, {'name': 'Rik Simpson', 'url': 'https://genius.com/artists/Rik-simpson'}, {'name': 'Daniel Green', 'url': 'https://genius.com/artists/Daniel-green'}, {'name': 'Paul Epworth', 'url': 'https://genius.com/artists/Paul-epworth'}, {'name': 'Coldplay', 'url': 'https://genius.com/artists/Coldplay'}], 'writers': [{'name': 'Will Champion', 'url': 'https://genius.com/artists/Will-champion'}, {'name': 'Jonny Buckland', 'url': 'https://genius.com/artists/Jonny-buckland'}, {'name': 'Guy Berryman', 'url': 'https://genius.com/artists/Guy-berryman'}, {'name': 'Avicii', 'url': 'https://genius.com/artists/Avicii'}, {'name': 'Chris Martin', 'url': 'https://genius.com/artists/Chris-martin'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Stardust-music-sounds-better-with-you-lyrics', 'lyrics': '[repeated ad infinitum]\nOoh, baby\nI feel right, the music sounds better with you\nLove might bring us back together\nI feel so good\nI feel right, the music sounds better with you\nLove might bring us back together', 'annotations': {'description': '&lt;p&gt;“Music Sounds Better with You” was the only song released by Stardust, a French House-music collaboration between Thomas Bangalter &lt;a href="https://genius.com/artists/Daft-punk" rel="noopener" data-api_path="/artists/13585"&gt;(of Daft Punk)&lt;/a&gt;, Benjamin Cohen, and Alain Quême; the piece samples the song &lt;a href="http://www.youtube.com/watch?v=eFQdCRQd3yg" rel="noopener nofollow"&gt;“Fate”&lt;/a&gt; by Chaka Khan&lt;/p&gt;\n\n&lt;p&gt;Daft Punk would later use the Stardust work in &lt;a href="http://www.youtube.com/watch?v=dSiP835j2es" rel="noopener nofollow"&gt;the encore mashup&lt;/a&gt; they played during the Alive 2007 tour.&lt;/p&gt;', 'producers': [{'name': 'Thomas Bangalter', 'url': 'https://genius.com/artists/Thomas-bangalter'}], 'writers': [{'name': 'Dominic Bugatti', 'url': 'https://genius.com/artists/Dominic-bugatti'}, {'name': 'Frank Musker', 'url': 'https://genius.com/artists/Frank-musker'}, {'name': 'Benjamin Diamond', 'url': 'https://genius.com/artists/Benjamin-diamond'}, {'name': 'Alan Braxe', 'url': 'https://genius.com/artists/Alan-braxe'}, {'name': 'Thomas Bangalter', 'url': 'https://genius.com/artists/Thomas-bangalter'}], 'labels': [{'name': 'Roulé', 'url': 'https://genius.com/artists/Roule'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Nirvana-sliver-lyrics', 'lyrics': '[Verse 1]\nWhen Mom and Dad went to a show\nThey dropped me off at grandpa Joe\'s\nI kicked and screamed\nSaid, "Please, don\'t go!"\n\n[Chorus]\nGrandma, take me home!\nGrandma, take me home!\nGrandma, take me home!\nGrandma, take me home!\nGrandma, take me home!\nGrandma, take me home!\nGrandma, take me home!\nGrandma, take me home!\n\n[Verse 2]\nHad to eat my dinner there\nMashed potatoes and stuff like that\nI couldn\'t chew my meat too good\n\n[Chorus]\nGrandma, take me home!\nGrandma, take me home!\nGrandma, take me home!\nGrandma, take me home!\nGrandma, take me home!\nGrandma, take me home!\nGrandma, take me home!\nGrandma, take me home!\n[Verse 3]\nShe said, "Why don\'t you stop your crying?\nGo outside and ride your bike"\nThat\'s what I did\nI killed my toe!\n\n[Chorus]\nGrandma, take me home!\nGrandma, take me home!\nGrandma, take me home!\nGrandma, take me home!\nGrandma, take me home!\nGrandma, take me home!\nGrandma, take me home!\nGrandma, take me home!\n\n[Verse 4]\nWell, after dinner I had ice cream\nI fell asleep and watched TV\nI woke up in my mother\'s arms\n\n[Chorus]\nGrandma, take me home!\nGrandma, take me home!\nGrandma, take me home!\nGrandma, take me home!\nGrandma, take me home!\nGrandma, take me home!\nGrandma, take me home!\nGrandma, take me home!\nGrandma, take me home!\nGrandma, take me home!\nGrandma, take me home!\nGrandma, take me home!\nGrandma, take me home!\nGrandma, take me home!\nGrandma, take me home!\nGrandma, take me home!\nGrandma, take me home!\nGrandma, take me home!\nI wanna be alone!', 'annotations': {'description': '&lt;p&gt;“Sliver” is about a child whose parents are going to a show, so they drop him off at his grandparents\' house. It features drummer Dan Peters of &lt;a href="https://genius.com/artists/Mudhoney" rel="noopener" data-api_path="/artists/10400"&gt;Mudhoney&lt;/a&gt;, while the music video, filmed years later, has &lt;a href="https://genius.com/artists/Dave-grohl" rel="noopener" data-api_path="/artists/110465"&gt;Dave Grohl&lt;/a&gt; behind the drums.&lt;/p&gt;\n\n&lt;p&gt;“Sliver” was recorded on July 11, 1990, and Grohl joined Nirvana two months later.&lt;/p&gt;', 'producers': [{'name': 'Jack Endino', 'url': 'https://genius.com/artists/Jack-endino'}], 'writers': [{'name': 'Kurt Cobain', 'url': 'https://genius.com/artists/Kurt-cobain'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Ellie-goulding-love-me-like-you-do-lyrics', 'lyrics': "[Produced by Max Martin]\n\n[Verse 1]\nYou're the light, you're the night\nYou're the colour of my blood\nYou're the cure, you're the pain\nYou're the only thing I wanna touch\nNever knew that it could mean so much, so much\n\n[Verse 2]\nYou're the fear, I don't care\nCause I've never been so high\nFollow me through the dark\nLet me take you past the satellites\nYou can see the world you brought to life, to life\n\n[Chorus]\nSo love me like you do, la-la-love me like you do\nLove me like you do, la-la-love me like you do\nTouch me like you do, ta-ta-touch me like you do\nWhat are you waiting for?\n\n[Verse 3]\nFading in, fading out\nOn the edge of paradise\nEvery inch of your skin is a Holy Grail I've got to find\nOnly you can set my heart on fire, on fire\nYeah\n[Bridge]\nI'll let you set the pace\nCause I'm not thinking straight\nMy head's spinning around, I can't see clear no more\nWhat are you waiting for?\n\n[Chorus]\nLove me like you do, la-la-love me like you do\nLove me like you do, la-la-love me like you do\nTouch me like you do, ta-ta-touch me like you do\nWhat are you waiting for?\nLove me like you do, la-la-love me like you do\nLove me like you do, la-la-love me like you do\nTouch me like you do, ta-ta-touch me like you do\nWhat are you waiting for?\n\n[Bridge]\nI'll let you set the pace\nCause I'm not thinking straight\nMy head's spinning around, I can't see clear no more\nWhat are you waiting for?\n\n[Chorus]\nLove me like you do, la-la-love me like you do\nLove me like you do, la-la-love me like you do\nTouch me like you do, ta-ta-touch me like you do\nWhat are you waiting for?\nLove me like you do, la-la-love me like you do\nLove me like you do, la-la-love me like you do\nTouch me like you do, ta-ta-touch me like you do\nWhat are you waiting for?", 'annotations': {'description': '&lt;p&gt;In this second single from the &lt;em&gt;Fifty Shades of Grey&lt;/em&gt; film soundtrack, Ellie Goulding channels the character Anastasia Steele’s passion and desire.&lt;/p&gt;\n\n&lt;p&gt;Writing about this track in &lt;em&gt;the Daily News,&lt;/em&gt; &lt;a href="http://www.nydailynews.com/entertainment/music/review-ellie-goulding-releases-love-article-1.2069107" rel="noopener nofollow"&gt;Jim Farber wrote&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;With her little-girl-lost voice, Goulding sounds sweet even when she’s courting danger. The music, likewise, goes for a high gloss take on romance, recalling the heavily echoed beats and dense synthesizers of a Phil Collins ballad from the ‘80s.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;The song spent four weeks at #1 on the UK singles chart and hit number three of the Billboard Top 100 in the US. &lt;a href="https://genius.com/artists/Vaults" rel="noopener" data-api_path="/artists/73650"&gt;Vaults&lt;/a&gt; made a remix that &lt;a href="https://soundcloud.com/vaults/ellie-goulding-love-me-like-you-do-vaults-remix" rel="noopener nofollow"&gt;Ellie reposted on her SoundCloud&lt;/a&gt;. Later, it was included on her third album &lt;em&gt;Delirium&lt;/em&gt;.&lt;/p&gt;', 'producers': [{'name': 'Ali Payami', 'url': 'https://genius.com/artists/Ali-payami'}, {'name': 'Max Martin', 'url': 'https://genius.com/artists/Max-martin'}], 'writers': [{'name': 'ILYA', 'url': 'https://genius.com/artists/Ilya'}, {'name': 'Tove Lo', 'url': 'https://genius.com/artists/Tove-lo'}, {'name': 'Ali Payami', 'url': 'https://genius.com/artists/Ali-payami'}, {'name': 'Savan Kotecha', 'url': 'https://genius.com/artists/Savan-kotecha'}, {'name': 'Max Martin', 'url': 'https://genius.com/artists/Max-martin'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/U2-i-still-havent-found-what-im-looking-for-lyrics', 'lyrics': "[Verse 1]\nI have climbed the highest mountains\nI have run through the fields\nOnly to be with you\nOnly to be with you\nI have run, I have crawled\nI have scaled these city walls\nThese city walls\nOnly to be with you\n\n[Chorus]\nBut I still haven't found\nWhat I'm looking for\nBut I still haven't found\nWhat I'm looking for\n\n[Verse 2]\nI have kissed honey lips\nFelt the healing in her fingertips\nIt burned like fire\nThis burning desire\nI have spoke with the tongue of angels\nI have held the hand of a devil\nIt was warm in the night\nI was cold as a stone\n[Chorus]\nBut I still haven't found\nWhat I'm looking for\nBut I still haven't found\nWhat I'm looking for\n\n[Instrumental Bridge]\n\n[Verse 3]\nI believe in the Kingdom Come\nThen all the colours will bleed into one\nBleed into one\nBut yes, I'm still running\nYou broke the bonds and you loosed the chains\nCarried the cross of my shame\nOf my shame\nYou know I believe it\n\n[Chorus]\nBut I still haven't found\nWhat I'm looking for\nBut I still haven't found\nWhat I'm looking for\nBut I still haven't found\nWhat I'm looking for\nBut I still haven't found\nWhat I'm looking for\n[Instrumental Outro]", 'annotations': {'description': '&lt;p&gt;“I Still Haven’t Found What I’m Looking For” is the second single taken from U2’s 1987 album &lt;em&gt;The Joshua Tree&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;It’s written in the writing style of King David, specifically from the poems recorded in the Book of Psalms in the Old Testament. The lyricism also emulates Charles Bukowski’s poetry, who Bono was reading at the time.&lt;/p&gt;\n\n&lt;p&gt;The subject Bono is searching for is left without description – he doesn’t tell us what he’s pursuing, just that he is searching with a single-minded focus and great longing. This section is written in a nearly identical style to the writings of David.&lt;/p&gt;\n\n&lt;p&gt;There are many allusions in the later stanzas Christian and romantic, sensual and in the last stanza a declaration of the narrator’s worldview and personal beliefs, but he also tells his audience that he has not reached his destination and is still looking to be with ‘the you’ he mentions in the beginning of the song.&lt;/p&gt;', 'producers': [{'name': 'Daniel Lanois', 'url': 'https://genius.com/artists/Daniel-lanois'}, {'name': 'Brian Eno', 'url': 'https://genius.com/artists/Brian-eno'}], 'writers': [{'name': 'Larry Mullen Jr.', 'url': 'https://genius.com/artists/Larry-mullen-jr'}, {'name': 'Adam Clayton', 'url': 'https://genius.com/artists/Adam-clayton'}, {'name': 'The Edge (Guitarist)', 'url': 'https://genius.com/artists/The-edge-guitarist'}, {'name': 'Bono', 'url': 'https://genius.com/artists/Bono'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Irene-cara-flashdance-what-a-feeling-lyrics', 'lyrics': "[Intro]\nFirst, when there's nothing, but a slow glowing dream\nThat your fear seems to hide deep inside your mind\nAll alone, I have cried, silent tears full of pride\nIn a world made of steel, made of stone\n\n[Verse 1]\nWell, I hear the music, close my eyes, feel the rhythm\nWrap around, take a hold of my heart\n\n[Chorus]\nWhat a feelin', being's believin'\nI can have it all, now I'm dancing for my life\nTake your passion, and make it happen\nPictures come alive, you can dance right through your life\n\n[Verse 2]\nNow I hear the music, close my eyes, I am rhythm\nIn a flash, it takes hold of my heart\n\n[Chorus]\nWhat a feelin', being's believin'\nI can have it all, now I'm dancing for my life\nTake your passion, and make it happen\nPictures come alive, now I'm dancing through my life\n[Interlude]\nWhat a feelin'\n\n[Instrumental Break]\n\n[Chorus / Outro]\nWhat a feelin', being's believin' (I am music now, I am rhythm now)\nPictures come alive, you can dance right through your life\n\nWhat a feelin', what a feelin'\n(I can really have it all, pictures come alive when I call)\nI can have it all, have it all\n(I can really have it all, pictures come alive when I call)\n\n(Call, call, call, call, what a feelin')\nI can have it all\nBeing's believin' (Being's believin', take your passion)\nMake it happen, what a feelin' (Make it happen, what a feelin')", 'annotations': {'description': '&lt;p&gt;“Flashdance… What a Feeling” is the title song to the 1983 film &lt;em&gt;Flashdance&lt;/em&gt;. It is Irene Cara’s only number-one hit on the Billboard Hot 100, reaching the top that spring. It also won the Academy and Golden Globe Award for &lt;em&gt;Best Original Song&lt;/em&gt; and was certified gold.&lt;/p&gt;\n\n&lt;p&gt;The song also hit #1 in nine more countries around the world. In the UK, it reached #2, held from the top spot by Rod Stewart’s “Baby Jane”.&lt;/p&gt;\n\n&lt;p&gt;Cara and co-writer Keith Forsey wrote the lyrics while driving to a recording session.&lt;/p&gt;', 'producers': [{'name': 'Giorgio Moroder', 'url': 'https://genius.com/artists/Giorgio-moroder'}], 'writers': [{'name': 'Giorgio Moroder', 'url': 'https://genius.com/artists/Giorgio-moroder'}, {'name': 'Keith Forsey', 'url': 'https://genius.com/artists/Keith-forsey'}, {'name': 'Irene Cara', 'url': 'https://genius.com/artists/Irene-cara'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Mgmt-kids-lyrics', 'lyrics': "[Intro]\nFive, four, three, two, one, ah!\n\n[Verse 1]\nYou were a child crawling on your knees toward it\nMaking mama so proud, but your voice is too loud\nWe like to watch you laughing\nYou pick the insects off plants, no time to think of consequences\n\n[Chorus]\nControl yourself, take only what you need from it\nA family of trees wanted to be haunted\nControl yourself, take only what you need from it\nA family of trees wanted to be haunted\n\n[Verse 2]\nThe water is warm, but it's sending me shivers\nA baby is born crying out for attention\nThe memories fade like looking through a fogged mirror\nDecision to decisions are made and not bought\nBut I thought this wouldn't hurt a lot, I guess not\n\n[Chorus]\nControl yourself, take only what you need from it\nA family of trees wanted to be haunted\nControl yourself, take only what you need from it\nA family of trees wanted to be haunted\n[Instrumental Break]\n\n[Chorus]\nControl yourself, take only what you need from it\nA family of trees wanted to be haunted\nControl yourself, take only what you need from it\nA family of trees wanted to be haunted\nControl yourself, take only what you need from it\nA family of trees wanted to be haunted\nControl yourself, take only what you need from it\nA family of trees", 'annotations': {'description': '&lt;p&gt;“Kids” is a song that teaches empathy and moderation. As the track begins, it is meant to induce feelings of nostalgia, to bring the listener back to much simpler times… as a kid… innocent. As the melody progresses, so does the next stage of life. As you grow older, you begin to lose your innocence and fall into society’s ways. The artists warn of the impending struggle between good and bad and remind the listener to take in the world around them in moderation. As one grows older, they must try to maintain the happy-go-lucky attitude and love for the life they had as a kid.&lt;/p&gt;\n\n&lt;p&gt;The song is perfect for recognizing that the entirety of your youth is the glory days (especially your collegiate years), remembering to live in the moment and creating fond memories you will reminisce about in the future whenever you hear the familiar melody.&lt;/p&gt;\n\n&lt;p&gt;In an interview with Time Out London, Wyngarden describes the band’s mentality when writing the song: “We were just happy-go-lucky, going crazy on campus. But at the same time, we were nostalgic for childhood and there was the threat of post-college life coming.”&lt;/p&gt;\n\n&lt;p&gt;The “threat” of “post-college life” is surely a reference to impending adulthood. With that in mind, it makes a lot of sense that almost all of the adults in the official music video are portrayed as threatening monsters. In the end, it seems like MGMT is constantly inspired by this fear of growing up. Like Nietzsche and Twain (also referenced in the official music video) they express a cynicism for the adult world. Many of their songs are drenched with a nostalgia for the lost innocence of childhood that the adult world tends to steal away. “Kids” is a great example of all this. Sure, the song is upbeat, a bit random, and super catchy, but its meaning seems to be grounded in these universal emotions of fear and longing.&lt;/p&gt;\n\n&lt;p&gt;The song was the center of a &lt;a href="http://www.nme.com/news/mgmt/43064" rel="noopener nofollow"&gt;legal dispute with the former President of France&lt;/a&gt;, Nicolas Sarkozy, over the “insulting” compensation he offered for his illegal use of the song during a party conference (meanwhile, MGMT donated their entire legal settlement from the French government to Haiti earthquake relief)&lt;/p&gt;', 'producers': [{'name': 'MGMT', 'url': 'https://genius.com/artists/Mgmt'}, {'name': 'Dave Fridmann', 'url': 'https://genius.com/artists/Dave-fridmann'}], 'writers': [{'name': 'Ben Goldwasser', 'url': 'https://genius.com/artists/Ben-goldwasser'}, {'name': 'Andrew VanWyngarden', 'url': 'https://genius.com/artists/Andrew-vanwyngarden'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Metro-station-shake-it-lyrics', 'lyrics': "[Intro]\nThe Shot\nYeah, come on\n(Shake, shake)\n\n[Verse 1]\nI'll take you home if you don't leave me at the front door (Leave me at the front door)\nYour body's cold, but girl, we're getting so warm\nAnd I was thinking of ways that I could get inside (Get inside)\n\n[Pre-Chorus]\nTonight, you're falling in love (Let me go now)\nThis feeling's tearing me up (Here we go now)\n\n[Chorus]\nNow if she does it like this, will you do it like that?\nNow if she touches like this, will you touch her right back?\nNow if she moves like this, will you move her like that?\nC'mon, shake shake, shake shake, a-shake it\nShake shake, shake shake, a-shake that\nShake shake, shake shake, a-shake it\nShake shake, shake shake, a-shake that\nShake shake, shake shake, a-shake it\n\n[Verse 2]\nYour lips tremble, but your eyes are in a straight stare (Eyes are in a straight stare)\nWe're on the bed, but your clothes are laying right there\nAnd I was thinking of places that I could hide (I could hide)\n[Pre-Chorus]\nTonight you're falling in love (Let me go now)\nThis feeling's tearing me up (Here we go now)\n\n[Chorus]\nNow if she does it like this, will you do it like that?\nNow if she touches like this, will you touch her right back?\nNow if she moves like this, will you move her like that?\nC'mon, shake shake, shake shake, a-shake it\nShake shake, shake shake, a-shake that\nShake shake, shake shake, a-shake it\nShake shake, shake shake, a-shake that\nShake shake, shake shake, a-shake it\n\n[Bridge]\nI saw you dancing and I couldn't get you off my mind\nAnd I could tell that you could tell that I was taking my time\nBut I was thinking of ways to get you staying the night\nYour body's shaking, tell me off so I can turn off the lights\n\n[Chorus]\nNow if she does it like this, will you do it like that?\nNow if she touches like this, will you touch her right back?\nNow if she moves like this, will you move her like that?\nC'mon, shake shake, shake shake, a-shake it\nShake shake, shake shake, a-shake that\nShake shake, shake shake, a-shake it\nShake shake, shake shake, a-shake that\nShake shake, shake shake, a-shake it\n[Outro]\nShake shake, shake shake, a-shake it\nShake shake, shake shake, a-shake it\nShake shake, shake shake, a-shake it\nShake shake, shake shake, a-shake it", 'annotations': {'description': '&lt;p&gt;“Shake It” is the fourth track off Metro Station’s debut self titled album. The song was a huge commercial success, with the single reaching a 2x platinum certification in the US.&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;&lt;em&gt;Let me paint a picture for you. You’re in 8th grade at the school dance. You and your homeboys are posted up on the wall. Directly across the room on the other wall is all the girls. Now everyone wants to dance but you’re all too afraid to make the first move. You’re eying that girl you have a huge crush on, thinking of what you could possibly say to her. Then it happens. The DJ drops that one perfect song. Girls are screaming “omg this is literally my song” and running to the dance floor. You and your homies are off the wall; it’s go time. Sure, this song is clearly written by someone who has no idea how sex works. “If she does it like this will you do it like that, seriously guys how do you do it someone tell me I’m very confused” But no matter. This is your song, your moment. This is Metro Station.&lt;/em&gt;&lt;/p&gt;&lt;/blockquote&gt;', 'producers': [{'name': 'S*A*M and Sluggo', 'url': 'https://genius.com/artists/Sam-and-sluggo'}, {'name': 'Dave Katz', 'url': 'https://genius.com/artists/Dave-katz'}, {'name': 'Sam Hollander', 'url': 'https://genius.com/artists/Sam-hollander'}], 'writers': [{'name': 'Anthony Improgo', 'url': 'https://genius.com/artists/Anthony-improgo'}, {'name': 'Blake Healy', 'url': 'https://genius.com/artists/Blake-healy'}, {'name': 'Mason Musso', 'url': 'https://genius.com/artists/Mason-musso'}, {'name': 'Trace Cyrus', 'url': 'https://genius.com/artists/Trace-cyrus'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Palaye-royale-tonight-is-the-night-i-die-lyrics', 'lyrics': "[Intro]\nTonight is the night I die\n\n[Verse 1]\nLonely, another day\nDrowning, please save me\nI am struggling in my\u2005own\u2005daydream\n\n[Pre-Chorus]\nI know I\u2005can't live much longer\nHear the angels\u2005sing\n\n[Chorus]\nTonight is the night I die\nTonight is the night I die\nTonight is the night I\n\n[Verse 2]\nSurrender to my pain, locked inside my cage\nCould I be a prisoner for the voices in my brain?\nMy mind is gone to waste, can't stand to look at my face\nAll these thoughts inside my head, be silenced by the bang\n\n[Pre-Chorus]\nI know I can't live much longer\nHear the angels sing\n[Chorus]\nTonight is the night I die\n(Believe me, believe me when I say)\nTonight is the night I die\n(Believe me, believe me when I say)\nTonight is the night I die\n\n[Post-Chorus]\nDie another day\nWhat they want me to say\nWhat they want me to say\nDie another day\nDie another day\nDie another day\nTonight is the night I die\n\n[Bridge]\nAs I walk through the valley of the shadow of death\nI look at you as I take my last breath\nAs I die and fall to the floor\nMy pain and suffering is no more\n\n[Chorus]\nTonight is the night I die\n(Believe me, believe me when I say)\nTonight is the night I die\n(Believe me, believe me when I say)\nTonight is the night I die\n[Post-Chorus]\nDie another day\nWhat they want me to say\nWhat they want me to say\nDie another day\nDie another day\nDie another day\nTonight is the night I die\nTonight is the night I die", 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Tonight Is The Night I Die&lt;/em&gt; is the fourth track off of Palaye Royale’s album entitled &lt;em&gt;The Bastards.&lt;/em&gt; A preview of the song was shown on May 1, 2020 as part of the trailer for upcoming TV show &lt;em&gt;Paradise City.&lt;/em&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;/p&gt;&lt;div class="embedly_preview"&gt;\n&lt;blockquote class="twitter-tweet"&gt;&lt;a href="https://twitter.com/palayeroyale/status/1256324512078954497?ref_src=embedly"&gt;&lt;/a&gt;&lt;/blockquote&gt;\n&lt;script async src="//platform.twitter.com/widgets.js" charset="utf-8"&gt;&lt;/script&gt;\n&lt;/div&gt;', 'producers': [{'name': 'Matthew Pauling', 'url': 'https://genius.com/artists/Matthew-pauling'}], 'writers': [{'name': 'Palaye Royale', 'url': 'https://genius.com/artists/Palaye-royale'}], 'labels': [{'name': 'Sumerian Records', 'url': 'https://genius.com/artists/Sumerian-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Ariana-grande-no-tears-left-to-cry-lyrics', 'lyrics': "[Intro]\nRight now, I'm in a state of mind\nI wanna be in like all the time\nAin't got no tears left to cry\nSo I'm pickin' it up, pickin' it up\nI'm lovin', I'm livin' (Oh hey), I'm pickin' it up\nI'm pickin' it up, pickin' it up (Yeah)\nI'm lovin', I'm livin', I'm pickin' it up (Oh, yeah)\n\n[Refrain]\nI'm pickin' it up (Yeah), pickin' it up (Yeah)\nLovin', I'm livin', so we turnin' up (We turnin' it up)\nYeah, we turnin' it up\n\n[Verse 1]\nAin't got no tears in my body\nI ran out, but boy, I like it, I like it, I like it\nDon't matter how, what, where, who tries it\nWe out here vibin', we vibin', we vibin'\n\n[Pre-Chorus]\nComin' out, even when it's rainin' down\nCan't stop now, can't stop so shut your mouth\nShut your mouth, and if you don't know\nThen now you know it, babe\nKnow it, babe, yeah\n[Chorus]\nRight now, I'm in a state of mind\nI wanna be in like all the time\nAin't got no tears left to cry\nSo I'm pickin' it up, pickin' it up (Oh yeah)\nI'm lovin', I'm livin', I'm pickin' it up\nOh, I just want you to come with me (Ooh)\nWe're on another mentality\nAin't got no tears left to cry (To cry)\nSo I'm pickin' it up, pickin' it up (Oh yeah)\nI'm lovin', I'm livin', I'm pickin' it up (Oh)\n\n[Refrain]\nPickin' it up (Yeah), pickin' it up (Yeah)\nLovin', I'm livin', so we turnin' up (We turnin' it up)\nYeah, we turnin' it up\n\n[Verse 2]\nThey point out the colors in you, I see 'em too\nAnd, boy, I like 'em, I like 'em, I like 'em\nWe're way too fly to partake in all this hate\nWe out here vibin', we vibin', we vibin'\n\n[Pre-Chorus]\nComin' out, even when it's rainin' down\nCan't stop now, can't stop, so shut your mouth\nShut your mouth, and if you don't know\nThen now you know it, babe\nKnow it, babe, yeah\n[Chorus]\nRight now, I'm in a state of mind\nI wanna be in like all the time\nAin't got no tears left to cry\nSo I'm pickin' it up, pickin' it up (Oh yeah)\nI'm lovin', I'm livin', I'm pickin' it up\nOh, I just want you to come with me (Ooh)\nWe're on another mentality\nAin't got no tears left to cry (To cry)\nSo I'm pickin' it up, pickin' it up (Oh yeah)\nI'm lovin', I'm livin', I'm pickin' it up\n\n[Bridge]\nComin' out, even when it's rainin' down\nCan't stop now (Hmm, oh)\nShut your mouth\nAin't got no tears left to cry\nOh-yeah, oh, yeah\n\n[Chorus]\nOh, I just want you to come with me (Me)\nWe're on another mentality\nAin't got no tears left to cry (Cry)\nSo I'm pickin' it up (Yeah), pickin' it up (Oh, yeah)\nI'm lovin', I'm livin', I'm pickin' it up (Pickin' it up)\n[Refrain]\nPickin' it up (Hmm), pickin' it up (Hmm)\nLovin', I'm livin', so we turnin' up (Hmm)\nYeah, we turnin' it up", 'annotations': {'description': '&lt;p&gt;“no tears left to cry” is a self-lifting anthem by pop songstress Ariana Grande. This is the lead single to her fourth studio album, &lt;em&gt;&lt;a href="https://genius.com/albums/Ariana-grande/Sweetener" rel="noopener" data-api_path="/albums/393916"&gt;Sweetener&lt;/a&gt;&lt;/em&gt;. It also marks Ariana’s return to music after a hiatus from performing in the wake of the &lt;a href="https://www.theguardian.com/uk-news/2017/jun/04/grande-return-ariana-takes-manchester-stage-at-benefit-concert" rel="noopener nofollow"&gt;2017 Manchester bombing attack&lt;/a&gt; that occurred during her &lt;em&gt;Dangerous Woman Tour&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;After teasing the single through a series of photos taken of her wearing a sweatshirt with the lead single’s title and through her &lt;a href="https://pbs.twimg.com/media/Da24em7UwAA0Tog.jpg:large" rel="noopener nofollow"&gt;Instagram story&lt;/a&gt;, Ariana broke her social media silence to confirm the single &lt;a href="https://twitter.com/ArianaGrande/status/986383824127799296" rel="noopener nofollow"&gt;via her twitter&lt;/a&gt; alongside with teardrop emoji, and stating: &lt;a href="https://twitter.com/ArianaGrande/status/986371301370609665" rel="noopener nofollow"&gt;“missed you”&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;For the single cover, Ariana looks on as a rainbow rests across her eyes. Rainbows are a natural phenomenon that appear after rain, as the sun refracts through the water droplets. Symbolically, a rainbow tends to &lt;a href="https://www.universeofsymbolism.com/rainbow-symbolism.html" rel="noopener nofollow"&gt;represent the idea of hope and optimism&lt;/a&gt;. The image illustrates the idea that Ariana’s teardrops have faded, resulting in the rainbow, and she is ready to move on.&lt;/p&gt;\n\n&lt;p&gt;Her accompanying music video was &lt;a href="https://instagram.com/p/BhxI7IBHzju/" rel="noopener nofollow"&gt;teased on Instagram&lt;/a&gt; on April 19, 2018, and was officially published on Youtube the next day.&lt;/p&gt;', 'producers': [{'name': 'ILYA', 'url': 'https://genius.com/artists/Ilya'}, {'name': 'Max Martin', 'url': 'https://genius.com/artists/Max-martin'}], 'writers': [{'name': 'ILYA', 'url': 'https://genius.com/artists/Ilya'}, {'name': 'Savan Kotecha', 'url': 'https://genius.com/artists/Savan-kotecha'}, {'name': 'Max Martin', 'url': 'https://genius.com/artists/Max-martin'}, {'name': 'Ariana Grande', 'url': 'https://genius.com/artists/Ariana-grande'}], 'labels': [{'name': 'Universal Music Group', 'url': 'https://genius.com/artists/Universal-music-group'}, {'name': 'Republic Records', 'url': 'https://genius.com/artists/Republic-records'}]}}</t>
-  </si>
-  <si>
-    <t>{"url": "https://genius.com/Earth-wind-and-fire-september-lyrics", "lyrics": "[Verse 1]\nDo you remember\nThe 21st night of September?\nLove was changin' the minds of pretenders\nWhile chasin' the clouds away\nOur hearts were ringin'\nIn the key that our souls were singin'\nAs we danced in the night, remember\nHow the stars stole the night away, oh, yeah\n\n[Chorus]\nHey, hey, hey\nBa-dee-ya, say, do you remember?\nBa-dee-ya, dancin' in September\nBa-dee-ya, never was a cloudy day\n\n[Post-Chorus]\nBa-du-da, ba-du-da, ba-du-da, ba-du\nBa-du-da, ba-du, ba-du-da, ba-du\nBa-du-da, ba-du, ba-du-da\n\n[Verse 2]\nMy thoughts are with you\nHoldin' hands with your heart to see you\nOnly blue talk and love, remember\nHow we knew love was here to stay\nNow December\nFound the love that we shared in September\nOnly blue talk and love, remember\nThe true love we share today\n[Chorus]\nHey, hey, hey\nBa-dee-ya, say, do you remember?\nBa-dee-ya, dancin' in September\nBa-dee-ya, never was a cloudy day\nThere was a\u2014\nBa-dee-ya (Dee-ya, dee-ya), say, do you remember?\nBa-dee-ya (Dee-ya, dee-ya), dancin' in September\nBa-dee-ya (Dee-ya, dee-ya), golden dreams were shiny days\n\n[Bridge]\nThe bell was ringin', oh, oh\nOur souls were singin'\nDo you remember never a cloudy day? Yow\n\n[Chorus]\nThere was a\nBa-dee-ya (Dee-ya, dee-ya), say, do you remember?\nBa-dee-ya (Dee-ya, dee-ya), dancin' in September\nBa-dee-ya (Dee-ya, dee-ya), never was a cloudy day\nAnd we'll say\nBa-dee-ya (Dee-ya, dee-ya), say, do you remember?\nBa-dee-ya (Dee-ya, dee-ya), dancin' in September\nBa-dee-ya (Dee ya, dee-ya),  golden dreams were shiny days\n\n[Outro]\nBa-dee-ya, dee-ya, dee-ya\nBa-dee-ya, dee-ya, dee-ya\nBa-dee-ya, dee-ya, dee-ya, dee-ya!\nBa-dee-ya, dee-ya, dee-ya\nBa-dee-ya, dee-ya, dee-ya\nBa-dee-ya, dee-ya, dee-ya, dee-ya!", "annotations": {"description": "&lt;p&gt;In \u201cSeptember,\u201d &lt;a href=\"https://genius.com/artists/Maurice-white\" rel=\"noopener\" data-api_path=\"/artists/69897\"&gt;Maurice White&lt;/a&gt; reminisces over a nostalgic period that took place in the month of September. &lt;/p&gt;\n\n &lt;p&gt;As a joyful classic, the song has appeared in a variety of commercials and &lt;a href=\"https://www.imdb.com/name/nm0247451/\" rel=\"noopener nofollow\"&gt;movies&lt;/a&gt;, and has even served as &lt;a href=\"https://www.imdb.com/title/tt0219636/\" rel=\"noopener nofollow\"&gt;the inspiration for a movie title.&lt;/a&gt; Interest in the song &lt;a href=\"https://www.thenational.ae/arts-culture/music/earth-wind-fire-s-hit-september-survives-the-test-of-time-1.912759\" rel=\"noopener nofollow\"&gt;spikes yearly every September 21&lt;/a&gt;, and more recently &lt;a href=\"https://www.vox.com/2018/9/21/17887990/earth-wind-fire-september-21-meme-demi-adejuyigbe\" rel=\"noopener nofollow\"&gt;the subject of celebration on Twitter.&lt;/a&gt; The song also inspired &lt;a href=\"https://edition.cnn.com/2019/09/21/entertainment/earth-wind-and-fire-day-september-21-trnd/index.html\" rel=\"noopener nofollow\"&gt;the City of Los Angeles to declare that the 21 &lt;sup&gt;st&lt;/sup&gt; of September would be Earth, Wind &amp;amp; Fire Day, &lt;/a&gt; in honor of the band\u2019s connections to the city.&lt;/p&gt;\n\n&lt;p&gt;This 1978 hit became number one on the U.S. R&amp;amp;B chart and reached the eighth position on the &lt;a href=\"https://www.billboard.com/charts/hot-100\" rel=\"noopener nofollow\"&gt;Billboard Hot 100&lt;/a&gt;. It was written by Maurice White, Al McKay, and Allee Willis.&lt;/p&gt;", "producers": [{"name": "Maurice White", "url": "https://genius.com/artists/Maurice-white"}], "writers": [{"name": "Allee Willis", "url": "https://genius.com/artists/Allee-willis"}, {"name": "Al McKay", "url": "https://genius.com/artists/Al-mckay"}, {"name": "Maurice White", "url": "https://genius.com/artists/Maurice-white"}], "labels": [{"name": "American Record Corporation", "url": "https://genius.com/artists/American-record-corporation"}, {"name": "Columbia Records", "url": "https://genius.com/artists/Columbia-records"}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Pitbull-rain-over-me-lyrics', 'lyrics': '[Letra de "Rain Over Me" ft. Marc Anthony]\n\n[Pre-Chorus: Marc Anthony, Pitbull]\nGirl, my body don\'t lie (RedOne)\nI\'m out of my mind\nLet it rain over me (Mr. Worldwide)\nI\'m rising so high\nOut of my mind (Marc Anthony)\nSo let it rain over me (Woo!)\n\n[Chorus: Marc Anthony]\nAy-ay-ay, ay-ay-ay\nLet it rain over me\nAy-ay-ay, ay-ay-ay\nLet it rain over me\n\n[Verse 1: Pitbull]\n(Woo!)\nA billion is a new million\nVoli\'s a new vodka\nForty\'s the new 30 (Ah)\nBaby, you\'re a rockstar (Ha, ha)\nDale, veterana, que tú sabe\'\nMás de la cuenta, no te hagas\nTeach me, baby, or better yet\nFreak me, baby, yes, yes\nI\'m freaky, baby\nI\'ma make sure that your peach feels peachy, baby (Ha, ha, ha)\nNo bullshit broads, I like my women sexy, classy, sassy\nPowerful yes (Yes), they love to get a little bit nasty, ow\nThis ain\'t a game you\'ll see (You\'ll see)\nYou can put the blame on me (On me)\nDale, muñequita, abre ahí and let it rain over me (Woo!)\n[Pre-Chorus: Marc Anthony]\nGirl, my body don\'t lie\nI\'m out of my mind\nLet it rain over me\nI\'m rising so high\nOut of my mind\nSo let it rain over me\n\n[Chorus: Marc Anthony]\nAy-ay-ay, ay-ay-ay\nLet it rain over me\nAy-ay-ay, ay-ay-ay\nLet it rain over me\n\n[Verse 2: Pitbull]\n(Woo!)\nA billion is a new million\nVoli\'s a new vodka\nLatin is the new majority, ya tú sabe\'\nNext step, la Casa Blanca\nNo hay carro, no vamo\' en balsa (Ha, ha, ha)\nMami, you know the drill (Uh)\nThey won\'t know what I got \'til they read the will (Ha, ha)\nI ain\'t tryin\', I ain\'t trying to keep it real (Ha, ha)\nI\'m trying to keep wealthy and that\'s for real (Woo!)\nPero mira que tú \'tás buena (Buena), y mira que tú \'tás dura (Mira, dura)\nBaby, no me hables más (No me hables más), y tíramelo, mami chula (Chula)\nNo games you\'ll see (You\'ll see)\nYou can put the blame on me (On me)\nDale, muñequita, abre ahí and let it rain over me (Woo!)\n[Pre-Chorus: Marc Anthony]\nGirl, my body don\'t lie\nI\'m out of my mind\nLet it rain over me\nI\'m rising so high\nOut of my mind\nSo let it rain over me\n\n[Chorus: Marc Anthony]\nAy-ay-ay, ay-ay-ay\nLet it rain over me\nAy-ay-ay, ay-ay-ay\nLet it rain over me\n\n[Bridge: Pitbull]\nMr. Worldwide, Marc Anthony, tú sabe\nI was playing with her (With her), she was playing with me (With me)\nNext thing you know (Yeah), we were playing with three (With three)\nOh-oh-oh-oh-oh-oh, oh-oh-oh-oh-oh-oh\nI was playing with her (With her), she was playing with me (With me)\nNext thing you know (Yeah), we were playing with three (With three)\nOh-oh-oh-oh-oh-oh, oh-oh-oh-oh-oh-oh\nRain over me\n\n[Pre-Chorus: Marc Anthony]\nGirl, my body don\'t lie\nI\'m out of my mind\nLet it rain over me\nI\'m rising so high\nOut of my mind\nSo let it rain over me (Over me)\n[Chorus: Marc Anthony &amp; Pitbull]\nAy-ay-ay, ay-ay-ay\nLet it rain over me (Over me)\nAy-ay-ay, ay-ay-ay\nLet it rain over me\nAy-ay-ay, ay-ay-ay\nLet it rain over me\nAy-ay-ay, ay-ay-ay\nLet it rain over me (Woo)', 'annotations': {'description': '&lt;p&gt;“Rain Over Me” is one of Pitbull’s classic songs, which is about reaching past the limits with women. From his sixth studio album, &lt;a href="https://genius.com/albums/Pitbull/Planet-pit" rel="noopener" data-api_path="/albums/7578"&gt;&lt;em&gt;Planet Pit&lt;/em&gt;&lt;/a&gt;, it peaked on #30 on the Billboard Hot 100 in the US.&lt;/p&gt;', 'producers': [{'name': 'Rush (Producer)', 'url': 'https://genius.com/artists/Rush-producer'}, {'name': 'Jimmy Joker', 'url': 'https://genius.com/artists/Jimmy-joker'}, {'name': 'RedOne', 'url': 'https://genius.com/artists/Redone'}], 'writers': [{'name': 'Rachid Aziz', 'url': 'https://genius.com/artists/Rachid-aziz'}, {'name': 'A.J. Jannusi', 'url': 'https://genius.com/artists/Aj-jannusi'}, {'name': 'Bilal “The Chef” Hajji', 'url': 'https://genius.com/artists/Bilal-the-chef-hajji'}, {'name': 'Marc Anthony', 'url': 'https://genius.com/artists/Marc-anthony'}, {'name': 'RedOne', 'url': 'https://genius.com/artists/Redone'}, {'name': 'Pitbull', 'url': 'https://genius.com/artists/Pitbull'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Twenty-one-pilots-chlorine-lyrics', 'lyrics': "[Intro: Paul Meany]\nSo, where are ya? It's been a little while\n\n[Chorus]\nSippin' on straight chlorine\nLet the vibe slide over me\nThis beat is a chemical, beat is a chemical\nWhen I leave, don't save my seat\nI'll be back when it's all complete\nThe moment is medical, moment is medical\nSippin' on straight chlorine\n\n[Verse 1]\nLovin' what I'm tastin', woah\nVenom on my tongue, dependent at times\nPoisonous vibrations, woah\nHelp my body run\n\n[Refrain]\nI'm runnin' for my life\nRunnin' for my life\n\n[Chorus]\nSippin' on straight chlorine\nLet the vibe slide over me\nThis beat is a chemical, beat is a chemical\nWhen I leave, don't save my seat\nI'll be back when it's all complete\nThe moment is medical, moment is medical\nSippin' on straight chlorine\n[Verse 2]\nFall out of formation, woah\nI plan my escape from walls they confined\nRebel red carnation, woa-a-oh\nGrows while I decay\n\n[Refrain]\nI'm runnin' for my life\nRunnin' for my life\nYeah, I'm runnin' for my life\nRunnin' for my life\n\n[Verse 3]\nHide you in my coat pocket, where I kept my rebel red\nI felt I was invincible, you wrapped around my head\nNow different lives I lead, my body lives on lead\nThe last two lines may read incorrect until said\nThe lead is terrible in flavor\nBut now you double as a paper maker\nI despise you sometimes, I love to hate the fight\nAnd you in my life is like\n\n[Chorus]\nSippin' on straight chlorine\nLet the vibe slide over me\nThis beat is a chemical, beat is a chemical\nWhen I leave, don't save my seat\nI'll be back when it's all complete\nThe moment is medical, moment is medical\nSippin' on straight chlorine\n[Interlude]\nLet the vibe, let the vibe\nLet the vibe, let the vibe\nBeat is a chemical, yeah\nLet the vibe, let the vibe\nLet the vibe, let the vibe\nMoment is medical, yeah\nSippin' on straight chlorine\nLet the vibe, let the vibe\nLet the vibe, let the vibe\nBeat is a chemical, yeah\nLet the vibe, let the vibe\nLet the vibe, let the vibe\nMoment is medical, yeah\n\n[Outro]\nI'm so sorry I forgot you\nLet me catch you up to speed\nI've been tested like the ends of\nA weathered flag that's by the sea\nCan you build my house with pieces?\nI'm just a chemical\nCan you build my house with pieces?\nI'm just a chemical\nCan you build my house with pieces?\nI'm just a chemical\nCan you build my house with pieces?\nI'm just a chemical", 'annotations': {'description': '&lt;p&gt;“Chlorine” is a track about the cleansing power that music has on the narrator. Chlorine, while being a deadly chemical, is used to eliminate unwanted substances. As stated in the lyrics, the chemical is compared to a “vibe” or “beat.” While the chlorine has poisonous properties and could potentially cause harm, the narrator just can’t get enough.&lt;/p&gt;\n\n&lt;p&gt;A similar idea is found in an &lt;a href="https://genius.com/Twenty-one-pilots-tear-in-my-heart-lyrics" rel="noopener" data-api_path="/songs/725794"&gt;earlier song&lt;/a&gt; when Tyler says,&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;&lt;a href="https://genius.com/Twenty-one-pilots-tear-in-my-heart-lyrics" rel="noopener" data-api_path="/songs/725794"&gt;You gotta bleed to know&lt;br&gt;\nThat you’re alive and have a soul&lt;/a&gt;&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;In both cases, the concept of pain, or something which would generally be unwanted is flipped on its side and used as a metaphor for that which is beneficial.&lt;/p&gt;\n\n&lt;p&gt;On January 22, 2019, Twenty One Pilots released an &lt;a href="https://www.youtube.com/watch?v=eJnQBXmZ7Ek" rel="noopener nofollow"&gt;official music video&lt;/a&gt; for Chlorine, featuring a tiny, horned, anthropomorphic bipedal monster they call &lt;a href="https://www.instagram.com/p/Bs-s6KkhmEp/" rel="noopener nofollow"&gt;“Ned”&lt;/a&gt;.&lt;/p&gt;', 'producers': [{'name': 'Paul Meany', 'url': 'https://genius.com/artists/Paul-meany'}, {'name': 'Tyler Joseph', 'url': 'https://genius.com/artists/Tyler-joseph'}], 'writers': [{'name': 'Tyler Joseph', 'url': 'https://genius.com/artists/Tyler-joseph'}], 'labels': [{'name': 'Warner Music Group', 'url': 'https://genius.com/artists/Warner-music-group'}, {'name': 'Atlantic Records', 'url': 'https://genius.com/artists/Atlantic-records'}, {'name': 'Fueled By Ramen', 'url': 'https://genius.com/artists/Fueled-by-ramen'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Alien-ant-farm-smooth-criminal-lyrics', 'lyrics': "[Intro]\n(Oh no)\n\n[Verse 1]\nAs he came into the window\nWas a sound of a crescendo\nHe came into her apartment\nHe left the bloodstains on the carpet\nShe was sitting at the table\nHe could see she was unable\nSo she ran into the bedroom\nShe was struck down\nIt was her doom\n[Break]\nAnnie, are you okay, you okay, you okay, Annie?\nAnnie, are you okay, you okay, you okay, Annie?\nAnnie, are you okay, you okay, you okay, Annie?\nAnnie, are you okay, you okay, you okay, Annie?\n[Chorus]\nAnnie, are you OK\nWill you tell us that you're OK\nThere's a sign at the window\nThat he struck you\nA crescendo, Annie\nHe came into your apartment\nHe left the bloodstains on the carpet\nThen you ran into the bedroom\nYou were struck down\nIt was your doom\n[Break]\nAnnie, are you okay, you okay, you okay, Annie?\nAnnie, are you okay, you okay, you okay, Annie?\nAnnie, are you okay, you okay, you okay, Annie?\nAnnie, are you okay, you okay, you okay, Annie?\nYou've been hit by, you've been struck by a smooth criminal\n[Verse 2]\nSo they came into the outway\nIt was Sunday, but a black day\nI could make a salutation\nSounding heartbeats, intimidation\n[Break]\nAnnie, are you okay, you okay, you okay, Annie?\nAnnie, are you okay, you okay, you okay, Annie?\nAnnie, are you okay, you okay, you okay, Annie?\nAnnie, are you okay, you okay, you okay, Annie?\n[Chorus]\nAnnie, are you OK\nWill you tell us that you're OK\nThere's a sign at the window\nThat he struck you\nA crescendo, Annie\nHe came into your apartment\nHe left the bloodstains on the carpet\nThen you ran into the bedroom\nYou were struck down\nIt was your doom\nAnnie, are you okay, you okay, you okay, Annie?\nYou've been hit by, you've been struck by a smooth criminal\n\n[Short Instrumental]\n\n[Chorus]\nAnnie, are you OK (oh no)\nWill you tell us that you're OK (oh no)\nThere's a sign at the window (oh no)\nThat he struck you (oh no)\nA crescendo, Annie (oh no)\nHe came into your apartment (oh no)\nHe left the bloodstains on the carpet (oh no)\nThen you ran into the bedroom (oh no)\nYou were struck down\nIt was your doom\n[Break]\nAnnie, are you okay, you okay, you okay, Annie?\nAnnie, are you okay, you okay, you okay, Annie?\nAnnie, are you okay, you okay, you okay, Annie?\nAnnie, are you okay, you okay, you okay, Annie?", 'annotations': {'description': '&lt;p&gt;Alien Ant Farm covered &lt;a href="https://genius.com/Michael-jackson-smooth-criminal-lyrics" rel="noopener" data-api_path="/songs/69620"&gt;“Smooth Criminal”&lt;/a&gt; originally by &lt;a href="https://genius.com/artists/Michael-jackson" rel="noopener" data-api_path="/artists/835"&gt;Michael Jackson&lt;/a&gt; for their 2001 album &lt;a href="https://genius.com/albums/Alien-ant-farm/Anthology" rel="noopener" data-api_path="/albums/114944"&gt;&lt;em&gt;Anthology&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;According to the band members, they would play a few riffs of the Jackson song while warming up before gigs and audience members would request them to play the entire song. This positive feedback encouraged them to record their own rendition of “Smooth Criminal” and include it on &lt;em&gt;Anthology&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;An early version of this cover is featured on the band’s first album titled &lt;em&gt;Greatest Hits&lt;/em&gt;. The song is there titled &lt;a href="https://www.youtube.com/watch?v=0EBJwc6H9-Y" rel="noopener nofollow"&gt;“Slick Thief”&lt;/a&gt; (a slight rewording of “Smooth Criminal”).&lt;/p&gt;\n\n&lt;p&gt;Alien Ant Farm’s cover of “Smooth Criminal” has become their only substantial hit, and featured in &lt;a href="http://en.wikipedia.org/wiki/American_Pie_2" rel="noopener nofollow"&gt;&lt;em&gt;American Pie 2&lt;/em&gt;&lt;/a&gt;, &lt;em&gt;Horrible Bosses 2&lt;/em&gt;, &lt;em&gt;Guitar Hero On Tour: Decades&lt;/em&gt;, and &lt;em&gt;Karaoke Revolution&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;The music video has just about any Michael Jackson reference possible, in a period where MJ was considered a freak who possibly molested children instead of the hitmaker from the preceding decades.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://www.youtube.com/watch?v=CDl9ZMfj6aE" rel="noopener nofollow"&gt;https://www.youtube.com/watch?v=CDl9ZMfj6aE&lt;/a&gt;&lt;/p&gt;', 'producers': [{'name': 'Jay Baumgardner', 'url': 'https://genius.com/artists/Jay-baumgardner'}], 'writers': [{'name': 'Michael Jackson', 'url': 'https://genius.com/artists/Michael-jackson'}], 'labels': [{'name': 'DreamWorks Records', 'url': 'https://genius.com/artists/Dreamworks-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Pixies-monkey-gone-to-heaven-lyrics', 'lyrics': "[Verse 1: Black Francis]\nThere was a god\nAn under water god who controlled the sea\nGot killed by ten million pounds of sludge\nFrom New York and New Jersey\n\n[Chorus: Kim Deal, Kim Deal and Black Francis]\nThis monkey's gone to Heaven\nThis monkey's gone to Heaven\nThis monkey's gone to Heaven\nThis monkey's gone to Heaven\n\n[Verse 2: Black Francis]\nThe creature in the sky\nGot sucked in a hole\nNow there's a hole in the sky\nAnd the ground's not cold\nAnd if the ground's not cold, everything is gonna burn\nWe'll all take turns, I'll get mine too\n\n[Chorus: Kim Deal, Kim Deal and Black Francis]\nThis monkey's gone to Heaven\nThis monkey's gone to Heaven\nThis monkey's gone to Heaven\nThis monkey's gone to Heaven\n[Bridge: Black Francis]\nRock me, Joe\n\n[Verse 3: Black Francis]\nIf Man is five, if Man is five\nIf Man is five, then the Devil is six\nThen the Devil is six, then the Devil is six\nThe Devil is six, and if the Devil is six\nThen God is seven, then God is seven\nThen God is seven\n\n[Chorus: Kim Deal, Kim Deal and Black Francis]\nThis monkey's gone to Heaven\nThis monkey's gone to Heaven\nThis monkey's gone to Heaven\nThis monkey's gone to Heaven\nThis monkey's gone to Heaven\nThis monkey's gone to Heaven\nThis monkey's gone to Heaven\nThis monkey's gone to Heaven\nThis monkey's gone to Heaven", 'annotations': {'description': '&lt;p&gt;A rare environmental song by the Pixies, “Monkey Gone to Heaven” deals with man’s confused place in the universe.&lt;/p&gt;\n\n&lt;p&gt;Black Francis &lt;a href="http://www.esquire.com/entertainment/music/reviews/a31417/pixies-doolittle-track-by-track/" rel="noopener nofollow"&gt;told &lt;em&gt;Esquire&lt;/em&gt;&lt;/a&gt;&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;This belongs in the mythological category. I’m less concerned with making sense than making the lyrics pop out of the speaker when people are listening to the music. Some of it is obvious enough to understand, but then ‘If man is five, the devil is six, then God is seven,’ and guess what? That rhymes with ‘Monkey gone to heaven,’ and it’s all a little bit of a mixture of saying things that are real and relevant with a lot of &lt;a href="https://genius.com/albums/Lewis-carroll/Alice-s-adventures-in-wonderland" rel="noopener" data-api_path="/albums/33112"&gt;&lt;em&gt;Alice in Wonderland&lt;/em&gt;&lt;/a&gt; jibber-jabber and gobbledygook. This is a surreal work. I’m a surrealist. Songs can’t just be 1 + 1 = 2, you know? 1 + 1 = bran muffin.&lt;/p&gt;&lt;/blockquote&gt;', 'producers': [{'name': 'Gil Norton', 'url': 'https://genius.com/artists/Gil-norton'}], 'writers': [{'name': 'Frank Black', 'url': 'https://genius.com/artists/Frank-black'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Owl-city-fireflies-lyrics', 'lyrics': "[Verse 1]\nYou would not believe your eyes if ten million fireflies\nLit up the world as I fell asleep\n'Cause they'd fill the open air and leave teardrops everywhere\nYou'd think me rude but I would just stand and stare\n\n[Chorus]\nI'd like to make myself believe\nThat planet Earth turns slowly\nIt's hard to say that I'd rather stay awake when I'm asleep\n'Cause everything is never as it seems\n\n[Verse 2]\n'Cause I'd get a thousand hugs from ten thousand lightning bugs\nAs they tried to teach me how to dance\nA foxtrot above my head, a sock hop beneath my bed\nA disco ball is just hanging by a thread\n\n[Chorus]\nI'd like to make myself believe\nThat planet Earth turns slowly\nIt's hard to say that I'd rather stay awake when I'm asleep\n'Cause everything is never as it seems (When I fall asleep)\n\n[Bridge]\nLeave my door open just a crack\n(Please take me away from here)\n'Cause I feel like such an insomniac\n(Please take me away from here)\nWhy do I tire of counting sheep\n(Please take me away from here)\nWhen I'm far too tired to fall asleep?\n[Verse 3]\nTo ten million fireflies, I'm weird 'cause I hate goodbyes\nI got misty eyes as they said farewell (They said farewell)\nBut I'll know where several are if my dreams get real bizarre\n'Cause I saved a few and I keep them in a jar (Jar, jar, jar)\n\n[Chorus]\nI'd like to make myself believe\nThat planet Earth turns slowly\nIt's hard to say that I'd rather stay awake when I'm asleep\n'Cause everything is never as it seems (When I fall asleep)\n\n[Chorus]\nI'd like to make myself believe\nThat planet Earth turns slowly\nIt's hard to say that I'd rather stay awake when I'm asleep\n'Cause everything is never as it seems (When I fall asleep)\n\n[Outro]\nI'd like to make myself believe\nThat planet Earth turns slowly\nIt's hard to say that I'd rather stay awake when I'm asleep\nBecause my dreams are bursting at the seams...", 'annotations': {'description': '&lt;p&gt;“Fireflies”, Owl City’s debut single, was an &lt;a href="https://dutchcharts.nl/showitem.asp?interpret=Owl+City&amp;amp;titel=Fireflies&amp;amp;cat=s" rel="noopener nofollow"&gt;international smash hit&lt;/a&gt;, effectively &lt;a href="https://www.independent.co.uk/arts-entertainment/music/owl-city-gives-flight-to-shy-myspace-generation-5542361.html" rel="noopener nofollow"&gt;launching the genre Twee&lt;/a&gt; into the mainstream. The song was &lt;a href="http://ew.com/article/2009/10/30/owl-city-fireflies-interview/" rel="noopener nofollow"&gt;inspired by&lt;/a&gt; watching shooting stars during a camping trip with lyrics also influenced by insomnia.&lt;/p&gt;\n\n&lt;p&gt;Adam Young a.k.a. &lt;a href="https://genius.com/artists/Owl-city" rel="noopener" data-api_path="/artists/13286"&gt;Owl City&lt;/a&gt; said of “Fireflies” in an &lt;a href="http://www.femalefirst.co.uk/music/news/Adam+Young-10811.html" rel="noopener nofollow"&gt;interview&lt;/a&gt; with Female First:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;I have a bit of a problem falling asleep. Strangely enough it is when I can’t sleep that I tend to find most inspiration. I was up late and in the basement one night when I wrote ‘Fireflies’. I was sitting at the keyboard just fooling around, not really trying to write anything. Over the next couple of hours that song came together in the most natural way. I can’t explain it but it almost wrote itself. I didn’t have any idea that moment that I had written a hit.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;The song also features uncredited vocals from the lead vocalist from &lt;a href="https://genius.com/artists/relient-k" rel="noopener" data-api_path="/artists/18124"&gt;Relient K&lt;/a&gt;, Matthew Thiessen.&lt;/p&gt;', 'producers': [{'name': 'Matthew Thiessen', 'url': 'https://genius.com/artists/Matthew-thiessen'}, {'name': 'Adam Young', 'url': 'https://genius.com/artists/Adam-young'}], 'writers': [{'name': 'Adam Young', 'url': 'https://genius.com/artists/Adam-young'}], 'labels': [{'name': 'Republic Records', 'url': 'https://genius.com/artists/Republic-records'}, {'name': 'Island Music', 'url': 'https://genius.com/artists/Island-music'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Nelly-dilemma-lyrics', 'lyrics': '[Intro: Kelly Rowland]\nI love you\nAnd I need you\nNelly, I love you\nI do need you\n\n[Chorus: Kelly Rowland &amp; Nelly]\nNo matter what I do (Woo!)\nAll I think about is you\nEven when I\'m with my boo\nBoy, you know I\'m crazy over you\nNo matter what I do\nAll I think about is you\nEven when I\'m with my boo\nYou know I\'m crazy over you\n\n[Verse 1: Nelly &amp; Kelly Rowland]\nI met this chick and she just moved right up the block from me\nAnd uh, she got the hots for me\nThe finest thing my hood done seen\nBut oh no, oh no\nShe got a man and a son though\nBut that\'s okay \'cause I\nWait for my cue and just listen, play my position\nLike a shortstop, pick up e\'rything mami hittin\'\nAnd in no time, I plan to make this one here mine\nAnd that\'s for sure \'cause I\nI never been the type to break up a happy home, but uh\nThere\'s somethin\' \'bout baby girl I just can\'t leave alone\nSo tell me, Ma, what\'s it gonna be?\nShe said: "You don\'t know what you mean to me"\n[Chorus: Kelly Rowland &amp; Nelly]\nNo matter what I do (Woo!)\nAll I think about is you (Uh-huh)\nEven when I\'m with my boo\nBoy, you know I\'m crazy over you\nNo matter what I do\nAll I think about is you\nEven when I\'m with my boo\nYou know I\'m crazy over you\n\n[Verse 2: Nelly &amp; Kelly Rowland]\nI see a lot, and you look, and I never say a word\nI know how niggas start actin\' trippin\' out here about they girls\nAnd there\'s no way\nNelly gon\' fight over no dame\nAs you can see, but I\nI like your steez, your style, your whole demeanor\nThe way you come through and holla\nAnd swoop me in his two-seater\nNow that\'s gangsta\nAnd I got special ways to thank ya\nDon\'t you forget it\nBut uh, it ain\'t that easy for you to pack up and leave him\nBut uh, you and dirty got ties for different reasons\nI respect that, and right before I turn to leave\nShe said: "You don\'t know what you mean to me"\n[Chorus: Kelly Rowland &amp; Nelly]\nNo matter what I do (Woo!)\nAll I think about is you (Uh-huh)\nEven when I\'m with my boo\nBoy, you know I\'m crazy over you\nNo matter what I do\nAll I think about is you\nEven when I\'m with my boo\nYou know I\'m crazy over you\n\n[Interlude: Nelly]\nSing it for me, K!\n\n[Bridge: Kelly Rowland &amp; Nelly]\nI love you (Word?) and I need you\nNelly I love you, I do (Come on, girl)\nAnd it\'s more than you\'ll ever know\nBoy, it\'s for sure\nYou can always count on my love\nForevermore, yeah, yeah\n\n[Break: Nelly &amp; Kelly Rowland]\nEast Coast, I know you shakin\' right\nDown South, I know you bouncin\' right\nWest Coast, I know you walkin\' right \'cause\nYou don\'t know what you mean to me\nMidwest, I see you swingin\' right\n[Chorus: Kelly Rowland]\nNo matter what I do\nAll I think about is you\nEven when I\'m with my boo\nBoy, you know I\'m crazy over you\nNo matter what I do\nAll I think about is you\nEven when I\'m with my boo\nYou know I\'m crazy over you\n\n[Break: Nelly &amp; Kelly Rowland]\nEast Coast, I know you shakin\' right\nDown South, I know you bouncin\' right\nWest Coast, I know you walkin\' right, \'cause\nYou don\'t know what you mean to me\nMidwest, I see you swingin\' right\nEast Coast, you still shakin\' right\nDown South, I see you bouncin\' right\nWest Coast, I know you walkin\' right, \'cause\nYou don\'t know what you mean to me\nMidwest, I see you swingin\' right\n\n[Chorus: Kelly Rowland &amp; Nelly]\nNo matter what I do (Woo!)\nAll I think about is you (Uh-huh)\nEven when I\'m with my boo\nBoy, you know I\'m crazy over you\nNo matter what I do\nAll I think about is you\nEven when I\'m with my boo\nBoy, you know I\'m crazy over you\nNo matter what I do\nAll I think about is you\nEven when I\'m with my boo\nBoy, you know I\'m crazy over you\n\n[Outro: Nelly &amp; Kelly Rowland]\nEast Coast, I know you shakin\' right\nDown South, I know you bouncin\' right\nWest Coast, I know you walkin\' right, \'cause\nYou don\'t know what you mean to me\nMidwest, I see you swingin\' right\nEast Coast, you still shakin\' right\nDown South, I see you bouncin\' right\nWest Coast, I know you walkin\' right, \'cause\nYou don\'t know what you mean to me\nMidwest, I see you swingin\' right', 'annotations': {'description': '&lt;p&gt;A hugely popular song from 2002 which appeared on both &lt;a href="https://genius.com/artists/Nelly" rel="noopener" data-api_path="/artists/148"&gt;Nelly&lt;/a&gt;’s &lt;em&gt;&lt;a href="https://genius.com/albums/Nelly/Nellyville" rel="noopener" data-api_path="/albums/7138"&gt;Nellyville&lt;/a&gt;&lt;/em&gt; and &lt;a href="https://genius.com/artists/Kelly-rowland" rel="noopener" data-api_path="/artists/1302"&gt;Kelly Rowland&lt;/a&gt;’s &lt;em&gt;&lt;a href="https://genius.com/albums/Kelly-rowland/Simply-deep" rel="noopener" data-api_path="/albums/19852"&gt;Simply Deep&lt;/a&gt;&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;This song is arguably the most successful, ‘biggest’ song of both Nelly’s career and Rowland’s solo career (aside from her featured vocals in &lt;a href="https://genius.com/artists/David-guetta" rel="noopener" data-api_path="/artists/2578"&gt;David Guetta&lt;/a&gt;’s &lt;a href="https://genius.com/David-guetta-when-love-takes-over-lyrics" rel="noopener" data-api_path="/songs/776113"&gt;“When Love Takes Over”&lt;/a&gt;).&lt;/p&gt;\n\n&lt;p&gt;It was Nelly’s first #1 single in countries such as the UK, Ireland, Australia, Belgium, Germany and the Netherlands. It followed on from the success of his previous single &lt;a href="https://genius.com/Nelly-hot-in-herre-lyrics" rel="noopener" data-api_path="/songs/35301"&gt;“Hot in Herre”&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;It was – and remains to be – Rowland’s highest selling single in the US and the UK, as it has sold over 935,000 copies as of November 2017.&lt;/p&gt;', 'producers': [{'name': 'Antoine “Bam” Macon', 'url': 'https://genius.com/artists/Antoine-bam-macon'}, {'name': 'Ryan Bowser', 'url': 'https://genius.com/artists/Ryan-bowser'}], 'writers': [{'name': 'Antoine “Bam” Macon', 'url': 'https://genius.com/artists/Antoine-bam-macon'}, {'name': 'Ryan Bowser', 'url': 'https://genius.com/artists/Ryan-bowser'}, {'name': 'Bunny Sigler', 'url': 'https://genius.com/artists/Bunny-sigler'}, {'name': 'Kenneth Gamble', 'url': 'https://genius.com/artists/Kenneth-gamble'}, {'name': 'Kelly Rowland', 'url': 'https://genius.com/artists/Kelly-rowland'}, {'name': 'Nelly', 'url': 'https://genius.com/artists/Nelly'}], 'labels': [{'name': 'Universal Music Group', 'url': 'https://genius.com/artists/Universal-music-group'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Niall-horan-nice-to-meet-ya-lyrics', 'lyrics': "[Verse 1]\nI like the way you talk, I like the things you wear\nI want your number tattooed on my arm in ink, I swear\n'Cause when the morning comes, I know you won't be there\nEvery time I turn around, you disappear\n\n[Verse 2]\nI wanna blow your mind, just come with me, I swear\nI'm gonna take you somewhere warm, you know j'adore la mer\n'Cause when the morning comes, I know you won't be there\nEvery time I turn around, you disappear\n\n[Chorus]\n(I got love for you)\n(I got love for you)\nNice to meet ya\n(I got love for you)\n(I got love for you)\n\n[Refrain]\nNice to meet ya, what's your name?\nLet me treat ya to a drink\n\n[Verse 3]\nI like the way you talk, I like the things you wear\nI want your number tattooed on my arm in ink, I swear\n'Cause when the morning comes, I know you won't be there\nAnd every time I turn around, you disappear\n[Chorus]\n(I got love for you)\n(I got love for you)\nNice to meet ya\n(I got love for you)\n(I got love for you)\n\n[Bridge]\nOne minute, you're there, the next one, you're gone\nBeen waiting for you all night, so come on\nYou know what I need, you know what I want\nYou know what I need now\nYou know what I need now\n\n[Refrain]\nNice to meet ya, what's your name?\nLet me treat ya to a drink\n\n[Outro]\nNice to meet ya\n(I got love for you)\nWhere ya been?\n(I got love for you)\nLet me treat ya\n(I got love for you)\nTo a drink\n(I got love for you)\nNice to meet ya", 'annotations': {'description': '&lt;p&gt;“&lt;a href="https://genius.com/Niall-horan-nice-to-meet-ya-lyrics" rel="noopener" data-api_path="/songs/4764371"&gt;Nice to Meet Ya&lt;/a&gt;” is the first single from &lt;a href="https://genius.com/artists/Niall-horan" rel="noopener" data-api_path="/artists/651111"&gt;Niall&lt;/a&gt;’s second &lt;a href="https://genius.com/albums/Niall-horan/Nh2" rel="noopener" data-api_path="/albums/567515"&gt;studio album&lt;/a&gt;, which released on March 13th, 2020.&lt;br&gt;\nNiall started teasing the song in August 2019 and presented it at Capitol Congress in Los Angeles, along with the new song “&lt;a href="https://genius.com/Niall-horan-put-a-little-love-on-me-lyrics" rel="noopener" data-api_path="/songs/4764373"&gt;Put A Little Love On Me&lt;/a&gt;.”&lt;br&gt;\nThe song is described as uptempo and with vintage vibes.&lt;/p&gt;\n\n&lt;p&gt;The lyrics were &lt;a href="https://twitter.com/niallofficial/status/1178735440804728834" rel="noopener nofollow"&gt;released on September 30th&lt;/a&gt;, along with a challenge created by Niall: “Trying to find the beat of the song without any clue of its melody.”&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/ccbebfe2ee883a7fef23b8b2aa935f0b.708x1000x1.jpg" alt="" width="708" height="1000" data-animated="false"&gt;&lt;/p&gt;', 'producers': [{'name': 'Julian Bunetta', 'url': 'https://genius.com/artists/Julian-bunetta'}], 'writers': [{'name': 'Julian Bunetta', 'url': 'https://genius.com/artists/Julian-bunetta'}, {'name': 'Tobias Jesso Jr.', 'url': 'https://genius.com/artists/Tobias-jesso-jr'}, {'name': 'Niall Horan', 'url': 'https://genius.com/artists/Niall-horan'}, {'name': 'RuthAnne', 'url': 'https://genius.com/artists/Ruthanne'}], 'labels': [{'name': 'Universal Music Group', 'url': 'https://genius.com/artists/Universal-music-group'}, {'name': 'Capitol Records', 'url': 'https://genius.com/artists/Capitol-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Roxette-joyride-lyrics', 'lyrics': '[Spoken Intro]\nC\'mon, join the joyride, everybody\nGet your tickets here\nStep right this way\n\n[Chorus]\nHello, you fool, I love you\nC\'mon join the joyride\n\n[Verse 1]\nI hit the road out of nowhere\nI had to jump in my car\nAnd be a rider in a love game\nFollowing the stars\n\nDon\'t need a book of wisdom\nI get no money talk at all\n\n[Verse 2]\nShe has a train going downtown\nShe\'s got a club on the moon\nAnd she\'s telling all her secrets\nIn a wonderful balloon\n\nShe\'s the heart of the funfair\nShe\'s got me whistling a private tune\n[Pre-Chorus 1]\nAnd it all begins where it ends\nAnd she\'s all mine, my magic friend\n\n[Chorus]\nShe says, "Hello, you fool, I love you\nC\'mon join the joyride."\nJoin the joyride\n\n[Verse 3]\nShe\'s a flower, I could paint her\nShe\'s a child of the sun\nWe\'re a part of this together\nCould never turn around and run\n\nDon\'t need no fortune teller\nTo know where my lucky love belongs, whoa no\n\n[Pre-Chorus 2]\nCause it all begins again when it ends, yeah\nAnd we\'re all magic friends (magic friends, magic friends)\n\n[Chorus]\nShe says, "Hello, you fool, I love you\nC\'mon join the joyride."\nJoin the joyride\nShe says, "Hello, you fool, I love you\nC\'mon join the joyride."\nBe a joyrider, ow\n\n[Instrumental Interlude]\n\n[Bridge]\nI\'ll take you on a sky ride\nI\'m feeling like I\'m spellbound\nThe sunshine is a lady\nWho rocks you like a baby\n\n[Outro]\nShe says, "Hello (hello) you fool (you fool) I love you (I love you)\nC\'mon join the joyride."\nJoin the joyride\n\nHello, you fool, I love you\nC\'mon join the joyride\nJoin the joyride\n\nHello, hello, you fool, I love you\nC\'mon, c\'mon join the joyride\nBe a joyrider\nRoxette', 'annotations': {'description': '', 'producers': [{'name': 'Clarence Öfwerman', 'url': 'https://genius.com/artists/Clarence-ofwerman'}], 'writers': [{'name': 'Per Gessle', 'url': 'https://genius.com/artists/Per-gessle'}], 'labels': []}}</t>
+    <t>{'url': 'https://genius.com/Kelly-clarkson-my-life-would-suck-without-you-lyrics', 'lyrics': "[Verse 1]\nGuess this means you're sorry\nYou're standin' at my door\nGuess this means you take back\nAll you said before\nLike how much you wanted\nAnyone but me\nSaid you'd never come back\nBut here you are again\n\n[Chorus]\n'Cause we belong together now, yeah\nForever united here somehow, yeah\nYou got a piece of me\nAnd honestly\nMy life (My life) would suck (Would suck) without you\n\n[Verse 2]\nMaybe I was stupid for tellin' you goodbye\nMaybe I was wrong for tryna pick a fight\nI know that I've got issues\nBut you're pretty messed up too\nEither way I found out\nI'm nothing without you\n\n[Chorus]\n'Cause we belong together now, yeah\nForever united here somehow, yeah\nYou got a piece of me\nAnd honestly\nMy life (My life) would suck (Would suck) without you\n[Bridge]\nBeing with you is so dysfunctional\nI really shouldn't miss you\nBut I can't let you go\nOh, yeah\n\n[Chorus]\n'Cause we belong together now, yeah, yeah\nForever united here somehow, yeah\nYou got a piece of me\nAnd honestly\nMy life (My life) would suck (Would suck) without you, yeah\n'Cause we belong together now, yeah (Together now)\nForever united here somehow, yeah\nYou got a piece of me\nAnd honestly\nMy life (My life) would suck (Would suck) without you", 'annotations': {'description': '&lt;p&gt;“My Life Would Suck Without You” was released as the first single from Clarkson’s fourth studio album, &lt;a href="https://genius.com/artists/All-i-ever-wanted" rel="noopener" data-api_path="/artists/483873"&gt;&lt;em&gt;All I Ever Wanted&lt;/em&gt;&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;It made its chart debut on the Hot 100 at 97. The next week, it leaped to number one, breaking the record for most positions moved upwards in one week as well as biggest leap to number one, beating Britney Spears’s &lt;a href="https://genius.com/Britney-spears-womanizer-lyrics" rel="noopener" data-api_path="/songs/193688"&gt;“Womanizer”&lt;/a&gt; which had jumped to the top slot from 96. This is in fact the second time she has set the record––her debut single &lt;a href="https://genius.com/Leona-lewis-a-moment-like-this-lyrics" rel="noopener" data-api_path="/songs/154958"&gt;“A Moment Like This”&lt;/a&gt; managed to move 52-1 in its second week. The song peaked at number one in both the US and UK, while becoming a top five hit in Australia.&lt;/p&gt;', 'producers': [{'name': 'Max Martin', 'url': 'https://genius.com/artists/Max-martin'}, {'name': 'Dr. Luke', 'url': 'https://genius.com/artists/Dr-luke'}], 'writers': [{'name': 'Claude Kelly', 'url': 'https://genius.com/artists/Claude-kelly'}, {'name': 'Max Martin', 'url': 'https://genius.com/artists/Max-martin'}, {'name': 'Dr. Luke', 'url': 'https://genius.com/artists/Dr-luke'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Bjork-its-oh-so-quiet-lyrics', 'lyrics': '[Intro]\nShh, shh\n\n[Verse 1]\nIt\'s oh, so quiet, shh, shh\nIt\'s oh, so still, shh, shh\nYou\'re all alone, shh, shh\nAnd so peaceful until\n\n[Chorus 1]\nYou fall in love, zing boom\nThe sky up above, zing boom\nIs caving in, wow bam!\n\n[Bridge 1]\nYou\'ve never been so nuts about a guy\nYou wanna laugh, you wanna cry\nYou cross your heart and hope to die\n\n[Verse 2]\nTill it\'s over, and then, shh, shh\nIt\'s nice and quiet, shh, shh\nBut soon again, shh, shh\nStarts another big riot\n\n[Chorus 2]\nYou blow a fuse, zing boom\nThe devil cuts loose, zing boom\nSo what\'s the use, wow bam!\nOf falling in love?\n[Verse 3]\nIt\'s oh, so quiet\nIt\'s oh, so still\nYou\'re all alone\nAnd so peaceful until\n\n[Chorus 3]\nYou ring the bell, bim bam\nYou shout and you yell, hi ho-ho\nYou broke the spell\n\n[Bridge 2]\nGee, this is swell, you almost have a fit\nThis guy is "gorge" and I got hit\nThere\'s no mistake, this is it!\n\n[Verse 4]\nTill it\'s over, and then\nIt\'s nice and quiet, shh, shh\nBut soon again, shh, shh\nStarts another big riot\n\n[Chorus 2]\nYou blow a fuse, zing boom\nThe devil cuts loose, zing boom\nSo what\'s the use, wow bam!\nOf falling in love?\n[Outro]\nThe sky caves in\nThe devil cuts loose\nYou blow, blow, blow\nBlow, blow your fuse, ahh!\nWhen you fall in love\nShh', 'annotations': {'description': '&lt;p&gt;“It’s Oh So Quiet” features on Björk’s third studio album, &lt;em&gt;Post&lt;/em&gt;, and was released as the album’s third single. It is a cover of &lt;a href="https://www.youtube.com/watch?v=horRWtbAJoI" rel="noopener nofollow"&gt;Betty Hutton’s 1951 song of the same title&lt;/a&gt; (which was in turn a cover of the German song “&lt;a href="https://www.youtube.com/watch?v=6zmhvJpTELc" rel="noopener nofollow"&gt;Und jetzt ist es still&lt;/a&gt;”) and is Björk’s biggest mainstream hit.&lt;/p&gt;\n\n&lt;p&gt;The &lt;a href="https://www.youtube.com/watch?v=TEC4nZ-yga8" rel="noopener nofollow"&gt;video&lt;/a&gt;’s aesthetic (directed by Spike Jonze) is very reminiscent of musical movies such as &lt;a href="https://en.wikipedia.org/wiki/West_Side_Story" rel="noopener nofollow"&gt;West Side Story&lt;/a&gt;, or &lt;a href="https://en.wikipedia.org/wiki/The_Umbrellas_of_Cherbourg" rel="noopener nofollow"&gt;The Umbrellas of Cherbourg&lt;/a&gt; (the video is actually based on the latter).&lt;br&gt;\nIt’s worth noting that five years later, Björk actually starred in such a movie. She had the lead role in &lt;a href="https://en.wikipedia.org/wiki/Lars_von_Trier" rel="noopener nofollow"&gt;Lars Von Trier&lt;/a&gt;’s musical drama &lt;a href="https://en.wikipedia.org/wiki/Dancer_in_the_Dark" rel="noopener nofollow"&gt;Dancer In The Dark&lt;/a&gt;.&lt;/p&gt;', 'producers': [{'name': 'Nellee Hooper', 'url': 'https://genius.com/artists/Nellee-hooper'}, {'name': 'Björk', 'url': 'https://genius.com/artists/Bjork'}], 'writers': [{'name': 'Bert Reisfeld', 'url': 'https://genius.com/artists/Bert-reisfeld'}, {'name': 'Hans Lang', 'url': 'https://genius.com/artists/Hans-lang'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Faith-no-more-a-small-victory-lyrics', 'lyrics': "[Verse 1]\nA hierarchy\nSpread out on the nightstand\nThe spirit of team\nSalvation is another chance\n\n[Pre-Chorus 1]\nA sore loser\nYelling with my mouth shut\n\n[Verse 2]\nA cracking portrait\nThe fondling of the trophies\nThe null of losing\nCan you afford that luxury?\n\n[Pre-Chorus 2]\nA sore winner\nBut I'll just keep my mouth shut\n\n[Chorus]\nIt shouldn't bother me (no)\nIt shouldn't (no, no, no, no)\nIt shouldn't bother me (no)\nIt shouldn't\nBut it does\n[Verse 3]\nThe small victories\nThe cankers and medallions\nThe little nothings\nThey keep me thinking that someday\n\n[Pre-Chorus 3]\nI might beat you\nBut I'll just keep my mouth shut\n\n[Chorus]\nIt shouldn't bother me (no)\nIt shouldn't (no, no, no, no)\nIt shouldn't bother me (no)\nIt shouldn't\nBut it, but it does\n\n[Bridge]\nIt shouldn't bother me (no, no, no, no)\nIt shouldn't bother me\n\n[Chorus]\nIt shouldn't bother me (no)\nIt shouldn't bother me (no, no, no, no)\nIt shouldn't bother me (no)\nIt shouldn't\n[Outro]\nIf I speak at one constant volume\nAt one constant pitch\nAt one constant rhythm right into your ear\nYou still won't hear\nYou still won't hear\nYou still won't hear\nYou still won't hear\nYou still won't hear\nYou still won't hear\nYou still won't hear\nYou still won't hear\nYou still won't hear\nYou still won't hear\nYou still won't hear", 'annotations': {'description': '&lt;p&gt;Patton: “Its kind of about, well my dad was a coach, so I grew up and I always wanted to win. And well, I found out that I just can’t win every game…darn it”&lt;/p&gt;', 'producers': [{'name': 'Matt Wallace', 'url': 'https://genius.com/artists/Matt-wallace'}], 'writers': [{'name': 'Roddy Bottum', 'url': 'https://genius.com/artists/Roddy-bottum'}, {'name': 'Billy Gould', 'url': 'https://genius.com/artists/Billy-gould'}, {'name': 'Mike Bordin', 'url': 'https://genius.com/artists/Mike-bordin'}, {'name': 'Mike Patton', 'url': 'https://genius.com/artists/Mike-patton'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Baha-men-who-let-the-dogs-out-lyrics', 'lyrics': '[Intro]\nFor one zillion dollas\nThe question is:\nWho let the dogs out?\n\n[Skit]\nHey!\nWho let the dogs out?!\nWho let the dogs out?!\n\n[Chorus]\nWho let the dogs out?\n(Who, who, who, who)\nWho let the dogs out?\n(Who, who, who, who)\nWho let the dogs out?\n(Who, who, who, who)\nWho let the dogs out?\n(Who, who, who, who)\n\n[Verse 1]\nWell the party was nice, the party was pumpin\' (Hey, Yippie-Yi-Yo)\nAnd everybody havin\' a ball (Hah, ho, Yippie-Yi-Yo)\nUntil the fellas started name callin\' (Yippie-Yi-Yo)\nAnd the girls respond to the call, I heard a woman shout out\n[Chorus]\nWho let the dogs out?\n(Who, who, who, who)\nWho let the dogs out?\n(Who, who, who, who)\nWho let the dogs out?\n(Who, who, who, who)\nWho let the dogs out?\n(Who, who, who, who)\n\n[Bridge]\nI see ya\' little speedboat head up our coast\nShe really want to skip town\nGet back gruffy, back scruffy\nGet back you flea-infested mongrel!\n\n[Verse 2]\nGonna tell myself, "Hey man no get angry" (Hey, Yippie, Yi, Yo)\nTo any girls calling them canine, hey! (Yippie, Yi, Yo)\nBut they tell me "Hey Man, It\'s part of the Party!" (Yippie Yi, Yo)\nYou put a woman in front and her man behind (Yippie, Yi, Yo), I heard a woman shout out\n\n[Chorus]\nWho let the dogs out?\n(Who, who, who, who)\nWho let the dogs out?\n(Who, who, who, who)\nWho let the dogs out?\n(Who, who, who, who)\nWho let the dogs out?\n(Who, who, who, who)\n[Bridge]\nSay, A doggy is nuttin\' if he don\'t have a bone!\n(Oh doggy hold ya\' bone, oh doggy hold it)\nA doggy is nuttin\' if he don\'t have a bone!\n(Oh doggy hold ya\' bone, oh doggy hold it)\n\n[Chorus]\nWho let the dogs out?\n(Who, who, who, who)\nWho let the dogs out?\n(Who, who, who, who)\nWho let the dogs out?\n(Who, who, who, who)\nWho let the dogs out?\n(Who, who, who, who)\n\n[Bridge]\nI see ya\' little speed boat head up our coast\nShe really want to skip town\nGet back gruffy, back scruffy\nGet back you flea-infested mongrel!\n\n[Verse 3]\nWell if I am a dog, the party is on\nI gotta get my groove cause my mind done gone\nDo you see the rays comin\' from my eye\nWalking through the place\nThat Diji man is breakin\' it down?\nMe and my white short shorts\nAnd I can\'t see color, any color will do\nI\'ll stick on you, that\'s why they call me Pitbull\nCause I\'m the man of the land\nWhen they see me they say Woo!\n[Chorus]\nWho let the dogs out?\n(Who, who, who, who)\nWho let the dogs out?\n(Who, who, who, who)\nWho let the dogs out?\n(Who, who, who, who)\nWho let the dogs out?\n(Who, who, who, who)\nWho let the dogs out?\n(Who, who, who, who)\nWho let the dogs out?\n(Who, who, who, who)\nWho let the dogs out?\n(Who, who, who, who)\nWho let the dogs out?\n(Who, who, who, who)', 'annotations': {'description': '&lt;p&gt;The song was originally written and recorded by Trinidadian singer Anslem Douglas, and it was, at the time, titled “Doggie”.&lt;/p&gt;\n\n&lt;p&gt;Even though its lyrics were almost unanimously criticized by specialized reviewers, &lt;a href="https://genius.com/artists/Baha-men" rel="noopener" data-api_path="/artists/38041"&gt;Baha Men&lt;/a&gt;’s “Who Let the Dogs Out” became a successful song, being the 4th biggest-selling single of 2000 in the United Kingdom, and reaching the #1 chart position in Australia and New Zealand.&lt;/p&gt;\n\n&lt;p&gt;At the 2001 Grammy Awards, “Who Let the Dogs Out” won the Grammy for Best Dance Recording.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/83a58126e6c4d30e365612ecc78023e0.501x280x24.gif" alt="" width="501" height="280" data-animated="true"&gt;&lt;/p&gt;', 'producers': [{'name': 'Mike “Hank” Mangini', 'url': 'https://genius.com/artists/Mike-hank-mangini'}, {'name': 'Steve Greenberg', 'url': 'https://genius.com/artists/Steve-greenberg'}], 'writers': [{'name': 'Anslem Douglas', 'url': 'https://genius.com/artists/Anslem-douglas'}], 'labels': [{'name': 'Artemis Records', 'url': 'https://genius.com/artists/Artemis-records'}, {'name': 'S-Curve Records', 'url': 'https://genius.com/artists/S-curve-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Rihanna-kanye-west-and-paul-mccartney-fourfiveseconds-lyrics', 'lyrics': '[Verse 1: Rihanna]\nI think I\'ve had enough\nI might get a little drunk\nI say what\'s on my mind\nI might do a little time\n\'Cause all of my kindness\nIs taken for weakness\n\n[Chorus: Rihanna]\nNow I\'m four, five seconds from wildin\'\nAnd we got three more days \'til Friday\nI\'m just tryna make it back home by Monday mornin\'\nI swear I wish somebody would tell me\nOoh, that\'s all I want\n[Verse 2: Kanye West &amp; Paul McCartney]\nWoke up an optimist\nSun was shinin\', I\'m positive\nWe can run\nThen I heard you was talkin\' trash\nI\'m on a mystery\nHold me back, I\'m \'bout to spaz\n\n[Chorus: Rihanna &amp; Kanye West]\nYeah, I\'m \'bout four, five seconds from wildin\'\nAnd we got three more days \'til Friday\nI\'m tryna make it back home by Monday mornin\'\nI swear I wish somebody would try me\nOoh, that’s all I want\n[Bridge: Rihanna]\nAnd I know that you\'re up tonight\nThinkin\', "How could I be so selfish?"\nBut you called \'bout a thousand times\nWondering where I\'ve been\nNow I know that you\'re up tonight\nThinkin\', "How could I be so reckless?"\nBut I just can\'t apologize\nI hope you can understand, yeah\n\n[Verse 3: Kanye West with Rihanna]\nIf I go to jail tonight\nPromise you\'ll pay my bail\nSee they want to buy my pride\nBut that just ain\'t up for sale\nSee all of my kindness (Mhm)\nIs taken for weakness\n\n[Chorus: Rihanna &amp; Kanye West]\nNow I\'m four, five seconds from wildin\'\nAnd we got three more days \'til Friday\nI\'m tryna make it back home by Monday mornin\'\nI swear I wish somebody would tell me\nOoh, that\'s all I want\nFour, five seconds from wildin\'\nAnd we got three more days \'til Friday\nJust tryna make it back home by Monday mornin\'\nI swear I wish somebody would tell me\n\'Cause that\'s all I want\n[Video directed by Inez and Vinoodh]1.2K', 'annotations': {'description': '&lt;p&gt;“FourFiveSeconds” features vocals by &lt;a href="https://genius.com/artists/Rihanna" rel="noopener" data-api_path="/artists/89"&gt;Rihanna&lt;/a&gt; and &lt;a href="https://genius.com/artists/Kanye-west" rel="noopener" data-api_path="/artists/72"&gt;Kanye West&lt;/a&gt;, and instrumentals by Sir &lt;a href="https://genius.com/artists/Paul-mccartney" rel="noopener" data-api_path="/artists/1601"&gt;Paul McCartney&lt;/a&gt;. It has earned praise for its minimalist instrumentals, which include acoustic guitar, cello, and organ, and for blending pop, hip-hop, country, and folk — an unprecedented mash-up for all three performers.&lt;/p&gt;\n\n&lt;p&gt;It was expected to be on her eighth album &lt;em&gt;ANTI&lt;/em&gt;, but was not included. &lt;a href="http://images.rapgenius.com/d089b5cb08798b4281306ddeb6ca0379.1000x1000x1.jpg" rel="noopener"&gt;The album art for the single&lt;/a&gt; reads “Four Five Seconds” in Braille.&lt;/p&gt;\n\n&lt;p&gt;In an interview with &lt;a href="http://www.huffingtonpost.com/2015/04/21/rihanna-v-magazine-cover_n_7105022.html" rel="noopener nofollow"&gt;&lt;em&gt;V Magazine&lt;/em&gt;,&lt;/a&gt; Rihanna said she was attracted to the song because of the tension between its sound and its lyrical content.&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;When you read the lyrics it’s a completely different song than what you are hearing. The music is easygoing, but the lyrical content is very loud and in your face.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Kanye &lt;a href="http://www.rollingstone.com/music/news/kanye-west-gets-deep-with-ryan-seacrest-11-things-we-learned-20150211?page=2" rel="noopener nofollow"&gt;has compared&lt;/a&gt; Rihanna’s vocals on the track to those of Scottish singer &lt;a href="https://genius.com/artists/Annie-lennox" rel="noopener" data-api_path="/artists/196575"&gt;Annie Lennox&lt;/a&gt; (“the greatest white soul singer alive,” according to VH1).&lt;/p&gt;\n\n&lt;p&gt;The song peaked at number four on the Hot 100, becoming Rihanna’s 26th top ten song, McCartney’s 23rd (not counting his 34 with the Beatles), and West’s 15th. McCartney now holds the record for longest time between top ten hits, with 29 years between “FourFiveSeconds” and &lt;a href="https://genius.com/Paul-mccartney-spies-like-us-lyrics" rel="noopener" data-api_path="/songs/388081"&gt;“Spies Like Us”&lt;/a&gt;, which charted on February 8th, 1986.&lt;/p&gt;', 'producers': [{'name': 'Kuk Harrell', 'url': 'https://genius.com/artists/Kuk-harrell'}, {'name': 'David Longstreth', 'url': 'https://genius.com/artists/David-longstreth'}, {'name': 'Paul McCartney', 'url': 'https://genius.com/artists/Paul-mccartney'}, {'name': 'Noah Goldstein', 'url': 'https://genius.com/artists/Noah-goldstein'}, {'name': 'Kanye West', 'url': 'https://genius.com/artists/Kanye-west'}, {'name': 'MIKE DEAN', 'url': 'https://genius.com/artists/Mike-dean'}, {'name': 'Dallas Austin', 'url': 'https://genius.com/artists/Dallas-austin'}], 'writers': [{'name': 'CyHi The Prynce', 'url': 'https://genius.com/artists/Cyhi-the-prynce'}, {'name': 'Rihanna', 'url': 'https://genius.com/artists/Rihanna'}, {'name': 'David Longstreth', 'url': 'https://genius.com/artists/David-longstreth'}, {'name': 'Noah Goldstein', 'url': 'https://genius.com/artists/Noah-goldstein'}, {'name': 'Elon Rutberg', 'url': 'https://genius.com/artists/Elon-rutberg'}, {'name': 'Ty Dolla $ign', 'url': 'https://genius.com/artists/Ty-dolla-sign'}, {'name': 'KIRBY', 'url': 'https://genius.com/artists/Kirby'}, {'name': 'Kanye West', 'url': 'https://genius.com/artists/Kanye-west'}, {'name': 'Paul McCartney', 'url': 'https://genius.com/artists/Paul-mccartney'}, {'name': 'MIKE DEAN', 'url': 'https://genius.com/artists/Mike-dean'}, {'name': 'Dallas Austin', 'url': 'https://genius.com/artists/Dallas-austin'}], 'labels': [{'name': 'Roc Nation', 'url': 'https://genius.com/artists/Roc-nation'}, {'name': 'Westbury Road', 'url': 'https://genius.com/artists/Westbury-road'}]}}</t>
   </si>
   <si>
     <t>{'url': 'https://genius.com/Robbie-williams-feel-lyrics', 'lyrics': "[Verse 1]\nCome and hold my hand\nI wanna contact the living\nNot sure I understand\nThis role I've been given\nI sit and talk to God\nAnd he just laughs at my plans\nMy head speaks a language\nI don't understand\n\n[Chorus]\nI just wanna feel real love\nFeel the home that I live in\n'Cause I got too much life\nRunning through my veins\nGoing to waste\n\n[Verse 2]\nI don't wanna die\nBut I ain't keen on living either\nBefore I fall in love\nI'm preparing to leave her\nScare myself to death\nThat's why I keep on running\nBefore I've arrived\nI can see myself coming\n[Chorus]\nI just wanna feel real love\nFeel the home that I live in\n'Cause I got too much life\nRunning through my veins\nGoing to waste\nAnd I need to feel real love\nAnd a life ever after\nI can not get enough\n\n[Instrumental Bridge]\n\n[Chorus]\nI just wanna feel real love\nFeel the home that I live in\nI got too much love\nRunning through my veins\nTo go to waste\n\n[Bridge]\nI just wanna feel real love\nAnd a life ever after\nThere's a hole in my soul\nYou can see it in my face\nIt's a real big place\n[Outro]\n(Figure it out, Feel)\nCome and hold my hand\nI wanna contact the living\nNot sure I understand\nThis role I've been given\nNot sure I understand\nNot sure I understand\nNot sure I understand\nNot sure I understand", 'annotations': {'description': '&lt;p&gt;“Feel” is a track that embodies the theme of &lt;em&gt;Escapology,&lt;/em&gt; Williams appears to want to escape his own skin at times, trying to understand his place in the world and the manner in which he can fully realise the beauty he’s been gifted.&lt;/p&gt;\n\n&lt;p&gt;It was the lead single from the record, making it to number 1 in Austria, Poland, Germany, Hungary, Italy, and The Netherlands. It was certified Gold in 7 countries.&lt;/p&gt;\n\n&lt;p&gt;The &lt;a href="https://www.youtube.com/watch?v=iy4mXZN1Zzk" rel="noopener nofollow"&gt;video&lt;/a&gt; features Robbie riding a horse through a black and white forest, and discovering &lt;a href="https://en.wikipedia.org/wiki/Daryl_Hannah" rel="noopener nofollow"&gt;Daryl Hannah,&lt;/a&gt; who he then embarks on a love affair with.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/f026aa02a6131694615fe2f1d4408445.480x360x1.jpg" alt="" width="480" height="360" data-animated="false"&gt;&lt;/p&gt;', 'producers': [{'name': 'Steve Power', 'url': 'https://genius.com/artists/Steve-power'}, {'name': 'Guy Chambers', 'url': 'https://genius.com/artists/Guy-chambers'}], 'writers': [{'name': 'Robbie Williams', 'url': 'https://genius.com/artists/Robbie-williams'}, {'name': 'Guy Chambers', 'url': 'https://genius.com/artists/Guy-chambers'}], 'labels': []}}</t>
   </si>
   <si>
-    <t>{'url': 'https://genius.com/The-strokes-under-cover-of-darkness-lyrics', 'lyrics': '[Verse 1]\nSlip back out of whack at your best\nIt\'s a nightmare\nSo I\'m joining the army\nNo house phones, but can I still call?\nWill you wait for me now?\nWe\'ve got the right to live, fight to use it\nGot everything but you can just choose it\nI won\'t just be a puppet on a string\n\n[Pre-Chorus]\nDon\'t go that way\nI\'ll wait for you\n\n[Chorus 1]\nAnd I\'m tired of all your friends\nListening at your door\nI want what\'s better for you\nSo long, my friend and adversary\nBut I\'ll wait for you\n\n[Verse 2]\nGet dressed, jump out of bed into a vest\nAre you okay?\nI\'ve been all around this town\nEverybody\'s been singing the same song for ten years\n[Pre-Chorus]\nI\'ll wait for you\nWill you wait for me too?\n\n[Chorus 2]\nAnd they sacrifice their lives\nAnd they lied about those odds\nThey\'ll say it a million times, and they\'ll say it again\nSo long, my adversary and friend\n\n[Pre-Chorus]\nDon\'t go that way\nI\'ll wait for you\n\n[Chorus 3]\nI\'m tired of all your friends\nBanging down your door\nGet up in the morning yelling, "No more!"\nSo long, my friend and adversary\nBut I\'ll be waiting for you', 'annotations': {'description': '&lt;p&gt;Under Cover of Darkness is the first single from the band’s fourth full-length album, &lt;i&gt;Angles&lt;/i&gt;.&lt;/p&gt;\n\n&lt;p&gt;Released first online on February 9, 2011 as a free download for 48 hours exclusively, the single was then released on vinyl on February 11, 2011. It was their first single release in almost five years.&lt;/p&gt;\n\n&lt;p&gt;The beginning of the music video for this song shows a clip from the You Only Live Once music video, possibly hinting that this song is a continuation from that song.&lt;/p&gt;\n\n&lt;p&gt;The music video also contains a reference to their song &lt;a href="https://www.youtube.com/watch?v=TOypSnKFHrE" rel="noopener nofollow"&gt;“Last Nite,”&lt;/a&gt; in which Julian throws his microphone stand (which is what he does while singing the line “everybody’s been singing the same song for ten years,” which becomes significant once you consider that &lt;em&gt;Angles&lt;/em&gt; came out ten years after &lt;em&gt;Is This It.&lt;/em&gt;)&lt;/p&gt;', 'producers': [{'name': 'Gus Oberg', 'url': 'https://genius.com/artists/Gus-oberg'}, {'name': 'The Strokes', 'url': 'https://genius.com/artists/The-strokes'}, {'name': 'Joe Chiccarelli', 'url': 'https://genius.com/artists/Joe-chiccarelli'}], 'writers': [{'name': 'Julian Casablancas', 'url': 'https://genius.com/artists/Julian-casablancas'}, {'name': 'Nick Valensi', 'url': 'https://genius.com/artists/Nick-valensi'}, {'name': 'Albert Hammond Jr.', 'url': 'https://genius.com/artists/Albert-hammond-jr'}, {'name': 'Nikolai Fraiture', 'url': 'https://genius.com/artists/Nikolai-fraiture'}, {'name': 'Fabrizio Moretti', 'url': 'https://genius.com/artists/Fabrizio-moretti'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Lady-gaga-applause-lyrics', 'lyrics': '[Verse 1]\nI stand here waiting for you to bang the gong\nTo crash the critic saying, "Is it right or is it wrong?"\nIf only fame had an IV, baby, could I bear\nBeing away from you? I found the vein, put it in here\n\n[Pre-Chorus]\nI live for the applause, applause, applause\nI live for the applause-plause, live for the applause-plause\nLive for the way that you cheer and scream for me\nThe applause, applause, applause\n\n[Chorus]\nGive me that thing that I love (I\'ll turn the lights out)\nPut your hands up, make \'em touch, touch (Make it real loud)\nGive me that thing that I love (I\'ll turn the lights out)\nPut your hands up, make \'em touch, touch (Make it real loud)\n\n[Post-Chorus]\nA-P-P-L-A-U-S-E (Make it real loud)\nA-P-P-L-A-U-S-E\nPut your hands up, make \'em touch, touch\nA-P-P-L-A-U-S-E (Make it real loud)\nA-P-P-L-A-U-S-E\nPut your hands up, make \'em touch, touch\n[Verse 2]\nI\'ve overheard your theory, "Nostalgia\'s for geeks"\nI guess sir, if you say so, some of us just like to read\nOne second I\'m a Koons, then suddenly the Koons is me\nPop culture was in art, now art\'s in pop culture, in me\n\n[Pre-Chorus]\nI live for the applause, applause, applause\nI live for the applause-plause, live for the applause-plause\nLive for the way that you cheer and scream for me\nThe applause, applause, applause\n\n[Chorus]\nGive me that thing that I love (I\'ll turn the lights out)\nPut your hands up, make \'em touch, touch (Make it real loud)\nGive me that thing that I love (I\'ll turn the lights out)\nPut your hands up, make \'em touch, touch (Make it real loud)\n\n[Post-Chorus]\nA-P-P-L-A-U-S-E (Make it real loud)\nA-P-P-L-A-U-S-E\nPut your hands up, make \'em touch, touch\nA-P-P-L-A-U-S-E (Make it real loud)\nA-P-P-L-A-U-S-E\nPut your hands up, make \'em touch, touch\n[Bridge]\nWoo... touch, touch\nWoo... touch, touch\nNow... woo-oh-oh-oh...\nWoo-oh-oh-oh...\n\n[Pre-Chorus]\nI live for the applause, applause, applause\nI live for the applause-plause, live for the applause-plause\nLive for the way that you cheer and scream for me\nThe applause, applause, applause\n\n[Chorus]\nGive me that thing that I love (I\'ll turn the lights out)\nPut your hands up, make \'em touch, touch (Make it real loud)\nGive me that thing that I love (I\'ll turn the lights out)\nPut your hands up, make \'em touch, touch (Make it real loud)\n\n[Post-Chorus]\nA-P-P-L-A-U-S-E (Make it real loud)\nA-P-P-L-A-U-S-E\nPut your hands up, make \'em touch, touch\nA-P-P-L-A-U-S-E (Make it real loud)\nA-P-P-L-A-U-S-E\nPut your hands up, make \'em touch, touch\n[Outro]\nA-R-T-P-O-P', 'annotations': {'description': '&lt;p&gt;“Applause” is an EDM/electro-pop celebration of sticking it to the haters, doing what one loves, and embracing the thrill of the crowd. Bed-ridden and forced to cancel tour dates due to a 2013 hip injury, Gaga yearned for the love – * the applause* – of her fans, inspiring her to write this song.&lt;/p&gt;\n\n&lt;p&gt;The song is the lead single off of Lady Gaga’s &lt;em&gt;ARTPOP&lt;/em&gt;. It’s less robust than her previous lead singles, like &lt;a href="https://genius.com/Lady-gaga-bad-romance-lyrics" rel="noopener" data-api_path="/songs/1313"&gt;“Bad Romance”&lt;/a&gt; and &lt;a href="https://genius.com/Lady-gaga-born-this-way-lyrics" rel="noopener" data-api_path="/songs/4320"&gt;“Born This Way”&lt;/a&gt;, but what it lacks in length it displays in nightclub-ready energy and unapologetic campiness.&lt;/p&gt;\n\n&lt;p&gt;The song’s cover art is possibly &lt;a href="http://flavorwire.com/407489/the-cover-of-lady-gagas-new-single-applause-looks-a-whole-lot-like-david-bowies-scary-monsters" rel="noopener nofollow"&gt;Bowie-influenced.&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/ec0c9d97237b28c537dc33b5edb3e8f6.607x469x1.png" alt="" width="607" height="469" data-animated="false"&gt;&lt;/p&gt;', 'producers': [{'name': 'Dino Zisis', 'url': 'https://genius.com/artists/Dino-zisis'}, {'name': 'Nick Monson', 'url': 'https://genius.com/artists/Nick-monson'}, {'name': 'Lady Gaga', 'url': 'https://genius.com/artists/Lady-gaga'}, {'name': 'DJ White Shadow', 'url': 'https://genius.com/artists/Dj-white-shadow'}], 'writers': [{'name': 'Steve Guess', 'url': 'https://genius.com/artists/Steve-guess'}, {'name': 'DJ White Shadow', 'url': 'https://genius.com/artists/Dj-white-shadow'}, {'name': 'DJ Snake', 'url': 'https://genius.com/artists/Dj-snake'}, {'name': 'Tchami', 'url': 'https://genius.com/artists/Tchami'}, {'name': 'Julien Arias', 'url': 'https://genius.com/artists/Julien-arias'}, {'name': 'Nicolas Mercier', 'url': 'https://genius.com/artists/Nicolas-mercier'}, {'name': 'Nick Monson', 'url': 'https://genius.com/artists/Nick-monson'}, {'name': 'Dino Zisis', 'url': 'https://genius.com/artists/Dino-zisis'}, {'name': 'Lady Gaga', 'url': 'https://genius.com/artists/Lady-gaga'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Adele-rolling-in-the-deep-lyrics', 'lyrics': "[Verse 1]\nThere's a fire starting in my heart\nReaching a fever pitch and it's bringing me out the dark\nFinally, I can see you crystal clear\nGo ahead and sell me out and I'll lay your shit bare\nSee how I'll leave with every piece of you\nDon't underestimate the things that I will do\nThere's a fire starting in my heart\nReaching a fever pitch, and it's bringing me out the dark\n\n[Pre-Chorus]\nThe scars of your love remind me of us\nThey keep me thinkin' that we almost had it all\nThe scars of your love, they leave me breathless\nI can't help feeling\n\n[Chorus]\nWe could've had it all (You're gonna wish you never had met me)\nRolling in the deep (Tears are gonna fall, rolling in the deep)\nYou had my heart inside of your hand (You're gonna wish you never had met me)\nAnd you played it to the beat (Tears are gonna fall, rolling in the deep)\n\n[Verse 2]\nBaby, I have no story to be told\nBut I've heard one on you, now I'm gonna make your head burn\nThink of me in the depths of your despair\nMake a home down there, as mine sure won't be shared\n[Pre-Chorus]\n(You're gonna wish you never had met me) The scars of your love remind me of us\n(Tears are gonna fall, rolling in the deep) They keep me thinkin' that we almost had it all\n(You're gonna wish you never had met me) The scars of your love, they leave me breathless\n(Tears are gonna fall, rolling in the deep) I can't help feeling\n\n[Chorus]\nWe could've had it all (You're gonna wish you never had met me)\nRolling in the deep (Tears are gonna fall, rolling in the deep)\nYou had my heart inside of your hand (You're gonna wish you never had met me)\nAnd you played it to the beat (Tears are gonna fall, rolling in the deep)\nCould've had it all\nRolling in the deep\nYou had my heart inside of your hand\nBut you played it with a beating\n\n[Bridge]\nThrow your soul through every open door (Ooh woah, oh)\nCount your blessings to find what you look for (Woah)\nTurn my sorrow into treasured gold (Ooh woah, oh)\nYou'll pay me back in kind and reap just what you sow\n\n[Breakdown]\n(You're gonna wish you never had met me)\nWe could've had it all (Tears are gonna fall, rolling in the deep)\nWe could've had it all, yeah (You're gonna wish you never had met me)\nIt all, it all, it all (Tears are gonna fall, rolling in the deep)\n[Chorus]\nWe could've had it all (You're gonna wish you never had met me)\nRolling in the deep (Tears are gonna fall, rolling in the deep)\nYou had my heart inside of your hand (You're gonna wish you never had met me)\nAnd you played it to the beat (Tears are gonna fall, rolling in the deep)\nCould've had it all (You're gonna wish you never had met me)\nRolling in the deep (Tears are gonna fall, rolling in the deep)\nYou had my heart inside of your hand (You're gonna wish you never had met me)\nBut you played it, you played it, you played it\nYou played it to the beat", 'annotations': {'description': '&lt;p&gt;The 2012 song and record of the Year at the Grammy’s, “Rolling In The Deep” was described &lt;a href="http://www.spin.com/2010/11/adele-new-record-quite-different/" rel="noopener nofollow"&gt;in an interview with Spin Magazine&lt;/a&gt; as a ‘gospel disco’ kiss-off to an unfaithful dude:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;It’s me saying, ‘Get the fuck out of my house\' instead of me begging him to come back.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;The song hit number one in the US, where it became the &lt;a href="http://www.billboard.com/biz/articles/news/1177102/adeles-rolling-in-the-deep-is-the-biggest-crossover-song-of-past-25-years" rel="noopener nofollow"&gt;biggest crossover hit in 25 years.&lt;/a&gt;&lt;/p&gt;', 'producers': [{'name': 'Paul Epworth', 'url': 'https://genius.com/artists/Paul-epworth'}], 'writers': [{'name': 'Paul Epworth', 'url': 'https://genius.com/artists/Paul-epworth'}, {'name': 'Adele', 'url': 'https://genius.com/artists/Adele'}], 'labels': [{'name': 'Columbia Records', 'url': 'https://genius.com/artists/Columbia-records'}, {'name': 'XL Recordings', 'url': 'https://genius.com/artists/Xl-recordings'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Cage-the-elephant-aint-no-rest-for-the-wicked-lyrics', 'lyrics': '[Verse 1]\nI was walking down the street when out the corner of my eye\nI saw a pretty little thing approaching me\nShe said, "I never seen a man, who looks so all alone\nOh, could you use a little company?\nIf you pay the right price, your evening will be nice\nAnd you can go and send me on my way."\nI said, "You\'re such a sweet young thing, why you do this to yourself?"\nShe looked at me and this is what she said:\n\n[Chorus]\n"Oh there ain\'t no rest for the wicked\nMoney don\'t grow on trees\nI got bills to pay, I got mouths to feed\nThere ain\'t nothing in this world for free\nOh no, I can\'t slow down, I can\'t hold back\nThough you know, I wish I could\nOh no there ain\'t no rest for the wicked\nUntil we close our eyes for good"\n\n[Verse 2]\nNot even fifteen minutes later I\'m still walking down the street\nWhen I saw the shadow of a man creep out out of sight\nAnd then he swept up from behind, he put a gun up to my head\nHe made it clear he wasn\'t looking for a fight\nHe said, "Give me all you\'ve got, I want your money, not your life\nBut if you try to make a move, I won\'t think twice"\nI told him, "You can have my cash, but first you know I gotta ask\nWhat made you want to live this kind of life?"\n[Chorus]\nHe said, "There ain\'t no rest for the wicked\nMoney don\'t grow on trees\nI got bills to pay, I got mouths to feed\nThere ain\'t nothing in this world for free\nOh no, I can\'t slow down, I can\'t hold back\nThough you know, I wish I could\nOh no there ain\'t no rest for the wicked\nUntil we close our eyes for good"\n\n[Verse 3]\nWell now a couple hours passed and I was sitting in my house\nThe day was winding down and coming to an end\nAnd so I turned on the TV and flipped it over to the news\nAnd what I saw I almost couldn\'t comprehend\nI saw a preacher man in cuffs, he\'d taken money from the church\nHe\'d stuffed his bank account with righteous dollar bills\nBut even still I can\'t say much because I know we\'re all the same\nOh yes, we all seek out to satisfy those thrills\n[Chorus]\nYou know there ain\'t no rest for the wicked\nMoney don\'t grow on trees\nWe got bills to pay, we got mouths to feed\nThere ain\'t nothing in this world for free\nOh no we can\'t slow down, we can\'t hold back\nThough you know we wish we could\nOh no there ain\'t no rest for the wicked\nUntil we close our eyes for good', 'annotations': {'description': '&lt;p&gt;This single off of Cage The Elephant’s debut album features three verses, each dealing with an encounter with an immoral character that is trying to make money by any means necessary.&lt;/p&gt;\n\n&lt;p&gt;Lead singer Matt Schultz says that he got the idea for this song when he asked one of his drug-dealing friends why he dealt drugs, to which he responded: “there’s no rest for the wicked”.&lt;/p&gt;\n\n&lt;p&gt;The song is also used in the pilot for the Netflix show “Lucifer”.&lt;/p&gt;', 'producers': [{'name': 'Ben Baptie', 'url': 'https://genius.com/artists/Ben-baptie'}, {'name': 'Jay Joyce', 'url': 'https://genius.com/artists/Jay-joyce'}], 'writers': [{'name': 'Daniel Tichenor', 'url': 'https://genius.com/artists/Daniel-tichenor'}, {'name': 'Matt Shultz', 'url': 'https://genius.com/artists/Matt-shultz'}, {'name': 'Brad Shultz', 'url': 'https://genius.com/artists/Brad-shultz'}, {'name': 'Lincoln Parish', 'url': 'https://genius.com/artists/Lincoln-parish'}, {'name': 'Jared Champion', 'url': 'https://genius.com/artists/Jared-champion'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/What_I_Got', 'track_name': 'What I Got', 'artist': 'http://dbpedia.org/resource/Sublime_(band)', 'artist_name': 'Sublime', 'wiki': 'http://en.wikipedia.org/wiki/What_I_Got', 'hometown': 'http://dbpedia.org/resource/Long_Beach,_California', 'released': '23 July 1996', 'producers': ['http://dbpedia.org/resource/David_Kahne'], 'writers': ['http://dbpedia.org/resource/Bradley_Nowell'], 'labels': ['http://dbpedia.org/resource/MCA_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_rock'], 'related_artists': ['http://dbpedia.org/resource/3rd_Alley', 'http://dbpedia.org/resource/Bad_Brains', 'http://dbpedia.org/resource/Bradley_Nowell', 'http://dbpedia.org/resource/Bud_Gaugh', 'http://dbpedia.org/resource/Eric_Wilson_(bassist)', 'http://dbpedia.org/resource/Eyes_Adrift', 'http://dbpedia.org/resource/Gwen_Stefani', 'http://dbpedia.org/resource/Long_Beach_Dub_Allstars', 'http://dbpedia.org/resource/Long_Beach_Shortbus', 'http://dbpedia.org/resource/Mad_Lion', 'http://dbpedia.org/resource/Marshall_Goodman', 'http://dbpedia.org/resource/No_Doubt', 'http://dbpedia.org/resource/Notch_(musician)', 'http://dbpedia.org/resource/Slightly_Stoopid', 'http://dbpedia.org/resource/Steve_Chadie', 'http://dbpedia.org/resource/Sublime_with_Rome', 'http://dbpedia.org/resource/The_Specials', 'http://dbpedia.org/resource/The_Toyes__The_Toyes__1', 'http://dbpedia.org/resource/The_Ziggens', 'http://dbpedia.org/resource/Tribo_de_Jah', 'http://dbpedia.org/resource/Volcano_(supergroup)'], 'abstract': '"What I Got" is a song from American band Sublime\'s self-titled third album (1996). It was the band\'s biggest radio hit, posthumously after singer Bradley Nowell\'s death in 1996 from a heroin overdose. It was the second single to be released by the band, following "Date Rape" (1991). The song\'s chorus is a lift from "Loving" by Half Pint. The song\'s melody is similar to the Beatles\' "Lady Madonna". "What I Got" reached the number-one spot on the US Billboard Modern Rock Tracks chart and was also a radio hit, peaking at number 29 on the Billboard Hot 100 Airplay chart. In New Zealand, "What I Got" peaked at number 34 on the RIANZ Singles Chart; What I Got: The Seven Song EP was slightly more successful, reaching number 33 on the same chart. Elsewhere, the single reached number two on the Canadian RPM Alternative 30 chart and number 19 in Iceland. It is ranked on the 100 Greatest Guitar Songs of All Time by Rolling Stone magazine at number 83.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/99_Luftballons', 'track_name': '99 Luftballons', 'artist': 'http://dbpedia.org/resource/Nena_(band)', 'artist_name': 'Nena', 'wiki': 'http://en.wikipedia.org/wiki/99_Luftballons', 'hometown': 'http://dbpedia.org/resource/West_Berlin', 'producers': ['http://dbpedia.org/resource/Reinhold_Heil', 'Manfred Praeker'], 'writers': ['http://dbpedia.org/resource/Carlo_Karges', 'http://dbpedia.org/resource/Kevin_McAlea'], 'awards': ['Gold', 'Platinum'], 'labels': ['http://dbpedia.org/resource/Epic_Records'], 'genres': ['http://dbpedia.org/resource/New_wave_music'], 'related_artists': ['http://dbpedia.org/resource/Peter_Heppner', 'http://dbpedia.org/resource/The_Stripes__The_Stripes__1', 'http://dbpedia.org/resource/Uwe_Fahrenkrog-Petersen'], 'abstract': '"99 Luftballons" (German: Neunundneunzig Luftballons, "99 balloons") is a song by the German band Nena from their 1983 self-titled album. An English-language version titled "99 Red Balloons", with lyrics by Kevin McAlea, was also released on the album 99 Luftballons in 1984 after widespread success of the original in Europe and Japan. The English version is not a direct translation of the German original and contains lyrics with a somewhat different meaning. In the US, the English-language version did not chart, while the German-language recording became Nena\'s only US hit.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/How_You_Remind_Me', 'track_name': 'How You Remind Me', 'artist': 'http://dbpedia.org/resource/Nickelback', 'artist_name': 'Nickelback', 'wiki': 'http://en.wikipedia.org/wiki/How_You_Remind_Me', 'hometown': 'http://dbpedia.org/resource/Hanna,_Alberta', 'released': '12 December 2012', 'producers': ['http://dbpedia.org/resource/Nickelback', 'http://dbpedia.org/resource/Rick_Parashar'], 'writers': ['http://dbpedia.org/resource/Chad_Kroeger'], 'awards': ['Gold', 'Platinum'], 'labels': ['http://dbpedia.org/resource/Roadrunner_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Post-grunge'], 'related_artists': ['http://dbpedia.org/resource/3_Doors_Down', 'http://dbpedia.org/resource/Billy_Gibbons', 'http://dbpedia.org/resource/Chad_Kroeger', 'http://dbpedia.org/resource/Daniel_Adair', 'http://dbpedia.org/resource/Joey_Moi', 'http://dbpedia.org/resource/Jon_Redwine', 'http://dbpedia.org/resource/Josey_Scott', 'http://dbpedia.org/resource/Josh_Ramsay', 'http://dbpedia.org/resource/Mike_Shipley', 'http://dbpedia.org/resource/Nuno_Bettencourt', 'http://dbpedia.org/resource/Rick_Parashar', 'http://dbpedia.org/resource/Robert_John_%22Mutt%22_Lange', 'http://dbpedia.org/resource/Ryan_Peake', 'http://dbpedia.org/resource/Theory_of_a_Deadman'], 'abstract': '"How You Remind Me" is a song by Canadian rock band Nickelback. Written by lead singer Chad Kroger and composed by the band, the track was released on July 17, 2001, as the lead single from their third studio album, Silver Side Up (2001). A "Gold Mix" was made for latter editions of the single with the heavier guitars edited out of the chorus. Kroeger referred to this song as the song that put Nickelback on the map when played at their concert in Sturgis, South Dakota. Considered to be Nickelback\'s signature song, "How You Remind Me" reached the top of the US Billboard Hot 100 and was named the number-one most played song on US radio of the 2000s decade by Nielsen Soundscan, being spun over 1.2 million times on US airwaves since its release in 2001 to the end of 2009. The song was ranked fourth on the Billboard Hot 100 Songs of the Decade and 75th on the UK decade-end chart. It was nominated for the Kerrang! Award for Best Single. "How You Remind Me" was also rated the number-one rock song and number-four alternative song of the decade of the 2000s by Billboard. The song was featured in the music video game Guitar Hero: Warriors of Rock and in a recut, PG-13 version of Deadpool 2 titled Once Upon a Deadpool. The song played a large role in a Saturday Night Live skit on March 10, 2018, with Sterling K. Brown in which the lyrics are a dying woman\'s final words.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Lean_On', 'track_name': 'Lean On', 'artist': 'http://dbpedia.org/resource/Major_Lazer', 'artist_name': 'Major Lazer', 'wiki': 'http://en.wikipedia.org/wiki/Lean_On', 'hometown': 'http://dbpedia.org/resource/Miami', 'released': '02 March 2015', 'producers': ['http://dbpedia.org/resource/DJ_Snake', 'http://dbpedia.org/resource/Major_Lazer'], 'writers': ['http://dbpedia.org/resource/DJ_Snake', 'http://dbpedia.org/resource/Diplo', 'http://dbpedia.org/resource/Jr_Blender', 'http://dbpedia.org/resource/MØ', 'http://dbpedia.org/resource/Tchami', 'William Grigahcine', 'Philip Meckseper', 'Thomas Pentz', 'Martin Bresso', 'Karen Marie Ørsted'], 'awards': ['Diamond', 'Gold', 'Platinum'], 'labels': ['http://dbpedia.org/resource/Mad_Decent'], 'genres': ['http://dbpedia.org/resource/Electronic_music', 'http://dbpedia.org/resource/Moombahton'], 'related_artists': ['http://dbpedia.org/resource/Afrojack', 'http://dbpedia.org/resource/Anitta_(singer)', 'http://dbpedia.org/resource/Badshah_(rapper)', 'http://dbpedia.org/resource/Boaz_van_de_Beatz', 'http://dbpedia.org/resource/Busy_Signal', 'http://dbpedia.org/resource/DJ_Snake', 'http://dbpedia.org/resource/MØ', 'http://dbpedia.org/resource/Nebat_Drums', 'http://dbpedia.org/resource/Snoop_Dogg', 'http://dbpedia.org/resource/The_Flexican'], 'abstract': '"Lean On" is a song recorded by American electronic dance music group Major Lazer and French DJ and record producer DJ Snake featuring vocals from Danish singer MØ. It was released on March 2, 2015, as the lead single from Major Lazer\'s third studio album, Peace Is the Mission (2015). It was written by MØ, Diplo, William Grigahcine, Martin Bresso and Jr Blender, and produced by Major Lazer and DJ Snake. It is an EDM, electronic and moombahton song. "Lean On" was a critical and commercial success, peaking at number four on the US Billboard Hot 100 and number two on the UK Singles Chart. It reached number one in several other countries including Argentina, Australia, Denmark, Finland, Ireland, the Netherlands, New Zealand, Mexico and Switzerland; as well as the top 10 in Austria, Belgium, Canada, Colombia, France, Israel, Italy, Norway, Poland, Spain and Sweden. In November 2015, "Lean On" was named by Spotify as the most streamed song of all time, and has over 1 billion streams globally as of June 2017; however, it was later overtaken by Drake\'s "One Dance" (2016). The accompanying music video for "Lean On" was filmed in ND Studios, Karjat, Kaul Heritage City, in Vasai in Maharashtra, India and in the Golden Hall at Stockholm City Hall. The video premiered on March 23, 2015, and has over 3 billion views on YouTube as of May 2021. According to IFPI, "Lean On" was the fifth best selling song of 2015 worldwide, and one of the best-selling singles of all time, with global sales of 13.1 million.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Self_Control_(Raf_song)', 'track_name': 'Self Control', 'artist': 'http://dbpedia.org/resource/Laura_Branigan', 'artist_name': 'Laura Branigan', 'wiki': 'http://en.wikipedia.org/wiki/Self_Control_(Raf_song)', 'producers': ['http://dbpedia.org/resource/Giancarlo_Bigazzi', 'http://dbpedia.org/resource/Jack_White_(music_producer)', 'http://dbpedia.org/resource/Juan_Carlos_Calderón', 'http://dbpedia.org/resource/Mikel_Herzog', 'http://dbpedia.org/resource/Robbie_Buchanan'], 'writers': ['http://dbpedia.org/resource/Giancarlo_Bigazzi', 'http://dbpedia.org/resource/Juan_Carlos_Calderón', 'http://dbpedia.org/resource/Mikel_Herzog', 'http://dbpedia.org/resource/Raf_(singer)', 'Steve Piccolo'], 'awards': ['Gold', 'Silver'], 'labels': ['http://dbpedia.org/resource/Carrere_Records'], 'genres': ['http://dbpedia.org/resource/Italo_disco'], 'related_artists': ['http://dbpedia.org/resource/Bob_Conti', 'http://dbpedia.org/resource/Candy_DeRouge', 'http://dbpedia.org/resource/Device_(pop-rock_band)', 'http://dbpedia.org/resource/Mary_Susan_Applegate', 'http://dbpedia.org/resource/Umberto_Tozzi'], 'abstract': '"Self Control" is a song by Italian singer Raf, released in 1984. It was written by Giancarlo Bigazzi, Steve Piccolo and Raf. The song was covered the same year by American singer Laura Branigan. Her version first hit no. 1 in Germany on June 15, 1984. Raf\'s version first hit no. 1 in Italy on June 23, 1984. Both versions of the song were popular across Europe during much of the summer of 1984 and were the most successful single of the year in Germany and Switzerland. Branigan\'s version peaked at no. 4 on the US Billboard Hot 100 chart and also went to no. 2 on the dance chart. The song has become one of the defining songs of the 1980s, with a number of remakes recorded each year. Notable covers include Puerto Rican singer Ricky Martin in 1993, a hit dance remake by Branigan in 2004 and two 2006 versions that hit the Top 5 in various European enclaves, by Danish dance group Infernal and Spanish singer Soraya Arnelas.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Pumped_Up_Kicks', 'track_name': 'Pumped Up Kicks', 'artist': 'http://dbpedia.org/resource/Foster_the_People', 'artist_name': 'Foster the People', 'wiki': 'http://en.wikipedia.org/wiki/Pumped_Up_Kicks', 'hometown': 'http://dbpedia.org/resource/Los_Angeles', 'released': '14 September 2010', 'producers': ['http://dbpedia.org/resource/Mark_Foster_(singer)'], 'writers': ['http://dbpedia.org/resource/Mark_Foster_(singer)'], 'awards': ['Diamond', 'Platinum', 'Platinum+Gold'], 'labels': ['http://dbpedia.org/resource/Columbia_Records', 'http://dbpedia.org/resource/Startime_International'], 'genres': ['http://dbpedia.org/resource/Indie_pop', 'http://dbpedia.org/resource/Psychedelic_pop'], 'related_artists': ['http://dbpedia.org/resource/Danyew', 'http://dbpedia.org/resource/Gemma_Hayes', 'http://dbpedia.org/resource/Malbec_(band)', 'http://dbpedia.org/resource/Mark_Foster_(singer)__Mark_Foster__1', 'http://dbpedia.org/resource/Mark_Pontius', 'http://dbpedia.org/resource/Rich_Costey', 'http://dbpedia.org/resource/Swiss_Lips', 'http://dbpedia.org/resource/The_Velvet_Teen', 'http://dbpedia.org/resource/Young_&amp;_Sick'], 'abstract': '"Pumped Up Kicks" is a song by American indie pop band Foster the People. It was released as the band\'s debut single in September 2010, and the following year was included on their EP Foster the People and their debut album, Torches. "Pumped Up Kicks" became the group\'s breakthrough hit and was one of the most popular songs of 2011. The song was written and recorded by frontman Mark Foster while he was working as a commercial jingle writer. Contrasting with the upbeat musical composition, the lyrics describe the homicidal thoughts of a troubled youth named Robert. The track received considerable attention after it was posted online in 2010 as a free download, and it helped the group garner a multi-album record deal with Columbia Records imprint Startime International. "Pumped Up Kicks" proved to be a sleeper hit; in 2011, after receiving significant airplay on modern rock stations, the song crossed-over onto contemporary hit radio stations. The song spent eight consecutive weeks at number three on the Billboard Hot 100 chart in the United States, making it the first Billboard Alternative Songs number-one single to crack the U.S. top 5 since Kings of Leon\'s "Use Somebody" in 2009. The song was widely praised by critics, and it has been licensed for use in a wide range of popular media since its release. "Pumped Up Kicks" also received a Grammy Award nomination for Best Pop Duo/Group Performance. The song remains the band\'s most successful hit single to date.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Tubthumping', 'track_name': 'Tubthumping', 'artist': 'http://dbpedia.org/resource/Chumbawamba', 'artist_name': 'Chumbawamba', 'wiki': 'http://en.wikipedia.org/wiki/Tubthumping', 'hometown': 'http://dbpedia.org/resource/Burnley', 'released': '11 August 1997', 'producers': ['*Chumbawamba'], 'writers': ['*Chumbawamba'], 'awards': ['Gold', 'Platinum'], 'labels': ['http://dbpedia.org/resource/EMI', 'http://dbpedia.org/resource/Republic_Records', 'http://dbpedia.org/resource/Universal_Records_(1995−2005)'], 'genres': ['http://dbpedia.org/resource/Dance-rock'], 'related_artists': ["http://dbpedia.org/resource/Belinda_O'Hooley", 'http://dbpedia.org/resource/Boff_Whalley', 'http://dbpedia.org/resource/Credit_to_the_Nation', 'http://dbpedia.org/resource/Danbert_Nobacon', 'http://dbpedia.org/resource/Dunstan_Bruce', 'http://dbpedia.org/resource/Jude_Abbott', 'http://dbpedia.org/resource/Lou_Watts', "http://dbpedia.org/resource/O'Hooley_&amp;_Tidow", 'http://dbpedia.org/resource/Phil_Moody', 'http://dbpedia.org/resource/The_Donkeys_(British_band)', 'http://dbpedia.org/resource/The_Ex_(band)'], 'abstract': '"Tubthumping" (also known colloquially as "I Get Knocked Down") is a song released by British rock band Chumbawamba from their eighth studio album, Tubthumper (1997). It is the band\'s most successful single, peaking at number two on the UK Singles Chart. It topped the charts in Australia, Canada, Ireland, Italy, New Zealand and hit number six on the US Billboard Hot 100 (although it topped the US Modern Rock and Mainstream Top 40 charts). At the 1998 Brit Awards, "Tubthumping" was nominated for the Brit Award for Best British Single. It sold 880,000 copies in the UK.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/3AM_(Matchbox_Twenty_song)', 'track_name': '3AM (Matchbox Twenty song)', 'artist': 'http://dbpedia.org/resource/Matchbox_Twenty', 'artist_name': 'Matchbox Twenty', 'wiki': 'http://en.wikipedia.org/wiki/3AM_(Matchbox_Twenty_song)', 'hometown': 'http://dbpedia.org/resource/Orlando,_Florida', 'released': '23 November 1997', 'producers': ['http://dbpedia.org/resource/Matt_Serletic'], 'writers': ['http://dbpedia.org/resource/Brian_Yale', 'http://dbpedia.org/resource/Rob_Thomas_(musician)', 'John Leslie Goff', 'John Joseph Stanley'], 'labels': ['http://dbpedia.org/resource/Atlantic_Records', 'http://dbpedia.org/resource/Lava_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_rock'], 'related_artists': ['http://dbpedia.org/resource/Brian_Yale', "http://dbpedia.org/resource/Class_of_'99", 'http://dbpedia.org/resource/Joey_Huffman', 'http://dbpedia.org/resource/Kyle_Cook', 'http://dbpedia.org/resource/Paul_Doucette__Paul_Doucette__1', 'http://dbpedia.org/resource/Rob_Thomas_(musician)', 'http://dbpedia.org/resource/Ryan_Shore', 'http://dbpedia.org/resource/Stacy_Jones', "http://dbpedia.org/resource/Tabitha's_Secret", 'http://dbpedia.org/resource/The_Break_and_Repair_Method'], 'abstract': '"3AM" (stylized as "3 am" on the album and "3 AM" on the single) is the third single and the third track from Matchbox 20\'s debut album, Yourself or Someone Like You. The song topped the Canadian RPM Top Singles chart for two weeks and the US Billboard Adult Pop Songs chart for ten weeks; it was not eligible to chart on the Billboard Hot 100 at the time due to not receiving a physical release in the United States. Outside North America, "3AM" reached number 31 in Australia and became a minor hit in Europe.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Tomorrow_Comes_Today', 'track_name': 'Tomorrow Comes Today', 'artist': 'http://dbpedia.org/resource/Gorillaz', 'artist_name': 'Gorillaz', 'wiki': 'http://en.wikipedia.org/wiki/Tomorrow_Comes_Today', 'hometown': 'http://dbpedia.org/resource/London', 'released': '27 November 2000', 'producers': ['http://dbpedia.org/resource/Dan_the_Automator', 'http://dbpedia.org/resource/Gorillaz', 'Tom Girling', 'Jason Cox'], 'writers': ['http://dbpedia.org/resource/Damon_Albarn', 'http://dbpedia.org/resource/Jamie_Hewlett'], 'labels': ['http://dbpedia.org/resource/EMI_Records'], 'genres': ['http://dbpedia.org/resource/Dub_music', 'http://dbpedia.org/resource/Lo-fi_music', 'http://dbpedia.org/resource/Trip_hop'], 'related_artists': ['http://dbpedia.org/resource/Azekel', 'http://dbpedia.org/resource/Banx_&amp;_Ranx', 'http://dbpedia.org/resource/Bashy', 'http://dbpedia.org/resource/Blur_(band)', 'http://dbpedia.org/resource/Bobby_Womack', 'http://dbpedia.org/resource/Cass_Browne', 'http://dbpedia.org/resource/Cheick_Tidiane_Seck', 'http://dbpedia.org/resource/DRC_Music__DRC_Music__1', 'http://dbpedia.org/resource/Dan_the_Automator', 'http://dbpedia.org/resource/Danger_Mouse_(musician)', 'http://dbpedia.org/resource/Dave_Rowntree', 'http://dbpedia.org/resource/David_Jude_Jolicoeur', 'http://dbpedia.org/resource/De_La_Soul', 'http://dbpedia.org/resource/Deadcuts', 'http://dbpedia.org/resource/Del_the_Funky_Homosapien', 'http://dbpedia.org/resource/Deltron_3030', 'http://dbpedia.org/resource/Demon_Strings', 'http://dbpedia.org/resource/Dennis_Rollins', 'http://dbpedia.org/resource/Earl_Sixteen', 'http://dbpedia.org/resource/Ed_Case_(musician)', 'http://dbpedia.org/resource/Fraser_T._Smith', 'http://dbpedia.org/resource/Graham_Coxon', 'http://dbpedia.org/resource/James_Ford_(musician)', 'http://dbpedia.org/resource/James_Murphy_(electronic_musician)', 'http://dbpedia.org/resource/Jean-Michel_Jarre', 'http://dbpedia.org/resource/Jeff_Wootton', 'http://dbpedia.org/resource/Kali_Uchis', 'http://dbpedia.org/resource/Kano_(British_musician)', 'http://dbpedia.org/resource/Kelela', 'http://dbpedia.org/resource/Kid_Koala', 'http://dbpedia.org/resource/Little_Dragon', 'http://dbpedia.org/resource/Mick_Jones_(The_Clash_guitarist)__Mick_Jones__1', 'http://dbpedia.org/resource/Miho_Hatori', 'http://dbpedia.org/resource/Morgan_Nicholls', 'http://dbpedia.org/resource/Paul_Simonon__Paul_Simonon__1', 'http://dbpedia.org/resource/Pauli_Lovejoy', 'http://dbpedia.org/resource/Phi_Life_Cypher', 'http://dbpedia.org/resource/Robert_Del_Naja', 'http://dbpedia.org/resource/Robert_Smith_(musician)', 'http://dbpedia.org/resource/Senseless_Things', 'http://dbpedia.org/resource/Seye_Adelekan', 'http://dbpedia.org/resource/Shaun_Ryder', 'http://dbpedia.org/resource/Shelley_FKA_DRAM', 'http://dbpedia.org/resource/Simon_Katz', 'http://dbpedia.org/resource/Simon_Tong', 'http://dbpedia.org/resource/Snoop_Dogg', 'http://dbpedia.org/resource/Spacemonkeyz', 'http://dbpedia.org/resource/Terry_Hall_(singer)', 'http://dbpedia.org/resource/The_Horrors', 'http://dbpedia.org/resource/The_Internet_(band)', 'http://dbpedia.org/resource/The_Pharcyde', 'http://dbpedia.org/resource/The_Twilite_Tone', 'http://dbpedia.org/resource/U_Brown', 'http://dbpedia.org/resource/Yukimi_Nagano', 'http://dbpedia.org/resource/Zebra_Katz'], 'abstract': '"Tomorrow Comes Today" is a song from British alternative rock virtual band Gorillaz\'s self-titled debut album Gorillaz and was their first release when issued as an EP in November 2000. The first three songs from the EP ended up on their debut album, however, "Latin Simone" was heavily edited, and dubbed into Spanish, for the album release. The new version was sung by Ibrahim Ferrer, and renamed "Latin Simone (¿Que Pasa Contigo?)". The original version is sung by 2-D (voiced by Damon Albarn) and appears along with "12D3" on the later-released compilation album G-Sides. The song itself was also the fourth and final single from that album, released on 25 February 2002. It peaked at number 33 on the UK Singles Chart. A demo version of the song, "I Got Law" was included as a bonus track of the Japanese edition of 13 by Blur, Damon Albarn\'s other musical project.'}</t>
-  </si>
-  <si>
-    <t>{'track': "http://dbpedia.org/resource/It's_My_Life_(Talk_Talk_song)", 'track_name': "It's My Life (cançó)", 'artist': 'http://dbpedia.org/resource/No_Doubt', 'artist_name': 'No Doubt', 'wiki': "http://en.wikipedia.org/wiki/It's_My_Life_(Talk_Talk_song)", 'hometown': 'http://dbpedia.org/resource/Anaheim,_California', 'released': '20 October 2003', 'producers': ['http://dbpedia.org/resource/Tim_Friese-Greene'], 'writers': ['http://dbpedia.org/resource/Mark_Hollis', 'http://dbpedia.org/resource/Tim_Friese-Greene'], 'awards': ['Platinum', 'Silver'], 'labels': ['http://dbpedia.org/resource/EMI_Records', 'http://dbpedia.org/resource/Parlophone'], 'genres': ['http://dbpedia.org/resource/Eurodance', 'http://dbpedia.org/resource/New_wave_music', 'http://dbpedia.org/resource/Synth-pop', '*new wave'], 'related_artists': ['http://dbpedia.org/resource/311_(band)', 'http://dbpedia.org/resource/Bow_Wow_Wow', 'http://dbpedia.org/resource/Dreamcar', 'http://dbpedia.org/resource/Invincible_Overlord', 'http://dbpedia.org/resource/Major_Lazer', 'http://dbpedia.org/resource/Pink_(singer)', 'http://dbpedia.org/resource/Starpool', 'http://dbpedia.org/resource/Sublime_(band)'], 'abstract': '"It\'s My Life" is a song by the English new wave band Talk Talk. Written by Mark Hollis and Tim Friese-Greene, it was the title track on the band\'s second album and released as its first single in January 1984. It reached number 46 on the UK Singles Chart, but did better in several other countries, reaching number 33 in Germany, number 32 in New Zealand, and number 25 in France. In North America, it entered the Top 40 in both the United States (at number 31) and Canada (at number 30). It peaked at number 1 on the US Dance Club Songs chart. The single was re-released in the UK in 1985, but reached only number 93. In 1990, however, "It\'s My Life" was reissued again to promote the compilation album Natural History: The Very Best of Talk Talk. This time, the song was a hit in the UK, reaching number 13, the band\'s highest chart-placing single in its native country.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Monsters_(Shinedown_song)', 'track_name': 'Monsters (Shinedown song)', 'artist': 'http://dbpedia.org/resource/Shinedown', 'artist_name': 'Shinedown', 'wiki': 'http://en.wikipedia.org/wiki/Monsters_(Shinedown_song)', 'hometown': 'http://dbpedia.org/resource/Jacksonville,_Florida', 'released': '01 March 2019', 'producers': ['http://dbpedia.org/resource/Shinedown', 'Eric Bass'], 'writers': ['http://dbpedia.org/resource/Brent_Smith', 'http://dbpedia.org/resource/Shinedown', 'Eric Bass'], 'awards': ['Gold'], 'labels': ['http://dbpedia.org/resource/Atlantic_Records'], 'genres': ['http://dbpedia.org/resource/Rock_music'], 'related_artists': ['http://dbpedia.org/resource/3_Doors_Down', 'http://dbpedia.org/resource/Brad_Stewart', 'http://dbpedia.org/resource/Call_Me_No_One', 'http://dbpedia.org/resource/Chris_Chaney', 'http://dbpedia.org/resource/Deepfield', 'http://dbpedia.org/resource/Fuel_(band)', 'http://dbpedia.org/resource/Nick_Perri', 'http://dbpedia.org/resource/Zach_Myers'], 'abstract': '"Monsters" is a song by American rock band Shinedown. It was their third single off of their sixth studio album Attention Attention. It reached the top of the Billboard Mainstream Rock Songs chart in June 2019. Upon reaching number one on the Mainstream Rock, Shinedown moved into second place for the most Mainstream Rock number ones with fourteen songs. "Monsters" was nominated for iHeartRadio\'s rock song of the year award.'}</t>
-  </si>
-  <si>
-    <t>{'track': "http://dbpedia.org/resource/Don't_Go_Breaking_My_Heart_(Backstreet_Boys_song)", 'track_name': "Don't Go Breaking My Heart (Backstreet Boys song)", 'artist': 'http://dbpedia.org/resource/Backstreet_Boys', 'artist_name': 'Backstreet Boys', 'wiki': "http://en.wikipedia.org/wiki/Don't_Go_Breaking_My_Heart_(Backstreet_Boys_song)", 'hometown': 'http://dbpedia.org/resource/Orlando,_Florida', 'released': '17 May 2018', 'producers': ['Stuart Crichton', 'Jamie Hartman'], 'writers': ['http://dbpedia.org/resource/Stuart_Crichton', 'http://dbpedia.org/resource/Wrabel', 'Jamie Hartman'], 'awards': ['Gold'], 'labels': ['http://dbpedia.org/resource/RCA_Records'], 'genres': ['http://dbpedia.org/resource/Electropop'], 'related_artists': ['http://dbpedia.org/resource/98_Degrees', 'http://dbpedia.org/resource/Aaron_Carter', 'http://dbpedia.org/resource/Adam_Anders', 'http://dbpedia.org/resource/Aimee_Mayo', 'http://dbpedia.org/resource/Andreas_Carlsson', 'http://dbpedia.org/resource/Andrew_Lane_(record_producer)', 'http://dbpedia.org/resource/Billy_Mann', 'http://dbpedia.org/resource/Bravo_All_Stars', 'http://dbpedia.org/resource/Brian_Kennedy_(record_producer)', 'http://dbpedia.org/resource/Don_Mescall', 'http://dbpedia.org/resource/Glen_Scott', 'http://dbpedia.org/resource/Herbie_Crichlow', 'http://dbpedia.org/resource/JC_Chasez', 'http://dbpedia.org/resource/Johnny_Wright_(music_manager)', 'http://dbpedia.org/resource/Kate_Alexa', 'http://dbpedia.org/resource/Kristian_Lundin', 'http://dbpedia.org/resource/Lindy_Robbins', 'http://dbpedia.org/resource/Lowell_(musician)', 'http://dbpedia.org/resource/Melvin_E._Brown', 'http://dbpedia.org/resource/Mindi_Abair', 'http://dbpedia.org/resource/Morgan_Taylor_Reid', 'http://dbpedia.org/resource/NKOTBSB', 'http://dbpedia.org/resource/New_Kids_on_the_Block', 'http://dbpedia.org/resource/Rami_Yacoub', 'http://dbpedia.org/resource/Rob_Lewis_(producer)', 'http://dbpedia.org/resource/Souleye_(hip_hop_artist)', 'http://dbpedia.org/resource/Stuart_Crichton', 'http://dbpedia.org/resource/The_Exchange_(band)', 'http://dbpedia.org/resource/Tom_Coyne_(music_engineer)', 'http://dbpedia.org/resource/Trey_D.', 'http://dbpedia.org/resource/Von_Pimpenstein', 'http://dbpedia.org/resource/Westlife', 'http://dbpedia.org/resource/Willa_Ford'], 'abstract': '"Don\'t Go Breaking My Heart" is a song by American vocal group Backstreet Boys. The song was released on May 17, 2018 as the lead single to their ninth studio album DNA (their eighth in the US). The single peaked at number 63 on the Billboard Hot 100, which is their first song as lead artist on the chart since "Inconsolable" in 2007, and their highest-charted single since "Incomplete" in 2005. The song received a Grammy Nomination for “Best Pop Duo/Group” for the 2019 ceremony, their first nomination since "Shape of My Heart" at the 2002 ceremony.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Sultans_of_Swing', 'track_name': 'Sultans of Swing', 'artist': 'http://dbpedia.org/resource/Dire_Straits', 'artist_name': 'Dire Straits', 'wiki': 'http://en.wikipedia.org/wiki/Sultans_of_Swing', 'hometown': 'http://dbpedia.org/resource/Deptford', 'producers': ['http://dbpedia.org/resource/Muff_Winwood'], 'writers': ['http://dbpedia.org/resource/Mark_Knopfler'], 'awards': ['Gold', 'Platinum'], 'labels': ['http://dbpedia.org/resource/Vertigo_Records', 'http://dbpedia.org/resource/Warner_Records'], 'genres': ['http://dbpedia.org/resource/Pub_rock_(United_Kingdom)'], 'related_artists': ['http://dbpedia.org/resource/Alan_Clark_(keyboardist)', 'http://dbpedia.org/resource/Bill_Schnee', 'http://dbpedia.org/resource/Bob_Dylan', 'http://dbpedia.org/resource/Chris_White_(saxophonist)', 'http://dbpedia.org/resource/Chris_Whitten', 'http://dbpedia.org/resource/David_Knopfler', 'http://dbpedia.org/resource/Eric_Clapton', 'http://dbpedia.org/resource/Guy_Fletcher', 'http://dbpedia.org/resource/Hal_Lindes', 'http://dbpedia.org/resource/Jack_Sonni', 'http://dbpedia.org/resource/John_Illsley', 'http://dbpedia.org/resource/Mark_Knopfler', 'http://dbpedia.org/resource/Maya_Lavelle', 'http://dbpedia.org/resource/Michael_Brecker__Michael_Brecker__1', 'http://dbpedia.org/resource/Molly_Duncan', 'http://dbpedia.org/resource/Muff_Winwood', 'http://dbpedia.org/resource/Neil_Dorfsman', 'http://dbpedia.org/resource/Nils_Lofgren', 'http://dbpedia.org/resource/Omar_Hakim', 'http://dbpedia.org/resource/Phil_Palmer', 'http://dbpedia.org/resource/Pick_Withers', 'http://dbpedia.org/resource/Sting_(musician)', 'http://dbpedia.org/resource/Terry_Williams_(drummer)', 'http://dbpedia.org/resource/The_Notting_Hillbillies', 'http://dbpedia.org/resource/Tommy_Mandel'], 'abstract': '"Sultans of Swing" is a song by British rock band Dire Straits, written by frontman Mark Knopfler. The demo of the song was recorded at Pathway Studios, North London, in July 1977 and quickly acquired a following after it was put in rotation on BBC Radio London. Its popularity soon reached record executives, and Dire Straits were offered a contract with Phonogram Records. The song was then re-recorded in February 1978 at Basing Street Studios for the band\'s eponymous debut album. The B-side, "Eastbound Train", is a live track that otherwise only appears on the Live at the Hope &amp; Anchor Front Row Festival album. The single would go on to reach the top 5 in Canada, South Africa, and the United States as well as the top 10 in Australia, Ireland, and the United Kingdom.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/One_More_Time_(Daft_Punk_song)', 'track_name': 'One More Time (다프트 펑크의 노래)', 'artist': 'http://dbpedia.org/resource/Daft_Punk', 'artist_name': 'Daft Punk', 'wiki': 'http://en.wikipedia.org/wiki/One_More_Time_(Daft_Punk_song)', 'hometown': 'http://dbpedia.org/resource/Paris', 'released': '13 November 2000', 'producers': ['http://dbpedia.org/resource/Daft_Punk'], 'writers': ['http://dbpedia.org/resource/Guy-Manuel_de_Homem-Christo', 'http://dbpedia.org/resource/Romanthony', 'http://dbpedia.org/resource/Thomas_Bangalter', 'Anthony Moore'], 'awards': ['Gold', 'Platinum'], 'labels': ['http://dbpedia.org/resource/Virgin_Records'], 'genres': ['http://dbpedia.org/resource/French_house'], 'related_artists': ['http://dbpedia.org/resource/Chilly_Gonzales', 'http://dbpedia.org/resource/Crydamoure', "http://dbpedia.org/resource/Darlin'_(French_band)", 'http://dbpedia.org/resource/Giorgio_Moroder', 'http://dbpedia.org/resource/Grand_Popo_Football_Club', 'http://dbpedia.org/resource/Greg_Leisz', 'http://dbpedia.org/resource/Guy-Manuel_de_Homem-Christo', 'http://dbpedia.org/resource/Joseph_Trapanese', 'http://dbpedia.org/resource/Kanye_West', 'http://dbpedia.org/resource/Kiwi_Time', 'http://dbpedia.org/resource/Kygo', 'http://dbpedia.org/resource/Music_Sounds_Better_with_You', 'http://dbpedia.org/resource/Nathan_East', 'http://dbpedia.org/resource/Nile_Rodgers', 'http://dbpedia.org/resource/Omar_Hakim', 'http://dbpedia.org/resource/Parcels_(band)', 'http://dbpedia.org/resource/Paul_Jackson_Jr.', 'http://dbpedia.org/resource/Paul_Williams_(songwriter)', 'http://dbpedia.org/resource/Pedro_Winter', 'http://dbpedia.org/resource/Peter_Franco', 'http://dbpedia.org/resource/Pharrell_Williams', 'http://dbpedia.org/resource/Phoenix_(band)', 'http://dbpedia.org/resource/Photek', 'http://dbpedia.org/resource/Romanthony', 'http://dbpedia.org/resource/Rudy_Nicoletti', 'http://dbpedia.org/resource/Sander_Kleinenberg', 'http://dbpedia.org/resource/Teriyaki_Boyz', 'http://dbpedia.org/resource/The_Weeknd', 'http://dbpedia.org/resource/Thomas_Bangalter', 'http://dbpedia.org/resource/Todd_Edwards', 'http://dbpedia.org/resource/Together_(French_duo)'], 'abstract': '"One More Time" is a song by French electronic music duo Daft Punk, released as a single from their second album, Discovery (2001), on 13 November 2000. It is a French house song featuring a stylistically autotuned vocal performance by Romanthony. The music video of the song forms part of the 2003 anime film, Interstella 5555: The 5tory of the 5ecret 5tar 5ystem. "One More Time" was a commercial success, charting at number one on the French Singles Chart, number two on the UK Singles Chart, and number 61 on the US Billboard Hot 100. "One More Time" was listed at number five on Pitchfork\'s top 500 songs of the 2000s, with the magazine writing that it "distill[s] 25 years of pop and house into five and a half minutes of first-time joy." Rolling Stone listed it at number 33 of their top 100 songs of the decade (2000–2009) as well as number 307 on its amended "The 500 Greatest Songs of All Time" list in May 2010. It was voted by Mixmag readers as the greatest dance record of all time. Also, "One More Time" was ranked at number 11 on The Village Voice\'s Pazz &amp; Jop annual year-end critics\' poll. The song was uploaded on YouTube by Daft Punk on 24 February 2009.'}</t>
-  </si>
-  <si>
-    <t>{'track': "http://dbpedia.org/resource/Don't_Tell_Me_(What_Love_Can_Do)", 'track_name': "Don't Tell Me (What Love Can Do)", 'artist': 'http://dbpedia.org/resource/Van_Halen', 'artist_name': 'Van Halen', 'wiki': "http://en.wikipedia.org/wiki/Don't_Tell_Me_(What_Love_Can_Do)", 'hometown': 'http://dbpedia.org/resource/Pasadena,_California', 'released': '28 December 1994', 'producers': ['http://dbpedia.org/resource/Bruce_Fairbairn'], 'writers': ['http://dbpedia.org/resource/Alex_Van_Halen', 'http://dbpedia.org/resource/Eddie_Van_Halen', 'http://dbpedia.org/resource/Michael_Anthony_(musician)', 'http://dbpedia.org/resource/Sammy_Hagar'], 'labels': ['http://dbpedia.org/resource/Warner_Records'], 'related_artists': ['http://dbpedia.org/resource/Alan_Fitzgerald', 'http://dbpedia.org/resource/Alex_Van_Halen', 'http://dbpedia.org/resource/Bruce_Fairbairn', 'http://dbpedia.org/resource/Chickenfoot', 'http://dbpedia.org/resource/David_Lee_Roth', 'http://dbpedia.org/resource/Free_Spirit_(band)', 'http://dbpedia.org/resource/Gary_Cherone', 'http://dbpedia.org/resource/Hagar_Schon_Aaronson_Shrieve', 'http://dbpedia.org/resource/Hurtsmile', 'http://dbpedia.org/resource/Mammoth_WVH', 'http://dbpedia.org/resource/Michael_Anthony_(musician)', 'http://dbpedia.org/resource/Mick_Jones_(Foreigner_guitarist)__Mick_Jones__1', 'http://dbpedia.org/resource/Mike_Post', 'http://dbpedia.org/resource/Mitch_Malloy', 'http://dbpedia.org/resource/Montrose_(band)', 'http://dbpedia.org/resource/Planet_Us', 'http://dbpedia.org/resource/Sammy_Hagar', 'http://dbpedia.org/resource/Sammy_Hagar_and_the_Circle', 'http://dbpedia.org/resource/Ted_Templeman__Ted_Templeman__1', 'http://dbpedia.org/resource/The_David_Lee_Roth_Band', 'http://dbpedia.org/resource/Tribe_of_Judah_(band)', 'http://dbpedia.org/resource/Wolfgang_Van_Halen'], 'abstract': '"Don\'t Tell Me (What Love Can Do)" is a song by American hard rock band Van Halen from their 1995 album Balance. It is one of five singles issued for the album, and was the only one to reach #1 on the Billboard Album Rock Tracks chart, where it stayed for three weeks. Chuck Klosterman of Vulture.com ranked it the 67th-best Van Halen song, calling it "the best song off the worst Van Halen album that isn’t Van Halen III."'}</t>
+    <t>{'url': 'https://genius.com/Estelle-american-boy-lyrics', 'lyrics': '[Intro: Kanye West &amp; Estelle]\nThis a number one champion sound (Yeah)\nYeah, Estelle, we \'bout to get down (Get down)\nWho the hottest in the world right now? (Uh)\nJust touched down in London town (Uh)\nBet they give me a pound (Uh)\nTell \'em put the money in my hand right now (Yes)\nTell the promoter we need more seats\nWe just sold out all the floor seats\n\n[Chorus 1: Estelle]\nTake me on a trip, I\'d like to go some day\nTake me to New York, I\'d love to see LA\nI really want to come kick it with you\nYou\'ll be my American boy\n\n[Verse 1: Estelle]\nHe said, "Hey, sister, it\'s really, really nice to meet ya"\nI just met this 5-foot-7 guy who\'s just my type\nLike the way he\'s speakin\', his confidence is peakin\'\nDon\'t like his baggy jeans but I might like what\'s underneath them\nAnd, no, I ain\'t been to MIA\nI heard that Cali never rains and New York\'s wide awake\nFirst let\'s see the West End, I\'ll show you to my bredrin\nI\'m likin\' this American boy, American boy\n[Chorus 1: Estelle]\nTake me on a trip, I\'d like to go some day\nTake me to New York, I\'d love to see LA\nI really want to come kick it with you\nYou\'ll be my American boy, American boy\n\n[Post-Chorus]\nLa, la la, la la, eya\nLa, la la, la la, eya\nLa, la la, la la, eya\nWill you be my American boy? American boy\n\n[Verse 2: Estelle]\nCan we get away this weekend? Take me to Broadway\nLet\'s go shopping, maybe then we\'ll go to a café\nLet\'s go on the subway, take me to your hood\nI never been to Brooklyn and I\'d like to see what\'s good\nDressed in all your fancy clothes\nSneakers lookin\' fresh to death, I\'m lovin\' those Shell Toes\nWalkin\' that walk, talk that slick talk\nI\'m likin\' this American boy, American boy\n\n[Chorus 1: Estelle]\nTake me on a trip, I\'d like to go some day\nTake me to New York, I\'d love to see LA\nI really want to come kick it with you\nYou\'ll be my American boy\nTell \'em wah gwan, blud!\n[Verse 3: Kanye West with Estelle]\nWho killin\' them in the UK?\nEverybody gonna say, "You, K"\nReluctantly, \'cause most of this press don\'t fuck with me\nEstelle once said to me, "Cool down, down\nDon\'t act a fool now, now."\nI always act a fool oww, oww\nAin\'t nothing new now, now\nHe crazy, I know what you thinkin\'\nRibena, I know what you\'re drinkin\'\nRap singer, chain blinger\nHoller at the next chick soon as you\'re blinkin\'\nWhat\'s your persona about this Americana rhymer?\nAm I shallow \'cause all my clothes designer? Uh\nDressed smart like a London bloke (Yeah)\nBefore he speak his suit bespoke (Woop)\nAnd you thought he was cute before\nLook at this pea coat, tell me he\'s broke (Woo)\nAnd I know you ain\'t into all that\nI heard your lyrics, I feel your spirit\nBut I still talk that ca-a-ash\n\'Cause a lotta wags wanna hear it\nAnd I\'m feelin\' like Mike at his baddest\nLike The Pips at their gladdest\nAnd I know they love it\nSo to hell with all that rubbish\n[Bridge: Estelle]\nWould you be my love, my love?\nWould you be mine?\nWould you be my love, my love?\nWould you be mine?\nCould you be my love, my love? (Ooh)\nWould you be my American boy? American boy\n\n[Chorus 2: Estelle]\nTake me on a trip, I\'d like to go some day (Ooh, someday)\nTake me to Chicago, San Francisco Bay (I wanna see the Bay)\nI really want to (You) come kick it with you (Ooh-ooh-ooh)\nYou\'ll be my American boy, American boy (Be my American boy)\n\n[Chorus 1: Estelle]\nTake me on a trip I\'d like to go some day (I\'d like to go some day)\nTake me to New York, I\'d love to see LA (See LA)\nI really want to come kick it with you\nYou\'ll be my American boy, American boy\n\n[Post-Chorus]\nLa, la la, la la, eya (La, la)\nLa, la la, la la, eya (Ooh, ooh)\nLa, la la, la la, eya\nWill you be my American boy?', 'annotations': {'description': '&lt;p&gt;“American Boy,” Estelle’s breakout solo single, is a slice of modern disco that is the perfect backdrop for the song’s cross-continental romance featuring Kanye West.&lt;/p&gt;\n\n&lt;p&gt;The song hit #1 on the UK charts, went top 10 in several countries and netted Estelle a Grammy for &lt;a href="http://www.marketwired.com/press-release/estelle-wins-first-grammy-award-american-boy-feat-kanye-west-honored-as-best-rap-sung-1242836.htm" rel="noopener nofollow"&gt;Best Rap/Sung Collaboration&lt;/a&gt;. The video scored four awards at the MTV VMAs in 2008, including Video of the Year.&lt;/p&gt;', 'producers': [{'name': '\u200bwill.i.am', 'url': 'https://genius.com/artists/William'}], 'writers': [{'name': 'Keith Harris', 'url': 'https://genius.com/artists/Keith-harris'}, {'name': 'Caleb Speir', 'url': 'https://genius.com/artists/Caleb-speir'}, {'name': 'Josh Lopez', 'url': 'https://genius.com/artists/Josh-lopez'}, {'name': '\u200bwill.i.am', 'url': 'https://genius.com/artists/William'}, {'name': 'Kanye West', 'url': 'https://genius.com/artists/Kanye-west'}, {'name': 'Estelle', 'url': 'https://genius.com/artists/Estelle'}, {'name': 'John Legend', 'url': 'https://genius.com/artists/John-legend'}], 'labels': [{'name': 'Atlantic Records', 'url': 'https://genius.com/artists/Atlantic-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Muse-uprising-lyrics', 'lyrics': "[Verse 1]\nParanoia is in bloom\nThe PR transmissions will resume\nThey'll try to push drugs that keep us all dumbed down\nAnd hope that we will never see the truth around\n(So come on)\n\n[Verse 2]\nAnother promise, another seed\nAnother packaged lie to keep us trapped in greed\nAnd all the green belts wrapped around our minds\nAnd endless red tape to keep the truth confined\n(So come on)\n\n[Chorus]\nThey will not force us\nThey will stop degrading us\nThey will not control us\nWe will be victorious\n(So come on)\n\n[Verse 3]\nInterchanging mind control\nCome let the revolution take its toll\nIf you could flick a switch and open your third eye\nYou'd see that we should never be afraid to die\n(So come on)\n[Verse 4]\nRise up and take the power back\nIt's time the fat cats had a heart attack\nYou know that their time's coming to an end\nWe have to unify and watch our flag ascend\n(So come on)\n\n[Chorus]\nThey will not force us\nThey will stop degrading us\nThey will not control us\nWe will be victorious\n(So come on)\n\n[Bridge]\nHey, hey\nHey, hey\nHey, hey\nHey, hey\n\n[Chorus]\nThey will not force us\nThey will stop degrading us\nThey will not control us\nWe will be victorious\n(So come on)\n[Outro]\nHey, hey\nHey, hey", 'annotations': {'description': '&lt;p&gt;From Muse’s 2009 album, &lt;em&gt;The Resistance&lt;/em&gt;, which was heavily based on &lt;a href="https://www.theguardian.com/books/2009/may/10/1984-george-orwell" rel="noopener nofollow"&gt;George Orwell’s dystopian masterpiece, &lt;em&gt;1984&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;An eventual concept of the novel is a rebellion, an “Uprising” against the controlling government… The protagonists realizing that &lt;em&gt;they&lt;/em&gt; have the power (although &lt;strong&gt;[spoiler alert]&lt;/strong&gt;, should you read Orwell’s novel, you’ll know better).&lt;/p&gt;\n\n&lt;p&gt;Matt Bellamy has said that “this song is influenced by glam rock, 80s synths, riots and the more eccentric protesters at the &lt;a href="https://www.theguardian.com/world/2009/apr/01/g20-summit-protests" rel="noopener nofollow"&gt;G2O protests&lt;/a&gt;. It expresses a general mistrust of bankers, global corporations, and politicians.”, while Chris Wolstenholme has stated that “the title of the album relates strongly to the first two tracks [the other being Resistance]. Uprising has the protest thing going on. I think that the whole song is about having a massive mistrust for people in power, whether it be government or bankers. We’re living in a society where we’re being told to keep quiet, to just accept things as they are.”&lt;/p&gt;\n\n&lt;p&gt;The music video of the song won the &lt;a href="https://www.muse.mu/news/uprising-wins-mtv-vma-230331" rel="noopener nofollow"&gt;MTV award for best special effects&lt;/a&gt;.&lt;/p&gt;', 'producers': [{'name': 'Matt Bellamy', 'url': 'https://genius.com/artists/Matt-bellamy'}, {'name': 'Dominic Howard', 'url': 'https://genius.com/artists/Dominic-howard'}, {'name': 'Chris Wolstenholme', 'url': 'https://genius.com/artists/Chris-wolstenholme'}], 'writers': [{'name': 'Matt Bellamy', 'url': 'https://genius.com/artists/Matt-bellamy'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/The-knack-my-sharona-lyrics', 'lyrics': '[Intro]\n\n[Verse 1]\nOoh, my little pretty one, pretty one\nWhen you gonna give me some time, Sharona?\nOoh, you make my motor run, my motor run\nGun it coming off of the line, Sharona\n\n[Chorus]\nNever gonna stop, give it up, such a dirty mind\nI always get it up for the touch of the younger kind\nMy, my, my, I, yi, woo!\nM-m-m-my Sharona\n\n[Verse 2]\nCome a little closer, huh, ah, will ya, huh?\nClose enough to look in my eyes, Sharona\nKeeping it a mystery gets to me\nRunning down the length of my thighs, Sharona\n\n[Chorus]\nNever gonna stop, give it up, such a dirty mind\nI always get it up for the touch of the younger kind\nMy, my, my, I, yi, woo!\nM-m-m-my Sharona\nM-m-m-my Sharona\n[Bridge]\n\n[Verse 3]\nWhen you gonna give to me, g-give to me?\nIs it just a matter of time, Sharona?\nIs it j-just destiny, d-destiny\nOr is it just a game in my mind, Sharona?\n\n[Chorus]\nNever gonna stop, give it up, such a dirty mind\nI always get it up for the touch of the younger kind\nMy, my, my, I, yi, woo!\nM-m-m-my my my, I, yi, woo!\nM-m-m-my Sharona\nM-m-m-my Sharona\nM-m-m-my Sharona\nM-m-m-my Sharona\n[Outro - Instrumental Bridge]\nOooooh, my Sharona\nOooooh, my Sharona\nOooooh, my Sharona', 'annotations': {'description': '&lt;p&gt;The first single released by the Knack, “My Sharona” &lt;a href="https://www.billboard.com/charts/hot-100/1979-08-25" rel="noopener nofollow"&gt;topped the US pop chart&lt;/a&gt; in 1979 and was declared song of the year. Overseas it reached the top 20 in &lt;a href="https://dutchcharts.nl/showitem.asp?interpret=The+Knack&amp;amp;titel=My+Sharona&amp;amp;cat=s" rel="noopener nofollow"&gt;several countries&lt;/a&gt; including a #6 peak &lt;a href="https://www.officialcharts.com/artist/17807/knack/" rel="noopener nofollow"&gt;in the UK&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The song was &lt;a href="https://www.npr.org/templates/story/story.php?storyId=124397021" rel="noopener nofollow"&gt;inspired by&lt;/a&gt; a 17-year-old girl named Sharona Alperin that frontman Doug Fieger met at a clothing store and with whom he became infatuated. She eventually became his lover and then girlfriend, but the two never married.&lt;/p&gt;\n\n&lt;p&gt;“My Sharona” is famous for its simple, catchy bass riff and raunchy lyrics, as well as the famous stutter introducing the song’s subject.&lt;/p&gt;\n\n&lt;p&gt;The band’s debut album &lt;em&gt;Get the Knack&lt;/em&gt; pre-sold over a million copies before it came out due to the success of “My Sharona”. The album had two additional songs also inspired by Sharona, including the racier &lt;a href="https://genius.com/The-knack-thats-what-the-little-girls-do-lyrics" rel="noopener" data-api_path="/songs/1161568"&gt;“That’s What Little Girls Do”&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Later “My Sharona” &lt;a href="http://www.washingtontimes.com/news/2015/jun/10/berton-averre-interview-the-knacks-my-sharona-reis/?page=all" rel="noopener nofollow"&gt;was labeled&lt;/a&gt; as “The song that killed Disco”.  &lt;a href="http://ultimateclassicrock.com/the-knack-get-the-knack/" rel="noopener nofollow"&gt;Many believe&lt;/a&gt; that the song’s huge success doomed the band, who could never repeat its appeal, influence and popularity.&lt;/p&gt;\n\n&lt;p&gt;“My Sharona” was thrust back into the spotlight in 2005 when the New York Times &lt;a href="http://www.washingtonpost.com/wp-dyn/articles/A59569-2005Apr16.html" rel="noopener nofollow"&gt;revealed&lt;/a&gt; that former President George W Bush had the song on his iPod.&lt;/p&gt;', 'producers': [{'name': 'Mike Chapman', 'url': 'https://genius.com/artists/Mike-chapman'}], 'writers': [{'name': 'Doug Fieger', 'url': 'https://genius.com/artists/Doug-fieger'}, {'name': 'Berton Averre', 'url': 'https://genius.com/artists/Berton-averre'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Tears-for-fears-mad-world-lyrics', 'lyrics': "[Verse 1]\nAll around me are familiar faces\nWorn-out places, worn-out faces\nBright and early for their daily races\nGoing nowhere, going nowhere\nAnd their tears are filling up their glasses\nNo expression, no expression\nHide my head, I want to drown my sorrow\nNo tomorrow, no tomorrow\n\n[Chorus]\nAnd I find it kind of funny\nI find it kind of sad\nThe dreams in which I'm dying\nAre the best I've ever had\nI find it hard to tell you, 'cause I find it hard to take\nWhen people run in circles\nIt's a very, very\nMad world\nMad world\nMad world\nMad world\n\n[Verse 2]\nChildren waiting for the day they feel good\nHappy birthday, happy birthday\nMade to feel the way that every child should\nSit and listen, sit and listen\nWent to school and I was very nervous\nNo one knew me, no one knew me\nHello, teacher, tell me what's my lesson\nLook right through me, look right through me\n[Chorus]\nAnd I find it kind of funny\nI find it kind of sad\nThe dreams in which I'm dying are the best I've ever had\nI find it hard to tell you, 'cause I find it hard to take\nWhen people run in circles, it's a very very\nMad world\nMad world\nMad world\nMad world\n\n[Interlude]\n\n[Chorus]\nAnd I find it kind of funny, I find it kind of sad\nThe dreams in which I'm dying\nAre the best I've ever had\nI find it hard to tell you\n'Cause I find it hard to take\nWhen people run in circles\nIt's a very, very\nMad world\nMad world\nHalargian world\nMad world", 'annotations': {'description': '&lt;p&gt;“Mad World” is the second song on Tears for Fears\' 1983 debut album, The Hurting. The song reached no. 3 on the UK Singles Chart in November 1982, and was the band’s first international hit.&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;Lyrically the song is pretty loose. It throws together a lot of different images to paint a picture without saying anything specific about the world.&lt;br&gt;\n-Roland Orzabal, “In The Hurting: Remastered &amp;amp; Expanded.”&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;The song features many synthesizers and percussion instruments, creating an upbeat tone for the bleak lyrics. A minimalist, piano-backed &lt;a href="http://rock.genius.com/Gary-jules-mad-world-lyrics" rel="noopener" data-api_path="/songs/1848030"&gt;cover by Gary Jules&lt;/a&gt; written for the 2001 movie Donnie Darko stirred up further interest in the song. The cover was eventually released as a single, and reached number one on the UK pop charts during Christmas 2003.&lt;/p&gt;', 'producers': [{'name': 'Ross Cullum', 'url': 'https://genius.com/artists/Ross-cullum'}, {'name': 'Chris Hughes', 'url': 'https://genius.com/artists/Chris-hughes'}], 'writers': [{'name': 'Roland Orzabal', 'url': 'https://genius.com/artists/Roland-orzabal'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Arctic-monkeys-whyd-you-only-call-me-when-youre-high-lyrics', 'lyrics': '[Verse 1]\nThe mirror\'s image tells me it\'s home time\nBut I\'m not finished, \'cause you\'re not by my side\nAnd as I arrived I thought I saw you leavin\'\nCarryin\' your shoes\nDecided that once again I was just dreamin\'\nOf bumpin\' into you\n\n[Chorus]\nNow, it\'s three in the mornin\'\nAnd I\'m tryna\' change your mind\nLeft you multiple missed calls\nAnd to my message, you reply\n"Why\'d you only call me when you\'re high?"\n"High, why\'d you only call me when you\'re high?"\n\n[Verse 2]\nSomewhere darker, talkin\' the same shite\nI need a partner, well are you out tonight?\nIt\'s harder and harder to get you to listen\nMore I get through the gears\nIncapable of makin\' alright decisions\nAnd having bad ideas\n\n[Chorus]\nNow, it\'s three in the mornin\'\nAnd I\'m tryna\' change your mind\nLeft you multiple missed calls\nAnd to my message, you reply (Message, you reply)\n"Why\'d you only call me when you\'re high?"\n(Why\'d you only call me when you\'re)\n"High, why\'d you only call me when you\'re high?"\n[Bridge]\nAnd I can\'t see you here, wonder where I might\nIt sort of feels like I\'m runnin\' out of time\nI haven\'t found all I was hopin\' to find\nYou said you got to be up in the mornin\'\nGonna have an early night\nAnd you\'re startin\' to bore me, baby\n"Why\'d you only call me when you\'re high?"\n\n[Outro]\n"Why\'d you only ever phone me when you\'re high?"\n"Why\'d you only ever phone me when you\'re high?"\n"Why\'d you only ever phone me when you\'re high?"\n"Why\'d you only ever phone me when you\'re (high)?"', 'annotations': {'description': '&lt;p&gt;A single off the Arctic Monkeys 5th album AM, “Why’d You Only Call Me When You’re High?” is a &lt;a href="http://www.rollingstone.com/music/news/josh-homme-arctic-monkeys-album-is-a-sexy-after-midnight-record-20130711" rel="noopener nofollow"&gt;sexy&lt;/a&gt; record, that has the band experimenting with R&amp;amp;B sounds.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/4184d64723bc93b6180b3bdcc39d5294.820x546x1.jpg" alt="" width="820" height="546" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;Alex’s story is made clear on the apropo video, which starts as the previous single &lt;a href="https://genius.com/Arctic-monkeys-do-i-wanna-know-lyrics" rel="noopener" data-api_path="/songs/154314"&gt;“Do I Wanna Know?”&lt;/a&gt; tapers off in a club:&lt;/p&gt;\n\n&lt;p&gt;&lt;/p&gt;&lt;div class="embedly_preview embedly_preview--video"&gt;\n&lt;iframe type="text/html" width="640" height="390" frameborder="0" allowfullscreen="1" src="https://www.youtube.com/embed/6366dxFf-Os?modestbranding=1&amp;amp;start=0&amp;amp;showinfo=0&amp;amp;enablejsapi=1&amp;amp;origin=genius.com"&gt;&lt;/iframe&gt;\n&lt;/div&gt;', 'producers': [{'name': 'Ross Orton', 'url': 'https://genius.com/artists/Ross-orton'}, {'name': 'James Ford', 'url': 'https://genius.com/artists/James-ford'}], 'writers': [{'name': 'Alex Turner', 'url': 'https://genius.com/artists/Alex-turner'}], 'labels': [{'name': 'Domino Recording Company', 'url': 'https://genius.com/artists/Domino-recording-company'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Robbie-williams-let-me-entertain-you-lyrics', 'lyrics': "[Verse 1]\nHell is gone and heaven's here\nThere's nothing left for you to fear\nShake your ass come over here\nNow scream\nI'm a burning effigy\nOf everything I used to be\nYou're my rock of empathy, my dear\n\n[Chorus]\nSo come on, let me entertain you\nLet me entertain you\n\n[Verse 2]\nLife's too short for you to die\nSo grab yourself an alibi\nHeaven knows your mother lied, mon cher\nSeparate your right from wrongs\nCome and sing a different song\nThe kettle's on, so don't be long, mon cher\n\n[Chorus]\nSo come on, let me entertain you\nLet me entertain you\n\n[Verse 3]\nLook me up in the yellow pages\nI will be your rock of ages\nYou see through fads and your crazy phrases, yeah\nLittle Bo Peep has lost his sheep\nHe popped a pill and fell asleep\nThe dew is wet but the grass is sweet, my dear\n[Bridge]\nYour mind gets burned with the habits you've learned\nBut we're the generation that's got to be heard\nYou're tired of your teachers and your school's a drag\nYou're not going to end up like your mum and dad\n\n[Chorus]\nSo come on, let me entertain you\nLet me entertain you\nLet me entertain you\n\n[Bridge]\nHe may be good he may be out of sight\nBut he can't be here so come around tonight\nHere is the place where the feeling grows\nYou gotta get high before you taste the lows\n\n[Chorus]\nLet me entertain you\nLet me entertain you\nSo come on, let me entertain you\nLet me entertain you\n\n[Outro]\nCome on, come on, come on, come on\nCome on, come on, come on, come on\nCome on, come on, come on, come on\nCome on, come on, come on, come on\nCome on, come on, come on, come on\nCome on, come on, come on, come on", 'annotations': {'description': '&lt;p&gt;From Rob’s &lt;a href="https://www.robbiewilliams.com/music/single/let-me-entertain-you" rel="noopener nofollow"&gt;website&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;\n&lt;p&gt;“Described by Robbie as a ‘party anthem’, Let Me Entertain You climbed to No.3 in the spring of 1998, during the post-Angels whirlwind. The song soon became his signature gig-opener.&lt;/p&gt;\n\n&lt;p&gt;Inspired by the Rolling Stones film Rock ‘n’ Roll Circus, Robbie said: “We watched Rock Circus and after that we went and recorded Let Me Entertain You. "When we started writing the demo there was a furious jungle beat underneath it. It was so hardcore it got me very excited, and I still get excited listening to it now. It’s not really heavy metal, it’s more like camp rock opera!”"&lt;/p&gt;\n&lt;/blockquote&gt;', 'producers': [{'name': 'Guy Chambers', 'url': 'https://genius.com/artists/Guy-chambers'}, {'name': 'Steve Power', 'url': 'https://genius.com/artists/Steve-power'}], 'writers': [{'name': 'Robbie Williams', 'url': 'https://genius.com/artists/Robbie-williams'}, {'name': 'Guy Chambers', 'url': 'https://genius.com/artists/Guy-chambers'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/The_Lazy_Song', 'track_name': 'The Lazy Song', 'artist': 'http://dbpedia.org/resource/Bruno_Mars', 'artist_name': 'Bruno Mars', 'wiki': 'http://en.wikipedia.org/wiki/The_Lazy_Song', 'released': '15 February 2011', 'producers': ['http://dbpedia.org/resource/The_Smeezingtons'], 'writers': ["http://dbpedia.org/resource/K'naan", 'http://dbpedia.org/resource/Philip_Lawrence_(songwriter)', '*Ari Levine', '*Bruno Mars'], 'awards': ['Gold', 'Platinum', 'Silver'], 'labels': ['http://dbpedia.org/resource/Atlantic_Records', 'http://dbpedia.org/resource/Elektra_Records'], 'genres': ['http://dbpedia.org/resource/Reggae', 'http://dbpedia.org/resource/Reggae_fusion', 'http://dbpedia.org/resource/Ska'], 'related_artists': ['http://dbpedia.org/resource/Alex_Hepburn', 'http://dbpedia.org/resource/Andrew_Wyatt__Andrew_Wyatt__1', 'http://dbpedia.org/resource/Brody_Brown', 'http://dbpedia.org/resource/CLMD', 'http://dbpedia.org/resource/Dave_Audé', 'http://dbpedia.org/resource/Elijah_Connor', 'http://dbpedia.org/resource/Graham_Marsh_(producer)', 'http://dbpedia.org/resource/Greg_Phillinganes', 'http://dbpedia.org/resource/Jamareo_Artis', 'http://dbpedia.org/resource/Laze_&amp;_Royal', 'http://dbpedia.org/resource/Philip_Lawrence_(songwriter)', 'http://dbpedia.org/resource/Saint_Cassius_(musician)', 'http://dbpedia.org/resource/The_Green_(band)', 'http://dbpedia.org/resource/The_Stereotypes', 'http://dbpedia.org/resource/Tom_Coyne_(music_engineer)'], 'abstract': '"The Lazy Song" is a song by American singer-songwriter Bruno Mars for his debut studio album Doo-Wops &amp; Hooligans (2010). It was serviced to contemporary hit radios in the United States on February 15, 2011 as the album\'s third single by Atlantic and Elektra. Development of "The Lazy Song" began while Mars, Philip Lawrence and Ari Levine were hanging around the studio and didn\'t feel like working. The trio, produced the track under their alias, the Smeezingtons, and wrote the song in collaboration with singer-songwriter K\'naan. Musically, "The Lazy Song" has been described as borrowing "heavily from roots reggae" and has been compared to the reggae style of Jason Mraz, while lyrically it is an anthem to laziness. "The Lazy Song" reached number four on the US Billboard Hot 100, while it topped the charts in Denmark and in the United Kingdom. It charted on most markets within the top five. Cameron Duddy and Mars directed the accompanying music video, in which Mars hangs out with five dancers with monkey masks while jest around in his underwear. It was certified seven times platinum by the Recording Industry Association of America (RIAA), five times by the Australian Recording Industry Association (ARIA) and four times by Music Canada (MC), respectively. It was one of the best selling digital singles of 2011 with sales of 6.5 million copies. Mars sang "The Lazy Song" on the television show American Idol and performed it during The Doo-Wops &amp; Hooligans Tour (2010–12), the Hooligans in Wondaland Tour (2011), and occasionally on The Moonshine Jungle Tour (2013–14).'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Every_Teardrop_Is_a_Waterfall', 'track_name': 'Every Teardrop Is a Waterfall', 'artist': 'http://dbpedia.org/resource/Coldplay', 'artist_name': 'Coldplay', 'wiki': 'http://en.wikipedia.org/wiki/Every_Teardrop_Is_a_Waterfall', 'hometown': 'http://dbpedia.org/resource/London', 'released': '03 June 2011', 'producers': ['http://dbpedia.org/resource/Markus_Dravs', 'http://dbpedia.org/resource/Rik_Simpson', 'Daniel Green'], 'writers': ['http://dbpedia.org/resource/Adrienne_Anderson', 'http://dbpedia.org/resource/Alex_Christensen', 'http://dbpedia.org/resource/Brian_Eno', 'http://dbpedia.org/resource/Chris_Martin', 'http://dbpedia.org/resource/Guy_Berryman', 'http://dbpedia.org/resource/Jonny_Buckland', 'http://dbpedia.org/resource/Peter_Allen_(musician)', 'http://dbpedia.org/resource/U96', 'http://dbpedia.org/resource/Will_Champion', 'B Lagonda', 'Harry Castioni', 'Wycombe'], 'awards': ['Gold', 'Platinum'], 'labels': ['http://dbpedia.org/resource/Parlophone'], 'genres': ['http://dbpedia.org/resource/Arena_rock'], 'related_artists': ['http://dbpedia.org/resource/Apparatjik', 'http://dbpedia.org/resource/Black_Submarine', 'http://dbpedia.org/resource/Brian_Eno', 'http://dbpedia.org/resource/Danny_Ocean_(singer)', 'http://dbpedia.org/resource/Danton_Supple', 'http://dbpedia.org/resource/Davide_Rossi', 'http://dbpedia.org/resource/Faultline_(musician)', 'http://dbpedia.org/resource/Federico_Vindver', 'http://dbpedia.org/resource/Jon_Hopkins', 'http://dbpedia.org/resource/Juanita_Stein', 'http://dbpedia.org/resource/Kygo', 'http://dbpedia.org/resource/Madeon', 'http://dbpedia.org/resource/Markus_Dravs', 'http://dbpedia.org/resource/Maya_Lavelle', 'http://dbpedia.org/resource/Richard_Ashcroft', 'http://dbpedia.org/resource/Rik_Simpson', 'http://dbpedia.org/resource/Spike_Stent', 'http://dbpedia.org/resource/Stargate_(record_producers)', 'http://dbpedia.org/resource/Stuart_Price__Stuart_Price__1', 'http://dbpedia.org/resource/The_Undeserving', 'http://dbpedia.org/resource/We_Are_King'], 'abstract': '"Every Teardrop Is a Waterfall" is a song by British rock band Coldplay, it was released as the lead single for their fifth studio album Mylo Xyloto on 3 June 2011. An exclusive digital EP version of it, with the B-sides "Major Minus" and "Moving to Mars", came out in the following weeks, being considered the band\'s eighth extended play. The track contains elements of the 1976 song "I Go to Rio" written by Peter Allen and Adrienne Anderson. It debuted at number 29 on the Billboard Hot 100 in the United States, selling 85,000 copies in its first week before climbing to its peak of number 14. On the UK Singles Chart, the song peaked at number 6. Its radio debut happened on BBC Radio 1, BBC Radio 2, BBC 6 Music, Absolute Radio, and Xfm. Coldplay first performed the song live on 4 June at the Rock am Ring and Rock im Park festival in Nürnberg, Germany. They also played it at the Steve Jobs memorial event at Apple headquarters on 19 October 2011 in Cupertino, California, and at the opening of the MTV European Music Awards in Belfast, Northern Ireland on 6 November 2011. The track was used as the theme for the live-action film adaptation of Chūya Koyama\'s Uchū Kyōdai (Space Brothers) manga and scored two nominations at the 54th Grammy Awards, one for Best Rock Performance and the other for Best Rock Song.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Hypnotize_(System_of_a_Down_song)', 'track_name': 'Hypnotize (chanson)', 'artist': 'http://dbpedia.org/resource/System_of_a_Down', 'artist_name': 'System of a Down', 'wiki': 'http://en.wikipedia.org/wiki/Hypnotize_(System_of_a_Down_song)', 'hometown': 'http://dbpedia.org/resource/Glendale,_California', 'released': '11 October 2005', 'producers': ['http://dbpedia.org/resource/Daron_Malakian', 'http://dbpedia.org/resource/Rick_Rubin'], 'writers': ['http://dbpedia.org/resource/Daron_Malakian', 'http://dbpedia.org/resource/Serj_Tankian'], 'labels': ['http://dbpedia.org/resource/American_Recordings_(record_label)', 'http://dbpedia.org/resource/Columbia_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_metal'], 'related_artists': ['http://dbpedia.org/resource/Achozen', 'http://dbpedia.org/resource/Arto_Tunçboyacıyan', 'http://dbpedia.org/resource/Axis_of_Justice', 'http://dbpedia.org/resource/Bad_Acid_Trip', 'http://dbpedia.org/resource/Ben_Weinman', 'http://dbpedia.org/resource/Dana_Nielsen', 'http://dbpedia.org/resource/Daron_Malakian', 'http://dbpedia.org/resource/Daron_Malakian_and_Scars_on_Broadway', 'http://dbpedia.org/resource/Flying_Cunts_of_Chaos', 'http://dbpedia.org/resource/Greg_Fidelman', 'http://dbpedia.org/resource/John_Dolmayan', 'http://dbpedia.org/resource/Kultur_Shock', 'http://dbpedia.org/resource/Mower_(band)', 'http://dbpedia.org/resource/Mt._Helium', 'http://dbpedia.org/resource/Onesidezero', 'http://dbpedia.org/resource/Ontronik_Khachaturian', 'http://dbpedia.org/resource/Serj_Tankian', 'http://dbpedia.org/resource/Shavo_Odadjian', 'http://dbpedia.org/resource/Viza'], 'abstract': '"Hypnotize" is a song by Armenian American rock band System of a Down. It was released in October 2005 as the lead single from their fifth studio album of the same name. The video was filmed on September 28, 2005, at the Van Andel Arena in Grand Rapids, Michigan. It reached number one on Billboard\'s Hot Modern Rock Tracks chart and is the band\'s biggest international hit.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/I_Will_Survive', 'track_name': 'I Will Survive', 'artist': 'http://dbpedia.org/resource/Cake_(band)', 'artist_name': 'Cake', 'wiki': 'http://en.wikipedia.org/wiki/I_Will_Survive', 'released': '23 January 1996', 'producers': ['http://dbpedia.org/resource/Dino_Fekaris', 'http://dbpedia.org/resource/Narada_Michael_Walden', 'Cake'], 'writers': ['http://dbpedia.org/resource/Dino_Fekaris', 'http://dbpedia.org/resource/Freddie_Perren'], 'awards': ['Gold', 'Platinum'], 'labels': ['http://dbpedia.org/resource/Polydor_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Contemporary_R&amp;B', 'http://dbpedia.org/resource/Disco', 'house'], 'related_artists': ['http://dbpedia.org/resource/Deadweight_(band)', 'http://dbpedia.org/resource/Frank_French', 'http://dbpedia.org/resource/Gabe_Nelson', 'http://dbpedia.org/resource/John_McCrea_(musician)', 'http://dbpedia.org/resource/Mommyheads', 'http://dbpedia.org/resource/Paulo_Baldi', 'http://dbpedia.org/resource/Tyler_Pope', 'http://dbpedia.org/resource/Vince_DiFiore'], 'abstract': '"I Will Survive" is a song by American singer Gloria Gaynor, released in October 1978 as the second single from her sixth album, Love Tracks (1978). It was written by Freddie Perren and Dino Fekaris. A top-selling song, it is a popular disco anthem, as well as being certified Platinum by the Recording Industry Association of America (RIAA). The song\'s lyrics describe the narrator\'s discovery of personal strength following an initially devastating breakup. It received heavy airplay in 1979, reaching spending three non-consecutive weeks at number one on the Billboard Hot 100 as well as topping the UK Singles Chart and Irish Singles Chart. The song is also frequently recalled as a symbol of female empowerment. In 2016, the Library of Congress deemed Gaynor\'s original recording to be "culturally, historically, or artistically significant" and selected it for preservation in the National Recording Registry.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Boombastic_(song)', 'track_name': 'Boombastic (singolo)', 'artist': 'http://dbpedia.org/resource/Shaggy_(musician)', 'artist_name': 'Shaggy', 'wiki': 'http://en.wikipedia.org/wiki/Boombastic_(song)', 'released': '05 June 1995', 'producers': ['http://dbpedia.org/resource/Shaggy_(musician)'], 'writers': ['http://dbpedia.org/resource/King_Floyd', 'http://dbpedia.org/resource/Shaggy_(musician)', '*Orville Burrell', '*Robert Livingston'], 'awards': ['Gold', 'Platinum'], 'labels': ['http://dbpedia.org/resource/Virgin_Records'], 'genres': ['http://dbpedia.org/resource/Pop_music', 'http://dbpedia.org/resource/Reggae_fusion', '*pop'], 'related_artists': ['http://dbpedia.org/resource/Blacka_Di_Danca', 'http://dbpedia.org/resource/Blackout_(musician)', 'http://dbpedia.org/resource/Brian_and_Tony_Gold', "http://dbpedia.org/resource/Che'Nelle", 'http://dbpedia.org/resource/Costi_Ioniță', 'http://dbpedia.org/resource/E-Dee', 'http://dbpedia.org/resource/Faydee', 'http://dbpedia.org/resource/Gabry_Ponte', 'http://dbpedia.org/resource/Iakopo', 'http://dbpedia.org/resource/Ida_Corr', 'http://dbpedia.org/resource/Jaya_Sri', 'http://dbpedia.org/resource/Jimmy_Cozier', 'http://dbpedia.org/resource/Jon_Redwine', 'http://dbpedia.org/resource/Kat_DeLuna', 'http://dbpedia.org/resource/Keith_Hetrick', 'http://dbpedia.org/resource/Kreesha_Turner', 'http://dbpedia.org/resource/Kylie_and_Garibay', 'http://dbpedia.org/resource/Leo_Aberer', 'http://dbpedia.org/resource/Ms._Triniti', 'http://dbpedia.org/resource/Olaf_Blackwood', 'http://dbpedia.org/resource/Rayvon', 'http://dbpedia.org/resource/Ricky_Blaze', 'http://dbpedia.org/resource/Rupee_(musician)', 'http://dbpedia.org/resource/Shaun_Pizzonia', 'http://dbpedia.org/resource/Stonebwoy', 'http://dbpedia.org/resource/Tessanne_Chin'], 'abstract': '"Boombastic" is a song by Jamaican musical artist Shaggy from his third studio album, Boombastic. Released on June 5, 1995, the single achieved commercial success in many countries, including Ireland, UK, Sweden, New Zealand, and Australia, where it topped the singles charts. It spent a week at number one on the US Billboard R&amp;B chart, and a similar stint atop the UK Singles Chart. It also reached number three on the Billboard Hot 100. A remix featuring Sting International, which features a sample of Marvin Gaye\'s "Let\'s Get It On", was released in January 1996. The latter is featured on some versions of the Boombastic album as a bonus track.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Transmission_(song)', 'track_name': 'Transmission (canción de Joy Division)', 'artist': 'http://dbpedia.org/resource/Joy_Division', 'artist_name': 'Joy Division', 'wiki': 'http://en.wikipedia.org/wiki/Transmission_(song)', 'hometown': 'http://dbpedia.org/resource/Salford', 'released': '16 November 1979', 'producers': ['http://dbpedia.org/resource/Martin_Hannett'], 'writers': ['http://dbpedia.org/resource/Bernard_Sumner', 'http://dbpedia.org/resource/Ian_Curtis', 'http://dbpedia.org/resource/Peter_Hook', 'http://dbpedia.org/resource/Stephen_Morris_(musician)'], 'labels': ['http://dbpedia.org/resource/Factory_Records'], 'genres': ['http://dbpedia.org/resource/Post-punk'], 'related_artists': ['http://dbpedia.org/resource/Bad_Lieutenant_(band)', 'http://dbpedia.org/resource/Bernard_Sumner', 'http://dbpedia.org/resource/Eden_(Australian_band)', 'http://dbpedia.org/resource/Freebass', 'http://dbpedia.org/resource/Greg_Brooker_(music_producer)', 'http://dbpedia.org/resource/Ian_Curtis', 'http://dbpedia.org/resource/Monaco_(band)', 'http://dbpedia.org/resource/New_Order_(band)', 'http://dbpedia.org/resource/Peter_Hook', 'http://dbpedia.org/resource/Peter_Hook_and_the_Light', 'http://dbpedia.org/resource/Rob_Gretton', 'http://dbpedia.org/resource/Stephen_Morris_(musician)', 'http://dbpedia.org/resource/The_Other_Two_(duo)'], 'abstract': '"Transmission" is a song by English post-punk band Joy Division. Originally recorded in 1978 for the band\'s aborted self-titled album, it was later re-recorded the following year at a faster tempo and released by record label Factory as the band\'s debut single.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Waste_a_Moment_(Kings_of_Leon_song)', 'track_name': 'Waste a Moment', 'artist': 'http://dbpedia.org/resource/Kings_of_Leon', 'artist_name': 'Kings of Leon', 'wiki': 'http://en.wikipedia.org/wiki/Waste_a_Moment_(Kings_of_Leon_song)', 'hometown': 'http://dbpedia.org/resource/Nashville,_Tennessee', 'released': '09 September 2016', 'writers': ['Caleb Followill', 'Jared Followill', 'Matthew Followill', 'Nathan Followill'], 'awards': ['Gold'], 'labels': ['http://dbpedia.org/resource/RCA_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Indie_rock'], 'related_artists': ['http://dbpedia.org/resource/A_Rocket_to_the_Moon', 'http://dbpedia.org/resource/Chris_James_(audio_engineer)', 'http://dbpedia.org/resource/Ethan_Luck', 'http://dbpedia.org/resource/Jacquire_King', 'http://dbpedia.org/resource/Johanna_Bennett', 'http://dbpedia.org/resource/Levi_Lowrey', "http://dbpedia.org/resource/Liam_O'Neil_(musician)", 'http://dbpedia.org/resource/Smoke_&amp;_Jackal', 'http://dbpedia.org/resource/The_Features', 'http://dbpedia.org/resource/The_Stills', 'http://dbpedia.org/resource/Timothy_Deaux'], 'abstract': '"Waste a Moment" is a song by American rock band Kings of Leon. The song was released as a digital download on September 9, 2016 through RCA Records as the lead single from their seventh studio album Walls (2016). The song was written by Caleb Followill, Nathan Followill, Jared Followill and Matthew Followill.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Renegades_of_Funk', 'track_name': 'Renegades of Funk', 'artist': 'http://dbpedia.org/resource/Rage_Against_the_Machine', 'artist_name': 'Rage Against the Machine', 'wiki': 'http://en.wikipedia.org/wiki/Renegades_of_Funk', 'released': '20 February 2001', 'producers': ['http://dbpedia.org/resource/Arthur_Baker_(musician)', 'Rick Rubin, Rage Against the Machine'], 'writers': ['http://dbpedia.org/resource/Afrika_Bambaataa', 'http://dbpedia.org/resource/Arthur_Baker_(musician)'], 'labels': ['http://dbpedia.org/resource/Tommy_Boy_Records', 'http://dbpedia.org/resource/Warner_Records'], 'genres': ['http://dbpedia.org/resource/Electro_(music)', 'http://dbpedia.org/resource/Funk_metal', 'http://dbpedia.org/resource/Hip_hop_music', 'http://dbpedia.org/resource/Rap_metal'], 'related_artists': ['http://dbpedia.org/resource/Audioslave', 'http://dbpedia.org/resource/Axis_of_Justice', 'http://dbpedia.org/resource/Brad_Wilk', 'http://dbpedia.org/resource/Chuck_D', "http://dbpedia.org/resource/Class_of_'99", 'http://dbpedia.org/resource/Greta_(band)', 'http://dbpedia.org/resource/Inside_Out_(band)', 'http://dbpedia.org/resource/Jimmy_Boyle_(record_producer)', 'http://dbpedia.org/resource/Justin_Goldberg', 'http://dbpedia.org/resource/Las_Manos_de_Filippi', 'http://dbpedia.org/resource/Lock_Up_(American_band)', 'http://dbpedia.org/resource/No_For_An_Answer', 'http://dbpedia.org/resource/One_Day_as_a_Lion__One_Day_As_A_Lion__1', 'http://dbpedia.org/resource/Prophets_of_Rage', 'http://dbpedia.org/resource/Rodney_Mills', 'http://dbpedia.org/resource/Sound_City_Players', 'http://dbpedia.org/resource/Street_Sweeper_Social_Club', 'http://dbpedia.org/resource/The_Coup', 'http://dbpedia.org/resource/The_Last_Internationale', 'http://dbpedia.org/resource/The_Nightwatchman', 'http://dbpedia.org/resource/Tim_Commerford', 'http://dbpedia.org/resource/Tom_Morello', 'http://dbpedia.org/resource/Wakrat', 'http://dbpedia.org/resource/Xombie_(band)', 'http://dbpedia.org/resource/Zack_de_la_Rocha'], 'abstract': '"Renegades of Funk" is a song written by Afrika Bambaataa, Arthur Baker, John Miller &amp; John Robie and recorded by Afrika Bambaataa &amp; Soulsonic Force. Released in 1983 as a single on the Tommy Boy label, it was also included on the 1986 album Planet Rock: The Album. The song is an eclectic fusion of electronic music and heavy percussion, with politically fused hip hop lyrics that draw a connection between past revolutionaries and bohemians to present-day street artists. It was produced and mixed by Arthur Baker and John Robie. Mastering was by Herb Powers Jr.. The song was used by the Toronto Raptors as its entrance song during home games in 2006. It is also featured as a track on the radio in the video game Grand Theft Auto: Vice City Stories. In 1985, the song was used in "The Maze", an episode in the first season of the television police drama Miami Vice. It was remade by Rage Against the Machine and released as a single in 2001. "Weird Al" Yankovic included Rage Against the Machine\'s version in his polka medley "Angry White Boy Polka" (although Tom Morello is half Kenyan and Zack de la Rocha is half Mexican) from his 2003 album Poodle Hat.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Applause_(Lady_Gaga_song)', 'track_name': 'Applause', 'artist': 'http://dbpedia.org/resource/Lady_Gaga', 'artist_name': 'Lady Gaga', 'wiki': 'http://en.wikipedia.org/wiki/Applause_(Lady_Gaga_song)', 'released': '12 August 2013', 'producers': ['DJ White Shadow', 'Lady Gaga', 'Dino Zisis', 'Nick Monson'], 'writers': ['http://dbpedia.org/resource/DJ_Snake', 'http://dbpedia.org/resource/DJ_White_Shadow', 'http://dbpedia.org/resource/Lady_Gaga', 'http://dbpedia.org/resource/Nick_Monson', 'http://dbpedia.org/resource/Tchami', 'Nicolas Mercier', 'Stefani Germanotta', 'William Grigahcine', 'Dino Zisis', 'Martin Bresso', 'Julien Arias'], 'awards': ['Gold', 'Platinum'], 'labels': ['http://dbpedia.org/resource/Interscope_Records'], 'genres': ['http://dbpedia.org/resource/Dance-pop', 'http://dbpedia.org/resource/Electropop', 'http://dbpedia.org/resource/Eurodance'], 'related_artists': ['http://dbpedia.org/resource/Andrew_Wyatt__Andrew_Wyatt__1', 'http://dbpedia.org/resource/Arthur_Fogel', 'http://dbpedia.org/resource/BloodPop', 'http://dbpedia.org/resource/Bree_Runway', 'http://dbpedia.org/resource/Cazwell', 'http://dbpedia.org/resource/Chew_Fu', 'http://dbpedia.org/resource/Chris_Gehringer', 'http://dbpedia.org/resource/Clinton_Sparks', "http://dbpedia.org/resource/Colby_O'Donis", 'http://dbpedia.org/resource/DJ_Snake', 'http://dbpedia.org/resource/Dan_Balan', 'http://dbpedia.org/resource/David_Jost', 'http://dbpedia.org/resource/Frédéric_Yonnet', 'http://dbpedia.org/resource/Gary_Go', 'http://dbpedia.org/resource/Hillary_Lindsey', 'http://dbpedia.org/resource/Hyper_Crush', 'http://dbpedia.org/resource/Infected_Mushroom', 'http://dbpedia.org/resource/Jae_Deal', 'http://dbpedia.org/resource/Jake_Gosling', 'http://dbpedia.org/resource/Jeppe_Laursen', 'http://dbpedia.org/resource/Kalenna_Harper', 'http://dbpedia.org/resource/Kyle_Townsend', 'http://dbpedia.org/resource/LaShawn_Daniels', 'http://dbpedia.org/resource/Larry_Tee', 'http://dbpedia.org/resource/Madeon', 'http://dbpedia.org/resource/Martin_Kierszenbaum', 'http://dbpedia.org/resource/Melle_Mel', 'http://dbpedia.org/resource/Melvin_E._Brown', 'http://dbpedia.org/resource/Michael_Woods_(DJ)', 'http://dbpedia.org/resource/New_Kids_on_the_Block', 'http://dbpedia.org/resource/Nico_Constantine', 'http://dbpedia.org/resource/Nile_Rodgers', 'http://dbpedia.org/resource/Orville_Peck', 'http://dbpedia.org/resource/Rafa_Sardina', 'http://dbpedia.org/resource/Rami_Yacoub', 'http://dbpedia.org/resource/Randy_Merrill', 'http://dbpedia.org/resource/RedOne', 'http://dbpedia.org/resource/Robert_John_%22Mutt%22_Lange', 'http://dbpedia.org/resource/Rodney_Jerkins', 'http://dbpedia.org/resource/Rudy_Nicoletti', 'http://dbpedia.org/resource/Ryan_Shore', 'http://dbpedia.org/resource/Salem_Al_Fakir', 'http://dbpedia.org/resource/Samantha_Ronson', 'http://dbpedia.org/resource/Sander_van_Doorn', 'http://dbpedia.org/resource/Space_Cowboy_(musician)', 'http://dbpedia.org/resource/Spike_Stent', 'http://dbpedia.org/resource/Starsmith', 'http://dbpedia.org/resource/Teddy_Riley', 'http://dbpedia.org/resource/Vincent_Herbert', 'http://dbpedia.org/resource/Water_(producer)'], 'abstract': '"Applause" is a song by American singer Lady Gaga from her third studio album, Artpop (2013). It was released as the album\'s lead single through Interscope Records on August 12, 2013. Written and produced by Gaga, DJ White Shadow, Dino Zisis and Nick Monson, additional songwriters included Martin Bresso, Nicolas Mercier, Julien Arias and William Grigahcine. "Applause" was inspired by the cheering of her fans, which kept her motivated during the months she toured with the Born This Way Ball in pain, before cancelling it due to a hip injury, and pays respect to the art of performance. It is an electropop, dance-pop and Eurodance song built around synthesizers and hi-NRG beats, with lyrics addressing how Gaga is dependent upon her fans\' adoration and how she lives to perform. The song received generally positive reviews from music critics, who felt its chorus was catchy and favorably compared it to the material featured on Gaga\'s debut album, The Fame (2008). "Applause" achieved commercial success in a number of nations, topping the charts in Hungary, Lebanon, South Korea, and Spain while peaking within the top 10 in Belgium, Bulgaria, Canada, Finland, France, Germany, Ireland, Israel, Italy, Japan, New Zealand, Norway, Poland, Scotland, the United Kingdom, and the United States as well as the top 20 in Australia, the Czech Republic, the Netherlands, Slovakia, and Sweden. It was also certified multi-platinum in Canada, Sweden and the United States. An accompanying music video directed by fashion photography duo Inez and Vinoodh was released on August 19, 2013, and broadcast on jumbotrons across Times Square. The video received positive reviews from critics, who saw it as a profile of Gaga herself and noted references to German Expressionist cinema and Andy Warhol. To promote the record, Gaga opened the 2013 MTV Video Music Awards with a performance of the song in which she represented her career through several on-stage wardrobe changes. She also performed it live on Good Morning America, Saturday Night Live, her tours ArtRave: The Artpop Ball and the Joanne World Tour, and residency shows Lady Gaga Live at Roseland Ballroom and Enigma.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/It_Must_Be_Love_(Labi_Siffre_song)', 'track_name': 'It Must Be Love (Labi Siffre)', 'artist': 'http://dbpedia.org/resource/Madness_(band)', 'artist_name': 'Madness', 'wiki': 'http://en.wikipedia.org/wiki/It_Must_Be_Love_(Labi_Siffre_song)', 'hometown': 'http://dbpedia.org/resource/Camden_Town', 'producers': ['http://dbpedia.org/resource/Labi_Siffre', 'Clive LangerAlan Winstanley'], 'writers': ['http://dbpedia.org/resource/Labi_Siffre'], 'labels': ['http://dbpedia.org/resource/Pye_Records'], 'genres': ['http://dbpedia.org/resource/Pop_music', 'http://dbpedia.org/resource/Reggae'], 'related_artists': ['http://dbpedia.org/resource/Baby_Blue_(rapper)', 'http://dbpedia.org/resource/Chas_Smash', 'http://dbpedia.org/resource/Chris_Foreman', 'http://dbpedia.org/resource/Dan_Woodgate', 'http://dbpedia.org/resource/Department_S_(band)', 'http://dbpedia.org/resource/Elvis_Costello', 'http://dbpedia.org/resource/Jimmy_Helms', 'http://dbpedia.org/resource/Lee_Thompson_(saxophonist)', 'http://dbpedia.org/resource/Madness_(band)', 'http://dbpedia.org/resource/Mark_Bedford', 'http://dbpedia.org/resource/Mike_Barson', 'http://dbpedia.org/resource/Naomi_Thompson', 'http://dbpedia.org/resource/Simon_Hale', 'http://dbpedia.org/resource/Steve_Nieve', 'http://dbpedia.org/resource/The_Inspirational_Choir_of_the_Pentecostal_First_Born_Church_of_the_Living_God', 'http://dbpedia.org/resource/The_Lee_Thompson_Ska_Orchestra', 'http://dbpedia.org/resource/The_Specials', 'http://dbpedia.org/resource/Voice_of_the_Beehive'], 'abstract': '"It Must Be Love" is a song written and originally recorded and released in 1971 by English singer Labi Siffre on his 1972 album Crying Laughing Loving Lying. It was also recorded by ska/pop band Madness in 1981.'}</t>
+  </si>
+  <si>
+    <t>{'track': "http://dbpedia.org/resource/She's_Got_Issues", 'track_name': "She's Got Issues", 'artist': 'http://dbpedia.org/resource/The_Offspring', 'artist_name': 'The Offspring', 'wiki': "http://en.wikipedia.org/wiki/She's_Got_Issues", 'hometown': 'http://dbpedia.org/resource/Garden_Grove,_California', 'released': '19 October 1999', 'producers': ['http://dbpedia.org/resource/Dave_Jerden'], 'writers': ['http://dbpedia.org/resource/Dexter_Holland'], 'labels': ['http://dbpedia.org/resource/Columbia_Records'], 'genres': ['http://dbpedia.org/resource/Pop-punk'], 'related_artists': ['http://dbpedia.org/resource/311_(band)', 'http://dbpedia.org/resource/Andrew_Freeman_(musician)', 'http://dbpedia.org/resource/Atom_Willard', 'http://dbpedia.org/resource/Chris_Higgins_(musician)', 'http://dbpedia.org/resource/Dexter_Holland', 'http://dbpedia.org/resource/F.O.D._(band)', 'http://dbpedia.org/resource/Face_to_Face_(punk_band)', 'http://dbpedia.org/resource/Gob_(band)', 'http://dbpedia.org/resource/Greg_K.', 'http://dbpedia.org/resource/H2O_(American_band)', 'http://dbpedia.org/resource/Jackson_United', 'http://dbpedia.org/resource/James_Lilja', 'http://dbpedia.org/resource/Jamie_Miller_(American_musician)', 'http://dbpedia.org/resource/Josh_Freese', 'http://dbpedia.org/resource/Noodles_(musician)', 'http://dbpedia.org/resource/Pete_Parada', 'http://dbpedia.org/resource/Rocket_from_the_Crypt', 'http://dbpedia.org/resource/Ron_Welty', 'http://dbpedia.org/resource/Scott_Shiflett', 'http://dbpedia.org/resource/Steady_Ground', 'http://dbpedia.org/resource/The_Didjits', 'http://dbpedia.org/resource/The_Special_Goodness', 'http://dbpedia.org/resource/Thom_Wilson', 'http://dbpedia.org/resource/Tom_Thacker_(musician)', 'http://dbpedia.org/resource/Tony_Kanal'], 'abstract': '"She\'s Got Issues" is a song by The Offspring. It is the seventh track on their fifth studio album Americana (1998) and was released as the fourth and final single on October 19, 1999. The song also appears as the third track on the EP A Piece of Americana (1998). The lyrics to the song have a narrator calling out on his angsty, victim-playing girlfriend. As singer Dexter Holland described, "Today everyone has issues and no one takes responsibility because their mother or their father drank too much or whatever". The title is inspired by the "typical psychobabble" present in talk shows.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Sharp_Dressed_Man', 'track_name': 'Sharp Dressed Man', 'artist': 'http://dbpedia.org/resource/ZZ_Top', 'artist_name': 'ZZ Top', 'wiki': 'http://en.wikipedia.org/wiki/Sharp_Dressed_Man', 'hometown': 'http://dbpedia.org/resource/Houston', 'producers': ['http://dbpedia.org/resource/Bill_Ham'], 'writers': ['http://dbpedia.org/resource/Billy_Gibbons', 'http://dbpedia.org/resource/Dusty_Hill', 'http://dbpedia.org/resource/Frank_Beard_(musician)'], 'labels': ['http://dbpedia.org/resource/Warner_Records'], 'genres': ['http://dbpedia.org/resource/Blues_rock', 'http://dbpedia.org/resource/Synth-pop'], 'related_artists': ['http://dbpedia.org/resource/American_Blues', 'http://dbpedia.org/resource/Billy_Gibbons', 'http://dbpedia.org/resource/Cody_Canada', 'http://dbpedia.org/resource/Dusty_Hill', 'http://dbpedia.org/resource/Frank_Beard_(musician)', 'http://dbpedia.org/resource/Jessica_Lynn', 'http://dbpedia.org/resource/Kings_of_Chaos_(band)', 'http://dbpedia.org/resource/Lynyrd_Skynyrd', 'http://dbpedia.org/resource/Moving_Sidewalks', 'http://dbpedia.org/resource/Skinny_Molly', 'http://dbpedia.org/resource/Sue_Foley', 'http://dbpedia.org/resource/Target_(American_band)', 'http://dbpedia.org/resource/The_Chessmen', 'http://dbpedia.org/resource/The_Departed_(band)', 'http://dbpedia.org/resource/Tim_Montana'], 'abstract': '"Sharp Dressed Man" is a song performed by ZZ Top from their 1983 album Eliminator. The song was produced by band manager Bill Ham, and recorded and mixed by Terry Manning. Pre-production recording engineer Linden Hudson was very involved in the early stages of this song\'s production.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Missing_(Everything_but_the_Girl_song)', 'track_name': 'Missing (Everything but the Girl)', 'artist': 'http://dbpedia.org/resource/Everything_but_the_Girl', 'artist_name': 'Everything but the Girl', 'wiki': 'http://en.wikipedia.org/wiki/Missing_(Everything_but_the_Girl_song)', 'hometown': 'http://dbpedia.org/resource/East_Riding_of_Yorkshire', 'released': '08 August 1994', 'producers': ['http://dbpedia.org/resource/Todd_Terry', 'Ben Watt', 'John Coxon'], 'writers': ['http://dbpedia.org/resource/Ben_Watt', 'http://dbpedia.org/resource/Tracey_Thorn'], 'awards': ['Gold', 'Platinum'], 'labels': ['http://dbpedia.org/resource/Atlantic_Records', 'http://dbpedia.org/resource/Blanco_y_Negro_Records'], 'genres': ['http://dbpedia.org/resource/House_music'], 'related_artists': ['http://dbpedia.org/resource/Ben_Watt', 'http://dbpedia.org/resource/Cara_Tivey', 'http://dbpedia.org/resource/June_Miles-Kingston', 'http://dbpedia.org/resource/Marine_Girls', 'http://dbpedia.org/resource/Robin_Millar'], 'abstract': '"Missing" is a song by English musical duo Everything but the Girl, taken from their eighth studio album, Amplified Heart (1994). It was written by the two band members, Tracey Thorn and Ben Watt, and was produced by Watt and John Coxon. It was taken as the second single off the album on 8 August 1994 by Atlantic Records and Blanco Y Negro Records. It initially did not achieve much success until it was remixed by Todd Terry and re-released in 1995, resulting in worldwide success, peaking at or near the top of the charts in many countries. The release of the remixed version of "Missing" gave an indication of the band\'s future experimentation with more electronic dance music on subsequent albums. Musically the song takes in multiple genres. The original version from the album is a more low-tempo influenced song, while the popular Todd Terry remix version is a more up-tempo dance-pop song. Lyrically the song talks about one person missing the other because they have moved away. "Missing" was critically acclaimed by the majority of music critics, who praised the composition and generally considered it a highlight on the album.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Kiss_(Prince_song)', 'track_name': 'Kiss (Prince)', 'artist': 'http://dbpedia.org/resource/Prince_(musician)', 'artist_name': 'Prince', 'wiki': 'http://en.wikipedia.org/wiki/Kiss_(Prince_song)', 'released': '28 October 1988', 'producers': ['http://dbpedia.org/resource/Anne_Dudley', 'http://dbpedia.org/resource/J._J._Jeczalik', 'http://dbpedia.org/resource/Prince_(musician)'], 'writers': ['http://dbpedia.org/resource/Prince_(musician)'], 'awards': ['Gold'], 'labels': ['http://dbpedia.org/resource/Paisley_Park_Records', 'http://dbpedia.org/resource/Warner_Records'], 'genres': ['http://dbpedia.org/resource/Electronic_music', 'http://dbpedia.org/resource/Funk'], 'related_artists': ['http://dbpedia.org/resource/3rdeyegirl', "http://dbpedia.org/resource/Alexander_O'Neal", 'http://dbpedia.org/resource/Andreas_Moe', 'http://dbpedia.org/resource/André_Cymone', 'http://dbpedia.org/resource/Andy_Allo', 'http://dbpedia.org/resource/Anna_Fantastic', 'http://dbpedia.org/resource/Apollonia_6', 'http://dbpedia.org/resource/Apollonia_Kotero', 'http://dbpedia.org/resource/Back_to_Black_(band)', 'http://dbpedia.org/resource/Barry_Grint', 'http://dbpedia.org/resource/Bedtime_for_Toys', 'http://dbpedia.org/resource/Bobby_Z.', 'http://dbpedia.org/resource/Boni_Boyer', 'http://dbpedia.org/resource/Brenda_Bennett', 'http://dbpedia.org/resource/Bria_Valente', 'http://dbpedia.org/resource/Brownmark', 'http://dbpedia.org/resource/Brownout_(band)', "http://dbpedia.org/resource/Cassandra_O'Neal", 'http://dbpedia.org/resource/Cat_Glover', 'http://dbpedia.org/resource/Chaka_Khan', 'http://dbpedia.org/resource/Chris_James_(audio_engineer)', 'http://dbpedia.org/resource/Chris_Moon', 'http://dbpedia.org/resource/Clare_Fischer', 'http://dbpedia.org/resource/Curtis_Frasca', 'http://dbpedia.org/resource/Dale_Bozzio', 'http://dbpedia.org/resource/David_Z_(producer)', 'http://dbpedia.org/resource/Dez_Dickerson', 'http://dbpedia.org/resource/Doctor_Fink', 'http://dbpedia.org/resource/Donna_Grantis', 'http://dbpedia.org/resource/Doug_E._Fresh__Doug_E._Fresh__1', 'http://dbpedia.org/resource/Dywane_Thomas_Jr.', 'http://dbpedia.org/resource/Elijah_Connor', 'http://dbpedia.org/resource/Elisa_Fiorillo', 'http://dbpedia.org/resource/Eric_Darius', 'http://dbpedia.org/resource/Eric_Leeds', 'http://dbpedia.org/resource/Graham_Central_Station', 'http://dbpedia.org/resource/Grupo_Fantasma_(American_band)', 'http://dbpedia.org/resource/Hannah_Welton', 'http://dbpedia.org/resource/Harts_(musician)', 'http://dbpedia.org/resource/Jesse_Johnson_(musician)', 'http://dbpedia.org/resource/Jevetta_Steele', 'http://dbpedia.org/resource/Jill_Jones', 'http://dbpedia.org/resource/John_Blackwell_(musician)', 'http://dbpedia.org/resource/John_L._Nelson', 'http://dbpedia.org/resource/Judith_Hill', 'http://dbpedia.org/resource/Justin_Stanley', 'http://dbpedia.org/resource/Klymaxx', 'http://dbpedia.org/resource/Larry_Graham', 'http://dbpedia.org/resource/Lawrence_Mestel', 'http://dbpedia.org/resource/Levi_Seacer_Jr.', 'http://dbpedia.org/resource/Liv_Warfield', 'http://dbpedia.org/resource/Lolly_Pop', 'http://dbpedia.org/resource/Maceo_Parker', 'http://dbpedia.org/resource/Mark_Ledford', 'http://dbpedia.org/resource/Martika', 'http://dbpedia.org/resource/Mavis_Staples', 'http://dbpedia.org/resource/Mazarati', 'http://dbpedia.org/resource/Mike_Fantastic', 'http://dbpedia.org/resource/Mike_Hurst_(producer)', 'http://dbpedia.org/resource/Monte_Moir', 'http://dbpedia.org/resource/Morris_Day', 'http://dbpedia.org/resource/My_Jerusalem', 'http://dbpedia.org/resource/Owen_Husney', 'http://dbpedia.org/resource/Paul_Gordon_(musician)__Paul_Gordon__1', 'http://dbpedia.org/resource/Paul_Peterson', 'http://dbpedia.org/resource/Sandra_Feva', 'http://dbpedia.org/resource/Shock_G', 'http://dbpedia.org/resource/Snoh_Aalegra', 'http://dbpedia.org/resource/Susan_Moonsie', 'http://dbpedia.org/resource/Susannah_Melvoin', 'http://dbpedia.org/resource/Taja_Sevelle', 'http://dbpedia.org/resource/Tal_Wilkenfeld', 'http://dbpedia.org/resource/The_Family_(band)__The_Family__1', 'http://dbpedia.org/resource/The_Time_(band)', 'http://dbpedia.org/resource/Tommy_Vicari', 'http://dbpedia.org/resource/Tyler_Reese', 'http://dbpedia.org/resource/Támar', 'http://dbpedia.org/resource/Vanity_6', 'http://dbpedia.org/resource/We_Are_King', 'http://dbpedia.org/resource/Wendy_&amp;_Lisa'], 'abstract': '"Kiss" is a song composed, written, and produced by American musician Prince. Released by the Paisley Park label as the lead single from Prince and the Revolution\'s eighth studio album Parade (1986) on February 5, 1986, it was a No. 1 hit worldwide, holding the top spot of the U.S. Billboard Hot 100 chart for two weeks. The single was certified gold in 1986 for shipments of 1,000,000 copies by RIAA. The song is ranked at No. 85 on the Rolling Stone list of the 500 Greatest Songs of All Time. NME ranked the song at No. 4 in their list of The 150 Greatest Singles of All Time, and voted "Kiss" the best single of 1986. Following Prince\'s death in April 2016, the song re-charted on the Billboard Hot 100 at No. 28 and jumped to No. 23 a week later. The song also reached No. 2 on the French Singles Chart. As of April 30, 2016, it has sold 1.33 million digital copies in the U.S. Age of Chance and Art of Noise also released versions of the song that were critical and chart successes.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Word_Up!_(song)', 'track_name': 'Word Up! (song)', 'artist': 'http://dbpedia.org/resource/Korn', 'artist_name': 'Korn', 'wiki': 'http://en.wikipedia.org/wiki/Word_Up!_(song)', 'hometown': 'http://dbpedia.org/resource/Bakersfield,_California', 'released': '16 November 2004', 'producers': ['http://dbpedia.org/resource/Timbaland', 'Toby Wright', 'Larry Blackmon', 'TMS', 'Korn', 'Jonathan Davis', 'Jan Delay', 'Maegan Cottone'], 'writers': ['http://dbpedia.org/resource/Jan_Delay', 'http://dbpedia.org/resource/Larry_Blackmon', 'Kaspar Wiens', 'Das Bo', 'Tomi Jenkins'], 'awards': ['Gold'], 'labels': ['http://dbpedia.org/resource/Atlanta_Artists', 'http://dbpedia.org/resource/Mercury_Records', 'http://dbpedia.org/resource/PolyGram'], 'genres': ['http://dbpedia.org/resource/Contemporary_R&amp;B', 'http://dbpedia.org/resource/Dance-pop', 'http://dbpedia.org/resource/Funk', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Nu_metal', 'R&amp;B'], 'related_artists': ['http://dbpedia.org/resource/Jonathan_Davis_and_the_SFA', 'http://dbpedia.org/resource/L.A.P.D._(band)'], 'abstract': '"Word Up!" is a funk and R&amp;B song originally recorded by American funk band Cameo in 1986. The song was written by band members Larry Blackmon and Tomi Jenkins. Its frequent airing on American dance, R&amp;B, and contemporary hit radio, as well as its MTV music video (in which LeVar Burton appears as a police detective trying to arrest the band), helped the single become the band\'s best known hit.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Easy_Lover', 'track_name': 'Easy Lover', 'artist': 'http://dbpedia.org/resource/Philip_Bailey', 'artist_name': 'Philip Bailey', 'wiki': 'http://en.wikipedia.org/wiki/Easy_Lover', 'released': '25 February 1985', 'producers': ['http://dbpedia.org/resource/Phil_Collins'], 'writers': ['http://dbpedia.org/resource/Nathan_East', 'http://dbpedia.org/resource/Phil_Collins', 'http://dbpedia.org/resource/Philip_Bailey'], 'awards': ['Gold', 'Platinum'], 'labels': ['http://dbpedia.org/resource/Columbia_Records'], 'genres': ['http://dbpedia.org/resource/Dance-rock', 'http://dbpedia.org/resource/Pop_rock'], 'related_artists': ['http://dbpedia.org/resource/Andrew_Woolfolk', 'http://dbpedia.org/resource/Billie_Hughes', 'http://dbpedia.org/resource/Bobby_Nunn_(R&amp;B_musician)', 'http://dbpedia.org/resource/Davitt_Sigerson', 'http://dbpedia.org/resource/Earth,_Wind_&amp;_Fire', 'http://dbpedia.org/resource/Fourplay', 'http://dbpedia.org/resource/George_Duke', 'http://dbpedia.org/resource/Lisa_Taylor_(R&amp;B_singer)', 'http://dbpedia.org/resource/Phil_Collins', 'http://dbpedia.org/resource/Ronnie_Laws', 'http://dbpedia.org/resource/Roxanne_Seeman', 'http://dbpedia.org/resource/Tommy_Vicari', 'http://dbpedia.org/resource/Tony_Haynes_(American_musician)'], 'abstract': '"Easy Lover" is a song performed by Philip Bailey, of Earth, Wind &amp; Fire, and Phil Collins, of Genesis, and jointly written and composed by Bailey, Collins, and Nathan East. The song appeared on Bailey\'s solo album, Chinese Wall. Collins has performed the song in his live concerts, and it appears on both his 1990 album, Serious Hits... Live!, and his 1998 compilation album, ...Hits. It is Bailey\'s only US Top 40 hit as a solo artist. The song was a No. 1 hit in several countries, including Canada, the Netherlands, Ireland, and the United Kingdom. In the U.S., it spent 23 weeks on the Billboard Hot 100 chart, including 7 weeks in the Top 10, and peaked at No. 2 the weeks of 2 February 1985 and 9 February 1985, behind the chart-topping "I Want to Know What Love Is" by Foreigner. In the UK Singles Chart, it reached No. 1, staying there for four weeks. The single sold over a million copies in the U.S. and was certified gold, as the RIAA requirement for a platinum single disc was not lowered to one million units until 1989. In addition, "Easy Lover" has been certified gold by the British Phonographic Industry for sales of over 400,000 in the UK and platinum in Canada by Music Canada. "Easy Lover" won an MTV Video Music Award for Best Overall Performance in a Video in 1985 and was Grammy Award nominated for Best Pop Performance by a Duo or Group With Vocals in 1986.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Hideaway_(Kiesza_song)', 'track_name': 'Hideaway (canción de Kiesza)', 'artist': 'http://dbpedia.org/resource/Kiesza', 'artist_name': 'Kiesza', 'wiki': 'http://en.wikipedia.org/wiki/Hideaway_(Kiesza_song)', 'released': '11 April 2014', 'producers': ['Rami Samir Afuni'], 'writers': ['http://dbpedia.org/resource/Kiesza', 'Rami Samir Afuni'], 'awards': ['Gold', 'Platinum'], 'labels': ['http://dbpedia.org/resource/Island_Records'], 'genres': ['http://dbpedia.org/resource/Deep_house', 'http://dbpedia.org/resource/Electronic_dance_music', 'http://dbpedia.org/resource/Pop_music'], 'related_artists': ['http://dbpedia.org/resource/Bakermat', 'http://dbpedia.org/resource/Blacka_Di_Danca', 'http://dbpedia.org/resource/Jack_Ü', 'http://dbpedia.org/resource/Kiwi_Time', 'http://dbpedia.org/resource/Saint_Jhn'], 'abstract': '"Hideaway" is a deep house song recorded by Canadian musician Kiesza from her debut EP of the same name (2014) and her debut studio album, Sound of a Woman (2014). It was co-written by Kiesza in collaboration with its producer Rami Samir Afuni. Recorded in the summer of 2013 in New York City, "Hideaway" honed its musical inspiration from Kiesza and Afuni\'s passion for 1990s dance music. The song was released as Kiesza\'s debut single on April 11, 2014 through Afuni\'s independent label Lokal Legend as the lead single from both the EP and the album. Both the song and its accompanying music video have been met with general acclaim from contemporary music critics. "Hideaway" topped the UK Singles Chart upon release, selling over 136,000 copies in its first week, becoming the third-fastest selling single of 2014 in the United Kingdom.'}</t>
+  </si>
+  <si>
+    <t>{'track': "http://dbpedia.org/resource/Ex's_&amp;_Oh's", 'track_name': "Ex's &amp; Oh's", 'artist': 'http://dbpedia.org/resource/Elle_King', 'artist_name': 'Elle King', 'wiki': "http://en.wikipedia.org/wiki/Ex's_&amp;_Oh's", 'released': '23 September 2014', 'producers': ['Dave Bassett'], 'writers': ['http://dbpedia.org/resource/Dave_Bassett_(songwriter)', 'http://dbpedia.org/resource/Elle_King'], 'awards': ['Gold', 'Platinum'], 'labels': ['http://dbpedia.org/resource/RCA_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Blues_rock', 'http://dbpedia.org/resource/Pop_rock'], 'related_artists': ['http://dbpedia.org/resource/Miranda_Lambert', 'http://dbpedia.org/resource/Sterling_Fox'], 'abstract': '"Ex\'s &amp; Oh\'s" is a song recorded by American singer and songwriter Elle King for her debut studio album, Love Stuff (2015). It was released on September 23, 2014, as King\'s debut solo single and the album\'s lead single via RCA Records. The song achieved success in the rock genre, peaking at number 1 on the Billboard Hot Rock Songs chart, and later crossed over to adult pop radio. In June 2015, "Ex\'s &amp; Oh\'s" was certified Gold by Music Canada; it has since been certified double Platinum. "Ex\'s &amp; Oh\'s" reached the top of the Alternative Songs chart in September 2015, becoming only the second song by a solo female to reach the top since 1996 after Lorde achieved the feat in 2013 with "Royals". The song also became King\'s first and only top-10 hit on the Billboard Hot 100 to date. It also charted moderately well internationally, attaining top-10 peaks in Australia, Austria, and New Zealand, amongst others. At the 58th Grammy Awards, "Ex\'s &amp; Oh\'s" was nominated for Best Rock Performance and Best Rock Song.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Interstate_Love_Song', 'track_name': 'Interstate Love Song', 'artist': 'http://dbpedia.org/resource/Stone_Temple_Pilots', 'artist_name': 'Stone Temple Pilots', 'wiki': 'http://en.wikipedia.org/wiki/Interstate_Love_Song', 'hometown': 'http://dbpedia.org/resource/San_Diego', 'released': '09 September 1994', 'producers': ["http://dbpedia.org/resource/Brendan_O'Brien_(record_producer)"], 'writers': ['http://dbpedia.org/resource/Scott_Weiland'], 'labels': ['http://dbpedia.org/resource/Atlantic_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Country_rock', 'http://dbpedia.org/resource/Grunge', 'http://dbpedia.org/resource/Hard_rock'], 'related_artists': ['http://dbpedia.org/resource/Army_of_Anyone', 'http://dbpedia.org/resource/Camp_Freddy', 'http://dbpedia.org/resource/Dean_DeLeo', 'http://dbpedia.org/resource/Doug_Grean', 'http://dbpedia.org/resource/Dry_Cell_(band)', 'http://dbpedia.org/resource/Eric_Kretz__Eric_Kretz__1', 'http://dbpedia.org/resource/Jeff_Gutt', 'http://dbpedia.org/resource/Joss_Stone', 'http://dbpedia.org/resource/Linkin_Park', 'http://dbpedia.org/resource/Paul_Leary', 'http://dbpedia.org/resource/Ray_Luzier', 'http://dbpedia.org/resource/Robert_DeLeo', 'http://dbpedia.org/resource/Scott_Weiland', 'http://dbpedia.org/resource/Stephen_Shareaux', 'http://dbpedia.org/resource/Talk_Show_(band)', 'http://dbpedia.org/resource/The_Wondergirls', 'http://dbpedia.org/resource/Velvet_Revolver'], 'abstract': '"Interstate Love Song" is a single by American rock band Stone Temple Pilots. Released in September 1994, the song is from the band\'s second studio album, Purple. Considered one of the band\'s biggest hits, "Interstate Love Song" reached number one on the US Billboard Album Rock Tracks chart (current Mainstream Rock) on September 17, 1994, replacing the band\'s previous single "Vasoline". The song stayed at number one for 15 weeks, a record at the time, and gave the Stone Temple Pilots 17 consecutive weeks at number one with both songs. It also peaked at number two on the Billboard Modern Rock Tracks chart and in Iceland, as well as number 20 in Canada. "Interstate Love Song" has been praised as one of the best songs of the 1990s and was featured on STP\'s greatest hits compilation Thank You in 2003. In 2009, it was named the 58th best hard rock song of all time by VH1. The song was ranked at number 17 on Australian alternative music station Triple J\'s Hottest 100 countdown of 1994 and Pitchfork ranked it at number 175 on its list of "The Top 200 Tracks of the 1990s."'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Another_Day_in_Paradise', 'track_name': 'Another Day in Paradise', 'artist': 'http://dbpedia.org/resource/Phil_Collins', 'artist_name': 'Phil Collins', 'wiki': 'http://en.wikipedia.org/wiki/Another_Day_in_Paradise', 'producers': ['http://dbpedia.org/resource/Guy_Roche', 'http://dbpedia.org/resource/Hugh_Padgham', 'http://dbpedia.org/resource/Phil_Collins', 'Charlie Glas'], 'writers': ['http://dbpedia.org/resource/Phil_Collins'], 'awards': ['Gold', 'Platinum', 'Silver'], 'labels': ['http://dbpedia.org/resource/Atlantic_Records', 'http://dbpedia.org/resource/Virgin_Records', 'http://dbpedia.org/resource/Warner_Music_Group'], 'genres': ['Dance-pop', 'house'], 'related_artists': ['http://dbpedia.org/resource/Andrew_Woolfolk', 'http://dbpedia.org/resource/Arnold_McCuller', 'http://dbpedia.org/resource/Bill_Ruppert', 'http://dbpedia.org/resource/Billie_Hughes', 'http://dbpedia.org/resource/Chester_Thompson', 'http://dbpedia.org/resource/Daryl_Stuermer', 'http://dbpedia.org/resource/Don_Myrick', 'http://dbpedia.org/resource/Eddie_Willis', 'http://dbpedia.org/resource/Freddie_Washington_(bassist)', 'http://dbpedia.org/resource/Hugh_Padgham', 'http://dbpedia.org/resource/J._Peter_Robinson', 'http://dbpedia.org/resource/L._Shankar', 'http://dbpedia.org/resource/Leland_Sklar', 'http://dbpedia.org/resource/Luis_Bonilla', 'http://dbpedia.org/resource/Luis_Conte', 'http://dbpedia.org/resource/Marilyn_Martin', 'http://dbpedia.org/resource/Mark_Mancina', 'http://dbpedia.org/resource/Nathan_East', 'http://dbpedia.org/resource/Philip_Bailey', 'http://dbpedia.org/resource/Ricky_Lawson', 'http://dbpedia.org/resource/Ronnie_Caryl', 'http://dbpedia.org/resource/Roxanne_Seeman', 'http://dbpedia.org/resource/Ryo_Okumoto', 'http://dbpedia.org/resource/Simon_Phillips_(drummer)', 'http://dbpedia.org/resource/Steve_Winwood', 'http://dbpedia.org/resource/The_Phenix_Horns'], 'abstract': '"Another Day in Paradise" is a song recorded by English drummer and singer-songwriter Phil Collins. Produced by Collins along with Hugh Padgham, it was released as the first single from his number-one album ...But Seriously (1989). As with his song for Genesis, "Man on the Corner", the track has as its subject the problem of homelessness; as such, the song was a substantial departure from the dance-pop music of his previous album, No Jacket Required (1985). Collins sings the song from a third-person perspective, as he observes a man crossing the street to ignore a homeless woman, and he implores listeners not to turn a blind eye to homelessness because, by drawing a religious allusion, "it\'s just another day for you and me in paradise". Collins also appeals directly to God by singing: "Oh Lord, is there nothing more anybody can do? Oh Lord, there must be something you can say." The song was Collins\' seventh and final Billboard Hot 100 No. 1 single, the last No. 1 single of the 1980s and the first No. 1 single of the 1990s. It was also a worldwide success, eventually becoming one of the most successful songs of his solo career. It won Collins and Padgham the Grammy Award for Record of the Year at the 1991 awards ceremony, while it was also nominated for Song of the Year, Best Pop Vocal Performance, Male and Best Music Video, Short Form. "Another Day in Paradise" also won an award for British Single at the 1990 Brit Awards. Despite the awards gained following its release, the song also generated controversy over its subject matter and has received a largely negative reaction from music critics. The live performance of the song at the 1991 Grammy Awards by Collins and David Crosby, who provided backing vocals on the track, was released on the 1994 album Grammy\'s Greatest Moments Volume I. In 2009, Collins\' version was listed 86th on Billboard\'s Greatest Songs of All Time. "Another Day in Paradise" has since been covered by several artists, including Brandy and her brother Ray J, Jam Tronik, Axxis, Novecento, Brad Arnold and Hank Marvin.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Time_After_Time_(Cyndi_Lauper_song)', 'track_name': 'Time After Time (Cyndi Lauper)', 'artist': 'http://dbpedia.org/resource/Cyndi_Lauper', 'artist_name': 'Cyndi Lauper', 'wiki': 'http://en.wikipedia.org/wiki/Time_After_Time_(Cyndi_Lauper_song)', 'released': '27 January 1984', 'producers': ['http://dbpedia.org/resource/Rick_Chertoff'], 'writers': ['http://dbpedia.org/resource/Cyndi_Lauper', 'http://dbpedia.org/resource/Rob_Hyman'], 'awards': ['Gold', 'Platinum', 'Silver'], 'labels': ['http://dbpedia.org/resource/Epic_Records'], 'genres': ['http://dbpedia.org/resource/New_wave_music', 'http://dbpedia.org/resource/Soft_rock'], 'related_artists': ['http://dbpedia.org/resource/Blackjack_(American_band)', 'http://dbpedia.org/resource/David_Rosenthal_(musician)', 'http://dbpedia.org/resource/Erin_Hill', 'http://dbpedia.org/resource/Kate_Alexa', 'http://dbpedia.org/resource/Kleerup', 'http://dbpedia.org/resource/Pat_Buchanan_(musician)', 'http://dbpedia.org/resource/Robert_Hazard', 'http://dbpedia.org/resource/Robin_Danar', 'http://dbpedia.org/resource/Scott_Bomar', 'http://dbpedia.org/resource/Skoota_Warner', 'http://dbpedia.org/resource/Sterling_Campbell', 'http://dbpedia.org/resource/Steve_Ferrone', 'http://dbpedia.org/resource/The_Hooters', 'http://dbpedia.org/resource/The_Peach_Kings', 'http://dbpedia.org/resource/Vicki_Sue_Robinson'], 'abstract': '"Time After Time" is a 1983 song by American singer-songwriter Cyndi Lauper, co-written with Rob Hyman. It was the second single released from her debut studio album, She\'s So Unusual (1983), with Hyman contributing backing vocals. The track was produced by Rick Chertoff and released as a single on January 27, 1984. The song became Lauper\'s first number 1 hit in the U.S. The song was written in the album\'s final stages, after "Girls Just Wanna Have Fun", "She Bop" and "All Through the Night" had been written. The writing began with the title, which Lauper had seen in TV Guide magazine, referring to the science fiction film Time After Time (1979). Music critics gave the song positive reviews, with many commending the song for being a solid and memorable love song. The song has been selected as one of the Best Love Songs of All Time by many media outlets, including Rolling Stone, Nerve, MTV and many others. "Time After Time" was also nominated for a Grammy Award for Song of the Year at the 1985 edition. The song was a success on the charts, becoming her first number-one single on the US Billboard Hot 100 chart on June 9, 1984, and remaining there for two weeks. The song reached number three on the UK Singles Chart and number six on the ARIA Singles Chart.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Jump_(Van_Halen_song)', 'track_name': 'Jump (τραγούδι, Van Halen)', 'artist': 'http://dbpedia.org/resource/Van_Halen', 'artist_name': 'Van Halen', 'wiki': 'http://en.wikipedia.org/wiki/Jump_(Van_Halen_song)', 'hometown': 'http://dbpedia.org/resource/Pasadena,_California', 'producers': ['http://dbpedia.org/resource/Andy_Johns', 'http://dbpedia.org/resource/Donn_Landee', 'http://dbpedia.org/resource/Ted_Templeman', 'http://dbpedia.org/resource/Van_Halen'], 'writers': ['http://dbpedia.org/resource/Alex_Van_Halen', 'http://dbpedia.org/resource/David_Lee_Roth', 'http://dbpedia.org/resource/Eddie_Van_Halen', 'http://dbpedia.org/resource/Michael_Anthony_(musician)'], 'awards': ['Gold', 'Platinum'], 'labels': ['http://dbpedia.org/resource/Warner_Records'], 'genres': ['http://dbpedia.org/resource/Electronic_rock', 'http://dbpedia.org/resource/Glam_metal', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Pop_rock', 'synth-rock'], 'related_artists': ['http://dbpedia.org/resource/Chickenfoot', 'http://dbpedia.org/resource/Planet_Us', 'http://dbpedia.org/resource/Sammy_Hagar_and_the_Circle'], 'abstract': '"Jump" is a song by American rock band Van Halen. It was released in December 1983 as the lead single from their album 1984. It is Van Halen\'s most successful single, reaching number 1 on the US Billboard Hot 100. The song differs from earlier Van Halen songs in that it is driven by a keyboard line, although the song does contain a guitar solo. David Lee Roth dedicated the song to martial artist Benny "The Jet" Urquidez, of whom he was a student. In 2021, Rolling Stone ranked "Jump" at number 177 on their updated list of the 500 Greatest Songs of All Time.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Womanizer_(song)', 'track_name': 'Womanizer (song)', 'artist': 'http://dbpedia.org/resource/Britney_Spears', 'artist_name': 'Britney Spears', 'wiki': 'http://en.wikipedia.org/wiki/Womanizer_(song)', 'released': '26 September 2008', 'producers': ['http://dbpedia.org/resource/The_Outsyders'], 'writers': ['http://dbpedia.org/resource/The_Outsyders'], 'awards': ['Gold', 'Platinum'], 'labels': ['http://dbpedia.org/resource/Jive_Records', 'http://dbpedia.org/resource/Zomba_Group_of_Companies'], 'genres': ['http://dbpedia.org/resource/Dance-pop', 'http://dbpedia.org/resource/Electropop'], 'related_artists': ['http://dbpedia.org/resource/Alex_Feather_Akimov', 'http://dbpedia.org/resource/Andre_Lindal', 'http://dbpedia.org/resource/Andreas_Carlsson', 'http://dbpedia.org/resource/Anthony_Preston_(record_producer)', 'http://dbpedia.org/resource/Basto', 'http://dbpedia.org/resource/Benny_Blanco', 'http://dbpedia.org/resource/Bloodshy_&amp;_Avant', 'http://dbpedia.org/resource/Boyz_N_Girlz_United', 'http://dbpedia.org/resource/Brayton_Bowman', 'http://dbpedia.org/resource/Breyan_Isaac', 'http://dbpedia.org/resource/Cherine_Anderson', 'http://dbpedia.org/resource/Chris_Braide', 'http://dbpedia.org/resource/Christian_Karlsson_(DJ)__Christian_Karlsson__1', 'http://dbpedia.org/resource/Cirkut', 'http://dbpedia.org/resource/Daniel_Savio', 'http://dbpedia.org/resource/Danja_(record_producer)', 'http://dbpedia.org/resource/Debi_Nova', 'http://dbpedia.org/resource/Dreamlab_(production_team)', 'http://dbpedia.org/resource/E._Kidd_Bogart', 'http://dbpedia.org/resource/Fredwreck', 'http://dbpedia.org/resource/Giorgio_Moroder', 'http://dbpedia.org/resource/Go_Home_Productions', 'http://dbpedia.org/resource/Guy_Sigsworth', 'http://dbpedia.org/resource/Henrik_Janson', 'http://dbpedia.org/resource/Jack_Knight_(songwriter)', 'http://dbpedia.org/resource/Jason_Evigan', 'http://dbpedia.org/resource/Jesse_Saint_John', 'http://dbpedia.org/resource/Johnny_Wright_(music_manager)', 'http://dbpedia.org/resource/Kasia_Livingston', 'http://dbpedia.org/resource/Kiley_Dean', 'http://dbpedia.org/resource/Kristian_Lundin', 'http://dbpedia.org/resource/Magnus_Lidehäll', 'http://dbpedia.org/resource/Marcella_Araica', 'http://dbpedia.org/resource/Melvin_E._Brown', 'http://dbpedia.org/resource/Michaela_Shiloh', 'http://dbpedia.org/resource/Michelle_Bell', 'http://dbpedia.org/resource/Nana_Hedin', 'http://dbpedia.org/resource/Nick_Fiorucci', 'http://dbpedia.org/resource/Otto_Knows', 'http://dbpedia.org/resource/Rami_Yacoub', 'http://dbpedia.org/resource/Raney_Shockne', 'http://dbpedia.org/resource/Robert_John_%22Mutt%22_Lange', 'http://dbpedia.org/resource/Romeo_Johnson', 'http://dbpedia.org/resource/Roy_%22Royalty%22_Hamilton', 'http://dbpedia.org/resource/Sabi_(singer)', 'http://dbpedia.org/resource/Savan_Kotecha', 'http://dbpedia.org/resource/Simon_Ellis_(record_producer)', 'http://dbpedia.org/resource/Sterling_Fox', 'http://dbpedia.org/resource/The_Outsyders', 'http://dbpedia.org/resource/The_Trak_Starz', 'http://dbpedia.org/resource/Tom_Coyne_(music_engineer)', 'http://dbpedia.org/resource/Wade_Martin_Handley', 'http://dbpedia.org/resource/Wicked_Wisdom', 'http://dbpedia.org/resource/Will.i.am', 'http://dbpedia.org/resource/Young_Fyre'], 'abstract': '"Womanizer" is a song by American singer Britney Spears from her sixth studio album, Circus (2008). It was released on September 26, 2008, by Jive Records as the lead single of the album. Produced and written by The Outsyders, the song was re-recorded after a snippet was leaked onto the internet. "Womanizer" is an up-tempo electropop and dance-pop song. Described by Spears as a girl anthem, the song\'s lyrics recall a womanizing man, while the protagonist of the song makes clear she knows who he really is. "Womanizer" received critical acclaim with critics mostly praising its hook, melody and empowering lyrics. Critics also observed it as a stand-out track from the album, while some deemed it a comeback single for Spears. It became a major global success, peaking atop of the charts in Belgium, Canada, Denmark, Finland, France, Norway, Sweden and the United States. It also reached the top ten in every country it charted in also receiving several certifications from several countries. In the United States, "Womanizer" was her first single to reach number-one since "...Baby One More Time" in 1999. The song broke the record for the highest jump to number one at a time which was later broken by Kelly Clarkson\'s "My Life Would Suck Without You" in 2009. It is also her best-selling digital song in the country, having sold over 3.5 million copies. The song received a nomination for Best Dance Recording at the 52nd Grammy Awards, becoming her second nomination in the category. The music video, directed by Joseph Kahn, was created by Spears as a sequel to the music video of "Toxic". It portrays Spears as a woman who disguises herself in different costumes and follows her boyfriend through his daily activities to expose him in the end. The video also contains interspersed scenes of Spears naked in a steam room, as a response to the attacks she had received over the years about her weight. The video was also nominated for two categories at the 2009 MTV Video Music Awards, and won for the Best Pop Video. The song has been covered by a number of artists from different genres, including Lily Allen, Franz Ferdinand and Girls Aloud. Spears performed "Womanizer" on several television shows including The X Factor and Good Morning America, as well as award shows such as the 2008 Bambi Awards. She has also performed the song at The Circus Starring Britney Spears (2009), the Femme Fatale Tour (2011) and Britney: Piece of Me (2013).'}</t>
+  </si>
+  <si>
+    <t>{'track': "http://dbpedia.org/resource/Ain't_No_Rest_for_the_Wicked", 'track_name': "Ain't No Rest for the Wicked", 'artist': 'http://dbpedia.org/resource/Cage_the_Elephant', 'artist_name': 'Cage the Elephant', 'wiki': "http://en.wikipedia.org/wiki/Ain't_No_Rest_for_the_Wicked", 'hometown': 'http://dbpedia.org/resource/Bowling_Green,_Kentucky', 'released': '16 June 2008', 'producers': ['http://dbpedia.org/resource/Jay_Joyce'], 'writers': ['http://dbpedia.org/resource/Jared_Champion', 'http://dbpedia.org/resource/Matt_Shultz'], 'awards': ['Gold', 'Platinum'], 'labels': ['http://dbpedia.org/resource/Relentless_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Blues_rock', 'http://dbpedia.org/resource/Rap_rock', 'http://dbpedia.org/resource/Southern_rock'], 'related_artists': ['http://dbpedia.org/resource/Alison_Mosshart', 'http://dbpedia.org/resource/Beck', 'http://dbpedia.org/resource/Brad_Shultz', 'http://dbpedia.org/resource/Dan_Auerbach', 'http://dbpedia.org/resource/Dave_Grohl', 'http://dbpedia.org/resource/Foo_Fighters', 'http://dbpedia.org/resource/Grouplove', 'http://dbpedia.org/resource/Iggy_Pop', 'http://dbpedia.org/resource/Jared_Champion', 'http://dbpedia.org/resource/Jay_Joyce', 'http://dbpedia.org/resource/Juliette_Lewis', 'http://dbpedia.org/resource/Matt_Shultz', 'http://dbpedia.org/resource/Morning_Teleportation', 'http://dbpedia.org/resource/Portugal._The_Man', 'http://dbpedia.org/resource/Queens_of_the_Stone_Age', 'http://dbpedia.org/resource/Randy_Merrill', 'http://dbpedia.org/resource/Rob_Cohen_(record_producer)', 'http://dbpedia.org/resource/Sleeper_Agent_(band)', 'http://dbpedia.org/resource/The_Black_Keys', 'http://dbpedia.org/resource/The_Stone_Foxes', "http://dbpedia.org/resource/Whiskey_N'_Rye"], 'abstract': '"Ain\'t No Rest for the Wicked" is the third single by the American rock band Cage the Elephant. It was released as a CD single on June 16, 2008 by Relentless Records and became the first Top 40 hit for the band in the UK. A music video was filmed for this song which was directed by D.A.R.Y.L of Pulse Films. A later re-release in North America the following year reached number 92 on the Billboard Hot 100, reached number 3 on the Alternative Songs chart and number 8 on the Mainstream Rock Tracks chart.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Boogie_Wonderland', 'track_name': 'Boogie Wonderland', 'artist': 'http://dbpedia.org/resource/Earth,_Wind_&amp;_Fire', 'artist_name': 'Earth, Wind &amp; Fire', 'wiki': 'http://en.wikipedia.org/wiki/Boogie_Wonderland', 'released': '06 May 1979', 'producers': ['http://dbpedia.org/resource/Al_McKay', 'http://dbpedia.org/resource/Maurice_White'], 'writers': ['http://dbpedia.org/resource/Allee_Willis', 'http://dbpedia.org/resource/Jon_Lind'], 'awards': ['Gold'], 'labels': ['http://dbpedia.org/resource/American_Record_Corporation', 'http://dbpedia.org/resource/Columbia_Records'], 'genres': ['http://dbpedia.org/resource/Disco', 'http://dbpedia.org/resource/Funk'], 'related_artists': ['http://dbpedia.org/resource/Al_McKay', 'http://dbpedia.org/resource/Allee_Willis', 'http://dbpedia.org/resource/Andrew_Woolfolk', 'http://dbpedia.org/resource/Bedtime_for_Toys', 'http://dbpedia.org/resource/Bill_Champlin', 'http://dbpedia.org/resource/Bob_Conti', 'http://dbpedia.org/resource/Bobby_Nunn_(R&amp;B_musician)', 'http://dbpedia.org/resource/Charles_Stepney', 'http://dbpedia.org/resource/Daniel_de_los_Reyes', 'http://dbpedia.org/resource/David_Foster', 'http://dbpedia.org/resource/Don_Blackman', 'http://dbpedia.org/resource/Don_Myrick', 'http://dbpedia.org/resource/Donny_Hathaway', 'http://dbpedia.org/resource/Earth,_Wind_&amp;_Fire_Horns', 'http://dbpedia.org/resource/Freddie_Ravel', 'http://dbpedia.org/resource/Garnett_Brown', 'http://dbpedia.org/resource/Garry_Glenn', 'http://dbpedia.org/resource/George_Duke', 'http://dbpedia.org/resource/Greg_Moore_(guitarist)', 'http://dbpedia.org/resource/JR_Hutson', 'http://dbpedia.org/resource/James_Pankow', 'http://dbpedia.org/resource/Joe_Wissert', 'http://dbpedia.org/resource/John_Paris', 'http://dbpedia.org/resource/Larry_Dunn', 'http://dbpedia.org/resource/Louis_Satterfield', 'http://dbpedia.org/resource/Martin_Page', 'http://dbpedia.org/resource/Maurice_White', 'http://dbpedia.org/resource/Mike_McKnight', 'http://dbpedia.org/resource/Morris_Pleasure', 'http://dbpedia.org/resource/New_Birth_(band)', 'http://dbpedia.org/resource/Philip_Bailey', 'http://dbpedia.org/resource/Ralph_Johnson_(musician)', 'http://dbpedia.org/resource/Ramsey_Lewis', 'http://dbpedia.org/resource/Ricky_Lawson', 'http://dbpedia.org/resource/Robert_Brookins', 'http://dbpedia.org/resource/Robert_Greenidge', 'http://dbpedia.org/resource/Roland_Bautista', 'http://dbpedia.org/resource/Ronnie_Laws', 'http://dbpedia.org/resource/Roxanne_Seeman', 'http://dbpedia.org/resource/Seawind_(band)', 'http://dbpedia.org/resource/Sheldon_Reynolds_(guitarist)', 'http://dbpedia.org/resource/Skip_Scarborough', 'http://dbpedia.org/resource/Sonny_Emory', 'http://dbpedia.org/resource/Suns_of_Light', 'http://dbpedia.org/resource/The_Chi-Lites', 'http://dbpedia.org/resource/The_Emotions', 'http://dbpedia.org/resource/The_Pharaohs', 'http://dbpedia.org/resource/The_Phenix_Horns', 'http://dbpedia.org/resource/Tony_Haynes_(American_musician)', 'http://dbpedia.org/resource/Verdine_White', 'http://dbpedia.org/resource/Wayne_Vaughn', 'http://dbpedia.org/resource/Will_Wheaton'], 'abstract': '"Boogie Wonderland" is a single by Earth, Wind &amp; Fire with the Emotions, released in April 1979 on Columbia Records. The song peaked at number 14 on the dance chart, number 6 on the Billboard Hot 100, and number 2 on the Hot Soul Singles chart. Boogie Wonderland was certified Gold in the US by the RIAA and Gold in the UK by the BPI.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Give_Me_Everything', 'track_name': 'Give Me Everything (canción de Pitbull)', 'artist': 'http://dbpedia.org/resource/Pitbull_(rapper)', 'artist_name': 'Pitbull', 'wiki': 'http://en.wikipedia.org/wiki/Give_Me_Everything', 'released': '18 March 2011', 'producers': ['http://dbpedia.org/resource/Afrojack'], 'writers': ['http://dbpedia.org/resource/Afrojack', 'http://dbpedia.org/resource/Ne-Yo', 'http://dbpedia.org/resource/Pitbull_(rapper)', 'Shaffer Smith', 'Nick van de Wall', 'Armando Pérez'], 'awards': ['Gold', 'Platinum'], 'labels': ['http://dbpedia.org/resource/J_Records', 'http://dbpedia.org/resource/Polo_Grounds_Music'], 'related_artists': ['http://dbpedia.org/resource/Adassa', 'http://dbpedia.org/resource/Afro_Brothers', 'http://dbpedia.org/resource/Ahmed_Chawki', 'http://dbpedia.org/resource/Anthony_Preston_(record_producer)', 'http://dbpedia.org/resource/Arianna_Bergamaschi', 'http://dbpedia.org/resource/Benny_Benassi', 'http://dbpedia.org/resource/Black_Point_(artist)', 'http://dbpedia.org/resource/Boy_Wonder_(producer)', 'http://dbpedia.org/resource/Breyan_Isaac', 'http://dbpedia.org/resource/Carolina_Márquez', 'http://dbpedia.org/resource/Casely', 'http://dbpedia.org/resource/Chingo_Bling', 'http://dbpedia.org/resource/Cirkut', 'http://dbpedia.org/resource/Clinton_Sparks', 'http://dbpedia.org/resource/Cory_Rooney', 'http://dbpedia.org/resource/Costi_Ioniță', 'http://dbpedia.org/resource/Cypress_Hill__Cypress_Hill__1', 'http://dbpedia.org/resource/DJ_Buddha', 'http://dbpedia.org/resource/DJ_Class', 'http://dbpedia.org/resource/DJ_Frank_E', 'http://dbpedia.org/resource/DJ_Kass', 'http://dbpedia.org/resource/DJ_Laz', 'http://dbpedia.org/resource/DJ_Shadow_Dubai', 'http://dbpedia.org/resource/DVLP', 'http://dbpedia.org/resource/Danny_Mercer', 'http://dbpedia.org/resource/David_Rush_(rapper)', 'http://dbpedia.org/resource/Domino_Saints', 'http://dbpedia.org/resource/Don_Omar', 'http://dbpedia.org/resource/Don_Yute', 'http://dbpedia.org/resource/El_Cata', 'http://dbpedia.org/resource/Flo_Rida', 'http://dbpedia.org/resource/Frankie_J', 'http://dbpedia.org/resource/Full_Blown_Entertainment', 'http://dbpedia.org/resource/Gabry_Ponte', 'http://dbpedia.org/resource/Gary_Caos', 'http://dbpedia.org/resource/Hangi_Tavakoli', 'http://dbpedia.org/resource/Jean-Roch', 'http://dbpedia.org/resource/Jim_Jonsin', 'http://dbpedia.org/resource/Joe_London', 'http://dbpedia.org/resource/Josh_Stevens', 'http://dbpedia.org/resource/Julie_Frost', 'http://dbpedia.org/resource/Julio_Voltio', 'http://dbpedia.org/resource/Ki_Fitzgerald', 'http://dbpedia.org/resource/Lil_Jon', 'http://dbpedia.org/resource/Lil_Jon__&amp;_the_East_Side_Boyz__1', 'http://dbpedia.org/resource/Livvi_Franc', 'http://dbpedia.org/resource/LunchMoney_Lewis', 'http://dbpedia.org/resource/M4SONIC', 'http://dbpedia.org/resource/Marcus_Canty', 'http://dbpedia.org/resource/Michaela_Shiloh', 'http://dbpedia.org/resource/Mohombi', 'http://dbpedia.org/resource/Nayer', 'http://dbpedia.org/resource/Nina_Sky', 'http://dbpedia.org/resource/Notch_(musician)', 'http://dbpedia.org/resource/Qwote', 'http://dbpedia.org/resource/Raney_Shockne', 'http://dbpedia.org/resource/S2Kizzy', 'http://dbpedia.org/resource/Sam_Martin_(singer)', 'http://dbpedia.org/resource/Sensato_del_Patio', 'http://dbpedia.org/resource/Sir_Nolan', 'http://dbpedia.org/resource/SoFly_and_Nius', 'http://dbpedia.org/resource/Static_&amp;_Ben_El_Tavori', 'http://dbpedia.org/resource/Stevie_B', 'http://dbpedia.org/resource/TJR_(DJ)', 'http://dbpedia.org/resource/The_New_Royales', 'http://dbpedia.org/resource/The_Rascals_(producers)', 'http://dbpedia.org/resource/The_Stereotypes', 'http://dbpedia.org/resource/Thomas_Troelsen', 'http://dbpedia.org/resource/Vassy_(singer)', 'http://dbpedia.org/resource/Wisin_&amp;_Yandel', 'http://dbpedia.org/resource/Xenia_Ghali', 'http://dbpedia.org/resource/Ying_Yang_Twins'], 'abstract': '"Give Me Everything" is a song by American rapper Pitbull, American R&amp;B singer Ne-Yo, and Dutch DJ Afrojack, featuring additional vocals from American singer Nayer. It was released on March 18, 2011, through Polo Grounds Music, Mr. 305 Entertainment, and J Records, as the second single from Pitbull\'s sixth studio album, Planet Pit (2011). The song was written by Pitbull, Ne-Yo, and Afrojack, while the latter also produced the song. Rolling Stone described the song as a "club-pop cut with a plaintive Ne-Yo chorus." In the United States, "Give Me Everything" became the first number-one single on the US Billboard Hot 100 for every artist on the record except Ne-Yo, who had previously reached number-one with his own "So Sick" in 2006. It also became Pitbull\'s first number one in the United Kingdom as the main artist. The song has also peaked at number one in Belgium, Canada, Ireland, the Netherlands and within the top-five in twelve countries. It was the seventh best-selling digital single of 2011 with worldwide sales of 8.2 million copies, making it one of the best-selling singles of all time.'}</t>
+  </si>
+  <si>
+    <t>{'track': "http://dbpedia.org/resource/That_Don't_Impress_Me_Much", 'track_name': "That Don't Impress Me Much", 'artist': 'http://dbpedia.org/resource/Shania_Twain', 'artist_name': 'Shania Twain', 'wiki': "http://en.wikipedia.org/wiki/That_Don't_Impress_Me_Much", 'released': '07 December 1998', 'producers': ['http://dbpedia.org/resource/Robert_John_%22Mutt%22_Lange', 'Robert John "Mutt" Lange'], 'writers': ['http://dbpedia.org/resource/Robert_John_%22Mutt%22_Lange', 'http://dbpedia.org/resource/Shania_Twain'], 'awards': ['Gold', 'Platinum'], 'labels': ['http://dbpedia.org/resource/Mercury_Records'], 'genres': ['http://dbpedia.org/resource/Country_pop', 'http://dbpedia.org/resource/Dance-pop'], 'related_artists': ['http://dbpedia.org/resource/Bryan_White', 'http://dbpedia.org/resource/Daniel_Joseph_Schafer', 'http://dbpedia.org/resource/David_Malachowski', 'http://dbpedia.org/resource/Harold_Shedd', 'http://dbpedia.org/resource/Jacquire_King', 'http://dbpedia.org/resource/Jake_Gosling', 'http://dbpedia.org/resource/Jason_Owen_(talent_manager)', 'http://dbpedia.org/resource/Joshua_Ray', 'http://dbpedia.org/resource/Leahy', 'http://dbpedia.org/resource/Mike_Shipley', 'http://dbpedia.org/resource/Nick_Fiorucci', 'http://dbpedia.org/resource/Orville_Peck', 'http://dbpedia.org/resource/Owsley_(musician)', 'http://dbpedia.org/resource/Robert_John_%22Mutt%22_Lange', 'http://dbpedia.org/resource/Sadaharu_Yagi', 'http://dbpedia.org/resource/Shane_Minor', 'http://dbpedia.org/resource/Steven_Goldmann', 'http://dbpedia.org/resource/Terri_Clark'], 'abstract': '"That Don\'t Impress Me Much" is a song co-written and recorded by Canadian singer Shania Twain. It was released in December 1998 as the sixth country single, and seventh single overall, from her third studio album, Come On Over (1997). It was third to pop and fourth to international markets. The song was written by Robert John "Mutt" Lange and Twain, and was originally released to North American country radio stations in late 1998. It became her third biggest single on the Billboard Hot 100 and remains one of Twain\'s biggest hits worldwide. "That Don\'t Impress Me Much" has appeared in all of Twain\'s tours (Come On Over, Up!, Rock This Country and Now). The country version was performed on the Come on Over Tour and the dance version on the Up! Tour. "That Don\'t Impress Me Much" was named Foreign Hit of the Year at the 2000 Danish Grammy Awards. A dance-pop remix of the song was used as the official song of the 2003 CONCACAF Gold Cup. It was later featured on Twain\'s Greatest Hits album.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Shout_(Tears_for_Fears_song)', 'track_name': 'Shout (Tears for Fears)', 'artist': 'http://dbpedia.org/resource/Tears_for_Fears', 'artist_name': 'Tears for Fears', 'wiki': 'http://en.wikipedia.org/wiki/Shout_(Tears_for_Fears_song)', 'hometown': 'http://dbpedia.org/resource/England', 'released': '19 November 1984', 'producers': ['http://dbpedia.org/resource/Chris_Hughes_(musician)'], 'writers': ['http://dbpedia.org/resource/Ian_Stanley', 'http://dbpedia.org/resource/Roland_Orzabal'], 'awards': ['Gold', 'Platinum', 'Silver'], 'labels': ['http://dbpedia.org/resource/Mercury_Records', 'http://dbpedia.org/resource/Phonogram_Inc.'], 'genres': ['http://dbpedia.org/resource/New_wave_music', 'http://dbpedia.org/resource/Synth-pop'], 'related_artists': ['http://dbpedia.org/resource/Graduate_(band)', 'http://dbpedia.org/resource/Neon_(British_band)', 'http://dbpedia.org/resource/Oleta_Adams'], 'abstract': '"Shout" is a song by English pop/rock band Tears for Fears, released as the second single from their second studio album, Songs from the Big Chair (1985), on 19 November 1984. Roland Orzabal performs lead vocals on the track. The single became the group\'s sixth UK top 40 hit, peaking at No. 4 in January 1985. In the US, it reached No. 1 on the Billboard Hot 100 on 3 August 1985 and remained there for three weeks. "Shout" would become one of the most successful songs of 1985, eventually reaching number 1 in multiple countries. It is regarded as one of the most recognizable songs from the mid-eighties, and is recognized by Chris True of AllMusic as a "Tears for Fears signature moment".'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/No_You_Girls', 'track_name': 'No You Girls', 'artist': 'http://dbpedia.org/resource/Franz_Ferdinand_(band)', 'artist_name': 'Franz Ferdinand', 'wiki': 'http://en.wikipedia.org/wiki/No_You_Girls', 'hometown': 'http://dbpedia.org/resource/Glasgow', 'released': '06 April 2009', 'producers': ['http://dbpedia.org/resource/Dan_Carey_(record_producer)', 'Franz Ferdinand'], 'writers': ['http://dbpedia.org/resource/Alex_Kapranos', 'http://dbpedia.org/resource/Bob_Hardy_(bassist)', 'http://dbpedia.org/resource/Nick_McCarthy', 'http://dbpedia.org/resource/Paul_Thomson'], 'labels': ['http://dbpedia.org/resource/Domino_Recording_Company'], 'genres': ['http://dbpedia.org/resource/Dance-punk', 'http://dbpedia.org/resource/Funk_rock', 'http://dbpedia.org/resource/Indie_rock', 'http://dbpedia.org/resource/New_wave_music', '*', 'new wave'], 'related_artists': ['http://dbpedia.org/resource/Alex_Kapranos', 'http://dbpedia.org/resource/Andy_Knowles', 'http://dbpedia.org/resource/BNQT', 'http://dbpedia.org/resource/Björn_Yttling', 'http://dbpedia.org/resource/Bob_Hardy_(bassist)', 'http://dbpedia.org/resource/Cenzo_Townshend', 'http://dbpedia.org/resource/Dan_Carey_(record_producer)', 'http://dbpedia.org/resource/Dino_Bardot', 'http://dbpedia.org/resource/Embryo_(band)', 'http://dbpedia.org/resource/FFS_(band)', 'http://dbpedia.org/resource/LCD_Soundsystem', 'http://dbpedia.org/resource/Miaoux_Miaoux', 'http://dbpedia.org/resource/Nick_McCarthy', 'http://dbpedia.org/resource/Paul_Thomson', 'http://dbpedia.org/resource/Ron_Mael', 'http://dbpedia.org/resource/Russell_Mael', 'http://dbpedia.org/resource/Scatter_(band)', 'http://dbpedia.org/resource/Sparks_(band)', 'http://dbpedia.org/resource/The_Karelia', 'http://dbpedia.org/resource/The_Yummy_Fur', 'http://dbpedia.org/resource/Todd_Terje'], 'abstract': '"No You Girls" is a song by Scottish indie rock band Franz Ferdinand. It was released as the second single from their third album, Tonight: Franz Ferdinand (2009), on 6 April 2009. The song received worldwide attention after being chosen for use in an iPod advertisement. It charting several countries, including the UK, where it peaked at number 22, and the U.S., where it peaked at number 106.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/The_Hills_(song)', 'track_name': 'The Hills (canción)', 'artist': 'http://dbpedia.org/resource/The_Weeknd', 'artist_name': 'The Weeknd', 'wiki': 'http://en.wikipedia.org/wiki/The_Hills_(song)', 'released': '27 May 2015', 'producers': ['http://dbpedia.org/resource/Illangelo', 'Mano'], 'writers': ['http://dbpedia.org/resource/Belly_(rapper)', 'http://dbpedia.org/resource/Illangelo', 'http://dbpedia.org/resource/The_Weeknd', 'Emmanuel Nickerson', 'Ahmad Balshe', 'Abel Tesfaye', 'Carlo Montagnese'], 'awards': ['Gold', 'Platinum'], 'labels': ['http://dbpedia.org/resource/Republic_Records', 'http://dbpedia.org/resource/XO_(record_label)'], 'genres': ['http://dbpedia.org/resource/Alternative_R&amp;B', 'http://dbpedia.org/resource/Trap_music'], 'related_artists': ['http://dbpedia.org/resource/40_(record_producer)', 'http://dbpedia.org/resource/Ali_Payami', 'http://dbpedia.org/resource/Bizzy_Crook', 'http://dbpedia.org/resource/Cashmere_Cat', 'http://dbpedia.org/resource/Cirkut', 'http://dbpedia.org/resource/Daft_Punk', 'http://dbpedia.org/resource/DannyBoyStyles', 'http://dbpedia.org/resource/Doc_McKinney', 'http://dbpedia.org/resource/Emotional_Oranges', 'http://dbpedia.org/resource/Frank_Dukes', 'http://dbpedia.org/resource/Gemini_(musician)', 'http://dbpedia.org/resource/Guy-Manuel_de_Homem-Christo', 'http://dbpedia.org/resource/Hill_Kourkoutis', 'http://dbpedia.org/resource/Joey_Stylez__Joey_Stylez__1', 'http://dbpedia.org/resource/King_Henry_(producer)', 'http://dbpedia.org/resource/Kygo', 'http://dbpedia.org/resource/Labrinth', 'http://dbpedia.org/resource/Lil_Uzi_Vert', 'http://dbpedia.org/resource/Muhsinah', 'http://dbpedia.org/resource/Nav_(rapper)', 'http://dbpedia.org/resource/Oneohtrix_Point_Never', 'http://dbpedia.org/resource/Peter_Svensson', 'http://dbpedia.org/resource/Shaun_Martin', 'http://dbpedia.org/resource/Starrah', 'http://dbpedia.org/resource/THEY.'], 'abstract': '"The Hills" is a song by Canadian singer the Weeknd. It was released on May 27, 2015, as the second single from his second studio album, Beauty Behind the Madness (2015). "The Hills" was a critical success, appearing on several year-end lists. In the singer\'s native Canada, the song peaked at number one. In the United States, the song reached number one on the Billboard Hot 100, replacing his own "Can\'t Feel My Face". It also made the top 10 in the United Kingdom, Ireland, Germany, Australia, and New Zealand. A music video for the song was released on May 27, 2015, directed by Grant Singer. In May 2019, "The Hills" was certified diamond by the Recording Industry Association of America (RIAA) for selling more than ten million copies, making it the Weeknd\'s first diamond-certified record.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Justify_(The_Rasmus_song)', 'track_name': 'Justify', 'artist': 'http://dbpedia.org/resource/The_Rasmus', 'artist_name': 'The Rasmus', 'wiki': 'http://en.wikipedia.org/wiki/Justify_(The_Rasmus_song)', 'hometown': 'http://dbpedia.org/resource/Helsinki', 'released': '30 January 2009', 'producers': ['http://dbpedia.org/resource/Desmond_Child'], 'writers': ['http://dbpedia.org/resource/Desmond_Child', 'http://dbpedia.org/resource/James_Michael', 'http://dbpedia.org/resource/Lauri_Ylönen', 'http://dbpedia.org/resource/The_Rasmus'], 'labels': ['http://dbpedia.org/resource/Playground_Music_Scandinavia'], 'genres': ['http://dbpedia.org/resource/Progressive_rock'], 'related_artists': ['http://dbpedia.org/resource/Anette_Olzon', 'http://dbpedia.org/resource/Anette_Olzon__Anette_Olzon__1', 'http://dbpedia.org/resource/Apocalyptica', 'http://dbpedia.org/resource/Art_Cruz', 'http://dbpedia.org/resource/Killer_(Finnish_band)', 'http://dbpedia.org/resource/Kwan_(band)', 'http://dbpedia.org/resource/Lauri_Ylönen', 'http://dbpedia.org/resource/Lovestone_(band)__Lovestone__1', 'http://dbpedia.org/resource/Malice_in_Wonderland_(band)', 'http://dbpedia.org/resource/The_Rasmus'], 'abstract': '"Justify" is the second single released from the 2008 album, Black Roses by the Finnish rock band, the Rasmus. The song is a symphonic rock song (pehmorock or "plush rock" in Finnish.) The first demo for "Justify" was created in Los Angeles, California at both James Michael\'s and Desmond Child\'s studios in January 2007.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Du_hast', 'track_name': 'Du hast', 'artist': 'http://dbpedia.org/resource/Rammstein', 'artist_name': 'Rammstein', 'wiki': 'http://en.wikipedia.org/wiki/Du_hast', 'hometown': 'http://dbpedia.org/resource/Berlin', 'released': '19 July 1997', 'producers': ['http://dbpedia.org/resource/Jacob_Hellner', 'http://dbpedia.org/resource/Rammstein'], 'writers': ['http://dbpedia.org/resource/Christian_Lorenz', 'http://dbpedia.org/resource/Christoph_Schneider', 'http://dbpedia.org/resource/Oliver_Riedel', 'http://dbpedia.org/resource/Paul_Landers', 'http://dbpedia.org/resource/Richard_Kruspe', 'http://dbpedia.org/resource/Till_Lindemann'], 'awards': ['Gold'], 'labels': ['http://dbpedia.org/resource/London_Recordings', 'http://dbpedia.org/resource/Motor_Music', 'http://dbpedia.org/resource/Slash_Records'], 'genres': ['http://dbpedia.org/resource/Industrial_metal', 'http://dbpedia.org/resource/Neue_Deutsche_Härte', 'http://dbpedia.org/resource/Nu_metal'], 'related_artists': ['http://dbpedia.org/resource/Feeling_B', 'http://dbpedia.org/resource/First_Arsch', 'http://dbpedia.org/resource/Jacob_Hellner'], 'abstract': '"Du hast" (German: You Have) is a song by German Neue Deutsche Härte band Rammstein. It was released as the second single from their second album Sehnsucht (1997). It has appeared on numerous soundtracks for films, most notably The Matrix: Music from the Motion Picture, How High, and the home video CKY2K. It is featured in the music video games Guitar Hero 5 and Rock Band 3. The song\'s title is a play on the homophones du hasst ("you hate") and du hast ("you have").'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Breezeblocks_(song)', 'track_name': 'Breezeblocks', 'artist': 'http://dbpedia.org/resource/Alt-J', 'artist_name': 'Alt-J', 'wiki': 'http://en.wikipedia.org/wiki/Breezeblocks_(song)', 'hometown': 'http://dbpedia.org/resource/Leeds', 'released': '18 May 2012', 'producers': ['http://dbpedia.org/resource/Charlie_Andrew'], 'writers': ['Gus Unger-Hamilton', 'Gwilym Sainsbury', 'Joe Newman', 'Thom Green'], 'awards': ['Gold', 'Platinum'], 'labels': ['http://dbpedia.org/resource/Infectious_Music'], 'genres': ['http://dbpedia.org/resource/Art_rock', 'http://dbpedia.org/resource/Indie_pop'], 'related_artists': ['http://dbpedia.org/resource/Johnny_Flynn_&amp;_The_Sussex_Wit', 'http://dbpedia.org/resource/Mountain_Man_(band)', 'http://dbpedia.org/resource/PJ_Sin_Suela', 'http://dbpedia.org/resource/Spike_Stent', 'http://dbpedia.org/resource/Thom_Sonny_Green'], 'abstract': '"Breezeblocks" is a song by British indie rock band alt-J from their debut studio album An Awesome Wave (2012). The song was released on 18 May 2012 as the album\'s second single. The song was written by Joe Newman, Gus Unger-Hamilton, Gwilym Sainsbury, Thom Green and produced by Charlie Andrew. It reached the top ten in the UK Indie and US Alternative charts, and was voted into third place in Australian radio station Triple J\'s Hottest 100 of 2012, behind "Thrift Shop" and "Little Talks".'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Only_Human_(Jonas_Brothers_song)', 'track_name': 'Only Human', 'artist': 'http://dbpedia.org/resource/Jonas_Brothers', 'artist_name': 'Jonas Brothers', 'wiki': 'http://en.wikipedia.org/wiki/Only_Human_(Jonas_Brothers_song)', 'hometown': 'http://dbpedia.org/resource/Wyckoff,_New_Jersey', 'released': '02 July 2019', 'producers': ['http://dbpedia.org/resource/Shellback_(record_producer)'], 'writers': ['http://dbpedia.org/resource/Joe_Jonas', 'http://dbpedia.org/resource/Kevin_Jonas', 'http://dbpedia.org/resource/Nick_Jonas', 'http://dbpedia.org/resource/Shellback_(record_producer)', 'Johan Schuster', 'Nicholas Jonas', 'Joseph Jonas'], 'awards': ['Gold', 'Platinum', 'Silver'], 'labels': ['http://dbpedia.org/resource/Republic_Records'], 'genres': ['http://dbpedia.org/resource/Reggae_fusion'], 'related_artists': ['http://dbpedia.org/resource/Adam_Anders', 'http://dbpedia.org/resource/Annika_Wells__Annika_Wells__1', 'http://dbpedia.org/resource/DNCE', 'http://dbpedia.org/resource/Demi_Lovato', 'http://dbpedia.org/resource/Gian_Stone', 'http://dbpedia.org/resource/Greg_Garbowsky', 'http://dbpedia.org/resource/Jack_Lawless', 'http://dbpedia.org/resource/Joel_Little', 'http://dbpedia.org/resource/John_Lloyd_Taylor', 'http://dbpedia.org/resource/Johnny_Wright_(music_manager)', 'http://dbpedia.org/resource/Karmin', 'http://dbpedia.org/resource/Ki_Fitzgerald', 'http://dbpedia.org/resource/Mark_Robinson_(drummer)', 'http://dbpedia.org/resource/Melvin_E._Brown', 'http://dbpedia.org/resource/Michael_Pollack_(musician)', 'http://dbpedia.org/resource/PJ_Bianco', 'http://dbpedia.org/resource/Randy_Merrill', 'http://dbpedia.org/resource/Sebastián_Yatra', 'http://dbpedia.org/resource/Steve_Greenberg_(record_producer)', 'http://dbpedia.org/resource/The_Rosso_Sisters'], 'abstract': '"Only Human" is a song by American pop rock group the Jonas Brothers. It was released on July 2, 2019, through Republic Records as the third and final single from their fifth studio album Happiness Begins (2019). The group co-wrote the song with its producer Shellback. "Only Human" is a reggae song that features twinkling keys, groovy bass, brass and percussive cadences in its production. Upon release, "Only Human" was met with generally favourable reviews from music critics, who praised its music style and "textured" production. Commercially, the song peaked at number 18 on both the US Billboard Hot 100 and the Canadian Hot 100. The song reached top 40 in charts of numerous territories including Australia, Hungary, Ireland, Netherlands, New Zealand, Spain, Flanders and Wallonia regions of Belgium. It was certified gold in Belgium and France and double platinum in Canada. An accompanying \'80s-themed music video directed by Anthony Mandler was released on August 13, 2019. It depicts the Jonas Brothers singing and dancing in a crowded nightclub. To promote the song, the Jonas Brothers performed "Only Human" on several occasions and also included it on the set list for their Happiness Begins Tour (2019-2020).'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Panama_(song)', 'track_name': 'Panama (song)', 'artist': 'http://dbpedia.org/resource/Van_Halen', 'artist_name': 'Van Halen', 'wiki': 'http://en.wikipedia.org/wiki/Panama_(song)', 'hometown': 'http://dbpedia.org/resource/Pasadena,_California', 'released': '18 June 1984', 'producers': ['http://dbpedia.org/resource/Ted_Templeman'], 'writers': ['http://dbpedia.org/resource/Alex_Van_Halen', 'http://dbpedia.org/resource/David_Lee_Roth', 'http://dbpedia.org/resource/Eddie_Van_Halen', 'http://dbpedia.org/resource/Michael_Anthony_(musician)'], 'labels': ['http://dbpedia.org/resource/Warner_Records'], 'genres': ['http://dbpedia.org/resource/Glam_metal', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Heavy_metal_music', 'heavy metal'], 'related_artists': ['http://dbpedia.org/resource/Alan_Fitzgerald', 'http://dbpedia.org/resource/Alex_Van_Halen', 'http://dbpedia.org/resource/Bruce_Fairbairn', 'http://dbpedia.org/resource/Chickenfoot', 'http://dbpedia.org/resource/David_Lee_Roth', 'http://dbpedia.org/resource/Free_Spirit_(band)', 'http://dbpedia.org/resource/Gary_Cherone', 'http://dbpedia.org/resource/Hagar_Schon_Aaronson_Shrieve', 'http://dbpedia.org/resource/Hurtsmile', 'http://dbpedia.org/resource/Mammoth_WVH', 'http://dbpedia.org/resource/Michael_Anthony_(musician)', 'http://dbpedia.org/resource/Mick_Jones_(Foreigner_guitarist)__Mick_Jones__1', 'http://dbpedia.org/resource/Mike_Post', 'http://dbpedia.org/resource/Mitch_Malloy', 'http://dbpedia.org/resource/Montrose_(band)', 'http://dbpedia.org/resource/Planet_Us', 'http://dbpedia.org/resource/Sammy_Hagar', 'http://dbpedia.org/resource/Sammy_Hagar_and_the_Circle', 'http://dbpedia.org/resource/Ted_Templeman__Ted_Templeman__1', 'http://dbpedia.org/resource/The_David_Lee_Roth_Band', 'http://dbpedia.org/resource/Tribe_of_Judah_(band)', 'http://dbpedia.org/resource/Wolfgang_Van_Halen'], 'abstract': '"Panama" is a song by the American rock band Van Halen. It was the third single released from the album 1984.'}</t>
   </si>
   <si>
     <t>{'track': 'http://dbpedia.org/resource/Push_(Matchbox_Twenty_song)', 'track_name': 'Push (canción de Matchbox Twenty)', 'artist': 'http://dbpedia.org/resource/Matchbox_Twenty', 'artist_name': 'Matchbox Twenty', 'wiki': 'http://en.wikipedia.org/wiki/Push_(Matchbox_Twenty_song)', 'hometown': 'http://dbpedia.org/resource/Orlando,_Florida', 'producers': ['http://dbpedia.org/resource/Matt_Serletic'], 'writers': ['http://dbpedia.org/resource/Matt_Serletic', 'http://dbpedia.org/resource/Rob_Thomas_(musician)'], 'awards': ['Platinum'], 'labels': ['http://dbpedia.org/resource/Atlantic_Records', 'http://dbpedia.org/resource/Lava_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_rock'], 'related_artists': ['http://dbpedia.org/resource/Brian_Yale', "http://dbpedia.org/resource/Class_of_'99", 'http://dbpedia.org/resource/Joey_Huffman', 'http://dbpedia.org/resource/Kyle_Cook', 'http://dbpedia.org/resource/Paul_Doucette__Paul_Doucette__1', 'http://dbpedia.org/resource/Rob_Thomas_(musician)', 'http://dbpedia.org/resource/Ryan_Shore', 'http://dbpedia.org/resource/Stacy_Jones', "http://dbpedia.org/resource/Tabitha's_Secret", 'http://dbpedia.org/resource/The_Break_and_Repair_Method'], 'abstract': '"Push" is a song by American rock band Matchbox Twenty. It was released in 1997 as the second single from their debut album, Yourself or Someone Like You (1996). After landing "Long Day" on several rock radio stations paving the way, "Push" topped the US Modern Rock Tracks chart and became one of the band\'s most successful singles. At the time of its release, "Push" was controversial for its lyrics, with many critics accusing the band of glorifying domestic violence.'}</t>
   </si>
   <si>
-    <t>{'track': 'http://dbpedia.org/resource/When_You_Were_Young', 'track_name': 'When You Were Young', 'artist': 'http://dbpedia.org/resource/The_Killers', 'artist_name': 'The Killers', 'wiki': 'http://en.wikipedia.org/wiki/When_You_Were_Young', 'released': '18 September 2006', 'producers': ['http://dbpedia.org/resource/Alan_Moulder', 'http://dbpedia.org/resource/Flood_(producer)', 'http://dbpedia.org/resource/The_Killers'], 'writers': ['http://dbpedia.org/resource/Brandon_Flowers', 'http://dbpedia.org/resource/Dave_Keuning', 'http://dbpedia.org/resource/Mark_Stoermer', 'http://dbpedia.org/resource/Ronnie_Vannucci_Jr.'], 'awards': ['Diamond', 'Gold', 'Platinum'], 'labels': ['http://dbpedia.org/resource/Island_Records', 'http://dbpedia.org/resource/Mercury_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Heartland_rock', 'http://dbpedia.org/resource/New_wave_music', 'http://dbpedia.org/resource/Post-punk_revival'], 'related_artists': ['http://dbpedia.org/resource/Alex_Cameron_(musician)', 'http://dbpedia.org/resource/Amanda_Brown_(singer)', 'http://dbpedia.org/resource/Big_Talk', 'http://dbpedia.org/resource/Brandon_Flowers', 'http://dbpedia.org/resource/Curve_(band)', 'http://dbpedia.org/resource/Dave_Keuning', 'http://dbpedia.org/resource/Faulkner_(band)', 'http://dbpedia.org/resource/Fictionist', 'http://dbpedia.org/resource/Greg_Fidelman', 'http://dbpedia.org/resource/Inviolet_Row', 'http://dbpedia.org/resource/Johnny_Marr', 'http://dbpedia.org/resource/Juanita_Stein', 'http://dbpedia.org/resource/Mark_Needham', 'http://dbpedia.org/resource/Mark_Stoermer', 'http://dbpedia.org/resource/Mt._Desolation__Mt._Desolation__1', 'http://dbpedia.org/resource/Pet_Shop_Boys', 'http://dbpedia.org/resource/Ray_Suen', 'http://dbpedia.org/resource/Ronnie_Vannucci_Jr.', 'http://dbpedia.org/resource/Ryan_Pardey', 'http://dbpedia.org/resource/Sander_van_Doorn', 'http://dbpedia.org/resource/Sara_Watkins', 'http://dbpedia.org/resource/Shawn_Everett', 'http://dbpedia.org/resource/Stuart_Price__Stuart_Price__1', 'http://dbpedia.org/resource/Ted_Sablay', 'http://dbpedia.org/resource/The_Red_Romance', 'http://dbpedia.org/resource/The_Rentals', 'http://dbpedia.org/resource/The_Sweet_Inspirations', 'http://dbpedia.org/resource/Tommy_Marth', 'http://dbpedia.org/resource/Toni_Halliday'], 'abstract': '"When You Were Young" is a song by American rock band The Killers. It was released on September 18, 2006 as the lead single from their second studio album, Sam\'s Town (2006). The song was written and produced by The Killers and co-produced by Flood and Alan Moulder. The song has proven to be one of The Killers\' most successful singles, peaking at number 14 on the Billboard Hot 100, as well as their first number one on the U.S. Modern Rock Tracks chart. Only "Mr. Brightside" and "Somebody Told Me" would stay longer on the chart and have more pop airplay. It is also their highest-charting single to date in the United Kingdom and Australia, peaking at number two and number 10 respectively.'}</t>
-  </si>
-  <si>
-    <t>{'track': "http://dbpedia.org/resource/I'm_with_You_(Avril_Lavigne_song)", 'track_name': "I'm with You (пісня Авріл Лавінь)", 'artist': 'http://dbpedia.org/resource/Avril_Lavigne', 'artist_name': 'Avril Lavigne', 'wiki': "http://en.wikipedia.org/wiki/I'm_with_You_(Avril_Lavigne_song)", 'released': '18 November 2002', 'producers': ['http://dbpedia.org/resource/The_Matrix_(team)'], 'writers': ['http://dbpedia.org/resource/Lauren_Christy', 'http://dbpedia.org/resource/Scott_Spock', 'http://dbpedia.org/resource/The_Matrix_(team)', 'Avril Lavigne', 'Graham Edwards'], 'awards': ['Gold', 'Platinum', 'Silver'], 'labels': ['http://dbpedia.org/resource/Arista_Records'], 'genres': ['http://dbpedia.org/resource/Rock_music'], 'related_artists': ['http://dbpedia.org/resource/Adam_Leber', 'http://dbpedia.org/resource/Bon_Harris', 'http://dbpedia.org/resource/Butch_Walker', 'http://dbpedia.org/resource/Chantal_Kreviazuk', 'http://dbpedia.org/resource/Chris_Rene', 'http://dbpedia.org/resource/Clif_Magness', 'http://dbpedia.org/resource/Closet_Monster_(band)', 'http://dbpedia.org/resource/Corky_James', 'http://dbpedia.org/resource/Craig_Wood_(guitarist)', 'http://dbpedia.org/resource/Curtis_Frasca', 'http://dbpedia.org/resource/Devin_Bronson', 'http://dbpedia.org/resource/Evan_Taubenfeld', 'http://dbpedia.org/resource/Jesse_Colburn', 'http://dbpedia.org/resource/Lauren_Christy', 'http://dbpedia.org/resource/Lil_Mama', 'http://dbpedia.org/resource/Mark_Howard_(producer)', 'http://dbpedia.org/resource/Mark_Spicoluk', 'http://dbpedia.org/resource/Matt_Brann', 'http://dbpedia.org/resource/Nick_Brophy', 'http://dbpedia.org/resource/Peter_Zizzo', 'http://dbpedia.org/resource/The_Matrix_(team)'], 'abstract': '"I\'m with You" is a song by Canadian singer Avril Lavigne from her debut studio album, Let Go (2002). It was written by Lavigne and The Matrix, a production team consisting of Lauren Christy, Scott Spock and Graham Edwards. The song was released as the third single from the album on November 18, 2002, by Arista Records. "I\'m with You" was Lavigne\'s first ballad released as a single. It was the second Lavigne song to be nominated for a Grammy in the categories Song of the Year and Best Female Pop Vocal Performance at the 46th Annual Grammy Awards. The song reached number four on the US Billboard Hot 100 and reached the top 10 in nine other countries, including Ireland, Italy, and New Zealand, peaking within the top five in these regions. In the US, the song topped two Billboard listings: the Adult Top 40 and the Mainstream Top 40. "I\'m with You" received radio and television airplay in Australia, but it was not officially released there. The track was nominated for several awards following its release, winning two ASCAP Awards, a BMI Pop Music Award, and a SOCAN Award.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/A_Thousand_Miles', 'track_name': 'A Thousand Miles', 'artist': 'http://dbpedia.org/resource/Vanessa_Carlton', 'artist_name': 'Vanessa Carlton', 'wiki': 'http://en.wikipedia.org/wiki/A_Thousand_Miles', 'released': '12 February 2002', 'producers': ['http://dbpedia.org/resource/Ron_Fair', 'Curtis Schweitzer'], 'writers': ['http://dbpedia.org/resource/Vanessa_Carlton'], 'awards': ['Gold', 'Platinum'], 'labels': ['http://dbpedia.org/resource/A&amp;M_Records'], 'genres': ['http://dbpedia.org/resource/Pop_music'], 'related_artists': ['http://dbpedia.org/resource/Irv_Gotti', 'http://dbpedia.org/resource/Michael_Farrell_(musician)', 'http://dbpedia.org/resource/Peter_Zizzo', 'http://dbpedia.org/resource/Ron_Fair', 'http://dbpedia.org/resource/Tristen_Gaspadarek'], 'abstract': '"A Thousand Miles" (originally titled "Interlude") is the debut single of American pop singer Vanessa Carlton. Produced by Curtis Schweitzer and Ron Fair, the song was released as the lead single for Carlton\'s album Be Not Nobody (2002). Her signature song, it became Carlton\'s breakthrough hit and one of the most popular songs of the year. To date, it remains Carlton\'s biggest hit in the United States, and her only single to reach the top ten of the Billboard Hot 100, peaking at number five. The song had widespread success worldwide, reaching number one in Australia, where it was most successful, the top five in Ireland, and the top ten in the United Kingdom, France, Italy, and the Netherlands. The song has been covered by numerous artists, including Christian Lee Hutson, Icarus the Owl, Victoria Justice, David Archuleta, Ronan Parke, the Glee cast, and Terry Crews. It has also been sampled by T.I., Cheryl and Cam’ron.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Hey_Mama_(Black_Eyed_Peas_song)', 'track_name': 'Hey Mama', 'artist': 'http://dbpedia.org/resource/Black_Eyed_Peas', 'artist_name': 'Black Eyed Peas', 'wiki': 'http://en.wikipedia.org/wiki/Hey_Mama_(Black_Eyed_Peas_song)', 'released': '12 January 2004', 'producers': ['http://dbpedia.org/resource/Will.i.am'], 'writers': ['http://dbpedia.org/resource/Apl.de.ap', 'http://dbpedia.org/resource/Taboo_(rapper)', 'http://dbpedia.org/resource/Tippa_Irie', 'http://dbpedia.org/resource/Will.i.am'], 'awards': ['Gold'], 'labels': ['http://dbpedia.org/resource/A&amp;M_Records', 'http://dbpedia.org/resource/Interscope_Records', 'http://dbpedia.org/resource/Will.i.am_Music_Group'], 'genres': ['http://dbpedia.org/resource/Dancehall', 'http://dbpedia.org/resource/Hip_hop_music'], 'related_artists': ['http://dbpedia.org/resource/A_Million_Pieces', 'http://dbpedia.org/resource/Anders_Grahn', 'http://dbpedia.org/resource/Atban_Klann', 'http://dbpedia.org/resource/Bedtime_for_Toys', 'http://dbpedia.org/resource/Bucky_Jonson', 'http://dbpedia.org/resource/DJ_Rectangle', 'http://dbpedia.org/resource/Darryl_Swann', 'http://dbpedia.org/resource/George_Pajon', 'http://dbpedia.org/resource/Jean-Baptiste_(songwriter)', 'http://dbpedia.org/resource/Jean_Luc_Ponpon', 'http://dbpedia.org/resource/Joey_Boy', 'http://dbpedia.org/resource/Johnny_Goldstein', 'http://dbpedia.org/resource/Julie_Frost', 'http://dbpedia.org/resource/Kim_Hill_(soul_musician)', 'http://dbpedia.org/resource/Kryoman', 'http://dbpedia.org/resource/Macy_Gray', 'http://dbpedia.org/resource/Noelle_Scaggs', 'http://dbpedia.org/resource/Printz_Board', 'http://dbpedia.org/resource/Rhett_Lawrence', 'http://dbpedia.org/resource/Taboo_(rapper)', 'http://dbpedia.org/resource/The_Click_Five', 'http://dbpedia.org/resource/Urban_Punk__Harrell_Harris_Jr.__1', 'http://dbpedia.org/resource/Wild_Orchid_(group)', 'http://dbpedia.org/resource/Will.i.am'], 'abstract': '"Hey Mama" is a song by the American group the Black Eyed Peas with additional vocals provided by British reggae singer Tippa Irie. It was released in 2004 as the third single from their 2003 album, Elephunk, and became a top-ten hit in 14 countries, including Australia, Canada, Germany, New Zealand, Switzerland, and the United Kingdom.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Sunday_Morning_(No_Doubt_song)', 'track_name': 'Sunday Morning (No Doubt song)', 'artist': 'http://dbpedia.org/resource/No_Doubt', 'artist_name': 'No Doubt', 'wiki': 'http://en.wikipedia.org/wiki/Sunday_Morning_(No_Doubt_song)', 'hometown': 'http://dbpedia.org/resource/Anaheim,_California', 'released': '27 May 1997', 'producers': ['http://dbpedia.org/resource/Matthew_Wilder'], 'writers': ['http://dbpedia.org/resource/Eric_Stefani', 'http://dbpedia.org/resource/Gwen_Stefani', 'http://dbpedia.org/resource/Tony_Kanal'], 'awards': ['Gold'], 'labels': ['http://dbpedia.org/resource/Interscope_Records', 'http://dbpedia.org/resource/Trauma_Records'], 'genres': ['http://dbpedia.org/resource/Pop_music', 'http://dbpedia.org/resource/Ska'], 'related_artists': ['http://dbpedia.org/resource/311_(band)', 'http://dbpedia.org/resource/Adrian_Young__Adrian_Young__1', 'http://dbpedia.org/resource/Albhy_Galuten', 'http://dbpedia.org/resource/Baauer', 'http://dbpedia.org/resource/Bedtime_for_Toys', 'http://dbpedia.org/resource/Bow_Wow_Wow', 'http://dbpedia.org/resource/Corporate_Avenger', 'http://dbpedia.org/resource/Dreamcar', 'http://dbpedia.org/resource/Elan_Atias', 'http://dbpedia.org/resource/Eric_Stefani', 'http://dbpedia.org/resource/Gabrial_McNair', 'http://dbpedia.org/resource/Invincible_Overlord', 'http://dbpedia.org/resource/Jonas_Quant', 'http://dbpedia.org/resource/Major_Lazer', 'http://dbpedia.org/resource/Matt_Costa', 'http://dbpedia.org/resource/Pink_(singer)', 'http://dbpedia.org/resource/Simon_Gogerly', 'http://dbpedia.org/resource/Spike_Stent', 'http://dbpedia.org/resource/Starpool', 'http://dbpedia.org/resource/Sublime_(band)', 'http://dbpedia.org/resource/Teedra_Moses', 'http://dbpedia.org/resource/The_Stick_People', 'http://dbpedia.org/resource/Tom_Dumont', 'http://dbpedia.org/resource/Tony_Kanal'], 'abstract': '"Sunday Morning" is a song by American band No Doubt for their third studio album, Tragic Kingdom (1995). It was written by Gwen Stefani, Eric Stefani, and Tony Kanal, produced by Matthew Wilder, and released as the record\'s fifth single on May 27, 1997. The song has also been included on their 2003 greatest hits album, The Singles 1992–2003. Its lyrics describe a romantic relationship that ended in a breakup and was inspired by a discussion that Gwen Stefani had with Kanal. The song has been described as pop and ska recording with elements of reggae and Motown (music style). "Sunday Morning" received largely positive reviews from music critics who frequently deemed it a standout track on Tragic Kingdom. It has since been included on critics\' lists of best No Doubt and Stefani-penned songs. The song was not released as a commercial single in the United States, making it ineligible to enter the Billboard Hot 100 chart. However, it managed to peak at number 35 on the Mainstream Top 40 component chart. It also reached number two in Iceland and the top 40 in Australia and Canada. Elsewhere, the song obtained lower positions. The song\'s music video, directed by Sophie Muller, was the fifth and final video made for Tragic Kingdom. It features the band playing "Sunday Morning" in a garage to a lonesome man who strolled past their house. No Doubt later prepares a large dinner for themselves and once they settle in their backyard to eat, they engage in a food fight. The band has performed the single during many of their live appearances, including at their 1995–97 Tragic Kingdom World Tour and while serving as the guest musical act on The Tonight Show with Jay Leno in April 1997. Stefani, individually, performed the track at her 2018–2020 concert residency in Las Vegas.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Separate_Ways_(Worlds_Apart)', 'track_name': 'Separate Ways (Worlds Apart)', 'artist': 'http://dbpedia.org/resource/Journey_(band)', 'artist_name': 'Journey', 'wiki': 'http://en.wikipedia.org/wiki/Separate_Ways_(Worlds_Apart)', 'hometown': 'http://dbpedia.org/resource/California', 'released': '05 January 1983', 'producers': ['http://dbpedia.org/resource/Mike_Stone_(record_producer)', '*Kevin Elson'], 'writers': ['http://dbpedia.org/resource/Jonathan_Cain', 'http://dbpedia.org/resource/Steve_Perry'], 'labels': ['http://dbpedia.org/resource/Columbia_Records'], 'genres': ['http://dbpedia.org/resource/Hard_rock'], 'related_artists': ['http://dbpedia.org/resource/Abraxas_Pool', 'http://dbpedia.org/resource/Arnel_Pineda', 'http://dbpedia.org/resource/Aynsley_Dunbar__Aynsley_Dunbar__1', 'http://dbpedia.org/resource/Bad_English', 'http://dbpedia.org/resource/Bob_Glaub', 'http://dbpedia.org/resource/Deen_Castronovo', 'http://dbpedia.org/resource/Foreigner_(band)', 'http://dbpedia.org/resource/Frumious_Bandersnatch', 'http://dbpedia.org/resource/GZR', 'http://dbpedia.org/resource/Gary_Miller_(music_producer)', 'http://dbpedia.org/resource/George_Tickner', 'http://dbpedia.org/resource/Hagar_Schon_Aaronson_Shrieve', 'http://dbpedia.org/resource/Hardline_(band)', 'http://dbpedia.org/resource/Human_Clay_(band)', 'http://dbpedia.org/resource/Jeff_Scott_Soto', 'http://dbpedia.org/resource/John_Waite', 'http://dbpedia.org/resource/Jonathan_Cain', 'http://dbpedia.org/resource/Kevin_Chalfant', 'http://dbpedia.org/resource/Larrie_Londin', 'http://dbpedia.org/resource/Mahavishnu_Orchestra', 'http://dbpedia.org/resource/Marco_Mendoza__Marco_Mendoza__1', 'http://dbpedia.org/resource/Narada_Michael_Walden', 'http://dbpedia.org/resource/Neal_Schon', 'http://dbpedia.org/resource/New_England_(band)', 'http://dbpedia.org/resource/Omar_Hakim', 'http://dbpedia.org/resource/Planet_Us', 'http://dbpedia.org/resource/Prairie_Prince', 'http://dbpedia.org/resource/Randy_Jackson', 'http://dbpedia.org/resource/Rodney_Mills', 'http://dbpedia.org/resource/Ross_Valory', 'http://dbpedia.org/resource/Roy_Thomas_Baker', 'http://dbpedia.org/resource/Santana_(band)', 'http://dbpedia.org/resource/Schon_&amp;_Hammer', 'http://dbpedia.org/resource/Soul_SirkUS', 'http://dbpedia.org/resource/Steve_Augeri', 'http://dbpedia.org/resource/Steve_Perry', 'http://dbpedia.org/resource/Steve_Smith_(American_musician)', 'http://dbpedia.org/resource/Stevie_%22Keys%22_Roseman', 'http://dbpedia.org/resource/Talisman_(band)', 'http://dbpedia.org/resource/Tall_Stories_(band)', 'http://dbpedia.org/resource/Taylor_Rhodes', 'http://dbpedia.org/resource/The_Babys', 'http://dbpedia.org/resource/The_Dead_Daisies', 'http://dbpedia.org/resource/The_New_Cars', 'http://dbpedia.org/resource/The_Storm_(American_band)', 'http://dbpedia.org/resource/Vital_Information', 'http://dbpedia.org/resource/World_Classic_Rockers'], 'abstract': '"Separate Ways (Worlds Apart)" is a song performed by Journey, recorded for their album Frontiers and released as a single on January 5, 1983. It peaked at #8 for six consecutive weeks on the Billboard Hot 100 chart, and spent four weeks at No. 1 on the Top Tracks chart. To accompany the song on MTV, the band shot its first concept video. It was a difficult experience for a variety of reasons, and received mixed reviews from critics.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Burning_Heart_(song)', 'track_name': 'Burning Heart (Survivor)', 'artist': 'http://dbpedia.org/resource/Survivor_(band)', 'artist_name': 'Survivor', 'wiki': 'http://en.wikipedia.org/wiki/Burning_Heart_(song)', 'hometown': 'http://dbpedia.org/resource/Illinois', 'producers': ['http://dbpedia.org/resource/Frankie_Sullivan', 'http://dbpedia.org/resource/Jim_Peterik'], 'writers': ['http://dbpedia.org/resource/Frankie_Sullivan', 'http://dbpedia.org/resource/Jim_Peterik'], 'awards': ['Gold', 'Silver'], 'labels': ['http://dbpedia.org/resource/Scotti_Brothers_Records'], 'genres': ['http://dbpedia.org/resource/Hard_rock'], 'related_artists': ['http://dbpedia.org/resource/Cobra_(American_band)', 'http://dbpedia.org/resource/Dave_Bickler', 'http://dbpedia.org/resource/Frankie_Sullivan', 'http://dbpedia.org/resource/Gary_Smith_(drummer)', 'http://dbpedia.org/resource/Jim_Peterik', 'http://dbpedia.org/resource/Jimi_Jamison', 'http://dbpedia.org/resource/Kyle_Woodring', 'http://dbpedia.org/resource/McAuley_Schenker_Group', 'http://dbpedia.org/resource/Robin_McAuley', 'http://dbpedia.org/resource/Target_(American_band)', 'http://dbpedia.org/resource/The_Ides_of_March_(band)'], 'abstract': '"Burning Heart" is a song by Survivor. It appeared in the 1985 film Rocky IV and on its soundtrack album. The single peaked at number 2 on the Billboard Hot 100 for two weeks in February 1986, behind "That\'s What Friends Are For" by Dionne and Friends. It was the biggest hit the band had with Jamison on lead vocals. It was also a Top 5 hit in the UK, Germany and several other European countries, and reached the Top 15 in Canada. "Burning Heart", which is about an "all or nothing" battle, was inspired by the Cold War, as shown by lyrics such as "Is it East versus West?" and "Can any nation stand alone?" The Communist East versus Capitalist West conflict is reflected in the film by the fight in the boxing ring between Rocky and Ivan Drago. The final solo and tremolo bar solos in the middle of the song were played with a Fender Stratocaster. The song was used on the final episode of HBO\'s 24/7 documentary on the 2011 NHL Winter Classic. The song was used to describe the hype and East vs. West feel surrounding the Washington Capitals\' Russian superstar Alexander Ovechkin, and the Pittsburgh Penguins\' Canadian superstar Sidney Crosby, who were the focus of attention heading into the Winter Classic. The song was also used in the sixth episode of the third season of Netflix original series, Santa Clarita Diet, "The Chicken and the Pear". The song is featured in the enhanced versions of the 2013 game Grand Theft Auto V on the in-game radio station, Los Santos Rock Radio.'}</t>
-  </si>
-  <si>
-    <t>{'track': "http://dbpedia.org/resource/Ex's_&amp;_Oh's", 'track_name': "Ex's &amp; Oh's", 'artist': 'http://dbpedia.org/resource/Elle_King', 'artist_name': 'Elle King', 'wiki': "http://en.wikipedia.org/wiki/Ex's_&amp;_Oh's", 'released': '23 September 2014', 'producers': ['Dave Bassett'], 'writers': ['http://dbpedia.org/resource/Dave_Bassett_(songwriter)', 'http://dbpedia.org/resource/Elle_King'], 'awards': ['Gold', 'Platinum'], 'labels': ['http://dbpedia.org/resource/RCA_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Blues_rock', 'http://dbpedia.org/resource/Pop_rock'], 'related_artists': ['http://dbpedia.org/resource/Miranda_Lambert', 'http://dbpedia.org/resource/Sterling_Fox'], 'abstract': '"Ex\'s &amp; Oh\'s" is a song recorded by American singer and songwriter Elle King for her debut studio album, Love Stuff (2015). It was released on September 23, 2014, as King\'s debut solo single and the album\'s lead single via RCA Records. The song achieved success in the rock genre, peaking at number 1 on the Billboard Hot Rock Songs chart, and later crossed over to adult pop radio. In June 2015, "Ex\'s &amp; Oh\'s" was certified Gold by Music Canada; it has since been certified double Platinum. "Ex\'s &amp; Oh\'s" reached the top of the Alternative Songs chart in September 2015, becoming only the second song by a solo female to reach the top since 1996 after Lorde achieved the feat in 2013 with "Royals". The song also became King\'s first and only top-10 hit on the Billboard Hot 100 to date. It also charted moderately well internationally, attaining top-10 peaks in Australia, Austria, and New Zealand, amongst others. At the 58th Grammy Awards, "Ex\'s &amp; Oh\'s" was nominated for Best Rock Performance and Best Rock Song.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Something_Good_Can_Work', 'track_name': 'Something Good Can Work', 'artist': 'http://dbpedia.org/resource/Two_Door_Cinema_Club', 'artist_name': 'Two Door Cinema Club', 'wiki': 'http://en.wikipedia.org/wiki/Something_Good_Can_Work', 'hometown': 'http://dbpedia.org/resource/Northern_Ireland', 'released': '19 February 2009', 'producers': ['http://dbpedia.org/resource/Eliot_James', 'http://dbpedia.org/resource/Two_Door_Cinema_Club', 'Lexx ', 'Alex Trimble '], 'writers': ['http://dbpedia.org/resource/Two_Door_Cinema_Club', 'Kevin Baird', 'Sam Halliday', 'Alex Trimble'], 'labels': ['http://dbpedia.org/resource/Kitsuné'], 'genres': ['http://dbpedia.org/resource/Dance-punk', 'http://dbpedia.org/resource/Indie_pop', 'http://dbpedia.org/resource/Indie_rock'], 'related_artists': ['http://dbpedia.org/resource/December_streets', 'http://dbpedia.org/resource/Delorentos', 'http://dbpedia.org/resource/Madeon', 'http://dbpedia.org/resource/Mike_Crossey'], 'abstract': '"Something Good Can Work" is the first single by the Northern Irish rock band Two Door Cinema Club. The single was first released for promotion, but was released again on 7 April 2009 after signing with Kitsuné Music. The music video, which was filmed in Gran Canaria (Canary Islands), has amassed over fourteen million views on YouTube. "Something Good Can Work" appeared as the first track on Kitsuné\'s compilation Kitsuné Maison Compilation 7. The version on this compilation is different from the final album version, featuring slightly different vocals and a more guitar-oriented sound. There is also a different music video for this version. Both "Something Good Can Work" and "Do You Want It All?" appear on Two Door Cinema Club\'s album Tourist History.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Tomorrow_(Silverchair_song)', 'track_name': 'Tomorrow (cançó de Silverchair)', 'artist': 'http://dbpedia.org/resource/Silverchair', 'artist_name': 'Silverchair', 'wiki': 'http://en.wikipedia.org/wiki/Tomorrow_(Silverchair_song)', 'hometown': 'http://dbpedia.org/resource/Newcastle,_New_South_Wales', 'released': '16 September 1994', 'producers': ['http://dbpedia.org/resource/Kevin_Shirley', 'http://dbpedia.org/resource/Phil_McKellar'], 'writers': ['http://dbpedia.org/resource/Ben_Gillies', 'http://dbpedia.org/resource/Daniel_Johns'], 'awards': ['Gold', 'Platinum'], 'labels': ['http://dbpedia.org/resource/Columbia_Records', 'http://dbpedia.org/resource/Murmur_(record_label)'], 'genres': ['http://dbpedia.org/resource/Grunge'], 'related_artists': ['http://dbpedia.org/resource/Powderfinger', 'http://dbpedia.org/resource/Tambalane', 'http://dbpedia.org/resource/The_Dissociatives', 'http://dbpedia.org/resource/The_Mess_Hall', 'http://dbpedia.org/resource/Van_Dyke_Parks'], 'abstract': '"Tomorrow" is a song by Australian rock band Silverchair, which was released on 16 September 1994 on their debut extended play album, also titled Tomorrow. The song was later released on Frogstomp, the band\'s debut studio album, in 1995. The track was written by Daniel Johns, the band\'s lead singer and guitarist, as well as drummer Ben Gillies. It was produced and engineered by Phil McKellar at the national radio station Triple J\'s studios for SBS-TV\'s show, Nomad, which aired on 16 June 1994. After the broadcast the band were signed to the Murmur label – a Sony Music subsidiary – which subsequently issued the Tomorrow EP. "Tomorrow" became a breakthrough hit for Silverchair when it reached number one on the ARIA Singles Chart in October and remained at the top position for six weeks. A re-recorded version was issued in 1995 in the United States and also peaked at number one on both the Billboard Modern Rock Tracks and the Album Rock Tracks charts; it made No. 28 on the Billboard Hot 100 Airplay chart. In the United Kingdom, the song made No. 59 on the UK Singles Chart in September 1995. At the ARIA Music Awards of 1995, the song "Tomorrow" won three awards in the categories \'Single of the Year\', \'Highest Selling Single\', and \'Breakthrough Artist – Single\'; they won two further awards for Frogstomp. In January 2018, as part of Triple M\'s "Ozzest 100", the \'most Australian\' songs of all time, "Tomorrow" was ranked number 36.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Africa_(Toto_song)', 'track_name': 'Africa (chanson de Toto)', 'artist': 'http://dbpedia.org/resource/Toto_(band)', 'artist_name': 'Toto', 'wiki': 'http://en.wikipedia.org/wiki/Africa_(Toto_song)', 'hometown': 'http://dbpedia.org/resource/Los_Angeles', 'released': '29 May 2018', 'producers': ['http://dbpedia.org/resource/Patrick_Wilson_(musician)', 'http://dbpedia.org/resource/Toto_(band)'], 'writers': ['http://dbpedia.org/resource/David_Paich', 'http://dbpedia.org/resource/Jeff_Porcaro'], 'awards': ['Gold', 'Platinum', 'Silver'], 'labels': ['http://dbpedia.org/resource/Columbia_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Pop_rock', 'http://dbpedia.org/resource/Power_pop', 'http://dbpedia.org/resource/Soft_rock'], 'related_artists': ['http://dbpedia.org/resource/Boz_Scaggs', 'http://dbpedia.org/resource/LeRoux_(band)', 'http://dbpedia.org/resource/Michael_Jackson', 'http://dbpedia.org/resource/Michael_McDonald_(musician)', 'http://dbpedia.org/resource/Seals_and_Crofts', 'http://dbpedia.org/resource/Steely_Dan', 'http://dbpedia.org/resource/Yoso'], 'abstract': '"Africa" is a song by American rock band Toto, the tenth and final track on their fourth studio album Toto IV (1982). It was released as a single in the US through Columbia Records in October 1982, the album\'s third single overall and second in Europe. The song was written by band members David Paich and Jeff Porcaro, produced by the band, and mixed by Grammy-winning engineer Elliot Scheiner. Critics praised its composition and Toto\'s performances. The song reached number one on the United States\' Billboard Hot 100 chart, the band\'s only Billboard number one, and number one on the Canadian charts. It also peaked in the top ten in the United Kingdom, Ireland, Netherlands, New Zealand, and Switzerland. The song was accompanied by a music video, which premiered in 1983, and was directed by Steve Barron, who collaborated previously with the group for "Rosanna". The video features Toto in a library, as they perform and showcase various aspects of African culture. While popular in the 1980s and 1990s, with the song being certified gold by the RIAA in 1991, "Africa" saw a resurgence in popularity via social media during the mid- to late 2010s, including a fan-requested cover by American rock band Weezer which peaked at number 51 on the Billboard Hot 100. It has since been certified six times platinum.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Till_the_World_Ends', 'track_name': 'Till the World Ends', 'artist': 'http://dbpedia.org/resource/Britney_Spears', 'artist_name': 'Britney Spears', 'wiki': 'http://en.wikipedia.org/wiki/Till_the_World_Ends', 'released': '04 March 2011', 'producers': ['http://dbpedia.org/resource/Dr._Luke', 'http://dbpedia.org/resource/Emily_Wright', '*Max Martin', '*Billboard'], 'writers': ['http://dbpedia.org/resource/Alexander_Kronlund', 'http://dbpedia.org/resource/Dr._Luke', 'http://dbpedia.org/resource/Kesha', 'http://dbpedia.org/resource/Max_Martin', '*Lukasz Gottwald'], 'awards': ['Gold', 'Platinum', 'Silver'], 'labels': ['http://dbpedia.org/resource/Jive_Records'], 'related_artists': ['http://dbpedia.org/resource/Alex_Feather_Akimov', 'http://dbpedia.org/resource/Andre_Lindal', 'http://dbpedia.org/resource/Andreas_Carlsson', 'http://dbpedia.org/resource/Anthony_Preston_(record_producer)', 'http://dbpedia.org/resource/Basto', 'http://dbpedia.org/resource/Benny_Blanco', 'http://dbpedia.org/resource/Bloodshy_&amp;_Avant', 'http://dbpedia.org/resource/Boyz_N_Girlz_United', 'http://dbpedia.org/resource/Brayton_Bowman', 'http://dbpedia.org/resource/Breyan_Isaac', 'http://dbpedia.org/resource/Cherine_Anderson', 'http://dbpedia.org/resource/Chris_Braide', 'http://dbpedia.org/resource/Christian_Karlsson_(DJ)__Christian_Karlsson__1', 'http://dbpedia.org/resource/Cirkut', 'http://dbpedia.org/resource/Daniel_Savio', 'http://dbpedia.org/resource/Danja_(record_producer)', 'http://dbpedia.org/resource/Debi_Nova', 'http://dbpedia.org/resource/Dreamlab_(production_team)', 'http://dbpedia.org/resource/E._Kidd_Bogart', 'http://dbpedia.org/resource/Fredwreck', 'http://dbpedia.org/resource/Giorgio_Moroder', 'http://dbpedia.org/resource/Go_Home_Productions', 'http://dbpedia.org/resource/Guy_Sigsworth', 'http://dbpedia.org/resource/Henrik_Janson', 'http://dbpedia.org/resource/Jack_Knight_(songwriter)', 'http://dbpedia.org/resource/Jason_Evigan', 'http://dbpedia.org/resource/Jesse_Saint_John', 'http://dbpedia.org/resource/Johnny_Wright_(music_manager)', 'http://dbpedia.org/resource/Kasia_Livingston', 'http://dbpedia.org/resource/Kiley_Dean', 'http://dbpedia.org/resource/Kristian_Lundin', 'http://dbpedia.org/resource/Magnus_Lidehäll', 'http://dbpedia.org/resource/Marcella_Araica', 'http://dbpedia.org/resource/Melvin_E._Brown', 'http://dbpedia.org/resource/Michaela_Shiloh', 'http://dbpedia.org/resource/Michelle_Bell', 'http://dbpedia.org/resource/Nana_Hedin', 'http://dbpedia.org/resource/Nick_Fiorucci', 'http://dbpedia.org/resource/Otto_Knows', 'http://dbpedia.org/resource/Rami_Yacoub', 'http://dbpedia.org/resource/Raney_Shockne', 'http://dbpedia.org/resource/Robert_John_%22Mutt%22_Lange', 'http://dbpedia.org/resource/Romeo_Johnson', 'http://dbpedia.org/resource/Roy_%22Royalty%22_Hamilton', 'http://dbpedia.org/resource/Sabi_(singer)', 'http://dbpedia.org/resource/Savan_Kotecha', 'http://dbpedia.org/resource/Simon_Ellis_(record_producer)', 'http://dbpedia.org/resource/Sterling_Fox', 'http://dbpedia.org/resource/The_Outsyders', 'http://dbpedia.org/resource/The_Trak_Starz', 'http://dbpedia.org/resource/Tom_Coyne_(music_engineer)', 'http://dbpedia.org/resource/Wade_Martin_Handley', 'http://dbpedia.org/resource/Wicked_Wisdom', 'http://dbpedia.org/resource/Will.i.am', 'http://dbpedia.org/resource/Young_Fyre'], 'abstract': '"Till the World Ends" is a song by American singer Britney Spears from her seventh studio album, Femme Fatale (2011). It was written by Kesha, Dr. Luke, Alexander Kronlund, and Max Martin, while the production was handled by Luke, Martin and Billboard. It was released as the second single from the album on March 4, 2011. "Till the World Ends" is an uptempo dance-pop and electropop song with an electro beat. It opens with sirens, and has elements of trance and Eurodance. The song features a chant-like chorus, and lyrics in which Spears sings about dancing until the end of the world. "Till the World Ends" received universal acclaim from critics, who deemed it a catchy dance track and complimented its anthemic nature. "Till the World Ends" was treated with different remixes, most notably the Femme Fatale Remix, featuring rapper Nicki Minaj and Kesha, which was released on April 25, 2011. The remix adds a rap verse by Minaj at the beginning, new vocals by Kesha, and a dubstep breakdown. The Femme Fatale Remix received positive reviews from critics, with most complimenting the diversity of the group and Minaj\'s rap. "Till the World Ends" attained international success, charted on the top-ten in several major music markets, including Australia, France, Ireland, New Zealand, Sweden and Switzerland. Spears\'s solo version reached number eight on the Billboard Hot 100. The Femme Fatale Remix propelled the single to the top five on the Canadian Hot 100 and the US Billboard Hot 100. An accompanying music video for the "Till the World Ends" was released on April 6, 2011. It portrays Spears in an underground dance party set on December 21, 2012. Critics noted the similarities with the music video for "I\'m a Slave 4 U" (2001), and predominantly gave positive reviews for it. A choreography cut was released on April 15, 2011. The video was also nominated for two categories at the 2011 MTV Video Music Awards, and went on to win Best Pop Video. Spears has performed "Till the World Ends" on television shows Good Morning America and Jimmy Kimmel Live!, and performed it with Minaj at the 2011 Billboard Music Awards. She has also performed the song as the encore of the Femme Fatale Tour (2011), Britney: Piece of Me (2013–2017), Britney: Live in Concert (2017) and Piece of Me Tour (2018).'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Would%3F', 'track_name': 'Would?', 'artist': 'http://dbpedia.org/resource/Alice_in_Chains', 'artist_name': 'Alice in Chains', 'wiki': 'http://en.wikipedia.org/wiki/Would%3F', 'hometown': 'http://dbpedia.org/resource/Washington_(state)', 'released': '30 June 1992', 'producers': ['http://dbpedia.org/resource/Rick_Parashar', '*Alice in Chains'], 'writers': ['http://dbpedia.org/resource/Jerry_Cantrell'], 'labels': ['http://dbpedia.org/resource/Columbia_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Grunge', 'http://dbpedia.org/resource/Hard_rock', '*'], 'related_artists': ["http://dbpedia.org/resource/Alice_N'_Chains", 'http://dbpedia.org/resource/Ann_Wilson', 'http://dbpedia.org/resource/Blast_(American_band)', "http://dbpedia.org/resource/Class_of_'99", 'http://dbpedia.org/resource/Comes_with_the_Fall', 'http://dbpedia.org/resource/Dave_Collins_(audio_engineer)', 'http://dbpedia.org/resource/Days_of_the_New', 'http://dbpedia.org/resource/Giraffe_Tongue_Orchestra', 'http://dbpedia.org/resource/Jerry_Cantrell', 'http://dbpedia.org/resource/Layne_Staley', 'http://dbpedia.org/resource/Mad_Season_(band)', 'http://dbpedia.org/resource/Madfly', 'http://dbpedia.org/resource/Mike_Inez', 'http://dbpedia.org/resource/Mike_Starr_(musician)', 'http://dbpedia.org/resource/Mudhoney', 'http://dbpedia.org/resource/Neon_Christ', 'http://dbpedia.org/resource/No_Walls', 'http://dbpedia.org/resource/Rick_Parashar', 'http://dbpedia.org/resource/Scott_Olson', 'http://dbpedia.org/resource/Screaming_Trees', 'http://dbpedia.org/resource/Sean_Kinney', "http://dbpedia.org/resource/Slash's_Snakepit", 'http://dbpedia.org/resource/Sleze', 'http://dbpedia.org/resource/Spys4Darwin', 'http://dbpedia.org/resource/Sun_Red_Sun', 'http://dbpedia.org/resource/Sweet_Water_(band)', 'http://dbpedia.org/resource/Wes_Scantlin', 'http://dbpedia.org/resource/William_DuVall'], 'abstract': '"Would?" is a song by Alice in Chains, written by guitarist and vocalist Jerry Cantrell as a tribute to his friend Andrew Wood, lead vocalist of Mother Love Bone, who died in 1990. Cantrell sings the verses of the song, while Layne Staley sings the chorus. The song first appeared on the soundtrack to the 1992 film Singles—where the members of Alice in Chains make a cameo appearance—and later appeared on the band\'s second studio album Dirt, also released in 1992. "Would?" was released as a single and peaked at No. 31 on Billboard\'s Mainstream Rock Tracks chart in 1992, at No. 19 in 1996, and in 2019 the song peaked at No. 15 on the Hot Rock Songs chart after it was featured in the trailer for the season 2 of the Netflix show The Punisher. The song was included on the compilation albums Nothing Safe: Best of the Box (1999), Music Bank (1999), Greatest Hits (2001), and The Essential Alice in Chains (2006). An acoustic version performed on Alice in Chains\' MTV Unplugged in 1996 was released in a live album and DVD. In 2009, "Would?" was named the 88th Best Hard Rock Song of All Time by VH1.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Renegades_of_Funk', 'track_name': 'Renegades of Funk', 'artist': 'http://dbpedia.org/resource/Rage_Against_the_Machine', 'artist_name': 'Rage Against the Machine', 'wiki': 'http://en.wikipedia.org/wiki/Renegades_of_Funk', 'released': '20 February 2001', 'producers': ['http://dbpedia.org/resource/Arthur_Baker_(musician)', 'Rick Rubin, Rage Against the Machine'], 'writers': ['http://dbpedia.org/resource/Afrika_Bambaataa', 'http://dbpedia.org/resource/Arthur_Baker_(musician)'], 'labels': ['http://dbpedia.org/resource/Tommy_Boy_Records', 'http://dbpedia.org/resource/Warner_Records'], 'genres': ['http://dbpedia.org/resource/Electro_(music)', 'http://dbpedia.org/resource/Funk_metal', 'http://dbpedia.org/resource/Hip_hop_music', 'http://dbpedia.org/resource/Rap_metal'], 'related_artists': ['http://dbpedia.org/resource/Audioslave', 'http://dbpedia.org/resource/Axis_of_Justice', 'http://dbpedia.org/resource/Brad_Wilk', 'http://dbpedia.org/resource/Chuck_D', "http://dbpedia.org/resource/Class_of_'99", 'http://dbpedia.org/resource/Greta_(band)', 'http://dbpedia.org/resource/Inside_Out_(band)', 'http://dbpedia.org/resource/Jimmy_Boyle_(record_producer)', 'http://dbpedia.org/resource/Justin_Goldberg', 'http://dbpedia.org/resource/Las_Manos_de_Filippi', 'http://dbpedia.org/resource/Lock_Up_(American_band)', 'http://dbpedia.org/resource/No_For_An_Answer', 'http://dbpedia.org/resource/One_Day_as_a_Lion__One_Day_As_A_Lion__1', 'http://dbpedia.org/resource/Prophets_of_Rage', 'http://dbpedia.org/resource/Rodney_Mills', 'http://dbpedia.org/resource/Sound_City_Players', 'http://dbpedia.org/resource/Street_Sweeper_Social_Club', 'http://dbpedia.org/resource/The_Coup', 'http://dbpedia.org/resource/The_Last_Internationale', 'http://dbpedia.org/resource/The_Nightwatchman', 'http://dbpedia.org/resource/Tim_Commerford', 'http://dbpedia.org/resource/Tom_Morello', 'http://dbpedia.org/resource/Wakrat', 'http://dbpedia.org/resource/Xombie_(band)', 'http://dbpedia.org/resource/Zack_de_la_Rocha'], 'abstract': '"Renegades of Funk" is a song written by Afrika Bambaataa, Arthur Baker, John Miller &amp; John Robie and recorded by Afrika Bambaataa &amp; Soulsonic Force. Released in 1983 as a single on the Tommy Boy label, it was also included on the 1986 album Planet Rock: The Album. The song is an eclectic fusion of electronic music and heavy percussion, with politically fused hip hop lyrics that draw a connection between past revolutionaries and bohemians to present-day street artists. It was produced and mixed by Arthur Baker and John Robie. Mastering was by Herb Powers Jr.. The song was used by the Toronto Raptors as its entrance song during home games in 2006. It is also featured as a track on the radio in the video game Grand Theft Auto: Vice City Stories. In 1985, the song was used in "The Maze", an episode in the first season of the television police drama Miami Vice. It was remade by Rage Against the Machine and released as a single in 2001. "Weird Al" Yankovic included Rage Against the Machine\'s version in his polka medley "Angry White Boy Polka" (although Tom Morello is half Kenyan and Zack de la Rocha is half Mexican) from his 2003 album Poodle Hat.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Woke_Up_This_Morning', 'track_name': 'Woke Up This Morning', 'artist': 'http://dbpedia.org/resource/Alabama_3', 'artist_name': 'Alabama 3', 'wiki': 'http://en.wikipedia.org/wiki/Woke_Up_This_Morning', 'producers': ['http://dbpedia.org/resource/Alabama_3'], 'writers': ['Jake Black', 'Rob Spragg'], 'labels': ['http://dbpedia.org/resource/One_Little_Independent_Records'], 'genres': ['http://dbpedia.org/resource/Acid_jazz', 'http://dbpedia.org/resource/Electronica', 'http://dbpedia.org/resource/Trip_hop'], 'related_artists': ['http://dbpedia.org/resource/Cam_Blackwood', 'http://dbpedia.org/resource/Eileen_Rose', 'http://dbpedia.org/resource/Morton_Valence', 'http://dbpedia.org/resource/Neck_(band)'], 'abstract': '"Woke Up This Morning" is a song by British band Alabama 3 from their 1997 album Exile on Coldharbour Lane. The song is best known as the opening theme music for The Sopranos, which used a shortened version of the "Chosen One Mix" of the song.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Rape_Me', 'track_name': 'Rape Me', 'artist': 'http://dbpedia.org/resource/Nirvana_(band)', 'artist_name': 'Nirvana', 'wiki': 'http://en.wikipedia.org/wiki/Rape_Me', 'hometown': 'http://dbpedia.org/resource/Aberdeen,_Washington', 'released': '06 December 1993', 'producers': ['http://dbpedia.org/resource/Steve_Albini'], 'writers': ['http://dbpedia.org/resource/Kurt_Cobain'], 'labels': ['http://dbpedia.org/resource/DGC_Records'], 'genres': ['http://dbpedia.org/resource/Grunge'], 'related_artists': ['http://dbpedia.org/resource/Aaron_Burckhard', 'http://dbpedia.org/resource/Antony_Hodgkinson', 'http://dbpedia.org/resource/Anywhere_(band)', 'http://dbpedia.org/resource/Big_John_Duncan', 'http://dbpedia.org/resource/Butch_Vig', 'http://dbpedia.org/resource/Chad_Channing', 'http://dbpedia.org/resource/Curt_Kirkwood', 'http://dbpedia.org/resource/Dale_Crover', 'http://dbpedia.org/resource/Dan_Peters', 'http://dbpedia.org/resource/Dinosaur_Jr.', 'http://dbpedia.org/resource/Earth_(American_band)', 'http://dbpedia.org/resource/Eyes_Adrift', 'http://dbpedia.org/resource/Fecal_Matter_(band)', 'http://dbpedia.org/resource/Flea_(musician)', 'http://dbpedia.org/resource/Flipper_(band)', 'http://dbpedia.org/resource/Foo_Fighters', 'http://dbpedia.org/resource/Germs_(band)', 'http://dbpedia.org/resource/Giants_in_the_Trees', 'http://dbpedia.org/resource/Go_Home_Productions', 'http://dbpedia.org/resource/Green_River_(band)', 'http://dbpedia.org/resource/Half_Japanese', 'http://dbpedia.org/resource/Icky_Boyfriends', 'http://dbpedia.org/resource/Jason_Everman', 'http://dbpedia.org/resource/Kiwi_Time', 'http://dbpedia.org/resource/Krist_Novoselic', 'http://dbpedia.org/resource/Kultur_Shock', 'http://dbpedia.org/resource/L7_(band)__L7__1', 'http://dbpedia.org/resource/Lori_Goldston', 'http://dbpedia.org/resource/Meat_Puppets', 'http://dbpedia.org/resource/Melora_Creager', 'http://dbpedia.org/resource/Melvins', 'http://dbpedia.org/resource/Mudhoney', 'http://dbpedia.org/resource/Pat_Smear', 'http://dbpedia.org/resource/Scream_(band)', 'http://dbpedia.org/resource/Screaming_Trees', 'http://dbpedia.org/resource/Sound_City_Players', 'http://dbpedia.org/resource/Sweet_75', 'http://dbpedia.org/resource/The_Fluid', 'http://dbpedia.org/resource/The_No_WTO_Combo', 'http://dbpedia.org/resource/The_Vaselines', 'http://dbpedia.org/resource/Van_Tard'], 'abstract': '"Rape Me" is a song by the American rock band Nirvana, written by vocalist and guitarist Kurt Cobain. It is the fourth song on the band\'s third and final studio album, In Utero, released in September 1993. It is also Nirvana\'s last single release before Cobain committed suicide in 1994. "Rape Me" was released as the album\'s second single in December 1993, packaged as a double A-side with "All Apologies". The single reached number 32 on the UK Singles Chart.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/I_Want_You_(Savage_Garden_song)', 'track_name': 'I Want You (Savage Garden)', 'artist': 'http://dbpedia.org/resource/Savage_Garden', 'artist_name': 'Savage Garden', 'wiki': 'http://en.wikipedia.org/wiki/I_Want_You_(Savage_Garden_song)', 'hometown': 'http://dbpedia.org/resource/Brisbane', 'released': '27 May 1996', 'producers': ['http://dbpedia.org/resource/Charles_Fisher_(producer)', 'http://dbpedia.org/resource/Savage_Garden'], 'writers': ['http://dbpedia.org/resource/Daniel_Jones_(musician)', 'http://dbpedia.org/resource/Darren_Hayes'], 'awards': ['Gold', 'Platinum'], 'labels': ['http://dbpedia.org/resource/Columbia_Records', 'http://dbpedia.org/resource/Village_Roadshow'], 'genres': ['http://dbpedia.org/resource/Synth-pop'], 'related_artists': ['http://dbpedia.org/resource/Aneiki', 'http://dbpedia.org/resource/Ben_Carey', 'http://dbpedia.org/resource/Christian_Argenti', 'http://dbpedia.org/resource/Darren_Hayes', 'http://dbpedia.org/resource/Ivo_Moring', 'http://dbpedia.org/resource/Jennifer_Blakeman', 'http://dbpedia.org/resource/Steve_Smith_(American_musician)', 'http://dbpedia.org/resource/Terepai_Richmond'], 'abstract': '"I Want You" is a song by Australian pop duo Savage Garden. It was originally released in Australia on 27 May 1996 as the lead single from their eponymous debut album, Savage Garden. The single reached number one in Canada for two weeks and peaked at number four in Australia and on the US Billboard Hot 100. Much of the song\'s chart success in the US was the result of Rosie O\'Donnell playing the song on several episodes of The Rosie O\'Donnell Show. The single also peaked at number nine in Iceland and at 11 on the UK Singles Chart. In November 1998, the single was re-released in the United Kingdom following the success of "Truly Madly Deeply" and "To the Moon and Back". This release peaked at number 12. At the APRA Music Awards of 1998 it won Most Performed Australian Work Overseas. In January 2018, as part of Triple M\'s "Ozzest 100", the \'most Australian\' songs of all time, the album version of the song was ranked number 87.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Boogie_Wonderland', 'track_name': 'Boogie Wonderland', 'artist': 'http://dbpedia.org/resource/Earth,_Wind_&amp;_Fire', 'artist_name': 'Earth, Wind &amp; Fire', 'wiki': 'http://en.wikipedia.org/wiki/Boogie_Wonderland', 'released': '06 May 1979', 'producers': ['http://dbpedia.org/resource/Al_McKay', 'http://dbpedia.org/resource/Maurice_White'], 'writers': ['http://dbpedia.org/resource/Allee_Willis', 'http://dbpedia.org/resource/Jon_Lind'], 'awards': ['Gold'], 'labels': ['http://dbpedia.org/resource/American_Record_Corporation', 'http://dbpedia.org/resource/Columbia_Records'], 'genres': ['http://dbpedia.org/resource/Disco', 'http://dbpedia.org/resource/Funk'], 'related_artists': ['http://dbpedia.org/resource/Al_McKay', 'http://dbpedia.org/resource/Allee_Willis', 'http://dbpedia.org/resource/Andrew_Woolfolk', 'http://dbpedia.org/resource/Bedtime_for_Toys', 'http://dbpedia.org/resource/Bill_Champlin', 'http://dbpedia.org/resource/Bob_Conti', 'http://dbpedia.org/resource/Bobby_Nunn_(R&amp;B_musician)', 'http://dbpedia.org/resource/Charles_Stepney', 'http://dbpedia.org/resource/Daniel_de_los_Reyes', 'http://dbpedia.org/resource/David_Foster', 'http://dbpedia.org/resource/Don_Blackman', 'http://dbpedia.org/resource/Don_Myrick', 'http://dbpedia.org/resource/Donny_Hathaway', 'http://dbpedia.org/resource/Earth,_Wind_&amp;_Fire_Horns', 'http://dbpedia.org/resource/Freddie_Ravel', 'http://dbpedia.org/resource/Garnett_Brown', 'http://dbpedia.org/resource/Garry_Glenn', 'http://dbpedia.org/resource/George_Duke', 'http://dbpedia.org/resource/Greg_Moore_(guitarist)', 'http://dbpedia.org/resource/JR_Hutson', 'http://dbpedia.org/resource/James_Pankow', 'http://dbpedia.org/resource/Joe_Wissert', 'http://dbpedia.org/resource/John_Paris', 'http://dbpedia.org/resource/Larry_Dunn', 'http://dbpedia.org/resource/Louis_Satterfield', 'http://dbpedia.org/resource/Martin_Page', 'http://dbpedia.org/resource/Maurice_White', 'http://dbpedia.org/resource/Mike_McKnight', 'http://dbpedia.org/resource/Morris_Pleasure', 'http://dbpedia.org/resource/New_Birth_(band)', 'http://dbpedia.org/resource/Philip_Bailey', 'http://dbpedia.org/resource/Ralph_Johnson_(musician)', 'http://dbpedia.org/resource/Ramsey_Lewis', 'http://dbpedia.org/resource/Ricky_Lawson', 'http://dbpedia.org/resource/Robert_Brookins', 'http://dbpedia.org/resource/Robert_Greenidge', 'http://dbpedia.org/resource/Roland_Bautista', 'http://dbpedia.org/resource/Ronnie_Laws', 'http://dbpedia.org/resource/Roxanne_Seeman', 'http://dbpedia.org/resource/Seawind_(band)', 'http://dbpedia.org/resource/Sheldon_Reynolds_(guitarist)', 'http://dbpedia.org/resource/Skip_Scarborough', 'http://dbpedia.org/resource/Sonny_Emory', 'http://dbpedia.org/resource/Suns_of_Light', 'http://dbpedia.org/resource/The_Chi-Lites', 'http://dbpedia.org/resource/The_Emotions', 'http://dbpedia.org/resource/The_Pharaohs', 'http://dbpedia.org/resource/The_Phenix_Horns', 'http://dbpedia.org/resource/Tony_Haynes_(American_musician)', 'http://dbpedia.org/resource/Verdine_White', 'http://dbpedia.org/resource/Wayne_Vaughn', 'http://dbpedia.org/resource/Will_Wheaton'], 'abstract': '"Boogie Wonderland" is a single by Earth, Wind &amp; Fire with the Emotions, released in April 1979 on Columbia Records. The song peaked at number 14 on the dance chart, number 6 on the Billboard Hot 100, and number 2 on the Hot Soul Singles chart. Boogie Wonderland was certified Gold in the US by the RIAA and Gold in the UK by the BPI.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/You_Belong_to_the_City', 'track_name': 'You Belong to the City', 'artist': 'http://dbpedia.org/resource/Glenn_Frey', 'artist_name': 'Glenn Frey', 'wiki': 'http://en.wikipedia.org/wiki/You_Belong_to_the_City', 'producers': ['http://dbpedia.org/resource/Glenn_Frey'], 'writers': ['http://dbpedia.org/resource/Glenn_Frey', 'http://dbpedia.org/resource/Jack_Tempchin'], 'labels': ['http://dbpedia.org/resource/MCA_Records'], 'genres': ['http://dbpedia.org/resource/New_wave_music', 'http://dbpedia.org/resource/Pop_music'], 'related_artists': ['http://dbpedia.org/resource/Bob_Seger', 'http://dbpedia.org/resource/Greg_Smith_(American_musician)__Greg_Smith__1', 'http://dbpedia.org/resource/Jay_Oliver', 'http://dbpedia.org/resource/Jim_Ed_Norman', 'http://dbpedia.org/resource/Jimmy_Buffett', 'http://dbpedia.org/resource/Max_Carl', 'http://dbpedia.org/resource/Michael_Huey', 'http://dbpedia.org/resource/Richard_F._W._Davis'], 'abstract': '"You Belong to the City" is a song written by Glenn Frey and Jack Tempchin, and recorded by Frey during his solo career. It was written specifically for the television show Miami Vice in 1985. The song peaked at number two on the US Billboard Hot 100 chart, although it did reach the top of the Billboard Top Rock Tracks chart. The song, along with Jan Hammer\'s "Miami Vice Theme", helped the Miami Vice soundtrack album reach the top spot of the Billboard 200 chart. Frey performed this song live when touring with the Eagles until 2005. A version of the Eagles performing the song can be found on their DVD Farewell Tour I: Live from Melbourne released that year.'}</t>
+    <t>{'track': 'http://dbpedia.org/resource/Radioactive_(Kings_of_Leon_song)', 'track_name': 'Radioactive', 'artist': 'http://dbpedia.org/resource/Kings_of_Leon', 'artist_name': 'Kings of Leon', 'wiki': 'http://en.wikipedia.org/wiki/Radioactive_(Kings_of_Leon_song)', 'hometown': 'http://dbpedia.org/resource/Tennessee', 'released': '14 September 2010', 'producers': ['http://dbpedia.org/resource/Angelo_Petraglia', 'http://dbpedia.org/resource/Jacquire_King'], 'writers': ['Caleb Followill', 'Jared Followill', 'Matthew Followill', 'Nathan Followill'], 'awards': ['Platinum'], 'labels': ['http://dbpedia.org/resource/RCA_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Southern_rock'], 'related_artists': ['http://dbpedia.org/resource/A_Rocket_to_the_Moon', 'http://dbpedia.org/resource/Chris_James_(audio_engineer)', 'http://dbpedia.org/resource/Ethan_Luck', 'http://dbpedia.org/resource/Jacquire_King', 'http://dbpedia.org/resource/Johanna_Bennett', 'http://dbpedia.org/resource/Levi_Lowrey', "http://dbpedia.org/resource/Liam_O'Neil_(musician)", 'http://dbpedia.org/resource/Smoke_&amp;_Jackal', 'http://dbpedia.org/resource/The_Features', 'http://dbpedia.org/resource/The_Stills', 'http://dbpedia.org/resource/Timothy_Deaux'], 'abstract': '"Radioactive" is a song by American rock band Kings of Leon, and was the first single released from their 2010 album Come Around Sundown. The song, along with its accompanying music video, premiered on September 8 on the Kings\' website. The following day, it received its official radio premiere on Australian radio, and debuted on US Alternative Radio on September 13. The song was released on US iTunes on September 14, and released at a later date in remaining countries. The song was nominated for the 53rd Grammy Awards in two categories: Best Rock Performance by a Duo or Group with Vocals and Best Rock Song.The song is used in the films I Am Number Four and Boyhood.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Ava_Adore', 'track_name': 'Ava Adore', 'artist': 'http://dbpedia.org/resource/The_Smashing_Pumpkins', 'artist_name': 'The Smashing Pumpkins', 'wiki': 'http://en.wikipedia.org/wiki/Ava_Adore', 'hometown': 'http://dbpedia.org/resource/Chicago', 'released': '18 May 1998', 'producers': ['http://dbpedia.org/resource/Brad_Wood'], 'writers': ['http://dbpedia.org/resource/Billy_Corgan'], 'labels': ['http://dbpedia.org/resource/Hut_Records', 'http://dbpedia.org/resource/Virgin_Records'], 'genres': ['http://dbpedia.org/resource/Electronic_rock', 'http://dbpedia.org/resource/Synth-pop'], 'related_artists': ['http://dbpedia.org/resource/A_Perfect_Circle', 'http://dbpedia.org/resource/Bon_Harris', 'http://dbpedia.org/resource/Brad_Wilk', 'http://dbpedia.org/resource/Butch_Vig', 'http://dbpedia.org/resource/Cupcakes_(band)', "http://dbpedia.org/resource/D'arcy_Wretzky", 'http://dbpedia.org/resource/Dana_Nielsen', 'http://dbpedia.org/resource/Dave_Navarro', 'http://dbpedia.org/resource/Dennis_Flemion', 'http://dbpedia.org/resource/Gabrial_McNair', 'http://dbpedia.org/resource/Ginger_Pooley', 'http://dbpedia.org/resource/Gingger_Shankar', 'http://dbpedia.org/resource/James_Iha', 'http://dbpedia.org/resource/Jeff_Schroeder', 'http://dbpedia.org/resource/Jimmy_Chamberlin', 'http://dbpedia.org/resource/Jimmy_Flemion', 'http://dbpedia.org/resource/Jonathan_Melvoin', 'http://dbpedia.org/resource/Katie_Cole', 'http://dbpedia.org/resource/Kenny_Aronoff', 'http://dbpedia.org/resource/Kerry_Brown_(musician)', 'http://dbpedia.org/resource/Light_FM_(band)', 'http://dbpedia.org/resource/Lisa_Harriton', 'http://dbpedia.org/resource/Marilyn_Manson_(band)', 'http://dbpedia.org/resource/Mark_Stoermer', 'http://dbpedia.org/resource/Mark_Tulin', 'http://dbpedia.org/resource/Material_Issue', 'http://dbpedia.org/resource/Matt_Cameron', 'http://dbpedia.org/resource/Matt_Walker_(drummer)', 'http://dbpedia.org/resource/Melissa_Auf_der_Maur', 'http://dbpedia.org/resource/Mike_Byrne_(musician)', 'http://dbpedia.org/resource/Nellee_Hooper', 'http://dbpedia.org/resource/Nicole_Fiorentino', 'http://dbpedia.org/resource/Roy_Thomas_Baker', 'http://dbpedia.org/resource/Starchildren', 'http://dbpedia.org/resource/Stephen_Hodges', 'http://dbpedia.org/resource/Tinted_Windows_(band)', 'http://dbpedia.org/resource/Veruca_Salt', 'http://dbpedia.org/resource/Zwan'], 'abstract': '"Ava Adore" is a song by American alternative rock band the Smashing Pumpkins. It was the first single from their fourth album, Adore, and exhibited a new sound from the band which integrated traditional instruments with loops and electronic music. "Ava Adore" and the B-sides were written by Billy Corgan. When released as a single in May 1998, "Ava Adore" reached number one in Iceland, number two in Greece, number five in New Zealand, and the top 20 in Australia, Canada, Hungary, Ireland, Norway, Sweden, and the United Kingdom. In the United States, it reached number 42 on the Billboard Hot 100, number three on the Modern Rock Tracks chart, and number eight on the Mainstream Rock chart.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Nothing_Breaks_Like_a_Heart', 'track_name': 'Nothing Breaks Like a Heart', 'artist': 'http://dbpedia.org/resource/Mark_Ronson', 'artist_name': 'Mark Ronson', 'wiki': 'http://en.wikipedia.org/wiki/Nothing_Breaks_Like_a_Heart', 'released': '29 November 2018', 'producers': ['http://dbpedia.org/resource/Jamie_xx', 'Mark Ronson', 'Picard Brothers '], 'writers': ['http://dbpedia.org/resource/Ilsey_Juber', 'http://dbpedia.org/resource/Miley_Cyrus'], 'awards': ['Diamond', 'Gold', 'Platinum', 'Platinum+Gold'], 'labels': ['http://dbpedia.org/resource/RCA_Records'], 'genres': ['http://dbpedia.org/resource/Country_music', 'http://dbpedia.org/resource/Pop_music', 'pop', 'Country-disco'], 'related_artists': ['http://dbpedia.org/resource/Alex_Greenwald', 'http://dbpedia.org/resource/Andrew_Wyatt__Andrew_Wyatt__1', 'http://dbpedia.org/resource/Angel_Olsen', 'http://dbpedia.org/resource/Best_Kept_Secret_(production_team)', 'http://dbpedia.org/resource/Big_Kap', 'http://dbpedia.org/resource/Daniel_Merriweather', 'http://dbpedia.org/resource/Dave_Audé', 'http://dbpedia.org/resource/Dave_McCabe', 'http://dbpedia.org/resource/Doc_Brown_(rapper)', 'http://dbpedia.org/resource/Domino_Kirke', 'http://dbpedia.org/resource/Duran_Duran', 'http://dbpedia.org/resource/Emile_Haynie__Emile_Haynie__1', 'http://dbpedia.org/resource/Homer_Steinweiss', 'http://dbpedia.org/resource/Jarami', 'http://dbpedia.org/resource/Jason_Iley', 'http://dbpedia.org/resource/Jordan_Galland', 'http://dbpedia.org/resource/Jr_Blender', 'http://dbpedia.org/resource/Julian_Perretta', 'http://dbpedia.org/resource/King_Henry_(producer)', 'http://dbpedia.org/resource/Nick_Hodgson', 'http://dbpedia.org/resource/Nick_Movshon', 'http://dbpedia.org/resource/Picard_Brothers', 'http://dbpedia.org/resource/Q-Tip_(musician)', 'http://dbpedia.org/resource/Raissa_(Malaysian-British_singer)', 'http://dbpedia.org/resource/Rhymefest', 'http://dbpedia.org/resource/Robert_Eibach', 'http://dbpedia.org/resource/Rose_Elinor_Dougall', 'http://dbpedia.org/resource/Samantha_Ronson', 'http://dbpedia.org/resource/Sharon_Jones_&amp;_the_Dap-Kings', 'http://dbpedia.org/resource/SugaRush_Beat_Company', 'http://dbpedia.org/resource/The_Brand_New_Heavies', 'http://dbpedia.org/resource/The_Ghost_of_a_Saber_Tooth_Tiger', 'http://dbpedia.org/resource/Thomas_Brenneck', 'http://dbpedia.org/resource/Tiger_Love_(musical_group)', 'http://dbpedia.org/resource/Victor_Axelrod', 'http://dbpedia.org/resource/Wale_(rapper)', 'http://dbpedia.org/resource/Zowie'], 'abstract': '"Nothing Breaks Like a Heart" is a song by British musician Mark Ronson featuring American singer Miley Cyrus, released on 29 November 2018 by RCA Records as the lead single from Ronson\'s fifth studio album, Late Night Feelings (2019). Peaking at number 2 on the UK Singles Chart and number 43 on the US Billboard Hot 100, the song was nominated for Song of the Year at the 2020 Brit Awards, marking Cyrus\' first ever nomination.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Video_Killed_the_Radio_Star', 'track_name': 'Video Killed the Radio Star', 'artist': 'http://dbpedia.org/resource/The_Buggles', 'artist_name': 'The Buggles', 'wiki': 'http://en.wikipedia.org/wiki/Video_Killed_the_Radio_Star', 'hometown': 'http://dbpedia.org/resource/Wimbledon,_London', 'released': '07 September 1979', 'producers': ['http://dbpedia.org/resource/Mike_Hurst_(producer)', 'The Buggles'], 'writers': ['http://dbpedia.org/resource/Bruce_Woolley', 'http://dbpedia.org/resource/Geoff_Downes', 'http://dbpedia.org/resource/Trevor_Horn'], 'awards': ['Gold', 'Platinum'], 'labels': ['http://dbpedia.org/resource/Epic_Records'], 'genres': ['New wave', 'synth-pop'], 'related_artists': ['http://dbpedia.org/resource/Art_of_Noise__Art_of_Noise__1', 'http://dbpedia.org/resource/Biddu', 'http://dbpedia.org/resource/Bruce_Woolley', 'http://dbpedia.org/resource/Geoff_Downes', 'http://dbpedia.org/resource/The_Trevor_Horn_Band', 'http://dbpedia.org/resource/Trevor_Horn', 'http://dbpedia.org/resource/Yes_(band)'], 'abstract': '"Video Killed the Radio Star" is a song written by Trevor Horn, Geoff Downes and Bruce Woolley in 1979. It was recorded concurrently by Bruce Woolley and the Camera Club (with Thomas Dolby on keyboards) for their album English Garden and by British new wave/synth-pop group the Buggles, which consisted of Horn and Downes (and initially Woolley). The Buggles\' version of the track was recorded and mixed in 1979, released as their debut single on 7 September 1979 by Island Records, and included on their first album The Age of Plastic. The backing track was recorded at Virgin\'s Town House in West London, and mixing and vocal recording was done at Sarm East Studios. The song relates to concerns about, and mixed attitudes towards 20th-century inventions and machines for the media arts. Musically, the song performs like an extended jingle and the composition plays in the key of D-flat major in common time at a tempo of 132 beats per minute. The track has been positively received, with reviewers praising its unusual musical pop elements. Although the song includes several common pop characteristics and six basic chords are used in its structure, Downes and writer Timothy Warner described the piece as musically complicated, due to its use of suspended and minor ninth chords for enhancement that gave the song a "slightly different feel." On release, the single topped sixteen international music charts, including those in the UK, Australia, and Japan. It also peaked in the top 10 in Canada, Germany, New Zealand and South Africa, but only reached number 40 in the US. The accompanying music video was written, directed, and edited by Russell Mulcahy. It was the first music video shown on MTV in the US, airing at 12:01 a.m. on 1 August 1981, and the first video shown on MTV Classic in the UK on 1 March 2010. The song has received several critical accolades, such as being ranked number 40 on VH1\'s 100 Greatest One-Hit Wonders of the \'80s. It has also been covered by many recording artists.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Alive_(Pearl_Jam_song)', 'track_name': 'Alive (песня Pearl Jam)', 'artist': 'http://dbpedia.org/resource/Pearl_Jam', 'artist_name': 'Pearl Jam', 'wiki': 'http://en.wikipedia.org/wiki/Alive_(Pearl_Jam_song)', 'hometown': 'http://dbpedia.org/resource/Washington_(state)', 'released': '07 July 1991', 'producers': ['http://dbpedia.org/resource/Rick_Parashar', 'Pearl Jam'], 'writers': ['http://dbpedia.org/resource/Eddie_Vedder', 'http://dbpedia.org/resource/Stone_Gossard'], 'awards': ['Gold', 'Silver'], 'labels': ['http://dbpedia.org/resource/Epic_Records'], 'genres': ['http://dbpedia.org/resource/Grunge'], 'related_artists': ['http://dbpedia.org/resource/Bad_Radio', 'http://dbpedia.org/resource/Ben_Harper__Ben_Harper__1', 'http://dbpedia.org/resource/Boom_Gaspar', 'http://dbpedia.org/resource/Brad_(band)', 'http://dbpedia.org/resource/Brad_Wilk', 'http://dbpedia.org/resource/Candlebox', 'http://dbpedia.org/resource/Dave_Abbruzzese', 'http://dbpedia.org/resource/Dave_Krusen', 'http://dbpedia.org/resource/Dave_Matthews_Band', 'http://dbpedia.org/resource/Goodness_(band)', 'http://dbpedia.org/resource/Green_River_(band)', 'http://dbpedia.org/resource/Hater_(band)', 'http://dbpedia.org/resource/Hovercraft_(band)', 'http://dbpedia.org/resource/Jack_Irons', 'http://dbpedia.org/resource/Jeff_Ament', 'http://dbpedia.org/resource/Jerry_Cantrell', 'http://dbpedia.org/resource/Josh_Klinghoffer', 'http://dbpedia.org/resource/Mad_Season_(band)', 'http://dbpedia.org/resource/Matt_Cameron', 'http://dbpedia.org/resource/Mike_McCready', 'http://dbpedia.org/resource/Mother_Love_Bone', 'http://dbpedia.org/resource/Neil_Young', 'http://dbpedia.org/resource/Nutmeg_(band)', 'http://dbpedia.org/resource/RNDM', 'http://dbpedia.org/resource/Rick_Parashar', 'http://dbpedia.org/resource/Rodney_Mills', 'http://dbpedia.org/resource/Shawn_Smith', 'http://dbpedia.org/resource/Simon_Townshend', 'http://dbpedia.org/resource/Stone_Gossard', 'http://dbpedia.org/resource/Temple_of_the_Dog', 'http://dbpedia.org/resource/The_Rockfords', 'http://dbpedia.org/resource/Three_Fish', 'http://dbpedia.org/resource/Tim_Finn', 'http://dbpedia.org/resource/Unified_Theory_(band)', 'http://dbpedia.org/resource/Victoria_Williams', 'http://dbpedia.org/resource/War_Babies_(band)', 'http://dbpedia.org/resource/Wellwater_Conspiracy', 'http://dbpedia.org/resource/What_Is_This%3F'], 'abstract': '"Alive" is the debut single by American rock band Pearl Jam. It was released on July 7, 1991, 51 days before the release of the band\'s debut album, Ten, on which "Alive" appears. Written by guitarist Stone Gossard, the song originated as an instrumental titled "Dollar Short" and was included on a demo tape circulated in hopes of finding a singer for the group. Vocalist Eddie Vedder obtained a copy of the tape and wrote lyrics that describe a somewhat fictionalized account of the time when he was told that the man he thought was his father was not actually his biological parent. "Alive" charted at number 16 in the United Kingdom and number nine in Australia. It was the first Pearl Jam song to receive a certification from the British Phonographic Industry, going Silver in August 2018 for sales and streams of over 200,000. It also reached the top 20 in Belgium, Ireland, the Netherlands, and New Zealand. The single was available only through import in the United States, so it was not able to chart on the Billboard Hot 100. However, the song did peak at number 16 on the Album Rock Tracks chart and number 18 on the Modern Rock Tracks chart. Remixed versions of the song were included on Pearl Jam\'s 2004 greatest hits album, Rearviewmirror (Greatest Hits 1991–2003), and the 2009 Ten reissue.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Hey_Baby_(No_Doubt_song)', 'track_name': 'Hey Baby', 'artist': 'http://dbpedia.org/resource/No_Doubt', 'artist_name': 'No Doubt', 'wiki': 'http://en.wikipedia.org/wiki/Hey_Baby_(No_Doubt_song)', 'hometown': 'http://dbpedia.org/resource/Anaheim,_California', 'producers': ['http://dbpedia.org/resource/No_Doubt', 'http://dbpedia.org/resource/Sly_and_Robbie'], 'writers': ['http://dbpedia.org/resource/Bounty_Killer', 'http://dbpedia.org/resource/Gwen_Stefani', 'http://dbpedia.org/resource/Tom_Dumont', 'http://dbpedia.org/resource/Tony_Kanal'], 'awards': ['Gold'], 'labels': ['http://dbpedia.org/resource/Interscope_Records'], 'genres': ['http://dbpedia.org/resource/Dancehall'], 'related_artists': ['http://dbpedia.org/resource/311_(band)', 'http://dbpedia.org/resource/Adrian_Young__Adrian_Young__1', 'http://dbpedia.org/resource/Albhy_Galuten', 'http://dbpedia.org/resource/Baauer', 'http://dbpedia.org/resource/Bedtime_for_Toys', 'http://dbpedia.org/resource/Bow_Wow_Wow', 'http://dbpedia.org/resource/Corporate_Avenger', 'http://dbpedia.org/resource/Dreamcar', 'http://dbpedia.org/resource/Elan_Atias', 'http://dbpedia.org/resource/Eric_Stefani', 'http://dbpedia.org/resource/Gabrial_McNair', 'http://dbpedia.org/resource/Invincible_Overlord', 'http://dbpedia.org/resource/Jonas_Quant', 'http://dbpedia.org/resource/Major_Lazer', 'http://dbpedia.org/resource/Matt_Costa', 'http://dbpedia.org/resource/Pink_(singer)', 'http://dbpedia.org/resource/Simon_Gogerly', 'http://dbpedia.org/resource/Spike_Stent', 'http://dbpedia.org/resource/Starpool', 'http://dbpedia.org/resource/Sublime_(band)', 'http://dbpedia.org/resource/Teedra_Moses', 'http://dbpedia.org/resource/The_Stick_People', 'http://dbpedia.org/resource/Tom_Dumont', 'http://dbpedia.org/resource/Tony_Kanal'], 'abstract': '"Hey Baby" is a song by the American ska band No Doubt from their fifth studio album Rock Steady (2001). Written by band members Gwen Stefani, Tony Kanal and Tom Dumont, "Hey Baby" was released as the album\'s lead single in October 2001 by Interscope Records. "Hey Baby" is heavily influenced by the Jamaican dancehall music present at No Doubt\'s post-show parties and tour bus lounges of their Return of Saturn tour. Its lyrics describe the debauchery with groupies at these parties. "Hey Baby" received generally positive reviews from music critics, although its dancehall influences had a mixed reception. An accompanying music video features scenes that mimic the parties No Doubt attending while recording the parent album in Jamaica. "Hey Baby" was commercially successful, peaking at number five on the US Billboard Hot 100. It also reached the top-ten in several other countries, including Australia, Germany, New Zealand and the United Kingdom. At the 45th Grammy Awards, No Doubt won the Grammy Award for Best Pop Performance by a Duo or Group with Vocal.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Lean_On', 'track_name': 'Lean On', 'artist': 'http://dbpedia.org/resource/Major_Lazer', 'artist_name': 'Major Lazer', 'wiki': 'http://en.wikipedia.org/wiki/Lean_On', 'hometown': 'http://dbpedia.org/resource/Miami', 'released': '02 March 2015', 'producers': ['http://dbpedia.org/resource/DJ_Snake', 'http://dbpedia.org/resource/Major_Lazer'], 'writers': ['Karen Marie Ørsted', 'Martin Bresso', 'Philip Meckseper', 'Thomas Pentz', 'William Grigahcine'], 'awards': ['Diamond', 'Gold', 'Platinum'], 'labels': ['http://dbpedia.org/resource/Mad_Decent'], 'genres': ['http://dbpedia.org/resource/Electronic_music', 'http://dbpedia.org/resource/Moombahton'], 'related_artists': ['http://dbpedia.org/resource/Afrojack', 'http://dbpedia.org/resource/Anitta_(singer)', 'http://dbpedia.org/resource/Badshah_(rapper)', 'http://dbpedia.org/resource/Boaz_van_de_Beatz', 'http://dbpedia.org/resource/Busy_Signal', 'http://dbpedia.org/resource/DJ_Snake', 'http://dbpedia.org/resource/MØ', 'http://dbpedia.org/resource/Nebat_Drums', 'http://dbpedia.org/resource/Snoop_Dogg', 'http://dbpedia.org/resource/The_Flexican'], 'abstract': '"Lean On" is a song recorded by American electronic dance music group Major Lazer and French DJ and record producer DJ Snake featuring vocals from Danish singer MØ. It was released on March 2, 2015, as the lead single from Major Lazer\'s third studio album, Peace Is the Mission (2015). It was written by MØ, Diplo, William Grigahcine, Martin Bresso and Jr Blender, and produced by Major Lazer and DJ Snake. It is an EDM, electronic and moombahton song. "Lean On" was a critical and commercial success, peaking at number four on the US Billboard Hot 100 and number two on the UK Singles Chart. It reached number one in several other countries including Argentina, Australia, Denmark, Finland, Ireland, the Netherlands, New Zealand, Mexico and Switzerland; as well as the top 10 in Austria, Belgium, Canada, Colombia, France, Israel, Italy, Norway, Poland, Spain and Sweden. In November 2015, "Lean On" was named by Spotify as the most streamed song of all time, and has over 1 billion streams globally as of June 2017; however, it was later overtaken by Drake\'s "One Dance" (2016). The accompanying music video for "Lean On" was filmed in ND Studios, Karjat, Kaul Heritage City, in Vasai in Maharashtra, India and in the Golden Hall at Stockholm City Hall. The video premiered on March 23, 2015, and has over 3 billion views on YouTube as of May 2021. According to IFPI, "Lean On" was the fifth best selling song of 2015 worldwide, and one of the best-selling singles of all time, with global sales of 13.1 million.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/I_Love_It_(Icona_Pop_song)', 'track_name': 'I Love It (Icona Pop song)', 'artist': 'http://dbpedia.org/resource/Icona_Pop', 'artist_name': 'Icona Pop', 'wiki': 'http://en.wikipedia.org/wiki/I_Love_It_(Icona_Pop_song)', 'hometown': 'http://dbpedia.org/resource/Stockholm', 'released': '09 May 2012', 'producers': ['http://dbpedia.org/resource/Style_of_Eye', 'Patrik Berger'], 'writers': ['http://dbpedia.org/resource/Charli_XCX', 'http://dbpedia.org/resource/Style_of_Eye', 'Patrik Berger', 'Charlotte Aitchison', 'Linus Eklöw'], 'awards': ['Gold', 'Platinum'], 'labels': ['http://dbpedia.org/resource/TEN_Music_Group'], 'genres': ['http://dbpedia.org/resource/Dance-pop', 'http://dbpedia.org/resource/Electropop'], 'related_artists': ['http://dbpedia.org/resource/Charli_XCX', 'http://dbpedia.org/resource/Chiddy_Bang', 'http://dbpedia.org/resource/Cobra_Starship', 'http://dbpedia.org/resource/Elliphant', 'http://dbpedia.org/resource/Empire_of_the_Sun_(band)', 'http://dbpedia.org/resource/Erik_Hassle', 'http://dbpedia.org/resource/FO&amp;O', 'http://dbpedia.org/resource/Lowell_(musician)', 'http://dbpedia.org/resource/Lucas_Nord', 'http://dbpedia.org/resource/One_Direction', 'http://dbpedia.org/resource/Peking_Duk', 'http://dbpedia.org/resource/Sirah_(rapper)', 'http://dbpedia.org/resource/Teddy_Geiger', 'http://dbpedia.org/resource/The_Cataracs', 'http://dbpedia.org/resource/Tiësto', 'http://dbpedia.org/resource/Tove_Lo', 'http://dbpedia.org/resource/Travie_McCoy', 'http://dbpedia.org/resource/Wade_Martin_Handley'], 'abstract': '"I Love It" is a song by Swedish duo Icona Pop featuring vocals from British recording artist Charli XCX. It was released as a single in May 2012 as a digital download in Sweden, where it peaked at number two on the singles chart. The song was added to their debut studio album, Icona Pop, as well as their EP Iconic and their debut international album, This Is... Icona Pop. The song received positive reviews from music critics, and publications Rolling Stone and Pitchfork included it on their year-end lists for 2012. The song went on to become Icona Pop and Charli XCX\'s first US hit, peaking at number seven on the Billboard Hot 100 and was certified double-platinum by the Recording Industry Association of America, denoting over 2 million copies sold in the United States. In June 2013, over a year after it was released elsewhere, the song charted at number 1 on the UK Singles Chart. It has gone on to sell 4.3 million certified downloads.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Take_a_Look_Around_(song)', 'track_name': 'Take a Look Around (song)', 'artist': 'http://dbpedia.org/resource/Limp_Bizkit', 'artist_name': 'Limp Bizkit', 'wiki': 'http://en.wikipedia.org/wiki/Take_a_Look_Around_(song)', 'hometown': 'http://dbpedia.org/resource/Jacksonville,_Florida', 'released': '03 July 2000', 'producers': ['http://dbpedia.org/resource/DJ_Lethal', 'http://dbpedia.org/resource/Fred_Durst'], 'writers': ['http://dbpedia.org/resource/Fred_Durst', 'http://dbpedia.org/resource/Lalo_Schifrin'], 'awards': ['Gold'], 'labels': ['http://dbpedia.org/resource/Flip_Records_(1994)', 'http://dbpedia.org/resource/Interscope_Records'], 'related_artists': ['http://dbpedia.org/resource/Aaron_Lewis', 'http://dbpedia.org/resource/Big_Dumb_Face', 'http://dbpedia.org/resource/Black_Light_Burns', 'http://dbpedia.org/resource/Cold_(band)', 'http://dbpedia.org/resource/DJ_Lethal', 'http://dbpedia.org/resource/David_Jost', 'http://dbpedia.org/resource/Fred_Durst', 'http://dbpedia.org/resource/From_First_to_Last', 'http://dbpedia.org/resource/House_of_Pain', 'http://dbpedia.org/resource/John_Otto_(drummer)', 'http://dbpedia.org/resource/Jonathan_Davis', 'http://dbpedia.org/resource/La_Coka_Nostra', 'http://dbpedia.org/resource/Mike_Smith_(guitarist)', 'http://dbpedia.org/resource/Puddle_of_Mudd', 'http://dbpedia.org/resource/Ross_Robinson', 'http://dbpedia.org/resource/Sam_Rivers_(bassist)', 'http://dbpedia.org/resource/Sammy_Siegler', 'http://dbpedia.org/resource/Scott_Borland', 'http://dbpedia.org/resource/Snot_(band)', 'http://dbpedia.org/resource/Terry_Balsamo', 'http://dbpedia.org/resource/The_Damning_Well', 'http://dbpedia.org/resource/Wes_Borland'], 'abstract': '"Take a Look Around" is a song by American rap rock band Limp Bizkit. It is the first single and tenth track on their third album, Chocolate Starfish and the Hot Dog Flavored Water, and was released on July 3, 2000. The main riff of the song is derived from the original Mission: Impossible theme composed by Lalo Schifrin and appears on the soundtrack to the 2000 film Mission: Impossible 2. In the United Kingdom, "Take a Look Around" was Limp Bizkit\'s first single release. The song became a European hit in mid-2000, reaching number one in Iceland and Portugal, number two in Finland and Spain, and number three in Italy and the UK. In addition to reaching the top 10 in several other European countries, it became a top-30 hit in Australia and New Zealand. The song received a Grammy nomination for Best Hard Rock Performance in 2001 but lost to Rage Against the Machine\'s "Guerrilla Radio". An instrumental version of "Take a Look Around" was released as a promo and later included as a B-side on some versions of the "Rollin\'" single.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Cash_Machine', 'track_name': 'Cash Machine', 'artist': 'http://dbpedia.org/resource/Hard-Fi', 'artist_name': 'Hard-Fi', 'wiki': 'http://en.wikipedia.org/wiki/Cash_Machine', 'hometown': 'http://dbpedia.org/resource/Staines-upon-Thames', 'released': '24 January 2005', 'producers': ['http://dbpedia.org/resource/Richard_Archer'], 'writers': ['http://dbpedia.org/resource/Richard_Archer'], 'labels': ['http://dbpedia.org/resource/Atlantic_Records', 'http://dbpedia.org/resource/Necessary_Records'], 'related_artists': ['http://dbpedia.org/resource/Andy_Gray_(musician)', 'http://dbpedia.org/resource/Hard-Fi', 'http://dbpedia.org/resource/Richard_Archer', 'http://dbpedia.org/resource/Ringside_(band)', 'http://dbpedia.org/resource/Steve_Kemp_(musician)', 'http://dbpedia.org/resource/Stuart_Price__Stuart_Price__1'], 'abstract': '"Cash Machine" is the debut single by English indie rock band Hard-Fi, taken from their 2005 debut album, Stars of CCTV. It was originally released on 24 January 2005, when it was ineligible in the UK Singles Chart due to the inclusion of a sticker. After the success of singles such as "Hard to Beat", it was re-released on 26 December 2005, peaking at number 14 on the UK Singles Chart and number 15 on the US Billboard Modern Rock Tracks chart. There have been three different music videos: one low-budget for the original release and two versions for the re-release.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Not_Afraid', 'track_name': 'Not Afraid', 'artist': 'http://dbpedia.org/resource/Eminem', 'artist_name': 'Eminem', 'wiki': 'http://en.wikipedia.org/wiki/Not_Afraid', 'released': '29 April 2010', 'producers': ['http://dbpedia.org/resource/Boi-1da', 'Eminem', 'Jordan Evans', 'Matthew Burnett'], 'writers': ['http://dbpedia.org/resource/Boi-1da', 'http://dbpedia.org/resource/Eminem', 'http://dbpedia.org/resource/Jordan_Evans_(record_producer)', 'http://dbpedia.org/resource/Luis_Resto_(musician)', 'http://dbpedia.org/resource/Matthew_Burnett'], 'awards': ['Diamond', 'Platinum'], 'labels': ['http://dbpedia.org/resource/Aftermath_Entertainment', 'http://dbpedia.org/resource/Interscope_Records', 'http://dbpedia.org/resource/Shady_Records'], 'genres': ['http://dbpedia.org/resource/Hip_hop_music'], 'related_artists': ['http://dbpedia.org/resource/Aalias', 'http://dbpedia.org/resource/Alex_Feather_Akimov', 'http://dbpedia.org/resource/Alex_da_Kid', 'http://dbpedia.org/resource/BJ_Burton', 'http://dbpedia.org/resource/Bass_Brothers', 'http://dbpedia.org/resource/Big_Sean', 'http://dbpedia.org/resource/Bizarre_(rapper)', 'http://dbpedia.org/resource/Bobby_Creekwater', 'http://dbpedia.org/resource/Boi-1da', 'http://dbpedia.org/resource/Cashis', 'http://dbpedia.org/resource/Champtown', 'http://dbpedia.org/resource/Che_Pope', 'http://dbpedia.org/resource/Chin_Injeti', 'http://dbpedia.org/resource/Conway_the_Machine', 'http://dbpedia.org/resource/Crooked_I', 'http://dbpedia.org/resource/D.A._Got_That_Dope', 'http://dbpedia.org/resource/DJ_Green_Lantern', 'http://dbpedia.org/resource/DJ_Head', 'http://dbpedia.org/resource/DJ_Khalil__DJ_Khalil__1', 'http://dbpedia.org/resource/DJ_Rectangle', 'http://dbpedia.org/resource/DJ_Whoo_Kid', 'http://dbpedia.org/resource/Dawaun_Parker', 'http://dbpedia.org/resource/Denaun_Porter', 'http://dbpedia.org/resource/Dido_(singer)', 'http://dbpedia.org/resource/Dylan_Wissing', 'http://dbpedia.org/resource/Emile_Haynie__Emile_Haynie__1', 'http://dbpedia.org/resource/Fred_Ball_(producer)', 'http://dbpedia.org/resource/Fredwreck', 'http://dbpedia.org/resource/Frequency_(record_producer)', 'http://dbpedia.org/resource/Havoc_(musician)', 'http://dbpedia.org/resource/Hittman', 'http://dbpedia.org/resource/Hush_(rapper)', 'http://dbpedia.org/resource/J.Oliver', 'http://dbpedia.org/resource/Jared_Lee_Gosselin', 'http://dbpedia.org/resource/Jeff_Bass', 'http://dbpedia.org/resource/Jessie_Reyez', 'http://dbpedia.org/resource/Jim_Jonsin', 'http://dbpedia.org/resource/Josh_Stevens', 'http://dbpedia.org/resource/Joyner_Lucas', 'http://dbpedia.org/resource/King_Gordy', 'http://dbpedia.org/resource/Kobe_(singer)', 'http://dbpedia.org/resource/Luis_Resto_(musician)', 'http://dbpedia.org/resource/Mark_Batson', 'http://dbpedia.org/resource/Melvin_%22Mel-Man%22_Bradford', 'http://dbpedia.org/resource/Mike_Elizondo', 'http://dbpedia.org/resource/Nate_Dogg', 'http://dbpedia.org/resource/Obie_Trice', 'http://dbpedia.org/resource/Pacewon', 'http://dbpedia.org/resource/Paul_Rosenberg_(music_manager)', 'http://dbpedia.org/resource/Rahki', 'http://dbpedia.org/resource/Ronny_J', 'http://dbpedia.org/resource/Scram_Jones', 'http://dbpedia.org/resource/Skipp_Whitman', 'http://dbpedia.org/resource/Skylar_Grey', 'http://dbpedia.org/resource/Slaughterhouse_(group)', 'http://dbpedia.org/resource/Stat_Quo', 'http://dbpedia.org/resource/Steve_King_(audio_engineer)', 'http://dbpedia.org/resource/Sticky_Fingaz', 'http://dbpedia.org/resource/Sway_&amp;_King_Tech', 'http://dbpedia.org/resource/Symbolyc_One', 'http://dbpedia.org/resource/Terry_Dexter', 'http://dbpedia.org/resource/The_45_King', 'http://dbpedia.org/resource/The_Alchemist_(musician)', 'http://dbpedia.org/resource/The_High_&amp;_Mighty', 'http://dbpedia.org/resource/The_Maven_Boys', 'http://dbpedia.org/resource/The_New_Royales', 'http://dbpedia.org/resource/Theron_Feemster', 'http://dbpedia.org/resource/Tommy_Coster', 'http://dbpedia.org/resource/Trick_Trick', 'http://dbpedia.org/resource/Truth_Hurts_(singer)', 'http://dbpedia.org/resource/Westside_Boogie', 'http://dbpedia.org/resource/Westside_Gunn', 'http://dbpedia.org/resource/X_Ambassadors', 'http://dbpedia.org/resource/Yelawolf', 'http://dbpedia.org/resource/Young_Zee'], 'abstract': '"Not Afraid" is a song by American rapper Eminem from his seventh studio album Recovery (2010). It was released as the album\'s lead single on April 29, 2010, by Interscope Records. "Not Afraid" was first revealed as a single by Eminem via Twitter, after which the song debuted on radio. To promote the single\'s release, a freestyle rap, "Despicable", was released on the Internet and received attention for its tone and lyrical content. "Not Afraid" was written and produced by Eminem, Boi-1da, Jordan Evans and Matthew Burnett; keyboardist Luis Resto was also attributed with songwriting credit. According to Eminem\'s manager Paul Rosenberg and music critics, "Not Afraid" carries a positive message and depicts Eminem\'s change in direction from drugs and violence. The hip hop song features a choir that assists Eminem in a heavily layered chorus and vocals are sung over a guitar, synthesizer and piano; no Auto-Tune was used on the sung vocals, but many reverberation tools were. "Not Afraid" received positive reviews from music critics, who praised the song for being anthemic in nature and carrying a positive message. The song did, however, face criticism for its sudden change in theme from previous singles, and was considered to be less affecting than some of his other songs. Despite mixed reception, "Not Afraid" became the 16th song in Billboard history to debut on the Billboard Hot 100 at number one; it also debuted as a chart-topper in Canada. In June 2014 the song was certified 10× Platinum by RIAA, making Eminem the first artist with digital diamond awards for two songs. "Not Afraid" has earned Eminem MTV Video Music Awards, MTV Video Music Awards Japan, Grammy Awards, Billboard Music Awards and Detroit Music Awards. The song was accompanied by a music video, which Rich Lee directed in May 2010. New York City and Newark, New Jersey were chosen as settings to shoot the video. Reviewers praised the video as it followed the lyrics and praised the video for such depictions. However, the product placement in the video by Nike shoes and Beats by Dr. Dre headphones was criticized. In 2010, Eminem performed "Not Afraid" at Electronic Entertainment Expo 2010 (E3 2010), Oxegen 2010, T in the Park 2010 and the 2010 MTV Video Music Awards. He has also performed the song at the Bonnaroo Music Festival, Lollapalooza and the V Festival. Rolling Stone ranked it the 24th best song of 2010.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Save_a_Prayer', 'track_name': 'Save a Prayer', 'artist': 'http://dbpedia.org/resource/Duran_Duran', 'artist_name': 'Duran Duran', 'wiki': 'http://en.wikipedia.org/wiki/Save_a_Prayer', 'hometown': 'http://dbpedia.org/resource/Birmingham', 'producers': ['http://dbpedia.org/resource/Colin_Thurston', 'http://dbpedia.org/resource/Josh_Homme'], 'writers': ['http://dbpedia.org/resource/Andy_Taylor_(guitarist)', 'http://dbpedia.org/resource/John_Taylor_(bass_guitarist)', 'http://dbpedia.org/resource/Nick_Rhodes', 'http://dbpedia.org/resource/Roger_Taylor_(Duran_Duran_drummer)', 'http://dbpedia.org/resource/Simon_Le_Bon'], 'labels': ['http://dbpedia.org/resource/Capitol_Records', 'http://dbpedia.org/resource/EMI'], 'genres': ['http://dbpedia.org/resource/New_wave_music', 'http://dbpedia.org/resource/Synth-pop'], 'related_artists': ['http://dbpedia.org/resource/Arcadia_(band)', 'http://dbpedia.org/resource/Chicanery', 'http://dbpedia.org/resource/John_Frusciante', 'http://dbpedia.org/resource/Mark_Ronson', 'http://dbpedia.org/resource/Missing_Persons_(band)', 'http://dbpedia.org/resource/Neurotic_Outsiders', 'http://dbpedia.org/resource/Robert_Palmer_(singer)', 'http://dbpedia.org/resource/TV_Mania', 'http://dbpedia.org/resource/The_Devils_(band)', 'http://dbpedia.org/resource/The_Power_Station_(band)', 'http://dbpedia.org/resource/Thunder_(band)'], 'abstract': '"Save a Prayer" is the sixth single by the English new wave band Duran Duran, released on 9 August 1982. The song was the third single taken from their second album Rio (1982). It became Duran Duran\'s biggest hit (at the time) on the UK Singles Chart, reaching number two, held out of the top spot by Survivor\'s "Eye of the Tiger". It was not originally issued as a single in the United States, although the music video was very popular on MTV. A special US single version was finally released in January 1985 and reached number 16 on the Billboard Hot 100.'}</t>
+  </si>
+  <si>
+    <t>{'track': "http://dbpedia.org/resource/What's_This_Life_For", 'track_name': "What's This Life For", 'artist': 'http://dbpedia.org/resource/Creed_(band)', 'artist_name': 'Creed', 'wiki': "http://en.wikipedia.org/wiki/What's_This_Life_For", 'hometown': 'http://dbpedia.org/resource/Tallahassee,_Florida', 'released': '09 June 1998', 'writers': ['http://dbpedia.org/resource/Mark_Tremont